--- a/data/MOL.MI.xlsx
+++ b/data/MOL.MI.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1467" uniqueCount="1467">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1468" uniqueCount="1468">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -38,13 +38,13 @@
     <t xml:space="preserve">ticker</t>
   </si>
   <si>
-    <t xml:space="preserve">7.05242395401001</t>
+    <t xml:space="preserve">7.05242443084717</t>
   </si>
   <si>
     <t xml:space="preserve">MOL.MI</t>
   </si>
   <si>
-    <t xml:space="preserve">6.95675182342529</t>
+    <t xml:space="preserve">6.95675277709961</t>
   </si>
   <si>
     <t xml:space="preserve">6.8565239906311</t>
@@ -53,7 +53,7 @@
     <t xml:space="preserve">6.97041940689087</t>
   </si>
   <si>
-    <t xml:space="preserve">6.83374452590942</t>
+    <t xml:space="preserve">6.83374404907227</t>
   </si>
   <si>
     <t xml:space="preserve">6.92486143112183</t>
@@ -62,22 +62,22 @@
     <t xml:space="preserve">7.01597785949707</t>
   </si>
   <si>
-    <t xml:space="preserve">6.74262857437134</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.50572443008423</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.27793312072754</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.53761529922485</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.42371988296509</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.75173902511597</t>
+    <t xml:space="preserve">6.74262809753418</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.50572538375854</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.27793264389038</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.53761577606201</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.42372035980225</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.75173950195312</t>
   </si>
   <si>
     <t xml:space="preserve">6.65151119232178</t>
@@ -86,25 +86,25 @@
     <t xml:space="preserve">6.0683650970459</t>
   </si>
   <si>
-    <t xml:space="preserve">6.71529340744019</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.85196733474731</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.96130704879761</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.86107969284058</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.88841438293457</t>
+    <t xml:space="preserve">6.71529293060303</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.85196828842163</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.96130752563477</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.86107921600342</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.88841485977173</t>
   </si>
   <si>
     <t xml:space="preserve">6.87930297851562</t>
   </si>
   <si>
-    <t xml:space="preserve">6.19592809677124</t>
+    <t xml:space="preserve">6.1959285736084</t>
   </si>
   <si>
     <t xml:space="preserve">6.07292127609253</t>
@@ -113,79 +113,79 @@
     <t xml:space="preserve">6.46927833557129</t>
   </si>
   <si>
-    <t xml:space="preserve">6.2414870262146</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.43738746643066</t>
+    <t xml:space="preserve">6.24148654937744</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.43738794326782</t>
   </si>
   <si>
     <t xml:space="preserve">6.58772993087769</t>
   </si>
   <si>
-    <t xml:space="preserve">6.52850484848022</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.70162534713745</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.51939249038696</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.61506509780884</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.57861709594727</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.49205827713013</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.59684085845947</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.54217100143433</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.82918834686279</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.62417697906494</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.4100513458252</t>
+    <t xml:space="preserve">6.52850389480591</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.70162582397461</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.51939153671265</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.615065574646</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.57861804962158</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.49205684661865</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.59684133529663</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.5421724319458</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.82918882369995</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.62417650222778</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.41005182266235</t>
   </si>
   <si>
     <t xml:space="preserve">6.42827558517456</t>
   </si>
   <si>
-    <t xml:space="preserve">6.46016693115234</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.45105409622192</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.82463216781616</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.62873220443726</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.6013970375061</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.64240026473999</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.64695596694946</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.55583906173706</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.37816095352173</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.24604272842407</t>
+    <t xml:space="preserve">6.46016597747803</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.45105457305908</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.82463264465332</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.6287317276001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.60139751434326</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.64239978790283</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.64695501327515</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.55583953857422</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.37816143035889</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.24604225158691</t>
   </si>
   <si>
     <t xml:space="preserve">6.47383451461792</t>
@@ -197,55 +197,55 @@
     <t xml:space="preserve">6.47839021682739</t>
   </si>
   <si>
-    <t xml:space="preserve">6.43283176422119</t>
+    <t xml:space="preserve">6.43283128738403</t>
   </si>
   <si>
     <t xml:space="preserve">6.4054970741272</t>
   </si>
   <si>
-    <t xml:space="preserve">6.44194364547729</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.33715963363647</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.37360572814941</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.78363132476807</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.66973447799683</t>
+    <t xml:space="preserve">6.44194316864014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.33715915679932</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.37360525131226</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.78363084793091</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.66973495483398</t>
   </si>
   <si>
     <t xml:space="preserve">6.68795824050903</t>
   </si>
   <si>
-    <t xml:space="preserve">6.61050891876221</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.82885646820068</t>
+    <t xml:space="preserve">6.61050939559937</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.82885599136353</t>
   </si>
   <si>
     <t xml:space="preserve">6.64278364181519</t>
   </si>
   <si>
-    <t xml:space="preserve">6.7358193397522</t>
+    <t xml:space="preserve">6.73582029342651</t>
   </si>
   <si>
     <t xml:space="preserve">6.63348007202148</t>
   </si>
   <si>
-    <t xml:space="preserve">6.69860553741455</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.74977540969849</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.55439853668213</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.81490039825439</t>
+    <t xml:space="preserve">6.69860506057739</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.74977588653564</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.55439949035645</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.81490087509155</t>
   </si>
   <si>
     <t xml:space="preserve">6.88932991027832</t>
@@ -257,37 +257,37 @@
     <t xml:space="preserve">6.88002586364746</t>
   </si>
   <si>
-    <t xml:space="preserve">6.90328550338745</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.9498028755188</t>
+    <t xml:space="preserve">6.90328502655029</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.94980335235596</t>
   </si>
   <si>
     <t xml:space="preserve">7.05214309692383</t>
   </si>
   <si>
-    <t xml:space="preserve">7.14983081817627</t>
+    <t xml:space="preserve">7.14983129501343</t>
   </si>
   <si>
     <t xml:space="preserve">7.1916971206665</t>
   </si>
   <si>
-    <t xml:space="preserve">7.31264448165894</t>
+    <t xml:space="preserve">7.31264400482178</t>
   </si>
   <si>
     <t xml:space="preserve">7.46615362167358</t>
   </si>
   <si>
-    <t xml:space="preserve">7.53593111038208</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.67548513412476</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.51732397079468</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.59640502929688</t>
+    <t xml:space="preserve">7.5359320640564</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.6754846572876</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.51732444763184</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.59640455245972</t>
   </si>
   <si>
     <t xml:space="preserve">7.47080564498901</t>
@@ -296,34 +296,34 @@
     <t xml:space="preserve">7.44289493560791</t>
   </si>
   <si>
-    <t xml:space="preserve">7.43824291229248</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.41033315658569</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.30333995819092</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.34985876083374</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.21030426025391</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.28938484191895</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.16378593444824</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.04283952713013</t>
+    <t xml:space="preserve">7.43824338912964</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.41033267974854</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.30334043502808</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.3498592376709</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.21030473709106</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.2893853187561</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.16378688812256</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.04284000396729</t>
   </si>
   <si>
     <t xml:space="preserve">7.32659959793091</t>
   </si>
   <si>
-    <t xml:space="preserve">7.37776947021484</t>
+    <t xml:space="preserve">7.377769947052</t>
   </si>
   <si>
     <t xml:space="preserve">7.52662754058838</t>
@@ -332,43 +332,43 @@
     <t xml:space="preserve">7.54058218002319</t>
   </si>
   <si>
-    <t xml:space="preserve">7.20565271377563</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.9311957359314</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.29868841171265</t>
+    <t xml:space="preserve">7.20565223693848</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.93119525909424</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.2986888885498</t>
   </si>
   <si>
     <t xml:space="preserve">7.3963770866394</t>
   </si>
   <si>
-    <t xml:space="preserve">7.06144666671753</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.87537431716919</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.68930149078369</t>
+    <t xml:space="preserve">7.06144714355469</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.87537384033203</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.68930196762085</t>
   </si>
   <si>
     <t xml:space="preserve">6.76373052597046</t>
   </si>
   <si>
-    <t xml:space="preserve">6.77303504943848</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.60556888580322</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.94515085220337</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.84746265411377</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.74512386322021</t>
+    <t xml:space="preserve">6.77303457260132</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.60556936264038</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.94515132904053</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.84746313095093</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.74512338638306</t>
   </si>
   <si>
     <t xml:space="preserve">6.65208721160889</t>
@@ -395,70 +395,70 @@
     <t xml:space="preserve">6.85676717758179</t>
   </si>
   <si>
-    <t xml:space="preserve">6.88467836380005</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.95910739898682</t>
+    <t xml:space="preserve">6.88467788696289</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.95910692214966</t>
   </si>
   <si>
     <t xml:space="preserve">7.08005428314209</t>
   </si>
   <si>
-    <t xml:space="preserve">6.89863300323486</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.98701810836792</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.9963207244873</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.01492834091187</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.01958084106445</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.02423143386841</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.00562477111816</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.12657117843628</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.10796403884888</t>
+    <t xml:space="preserve">6.89863252639771</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.98701763153076</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.99632167816162</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.01492786407471</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.01957988739014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.02423191070557</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.00562429428101</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.12657165527344</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.10796451568604</t>
   </si>
   <si>
     <t xml:space="preserve">7.07075023651123</t>
   </si>
   <si>
-    <t xml:space="preserve">7.18704462051392</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.3870735168457</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.21960830688477</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.1823935508728</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.83816003799438</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.89398050308228</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.08935785293579</t>
+    <t xml:space="preserve">7.18704509735107</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.38707304000854</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.21960783004761</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.18239402770996</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.83815956115723</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.89398145675659</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.08935737609863</t>
   </si>
   <si>
     <t xml:space="preserve">7.1358757019043</t>
   </si>
   <si>
-    <t xml:space="preserve">7.22891139984131</t>
+    <t xml:space="preserve">7.22891187667847</t>
   </si>
   <si>
     <t xml:space="preserve">7.19634962081909</t>
@@ -467,169 +467,169 @@
     <t xml:space="preserve">7.40568017959595</t>
   </si>
   <si>
-    <t xml:space="preserve">7.26612615585327</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.25682306289673</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.27543020248413</t>
+    <t xml:space="preserve">7.26612663269043</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.25682258605957</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.27542972564697</t>
   </si>
   <si>
     <t xml:space="preserve">7.35916185379028</t>
   </si>
   <si>
-    <t xml:space="preserve">7.29403734207153</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.27077770233154</t>
+    <t xml:space="preserve">7.29403686523438</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.27077865600586</t>
   </si>
   <si>
     <t xml:space="preserve">7.3684663772583</t>
   </si>
   <si>
-    <t xml:space="preserve">7.42428731918335</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.60105562210083</t>
+    <t xml:space="preserve">7.42428779602051</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.60105609893799</t>
   </si>
   <si>
     <t xml:space="preserve">7.43359088897705</t>
   </si>
   <si>
-    <t xml:space="preserve">7.46150302886963</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.40102815628052</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.57314586639404</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.58710050582886</t>
+    <t xml:space="preserve">7.46150207519531</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.40102863311768</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.57314538955688</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.58710098266602</t>
   </si>
   <si>
     <t xml:space="preserve">7.08470487594604</t>
   </si>
   <si>
-    <t xml:space="preserve">7.24286699295044</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.39172458648682</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.11726903915405</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.74061012268066</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.6987452507019</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.72200345993042</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.62896728515625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.48941421508789</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.83364772796631</t>
+    <t xml:space="preserve">7.24286651611328</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.39172506332397</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.11726808547974</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.74061107635498</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.69874429702759</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.72200489044189</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.62896633148193</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.48941278457642</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.83364629745483</t>
   </si>
   <si>
     <t xml:space="preserve">7.88946723937988</t>
   </si>
   <si>
-    <t xml:space="preserve">7.95459651947021</t>
+    <t xml:space="preserve">7.95459318161011</t>
   </si>
   <si>
     <t xml:space="preserve">7.90807580947876</t>
   </si>
   <si>
-    <t xml:space="preserve">7.9034252166748</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.86155796051025</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.00111103057861</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.20579147338867</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.58723831176758</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.66166973114014</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.69888496398926</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.82913303375244</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.62445449829102</t>
+    <t xml:space="preserve">7.90342330932617</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.8615574836731</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.00111198425293</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.20579051971436</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.58723926544189</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.66166877746582</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.69888401031494</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.82913494110107</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.62445545196533</t>
   </si>
   <si>
     <t xml:space="preserve">8.65701770782471</t>
   </si>
   <si>
-    <t xml:space="preserve">8.60584735870361</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.46629428863525</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.48489952087402</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.58259010314941</t>
+    <t xml:space="preserve">8.6058464050293</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.46629333496094</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.48490047454834</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.58258819580078</t>
   </si>
   <si>
     <t xml:space="preserve">8.57328510284424</t>
   </si>
   <si>
-    <t xml:space="preserve">8.56863403320312</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.61049842834473</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.6198034286499</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.71749114990234</t>
+    <t xml:space="preserve">8.56863307952881</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.61049938201904</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.61980152130127</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.71748924255371</t>
   </si>
   <si>
     <t xml:space="preserve">8.55002498626709</t>
   </si>
   <si>
-    <t xml:space="preserve">8.54537487030029</t>
+    <t xml:space="preserve">8.54537296295166</t>
   </si>
   <si>
     <t xml:space="preserve">8.33604335784912</t>
   </si>
   <si>
-    <t xml:space="preserve">8.5128116607666</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.44768619537354</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.31278419494629</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.34999656677246</t>
+    <t xml:space="preserve">8.51280975341797</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.44768524169922</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.31278324127197</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.34999752044678</t>
   </si>
   <si>
     <t xml:space="preserve">8.52676677703857</t>
   </si>
   <si>
-    <t xml:space="preserve">8.54072380065918</t>
+    <t xml:space="preserve">8.54072189331055</t>
   </si>
   <si>
     <t xml:space="preserve">8.65236568450928</t>
@@ -638,19 +638,19 @@
     <t xml:space="preserve">8.73144721984863</t>
   </si>
   <si>
-    <t xml:space="preserve">8.67097282409668</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.47094440460205</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.51746368408203</t>
+    <t xml:space="preserve">8.670973777771</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.47094535827637</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.51746273040771</t>
   </si>
   <si>
     <t xml:space="preserve">8.26626491546631</t>
   </si>
   <si>
-    <t xml:space="preserve">8.37325668334961</t>
+    <t xml:space="preserve">8.37325572967529</t>
   </si>
   <si>
     <t xml:space="preserve">8.52211380004883</t>
@@ -662,7 +662,7 @@
     <t xml:space="preserve">8.95008087158203</t>
   </si>
   <si>
-    <t xml:space="preserve">9.86183643341064</t>
+    <t xml:space="preserve">9.86183738708496</t>
   </si>
   <si>
     <t xml:space="preserve">9.52690505981445</t>
@@ -671,94 +671,94 @@
     <t xml:space="preserve">9.48968982696533</t>
   </si>
   <si>
-    <t xml:space="preserve">9.28501224517822</t>
+    <t xml:space="preserve">9.28501129150391</t>
   </si>
   <si>
     <t xml:space="preserve">9.43386936187744</t>
   </si>
   <si>
-    <t xml:space="preserve">9.47108364105225</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.48038673400879</t>
+    <t xml:space="preserve">9.47108459472656</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.48038768768311</t>
   </si>
   <si>
     <t xml:space="preserve">9.49899482727051</t>
   </si>
   <si>
-    <t xml:space="preserve">9.2105827331543</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.30361843109131</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.39665603637695</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.62924575805664</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.83392524719238</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.75019264221191</t>
+    <t xml:space="preserve">9.21058082580566</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.30361938476562</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.39665508270264</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.62924480438232</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.83392429351807</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.7501916885376</t>
   </si>
   <si>
     <t xml:space="preserve">10.0944271087646</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1874628067017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.513090133667</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.233980178833</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7549819946289</t>
+    <t xml:space="preserve">10.1874618530273</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5130891799927</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2339811325073</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7549839019775</t>
   </si>
   <si>
     <t xml:space="preserve">11.1643419265747</t>
   </si>
   <si>
-    <t xml:space="preserve">11.1271276473999</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2294664382935</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2573795318604</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0526990890503</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.024787902832</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0713052749634</t>
+    <t xml:space="preserve">11.1271286010742</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2294673919678</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.257378578186</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0527000427246</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0247888565063</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.071307182312</t>
   </si>
   <si>
     <t xml:space="preserve">10.5752973556519</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3226137161255</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1073637008667</t>
+    <t xml:space="preserve">10.3226118087769</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.107364654541</t>
   </si>
   <si>
     <t xml:space="preserve">10.48171043396</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5285034179688</t>
+    <t xml:space="preserve">10.5285024642944</t>
   </si>
   <si>
     <t xml:space="preserve">10.3787651062012</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5004272460938</t>
+    <t xml:space="preserve">10.5004281997681</t>
   </si>
   <si>
     <t xml:space="preserve">10.6127319335938</t>
@@ -767,22 +767,22 @@
     <t xml:space="preserve">10.5940141677856</t>
   </si>
   <si>
-    <t xml:space="preserve">10.6408081054688</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.846697807312</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1836109161377</t>
+    <t xml:space="preserve">10.6408071517944</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8466987609863</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1836099624634</t>
   </si>
   <si>
     <t xml:space="preserve">11.8855104446411</t>
   </si>
   <si>
-    <t xml:space="preserve">11.698338508606</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3239917755127</t>
+    <t xml:space="preserve">11.6983366012573</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3239908218384</t>
   </si>
   <si>
     <t xml:space="preserve">11.4082183837891</t>
@@ -791,25 +791,25 @@
     <t xml:space="preserve">11.2023277282715</t>
   </si>
   <si>
-    <t xml:space="preserve">11.2491226196289</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1368169784546</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9309272766113</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8560562133789</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8373394012451</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0900239944458</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9683609008789</t>
+    <t xml:space="preserve">11.2491216659546</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1368179321289</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.930926322937</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8560590744019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8373403549194</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0900249481201</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9683618545532</t>
   </si>
   <si>
     <t xml:space="preserve">10.6688833236694</t>
@@ -818,25 +818,25 @@
     <t xml:space="preserve">11.2304039001465</t>
   </si>
   <si>
-    <t xml:space="preserve">11.1648931503296</t>
+    <t xml:space="preserve">11.1648941040039</t>
   </si>
   <si>
     <t xml:space="preserve">11.5953931808472</t>
   </si>
   <si>
-    <t xml:space="preserve">11.1742525100708</t>
+    <t xml:space="preserve">11.1742515563965</t>
   </si>
   <si>
     <t xml:space="preserve">11.0432300567627</t>
   </si>
   <si>
-    <t xml:space="preserve">11.5579586029053</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5111646652222</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.8200006484985</t>
+    <t xml:space="preserve">11.557957649231</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5111637115479</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.8199996948242</t>
   </si>
   <si>
     <t xml:space="preserve">12.2130641937256</t>
@@ -848,10 +848,10 @@
     <t xml:space="preserve">12.007173538208</t>
   </si>
   <si>
-    <t xml:space="preserve">12.6342058181763</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.6435642242432</t>
+    <t xml:space="preserve">12.634204864502</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.6435632705688</t>
   </si>
   <si>
     <t xml:space="preserve">12.7933025360107</t>
@@ -860,37 +860,37 @@
     <t xml:space="preserve">12.8681716918945</t>
   </si>
   <si>
-    <t xml:space="preserve">12.6529226303101</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.9149656295776</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.8494548797607</t>
+    <t xml:space="preserve">12.6529216766357</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.914963722229</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.8494539260864</t>
   </si>
   <si>
     <t xml:space="preserve">12.662281036377</t>
   </si>
   <si>
-    <t xml:space="preserve">12.6997156143188</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.6809988021851</t>
+    <t xml:space="preserve">12.6997137069702</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.6809968948364</t>
   </si>
   <si>
     <t xml:space="preserve">12.5874109268188</t>
   </si>
   <si>
-    <t xml:space="preserve">12.6154870986938</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.606128692627</t>
+    <t xml:space="preserve">12.6154851913452</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.6061296463013</t>
   </si>
   <si>
     <t xml:space="preserve">12.8026609420776</t>
   </si>
   <si>
-    <t xml:space="preserve">12.7465085983276</t>
+    <t xml:space="preserve">12.746509552002</t>
   </si>
   <si>
     <t xml:space="preserve">12.6716394424438</t>
@@ -899,106 +899,106 @@
     <t xml:space="preserve">12.2972927093506</t>
   </si>
   <si>
-    <t xml:space="preserve">12.5125408172607</t>
+    <t xml:space="preserve">12.5125417709351</t>
   </si>
   <si>
     <t xml:space="preserve">12.5406169891357</t>
   </si>
   <si>
-    <t xml:space="preserve">12.4095964431763</t>
+    <t xml:space="preserve">12.409595489502</t>
   </si>
   <si>
     <t xml:space="preserve">12.4844655990601</t>
   </si>
   <si>
-    <t xml:space="preserve">11.9978151321411</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.4002370834351</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.2879333496094</t>
+    <t xml:space="preserve">11.9978141784668</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.4002380371094</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.287935256958</t>
   </si>
   <si>
     <t xml:space="preserve">12.1662712097168</t>
   </si>
   <si>
-    <t xml:space="preserve">12.0633249282837</t>
+    <t xml:space="preserve">12.063325881958</t>
   </si>
   <si>
     <t xml:space="preserve">12.4283123016357</t>
   </si>
   <si>
-    <t xml:space="preserve">12.3815183639526</t>
+    <t xml:space="preserve">12.3815202713013</t>
   </si>
   <si>
     <t xml:space="preserve">12.0539665222168</t>
   </si>
   <si>
-    <t xml:space="preserve">12.0726833343506</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.4470300674438</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.5593338012695</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.4657487869263</t>
+    <t xml:space="preserve">12.0726842880249</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.4470310211182</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.5593347549438</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.465747833252</t>
   </si>
   <si>
     <t xml:space="preserve">12.4938249588013</t>
   </si>
   <si>
-    <t xml:space="preserve">12.2692155838013</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.3628034591675</t>
+    <t xml:space="preserve">12.2692165374756</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.3628025054932</t>
   </si>
   <si>
     <t xml:space="preserve">12.4563894271851</t>
   </si>
   <si>
-    <t xml:space="preserve">12.5686931610107</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.3160085678101</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.5499753952026</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.4189538955688</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.3721618652344</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1756296157837</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1381959915161</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5485982894897</t>
+    <t xml:space="preserve">12.5686941146851</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.3160095214844</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.549976348877</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.4189548492432</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.3721628189087</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.175630569458</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1381940841675</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5485992431641</t>
   </si>
   <si>
     <t xml:space="preserve">11.7451305389404</t>
   </si>
   <si>
-    <t xml:space="preserve">11.9042272567749</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7732057571411</t>
+    <t xml:space="preserve">11.9042282104492</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7732076644897</t>
   </si>
   <si>
     <t xml:space="preserve">11.7919244766235</t>
   </si>
   <si>
-    <t xml:space="preserve">11.8574361801147</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0352487564087</t>
+    <t xml:space="preserve">11.8574352264404</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.035249710083</t>
   </si>
   <si>
     <t xml:space="preserve">11.9323034286499</t>
@@ -1007,28 +1007,28 @@
     <t xml:space="preserve">11.9790983200073</t>
   </si>
   <si>
-    <t xml:space="preserve">11.8480768203735</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.3440856933594</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.3066511154175</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.8761510848999</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.8293609619141</t>
+    <t xml:space="preserve">11.8480749130249</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.3440847396851</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.3066501617432</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.8761520385742</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.8293600082397</t>
   </si>
   <si>
     <t xml:space="preserve">11.2959146499634</t>
   </si>
   <si>
-    <t xml:space="preserve">11.3988599777222</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2678384780884</t>
+    <t xml:space="preserve">11.3988609313965</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2678375244141</t>
   </si>
   <si>
     <t xml:space="preserve">11.6515436172485</t>
@@ -1052,7 +1052,7 @@
     <t xml:space="preserve">11.9697389602661</t>
   </si>
   <si>
-    <t xml:space="preserve">12.2598571777344</t>
+    <t xml:space="preserve">12.259859085083</t>
   </si>
   <si>
     <t xml:space="preserve">12.1194772720337</t>
@@ -1061,58 +1061,58 @@
     <t xml:space="preserve">12.0258913040161</t>
   </si>
   <si>
-    <t xml:space="preserve">13.0459861755371</t>
+    <t xml:space="preserve">13.0459852218628</t>
   </si>
   <si>
     <t xml:space="preserve">14.0567226409912</t>
   </si>
   <si>
-    <t xml:space="preserve">14.2438955307007</t>
+    <t xml:space="preserve">14.243896484375</t>
   </si>
   <si>
     <t xml:space="preserve">14.2251787185669</t>
   </si>
   <si>
-    <t xml:space="preserve">14.075439453125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.131591796875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.7679805755615</t>
+    <t xml:space="preserve">14.0754404067993</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.1315908432007</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.7679815292358</t>
   </si>
   <si>
     <t xml:space="preserve">14.0380048751831</t>
   </si>
   <si>
-    <t xml:space="preserve">13.7572450637817</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.3374834060669</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.1503095626831</t>
+    <t xml:space="preserve">13.7572441101074</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.3374814987183</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.1503086090088</t>
   </si>
   <si>
     <t xml:space="preserve">13.8321132659912</t>
   </si>
   <si>
-    <t xml:space="preserve">14.5246572494507</t>
+    <t xml:space="preserve">14.5246553421021</t>
   </si>
   <si>
     <t xml:space="preserve">14.6556777954102</t>
   </si>
   <si>
-    <t xml:space="preserve">14.7118301391602</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.6182422637939</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.3187656402588</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.963134765625</t>
+    <t xml:space="preserve">14.7118282318115</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.6182432174683</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.3187646865845</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.9631357192993</t>
   </si>
   <si>
     <t xml:space="preserve">13.1208562850952</t>
@@ -1121,28 +1121,28 @@
     <t xml:space="preserve">12.8962459564209</t>
   </si>
   <si>
-    <t xml:space="preserve">13.4952020645142</t>
+    <t xml:space="preserve">13.4952030181885</t>
   </si>
   <si>
     <t xml:space="preserve">13.1582899093628</t>
   </si>
   <si>
-    <t xml:space="preserve">12.8588132858276</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.1021385192871</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6449403762817</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.4390487670898</t>
+    <t xml:space="preserve">12.858811378479</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1021375656128</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6449413299561</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.4390506744385</t>
   </si>
   <si>
     <t xml:space="preserve">12.7839431762695</t>
   </si>
   <si>
-    <t xml:space="preserve">12.2224225997925</t>
+    <t xml:space="preserve">12.2224216461182</t>
   </si>
   <si>
     <t xml:space="preserve">12.1288356781006</t>
@@ -1151,13 +1151,13 @@
     <t xml:space="preserve">11.9416627883911</t>
   </si>
   <si>
-    <t xml:space="preserve">12.7090740203857</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.8400955200195</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.7277917861938</t>
+    <t xml:space="preserve">12.7090730667114</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.8400945663452</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.7277927398682</t>
   </si>
   <si>
     <t xml:space="preserve">12.2785739898682</t>
@@ -1172,22 +1172,22 @@
     <t xml:space="preserve">11.7170553207397</t>
   </si>
   <si>
-    <t xml:space="preserve">12.5780515670776</t>
+    <t xml:space="preserve">12.578052520752</t>
   </si>
   <si>
     <t xml:space="preserve">11.922945022583</t>
   </si>
   <si>
-    <t xml:space="preserve">11.9603805541992</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.3534440994263</t>
+    <t xml:space="preserve">11.9603796005249</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.3534450531006</t>
   </si>
   <si>
     <t xml:space="preserve">12.5031833648682</t>
   </si>
   <si>
-    <t xml:space="preserve">13.4764833450317</t>
+    <t xml:space="preserve">13.4764842987061</t>
   </si>
   <si>
     <t xml:space="preserve">13.6636571884155</t>
@@ -1196,13 +1196,13 @@
     <t xml:space="preserve">13.8508319854736</t>
   </si>
   <si>
-    <t xml:space="preserve">14.3936357498169</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0487413406372</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9177198410034</t>
+    <t xml:space="preserve">14.3936347961426</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0487403869629</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9177188873291</t>
   </si>
   <si>
     <t xml:space="preserve">14.8802852630615</t>
@@ -1214,13 +1214,13 @@
     <t xml:space="preserve">15.1653480529785</t>
   </si>
   <si>
-    <t xml:space="preserve">15.8330049514771</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5468664169312</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3751831054688</t>
+    <t xml:space="preserve">15.8330068588257</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5468654632568</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3751840591431</t>
   </si>
   <si>
     <t xml:space="preserve">15.2225761413574</t>
@@ -1229,7 +1229,7 @@
     <t xml:space="preserve">15.2607278823853</t>
   </si>
   <si>
-    <t xml:space="preserve">15.3179540634155</t>
+    <t xml:space="preserve">15.3179550170898</t>
   </si>
   <si>
     <t xml:space="preserve">15.4514875411987</t>
@@ -1241,10 +1241,10 @@
     <t xml:space="preserve">13.9444904327393</t>
   </si>
   <si>
-    <t xml:space="preserve">13.3912887573242</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.7346534729004</t>
+    <t xml:space="preserve">13.3912878036499</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.7346544265747</t>
   </si>
   <si>
     <t xml:space="preserve">13.8109588623047</t>
@@ -1256,7 +1256,7 @@
     <t xml:space="preserve">13.0669975280762</t>
   </si>
   <si>
-    <t xml:space="preserve">13.2386808395386</t>
+    <t xml:space="preserve">13.2386817932129</t>
   </si>
   <si>
     <t xml:space="preserve">13.0097703933716</t>
@@ -1265,19 +1265,19 @@
     <t xml:space="preserve">12.2085828781128</t>
   </si>
   <si>
-    <t xml:space="preserve">12.6664028167725</t>
+    <t xml:space="preserve">12.6664037704468</t>
   </si>
   <si>
     <t xml:space="preserve">13.1242265701294</t>
   </si>
   <si>
-    <t xml:space="preserve">12.7427082061768</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.8190097808838</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.8762397766113</t>
+    <t xml:space="preserve">12.7427072525024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.8190107345581</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.8762378692627</t>
   </si>
   <si>
     <t xml:space="preserve">12.9906940460205</t>
@@ -1286,7 +1286,7 @@
     <t xml:space="preserve">12.4565687179565</t>
   </si>
   <si>
-    <t xml:space="preserve">12.8571624755859</t>
+    <t xml:space="preserve">12.8571615219116</t>
   </si>
   <si>
     <t xml:space="preserve">12.8380880355835</t>
@@ -1295,19 +1295,19 @@
     <t xml:space="preserve">12.8953151702881</t>
   </si>
   <si>
-    <t xml:space="preserve">12.3802652359009</t>
+    <t xml:space="preserve">12.3802642822266</t>
   </si>
   <si>
     <t xml:space="preserve">13.868185043335</t>
   </si>
   <si>
-    <t xml:space="preserve">13.9063377380371</t>
+    <t xml:space="preserve">13.9063386917114</t>
   </si>
   <si>
     <t xml:space="preserve">14.0970964431763</t>
   </si>
   <si>
-    <t xml:space="preserve">14.0017166137695</t>
+    <t xml:space="preserve">14.0017175674438</t>
   </si>
   <si>
     <t xml:space="preserve">14.2115516662598</t>
@@ -1325,7 +1325,7 @@
     <t xml:space="preserve">13.5820465087891</t>
   </si>
   <si>
-    <t xml:space="preserve">13.5629720687866</t>
+    <t xml:space="preserve">13.5629730224609</t>
   </si>
   <si>
     <t xml:space="preserve">13.3722133636475</t>
@@ -1334,10 +1334,10 @@
     <t xml:space="preserve">13.2577571868896</t>
   </si>
   <si>
-    <t xml:space="preserve">13.4485158920288</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6011228561401</t>
+    <t xml:space="preserve">13.4485168457031</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6011238098145</t>
   </si>
   <si>
     <t xml:space="preserve">13.3340606689453</t>
@@ -1346,70 +1346,70 @@
     <t xml:space="preserve">13.486668586731</t>
   </si>
   <si>
-    <t xml:space="preserve">12.6854791641235</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.6282510757446</t>
+    <t xml:space="preserve">12.6854801177979</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.6282520294189</t>
   </si>
   <si>
     <t xml:space="preserve">12.399341583252</t>
   </si>
   <si>
-    <t xml:space="preserve">12.799934387207</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.1623783111572</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.1051502227783</t>
+    <t xml:space="preserve">12.7999353408813</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1623773574829</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.105149269104</t>
   </si>
   <si>
     <t xml:space="preserve">12.9334669113159</t>
   </si>
   <si>
-    <t xml:space="preserve">13.0860738754272</t>
+    <t xml:space="preserve">13.0860729217529</t>
   </si>
   <si>
     <t xml:space="preserve">13.9254131317139</t>
   </si>
   <si>
-    <t xml:space="preserve">14.2497034072876</t>
+    <t xml:space="preserve">14.2497053146362</t>
   </si>
   <si>
     <t xml:space="preserve">14.4023113250732</t>
   </si>
   <si>
-    <t xml:space="preserve">14.4404649734497</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.192476272583</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.8300333023071</t>
+    <t xml:space="preserve">14.4404640197754</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.1924772262573</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.8300342559814</t>
   </si>
   <si>
     <t xml:space="preserve">13.6201992034912</t>
   </si>
   <si>
-    <t xml:space="preserve">13.8872632980347</t>
+    <t xml:space="preserve">13.887261390686</t>
   </si>
   <si>
     <t xml:space="preserve">13.6774272918701</t>
   </si>
   <si>
-    <t xml:space="preserve">14.3069324493408</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0699691772461</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6422433853149</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4133348464966</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2988805770874</t>
+    <t xml:space="preserve">14.3069314956665</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0699682235718</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6422443389893</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4133358001709</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2988796234131</t>
   </si>
   <si>
     <t xml:space="preserve">16.6914196014404</t>
@@ -1418,70 +1418,70 @@
     <t xml:space="preserve">16.8631057739258</t>
   </si>
   <si>
-    <t xml:space="preserve">17.0729389190674</t>
+    <t xml:space="preserve">17.0729370117188</t>
   </si>
   <si>
     <t xml:space="preserve">16.7868022918701</t>
   </si>
   <si>
-    <t xml:space="preserve">16.3862075805664</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.0619163513184</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7376251220703</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.661322593689</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1462717056274</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3561067581177</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.5167665481567</t>
+    <t xml:space="preserve">16.3862056732178</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.0619144439697</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.737624168396</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6613206863403</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1462726593018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.356107711792</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.5167675018311</t>
   </si>
   <si>
     <t xml:space="preserve">14.745677947998</t>
   </si>
   <si>
-    <t xml:space="preserve">14.57399559021</t>
+    <t xml:space="preserve">14.5739946365356</t>
   </si>
   <si>
     <t xml:space="preserve">14.7838296890259</t>
   </si>
   <si>
-    <t xml:space="preserve">14.3832349777222</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.3260087966919</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.0207939147949</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.658350944519</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.9826421737671</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.1543254852295</t>
+    <t xml:space="preserve">14.3832359313965</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.3260078430176</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.0207929611206</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6583499908447</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.9826412200928</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.1543245315552</t>
   </si>
   <si>
     <t xml:space="preserve">15.0127401351929</t>
   </si>
   <si>
-    <t xml:space="preserve">14.6121473312378</t>
+    <t xml:space="preserve">14.6121463775635</t>
   </si>
   <si>
     <t xml:space="preserve">14.5549182891846</t>
   </si>
   <si>
-    <t xml:space="preserve">15.6994743347168</t>
+    <t xml:space="preserve">15.6994714736938</t>
   </si>
   <si>
     <t xml:space="preserve">15.1081199645996</t>
@@ -1490,85 +1490,85 @@
     <t xml:space="preserve">16.2336006164551</t>
   </si>
   <si>
-    <t xml:space="preserve">16.2145214080811</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.4052810668945</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.1954460144043</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.0237636566162</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6040935516357</t>
+    <t xml:space="preserve">16.2145233154297</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.4052848815918</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.1954441070557</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.0237617492676</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6040945053101</t>
   </si>
   <si>
     <t xml:space="preserve">16.1763687133789</t>
   </si>
   <si>
-    <t xml:space="preserve">16.5006618499756</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.2526779174805</t>
+    <t xml:space="preserve">16.500659942627</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.2526760101318</t>
   </si>
   <si>
     <t xml:space="preserve">16.4815864562988</t>
   </si>
   <si>
-    <t xml:space="preserve">15.7948513031006</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9474601745605</t>
+    <t xml:space="preserve">15.7948532104492</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9474592208862</t>
   </si>
   <si>
     <t xml:space="preserve">16.0809917449951</t>
   </si>
   <si>
-    <t xml:space="preserve">15.2034997940063</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.0046882629395</t>
+    <t xml:space="preserve">15.203498840332</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.0046901702881</t>
   </si>
   <si>
     <t xml:space="preserve">15.6231689453125</t>
   </si>
   <si>
-    <t xml:space="preserve">14.8792085647583</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0508918762207</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.6884498596191</t>
+    <t xml:space="preserve">14.8792095184326</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.050892829895</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.6884508132935</t>
   </si>
   <si>
     <t xml:space="preserve">14.9555139541626</t>
   </si>
   <si>
-    <t xml:space="preserve">15.1271963119507</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6803998947144</t>
+    <t xml:space="preserve">15.1271953582764</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6803970336914</t>
   </si>
   <si>
     <t xml:space="preserve">15.8902311325073</t>
   </si>
   <si>
-    <t xml:space="preserve">15.1844234466553</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5659399032593</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9093103408813</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7757768630981</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.0428409576416</t>
+    <t xml:space="preserve">15.1844244003296</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5659408569336</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.909309387207</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7757787704468</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.042839050293</t>
   </si>
   <si>
     <t xml:space="preserve">16.1191425323486</t>
@@ -1577,40 +1577,40 @@
     <t xml:space="preserve">16.1572952270508</t>
   </si>
   <si>
-    <t xml:space="preserve">16.1382179260254</t>
+    <t xml:space="preserve">16.138219833374</t>
   </si>
   <si>
     <t xml:space="preserve">15.7567024230957</t>
   </si>
   <si>
-    <t xml:space="preserve">14.821982383728</t>
+    <t xml:space="preserve">14.8219814300537</t>
   </si>
   <si>
     <t xml:space="preserve">14.7647533416748</t>
   </si>
   <si>
-    <t xml:space="preserve">14.9936656951904</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3370313644409</t>
+    <t xml:space="preserve">14.9936637878418</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3370304107666</t>
   </si>
   <si>
     <t xml:space="preserve">15.2416505813599</t>
   </si>
   <si>
-    <t xml:space="preserve">15.4324111938477</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.3480529785156</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.1683197021484</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.3972282409668</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.4163055419922</t>
+    <t xml:space="preserve">15.4324102401733</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.3480548858643</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.1683158874512</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.3972301483154</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.4163074493408</t>
   </si>
   <si>
     <t xml:space="preserve">17.4544544219971</t>
@@ -1619,7 +1619,7 @@
     <t xml:space="preserve">17.2636985778809</t>
   </si>
   <si>
-    <t xml:space="preserve">17.2255439758301</t>
+    <t xml:space="preserve">17.2255458831787</t>
   </si>
   <si>
     <t xml:space="preserve">18.2174949645996</t>
@@ -1628,19 +1628,19 @@
     <t xml:space="preserve">17.5689125061035</t>
   </si>
   <si>
-    <t xml:space="preserve">17.5116863250732</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.53076171875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.6642913818359</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.2064723968506</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.5498390197754</t>
+    <t xml:space="preserve">17.5116844177246</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.5307598114014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.6642932891846</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.206470489502</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.5498371124268</t>
   </si>
   <si>
     <t xml:space="preserve">17.607063293457</t>
@@ -1649,19 +1649,19 @@
     <t xml:space="preserve">18.0267353057861</t>
   </si>
   <si>
-    <t xml:space="preserve">17.9885807037354</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.7215175628662</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.4926109313965</t>
+    <t xml:space="preserve">17.988582611084</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.7215213775635</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.4926071166992</t>
   </si>
   <si>
     <t xml:space="preserve">17.3018493652344</t>
   </si>
   <si>
-    <t xml:space="preserve">16.7295742034912</t>
+    <t xml:space="preserve">16.7295761108398</t>
   </si>
   <si>
     <t xml:space="preserve">16.7486476898193</t>
@@ -1670,34 +1670,34 @@
     <t xml:space="preserve">16.4434337615967</t>
   </si>
   <si>
-    <t xml:space="preserve">17.0157108306885</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.3099040985107</t>
+    <t xml:space="preserve">17.0157127380371</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.3099021911621</t>
   </si>
   <si>
     <t xml:space="preserve">16.7370662689209</t>
   </si>
   <si>
-    <t xml:space="preserve">16.6982326507568</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.5429039001465</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.6011524200439</t>
+    <t xml:space="preserve">16.6982345581055</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.5429019927979</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.6011505126953</t>
   </si>
   <si>
     <t xml:space="preserve">16.3875675201416</t>
   </si>
   <si>
-    <t xml:space="preserve">16.1545677185059</t>
+    <t xml:space="preserve">16.1545715332031</t>
   </si>
   <si>
     <t xml:space="preserve">16.1351528167725</t>
   </si>
   <si>
-    <t xml:space="preserve">16.8341503143311</t>
+    <t xml:space="preserve">16.8341484069824</t>
   </si>
   <si>
     <t xml:space="preserve">16.970064163208</t>
@@ -1706,13 +1706,13 @@
     <t xml:space="preserve">16.98948097229</t>
   </si>
   <si>
-    <t xml:space="preserve">16.9118156433105</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.7953147888184</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.5817356109619</t>
+    <t xml:space="preserve">16.9118137359619</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.795316696167</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.5817337036133</t>
   </si>
   <si>
     <t xml:space="preserve">16.6788177490234</t>
@@ -1724,31 +1724,31 @@
     <t xml:space="preserve">16.6205673217773</t>
   </si>
   <si>
-    <t xml:space="preserve">16.1157379150391</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.1739845275879</t>
+    <t xml:space="preserve">16.1157360076904</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.1739864349365</t>
   </si>
   <si>
     <t xml:space="preserve">16.0186538696289</t>
   </si>
   <si>
-    <t xml:space="preserve">15.8827381134033</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8050727844238</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5720739364624</t>
+    <t xml:space="preserve">15.8827390670776</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8050718307495</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5720748901367</t>
   </si>
   <si>
     <t xml:space="preserve">15.5138235092163</t>
   </si>
   <si>
-    <t xml:space="preserve">15.4555730819702</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1254920959473</t>
+    <t xml:space="preserve">15.4555740356445</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1254930496216</t>
   </si>
   <si>
     <t xml:space="preserve">15.339075088501</t>
@@ -1757,7 +1757,7 @@
     <t xml:space="preserve">15.3779077529907</t>
   </si>
   <si>
-    <t xml:space="preserve">15.2808246612549</t>
+    <t xml:space="preserve">15.2808256149292</t>
   </si>
   <si>
     <t xml:space="preserve">15.2419919967651</t>
@@ -1775,16 +1775,16 @@
     <t xml:space="preserve">15.2031593322754</t>
   </si>
   <si>
-    <t xml:space="preserve">15.008994102478</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.989577293396</t>
+    <t xml:space="preserve">15.0089931488037</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9895763397217</t>
   </si>
   <si>
     <t xml:space="preserve">14.8536615371704</t>
   </si>
   <si>
-    <t xml:space="preserve">15.5914888381958</t>
+    <t xml:space="preserve">15.5914897918701</t>
   </si>
   <si>
     <t xml:space="preserve">15.3196582794189</t>
@@ -1793,31 +1793,31 @@
     <t xml:space="preserve">14.970160484314</t>
   </si>
   <si>
-    <t xml:space="preserve">15.1060762405396</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3002405166626</t>
+    <t xml:space="preserve">15.1060771942139</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3002414703369</t>
   </si>
   <si>
     <t xml:space="preserve">14.9313278198242</t>
   </si>
   <si>
-    <t xml:space="preserve">14.8924942016602</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0478267669678</t>
+    <t xml:space="preserve">14.8924932479858</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0478258132935</t>
   </si>
   <si>
     <t xml:space="preserve">15.1643257141113</t>
   </si>
   <si>
-    <t xml:space="preserve">14.9507436752319</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0284099578857</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.6789131164551</t>
+    <t xml:space="preserve">14.9507446289062</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0284090042114</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.6789121627808</t>
   </si>
   <si>
     <t xml:space="preserve">14.7177457809448</t>
@@ -1838,73 +1838,73 @@
     <t xml:space="preserve">14.601245880127</t>
   </si>
   <si>
-    <t xml:space="preserve">14.5818300247192</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.7954111099243</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0672435760498</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.6983299255371</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4944076538086</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5332403182983</t>
+    <t xml:space="preserve">14.5818290710449</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.7954120635986</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0672426223755</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.6983289718628</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4944067001343</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5332412719727</t>
   </si>
   <si>
     <t xml:space="preserve">15.8244886398315</t>
   </si>
   <si>
-    <t xml:space="preserve">15.6691570281982</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8633213043213</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9409894943237</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.3099021911621</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9215688705444</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9604063034058</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.057487487793</t>
+    <t xml:space="preserve">15.6691560745239</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8633222579956</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9409866333008</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.3099002838135</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9215707778931</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9604053497314</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.0574893951416</t>
   </si>
   <si>
     <t xml:space="preserve">15.7856550216675</t>
   </si>
   <si>
-    <t xml:space="preserve">15.7662382125854</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9992370605469</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.72740650177</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6497392654419</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9798221588135</t>
+    <t xml:space="preserve">15.7662401199341</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9992389678955</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7274074554443</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6497411727905</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9798202514648</t>
   </si>
   <si>
     <t xml:space="preserve">16.0769023895264</t>
   </si>
   <si>
-    <t xml:space="preserve">16.2710704803467</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.3195629119873</t>
+    <t xml:space="preserve">16.271068572998</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.3195648193359</t>
   </si>
   <si>
     <t xml:space="preserve">17.1642322540283</t>
@@ -1919,16 +1919,16 @@
     <t xml:space="preserve">17.1448135375977</t>
   </si>
   <si>
-    <t xml:space="preserve">17.2807292938232</t>
+    <t xml:space="preserve">17.2807273864746</t>
   </si>
   <si>
     <t xml:space="preserve">17.4360599517822</t>
   </si>
   <si>
-    <t xml:space="preserve">18.4457225799561</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.3486404418945</t>
+    <t xml:space="preserve">18.4457244873047</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.3486385345459</t>
   </si>
   <si>
     <t xml:space="preserve">17.7661418914795</t>
@@ -1943,10 +1943,10 @@
     <t xml:space="preserve">18.1544780731201</t>
   </si>
   <si>
-    <t xml:space="preserve">18.2903900146484</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.1350593566895</t>
+    <t xml:space="preserve">18.2903919219971</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.1350574493408</t>
   </si>
   <si>
     <t xml:space="preserve">18.1156406402588</t>
@@ -1961,13 +1961,13 @@
     <t xml:space="preserve">18.4845581054688</t>
   </si>
   <si>
-    <t xml:space="preserve">18.9311389923096</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.2806358337402</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.2029705047607</t>
+    <t xml:space="preserve">18.9311351776123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.2806339263916</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.2029685974121</t>
   </si>
   <si>
     <t xml:space="preserve">18.7175559997559</t>
@@ -1979,34 +1979,34 @@
     <t xml:space="preserve">19.0864696502686</t>
   </si>
   <si>
-    <t xml:space="preserve">19.6107158660889</t>
+    <t xml:space="preserve">19.6107177734375</t>
   </si>
   <si>
     <t xml:space="preserve">19.9990463256836</t>
   </si>
   <si>
-    <t xml:space="preserve">19.7077960968018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.8534240722656</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.4650897979736</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.0282192230225</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.8048820495605</t>
+    <t xml:space="preserve">19.7077980041504</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.853422164917</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.4650917053223</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.0282211303711</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.8048801422119</t>
   </si>
   <si>
     <t xml:space="preserve">19.9019641876221</t>
   </si>
   <si>
-    <t xml:space="preserve">19.9505062103271</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.5136337280273</t>
+    <t xml:space="preserve">19.9505043029785</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.5136318206787</t>
   </si>
   <si>
     <t xml:space="preserve">19.7563400268555</t>
@@ -2018,13 +2018,13 @@
     <t xml:space="preserve">20.435920715332</t>
   </si>
   <si>
-    <t xml:space="preserve">22.4261169433594</t>
+    <t xml:space="preserve">22.4261131286621</t>
   </si>
   <si>
     <t xml:space="preserve">21.3582077026367</t>
   </si>
   <si>
-    <t xml:space="preserve">21.309663772583</t>
+    <t xml:space="preserve">21.3096656799316</t>
   </si>
   <si>
     <t xml:space="preserve">21.0184154510498</t>
@@ -2033,10 +2033,10 @@
     <t xml:space="preserve">20.8242511749268</t>
   </si>
   <si>
-    <t xml:space="preserve">21.2125835418701</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.9213333129883</t>
+    <t xml:space="preserve">21.2125797271729</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.9213314056396</t>
   </si>
   <si>
     <t xml:space="preserve">20.8727912902832</t>
@@ -2045,37 +2045,37 @@
     <t xml:space="preserve">20.1446723937988</t>
   </si>
   <si>
-    <t xml:space="preserve">20.4844589233398</t>
+    <t xml:space="preserve">20.4844608306885</t>
   </si>
   <si>
     <t xml:space="preserve">20.1932125091553</t>
   </si>
   <si>
-    <t xml:space="preserve">20.0475883483887</t>
+    <t xml:space="preserve">20.04758644104</t>
   </si>
   <si>
     <t xml:space="preserve">19.2612190246582</t>
   </si>
   <si>
-    <t xml:space="preserve">20.9698753356934</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.1154975891113</t>
+    <t xml:space="preserve">20.9698734283447</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.11549949646</t>
   </si>
   <si>
     <t xml:space="preserve">20.7757091522217</t>
   </si>
   <si>
-    <t xml:space="preserve">21.4552898406982</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.6009120941162</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.4067459106445</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.843620300293</t>
+    <t xml:space="preserve">21.4552879333496</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.6009140014648</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.4067478179932</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.8436183929443</t>
   </si>
   <si>
     <t xml:space="preserve">21.6494541168213</t>
@@ -2084,22 +2084,22 @@
     <t xml:space="preserve">22.037784576416</t>
   </si>
   <si>
-    <t xml:space="preserve">20.2417526245117</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.2902946472168</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.9117202758789</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.3680572509766</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.7855587005615</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.4652328491211</t>
+    <t xml:space="preserve">20.241756439209</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.2902965545654</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.9117183685303</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.3680553436279</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.7855606079102</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.4652347564697</t>
   </si>
   <si>
     <t xml:space="preserve">16.3487358093262</t>
@@ -2108,16 +2108,16 @@
     <t xml:space="preserve">14.620662689209</t>
   </si>
   <si>
-    <t xml:space="preserve">14.5624132156372</t>
+    <t xml:space="preserve">14.5624122619629</t>
   </si>
   <si>
     <t xml:space="preserve">12.5819244384766</t>
   </si>
   <si>
-    <t xml:space="preserve">12.1353454589844</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.2518424987793</t>
+    <t xml:space="preserve">12.1353435516357</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2518434524536</t>
   </si>
   <si>
     <t xml:space="preserve">12.814923286438</t>
@@ -2132,13 +2132,13 @@
     <t xml:space="preserve">13.4362525939941</t>
   </si>
   <si>
-    <t xml:space="preserve">13.6886672973633</t>
+    <t xml:space="preserve">13.6886682510376</t>
   </si>
   <si>
     <t xml:space="preserve">14.1546649932861</t>
   </si>
   <si>
-    <t xml:space="preserve">14.3294143676758</t>
+    <t xml:space="preserve">14.3294134140015</t>
   </si>
   <si>
     <t xml:space="preserve">14.4264965057373</t>
@@ -2156,7 +2156,7 @@
     <t xml:space="preserve">15.5526571273804</t>
   </si>
   <si>
-    <t xml:space="preserve">17.0283164978027</t>
+    <t xml:space="preserve">17.0283184051514</t>
   </si>
   <si>
     <t xml:space="preserve">16.3293190002441</t>
@@ -2180,7 +2180,7 @@
     <t xml:space="preserve">16.7564830780029</t>
   </si>
   <si>
-    <t xml:space="preserve">17.3778133392334</t>
+    <t xml:space="preserve">17.3778114318848</t>
   </si>
   <si>
     <t xml:space="preserve">16.8729820251465</t>
@@ -2189,13 +2189,13 @@
     <t xml:space="preserve">17.0865650177002</t>
   </si>
   <si>
-    <t xml:space="preserve">17.2224807739258</t>
+    <t xml:space="preserve">17.2224788665771</t>
   </si>
   <si>
     <t xml:space="preserve">18.426305770874</t>
   </si>
   <si>
-    <t xml:space="preserve">18.8146362304688</t>
+    <t xml:space="preserve">18.8146381378174</t>
   </si>
   <si>
     <t xml:space="preserve">18.2480487823486</t>
@@ -2207,7 +2207,7 @@
     <t xml:space="preserve">17.6228485107422</t>
   </si>
   <si>
-    <t xml:space="preserve">17.6033115386963</t>
+    <t xml:space="preserve">17.6033134460449</t>
   </si>
   <si>
     <t xml:space="preserve">17.3688621520996</t>
@@ -2222,13 +2222,13 @@
     <t xml:space="preserve">17.7791481018066</t>
   </si>
   <si>
-    <t xml:space="preserve">17.3297843933105</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.8182239532471</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.6619243621826</t>
+    <t xml:space="preserve">17.3297863006592</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.8182220458984</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.661922454834</t>
   </si>
   <si>
     <t xml:space="preserve">17.8963737487793</t>
@@ -2237,7 +2237,7 @@
     <t xml:space="preserve">18.4629611968994</t>
   </si>
   <si>
-    <t xml:space="preserve">18.1112880706787</t>
+    <t xml:space="preserve">18.1112861633301</t>
   </si>
   <si>
     <t xml:space="preserve">18.2285118103027</t>
@@ -2246,37 +2246,37 @@
     <t xml:space="preserve">18.5606498718262</t>
   </si>
   <si>
-    <t xml:space="preserve">18.5801887512207</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.0722103118896</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.4043483734131</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.4238891601562</t>
+    <t xml:space="preserve">18.5801868438721</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.0722122192383</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.4043502807617</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.4238872528076</t>
   </si>
   <si>
     <t xml:space="preserve">18.7560253143311</t>
   </si>
   <si>
-    <t xml:space="preserve">18.6192626953125</t>
+    <t xml:space="preserve">18.6192607879639</t>
   </si>
   <si>
     <t xml:space="preserve">18.2871246337891</t>
   </si>
   <si>
-    <t xml:space="preserve">18.2089729309082</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.0100116729736</t>
+    <t xml:space="preserve">18.2089748382568</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.0100135803223</t>
   </si>
   <si>
     <t xml:space="preserve">18.9513988494873</t>
   </si>
   <si>
-    <t xml:space="preserve">18.8537101745605</t>
+    <t xml:space="preserve">18.8537120819092</t>
   </si>
   <si>
     <t xml:space="preserve">19.0881633758545</t>
@@ -2285,19 +2285,19 @@
     <t xml:space="preserve">19.224925994873</t>
   </si>
   <si>
-    <t xml:space="preserve">19.7817459106445</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.537525177002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.1272373199463</t>
+    <t xml:space="preserve">19.7817440032959</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.5375270843506</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.1272392272949</t>
   </si>
   <si>
     <t xml:space="preserve">19.2835369110107</t>
   </si>
   <si>
-    <t xml:space="preserve">18.6387996673584</t>
+    <t xml:space="preserve">18.638801574707</t>
   </si>
   <si>
     <t xml:space="preserve">18.8341751098633</t>
@@ -2306,13 +2306,13 @@
     <t xml:space="preserve">19.6840572357178</t>
   </si>
   <si>
-    <t xml:space="preserve">19.8305892944336</t>
+    <t xml:space="preserve">19.830587387085</t>
   </si>
   <si>
     <t xml:space="preserve">20.2701835632324</t>
   </si>
   <si>
-    <t xml:space="preserve">20.5144023895264</t>
+    <t xml:space="preserve">20.514404296875</t>
   </si>
   <si>
     <t xml:space="preserve">20.8074645996094</t>
@@ -2336,13 +2336,13 @@
     <t xml:space="preserve">21.7843418121338</t>
   </si>
   <si>
-    <t xml:space="preserve">22.0774059295654</t>
+    <t xml:space="preserve">22.0774040222168</t>
   </si>
   <si>
     <t xml:space="preserve">21.7354984283447</t>
   </si>
   <si>
-    <t xml:space="preserve">21.5401210784912</t>
+    <t xml:space="preserve">21.5401229858398</t>
   </si>
   <si>
     <t xml:space="preserve">21.9797172546387</t>
@@ -2357,22 +2357,22 @@
     <t xml:space="preserve">23.0054359436035</t>
   </si>
   <si>
-    <t xml:space="preserve">23.5427207946777</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.6404075622559</t>
+    <t xml:space="preserve">23.5427188873291</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.6404056549072</t>
   </si>
   <si>
     <t xml:space="preserve">24.3242206573486</t>
   </si>
   <si>
-    <t xml:space="preserve">24.9591884613037</t>
+    <t xml:space="preserve">24.9591903686523</t>
   </si>
   <si>
     <t xml:space="preserve">24.7149696350098</t>
   </si>
   <si>
-    <t xml:space="preserve">24.2753772735596</t>
+    <t xml:space="preserve">24.2753753662109</t>
   </si>
   <si>
     <t xml:space="preserve">23.9823131561279</t>
@@ -2381,13 +2381,13 @@
     <t xml:space="preserve">24.1776885986328</t>
   </si>
   <si>
-    <t xml:space="preserve">23.8846263885498</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.9565944671631</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.2496566772461</t>
+    <t xml:space="preserve">23.8846282958984</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.9565925598145</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.2496547698975</t>
   </si>
   <si>
     <t xml:space="preserve">23.6892509460449</t>
@@ -2405,22 +2405,22 @@
     <t xml:space="preserve">22.0285606384277</t>
   </si>
   <si>
-    <t xml:space="preserve">22.2727794647217</t>
+    <t xml:space="preserve">22.272777557373</t>
   </si>
   <si>
     <t xml:space="preserve">21.4424362182617</t>
   </si>
   <si>
-    <t xml:space="preserve">21.8331851959229</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.6609325408936</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.5889682769775</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.2959041595459</t>
+    <t xml:space="preserve">21.8331871032715</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.6609344482422</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.5889663696289</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.2959022521973</t>
   </si>
   <si>
     <t xml:space="preserve">21.6866550445557</t>
@@ -2429,13 +2429,13 @@
     <t xml:space="preserve">22.4193115234375</t>
   </si>
   <si>
-    <t xml:space="preserve">22.1750946044922</t>
+    <t xml:space="preserve">22.1750926971436</t>
   </si>
   <si>
     <t xml:space="preserve">21.1493721008301</t>
   </si>
   <si>
-    <t xml:space="preserve">22.3216247558594</t>
+    <t xml:space="preserve">22.3216228485107</t>
   </si>
   <si>
     <t xml:space="preserve">22.5658435821533</t>
@@ -2444,7 +2444,7 @@
     <t xml:space="preserve">22.1262474060059</t>
   </si>
   <si>
-    <t xml:space="preserve">23.0542812347412</t>
+    <t xml:space="preserve">23.0542831420898</t>
   </si>
   <si>
     <t xml:space="preserve">22.8589057922363</t>
@@ -2453,13 +2453,13 @@
     <t xml:space="preserve">24.6661262512207</t>
   </si>
   <si>
-    <t xml:space="preserve">24.5684375762939</t>
+    <t xml:space="preserve">24.5684394836426</t>
   </si>
   <si>
     <t xml:space="preserve">24.4707508087158</t>
   </si>
   <si>
-    <t xml:space="preserve">25.9849109649658</t>
+    <t xml:space="preserve">25.9849090576172</t>
   </si>
   <si>
     <t xml:space="preserve">26.424503326416</t>
@@ -2477,7 +2477,7 @@
     <t xml:space="preserve">26.6198787689209</t>
   </si>
   <si>
-    <t xml:space="preserve">27.938663482666</t>
+    <t xml:space="preserve">27.9386615753174</t>
   </si>
   <si>
     <t xml:space="preserve">28.9155387878418</t>
@@ -2489,7 +2489,7 @@
     <t xml:space="preserve">29.2086009979248</t>
   </si>
   <si>
-    <t xml:space="preserve">30.0389461517334</t>
+    <t xml:space="preserve">30.038948059082</t>
   </si>
   <si>
     <t xml:space="preserve">30.6739158630371</t>
@@ -2507,7 +2507,7 @@
     <t xml:space="preserve">31.8461666107178</t>
   </si>
   <si>
-    <t xml:space="preserve">32.3834533691406</t>
+    <t xml:space="preserve">32.3834495544434</t>
   </si>
   <si>
     <t xml:space="preserve">31.5531044006348</t>
@@ -2519,7 +2519,7 @@
     <t xml:space="preserve">32.6276702880859</t>
   </si>
   <si>
-    <t xml:space="preserve">33.6045455932617</t>
+    <t xml:space="preserve">33.604549407959</t>
   </si>
   <si>
     <t xml:space="preserve">33.5068550109863</t>
@@ -2528,7 +2528,7 @@
     <t xml:space="preserve">33.1161079406738</t>
   </si>
   <si>
-    <t xml:space="preserve">33.7999153137207</t>
+    <t xml:space="preserve">33.7999229431152</t>
   </si>
   <si>
     <t xml:space="preserve">34.0441360473633</t>
@@ -2546,7 +2546,7 @@
     <t xml:space="preserve">35.7048301696777</t>
   </si>
   <si>
-    <t xml:space="preserve">35.8025169372559</t>
+    <t xml:space="preserve">35.8025207519531</t>
   </si>
   <si>
     <t xml:space="preserve">37.1701431274414</t>
@@ -2561,19 +2561,19 @@
     <t xml:space="preserve">34.6302642822266</t>
   </si>
   <si>
-    <t xml:space="preserve">32.8718872070312</t>
+    <t xml:space="preserve">32.8718910217285</t>
   </si>
   <si>
     <t xml:space="preserve">32.9695777893066</t>
   </si>
   <si>
-    <t xml:space="preserve">33.0672607421875</t>
+    <t xml:space="preserve">33.0672645568848</t>
   </si>
   <si>
     <t xml:space="preserve">33.0184173583984</t>
   </si>
   <si>
-    <t xml:space="preserve">32.2369155883789</t>
+    <t xml:space="preserve">32.2369194030762</t>
   </si>
   <si>
     <t xml:space="preserve">30.625072479248</t>
@@ -2582,7 +2582,7 @@
     <t xml:space="preserve">31.1135101318359</t>
   </si>
   <si>
-    <t xml:space="preserve">30.869291305542</t>
+    <t xml:space="preserve">30.8692932128906</t>
   </si>
   <si>
     <t xml:space="preserve">30.7716045379639</t>
@@ -2597,31 +2597,31 @@
     <t xml:space="preserve">34.1906700134277</t>
   </si>
   <si>
-    <t xml:space="preserve">35.6071395874023</t>
+    <t xml:space="preserve">35.6071434020996</t>
   </si>
   <si>
     <t xml:space="preserve">35.9978904724121</t>
   </si>
   <si>
-    <t xml:space="preserve">36.0467376708984</t>
+    <t xml:space="preserve">36.0467414855957</t>
   </si>
   <si>
     <t xml:space="preserve">37.6097373962402</t>
   </si>
   <si>
-    <t xml:space="preserve">37.3655166625977</t>
-  </si>
-  <si>
-    <t xml:space="preserve">37.3166732788086</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36.290958404541</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36.7793922424316</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.4117660522461</t>
+    <t xml:space="preserve">37.3655204772949</t>
+  </si>
+  <si>
+    <t xml:space="preserve">37.3166770935059</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36.2909545898438</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36.7793960571289</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.4117698669434</t>
   </si>
   <si>
     <t xml:space="preserve">35.314079284668</t>
@@ -2630,7 +2630,7 @@
     <t xml:space="preserve">37.0236129760742</t>
   </si>
   <si>
-    <t xml:space="preserve">37.4143600463867</t>
+    <t xml:space="preserve">37.414363861084</t>
   </si>
   <si>
     <t xml:space="preserve">38.00048828125</t>
@@ -2642,31 +2642,31 @@
     <t xml:space="preserve">38.977367401123</t>
   </si>
   <si>
-    <t xml:space="preserve">39.123893737793</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40.1984634399414</t>
+    <t xml:space="preserve">39.1238975524902</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40.1984596252441</t>
   </si>
   <si>
     <t xml:space="preserve">40.051929473877</t>
   </si>
   <si>
-    <t xml:space="preserve">38.9285202026367</t>
-  </si>
-  <si>
-    <t xml:space="preserve">39.0750503540039</t>
+    <t xml:space="preserve">38.9285163879395</t>
+  </si>
+  <si>
+    <t xml:space="preserve">39.0750541687012</t>
   </si>
   <si>
     <t xml:space="preserve">40.0030860900879</t>
   </si>
   <si>
-    <t xml:space="preserve">40.8334312438965</t>
+    <t xml:space="preserve">40.8334274291992</t>
   </si>
   <si>
     <t xml:space="preserve">40.5403671264648</t>
   </si>
   <si>
-    <t xml:space="preserve">39.8077087402344</t>
+    <t xml:space="preserve">39.8077125549316</t>
   </si>
   <si>
     <t xml:space="preserve">40.638053894043</t>
@@ -2678,10 +2678,10 @@
     <t xml:space="preserve">42.2987442016602</t>
   </si>
   <si>
-    <t xml:space="preserve">40.442684173584</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41.5660858154297</t>
+    <t xml:space="preserve">40.4426803588867</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41.5660820007324</t>
   </si>
   <si>
     <t xml:space="preserve">42.2499008178711</t>
@@ -2690,22 +2690,22 @@
     <t xml:space="preserve">42.738338470459</t>
   </si>
   <si>
-    <t xml:space="preserve">42.4452743530273</t>
-  </si>
-  <si>
-    <t xml:space="preserve">43.0313987731934</t>
-  </si>
-  <si>
-    <t xml:space="preserve">42.0056838989258</t>
+    <t xml:space="preserve">42.4452781677246</t>
+  </si>
+  <si>
+    <t xml:space="preserve">43.0314025878906</t>
+  </si>
+  <si>
+    <t xml:space="preserve">42.0056800842285</t>
   </si>
   <si>
     <t xml:space="preserve">42.787181854248</t>
   </si>
   <si>
-    <t xml:space="preserve">43.9105911254883</t>
-  </si>
-  <si>
-    <t xml:space="preserve">44.5455589294434</t>
+    <t xml:space="preserve">43.910587310791</t>
+  </si>
+  <si>
+    <t xml:space="preserve">44.5455551147461</t>
   </si>
   <si>
     <t xml:space="preserve">45.1316871643066</t>
@@ -2714,19 +2714,19 @@
     <t xml:space="preserve">45.1805267333984</t>
   </si>
   <si>
-    <t xml:space="preserve">46.1085624694824</t>
+    <t xml:space="preserve">46.1085662841797</t>
   </si>
   <si>
     <t xml:space="preserve">44.838623046875</t>
   </si>
   <si>
-    <t xml:space="preserve">45.424747467041</t>
+    <t xml:space="preserve">45.4247512817383</t>
   </si>
   <si>
     <t xml:space="preserve">46.4504699707031</t>
   </si>
   <si>
-    <t xml:space="preserve">45.9131889343262</t>
+    <t xml:space="preserve">45.9131851196289</t>
   </si>
   <si>
     <t xml:space="preserve">45.375904083252</t>
@@ -2741,7 +2741,7 @@
     <t xml:space="preserve">45.0339965820312</t>
   </si>
   <si>
-    <t xml:space="preserve">44.9363136291504</t>
+    <t xml:space="preserve">44.9363098144531</t>
   </si>
   <si>
     <t xml:space="preserve">44.6920928955078</t>
@@ -2756,7 +2756,7 @@
     <t xml:space="preserve">43.7152137756348</t>
   </si>
   <si>
-    <t xml:space="preserve">43.6663703918457</t>
+    <t xml:space="preserve">43.666374206543</t>
   </si>
   <si>
     <t xml:space="preserve">43.2756195068359</t>
@@ -2768,10 +2768,10 @@
     <t xml:space="preserve">44.4478721618652</t>
   </si>
   <si>
-    <t xml:space="preserve">43.8129005432129</t>
-  </si>
-  <si>
-    <t xml:space="preserve">42.8360252380371</t>
+    <t xml:space="preserve">43.8128967285156</t>
+  </si>
+  <si>
+    <t xml:space="preserve">42.8360214233398</t>
   </si>
   <si>
     <t xml:space="preserve">42.2946891784668</t>
@@ -4413,6 +4413,9 @@
   </si>
   <si>
     <t xml:space="preserve">34.2999992370605</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.5</t>
   </si>
 </sst>
 </file>
@@ -60680,7 +60683,7 @@
     </row>
     <row r="2152">
       <c r="A2152" s="1" t="n">
-        <v>45457.6493402778</v>
+        <v>45457.2916666667</v>
       </c>
       <c r="B2152" t="n">
         <v>6922</v>
@@ -60701,6 +60704,32 @@
         <v>1466</v>
       </c>
       <c r="H2152" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2153">
+      <c r="A2153" s="1" t="n">
+        <v>45460.6495949074</v>
+      </c>
+      <c r="B2153" t="n">
+        <v>18375</v>
+      </c>
+      <c r="C2153" t="n">
+        <v>35.5999984741211</v>
+      </c>
+      <c r="D2153" t="n">
+        <v>34</v>
+      </c>
+      <c r="E2153" t="n">
+        <v>34.2000007629395</v>
+      </c>
+      <c r="F2153" t="n">
+        <v>35.5</v>
+      </c>
+      <c r="G2153" t="s">
+        <v>1467</v>
+      </c>
+      <c r="H2153" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/MOL.MI.xlsx
+++ b/data/MOL.MI.xlsx
@@ -38,7 +38,7 @@
     <t xml:space="preserve">ticker</t>
   </si>
   <si>
-    <t xml:space="preserve">7.05242443084717</t>
+    <t xml:space="preserve">7.05242395401001</t>
   </si>
   <si>
     <t xml:space="preserve">MOL.MI</t>
@@ -50,49 +50,49 @@
     <t xml:space="preserve">6.85652351379395</t>
   </si>
   <si>
-    <t xml:space="preserve">6.97041988372803</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.83374500274658</t>
+    <t xml:space="preserve">6.97041940689087</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.83374404907227</t>
   </si>
   <si>
     <t xml:space="preserve">6.92486095428467</t>
   </si>
   <si>
-    <t xml:space="preserve">7.01597833633423</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.74262762069702</t>
+    <t xml:space="preserve">7.01597785949707</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.74262809753418</t>
   </si>
   <si>
     <t xml:space="preserve">6.50572490692139</t>
   </si>
   <si>
-    <t xml:space="preserve">6.27793264389038</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.53761625289917</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.42372035980225</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.75173902511597</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.65151214599609</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.06836414337158</t>
+    <t xml:space="preserve">6.2779335975647</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.53761529922485</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.42371988296509</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.75173997879028</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.65151166915894</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.0683650970459</t>
   </si>
   <si>
     <t xml:space="preserve">6.71529245376587</t>
   </si>
   <si>
-    <t xml:space="preserve">6.85196781158447</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.96130752563477</t>
+    <t xml:space="preserve">6.85196733474731</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.96130800247192</t>
   </si>
   <si>
     <t xml:space="preserve">6.86107969284058</t>
@@ -104,34 +104,34 @@
     <t xml:space="preserve">6.87930297851562</t>
   </si>
   <si>
-    <t xml:space="preserve">6.19592905044556</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.07292079925537</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.46927738189697</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.24148607254028</t>
+    <t xml:space="preserve">6.1959285736084</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.07292175292969</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.46927785873413</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.24148654937744</t>
   </si>
   <si>
     <t xml:space="preserve">6.43738746643066</t>
   </si>
   <si>
-    <t xml:space="preserve">6.58772993087769</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.52850389480591</t>
+    <t xml:space="preserve">6.58772945404053</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.52850341796875</t>
   </si>
   <si>
     <t xml:space="preserve">6.70162582397461</t>
   </si>
   <si>
-    <t xml:space="preserve">6.51939249038696</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.615065574646</t>
+    <t xml:space="preserve">6.51939296722412</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.61506509780884</t>
   </si>
   <si>
     <t xml:space="preserve">6.57861804962158</t>
@@ -140,10 +140,10 @@
     <t xml:space="preserve">6.49205780029297</t>
   </si>
   <si>
-    <t xml:space="preserve">6.59684181213379</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.54217195510864</t>
+    <t xml:space="preserve">6.59684133529663</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.5421724319458</t>
   </si>
   <si>
     <t xml:space="preserve">6.82918882369995</t>
@@ -152,22 +152,22 @@
     <t xml:space="preserve">6.62417650222778</t>
   </si>
   <si>
-    <t xml:space="preserve">6.41005229949951</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.42827606201172</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.46016693115234</t>
+    <t xml:space="preserve">6.41005277633667</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.42827558517456</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.46016597747803</t>
   </si>
   <si>
     <t xml:space="preserve">6.45105457305908</t>
   </si>
   <si>
-    <t xml:space="preserve">6.82463312149048</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.62873125076294</t>
+    <t xml:space="preserve">6.82463264465332</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.62873268127441</t>
   </si>
   <si>
     <t xml:space="preserve">6.6013970375061</t>
@@ -179,22 +179,22 @@
     <t xml:space="preserve">6.6469554901123</t>
   </si>
   <si>
-    <t xml:space="preserve">6.55583906173706</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.37816143035889</t>
+    <t xml:space="preserve">6.55583953857422</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.37816190719604</t>
   </si>
   <si>
     <t xml:space="preserve">6.24604272842407</t>
   </si>
   <si>
-    <t xml:space="preserve">6.4738335609436</t>
+    <t xml:space="preserve">6.47383451461792</t>
   </si>
   <si>
     <t xml:space="preserve">6.38727378845215</t>
   </si>
   <si>
-    <t xml:space="preserve">6.47839069366455</t>
+    <t xml:space="preserve">6.47838973999023</t>
   </si>
   <si>
     <t xml:space="preserve">6.43283176422119</t>
@@ -203,34 +203,34 @@
     <t xml:space="preserve">6.4054970741272</t>
   </si>
   <si>
-    <t xml:space="preserve">6.44194364547729</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.33715867996216</t>
+    <t xml:space="preserve">6.44194316864014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.33715963363647</t>
   </si>
   <si>
     <t xml:space="preserve">6.37360572814941</t>
   </si>
   <si>
-    <t xml:space="preserve">6.78363084793091</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.66973543167114</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.68795824050903</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.61050844192505</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.82885646820068</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.64278316497803</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.73581981658936</t>
+    <t xml:space="preserve">6.78363037109375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.66973447799683</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.68795776367188</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.61050939559937</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.82885599136353</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.64278364181519</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.73582029342651</t>
   </si>
   <si>
     <t xml:space="preserve">6.63348007202148</t>
@@ -239,22 +239,22 @@
     <t xml:space="preserve">6.69860553741455</t>
   </si>
   <si>
-    <t xml:space="preserve">6.74977588653564</t>
+    <t xml:space="preserve">6.74977493286133</t>
   </si>
   <si>
     <t xml:space="preserve">6.55439949035645</t>
   </si>
   <si>
-    <t xml:space="preserve">6.81490087509155</t>
+    <t xml:space="preserve">6.81490039825439</t>
   </si>
   <si>
     <t xml:space="preserve">6.88932991027832</t>
   </si>
   <si>
-    <t xml:space="preserve">6.79164171218872</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.88002586364746</t>
+    <t xml:space="preserve">6.79164218902588</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.8800253868103</t>
   </si>
   <si>
     <t xml:space="preserve">6.90328550338745</t>
@@ -263,34 +263,34 @@
     <t xml:space="preserve">6.94980335235596</t>
   </si>
   <si>
-    <t xml:space="preserve">7.05214262008667</t>
+    <t xml:space="preserve">7.05214309692383</t>
   </si>
   <si>
     <t xml:space="preserve">7.14983129501343</t>
   </si>
   <si>
-    <t xml:space="preserve">7.19169664382935</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.31264495849609</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.46615266799927</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.53593111038208</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.6754846572876</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.51732492446899</t>
+    <t xml:space="preserve">7.1916971206665</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.31264400482178</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.46615409851074</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.5359320640564</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.67548418045044</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.51732397079468</t>
   </si>
   <si>
     <t xml:space="preserve">7.59640455245972</t>
   </si>
   <si>
-    <t xml:space="preserve">7.47080516815186</t>
+    <t xml:space="preserve">7.47080564498901</t>
   </si>
   <si>
     <t xml:space="preserve">7.44289493560791</t>
@@ -299,25 +299,25 @@
     <t xml:space="preserve">7.43824291229248</t>
   </si>
   <si>
-    <t xml:space="preserve">7.41033267974854</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.30334138870239</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.34985876083374</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.21030426025391</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.2893853187561</t>
+    <t xml:space="preserve">7.41033220291138</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.30334043502808</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.3498592376709</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.21030473709106</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.28938484191895</t>
   </si>
   <si>
     <t xml:space="preserve">7.16378688812256</t>
   </si>
   <si>
-    <t xml:space="preserve">7.04284000396729</t>
+    <t xml:space="preserve">7.04283952713013</t>
   </si>
   <si>
     <t xml:space="preserve">7.32659959793091</t>
@@ -326,19 +326,19 @@
     <t xml:space="preserve">7.37776947021484</t>
   </si>
   <si>
-    <t xml:space="preserve">7.52662801742554</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.54058265686035</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.20565223693848</t>
+    <t xml:space="preserve">7.52662754058838</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.54058313369751</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.20565271377563</t>
   </si>
   <si>
     <t xml:space="preserve">6.9311957359314</t>
   </si>
   <si>
-    <t xml:space="preserve">7.29868841171265</t>
+    <t xml:space="preserve">7.2986888885498</t>
   </si>
   <si>
     <t xml:space="preserve">7.39637660980225</t>
@@ -350,10 +350,10 @@
     <t xml:space="preserve">6.87537431716919</t>
   </si>
   <si>
-    <t xml:space="preserve">6.68930292129517</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.76373052597046</t>
+    <t xml:space="preserve">6.68930149078369</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.7637300491333</t>
   </si>
   <si>
     <t xml:space="preserve">6.77303457260132</t>
@@ -362,40 +362,40 @@
     <t xml:space="preserve">6.60556936264038</t>
   </si>
   <si>
-    <t xml:space="preserve">6.94515180587769</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.84746313095093</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.74512338638306</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.65208673477173</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.95445489883423</t>
+    <t xml:space="preserve">6.94515132904053</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.84746360778809</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.7451229095459</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.65208721160889</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.95445442199707</t>
   </si>
   <si>
     <t xml:space="preserve">6.75907897949219</t>
   </si>
   <si>
-    <t xml:space="preserve">6.9777135848999</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.90793657302856</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.67999792098999</t>
+    <t xml:space="preserve">6.97771406173706</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.90793704986572</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.67999839782715</t>
   </si>
   <si>
     <t xml:space="preserve">6.73116827011108</t>
   </si>
   <si>
-    <t xml:space="preserve">6.85676670074463</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.88467741012573</t>
+    <t xml:space="preserve">6.85676717758179</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.88467788696289</t>
   </si>
   <si>
     <t xml:space="preserve">6.95910692214966</t>
@@ -404,19 +404,19 @@
     <t xml:space="preserve">7.08005332946777</t>
   </si>
   <si>
-    <t xml:space="preserve">6.89863348007202</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.98701810836792</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.9963207244873</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.01492834091187</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.01957988739014</t>
+    <t xml:space="preserve">6.89863300323486</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.9870171546936</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.99632215499878</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.01492881774902</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.01958036422729</t>
   </si>
   <si>
     <t xml:space="preserve">7.02423191070557</t>
@@ -425,10 +425,10 @@
     <t xml:space="preserve">7.00562477111816</t>
   </si>
   <si>
-    <t xml:space="preserve">7.12657117843628</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.10796451568604</t>
+    <t xml:space="preserve">7.12657260894775</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.10796499252319</t>
   </si>
   <si>
     <t xml:space="preserve">7.07075071334839</t>
@@ -437,43 +437,43 @@
     <t xml:space="preserve">7.18704509735107</t>
   </si>
   <si>
-    <t xml:space="preserve">7.3870735168457</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.21960830688477</t>
+    <t xml:space="preserve">7.38707304000854</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.21960783004761</t>
   </si>
   <si>
     <t xml:space="preserve">7.1823935508728</t>
   </si>
   <si>
-    <t xml:space="preserve">6.83815908432007</t>
+    <t xml:space="preserve">6.83816003799438</t>
   </si>
   <si>
     <t xml:space="preserve">6.89398145675659</t>
   </si>
   <si>
-    <t xml:space="preserve">7.08935737609863</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.1358757019043</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.22891187667847</t>
+    <t xml:space="preserve">7.08935785293579</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.13587522506714</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.22891235351562</t>
   </si>
   <si>
     <t xml:space="preserve">7.19634914398193</t>
   </si>
   <si>
-    <t xml:space="preserve">7.40568017959595</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.26612567901611</t>
+    <t xml:space="preserve">7.40568065643311</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.26612615585327</t>
   </si>
   <si>
     <t xml:space="preserve">7.25682210922241</t>
   </si>
   <si>
-    <t xml:space="preserve">7.27542972564697</t>
+    <t xml:space="preserve">7.27542924880981</t>
   </si>
   <si>
     <t xml:space="preserve">7.35916185379028</t>
@@ -482,19 +482,19 @@
     <t xml:space="preserve">7.29403686523438</t>
   </si>
   <si>
-    <t xml:space="preserve">7.2707781791687</t>
+    <t xml:space="preserve">7.27077865600586</t>
   </si>
   <si>
     <t xml:space="preserve">7.36846590042114</t>
   </si>
   <si>
-    <t xml:space="preserve">7.42428779602051</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.60105657577515</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.43359136581421</t>
+    <t xml:space="preserve">7.42428731918335</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.6010570526123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.43359088897705</t>
   </si>
   <si>
     <t xml:space="preserve">7.46150255203247</t>
@@ -503,22 +503,22 @@
     <t xml:space="preserve">7.40102863311768</t>
   </si>
   <si>
-    <t xml:space="preserve">7.57314586639404</t>
+    <t xml:space="preserve">7.57314491271973</t>
   </si>
   <si>
     <t xml:space="preserve">7.58710098266602</t>
   </si>
   <si>
-    <t xml:space="preserve">7.08470487594604</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.2428674697876</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.39172601699829</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.11726856231689</t>
+    <t xml:space="preserve">7.0847053527832</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.24286699295044</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.39172506332397</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.11726808547974</t>
   </si>
   <si>
     <t xml:space="preserve">7.74061059951782</t>
@@ -530,28 +530,28 @@
     <t xml:space="preserve">7.72200441360474</t>
   </si>
   <si>
-    <t xml:space="preserve">7.62896680831909</t>
+    <t xml:space="preserve">7.62896728515625</t>
   </si>
   <si>
     <t xml:space="preserve">7.48941278457642</t>
   </si>
   <si>
-    <t xml:space="preserve">7.83364677429199</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.88946723937988</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.95459365844727</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.90807580947876</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.90342426300049</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.86155700683594</t>
+    <t xml:space="preserve">7.83364725112915</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.88946914672852</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.95459318161011</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.90807628631592</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.90342330932617</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.86155652999878</t>
   </si>
   <si>
     <t xml:space="preserve">8.00111198425293</t>
@@ -560,46 +560,46 @@
     <t xml:space="preserve">8.20579147338867</t>
   </si>
   <si>
-    <t xml:space="preserve">8.58724021911621</t>
+    <t xml:space="preserve">8.58723926544189</t>
   </si>
   <si>
     <t xml:space="preserve">8.66166973114014</t>
   </si>
   <si>
-    <t xml:space="preserve">8.69888305664062</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.82913208007812</t>
+    <t xml:space="preserve">8.69888496398926</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.82913398742676</t>
   </si>
   <si>
     <t xml:space="preserve">8.62445545196533</t>
   </si>
   <si>
-    <t xml:space="preserve">8.65701675415039</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.6058464050293</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.46629333496094</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.48490047454834</t>
+    <t xml:space="preserve">8.65701770782471</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.60584831237793</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.46629238128662</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.48489952087402</t>
   </si>
   <si>
     <t xml:space="preserve">8.5825891494751</t>
   </si>
   <si>
-    <t xml:space="preserve">8.57328510284424</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.56863212585449</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.61049938201904</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.61980247497559</t>
+    <t xml:space="preserve">8.57328414916992</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.56863307952881</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.61049842834473</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.6198034286499</t>
   </si>
   <si>
     <t xml:space="preserve">8.71749019622803</t>
@@ -608,10 +608,10 @@
     <t xml:space="preserve">8.55002498626709</t>
   </si>
   <si>
-    <t xml:space="preserve">8.54537391662598</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.3360424041748</t>
+    <t xml:space="preserve">8.54537487030029</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.33604335784912</t>
   </si>
   <si>
     <t xml:space="preserve">8.51281070709229</t>
@@ -620,13 +620,13 @@
     <t xml:space="preserve">8.44768714904785</t>
   </si>
   <si>
-    <t xml:space="preserve">8.31278324127197</t>
+    <t xml:space="preserve">8.31278228759766</t>
   </si>
   <si>
     <t xml:space="preserve">8.34999752044678</t>
   </si>
   <si>
-    <t xml:space="preserve">8.52676677703857</t>
+    <t xml:space="preserve">8.52676582336426</t>
   </si>
   <si>
     <t xml:space="preserve">8.54072189331055</t>
@@ -638,16 +638,16 @@
     <t xml:space="preserve">8.73144721984863</t>
   </si>
   <si>
-    <t xml:space="preserve">8.67097282409668</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.47094440460205</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.51746368408203</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.26626586914062</t>
+    <t xml:space="preserve">8.67097187042236</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.47094535827637</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.51746273040771</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.26626491546631</t>
   </si>
   <si>
     <t xml:space="preserve">8.37325668334961</t>
@@ -662,31 +662,31 @@
     <t xml:space="preserve">8.95008182525635</t>
   </si>
   <si>
-    <t xml:space="preserve">9.86183738708496</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.52690601348877</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.48969078063965</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.28501129150391</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.43387031555176</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.47108459472656</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.48038768768311</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.49899578094482</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.21058082580566</t>
+    <t xml:space="preserve">9.86183643341064</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.52690505981445</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.48968982696533</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.28501033782959</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.43386936187744</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.47108364105225</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.48038673400879</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.49899482727051</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.21058177947998</t>
   </si>
   <si>
     <t xml:space="preserve">9.30361938476562</t>
@@ -698,28 +698,28 @@
     <t xml:space="preserve">9.62924575805664</t>
   </si>
   <si>
-    <t xml:space="preserve">9.83392524719238</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.7501916885376</t>
+    <t xml:space="preserve">9.83392429351807</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.75019264221191</t>
   </si>
   <si>
     <t xml:space="preserve">10.0944261550903</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1874628067017</t>
+    <t xml:space="preserve">10.1874618530273</t>
   </si>
   <si>
     <t xml:space="preserve">10.5130891799927</t>
   </si>
   <si>
-    <t xml:space="preserve">10.233980178833</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7549848556519</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1643419265747</t>
+    <t xml:space="preserve">10.2339811325073</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7549839019775</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1643409729004</t>
   </si>
   <si>
     <t xml:space="preserve">11.1271286010742</t>
@@ -731,43 +731,43 @@
     <t xml:space="preserve">11.257378578186</t>
   </si>
   <si>
-    <t xml:space="preserve">11.0526990890503</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0247898101807</t>
+    <t xml:space="preserve">11.052698135376</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.024787902832</t>
   </si>
   <si>
     <t xml:space="preserve">11.0713062286377</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5752964019775</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3226118087769</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1073656082153</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.48171043396</t>
+    <t xml:space="preserve">10.5752973556519</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3226127624512</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1073637008667</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4817094802856</t>
   </si>
   <si>
     <t xml:space="preserve">10.5285034179688</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3787641525269</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5004272460938</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6127328872681</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5940132141113</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6408071517944</t>
+    <t xml:space="preserve">10.3787651062012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5004281997681</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6127319335938</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5940141677856</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6408081054688</t>
   </si>
   <si>
     <t xml:space="preserve">10.8466987609863</t>
@@ -776,22 +776,22 @@
     <t xml:space="preserve">11.1836109161377</t>
   </si>
   <si>
-    <t xml:space="preserve">11.8855094909668</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.6983366012573</t>
+    <t xml:space="preserve">11.8855104446411</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.6983375549316</t>
   </si>
   <si>
     <t xml:space="preserve">11.3239908218384</t>
   </si>
   <si>
-    <t xml:space="preserve">11.4082193374634</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2023286819458</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2491226196289</t>
+    <t xml:space="preserve">11.4082174301147</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2023277282715</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2491216659546</t>
   </si>
   <si>
     <t xml:space="preserve">11.1368169784546</t>
@@ -800,115 +800,115 @@
     <t xml:space="preserve">10.930926322937</t>
   </si>
   <si>
-    <t xml:space="preserve">10.8560581207275</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8373394012451</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0900249481201</t>
+    <t xml:space="preserve">10.8560571670532</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8373403549194</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0900239944458</t>
   </si>
   <si>
     <t xml:space="preserve">10.9683618545532</t>
   </si>
   <si>
-    <t xml:space="preserve">10.6688833236694</t>
+    <t xml:space="preserve">10.6688823699951</t>
   </si>
   <si>
     <t xml:space="preserve">11.2304029464722</t>
   </si>
   <si>
-    <t xml:space="preserve">11.1648921966553</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5953931808472</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1742506027222</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0432291030884</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5579586029053</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5111627578735</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.8200006484985</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.2130651473999</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.437671661377</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.007173538208</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.6342039108276</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.6435623168945</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.7933015823364</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.8681707382202</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.6529216766357</t>
+    <t xml:space="preserve">11.1648931503296</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5953922271729</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1742515563965</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0432300567627</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.557957649231</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5111646652222</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.8200016021729</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2130641937256</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.4376726150513</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0071744918823</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.634204864502</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.6435632705688</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.7933025360107</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.8681716918945</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.6529235839844</t>
   </si>
   <si>
     <t xml:space="preserve">12.9149646759033</t>
   </si>
   <si>
-    <t xml:space="preserve">12.8494539260864</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.662281036377</t>
+    <t xml:space="preserve">12.8494529724121</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.6622791290283</t>
   </si>
   <si>
     <t xml:space="preserve">12.6997137069702</t>
   </si>
   <si>
-    <t xml:space="preserve">12.6809968948364</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.5874109268188</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.6154861450195</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.606128692627</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.8026609420776</t>
+    <t xml:space="preserve">12.6809988021851</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.5874099731445</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.6154870986938</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.6061296463013</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.8026599884033</t>
   </si>
   <si>
     <t xml:space="preserve">12.7465076446533</t>
   </si>
   <si>
-    <t xml:space="preserve">12.6716394424438</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.2972927093506</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.5125417709351</t>
+    <t xml:space="preserve">12.6716375350952</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2972936630249</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.5125408172607</t>
   </si>
   <si>
     <t xml:space="preserve">12.5406179428101</t>
   </si>
   <si>
-    <t xml:space="preserve">12.4095964431763</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.4844655990601</t>
+    <t xml:space="preserve">12.4095973968506</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.4844646453857</t>
   </si>
   <si>
     <t xml:space="preserve">11.9978141784668</t>
@@ -917,19 +917,19 @@
     <t xml:space="preserve">12.4002370834351</t>
   </si>
   <si>
-    <t xml:space="preserve">12.2879333496094</t>
+    <t xml:space="preserve">12.2879343032837</t>
   </si>
   <si>
     <t xml:space="preserve">12.1662712097168</t>
   </si>
   <si>
-    <t xml:space="preserve">12.063325881958</t>
+    <t xml:space="preserve">12.0633249282837</t>
   </si>
   <si>
     <t xml:space="preserve">12.4283132553101</t>
   </si>
   <si>
-    <t xml:space="preserve">12.3815212249756</t>
+    <t xml:space="preserve">12.3815202713013</t>
   </si>
   <si>
     <t xml:space="preserve">12.0539665222168</t>
@@ -938,28 +938,28 @@
     <t xml:space="preserve">12.0726842880249</t>
   </si>
   <si>
-    <t xml:space="preserve">12.4470310211182</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.5593347549438</t>
+    <t xml:space="preserve">12.4470319747925</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.5593338012695</t>
   </si>
   <si>
     <t xml:space="preserve">12.465747833252</t>
   </si>
   <si>
-    <t xml:space="preserve">12.4938249588013</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.2692165374756</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.3628025054932</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.4563894271851</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.5686941146851</t>
+    <t xml:space="preserve">12.4938259124756</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2692155838013</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.3628034591675</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.4563903808594</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.5686950683594</t>
   </si>
   <si>
     <t xml:space="preserve">12.3160095214844</t>
@@ -986,13 +986,13 @@
     <t xml:space="preserve">11.7451314926147</t>
   </si>
   <si>
-    <t xml:space="preserve">11.9042282104492</t>
+    <t xml:space="preserve">11.9042291641235</t>
   </si>
   <si>
     <t xml:space="preserve">11.7732067108154</t>
   </si>
   <si>
-    <t xml:space="preserve">11.7919244766235</t>
+    <t xml:space="preserve">11.7919235229492</t>
   </si>
   <si>
     <t xml:space="preserve">11.8574352264404</t>
@@ -1001,43 +1001,43 @@
     <t xml:space="preserve">12.035249710083</t>
   </si>
   <si>
-    <t xml:space="preserve">11.9323043823242</t>
+    <t xml:space="preserve">11.9323053359985</t>
   </si>
   <si>
     <t xml:space="preserve">11.979097366333</t>
   </si>
   <si>
-    <t xml:space="preserve">11.8480758666992</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.3440856933594</t>
+    <t xml:space="preserve">11.8480768203735</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.3440847396851</t>
   </si>
   <si>
     <t xml:space="preserve">12.3066501617432</t>
   </si>
   <si>
-    <t xml:space="preserve">11.8761529922485</t>
+    <t xml:space="preserve">11.8761510848999</t>
   </si>
   <si>
     <t xml:space="preserve">11.8293590545654</t>
   </si>
   <si>
-    <t xml:space="preserve">11.2959136962891</t>
+    <t xml:space="preserve">11.2959146499634</t>
   </si>
   <si>
     <t xml:space="preserve">11.3988609313965</t>
   </si>
   <si>
-    <t xml:space="preserve">11.2678375244141</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.6515445709229</t>
+    <t xml:space="preserve">11.2678384780884</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.6515436172485</t>
   </si>
   <si>
     <t xml:space="preserve">11.5766744613647</t>
   </si>
   <si>
-    <t xml:space="preserve">11.7076969146729</t>
+    <t xml:space="preserve">11.7076959609985</t>
   </si>
   <si>
     <t xml:space="preserve">11.6889791488647</t>
@@ -1049,52 +1049,52 @@
     <t xml:space="preserve">11.7825660705566</t>
   </si>
   <si>
-    <t xml:space="preserve">11.9697380065918</t>
+    <t xml:space="preserve">11.9697389602661</t>
   </si>
   <si>
     <t xml:space="preserve">12.259859085083</t>
   </si>
   <si>
-    <t xml:space="preserve">12.1194772720337</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0258913040161</t>
+    <t xml:space="preserve">12.119478225708</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0258903503418</t>
   </si>
   <si>
     <t xml:space="preserve">13.0459852218628</t>
   </si>
   <si>
-    <t xml:space="preserve">14.0567226409912</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.243896484375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.2251787185669</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.0754404067993</t>
+    <t xml:space="preserve">14.0567216873169</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.2438945770264</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.2251796722412</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.0754413604736</t>
   </si>
   <si>
     <t xml:space="preserve">14.1315908432007</t>
   </si>
   <si>
-    <t xml:space="preserve">14.7679805755615</t>
+    <t xml:space="preserve">14.7679815292358</t>
   </si>
   <si>
     <t xml:space="preserve">14.0380048751831</t>
   </si>
   <si>
-    <t xml:space="preserve">13.7572441101074</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.3374805450439</t>
+    <t xml:space="preserve">13.7572450637817</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.3374834060669</t>
   </si>
   <si>
     <t xml:space="preserve">14.1503095626831</t>
   </si>
   <si>
-    <t xml:space="preserve">13.8321132659912</t>
+    <t xml:space="preserve">13.8321142196655</t>
   </si>
   <si>
     <t xml:space="preserve">14.5246553421021</t>
@@ -1103,28 +1103,28 @@
     <t xml:space="preserve">14.6556777954102</t>
   </si>
   <si>
-    <t xml:space="preserve">14.7118291854858</t>
+    <t xml:space="preserve">14.7118282318115</t>
   </si>
   <si>
     <t xml:space="preserve">14.6182422637939</t>
   </si>
   <si>
-    <t xml:space="preserve">14.3187665939331</t>
+    <t xml:space="preserve">14.3187646865845</t>
   </si>
   <si>
     <t xml:space="preserve">13.9631357192993</t>
   </si>
   <si>
-    <t xml:space="preserve">13.1208562850952</t>
+    <t xml:space="preserve">13.1208553314209</t>
   </si>
   <si>
     <t xml:space="preserve">12.8962459564209</t>
   </si>
   <si>
-    <t xml:space="preserve">13.4952020645142</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.1582899093628</t>
+    <t xml:space="preserve">13.4952011108398</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1582908630371</t>
   </si>
   <si>
     <t xml:space="preserve">12.858811378479</t>
@@ -1139,16 +1139,16 @@
     <t xml:space="preserve">13.4390506744385</t>
   </si>
   <si>
-    <t xml:space="preserve">12.7839441299438</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.2224225997925</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1288366317749</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9416627883911</t>
+    <t xml:space="preserve">12.7839422225952</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2224235534668</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1288356781006</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9416637420654</t>
   </si>
   <si>
     <t xml:space="preserve">12.7090730667114</t>
@@ -1157,40 +1157,40 @@
     <t xml:space="preserve">12.8400955200195</t>
   </si>
   <si>
-    <t xml:space="preserve">12.7277917861938</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.2785758972168</t>
+    <t xml:space="preserve">12.7277927398682</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2785749435425</t>
   </si>
   <si>
     <t xml:space="preserve">12.1475534439087</t>
   </si>
   <si>
-    <t xml:space="preserve">12.1849880218506</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7170543670654</t>
+    <t xml:space="preserve">12.1849889755249</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7170553207397</t>
   </si>
   <si>
     <t xml:space="preserve">12.5780515670776</t>
   </si>
   <si>
-    <t xml:space="preserve">11.9229459762573</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9603796005249</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.353443145752</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.5031843185425</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.4764842987061</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6636581420898</t>
+    <t xml:space="preserve">11.922945022583</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9603805541992</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.3534440994263</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.5031824111938</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.4764852523804</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6636590957642</t>
   </si>
   <si>
     <t xml:space="preserve">13.8508319854736</t>
@@ -1199,31 +1199,31 @@
     <t xml:space="preserve">14.3936338424683</t>
   </si>
   <si>
-    <t xml:space="preserve">15.0487413406372</t>
+    <t xml:space="preserve">15.0487403869629</t>
   </si>
   <si>
     <t xml:space="preserve">14.9177198410034</t>
   </si>
   <si>
-    <t xml:space="preserve">14.8802852630615</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9364376068115</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1653480529785</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8330068588257</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5468654632568</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3751840591431</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2225761413574</t>
+    <t xml:space="preserve">14.8802843093872</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9364366531372</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1653470993042</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8330059051514</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5468664169312</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3751831054688</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2225751876831</t>
   </si>
   <si>
     <t xml:space="preserve">15.2607278823853</t>
@@ -1232,13 +1232,13 @@
     <t xml:space="preserve">15.3179550170898</t>
   </si>
   <si>
-    <t xml:space="preserve">15.4514875411987</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.2687797546387</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.9444904327393</t>
+    <t xml:space="preserve">15.451488494873</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.268780708313</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.9444894790649</t>
   </si>
   <si>
     <t xml:space="preserve">13.3912878036499</t>
@@ -1247,10 +1247,10 @@
     <t xml:space="preserve">13.734655380249</t>
   </si>
   <si>
-    <t xml:space="preserve">13.8109579086304</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2005281448364</t>
+    <t xml:space="preserve">13.8109588623047</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2005290985107</t>
   </si>
   <si>
     <t xml:space="preserve">13.0669975280762</t>
@@ -1271,7 +1271,7 @@
     <t xml:space="preserve">13.1242265701294</t>
   </si>
   <si>
-    <t xml:space="preserve">12.7427082061768</t>
+    <t xml:space="preserve">12.7427072525024</t>
   </si>
   <si>
     <t xml:space="preserve">12.8190107345581</t>
@@ -1283,19 +1283,19 @@
     <t xml:space="preserve">12.9906940460205</t>
   </si>
   <si>
-    <t xml:space="preserve">12.4565687179565</t>
+    <t xml:space="preserve">12.4565696716309</t>
   </si>
   <si>
     <t xml:space="preserve">12.8571624755859</t>
   </si>
   <si>
-    <t xml:space="preserve">12.8380880355835</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.8953142166138</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.3802642822266</t>
+    <t xml:space="preserve">12.8380861282349</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.8953161239624</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.3802652359009</t>
   </si>
   <si>
     <t xml:space="preserve">13.868185043335</t>
@@ -1307,49 +1307,49 @@
     <t xml:space="preserve">14.0970964431763</t>
   </si>
   <si>
-    <t xml:space="preserve">14.0017185211182</t>
+    <t xml:space="preserve">14.0017175674438</t>
   </si>
   <si>
     <t xml:space="preserve">14.2115526199341</t>
   </si>
   <si>
-    <t xml:space="preserve">13.7537307739258</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.7155790328979</t>
+    <t xml:space="preserve">13.7537298202515</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.7155780792236</t>
   </si>
   <si>
     <t xml:space="preserve">13.5438957214355</t>
   </si>
   <si>
-    <t xml:space="preserve">13.5820465087891</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5629720687866</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.3722133636475</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2577571868896</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.4485168457031</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6011238098145</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.334059715271</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.486668586731</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.6854791641235</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.6282510757446</t>
+    <t xml:space="preserve">13.5820474624634</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5629711151123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3722124099731</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2577562332153</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.4485158920288</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6011228561401</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3340606689453</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.4866666793823</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.6854801177979</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.6282520294189</t>
   </si>
   <si>
     <t xml:space="preserve">12.399341583252</t>
@@ -1358,10 +1358,10 @@
     <t xml:space="preserve">12.799934387207</t>
   </si>
   <si>
-    <t xml:space="preserve">13.1623783111572</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.1051483154297</t>
+    <t xml:space="preserve">13.1623773574829</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.105149269104</t>
   </si>
   <si>
     <t xml:space="preserve">12.9334669113159</t>
@@ -1370,25 +1370,25 @@
     <t xml:space="preserve">13.0860738754272</t>
   </si>
   <si>
-    <t xml:space="preserve">13.9254131317139</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.2497053146362</t>
+    <t xml:space="preserve">13.9254150390625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.2497043609619</t>
   </si>
   <si>
     <t xml:space="preserve">14.4023113250732</t>
   </si>
   <si>
-    <t xml:space="preserve">14.4404649734497</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.1924772262573</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.8300352096558</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6201982498169</t>
+    <t xml:space="preserve">14.4404640197754</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.192476272583</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.8300342559814</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6201992034912</t>
   </si>
   <si>
     <t xml:space="preserve">13.8872623443604</t>
@@ -1397,100 +1397,100 @@
     <t xml:space="preserve">13.6774263381958</t>
   </si>
   <si>
-    <t xml:space="preserve">14.3069314956665</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0699691772461</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6422443389893</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4133358001709</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2988796234131</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.6914196014404</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.8631038665771</t>
+    <t xml:space="preserve">14.3069324493408</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0699682235718</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6422462463379</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4133348464966</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2988805770874</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.6914215087891</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.8631057739258</t>
   </si>
   <si>
     <t xml:space="preserve">17.0729389190674</t>
   </si>
   <si>
-    <t xml:space="preserve">16.7868022918701</t>
+    <t xml:space="preserve">16.7868003845215</t>
   </si>
   <si>
     <t xml:space="preserve">16.3862075805664</t>
   </si>
   <si>
-    <t xml:space="preserve">16.0619144439697</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.737624168396</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6613206863403</t>
+    <t xml:space="preserve">16.0619163513184</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7376232147217</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6613216400146</t>
   </si>
   <si>
     <t xml:space="preserve">15.1462717056274</t>
   </si>
   <si>
-    <t xml:space="preserve">15.3561067581177</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.5167675018311</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.7456769943237</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.5739936828613</t>
+    <t xml:space="preserve">15.356107711792</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.5167665481567</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.745677947998</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.5739946365356</t>
   </si>
   <si>
     <t xml:space="preserve">14.7838296890259</t>
   </si>
   <si>
-    <t xml:space="preserve">14.3832349777222</t>
+    <t xml:space="preserve">14.3832359313965</t>
   </si>
   <si>
     <t xml:space="preserve">14.3260078430176</t>
   </si>
   <si>
-    <t xml:space="preserve">14.0207929611206</t>
+    <t xml:space="preserve">14.0207939147949</t>
   </si>
   <si>
     <t xml:space="preserve">13.658350944519</t>
   </si>
   <si>
-    <t xml:space="preserve">13.9826421737671</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.1543245315552</t>
+    <t xml:space="preserve">13.9826412200928</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.1543254852295</t>
   </si>
   <si>
     <t xml:space="preserve">15.0127410888672</t>
   </si>
   <si>
-    <t xml:space="preserve">14.6121454238892</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.5549192428589</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6994705200195</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1081209182739</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.2335987091064</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.2145252227783</t>
+    <t xml:space="preserve">14.6121473312378</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.5549182891846</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6994724273682</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1081199645996</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.2336006164551</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.2145233154297</t>
   </si>
   <si>
     <t xml:space="preserve">16.4052829742432</t>
@@ -1499,46 +1499,46 @@
     <t xml:space="preserve">16.1954460144043</t>
   </si>
   <si>
-    <t xml:space="preserve">16.0237655639648</t>
+    <t xml:space="preserve">16.0237617492676</t>
   </si>
   <si>
     <t xml:space="preserve">15.6040935516357</t>
   </si>
   <si>
-    <t xml:space="preserve">16.1763687133789</t>
+    <t xml:space="preserve">16.1763706207275</t>
   </si>
   <si>
     <t xml:space="preserve">16.500659942627</t>
   </si>
   <si>
-    <t xml:space="preserve">16.2526760101318</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.4815845489502</t>
+    <t xml:space="preserve">16.2526741027832</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.4815864562988</t>
   </si>
   <si>
     <t xml:space="preserve">15.7948532104492</t>
   </si>
   <si>
-    <t xml:space="preserve">15.9474601745605</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.0809936523438</t>
+    <t xml:space="preserve">15.9474611282349</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.0809917449951</t>
   </si>
   <si>
     <t xml:space="preserve">15.2034997940063</t>
   </si>
   <si>
-    <t xml:space="preserve">16.0046882629395</t>
+    <t xml:space="preserve">16.0046901702881</t>
   </si>
   <si>
     <t xml:space="preserve">15.6231689453125</t>
   </si>
   <si>
-    <t xml:space="preserve">14.8792095184326</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0508909225464</t>
+    <t xml:space="preserve">14.8792085647583</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.050892829895</t>
   </si>
   <si>
     <t xml:space="preserve">14.6884508132935</t>
@@ -1547,13 +1547,13 @@
     <t xml:space="preserve">14.9555130004883</t>
   </si>
   <si>
-    <t xml:space="preserve">15.1271953582764</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6803979873657</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8902311325073</t>
+    <t xml:space="preserve">15.1271963119507</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6803970336914</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.890230178833</t>
   </si>
   <si>
     <t xml:space="preserve">15.1844234466553</t>
@@ -1562,31 +1562,31 @@
     <t xml:space="preserve">15.5659418106079</t>
   </si>
   <si>
-    <t xml:space="preserve">15.9093084335327</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7757797241211</t>
+    <t xml:space="preserve">15.9093103408813</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7757787704468</t>
   </si>
   <si>
     <t xml:space="preserve">16.042839050293</t>
   </si>
   <si>
-    <t xml:space="preserve">16.1191425323486</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.1572952270508</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.1382179260254</t>
+    <t xml:space="preserve">16.119140625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.1572971343994</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.138219833374</t>
   </si>
   <si>
     <t xml:space="preserve">15.7567014694214</t>
   </si>
   <si>
-    <t xml:space="preserve">14.8219814300537</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.7647533416748</t>
+    <t xml:space="preserve">14.821982383728</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.7647523880005</t>
   </si>
   <si>
     <t xml:space="preserve">14.9936637878418</t>
@@ -1595,10 +1595,10 @@
     <t xml:space="preserve">15.3370304107666</t>
   </si>
   <si>
-    <t xml:space="preserve">15.2416515350342</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4324111938477</t>
+    <t xml:space="preserve">15.2416505813599</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4324102401733</t>
   </si>
   <si>
     <t xml:space="preserve">16.3480529785156</t>
@@ -1607,70 +1607,70 @@
     <t xml:space="preserve">17.1683177947998</t>
   </si>
   <si>
-    <t xml:space="preserve">17.3972301483154</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.4163074493408</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.4544544219971</t>
+    <t xml:space="preserve">17.3972282409668</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.4163055419922</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.4544563293457</t>
   </si>
   <si>
     <t xml:space="preserve">17.2636966705322</t>
   </si>
   <si>
-    <t xml:space="preserve">17.2255477905273</t>
+    <t xml:space="preserve">17.2255458831787</t>
   </si>
   <si>
     <t xml:space="preserve">18.2174949645996</t>
   </si>
   <si>
-    <t xml:space="preserve">17.5689105987549</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.511682510376</t>
+    <t xml:space="preserve">17.5689125061035</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.5116863250732</t>
   </si>
   <si>
     <t xml:space="preserve">17.5307598114014</t>
   </si>
   <si>
-    <t xml:space="preserve">17.6642932891846</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.206470489502</t>
+    <t xml:space="preserve">17.6642913818359</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.2064685821533</t>
   </si>
   <si>
     <t xml:space="preserve">17.5498371124268</t>
   </si>
   <si>
-    <t xml:space="preserve">17.607063293457</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.0267333984375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.988582611084</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.7215213775635</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.4926109313965</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.301851272583</t>
+    <t xml:space="preserve">17.6070652008057</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.0267353057861</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.9885845184326</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.7215175628662</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.4926071166992</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.3018493652344</t>
   </si>
   <si>
     <t xml:space="preserve">16.7295742034912</t>
   </si>
   <si>
-    <t xml:space="preserve">16.7486476898193</t>
+    <t xml:space="preserve">16.748649597168</t>
   </si>
   <si>
     <t xml:space="preserve">16.4434337615967</t>
   </si>
   <si>
-    <t xml:space="preserve">17.0157089233398</t>
+    <t xml:space="preserve">17.0157108306885</t>
   </si>
   <si>
     <t xml:space="preserve">16.3099021911621</t>
@@ -1679,10 +1679,10 @@
     <t xml:space="preserve">16.7370662689209</t>
   </si>
   <si>
-    <t xml:space="preserve">16.6982364654541</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.5429019927979</t>
+    <t xml:space="preserve">16.6982345581055</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.5429000854492</t>
   </si>
   <si>
     <t xml:space="preserve">16.6011505126953</t>
@@ -1694,16 +1694,16 @@
     <t xml:space="preserve">16.1545696258545</t>
   </si>
   <si>
-    <t xml:space="preserve">16.1351528167725</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.8341503143311</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.970064163208</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.98948097229</t>
+    <t xml:space="preserve">16.1351547241211</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.8341484069824</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.9700660705566</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.9894828796387</t>
   </si>
   <si>
     <t xml:space="preserve">16.9118156433105</t>
@@ -1712,64 +1712,64 @@
     <t xml:space="preserve">16.7953147888184</t>
   </si>
   <si>
-    <t xml:space="preserve">16.5817337036133</t>
+    <t xml:space="preserve">16.5817356109619</t>
   </si>
   <si>
     <t xml:space="preserve">16.6788177490234</t>
   </si>
   <si>
-    <t xml:space="preserve">16.096321105957</t>
+    <t xml:space="preserve">16.0963191986084</t>
   </si>
   <si>
     <t xml:space="preserve">16.6205673217773</t>
   </si>
   <si>
-    <t xml:space="preserve">16.1157360076904</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.1739864349365</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.0186538696289</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8827390670776</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8050718307495</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5720739364624</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5138235092163</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4555749893188</t>
+    <t xml:space="preserve">16.1157379150391</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.1739845275879</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.0186519622803</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8827381134033</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8050708770752</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5720748901367</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.513822555542</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4555740356445</t>
   </si>
   <si>
     <t xml:space="preserve">15.1254920959473</t>
   </si>
   <si>
-    <t xml:space="preserve">15.3390760421753</t>
+    <t xml:space="preserve">15.339075088501</t>
   </si>
   <si>
     <t xml:space="preserve">15.3779077529907</t>
   </si>
   <si>
-    <t xml:space="preserve">15.2808246612549</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2419910430908</t>
+    <t xml:space="preserve">15.2808256149292</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2419919967651</t>
   </si>
   <si>
     <t xml:space="preserve">15.1449089050293</t>
   </si>
   <si>
-    <t xml:space="preserve">15.2614088058472</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3973236083984</t>
+    <t xml:space="preserve">15.2614078521729</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3973245620728</t>
   </si>
   <si>
     <t xml:space="preserve">15.2031593322754</t>
@@ -1778,7 +1778,7 @@
     <t xml:space="preserve">15.0089931488037</t>
   </si>
   <si>
-    <t xml:space="preserve">14.9895763397217</t>
+    <t xml:space="preserve">14.989577293396</t>
   </si>
   <si>
     <t xml:space="preserve">14.8536615371704</t>
@@ -1793,25 +1793,25 @@
     <t xml:space="preserve">14.970160484314</t>
   </si>
   <si>
-    <t xml:space="preserve">15.1060771942139</t>
+    <t xml:space="preserve">15.1060762405396</t>
   </si>
   <si>
     <t xml:space="preserve">15.3002414703369</t>
   </si>
   <si>
-    <t xml:space="preserve">14.9313278198242</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.8924932479858</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0478258132935</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.164324760437</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9507436752319</t>
+    <t xml:space="preserve">14.9313268661499</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.8924942016602</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0478267669678</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1643257141113</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9507446289062</t>
   </si>
   <si>
     <t xml:space="preserve">15.0284090042114</t>
@@ -1820,31 +1820,31 @@
     <t xml:space="preserve">14.6789121627808</t>
   </si>
   <si>
-    <t xml:space="preserve">14.7177448272705</t>
+    <t xml:space="preserve">14.7177457809448</t>
   </si>
   <si>
     <t xml:space="preserve">14.7371616363525</t>
   </si>
   <si>
-    <t xml:space="preserve">14.6400785446167</t>
+    <t xml:space="preserve">14.640079498291</t>
   </si>
   <si>
     <t xml:space="preserve">14.7759943008423</t>
   </si>
   <si>
-    <t xml:space="preserve">14.7565784454346</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.601245880127</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.5818300247192</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.7954111099243</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0672435760498</t>
+    <t xml:space="preserve">14.7565793991089</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.6012468338013</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.5818290710449</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.7954120635986</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0672426223755</t>
   </si>
   <si>
     <t xml:space="preserve">14.6983289718628</t>
@@ -1856,22 +1856,22 @@
     <t xml:space="preserve">15.5332403182983</t>
   </si>
   <si>
-    <t xml:space="preserve">15.8244876861572</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6691551208496</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8633232116699</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9409866333008</t>
+    <t xml:space="preserve">15.8244886398315</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6691560745239</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8633222579956</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9409875869751</t>
   </si>
   <si>
     <t xml:space="preserve">16.3099002838135</t>
   </si>
   <si>
-    <t xml:space="preserve">15.9215707778931</t>
+    <t xml:space="preserve">15.9215717315674</t>
   </si>
   <si>
     <t xml:space="preserve">15.9604043960571</t>
@@ -1895,31 +1895,31 @@
     <t xml:space="preserve">15.6497402191162</t>
   </si>
   <si>
-    <t xml:space="preserve">15.9798212051392</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.0769023895264</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.271068572998</t>
+    <t xml:space="preserve">15.9798202514648</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.076904296875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.2710704803467</t>
   </si>
   <si>
     <t xml:space="preserve">17.3195629119873</t>
   </si>
   <si>
-    <t xml:space="preserve">17.1642303466797</t>
+    <t xml:space="preserve">17.1642322540283</t>
   </si>
   <si>
     <t xml:space="preserve">17.1059818267822</t>
   </si>
   <si>
-    <t xml:space="preserve">17.0477313995361</t>
+    <t xml:space="preserve">17.0477333068848</t>
   </si>
   <si>
     <t xml:space="preserve">17.1448135375977</t>
   </si>
   <si>
-    <t xml:space="preserve">17.2807292938232</t>
+    <t xml:space="preserve">17.2807273864746</t>
   </si>
   <si>
     <t xml:space="preserve">17.4360599517822</t>
@@ -1928,10 +1928,10 @@
     <t xml:space="preserve">18.4457225799561</t>
   </si>
   <si>
-    <t xml:space="preserve">18.3486385345459</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.7661418914795</t>
+    <t xml:space="preserve">18.3486404418945</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.7661437988281</t>
   </si>
   <si>
     <t xml:space="preserve">17.8243942260742</t>
@@ -1940,10 +1940,10 @@
     <t xml:space="preserve">18.2709732055664</t>
   </si>
   <si>
-    <t xml:space="preserve">18.1544761657715</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.2903919219971</t>
+    <t xml:space="preserve">18.1544780731201</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.2903900146484</t>
   </si>
   <si>
     <t xml:space="preserve">18.1350574493408</t>
@@ -1955,7 +1955,7 @@
     <t xml:space="preserve">18.232141494751</t>
   </si>
   <si>
-    <t xml:space="preserve">18.0962257385254</t>
+    <t xml:space="preserve">18.0962238311768</t>
   </si>
   <si>
     <t xml:space="preserve">18.4845561981201</t>
@@ -1964,7 +1964,7 @@
     <t xml:space="preserve">18.9311370849609</t>
   </si>
   <si>
-    <t xml:space="preserve">19.2806358337402</t>
+    <t xml:space="preserve">19.2806339263916</t>
   </si>
   <si>
     <t xml:space="preserve">19.2029685974121</t>
@@ -1973,34 +1973,34 @@
     <t xml:space="preserve">18.7175559997559</t>
   </si>
   <si>
-    <t xml:space="preserve">19.144718170166</t>
+    <t xml:space="preserve">19.1447162628174</t>
   </si>
   <si>
     <t xml:space="preserve">19.0864696502686</t>
   </si>
   <si>
-    <t xml:space="preserve">19.6107177734375</t>
+    <t xml:space="preserve">19.6107158660889</t>
   </si>
   <si>
     <t xml:space="preserve">19.9990463256836</t>
   </si>
   <si>
-    <t xml:space="preserve">19.7077960968018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.8534240722656</t>
+    <t xml:space="preserve">19.7077980041504</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.853422164917</t>
   </si>
   <si>
     <t xml:space="preserve">19.4650897979736</t>
   </si>
   <si>
-    <t xml:space="preserve">19.0282192230225</t>
+    <t xml:space="preserve">19.0282211303711</t>
   </si>
   <si>
     <t xml:space="preserve">19.8048801422119</t>
   </si>
   <si>
-    <t xml:space="preserve">19.9019622802734</t>
+    <t xml:space="preserve">19.9019641876221</t>
   </si>
   <si>
     <t xml:space="preserve">19.9505043029785</t>
@@ -2021,16 +2021,16 @@
     <t xml:space="preserve">22.4261150360107</t>
   </si>
   <si>
-    <t xml:space="preserve">21.3582057952881</t>
+    <t xml:space="preserve">21.3582077026367</t>
   </si>
   <si>
     <t xml:space="preserve">21.3096656799316</t>
   </si>
   <si>
-    <t xml:space="preserve">21.0184135437012</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.8242492675781</t>
+    <t xml:space="preserve">21.0184154510498</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.8242511749268</t>
   </si>
   <si>
     <t xml:space="preserve">21.2125816345215</t>
@@ -2042,7 +2042,7 @@
     <t xml:space="preserve">20.8727912902832</t>
   </si>
   <si>
-    <t xml:space="preserve">20.1446704864502</t>
+    <t xml:space="preserve">20.1446723937988</t>
   </si>
   <si>
     <t xml:space="preserve">20.4844608306885</t>
@@ -2051,10 +2051,10 @@
     <t xml:space="preserve">20.1932125091553</t>
   </si>
   <si>
-    <t xml:space="preserve">20.0475883483887</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.2612190246582</t>
+    <t xml:space="preserve">20.04758644104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.2612209320068</t>
   </si>
   <si>
     <t xml:space="preserve">20.9698753356934</t>
@@ -2063,13 +2063,13 @@
     <t xml:space="preserve">21.1154975891113</t>
   </si>
   <si>
-    <t xml:space="preserve">20.7757091522217</t>
+    <t xml:space="preserve">20.775707244873</t>
   </si>
   <si>
     <t xml:space="preserve">21.4552898406982</t>
   </si>
   <si>
-    <t xml:space="preserve">21.6009120941162</t>
+    <t xml:space="preserve">21.6009140014648</t>
   </si>
   <si>
     <t xml:space="preserve">21.4067478179932</t>
@@ -2090,7 +2090,7 @@
     <t xml:space="preserve">20.2902965545654</t>
   </si>
   <si>
-    <t xml:space="preserve">18.9117202758789</t>
+    <t xml:space="preserve">18.9117183685303</t>
   </si>
   <si>
     <t xml:space="preserve">18.3680553436279</t>
@@ -2108,7 +2108,7 @@
     <t xml:space="preserve">14.620662689209</t>
   </si>
   <si>
-    <t xml:space="preserve">14.5624122619629</t>
+    <t xml:space="preserve">14.5624132156372</t>
   </si>
   <si>
     <t xml:space="preserve">12.5819244384766</t>
@@ -2117,7 +2117,7 @@
     <t xml:space="preserve">12.1353435516357</t>
   </si>
   <si>
-    <t xml:space="preserve">12.2518424987793</t>
+    <t xml:space="preserve">12.2518434524536</t>
   </si>
   <si>
     <t xml:space="preserve">12.814923286438</t>
@@ -2135,7 +2135,7 @@
     <t xml:space="preserve">13.6886682510376</t>
   </si>
   <si>
-    <t xml:space="preserve">14.1546659469604</t>
+    <t xml:space="preserve">14.1546649932861</t>
   </si>
   <si>
     <t xml:space="preserve">14.3294143676758</t>
@@ -2147,7 +2147,7 @@
     <t xml:space="preserve">14.251748085022</t>
   </si>
   <si>
-    <t xml:space="preserve">14.8730773925781</t>
+    <t xml:space="preserve">14.8730783462524</t>
   </si>
   <si>
     <t xml:space="preserve">14.2323312759399</t>
@@ -2159,19 +2159,19 @@
     <t xml:space="preserve">17.0283164978027</t>
   </si>
   <si>
-    <t xml:space="preserve">16.3293209075928</t>
+    <t xml:space="preserve">16.3293190002441</t>
   </si>
   <si>
     <t xml:space="preserve">16.3681526184082</t>
   </si>
   <si>
-    <t xml:space="preserve">15.6109066009521</t>
+    <t xml:space="preserve">15.6109056472778</t>
   </si>
   <si>
     <t xml:space="preserve">16.2128200531006</t>
   </si>
   <si>
-    <t xml:space="preserve">16.2904853820801</t>
+    <t xml:space="preserve">16.2904872894287</t>
   </si>
   <si>
     <t xml:space="preserve">16.1934051513672</t>
@@ -2183,7 +2183,7 @@
     <t xml:space="preserve">17.3778133392334</t>
   </si>
   <si>
-    <t xml:space="preserve">16.8729820251465</t>
+    <t xml:space="preserve">16.8729801177979</t>
   </si>
   <si>
     <t xml:space="preserve">17.0865650177002</t>
@@ -2192,7 +2192,7 @@
     <t xml:space="preserve">17.2224807739258</t>
   </si>
   <si>
-    <t xml:space="preserve">18.4263076782227</t>
+    <t xml:space="preserve">18.426305770874</t>
   </si>
   <si>
     <t xml:space="preserve">18.8146362304688</t>
@@ -60822,7 +60822,7 @@
     </row>
     <row r="2157">
       <c r="A2157" s="1" t="n">
-        <v>45464.6493518519</v>
+        <v>45464.2916666667</v>
       </c>
       <c r="B2157" t="n">
         <v>7422</v>
@@ -60843,6 +60843,32 @@
         <v>1441</v>
       </c>
       <c r="H2157" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2158">
+      <c r="A2158" s="1" t="n">
+        <v>45467.6495023148</v>
+      </c>
+      <c r="B2158" t="n">
+        <v>41304</v>
+      </c>
+      <c r="C2158" t="n">
+        <v>34.8499984741211</v>
+      </c>
+      <c r="D2158" t="n">
+        <v>34.4000015258789</v>
+      </c>
+      <c r="E2158" t="n">
+        <v>34.5499992370605</v>
+      </c>
+      <c r="F2158" t="n">
+        <v>34.5999984741211</v>
+      </c>
+      <c r="G2158" t="s">
+        <v>1470</v>
+      </c>
+      <c r="H2158" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/MOL.MI.xlsx
+++ b/data/MOL.MI.xlsx
@@ -38,7 +38,7 @@
     <t xml:space="preserve">ticker</t>
   </si>
   <si>
-    <t xml:space="preserve">7.05242395401001</t>
+    <t xml:space="preserve">7.05242347717285</t>
   </si>
   <si>
     <t xml:space="preserve">MOL.MI</t>
@@ -50,37 +50,37 @@
     <t xml:space="preserve">6.8565239906311</t>
   </si>
   <si>
-    <t xml:space="preserve">6.97041940689087</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.83374452590942</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.92486143112183</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.01597738265991</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.74262857437134</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.50572395324707</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.2779335975647</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.53761625289917</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.42372035980225</t>
+    <t xml:space="preserve">6.97041988372803</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.83374547958374</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.92486095428467</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.01597690582275</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.74262809753418</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.50572490692139</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.27793312072754</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.53761577606201</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.42371988296509</t>
   </si>
   <si>
     <t xml:space="preserve">6.75173950195312</t>
   </si>
   <si>
-    <t xml:space="preserve">6.65151119232178</t>
+    <t xml:space="preserve">6.65151166915894</t>
   </si>
   <si>
     <t xml:space="preserve">6.0683650970459</t>
@@ -92,52 +92,52 @@
     <t xml:space="preserve">6.85196781158447</t>
   </si>
   <si>
-    <t xml:space="preserve">6.96130752563477</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.86108016967773</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.88841485977173</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.87930202484131</t>
+    <t xml:space="preserve">6.96130800247192</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.86107969284058</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.88841438293457</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.87930297851562</t>
   </si>
   <si>
     <t xml:space="preserve">6.1959285736084</t>
   </si>
   <si>
-    <t xml:space="preserve">6.07292079925537</t>
+    <t xml:space="preserve">6.07292032241821</t>
   </si>
   <si>
     <t xml:space="preserve">6.46927833557129</t>
   </si>
   <si>
-    <t xml:space="preserve">6.24148750305176</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.43738746643066</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.58772993087769</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.52850341796875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.70162534713745</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.51939296722412</t>
+    <t xml:space="preserve">6.24148607254028</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.43738698959351</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.58773040771484</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.52850389480591</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.70162630081177</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.51939249038696</t>
   </si>
   <si>
     <t xml:space="preserve">6.61506509780884</t>
   </si>
   <si>
-    <t xml:space="preserve">6.57861804962158</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.49205636978149</t>
+    <t xml:space="preserve">6.57861852645874</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.49205732345581</t>
   </si>
   <si>
     <t xml:space="preserve">6.59684133529663</t>
@@ -146,22 +146,22 @@
     <t xml:space="preserve">6.54217147827148</t>
   </si>
   <si>
-    <t xml:space="preserve">6.82918787002563</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.62417697906494</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.41005325317383</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.42827558517456</t>
+    <t xml:space="preserve">6.82918882369995</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.62417650222778</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.41005277633667</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.42827606201172</t>
   </si>
   <si>
     <t xml:space="preserve">6.46016693115234</t>
   </si>
   <si>
-    <t xml:space="preserve">6.45105409622192</t>
+    <t xml:space="preserve">6.45105504989624</t>
   </si>
   <si>
     <t xml:space="preserve">6.82463312149048</t>
@@ -170,34 +170,34 @@
     <t xml:space="preserve">6.62873220443726</t>
   </si>
   <si>
-    <t xml:space="preserve">6.6013970375061</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.64240026473999</t>
+    <t xml:space="preserve">6.60139656066895</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.64239978790283</t>
   </si>
   <si>
     <t xml:space="preserve">6.6469554901123</t>
   </si>
   <si>
-    <t xml:space="preserve">6.55583953857422</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.37816143035889</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.24604225158691</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.47383451461792</t>
+    <t xml:space="preserve">6.55583906173706</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.37816190719604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.24604272842407</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.4738335609436</t>
   </si>
   <si>
     <t xml:space="preserve">6.38727378845215</t>
   </si>
   <si>
-    <t xml:space="preserve">6.47838973999023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.43283128738403</t>
+    <t xml:space="preserve">6.47839021682739</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.43283176422119</t>
   </si>
   <si>
     <t xml:space="preserve">6.40549659729004</t>
@@ -209,19 +209,19 @@
     <t xml:space="preserve">6.33715915679932</t>
   </si>
   <si>
-    <t xml:space="preserve">6.37360572814941</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.78363037109375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.66973543167114</t>
+    <t xml:space="preserve">6.37360620498657</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.78363084793091</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.66973495483398</t>
   </si>
   <si>
     <t xml:space="preserve">6.68795824050903</t>
   </si>
   <si>
-    <t xml:space="preserve">6.61050939559937</t>
+    <t xml:space="preserve">6.61050844192505</t>
   </si>
   <si>
     <t xml:space="preserve">6.82885599136353</t>
@@ -230,7 +230,7 @@
     <t xml:space="preserve">6.64278316497803</t>
   </si>
   <si>
-    <t xml:space="preserve">6.73582029342651</t>
+    <t xml:space="preserve">6.73581981658936</t>
   </si>
   <si>
     <t xml:space="preserve">6.63348007202148</t>
@@ -239,7 +239,7 @@
     <t xml:space="preserve">6.69860506057739</t>
   </si>
   <si>
-    <t xml:space="preserve">6.74977540969849</t>
+    <t xml:space="preserve">6.74977493286133</t>
   </si>
   <si>
     <t xml:space="preserve">6.55439949035645</t>
@@ -248,61 +248,61 @@
     <t xml:space="preserve">6.81490039825439</t>
   </si>
   <si>
-    <t xml:space="preserve">6.889328956604</t>
+    <t xml:space="preserve">6.88933038711548</t>
   </si>
   <si>
     <t xml:space="preserve">6.79164218902588</t>
   </si>
   <si>
-    <t xml:space="preserve">6.88002586364746</t>
+    <t xml:space="preserve">6.88002634048462</t>
   </si>
   <si>
     <t xml:space="preserve">6.90328502655029</t>
   </si>
   <si>
-    <t xml:space="preserve">6.94980335235596</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.05214309692383</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.14983129501343</t>
+    <t xml:space="preserve">6.9498028755188</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.05214357376099</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.14983081817627</t>
   </si>
   <si>
     <t xml:space="preserve">7.1916971206665</t>
   </si>
   <si>
-    <t xml:space="preserve">7.31264400482178</t>
+    <t xml:space="preserve">7.31264448165894</t>
   </si>
   <si>
     <t xml:space="preserve">7.46615362167358</t>
   </si>
   <si>
-    <t xml:space="preserve">7.5359320640564</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.67548561096191</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.51732397079468</t>
+    <t xml:space="preserve">7.53593111038208</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.67548513412476</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.51732444763184</t>
   </si>
   <si>
     <t xml:space="preserve">7.59640455245972</t>
   </si>
   <si>
-    <t xml:space="preserve">7.47080564498901</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.44289541244507</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.43824243545532</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.41033267974854</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.30334043502808</t>
+    <t xml:space="preserve">7.47080516815186</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.44289445877075</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.43824291229248</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.41033363342285</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.30334091186523</t>
   </si>
   <si>
     <t xml:space="preserve">7.34985876083374</t>
@@ -329,19 +329,19 @@
     <t xml:space="preserve">7.52662754058838</t>
   </si>
   <si>
-    <t xml:space="preserve">7.54058218002319</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.20565271377563</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.93119525909424</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.29868841171265</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.39637660980225</t>
+    <t xml:space="preserve">7.54058313369751</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.20565176010132</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.9311957359314</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.2986888885498</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.3963770866394</t>
   </si>
   <si>
     <t xml:space="preserve">7.06144666671753</t>
@@ -350,73 +350,73 @@
     <t xml:space="preserve">6.87537431716919</t>
   </si>
   <si>
-    <t xml:space="preserve">6.68930196762085</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.7637300491333</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.77303504943848</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.60556983947754</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.94515180587769</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.84746360778809</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.74512338638306</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.65208721160889</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.95445442199707</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.75907945632935</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.9777135848999</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.90793704986572</t>
+    <t xml:space="preserve">6.68930244445801</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.76373052597046</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.77303457260132</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.60556936264038</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.94515132904053</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.84746313095093</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.7451229095459</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.65208768844604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.95445537567139</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.75907897949219</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.97771406173706</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.90793657302856</t>
   </si>
   <si>
     <t xml:space="preserve">6.67999792098999</t>
   </si>
   <si>
-    <t xml:space="preserve">6.73116827011108</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.85676670074463</t>
+    <t xml:space="preserve">6.73116731643677</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.85676717758179</t>
   </si>
   <si>
     <t xml:space="preserve">6.88467788696289</t>
   </si>
   <si>
-    <t xml:space="preserve">6.95910692214966</t>
+    <t xml:space="preserve">6.9591064453125</t>
   </si>
   <si>
     <t xml:space="preserve">7.08005380630493</t>
   </si>
   <si>
-    <t xml:space="preserve">6.89863348007202</t>
+    <t xml:space="preserve">6.89863395690918</t>
   </si>
   <si>
     <t xml:space="preserve">6.98701810836792</t>
   </si>
   <si>
-    <t xml:space="preserve">6.99632167816162</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.01492881774902</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.01957988739014</t>
+    <t xml:space="preserve">6.9963207244873</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.01492786407471</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.01958036422729</t>
   </si>
   <si>
     <t xml:space="preserve">7.02423238754272</t>
@@ -434,55 +434,55 @@
     <t xml:space="preserve">7.07075023651123</t>
   </si>
   <si>
-    <t xml:space="preserve">7.18704509735107</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.38707256317139</t>
+    <t xml:space="preserve">7.18704462051392</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.38707304000854</t>
   </si>
   <si>
     <t xml:space="preserve">7.21960830688477</t>
   </si>
   <si>
-    <t xml:space="preserve">7.18239307403564</t>
+    <t xml:space="preserve">7.1823935508728</t>
   </si>
   <si>
     <t xml:space="preserve">6.83815956115723</t>
   </si>
   <si>
-    <t xml:space="preserve">6.89398145675659</t>
+    <t xml:space="preserve">6.89398097991943</t>
   </si>
   <si>
     <t xml:space="preserve">7.08935737609863</t>
   </si>
   <si>
-    <t xml:space="preserve">7.13587522506714</t>
+    <t xml:space="preserve">7.1358757019043</t>
   </si>
   <si>
     <t xml:space="preserve">7.22891187667847</t>
   </si>
   <si>
-    <t xml:space="preserve">7.19634914398193</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.40568065643311</t>
+    <t xml:space="preserve">7.19634962081909</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.40568017959595</t>
   </si>
   <si>
     <t xml:space="preserve">7.26612615585327</t>
   </si>
   <si>
-    <t xml:space="preserve">7.25682258605957</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.27543020248413</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.35916233062744</t>
+    <t xml:space="preserve">7.25682210922241</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.27542972564697</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.35916185379028</t>
   </si>
   <si>
     <t xml:space="preserve">7.29403686523438</t>
   </si>
   <si>
-    <t xml:space="preserve">7.2707781791687</t>
+    <t xml:space="preserve">7.27077770233154</t>
   </si>
   <si>
     <t xml:space="preserve">7.36846590042114</t>
@@ -491,37 +491,37 @@
     <t xml:space="preserve">7.42428779602051</t>
   </si>
   <si>
-    <t xml:space="preserve">7.60105752944946</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.43359088897705</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.46150302886963</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.40102863311768</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.57314586639404</t>
+    <t xml:space="preserve">7.6010570526123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.43359136581421</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.46150255203247</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.40102815628052</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.5731463432312</t>
   </si>
   <si>
     <t xml:space="preserve">7.58710098266602</t>
   </si>
   <si>
-    <t xml:space="preserve">7.0847053527832</t>
+    <t xml:space="preserve">7.08470582962036</t>
   </si>
   <si>
     <t xml:space="preserve">7.24286699295044</t>
   </si>
   <si>
-    <t xml:space="preserve">7.39172506332397</t>
+    <t xml:space="preserve">7.39172601699829</t>
   </si>
   <si>
     <t xml:space="preserve">7.11726856231689</t>
   </si>
   <si>
-    <t xml:space="preserve">7.74061059951782</t>
+    <t xml:space="preserve">7.74061012268066</t>
   </si>
   <si>
     <t xml:space="preserve">7.69874429702759</t>
@@ -539,22 +539,22 @@
     <t xml:space="preserve">7.83364677429199</t>
   </si>
   <si>
-    <t xml:space="preserve">7.88946914672852</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.95459270477295</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.90807580947876</t>
+    <t xml:space="preserve">7.8894681930542</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.95459365844727</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.90807676315308</t>
   </si>
   <si>
     <t xml:space="preserve">7.90342330932617</t>
   </si>
   <si>
-    <t xml:space="preserve">7.86155700683594</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.00111293792725</t>
+    <t xml:space="preserve">7.86155891418457</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.00111198425293</t>
   </si>
   <si>
     <t xml:space="preserve">8.20579147338867</t>
@@ -563,64 +563,64 @@
     <t xml:space="preserve">8.58723926544189</t>
   </si>
   <si>
-    <t xml:space="preserve">8.66166877746582</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.69888401031494</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.82913589477539</t>
+    <t xml:space="preserve">8.66166973114014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.69888305664062</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.82913303375244</t>
   </si>
   <si>
     <t xml:space="preserve">8.62445545196533</t>
   </si>
   <si>
-    <t xml:space="preserve">8.65701770782471</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.60584735870361</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.46629333496094</t>
+    <t xml:space="preserve">8.65701675415039</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.60584831237793</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.46629238128662</t>
   </si>
   <si>
     <t xml:space="preserve">8.48489952087402</t>
   </si>
   <si>
-    <t xml:space="preserve">8.5825891494751</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.57328414916992</t>
+    <t xml:space="preserve">8.58258819580078</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.57328510284424</t>
   </si>
   <si>
     <t xml:space="preserve">8.56863307952881</t>
   </si>
   <si>
-    <t xml:space="preserve">8.61049842834473</t>
+    <t xml:space="preserve">8.61049938201904</t>
   </si>
   <si>
     <t xml:space="preserve">8.61980247497559</t>
   </si>
   <si>
-    <t xml:space="preserve">8.71749114990234</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.55002593994141</t>
+    <t xml:space="preserve">8.71749019622803</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.55002403259277</t>
   </si>
   <si>
     <t xml:space="preserve">8.54537391662598</t>
   </si>
   <si>
-    <t xml:space="preserve">8.3360424041748</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.51280975341797</t>
+    <t xml:space="preserve">8.33604145050049</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.51281070709229</t>
   </si>
   <si>
     <t xml:space="preserve">8.44768619537354</t>
   </si>
   <si>
-    <t xml:space="preserve">8.31278228759766</t>
+    <t xml:space="preserve">8.31278324127197</t>
   </si>
   <si>
     <t xml:space="preserve">8.34999847412109</t>
@@ -629,10 +629,10 @@
     <t xml:space="preserve">8.52676677703857</t>
   </si>
   <si>
-    <t xml:space="preserve">8.54072189331055</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.65236663818359</t>
+    <t xml:space="preserve">8.54072284698486</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.65236473083496</t>
   </si>
   <si>
     <t xml:space="preserve">8.73144626617432</t>
@@ -641,109 +641,109 @@
     <t xml:space="preserve">8.67097282409668</t>
   </si>
   <si>
-    <t xml:space="preserve">8.47094440460205</t>
+    <t xml:space="preserve">8.47094345092773</t>
   </si>
   <si>
     <t xml:space="preserve">8.51746273040771</t>
   </si>
   <si>
-    <t xml:space="preserve">8.26626491546631</t>
+    <t xml:space="preserve">8.26626586914062</t>
   </si>
   <si>
     <t xml:space="preserve">8.37325572967529</t>
   </si>
   <si>
-    <t xml:space="preserve">8.52211475372314</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.68027496337891</t>
+    <t xml:space="preserve">8.52211380004883</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.68027591705322</t>
   </si>
   <si>
     <t xml:space="preserve">8.95007991790771</t>
   </si>
   <si>
-    <t xml:space="preserve">9.86183643341064</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.52690410614014</t>
+    <t xml:space="preserve">9.86183547973633</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.52690601348877</t>
   </si>
   <si>
     <t xml:space="preserve">9.48969173431396</t>
   </si>
   <si>
-    <t xml:space="preserve">9.28501129150391</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.43386936187744</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.47108364105225</t>
+    <t xml:space="preserve">9.28501033782959</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.43387031555176</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.47108459472656</t>
   </si>
   <si>
     <t xml:space="preserve">9.48038768768311</t>
   </si>
   <si>
-    <t xml:space="preserve">9.49899387359619</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.21058368682861</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.30362033843994</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.39665412902832</t>
+    <t xml:space="preserve">9.49899482727051</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.21057987213135</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.30361843109131</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.39665508270264</t>
   </si>
   <si>
     <t xml:space="preserve">9.62924480438232</t>
   </si>
   <si>
-    <t xml:space="preserve">9.83392429351807</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.75019264221191</t>
+    <t xml:space="preserve">9.83392524719238</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.7501916885376</t>
   </si>
   <si>
     <t xml:space="preserve">10.0944271087646</t>
   </si>
   <si>
-    <t xml:space="preserve">10.187460899353</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5130891799927</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2339820861816</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7549829483032</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1643419265747</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1271276473999</t>
+    <t xml:space="preserve">10.1874618530273</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5130882263184</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2339811325073</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7549839019775</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.164342880249</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1271286010742</t>
   </si>
   <si>
     <t xml:space="preserve">11.2294673919678</t>
   </si>
   <si>
-    <t xml:space="preserve">11.2573776245117</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0526990890503</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.024787902832</t>
+    <t xml:space="preserve">11.257378578186</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.052698135376</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0247888565063</t>
   </si>
   <si>
     <t xml:space="preserve">11.0713062286377</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5752973556519</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3226127624512</t>
+    <t xml:space="preserve">10.5752964019775</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3226118087769</t>
   </si>
   <si>
     <t xml:space="preserve">10.1073637008667</t>
@@ -752,22 +752,22 @@
     <t xml:space="preserve">10.48171043396</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5285043716431</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3787651062012</t>
+    <t xml:space="preserve">10.5285034179688</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3787641525269</t>
   </si>
   <si>
     <t xml:space="preserve">10.5004281997681</t>
   </si>
   <si>
-    <t xml:space="preserve">10.6127328872681</t>
+    <t xml:space="preserve">10.6127319335938</t>
   </si>
   <si>
     <t xml:space="preserve">10.5940141677856</t>
   </si>
   <si>
-    <t xml:space="preserve">10.6408071517944</t>
+    <t xml:space="preserve">10.6408061981201</t>
   </si>
   <si>
     <t xml:space="preserve">10.846697807312</t>
@@ -776,85 +776,85 @@
     <t xml:space="preserve">11.1836099624634</t>
   </si>
   <si>
-    <t xml:space="preserve">11.8855094909668</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.698338508606</t>
+    <t xml:space="preserve">11.8855113983154</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.6983375549316</t>
   </si>
   <si>
     <t xml:space="preserve">11.3239898681641</t>
   </si>
   <si>
-    <t xml:space="preserve">11.4082174301147</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2023277282715</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2491216659546</t>
+    <t xml:space="preserve">11.4082183837891</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2023286819458</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2491207122803</t>
   </si>
   <si>
     <t xml:space="preserve">11.1368169784546</t>
   </si>
   <si>
-    <t xml:space="preserve">10.930926322937</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8560581207275</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8373403549194</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0900239944458</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9683618545532</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6688833236694</t>
+    <t xml:space="preserve">10.9309272766113</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8560571670532</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8373384475708</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0900249481201</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9683609008789</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6688842773438</t>
   </si>
   <si>
     <t xml:space="preserve">11.2304039001465</t>
   </si>
   <si>
-    <t xml:space="preserve">11.1648941040039</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5953931808472</t>
+    <t xml:space="preserve">11.1648931503296</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5953922271729</t>
   </si>
   <si>
     <t xml:space="preserve">11.1742506027222</t>
   </si>
   <si>
-    <t xml:space="preserve">11.0432319641113</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5579566955566</t>
+    <t xml:space="preserve">11.0432300567627</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.557957649231</t>
   </si>
   <si>
     <t xml:space="preserve">11.5111637115479</t>
   </si>
   <si>
-    <t xml:space="preserve">11.8200006484985</t>
+    <t xml:space="preserve">11.8200016021729</t>
   </si>
   <si>
     <t xml:space="preserve">12.2130651473999</t>
   </si>
   <si>
-    <t xml:space="preserve">12.4376726150513</t>
+    <t xml:space="preserve">12.437671661377</t>
   </si>
   <si>
     <t xml:space="preserve">12.0071744918823</t>
   </si>
   <si>
-    <t xml:space="preserve">12.634204864502</t>
+    <t xml:space="preserve">12.6342039108276</t>
   </si>
   <si>
     <t xml:space="preserve">12.6435632705688</t>
   </si>
   <si>
-    <t xml:space="preserve">12.7933025360107</t>
+    <t xml:space="preserve">12.7933015823364</t>
   </si>
   <si>
     <t xml:space="preserve">12.8681716918945</t>
@@ -863,7 +863,7 @@
     <t xml:space="preserve">12.6529226303101</t>
   </si>
   <si>
-    <t xml:space="preserve">12.9149646759033</t>
+    <t xml:space="preserve">12.914963722229</t>
   </si>
   <si>
     <t xml:space="preserve">12.8494529724121</t>
@@ -872,7 +872,7 @@
     <t xml:space="preserve">12.662281036377</t>
   </si>
   <si>
-    <t xml:space="preserve">12.6997146606445</t>
+    <t xml:space="preserve">12.6997137069702</t>
   </si>
   <si>
     <t xml:space="preserve">12.6809968948364</t>
@@ -884,19 +884,19 @@
     <t xml:space="preserve">12.6154861450195</t>
   </si>
   <si>
-    <t xml:space="preserve">12.606128692627</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.8026609420776</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.7465085983276</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.6716384887695</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.2972927093506</t>
+    <t xml:space="preserve">12.6061296463013</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.802661895752</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.746506690979</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.6716403961182</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2972917556763</t>
   </si>
   <si>
     <t xml:space="preserve">12.5125408172607</t>
@@ -905,22 +905,22 @@
     <t xml:space="preserve">12.5406188964844</t>
   </si>
   <si>
-    <t xml:space="preserve">12.4095964431763</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.4844655990601</t>
+    <t xml:space="preserve">12.4095973968506</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.4844646453857</t>
   </si>
   <si>
     <t xml:space="preserve">11.9978141784668</t>
   </si>
   <si>
-    <t xml:space="preserve">12.4002370834351</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.2879343032837</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1662712097168</t>
+    <t xml:space="preserve">12.4002380371094</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2879323959351</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1662702560425</t>
   </si>
   <si>
     <t xml:space="preserve">12.063325881958</t>
@@ -932,85 +932,85 @@
     <t xml:space="preserve">12.3815202713013</t>
   </si>
   <si>
-    <t xml:space="preserve">12.0539674758911</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0726833343506</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.4470300674438</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.5593357086182</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.465747833252</t>
+    <t xml:space="preserve">12.0539665222168</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0726842880249</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.4470319747925</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.5593347549438</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.4657487869263</t>
   </si>
   <si>
     <t xml:space="preserve">12.4938249588013</t>
   </si>
   <si>
-    <t xml:space="preserve">12.2692165374756</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.3628034591675</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.4563913345337</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.5686941146851</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.3160095214844</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.549976348877</t>
+    <t xml:space="preserve">12.2692174911499</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.3628025054932</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.4563903808594</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.5686931610107</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.3160104751587</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.5499753952026</t>
   </si>
   <si>
     <t xml:space="preserve">12.4189548492432</t>
   </si>
   <si>
-    <t xml:space="preserve">12.3721628189087</t>
+    <t xml:space="preserve">12.3721618652344</t>
   </si>
   <si>
     <t xml:space="preserve">12.1756286621094</t>
   </si>
   <si>
-    <t xml:space="preserve">12.1381950378418</t>
+    <t xml:space="preserve">12.1381959915161</t>
   </si>
   <si>
     <t xml:space="preserve">11.5485992431641</t>
   </si>
   <si>
-    <t xml:space="preserve">11.7451305389404</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9042291641235</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7732067108154</t>
+    <t xml:space="preserve">11.7451314926147</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9042272567749</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7732057571411</t>
   </si>
   <si>
     <t xml:space="preserve">11.7919244766235</t>
   </si>
   <si>
-    <t xml:space="preserve">11.8574342727661</t>
+    <t xml:space="preserve">11.8574352264404</t>
   </si>
   <si>
     <t xml:space="preserve">12.0352487564087</t>
   </si>
   <si>
-    <t xml:space="preserve">11.9323034286499</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9790992736816</t>
+    <t xml:space="preserve">11.9323053359985</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.979097366333</t>
   </si>
   <si>
     <t xml:space="preserve">11.8480758666992</t>
   </si>
   <si>
-    <t xml:space="preserve">12.3440847396851</t>
+    <t xml:space="preserve">12.3440856933594</t>
   </si>
   <si>
     <t xml:space="preserve">12.3066501617432</t>
@@ -1019,10 +1019,10 @@
     <t xml:space="preserve">11.8761529922485</t>
   </si>
   <si>
-    <t xml:space="preserve">11.8293590545654</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2959146499634</t>
+    <t xml:space="preserve">11.8293581008911</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2959136962891</t>
   </si>
   <si>
     <t xml:space="preserve">11.3988609313965</t>
@@ -1034,34 +1034,34 @@
     <t xml:space="preserve">11.6515445709229</t>
   </si>
   <si>
-    <t xml:space="preserve">11.5766754150391</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7076969146729</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.6889781951904</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.6047496795654</t>
+    <t xml:space="preserve">11.5766744613647</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7076959609985</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.6889791488647</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.6047506332397</t>
   </si>
   <si>
     <t xml:space="preserve">11.7825651168823</t>
   </si>
   <si>
-    <t xml:space="preserve">11.9697380065918</t>
+    <t xml:space="preserve">11.9697389602661</t>
   </si>
   <si>
     <t xml:space="preserve">12.2598581314087</t>
   </si>
   <si>
-    <t xml:space="preserve">12.1194772720337</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0258913040161</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.0459861755371</t>
+    <t xml:space="preserve">12.1194763183594</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0258903503418</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.0459842681885</t>
   </si>
   <si>
     <t xml:space="preserve">14.0567235946655</t>
@@ -1070,19 +1070,19 @@
     <t xml:space="preserve">14.2438955307007</t>
   </si>
   <si>
-    <t xml:space="preserve">14.2251787185669</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.0754404067993</t>
+    <t xml:space="preserve">14.2251777648926</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.075439453125</t>
   </si>
   <si>
     <t xml:space="preserve">14.131591796875</t>
   </si>
   <si>
-    <t xml:space="preserve">14.7679815292358</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.0380039215088</t>
+    <t xml:space="preserve">14.7679805755615</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.0380048751831</t>
   </si>
   <si>
     <t xml:space="preserve">13.7572441101074</t>
@@ -1094,7 +1094,7 @@
     <t xml:space="preserve">14.1503086090088</t>
   </si>
   <si>
-    <t xml:space="preserve">13.8321142196655</t>
+    <t xml:space="preserve">13.8321132659912</t>
   </si>
   <si>
     <t xml:space="preserve">14.5246562957764</t>
@@ -1103,25 +1103,25 @@
     <t xml:space="preserve">14.6556768417358</t>
   </si>
   <si>
-    <t xml:space="preserve">14.7118282318115</t>
+    <t xml:space="preserve">14.7118301391602</t>
   </si>
   <si>
     <t xml:space="preserve">14.6182422637939</t>
   </si>
   <si>
-    <t xml:space="preserve">14.3187656402588</t>
+    <t xml:space="preserve">14.3187665939331</t>
   </si>
   <si>
     <t xml:space="preserve">13.963134765625</t>
   </si>
   <si>
-    <t xml:space="preserve">13.1208553314209</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.8962459564209</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.4952030181885</t>
+    <t xml:space="preserve">13.1208562850952</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.8962469100952</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.4952020645142</t>
   </si>
   <si>
     <t xml:space="preserve">13.1582899093628</t>
@@ -1130,22 +1130,22 @@
     <t xml:space="preserve">12.8588123321533</t>
   </si>
   <si>
-    <t xml:space="preserve">13.1021375656128</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6449413299561</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.4390497207642</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.7839412689209</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.2224225997925</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1288366317749</t>
+    <t xml:space="preserve">13.1021385192871</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6449403762817</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.4390487670898</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.7839422225952</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2224235534668</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1288356781006</t>
   </si>
   <si>
     <t xml:space="preserve">11.9416627883911</t>
@@ -1154,40 +1154,40 @@
     <t xml:space="preserve">12.7090740203857</t>
   </si>
   <si>
-    <t xml:space="preserve">12.8400955200195</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.7277917861938</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.2785739898682</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1475534439087</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1849899291992</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7170553207397</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.5780515670776</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.922945022583</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9603805541992</t>
+    <t xml:space="preserve">12.8400964736938</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.7277927398682</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2785758972168</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.147554397583</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1849880218506</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7170543670654</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.578052520752</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9229459762573</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9603796005249</t>
   </si>
   <si>
     <t xml:space="preserve">12.3534440994263</t>
   </si>
   <si>
-    <t xml:space="preserve">12.5031824111938</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.4764842987061</t>
+    <t xml:space="preserve">12.5031833648682</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.4764833450317</t>
   </si>
   <si>
     <t xml:space="preserve">13.6636590957642</t>
@@ -1196,31 +1196,31 @@
     <t xml:space="preserve">13.8508319854736</t>
   </si>
   <si>
-    <t xml:space="preserve">14.3936347961426</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0487403869629</t>
+    <t xml:space="preserve">14.3936338424683</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0487422943115</t>
   </si>
   <si>
     <t xml:space="preserve">14.9177198410034</t>
   </si>
   <si>
-    <t xml:space="preserve">14.8802843093872</t>
+    <t xml:space="preserve">14.8802852630615</t>
   </si>
   <si>
     <t xml:space="preserve">14.9364376068115</t>
   </si>
   <si>
-    <t xml:space="preserve">15.1653470993042</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8330049514771</t>
+    <t xml:space="preserve">15.1653480529785</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8330059051514</t>
   </si>
   <si>
     <t xml:space="preserve">15.5468654632568</t>
   </si>
   <si>
-    <t xml:space="preserve">15.3751840591431</t>
+    <t xml:space="preserve">15.3751831054688</t>
   </si>
   <si>
     <t xml:space="preserve">15.2225761413574</t>
@@ -1229,25 +1229,25 @@
     <t xml:space="preserve">15.2607278823853</t>
   </si>
   <si>
-    <t xml:space="preserve">15.3179550170898</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.451488494873</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.268780708313</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.9444885253906</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.3912887573242</t>
+    <t xml:space="preserve">15.3179540634155</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4514865875244</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.2687797546387</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.9444904327393</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3912878036499</t>
   </si>
   <si>
     <t xml:space="preserve">13.7346544265747</t>
   </si>
   <si>
-    <t xml:space="preserve">13.810959815979</t>
+    <t xml:space="preserve">13.8109579086304</t>
   </si>
   <si>
     <t xml:space="preserve">13.2005290985107</t>
@@ -1259,31 +1259,31 @@
     <t xml:space="preserve">13.2386817932129</t>
   </si>
   <si>
-    <t xml:space="preserve">13.0097703933716</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.2085828781128</t>
+    <t xml:space="preserve">13.0097713470459</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2085819244385</t>
   </si>
   <si>
     <t xml:space="preserve">12.6664037704468</t>
   </si>
   <si>
-    <t xml:space="preserve">13.1242265701294</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.7427062988281</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.8190097808838</t>
+    <t xml:space="preserve">13.1242256164551</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.7427072525024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.8190116882324</t>
   </si>
   <si>
     <t xml:space="preserve">12.876238822937</t>
   </si>
   <si>
-    <t xml:space="preserve">12.9906940460205</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.4565687179565</t>
+    <t xml:space="preserve">12.9906930923462</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.4565696716309</t>
   </si>
   <si>
     <t xml:space="preserve">12.8571624755859</t>
@@ -1292,97 +1292,97 @@
     <t xml:space="preserve">12.8380870819092</t>
   </si>
   <si>
-    <t xml:space="preserve">12.8953161239624</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.3802642822266</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.868185043335</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.9063386917114</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.0970973968506</t>
+    <t xml:space="preserve">12.8953151702881</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.3802652359009</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.8681859970093</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.9063377380371</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.0970964431763</t>
   </si>
   <si>
     <t xml:space="preserve">14.0017175674438</t>
   </si>
   <si>
-    <t xml:space="preserve">14.2115516662598</t>
+    <t xml:space="preserve">14.2115526199341</t>
   </si>
   <si>
     <t xml:space="preserve">13.7537307739258</t>
   </si>
   <si>
-    <t xml:space="preserve">13.7155780792236</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5438966751099</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5820474624634</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5629720687866</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.3722124099731</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2577562332153</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.4485158920288</t>
+    <t xml:space="preserve">13.7155799865723</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5438957214355</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5820484161377</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5629711151123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3722133636475</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.257755279541</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.4485168457031</t>
   </si>
   <si>
     <t xml:space="preserve">13.6011238098145</t>
   </si>
   <si>
-    <t xml:space="preserve">13.3340606689453</t>
+    <t xml:space="preserve">13.334059715271</t>
   </si>
   <si>
     <t xml:space="preserve">13.4866676330566</t>
   </si>
   <si>
-    <t xml:space="preserve">12.6854791641235</t>
+    <t xml:space="preserve">12.6854801177979</t>
   </si>
   <si>
     <t xml:space="preserve">12.6282520294189</t>
   </si>
   <si>
-    <t xml:space="preserve">12.399341583252</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.7999353408813</t>
+    <t xml:space="preserve">12.3993406295776</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.799934387207</t>
   </si>
   <si>
     <t xml:space="preserve">13.1623773574829</t>
   </si>
   <si>
-    <t xml:space="preserve">13.1051502227783</t>
+    <t xml:space="preserve">13.105149269104</t>
   </si>
   <si>
     <t xml:space="preserve">12.9334669113159</t>
   </si>
   <si>
-    <t xml:space="preserve">13.0860738754272</t>
+    <t xml:space="preserve">13.0860748291016</t>
   </si>
   <si>
     <t xml:space="preserve">13.9254140853882</t>
   </si>
   <si>
-    <t xml:space="preserve">14.2497053146362</t>
+    <t xml:space="preserve">14.2497043609619</t>
   </si>
   <si>
     <t xml:space="preserve">14.4023122787476</t>
   </si>
   <si>
-    <t xml:space="preserve">14.4404630661011</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.192476272583</t>
+    <t xml:space="preserve">14.4404640197754</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.1924772262573</t>
   </si>
   <si>
     <t xml:space="preserve">13.8300342559814</t>
@@ -1391,7 +1391,7 @@
     <t xml:space="preserve">13.6201982498169</t>
   </si>
   <si>
-    <t xml:space="preserve">13.8872632980347</t>
+    <t xml:space="preserve">13.8872623443604</t>
   </si>
   <si>
     <t xml:space="preserve">13.6774282455444</t>
@@ -1400,13 +1400,13 @@
     <t xml:space="preserve">14.3069314956665</t>
   </si>
   <si>
-    <t xml:space="preserve">15.0699682235718</t>
+    <t xml:space="preserve">15.0699691772461</t>
   </si>
   <si>
     <t xml:space="preserve">15.6422443389893</t>
   </si>
   <si>
-    <t xml:space="preserve">15.4133348464966</t>
+    <t xml:space="preserve">15.4133358001709</t>
   </si>
   <si>
     <t xml:space="preserve">15.2988805770874</t>
@@ -1415,7 +1415,7 @@
     <t xml:space="preserve">16.6914215087891</t>
   </si>
   <si>
-    <t xml:space="preserve">16.8631057739258</t>
+    <t xml:space="preserve">16.8631038665771</t>
   </si>
   <si>
     <t xml:space="preserve">17.0729389190674</t>
@@ -1424,13 +1424,13 @@
     <t xml:space="preserve">16.7868003845215</t>
   </si>
   <si>
-    <t xml:space="preserve">16.3862056732178</t>
+    <t xml:space="preserve">16.3862075805664</t>
   </si>
   <si>
     <t xml:space="preserve">16.0619163513184</t>
   </si>
   <si>
-    <t xml:space="preserve">15.7376260757446</t>
+    <t xml:space="preserve">15.7376251220703</t>
   </si>
   <si>
     <t xml:space="preserve">15.6613206863403</t>
@@ -1439,10 +1439,10 @@
     <t xml:space="preserve">15.1462717056274</t>
   </si>
   <si>
-    <t xml:space="preserve">15.356107711792</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.5167675018311</t>
+    <t xml:space="preserve">15.3561067581177</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.5167665481567</t>
   </si>
   <si>
     <t xml:space="preserve">14.745677947998</t>
@@ -1451,10 +1451,10 @@
     <t xml:space="preserve">14.5739946365356</t>
   </si>
   <si>
-    <t xml:space="preserve">14.7838296890259</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.3832368850708</t>
+    <t xml:space="preserve">14.7838287353516</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.3832340240479</t>
   </si>
   <si>
     <t xml:space="preserve">14.3260087966919</t>
@@ -1466,46 +1466,46 @@
     <t xml:space="preserve">13.658350944519</t>
   </si>
   <si>
-    <t xml:space="preserve">13.9826412200928</t>
+    <t xml:space="preserve">13.9826431274414</t>
   </si>
   <si>
     <t xml:space="preserve">14.1543245315552</t>
   </si>
   <si>
-    <t xml:space="preserve">15.0127410888672</t>
+    <t xml:space="preserve">15.0127401351929</t>
   </si>
   <si>
     <t xml:space="preserve">14.6121473312378</t>
   </si>
   <si>
-    <t xml:space="preserve">14.5549182891846</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6994714736938</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1081199645996</t>
+    <t xml:space="preserve">14.5549192428589</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6994724273682</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1081209182739</t>
   </si>
   <si>
     <t xml:space="preserve">16.2335987091064</t>
   </si>
   <si>
-    <t xml:space="preserve">16.2145233154297</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.4052848815918</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.1954479217529</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.0237617492676</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6040945053101</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.1763725280762</t>
+    <t xml:space="preserve">16.2145252227783</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.4052810668945</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.1954460144043</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.0237636566162</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6040954589844</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.1763687133789</t>
   </si>
   <si>
     <t xml:space="preserve">16.5006618499756</t>
@@ -1517,19 +1517,19 @@
     <t xml:space="preserve">16.4815864562988</t>
   </si>
   <si>
-    <t xml:space="preserve">15.7948522567749</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9474592208862</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.0809898376465</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2034997940063</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.0046901702881</t>
+    <t xml:space="preserve">15.7948513031006</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9474601745605</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.0809917449951</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.203498840332</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.0046863555908</t>
   </si>
   <si>
     <t xml:space="preserve">15.6231689453125</t>
@@ -1538,7 +1538,7 @@
     <t xml:space="preserve">14.8792095184326</t>
   </si>
   <si>
-    <t xml:space="preserve">15.050892829895</t>
+    <t xml:space="preserve">15.0508909225464</t>
   </si>
   <si>
     <t xml:space="preserve">14.6884498596191</t>
@@ -1550,28 +1550,28 @@
     <t xml:space="preserve">15.1271953582764</t>
   </si>
   <si>
-    <t xml:space="preserve">15.68039894104</t>
+    <t xml:space="preserve">15.6803998947144</t>
   </si>
   <si>
     <t xml:space="preserve">15.890233039856</t>
   </si>
   <si>
-    <t xml:space="preserve">15.1844253540039</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5659408569336</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.909309387207</t>
+    <t xml:space="preserve">15.1844234466553</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5659418106079</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9093103408813</t>
   </si>
   <si>
     <t xml:space="preserve">15.7757787704468</t>
   </si>
   <si>
-    <t xml:space="preserve">16.0428409576416</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.1191425323486</t>
+    <t xml:space="preserve">16.042839050293</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.1191444396973</t>
   </si>
   <si>
     <t xml:space="preserve">16.1572952270508</t>
@@ -1580,7 +1580,7 @@
     <t xml:space="preserve">16.138219833374</t>
   </si>
   <si>
-    <t xml:space="preserve">15.7567014694214</t>
+    <t xml:space="preserve">15.75670337677</t>
   </si>
   <si>
     <t xml:space="preserve">14.8219814300537</t>
@@ -1589,37 +1589,37 @@
     <t xml:space="preserve">14.7647533416748</t>
   </si>
   <si>
-    <t xml:space="preserve">14.9936637878418</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3370304107666</t>
+    <t xml:space="preserve">14.9936647415161</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3370313644409</t>
   </si>
   <si>
     <t xml:space="preserve">15.2416505813599</t>
   </si>
   <si>
-    <t xml:space="preserve">15.4324102401733</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.3480548858643</t>
+    <t xml:space="preserve">15.4324111938477</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.3480529785156</t>
   </si>
   <si>
     <t xml:space="preserve">17.1683177947998</t>
   </si>
   <si>
-    <t xml:space="preserve">17.3972282409668</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.4163074493408</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.4544544219971</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.2636985778809</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.2255439758301</t>
+    <t xml:space="preserve">17.3972301483154</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.4163055419922</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.4544563293457</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.2636966705322</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.2255458831787</t>
   </si>
   <si>
     <t xml:space="preserve">18.2174949645996</t>
@@ -1631,16 +1631,16 @@
     <t xml:space="preserve">17.5116844177246</t>
   </si>
   <si>
-    <t xml:space="preserve">17.53076171875</t>
+    <t xml:space="preserve">17.5307598114014</t>
   </si>
   <si>
     <t xml:space="preserve">17.6642913818359</t>
   </si>
   <si>
-    <t xml:space="preserve">17.2064723968506</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.5498371124268</t>
+    <t xml:space="preserve">17.206470489502</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.5498390197754</t>
   </si>
   <si>
     <t xml:space="preserve">17.607063293457</t>
@@ -1655,25 +1655,25 @@
     <t xml:space="preserve">17.7215194702148</t>
   </si>
   <si>
-    <t xml:space="preserve">17.4926071166992</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.3018474578857</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.7295742034912</t>
+    <t xml:space="preserve">17.4926090240479</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.301851272583</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.7295722961426</t>
   </si>
   <si>
     <t xml:space="preserve">16.748649597168</t>
   </si>
   <si>
-    <t xml:space="preserve">16.443431854248</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.0157127380371</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.3099002838135</t>
+    <t xml:space="preserve">16.4434337615967</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.0157108306885</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.3099021911621</t>
   </si>
   <si>
     <t xml:space="preserve">16.7370662689209</t>
@@ -1685,22 +1685,22 @@
     <t xml:space="preserve">16.5429019927979</t>
   </si>
   <si>
-    <t xml:space="preserve">16.6011486053467</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.3875675201416</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.1545715332031</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.1351528167725</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.8341484069824</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.9700622558594</t>
+    <t xml:space="preserve">16.6011524200439</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.387565612793</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.1545696258545</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.1351547241211</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.8341503143311</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.9700660705566</t>
   </si>
   <si>
     <t xml:space="preserve">16.98948097229</t>
@@ -1712,10 +1712,10 @@
     <t xml:space="preserve">16.795316696167</t>
   </si>
   <si>
-    <t xml:space="preserve">16.5817337036133</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.6788158416748</t>
+    <t xml:space="preserve">16.5817317962646</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.6788196563721</t>
   </si>
   <si>
     <t xml:space="preserve">16.096321105957</t>
@@ -1724,13 +1724,13 @@
     <t xml:space="preserve">16.6205673217773</t>
   </si>
   <si>
-    <t xml:space="preserve">16.1157379150391</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.1739883422852</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.0186557769775</t>
+    <t xml:space="preserve">16.1157360076904</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.1739864349365</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.0186519622803</t>
   </si>
   <si>
     <t xml:space="preserve">15.8827390670776</t>
@@ -1739,28 +1739,28 @@
     <t xml:space="preserve">15.8050727844238</t>
   </si>
   <si>
-    <t xml:space="preserve">15.5720748901367</t>
+    <t xml:space="preserve">15.5720739364624</t>
   </si>
   <si>
     <t xml:space="preserve">15.5138235092163</t>
   </si>
   <si>
-    <t xml:space="preserve">15.4555749893188</t>
+    <t xml:space="preserve">15.4555740356445</t>
   </si>
   <si>
     <t xml:space="preserve">15.1254920959473</t>
   </si>
   <si>
-    <t xml:space="preserve">15.339075088501</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3779077529907</t>
+    <t xml:space="preserve">15.3390760421753</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.377908706665</t>
   </si>
   <si>
     <t xml:space="preserve">15.2808246612549</t>
   </si>
   <si>
-    <t xml:space="preserve">15.2419919967651</t>
+    <t xml:space="preserve">15.2419929504395</t>
   </si>
   <si>
     <t xml:space="preserve">15.1449089050293</t>
@@ -1772,10 +1772,10 @@
     <t xml:space="preserve">15.3973245620728</t>
   </si>
   <si>
-    <t xml:space="preserve">15.2031583786011</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0089921951294</t>
+    <t xml:space="preserve">15.2031593322754</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0089931488037</t>
   </si>
   <si>
     <t xml:space="preserve">14.9895763397217</t>
@@ -1796,13 +1796,13 @@
     <t xml:space="preserve">15.1060771942139</t>
   </si>
   <si>
-    <t xml:space="preserve">15.3002414703369</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9313268661499</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.8924942016602</t>
+    <t xml:space="preserve">15.3002424240112</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9313278198242</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.8924932479858</t>
   </si>
   <si>
     <t xml:space="preserve">15.0478258132935</t>
@@ -1811,7 +1811,7 @@
     <t xml:space="preserve">15.1643257141113</t>
   </si>
   <si>
-    <t xml:space="preserve">14.9507436752319</t>
+    <t xml:space="preserve">14.9507427215576</t>
   </si>
   <si>
     <t xml:space="preserve">15.0284090042114</t>
@@ -1820,13 +1820,13 @@
     <t xml:space="preserve">14.6789121627808</t>
   </si>
   <si>
-    <t xml:space="preserve">14.7177457809448</t>
+    <t xml:space="preserve">14.7177448272705</t>
   </si>
   <si>
     <t xml:space="preserve">14.7371625900269</t>
   </si>
   <si>
-    <t xml:space="preserve">14.640079498291</t>
+    <t xml:space="preserve">14.6400785446167</t>
   </si>
   <si>
     <t xml:space="preserve">14.7759943008423</t>
@@ -1844,67 +1844,67 @@
     <t xml:space="preserve">14.7954120635986</t>
   </si>
   <si>
-    <t xml:space="preserve">15.0672426223755</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.6983289718628</t>
+    <t xml:space="preserve">15.0672435760498</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.6983299255371</t>
   </si>
   <si>
     <t xml:space="preserve">15.4944067001343</t>
   </si>
   <si>
-    <t xml:space="preserve">15.5332412719727</t>
+    <t xml:space="preserve">15.5332403182983</t>
   </si>
   <si>
     <t xml:space="preserve">15.8244876861572</t>
   </si>
   <si>
-    <t xml:space="preserve">15.6691560745239</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8633241653442</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9409885406494</t>
+    <t xml:space="preserve">15.6691541671753</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8633222579956</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9409866333008</t>
   </si>
   <si>
     <t xml:space="preserve">15.9215707778931</t>
   </si>
   <si>
-    <t xml:space="preserve">15.9604072570801</t>
+    <t xml:space="preserve">15.9604063034058</t>
   </si>
   <si>
     <t xml:space="preserve">16.0574893951416</t>
   </si>
   <si>
-    <t xml:space="preserve">15.7856550216675</t>
+    <t xml:space="preserve">15.7856559753418</t>
   </si>
   <si>
     <t xml:space="preserve">15.7662391662598</t>
   </si>
   <si>
-    <t xml:space="preserve">15.9992389678955</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7274074554443</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6497411727905</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9798202514648</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.0769023895264</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.271068572998</t>
+    <t xml:space="preserve">15.9992370605469</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.72740650177</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6497402191162</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9798192977905</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.076904296875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.2710704803467</t>
   </si>
   <si>
     <t xml:space="preserve">17.3195648193359</t>
   </si>
   <si>
-    <t xml:space="preserve">17.1642322540283</t>
+    <t xml:space="preserve">17.1642303466797</t>
   </si>
   <si>
     <t xml:space="preserve">17.1059818267822</t>
@@ -1913,16 +1913,16 @@
     <t xml:space="preserve">17.0477313995361</t>
   </si>
   <si>
-    <t xml:space="preserve">17.1448135375977</t>
+    <t xml:space="preserve">17.1448154449463</t>
   </si>
   <si>
     <t xml:space="preserve">17.2807292938232</t>
   </si>
   <si>
-    <t xml:space="preserve">17.4360618591309</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.4457225799561</t>
+    <t xml:space="preserve">17.4360599517822</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.4457244873047</t>
   </si>
   <si>
     <t xml:space="preserve">18.3486385345459</t>
@@ -1940,25 +1940,25 @@
     <t xml:space="preserve">18.1544761657715</t>
   </si>
   <si>
-    <t xml:space="preserve">18.2903900146484</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.1350555419922</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.1156406402588</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.2321395874023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.0962238311768</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.4845581054688</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.9311351776123</t>
+    <t xml:space="preserve">18.2903919219971</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.1350574493408</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.1156387329102</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.232141494751</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.0962257385254</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.4845561981201</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.9311370849609</t>
   </si>
   <si>
     <t xml:space="preserve">19.2806358337402</t>
@@ -1967,31 +1967,31 @@
     <t xml:space="preserve">19.2029685974121</t>
   </si>
   <si>
-    <t xml:space="preserve">18.7175559997559</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.144718170166</t>
+    <t xml:space="preserve">18.7175540924072</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.1447200775146</t>
   </si>
   <si>
     <t xml:space="preserve">19.0864696502686</t>
   </si>
   <si>
-    <t xml:space="preserve">19.6107177734375</t>
+    <t xml:space="preserve">19.6107196807861</t>
   </si>
   <si>
     <t xml:space="preserve">19.9990463256836</t>
   </si>
   <si>
-    <t xml:space="preserve">19.7077960968018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.853422164917</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.4650917053223</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.0282211303711</t>
+    <t xml:space="preserve">19.7077980041504</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.8534240722656</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.4650897979736</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.0282192230225</t>
   </si>
   <si>
     <t xml:space="preserve">19.8048801422119</t>
@@ -2003,19 +2003,19 @@
     <t xml:space="preserve">19.9505043029785</t>
   </si>
   <si>
-    <t xml:space="preserve">19.5136337280273</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.7563400268555</t>
+    <t xml:space="preserve">19.513635635376</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.7563419342041</t>
   </si>
   <si>
     <t xml:space="preserve">20.387378692627</t>
   </si>
   <si>
-    <t xml:space="preserve">20.435920715332</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.4261150360107</t>
+    <t xml:space="preserve">20.4359188079834</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.4261169433594</t>
   </si>
   <si>
     <t xml:space="preserve">21.3582057952881</t>
@@ -2024,13 +2024,13 @@
     <t xml:space="preserve">21.3096656799316</t>
   </si>
   <si>
-    <t xml:space="preserve">21.0184173583984</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.8242511749268</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.2125816345215</t>
+    <t xml:space="preserve">21.0184154510498</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.8242492675781</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.2125835418701</t>
   </si>
   <si>
     <t xml:space="preserve">20.9213314056396</t>
@@ -2039,16 +2039,16 @@
     <t xml:space="preserve">20.8727912902832</t>
   </si>
   <si>
-    <t xml:space="preserve">20.1446723937988</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.4844627380371</t>
+    <t xml:space="preserve">20.1446704864502</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.4844589233398</t>
   </si>
   <si>
     <t xml:space="preserve">20.1932125091553</t>
   </si>
   <si>
-    <t xml:space="preserve">20.04758644104</t>
+    <t xml:space="preserve">20.0475902557373</t>
   </si>
   <si>
     <t xml:space="preserve">19.2612190246582</t>
@@ -2057,7 +2057,7 @@
     <t xml:space="preserve">20.9698734283447</t>
   </si>
   <si>
-    <t xml:space="preserve">21.11549949646</t>
+    <t xml:space="preserve">21.1154975891113</t>
   </si>
   <si>
     <t xml:space="preserve">20.7757091522217</t>
@@ -2069,13 +2069,13 @@
     <t xml:space="preserve">21.6009120941162</t>
   </si>
   <si>
-    <t xml:space="preserve">21.4067459106445</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.8436183929443</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.6494541168213</t>
+    <t xml:space="preserve">21.4067478179932</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.843620300293</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.6494522094727</t>
   </si>
   <si>
     <t xml:space="preserve">22.037784576416</t>
@@ -2090,13 +2090,13 @@
     <t xml:space="preserve">18.9117202758789</t>
   </si>
   <si>
-    <t xml:space="preserve">18.3680553436279</t>
+    <t xml:space="preserve">18.3680572509766</t>
   </si>
   <si>
     <t xml:space="preserve">17.7855606079102</t>
   </si>
   <si>
-    <t xml:space="preserve">16.4652347564697</t>
+    <t xml:space="preserve">16.4652328491211</t>
   </si>
   <si>
     <t xml:space="preserve">16.3487339019775</t>
@@ -2105,16 +2105,16 @@
     <t xml:space="preserve">14.620662689209</t>
   </si>
   <si>
-    <t xml:space="preserve">14.5624122619629</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.5819244384766</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1353445053101</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.2518434524536</t>
+    <t xml:space="preserve">14.5624132156372</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.5819253921509</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1353435516357</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2518424987793</t>
   </si>
   <si>
     <t xml:space="preserve">12.814923286438</t>
@@ -2132,10 +2132,10 @@
     <t xml:space="preserve">13.6886692047119</t>
   </si>
   <si>
-    <t xml:space="preserve">14.1546649932861</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.3294134140015</t>
+    <t xml:space="preserve">14.1546659469604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.3294143676758</t>
   </si>
   <si>
     <t xml:space="preserve">14.4264965057373</t>
@@ -2147,19 +2147,19 @@
     <t xml:space="preserve">14.8730783462524</t>
   </si>
   <si>
-    <t xml:space="preserve">14.2323312759399</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5526580810547</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.0283164978027</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.3293190002441</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.3681507110596</t>
+    <t xml:space="preserve">14.2323322296143</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5526561737061</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.0283145904541</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.3293209075928</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.3681526184082</t>
   </si>
   <si>
     <t xml:space="preserve">15.6109066009521</t>
@@ -2174,22 +2174,22 @@
     <t xml:space="preserve">16.1934051513672</t>
   </si>
   <si>
-    <t xml:space="preserve">16.7564849853516</t>
+    <t xml:space="preserve">16.7564830780029</t>
   </si>
   <si>
     <t xml:space="preserve">17.3778133392334</t>
   </si>
   <si>
-    <t xml:space="preserve">16.8729801177979</t>
+    <t xml:space="preserve">16.8729820251465</t>
   </si>
   <si>
     <t xml:space="preserve">17.0865650177002</t>
   </si>
   <si>
-    <t xml:space="preserve">17.2224807739258</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.426305770874</t>
+    <t xml:space="preserve">17.2224788665771</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.4263076782227</t>
   </si>
   <si>
     <t xml:space="preserve">18.8146362304688</t>
@@ -2204,7 +2204,7 @@
     <t xml:space="preserve">17.6228485107422</t>
   </si>
   <si>
-    <t xml:space="preserve">17.6033134460449</t>
+    <t xml:space="preserve">17.6033115386963</t>
   </si>
   <si>
     <t xml:space="preserve">17.3688621520996</t>
@@ -2219,10 +2219,10 @@
     <t xml:space="preserve">17.7791481018066</t>
   </si>
   <si>
-    <t xml:space="preserve">17.3297863006592</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.8182220458984</t>
+    <t xml:space="preserve">17.3297843933105</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.8182239532471</t>
   </si>
   <si>
     <t xml:space="preserve">17.661922454834</t>
@@ -2237,10 +2237,10 @@
     <t xml:space="preserve">18.1112861633301</t>
   </si>
   <si>
-    <t xml:space="preserve">18.2285118103027</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.5606498718262</t>
+    <t xml:space="preserve">18.2285099029541</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.5606517791748</t>
   </si>
   <si>
     <t xml:space="preserve">18.5801868438721</t>
@@ -2258,7 +2258,7 @@
     <t xml:space="preserve">18.7560253143311</t>
   </si>
   <si>
-    <t xml:space="preserve">18.6192607879639</t>
+    <t xml:space="preserve">18.6192626953125</t>
   </si>
   <si>
     <t xml:space="preserve">18.2871246337891</t>
@@ -2276,16 +2276,16 @@
     <t xml:space="preserve">18.8537120819092</t>
   </si>
   <si>
-    <t xml:space="preserve">19.0881633758545</t>
+    <t xml:space="preserve">19.0881652832031</t>
   </si>
   <si>
     <t xml:space="preserve">19.224925994873</t>
   </si>
   <si>
-    <t xml:space="preserve">19.7817440032959</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.5375270843506</t>
+    <t xml:space="preserve">19.7817459106445</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.537525177002</t>
   </si>
   <si>
     <t xml:space="preserve">19.1272392272949</t>
@@ -2300,16 +2300,16 @@
     <t xml:space="preserve">18.8341751098633</t>
   </si>
   <si>
-    <t xml:space="preserve">19.6840572357178</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.830587387085</t>
+    <t xml:space="preserve">19.6840591430664</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.8305892944336</t>
   </si>
   <si>
     <t xml:space="preserve">20.2701835632324</t>
   </si>
   <si>
-    <t xml:space="preserve">20.514404296875</t>
+    <t xml:space="preserve">20.5144023895264</t>
   </si>
   <si>
     <t xml:space="preserve">20.8074645996094</t>
@@ -2327,10 +2327,10 @@
     <t xml:space="preserve">21.9308738708496</t>
   </si>
   <si>
-    <t xml:space="preserve">21.393590927124</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.7843418121338</t>
+    <t xml:space="preserve">21.3935928344727</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.7843399047852</t>
   </si>
   <si>
     <t xml:space="preserve">22.0774040222168</t>
@@ -2345,43 +2345,43 @@
     <t xml:space="preserve">21.9797172546387</t>
   </si>
   <si>
-    <t xml:space="preserve">22.6635322570801</t>
+    <t xml:space="preserve">22.6635303497314</t>
   </si>
   <si>
     <t xml:space="preserve">23.151969909668</t>
   </si>
   <si>
-    <t xml:space="preserve">23.0054359436035</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.5427188873291</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.6404056549072</t>
+    <t xml:space="preserve">23.0054378509521</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.5427207946777</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.6404075622559</t>
   </si>
   <si>
     <t xml:space="preserve">24.3242206573486</t>
   </si>
   <si>
-    <t xml:space="preserve">24.9591903686523</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.7149696350098</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.2753753662109</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.9823131561279</t>
+    <t xml:space="preserve">24.9591884613037</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.7149715423584</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.2753772735596</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.9823112487793</t>
   </si>
   <si>
     <t xml:space="preserve">24.1776885986328</t>
   </si>
   <si>
-    <t xml:space="preserve">23.8846282958984</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.9565925598145</t>
+    <t xml:space="preserve">23.8846263885498</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.9565944671631</t>
   </si>
   <si>
     <t xml:space="preserve">23.2496547698975</t>
@@ -2411,13 +2411,13 @@
     <t xml:space="preserve">21.8331871032715</t>
   </si>
   <si>
-    <t xml:space="preserve">20.6609344482422</t>
+    <t xml:space="preserve">20.6609325408936</t>
   </si>
   <si>
     <t xml:space="preserve">21.5889663696289</t>
   </si>
   <si>
-    <t xml:space="preserve">21.2959022521973</t>
+    <t xml:space="preserve">21.2959041595459</t>
   </si>
   <si>
     <t xml:space="preserve">21.6866550445557</t>
@@ -2447,7 +2447,7 @@
     <t xml:space="preserve">22.8589057922363</t>
   </si>
   <si>
-    <t xml:space="preserve">24.6661262512207</t>
+    <t xml:space="preserve">24.6661281585693</t>
   </si>
   <si>
     <t xml:space="preserve">24.5684394836426</t>
@@ -2456,13 +2456,13 @@
     <t xml:space="preserve">24.4707508087158</t>
   </si>
   <si>
-    <t xml:space="preserve">25.9849090576172</t>
+    <t xml:space="preserve">25.9849109649658</t>
   </si>
   <si>
     <t xml:space="preserve">26.424503326416</t>
   </si>
   <si>
-    <t xml:space="preserve">27.2548484802246</t>
+    <t xml:space="preserve">27.254846572876</t>
   </si>
   <si>
     <t xml:space="preserve">26.9129409790039</t>
@@ -2474,22 +2474,22 @@
     <t xml:space="preserve">26.6198787689209</t>
   </si>
   <si>
-    <t xml:space="preserve">27.9386615753174</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.9155387878418</t>
+    <t xml:space="preserve">27.938663482666</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.9155368804932</t>
   </si>
   <si>
     <t xml:space="preserve">30.1854782104492</t>
   </si>
   <si>
-    <t xml:space="preserve">29.2086009979248</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.038948059082</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.6739158630371</t>
+    <t xml:space="preserve">29.2086029052734</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.0389461517334</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.6739177703857</t>
   </si>
   <si>
     <t xml:space="preserve">31.2111988067627</t>
@@ -2498,7 +2498,7 @@
     <t xml:space="preserve">32.0415420532227</t>
   </si>
   <si>
-    <t xml:space="preserve">32.3346061706543</t>
+    <t xml:space="preserve">32.334602355957</t>
   </si>
   <si>
     <t xml:space="preserve">31.8461666107178</t>
@@ -2516,19 +2516,19 @@
     <t xml:space="preserve">32.6276702880859</t>
   </si>
   <si>
-    <t xml:space="preserve">33.604549407959</t>
+    <t xml:space="preserve">33.6045455932617</t>
   </si>
   <si>
     <t xml:space="preserve">33.5068550109863</t>
   </si>
   <si>
-    <t xml:space="preserve">33.1161079406738</t>
+    <t xml:space="preserve">33.1161117553711</t>
   </si>
   <si>
     <t xml:space="preserve">33.7999229431152</t>
   </si>
   <si>
-    <t xml:space="preserve">34.0441360473633</t>
+    <t xml:space="preserve">34.0441398620605</t>
   </si>
   <si>
     <t xml:space="preserve">34.4348907470703</t>
@@ -2540,10 +2540,10 @@
     <t xml:space="preserve">34.9233283996582</t>
   </si>
   <si>
-    <t xml:space="preserve">35.7048301696777</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.8025207519531</t>
+    <t xml:space="preserve">35.7048263549805</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.8025169372559</t>
   </si>
   <si>
     <t xml:space="preserve">37.1701431274414</t>
@@ -2567,10 +2567,10 @@
     <t xml:space="preserve">33.0672645568848</t>
   </si>
   <si>
-    <t xml:space="preserve">33.0184173583984</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.2369194030762</t>
+    <t xml:space="preserve">33.0184211730957</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.2369155883789</t>
   </si>
   <si>
     <t xml:space="preserve">30.625072479248</t>
@@ -2588,16 +2588,16 @@
     <t xml:space="preserve">31.4065742492676</t>
   </si>
   <si>
-    <t xml:space="preserve">33.7510757446289</t>
+    <t xml:space="preserve">33.7510795593262</t>
   </si>
   <si>
     <t xml:space="preserve">34.1906700134277</t>
   </si>
   <si>
-    <t xml:space="preserve">35.6071434020996</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.9978904724121</t>
+    <t xml:space="preserve">35.6071395874023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.9978942871094</t>
   </si>
   <si>
     <t xml:space="preserve">36.0467414855957</t>
@@ -2612,13 +2612,13 @@
     <t xml:space="preserve">37.3166770935059</t>
   </si>
   <si>
-    <t xml:space="preserve">36.2909545898438</t>
+    <t xml:space="preserve">36.290958404541</t>
   </si>
   <si>
     <t xml:space="preserve">36.7793960571289</t>
   </si>
   <si>
-    <t xml:space="preserve">35.4117698669434</t>
+    <t xml:space="preserve">35.4117660522461</t>
   </si>
   <si>
     <t xml:space="preserve">35.314079284668</t>
@@ -2636,7 +2636,7 @@
     <t xml:space="preserve">38.3912391662598</t>
   </si>
   <si>
-    <t xml:space="preserve">38.977367401123</t>
+    <t xml:space="preserve">38.9773635864258</t>
   </si>
   <si>
     <t xml:space="preserve">39.1238975524902</t>
@@ -2651,7 +2651,7 @@
     <t xml:space="preserve">38.9285163879395</t>
   </si>
   <si>
-    <t xml:space="preserve">39.0750541687012</t>
+    <t xml:space="preserve">39.0750503540039</t>
   </si>
   <si>
     <t xml:space="preserve">40.0030860900879</t>
@@ -2669,382 +2669,385 @@
     <t xml:space="preserve">40.638053894043</t>
   </si>
   <si>
-    <t xml:space="preserve">44.4967155456543</t>
+    <t xml:space="preserve">44.496711730957</t>
   </si>
   <si>
     <t xml:space="preserve">42.2987442016602</t>
   </si>
   <si>
-    <t xml:space="preserve">40.4426803588867</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41.5660820007324</t>
+    <t xml:space="preserve">40.442684173584</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41.5660858154297</t>
   </si>
   <si>
     <t xml:space="preserve">42.2499008178711</t>
   </si>
   <si>
+    <t xml:space="preserve">42.7383422851562</t>
+  </si>
+  <si>
+    <t xml:space="preserve">42.4452781677246</t>
+  </si>
+  <si>
+    <t xml:space="preserve">43.0314025878906</t>
+  </si>
+  <si>
+    <t xml:space="preserve">42.0056800842285</t>
+  </si>
+  <si>
+    <t xml:space="preserve">42.7871856689453</t>
+  </si>
+  <si>
+    <t xml:space="preserve">43.9105911254883</t>
+  </si>
+  <si>
+    <t xml:space="preserve">44.5455551147461</t>
+  </si>
+  <si>
+    <t xml:space="preserve">45.1316871643066</t>
+  </si>
+  <si>
+    <t xml:space="preserve">45.1805267333984</t>
+  </si>
+  <si>
+    <t xml:space="preserve">46.1085662841797</t>
+  </si>
+  <si>
+    <t xml:space="preserve">44.838623046875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">45.4247512817383</t>
+  </si>
+  <si>
+    <t xml:space="preserve">46.4504699707031</t>
+  </si>
+  <si>
+    <t xml:space="preserve">45.9131889343262</t>
+  </si>
+  <si>
+    <t xml:space="preserve">45.3759078979492</t>
+  </si>
+  <si>
+    <t xml:space="preserve">46.6946868896484</t>
+  </si>
+  <si>
+    <t xml:space="preserve">45.5712814331055</t>
+  </si>
+  <si>
+    <t xml:space="preserve">45.0339965820312</t>
+  </si>
+  <si>
+    <t xml:space="preserve">44.9363098144531</t>
+  </si>
+  <si>
+    <t xml:space="preserve">44.6920890808105</t>
+  </si>
+  <si>
+    <t xml:space="preserve">44.2524948120117</t>
+  </si>
+  <si>
+    <t xml:space="preserve">43.5686798095703</t>
+  </si>
+  <si>
+    <t xml:space="preserve">43.715217590332</t>
+  </si>
+  <si>
+    <t xml:space="preserve">43.666374206543</t>
+  </si>
+  <si>
+    <t xml:space="preserve">43.2756195068359</t>
+  </si>
+  <si>
+    <t xml:space="preserve">43.4709968566895</t>
+  </si>
+  <si>
+    <t xml:space="preserve">44.4478721618652</t>
+  </si>
+  <si>
+    <t xml:space="preserve">43.8129005432129</t>
+  </si>
+  <si>
+    <t xml:space="preserve">42.8360252380371</t>
+  </si>
+  <si>
+    <t xml:space="preserve">42.2946891784668</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40.4214973449707</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40.1750259399414</t>
+  </si>
+  <si>
+    <t xml:space="preserve">39.8299674987793</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40.4707908630371</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41.2595024108887</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40.3722038269043</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41.1609153747559</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41.062328338623</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40.5693817138672</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40.2736129760742</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40.0271415710449</t>
+  </si>
+  <si>
+    <t xml:space="preserve">39.9778480529785</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40.125732421875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">39.6327896118164</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40.66796875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40.3229103088379</t>
+  </si>
+  <si>
+    <t xml:space="preserve">38.2525367736816</t>
+  </si>
+  <si>
+    <t xml:space="preserve">37.0694694519043</t>
+  </si>
+  <si>
+    <t xml:space="preserve">37.9567718505859</t>
+  </si>
+  <si>
+    <t xml:space="preserve">38.4497146606445</t>
+  </si>
+  <si>
+    <t xml:space="preserve">39.9285545349121</t>
+  </si>
+  <si>
+    <t xml:space="preserve">42.0975112915039</t>
+  </si>
+  <si>
+    <t xml:space="preserve">42.4918632507324</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41.8510398864746</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41.4566802978516</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40.7665596008301</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40.8158569335938</t>
+  </si>
+  <si>
+    <t xml:space="preserve">42.5904541015625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">42.442569732666</t>
+  </si>
+  <si>
+    <t xml:space="preserve">42.3439826965332</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41.8017425537109</t>
+  </si>
+  <si>
+    <t xml:space="preserve">43.132698059082</t>
+  </si>
+  <si>
+    <t xml:space="preserve">45.7946014404297</t>
+  </si>
+  <si>
+    <t xml:space="preserve">45.8438949584961</t>
+  </si>
+  <si>
+    <t xml:space="preserve">46.6326065063477</t>
+  </si>
+  <si>
+    <t xml:space="preserve">48.3086166381836</t>
+  </si>
+  <si>
+    <t xml:space="preserve">47.7663803100586</t>
+  </si>
+  <si>
+    <t xml:space="preserve">48.2593231201172</t>
+  </si>
+  <si>
+    <t xml:space="preserve">48.9987449645996</t>
+  </si>
+  <si>
+    <t xml:space="preserve">49.048038482666</t>
+  </si>
+  <si>
+    <t xml:space="preserve">49.2945098876953</t>
+  </si>
+  <si>
+    <t xml:space="preserve">48.653678894043</t>
+  </si>
+  <si>
+    <t xml:space="preserve">50.181812286377</t>
+  </si>
+  <si>
+    <t xml:space="preserve">50.3789863586426</t>
+  </si>
+  <si>
+    <t xml:space="preserve">50.2803993225098</t>
+  </si>
+  <si>
+    <t xml:space="preserve">50.4775772094727</t>
+  </si>
+  <si>
+    <t xml:space="preserve">51.1677017211914</t>
+  </si>
+  <si>
+    <t xml:space="preserve">51.8578186035156</t>
+  </si>
+  <si>
+    <t xml:space="preserve">50.7733459472656</t>
+  </si>
+  <si>
+    <t xml:space="preserve">51.0691108703613</t>
+  </si>
+  <si>
+    <t xml:space="preserve">50.9705238342285</t>
+  </si>
+  <si>
+    <t xml:space="preserve">51.7592315673828</t>
+  </si>
+  <si>
+    <t xml:space="preserve">50.6747550964355</t>
+  </si>
+  <si>
+    <t xml:space="preserve">51.2662887573242</t>
+  </si>
+  <si>
+    <t xml:space="preserve">51.4634666442871</t>
+  </si>
+  <si>
+    <t xml:space="preserve">52.3507690429688</t>
+  </si>
+  <si>
+    <t xml:space="preserve">52.4493598937988</t>
+  </si>
+  <si>
+    <t xml:space="preserve">51.364875793457</t>
+  </si>
+  <si>
+    <t xml:space="preserve">45.6960067749023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">44.9565887451172</t>
+  </si>
+  <si>
+    <t xml:space="preserve">43.9214057922363</t>
+  </si>
+  <si>
+    <t xml:space="preserve">44.6608238220215</t>
+  </si>
+  <si>
+    <t xml:space="preserve">44.7101173400879</t>
+  </si>
+  <si>
+    <t xml:space="preserve">45.3509483337402</t>
+  </si>
+  <si>
+    <t xml:space="preserve">44.4636459350586</t>
+  </si>
+  <si>
+    <t xml:space="preserve">44.2171745300293</t>
+  </si>
+  <si>
+    <t xml:space="preserve">44.8580017089844</t>
+  </si>
+  <si>
+    <t xml:space="preserve">44.3650588989258</t>
+  </si>
+  <si>
+    <t xml:space="preserve">44.6115303039551</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41.604564666748</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41.3580932617188</t>
+  </si>
+  <si>
+    <t xml:space="preserve">42.1468048095703</t>
+  </si>
+  <si>
+    <t xml:space="preserve">42.6890449523926</t>
+  </si>
+  <si>
+    <t xml:space="preserve">43.4777565002441</t>
+  </si>
+  <si>
+    <t xml:space="preserve">43.674934387207</t>
+  </si>
+  <si>
+    <t xml:space="preserve">44.1185874938965</t>
+  </si>
+  <si>
+    <t xml:space="preserve">44.7594146728516</t>
+  </si>
+  <si>
+    <t xml:space="preserve">45.8931884765625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">46.5340194702148</t>
+  </si>
+  <si>
+    <t xml:space="preserve">46.0903663635254</t>
+  </si>
+  <si>
+    <t xml:space="preserve">46.1889533996582</t>
+  </si>
+  <si>
+    <t xml:space="preserve">43.1819915771484</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41.6538581848145</t>
+  </si>
+  <si>
+    <t xml:space="preserve">43.0834045410156</t>
+  </si>
+  <si>
+    <t xml:space="preserve">43.5270538330078</t>
+  </si>
+  <si>
     <t xml:space="preserve">42.738338470459</t>
   </si>
   <si>
-    <t xml:space="preserve">42.4452781677246</t>
-  </si>
-  <si>
-    <t xml:space="preserve">43.0314025878906</t>
-  </si>
-  <si>
-    <t xml:space="preserve">42.0056800842285</t>
-  </si>
-  <si>
-    <t xml:space="preserve">42.787181854248</t>
-  </si>
-  <si>
-    <t xml:space="preserve">43.910587310791</t>
-  </si>
-  <si>
-    <t xml:space="preserve">44.5455551147461</t>
-  </si>
-  <si>
-    <t xml:space="preserve">45.1316871643066</t>
-  </si>
-  <si>
-    <t xml:space="preserve">45.1805267333984</t>
-  </si>
-  <si>
-    <t xml:space="preserve">46.1085662841797</t>
-  </si>
-  <si>
-    <t xml:space="preserve">44.838623046875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">45.4247512817383</t>
-  </si>
-  <si>
-    <t xml:space="preserve">46.4504699707031</t>
-  </si>
-  <si>
-    <t xml:space="preserve">45.9131851196289</t>
-  </si>
-  <si>
-    <t xml:space="preserve">45.375904083252</t>
-  </si>
-  <si>
-    <t xml:space="preserve">46.6946868896484</t>
-  </si>
-  <si>
-    <t xml:space="preserve">45.5712814331055</t>
-  </si>
-  <si>
-    <t xml:space="preserve">45.0339965820312</t>
-  </si>
-  <si>
-    <t xml:space="preserve">44.9363098144531</t>
-  </si>
-  <si>
-    <t xml:space="preserve">44.6920928955078</t>
-  </si>
-  <si>
-    <t xml:space="preserve">44.2524948120117</t>
-  </si>
-  <si>
-    <t xml:space="preserve">43.5686836242676</t>
-  </si>
-  <si>
-    <t xml:space="preserve">43.7152137756348</t>
-  </si>
-  <si>
-    <t xml:space="preserve">43.666374206543</t>
-  </si>
-  <si>
-    <t xml:space="preserve">43.2756195068359</t>
-  </si>
-  <si>
-    <t xml:space="preserve">43.4709968566895</t>
-  </si>
-  <si>
-    <t xml:space="preserve">44.4478721618652</t>
-  </si>
-  <si>
-    <t xml:space="preserve">43.8128967285156</t>
-  </si>
-  <si>
-    <t xml:space="preserve">42.8360214233398</t>
-  </si>
-  <si>
-    <t xml:space="preserve">42.2946891784668</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40.4214973449707</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40.1750259399414</t>
-  </si>
-  <si>
-    <t xml:space="preserve">39.829963684082</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40.4707908630371</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41.2595024108887</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40.3722038269043</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41.1609153747559</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41.062328338623</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40.5693817138672</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40.2736129760742</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40.0271377563477</t>
-  </si>
-  <si>
-    <t xml:space="preserve">39.9778480529785</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40.125732421875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">39.6327857971191</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40.66796875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40.3229103088379</t>
-  </si>
-  <si>
-    <t xml:space="preserve">38.2525367736816</t>
-  </si>
-  <si>
-    <t xml:space="preserve">37.0694694519043</t>
-  </si>
-  <si>
-    <t xml:space="preserve">37.9567718505859</t>
-  </si>
-  <si>
-    <t xml:space="preserve">38.4497146606445</t>
-  </si>
-  <si>
-    <t xml:space="preserve">39.9285507202148</t>
-  </si>
-  <si>
-    <t xml:space="preserve">42.0975112915039</t>
-  </si>
-  <si>
-    <t xml:space="preserve">42.4918632507324</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41.8510360717773</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41.4566802978516</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40.7665596008301</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40.8158531188965</t>
-  </si>
-  <si>
-    <t xml:space="preserve">42.5904541015625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">42.4425735473633</t>
-  </si>
-  <si>
-    <t xml:space="preserve">42.3439865112305</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41.8017463684082</t>
-  </si>
-  <si>
-    <t xml:space="preserve">43.1326942443848</t>
-  </si>
-  <si>
-    <t xml:space="preserve">45.7945976257324</t>
-  </si>
-  <si>
-    <t xml:space="preserve">45.8438949584961</t>
-  </si>
-  <si>
-    <t xml:space="preserve">46.6326065063477</t>
-  </si>
-  <si>
-    <t xml:space="preserve">48.3086204528809</t>
-  </si>
-  <si>
-    <t xml:space="preserve">47.7663803100586</t>
-  </si>
-  <si>
-    <t xml:space="preserve">48.2593231201172</t>
-  </si>
-  <si>
-    <t xml:space="preserve">48.9987411499023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">49.0480346679688</t>
-  </si>
-  <si>
-    <t xml:space="preserve">49.2945098876953</t>
-  </si>
-  <si>
-    <t xml:space="preserve">48.653678894043</t>
-  </si>
-  <si>
-    <t xml:space="preserve">50.1818084716797</t>
-  </si>
-  <si>
-    <t xml:space="preserve">50.3789901733398</t>
-  </si>
-  <si>
-    <t xml:space="preserve">50.2803993225098</t>
-  </si>
-  <si>
-    <t xml:space="preserve">50.4775810241699</t>
-  </si>
-  <si>
-    <t xml:space="preserve">51.1677017211914</t>
-  </si>
-  <si>
-    <t xml:space="preserve">51.8578224182129</t>
-  </si>
-  <si>
-    <t xml:space="preserve">50.7733459472656</t>
-  </si>
-  <si>
-    <t xml:space="preserve">51.0691108703613</t>
-  </si>
-  <si>
-    <t xml:space="preserve">50.9705238342285</t>
-  </si>
-  <si>
-    <t xml:space="preserve">51.7592353820801</t>
-  </si>
-  <si>
-    <t xml:space="preserve">50.6747589111328</t>
-  </si>
-  <si>
-    <t xml:space="preserve">51.2662887573242</t>
-  </si>
-  <si>
-    <t xml:space="preserve">51.4634666442871</t>
-  </si>
-  <si>
-    <t xml:space="preserve">52.3507652282715</t>
-  </si>
-  <si>
-    <t xml:space="preserve">52.4493560791016</t>
-  </si>
-  <si>
-    <t xml:space="preserve">51.364875793457</t>
-  </si>
-  <si>
-    <t xml:space="preserve">45.6960067749023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">44.9565887451172</t>
-  </si>
-  <si>
-    <t xml:space="preserve">43.9214057922363</t>
-  </si>
-  <si>
-    <t xml:space="preserve">44.6608238220215</t>
-  </si>
-  <si>
-    <t xml:space="preserve">44.7101211547852</t>
-  </si>
-  <si>
-    <t xml:space="preserve">45.3509483337402</t>
-  </si>
-  <si>
-    <t xml:space="preserve">44.4636459350586</t>
-  </si>
-  <si>
-    <t xml:space="preserve">44.217170715332</t>
-  </si>
-  <si>
-    <t xml:space="preserve">44.8580017089844</t>
-  </si>
-  <si>
-    <t xml:space="preserve">44.3650588989258</t>
-  </si>
-  <si>
-    <t xml:space="preserve">44.6115341186523</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41.6045684814453</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41.3580932617188</t>
-  </si>
-  <si>
-    <t xml:space="preserve">42.1468086242676</t>
-  </si>
-  <si>
-    <t xml:space="preserve">42.6890449523926</t>
-  </si>
-  <si>
-    <t xml:space="preserve">43.4777565002441</t>
-  </si>
-  <si>
-    <t xml:space="preserve">43.674934387207</t>
-  </si>
-  <si>
-    <t xml:space="preserve">44.1185836791992</t>
-  </si>
-  <si>
-    <t xml:space="preserve">44.7594146728516</t>
-  </si>
-  <si>
-    <t xml:space="preserve">45.8931884765625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">46.5340194702148</t>
-  </si>
-  <si>
-    <t xml:space="preserve">46.0903663635254</t>
-  </si>
-  <si>
-    <t xml:space="preserve">46.1889533996582</t>
-  </si>
-  <si>
-    <t xml:space="preserve">43.1819877624512</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41.6538581848145</t>
-  </si>
-  <si>
-    <t xml:space="preserve">43.0834007263184</t>
-  </si>
-  <si>
-    <t xml:space="preserve">43.5270538330078</t>
-  </si>
-  <si>
     <t xml:space="preserve">42.8369293212891</t>
   </si>
   <si>
     <t xml:space="preserve">41.900333404541</t>
   </si>
   <si>
-    <t xml:space="preserve">41.4073905944824</t>
-  </si>
-  <si>
-    <t xml:space="preserve">39.2384300231934</t>
+    <t xml:space="preserve">41.4073867797852</t>
+  </si>
+  <si>
+    <t xml:space="preserve">39.2384262084961</t>
   </si>
   <si>
     <t xml:space="preserve">38.5976028442383</t>
   </si>
   <si>
-    <t xml:space="preserve">39.4356079101562</t>
+    <t xml:space="preserve">39.435604095459</t>
   </si>
   <si>
     <t xml:space="preserve">40.2243194580078</t>
@@ -3053,10 +3056,10 @@
     <t xml:space="preserve">40.9144439697266</t>
   </si>
   <si>
-    <t xml:space="preserve">42.2453956604004</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41.5059776306152</t>
+    <t xml:space="preserve">42.2453918457031</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41.505973815918</t>
   </si>
   <si>
     <t xml:space="preserve">41.2102088928223</t>
@@ -3101,13 +3104,13 @@
     <t xml:space="preserve">39.4849014282227</t>
   </si>
   <si>
-    <t xml:space="preserve">42.9848098754883</t>
-  </si>
-  <si>
-    <t xml:space="preserve">43.034107208252</t>
-  </si>
-  <si>
-    <t xml:space="preserve">38.9426651000977</t>
+    <t xml:space="preserve">42.9848136901855</t>
+  </si>
+  <si>
+    <t xml:space="preserve">43.0341110229492</t>
+  </si>
+  <si>
+    <t xml:space="preserve">38.9426612854004</t>
   </si>
   <si>
     <t xml:space="preserve">36.7737045288086</t>
@@ -3116,16 +3119,16 @@
     <t xml:space="preserve">38.9919548034668</t>
   </si>
   <si>
-    <t xml:space="preserve">37.4638252258301</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36.1328773498535</t>
+    <t xml:space="preserve">37.4638290405273</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36.1328735351562</t>
   </si>
   <si>
     <t xml:space="preserve">35.0483932495117</t>
   </si>
   <si>
-    <t xml:space="preserve">35.9356994628906</t>
+    <t xml:space="preserve">35.9356956481934</t>
   </si>
   <si>
     <t xml:space="preserve">36.8722953796387</t>
@@ -3134,7 +3137,7 @@
     <t xml:space="preserve">36.9708824157715</t>
   </si>
   <si>
-    <t xml:space="preserve">36.4286422729492</t>
+    <t xml:space="preserve">36.4286460876465</t>
   </si>
   <si>
     <t xml:space="preserve">36.4779396057129</t>
@@ -3146,13 +3149,13 @@
     <t xml:space="preserve">34.8512153625488</t>
   </si>
   <si>
-    <t xml:space="preserve">36.7244071960449</t>
+    <t xml:space="preserve">36.7244110107422</t>
   </si>
   <si>
     <t xml:space="preserve">35.6892242431641</t>
   </si>
   <si>
-    <t xml:space="preserve">34.2596817016602</t>
+    <t xml:space="preserve">34.2596855163574</t>
   </si>
   <si>
     <t xml:space="preserve">32.4357872009277</t>
@@ -3161,10 +3164,10 @@
     <t xml:space="preserve">31.794958114624</t>
   </si>
   <si>
-    <t xml:space="preserve">31.9428443908691</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.3230857849121</t>
+    <t xml:space="preserve">31.9428424835205</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.3230895996094</t>
   </si>
   <si>
     <t xml:space="preserve">32.682258605957</t>
@@ -3173,7 +3176,7 @@
     <t xml:space="preserve">33.7667388916016</t>
   </si>
   <si>
-    <t xml:space="preserve">35.0976905822754</t>
+    <t xml:space="preserve">35.0976867675781</t>
   </si>
   <si>
     <t xml:space="preserve">34.9005126953125</t>
@@ -3188,16 +3191,16 @@
     <t xml:space="preserve">31.6963710784912</t>
   </si>
   <si>
-    <t xml:space="preserve">33.9146270751953</t>
+    <t xml:space="preserve">33.914623260498</t>
   </si>
   <si>
     <t xml:space="preserve">33.273796081543</t>
   </si>
   <si>
-    <t xml:space="preserve">32.8301429748535</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.7315559387207</t>
+    <t xml:space="preserve">32.8301391601562</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.7315521240234</t>
   </si>
   <si>
     <t xml:space="preserve">32.9287338256836</t>
@@ -3212,13 +3215,13 @@
     <t xml:space="preserve">33.0766143798828</t>
   </si>
   <si>
-    <t xml:space="preserve">31.5090484619141</t>
+    <t xml:space="preserve">31.5090503692627</t>
   </si>
   <si>
     <t xml:space="preserve">31.3118724822998</t>
   </si>
   <si>
-    <t xml:space="preserve">31.1935634613037</t>
+    <t xml:space="preserve">31.1935653686523</t>
   </si>
   <si>
     <t xml:space="preserve">29.9316272735596</t>
@@ -3227,7 +3230,7 @@
     <t xml:space="preserve">30.7597732543945</t>
   </si>
   <si>
-    <t xml:space="preserve">32.5343780517578</t>
+    <t xml:space="preserve">32.5343742370605</t>
   </si>
   <si>
     <t xml:space="preserve">32.3766326904297</t>
@@ -3242,7 +3245,7 @@
     <t xml:space="preserve">32.4752197265625</t>
   </si>
   <si>
-    <t xml:space="preserve">31.6865100860596</t>
+    <t xml:space="preserve">31.6865081787109</t>
   </si>
   <si>
     <t xml:space="preserve">31.9625587463379</t>
@@ -3260,25 +3263,25 @@
     <t xml:space="preserve">28.7682762145996</t>
   </si>
   <si>
-    <t xml:space="preserve">29.4781150817871</t>
+    <t xml:space="preserve">29.4781169891357</t>
   </si>
   <si>
     <t xml:space="preserve">29.1429138183594</t>
   </si>
   <si>
-    <t xml:space="preserve">29.2020664215088</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.3598117828369</t>
+    <t xml:space="preserve">29.2020683288574</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.3598098754883</t>
   </si>
   <si>
     <t xml:space="preserve">28.5710964202881</t>
   </si>
   <si>
-    <t xml:space="preserve">28.6894054412842</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.2697238922119</t>
+    <t xml:space="preserve">28.6894035339355</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.2697219848633</t>
   </si>
   <si>
     <t xml:space="preserve">28.5908145904541</t>
@@ -3290,7 +3293,7 @@
     <t xml:space="preserve">28.4922256469727</t>
   </si>
   <si>
-    <t xml:space="preserve">28.8274269104004</t>
+    <t xml:space="preserve">28.827428817749</t>
   </si>
   <si>
     <t xml:space="preserve">28.3492946624756</t>
@@ -3726,9 +3729,6 @@
   </si>
   <si>
     <t xml:space="preserve">28.8871955871582</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.827428817749</t>
   </si>
   <si>
     <t xml:space="preserve">29.1262626647949</t>
@@ -43446,7 +43446,7 @@
         <v>43.3499984741211</v>
       </c>
       <c r="G1488" t="s">
-        <v>890</v>
+        <v>1005</v>
       </c>
       <c r="H1488" t="s">
         <v>9</v>
@@ -43472,7 +43472,7 @@
         <v>43.4500007629395</v>
       </c>
       <c r="G1489" t="s">
-        <v>1005</v>
+        <v>1006</v>
       </c>
       <c r="H1489" t="s">
         <v>9</v>
@@ -43524,7 +43524,7 @@
         <v>42.5</v>
       </c>
       <c r="G1491" t="s">
-        <v>1006</v>
+        <v>1007</v>
       </c>
       <c r="H1491" t="s">
         <v>9</v>
@@ -43550,7 +43550,7 @@
         <v>42.5</v>
       </c>
       <c r="G1492" t="s">
-        <v>1006</v>
+        <v>1007</v>
       </c>
       <c r="H1492" t="s">
         <v>9</v>
@@ -43602,7 +43602,7 @@
         <v>42</v>
       </c>
       <c r="G1494" t="s">
-        <v>1007</v>
+        <v>1008</v>
       </c>
       <c r="H1494" t="s">
         <v>9</v>
@@ -43654,7 +43654,7 @@
         <v>39.7999992370605</v>
       </c>
       <c r="G1496" t="s">
-        <v>1008</v>
+        <v>1009</v>
       </c>
       <c r="H1496" t="s">
         <v>9</v>
@@ -43680,7 +43680,7 @@
         <v>39.1500015258789</v>
       </c>
       <c r="G1497" t="s">
-        <v>1009</v>
+        <v>1010</v>
       </c>
       <c r="H1497" t="s">
         <v>9</v>
@@ -43706,7 +43706,7 @@
         <v>40</v>
       </c>
       <c r="G1498" t="s">
-        <v>1010</v>
+        <v>1011</v>
       </c>
       <c r="H1498" t="s">
         <v>9</v>
@@ -43862,7 +43862,7 @@
         <v>40.7999992370605</v>
       </c>
       <c r="G1504" t="s">
-        <v>1011</v>
+        <v>1012</v>
       </c>
       <c r="H1504" t="s">
         <v>9</v>
@@ -43888,7 +43888,7 @@
         <v>41.5</v>
       </c>
       <c r="G1505" t="s">
-        <v>1012</v>
+        <v>1013</v>
       </c>
       <c r="H1505" t="s">
         <v>9</v>
@@ -43992,7 +43992,7 @@
         <v>41.5</v>
       </c>
       <c r="G1509" t="s">
-        <v>1012</v>
+        <v>1013</v>
       </c>
       <c r="H1509" t="s">
         <v>9</v>
@@ -44018,7 +44018,7 @@
         <v>42.8499984741211</v>
       </c>
       <c r="G1510" t="s">
-        <v>1013</v>
+        <v>1014</v>
       </c>
       <c r="H1510" t="s">
         <v>9</v>
@@ -44044,7 +44044,7 @@
         <v>42</v>
       </c>
       <c r="G1511" t="s">
-        <v>1007</v>
+        <v>1008</v>
       </c>
       <c r="H1511" t="s">
         <v>9</v>
@@ -44070,7 +44070,7 @@
         <v>42</v>
       </c>
       <c r="G1512" t="s">
-        <v>1007</v>
+        <v>1008</v>
       </c>
       <c r="H1512" t="s">
         <v>9</v>
@@ -44096,7 +44096,7 @@
         <v>42.0999984741211</v>
       </c>
       <c r="G1513" t="s">
-        <v>1014</v>
+        <v>1015</v>
       </c>
       <c r="H1513" t="s">
         <v>9</v>
@@ -44122,7 +44122,7 @@
         <v>41.7999992370605</v>
       </c>
       <c r="G1514" t="s">
-        <v>1015</v>
+        <v>1016</v>
       </c>
       <c r="H1514" t="s">
         <v>9</v>
@@ -44174,7 +44174,7 @@
         <v>42</v>
       </c>
       <c r="G1516" t="s">
-        <v>1007</v>
+        <v>1008</v>
       </c>
       <c r="H1516" t="s">
         <v>9</v>
@@ -44200,7 +44200,7 @@
         <v>42</v>
       </c>
       <c r="G1517" t="s">
-        <v>1007</v>
+        <v>1008</v>
       </c>
       <c r="H1517" t="s">
         <v>9</v>
@@ -44226,7 +44226,7 @@
         <v>42.6500015258789</v>
       </c>
       <c r="G1518" t="s">
-        <v>1016</v>
+        <v>1017</v>
       </c>
       <c r="H1518" t="s">
         <v>9</v>
@@ -44304,7 +44304,7 @@
         <v>42.5999984741211</v>
       </c>
       <c r="G1521" t="s">
-        <v>1017</v>
+        <v>1018</v>
       </c>
       <c r="H1521" t="s">
         <v>9</v>
@@ -44356,7 +44356,7 @@
         <v>43.5</v>
       </c>
       <c r="G1523" t="s">
-        <v>1018</v>
+        <v>1019</v>
       </c>
       <c r="H1523" t="s">
         <v>9</v>
@@ -44408,7 +44408,7 @@
         <v>44</v>
       </c>
       <c r="G1525" t="s">
-        <v>1019</v>
+        <v>1020</v>
       </c>
       <c r="H1525" t="s">
         <v>9</v>
@@ -44460,7 +44460,7 @@
         <v>42.7999992370605</v>
       </c>
       <c r="G1527" t="s">
-        <v>1020</v>
+        <v>1021</v>
       </c>
       <c r="H1527" t="s">
         <v>9</v>
@@ -44486,7 +44486,7 @@
         <v>42.6500015258789</v>
       </c>
       <c r="G1528" t="s">
-        <v>1016</v>
+        <v>1017</v>
       </c>
       <c r="H1528" t="s">
         <v>9</v>
@@ -44512,7 +44512,7 @@
         <v>42.3499984741211</v>
       </c>
       <c r="G1529" t="s">
-        <v>1021</v>
+        <v>1022</v>
       </c>
       <c r="H1529" t="s">
         <v>9</v>
@@ -44538,7 +44538,7 @@
         <v>41.5</v>
       </c>
       <c r="G1530" t="s">
-        <v>1012</v>
+        <v>1013</v>
       </c>
       <c r="H1530" t="s">
         <v>9</v>
@@ -44564,7 +44564,7 @@
         <v>41.2000007629395</v>
       </c>
       <c r="G1531" t="s">
-        <v>1022</v>
+        <v>1023</v>
       </c>
       <c r="H1531" t="s">
         <v>9</v>
@@ -44642,7 +44642,7 @@
         <v>41.5999984741211</v>
       </c>
       <c r="G1534" t="s">
-        <v>1023</v>
+        <v>1024</v>
       </c>
       <c r="H1534" t="s">
         <v>9</v>
@@ -44668,7 +44668,7 @@
         <v>42</v>
       </c>
       <c r="G1535" t="s">
-        <v>1007</v>
+        <v>1008</v>
       </c>
       <c r="H1535" t="s">
         <v>9</v>
@@ -44694,7 +44694,7 @@
         <v>42</v>
       </c>
       <c r="G1536" t="s">
-        <v>1007</v>
+        <v>1008</v>
       </c>
       <c r="H1536" t="s">
         <v>9</v>
@@ -44720,7 +44720,7 @@
         <v>43.9000015258789</v>
       </c>
       <c r="G1537" t="s">
-        <v>1024</v>
+        <v>1025</v>
       </c>
       <c r="H1537" t="s">
         <v>9</v>
@@ -44772,7 +44772,7 @@
         <v>44.5</v>
       </c>
       <c r="G1539" t="s">
-        <v>1025</v>
+        <v>1026</v>
       </c>
       <c r="H1539" t="s">
         <v>9</v>
@@ -44798,7 +44798,7 @@
         <v>45.0499992370605</v>
       </c>
       <c r="G1540" t="s">
-        <v>1026</v>
+        <v>1027</v>
       </c>
       <c r="H1540" t="s">
         <v>9</v>
@@ -44876,7 +44876,7 @@
         <v>40</v>
       </c>
       <c r="G1543" t="s">
-        <v>1010</v>
+        <v>1011</v>
       </c>
       <c r="H1543" t="s">
         <v>9</v>
@@ -44928,7 +44928,7 @@
         <v>41.9000015258789</v>
       </c>
       <c r="G1545" t="s">
-        <v>1027</v>
+        <v>1028</v>
       </c>
       <c r="H1545" t="s">
         <v>9</v>
@@ -44954,7 +44954,7 @@
         <v>40.0499992370605</v>
       </c>
       <c r="G1546" t="s">
-        <v>1028</v>
+        <v>1029</v>
       </c>
       <c r="H1546" t="s">
         <v>9</v>
@@ -44980,7 +44980,7 @@
         <v>42.0999984741211</v>
       </c>
       <c r="G1547" t="s">
-        <v>1014</v>
+        <v>1015</v>
       </c>
       <c r="H1547" t="s">
         <v>9</v>
@@ -45006,7 +45006,7 @@
         <v>43.5999984741211</v>
       </c>
       <c r="G1548" t="s">
-        <v>1029</v>
+        <v>1030</v>
       </c>
       <c r="H1548" t="s">
         <v>9</v>
@@ -45032,7 +45032,7 @@
         <v>43.6500015258789</v>
       </c>
       <c r="G1549" t="s">
-        <v>1030</v>
+        <v>1031</v>
       </c>
       <c r="H1549" t="s">
         <v>9</v>
@@ -45110,7 +45110,7 @@
         <v>39.5</v>
       </c>
       <c r="G1552" t="s">
-        <v>1031</v>
+        <v>1032</v>
       </c>
       <c r="H1552" t="s">
         <v>9</v>
@@ -45136,7 +45136,7 @@
         <v>37.2999992370605</v>
       </c>
       <c r="G1553" t="s">
-        <v>1032</v>
+        <v>1033</v>
       </c>
       <c r="H1553" t="s">
         <v>9</v>
@@ -45162,7 +45162,7 @@
         <v>39.5499992370605</v>
       </c>
       <c r="G1554" t="s">
-        <v>1033</v>
+        <v>1034</v>
       </c>
       <c r="H1554" t="s">
         <v>9</v>
@@ -45188,7 +45188,7 @@
         <v>38</v>
       </c>
       <c r="G1555" t="s">
-        <v>1034</v>
+        <v>1035</v>
       </c>
       <c r="H1555" t="s">
         <v>9</v>
@@ -45214,7 +45214,7 @@
         <v>36.6500015258789</v>
       </c>
       <c r="G1556" t="s">
-        <v>1035</v>
+        <v>1036</v>
       </c>
       <c r="H1556" t="s">
         <v>9</v>
@@ -45240,7 +45240,7 @@
         <v>35.5499992370605</v>
       </c>
       <c r="G1557" t="s">
-        <v>1036</v>
+        <v>1037</v>
       </c>
       <c r="H1557" t="s">
         <v>9</v>
@@ -45266,7 +45266,7 @@
         <v>36.4500007629395</v>
       </c>
       <c r="G1558" t="s">
-        <v>1037</v>
+        <v>1038</v>
       </c>
       <c r="H1558" t="s">
         <v>9</v>
@@ -45318,7 +45318,7 @@
         <v>37.4000015258789</v>
       </c>
       <c r="G1560" t="s">
-        <v>1038</v>
+        <v>1039</v>
       </c>
       <c r="H1560" t="s">
         <v>9</v>
@@ -45344,7 +45344,7 @@
         <v>37.5</v>
       </c>
       <c r="G1561" t="s">
-        <v>1039</v>
+        <v>1040</v>
       </c>
       <c r="H1561" t="s">
         <v>9</v>
@@ -45370,7 +45370,7 @@
         <v>36.9500007629395</v>
       </c>
       <c r="G1562" t="s">
-        <v>1040</v>
+        <v>1041</v>
       </c>
       <c r="H1562" t="s">
         <v>9</v>
@@ -45396,7 +45396,7 @@
         <v>37</v>
       </c>
       <c r="G1563" t="s">
-        <v>1041</v>
+        <v>1042</v>
       </c>
       <c r="H1563" t="s">
         <v>9</v>
@@ -45422,7 +45422,7 @@
         <v>36.2999992370605</v>
       </c>
       <c r="G1564" t="s">
-        <v>1042</v>
+        <v>1043</v>
       </c>
       <c r="H1564" t="s">
         <v>9</v>
@@ -45448,7 +45448,7 @@
         <v>35.3499984741211</v>
       </c>
       <c r="G1565" t="s">
-        <v>1043</v>
+        <v>1044</v>
       </c>
       <c r="H1565" t="s">
         <v>9</v>
@@ -45474,7 +45474,7 @@
         <v>36.2999992370605</v>
       </c>
       <c r="G1566" t="s">
-        <v>1042</v>
+        <v>1043</v>
       </c>
       <c r="H1566" t="s">
         <v>9</v>
@@ -45500,7 +45500,7 @@
         <v>37.25</v>
       </c>
       <c r="G1567" t="s">
-        <v>1044</v>
+        <v>1045</v>
       </c>
       <c r="H1567" t="s">
         <v>9</v>
@@ -45526,7 +45526,7 @@
         <v>36.2000007629395</v>
       </c>
       <c r="G1568" t="s">
-        <v>1045</v>
+        <v>1046</v>
       </c>
       <c r="H1568" t="s">
         <v>9</v>
@@ -45552,7 +45552,7 @@
         <v>37</v>
       </c>
       <c r="G1569" t="s">
-        <v>1041</v>
+        <v>1042</v>
       </c>
       <c r="H1569" t="s">
         <v>9</v>
@@ -45578,7 +45578,7 @@
         <v>34.75</v>
       </c>
       <c r="G1570" t="s">
-        <v>1046</v>
+        <v>1047</v>
       </c>
       <c r="H1570" t="s">
         <v>9</v>
@@ -45604,7 +45604,7 @@
         <v>32.9000015258789</v>
       </c>
       <c r="G1571" t="s">
-        <v>1047</v>
+        <v>1048</v>
       </c>
       <c r="H1571" t="s">
         <v>9</v>
@@ -45630,7 +45630,7 @@
         <v>32.25</v>
       </c>
       <c r="G1572" t="s">
-        <v>1048</v>
+        <v>1049</v>
       </c>
       <c r="H1572" t="s">
         <v>9</v>
@@ -45656,7 +45656,7 @@
         <v>32.4000015258789</v>
       </c>
       <c r="G1573" t="s">
-        <v>1049</v>
+        <v>1050</v>
       </c>
       <c r="H1573" t="s">
         <v>9</v>
@@ -45682,7 +45682,7 @@
         <v>33.7999992370605</v>
       </c>
       <c r="G1574" t="s">
-        <v>1050</v>
+        <v>1051</v>
       </c>
       <c r="H1574" t="s">
         <v>9</v>
@@ -45708,7 +45708,7 @@
         <v>33.1500015258789</v>
       </c>
       <c r="G1575" t="s">
-        <v>1051</v>
+        <v>1052</v>
       </c>
       <c r="H1575" t="s">
         <v>9</v>
@@ -45734,7 +45734,7 @@
         <v>34.25</v>
       </c>
       <c r="G1576" t="s">
-        <v>1052</v>
+        <v>1053</v>
       </c>
       <c r="H1576" t="s">
         <v>9</v>
@@ -45760,7 +45760,7 @@
         <v>35.5999984741211</v>
       </c>
       <c r="G1577" t="s">
-        <v>1053</v>
+        <v>1054</v>
       </c>
       <c r="H1577" t="s">
         <v>9</v>
@@ -45786,7 +45786,7 @@
         <v>35.4000015258789</v>
       </c>
       <c r="G1578" t="s">
-        <v>1054</v>
+        <v>1055</v>
       </c>
       <c r="H1578" t="s">
         <v>9</v>
@@ -45812,7 +45812,7 @@
         <v>36.1500015258789</v>
       </c>
       <c r="G1579" t="s">
-        <v>1055</v>
+        <v>1056</v>
       </c>
       <c r="H1579" t="s">
         <v>9</v>
@@ -45838,7 +45838,7 @@
         <v>32.7999992370605</v>
       </c>
       <c r="G1580" t="s">
-        <v>1056</v>
+        <v>1057</v>
       </c>
       <c r="H1580" t="s">
         <v>9</v>
@@ -45864,7 +45864,7 @@
         <v>32.1500015258789</v>
       </c>
       <c r="G1581" t="s">
-        <v>1057</v>
+        <v>1058</v>
       </c>
       <c r="H1581" t="s">
         <v>9</v>
@@ -45890,7 +45890,7 @@
         <v>34.4000015258789</v>
       </c>
       <c r="G1582" t="s">
-        <v>1058</v>
+        <v>1059</v>
       </c>
       <c r="H1582" t="s">
         <v>9</v>
@@ -45916,7 +45916,7 @@
         <v>33.75</v>
       </c>
       <c r="G1583" t="s">
-        <v>1059</v>
+        <v>1060</v>
       </c>
       <c r="H1583" t="s">
         <v>9</v>
@@ -45942,7 +45942,7 @@
         <v>33.2999992370605</v>
       </c>
       <c r="G1584" t="s">
-        <v>1060</v>
+        <v>1061</v>
       </c>
       <c r="H1584" t="s">
         <v>9</v>
@@ -45968,7 +45968,7 @@
         <v>33.2000007629395</v>
       </c>
       <c r="G1585" t="s">
-        <v>1061</v>
+        <v>1062</v>
       </c>
       <c r="H1585" t="s">
         <v>9</v>
@@ -45994,7 +45994,7 @@
         <v>33.4000015258789</v>
       </c>
       <c r="G1586" t="s">
-        <v>1062</v>
+        <v>1063</v>
       </c>
       <c r="H1586" t="s">
         <v>9</v>
@@ -46020,7 +46020,7 @@
         <v>32.2000007629395</v>
       </c>
       <c r="G1587" t="s">
-        <v>1063</v>
+        <v>1064</v>
       </c>
       <c r="H1587" t="s">
         <v>9</v>
@@ -46046,7 +46046,7 @@
         <v>33.4500007629395</v>
       </c>
       <c r="G1588" t="s">
-        <v>1064</v>
+        <v>1065</v>
       </c>
       <c r="H1588" t="s">
         <v>9</v>
@@ -46072,7 +46072,7 @@
         <v>33.5499992370605</v>
       </c>
       <c r="G1589" t="s">
-        <v>1065</v>
+        <v>1066</v>
       </c>
       <c r="H1589" t="s">
         <v>9</v>
@@ -46098,7 +46098,7 @@
         <v>32.4000015258789</v>
       </c>
       <c r="G1590" t="s">
-        <v>1049</v>
+        <v>1050</v>
       </c>
       <c r="H1590" t="s">
         <v>9</v>
@@ -46124,7 +46124,7 @@
         <v>31.9599990844727</v>
       </c>
       <c r="G1591" t="s">
-        <v>1066</v>
+        <v>1067</v>
       </c>
       <c r="H1591" t="s">
         <v>9</v>
@@ -46150,7 +46150,7 @@
         <v>31.7600002288818</v>
       </c>
       <c r="G1592" t="s">
-        <v>1067</v>
+        <v>1068</v>
       </c>
       <c r="H1592" t="s">
         <v>9</v>
@@ -46176,7 +46176,7 @@
         <v>31.6399993896484</v>
       </c>
       <c r="G1593" t="s">
-        <v>1068</v>
+        <v>1069</v>
       </c>
       <c r="H1593" t="s">
         <v>9</v>
@@ -46202,7 +46202,7 @@
         <v>30.3600006103516</v>
       </c>
       <c r="G1594" t="s">
-        <v>1069</v>
+        <v>1070</v>
       </c>
       <c r="H1594" t="s">
         <v>9</v>
@@ -46228,7 +46228,7 @@
         <v>31.2000007629395</v>
       </c>
       <c r="G1595" t="s">
-        <v>1070</v>
+        <v>1071</v>
       </c>
       <c r="H1595" t="s">
         <v>9</v>
@@ -46254,7 +46254,7 @@
         <v>33</v>
       </c>
       <c r="G1596" t="s">
-        <v>1071</v>
+        <v>1072</v>
       </c>
       <c r="H1596" t="s">
         <v>9</v>
@@ -46280,7 +46280,7 @@
         <v>32.8400001525879</v>
       </c>
       <c r="G1597" t="s">
-        <v>1072</v>
+        <v>1073</v>
       </c>
       <c r="H1597" t="s">
         <v>9</v>
@@ -46306,7 +46306,7 @@
         <v>32.7000007629395</v>
       </c>
       <c r="G1598" t="s">
-        <v>1073</v>
+        <v>1074</v>
       </c>
       <c r="H1598" t="s">
         <v>9</v>
@@ -46332,7 +46332,7 @@
         <v>32.0800018310547</v>
       </c>
       <c r="G1599" t="s">
-        <v>1074</v>
+        <v>1075</v>
       </c>
       <c r="H1599" t="s">
         <v>9</v>
@@ -46358,7 +46358,7 @@
         <v>32.939998626709</v>
       </c>
       <c r="G1600" t="s">
-        <v>1075</v>
+        <v>1076</v>
       </c>
       <c r="H1600" t="s">
         <v>9</v>
@@ -46384,7 +46384,7 @@
         <v>32.1399993896484</v>
       </c>
       <c r="G1601" t="s">
-        <v>1076</v>
+        <v>1077</v>
       </c>
       <c r="H1601" t="s">
         <v>9</v>
@@ -46410,7 +46410,7 @@
         <v>32.4199981689453</v>
       </c>
       <c r="G1602" t="s">
-        <v>1077</v>
+        <v>1078</v>
       </c>
       <c r="H1602" t="s">
         <v>9</v>
@@ -46436,7 +46436,7 @@
         <v>31.7600002288818</v>
       </c>
       <c r="G1603" t="s">
-        <v>1067</v>
+        <v>1068</v>
       </c>
       <c r="H1603" t="s">
         <v>9</v>
@@ -46462,7 +46462,7 @@
         <v>30.6000003814697</v>
       </c>
       <c r="G1604" t="s">
-        <v>1078</v>
+        <v>1079</v>
       </c>
       <c r="H1604" t="s">
         <v>9</v>
@@ -46488,7 +46488,7 @@
         <v>30.6800003051758</v>
       </c>
       <c r="G1605" t="s">
-        <v>1079</v>
+        <v>1080</v>
       </c>
       <c r="H1605" t="s">
         <v>9</v>
@@ -46514,7 +46514,7 @@
         <v>29.0599994659424</v>
       </c>
       <c r="G1606" t="s">
-        <v>1080</v>
+        <v>1081</v>
       </c>
       <c r="H1606" t="s">
         <v>9</v>
@@ -46540,7 +46540,7 @@
         <v>29.1800003051758</v>
       </c>
       <c r="G1607" t="s">
-        <v>1081</v>
+        <v>1082</v>
       </c>
       <c r="H1607" t="s">
         <v>9</v>
@@ -46566,7 +46566,7 @@
         <v>29.8999996185303</v>
       </c>
       <c r="G1608" t="s">
-        <v>1082</v>
+        <v>1083</v>
       </c>
       <c r="H1608" t="s">
         <v>9</v>
@@ -46592,7 +46592,7 @@
         <v>29.1800003051758</v>
       </c>
       <c r="G1609" t="s">
-        <v>1081</v>
+        <v>1082</v>
       </c>
       <c r="H1609" t="s">
         <v>9</v>
@@ -46618,7 +46618,7 @@
         <v>29.5599994659424</v>
       </c>
       <c r="G1610" t="s">
-        <v>1083</v>
+        <v>1084</v>
       </c>
       <c r="H1610" t="s">
         <v>9</v>
@@ -46644,7 +46644,7 @@
         <v>29.6200008392334</v>
       </c>
       <c r="G1611" t="s">
-        <v>1084</v>
+        <v>1085</v>
       </c>
       <c r="H1611" t="s">
         <v>9</v>
@@ -46670,7 +46670,7 @@
         <v>29.7800006866455</v>
       </c>
       <c r="G1612" t="s">
-        <v>1085</v>
+        <v>1086</v>
       </c>
       <c r="H1612" t="s">
         <v>9</v>
@@ -46696,7 +46696,7 @@
         <v>28.9799995422363</v>
       </c>
       <c r="G1613" t="s">
-        <v>1086</v>
+        <v>1087</v>
       </c>
       <c r="H1613" t="s">
         <v>9</v>
@@ -46722,7 +46722,7 @@
         <v>29.1000003814697</v>
       </c>
       <c r="G1614" t="s">
-        <v>1087</v>
+        <v>1088</v>
       </c>
       <c r="H1614" t="s">
         <v>9</v>
@@ -46748,7 +46748,7 @@
         <v>27.6599998474121</v>
       </c>
       <c r="G1615" t="s">
-        <v>1088</v>
+        <v>1089</v>
       </c>
       <c r="H1615" t="s">
         <v>9</v>
@@ -46774,7 +46774,7 @@
         <v>29</v>
       </c>
       <c r="G1616" t="s">
-        <v>1089</v>
+        <v>1090</v>
       </c>
       <c r="H1616" t="s">
         <v>9</v>
@@ -46800,7 +46800,7 @@
         <v>29.2800006866455</v>
       </c>
       <c r="G1617" t="s">
-        <v>1090</v>
+        <v>1091</v>
       </c>
       <c r="H1617" t="s">
         <v>9</v>
@@ -46826,7 +46826,7 @@
         <v>28.8999996185303</v>
       </c>
       <c r="G1618" t="s">
-        <v>1091</v>
+        <v>1092</v>
       </c>
       <c r="H1618" t="s">
         <v>9</v>
@@ -46852,7 +46852,7 @@
         <v>29.2399997711182</v>
       </c>
       <c r="G1619" t="s">
-        <v>1092</v>
+        <v>1093</v>
       </c>
       <c r="H1619" t="s">
         <v>9</v>
@@ -46878,7 +46878,7 @@
         <v>28.4599990844727</v>
       </c>
       <c r="G1620" t="s">
-        <v>1093</v>
+        <v>1094</v>
       </c>
       <c r="H1620" t="s">
         <v>9</v>
@@ -46904,7 +46904,7 @@
         <v>27.1599998474121</v>
       </c>
       <c r="G1621" t="s">
-        <v>1094</v>
+        <v>1095</v>
       </c>
       <c r="H1621" t="s">
         <v>9</v>
@@ -46930,7 +46930,7 @@
         <v>26.8600006103516</v>
       </c>
       <c r="G1622" t="s">
-        <v>1095</v>
+        <v>1096</v>
       </c>
       <c r="H1622" t="s">
         <v>9</v>
@@ -46956,7 +46956,7 @@
         <v>26.9400005340576</v>
       </c>
       <c r="G1623" t="s">
-        <v>1096</v>
+        <v>1097</v>
       </c>
       <c r="H1623" t="s">
         <v>9</v>
@@ -46982,7 +46982,7 @@
         <v>27.1399993896484</v>
       </c>
       <c r="G1624" t="s">
-        <v>1097</v>
+        <v>1098</v>
       </c>
       <c r="H1624" t="s">
         <v>9</v>
@@ -47008,7 +47008,7 @@
         <v>27.7999992370605</v>
       </c>
       <c r="G1625" t="s">
-        <v>1098</v>
+        <v>1099</v>
       </c>
       <c r="H1625" t="s">
         <v>9</v>
@@ -47034,7 +47034,7 @@
         <v>26.7399997711182</v>
       </c>
       <c r="G1626" t="s">
-        <v>1099</v>
+        <v>1100</v>
       </c>
       <c r="H1626" t="s">
         <v>9</v>
@@ -47060,7 +47060,7 @@
         <v>27</v>
       </c>
       <c r="G1627" t="s">
-        <v>1100</v>
+        <v>1101</v>
       </c>
       <c r="H1627" t="s">
         <v>9</v>
@@ -47086,7 +47086,7 @@
         <v>27.5200004577637</v>
       </c>
       <c r="G1628" t="s">
-        <v>1101</v>
+        <v>1102</v>
       </c>
       <c r="H1628" t="s">
         <v>9</v>
@@ -47112,7 +47112,7 @@
         <v>28.3400001525879</v>
       </c>
       <c r="G1629" t="s">
-        <v>1102</v>
+        <v>1103</v>
       </c>
       <c r="H1629" t="s">
         <v>9</v>
@@ -47138,7 +47138,7 @@
         <v>28.6800003051758</v>
       </c>
       <c r="G1630" t="s">
-        <v>1103</v>
+        <v>1104</v>
       </c>
       <c r="H1630" t="s">
         <v>9</v>
@@ -47164,7 +47164,7 @@
         <v>28.6000003814697</v>
       </c>
       <c r="G1631" t="s">
-        <v>1104</v>
+        <v>1105</v>
       </c>
       <c r="H1631" t="s">
         <v>9</v>
@@ -47190,7 +47190,7 @@
         <v>28.0400009155273</v>
       </c>
       <c r="G1632" t="s">
-        <v>1105</v>
+        <v>1106</v>
       </c>
       <c r="H1632" t="s">
         <v>9</v>
@@ -47216,7 +47216,7 @@
         <v>28.2199993133545</v>
       </c>
       <c r="G1633" t="s">
-        <v>1106</v>
+        <v>1107</v>
       </c>
       <c r="H1633" t="s">
         <v>9</v>
@@ -47242,7 +47242,7 @@
         <v>28.7000007629395</v>
       </c>
       <c r="G1634" t="s">
-        <v>1107</v>
+        <v>1108</v>
       </c>
       <c r="H1634" t="s">
         <v>9</v>
@@ -47268,7 +47268,7 @@
         <v>29.2999992370605</v>
       </c>
       <c r="G1635" t="s">
-        <v>1108</v>
+        <v>1109</v>
       </c>
       <c r="H1635" t="s">
         <v>9</v>
@@ -47294,7 +47294,7 @@
         <v>29.3999996185303</v>
       </c>
       <c r="G1636" t="s">
-        <v>1109</v>
+        <v>1110</v>
       </c>
       <c r="H1636" t="s">
         <v>9</v>
@@ -47320,7 +47320,7 @@
         <v>29.8400001525879</v>
       </c>
       <c r="G1637" t="s">
-        <v>1110</v>
+        <v>1111</v>
       </c>
       <c r="H1637" t="s">
         <v>9</v>
@@ -47346,7 +47346,7 @@
         <v>29.4200000762939</v>
       </c>
       <c r="G1638" t="s">
-        <v>1111</v>
+        <v>1112</v>
       </c>
       <c r="H1638" t="s">
         <v>9</v>
@@ -47372,7 +47372,7 @@
         <v>27.2600002288818</v>
       </c>
       <c r="G1639" t="s">
-        <v>1112</v>
+        <v>1113</v>
       </c>
       <c r="H1639" t="s">
         <v>9</v>
@@ -47398,7 +47398,7 @@
         <v>25.2399997711182</v>
       </c>
       <c r="G1640" t="s">
-        <v>1113</v>
+        <v>1114</v>
       </c>
       <c r="H1640" t="s">
         <v>9</v>
@@ -47424,7 +47424,7 @@
         <v>25.2600002288818</v>
       </c>
       <c r="G1641" t="s">
-        <v>1114</v>
+        <v>1115</v>
       </c>
       <c r="H1641" t="s">
         <v>9</v>
@@ -47450,7 +47450,7 @@
         <v>25.8999996185303</v>
       </c>
       <c r="G1642" t="s">
-        <v>1115</v>
+        <v>1116</v>
       </c>
       <c r="H1642" t="s">
         <v>9</v>
@@ -47476,7 +47476,7 @@
         <v>24.7000007629395</v>
       </c>
       <c r="G1643" t="s">
-        <v>1116</v>
+        <v>1117</v>
       </c>
       <c r="H1643" t="s">
         <v>9</v>
@@ -47502,7 +47502,7 @@
         <v>25.6800003051758</v>
       </c>
       <c r="G1644" t="s">
-        <v>1117</v>
+        <v>1118</v>
       </c>
       <c r="H1644" t="s">
         <v>9</v>
@@ -47528,7 +47528,7 @@
         <v>25.8600006103516</v>
       </c>
       <c r="G1645" t="s">
-        <v>1118</v>
+        <v>1119</v>
       </c>
       <c r="H1645" t="s">
         <v>9</v>
@@ -47554,7 +47554,7 @@
         <v>25.7199993133545</v>
       </c>
       <c r="G1646" t="s">
-        <v>1119</v>
+        <v>1120</v>
       </c>
       <c r="H1646" t="s">
         <v>9</v>
@@ -47580,7 +47580,7 @@
         <v>25.0599994659424</v>
       </c>
       <c r="G1647" t="s">
-        <v>1120</v>
+        <v>1121</v>
       </c>
       <c r="H1647" t="s">
         <v>9</v>
@@ -47606,7 +47606,7 @@
         <v>25.0599994659424</v>
       </c>
       <c r="G1648" t="s">
-        <v>1120</v>
+        <v>1121</v>
       </c>
       <c r="H1648" t="s">
         <v>9</v>
@@ -47632,7 +47632,7 @@
         <v>25.5400009155273</v>
       </c>
       <c r="G1649" t="s">
-        <v>1121</v>
+        <v>1122</v>
       </c>
       <c r="H1649" t="s">
         <v>9</v>
@@ -47658,7 +47658,7 @@
         <v>25.6200008392334</v>
       </c>
       <c r="G1650" t="s">
-        <v>1122</v>
+        <v>1123</v>
       </c>
       <c r="H1650" t="s">
         <v>9</v>
@@ -47684,7 +47684,7 @@
         <v>25.2399997711182</v>
       </c>
       <c r="G1651" t="s">
-        <v>1113</v>
+        <v>1114</v>
       </c>
       <c r="H1651" t="s">
         <v>9</v>
@@ -47710,7 +47710,7 @@
         <v>24.7800006866455</v>
       </c>
       <c r="G1652" t="s">
-        <v>1123</v>
+        <v>1124</v>
       </c>
       <c r="H1652" t="s">
         <v>9</v>
@@ -47736,7 +47736,7 @@
         <v>24.1200008392334</v>
       </c>
       <c r="G1653" t="s">
-        <v>1124</v>
+        <v>1125</v>
       </c>
       <c r="H1653" t="s">
         <v>9</v>
@@ -47762,7 +47762,7 @@
         <v>24.4799995422363</v>
       </c>
       <c r="G1654" t="s">
-        <v>1125</v>
+        <v>1126</v>
       </c>
       <c r="H1654" t="s">
         <v>9</v>
@@ -47788,7 +47788,7 @@
         <v>24.0799999237061</v>
       </c>
       <c r="G1655" t="s">
-        <v>1126</v>
+        <v>1127</v>
       </c>
       <c r="H1655" t="s">
         <v>9</v>
@@ -47814,7 +47814,7 @@
         <v>23.2800006866455</v>
       </c>
       <c r="G1656" t="s">
-        <v>1127</v>
+        <v>1128</v>
       </c>
       <c r="H1656" t="s">
         <v>9</v>
@@ -47840,7 +47840,7 @@
         <v>23.7800006866455</v>
       </c>
       <c r="G1657" t="s">
-        <v>1128</v>
+        <v>1129</v>
       </c>
       <c r="H1657" t="s">
         <v>9</v>
@@ -47866,7 +47866,7 @@
         <v>24.4400005340576</v>
       </c>
       <c r="G1658" t="s">
-        <v>1129</v>
+        <v>1130</v>
       </c>
       <c r="H1658" t="s">
         <v>9</v>
@@ -47892,7 +47892,7 @@
         <v>23.8400001525879</v>
       </c>
       <c r="G1659" t="s">
-        <v>1130</v>
+        <v>1131</v>
       </c>
       <c r="H1659" t="s">
         <v>9</v>
@@ -47918,7 +47918,7 @@
         <v>23.4200000762939</v>
       </c>
       <c r="G1660" t="s">
-        <v>1131</v>
+        <v>1132</v>
       </c>
       <c r="H1660" t="s">
         <v>9</v>
@@ -47944,7 +47944,7 @@
         <v>23.1399993896484</v>
       </c>
       <c r="G1661" t="s">
-        <v>1132</v>
+        <v>1133</v>
       </c>
       <c r="H1661" t="s">
         <v>9</v>
@@ -47970,7 +47970,7 @@
         <v>22.6399993896484</v>
       </c>
       <c r="G1662" t="s">
-        <v>1133</v>
+        <v>1134</v>
       </c>
       <c r="H1662" t="s">
         <v>9</v>
@@ -47996,7 +47996,7 @@
         <v>21.7800006866455</v>
       </c>
       <c r="G1663" t="s">
-        <v>1134</v>
+        <v>1135</v>
       </c>
       <c r="H1663" t="s">
         <v>9</v>
@@ -48022,7 +48022,7 @@
         <v>23.0400009155273</v>
       </c>
       <c r="G1664" t="s">
-        <v>1135</v>
+        <v>1136</v>
       </c>
       <c r="H1664" t="s">
         <v>9</v>
@@ -48048,7 +48048,7 @@
         <v>23.1800003051758</v>
       </c>
       <c r="G1665" t="s">
-        <v>1136</v>
+        <v>1137</v>
       </c>
       <c r="H1665" t="s">
         <v>9</v>
@@ -48074,7 +48074,7 @@
         <v>24.6599998474121</v>
       </c>
       <c r="G1666" t="s">
-        <v>1137</v>
+        <v>1138</v>
       </c>
       <c r="H1666" t="s">
         <v>9</v>
@@ -48100,7 +48100,7 @@
         <v>23.9400005340576</v>
       </c>
       <c r="G1667" t="s">
-        <v>1138</v>
+        <v>1139</v>
       </c>
       <c r="H1667" t="s">
         <v>9</v>
@@ -48126,7 +48126,7 @@
         <v>24.7000007629395</v>
       </c>
       <c r="G1668" t="s">
-        <v>1116</v>
+        <v>1117</v>
       </c>
       <c r="H1668" t="s">
         <v>9</v>
@@ -48152,7 +48152,7 @@
         <v>24.6599998474121</v>
       </c>
       <c r="G1669" t="s">
-        <v>1137</v>
+        <v>1138</v>
       </c>
       <c r="H1669" t="s">
         <v>9</v>
@@ -48178,7 +48178,7 @@
         <v>24.9799995422363</v>
       </c>
       <c r="G1670" t="s">
-        <v>1139</v>
+        <v>1140</v>
       </c>
       <c r="H1670" t="s">
         <v>9</v>
@@ -48204,7 +48204,7 @@
         <v>24.8400001525879</v>
       </c>
       <c r="G1671" t="s">
-        <v>1140</v>
+        <v>1141</v>
       </c>
       <c r="H1671" t="s">
         <v>9</v>
@@ -48230,7 +48230,7 @@
         <v>24.4799995422363</v>
       </c>
       <c r="G1672" t="s">
-        <v>1125</v>
+        <v>1126</v>
       </c>
       <c r="H1672" t="s">
         <v>9</v>
@@ -48256,7 +48256,7 @@
         <v>25.4400005340576</v>
       </c>
       <c r="G1673" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
       <c r="H1673" t="s">
         <v>9</v>
@@ -48282,7 +48282,7 @@
         <v>26.1800003051758</v>
       </c>
       <c r="G1674" t="s">
-        <v>1142</v>
+        <v>1143</v>
       </c>
       <c r="H1674" t="s">
         <v>9</v>
@@ -48308,7 +48308,7 @@
         <v>26.0799999237061</v>
       </c>
       <c r="G1675" t="s">
-        <v>1143</v>
+        <v>1144</v>
       </c>
       <c r="H1675" t="s">
         <v>9</v>
@@ -48334,7 +48334,7 @@
         <v>25.4400005340576</v>
       </c>
       <c r="G1676" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
       <c r="H1676" t="s">
         <v>9</v>
@@ -48360,7 +48360,7 @@
         <v>26.3400001525879</v>
       </c>
       <c r="G1677" t="s">
-        <v>1144</v>
+        <v>1145</v>
       </c>
       <c r="H1677" t="s">
         <v>9</v>
@@ -48386,7 +48386,7 @@
         <v>26.4200000762939</v>
       </c>
       <c r="G1678" t="s">
-        <v>1145</v>
+        <v>1146</v>
       </c>
       <c r="H1678" t="s">
         <v>9</v>
@@ -48412,7 +48412,7 @@
         <v>25.6399993896484</v>
       </c>
       <c r="G1679" t="s">
-        <v>1146</v>
+        <v>1147</v>
       </c>
       <c r="H1679" t="s">
         <v>9</v>
@@ -48438,7 +48438,7 @@
         <v>25.3799991607666</v>
       </c>
       <c r="G1680" t="s">
-        <v>1147</v>
+        <v>1148</v>
       </c>
       <c r="H1680" t="s">
         <v>9</v>
@@ -48464,7 +48464,7 @@
         <v>24.8400001525879</v>
       </c>
       <c r="G1681" t="s">
-        <v>1140</v>
+        <v>1141</v>
       </c>
       <c r="H1681" t="s">
         <v>9</v>
@@ -48490,7 +48490,7 @@
         <v>25.8199996948242</v>
       </c>
       <c r="G1682" t="s">
-        <v>1148</v>
+        <v>1149</v>
       </c>
       <c r="H1682" t="s">
         <v>9</v>
@@ -48516,7 +48516,7 @@
         <v>26.2999992370605</v>
       </c>
       <c r="G1683" t="s">
-        <v>1149</v>
+        <v>1150</v>
       </c>
       <c r="H1683" t="s">
         <v>9</v>
@@ -48542,7 +48542,7 @@
         <v>26.3999996185303</v>
       </c>
       <c r="G1684" t="s">
-        <v>1150</v>
+        <v>1151</v>
       </c>
       <c r="H1684" t="s">
         <v>9</v>
@@ -48568,7 +48568,7 @@
         <v>26.1399993896484</v>
       </c>
       <c r="G1685" t="s">
-        <v>1151</v>
+        <v>1152</v>
       </c>
       <c r="H1685" t="s">
         <v>9</v>
@@ -48594,7 +48594,7 @@
         <v>25.7399997711182</v>
       </c>
       <c r="G1686" t="s">
-        <v>1152</v>
+        <v>1153</v>
       </c>
       <c r="H1686" t="s">
         <v>9</v>
@@ -48620,7 +48620,7 @@
         <v>25.6399993896484</v>
       </c>
       <c r="G1687" t="s">
-        <v>1146</v>
+        <v>1147</v>
       </c>
       <c r="H1687" t="s">
         <v>9</v>
@@ -48646,7 +48646,7 @@
         <v>24.7600002288818</v>
       </c>
       <c r="G1688" t="s">
-        <v>1153</v>
+        <v>1154</v>
       </c>
       <c r="H1688" t="s">
         <v>9</v>
@@ -48672,7 +48672,7 @@
         <v>24.2600002288818</v>
       </c>
       <c r="G1689" t="s">
-        <v>1154</v>
+        <v>1155</v>
       </c>
       <c r="H1689" t="s">
         <v>9</v>
@@ -48698,7 +48698,7 @@
         <v>24.2600002288818</v>
       </c>
       <c r="G1690" t="s">
-        <v>1154</v>
+        <v>1155</v>
       </c>
       <c r="H1690" t="s">
         <v>9</v>
@@ -48724,7 +48724,7 @@
         <v>24.4599990844727</v>
       </c>
       <c r="G1691" t="s">
-        <v>1155</v>
+        <v>1156</v>
       </c>
       <c r="H1691" t="s">
         <v>9</v>
@@ -48750,7 +48750,7 @@
         <v>24.3600006103516</v>
       </c>
       <c r="G1692" t="s">
-        <v>1156</v>
+        <v>1157</v>
       </c>
       <c r="H1692" t="s">
         <v>9</v>
@@ -48776,7 +48776,7 @@
         <v>23.9200000762939</v>
       </c>
       <c r="G1693" t="s">
-        <v>1157</v>
+        <v>1158</v>
       </c>
       <c r="H1693" t="s">
         <v>9</v>
@@ -48802,7 +48802,7 @@
         <v>24.5599994659424</v>
       </c>
       <c r="G1694" t="s">
-        <v>1158</v>
+        <v>1159</v>
       </c>
       <c r="H1694" t="s">
         <v>9</v>
@@ -48828,7 +48828,7 @@
         <v>24.5</v>
       </c>
       <c r="G1695" t="s">
-        <v>1159</v>
+        <v>1160</v>
       </c>
       <c r="H1695" t="s">
         <v>9</v>
@@ -48854,7 +48854,7 @@
         <v>24.6000003814697</v>
       </c>
       <c r="G1696" t="s">
-        <v>1160</v>
+        <v>1161</v>
       </c>
       <c r="H1696" t="s">
         <v>9</v>
@@ -48880,7 +48880,7 @@
         <v>23.8600006103516</v>
       </c>
       <c r="G1697" t="s">
-        <v>1161</v>
+        <v>1162</v>
       </c>
       <c r="H1697" t="s">
         <v>9</v>
@@ -48906,7 +48906,7 @@
         <v>24.7399997711182</v>
       </c>
       <c r="G1698" t="s">
-        <v>1162</v>
+        <v>1163</v>
       </c>
       <c r="H1698" t="s">
         <v>9</v>
@@ -48932,7 +48932,7 @@
         <v>24.1000003814697</v>
       </c>
       <c r="G1699" t="s">
-        <v>1163</v>
+        <v>1164</v>
       </c>
       <c r="H1699" t="s">
         <v>9</v>
@@ -48958,7 +48958,7 @@
         <v>24.3600006103516</v>
       </c>
       <c r="G1700" t="s">
-        <v>1156</v>
+        <v>1157</v>
       </c>
       <c r="H1700" t="s">
         <v>9</v>
@@ -48984,7 +48984,7 @@
         <v>24.1800003051758</v>
       </c>
       <c r="G1701" t="s">
-        <v>1164</v>
+        <v>1165</v>
       </c>
       <c r="H1701" t="s">
         <v>9</v>
@@ -49010,7 +49010,7 @@
         <v>24.0200004577637</v>
       </c>
       <c r="G1702" t="s">
-        <v>1165</v>
+        <v>1166</v>
       </c>
       <c r="H1702" t="s">
         <v>9</v>
@@ -49036,7 +49036,7 @@
         <v>24.7399997711182</v>
       </c>
       <c r="G1703" t="s">
-        <v>1162</v>
+        <v>1163</v>
       </c>
       <c r="H1703" t="s">
         <v>9</v>
@@ -49062,7 +49062,7 @@
         <v>25.1200008392334</v>
       </c>
       <c r="G1704" t="s">
-        <v>1166</v>
+        <v>1167</v>
       </c>
       <c r="H1704" t="s">
         <v>9</v>
@@ -49088,7 +49088,7 @@
         <v>25.2000007629395</v>
       </c>
       <c r="G1705" t="s">
-        <v>1167</v>
+        <v>1168</v>
       </c>
       <c r="H1705" t="s">
         <v>9</v>
@@ -49114,7 +49114,7 @@
         <v>24.5400009155273</v>
       </c>
       <c r="G1706" t="s">
-        <v>1168</v>
+        <v>1169</v>
       </c>
       <c r="H1706" t="s">
         <v>9</v>
@@ -49140,7 +49140,7 @@
         <v>24</v>
       </c>
       <c r="G1707" t="s">
-        <v>1169</v>
+        <v>1170</v>
       </c>
       <c r="H1707" t="s">
         <v>9</v>
@@ -49166,7 +49166,7 @@
         <v>23.8600006103516</v>
       </c>
       <c r="G1708" t="s">
-        <v>1161</v>
+        <v>1162</v>
       </c>
       <c r="H1708" t="s">
         <v>9</v>
@@ -49192,7 +49192,7 @@
         <v>23.0599994659424</v>
       </c>
       <c r="G1709" t="s">
-        <v>1170</v>
+        <v>1171</v>
       </c>
       <c r="H1709" t="s">
         <v>9</v>
@@ -49218,7 +49218,7 @@
         <v>22.7800006866455</v>
       </c>
       <c r="G1710" t="s">
-        <v>1171</v>
+        <v>1172</v>
       </c>
       <c r="H1710" t="s">
         <v>9</v>
@@ -49244,7 +49244,7 @@
         <v>22.9400005340576</v>
       </c>
       <c r="G1711" t="s">
-        <v>1172</v>
+        <v>1173</v>
       </c>
       <c r="H1711" t="s">
         <v>9</v>
@@ -49270,7 +49270,7 @@
         <v>22.2600002288818</v>
       </c>
       <c r="G1712" t="s">
-        <v>1173</v>
+        <v>1174</v>
       </c>
       <c r="H1712" t="s">
         <v>9</v>
@@ -49296,7 +49296,7 @@
         <v>21.2800006866455</v>
       </c>
       <c r="G1713" t="s">
-        <v>1174</v>
+        <v>1175</v>
       </c>
       <c r="H1713" t="s">
         <v>9</v>
@@ -49322,7 +49322,7 @@
         <v>20.3199996948242</v>
       </c>
       <c r="G1714" t="s">
-        <v>1175</v>
+        <v>1176</v>
       </c>
       <c r="H1714" t="s">
         <v>9</v>
@@ -49348,7 +49348,7 @@
         <v>20.0599994659424</v>
       </c>
       <c r="G1715" t="s">
-        <v>1176</v>
+        <v>1177</v>
       </c>
       <c r="H1715" t="s">
         <v>9</v>
@@ -49374,7 +49374,7 @@
         <v>20.2600002288818</v>
       </c>
       <c r="G1716" t="s">
-        <v>1177</v>
+        <v>1178</v>
       </c>
       <c r="H1716" t="s">
         <v>9</v>
@@ -49400,7 +49400,7 @@
         <v>19.4599990844727</v>
       </c>
       <c r="G1717" t="s">
-        <v>1178</v>
+        <v>1179</v>
       </c>
       <c r="H1717" t="s">
         <v>9</v>
@@ -49426,7 +49426,7 @@
         <v>20.0799999237061</v>
       </c>
       <c r="G1718" t="s">
-        <v>1179</v>
+        <v>1180</v>
       </c>
       <c r="H1718" t="s">
         <v>9</v>
@@ -49452,7 +49452,7 @@
         <v>20.4400005340576</v>
       </c>
       <c r="G1719" t="s">
-        <v>1180</v>
+        <v>1181</v>
       </c>
       <c r="H1719" t="s">
         <v>9</v>
@@ -49478,7 +49478,7 @@
         <v>21.6599998474121</v>
       </c>
       <c r="G1720" t="s">
-        <v>1181</v>
+        <v>1182</v>
       </c>
       <c r="H1720" t="s">
         <v>9</v>
@@ -49504,7 +49504,7 @@
         <v>21.2000007629395</v>
       </c>
       <c r="G1721" t="s">
-        <v>1182</v>
+        <v>1183</v>
       </c>
       <c r="H1721" t="s">
         <v>9</v>
@@ -49530,7 +49530,7 @@
         <v>21.4599990844727</v>
       </c>
       <c r="G1722" t="s">
-        <v>1183</v>
+        <v>1184</v>
       </c>
       <c r="H1722" t="s">
         <v>9</v>
@@ -49556,7 +49556,7 @@
         <v>21.5</v>
       </c>
       <c r="G1723" t="s">
-        <v>1184</v>
+        <v>1185</v>
       </c>
       <c r="H1723" t="s">
         <v>9</v>
@@ -49582,7 +49582,7 @@
         <v>21.7999992370605</v>
       </c>
       <c r="G1724" t="s">
-        <v>1185</v>
+        <v>1186</v>
       </c>
       <c r="H1724" t="s">
         <v>9</v>
@@ -49608,7 +49608,7 @@
         <v>21.7800006866455</v>
       </c>
       <c r="G1725" t="s">
-        <v>1134</v>
+        <v>1135</v>
       </c>
       <c r="H1725" t="s">
         <v>9</v>
@@ -49634,7 +49634,7 @@
         <v>21.0599994659424</v>
       </c>
       <c r="G1726" t="s">
-        <v>1186</v>
+        <v>1187</v>
       </c>
       <c r="H1726" t="s">
         <v>9</v>
@@ -49660,7 +49660,7 @@
         <v>21.6000003814697</v>
       </c>
       <c r="G1727" t="s">
-        <v>1187</v>
+        <v>1188</v>
       </c>
       <c r="H1727" t="s">
         <v>9</v>
@@ -49686,7 +49686,7 @@
         <v>21.8199996948242</v>
       </c>
       <c r="G1728" t="s">
-        <v>1188</v>
+        <v>1189</v>
       </c>
       <c r="H1728" t="s">
         <v>9</v>
@@ -49712,7 +49712,7 @@
         <v>22.2199993133545</v>
       </c>
       <c r="G1729" t="s">
-        <v>1189</v>
+        <v>1190</v>
       </c>
       <c r="H1729" t="s">
         <v>9</v>
@@ -49738,7 +49738,7 @@
         <v>22.4200000762939</v>
       </c>
       <c r="G1730" t="s">
-        <v>1190</v>
+        <v>1191</v>
       </c>
       <c r="H1730" t="s">
         <v>9</v>
@@ -49764,7 +49764,7 @@
         <v>21.8799991607666</v>
       </c>
       <c r="G1731" t="s">
-        <v>1191</v>
+        <v>1192</v>
       </c>
       <c r="H1731" t="s">
         <v>9</v>
@@ -49790,7 +49790,7 @@
         <v>22.2600002288818</v>
       </c>
       <c r="G1732" t="s">
-        <v>1173</v>
+        <v>1174</v>
       </c>
       <c r="H1732" t="s">
         <v>9</v>
@@ -49816,7 +49816,7 @@
         <v>21.7800006866455</v>
       </c>
       <c r="G1733" t="s">
-        <v>1134</v>
+        <v>1135</v>
       </c>
       <c r="H1733" t="s">
         <v>9</v>
@@ -49842,7 +49842,7 @@
         <v>21.7199993133545</v>
       </c>
       <c r="G1734" t="s">
-        <v>1192</v>
+        <v>1193</v>
       </c>
       <c r="H1734" t="s">
         <v>9</v>
@@ -49868,7 +49868,7 @@
         <v>22.6399993896484</v>
       </c>
       <c r="G1735" t="s">
-        <v>1133</v>
+        <v>1134</v>
       </c>
       <c r="H1735" t="s">
         <v>9</v>
@@ -49894,7 +49894,7 @@
         <v>22.8999996185303</v>
       </c>
       <c r="G1736" t="s">
-        <v>1193</v>
+        <v>1194</v>
       </c>
       <c r="H1736" t="s">
         <v>9</v>
@@ -49920,7 +49920,7 @@
         <v>22.5400009155273</v>
       </c>
       <c r="G1737" t="s">
-        <v>1194</v>
+        <v>1195</v>
       </c>
       <c r="H1737" t="s">
         <v>9</v>
@@ -49946,7 +49946,7 @@
         <v>22.9400005340576</v>
       </c>
       <c r="G1738" t="s">
-        <v>1172</v>
+        <v>1173</v>
       </c>
       <c r="H1738" t="s">
         <v>9</v>
@@ -49972,7 +49972,7 @@
         <v>22.3999996185303</v>
       </c>
       <c r="G1739" t="s">
-        <v>1195</v>
+        <v>1196</v>
       </c>
       <c r="H1739" t="s">
         <v>9</v>
@@ -49998,7 +49998,7 @@
         <v>22.6599998474121</v>
       </c>
       <c r="G1740" t="s">
-        <v>1196</v>
+        <v>1197</v>
       </c>
       <c r="H1740" t="s">
         <v>9</v>
@@ -50024,7 +50024,7 @@
         <v>22</v>
       </c>
       <c r="G1741" t="s">
-        <v>1197</v>
+        <v>1198</v>
       </c>
       <c r="H1741" t="s">
         <v>9</v>
@@ -50050,7 +50050,7 @@
         <v>22.2800006866455</v>
       </c>
       <c r="G1742" t="s">
-        <v>1198</v>
+        <v>1199</v>
       </c>
       <c r="H1742" t="s">
         <v>9</v>
@@ -50076,7 +50076,7 @@
         <v>23.2999992370605</v>
       </c>
       <c r="G1743" t="s">
-        <v>1199</v>
+        <v>1200</v>
       </c>
       <c r="H1743" t="s">
         <v>9</v>
@@ -50102,7 +50102,7 @@
         <v>23.7000007629395</v>
       </c>
       <c r="G1744" t="s">
-        <v>1200</v>
+        <v>1201</v>
       </c>
       <c r="H1744" t="s">
         <v>9</v>
@@ -50128,7 +50128,7 @@
         <v>23.8999996185303</v>
       </c>
       <c r="G1745" t="s">
-        <v>1201</v>
+        <v>1202</v>
       </c>
       <c r="H1745" t="s">
         <v>9</v>
@@ -50154,7 +50154,7 @@
         <v>24.3799991607666</v>
       </c>
       <c r="G1746" t="s">
-        <v>1202</v>
+        <v>1203</v>
       </c>
       <c r="H1746" t="s">
         <v>9</v>
@@ -50180,7 +50180,7 @@
         <v>26</v>
       </c>
       <c r="G1747" t="s">
-        <v>1203</v>
+        <v>1204</v>
       </c>
       <c r="H1747" t="s">
         <v>9</v>
@@ -50206,7 +50206,7 @@
         <v>27.2999992370605</v>
       </c>
       <c r="G1748" t="s">
-        <v>1204</v>
+        <v>1205</v>
       </c>
       <c r="H1748" t="s">
         <v>9</v>
@@ -50232,7 +50232,7 @@
         <v>26.8999996185303</v>
       </c>
       <c r="G1749" t="s">
-        <v>1205</v>
+        <v>1206</v>
       </c>
       <c r="H1749" t="s">
         <v>9</v>
@@ -50258,7 +50258,7 @@
         <v>26.8199996948242</v>
       </c>
       <c r="G1750" t="s">
-        <v>1206</v>
+        <v>1207</v>
       </c>
       <c r="H1750" t="s">
         <v>9</v>
@@ -50284,7 +50284,7 @@
         <v>25.2399997711182</v>
       </c>
       <c r="G1751" t="s">
-        <v>1113</v>
+        <v>1114</v>
       </c>
       <c r="H1751" t="s">
         <v>9</v>
@@ -50310,7 +50310,7 @@
         <v>24.2600002288818</v>
       </c>
       <c r="G1752" t="s">
-        <v>1154</v>
+        <v>1155</v>
       </c>
       <c r="H1752" t="s">
         <v>9</v>
@@ -50336,7 +50336,7 @@
         <v>24.7399997711182</v>
       </c>
       <c r="G1753" t="s">
-        <v>1162</v>
+        <v>1163</v>
       </c>
       <c r="H1753" t="s">
         <v>9</v>
@@ -50362,7 +50362,7 @@
         <v>24.2199993133545</v>
       </c>
       <c r="G1754" t="s">
-        <v>1207</v>
+        <v>1208</v>
       </c>
       <c r="H1754" t="s">
         <v>9</v>
@@ -50388,7 +50388,7 @@
         <v>24.1200008392334</v>
       </c>
       <c r="G1755" t="s">
-        <v>1124</v>
+        <v>1125</v>
       </c>
       <c r="H1755" t="s">
         <v>9</v>
@@ -50414,7 +50414,7 @@
         <v>25.2999992370605</v>
       </c>
       <c r="G1756" t="s">
-        <v>1208</v>
+        <v>1209</v>
       </c>
       <c r="H1756" t="s">
         <v>9</v>
@@ -50440,7 +50440,7 @@
         <v>25.5</v>
       </c>
       <c r="G1757" t="s">
-        <v>1209</v>
+        <v>1210</v>
       </c>
       <c r="H1757" t="s">
         <v>9</v>
@@ -50466,7 +50466,7 @@
         <v>25.6800003051758</v>
       </c>
       <c r="G1758" t="s">
-        <v>1117</v>
+        <v>1118</v>
       </c>
       <c r="H1758" t="s">
         <v>9</v>
@@ -50492,7 +50492,7 @@
         <v>26.1399993896484</v>
       </c>
       <c r="G1759" t="s">
-        <v>1151</v>
+        <v>1152</v>
       </c>
       <c r="H1759" t="s">
         <v>9</v>
@@ -50518,7 +50518,7 @@
         <v>26.4599990844727</v>
       </c>
       <c r="G1760" t="s">
-        <v>1210</v>
+        <v>1211</v>
       </c>
       <c r="H1760" t="s">
         <v>9</v>
@@ -50544,7 +50544,7 @@
         <v>26.8600006103516</v>
       </c>
       <c r="G1761" t="s">
-        <v>1095</v>
+        <v>1096</v>
       </c>
       <c r="H1761" t="s">
         <v>9</v>
@@ -50570,7 +50570,7 @@
         <v>26.6800003051758</v>
       </c>
       <c r="G1762" t="s">
-        <v>1211</v>
+        <v>1212</v>
       </c>
       <c r="H1762" t="s">
         <v>9</v>
@@ -50596,7 +50596,7 @@
         <v>26.9599990844727</v>
       </c>
       <c r="G1763" t="s">
-        <v>1212</v>
+        <v>1213</v>
       </c>
       <c r="H1763" t="s">
         <v>9</v>
@@ -50622,7 +50622,7 @@
         <v>26.9799995422363</v>
       </c>
       <c r="G1764" t="s">
-        <v>1213</v>
+        <v>1214</v>
       </c>
       <c r="H1764" t="s">
         <v>9</v>
@@ -50648,7 +50648,7 @@
         <v>26</v>
       </c>
       <c r="G1765" t="s">
-        <v>1203</v>
+        <v>1204</v>
       </c>
       <c r="H1765" t="s">
         <v>9</v>
@@ -50674,7 +50674,7 @@
         <v>25</v>
       </c>
       <c r="G1766" t="s">
-        <v>1214</v>
+        <v>1215</v>
       </c>
       <c r="H1766" t="s">
         <v>9</v>
@@ -50700,7 +50700,7 @@
         <v>25.0599994659424</v>
       </c>
       <c r="G1767" t="s">
-        <v>1120</v>
+        <v>1121</v>
       </c>
       <c r="H1767" t="s">
         <v>9</v>
@@ -50726,7 +50726,7 @@
         <v>24.9599990844727</v>
       </c>
       <c r="G1768" t="s">
-        <v>1215</v>
+        <v>1216</v>
       </c>
       <c r="H1768" t="s">
         <v>9</v>
@@ -50752,7 +50752,7 @@
         <v>24.7600002288818</v>
       </c>
       <c r="G1769" t="s">
-        <v>1153</v>
+        <v>1154</v>
       </c>
       <c r="H1769" t="s">
         <v>9</v>
@@ -50778,7 +50778,7 @@
         <v>25.2199993133545</v>
       </c>
       <c r="G1770" t="s">
-        <v>1216</v>
+        <v>1217</v>
       </c>
       <c r="H1770" t="s">
         <v>9</v>
@@ -50804,7 +50804,7 @@
         <v>25.2399997711182</v>
       </c>
       <c r="G1771" t="s">
-        <v>1113</v>
+        <v>1114</v>
       </c>
       <c r="H1771" t="s">
         <v>9</v>
@@ -50830,7 +50830,7 @@
         <v>24.0599994659424</v>
       </c>
       <c r="G1772" t="s">
-        <v>1217</v>
+        <v>1218</v>
       </c>
       <c r="H1772" t="s">
         <v>9</v>
@@ -50856,7 +50856,7 @@
         <v>23.8999996185303</v>
       </c>
       <c r="G1773" t="s">
-        <v>1201</v>
+        <v>1202</v>
       </c>
       <c r="H1773" t="s">
         <v>9</v>
@@ -50882,7 +50882,7 @@
         <v>23.7000007629395</v>
       </c>
       <c r="G1774" t="s">
-        <v>1200</v>
+        <v>1201</v>
       </c>
       <c r="H1774" t="s">
         <v>9</v>
@@ -50908,7 +50908,7 @@
         <v>23.2000007629395</v>
       </c>
       <c r="G1775" t="s">
-        <v>1218</v>
+        <v>1219</v>
       </c>
       <c r="H1775" t="s">
         <v>9</v>
@@ -50934,7 +50934,7 @@
         <v>23.9400005340576</v>
       </c>
       <c r="G1776" t="s">
-        <v>1138</v>
+        <v>1139</v>
       </c>
       <c r="H1776" t="s">
         <v>9</v>
@@ -50960,7 +50960,7 @@
         <v>24.7399997711182</v>
       </c>
       <c r="G1777" t="s">
-        <v>1162</v>
+        <v>1163</v>
       </c>
       <c r="H1777" t="s">
         <v>9</v>
@@ -50986,7 +50986,7 @@
         <v>25.0400009155273</v>
       </c>
       <c r="G1778" t="s">
-        <v>1219</v>
+        <v>1220</v>
       </c>
       <c r="H1778" t="s">
         <v>9</v>
@@ -51012,7 +51012,7 @@
         <v>25.5200004577637</v>
       </c>
       <c r="G1779" t="s">
-        <v>1220</v>
+        <v>1221</v>
       </c>
       <c r="H1779" t="s">
         <v>9</v>
@@ -51038,7 +51038,7 @@
         <v>25.8999996185303</v>
       </c>
       <c r="G1780" t="s">
-        <v>1115</v>
+        <v>1116</v>
       </c>
       <c r="H1780" t="s">
         <v>9</v>
@@ -51064,7 +51064,7 @@
         <v>26.3799991607666</v>
       </c>
       <c r="G1781" t="s">
-        <v>1221</v>
+        <v>1222</v>
       </c>
       <c r="H1781" t="s">
         <v>9</v>
@@ -51090,7 +51090,7 @@
         <v>26.3199996948242</v>
       </c>
       <c r="G1782" t="s">
-        <v>1222</v>
+        <v>1223</v>
       </c>
       <c r="H1782" t="s">
         <v>9</v>
@@ -51116,7 +51116,7 @@
         <v>26.0400009155273</v>
       </c>
       <c r="G1783" t="s">
-        <v>1223</v>
+        <v>1224</v>
       </c>
       <c r="H1783" t="s">
         <v>9</v>
@@ -51142,7 +51142,7 @@
         <v>26.5200004577637</v>
       </c>
       <c r="G1784" t="s">
-        <v>1224</v>
+        <v>1225</v>
       </c>
       <c r="H1784" t="s">
         <v>9</v>
@@ -51168,7 +51168,7 @@
         <v>27.3400001525879</v>
       </c>
       <c r="G1785" t="s">
-        <v>1225</v>
+        <v>1226</v>
       </c>
       <c r="H1785" t="s">
         <v>9</v>
@@ -51194,7 +51194,7 @@
         <v>26.9599990844727</v>
       </c>
       <c r="G1786" t="s">
-        <v>1212</v>
+        <v>1213</v>
       </c>
       <c r="H1786" t="s">
         <v>9</v>
@@ -51220,7 +51220,7 @@
         <v>27.0599994659424</v>
       </c>
       <c r="G1787" t="s">
-        <v>1226</v>
+        <v>1227</v>
       </c>
       <c r="H1787" t="s">
         <v>9</v>
@@ -51246,7 +51246,7 @@
         <v>28.2999992370605</v>
       </c>
       <c r="G1788" t="s">
-        <v>1227</v>
+        <v>1228</v>
       </c>
       <c r="H1788" t="s">
         <v>9</v>
@@ -51272,7 +51272,7 @@
         <v>27.8600006103516</v>
       </c>
       <c r="G1789" t="s">
-        <v>1228</v>
+        <v>1229</v>
       </c>
       <c r="H1789" t="s">
         <v>9</v>
@@ -51298,7 +51298,7 @@
         <v>27.7600002288818</v>
       </c>
       <c r="G1790" t="s">
-        <v>1229</v>
+        <v>1230</v>
       </c>
       <c r="H1790" t="s">
         <v>9</v>
@@ -51324,7 +51324,7 @@
         <v>28.9799995422363</v>
       </c>
       <c r="G1791" t="s">
-        <v>1230</v>
+        <v>1231</v>
       </c>
       <c r="H1791" t="s">
         <v>9</v>
@@ -51350,7 +51350,7 @@
         <v>28.7000007629395</v>
       </c>
       <c r="G1792" t="s">
-        <v>1107</v>
+        <v>1108</v>
       </c>
       <c r="H1792" t="s">
         <v>9</v>
@@ -51376,7 +51376,7 @@
         <v>29.0599994659424</v>
       </c>
       <c r="G1793" t="s">
-        <v>1231</v>
+        <v>1232</v>
       </c>
       <c r="H1793" t="s">
         <v>9</v>
@@ -51402,7 +51402,7 @@
         <v>28.5</v>
       </c>
       <c r="G1794" t="s">
-        <v>1232</v>
+        <v>1233</v>
       </c>
       <c r="H1794" t="s">
         <v>9</v>
@@ -51428,7 +51428,7 @@
         <v>28.8600006103516</v>
       </c>
       <c r="G1795" t="s">
-        <v>1233</v>
+        <v>1234</v>
       </c>
       <c r="H1795" t="s">
         <v>9</v>
@@ -51454,7 +51454,7 @@
         <v>28.5599994659424</v>
       </c>
       <c r="G1796" t="s">
-        <v>1234</v>
+        <v>1235</v>
       </c>
       <c r="H1796" t="s">
         <v>9</v>
@@ -51480,7 +51480,7 @@
         <v>29.1000003814697</v>
       </c>
       <c r="G1797" t="s">
-        <v>1235</v>
+        <v>1236</v>
       </c>
       <c r="H1797" t="s">
         <v>9</v>
@@ -51506,7 +51506,7 @@
         <v>29.1599998474121</v>
       </c>
       <c r="G1798" t="s">
-        <v>1236</v>
+        <v>1237</v>
       </c>
       <c r="H1798" t="s">
         <v>9</v>
@@ -51532,7 +51532,7 @@
         <v>29</v>
       </c>
       <c r="G1799" t="s">
-        <v>1237</v>
+        <v>1238</v>
       </c>
       <c r="H1799" t="s">
         <v>9</v>
@@ -51558,7 +51558,7 @@
         <v>28.9400005340576</v>
       </c>
       <c r="G1800" t="s">
-        <v>1238</v>
+        <v>1093</v>
       </c>
       <c r="H1800" t="s">
         <v>9</v>
@@ -51636,7 +51636,7 @@
         <v>28.2999992370605</v>
       </c>
       <c r="G1803" t="s">
-        <v>1227</v>
+        <v>1228</v>
       </c>
       <c r="H1803" t="s">
         <v>9</v>
@@ -51870,7 +51870,7 @@
         <v>29.4200000762939</v>
       </c>
       <c r="G1812" t="s">
-        <v>1111</v>
+        <v>1112</v>
       </c>
       <c r="H1812" t="s">
         <v>9</v>
@@ -52052,7 +52052,7 @@
         <v>29.2999992370605</v>
       </c>
       <c r="G1819" t="s">
-        <v>1108</v>
+        <v>1109</v>
       </c>
       <c r="H1819" t="s">
         <v>9</v>
@@ -52104,7 +52104,7 @@
         <v>28.7000007629395</v>
       </c>
       <c r="G1821" t="s">
-        <v>1107</v>
+        <v>1108</v>
       </c>
       <c r="H1821" t="s">
         <v>9</v>
@@ -52312,7 +52312,7 @@
         <v>27.5200004577637</v>
       </c>
       <c r="G1829" t="s">
-        <v>1101</v>
+        <v>1102</v>
       </c>
       <c r="H1829" t="s">
         <v>9</v>
@@ -52416,7 +52416,7 @@
         <v>25.6399993896484</v>
       </c>
       <c r="G1833" t="s">
-        <v>1146</v>
+        <v>1147</v>
       </c>
       <c r="H1833" t="s">
         <v>9</v>
@@ -52546,7 +52546,7 @@
         <v>24</v>
       </c>
       <c r="G1838" t="s">
-        <v>1169</v>
+        <v>1170</v>
       </c>
       <c r="H1838" t="s">
         <v>9</v>
@@ -52598,7 +52598,7 @@
         <v>24.5</v>
       </c>
       <c r="G1840" t="s">
-        <v>1159</v>
+        <v>1160</v>
       </c>
       <c r="H1840" t="s">
         <v>9</v>
@@ -52728,7 +52728,7 @@
         <v>25.6200008392334</v>
       </c>
       <c r="G1845" t="s">
-        <v>1122</v>
+        <v>1123</v>
       </c>
       <c r="H1845" t="s">
         <v>9</v>
@@ -52754,7 +52754,7 @@
         <v>26.1800003051758</v>
       </c>
       <c r="G1846" t="s">
-        <v>1142</v>
+        <v>1143</v>
       </c>
       <c r="H1846" t="s">
         <v>9</v>
@@ -52858,7 +52858,7 @@
         <v>27</v>
       </c>
       <c r="G1850" t="s">
-        <v>1100</v>
+        <v>1101</v>
       </c>
       <c r="H1850" t="s">
         <v>9</v>
@@ -53248,7 +53248,7 @@
         <v>28.2999992370605</v>
       </c>
       <c r="G1865" t="s">
-        <v>1227</v>
+        <v>1228</v>
       </c>
       <c r="H1865" t="s">
         <v>9</v>
@@ -53378,7 +53378,7 @@
         <v>27.7999992370605</v>
       </c>
       <c r="G1870" t="s">
-        <v>1098</v>
+        <v>1099</v>
       </c>
       <c r="H1870" t="s">
         <v>9</v>
@@ -53638,7 +53638,7 @@
         <v>29</v>
       </c>
       <c r="G1880" t="s">
-        <v>1237</v>
+        <v>1238</v>
       </c>
       <c r="H1880" t="s">
         <v>9</v>
@@ -61030,7 +61030,7 @@
     </row>
     <row r="2165">
       <c r="A2165" s="1" t="n">
-        <v>45476.6493865741</v>
+        <v>45476.2916666667</v>
       </c>
       <c r="B2165" t="n">
         <v>8728</v>
@@ -61051,6 +61051,32 @@
         <v>1421</v>
       </c>
       <c r="H2165" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2166">
+      <c r="A2166" s="1" t="n">
+        <v>45477.6494560185</v>
+      </c>
+      <c r="B2166" t="n">
+        <v>5999</v>
+      </c>
+      <c r="C2166" t="n">
+        <v>37.4000015258789</v>
+      </c>
+      <c r="D2166" t="n">
+        <v>36.4000015258789</v>
+      </c>
+      <c r="E2166" t="n">
+        <v>36.9500007629395</v>
+      </c>
+      <c r="F2166" t="n">
+        <v>37.25</v>
+      </c>
+      <c r="G2166" t="s">
+        <v>1426</v>
+      </c>
+      <c r="H2166" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/MOL.MI.xlsx
+++ b/data/MOL.MI.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1473" uniqueCount="1473">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1474" uniqueCount="1474">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -38,13 +38,13 @@
     <t xml:space="preserve">ticker</t>
   </si>
   <si>
-    <t xml:space="preserve">7.0296745300293</t>
+    <t xml:space="preserve">7.02967405319214</t>
   </si>
   <si>
     <t xml:space="preserve">MOL.MI</t>
   </si>
   <si>
-    <t xml:space="preserve">6.9343113899231</t>
+    <t xml:space="preserve">6.93431091308594</t>
   </si>
   <si>
     <t xml:space="preserve">6.83440685272217</t>
@@ -53,10 +53,10 @@
     <t xml:space="preserve">6.94793462753296</t>
   </si>
   <si>
-    <t xml:space="preserve">6.81170034408569</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.90252304077148</t>
+    <t xml:space="preserve">6.81169986724854</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.90252256393433</t>
   </si>
   <si>
     <t xml:space="preserve">6.99334573745728</t>
@@ -65,19 +65,19 @@
     <t xml:space="preserve">6.7208776473999</t>
   </si>
   <si>
-    <t xml:space="preserve">6.48473834991455</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.25768136978149</t>
+    <t xml:space="preserve">6.48473930358887</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.25768232345581</t>
   </si>
   <si>
     <t xml:space="preserve">6.516526222229</t>
   </si>
   <si>
-    <t xml:space="preserve">6.40299892425537</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.7299599647522</t>
+    <t xml:space="preserve">6.40299844741821</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.72995948791504</t>
   </si>
   <si>
     <t xml:space="preserve">6.63005495071411</t>
@@ -89,40 +89,40 @@
     <t xml:space="preserve">6.69363069534302</t>
   </si>
   <si>
-    <t xml:space="preserve">6.82986450195312</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.93885135650635</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.83894681930542</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.8661937713623</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.85711193084717</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.17594194412231</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.05333042144775</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.44840955734253</t>
+    <t xml:space="preserve">6.82986497879028</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.93885183334351</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.83894777297974</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.86619424819946</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.85711145401001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.17594242095947</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.05333137512207</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.44840908050537</t>
   </si>
   <si>
     <t xml:space="preserve">6.22135257720947</t>
   </si>
   <si>
-    <t xml:space="preserve">6.41662120819092</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.56647872924805</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.50744390487671</t>
+    <t xml:space="preserve">6.41662216186523</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.56647825241089</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.50744438171387</t>
   </si>
   <si>
     <t xml:space="preserve">6.68000745773315</t>
@@ -131,28 +131,28 @@
     <t xml:space="preserve">6.49836254119873</t>
   </si>
   <si>
-    <t xml:space="preserve">6.59372663497925</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.55739641189575</t>
+    <t xml:space="preserve">6.59372568130493</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.55739593505859</t>
   </si>
   <si>
     <t xml:space="preserve">6.471116065979</t>
   </si>
   <si>
-    <t xml:space="preserve">6.57556104660034</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.52106857299805</t>
+    <t xml:space="preserve">6.57556200027466</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.52106761932373</t>
   </si>
   <si>
     <t xml:space="preserve">6.80715894699097</t>
   </si>
   <si>
-    <t xml:space="preserve">6.60280799865723</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.38937425613403</t>
+    <t xml:space="preserve">6.60280847549438</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.38937473297119</t>
   </si>
   <si>
     <t xml:space="preserve">6.40753889083862</t>
@@ -161,31 +161,31 @@
     <t xml:space="preserve">6.43932723999023</t>
   </si>
   <si>
-    <t xml:space="preserve">6.4302453994751</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.8026180267334</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.60734939575195</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.58010196685791</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.62097311019897</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.62551403045654</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.53469133377075</t>
+    <t xml:space="preserve">6.43024492263794</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.80261754989624</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.60734891891479</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.58010244369507</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.62097263336182</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.62551355361938</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.53469228744507</t>
   </si>
   <si>
     <t xml:space="preserve">6.35758686065674</t>
   </si>
   <si>
-    <t xml:space="preserve">6.2258939743042</t>
+    <t xml:space="preserve">6.22589445114136</t>
   </si>
   <si>
     <t xml:space="preserve">6.4529504776001</t>
@@ -194,34 +194,34 @@
     <t xml:space="preserve">6.36666917800903</t>
   </si>
   <si>
-    <t xml:space="preserve">6.45749187469482</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.41208076477051</t>
+    <t xml:space="preserve">6.45749235153198</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.41208028793335</t>
   </si>
   <si>
     <t xml:space="preserve">6.38483381271362</t>
   </si>
   <si>
-    <t xml:space="preserve">6.42116355895996</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.31671667098999</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.35304546356201</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.76174831390381</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.64821910858154</t>
+    <t xml:space="preserve">6.4211630821228</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.31671619415283</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.35304594039917</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.76174783706665</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.6482195854187</t>
   </si>
   <si>
     <t xml:space="preserve">6.66638422012329</t>
   </si>
   <si>
-    <t xml:space="preserve">6.58918476104736</t>
+    <t xml:space="preserve">6.58918571472168</t>
   </si>
   <si>
     <t xml:space="preserve">6.80682754516602</t>
@@ -233,13 +233,13 @@
     <t xml:space="preserve">6.71409130096436</t>
   </si>
   <si>
-    <t xml:space="preserve">6.61208152770996</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.67699670791626</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.72800159454346</t>
+    <t xml:space="preserve">6.61208248138428</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.67699718475342</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.72800207138062</t>
   </si>
   <si>
     <t xml:space="preserve">6.53325605392456</t>
@@ -254,22 +254,22 @@
     <t xml:space="preserve">6.76973295211792</t>
   </si>
   <si>
-    <t xml:space="preserve">6.85783195495605</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.88101673126221</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.92738389968872</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.02939414978027</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.12676668167114</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.16849851608276</t>
+    <t xml:space="preserve">6.85783243179321</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.88101625442505</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.92738437652588</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.02939319610596</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.12676763534546</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.16849803924561</t>
   </si>
   <si>
     <t xml:space="preserve">7.28905487060547</t>
@@ -281,13 +281,13 @@
     <t xml:space="preserve">7.51162195205688</t>
   </si>
   <si>
-    <t xml:space="preserve">7.6507248878479</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.49307489395142</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.57189989089966</t>
+    <t xml:space="preserve">7.65072536468506</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.49307441711426</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.57189893722534</t>
   </si>
   <si>
     <t xml:space="preserve">7.44670534133911</t>
@@ -296,13 +296,13 @@
     <t xml:space="preserve">7.41888570785522</t>
   </si>
   <si>
-    <t xml:space="preserve">7.4142484664917</t>
+    <t xml:space="preserve">7.41424798965454</t>
   </si>
   <si>
     <t xml:space="preserve">7.38642835617065</t>
   </si>
   <si>
-    <t xml:space="preserve">7.27978134155273</t>
+    <t xml:space="preserve">7.27978086471558</t>
   </si>
   <si>
     <t xml:space="preserve">7.32615041732788</t>
@@ -311,25 +311,25 @@
     <t xml:space="preserve">7.18704557418823</t>
   </si>
   <si>
-    <t xml:space="preserve">7.26587104797363</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.1406774520874</t>
+    <t xml:space="preserve">7.26587009429932</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.14067697525024</t>
   </si>
   <si>
     <t xml:space="preserve">7.0201210975647</t>
   </si>
   <si>
-    <t xml:space="preserve">7.30296516418457</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.35396957397461</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.50234794616699</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.51625823974609</t>
+    <t xml:space="preserve">7.30296468734741</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.35397100448608</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.50234842300415</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.51625776290894</t>
   </si>
   <si>
     <t xml:space="preserve">7.18240880966187</t>
@@ -341,31 +341,31 @@
     <t xml:space="preserve">7.27514457702637</t>
   </si>
   <si>
-    <t xml:space="preserve">7.37251806259155</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.03866815567017</t>
+    <t xml:space="preserve">7.37251758575439</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.03866767883301</t>
   </si>
   <si>
     <t xml:space="preserve">6.85319566726685</t>
   </si>
   <si>
-    <t xml:space="preserve">6.66772317886353</t>
+    <t xml:space="preserve">6.66772365570068</t>
   </si>
   <si>
     <t xml:space="preserve">6.74191236495972</t>
   </si>
   <si>
-    <t xml:space="preserve">6.75118541717529</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.5842604637146</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.92274808883667</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.8253755569458</t>
+    <t xml:space="preserve">6.75118637084961</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.58426094055176</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.92274761199951</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.82537460327148</t>
   </si>
   <si>
     <t xml:space="preserve">6.72336530685425</t>
@@ -374,7 +374,7 @@
     <t xml:space="preserve">6.63062906265259</t>
   </si>
   <si>
-    <t xml:space="preserve">6.93202066421509</t>
+    <t xml:space="preserve">6.93202114105225</t>
   </si>
   <si>
     <t xml:space="preserve">6.73727560043335</t>
@@ -383,13 +383,13 @@
     <t xml:space="preserve">6.95520496368408</t>
   </si>
   <si>
-    <t xml:space="preserve">6.88565349578857</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.65845060348511</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.70945501327515</t>
+    <t xml:space="preserve">6.88565254211426</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.65844964981079</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.7094554901123</t>
   </si>
   <si>
     <t xml:space="preserve">6.83464860916138</t>
@@ -398,37 +398,37 @@
     <t xml:space="preserve">6.86246967315674</t>
   </si>
   <si>
-    <t xml:space="preserve">6.93665790557861</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.05721473693848</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.87637996673584</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.96447944641113</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.97375202178955</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.99229955673218</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.99693727493286</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.00157356262207</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.98302602767944</t>
+    <t xml:space="preserve">6.93665838241577</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.05721569061279</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.87637901306152</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.96447849273682</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.97375249862671</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.99230003356934</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.99693632125854</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.00157308578491</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.9830265045166</t>
   </si>
   <si>
     <t xml:space="preserve">7.10358285903931</t>
   </si>
   <si>
-    <t xml:space="preserve">7.08503532409668</t>
+    <t xml:space="preserve">7.085036277771</t>
   </si>
   <si>
     <t xml:space="preserve">7.04794120788574</t>
@@ -437,16 +437,16 @@
     <t xml:space="preserve">7.16386127471924</t>
   </si>
   <si>
-    <t xml:space="preserve">7.3632435798645</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.19631910324097</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.15922403335571</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.81610107421875</t>
+    <t xml:space="preserve">7.36324405670166</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.19631958007812</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.15922451019287</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.81610202789307</t>
   </si>
   <si>
     <t xml:space="preserve">6.87174272537231</t>
@@ -455,7 +455,7 @@
     <t xml:space="preserve">7.06648826599121</t>
   </si>
   <si>
-    <t xml:space="preserve">7.1128568649292</t>
+    <t xml:space="preserve">7.11285638809204</t>
   </si>
   <si>
     <t xml:space="preserve">7.2055926322937</t>
@@ -467,106 +467,106 @@
     <t xml:space="preserve">7.38179111480713</t>
   </si>
   <si>
-    <t xml:space="preserve">7.24268674850464</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.23341417312622</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.25196075439453</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.33542346954346</t>
+    <t xml:space="preserve">7.2426872253418</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.23341369628906</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.25196123123169</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.33542251586914</t>
   </si>
   <si>
     <t xml:space="preserve">7.27050828933716</t>
   </si>
   <si>
-    <t xml:space="preserve">7.24732351303101</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.34469699859619</t>
+    <t xml:space="preserve">7.24732446670532</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.34469652175903</t>
   </si>
   <si>
     <t xml:space="preserve">7.40033864974976</t>
   </si>
   <si>
-    <t xml:space="preserve">7.57653760910034</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.40961217880249</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.43743324279785</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.37715482711792</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.54871654510498</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.56262540817261</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.06185150146484</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.2195029258728</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.36788129806519</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.09430980682373</t>
+    <t xml:space="preserve">7.57653665542603</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.40961122512817</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.43743276596069</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.37715435028076</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.54871606826782</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.56262683868408</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.06185102462769</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.21950244903564</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.36788034439087</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.09430932998657</t>
   </si>
   <si>
     <t xml:space="preserve">7.7156400680542</t>
   </si>
   <si>
-    <t xml:space="preserve">7.67390871047974</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.69709348678589</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.60435676574707</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.4652533531189</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.80837631225586</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.86401844024658</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.92893409729004</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.88256597518921</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.87792825698853</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.83619785308838</t>
+    <t xml:space="preserve">7.67391014099121</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.69709491729736</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.60435771942139</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.46525526046753</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.80837678909302</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.86401796340942</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.9289345741272</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.88256502151489</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.87792921066284</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.83619737625122</t>
   </si>
   <si>
     <t xml:space="preserve">7.97530221939087</t>
   </si>
   <si>
-    <t xml:space="preserve">8.17931938171387</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.55953884124756</t>
+    <t xml:space="preserve">8.1793212890625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.55953979492188</t>
   </si>
   <si>
     <t xml:space="preserve">8.63372802734375</t>
   </si>
   <si>
-    <t xml:space="preserve">8.67082405090332</t>
+    <t xml:space="preserve">8.670823097229</t>
   </si>
   <si>
     <t xml:space="preserve">8.80065250396729</t>
@@ -575,7 +575,7 @@
     <t xml:space="preserve">8.59663486480713</t>
   </si>
   <si>
-    <t xml:space="preserve">8.62909317016602</t>
+    <t xml:space="preserve">8.6290922164917</t>
   </si>
   <si>
     <t xml:space="preserve">8.57808685302734</t>
@@ -584,16 +584,16 @@
     <t xml:space="preserve">8.43898296356201</t>
   </si>
   <si>
-    <t xml:space="preserve">8.45752811431885</t>
+    <t xml:space="preserve">8.45753002166748</t>
   </si>
   <si>
     <t xml:space="preserve">8.55490303039551</t>
   </si>
   <si>
-    <t xml:space="preserve">8.54562950134277</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.54099082946777</t>
+    <t xml:space="preserve">8.54562854766846</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.54099178314209</t>
   </si>
   <si>
     <t xml:space="preserve">8.58272361755371</t>
@@ -602,22 +602,22 @@
     <t xml:space="preserve">8.59199714660645</t>
   </si>
   <si>
-    <t xml:space="preserve">8.68936920166016</t>
+    <t xml:space="preserve">8.68937015533447</t>
   </si>
   <si>
     <t xml:space="preserve">8.52244567871094</t>
   </si>
   <si>
-    <t xml:space="preserve">8.51780796051025</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.3091516494751</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.48534965515137</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.42043590545654</t>
+    <t xml:space="preserve">8.51780700683594</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.30915355682373</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.48534870147705</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.42043399810791</t>
   </si>
   <si>
     <t xml:space="preserve">8.28596878051758</t>
@@ -626,67 +626,67 @@
     <t xml:space="preserve">8.32306289672852</t>
   </si>
   <si>
-    <t xml:space="preserve">8.49925899505615</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.5131721496582</t>
+    <t xml:space="preserve">8.4992618560791</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.51317310333252</t>
   </si>
   <si>
     <t xml:space="preserve">8.62445449829102</t>
   </si>
   <si>
-    <t xml:space="preserve">8.70328044891357</t>
+    <t xml:space="preserve">8.70328140258789</t>
   </si>
   <si>
     <t xml:space="preserve">8.64300155639648</t>
   </si>
   <si>
-    <t xml:space="preserve">8.44361972808838</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.48998546600342</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.23960018157959</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.34624481201172</t>
+    <t xml:space="preserve">8.44361782073975</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.48998737335205</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.23959922790527</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.34624576568604</t>
   </si>
   <si>
     <t xml:space="preserve">8.49462413787842</t>
   </si>
   <si>
-    <t xml:space="preserve">8.65227508544922</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.92120838165283</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.83002281188965</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.49617290496826</t>
+    <t xml:space="preserve">8.6522741317749</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.92121028900146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.83002471923828</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.49617195129395</t>
   </si>
   <si>
     <t xml:space="preserve">9.45907878875732</t>
   </si>
   <si>
-    <t xml:space="preserve">9.25506019592285</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.40343761444092</t>
+    <t xml:space="preserve">9.25505924224854</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.4034366607666</t>
   </si>
   <si>
     <t xml:space="preserve">9.44053268432617</t>
   </si>
   <si>
-    <t xml:space="preserve">9.44980430603027</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.46835231781006</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.18087005615234</t>
+    <t xml:space="preserve">9.44980525970459</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.46835136413574</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.18087100982666</t>
   </si>
   <si>
     <t xml:space="preserve">9.27360725402832</t>
@@ -695,31 +695,31 @@
     <t xml:space="preserve">9.36634349822998</t>
   </si>
   <si>
-    <t xml:space="preserve">9.59818363189697</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.80220127105713</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.7187385559082</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.061863899231</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1546001434326</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.479175567627</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.200966835022</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.720290184021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1283283233643</t>
+    <t xml:space="preserve">9.59818458557129</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.80220222473145</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.71873950958252</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0618648529053</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1545991897583</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4791746139526</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2009677886963</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7202882766724</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1283273696899</t>
   </si>
   <si>
     <t xml:space="preserve">11.0912342071533</t>
@@ -731,37 +731,37 @@
     <t xml:space="preserve">11.2210645675659</t>
   </si>
   <si>
-    <t xml:space="preserve">11.0170459747314</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9892244338989</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0355920791626</t>
+    <t xml:space="preserve">11.0170440673828</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9892253875732</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0355930328369</t>
   </si>
   <si>
     <t xml:space="preserve">10.5411825180054</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2893142700195</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0747594833374</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4478988647461</t>
+    <t xml:space="preserve">10.2893133163452</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0747604370117</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4478979110718</t>
   </si>
   <si>
     <t xml:space="preserve">10.4945402145386</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3452854156494</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4665565490723</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5784969329834</t>
+    <t xml:space="preserve">10.3452863693237</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4665546417236</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5784978866577</t>
   </si>
   <si>
     <t xml:space="preserve">10.5598392486572</t>
@@ -782,10 +782,10 @@
     <t xml:space="preserve">11.6606016159058</t>
   </si>
   <si>
-    <t xml:space="preserve">11.2874622344971</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3714179992676</t>
+    <t xml:space="preserve">11.2874631881714</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3714170455933</t>
   </si>
   <si>
     <t xml:space="preserve">11.1661920547485</t>
@@ -803,16 +803,16 @@
     <t xml:space="preserve">10.8210382461548</t>
   </si>
   <si>
-    <t xml:space="preserve">10.8023796081543</t>
+    <t xml:space="preserve">10.8023815155029</t>
   </si>
   <si>
     <t xml:space="preserve">11.0542497634888</t>
   </si>
   <si>
-    <t xml:space="preserve">10.9329795837402</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6344680786133</t>
+    <t xml:space="preserve">10.9329805374146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.634467124939</t>
   </si>
   <si>
     <t xml:space="preserve">11.1941766738892</t>
@@ -821,61 +821,61 @@
     <t xml:space="preserve">11.1288776397705</t>
   </si>
   <si>
-    <t xml:space="preserve">11.5579891204834</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1382055282593</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0076065063477</t>
+    <t xml:space="preserve">11.5579881668091</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.138204574585</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0076084136963</t>
   </si>
   <si>
     <t xml:space="preserve">11.5206747055054</t>
   </si>
   <si>
-    <t xml:space="preserve">11.4740324020386</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.78187084198</t>
+    <t xml:space="preserve">11.4740314483643</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7818717956543</t>
   </si>
   <si>
     <t xml:space="preserve">12.1736679077148</t>
   </si>
   <si>
-    <t xml:space="preserve">12.3975505828857</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9684400558472</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.593448638916</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.6027774810791</t>
+    <t xml:space="preserve">12.3975496292114</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9684410095215</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.5934467315674</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.6027765274048</t>
   </si>
   <si>
     <t xml:space="preserve">12.7520322799683</t>
   </si>
   <si>
-    <t xml:space="preserve">12.8266611099243</t>
+    <t xml:space="preserve">12.8266620635986</t>
   </si>
   <si>
     <t xml:space="preserve">12.6121072769165</t>
   </si>
   <si>
-    <t xml:space="preserve">12.8733034133911</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.8080034255981</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.6214332580566</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.658748626709</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.6400928497314</t>
+    <t xml:space="preserve">12.8733024597168</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.8080043792725</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.621434211731</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.6587476730347</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.6400918960571</t>
   </si>
   <si>
     <t xml:space="preserve">12.5468072891235</t>
@@ -884,7 +884,7 @@
     <t xml:space="preserve">12.5747909545898</t>
   </si>
   <si>
-    <t xml:space="preserve">12.5654621124268</t>
+    <t xml:space="preserve">12.5654630661011</t>
   </si>
   <si>
     <t xml:space="preserve">12.7613611221313</t>
@@ -893,34 +893,34 @@
     <t xml:space="preserve">12.7053909301758</t>
   </si>
   <si>
-    <t xml:space="preserve">12.6307640075684</t>
+    <t xml:space="preserve">12.6307621002197</t>
   </si>
   <si>
     <t xml:space="preserve">12.2576236724854</t>
   </si>
   <si>
-    <t xml:space="preserve">12.4721784591675</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.5001630783081</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.3695669174194</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.4441947937012</t>
+    <t xml:space="preserve">12.4721794128418</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.5001649856567</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.3695659637451</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.4441938400269</t>
   </si>
   <si>
     <t xml:space="preserve">11.9591112136841</t>
   </si>
   <si>
-    <t xml:space="preserve">12.360237121582</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.2482948303223</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1270246505737</t>
+    <t xml:space="preserve">12.3602361679077</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2482957839966</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.127025604248</t>
   </si>
   <si>
     <t xml:space="preserve">12.0244112014771</t>
@@ -929,31 +929,31 @@
     <t xml:space="preserve">12.3882207870483</t>
   </si>
   <si>
-    <t xml:space="preserve">12.3415803909302</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0150833129883</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0337400436401</t>
+    <t xml:space="preserve">12.3415794372559</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0150842666626</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0337390899658</t>
   </si>
   <si>
     <t xml:space="preserve">12.4068794250488</t>
   </si>
   <si>
-    <t xml:space="preserve">12.51881980896</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.4255361557007</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.4535226821899</t>
+    <t xml:space="preserve">12.5188217163086</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.4255352020264</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.4535236358643</t>
   </si>
   <si>
     <t xml:space="preserve">12.2296380996704</t>
   </si>
   <si>
-    <t xml:space="preserve">12.3229236602783</t>
+    <t xml:space="preserve">12.322922706604</t>
   </si>
   <si>
     <t xml:space="preserve">12.4162073135376</t>
@@ -962,16 +962,16 @@
     <t xml:space="preserve">12.5281505584717</t>
   </si>
   <si>
-    <t xml:space="preserve">12.2762813568115</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.5094938278198</t>
+    <t xml:space="preserve">12.2762794494629</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.5094928741455</t>
   </si>
   <si>
     <t xml:space="preserve">12.3788938522339</t>
   </si>
   <si>
-    <t xml:space="preserve">12.3322515487671</t>
+    <t xml:space="preserve">12.3322525024414</t>
   </si>
   <si>
     <t xml:space="preserve">12.1363544464111</t>
@@ -980,13 +980,13 @@
     <t xml:space="preserve">12.0990400314331</t>
   </si>
   <si>
-    <t xml:space="preserve">11.511344909668</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7072439193726</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.8658285140991</t>
+    <t xml:space="preserve">11.5113458633423</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7072429656982</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.8658275604248</t>
   </si>
   <si>
     <t xml:space="preserve">11.7352285385132</t>
@@ -995,40 +995,40 @@
     <t xml:space="preserve">11.753885269165</t>
   </si>
   <si>
-    <t xml:space="preserve">11.819185256958</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9964275360107</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.8938140869141</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9404544830322</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.8098564147949</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.3042650222778</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.2669525146484</t>
+    <t xml:space="preserve">11.8191862106323</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9964256286621</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.8938131332397</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9404563903809</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.8098573684692</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.3042659759521</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2669515609741</t>
   </si>
   <si>
     <t xml:space="preserve">11.8378419876099</t>
   </si>
   <si>
-    <t xml:space="preserve">11.7912006378174</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2594766616821</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3620901107788</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2314910888672</t>
+    <t xml:space="preserve">11.7911996841431</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2594757080078</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3620891571045</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2314901351929</t>
   </si>
   <si>
     <t xml:space="preserve">11.6139583587646</t>
@@ -1037,31 +1037,31 @@
     <t xml:space="preserve">11.5393304824829</t>
   </si>
   <si>
-    <t xml:space="preserve">11.6699275970459</t>
+    <t xml:space="preserve">11.6699295043945</t>
   </si>
   <si>
     <t xml:space="preserve">11.6512718200684</t>
   </si>
   <si>
-    <t xml:space="preserve">11.5673170089722</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7445583343506</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9311275482178</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.2203092575073</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0803833007812</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9870977401733</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.0039024353027</t>
+    <t xml:space="preserve">11.5673160552979</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7445573806763</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9311265945435</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.220311164856</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0803813934326</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9870986938477</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.0039014816284</t>
   </si>
   <si>
     <t xml:space="preserve">14.0113792419434</t>
@@ -1070,58 +1070,58 @@
     <t xml:space="preserve">14.1979475021362</t>
   </si>
   <si>
-    <t xml:space="preserve">14.1792898178101</t>
+    <t xml:space="preserve">14.1792907714844</t>
   </si>
   <si>
     <t xml:space="preserve">14.0300350189209</t>
   </si>
   <si>
-    <t xml:space="preserve">14.0860061645508</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.7203426361084</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.9927206039429</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.7128658294678</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.2912330627441</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.104663848877</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.7874946594238</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.4778022766113</t>
+    <t xml:space="preserve">14.0860052108765</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.7203416824341</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.9927215576172</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.7128667831421</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.2912321090698</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.1046628952026</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.7874937057495</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.4778032302856</t>
   </si>
   <si>
     <t xml:space="preserve">14.6084003448486</t>
   </si>
   <si>
-    <t xml:space="preserve">14.6643714904785</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.5710859298706</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.2725763320923</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.9180936813354</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.0785312652588</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.8546447753906</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.4516696929932</t>
+    <t xml:space="preserve">14.6643724441528</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.5710878372192</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.272575378418</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.9180927276611</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.0785293579102</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.8546466827393</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.4516706466675</t>
   </si>
   <si>
     <t xml:space="preserve">13.1158447265625</t>
@@ -1133,13 +1133,13 @@
     <t xml:space="preserve">13.0598726272583</t>
   </si>
   <si>
-    <t xml:space="preserve">13.6009244918823</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.3956995010376</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.7427062988281</t>
+    <t xml:space="preserve">13.600923538208</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.395697593689</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.7427043914795</t>
   </si>
   <si>
     <t xml:space="preserve">12.1829967498779</t>
@@ -1151,52 +1151,52 @@
     <t xml:space="preserve">11.9031419754028</t>
   </si>
   <si>
-    <t xml:space="preserve">12.6680755615234</t>
+    <t xml:space="preserve">12.6680765151978</t>
   </si>
   <si>
     <t xml:space="preserve">12.7986764907837</t>
   </si>
   <si>
-    <t xml:space="preserve">12.6867332458496</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.2389669418335</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1083679199219</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1456813812256</t>
+    <t xml:space="preserve">12.6867351531982</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2389659881592</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1083669662476</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1456823348999</t>
   </si>
   <si>
     <t xml:space="preserve">11.6792573928833</t>
   </si>
   <si>
-    <t xml:space="preserve">12.5374774932861</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.8844833374023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9217977523804</t>
+    <t xml:space="preserve">12.5374784469604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.8844842910767</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9217967987061</t>
   </si>
   <si>
     <t xml:space="preserve">12.3135938644409</t>
   </si>
   <si>
-    <t xml:space="preserve">12.4628505706787</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.4330110549927</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6195812225342</t>
+    <t xml:space="preserve">12.462851524353</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.4330129623413</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6195821762085</t>
   </si>
   <si>
     <t xml:space="preserve">13.8061504364014</t>
   </si>
   <si>
-    <t xml:space="preserve">14.3472032546997</t>
+    <t xml:space="preserve">14.347204208374</t>
   </si>
   <si>
     <t xml:space="preserve">15.0001964569092</t>
@@ -1205,79 +1205,79 @@
     <t xml:space="preserve">14.8695983886719</t>
   </si>
   <si>
-    <t xml:space="preserve">14.8322839736938</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.8882541656494</t>
+    <t xml:space="preserve">14.8322849273682</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.8882551193237</t>
   </si>
   <si>
     <t xml:space="preserve">15.1164274215698</t>
   </si>
   <si>
-    <t xml:space="preserve">15.7819290161133</t>
+    <t xml:space="preserve">15.7819318771362</t>
   </si>
   <si>
     <t xml:space="preserve">15.49671459198</t>
   </si>
   <si>
-    <t xml:space="preserve">15.3255863189697</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1734704971313</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2115001678467</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2685422897339</t>
+    <t xml:space="preserve">15.3255853652954</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1734714508057</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2114992141724</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2685413360596</t>
   </si>
   <si>
     <t xml:space="preserve">15.4016447067261</t>
   </si>
   <si>
-    <t xml:space="preserve">14.2227516174316</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.8995065689087</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.3480911254883</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6903486251831</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.7664070129395</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.1579465866089</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.0248460769653</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.1959762573242</t>
+    <t xml:space="preserve">14.222752571106</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.899507522583</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3480892181396</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6903505325317</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.7664060592651</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1579456329346</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.0248470306396</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1959772109985</t>
   </si>
   <si>
     <t xml:space="preserve">12.9678039550781</t>
   </si>
   <si>
-    <t xml:space="preserve">12.1691989898682</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.6255445480347</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.0818901062012</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.7016010284424</t>
+    <t xml:space="preserve">12.1691999435425</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.6255435943604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.0818891525269</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.701602935791</t>
   </si>
   <si>
     <t xml:space="preserve">12.7776594161987</t>
   </si>
   <si>
-    <t xml:space="preserve">12.8347024917603</t>
+    <t xml:space="preserve">12.8347015380859</t>
   </si>
   <si>
     <t xml:space="preserve">12.9487895965576</t>
@@ -1289,10 +1289,10 @@
     <t xml:space="preserve">12.8156881332397</t>
   </si>
   <si>
-    <t xml:space="preserve">12.7966747283936</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.8537187576294</t>
+    <t xml:space="preserve">12.7966737747192</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.8537178039551</t>
   </si>
   <si>
     <t xml:space="preserve">12.3403272628784</t>
@@ -1301,22 +1301,22 @@
     <t xml:space="preserve">13.8234491348267</t>
   </si>
   <si>
-    <t xml:space="preserve">13.861478805542</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.0516223907471</t>
+    <t xml:space="preserve">13.8614778518677</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.0516233444214</t>
   </si>
   <si>
     <t xml:space="preserve">13.9565505981445</t>
   </si>
   <si>
-    <t xml:space="preserve">14.1657085418701</t>
+    <t xml:space="preserve">14.1657094955444</t>
   </si>
   <si>
     <t xml:space="preserve">13.7093648910522</t>
   </si>
   <si>
-    <t xml:space="preserve">13.6713342666626</t>
+    <t xml:space="preserve">13.6713352203369</t>
   </si>
   <si>
     <t xml:space="preserve">13.500205039978</t>
@@ -1328,19 +1328,19 @@
     <t xml:space="preserve">13.5192213058472</t>
   </si>
   <si>
-    <t xml:space="preserve">13.3290758132935</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2149896621704</t>
+    <t xml:space="preserve">13.3290748596191</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2149906158447</t>
   </si>
   <si>
     <t xml:space="preserve">13.4051351547241</t>
   </si>
   <si>
-    <t xml:space="preserve">13.5572481155396</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2910470962524</t>
+    <t xml:space="preserve">13.5572500228882</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2910461425781</t>
   </si>
   <si>
     <t xml:space="preserve">13.4431638717651</t>
@@ -1355,25 +1355,25 @@
     <t xml:space="preserve">12.3593435287476</t>
   </si>
   <si>
-    <t xml:space="preserve">12.7586431503296</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.1199188232422</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.0628747940063</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.8917455673218</t>
+    <t xml:space="preserve">12.7586450576782</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1199178695679</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.0628757476807</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.8917465209961</t>
   </si>
   <si>
     <t xml:space="preserve">13.0438613891602</t>
   </si>
   <si>
-    <t xml:space="preserve">13.8804941177368</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.2037372589111</t>
+    <t xml:space="preserve">13.8804931640625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.2037382125854</t>
   </si>
   <si>
     <t xml:space="preserve">14.3558521270752</t>
@@ -1382,28 +1382,28 @@
     <t xml:space="preserve">14.3938817977905</t>
   </si>
   <si>
-    <t xml:space="preserve">14.1466941833496</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.78542137146</t>
+    <t xml:space="preserve">14.1466951370239</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.7854204177856</t>
   </si>
   <si>
     <t xml:space="preserve">13.5762634277344</t>
   </si>
   <si>
-    <t xml:space="preserve">13.8424654006958</t>
+    <t xml:space="preserve">13.8424634933472</t>
   </si>
   <si>
     <t xml:space="preserve">13.6333065032959</t>
   </si>
   <si>
-    <t xml:space="preserve">14.2607793807983</t>
+    <t xml:space="preserve">14.2607803344727</t>
   </si>
   <si>
     <t xml:space="preserve">15.0213556289673</t>
   </si>
   <si>
-    <t xml:space="preserve">15.5917873382568</t>
+    <t xml:space="preserve">15.5917863845825</t>
   </si>
   <si>
     <t xml:space="preserve">15.3636150360107</t>
@@ -1418,31 +1418,31 @@
     <t xml:space="preserve">16.808708190918</t>
   </si>
   <si>
-    <t xml:space="preserve">17.0178661346436</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.7326507568359</t>
+    <t xml:space="preserve">17.0178623199463</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.7326488494873</t>
   </si>
   <si>
     <t xml:space="preserve">16.3333473205566</t>
   </si>
   <si>
-    <t xml:space="preserve">16.0101051330566</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6868591308594</t>
+    <t xml:space="preserve">16.0101013183594</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6868581771851</t>
   </si>
   <si>
     <t xml:space="preserve">15.610800743103</t>
   </si>
   <si>
-    <t xml:space="preserve">15.0974130630493</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3065719604492</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.4699382781982</t>
+    <t xml:space="preserve">15.0974140167236</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3065700531006</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.4699392318726</t>
   </si>
   <si>
     <t xml:space="preserve">14.6981115341187</t>
@@ -1454,43 +1454,43 @@
     <t xml:space="preserve">14.7361402511597</t>
   </si>
   <si>
-    <t xml:space="preserve">14.336838722229</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.2797956466675</t>
+    <t xml:space="preserve">14.3368377685547</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.2797946929932</t>
   </si>
   <si>
     <t xml:space="preserve">13.975564956665</t>
   </si>
   <si>
-    <t xml:space="preserve">13.6142921447754</t>
+    <t xml:space="preserve">13.6142911911011</t>
   </si>
   <si>
     <t xml:space="preserve">13.937536239624</t>
   </si>
   <si>
-    <t xml:space="preserve">14.1086673736572</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9643125534058</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.5650110244751</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.5079679489136</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6488304138184</t>
+    <t xml:space="preserve">14.1086654663086</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9643115997314</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.5650100708008</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.5079669952393</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6488275527954</t>
   </si>
   <si>
     <t xml:space="preserve">15.0593843460083</t>
   </si>
   <si>
-    <t xml:space="preserve">16.1812343597412</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.1622180938721</t>
+    <t xml:space="preserve">16.1812324523926</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.1622161865234</t>
   </si>
   <si>
     <t xml:space="preserve">16.3523635864258</t>
@@ -1499,34 +1499,34 @@
     <t xml:space="preserve">16.1432018280029</t>
   </si>
   <si>
-    <t xml:space="preserve">15.972074508667</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5537586212158</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.1241874694824</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.4474334716797</t>
+    <t xml:space="preserve">15.972071647644</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5537595748901</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.1241893768311</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.4474353790283</t>
   </si>
   <si>
     <t xml:space="preserve">16.2002487182617</t>
   </si>
   <si>
-    <t xml:space="preserve">16.4284191131592</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7439012527466</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8960161209106</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.0291175842285</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1544551849365</t>
+    <t xml:space="preserve">16.4284229278564</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7439002990723</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8960151672363</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.0291156768799</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1544561386108</t>
   </si>
   <si>
     <t xml:space="preserve">15.9530611038208</t>
@@ -1541,16 +1541,16 @@
     <t xml:space="preserve">15.0023412704468</t>
   </si>
   <si>
-    <t xml:space="preserve">14.6410684585571</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9072713851929</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0783977508545</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6298170089722</t>
+    <t xml:space="preserve">14.6410675048828</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9072704315186</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0783987045288</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6298160552979</t>
   </si>
   <si>
     <t xml:space="preserve">15.8389749526978</t>
@@ -1562,100 +1562,100 @@
     <t xml:space="preserve">15.5157299041748</t>
   </si>
   <si>
-    <t xml:space="preserve">15.8579902648926</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7248907089233</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9910888671875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.0671443939209</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.1051731109619</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.0861625671387</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7058734893799</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.774169921875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.7171249389648</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9452991485596</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2875566482544</t>
+    <t xml:space="preserve">15.8579893112183</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7248868942261</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9910860061646</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.0671424865723</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.1051750183105</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.08616065979</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7058744430542</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.7741680145264</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.7171268463135</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9452981948853</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2875556945801</t>
   </si>
   <si>
     <t xml:space="preserve">15.1924848556519</t>
   </si>
   <si>
-    <t xml:space="preserve">15.3826284408569</t>
+    <t xml:space="preserve">15.3826293945312</t>
   </si>
   <si>
     <t xml:space="preserve">16.2953186035156</t>
   </si>
   <si>
-    <t xml:space="preserve">17.1129341125488</t>
+    <t xml:space="preserve">17.1129379272461</t>
   </si>
   <si>
     <t xml:space="preserve">17.3411102294922</t>
   </si>
   <si>
-    <t xml:space="preserve">17.3601245880127</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.3981513977051</t>
+    <t xml:space="preserve">17.3601226806641</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.3981494903564</t>
   </si>
   <si>
     <t xml:space="preserve">17.2080078125</t>
   </si>
   <si>
-    <t xml:space="preserve">17.169979095459</t>
+    <t xml:space="preserve">17.1699810028076</t>
   </si>
   <si>
     <t xml:space="preserve">18.1587295532227</t>
   </si>
   <si>
-    <t xml:space="preserve">17.5122413635254</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.4551944732666</t>
+    <t xml:space="preserve">17.5122375488281</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.4551963806152</t>
   </si>
   <si>
     <t xml:space="preserve">17.4742088317871</t>
   </si>
   <si>
-    <t xml:space="preserve">17.6073112487793</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.1509647369385</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.4932250976562</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.5502681732178</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.9685821533203</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.9305553436279</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.6643543243408</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.4361782073975</t>
+    <t xml:space="preserve">17.6073093414307</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.1509685516357</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.4932231903076</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.5502643585205</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.9685840606689</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.9305572509766</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.6643562316895</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.4361820220947</t>
   </si>
   <si>
     <t xml:space="preserve">17.246036529541</t>
@@ -1667,7 +1667,7 @@
     <t xml:space="preserve">16.6946201324463</t>
   </si>
   <si>
-    <t xml:space="preserve">16.3903884887695</t>
+    <t xml:space="preserve">16.3903903961182</t>
   </si>
   <si>
     <t xml:space="preserve">16.9608211517334</t>
@@ -1676,25 +1676,25 @@
     <t xml:space="preserve">16.2572898864746</t>
   </si>
   <si>
-    <t xml:space="preserve">16.6830749511719</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.6443691253662</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.489538192749</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.5475978851318</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.3347053527832</t>
+    <t xml:space="preserve">16.6830768585205</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.6443672180176</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.4895362854004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.5475997924805</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.3347034454346</t>
   </si>
   <si>
     <t xml:space="preserve">16.1024589538574</t>
   </si>
   <si>
-    <t xml:space="preserve">16.0831031799316</t>
+    <t xml:space="preserve">16.0831050872803</t>
   </si>
   <si>
     <t xml:space="preserve">16.7798461914062</t>
@@ -1709,58 +1709,58 @@
     <t xml:space="preserve">16.8572597503662</t>
   </si>
   <si>
-    <t xml:space="preserve">16.7411365509033</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.5282440185547</t>
+    <t xml:space="preserve">16.7411346435547</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.5282459259033</t>
   </si>
   <si>
     <t xml:space="preserve">16.6250152587891</t>
   </si>
   <si>
-    <t xml:space="preserve">16.0443992614746</t>
+    <t xml:space="preserve">16.0443954467773</t>
   </si>
   <si>
     <t xml:space="preserve">16.5669536590576</t>
   </si>
   <si>
-    <t xml:space="preserve">16.0637493133545</t>
+    <t xml:space="preserve">16.0637512207031</t>
   </si>
   <si>
     <t xml:space="preserve">16.1218128204346</t>
   </si>
   <si>
-    <t xml:space="preserve">15.9669818878174</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8315048217773</t>
+    <t xml:space="preserve">15.9669799804688</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8315029144287</t>
   </si>
   <si>
     <t xml:space="preserve">15.7540874481201</t>
   </si>
   <si>
-    <t xml:space="preserve">15.5218420028687</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4637784957886</t>
+    <t xml:space="preserve">15.521842956543</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4637794494629</t>
   </si>
   <si>
     <t xml:space="preserve">15.4057178497314</t>
   </si>
   <si>
-    <t xml:space="preserve">15.0767002105713</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2895946502686</t>
+    <t xml:space="preserve">15.0767011642456</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2895936965942</t>
   </si>
   <si>
     <t xml:space="preserve">15.3283023834229</t>
   </si>
   <si>
-    <t xml:space="preserve">15.2315320968628</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1928234100342</t>
+    <t xml:space="preserve">15.2315311431885</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1928243637085</t>
   </si>
   <si>
     <t xml:space="preserve">15.0960550308228</t>
@@ -1769,16 +1769,16 @@
     <t xml:space="preserve">15.21217918396</t>
   </si>
   <si>
-    <t xml:space="preserve">15.3476543426514</t>
+    <t xml:space="preserve">15.34765625</t>
   </si>
   <si>
     <t xml:space="preserve">15.1541166305542</t>
   </si>
   <si>
-    <t xml:space="preserve">14.9605770111084</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9412240982056</t>
+    <t xml:space="preserve">14.9605779647827</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9412221908569</t>
   </si>
   <si>
     <t xml:space="preserve">14.8057460784912</t>
@@ -1793,28 +1793,25 @@
     <t xml:space="preserve">14.9218702316284</t>
   </si>
   <si>
-    <t xml:space="preserve">15.17347240448</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0573482513428</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2508869171143</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.8831624984741</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.8444528579712</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.999285697937</t>
+    <t xml:space="preserve">15.0573463439941</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2508859634399</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.8831615447998</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.8444538116455</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9992847442627</t>
   </si>
   <si>
     <t xml:space="preserve">15.1154079437256</t>
   </si>
   <si>
-    <t xml:space="preserve">14.902515411377</t>
+    <t xml:space="preserve">14.9025163650513</t>
   </si>
   <si>
     <t xml:space="preserve">14.9799308776855</t>
@@ -1832,7 +1829,7 @@
     <t xml:space="preserve">14.5928535461426</t>
   </si>
   <si>
-    <t xml:space="preserve">14.7283296585083</t>
+    <t xml:space="preserve">14.7283306121826</t>
   </si>
   <si>
     <t xml:space="preserve">14.7089767456055</t>
@@ -1847,10 +1844,10 @@
     <t xml:space="preserve">14.7476835250854</t>
   </si>
   <si>
-    <t xml:space="preserve">15.0186395645142</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.650915145874</t>
+    <t xml:space="preserve">15.0186405181885</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.6509160995483</t>
   </si>
   <si>
     <t xml:space="preserve">15.4444246292114</t>
@@ -1862,19 +1859,22 @@
     <t xml:space="preserve">15.7734413146973</t>
   </si>
   <si>
-    <t xml:space="preserve">15.6186103820801</t>
+    <t xml:space="preserve">15.6186094284058</t>
   </si>
   <si>
     <t xml:space="preserve">15.8121509552002</t>
   </si>
   <si>
-    <t xml:space="preserve">15.8895645141602</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8702116012573</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9089202880859</t>
+    <t xml:space="preserve">15.8895654678345</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.257287979126</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8702125549316</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9089221954346</t>
   </si>
   <si>
     <t xml:space="preserve">16.0056915283203</t>
@@ -1883,25 +1883,25 @@
     <t xml:space="preserve">15.7347345352173</t>
   </si>
   <si>
-    <t xml:space="preserve">15.7153816223145</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9476280212402</t>
+    <t xml:space="preserve">15.7153787612915</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9476270675659</t>
   </si>
   <si>
     <t xml:space="preserve">15.6766738891602</t>
   </si>
   <si>
-    <t xml:space="preserve">15.5992574691772</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9282741546631</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.0250415802002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.2185802459717</t>
+    <t xml:space="preserve">15.5992565155029</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9282712936401</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.0250434875488</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.2185821533203</t>
   </si>
   <si>
     <t xml:space="preserve">17.263692855835</t>
@@ -1913,10 +1913,10 @@
     <t xml:space="preserve">17.0508003234863</t>
   </si>
   <si>
-    <t xml:space="preserve">16.9927387237549</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.089506149292</t>
+    <t xml:space="preserve">16.9927368164062</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.0895080566406</t>
   </si>
   <si>
     <t xml:space="preserve">17.2249851226807</t>
@@ -1934,10 +1934,10 @@
     <t xml:space="preserve">17.7088317871094</t>
   </si>
   <si>
-    <t xml:space="preserve">17.7668952941895</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.2120342254639</t>
+    <t xml:space="preserve">17.7668972015381</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.2120361328125</t>
   </si>
   <si>
     <t xml:space="preserve">18.0959129333496</t>
@@ -1946,70 +1946,70 @@
     <t xml:space="preserve">18.2313899993896</t>
   </si>
   <si>
-    <t xml:space="preserve">18.0765571594238</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.0572052001953</t>
+    <t xml:space="preserve">18.0765552520752</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.0572032928467</t>
   </si>
   <si>
     <t xml:space="preserve">18.1733283996582</t>
   </si>
   <si>
-    <t xml:space="preserve">18.0378494262695</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.4249286651611</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.8700675964355</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.2184391021729</t>
+    <t xml:space="preserve">18.0378513336182</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.4249305725098</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.8700695037842</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.2184410095215</t>
   </si>
   <si>
     <t xml:space="preserve">19.1410236358643</t>
   </si>
   <si>
-    <t xml:space="preserve">18.6571750640869</t>
+    <t xml:space="preserve">18.6571769714355</t>
   </si>
   <si>
     <t xml:space="preserve">19.0829620361328</t>
   </si>
   <si>
-    <t xml:space="preserve">19.02490234375</t>
+    <t xml:space="preserve">19.0248985290527</t>
   </si>
   <si>
     <t xml:space="preserve">19.547456741333</t>
   </si>
   <si>
-    <t xml:space="preserve">19.934534072876</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.6442260742188</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.7893810272217</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.4022998809814</t>
+    <t xml:space="preserve">19.9345321655273</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.6442241668701</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.789379119873</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.4022979736328</t>
   </si>
   <si>
     <t xml:space="preserve">18.9668388366699</t>
   </si>
   <si>
-    <t xml:space="preserve">19.7409934997559</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.8377628326416</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.8861465454102</t>
+    <t xml:space="preserve">19.7409954071045</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.8377647399902</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.8861484527588</t>
   </si>
   <si>
     <t xml:space="preserve">19.4506855010986</t>
   </si>
   <si>
-    <t xml:space="preserve">19.6926116943359</t>
+    <t xml:space="preserve">19.6926097869873</t>
   </si>
   <si>
     <t xml:space="preserve">20.3216133117676</t>
@@ -2018,46 +2018,46 @@
     <t xml:space="preserve">20.3699970245361</t>
   </si>
   <si>
-    <t xml:space="preserve">22.3537712097168</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.2893104553223</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.2409248352051</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.950611114502</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.7570743560791</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.1441555023193</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.8538436889648</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.8054580688477</t>
+    <t xml:space="preserve">22.3537731170654</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.2893047332764</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.2409229278564</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.9506149291992</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.7570781707764</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.1441516876221</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.8538455963135</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.8054599761963</t>
   </si>
   <si>
     <t xml:space="preserve">20.0796890258789</t>
   </si>
   <si>
-    <t xml:space="preserve">20.418384552002</t>
+    <t xml:space="preserve">20.4183826446533</t>
   </si>
   <si>
     <t xml:space="preserve">20.1280727386475</t>
   </si>
   <si>
-    <t xml:space="preserve">19.9829177856445</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.1990852355957</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.902229309082</t>
+    <t xml:space="preserve">19.9829196929932</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.1990833282471</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.9022312164307</t>
   </si>
   <si>
     <t xml:space="preserve">21.047384262085</t>
@@ -2066,55 +2066,55 @@
     <t xml:space="preserve">20.7086906433105</t>
   </si>
   <si>
-    <t xml:space="preserve">21.3860778808594</t>
+    <t xml:space="preserve">21.3860759735107</t>
   </si>
   <si>
     <t xml:space="preserve">21.5312309265137</t>
   </si>
   <si>
-    <t xml:space="preserve">21.3376941680908</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.773157119751</t>
+    <t xml:space="preserve">21.3376922607422</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.7731552124023</t>
   </si>
   <si>
     <t xml:space="preserve">21.5796165466309</t>
   </si>
   <si>
-    <t xml:space="preserve">21.9666957855225</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.1764583587646</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.2248439788818</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.850715637207</t>
+    <t xml:space="preserve">21.9666976928711</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.176456451416</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.2248420715332</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.8507137298584</t>
   </si>
   <si>
     <t xml:space="preserve">18.3088035583496</t>
   </si>
   <si>
-    <t xml:space="preserve">17.7281875610352</t>
+    <t xml:space="preserve">17.7281856536865</t>
   </si>
   <si>
     <t xml:space="preserve">16.4121208190918</t>
   </si>
   <si>
-    <t xml:space="preserve">16.2959995269775</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.5734996795654</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.5154361724854</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.5413370132446</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0961971282959</t>
+    <t xml:space="preserve">16.2959976196289</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.5734987258911</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.5154371261597</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.5413379669189</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0961980819702</t>
   </si>
   <si>
     <t xml:space="preserve">12.2123203277588</t>
@@ -2123,16 +2123,16 @@
     <t xml:space="preserve">12.7735843658447</t>
   </si>
   <si>
-    <t xml:space="preserve">12.9864768981934</t>
+    <t xml:space="preserve">12.986478805542</t>
   </si>
   <si>
     <t xml:space="preserve">12.0574893951416</t>
   </si>
   <si>
-    <t xml:space="preserve">13.3929100036621</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6445121765137</t>
+    <t xml:space="preserve">13.3929090499878</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6445112228394</t>
   </si>
   <si>
     <t xml:space="preserve">14.1090049743652</t>
@@ -2141,7 +2141,7 @@
     <t xml:space="preserve">14.2831907272339</t>
   </si>
   <si>
-    <t xml:space="preserve">14.3799600601196</t>
+    <t xml:space="preserve">14.3799591064453</t>
   </si>
   <si>
     <t xml:space="preserve">14.2057752609253</t>
@@ -2153,16 +2153,16 @@
     <t xml:space="preserve">14.1864204406738</t>
   </si>
   <si>
-    <t xml:space="preserve">15.5024881362915</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.9733867645264</t>
+    <t xml:space="preserve">15.5024871826172</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.9733848571777</t>
   </si>
   <si>
     <t xml:space="preserve">16.2766437530518</t>
   </si>
   <si>
-    <t xml:space="preserve">16.3153514862061</t>
+    <t xml:space="preserve">16.3153533935547</t>
   </si>
   <si>
     <t xml:space="preserve">15.5605497360229</t>
@@ -2174,31 +2174,31 @@
     <t xml:space="preserve">16.2379360198975</t>
   </si>
   <si>
-    <t xml:space="preserve">16.1411685943604</t>
+    <t xml:space="preserve">16.1411666870117</t>
   </si>
   <si>
     <t xml:space="preserve">16.7024307250977</t>
   </si>
   <si>
-    <t xml:space="preserve">17.3217544555664</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.8185539245605</t>
+    <t xml:space="preserve">17.321756362915</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.8185520172119</t>
   </si>
   <si>
     <t xml:space="preserve">17.0314483642578</t>
   </si>
   <si>
-    <t xml:space="preserve">17.1669254302979</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.3668670654297</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.753942489624</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.1891841888428</t>
+    <t xml:space="preserve">17.1669235229492</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.3668689727783</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.7539443969727</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.1891822814941</t>
   </si>
   <si>
     <t xml:space="preserve">17.8775939941406</t>
@@ -2207,34 +2207,34 @@
     <t xml:space="preserve">17.5659999847412</t>
   </si>
   <si>
-    <t xml:space="preserve">17.5465259552002</t>
+    <t xml:space="preserve">17.5465278625488</t>
   </si>
   <si>
     <t xml:space="preserve">17.3128337860107</t>
   </si>
   <si>
-    <t xml:space="preserve">17.059663772583</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.5270500183105</t>
+    <t xml:space="preserve">17.0596618652344</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.5270538330078</t>
   </si>
   <si>
     <t xml:space="preserve">17.7217960357666</t>
   </si>
   <si>
-    <t xml:space="preserve">17.2738857269287</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.7607460021973</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.6049518585205</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.83864402771</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.4034042358398</t>
+    <t xml:space="preserve">17.2738819122314</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.7607479095459</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.6049499511719</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.8386421203613</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.4034023284912</t>
   </si>
   <si>
     <t xml:space="preserve">18.052864074707</t>
@@ -2243,10 +2243,10 @@
     <t xml:space="preserve">18.1697101593018</t>
   </si>
   <si>
-    <t xml:space="preserve">18.5007781982422</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.5202522277832</t>
+    <t xml:space="preserve">18.5007762908936</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.5202503204346</t>
   </si>
   <si>
     <t xml:space="preserve">18.0139141082764</t>
@@ -2261,19 +2261,19 @@
     <t xml:space="preserve">18.6955223083496</t>
   </si>
   <si>
-    <t xml:space="preserve">18.5591983795166</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.2281322479248</t>
+    <t xml:space="preserve">18.5592002868652</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.2281341552734</t>
   </si>
   <si>
     <t xml:space="preserve">18.1502361297607</t>
   </si>
   <si>
-    <t xml:space="preserve">18.9486923217773</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.8902645111084</t>
+    <t xml:space="preserve">18.9486885070801</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.8902683258057</t>
   </si>
   <si>
     <t xml:space="preserve">18.7928943634033</t>
@@ -2294,13 +2294,13 @@
     <t xml:space="preserve">19.0655364990234</t>
   </si>
   <si>
-    <t xml:space="preserve">19.2213306427002</t>
+    <t xml:space="preserve">19.2213344573975</t>
   </si>
   <si>
     <t xml:space="preserve">18.5786743164062</t>
   </si>
   <si>
-    <t xml:space="preserve">18.7734203338623</t>
+    <t xml:space="preserve">18.7734222412109</t>
   </si>
   <si>
     <t xml:space="preserve">19.6205596923828</t>
@@ -2318,19 +2318,19 @@
     <t xml:space="preserve">20.7403430938721</t>
   </si>
   <si>
-    <t xml:space="preserve">20.6916580200195</t>
+    <t xml:space="preserve">20.6916599273682</t>
   </si>
   <si>
     <t xml:space="preserve">21.1785202026367</t>
   </si>
   <si>
-    <t xml:space="preserve">21.4219532012939</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.8601303100586</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.324577331543</t>
+    <t xml:space="preserve">21.4219493865967</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.86012840271</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.3245811462402</t>
   </si>
   <si>
     <t xml:space="preserve">21.7140693664551</t>
@@ -2339,37 +2339,37 @@
     <t xml:space="preserve">22.0061874389648</t>
   </si>
   <si>
-    <t xml:space="preserve">21.6653842926025</t>
+    <t xml:space="preserve">21.6653823852539</t>
   </si>
   <si>
     <t xml:space="preserve">21.4706382751465</t>
   </si>
   <si>
-    <t xml:space="preserve">21.9088153839111</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.590425491333</t>
+    <t xml:space="preserve">21.9088134765625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.5904235839844</t>
   </si>
   <si>
     <t xml:space="preserve">23.0772857666016</t>
   </si>
   <si>
-    <t xml:space="preserve">22.931224822998</t>
+    <t xml:space="preserve">22.9312267303467</t>
   </si>
   <si>
     <t xml:space="preserve">23.466775894165</t>
   </si>
   <si>
-    <t xml:space="preserve">23.5641460418701</t>
+    <t xml:space="preserve">23.5641479492188</t>
   </si>
   <si>
     <t xml:space="preserve">24.2457542419434</t>
   </si>
   <si>
-    <t xml:space="preserve">24.8786773681641</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.6352443695068</t>
+    <t xml:space="preserve">24.8786754608154</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.6352424621582</t>
   </si>
   <si>
     <t xml:space="preserve">24.1970691680908</t>
@@ -2384,7 +2384,7 @@
     <t xml:space="preserve">23.8075790405273</t>
   </si>
   <si>
-    <t xml:space="preserve">22.8825416564941</t>
+    <t xml:space="preserve">22.8825397491455</t>
   </si>
   <si>
     <t xml:space="preserve">23.1746559143066</t>
@@ -2396,28 +2396,28 @@
     <t xml:space="preserve">23.2233448028564</t>
   </si>
   <si>
-    <t xml:space="preserve">23.0285987854004</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.6877937316895</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.9575023651123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.2009315490723</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.3732681274414</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.7627544403076</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.5942878723145</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.5193271636963</t>
+    <t xml:space="preserve">23.0285968780518</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.6877956390381</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.957498550415</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.2009334564209</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.3732662200928</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.7627563476562</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.5942859649658</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.519323348999</t>
   </si>
   <si>
     <t xml:space="preserve">21.2272071838379</t>
@@ -2426,19 +2426,19 @@
     <t xml:space="preserve">21.6166973114014</t>
   </si>
   <si>
-    <t xml:space="preserve">22.3469905853271</t>
+    <t xml:space="preserve">22.3469924926758</t>
   </si>
   <si>
     <t xml:space="preserve">22.1035614013672</t>
   </si>
   <si>
-    <t xml:space="preserve">21.0811462402344</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.2496166229248</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.4930477142334</t>
+    <t xml:space="preserve">21.081148147583</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.2496204376221</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.493049621582</t>
   </si>
   <si>
     <t xml:space="preserve">22.0548725128174</t>
@@ -2453,13 +2453,13 @@
     <t xml:space="preserve">24.5865592956543</t>
   </si>
   <si>
-    <t xml:space="preserve">24.4891834259033</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.3918132781982</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.901086807251</t>
+    <t xml:space="preserve">24.489185333252</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.3918113708496</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.9010906219482</t>
   </si>
   <si>
     <t xml:space="preserve">26.3392639160156</t>
@@ -2468,7 +2468,7 @@
     <t xml:space="preserve">27.1669292449951</t>
   </si>
   <si>
-    <t xml:space="preserve">26.8261260986328</t>
+    <t xml:space="preserve">26.8261241912842</t>
   </si>
   <si>
     <t xml:space="preserve">26.7774410247803</t>
@@ -2480,28 +2480,28 @@
     <t xml:space="preserve">27.8485374450684</t>
   </si>
   <si>
-    <t xml:space="preserve">28.8222637176514</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.0881042480469</t>
+    <t xml:space="preserve">28.8222618103027</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.0881061553955</t>
   </si>
   <si>
     <t xml:space="preserve">29.1143798828125</t>
   </si>
   <si>
-    <t xml:space="preserve">29.942045211792</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.5749664306641</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.1105175018311</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.9381828308105</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.2303009033203</t>
+    <t xml:space="preserve">29.9420471191406</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.5749683380127</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.1105194091797</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.9381847381592</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.230297088623</t>
   </si>
   <si>
     <t xml:space="preserve">31.7434368133545</t>
@@ -2519,7 +2519,7 @@
     <t xml:space="preserve">32.5224189758301</t>
   </si>
   <si>
-    <t xml:space="preserve">33.4961471557617</t>
+    <t xml:space="preserve">33.4961433410645</t>
   </si>
   <si>
     <t xml:space="preserve">33.3987693786621</t>
@@ -2528,16 +2528,16 @@
     <t xml:space="preserve">33.0092811584473</t>
   </si>
   <si>
-    <t xml:space="preserve">33.6908874511719</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.9343147277832</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.3238067626953</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.956729888916</t>
+    <t xml:space="preserve">33.6908836364746</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.9343223571777</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.3238105773926</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.9567337036133</t>
   </si>
   <si>
     <t xml:space="preserve">34.8106727600098</t>
@@ -2546,10 +2546,10 @@
     <t xml:space="preserve">35.5896530151367</t>
   </si>
   <si>
-    <t xml:space="preserve">35.6870231628418</t>
-  </si>
-  <si>
-    <t xml:space="preserve">37.0502395629883</t>
+    <t xml:space="preserve">35.6870269775391</t>
+  </si>
+  <si>
+    <t xml:space="preserve">37.050235748291</t>
   </si>
   <si>
     <t xml:space="preserve">37.3910446166992</t>
@@ -2558,31 +2558,31 @@
     <t xml:space="preserve">36.4173202514648</t>
   </si>
   <si>
-    <t xml:space="preserve">34.5185508728027</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.7658538818359</t>
+    <t xml:space="preserve">34.5185585021973</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.7658500671387</t>
   </si>
   <si>
     <t xml:space="preserve">32.863224029541</t>
   </si>
   <si>
-    <t xml:space="preserve">32.9605903625488</t>
+    <t xml:space="preserve">32.9605941772461</t>
   </si>
   <si>
     <t xml:space="preserve">32.9119071960449</t>
   </si>
   <si>
-    <t xml:space="preserve">32.1329307556152</t>
+    <t xml:space="preserve">32.132926940918</t>
   </si>
   <si>
     <t xml:space="preserve">30.5262813568115</t>
   </si>
   <si>
-    <t xml:space="preserve">31.0131454467773</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.7697143554688</t>
+    <t xml:space="preserve">31.0131435394287</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.7697124481201</t>
   </si>
   <si>
     <t xml:space="preserve">30.6723403930664</t>
@@ -2591,22 +2591,22 @@
     <t xml:space="preserve">31.3052635192871</t>
   </si>
   <si>
-    <t xml:space="preserve">33.642204284668</t>
+    <t xml:space="preserve">33.6422004699707</t>
   </si>
   <si>
     <t xml:space="preserve">34.080379486084</t>
   </si>
   <si>
-    <t xml:space="preserve">35.4922828674316</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.8817672729492</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.9304580688477</t>
-  </si>
-  <si>
-    <t xml:space="preserve">37.4884147644043</t>
+    <t xml:space="preserve">35.4922790527344</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.8817710876465</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.9304542541504</t>
+  </si>
+  <si>
+    <t xml:space="preserve">37.4884185791016</t>
   </si>
   <si>
     <t xml:space="preserve">37.2449836730957</t>
@@ -2630,7 +2630,7 @@
     <t xml:space="preserve">36.904182434082</t>
   </si>
   <si>
-    <t xml:space="preserve">37.2936706542969</t>
+    <t xml:space="preserve">37.2936744689941</t>
   </si>
   <si>
     <t xml:space="preserve">37.8779067993164</t>
@@ -2648,10 +2648,10 @@
     <t xml:space="preserve">40.068790435791</t>
   </si>
   <si>
-    <t xml:space="preserve">39.9227256774902</t>
-  </si>
-  <si>
-    <t xml:space="preserve">38.8029441833496</t>
+    <t xml:space="preserve">39.9227294921875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">38.8029479980469</t>
   </si>
   <si>
     <t xml:space="preserve">38.9490051269531</t>
@@ -2672,367 +2672,370 @@
     <t xml:space="preserve">40.5069618225098</t>
   </si>
   <si>
-    <t xml:space="preserve">44.3531799316406</t>
-  </si>
-  <si>
-    <t xml:space="preserve">42.1622924804688</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40.3122215270996</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41.431999206543</t>
+    <t xml:space="preserve">44.3531761169434</t>
+  </si>
+  <si>
+    <t xml:space="preserve">42.162296295166</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40.3122177124023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41.4320030212402</t>
   </si>
   <si>
     <t xml:space="preserve">42.1136131286621</t>
   </si>
   <si>
+    <t xml:space="preserve">42.6004753112793</t>
+  </si>
+  <si>
+    <t xml:space="preserve">42.3083572387695</t>
+  </si>
+  <si>
+    <t xml:space="preserve">42.8925895690918</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41.8701782226562</t>
+  </si>
+  <si>
+    <t xml:space="preserve">42.6491622924805</t>
+  </si>
+  <si>
+    <t xml:space="preserve">43.7689437866211</t>
+  </si>
+  <si>
+    <t xml:space="preserve">44.4018669128418</t>
+  </si>
+  <si>
+    <t xml:space="preserve">44.9860992431641</t>
+  </si>
+  <si>
+    <t xml:space="preserve">45.0347900390625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">45.9598236083984</t>
+  </si>
+  <si>
+    <t xml:space="preserve">44.6939849853516</t>
+  </si>
+  <si>
+    <t xml:space="preserve">45.2782135009766</t>
+  </si>
+  <si>
+    <t xml:space="preserve">46.3006286621094</t>
+  </si>
+  <si>
+    <t xml:space="preserve">45.765079498291</t>
+  </si>
+  <si>
+    <t xml:space="preserve">45.2295341491699</t>
+  </si>
+  <si>
+    <t xml:space="preserve">46.5440559387207</t>
+  </si>
+  <si>
+    <t xml:space="preserve">45.4242782592773</t>
+  </si>
+  <si>
+    <t xml:space="preserve">44.888729095459</t>
+  </si>
+  <si>
+    <t xml:space="preserve">44.7913551330566</t>
+  </si>
+  <si>
+    <t xml:space="preserve">44.5479278564453</t>
+  </si>
+  <si>
+    <t xml:space="preserve">44.1097450256348</t>
+  </si>
+  <si>
+    <t xml:space="preserve">43.4281387329102</t>
+  </si>
+  <si>
+    <t xml:space="preserve">43.5741958618164</t>
+  </si>
+  <si>
+    <t xml:space="preserve">43.5255126953125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">43.1360244750977</t>
+  </si>
+  <si>
+    <t xml:space="preserve">43.3307647705078</t>
+  </si>
+  <si>
+    <t xml:space="preserve">44.3044891357422</t>
+  </si>
+  <si>
+    <t xml:space="preserve">43.6715698242188</t>
+  </si>
+  <si>
+    <t xml:space="preserve">42.6978416442871</t>
+  </si>
+  <si>
+    <t xml:space="preserve">42.158260345459</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40.2911071777344</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40.0454292297363</t>
+  </si>
+  <si>
+    <t xml:space="preserve">39.7014846801758</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40.3402404785156</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41.1264114379883</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40.2419700622559</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41.0281372070312</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40.9298706054688</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40.4385147094727</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40.1436958312988</t>
+  </si>
+  <si>
+    <t xml:space="preserve">39.898021697998</t>
+  </si>
+  <si>
+    <t xml:space="preserve">39.8488845825195</t>
+  </si>
+  <si>
+    <t xml:space="preserve">39.9962959289551</t>
+  </si>
+  <si>
+    <t xml:space="preserve">39.504940032959</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40.5367851257324</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40.1928367614746</t>
+  </si>
+  <si>
+    <t xml:space="preserve">38.1291465759277</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36.9498901367188</t>
+  </si>
+  <si>
+    <t xml:space="preserve">37.8343315124512</t>
+  </si>
+  <si>
+    <t xml:space="preserve">38.3256874084473</t>
+  </si>
+  <si>
+    <t xml:space="preserve">39.7997512817383</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41.9617156982422</t>
+  </si>
+  <si>
+    <t xml:space="preserve">42.3547973632812</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41.7160339355469</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41.3229484558105</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40.6350517272949</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40.6841888427734</t>
+  </si>
+  <si>
+    <t xml:space="preserve">42.4530715942383</t>
+  </si>
+  <si>
+    <t xml:space="preserve">42.3056602478027</t>
+  </si>
+  <si>
+    <t xml:space="preserve">42.207389831543</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41.6669006347656</t>
+  </si>
+  <si>
+    <t xml:space="preserve">42.9935607910156</t>
+  </si>
+  <si>
+    <t xml:space="preserve">45.6468734741211</t>
+  </si>
+  <si>
+    <t xml:space="preserve">45.6960067749023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">46.482177734375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">48.1527824401855</t>
+  </si>
+  <si>
+    <t xml:space="preserve">47.6122970581055</t>
+  </si>
+  <si>
+    <t xml:space="preserve">48.1036491394043</t>
+  </si>
+  <si>
+    <t xml:space="preserve">48.8406791687012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">48.8898162841797</t>
+  </si>
+  <si>
+    <t xml:space="preserve">49.1354942321777</t>
+  </si>
+  <si>
+    <t xml:space="preserve">48.4967308044434</t>
+  </si>
+  <si>
+    <t xml:space="preserve">50.0199356079102</t>
+  </si>
+  <si>
+    <t xml:space="preserve">50.2164764404297</t>
+  </si>
+  <si>
+    <t xml:space="preserve">50.1182060241699</t>
+  </si>
+  <si>
+    <t xml:space="preserve">50.3147468566895</t>
+  </si>
+  <si>
+    <t xml:space="preserve">51.0026435852051</t>
+  </si>
+  <si>
+    <t xml:space="preserve">51.6905364990234</t>
+  </si>
+  <si>
+    <t xml:space="preserve">50.6095581054688</t>
+  </si>
+  <si>
+    <t xml:space="preserve">50.9043731689453</t>
+  </si>
+  <si>
+    <t xml:space="preserve">50.8061027526855</t>
+  </si>
+  <si>
+    <t xml:space="preserve">51.5922698974609</t>
+  </si>
+  <si>
+    <t xml:space="preserve">50.5112915039062</t>
+  </si>
+  <si>
+    <t xml:space="preserve">51.1009140014648</t>
+  </si>
+  <si>
+    <t xml:space="preserve">51.2974548339844</t>
+  </si>
+  <si>
+    <t xml:space="preserve">52.1818923950195</t>
+  </si>
+  <si>
+    <t xml:space="preserve">52.2801704406738</t>
+  </si>
+  <si>
+    <t xml:space="preserve">51.1991844177246</t>
+  </si>
+  <si>
+    <t xml:space="preserve">45.5486030578613</t>
+  </si>
+  <si>
+    <t xml:space="preserve">44.8115692138672</t>
+  </si>
+  <si>
+    <t xml:space="preserve">43.7797203063965</t>
+  </si>
+  <si>
+    <t xml:space="preserve">44.5167579650879</t>
+  </si>
+  <si>
+    <t xml:space="preserve">44.5658912658691</t>
+  </si>
+  <si>
+    <t xml:space="preserve">45.2046546936035</t>
+  </si>
+  <si>
+    <t xml:space="preserve">44.3202133178711</t>
+  </si>
+  <si>
+    <t xml:space="preserve">44.0745391845703</t>
+  </si>
+  <si>
+    <t xml:space="preserve">44.7132987976074</t>
+  </si>
+  <si>
+    <t xml:space="preserve">44.2219467163086</t>
+  </si>
+  <si>
+    <t xml:space="preserve">44.4676208496094</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41.4703598022461</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41.224681854248</t>
+  </si>
+  <si>
+    <t xml:space="preserve">42.0108489990234</t>
+  </si>
+  <si>
+    <t xml:space="preserve">42.5513343811035</t>
+  </si>
+  <si>
+    <t xml:space="preserve">43.3375053405762</t>
+  </si>
+  <si>
+    <t xml:space="preserve">43.534049987793</t>
+  </si>
+  <si>
+    <t xml:space="preserve">43.9762649536133</t>
+  </si>
+  <si>
+    <t xml:space="preserve">44.6150321960449</t>
+  </si>
+  <si>
+    <t xml:space="preserve">45.7451438903809</t>
+  </si>
+  <si>
+    <t xml:space="preserve">46.3839073181152</t>
+  </si>
+  <si>
+    <t xml:space="preserve">45.9416847229004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">46.0399551391602</t>
+  </si>
+  <si>
+    <t xml:space="preserve">43.0426940917969</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41.5194892883301</t>
+  </si>
+  <si>
+    <t xml:space="preserve">42.9444198608398</t>
+  </si>
+  <si>
+    <t xml:space="preserve">43.386646270752</t>
+  </si>
+  <si>
     <t xml:space="preserve">42.600471496582</t>
   </si>
   <si>
-    <t xml:space="preserve">42.3083572387695</t>
-  </si>
-  <si>
-    <t xml:space="preserve">42.8925857543945</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41.8701782226562</t>
-  </si>
-  <si>
-    <t xml:space="preserve">42.6491546630859</t>
-  </si>
-  <si>
-    <t xml:space="preserve">43.7689399719238</t>
-  </si>
-  <si>
-    <t xml:space="preserve">44.4018630981445</t>
-  </si>
-  <si>
-    <t xml:space="preserve">44.9860954284668</t>
-  </si>
-  <si>
-    <t xml:space="preserve">45.0347862243652</t>
-  </si>
-  <si>
-    <t xml:space="preserve">45.9598236083984</t>
-  </si>
-  <si>
-    <t xml:space="preserve">44.6939811706543</t>
-  </si>
-  <si>
-    <t xml:space="preserve">45.2782211303711</t>
-  </si>
-  <si>
-    <t xml:space="preserve">46.3006286621094</t>
-  </si>
-  <si>
-    <t xml:space="preserve">45.7650833129883</t>
-  </si>
-  <si>
-    <t xml:space="preserve">45.2295303344727</t>
-  </si>
-  <si>
-    <t xml:space="preserve">46.544059753418</t>
-  </si>
-  <si>
-    <t xml:space="preserve">45.4242782592773</t>
-  </si>
-  <si>
-    <t xml:space="preserve">44.8887214660645</t>
-  </si>
-  <si>
-    <t xml:space="preserve">44.7913513183594</t>
-  </si>
-  <si>
-    <t xml:space="preserve">44.5479278564453</t>
-  </si>
-  <si>
-    <t xml:space="preserve">44.1097450256348</t>
-  </si>
-  <si>
-    <t xml:space="preserve">43.4281387329102</t>
-  </si>
-  <si>
-    <t xml:space="preserve">43.5741958618164</t>
-  </si>
-  <si>
-    <t xml:space="preserve">43.5255088806152</t>
-  </si>
-  <si>
-    <t xml:space="preserve">43.1360206604004</t>
-  </si>
-  <si>
-    <t xml:space="preserve">43.3307685852051</t>
-  </si>
-  <si>
-    <t xml:space="preserve">44.3044929504395</t>
-  </si>
-  <si>
-    <t xml:space="preserve">43.6715698242188</t>
-  </si>
-  <si>
-    <t xml:space="preserve">42.6978454589844</t>
-  </si>
-  <si>
-    <t xml:space="preserve">42.1582565307617</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40.2911033630371</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40.0454292297363</t>
-  </si>
-  <si>
-    <t xml:space="preserve">39.7014808654785</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40.3402404785156</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41.126407623291</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40.2419738769531</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41.0281372070312</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40.9298667907715</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40.4385147094727</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40.1436996459961</t>
-  </si>
-  <si>
-    <t xml:space="preserve">39.898021697998</t>
-  </si>
-  <si>
-    <t xml:space="preserve">39.8488883972168</t>
-  </si>
-  <si>
-    <t xml:space="preserve">39.9962921142578</t>
-  </si>
-  <si>
-    <t xml:space="preserve">39.504940032959</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40.5367851257324</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40.1928367614746</t>
-  </si>
-  <si>
-    <t xml:space="preserve">38.1291389465332</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36.949893951416</t>
-  </si>
-  <si>
-    <t xml:space="preserve">37.8343276977539</t>
-  </si>
-  <si>
-    <t xml:space="preserve">38.32568359375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">39.7997512817383</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41.9617118835449</t>
-  </si>
-  <si>
-    <t xml:space="preserve">42.3547973632812</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41.7160377502441</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41.3229484558105</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40.6350517272949</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40.6841888427734</t>
-  </si>
-  <si>
-    <t xml:space="preserve">42.453067779541</t>
-  </si>
-  <si>
-    <t xml:space="preserve">42.3056602478027</t>
-  </si>
-  <si>
-    <t xml:space="preserve">42.2073936462402</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41.6669006347656</t>
-  </si>
-  <si>
-    <t xml:space="preserve">42.9935569763184</t>
-  </si>
-  <si>
-    <t xml:space="preserve">45.6468772888184</t>
-  </si>
-  <si>
-    <t xml:space="preserve">45.6960105895996</t>
-  </si>
-  <si>
-    <t xml:space="preserve">46.482177734375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">48.1527862548828</t>
-  </si>
-  <si>
-    <t xml:space="preserve">47.6122970581055</t>
-  </si>
-  <si>
-    <t xml:space="preserve">48.1036491394043</t>
-  </si>
-  <si>
-    <t xml:space="preserve">48.8406829833984</t>
-  </si>
-  <si>
-    <t xml:space="preserve">48.8898162841797</t>
-  </si>
-  <si>
-    <t xml:space="preserve">49.1354942321777</t>
-  </si>
-  <si>
-    <t xml:space="preserve">48.4967308044434</t>
-  </si>
-  <si>
-    <t xml:space="preserve">50.0199317932129</t>
-  </si>
-  <si>
-    <t xml:space="preserve">50.2164764404297</t>
-  </si>
-  <si>
-    <t xml:space="preserve">50.1182098388672</t>
-  </si>
-  <si>
-    <t xml:space="preserve">50.3147468566895</t>
-  </si>
-  <si>
-    <t xml:space="preserve">51.0026435852051</t>
-  </si>
-  <si>
-    <t xml:space="preserve">51.6905364990234</t>
-  </si>
-  <si>
-    <t xml:space="preserve">50.609561920166</t>
-  </si>
-  <si>
-    <t xml:space="preserve">50.9043731689453</t>
-  </si>
-  <si>
-    <t xml:space="preserve">50.8061027526855</t>
-  </si>
-  <si>
-    <t xml:space="preserve">51.5922698974609</t>
-  </si>
-  <si>
-    <t xml:space="preserve">50.5112915039062</t>
-  </si>
-  <si>
-    <t xml:space="preserve">51.1009178161621</t>
-  </si>
-  <si>
-    <t xml:space="preserve">51.2974548339844</t>
-  </si>
-  <si>
-    <t xml:space="preserve">52.1818923950195</t>
-  </si>
-  <si>
-    <t xml:space="preserve">52.2801628112793</t>
-  </si>
-  <si>
-    <t xml:space="preserve">51.1991844177246</t>
-  </si>
-  <si>
-    <t xml:space="preserve">45.5485992431641</t>
-  </si>
-  <si>
-    <t xml:space="preserve">44.8115692138672</t>
-  </si>
-  <si>
-    <t xml:space="preserve">43.7797241210938</t>
-  </si>
-  <si>
-    <t xml:space="preserve">44.5167579650879</t>
-  </si>
-  <si>
-    <t xml:space="preserve">44.5658912658691</t>
-  </si>
-  <si>
-    <t xml:space="preserve">45.2046508789062</t>
-  </si>
-  <si>
-    <t xml:space="preserve">44.3202171325684</t>
-  </si>
-  <si>
-    <t xml:space="preserve">44.074535369873</t>
-  </si>
-  <si>
-    <t xml:space="preserve">44.7132987976074</t>
-  </si>
-  <si>
-    <t xml:space="preserve">44.2219429016113</t>
-  </si>
-  <si>
-    <t xml:space="preserve">44.4676246643066</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41.4703598022461</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41.224681854248</t>
-  </si>
-  <si>
-    <t xml:space="preserve">42.0108489990234</t>
-  </si>
-  <si>
-    <t xml:space="preserve">42.5513381958008</t>
-  </si>
-  <si>
-    <t xml:space="preserve">43.3375091552734</t>
-  </si>
-  <si>
-    <t xml:space="preserve">43.534049987793</t>
-  </si>
-  <si>
-    <t xml:space="preserve">43.9762687683105</t>
-  </si>
-  <si>
-    <t xml:space="preserve">44.6150321960449</t>
-  </si>
-  <si>
-    <t xml:space="preserve">45.7451438903809</t>
-  </si>
-  <si>
-    <t xml:space="preserve">46.3839073181152</t>
-  </si>
-  <si>
-    <t xml:space="preserve">45.9416885375977</t>
-  </si>
-  <si>
-    <t xml:space="preserve">46.0399551391602</t>
-  </si>
-  <si>
-    <t xml:space="preserve">43.0426940917969</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41.5194931030273</t>
-  </si>
-  <si>
-    <t xml:space="preserve">42.9444198608398</t>
-  </si>
-  <si>
-    <t xml:space="preserve">43.3866424560547</t>
-  </si>
-  <si>
-    <t xml:space="preserve">42.6987495422363</t>
+    <t xml:space="preserve">42.6987457275391</t>
   </si>
   <si>
     <t xml:space="preserve">41.7651710510254</t>
@@ -3044,19 +3047,19 @@
     <t xml:space="preserve">39.1118507385254</t>
   </si>
   <si>
-    <t xml:space="preserve">38.4730911254883</t>
+    <t xml:space="preserve">38.4730949401855</t>
   </si>
   <si>
     <t xml:space="preserve">39.3083953857422</t>
   </si>
   <si>
-    <t xml:space="preserve">40.0945587158203</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40.7824630737305</t>
-  </si>
-  <si>
-    <t xml:space="preserve">42.1091194152832</t>
+    <t xml:space="preserve">40.0945663452148</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40.7824592590332</t>
+  </si>
+  <si>
+    <t xml:space="preserve">42.1091156005859</t>
   </si>
   <si>
     <t xml:space="preserve">41.3720855712891</t>
@@ -3065,31 +3068,31 @@
     <t xml:space="preserve">41.0772743225098</t>
   </si>
   <si>
-    <t xml:space="preserve">41.9125747680664</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41.8634414672852</t>
+    <t xml:space="preserve">41.9125785827637</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41.8634376525879</t>
   </si>
   <si>
     <t xml:space="preserve">42.7478790283203</t>
   </si>
   <si>
-    <t xml:space="preserve">43.2392349243164</t>
+    <t xml:space="preserve">43.2392311096191</t>
   </si>
   <si>
     <t xml:space="preserve">42.0599822998047</t>
   </si>
   <si>
-    <t xml:space="preserve">41.6177597045898</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40.4876480102539</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40.8807334899902</t>
-  </si>
-  <si>
-    <t xml:space="preserve">43.1409683227539</t>
+    <t xml:space="preserve">41.6177635192871</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40.4876441955566</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40.880729675293</t>
+  </si>
+  <si>
+    <t xml:space="preserve">43.1409645080566</t>
   </si>
   <si>
     <t xml:space="preserve">43.7305908203125</t>
@@ -3098,10 +3101,10 @@
     <t xml:space="preserve">44.2710800170898</t>
   </si>
   <si>
-    <t xml:space="preserve">41.1755485534668</t>
-  </si>
-  <si>
-    <t xml:space="preserve">39.3575286865234</t>
+    <t xml:space="preserve">41.1755447387695</t>
+  </si>
+  <si>
+    <t xml:space="preserve">39.3575325012207</t>
   </si>
   <si>
     <t xml:space="preserve">42.8461494445801</t>
@@ -3110,10 +3113,10 @@
     <t xml:space="preserve">42.8952865600586</t>
   </si>
   <si>
-    <t xml:space="preserve">38.8170433044434</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36.6550788879395</t>
+    <t xml:space="preserve">38.8170394897461</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36.6550750732422</t>
   </si>
   <si>
     <t xml:space="preserve">38.8661766052246</t>
@@ -3125,7 +3128,7 @@
     <t xml:space="preserve">36.0163192749023</t>
   </si>
   <si>
-    <t xml:space="preserve">34.9353332519531</t>
+    <t xml:space="preserve">34.9353370666504</t>
   </si>
   <si>
     <t xml:space="preserve">35.8197746276855</t>
@@ -3140,16 +3143,16 @@
     <t xml:space="preserve">36.3111305236816</t>
   </si>
   <si>
-    <t xml:space="preserve">36.3602676391602</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.6723670959473</t>
+    <t xml:space="preserve">36.3602638244629</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.6723709106445</t>
   </si>
   <si>
     <t xml:space="preserve">34.7387924194336</t>
   </si>
   <si>
-    <t xml:space="preserve">36.6059455871582</t>
+    <t xml:space="preserve">36.6059417724609</t>
   </si>
   <si>
     <t xml:space="preserve">35.5740966796875</t>
@@ -3158,7 +3161,7 @@
     <t xml:space="preserve">34.149169921875</t>
   </si>
   <si>
-    <t xml:space="preserve">32.3311576843262</t>
+    <t xml:space="preserve">32.3311538696289</t>
   </si>
   <si>
     <t xml:space="preserve">31.6923942565918</t>
@@ -3167,13 +3170,13 @@
     <t xml:space="preserve">31.8398036956787</t>
   </si>
   <si>
-    <t xml:space="preserve">33.2155914306641</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.576831817627</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.6578140258789</t>
+    <t xml:space="preserve">33.2155952453613</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.5768356323242</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.6578102111816</t>
   </si>
   <si>
     <t xml:space="preserve">34.9844703674316</t>
@@ -3188,10 +3191,10 @@
     <t xml:space="preserve">32.2328834533691</t>
   </si>
   <si>
-    <t xml:space="preserve">31.594123840332</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.8052253723145</t>
+    <t xml:space="preserve">31.5941257476807</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.8052215576172</t>
   </si>
   <si>
     <t xml:space="preserve">33.1664619445801</t>
@@ -3203,7 +3206,7 @@
     <t xml:space="preserve">32.6259689331055</t>
   </si>
   <si>
-    <t xml:space="preserve">32.8225135803223</t>
+    <t xml:space="preserve">32.822509765625</t>
   </si>
   <si>
     <t xml:space="preserve">31.6432590484619</t>
@@ -3215,10 +3218,10 @@
     <t xml:space="preserve">32.9699172973633</t>
   </si>
   <si>
-    <t xml:space="preserve">31.4074058532715</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.2108669281006</t>
+    <t xml:space="preserve">31.4074077606201</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.210865020752</t>
   </si>
   <si>
     <t xml:space="preserve">31.0929393768311</t>
@@ -3227,73 +3230,73 @@
     <t xml:space="preserve">29.8350734710693</t>
   </si>
   <si>
-    <t xml:space="preserve">30.6605472564697</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.4294281005859</t>
+    <t xml:space="preserve">30.6605491638184</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.4294242858887</t>
   </si>
   <si>
     <t xml:space="preserve">32.2721939086914</t>
   </si>
   <si>
-    <t xml:space="preserve">32.1346168518066</t>
+    <t xml:space="preserve">32.1346130371094</t>
   </si>
   <si>
     <t xml:space="preserve">31.5253353118896</t>
   </si>
   <si>
-    <t xml:space="preserve">32.3704605102539</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.5842952728271</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.8594532012939</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.0709247589111</t>
+    <t xml:space="preserve">32.3704643249512</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.5842971801758</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.8594512939453</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.0709228515625</t>
   </si>
   <si>
     <t xml:space="preserve">30.1495399475098</t>
   </si>
   <si>
-    <t xml:space="preserve">28.5575504302979</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.6754760742188</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.3830242156982</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.0489044189453</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.1078662872314</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.265100479126</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.478931427002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.5968608856201</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.1817569732666</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.4985866546631</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.7737445831299</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.4003143310547</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.7344360351562</t>
+    <t xml:space="preserve">28.5575485229492</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.6754741668701</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.3830261230469</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.0489063262939</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.1078681945801</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.2651023864746</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.4789333343506</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.5968589782715</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.181755065918</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.4985885620117</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.7737464904785</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.4003162384033</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.7344379425049</t>
   </si>
   <si>
     <t xml:space="preserve">28.2578468322754</t>
@@ -3731,9 +3734,6 @@
     <t xml:space="preserve">28.7940120697021</t>
   </si>
   <si>
-    <t xml:space="preserve">28.7344379425049</t>
-  </si>
-  <si>
     <t xml:space="preserve">29.0323066711426</t>
   </si>
   <si>
@@ -4431,6 +4431,9 @@
   </si>
   <si>
     <t xml:space="preserve">36.5999984741211</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36</t>
   </si>
 </sst>
 </file>
@@ -28112,7 +28115,7 @@
         <v>15.6800003051758</v>
       </c>
       <c r="G898" t="s">
-        <v>593</v>
+        <v>403</v>
       </c>
       <c r="H898" t="s">
         <v>9</v>
@@ -28138,7 +28141,7 @@
         <v>15.5600004196167</v>
       </c>
       <c r="G899" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="H899" t="s">
         <v>9</v>
@@ -28164,7 +28167,7 @@
         <v>15.7600002288818</v>
       </c>
       <c r="G900" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="H900" t="s">
         <v>9</v>
@@ -28216,7 +28219,7 @@
         <v>15.3800001144409</v>
       </c>
       <c r="G902" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="H902" t="s">
         <v>9</v>
@@ -28268,7 +28271,7 @@
         <v>15.3400001525879</v>
       </c>
       <c r="G904" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="H904" t="s">
         <v>9</v>
@@ -28294,7 +28297,7 @@
         <v>15.5</v>
       </c>
       <c r="G905" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="H905" t="s">
         <v>9</v>
@@ -28320,7 +28323,7 @@
         <v>15.6199998855591</v>
       </c>
       <c r="G906" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="H906" t="s">
         <v>9</v>
@@ -28346,7 +28349,7 @@
         <v>15.5</v>
       </c>
       <c r="G907" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="H907" t="s">
         <v>9</v>
@@ -28424,7 +28427,7 @@
         <v>15.3999996185303</v>
       </c>
       <c r="G910" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="H910" t="s">
         <v>9</v>
@@ -28502,7 +28505,7 @@
         <v>15.6199998855591</v>
       </c>
       <c r="G913" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="H913" t="s">
         <v>9</v>
@@ -28554,7 +28557,7 @@
         <v>15.4799995422363</v>
       </c>
       <c r="G915" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="H915" t="s">
         <v>9</v>
@@ -28580,7 +28583,7 @@
         <v>15.1199998855591</v>
       </c>
       <c r="G916" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="H916" t="s">
         <v>9</v>
@@ -28606,7 +28609,7 @@
         <v>15.1599998474121</v>
       </c>
       <c r="G917" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="H917" t="s">
         <v>9</v>
@@ -28632,7 +28635,7 @@
         <v>15.1800003051758</v>
       </c>
       <c r="G918" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="H918" t="s">
         <v>9</v>
@@ -28658,7 +28661,7 @@
         <v>15.3400001525879</v>
       </c>
       <c r="G919" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="H919" t="s">
         <v>9</v>
@@ -28684,7 +28687,7 @@
         <v>15.0799999237061</v>
       </c>
       <c r="G920" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="H920" t="s">
         <v>9</v>
@@ -28710,7 +28713,7 @@
         <v>15.2200002670288</v>
       </c>
       <c r="G921" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="H921" t="s">
         <v>9</v>
@@ -28736,7 +28739,7 @@
         <v>15.1599998474121</v>
       </c>
       <c r="G922" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="H922" t="s">
         <v>9</v>
@@ -28762,7 +28765,7 @@
         <v>15.1999998092651</v>
       </c>
       <c r="G923" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="H923" t="s">
         <v>9</v>
@@ -28788,7 +28791,7 @@
         <v>15.039999961853</v>
       </c>
       <c r="G924" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="H924" t="s">
         <v>9</v>
@@ -28814,7 +28817,7 @@
         <v>15.1199998855591</v>
       </c>
       <c r="G925" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="H925" t="s">
         <v>9</v>
@@ -28840,7 +28843,7 @@
         <v>15.2200002670288</v>
       </c>
       <c r="G926" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="H926" t="s">
         <v>9</v>
@@ -28866,7 +28869,7 @@
         <v>15.0200004577637</v>
       </c>
       <c r="G927" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="H927" t="s">
         <v>9</v>
@@ -28892,7 +28895,7 @@
         <v>15.2399997711182</v>
       </c>
       <c r="G928" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="H928" t="s">
         <v>9</v>
@@ -28944,7 +28947,7 @@
         <v>15.5200004577637</v>
       </c>
       <c r="G930" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="H930" t="s">
         <v>9</v>
@@ -28996,7 +28999,7 @@
         <v>15.1400003433228</v>
       </c>
       <c r="G932" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="H932" t="s">
         <v>9</v>
@@ -29048,7 +29051,7 @@
         <v>15.1800003051758</v>
       </c>
       <c r="G934" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="H934" t="s">
         <v>9</v>
@@ -29074,7 +29077,7 @@
         <v>15.4799995422363</v>
       </c>
       <c r="G935" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="H935" t="s">
         <v>9</v>
@@ -29100,7 +29103,7 @@
         <v>15.960000038147</v>
       </c>
       <c r="G936" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="H936" t="s">
         <v>9</v>
@@ -29126,7 +29129,7 @@
         <v>16</v>
       </c>
       <c r="G937" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="H937" t="s">
         <v>9</v>
@@ -29152,7 +29155,7 @@
         <v>16.2999992370605</v>
       </c>
       <c r="G938" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="H938" t="s">
         <v>9</v>
@@ -29178,7 +29181,7 @@
         <v>16.1399993896484</v>
       </c>
       <c r="G939" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="H939" t="s">
         <v>9</v>
@@ -29204,7 +29207,7 @@
         <v>16.3400001525879</v>
       </c>
       <c r="G940" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="H940" t="s">
         <v>9</v>
@@ -29230,7 +29233,7 @@
         <v>16.4200000762939</v>
       </c>
       <c r="G941" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="H941" t="s">
         <v>9</v>
@@ -29256,7 +29259,7 @@
         <v>16.7999992370605</v>
       </c>
       <c r="G942" t="s">
-        <v>553</v>
+        <v>618</v>
       </c>
       <c r="H942" t="s">
         <v>9</v>
@@ -29646,7 +29649,7 @@
         <v>16</v>
       </c>
       <c r="G957" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="H957" t="s">
         <v>9</v>
@@ -29776,7 +29779,7 @@
         <v>16.3400001525879</v>
       </c>
       <c r="G962" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="H962" t="s">
         <v>9</v>
@@ -29906,7 +29909,7 @@
         <v>16.7999992370605</v>
       </c>
       <c r="G967" t="s">
-        <v>553</v>
+        <v>618</v>
       </c>
       <c r="H967" t="s">
         <v>9</v>
@@ -32818,7 +32821,7 @@
         <v>15.2399997711182</v>
       </c>
       <c r="G1079" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="H1079" t="s">
         <v>9</v>
@@ -32870,7 +32873,7 @@
         <v>15.1599998474121</v>
       </c>
       <c r="G1081" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="H1081" t="s">
         <v>9</v>
@@ -33156,7 +33159,7 @@
         <v>15.7600002288818</v>
       </c>
       <c r="G1092" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="H1092" t="s">
         <v>9</v>
@@ -33312,7 +33315,7 @@
         <v>16.3400001525879</v>
       </c>
       <c r="G1098" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="H1098" t="s">
         <v>9</v>
@@ -33390,7 +33393,7 @@
         <v>15.5200004577637</v>
       </c>
       <c r="G1101" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="H1101" t="s">
         <v>9</v>
@@ -33546,7 +33549,7 @@
         <v>16</v>
       </c>
       <c r="G1107" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="H1107" t="s">
         <v>9</v>
@@ -33572,7 +33575,7 @@
         <v>15.3999996185303</v>
       </c>
       <c r="G1108" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="H1108" t="s">
         <v>9</v>
@@ -33624,7 +33627,7 @@
         <v>16.2999992370605</v>
       </c>
       <c r="G1110" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="H1110" t="s">
         <v>9</v>
@@ -33650,7 +33653,7 @@
         <v>16</v>
       </c>
       <c r="G1111" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="H1111" t="s">
         <v>9</v>
@@ -33754,7 +33757,7 @@
         <v>16.1399993896484</v>
       </c>
       <c r="G1115" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="H1115" t="s">
         <v>9</v>
@@ -43452,7 +43455,7 @@
         <v>43.3499984741211</v>
       </c>
       <c r="G1488" t="s">
-        <v>891</v>
+        <v>1006</v>
       </c>
       <c r="H1488" t="s">
         <v>9</v>
@@ -43478,7 +43481,7 @@
         <v>43.4500007629395</v>
       </c>
       <c r="G1489" t="s">
-        <v>1006</v>
+        <v>1007</v>
       </c>
       <c r="H1489" t="s">
         <v>9</v>
@@ -43530,7 +43533,7 @@
         <v>42.5</v>
       </c>
       <c r="G1491" t="s">
-        <v>1007</v>
+        <v>1008</v>
       </c>
       <c r="H1491" t="s">
         <v>9</v>
@@ -43556,7 +43559,7 @@
         <v>42.5</v>
       </c>
       <c r="G1492" t="s">
-        <v>1007</v>
+        <v>1008</v>
       </c>
       <c r="H1492" t="s">
         <v>9</v>
@@ -43608,7 +43611,7 @@
         <v>42</v>
       </c>
       <c r="G1494" t="s">
-        <v>1008</v>
+        <v>1009</v>
       </c>
       <c r="H1494" t="s">
         <v>9</v>
@@ -43660,7 +43663,7 @@
         <v>39.7999992370605</v>
       </c>
       <c r="G1496" t="s">
-        <v>1009</v>
+        <v>1010</v>
       </c>
       <c r="H1496" t="s">
         <v>9</v>
@@ -43686,7 +43689,7 @@
         <v>39.1500015258789</v>
       </c>
       <c r="G1497" t="s">
-        <v>1010</v>
+        <v>1011</v>
       </c>
       <c r="H1497" t="s">
         <v>9</v>
@@ -43712,7 +43715,7 @@
         <v>40</v>
       </c>
       <c r="G1498" t="s">
-        <v>1011</v>
+        <v>1012</v>
       </c>
       <c r="H1498" t="s">
         <v>9</v>
@@ -43868,7 +43871,7 @@
         <v>40.7999992370605</v>
       </c>
       <c r="G1504" t="s">
-        <v>1012</v>
+        <v>1013</v>
       </c>
       <c r="H1504" t="s">
         <v>9</v>
@@ -43894,7 +43897,7 @@
         <v>41.5</v>
       </c>
       <c r="G1505" t="s">
-        <v>1013</v>
+        <v>1014</v>
       </c>
       <c r="H1505" t="s">
         <v>9</v>
@@ -43998,7 +44001,7 @@
         <v>41.5</v>
       </c>
       <c r="G1509" t="s">
-        <v>1013</v>
+        <v>1014</v>
       </c>
       <c r="H1509" t="s">
         <v>9</v>
@@ -44024,7 +44027,7 @@
         <v>42.8499984741211</v>
       </c>
       <c r="G1510" t="s">
-        <v>1014</v>
+        <v>1015</v>
       </c>
       <c r="H1510" t="s">
         <v>9</v>
@@ -44050,7 +44053,7 @@
         <v>42</v>
       </c>
       <c r="G1511" t="s">
-        <v>1008</v>
+        <v>1009</v>
       </c>
       <c r="H1511" t="s">
         <v>9</v>
@@ -44076,7 +44079,7 @@
         <v>42</v>
       </c>
       <c r="G1512" t="s">
-        <v>1008</v>
+        <v>1009</v>
       </c>
       <c r="H1512" t="s">
         <v>9</v>
@@ -44102,7 +44105,7 @@
         <v>42.0999984741211</v>
       </c>
       <c r="G1513" t="s">
-        <v>1015</v>
+        <v>1016</v>
       </c>
       <c r="H1513" t="s">
         <v>9</v>
@@ -44128,7 +44131,7 @@
         <v>41.7999992370605</v>
       </c>
       <c r="G1514" t="s">
-        <v>1016</v>
+        <v>1017</v>
       </c>
       <c r="H1514" t="s">
         <v>9</v>
@@ -44180,7 +44183,7 @@
         <v>42</v>
       </c>
       <c r="G1516" t="s">
-        <v>1008</v>
+        <v>1009</v>
       </c>
       <c r="H1516" t="s">
         <v>9</v>
@@ -44206,7 +44209,7 @@
         <v>42</v>
       </c>
       <c r="G1517" t="s">
-        <v>1008</v>
+        <v>1009</v>
       </c>
       <c r="H1517" t="s">
         <v>9</v>
@@ -44232,7 +44235,7 @@
         <v>42.6500015258789</v>
       </c>
       <c r="G1518" t="s">
-        <v>1017</v>
+        <v>1018</v>
       </c>
       <c r="H1518" t="s">
         <v>9</v>
@@ -44310,7 +44313,7 @@
         <v>42.5999984741211</v>
       </c>
       <c r="G1521" t="s">
-        <v>1018</v>
+        <v>1019</v>
       </c>
       <c r="H1521" t="s">
         <v>9</v>
@@ -44362,7 +44365,7 @@
         <v>43.5</v>
       </c>
       <c r="G1523" t="s">
-        <v>1019</v>
+        <v>1020</v>
       </c>
       <c r="H1523" t="s">
         <v>9</v>
@@ -44414,7 +44417,7 @@
         <v>44</v>
       </c>
       <c r="G1525" t="s">
-        <v>1020</v>
+        <v>1021</v>
       </c>
       <c r="H1525" t="s">
         <v>9</v>
@@ -44466,7 +44469,7 @@
         <v>42.7999992370605</v>
       </c>
       <c r="G1527" t="s">
-        <v>1021</v>
+        <v>1022</v>
       </c>
       <c r="H1527" t="s">
         <v>9</v>
@@ -44492,7 +44495,7 @@
         <v>42.6500015258789</v>
       </c>
       <c r="G1528" t="s">
-        <v>1017</v>
+        <v>1018</v>
       </c>
       <c r="H1528" t="s">
         <v>9</v>
@@ -44518,7 +44521,7 @@
         <v>42.3499984741211</v>
       </c>
       <c r="G1529" t="s">
-        <v>1022</v>
+        <v>1023</v>
       </c>
       <c r="H1529" t="s">
         <v>9</v>
@@ -44544,7 +44547,7 @@
         <v>41.5</v>
       </c>
       <c r="G1530" t="s">
-        <v>1013</v>
+        <v>1014</v>
       </c>
       <c r="H1530" t="s">
         <v>9</v>
@@ -44570,7 +44573,7 @@
         <v>41.2000007629395</v>
       </c>
       <c r="G1531" t="s">
-        <v>1023</v>
+        <v>1024</v>
       </c>
       <c r="H1531" t="s">
         <v>9</v>
@@ -44648,7 +44651,7 @@
         <v>41.5999984741211</v>
       </c>
       <c r="G1534" t="s">
-        <v>1024</v>
+        <v>1025</v>
       </c>
       <c r="H1534" t="s">
         <v>9</v>
@@ -44674,7 +44677,7 @@
         <v>42</v>
       </c>
       <c r="G1535" t="s">
-        <v>1008</v>
+        <v>1009</v>
       </c>
       <c r="H1535" t="s">
         <v>9</v>
@@ -44700,7 +44703,7 @@
         <v>42</v>
       </c>
       <c r="G1536" t="s">
-        <v>1008</v>
+        <v>1009</v>
       </c>
       <c r="H1536" t="s">
         <v>9</v>
@@ -44726,7 +44729,7 @@
         <v>43.9000015258789</v>
       </c>
       <c r="G1537" t="s">
-        <v>1025</v>
+        <v>1026</v>
       </c>
       <c r="H1537" t="s">
         <v>9</v>
@@ -44778,7 +44781,7 @@
         <v>44.5</v>
       </c>
       <c r="G1539" t="s">
-        <v>1026</v>
+        <v>1027</v>
       </c>
       <c r="H1539" t="s">
         <v>9</v>
@@ -44804,7 +44807,7 @@
         <v>45.0499992370605</v>
       </c>
       <c r="G1540" t="s">
-        <v>1027</v>
+        <v>1028</v>
       </c>
       <c r="H1540" t="s">
         <v>9</v>
@@ -44882,7 +44885,7 @@
         <v>40</v>
       </c>
       <c r="G1543" t="s">
-        <v>1011</v>
+        <v>1012</v>
       </c>
       <c r="H1543" t="s">
         <v>9</v>
@@ -44934,7 +44937,7 @@
         <v>41.9000015258789</v>
       </c>
       <c r="G1545" t="s">
-        <v>1028</v>
+        <v>1029</v>
       </c>
       <c r="H1545" t="s">
         <v>9</v>
@@ -44960,7 +44963,7 @@
         <v>40.0499992370605</v>
       </c>
       <c r="G1546" t="s">
-        <v>1029</v>
+        <v>1030</v>
       </c>
       <c r="H1546" t="s">
         <v>9</v>
@@ -44986,7 +44989,7 @@
         <v>42.0999984741211</v>
       </c>
       <c r="G1547" t="s">
-        <v>1015</v>
+        <v>1016</v>
       </c>
       <c r="H1547" t="s">
         <v>9</v>
@@ -45012,7 +45015,7 @@
         <v>43.5999984741211</v>
       </c>
       <c r="G1548" t="s">
-        <v>1030</v>
+        <v>1031</v>
       </c>
       <c r="H1548" t="s">
         <v>9</v>
@@ -45038,7 +45041,7 @@
         <v>43.6500015258789</v>
       </c>
       <c r="G1549" t="s">
-        <v>1031</v>
+        <v>1032</v>
       </c>
       <c r="H1549" t="s">
         <v>9</v>
@@ -45116,7 +45119,7 @@
         <v>39.5</v>
       </c>
       <c r="G1552" t="s">
-        <v>1032</v>
+        <v>1033</v>
       </c>
       <c r="H1552" t="s">
         <v>9</v>
@@ -45142,7 +45145,7 @@
         <v>37.2999992370605</v>
       </c>
       <c r="G1553" t="s">
-        <v>1033</v>
+        <v>1034</v>
       </c>
       <c r="H1553" t="s">
         <v>9</v>
@@ -45168,7 +45171,7 @@
         <v>39.5499992370605</v>
       </c>
       <c r="G1554" t="s">
-        <v>1034</v>
+        <v>1035</v>
       </c>
       <c r="H1554" t="s">
         <v>9</v>
@@ -45194,7 +45197,7 @@
         <v>38</v>
       </c>
       <c r="G1555" t="s">
-        <v>1035</v>
+        <v>1036</v>
       </c>
       <c r="H1555" t="s">
         <v>9</v>
@@ -45220,7 +45223,7 @@
         <v>36.6500015258789</v>
       </c>
       <c r="G1556" t="s">
-        <v>1036</v>
+        <v>1037</v>
       </c>
       <c r="H1556" t="s">
         <v>9</v>
@@ -45246,7 +45249,7 @@
         <v>35.5499992370605</v>
       </c>
       <c r="G1557" t="s">
-        <v>1037</v>
+        <v>1038</v>
       </c>
       <c r="H1557" t="s">
         <v>9</v>
@@ -45272,7 +45275,7 @@
         <v>36.4500007629395</v>
       </c>
       <c r="G1558" t="s">
-        <v>1038</v>
+        <v>1039</v>
       </c>
       <c r="H1558" t="s">
         <v>9</v>
@@ -45324,7 +45327,7 @@
         <v>37.4000015258789</v>
       </c>
       <c r="G1560" t="s">
-        <v>1039</v>
+        <v>1040</v>
       </c>
       <c r="H1560" t="s">
         <v>9</v>
@@ -45350,7 +45353,7 @@
         <v>37.5</v>
       </c>
       <c r="G1561" t="s">
-        <v>1040</v>
+        <v>1041</v>
       </c>
       <c r="H1561" t="s">
         <v>9</v>
@@ -45376,7 +45379,7 @@
         <v>36.9500007629395</v>
       </c>
       <c r="G1562" t="s">
-        <v>1041</v>
+        <v>1042</v>
       </c>
       <c r="H1562" t="s">
         <v>9</v>
@@ -45402,7 +45405,7 @@
         <v>37</v>
       </c>
       <c r="G1563" t="s">
-        <v>1042</v>
+        <v>1043</v>
       </c>
       <c r="H1563" t="s">
         <v>9</v>
@@ -45428,7 +45431,7 @@
         <v>36.2999992370605</v>
       </c>
       <c r="G1564" t="s">
-        <v>1043</v>
+        <v>1044</v>
       </c>
       <c r="H1564" t="s">
         <v>9</v>
@@ -45454,7 +45457,7 @@
         <v>35.3499984741211</v>
       </c>
       <c r="G1565" t="s">
-        <v>1044</v>
+        <v>1045</v>
       </c>
       <c r="H1565" t="s">
         <v>9</v>
@@ -45480,7 +45483,7 @@
         <v>36.2999992370605</v>
       </c>
       <c r="G1566" t="s">
-        <v>1043</v>
+        <v>1044</v>
       </c>
       <c r="H1566" t="s">
         <v>9</v>
@@ -45506,7 +45509,7 @@
         <v>37.25</v>
       </c>
       <c r="G1567" t="s">
-        <v>1045</v>
+        <v>1046</v>
       </c>
       <c r="H1567" t="s">
         <v>9</v>
@@ -45532,7 +45535,7 @@
         <v>36.2000007629395</v>
       </c>
       <c r="G1568" t="s">
-        <v>1046</v>
+        <v>1047</v>
       </c>
       <c r="H1568" t="s">
         <v>9</v>
@@ -45558,7 +45561,7 @@
         <v>37</v>
       </c>
       <c r="G1569" t="s">
-        <v>1042</v>
+        <v>1043</v>
       </c>
       <c r="H1569" t="s">
         <v>9</v>
@@ -45584,7 +45587,7 @@
         <v>34.75</v>
       </c>
       <c r="G1570" t="s">
-        <v>1047</v>
+        <v>1048</v>
       </c>
       <c r="H1570" t="s">
         <v>9</v>
@@ -45610,7 +45613,7 @@
         <v>32.9000015258789</v>
       </c>
       <c r="G1571" t="s">
-        <v>1048</v>
+        <v>1049</v>
       </c>
       <c r="H1571" t="s">
         <v>9</v>
@@ -45636,7 +45639,7 @@
         <v>32.25</v>
       </c>
       <c r="G1572" t="s">
-        <v>1049</v>
+        <v>1050</v>
       </c>
       <c r="H1572" t="s">
         <v>9</v>
@@ -45662,7 +45665,7 @@
         <v>32.4000015258789</v>
       </c>
       <c r="G1573" t="s">
-        <v>1050</v>
+        <v>1051</v>
       </c>
       <c r="H1573" t="s">
         <v>9</v>
@@ -45688,7 +45691,7 @@
         <v>33.7999992370605</v>
       </c>
       <c r="G1574" t="s">
-        <v>1051</v>
+        <v>1052</v>
       </c>
       <c r="H1574" t="s">
         <v>9</v>
@@ -45714,7 +45717,7 @@
         <v>33.1500015258789</v>
       </c>
       <c r="G1575" t="s">
-        <v>1052</v>
+        <v>1053</v>
       </c>
       <c r="H1575" t="s">
         <v>9</v>
@@ -45740,7 +45743,7 @@
         <v>34.25</v>
       </c>
       <c r="G1576" t="s">
-        <v>1053</v>
+        <v>1054</v>
       </c>
       <c r="H1576" t="s">
         <v>9</v>
@@ -45766,7 +45769,7 @@
         <v>35.5999984741211</v>
       </c>
       <c r="G1577" t="s">
-        <v>1054</v>
+        <v>1055</v>
       </c>
       <c r="H1577" t="s">
         <v>9</v>
@@ -45792,7 +45795,7 @@
         <v>35.4000015258789</v>
       </c>
       <c r="G1578" t="s">
-        <v>1055</v>
+        <v>1056</v>
       </c>
       <c r="H1578" t="s">
         <v>9</v>
@@ -45818,7 +45821,7 @@
         <v>36.1500015258789</v>
       </c>
       <c r="G1579" t="s">
-        <v>1056</v>
+        <v>1057</v>
       </c>
       <c r="H1579" t="s">
         <v>9</v>
@@ -45844,7 +45847,7 @@
         <v>32.7999992370605</v>
       </c>
       <c r="G1580" t="s">
-        <v>1057</v>
+        <v>1058</v>
       </c>
       <c r="H1580" t="s">
         <v>9</v>
@@ -45870,7 +45873,7 @@
         <v>32.1500015258789</v>
       </c>
       <c r="G1581" t="s">
-        <v>1058</v>
+        <v>1059</v>
       </c>
       <c r="H1581" t="s">
         <v>9</v>
@@ -45896,7 +45899,7 @@
         <v>34.4000015258789</v>
       </c>
       <c r="G1582" t="s">
-        <v>1059</v>
+        <v>1060</v>
       </c>
       <c r="H1582" t="s">
         <v>9</v>
@@ -45922,7 +45925,7 @@
         <v>33.75</v>
       </c>
       <c r="G1583" t="s">
-        <v>1060</v>
+        <v>1061</v>
       </c>
       <c r="H1583" t="s">
         <v>9</v>
@@ -45948,7 +45951,7 @@
         <v>33.2999992370605</v>
       </c>
       <c r="G1584" t="s">
-        <v>1061</v>
+        <v>1062</v>
       </c>
       <c r="H1584" t="s">
         <v>9</v>
@@ -45974,7 +45977,7 @@
         <v>33.2000007629395</v>
       </c>
       <c r="G1585" t="s">
-        <v>1062</v>
+        <v>1063</v>
       </c>
       <c r="H1585" t="s">
         <v>9</v>
@@ -46000,7 +46003,7 @@
         <v>33.4000015258789</v>
       </c>
       <c r="G1586" t="s">
-        <v>1063</v>
+        <v>1064</v>
       </c>
       <c r="H1586" t="s">
         <v>9</v>
@@ -46026,7 +46029,7 @@
         <v>32.2000007629395</v>
       </c>
       <c r="G1587" t="s">
-        <v>1064</v>
+        <v>1065</v>
       </c>
       <c r="H1587" t="s">
         <v>9</v>
@@ -46052,7 +46055,7 @@
         <v>33.4500007629395</v>
       </c>
       <c r="G1588" t="s">
-        <v>1065</v>
+        <v>1066</v>
       </c>
       <c r="H1588" t="s">
         <v>9</v>
@@ -46078,7 +46081,7 @@
         <v>33.5499992370605</v>
       </c>
       <c r="G1589" t="s">
-        <v>1066</v>
+        <v>1067</v>
       </c>
       <c r="H1589" t="s">
         <v>9</v>
@@ -46104,7 +46107,7 @@
         <v>32.4000015258789</v>
       </c>
       <c r="G1590" t="s">
-        <v>1050</v>
+        <v>1051</v>
       </c>
       <c r="H1590" t="s">
         <v>9</v>
@@ -46130,7 +46133,7 @@
         <v>31.9599990844727</v>
       </c>
       <c r="G1591" t="s">
-        <v>1067</v>
+        <v>1068</v>
       </c>
       <c r="H1591" t="s">
         <v>9</v>
@@ -46156,7 +46159,7 @@
         <v>31.7600002288818</v>
       </c>
       <c r="G1592" t="s">
-        <v>1068</v>
+        <v>1069</v>
       </c>
       <c r="H1592" t="s">
         <v>9</v>
@@ -46182,7 +46185,7 @@
         <v>31.6399993896484</v>
       </c>
       <c r="G1593" t="s">
-        <v>1069</v>
+        <v>1070</v>
       </c>
       <c r="H1593" t="s">
         <v>9</v>
@@ -46208,7 +46211,7 @@
         <v>30.3600006103516</v>
       </c>
       <c r="G1594" t="s">
-        <v>1070</v>
+        <v>1071</v>
       </c>
       <c r="H1594" t="s">
         <v>9</v>
@@ -46234,7 +46237,7 @@
         <v>31.2000007629395</v>
       </c>
       <c r="G1595" t="s">
-        <v>1071</v>
+        <v>1072</v>
       </c>
       <c r="H1595" t="s">
         <v>9</v>
@@ -46260,7 +46263,7 @@
         <v>33</v>
       </c>
       <c r="G1596" t="s">
-        <v>1072</v>
+        <v>1073</v>
       </c>
       <c r="H1596" t="s">
         <v>9</v>
@@ -46286,7 +46289,7 @@
         <v>32.8400001525879</v>
       </c>
       <c r="G1597" t="s">
-        <v>1073</v>
+        <v>1074</v>
       </c>
       <c r="H1597" t="s">
         <v>9</v>
@@ -46312,7 +46315,7 @@
         <v>32.7000007629395</v>
       </c>
       <c r="G1598" t="s">
-        <v>1074</v>
+        <v>1075</v>
       </c>
       <c r="H1598" t="s">
         <v>9</v>
@@ -46338,7 +46341,7 @@
         <v>32.0800018310547</v>
       </c>
       <c r="G1599" t="s">
-        <v>1075</v>
+        <v>1076</v>
       </c>
       <c r="H1599" t="s">
         <v>9</v>
@@ -46364,7 +46367,7 @@
         <v>32.939998626709</v>
       </c>
       <c r="G1600" t="s">
-        <v>1076</v>
+        <v>1077</v>
       </c>
       <c r="H1600" t="s">
         <v>9</v>
@@ -46390,7 +46393,7 @@
         <v>32.1399993896484</v>
       </c>
       <c r="G1601" t="s">
-        <v>1077</v>
+        <v>1078</v>
       </c>
       <c r="H1601" t="s">
         <v>9</v>
@@ -46416,7 +46419,7 @@
         <v>32.4199981689453</v>
       </c>
       <c r="G1602" t="s">
-        <v>1078</v>
+        <v>1079</v>
       </c>
       <c r="H1602" t="s">
         <v>9</v>
@@ -46442,7 +46445,7 @@
         <v>31.7600002288818</v>
       </c>
       <c r="G1603" t="s">
-        <v>1068</v>
+        <v>1069</v>
       </c>
       <c r="H1603" t="s">
         <v>9</v>
@@ -46468,7 +46471,7 @@
         <v>30.6000003814697</v>
       </c>
       <c r="G1604" t="s">
-        <v>1079</v>
+        <v>1080</v>
       </c>
       <c r="H1604" t="s">
         <v>9</v>
@@ -46494,7 +46497,7 @@
         <v>30.6800003051758</v>
       </c>
       <c r="G1605" t="s">
-        <v>1080</v>
+        <v>1081</v>
       </c>
       <c r="H1605" t="s">
         <v>9</v>
@@ -46520,7 +46523,7 @@
         <v>29.0599994659424</v>
       </c>
       <c r="G1606" t="s">
-        <v>1081</v>
+        <v>1082</v>
       </c>
       <c r="H1606" t="s">
         <v>9</v>
@@ -46546,7 +46549,7 @@
         <v>29.1800003051758</v>
       </c>
       <c r="G1607" t="s">
-        <v>1082</v>
+        <v>1083</v>
       </c>
       <c r="H1607" t="s">
         <v>9</v>
@@ -46572,7 +46575,7 @@
         <v>29.8999996185303</v>
       </c>
       <c r="G1608" t="s">
-        <v>1083</v>
+        <v>1084</v>
       </c>
       <c r="H1608" t="s">
         <v>9</v>
@@ -46598,7 +46601,7 @@
         <v>29.1800003051758</v>
       </c>
       <c r="G1609" t="s">
-        <v>1082</v>
+        <v>1083</v>
       </c>
       <c r="H1609" t="s">
         <v>9</v>
@@ -46624,7 +46627,7 @@
         <v>29.5599994659424</v>
       </c>
       <c r="G1610" t="s">
-        <v>1084</v>
+        <v>1085</v>
       </c>
       <c r="H1610" t="s">
         <v>9</v>
@@ -46650,7 +46653,7 @@
         <v>29.6200008392334</v>
       </c>
       <c r="G1611" t="s">
-        <v>1085</v>
+        <v>1086</v>
       </c>
       <c r="H1611" t="s">
         <v>9</v>
@@ -46676,7 +46679,7 @@
         <v>29.7800006866455</v>
       </c>
       <c r="G1612" t="s">
-        <v>1086</v>
+        <v>1087</v>
       </c>
       <c r="H1612" t="s">
         <v>9</v>
@@ -46702,7 +46705,7 @@
         <v>28.9799995422363</v>
       </c>
       <c r="G1613" t="s">
-        <v>1087</v>
+        <v>1088</v>
       </c>
       <c r="H1613" t="s">
         <v>9</v>
@@ -46728,7 +46731,7 @@
         <v>29.1000003814697</v>
       </c>
       <c r="G1614" t="s">
-        <v>1088</v>
+        <v>1089</v>
       </c>
       <c r="H1614" t="s">
         <v>9</v>
@@ -46754,7 +46757,7 @@
         <v>27.6599998474121</v>
       </c>
       <c r="G1615" t="s">
-        <v>1089</v>
+        <v>1090</v>
       </c>
       <c r="H1615" t="s">
         <v>9</v>
@@ -46780,7 +46783,7 @@
         <v>29</v>
       </c>
       <c r="G1616" t="s">
-        <v>1090</v>
+        <v>1091</v>
       </c>
       <c r="H1616" t="s">
         <v>9</v>
@@ -46806,7 +46809,7 @@
         <v>29.2800006866455</v>
       </c>
       <c r="G1617" t="s">
-        <v>1091</v>
+        <v>1092</v>
       </c>
       <c r="H1617" t="s">
         <v>9</v>
@@ -46832,7 +46835,7 @@
         <v>28.8999996185303</v>
       </c>
       <c r="G1618" t="s">
-        <v>1092</v>
+        <v>1093</v>
       </c>
       <c r="H1618" t="s">
         <v>9</v>
@@ -46858,7 +46861,7 @@
         <v>29.2399997711182</v>
       </c>
       <c r="G1619" t="s">
-        <v>1093</v>
+        <v>1094</v>
       </c>
       <c r="H1619" t="s">
         <v>9</v>
@@ -46884,7 +46887,7 @@
         <v>28.4599990844727</v>
       </c>
       <c r="G1620" t="s">
-        <v>1094</v>
+        <v>1095</v>
       </c>
       <c r="H1620" t="s">
         <v>9</v>
@@ -46910,7 +46913,7 @@
         <v>27.1599998474121</v>
       </c>
       <c r="G1621" t="s">
-        <v>1095</v>
+        <v>1096</v>
       </c>
       <c r="H1621" t="s">
         <v>9</v>
@@ -46936,7 +46939,7 @@
         <v>26.8600006103516</v>
       </c>
       <c r="G1622" t="s">
-        <v>1096</v>
+        <v>1097</v>
       </c>
       <c r="H1622" t="s">
         <v>9</v>
@@ -46962,7 +46965,7 @@
         <v>26.9400005340576</v>
       </c>
       <c r="G1623" t="s">
-        <v>1097</v>
+        <v>1098</v>
       </c>
       <c r="H1623" t="s">
         <v>9</v>
@@ -46988,7 +46991,7 @@
         <v>27.1399993896484</v>
       </c>
       <c r="G1624" t="s">
-        <v>1098</v>
+        <v>1099</v>
       </c>
       <c r="H1624" t="s">
         <v>9</v>
@@ -47014,7 +47017,7 @@
         <v>27.7999992370605</v>
       </c>
       <c r="G1625" t="s">
-        <v>1099</v>
+        <v>1100</v>
       </c>
       <c r="H1625" t="s">
         <v>9</v>
@@ -47040,7 +47043,7 @@
         <v>26.7399997711182</v>
       </c>
       <c r="G1626" t="s">
-        <v>1100</v>
+        <v>1101</v>
       </c>
       <c r="H1626" t="s">
         <v>9</v>
@@ -47066,7 +47069,7 @@
         <v>27</v>
       </c>
       <c r="G1627" t="s">
-        <v>1101</v>
+        <v>1102</v>
       </c>
       <c r="H1627" t="s">
         <v>9</v>
@@ -47092,7 +47095,7 @@
         <v>27.5200004577637</v>
       </c>
       <c r="G1628" t="s">
-        <v>1102</v>
+        <v>1103</v>
       </c>
       <c r="H1628" t="s">
         <v>9</v>
@@ -47118,7 +47121,7 @@
         <v>28.3400001525879</v>
       </c>
       <c r="G1629" t="s">
-        <v>1103</v>
+        <v>1104</v>
       </c>
       <c r="H1629" t="s">
         <v>9</v>
@@ -47144,7 +47147,7 @@
         <v>28.6800003051758</v>
       </c>
       <c r="G1630" t="s">
-        <v>1104</v>
+        <v>1105</v>
       </c>
       <c r="H1630" t="s">
         <v>9</v>
@@ -47170,7 +47173,7 @@
         <v>28.6000003814697</v>
       </c>
       <c r="G1631" t="s">
-        <v>1105</v>
+        <v>1106</v>
       </c>
       <c r="H1631" t="s">
         <v>9</v>
@@ -47196,7 +47199,7 @@
         <v>28.0400009155273</v>
       </c>
       <c r="G1632" t="s">
-        <v>1106</v>
+        <v>1107</v>
       </c>
       <c r="H1632" t="s">
         <v>9</v>
@@ -47222,7 +47225,7 @@
         <v>28.2199993133545</v>
       </c>
       <c r="G1633" t="s">
-        <v>1107</v>
+        <v>1108</v>
       </c>
       <c r="H1633" t="s">
         <v>9</v>
@@ -47248,7 +47251,7 @@
         <v>28.7000007629395</v>
       </c>
       <c r="G1634" t="s">
-        <v>1108</v>
+        <v>1109</v>
       </c>
       <c r="H1634" t="s">
         <v>9</v>
@@ -47274,7 +47277,7 @@
         <v>29.2999992370605</v>
       </c>
       <c r="G1635" t="s">
-        <v>1109</v>
+        <v>1110</v>
       </c>
       <c r="H1635" t="s">
         <v>9</v>
@@ -47300,7 +47303,7 @@
         <v>29.3999996185303</v>
       </c>
       <c r="G1636" t="s">
-        <v>1110</v>
+        <v>1111</v>
       </c>
       <c r="H1636" t="s">
         <v>9</v>
@@ -47326,7 +47329,7 @@
         <v>29.8400001525879</v>
       </c>
       <c r="G1637" t="s">
-        <v>1111</v>
+        <v>1112</v>
       </c>
       <c r="H1637" t="s">
         <v>9</v>
@@ -47352,7 +47355,7 @@
         <v>29.4200000762939</v>
       </c>
       <c r="G1638" t="s">
-        <v>1112</v>
+        <v>1113</v>
       </c>
       <c r="H1638" t="s">
         <v>9</v>
@@ -47378,7 +47381,7 @@
         <v>27.2600002288818</v>
       </c>
       <c r="G1639" t="s">
-        <v>1113</v>
+        <v>1114</v>
       </c>
       <c r="H1639" t="s">
         <v>9</v>
@@ -47404,7 +47407,7 @@
         <v>25.2399997711182</v>
       </c>
       <c r="G1640" t="s">
-        <v>1114</v>
+        <v>1115</v>
       </c>
       <c r="H1640" t="s">
         <v>9</v>
@@ -47430,7 +47433,7 @@
         <v>25.2600002288818</v>
       </c>
       <c r="G1641" t="s">
-        <v>1115</v>
+        <v>1116</v>
       </c>
       <c r="H1641" t="s">
         <v>9</v>
@@ -47456,7 +47459,7 @@
         <v>25.8999996185303</v>
       </c>
       <c r="G1642" t="s">
-        <v>1116</v>
+        <v>1117</v>
       </c>
       <c r="H1642" t="s">
         <v>9</v>
@@ -47482,7 +47485,7 @@
         <v>24.7000007629395</v>
       </c>
       <c r="G1643" t="s">
-        <v>1117</v>
+        <v>1118</v>
       </c>
       <c r="H1643" t="s">
         <v>9</v>
@@ -47508,7 +47511,7 @@
         <v>25.6800003051758</v>
       </c>
       <c r="G1644" t="s">
-        <v>1118</v>
+        <v>1119</v>
       </c>
       <c r="H1644" t="s">
         <v>9</v>
@@ -47534,7 +47537,7 @@
         <v>25.8600006103516</v>
       </c>
       <c r="G1645" t="s">
-        <v>1119</v>
+        <v>1120</v>
       </c>
       <c r="H1645" t="s">
         <v>9</v>
@@ -47560,7 +47563,7 @@
         <v>25.7199993133545</v>
       </c>
       <c r="G1646" t="s">
-        <v>1120</v>
+        <v>1121</v>
       </c>
       <c r="H1646" t="s">
         <v>9</v>
@@ -47586,7 +47589,7 @@
         <v>25.0599994659424</v>
       </c>
       <c r="G1647" t="s">
-        <v>1121</v>
+        <v>1122</v>
       </c>
       <c r="H1647" t="s">
         <v>9</v>
@@ -47612,7 +47615,7 @@
         <v>25.0599994659424</v>
       </c>
       <c r="G1648" t="s">
-        <v>1121</v>
+        <v>1122</v>
       </c>
       <c r="H1648" t="s">
         <v>9</v>
@@ -47638,7 +47641,7 @@
         <v>25.5400009155273</v>
       </c>
       <c r="G1649" t="s">
-        <v>1122</v>
+        <v>1123</v>
       </c>
       <c r="H1649" t="s">
         <v>9</v>
@@ -47664,7 +47667,7 @@
         <v>25.6200008392334</v>
       </c>
       <c r="G1650" t="s">
-        <v>1123</v>
+        <v>1124</v>
       </c>
       <c r="H1650" t="s">
         <v>9</v>
@@ -47690,7 +47693,7 @@
         <v>25.2399997711182</v>
       </c>
       <c r="G1651" t="s">
-        <v>1114</v>
+        <v>1115</v>
       </c>
       <c r="H1651" t="s">
         <v>9</v>
@@ -47716,7 +47719,7 @@
         <v>24.7800006866455</v>
       </c>
       <c r="G1652" t="s">
-        <v>1124</v>
+        <v>1125</v>
       </c>
       <c r="H1652" t="s">
         <v>9</v>
@@ -47742,7 +47745,7 @@
         <v>24.1200008392334</v>
       </c>
       <c r="G1653" t="s">
-        <v>1125</v>
+        <v>1126</v>
       </c>
       <c r="H1653" t="s">
         <v>9</v>
@@ -47768,7 +47771,7 @@
         <v>24.4799995422363</v>
       </c>
       <c r="G1654" t="s">
-        <v>1126</v>
+        <v>1127</v>
       </c>
       <c r="H1654" t="s">
         <v>9</v>
@@ -47794,7 +47797,7 @@
         <v>24.0799999237061</v>
       </c>
       <c r="G1655" t="s">
-        <v>1127</v>
+        <v>1128</v>
       </c>
       <c r="H1655" t="s">
         <v>9</v>
@@ -47820,7 +47823,7 @@
         <v>23.2800006866455</v>
       </c>
       <c r="G1656" t="s">
-        <v>1128</v>
+        <v>1129</v>
       </c>
       <c r="H1656" t="s">
         <v>9</v>
@@ -47846,7 +47849,7 @@
         <v>23.7800006866455</v>
       </c>
       <c r="G1657" t="s">
-        <v>1129</v>
+        <v>1130</v>
       </c>
       <c r="H1657" t="s">
         <v>9</v>
@@ -47872,7 +47875,7 @@
         <v>24.4400005340576</v>
       </c>
       <c r="G1658" t="s">
-        <v>1130</v>
+        <v>1131</v>
       </c>
       <c r="H1658" t="s">
         <v>9</v>
@@ -47898,7 +47901,7 @@
         <v>23.8400001525879</v>
       </c>
       <c r="G1659" t="s">
-        <v>1131</v>
+        <v>1132</v>
       </c>
       <c r="H1659" t="s">
         <v>9</v>
@@ -47924,7 +47927,7 @@
         <v>23.4200000762939</v>
       </c>
       <c r="G1660" t="s">
-        <v>1132</v>
+        <v>1133</v>
       </c>
       <c r="H1660" t="s">
         <v>9</v>
@@ -47950,7 +47953,7 @@
         <v>23.1399993896484</v>
       </c>
       <c r="G1661" t="s">
-        <v>1133</v>
+        <v>1134</v>
       </c>
       <c r="H1661" t="s">
         <v>9</v>
@@ -47976,7 +47979,7 @@
         <v>22.6399993896484</v>
       </c>
       <c r="G1662" t="s">
-        <v>1134</v>
+        <v>1135</v>
       </c>
       <c r="H1662" t="s">
         <v>9</v>
@@ -48002,7 +48005,7 @@
         <v>21.7800006866455</v>
       </c>
       <c r="G1663" t="s">
-        <v>1135</v>
+        <v>1136</v>
       </c>
       <c r="H1663" t="s">
         <v>9</v>
@@ -48028,7 +48031,7 @@
         <v>23.0400009155273</v>
       </c>
       <c r="G1664" t="s">
-        <v>1136</v>
+        <v>1137</v>
       </c>
       <c r="H1664" t="s">
         <v>9</v>
@@ -48054,7 +48057,7 @@
         <v>23.1800003051758</v>
       </c>
       <c r="G1665" t="s">
-        <v>1137</v>
+        <v>1138</v>
       </c>
       <c r="H1665" t="s">
         <v>9</v>
@@ -48080,7 +48083,7 @@
         <v>24.6599998474121</v>
       </c>
       <c r="G1666" t="s">
-        <v>1138</v>
+        <v>1139</v>
       </c>
       <c r="H1666" t="s">
         <v>9</v>
@@ -48106,7 +48109,7 @@
         <v>23.9400005340576</v>
       </c>
       <c r="G1667" t="s">
-        <v>1139</v>
+        <v>1140</v>
       </c>
       <c r="H1667" t="s">
         <v>9</v>
@@ -48132,7 +48135,7 @@
         <v>24.7000007629395</v>
       </c>
       <c r="G1668" t="s">
-        <v>1117</v>
+        <v>1118</v>
       </c>
       <c r="H1668" t="s">
         <v>9</v>
@@ -48158,7 +48161,7 @@
         <v>24.6599998474121</v>
       </c>
       <c r="G1669" t="s">
-        <v>1138</v>
+        <v>1139</v>
       </c>
       <c r="H1669" t="s">
         <v>9</v>
@@ -48184,7 +48187,7 @@
         <v>24.9799995422363</v>
       </c>
       <c r="G1670" t="s">
-        <v>1140</v>
+        <v>1141</v>
       </c>
       <c r="H1670" t="s">
         <v>9</v>
@@ -48210,7 +48213,7 @@
         <v>24.8400001525879</v>
       </c>
       <c r="G1671" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
       <c r="H1671" t="s">
         <v>9</v>
@@ -48236,7 +48239,7 @@
         <v>24.4799995422363</v>
       </c>
       <c r="G1672" t="s">
-        <v>1126</v>
+        <v>1127</v>
       </c>
       <c r="H1672" t="s">
         <v>9</v>
@@ -48262,7 +48265,7 @@
         <v>25.4400005340576</v>
       </c>
       <c r="G1673" t="s">
-        <v>1142</v>
+        <v>1143</v>
       </c>
       <c r="H1673" t="s">
         <v>9</v>
@@ -48288,7 +48291,7 @@
         <v>26.1800003051758</v>
       </c>
       <c r="G1674" t="s">
-        <v>1143</v>
+        <v>1144</v>
       </c>
       <c r="H1674" t="s">
         <v>9</v>
@@ -48314,7 +48317,7 @@
         <v>26.0799999237061</v>
       </c>
       <c r="G1675" t="s">
-        <v>1144</v>
+        <v>1145</v>
       </c>
       <c r="H1675" t="s">
         <v>9</v>
@@ -48340,7 +48343,7 @@
         <v>25.4400005340576</v>
       </c>
       <c r="G1676" t="s">
-        <v>1142</v>
+        <v>1143</v>
       </c>
       <c r="H1676" t="s">
         <v>9</v>
@@ -48366,7 +48369,7 @@
         <v>26.3400001525879</v>
       </c>
       <c r="G1677" t="s">
-        <v>1145</v>
+        <v>1146</v>
       </c>
       <c r="H1677" t="s">
         <v>9</v>
@@ -48392,7 +48395,7 @@
         <v>26.4200000762939</v>
       </c>
       <c r="G1678" t="s">
-        <v>1146</v>
+        <v>1147</v>
       </c>
       <c r="H1678" t="s">
         <v>9</v>
@@ -48418,7 +48421,7 @@
         <v>25.6399993896484</v>
       </c>
       <c r="G1679" t="s">
-        <v>1147</v>
+        <v>1148</v>
       </c>
       <c r="H1679" t="s">
         <v>9</v>
@@ -48444,7 +48447,7 @@
         <v>25.3799991607666</v>
       </c>
       <c r="G1680" t="s">
-        <v>1148</v>
+        <v>1149</v>
       </c>
       <c r="H1680" t="s">
         <v>9</v>
@@ -48470,7 +48473,7 @@
         <v>24.8400001525879</v>
       </c>
       <c r="G1681" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
       <c r="H1681" t="s">
         <v>9</v>
@@ -48496,7 +48499,7 @@
         <v>25.8199996948242</v>
       </c>
       <c r="G1682" t="s">
-        <v>1149</v>
+        <v>1150</v>
       </c>
       <c r="H1682" t="s">
         <v>9</v>
@@ -48522,7 +48525,7 @@
         <v>26.2999992370605</v>
       </c>
       <c r="G1683" t="s">
-        <v>1150</v>
+        <v>1151</v>
       </c>
       <c r="H1683" t="s">
         <v>9</v>
@@ -48548,7 +48551,7 @@
         <v>26.3999996185303</v>
       </c>
       <c r="G1684" t="s">
-        <v>1151</v>
+        <v>1152</v>
       </c>
       <c r="H1684" t="s">
         <v>9</v>
@@ -48574,7 +48577,7 @@
         <v>26.1399993896484</v>
       </c>
       <c r="G1685" t="s">
-        <v>1152</v>
+        <v>1153</v>
       </c>
       <c r="H1685" t="s">
         <v>9</v>
@@ -48600,7 +48603,7 @@
         <v>25.7399997711182</v>
       </c>
       <c r="G1686" t="s">
-        <v>1153</v>
+        <v>1154</v>
       </c>
       <c r="H1686" t="s">
         <v>9</v>
@@ -48626,7 +48629,7 @@
         <v>25.6399993896484</v>
       </c>
       <c r="G1687" t="s">
-        <v>1147</v>
+        <v>1148</v>
       </c>
       <c r="H1687" t="s">
         <v>9</v>
@@ -48652,7 +48655,7 @@
         <v>24.7600002288818</v>
       </c>
       <c r="G1688" t="s">
-        <v>1154</v>
+        <v>1155</v>
       </c>
       <c r="H1688" t="s">
         <v>9</v>
@@ -48678,7 +48681,7 @@
         <v>24.2600002288818</v>
       </c>
       <c r="G1689" t="s">
-        <v>1155</v>
+        <v>1156</v>
       </c>
       <c r="H1689" t="s">
         <v>9</v>
@@ -48704,7 +48707,7 @@
         <v>24.2600002288818</v>
       </c>
       <c r="G1690" t="s">
-        <v>1155</v>
+        <v>1156</v>
       </c>
       <c r="H1690" t="s">
         <v>9</v>
@@ -48730,7 +48733,7 @@
         <v>24.4599990844727</v>
       </c>
       <c r="G1691" t="s">
-        <v>1156</v>
+        <v>1157</v>
       </c>
       <c r="H1691" t="s">
         <v>9</v>
@@ -48756,7 +48759,7 @@
         <v>24.3600006103516</v>
       </c>
       <c r="G1692" t="s">
-        <v>1157</v>
+        <v>1158</v>
       </c>
       <c r="H1692" t="s">
         <v>9</v>
@@ -48782,7 +48785,7 @@
         <v>23.9200000762939</v>
       </c>
       <c r="G1693" t="s">
-        <v>1158</v>
+        <v>1159</v>
       </c>
       <c r="H1693" t="s">
         <v>9</v>
@@ -48808,7 +48811,7 @@
         <v>24.5599994659424</v>
       </c>
       <c r="G1694" t="s">
-        <v>1159</v>
+        <v>1160</v>
       </c>
       <c r="H1694" t="s">
         <v>9</v>
@@ -48834,7 +48837,7 @@
         <v>24.5</v>
       </c>
       <c r="G1695" t="s">
-        <v>1160</v>
+        <v>1161</v>
       </c>
       <c r="H1695" t="s">
         <v>9</v>
@@ -48860,7 +48863,7 @@
         <v>24.6000003814697</v>
       </c>
       <c r="G1696" t="s">
-        <v>1161</v>
+        <v>1162</v>
       </c>
       <c r="H1696" t="s">
         <v>9</v>
@@ -48886,7 +48889,7 @@
         <v>23.8600006103516</v>
       </c>
       <c r="G1697" t="s">
-        <v>1162</v>
+        <v>1163</v>
       </c>
       <c r="H1697" t="s">
         <v>9</v>
@@ -48912,7 +48915,7 @@
         <v>24.7399997711182</v>
       </c>
       <c r="G1698" t="s">
-        <v>1163</v>
+        <v>1164</v>
       </c>
       <c r="H1698" t="s">
         <v>9</v>
@@ -48938,7 +48941,7 @@
         <v>24.1000003814697</v>
       </c>
       <c r="G1699" t="s">
-        <v>1164</v>
+        <v>1165</v>
       </c>
       <c r="H1699" t="s">
         <v>9</v>
@@ -48964,7 +48967,7 @@
         <v>24.3600006103516</v>
       </c>
       <c r="G1700" t="s">
-        <v>1157</v>
+        <v>1158</v>
       </c>
       <c r="H1700" t="s">
         <v>9</v>
@@ -48990,7 +48993,7 @@
         <v>24.1800003051758</v>
       </c>
       <c r="G1701" t="s">
-        <v>1165</v>
+        <v>1166</v>
       </c>
       <c r="H1701" t="s">
         <v>9</v>
@@ -49016,7 +49019,7 @@
         <v>24.0200004577637</v>
       </c>
       <c r="G1702" t="s">
-        <v>1166</v>
+        <v>1167</v>
       </c>
       <c r="H1702" t="s">
         <v>9</v>
@@ -49042,7 +49045,7 @@
         <v>24.7399997711182</v>
       </c>
       <c r="G1703" t="s">
-        <v>1163</v>
+        <v>1164</v>
       </c>
       <c r="H1703" t="s">
         <v>9</v>
@@ -49068,7 +49071,7 @@
         <v>25.1200008392334</v>
       </c>
       <c r="G1704" t="s">
-        <v>1167</v>
+        <v>1168</v>
       </c>
       <c r="H1704" t="s">
         <v>9</v>
@@ -49094,7 +49097,7 @@
         <v>25.2000007629395</v>
       </c>
       <c r="G1705" t="s">
-        <v>1168</v>
+        <v>1169</v>
       </c>
       <c r="H1705" t="s">
         <v>9</v>
@@ -49120,7 +49123,7 @@
         <v>24.5400009155273</v>
       </c>
       <c r="G1706" t="s">
-        <v>1169</v>
+        <v>1170</v>
       </c>
       <c r="H1706" t="s">
         <v>9</v>
@@ -49146,7 +49149,7 @@
         <v>24</v>
       </c>
       <c r="G1707" t="s">
-        <v>1170</v>
+        <v>1171</v>
       </c>
       <c r="H1707" t="s">
         <v>9</v>
@@ -49172,7 +49175,7 @@
         <v>23.8600006103516</v>
       </c>
       <c r="G1708" t="s">
-        <v>1162</v>
+        <v>1163</v>
       </c>
       <c r="H1708" t="s">
         <v>9</v>
@@ -49198,7 +49201,7 @@
         <v>23.0599994659424</v>
       </c>
       <c r="G1709" t="s">
-        <v>1171</v>
+        <v>1172</v>
       </c>
       <c r="H1709" t="s">
         <v>9</v>
@@ -49224,7 +49227,7 @@
         <v>22.7800006866455</v>
       </c>
       <c r="G1710" t="s">
-        <v>1172</v>
+        <v>1173</v>
       </c>
       <c r="H1710" t="s">
         <v>9</v>
@@ -49250,7 +49253,7 @@
         <v>22.9400005340576</v>
       </c>
       <c r="G1711" t="s">
-        <v>1173</v>
+        <v>1174</v>
       </c>
       <c r="H1711" t="s">
         <v>9</v>
@@ -49276,7 +49279,7 @@
         <v>22.2600002288818</v>
       </c>
       <c r="G1712" t="s">
-        <v>1174</v>
+        <v>1175</v>
       </c>
       <c r="H1712" t="s">
         <v>9</v>
@@ -49302,7 +49305,7 @@
         <v>21.2800006866455</v>
       </c>
       <c r="G1713" t="s">
-        <v>1175</v>
+        <v>1176</v>
       </c>
       <c r="H1713" t="s">
         <v>9</v>
@@ -49328,7 +49331,7 @@
         <v>20.3199996948242</v>
       </c>
       <c r="G1714" t="s">
-        <v>1176</v>
+        <v>1177</v>
       </c>
       <c r="H1714" t="s">
         <v>9</v>
@@ -49354,7 +49357,7 @@
         <v>20.0599994659424</v>
       </c>
       <c r="G1715" t="s">
-        <v>1177</v>
+        <v>1178</v>
       </c>
       <c r="H1715" t="s">
         <v>9</v>
@@ -49380,7 +49383,7 @@
         <v>20.2600002288818</v>
       </c>
       <c r="G1716" t="s">
-        <v>1178</v>
+        <v>1179</v>
       </c>
       <c r="H1716" t="s">
         <v>9</v>
@@ -49406,7 +49409,7 @@
         <v>19.4599990844727</v>
       </c>
       <c r="G1717" t="s">
-        <v>1179</v>
+        <v>1180</v>
       </c>
       <c r="H1717" t="s">
         <v>9</v>
@@ -49432,7 +49435,7 @@
         <v>20.0799999237061</v>
       </c>
       <c r="G1718" t="s">
-        <v>1180</v>
+        <v>1181</v>
       </c>
       <c r="H1718" t="s">
         <v>9</v>
@@ -49458,7 +49461,7 @@
         <v>20.4400005340576</v>
       </c>
       <c r="G1719" t="s">
-        <v>1181</v>
+        <v>1182</v>
       </c>
       <c r="H1719" t="s">
         <v>9</v>
@@ -49484,7 +49487,7 @@
         <v>21.6599998474121</v>
       </c>
       <c r="G1720" t="s">
-        <v>1182</v>
+        <v>1183</v>
       </c>
       <c r="H1720" t="s">
         <v>9</v>
@@ -49510,7 +49513,7 @@
         <v>21.2000007629395</v>
       </c>
       <c r="G1721" t="s">
-        <v>1183</v>
+        <v>1184</v>
       </c>
       <c r="H1721" t="s">
         <v>9</v>
@@ -49536,7 +49539,7 @@
         <v>21.4599990844727</v>
       </c>
       <c r="G1722" t="s">
-        <v>1184</v>
+        <v>1185</v>
       </c>
       <c r="H1722" t="s">
         <v>9</v>
@@ -49562,7 +49565,7 @@
         <v>21.5</v>
       </c>
       <c r="G1723" t="s">
-        <v>1185</v>
+        <v>1186</v>
       </c>
       <c r="H1723" t="s">
         <v>9</v>
@@ -49588,7 +49591,7 @@
         <v>21.7999992370605</v>
       </c>
       <c r="G1724" t="s">
-        <v>1186</v>
+        <v>1187</v>
       </c>
       <c r="H1724" t="s">
         <v>9</v>
@@ -49614,7 +49617,7 @@
         <v>21.7800006866455</v>
       </c>
       <c r="G1725" t="s">
-        <v>1135</v>
+        <v>1136</v>
       </c>
       <c r="H1725" t="s">
         <v>9</v>
@@ -49640,7 +49643,7 @@
         <v>21.0599994659424</v>
       </c>
       <c r="G1726" t="s">
-        <v>1187</v>
+        <v>1188</v>
       </c>
       <c r="H1726" t="s">
         <v>9</v>
@@ -49666,7 +49669,7 @@
         <v>21.6000003814697</v>
       </c>
       <c r="G1727" t="s">
-        <v>1188</v>
+        <v>1189</v>
       </c>
       <c r="H1727" t="s">
         <v>9</v>
@@ -49692,7 +49695,7 @@
         <v>21.8199996948242</v>
       </c>
       <c r="G1728" t="s">
-        <v>1189</v>
+        <v>1190</v>
       </c>
       <c r="H1728" t="s">
         <v>9</v>
@@ -49718,7 +49721,7 @@
         <v>22.2199993133545</v>
       </c>
       <c r="G1729" t="s">
-        <v>1190</v>
+        <v>1191</v>
       </c>
       <c r="H1729" t="s">
         <v>9</v>
@@ -49744,7 +49747,7 @@
         <v>22.4200000762939</v>
       </c>
       <c r="G1730" t="s">
-        <v>1191</v>
+        <v>1192</v>
       </c>
       <c r="H1730" t="s">
         <v>9</v>
@@ -49770,7 +49773,7 @@
         <v>21.8799991607666</v>
       </c>
       <c r="G1731" t="s">
-        <v>1192</v>
+        <v>1193</v>
       </c>
       <c r="H1731" t="s">
         <v>9</v>
@@ -49796,7 +49799,7 @@
         <v>22.2600002288818</v>
       </c>
       <c r="G1732" t="s">
-        <v>1174</v>
+        <v>1175</v>
       </c>
       <c r="H1732" t="s">
         <v>9</v>
@@ -49822,7 +49825,7 @@
         <v>21.7800006866455</v>
       </c>
       <c r="G1733" t="s">
-        <v>1135</v>
+        <v>1136</v>
       </c>
       <c r="H1733" t="s">
         <v>9</v>
@@ -49848,7 +49851,7 @@
         <v>21.7199993133545</v>
       </c>
       <c r="G1734" t="s">
-        <v>1193</v>
+        <v>1194</v>
       </c>
       <c r="H1734" t="s">
         <v>9</v>
@@ -49874,7 +49877,7 @@
         <v>22.6399993896484</v>
       </c>
       <c r="G1735" t="s">
-        <v>1134</v>
+        <v>1135</v>
       </c>
       <c r="H1735" t="s">
         <v>9</v>
@@ -49900,7 +49903,7 @@
         <v>22.8999996185303</v>
       </c>
       <c r="G1736" t="s">
-        <v>1194</v>
+        <v>1195</v>
       </c>
       <c r="H1736" t="s">
         <v>9</v>
@@ -49926,7 +49929,7 @@
         <v>22.5400009155273</v>
       </c>
       <c r="G1737" t="s">
-        <v>1195</v>
+        <v>1196</v>
       </c>
       <c r="H1737" t="s">
         <v>9</v>
@@ -49952,7 +49955,7 @@
         <v>22.9400005340576</v>
       </c>
       <c r="G1738" t="s">
-        <v>1173</v>
+        <v>1174</v>
       </c>
       <c r="H1738" t="s">
         <v>9</v>
@@ -49978,7 +49981,7 @@
         <v>22.3999996185303</v>
       </c>
       <c r="G1739" t="s">
-        <v>1196</v>
+        <v>1197</v>
       </c>
       <c r="H1739" t="s">
         <v>9</v>
@@ -50004,7 +50007,7 @@
         <v>22.6599998474121</v>
       </c>
       <c r="G1740" t="s">
-        <v>1197</v>
+        <v>1198</v>
       </c>
       <c r="H1740" t="s">
         <v>9</v>
@@ -50030,7 +50033,7 @@
         <v>22</v>
       </c>
       <c r="G1741" t="s">
-        <v>1198</v>
+        <v>1199</v>
       </c>
       <c r="H1741" t="s">
         <v>9</v>
@@ -50056,7 +50059,7 @@
         <v>22.2800006866455</v>
       </c>
       <c r="G1742" t="s">
-        <v>1199</v>
+        <v>1200</v>
       </c>
       <c r="H1742" t="s">
         <v>9</v>
@@ -50082,7 +50085,7 @@
         <v>23.2999992370605</v>
       </c>
       <c r="G1743" t="s">
-        <v>1200</v>
+        <v>1201</v>
       </c>
       <c r="H1743" t="s">
         <v>9</v>
@@ -50108,7 +50111,7 @@
         <v>23.7000007629395</v>
       </c>
       <c r="G1744" t="s">
-        <v>1201</v>
+        <v>1202</v>
       </c>
       <c r="H1744" t="s">
         <v>9</v>
@@ -50134,7 +50137,7 @@
         <v>23.8999996185303</v>
       </c>
       <c r="G1745" t="s">
-        <v>1202</v>
+        <v>1203</v>
       </c>
       <c r="H1745" t="s">
         <v>9</v>
@@ -50160,7 +50163,7 @@
         <v>24.3799991607666</v>
       </c>
       <c r="G1746" t="s">
-        <v>1203</v>
+        <v>1204</v>
       </c>
       <c r="H1746" t="s">
         <v>9</v>
@@ -50186,7 +50189,7 @@
         <v>26</v>
       </c>
       <c r="G1747" t="s">
-        <v>1204</v>
+        <v>1205</v>
       </c>
       <c r="H1747" t="s">
         <v>9</v>
@@ -50212,7 +50215,7 @@
         <v>27.2999992370605</v>
       </c>
       <c r="G1748" t="s">
-        <v>1205</v>
+        <v>1206</v>
       </c>
       <c r="H1748" t="s">
         <v>9</v>
@@ -50238,7 +50241,7 @@
         <v>26.8999996185303</v>
       </c>
       <c r="G1749" t="s">
-        <v>1206</v>
+        <v>1207</v>
       </c>
       <c r="H1749" t="s">
         <v>9</v>
@@ -50264,7 +50267,7 @@
         <v>26.8199996948242</v>
       </c>
       <c r="G1750" t="s">
-        <v>1207</v>
+        <v>1208</v>
       </c>
       <c r="H1750" t="s">
         <v>9</v>
@@ -50290,7 +50293,7 @@
         <v>25.2399997711182</v>
       </c>
       <c r="G1751" t="s">
-        <v>1114</v>
+        <v>1115</v>
       </c>
       <c r="H1751" t="s">
         <v>9</v>
@@ -50316,7 +50319,7 @@
         <v>24.2600002288818</v>
       </c>
       <c r="G1752" t="s">
-        <v>1155</v>
+        <v>1156</v>
       </c>
       <c r="H1752" t="s">
         <v>9</v>
@@ -50342,7 +50345,7 @@
         <v>24.7399997711182</v>
       </c>
       <c r="G1753" t="s">
-        <v>1163</v>
+        <v>1164</v>
       </c>
       <c r="H1753" t="s">
         <v>9</v>
@@ -50368,7 +50371,7 @@
         <v>24.2199993133545</v>
       </c>
       <c r="G1754" t="s">
-        <v>1208</v>
+        <v>1209</v>
       </c>
       <c r="H1754" t="s">
         <v>9</v>
@@ -50394,7 +50397,7 @@
         <v>24.1200008392334</v>
       </c>
       <c r="G1755" t="s">
-        <v>1125</v>
+        <v>1126</v>
       </c>
       <c r="H1755" t="s">
         <v>9</v>
@@ -50420,7 +50423,7 @@
         <v>25.2999992370605</v>
       </c>
       <c r="G1756" t="s">
-        <v>1209</v>
+        <v>1210</v>
       </c>
       <c r="H1756" t="s">
         <v>9</v>
@@ -50446,7 +50449,7 @@
         <v>25.5</v>
       </c>
       <c r="G1757" t="s">
-        <v>1210</v>
+        <v>1211</v>
       </c>
       <c r="H1757" t="s">
         <v>9</v>
@@ -50472,7 +50475,7 @@
         <v>25.6800003051758</v>
       </c>
       <c r="G1758" t="s">
-        <v>1118</v>
+        <v>1119</v>
       </c>
       <c r="H1758" t="s">
         <v>9</v>
@@ -50498,7 +50501,7 @@
         <v>26.1399993896484</v>
       </c>
       <c r="G1759" t="s">
-        <v>1152</v>
+        <v>1153</v>
       </c>
       <c r="H1759" t="s">
         <v>9</v>
@@ -50524,7 +50527,7 @@
         <v>26.4599990844727</v>
       </c>
       <c r="G1760" t="s">
-        <v>1211</v>
+        <v>1212</v>
       </c>
       <c r="H1760" t="s">
         <v>9</v>
@@ -50550,7 +50553,7 @@
         <v>26.8600006103516</v>
       </c>
       <c r="G1761" t="s">
-        <v>1096</v>
+        <v>1097</v>
       </c>
       <c r="H1761" t="s">
         <v>9</v>
@@ -50576,7 +50579,7 @@
         <v>26.6800003051758</v>
       </c>
       <c r="G1762" t="s">
-        <v>1212</v>
+        <v>1213</v>
       </c>
       <c r="H1762" t="s">
         <v>9</v>
@@ -50602,7 +50605,7 @@
         <v>26.9599990844727</v>
       </c>
       <c r="G1763" t="s">
-        <v>1213</v>
+        <v>1214</v>
       </c>
       <c r="H1763" t="s">
         <v>9</v>
@@ -50628,7 +50631,7 @@
         <v>26.9799995422363</v>
       </c>
       <c r="G1764" t="s">
-        <v>1214</v>
+        <v>1215</v>
       </c>
       <c r="H1764" t="s">
         <v>9</v>
@@ -50654,7 +50657,7 @@
         <v>26</v>
       </c>
       <c r="G1765" t="s">
-        <v>1204</v>
+        <v>1205</v>
       </c>
       <c r="H1765" t="s">
         <v>9</v>
@@ -50680,7 +50683,7 @@
         <v>25</v>
       </c>
       <c r="G1766" t="s">
-        <v>1215</v>
+        <v>1216</v>
       </c>
       <c r="H1766" t="s">
         <v>9</v>
@@ -50706,7 +50709,7 @@
         <v>25.0599994659424</v>
       </c>
       <c r="G1767" t="s">
-        <v>1121</v>
+        <v>1122</v>
       </c>
       <c r="H1767" t="s">
         <v>9</v>
@@ -50732,7 +50735,7 @@
         <v>24.9599990844727</v>
       </c>
       <c r="G1768" t="s">
-        <v>1216</v>
+        <v>1217</v>
       </c>
       <c r="H1768" t="s">
         <v>9</v>
@@ -50758,7 +50761,7 @@
         <v>24.7600002288818</v>
       </c>
       <c r="G1769" t="s">
-        <v>1154</v>
+        <v>1155</v>
       </c>
       <c r="H1769" t="s">
         <v>9</v>
@@ -50784,7 +50787,7 @@
         <v>25.2199993133545</v>
       </c>
       <c r="G1770" t="s">
-        <v>1217</v>
+        <v>1218</v>
       </c>
       <c r="H1770" t="s">
         <v>9</v>
@@ -50810,7 +50813,7 @@
         <v>25.2399997711182</v>
       </c>
       <c r="G1771" t="s">
-        <v>1114</v>
+        <v>1115</v>
       </c>
       <c r="H1771" t="s">
         <v>9</v>
@@ -50836,7 +50839,7 @@
         <v>24.0599994659424</v>
       </c>
       <c r="G1772" t="s">
-        <v>1218</v>
+        <v>1219</v>
       </c>
       <c r="H1772" t="s">
         <v>9</v>
@@ -50862,7 +50865,7 @@
         <v>23.8999996185303</v>
       </c>
       <c r="G1773" t="s">
-        <v>1202</v>
+        <v>1203</v>
       </c>
       <c r="H1773" t="s">
         <v>9</v>
@@ -50888,7 +50891,7 @@
         <v>23.7000007629395</v>
       </c>
       <c r="G1774" t="s">
-        <v>1201</v>
+        <v>1202</v>
       </c>
       <c r="H1774" t="s">
         <v>9</v>
@@ -50914,7 +50917,7 @@
         <v>23.2000007629395</v>
       </c>
       <c r="G1775" t="s">
-        <v>1219</v>
+        <v>1220</v>
       </c>
       <c r="H1775" t="s">
         <v>9</v>
@@ -50940,7 +50943,7 @@
         <v>23.9400005340576</v>
       </c>
       <c r="G1776" t="s">
-        <v>1139</v>
+        <v>1140</v>
       </c>
       <c r="H1776" t="s">
         <v>9</v>
@@ -50966,7 +50969,7 @@
         <v>24.7399997711182</v>
       </c>
       <c r="G1777" t="s">
-        <v>1163</v>
+        <v>1164</v>
       </c>
       <c r="H1777" t="s">
         <v>9</v>
@@ -50992,7 +50995,7 @@
         <v>25.0400009155273</v>
       </c>
       <c r="G1778" t="s">
-        <v>1220</v>
+        <v>1221</v>
       </c>
       <c r="H1778" t="s">
         <v>9</v>
@@ -51018,7 +51021,7 @@
         <v>25.5200004577637</v>
       </c>
       <c r="G1779" t="s">
-        <v>1221</v>
+        <v>1222</v>
       </c>
       <c r="H1779" t="s">
         <v>9</v>
@@ -51044,7 +51047,7 @@
         <v>25.8999996185303</v>
       </c>
       <c r="G1780" t="s">
-        <v>1116</v>
+        <v>1117</v>
       </c>
       <c r="H1780" t="s">
         <v>9</v>
@@ -51070,7 +51073,7 @@
         <v>26.3799991607666</v>
       </c>
       <c r="G1781" t="s">
-        <v>1222</v>
+        <v>1223</v>
       </c>
       <c r="H1781" t="s">
         <v>9</v>
@@ -51096,7 +51099,7 @@
         <v>26.3199996948242</v>
       </c>
       <c r="G1782" t="s">
-        <v>1223</v>
+        <v>1224</v>
       </c>
       <c r="H1782" t="s">
         <v>9</v>
@@ -51122,7 +51125,7 @@
         <v>26.0400009155273</v>
       </c>
       <c r="G1783" t="s">
-        <v>1224</v>
+        <v>1225</v>
       </c>
       <c r="H1783" t="s">
         <v>9</v>
@@ -51148,7 +51151,7 @@
         <v>26.5200004577637</v>
       </c>
       <c r="G1784" t="s">
-        <v>1225</v>
+        <v>1226</v>
       </c>
       <c r="H1784" t="s">
         <v>9</v>
@@ -51174,7 +51177,7 @@
         <v>27.3400001525879</v>
       </c>
       <c r="G1785" t="s">
-        <v>1226</v>
+        <v>1227</v>
       </c>
       <c r="H1785" t="s">
         <v>9</v>
@@ -51200,7 +51203,7 @@
         <v>26.9599990844727</v>
       </c>
       <c r="G1786" t="s">
-        <v>1213</v>
+        <v>1214</v>
       </c>
       <c r="H1786" t="s">
         <v>9</v>
@@ -51226,7 +51229,7 @@
         <v>27.0599994659424</v>
       </c>
       <c r="G1787" t="s">
-        <v>1227</v>
+        <v>1228</v>
       </c>
       <c r="H1787" t="s">
         <v>9</v>
@@ -51252,7 +51255,7 @@
         <v>28.2999992370605</v>
       </c>
       <c r="G1788" t="s">
-        <v>1228</v>
+        <v>1229</v>
       </c>
       <c r="H1788" t="s">
         <v>9</v>
@@ -51278,7 +51281,7 @@
         <v>27.8600006103516</v>
       </c>
       <c r="G1789" t="s">
-        <v>1229</v>
+        <v>1230</v>
       </c>
       <c r="H1789" t="s">
         <v>9</v>
@@ -51304,7 +51307,7 @@
         <v>27.7600002288818</v>
       </c>
       <c r="G1790" t="s">
-        <v>1230</v>
+        <v>1231</v>
       </c>
       <c r="H1790" t="s">
         <v>9</v>
@@ -51330,7 +51333,7 @@
         <v>28.9799995422363</v>
       </c>
       <c r="G1791" t="s">
-        <v>1231</v>
+        <v>1232</v>
       </c>
       <c r="H1791" t="s">
         <v>9</v>
@@ -51356,7 +51359,7 @@
         <v>28.7000007629395</v>
       </c>
       <c r="G1792" t="s">
-        <v>1108</v>
+        <v>1109</v>
       </c>
       <c r="H1792" t="s">
         <v>9</v>
@@ -51382,7 +51385,7 @@
         <v>29.0599994659424</v>
       </c>
       <c r="G1793" t="s">
-        <v>1232</v>
+        <v>1233</v>
       </c>
       <c r="H1793" t="s">
         <v>9</v>
@@ -51408,7 +51411,7 @@
         <v>28.5</v>
       </c>
       <c r="G1794" t="s">
-        <v>1233</v>
+        <v>1234</v>
       </c>
       <c r="H1794" t="s">
         <v>9</v>
@@ -51434,7 +51437,7 @@
         <v>28.8600006103516</v>
       </c>
       <c r="G1795" t="s">
-        <v>1234</v>
+        <v>1235</v>
       </c>
       <c r="H1795" t="s">
         <v>9</v>
@@ -51460,7 +51463,7 @@
         <v>28.5599994659424</v>
       </c>
       <c r="G1796" t="s">
-        <v>1235</v>
+        <v>1236</v>
       </c>
       <c r="H1796" t="s">
         <v>9</v>
@@ -51486,7 +51489,7 @@
         <v>29.1000003814697</v>
       </c>
       <c r="G1797" t="s">
-        <v>1236</v>
+        <v>1237</v>
       </c>
       <c r="H1797" t="s">
         <v>9</v>
@@ -51512,7 +51515,7 @@
         <v>29.1599998474121</v>
       </c>
       <c r="G1798" t="s">
-        <v>1237</v>
+        <v>1238</v>
       </c>
       <c r="H1798" t="s">
         <v>9</v>
@@ -51538,7 +51541,7 @@
         <v>29</v>
       </c>
       <c r="G1799" t="s">
-        <v>1238</v>
+        <v>1239</v>
       </c>
       <c r="H1799" t="s">
         <v>9</v>
@@ -51564,7 +51567,7 @@
         <v>28.9400005340576</v>
       </c>
       <c r="G1800" t="s">
-        <v>1239</v>
+        <v>1094</v>
       </c>
       <c r="H1800" t="s">
         <v>9</v>
@@ -51642,7 +51645,7 @@
         <v>28.2999992370605</v>
       </c>
       <c r="G1803" t="s">
-        <v>1228</v>
+        <v>1229</v>
       </c>
       <c r="H1803" t="s">
         <v>9</v>
@@ -51876,7 +51879,7 @@
         <v>29.4200000762939</v>
       </c>
       <c r="G1812" t="s">
-        <v>1112</v>
+        <v>1113</v>
       </c>
       <c r="H1812" t="s">
         <v>9</v>
@@ -52058,7 +52061,7 @@
         <v>29.2999992370605</v>
       </c>
       <c r="G1819" t="s">
-        <v>1109</v>
+        <v>1110</v>
       </c>
       <c r="H1819" t="s">
         <v>9</v>
@@ -52110,7 +52113,7 @@
         <v>28.7000007629395</v>
       </c>
       <c r="G1821" t="s">
-        <v>1108</v>
+        <v>1109</v>
       </c>
       <c r="H1821" t="s">
         <v>9</v>
@@ -52318,7 +52321,7 @@
         <v>27.5200004577637</v>
       </c>
       <c r="G1829" t="s">
-        <v>1102</v>
+        <v>1103</v>
       </c>
       <c r="H1829" t="s">
         <v>9</v>
@@ -52422,7 +52425,7 @@
         <v>25.6399993896484</v>
       </c>
       <c r="G1833" t="s">
-        <v>1147</v>
+        <v>1148</v>
       </c>
       <c r="H1833" t="s">
         <v>9</v>
@@ -52552,7 +52555,7 @@
         <v>24</v>
       </c>
       <c r="G1838" t="s">
-        <v>1170</v>
+        <v>1171</v>
       </c>
       <c r="H1838" t="s">
         <v>9</v>
@@ -52604,7 +52607,7 @@
         <v>24.5</v>
       </c>
       <c r="G1840" t="s">
-        <v>1160</v>
+        <v>1161</v>
       </c>
       <c r="H1840" t="s">
         <v>9</v>
@@ -52734,7 +52737,7 @@
         <v>25.6200008392334</v>
       </c>
       <c r="G1845" t="s">
-        <v>1123</v>
+        <v>1124</v>
       </c>
       <c r="H1845" t="s">
         <v>9</v>
@@ -52760,7 +52763,7 @@
         <v>26.1800003051758</v>
       </c>
       <c r="G1846" t="s">
-        <v>1143</v>
+        <v>1144</v>
       </c>
       <c r="H1846" t="s">
         <v>9</v>
@@ -52864,7 +52867,7 @@
         <v>27</v>
       </c>
       <c r="G1850" t="s">
-        <v>1101</v>
+        <v>1102</v>
       </c>
       <c r="H1850" t="s">
         <v>9</v>
@@ -53254,7 +53257,7 @@
         <v>28.2999992370605</v>
       </c>
       <c r="G1865" t="s">
-        <v>1228</v>
+        <v>1229</v>
       </c>
       <c r="H1865" t="s">
         <v>9</v>
@@ -53384,7 +53387,7 @@
         <v>27.7999992370605</v>
       </c>
       <c r="G1870" t="s">
-        <v>1099</v>
+        <v>1100</v>
       </c>
       <c r="H1870" t="s">
         <v>9</v>
@@ -53644,7 +53647,7 @@
         <v>29</v>
       </c>
       <c r="G1880" t="s">
-        <v>1238</v>
+        <v>1239</v>
       </c>
       <c r="H1880" t="s">
         <v>9</v>
@@ -61114,7 +61117,7 @@
     </row>
     <row r="2168">
       <c r="A2168" s="1" t="n">
-        <v>45481.6494097222</v>
+        <v>45481.2916666667</v>
       </c>
       <c r="B2168" t="n">
         <v>8857</v>
@@ -61135,6 +61138,32 @@
         <v>1472</v>
       </c>
       <c r="H2168" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2169">
+      <c r="A2169" s="1" t="n">
+        <v>45482.649537037</v>
+      </c>
+      <c r="B2169" t="n">
+        <v>10047</v>
+      </c>
+      <c r="C2169" t="n">
+        <v>37.8499984741211</v>
+      </c>
+      <c r="D2169" t="n">
+        <v>35.9000015258789</v>
+      </c>
+      <c r="E2169" t="n">
+        <v>36.75</v>
+      </c>
+      <c r="F2169" t="n">
+        <v>36</v>
+      </c>
+      <c r="G2169" t="s">
+        <v>1473</v>
+      </c>
+      <c r="H2169" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/MOL.MI.xlsx
+++ b/data/MOL.MI.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1475" uniqueCount="1475">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1477" uniqueCount="1477">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -38,13 +38,13 @@
     <t xml:space="preserve">ticker</t>
   </si>
   <si>
-    <t xml:space="preserve">7.0296745300293</t>
+    <t xml:space="preserve">7.02967405319214</t>
   </si>
   <si>
     <t xml:space="preserve">MOL.MI</t>
   </si>
   <si>
-    <t xml:space="preserve">6.93431091308594</t>
+    <t xml:space="preserve">6.9343113899231</t>
   </si>
   <si>
     <t xml:space="preserve">6.83440589904785</t>
@@ -56,43 +56,43 @@
     <t xml:space="preserve">6.81170034408569</t>
   </si>
   <si>
-    <t xml:space="preserve">6.90252304077148</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.99334526062012</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.7208776473999</t>
+    <t xml:space="preserve">6.90252208709717</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.99334573745728</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.72087812423706</t>
   </si>
   <si>
     <t xml:space="preserve">6.48473882675171</t>
   </si>
   <si>
-    <t xml:space="preserve">6.25768184661865</t>
+    <t xml:space="preserve">6.25768232345581</t>
   </si>
   <si>
     <t xml:space="preserve">6.51652669906616</t>
   </si>
   <si>
-    <t xml:space="preserve">6.40299844741821</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.7299599647522</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.63005542755127</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.04878997802734</t>
+    <t xml:space="preserve">6.40299892425537</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.72995901107788</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.63005495071411</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.0487904548645</t>
   </si>
   <si>
     <t xml:space="preserve">6.69363069534302</t>
   </si>
   <si>
-    <t xml:space="preserve">6.82986545562744</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.93885231018066</t>
+    <t xml:space="preserve">6.82986497879028</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.93885183334351</t>
   </si>
   <si>
     <t xml:space="preserve">6.83894777297974</t>
@@ -101,13 +101,13 @@
     <t xml:space="preserve">6.86619424819946</t>
   </si>
   <si>
-    <t xml:space="preserve">6.85711193084717</t>
+    <t xml:space="preserve">6.85711097717285</t>
   </si>
   <si>
     <t xml:space="preserve">6.17594194412231</t>
   </si>
   <si>
-    <t xml:space="preserve">6.05333089828491</t>
+    <t xml:space="preserve">6.05333042144775</t>
   </si>
   <si>
     <t xml:space="preserve">6.44840955734253</t>
@@ -116,7 +116,7 @@
     <t xml:space="preserve">6.22135305404663</t>
   </si>
   <si>
-    <t xml:space="preserve">6.41662120819092</t>
+    <t xml:space="preserve">6.41662168502808</t>
   </si>
   <si>
     <t xml:space="preserve">6.56647920608521</t>
@@ -125,13 +125,13 @@
     <t xml:space="preserve">6.50744438171387</t>
   </si>
   <si>
-    <t xml:space="preserve">6.68000745773315</t>
+    <t xml:space="preserve">6.68000793457031</t>
   </si>
   <si>
     <t xml:space="preserve">6.49836254119873</t>
   </si>
   <si>
-    <t xml:space="preserve">6.59372615814209</t>
+    <t xml:space="preserve">6.59372663497925</t>
   </si>
   <si>
     <t xml:space="preserve">6.55739688873291</t>
@@ -140,10 +140,10 @@
     <t xml:space="preserve">6.47111511230469</t>
   </si>
   <si>
-    <t xml:space="preserve">6.57556104660034</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.52106714248657</t>
+    <t xml:space="preserve">6.5755615234375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.52106761932373</t>
   </si>
   <si>
     <t xml:space="preserve">6.80715942382812</t>
@@ -158,34 +158,34 @@
     <t xml:space="preserve">6.40753936767578</t>
   </si>
   <si>
-    <t xml:space="preserve">6.43932723999023</t>
+    <t xml:space="preserve">6.43932819366455</t>
   </si>
   <si>
     <t xml:space="preserve">6.43024587631226</t>
   </si>
   <si>
-    <t xml:space="preserve">6.8026180267334</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.60734987258911</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.58010244369507</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.62097311019897</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.62551403045654</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.53469133377075</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.3575873374939</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.22589349746704</t>
+    <t xml:space="preserve">6.80261850357056</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.60734939575195</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.58010196685791</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.62097263336182</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.62551355361938</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.53469085693359</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.35758686065674</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.2258939743042</t>
   </si>
   <si>
     <t xml:space="preserve">6.45295095443726</t>
@@ -194,37 +194,37 @@
     <t xml:space="preserve">6.36666917800903</t>
   </si>
   <si>
-    <t xml:space="preserve">6.45749235153198</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.41208076477051</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.38483381271362</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.42116212844849</t>
+    <t xml:space="preserve">6.45749187469482</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.41207981109619</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.38483428955078</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.4211630821228</t>
   </si>
   <si>
     <t xml:space="preserve">6.31671619415283</t>
   </si>
   <si>
-    <t xml:space="preserve">6.35304594039917</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.76174783706665</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.64821910858154</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.66638422012329</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.58918476104736</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.80682754516602</t>
+    <t xml:space="preserve">6.35304498672485</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.76174879074097</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.64822053909302</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.66638374328613</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.58918428421021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.80682706832886</t>
   </si>
   <si>
     <t xml:space="preserve">6.62135553359985</t>
@@ -233,10 +233,10 @@
     <t xml:space="preserve">6.71409130096436</t>
   </si>
   <si>
-    <t xml:space="preserve">6.61208200454712</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.6769962310791</t>
+    <t xml:space="preserve">6.61208152770996</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.67699718475342</t>
   </si>
   <si>
     <t xml:space="preserve">6.72800207138062</t>
@@ -245,16 +245,16 @@
     <t xml:space="preserve">6.5332555770874</t>
   </si>
   <si>
-    <t xml:space="preserve">6.79291725158691</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.86710596084595</t>
+    <t xml:space="preserve">6.79291772842407</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.86710643768311</t>
   </si>
   <si>
     <t xml:space="preserve">6.76973342895508</t>
   </si>
   <si>
-    <t xml:space="preserve">6.85783243179321</t>
+    <t xml:space="preserve">6.85783195495605</t>
   </si>
   <si>
     <t xml:space="preserve">6.88101625442505</t>
@@ -263,13 +263,13 @@
     <t xml:space="preserve">6.92738437652588</t>
   </si>
   <si>
-    <t xml:space="preserve">7.02939414978027</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.1267671585083</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.16849851608276</t>
+    <t xml:space="preserve">7.02939462661743</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.12676668167114</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.16849803924561</t>
   </si>
   <si>
     <t xml:space="preserve">7.28905534744263</t>
@@ -278,16 +278,16 @@
     <t xml:space="preserve">7.4420690536499</t>
   </si>
   <si>
-    <t xml:space="preserve">7.51162147521973</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.65072584152222</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.49307537078857</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.57189989089966</t>
+    <t xml:space="preserve">7.51162195205688</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.65072536468506</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.49307489395142</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.57190036773682</t>
   </si>
   <si>
     <t xml:space="preserve">7.44670581817627</t>
@@ -296,46 +296,46 @@
     <t xml:space="preserve">7.41888570785522</t>
   </si>
   <si>
-    <t xml:space="preserve">7.41424942016602</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.38642835617065</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.27978134155273</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.32614994049072</t>
+    <t xml:space="preserve">7.41424894332886</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.3864278793335</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.27978086471558</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.32614946365356</t>
   </si>
   <si>
     <t xml:space="preserve">7.18704509735107</t>
   </si>
   <si>
-    <t xml:space="preserve">7.26587057113647</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.14067697525024</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.02012062072754</t>
+    <t xml:space="preserve">7.26587152481079</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.14067792892456</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.0201210975647</t>
   </si>
   <si>
     <t xml:space="preserve">7.30296564102173</t>
   </si>
   <si>
-    <t xml:space="preserve">7.35396957397461</t>
+    <t xml:space="preserve">7.35397052764893</t>
   </si>
   <si>
     <t xml:space="preserve">7.50234842300415</t>
   </si>
   <si>
-    <t xml:space="preserve">7.51625728607178</t>
+    <t xml:space="preserve">7.51625823974609</t>
   </si>
   <si>
     <t xml:space="preserve">7.18240880966187</t>
   </si>
   <si>
-    <t xml:space="preserve">6.90883731842041</t>
+    <t xml:space="preserve">6.90883779525757</t>
   </si>
   <si>
     <t xml:space="preserve">7.27514457702637</t>
@@ -344,40 +344,40 @@
     <t xml:space="preserve">7.37251758575439</t>
   </si>
   <si>
-    <t xml:space="preserve">7.03866815567017</t>
+    <t xml:space="preserve">7.03866720199585</t>
   </si>
   <si>
     <t xml:space="preserve">6.85319566726685</t>
   </si>
   <si>
-    <t xml:space="preserve">6.66772413253784</t>
+    <t xml:space="preserve">6.66772365570068</t>
   </si>
   <si>
     <t xml:space="preserve">6.74191236495972</t>
   </si>
   <si>
-    <t xml:space="preserve">6.75118589401245</t>
+    <t xml:space="preserve">6.75118684768677</t>
   </si>
   <si>
     <t xml:space="preserve">6.58426094055176</t>
   </si>
   <si>
-    <t xml:space="preserve">6.92274808883667</t>
+    <t xml:space="preserve">6.92274761199951</t>
   </si>
   <si>
     <t xml:space="preserve">6.82537508010864</t>
   </si>
   <si>
-    <t xml:space="preserve">6.72336530685425</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.63062906265259</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.60280847549438</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.93202114105225</t>
+    <t xml:space="preserve">6.72336435317993</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.63062953948975</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.60280752182007</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.93202066421509</t>
   </si>
   <si>
     <t xml:space="preserve">6.73727512359619</t>
@@ -389,13 +389,13 @@
     <t xml:space="preserve">6.88565349578857</t>
   </si>
   <si>
-    <t xml:space="preserve">6.65844917297363</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.70945453643799</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.83464813232422</t>
+    <t xml:space="preserve">6.65844964981079</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.7094554901123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.83464860916138</t>
   </si>
   <si>
     <t xml:space="preserve">6.86246919631958</t>
@@ -404,40 +404,40 @@
     <t xml:space="preserve">6.93665790557861</t>
   </si>
   <si>
-    <t xml:space="preserve">7.05721521377563</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.876380443573</t>
+    <t xml:space="preserve">7.05721473693848</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.87637948989868</t>
   </si>
   <si>
     <t xml:space="preserve">6.96447896957397</t>
   </si>
   <si>
-    <t xml:space="preserve">6.97375297546387</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.99229907989502</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.9969367980957</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.00157356262207</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.98302698135376</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.10358381271362</t>
+    <t xml:space="preserve">6.97375249862671</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.99229955673218</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.99693584442139</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.00157308578491</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.9830265045166</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.10358285903931</t>
   </si>
   <si>
     <t xml:space="preserve">7.08503580093384</t>
   </si>
   <si>
-    <t xml:space="preserve">7.04794120788574</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.1638617515564</t>
+    <t xml:space="preserve">7.04794073104858</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.16386079788208</t>
   </si>
   <si>
     <t xml:space="preserve">7.36324405670166</t>
@@ -455,16 +455,16 @@
     <t xml:space="preserve">6.87174272537231</t>
   </si>
   <si>
-    <t xml:space="preserve">7.06648778915405</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.1128568649292</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.20559215545654</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.17313480377197</t>
+    <t xml:space="preserve">7.06648874282837</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.11285638809204</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.2055926322937</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.17313528060913</t>
   </si>
   <si>
     <t xml:space="preserve">7.38179111480713</t>
@@ -473,52 +473,52 @@
     <t xml:space="preserve">7.2426872253418</t>
   </si>
   <si>
-    <t xml:space="preserve">7.23341369628906</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.25196027755737</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.33542251586914</t>
+    <t xml:space="preserve">7.23341464996338</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.25196075439453</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.3354229927063</t>
   </si>
   <si>
     <t xml:space="preserve">7.2705078125</t>
   </si>
   <si>
-    <t xml:space="preserve">7.24732351303101</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.34469747543335</t>
+    <t xml:space="preserve">7.24732398986816</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.34469699859619</t>
   </si>
   <si>
     <t xml:space="preserve">7.40033864974976</t>
   </si>
   <si>
-    <t xml:space="preserve">7.57653665542603</t>
+    <t xml:space="preserve">7.57653713226318</t>
   </si>
   <si>
     <t xml:space="preserve">7.40961170196533</t>
   </si>
   <si>
-    <t xml:space="preserve">7.43743371963501</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.3771538734436</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.54871654510498</t>
+    <t xml:space="preserve">7.43743276596069</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.37715435028076</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.54871702194214</t>
   </si>
   <si>
     <t xml:space="preserve">7.56262636184692</t>
   </si>
   <si>
-    <t xml:space="preserve">7.061851978302</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.2195029258728</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.36788129806519</t>
+    <t xml:space="preserve">7.06185150146484</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.21950244903564</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.36788082122803</t>
   </si>
   <si>
     <t xml:space="preserve">7.09430932998657</t>
@@ -527,43 +527,43 @@
     <t xml:space="preserve">7.71564054489136</t>
   </si>
   <si>
-    <t xml:space="preserve">7.67391014099121</t>
+    <t xml:space="preserve">7.67390918731689</t>
   </si>
   <si>
     <t xml:space="preserve">7.69709396362305</t>
   </si>
   <si>
-    <t xml:space="preserve">7.60435724258423</t>
+    <t xml:space="preserve">7.60435676574707</t>
   </si>
   <si>
     <t xml:space="preserve">7.46525382995605</t>
   </si>
   <si>
-    <t xml:space="preserve">7.80837726593018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.86401700973511</t>
+    <t xml:space="preserve">7.80837774276733</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.86401748657227</t>
   </si>
   <si>
     <t xml:space="preserve">7.92893409729004</t>
   </si>
   <si>
-    <t xml:space="preserve">7.88256692886353</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.87792778015137</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.83619832992554</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.97530364990234</t>
+    <t xml:space="preserve">7.88256597518921</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.87792825698853</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.83619737625122</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.97530317306519</t>
   </si>
   <si>
     <t xml:space="preserve">8.17932033538818</t>
   </si>
   <si>
-    <t xml:space="preserve">8.55953788757324</t>
+    <t xml:space="preserve">8.55953884124756</t>
   </si>
   <si>
     <t xml:space="preserve">8.63372802734375</t>
@@ -572,103 +572,103 @@
     <t xml:space="preserve">8.67082405090332</t>
   </si>
   <si>
-    <t xml:space="preserve">8.80065250396729</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.59663581848145</t>
+    <t xml:space="preserve">8.8006534576416</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.59663391113281</t>
   </si>
   <si>
     <t xml:space="preserve">8.6290922164917</t>
   </si>
   <si>
-    <t xml:space="preserve">8.57808780670166</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.4389820098877</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.45753002166748</t>
+    <t xml:space="preserve">8.57808589935303</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.43898391723633</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.45752811431885</t>
   </si>
   <si>
     <t xml:space="preserve">8.55490303039551</t>
   </si>
   <si>
-    <t xml:space="preserve">8.54562950134277</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.54099273681641</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.58272266387939</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.59199714660645</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.68936824798584</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.5224437713623</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.51780891418457</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.3091516494751</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.48534965515137</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.42043495178223</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.28596878051758</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.3230619430542</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.49925994873047</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.51317119598389</t>
+    <t xml:space="preserve">8.54562854766846</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.54099082946777</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.58272361755371</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.59199810028076</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.68936920166016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.52244472503662</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.51780986785889</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.30915069580078</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.4853515625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.42043399810791</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.28596973419189</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.32306385040283</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.49926090240479</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.5131721496582</t>
   </si>
   <si>
     <t xml:space="preserve">8.62445449829102</t>
   </si>
   <si>
-    <t xml:space="preserve">8.70328140258789</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.6430025100708</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.44361972808838</t>
+    <t xml:space="preserve">8.70327949523926</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.64300060272217</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.4436206817627</t>
   </si>
   <si>
     <t xml:space="preserve">8.48998641967773</t>
   </si>
   <si>
-    <t xml:space="preserve">8.23959827423096</t>
+    <t xml:space="preserve">8.23959922790527</t>
   </si>
   <si>
     <t xml:space="preserve">8.34624576568604</t>
   </si>
   <si>
-    <t xml:space="preserve">8.49462509155273</t>
+    <t xml:space="preserve">8.49462223052979</t>
   </si>
   <si>
     <t xml:space="preserve">8.65227508544922</t>
   </si>
   <si>
-    <t xml:space="preserve">8.92120933532715</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.83002281188965</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.49617385864258</t>
+    <t xml:space="preserve">8.92120838165283</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.83002471923828</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.49617290496826</t>
   </si>
   <si>
     <t xml:space="preserve">9.45907878875732</t>
@@ -680,31 +680,31 @@
     <t xml:space="preserve">9.40343761444092</t>
   </si>
   <si>
-    <t xml:space="preserve">9.44053173065186</t>
+    <t xml:space="preserve">9.44053363800049</t>
   </si>
   <si>
     <t xml:space="preserve">9.44980621337891</t>
   </si>
   <si>
-    <t xml:space="preserve">9.46835231781006</t>
+    <t xml:space="preserve">9.46835136413574</t>
   </si>
   <si>
     <t xml:space="preserve">9.18087005615234</t>
   </si>
   <si>
-    <t xml:space="preserve">9.273606300354</t>
+    <t xml:space="preserve">9.27360725402832</t>
   </si>
   <si>
     <t xml:space="preserve">9.36634349822998</t>
   </si>
   <si>
-    <t xml:space="preserve">9.59818363189697</t>
+    <t xml:space="preserve">9.59818553924561</t>
   </si>
   <si>
     <t xml:space="preserve">9.80220222473145</t>
   </si>
   <si>
-    <t xml:space="preserve">9.71873950958252</t>
+    <t xml:space="preserve">9.7187385559082</t>
   </si>
   <si>
     <t xml:space="preserve">10.0618648529053</t>
@@ -713,10 +713,10 @@
     <t xml:space="preserve">10.1546001434326</t>
   </si>
   <si>
-    <t xml:space="preserve">10.479175567627</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.200966835022</t>
+    <t xml:space="preserve">10.4791765213013</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2009677886963</t>
   </si>
   <si>
     <t xml:space="preserve">10.720290184021</t>
@@ -731,7 +731,7 @@
     <t xml:space="preserve">11.1932430267334</t>
   </si>
   <si>
-    <t xml:space="preserve">11.2210636138916</t>
+    <t xml:space="preserve">11.2210655212402</t>
   </si>
   <si>
     <t xml:space="preserve">11.0170459747314</t>
@@ -740,22 +740,22 @@
     <t xml:space="preserve">10.9892244338989</t>
   </si>
   <si>
-    <t xml:space="preserve">11.0355911254883</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5411825180054</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2893133163452</t>
+    <t xml:space="preserve">11.0355920791626</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5411834716797</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2893152236938</t>
   </si>
   <si>
     <t xml:space="preserve">10.0747585296631</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4478979110718</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4945411682129</t>
+    <t xml:space="preserve">10.4478988647461</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4945402145386</t>
   </si>
   <si>
     <t xml:space="preserve">10.3452854156494</t>
@@ -767,28 +767,28 @@
     <t xml:space="preserve">10.5784969329834</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5598411560059</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6064834594727</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8117084503174</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.147533416748</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.8471708297729</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.6606006622314</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2874612808228</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3714179992676</t>
+    <t xml:space="preserve">10.5598392486572</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.606481552124</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8117094039917</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1475343704224</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.8471698760986</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.6606016159058</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2874622344971</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3714170455933</t>
   </si>
   <si>
     <t xml:space="preserve">11.1661911010742</t>
@@ -797,13 +797,13 @@
     <t xml:space="preserve">11.2128343582153</t>
   </si>
   <si>
-    <t xml:space="preserve">11.1008911132812</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8956661224365</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8210382461548</t>
+    <t xml:space="preserve">11.1008920669556</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8956651687622</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8210372924805</t>
   </si>
   <si>
     <t xml:space="preserve">10.8023805618286</t>
@@ -812,22 +812,22 @@
     <t xml:space="preserve">11.0542497634888</t>
   </si>
   <si>
-    <t xml:space="preserve">10.9329795837402</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.634467124939</t>
+    <t xml:space="preserve">10.9329786300659</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6344680786133</t>
   </si>
   <si>
     <t xml:space="preserve">11.1941766738892</t>
   </si>
   <si>
-    <t xml:space="preserve">11.1288785934448</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5579881668091</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1382055282593</t>
+    <t xml:space="preserve">11.1288766860962</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5579872131348</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1382064819336</t>
   </si>
   <si>
     <t xml:space="preserve">11.007607460022</t>
@@ -836,7 +836,7 @@
     <t xml:space="preserve">11.5206747055054</t>
   </si>
   <si>
-    <t xml:space="preserve">11.4740314483643</t>
+    <t xml:space="preserve">11.4740304946899</t>
   </si>
   <si>
     <t xml:space="preserve">11.7818717956543</t>
@@ -848,7 +848,7 @@
     <t xml:space="preserve">12.3975496292114</t>
   </si>
   <si>
-    <t xml:space="preserve">11.9684400558472</t>
+    <t xml:space="preserve">11.9684419631958</t>
   </si>
   <si>
     <t xml:space="preserve">12.593448638916</t>
@@ -860,10 +860,10 @@
     <t xml:space="preserve">12.7520322799683</t>
   </si>
   <si>
-    <t xml:space="preserve">12.8266620635986</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.6121053695679</t>
+    <t xml:space="preserve">12.82666015625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.6121063232422</t>
   </si>
   <si>
     <t xml:space="preserve">12.8733034133911</t>
@@ -875,88 +875,88 @@
     <t xml:space="preserve">12.6214351654053</t>
   </si>
   <si>
-    <t xml:space="preserve">12.6587467193604</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.6400918960571</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.5468072891235</t>
+    <t xml:space="preserve">12.6587476730347</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.6400909423828</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.5468082427979</t>
   </si>
   <si>
     <t xml:space="preserve">12.5747919082642</t>
   </si>
   <si>
-    <t xml:space="preserve">12.5654630661011</t>
+    <t xml:space="preserve">12.5654640197754</t>
   </si>
   <si>
     <t xml:space="preserve">12.7613620758057</t>
   </si>
   <si>
-    <t xml:space="preserve">12.7053899765015</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.6307621002197</t>
+    <t xml:space="preserve">12.7053909301758</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.630763053894</t>
   </si>
   <si>
     <t xml:space="preserve">12.2576236724854</t>
   </si>
   <si>
-    <t xml:space="preserve">12.4721794128418</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.5001640319824</t>
+    <t xml:space="preserve">12.4721784591675</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.5001630783081</t>
   </si>
   <si>
     <t xml:space="preserve">12.3695659637451</t>
   </si>
   <si>
-    <t xml:space="preserve">12.4441919326782</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9591121673584</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.3602380752563</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.2482957839966</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1270246505737</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0244121551514</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.3882217407227</t>
+    <t xml:space="preserve">12.4441938400269</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9591112136841</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.3602361679077</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2482948303223</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1270236968994</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0244112014771</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.388222694397</t>
   </si>
   <si>
     <t xml:space="preserve">12.3415794372559</t>
   </si>
   <si>
-    <t xml:space="preserve">12.0150842666626</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0337381362915</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.4068794250488</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.5188217163086</t>
+    <t xml:space="preserve">12.0150833129883</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0337400436401</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.4068784713745</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.5188207626343</t>
   </si>
   <si>
     <t xml:space="preserve">12.4255361557007</t>
   </si>
   <si>
-    <t xml:space="preserve">12.4535217285156</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.2296371459961</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.3229236602783</t>
+    <t xml:space="preserve">12.4535226821899</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2296390533447</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.322922706604</t>
   </si>
   <si>
     <t xml:space="preserve">12.4162082672119</t>
@@ -965,46 +965,46 @@
     <t xml:space="preserve">12.5281496047974</t>
   </si>
   <si>
-    <t xml:space="preserve">12.2762804031372</t>
+    <t xml:space="preserve">12.2762794494629</t>
   </si>
   <si>
     <t xml:space="preserve">12.5094919204712</t>
   </si>
   <si>
-    <t xml:space="preserve">12.3788948059082</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.3322515487671</t>
+    <t xml:space="preserve">12.3788938522339</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.3322525024414</t>
   </si>
   <si>
     <t xml:space="preserve">12.1363534927368</t>
   </si>
   <si>
-    <t xml:space="preserve">12.0990409851074</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5113439559937</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7072448730469</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.8658275604248</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7352294921875</t>
+    <t xml:space="preserve">12.0990400314331</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5113430023193</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7072429656982</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.8658285140991</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7352285385132</t>
   </si>
   <si>
     <t xml:space="preserve">11.7538862228394</t>
   </si>
   <si>
-    <t xml:space="preserve">11.8191833496094</t>
+    <t xml:space="preserve">11.819185256958</t>
   </si>
   <si>
     <t xml:space="preserve">11.9964256286621</t>
   </si>
   <si>
-    <t xml:space="preserve">11.8938140869141</t>
+    <t xml:space="preserve">11.8938121795654</t>
   </si>
   <si>
     <t xml:space="preserve">11.9404554367065</t>
@@ -1013,13 +1013,13 @@
     <t xml:space="preserve">11.8098564147949</t>
   </si>
   <si>
-    <t xml:space="preserve">12.3042650222778</t>
+    <t xml:space="preserve">12.3042678833008</t>
   </si>
   <si>
     <t xml:space="preserve">12.2669515609741</t>
   </si>
   <si>
-    <t xml:space="preserve">11.8378429412842</t>
+    <t xml:space="preserve">11.8378410339355</t>
   </si>
   <si>
     <t xml:space="preserve">11.7912006378174</t>
@@ -1028,73 +1028,73 @@
     <t xml:space="preserve">11.2594757080078</t>
   </si>
   <si>
-    <t xml:space="preserve">11.3620901107788</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2314901351929</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.613959312439</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5393304824829</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.6699314117432</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.6512718200684</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5673151016235</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7445583343506</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9311265945435</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.2203102111816</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0803813934326</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9870977401733</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.0039014816284</t>
+    <t xml:space="preserve">11.3620891571045</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2314910888672</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.6139583587646</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5393314361572</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.6699295043945</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.651273727417</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5673160552979</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7445573806763</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9311275482178</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.220311164856</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0803833007812</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9870986938477</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.0039024353027</t>
   </si>
   <si>
     <t xml:space="preserve">14.011378288269</t>
   </si>
   <si>
-    <t xml:space="preserve">14.1979494094849</t>
+    <t xml:space="preserve">14.1979475021362</t>
   </si>
   <si>
     <t xml:space="preserve">14.1792898178101</t>
   </si>
   <si>
-    <t xml:space="preserve">14.0300359725952</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.0860071182251</t>
+    <t xml:space="preserve">14.0300350189209</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.0860052108765</t>
   </si>
   <si>
     <t xml:space="preserve">14.7203416824341</t>
   </si>
   <si>
-    <t xml:space="preserve">13.9927206039429</t>
+    <t xml:space="preserve">13.9927215576172</t>
   </si>
   <si>
     <t xml:space="preserve">13.7128667831421</t>
   </si>
   <si>
-    <t xml:space="preserve">14.2912340164185</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.1046628952026</t>
+    <t xml:space="preserve">14.2912321090698</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.104663848877</t>
   </si>
   <si>
     <t xml:space="preserve">13.7874946594238</t>
@@ -1121,52 +1121,52 @@
     <t xml:space="preserve">13.0785303115845</t>
   </si>
   <si>
-    <t xml:space="preserve">12.8546457290649</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.4516687393188</t>
+    <t xml:space="preserve">12.8546466827393</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.4516696929932</t>
   </si>
   <si>
     <t xml:space="preserve">13.1158447265625</t>
   </si>
   <si>
-    <t xml:space="preserve">12.8173313140869</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.0598735809326</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6009254455566</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.3956966400146</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.7427034378052</t>
+    <t xml:space="preserve">12.8173322677612</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.0598726272583</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6009244918823</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.395697593689</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.7427024841309</t>
   </si>
   <si>
     <t xml:space="preserve">12.1829967498779</t>
   </si>
   <si>
-    <t xml:space="preserve">12.0897092819214</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9031410217285</t>
+    <t xml:space="preserve">12.0897102355957</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9031429290771</t>
   </si>
   <si>
     <t xml:space="preserve">12.6680765151978</t>
   </si>
   <si>
-    <t xml:space="preserve">12.7986764907837</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.6867341995239</t>
+    <t xml:space="preserve">12.7986755371094</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.6867351531982</t>
   </si>
   <si>
     <t xml:space="preserve">12.2389669418335</t>
   </si>
   <si>
-    <t xml:space="preserve">12.1083688735962</t>
+    <t xml:space="preserve">12.1083669662476</t>
   </si>
   <si>
     <t xml:space="preserve">12.1456823348999</t>
@@ -1175,22 +1175,22 @@
     <t xml:space="preserve">11.6792583465576</t>
   </si>
   <si>
-    <t xml:space="preserve">12.5374774932861</t>
+    <t xml:space="preserve">12.5374784469604</t>
   </si>
   <si>
     <t xml:space="preserve">11.8844842910767</t>
   </si>
   <si>
-    <t xml:space="preserve">11.921799659729</t>
+    <t xml:space="preserve">11.9217987060547</t>
   </si>
   <si>
     <t xml:space="preserve">12.3135948181152</t>
   </si>
   <si>
-    <t xml:space="preserve">12.462851524353</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.4330110549927</t>
+    <t xml:space="preserve">12.4628505706787</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.433012008667</t>
   </si>
   <si>
     <t xml:space="preserve">13.6195821762085</t>
@@ -1202,7 +1202,7 @@
     <t xml:space="preserve">14.347204208374</t>
   </si>
   <si>
-    <t xml:space="preserve">15.0001974105835</t>
+    <t xml:space="preserve">15.0001983642578</t>
   </si>
   <si>
     <t xml:space="preserve">14.8695983886719</t>
@@ -1211,22 +1211,22 @@
     <t xml:space="preserve">14.8322839736938</t>
   </si>
   <si>
-    <t xml:space="preserve">14.8882551193237</t>
+    <t xml:space="preserve">14.888256072998</t>
   </si>
   <si>
     <t xml:space="preserve">15.1164274215698</t>
   </si>
   <si>
-    <t xml:space="preserve">15.7819290161133</t>
+    <t xml:space="preserve">15.7819309234619</t>
   </si>
   <si>
     <t xml:space="preserve">15.49671459198</t>
   </si>
   <si>
-    <t xml:space="preserve">15.3255853652954</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1734704971313</t>
+    <t xml:space="preserve">15.3255863189697</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.17347240448</t>
   </si>
   <si>
     <t xml:space="preserve">15.2115001678467</t>
@@ -1244,10 +1244,10 @@
     <t xml:space="preserve">13.899507522583</t>
   </si>
   <si>
-    <t xml:space="preserve">13.348090171814</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6903495788574</t>
+    <t xml:space="preserve">13.3480911254883</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6903505325317</t>
   </si>
   <si>
     <t xml:space="preserve">13.7664070129395</t>
@@ -1256,7 +1256,7 @@
     <t xml:space="preserve">13.1579465866089</t>
   </si>
   <si>
-    <t xml:space="preserve">13.0248460769653</t>
+    <t xml:space="preserve">13.0248470306396</t>
   </si>
   <si>
     <t xml:space="preserve">13.1959762573242</t>
@@ -1271,7 +1271,7 @@
     <t xml:space="preserve">12.6255445480347</t>
   </si>
   <si>
-    <t xml:space="preserve">13.0818891525269</t>
+    <t xml:space="preserve">13.0818901062012</t>
   </si>
   <si>
     <t xml:space="preserve">12.7016019821167</t>
@@ -1280,7 +1280,7 @@
     <t xml:space="preserve">12.7776594161987</t>
   </si>
   <si>
-    <t xml:space="preserve">12.8347034454346</t>
+    <t xml:space="preserve">12.8347015380859</t>
   </si>
   <si>
     <t xml:space="preserve">12.9487886428833</t>
@@ -1289,7 +1289,7 @@
     <t xml:space="preserve">12.4163875579834</t>
   </si>
   <si>
-    <t xml:space="preserve">12.8156871795654</t>
+    <t xml:space="preserve">12.8156881332397</t>
   </si>
   <si>
     <t xml:space="preserve">12.7966737747192</t>
@@ -1298,7 +1298,7 @@
     <t xml:space="preserve">12.8537168502808</t>
   </si>
   <si>
-    <t xml:space="preserve">12.3403291702271</t>
+    <t xml:space="preserve">12.3403282165527</t>
   </si>
   <si>
     <t xml:space="preserve">13.823450088501</t>
@@ -1310,22 +1310,22 @@
     <t xml:space="preserve">14.0516223907471</t>
   </si>
   <si>
-    <t xml:space="preserve">13.9565515518188</t>
+    <t xml:space="preserve">13.9565505981445</t>
   </si>
   <si>
     <t xml:space="preserve">14.1657085418701</t>
   </si>
   <si>
-    <t xml:space="preserve">13.7093629837036</t>
+    <t xml:space="preserve">13.7093648910522</t>
   </si>
   <si>
     <t xml:space="preserve">13.6713352203369</t>
   </si>
   <si>
-    <t xml:space="preserve">13.5002069473267</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5382347106934</t>
+    <t xml:space="preserve">13.500205039978</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5382328033447</t>
   </si>
   <si>
     <t xml:space="preserve">13.5192203521729</t>
@@ -1334,7 +1334,7 @@
     <t xml:space="preserve">13.3290767669678</t>
   </si>
   <si>
-    <t xml:space="preserve">13.2149896621704</t>
+    <t xml:space="preserve">13.2149906158447</t>
   </si>
   <si>
     <t xml:space="preserve">13.4051342010498</t>
@@ -1343,70 +1343,70 @@
     <t xml:space="preserve">13.5572481155396</t>
   </si>
   <si>
-    <t xml:space="preserve">13.2910480499268</t>
+    <t xml:space="preserve">13.2910470962524</t>
   </si>
   <si>
     <t xml:space="preserve">13.4431629180908</t>
   </si>
   <si>
-    <t xml:space="preserve">12.6445589065552</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.5875148773193</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.3593435287476</t>
+    <t xml:space="preserve">12.6445579528809</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.5875158309937</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.3593425750732</t>
   </si>
   <si>
     <t xml:space="preserve">12.7586441040039</t>
   </si>
   <si>
-    <t xml:space="preserve">13.1199178695679</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.062873840332</t>
+    <t xml:space="preserve">13.1199188232422</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.0628757476807</t>
   </si>
   <si>
     <t xml:space="preserve">12.8917465209961</t>
   </si>
   <si>
-    <t xml:space="preserve">13.0438604354858</t>
+    <t xml:space="preserve">13.0438613891602</t>
   </si>
   <si>
     <t xml:space="preserve">13.8804941177368</t>
   </si>
   <si>
-    <t xml:space="preserve">14.2037363052368</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.3558540344238</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.3938817977905</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.1466941833496</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.7854223251343</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5762624740601</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.8424644470215</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6333065032959</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.2607822418213</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0213565826416</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5917854309082</t>
+    <t xml:space="preserve">14.2037372589111</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.3558530807495</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.3938827514648</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.1466951370239</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.7854204177856</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5762634277344</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.8424663543701</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6333055496216</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.2607803344727</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0213556289673</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5917844772339</t>
   </si>
   <si>
     <t xml:space="preserve">15.3636150360107</t>
@@ -1415,13 +1415,13 @@
     <t xml:space="preserve">15.2495288848877</t>
   </si>
   <si>
-    <t xml:space="preserve">16.6375751495361</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.808708190918</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.0178642272949</t>
+    <t xml:space="preserve">16.6375770568848</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.8087062835693</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.0178623199463</t>
   </si>
   <si>
     <t xml:space="preserve">16.7326488494873</t>
@@ -1433,43 +1433,43 @@
     <t xml:space="preserve">16.010103225708</t>
   </si>
   <si>
-    <t xml:space="preserve">15.6868572235107</t>
+    <t xml:space="preserve">15.6868581771851</t>
   </si>
   <si>
     <t xml:space="preserve">15.6108016967773</t>
   </si>
   <si>
-    <t xml:space="preserve">15.0974130630493</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3065719604492</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.4699382781982</t>
+    <t xml:space="preserve">15.0974140167236</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3065710067749</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.4699392318726</t>
   </si>
   <si>
     <t xml:space="preserve">14.6981115341187</t>
   </si>
   <si>
-    <t xml:space="preserve">14.5269813537598</t>
+    <t xml:space="preserve">14.5269823074341</t>
   </si>
   <si>
     <t xml:space="preserve">14.7361392974854</t>
   </si>
   <si>
-    <t xml:space="preserve">14.3368377685547</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.2797946929932</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.9755659103394</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6142902374268</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.937536239624</t>
+    <t xml:space="preserve">14.3368368148804</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.2797956466675</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.975564956665</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6142911911011</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.9375352859497</t>
   </si>
   <si>
     <t xml:space="preserve">14.1086654663086</t>
@@ -1478,10 +1478,10 @@
     <t xml:space="preserve">14.9643125534058</t>
   </si>
   <si>
-    <t xml:space="preserve">14.5650119781494</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.5079679489136</t>
+    <t xml:space="preserve">14.5650100708008</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.5079689025879</t>
   </si>
   <si>
     <t xml:space="preserve">15.648829460144</t>
@@ -1490,7 +1490,7 @@
     <t xml:space="preserve">15.0593852996826</t>
   </si>
   <si>
-    <t xml:space="preserve">16.1812343597412</t>
+    <t xml:space="preserve">16.1812362670898</t>
   </si>
   <si>
     <t xml:space="preserve">16.1622200012207</t>
@@ -1499,31 +1499,31 @@
     <t xml:space="preserve">16.3523635864258</t>
   </si>
   <si>
-    <t xml:space="preserve">16.1432018280029</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.972074508667</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5537605285645</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.1241893768311</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.4474334716797</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.2002487182617</t>
+    <t xml:space="preserve">16.1432056427002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9720754623413</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5537586212158</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.1241874694824</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.4474353790283</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.2002506256104</t>
   </si>
   <si>
     <t xml:space="preserve">16.4284210205078</t>
   </si>
   <si>
-    <t xml:space="preserve">15.7439022064209</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.896017074585</t>
+    <t xml:space="preserve">15.7439002990723</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8960161209106</t>
   </si>
   <si>
     <t xml:space="preserve">16.0291175842285</t>
@@ -1532,76 +1532,76 @@
     <t xml:space="preserve">15.1544561386108</t>
   </si>
   <si>
-    <t xml:space="preserve">15.9530601501465</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.572772026062</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.8312120437622</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0023412704468</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.6410675048828</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9072704315186</t>
+    <t xml:space="preserve">15.9530611038208</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5727701187134</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.8312129974365</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0023403167725</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.6410684585571</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9072694778442</t>
   </si>
   <si>
     <t xml:space="preserve">15.0783987045288</t>
   </si>
   <si>
-    <t xml:space="preserve">15.6298170089722</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8389739990234</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.135440826416</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5157270431519</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8579883575439</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7248878479004</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9910907745361</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.0671463012695</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.1051769256592</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.08616065979</t>
+    <t xml:space="preserve">15.6298160552979</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8389720916748</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1354417800903</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5157289505005</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8579874038696</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.724889755249</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9910898208618</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.0671443939209</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.1051750183105</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.0861568450928</t>
   </si>
   <si>
     <t xml:space="preserve">15.7058744430542</t>
   </si>
   <si>
-    <t xml:space="preserve">14.7741670608521</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.7171258926392</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9452981948853</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2875566482544</t>
+    <t xml:space="preserve">14.7741689682007</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.7171249389648</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9452991485596</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.287558555603</t>
   </si>
   <si>
     <t xml:space="preserve">15.1924848556519</t>
   </si>
   <si>
-    <t xml:space="preserve">15.3826293945312</t>
+    <t xml:space="preserve">15.3826284408569</t>
   </si>
   <si>
     <t xml:space="preserve">16.2953186035156</t>
@@ -1610,10 +1610,10 @@
     <t xml:space="preserve">17.1129360198975</t>
   </si>
   <si>
-    <t xml:space="preserve">17.3411102294922</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.3601245880127</t>
+    <t xml:space="preserve">17.3411064147949</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.3601226806641</t>
   </si>
   <si>
     <t xml:space="preserve">17.3981513977051</t>
@@ -1622,31 +1622,31 @@
     <t xml:space="preserve">17.2080078125</t>
   </si>
   <si>
-    <t xml:space="preserve">17.1699810028076</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.158727645874</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.5122394561768</t>
+    <t xml:space="preserve">17.1699771881104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.1587257385254</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.5122375488281</t>
   </si>
   <si>
     <t xml:space="preserve">17.4551963806152</t>
   </si>
   <si>
-    <t xml:space="preserve">17.4742088317871</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.6073112487793</t>
+    <t xml:space="preserve">17.4742107391357</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.6073131561279</t>
   </si>
   <si>
     <t xml:space="preserve">17.1509666442871</t>
   </si>
   <si>
-    <t xml:space="preserve">17.4932250976562</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.5502662658691</t>
+    <t xml:space="preserve">17.4932231903076</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.5502681732178</t>
   </si>
   <si>
     <t xml:space="preserve">17.9685821533203</t>
@@ -1658,22 +1658,22 @@
     <t xml:space="preserve">17.6643524169922</t>
   </si>
   <si>
-    <t xml:space="preserve">17.4361820220947</t>
+    <t xml:space="preserve">17.4361801147461</t>
   </si>
   <si>
     <t xml:space="preserve">17.246036529541</t>
   </si>
   <si>
-    <t xml:space="preserve">16.6756057739258</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.6946220397949</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.3903903961182</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.9608211517334</t>
+    <t xml:space="preserve">16.675609588623</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.6946201324463</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.3903884887695</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.960823059082</t>
   </si>
   <si>
     <t xml:space="preserve">16.2572898864746</t>
@@ -1685,64 +1685,64 @@
     <t xml:space="preserve">16.6443691253662</t>
   </si>
   <si>
-    <t xml:space="preserve">16.489538192749</t>
+    <t xml:space="preserve">16.4895401000977</t>
   </si>
   <si>
     <t xml:space="preserve">16.5475978851318</t>
   </si>
   <si>
-    <t xml:space="preserve">16.3347034454346</t>
+    <t xml:space="preserve">16.3347053527832</t>
   </si>
   <si>
     <t xml:space="preserve">16.1024570465088</t>
   </si>
   <si>
-    <t xml:space="preserve">16.0831069946289</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.7798461914062</t>
+    <t xml:space="preserve">16.0831050872803</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.7798480987549</t>
   </si>
   <si>
     <t xml:space="preserve">16.9153232574463</t>
   </si>
   <si>
-    <t xml:space="preserve">16.9346752166748</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.8572616577148</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.7411365509033</t>
+    <t xml:space="preserve">16.9346771240234</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.8572597503662</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.741138458252</t>
   </si>
   <si>
     <t xml:space="preserve">16.5282440185547</t>
   </si>
   <si>
-    <t xml:space="preserve">16.6250133514404</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.0443954467773</t>
+    <t xml:space="preserve">16.6250152587891</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.044397354126</t>
   </si>
   <si>
     <t xml:space="preserve">16.5669536590576</t>
   </si>
   <si>
-    <t xml:space="preserve">16.0637493133545</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.1218128204346</t>
+    <t xml:space="preserve">16.0637512207031</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.1218109130859</t>
   </si>
   <si>
     <t xml:space="preserve">15.9669799804688</t>
   </si>
   <si>
-    <t xml:space="preserve">15.8315057754517</t>
+    <t xml:space="preserve">15.8315048217773</t>
   </si>
   <si>
     <t xml:space="preserve">15.7540893554688</t>
   </si>
   <si>
-    <t xml:space="preserve">15.5218420028687</t>
+    <t xml:space="preserve">15.5218410491943</t>
   </si>
   <si>
     <t xml:space="preserve">15.4637794494629</t>
@@ -1760,28 +1760,28 @@
     <t xml:space="preserve">15.3283023834229</t>
   </si>
   <si>
-    <t xml:space="preserve">15.2315320968628</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1928243637085</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0960550308228</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2121782302856</t>
+    <t xml:space="preserve">15.2315330505371</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1928234100342</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0960559844971</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.21217918396</t>
   </si>
   <si>
     <t xml:space="preserve">15.3476552963257</t>
   </si>
   <si>
-    <t xml:space="preserve">15.1541166305542</t>
+    <t xml:space="preserve">15.1541175842285</t>
   </si>
   <si>
     <t xml:space="preserve">14.9605779647827</t>
   </si>
   <si>
-    <t xml:space="preserve">14.9412221908569</t>
+    <t xml:space="preserve">14.9412231445312</t>
   </si>
   <si>
     <t xml:space="preserve">14.8057470321655</t>
@@ -1790,10 +1790,10 @@
     <t xml:space="preserve">15.5411939620972</t>
   </si>
   <si>
-    <t xml:space="preserve">15.2702398300171</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9218702316284</t>
+    <t xml:space="preserve">15.2702388763428</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9218692779541</t>
   </si>
   <si>
     <t xml:space="preserve">15.1734714508057</t>
@@ -1805,25 +1805,25 @@
     <t xml:space="preserve">15.2508859634399</t>
   </si>
   <si>
-    <t xml:space="preserve">14.8831624984741</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.8444538116455</t>
+    <t xml:space="preserve">14.8831634521484</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.8444528579712</t>
   </si>
   <si>
     <t xml:space="preserve">14.9992847442627</t>
   </si>
   <si>
-    <t xml:space="preserve">15.1154088973999</t>
+    <t xml:space="preserve">15.1154079437256</t>
   </si>
   <si>
     <t xml:space="preserve">14.902515411377</t>
   </si>
   <si>
-    <t xml:space="preserve">14.9799318313599</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.6315603256226</t>
+    <t xml:space="preserve">14.9799308776855</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.6315612792969</t>
   </si>
   <si>
     <t xml:space="preserve">14.6702690124512</t>
@@ -1832,40 +1832,40 @@
     <t xml:space="preserve">14.6896228790283</t>
   </si>
   <si>
-    <t xml:space="preserve">14.5928525924683</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.7283296585083</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.7089767456055</t>
+    <t xml:space="preserve">14.5928516387939</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.7283306121826</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.7089757919312</t>
   </si>
   <si>
     <t xml:space="preserve">14.5541458129883</t>
   </si>
   <si>
-    <t xml:space="preserve">14.5347909927368</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.7476835250854</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0186395645142</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.650915145874</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4444255828857</t>
+    <t xml:space="preserve">14.5347919464111</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.7476844787598</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0186405181885</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.6509160995483</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4444265365601</t>
   </si>
   <si>
     <t xml:space="preserve">15.4831342697144</t>
   </si>
   <si>
-    <t xml:space="preserve">15.7734413146973</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6186075210571</t>
+    <t xml:space="preserve">15.7734422683716</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6186113357544</t>
   </si>
   <si>
     <t xml:space="preserve">15.8121500015259</t>
@@ -1874,22 +1874,22 @@
     <t xml:space="preserve">15.8895654678345</t>
   </si>
   <si>
-    <t xml:space="preserve">15.8702096939087</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9089212417603</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.0056896209717</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7347345352173</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7153797149658</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9476280212402</t>
+    <t xml:space="preserve">15.8702087402344</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9089202880859</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.0056915283203</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.734733581543</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7153806686401</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9476270675659</t>
   </si>
   <si>
     <t xml:space="preserve">15.6766729354858</t>
@@ -1898,28 +1898,28 @@
     <t xml:space="preserve">15.5992565155029</t>
   </si>
   <si>
-    <t xml:space="preserve">15.9282722473145</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.0250434875488</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.2185821533203</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.263692855835</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.1088638305664</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.0508003234863</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.9927406311035</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.0895099639893</t>
+    <t xml:space="preserve">15.9282732009888</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.0250415802002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.2185840606689</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.2636947631836</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.1088619232178</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.050802230835</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.9927387237549</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.0895080566406</t>
   </si>
   <si>
     <t xml:space="preserve">17.2249851226807</t>
@@ -1928,43 +1928,43 @@
     <t xml:space="preserve">17.3798160552979</t>
   </si>
   <si>
-    <t xml:space="preserve">18.3862190246582</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.2894496917725</t>
+    <t xml:space="preserve">18.3862209320068</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.2894515991211</t>
   </si>
   <si>
     <t xml:space="preserve">17.7088317871094</t>
   </si>
   <si>
-    <t xml:space="preserve">17.7668952941895</t>
+    <t xml:space="preserve">17.7668972015381</t>
   </si>
   <si>
     <t xml:space="preserve">18.2120342254639</t>
   </si>
   <si>
-    <t xml:space="preserve">18.0959129333496</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.2313899993896</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.0765552520752</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.0572052001953</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.1733283996582</t>
+    <t xml:space="preserve">18.0959148406982</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.231388092041</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.0765590667725</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.0572032928467</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.1733264923096</t>
   </si>
   <si>
     <t xml:space="preserve">18.0378494262695</t>
   </si>
   <si>
-    <t xml:space="preserve">18.4249286651611</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.8700675964355</t>
+    <t xml:space="preserve">18.4249305725098</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.8700695037842</t>
   </si>
   <si>
     <t xml:space="preserve">19.2184391021729</t>
@@ -1985,10 +1985,10 @@
     <t xml:space="preserve">19.547456741333</t>
   </si>
   <si>
-    <t xml:space="preserve">19.934534072876</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.6442241668701</t>
+    <t xml:space="preserve">19.9345359802246</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.6442260742188</t>
   </si>
   <si>
     <t xml:space="preserve">19.789379119873</t>
@@ -1997,10 +1997,10 @@
     <t xml:space="preserve">19.4023017883301</t>
   </si>
   <si>
-    <t xml:space="preserve">18.9668369293213</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.7409934997559</t>
+    <t xml:space="preserve">18.9668388366699</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.7409954071045</t>
   </si>
   <si>
     <t xml:space="preserve">19.8377628326416</t>
@@ -2012,19 +2012,19 @@
     <t xml:space="preserve">19.4506855010986</t>
   </si>
   <si>
-    <t xml:space="preserve">19.6926116943359</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.3216114044189</t>
+    <t xml:space="preserve">19.6926097869873</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.3216133117676</t>
   </si>
   <si>
     <t xml:space="preserve">20.3699970245361</t>
   </si>
   <si>
-    <t xml:space="preserve">22.3537712097168</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.289306640625</t>
+    <t xml:space="preserve">22.3537731170654</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.2893085479736</t>
   </si>
   <si>
     <t xml:space="preserve">21.2409229278564</t>
@@ -2036,10 +2036,10 @@
     <t xml:space="preserve">20.7570762634277</t>
   </si>
   <si>
-    <t xml:space="preserve">21.1441555023193</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.8538436889648</t>
+    <t xml:space="preserve">21.1441535949707</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.8538455963135</t>
   </si>
   <si>
     <t xml:space="preserve">20.8054599761963</t>
@@ -2051,22 +2051,22 @@
     <t xml:space="preserve">20.4183807373047</t>
   </si>
   <si>
-    <t xml:space="preserve">20.1280727386475</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.9829196929932</t>
+    <t xml:space="preserve">20.1280708312988</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.9829177856445</t>
   </si>
   <si>
     <t xml:space="preserve">19.1990852355957</t>
   </si>
   <si>
-    <t xml:space="preserve">20.9022274017334</t>
+    <t xml:space="preserve">20.902229309082</t>
   </si>
   <si>
     <t xml:space="preserve">21.047384262085</t>
   </si>
   <si>
-    <t xml:space="preserve">20.7086887359619</t>
+    <t xml:space="preserve">20.7086925506592</t>
   </si>
   <si>
     <t xml:space="preserve">21.3860778808594</t>
@@ -2081,28 +2081,28 @@
     <t xml:space="preserve">21.7731552124023</t>
   </si>
   <si>
-    <t xml:space="preserve">21.5796165466309</t>
+    <t xml:space="preserve">21.5796184539795</t>
   </si>
   <si>
     <t xml:space="preserve">21.9666957855225</t>
   </si>
   <si>
-    <t xml:space="preserve">20.1764602661133</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.2248420715332</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.850715637207</t>
+    <t xml:space="preserve">20.1764583587646</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.2248439788818</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.8507137298584</t>
   </si>
   <si>
     <t xml:space="preserve">18.3088054656982</t>
   </si>
   <si>
-    <t xml:space="preserve">17.7281894683838</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.4121208190918</t>
+    <t xml:space="preserve">17.7281875610352</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.4121189117432</t>
   </si>
   <si>
     <t xml:space="preserve">16.2959976196289</t>
@@ -2111,25 +2111,25 @@
     <t xml:space="preserve">14.5734996795654</t>
   </si>
   <si>
-    <t xml:space="preserve">14.5154390335083</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.5413379669189</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0961971282959</t>
+    <t xml:space="preserve">14.5154371261597</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.5413389205933</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0961980819702</t>
   </si>
   <si>
     <t xml:space="preserve">12.2123212814331</t>
   </si>
   <si>
-    <t xml:space="preserve">12.7735843658447</t>
+    <t xml:space="preserve">12.7735862731934</t>
   </si>
   <si>
     <t xml:space="preserve">12.9864768981934</t>
   </si>
   <si>
-    <t xml:space="preserve">12.0574903488159</t>
+    <t xml:space="preserve">12.0574893951416</t>
   </si>
   <si>
     <t xml:space="preserve">13.3929100036621</t>
@@ -2141,16 +2141,16 @@
     <t xml:space="preserve">14.1090049743652</t>
   </si>
   <si>
-    <t xml:space="preserve">14.2831907272339</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.3799600601196</t>
+    <t xml:space="preserve">14.2831916809082</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.3799591064453</t>
   </si>
   <si>
     <t xml:space="preserve">14.2057752609253</t>
   </si>
   <si>
-    <t xml:space="preserve">14.8251008987427</t>
+    <t xml:space="preserve">14.8250999450684</t>
   </si>
   <si>
     <t xml:space="preserve">14.1864204406738</t>
@@ -2159,58 +2159,58 @@
     <t xml:space="preserve">15.5024871826172</t>
   </si>
   <si>
-    <t xml:space="preserve">16.9733848571777</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.2766456604004</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.3153514862061</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5605487823486</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.1605205535889</t>
+    <t xml:space="preserve">16.9733867645264</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.2766437530518</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.3153533935547</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5605497360229</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.1605224609375</t>
   </si>
   <si>
     <t xml:space="preserve">16.2379360198975</t>
   </si>
   <si>
-    <t xml:space="preserve">16.1411666870117</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.7024326324463</t>
+    <t xml:space="preserve">16.1411647796631</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.7024307250977</t>
   </si>
   <si>
     <t xml:space="preserve">17.3217544555664</t>
   </si>
   <si>
-    <t xml:space="preserve">16.8185539245605</t>
+    <t xml:space="preserve">16.8185520172119</t>
   </si>
   <si>
     <t xml:space="preserve">17.0314464569092</t>
   </si>
   <si>
-    <t xml:space="preserve">17.1669216156006</t>
+    <t xml:space="preserve">17.1669235229492</t>
   </si>
   <si>
     <t xml:space="preserve">18.3668670654297</t>
   </si>
   <si>
-    <t xml:space="preserve">18.7539443969727</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.1891822814941</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.877592086792</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.5660018920898</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.5465259552002</t>
+    <t xml:space="preserve">18.753942489624</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.1891841888428</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.8775939941406</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.5659999847412</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.5465297698975</t>
   </si>
   <si>
     <t xml:space="preserve">17.3128337860107</t>
@@ -2222,40 +2222,40 @@
     <t xml:space="preserve">17.5270519256592</t>
   </si>
   <si>
-    <t xml:space="preserve">17.7217960357666</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.2738819122314</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.7607479095459</t>
+    <t xml:space="preserve">17.7217979431152</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.2738857269287</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.7607440948486</t>
   </si>
   <si>
     <t xml:space="preserve">17.6049499511719</t>
   </si>
   <si>
-    <t xml:space="preserve">17.83864402771</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.4034042358398</t>
+    <t xml:space="preserve">17.8386421203613</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.4034023284912</t>
   </si>
   <si>
     <t xml:space="preserve">18.052864074707</t>
   </si>
   <si>
-    <t xml:space="preserve">18.1697101593018</t>
+    <t xml:space="preserve">18.1697120666504</t>
   </si>
   <si>
     <t xml:space="preserve">18.5007762908936</t>
   </si>
   <si>
-    <t xml:space="preserve">18.5202522277832</t>
+    <t xml:space="preserve">18.5202503204346</t>
   </si>
   <si>
     <t xml:space="preserve">18.013916015625</t>
   </si>
   <si>
-    <t xml:space="preserve">18.3449821472168</t>
+    <t xml:space="preserve">18.3449802398682</t>
   </si>
   <si>
     <t xml:space="preserve">18.3644561767578</t>
@@ -2273,46 +2273,46 @@
     <t xml:space="preserve">18.1502361297607</t>
   </si>
   <si>
-    <t xml:space="preserve">18.9486885070801</t>
+    <t xml:space="preserve">18.9486904144287</t>
   </si>
   <si>
     <t xml:space="preserve">18.890266418457</t>
   </si>
   <si>
-    <t xml:space="preserve">18.7928943634033</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.02659034729</t>
+    <t xml:space="preserve">18.7928924560547</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.0265865325928</t>
   </si>
   <si>
     <t xml:space="preserve">19.1629104614258</t>
   </si>
   <si>
-    <t xml:space="preserve">19.7179336547852</t>
+    <t xml:space="preserve">19.7179317474365</t>
   </si>
   <si>
     <t xml:space="preserve">19.4745025634766</t>
   </si>
   <si>
-    <t xml:space="preserve">19.0655364990234</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.2213344573975</t>
+    <t xml:space="preserve">19.0655384063721</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.2213325500488</t>
   </si>
   <si>
     <t xml:space="preserve">18.5786743164062</t>
   </si>
   <si>
-    <t xml:space="preserve">18.7734222412109</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.6205615997314</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.7666187286377</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.2047958374023</t>
+    <t xml:space="preserve">18.7734203338623</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.6205596923828</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.7666168212891</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.204797744751</t>
   </si>
   <si>
     <t xml:space="preserve">20.4482288360596</t>
@@ -2321,7 +2321,7 @@
     <t xml:space="preserve">20.7403450012207</t>
   </si>
   <si>
-    <t xml:space="preserve">20.6916599273682</t>
+    <t xml:space="preserve">20.6916580200195</t>
   </si>
   <si>
     <t xml:space="preserve">21.1785202026367</t>
@@ -2330,55 +2330,55 @@
     <t xml:space="preserve">21.4219512939453</t>
   </si>
   <si>
-    <t xml:space="preserve">21.86012840271</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.3245811462402</t>
+    <t xml:space="preserve">21.8601303100586</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.324577331543</t>
   </si>
   <si>
     <t xml:space="preserve">21.7140693664551</t>
   </si>
   <si>
-    <t xml:space="preserve">22.0061855316162</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.6653823852539</t>
+    <t xml:space="preserve">22.0061874389648</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.6653842926025</t>
   </si>
   <si>
     <t xml:space="preserve">21.4706382751465</t>
   </si>
   <si>
-    <t xml:space="preserve">21.9088134765625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.5904235839844</t>
+    <t xml:space="preserve">21.9088153839111</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.590425491333</t>
   </si>
   <si>
     <t xml:space="preserve">23.0772857666016</t>
   </si>
   <si>
-    <t xml:space="preserve">22.9312267303467</t>
+    <t xml:space="preserve">22.931224822998</t>
   </si>
   <si>
     <t xml:space="preserve">23.4667739868164</t>
   </si>
   <si>
-    <t xml:space="preserve">23.5641479492188</t>
+    <t xml:space="preserve">23.5641460418701</t>
   </si>
   <si>
     <t xml:space="preserve">24.245756149292</t>
   </si>
   <si>
-    <t xml:space="preserve">24.8786754608154</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.6352443695068</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.1970710754395</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.9049491882324</t>
+    <t xml:space="preserve">24.8786773681641</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.6352424621582</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.1970672607422</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.9049510955811</t>
   </si>
   <si>
     <t xml:space="preserve">24.0996952056885</t>
@@ -2387,10 +2387,10 @@
     <t xml:space="preserve">23.8075790405273</t>
   </si>
   <si>
-    <t xml:space="preserve">22.8825397491455</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.1746578216553</t>
+    <t xml:space="preserve">22.8825378417969</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.1746559143066</t>
   </si>
   <si>
     <t xml:space="preserve">23.6128330230713</t>
@@ -2411,10 +2411,10 @@
     <t xml:space="preserve">22.2009315490723</t>
   </si>
   <si>
-    <t xml:space="preserve">21.3732662200928</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.7627563476562</t>
+    <t xml:space="preserve">21.3732681274414</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.7627582550049</t>
   </si>
   <si>
     <t xml:space="preserve">20.5942859649658</t>
@@ -2423,22 +2423,22 @@
     <t xml:space="preserve">21.5193252563477</t>
   </si>
   <si>
-    <t xml:space="preserve">21.2272071838379</t>
+    <t xml:space="preserve">21.2272052764893</t>
   </si>
   <si>
     <t xml:space="preserve">21.6166973114014</t>
   </si>
   <si>
-    <t xml:space="preserve">22.3469924926758</t>
+    <t xml:space="preserve">22.3469905853271</t>
   </si>
   <si>
     <t xml:space="preserve">22.1035594940186</t>
   </si>
   <si>
-    <t xml:space="preserve">21.0811500549316</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.2496185302734</t>
+    <t xml:space="preserve">21.081148147583</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.2496166229248</t>
   </si>
   <si>
     <t xml:space="preserve">22.493049621582</t>
@@ -2450,25 +2450,25 @@
     <t xml:space="preserve">22.9799137115479</t>
   </si>
   <si>
-    <t xml:space="preserve">22.7851676940918</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.5865592956543</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.4891872406006</t>
+    <t xml:space="preserve">22.7851657867432</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.5865573883057</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.489185333252</t>
   </si>
   <si>
     <t xml:space="preserve">24.3918132781982</t>
   </si>
   <si>
-    <t xml:space="preserve">25.9010906219482</t>
+    <t xml:space="preserve">25.9010887145996</t>
   </si>
   <si>
     <t xml:space="preserve">26.3392639160156</t>
   </si>
   <si>
-    <t xml:space="preserve">27.1669292449951</t>
+    <t xml:space="preserve">27.1669311523438</t>
   </si>
   <si>
     <t xml:space="preserve">26.8261241912842</t>
@@ -2483,43 +2483,43 @@
     <t xml:space="preserve">27.8485374450684</t>
   </si>
   <si>
-    <t xml:space="preserve">28.8222618103027</t>
+    <t xml:space="preserve">28.8222637176514</t>
   </si>
   <si>
     <t xml:space="preserve">30.0881061553955</t>
   </si>
   <si>
-    <t xml:space="preserve">29.1143798828125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.942045211792</t>
+    <t xml:space="preserve">29.1143779754639</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.9420471191406</t>
   </si>
   <si>
     <t xml:space="preserve">30.5749683380127</t>
   </si>
   <si>
-    <t xml:space="preserve">31.1105194091797</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.9381809234619</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.230297088623</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.7434368133545</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.2789878845215</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.451322555542</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.3763580322266</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.5224189758301</t>
+    <t xml:space="preserve">31.1105175018311</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.9381828308105</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.2303009033203</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.7434387207031</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.2789840698242</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.4513187408447</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.3763618469238</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.5224227905273</t>
   </si>
   <si>
     <t xml:space="preserve">33.4961471557617</t>
@@ -2528,31 +2528,31 @@
     <t xml:space="preserve">33.3987693786621</t>
   </si>
   <si>
-    <t xml:space="preserve">33.0092849731445</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.6908836364746</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.9343223571777</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.3238105773926</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.9567337036133</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.8106689453125</t>
+    <t xml:space="preserve">33.0092811584473</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.6908874511719</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.9343147277832</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.3238067626953</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.956729888916</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.8106727600098</t>
   </si>
   <si>
     <t xml:space="preserve">35.5896530151367</t>
   </si>
   <si>
-    <t xml:space="preserve">35.6870231628418</t>
-  </si>
-  <si>
-    <t xml:space="preserve">37.050235748291</t>
+    <t xml:space="preserve">35.6870269775391</t>
+  </si>
+  <si>
+    <t xml:space="preserve">37.0502395629883</t>
   </si>
   <si>
     <t xml:space="preserve">37.3910446166992</t>
@@ -2564,7 +2564,7 @@
     <t xml:space="preserve">34.5185546875</t>
   </si>
   <si>
-    <t xml:space="preserve">32.7658500671387</t>
+    <t xml:space="preserve">32.7658538818359</t>
   </si>
   <si>
     <t xml:space="preserve">32.863224029541</t>
@@ -2576,22 +2576,22 @@
     <t xml:space="preserve">32.9119071960449</t>
   </si>
   <si>
-    <t xml:space="preserve">32.132926940918</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.5262832641602</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.0131435394287</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.7697124481201</t>
+    <t xml:space="preserve">32.1329307556152</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.5262813568115</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.0131454467773</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.7697143554688</t>
   </si>
   <si>
     <t xml:space="preserve">30.6723403930664</t>
   </si>
   <si>
-    <t xml:space="preserve">31.3052635192871</t>
+    <t xml:space="preserve">31.3052654266357</t>
   </si>
   <si>
     <t xml:space="preserve">33.6422004699707</t>
@@ -2600,13 +2600,13 @@
     <t xml:space="preserve">34.080379486084</t>
   </si>
   <si>
-    <t xml:space="preserve">35.4922790527344</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.8817710876465</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.9304580688477</t>
+    <t xml:space="preserve">35.4922828674316</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.8817672729492</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.9304618835449</t>
   </si>
   <si>
     <t xml:space="preserve">37.4884185791016</t>
@@ -2618,34 +2618,34 @@
     <t xml:space="preserve">37.1963005065918</t>
   </si>
   <si>
-    <t xml:space="preserve">36.1738891601562</t>
+    <t xml:space="preserve">36.173885345459</t>
   </si>
   <si>
     <t xml:space="preserve">36.6607513427734</t>
   </si>
   <si>
-    <t xml:space="preserve">35.2975311279297</t>
+    <t xml:space="preserve">35.2975387573242</t>
   </si>
   <si>
     <t xml:space="preserve">35.2001647949219</t>
   </si>
   <si>
-    <t xml:space="preserve">36.9041786193848</t>
+    <t xml:space="preserve">36.904182434082</t>
   </si>
   <si>
     <t xml:space="preserve">37.2936744689941</t>
   </si>
   <si>
-    <t xml:space="preserve">37.8779067993164</t>
+    <t xml:space="preserve">37.8779029846191</t>
   </si>
   <si>
     <t xml:space="preserve">38.2673950195312</t>
   </si>
   <si>
-    <t xml:space="preserve">38.8516311645508</t>
-  </si>
-  <si>
-    <t xml:space="preserve">38.997688293457</t>
+    <t xml:space="preserve">38.851634979248</t>
+  </si>
+  <si>
+    <t xml:space="preserve">38.9976921081543</t>
   </si>
   <si>
     <t xml:space="preserve">40.068790435791</t>
@@ -2654,7 +2654,7 @@
     <t xml:space="preserve">39.9227294921875</t>
   </si>
   <si>
-    <t xml:space="preserve">38.8029441833496</t>
+    <t xml:space="preserve">38.8029403686523</t>
   </si>
   <si>
     <t xml:space="preserve">38.9490051269531</t>
@@ -2663,10 +2663,10 @@
     <t xml:space="preserve">39.8740425109863</t>
   </si>
   <si>
-    <t xml:space="preserve">40.7017059326172</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40.4095916748047</t>
+    <t xml:space="preserve">40.7017097473145</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40.409595489502</t>
   </si>
   <si>
     <t xml:space="preserve">39.6792984008789</t>
@@ -2675,37 +2675,37 @@
     <t xml:space="preserve">40.5069618225098</t>
   </si>
   <si>
-    <t xml:space="preserve">44.3531761169434</t>
-  </si>
-  <si>
-    <t xml:space="preserve">42.1623001098633</t>
+    <t xml:space="preserve">44.3531799316406</t>
+  </si>
+  <si>
+    <t xml:space="preserve">42.162296295166</t>
   </si>
   <si>
     <t xml:space="preserve">40.3122177124023</t>
   </si>
   <si>
-    <t xml:space="preserve">41.4320030212402</t>
+    <t xml:space="preserve">41.431999206543</t>
   </si>
   <si>
     <t xml:space="preserve">42.1136131286621</t>
   </si>
   <si>
-    <t xml:space="preserve">42.6004753112793</t>
-  </si>
-  <si>
-    <t xml:space="preserve">42.3083610534668</t>
-  </si>
-  <si>
-    <t xml:space="preserve">42.8925895690918</t>
+    <t xml:space="preserve">42.600471496582</t>
+  </si>
+  <si>
+    <t xml:space="preserve">42.3083572387695</t>
+  </si>
+  <si>
+    <t xml:space="preserve">42.8925933837891</t>
   </si>
   <si>
     <t xml:space="preserve">41.8701782226562</t>
   </si>
   <si>
-    <t xml:space="preserve">42.6491622924805</t>
-  </si>
-  <si>
-    <t xml:space="preserve">43.7689437866211</t>
+    <t xml:space="preserve">42.6491546630859</t>
+  </si>
+  <si>
+    <t xml:space="preserve">43.7689399719238</t>
   </si>
   <si>
     <t xml:space="preserve">44.4018630981445</t>
@@ -2720,7 +2720,7 @@
     <t xml:space="preserve">45.9598274230957</t>
   </si>
   <si>
-    <t xml:space="preserve">44.6939849853516</t>
+    <t xml:space="preserve">44.6939811706543</t>
   </si>
   <si>
     <t xml:space="preserve">45.2782173156738</t>
@@ -2729,10 +2729,10 @@
     <t xml:space="preserve">46.3006286621094</t>
   </si>
   <si>
-    <t xml:space="preserve">45.765079498291</t>
-  </si>
-  <si>
-    <t xml:space="preserve">45.2295379638672</t>
+    <t xml:space="preserve">45.7650756835938</t>
+  </si>
+  <si>
+    <t xml:space="preserve">45.2295303344727</t>
   </si>
   <si>
     <t xml:space="preserve">46.5440559387207</t>
@@ -2747,7 +2747,7 @@
     <t xml:space="preserve">44.7913551330566</t>
   </si>
   <si>
-    <t xml:space="preserve">44.547924041748</t>
+    <t xml:space="preserve">44.5479278564453</t>
   </si>
   <si>
     <t xml:space="preserve">44.1097450256348</t>
@@ -2759,13 +2759,13 @@
     <t xml:space="preserve">43.5741958618164</t>
   </si>
   <si>
-    <t xml:space="preserve">43.5255126953125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">43.1360244750977</t>
-  </si>
-  <si>
-    <t xml:space="preserve">43.3307647705078</t>
+    <t xml:space="preserve">43.5255165100098</t>
+  </si>
+  <si>
+    <t xml:space="preserve">43.1360206604004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">43.3307685852051</t>
   </si>
   <si>
     <t xml:space="preserve">44.3044891357422</t>
@@ -2786,7 +2786,7 @@
     <t xml:space="preserve">40.0454292297363</t>
   </si>
   <si>
-    <t xml:space="preserve">39.7014846801758</t>
+    <t xml:space="preserve">39.7014808654785</t>
   </si>
   <si>
     <t xml:space="preserve">40.3402404785156</t>
@@ -2810,10 +2810,10 @@
     <t xml:space="preserve">40.1436996459961</t>
   </si>
   <si>
-    <t xml:space="preserve">39.898021697998</t>
-  </si>
-  <si>
-    <t xml:space="preserve">39.8488845825195</t>
+    <t xml:space="preserve">39.8980178833008</t>
+  </si>
+  <si>
+    <t xml:space="preserve">39.8488883972168</t>
   </si>
   <si>
     <t xml:space="preserve">39.9962959289551</t>
@@ -2822,7 +2822,7 @@
     <t xml:space="preserve">39.504940032959</t>
   </si>
   <si>
-    <t xml:space="preserve">40.5367851257324</t>
+    <t xml:space="preserve">40.5367813110352</t>
   </si>
   <si>
     <t xml:space="preserve">40.1928367614746</t>
@@ -2837,10 +2837,10 @@
     <t xml:space="preserve">37.8343315124512</t>
   </si>
   <si>
-    <t xml:space="preserve">38.3256874084473</t>
-  </si>
-  <si>
-    <t xml:space="preserve">39.7997512817383</t>
+    <t xml:space="preserve">38.32568359375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">39.799747467041</t>
   </si>
   <si>
     <t xml:space="preserve">41.9617118835449</t>
@@ -2852,37 +2852,37 @@
     <t xml:space="preserve">41.7160339355469</t>
   </si>
   <si>
-    <t xml:space="preserve">41.3229522705078</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40.6350517272949</t>
+    <t xml:space="preserve">41.3229484558105</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40.6350555419922</t>
   </si>
   <si>
     <t xml:space="preserve">40.6841888427734</t>
   </si>
   <si>
-    <t xml:space="preserve">42.453067779541</t>
-  </si>
-  <si>
-    <t xml:space="preserve">42.3056564331055</t>
-  </si>
-  <si>
-    <t xml:space="preserve">42.207389831543</t>
+    <t xml:space="preserve">42.4530639648438</t>
+  </si>
+  <si>
+    <t xml:space="preserve">42.3056602478027</t>
+  </si>
+  <si>
+    <t xml:space="preserve">42.2073936462402</t>
   </si>
   <si>
     <t xml:space="preserve">41.6669006347656</t>
   </si>
   <si>
-    <t xml:space="preserve">42.9935607910156</t>
-  </si>
-  <si>
-    <t xml:space="preserve">45.6468772888184</t>
+    <t xml:space="preserve">42.9935569763184</t>
+  </si>
+  <si>
+    <t xml:space="preserve">45.6468734741211</t>
   </si>
   <si>
     <t xml:space="preserve">45.6960105895996</t>
   </si>
   <si>
-    <t xml:space="preserve">46.4821815490723</t>
+    <t xml:space="preserve">46.482177734375</t>
   </si>
   <si>
     <t xml:space="preserve">48.1527862548828</t>
@@ -2894,10 +2894,10 @@
     <t xml:space="preserve">48.1036491394043</t>
   </si>
   <si>
-    <t xml:space="preserve">48.8406829833984</t>
-  </si>
-  <si>
-    <t xml:space="preserve">48.889820098877</t>
+    <t xml:space="preserve">48.8406791687012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">48.8898162841797</t>
   </si>
   <si>
     <t xml:space="preserve">49.1354942321777</t>
@@ -2906,7 +2906,7 @@
     <t xml:space="preserve">48.4967308044434</t>
   </si>
   <si>
-    <t xml:space="preserve">50.0199356079102</t>
+    <t xml:space="preserve">50.0199317932129</t>
   </si>
   <si>
     <t xml:space="preserve">50.2164764404297</t>
@@ -2915,25 +2915,25 @@
     <t xml:space="preserve">50.1182060241699</t>
   </si>
   <si>
-    <t xml:space="preserve">50.3147468566895</t>
+    <t xml:space="preserve">50.3147506713867</t>
   </si>
   <si>
     <t xml:space="preserve">51.0026435852051</t>
   </si>
   <si>
-    <t xml:space="preserve">51.6905364990234</t>
+    <t xml:space="preserve">51.6905403137207</t>
   </si>
   <si>
     <t xml:space="preserve">50.609561920166</t>
   </si>
   <si>
-    <t xml:space="preserve">50.904369354248</t>
+    <t xml:space="preserve">50.9043731689453</t>
   </si>
   <si>
     <t xml:space="preserve">50.8061027526855</t>
   </si>
   <si>
-    <t xml:space="preserve">51.5922660827637</t>
+    <t xml:space="preserve">51.5922698974609</t>
   </si>
   <si>
     <t xml:space="preserve">50.5112915039062</t>
@@ -2945,19 +2945,19 @@
     <t xml:space="preserve">51.2974548339844</t>
   </si>
   <si>
-    <t xml:space="preserve">52.1818962097168</t>
-  </si>
-  <si>
-    <t xml:space="preserve">52.2801704406738</t>
-  </si>
-  <si>
-    <t xml:space="preserve">51.1991806030273</t>
-  </si>
-  <si>
-    <t xml:space="preserve">45.5486030578613</t>
-  </si>
-  <si>
-    <t xml:space="preserve">44.8115653991699</t>
+    <t xml:space="preserve">52.1818923950195</t>
+  </si>
+  <si>
+    <t xml:space="preserve">52.2801666259766</t>
+  </si>
+  <si>
+    <t xml:space="preserve">51.1991844177246</t>
+  </si>
+  <si>
+    <t xml:space="preserve">45.5485992431641</t>
+  </si>
+  <si>
+    <t xml:space="preserve">44.8115692138672</t>
   </si>
   <si>
     <t xml:space="preserve">43.7797241210938</t>
@@ -2966,13 +2966,13 @@
     <t xml:space="preserve">44.5167579650879</t>
   </si>
   <si>
-    <t xml:space="preserve">44.5658912658691</t>
+    <t xml:space="preserve">44.5658950805664</t>
   </si>
   <si>
     <t xml:space="preserve">45.2046546936035</t>
   </si>
   <si>
-    <t xml:space="preserve">44.3202171325684</t>
+    <t xml:space="preserve">44.3202133178711</t>
   </si>
   <si>
     <t xml:space="preserve">44.074535369873</t>
@@ -2984,16 +2984,16 @@
     <t xml:space="preserve">44.2219467163086</t>
   </si>
   <si>
-    <t xml:space="preserve">44.4676208496094</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41.4703559875488</t>
+    <t xml:space="preserve">44.4676246643066</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41.4703598022461</t>
   </si>
   <si>
     <t xml:space="preserve">41.224681854248</t>
   </si>
   <si>
-    <t xml:space="preserve">42.0108451843262</t>
+    <t xml:space="preserve">42.0108528137207</t>
   </si>
   <si>
     <t xml:space="preserve">42.5513381958008</t>
@@ -3002,7 +3002,7 @@
     <t xml:space="preserve">43.3375053405762</t>
   </si>
   <si>
-    <t xml:space="preserve">43.534049987793</t>
+    <t xml:space="preserve">43.5340461730957</t>
   </si>
   <si>
     <t xml:space="preserve">43.9762649536133</t>
@@ -3011,7 +3011,7 @@
     <t xml:space="preserve">44.6150283813477</t>
   </si>
   <si>
-    <t xml:space="preserve">45.7451438903809</t>
+    <t xml:space="preserve">45.7451477050781</t>
   </si>
   <si>
     <t xml:space="preserve">46.3839111328125</t>
@@ -3020,10 +3020,10 @@
     <t xml:space="preserve">45.9416885375977</t>
   </si>
   <si>
-    <t xml:space="preserve">46.0399589538574</t>
-  </si>
-  <si>
-    <t xml:space="preserve">43.0426940917969</t>
+    <t xml:space="preserve">46.0399551391602</t>
+  </si>
+  <si>
+    <t xml:space="preserve">43.0426902770996</t>
   </si>
   <si>
     <t xml:space="preserve">41.5194892883301</t>
@@ -3032,19 +3032,19 @@
     <t xml:space="preserve">42.9444236755371</t>
   </si>
   <si>
-    <t xml:space="preserve">43.386646270752</t>
-  </si>
-  <si>
-    <t xml:space="preserve">42.6987495422363</t>
+    <t xml:space="preserve">43.3866424560547</t>
+  </si>
+  <si>
+    <t xml:space="preserve">42.6987457275391</t>
   </si>
   <si>
     <t xml:space="preserve">41.7651710510254</t>
   </si>
   <si>
-    <t xml:space="preserve">41.2738151550293</t>
-  </si>
-  <si>
-    <t xml:space="preserve">39.1118507385254</t>
+    <t xml:space="preserve">41.2738189697266</t>
+  </si>
+  <si>
+    <t xml:space="preserve">39.1118545532227</t>
   </si>
   <si>
     <t xml:space="preserve">38.4730949401855</t>
@@ -3053,22 +3053,22 @@
     <t xml:space="preserve">39.3083953857422</t>
   </si>
   <si>
-    <t xml:space="preserve">40.0945663452148</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40.7824592590332</t>
-  </si>
-  <si>
-    <t xml:space="preserve">42.1091156005859</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41.3720855712891</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41.0772705078125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41.9125747680664</t>
+    <t xml:space="preserve">40.0945625305176</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40.7824630737305</t>
+  </si>
+  <si>
+    <t xml:space="preserve">42.1091194152832</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41.3720893859863</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41.0772743225098</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41.9125785827637</t>
   </si>
   <si>
     <t xml:space="preserve">41.8634414672852</t>
@@ -3092,7 +3092,7 @@
     <t xml:space="preserve">40.880729675293</t>
   </si>
   <si>
-    <t xml:space="preserve">43.1409645080566</t>
+    <t xml:space="preserve">43.1409683227539</t>
   </si>
   <si>
     <t xml:space="preserve">43.7305908203125</t>
@@ -3110,28 +3110,28 @@
     <t xml:space="preserve">42.8461494445801</t>
   </si>
   <si>
-    <t xml:space="preserve">42.8952903747559</t>
-  </si>
-  <si>
-    <t xml:space="preserve">38.8170394897461</t>
+    <t xml:space="preserve">42.8952865600586</t>
+  </si>
+  <si>
+    <t xml:space="preserve">38.8170433044434</t>
   </si>
   <si>
     <t xml:space="preserve">36.6550788879395</t>
   </si>
   <si>
-    <t xml:space="preserve">38.8661766052246</t>
+    <t xml:space="preserve">38.8661727905273</t>
   </si>
   <si>
     <t xml:space="preserve">37.3429756164551</t>
   </si>
   <si>
-    <t xml:space="preserve">36.0163154602051</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.9353370666504</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.8197746276855</t>
+    <t xml:space="preserve">36.0163192749023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.9353332519531</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.8197784423828</t>
   </si>
   <si>
     <t xml:space="preserve">36.7533531188965</t>
@@ -3140,7 +3140,7 @@
     <t xml:space="preserve">36.851619720459</t>
   </si>
   <si>
-    <t xml:space="preserve">36.3111343383789</t>
+    <t xml:space="preserve">36.3111305236816</t>
   </si>
   <si>
     <t xml:space="preserve">36.3602676391602</t>
@@ -3152,13 +3152,13 @@
     <t xml:space="preserve">34.7387924194336</t>
   </si>
   <si>
-    <t xml:space="preserve">36.6059455871582</t>
+    <t xml:space="preserve">36.6059417724609</t>
   </si>
   <si>
     <t xml:space="preserve">35.5740966796875</t>
   </si>
   <si>
-    <t xml:space="preserve">34.149169921875</t>
+    <t xml:space="preserve">34.1491661071777</t>
   </si>
   <si>
     <t xml:space="preserve">32.3311538696289</t>
@@ -3167,19 +3167,19 @@
     <t xml:space="preserve">31.6923942565918</t>
   </si>
   <si>
-    <t xml:space="preserve">31.8397998809814</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.2155952453613</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.5768356323242</t>
+    <t xml:space="preserve">31.8398036956787</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.2155914306641</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.576831817627</t>
   </si>
   <si>
     <t xml:space="preserve">33.6578140258789</t>
   </si>
   <si>
-    <t xml:space="preserve">34.9844703674316</t>
+    <t xml:space="preserve">34.9844741821289</t>
   </si>
   <si>
     <t xml:space="preserve">34.7879295349121</t>
@@ -3188,7 +3188,7 @@
     <t xml:space="preserve">35.5249633789062</t>
   </si>
   <si>
-    <t xml:space="preserve">32.2328796386719</t>
+    <t xml:space="preserve">32.2328834533691</t>
   </si>
   <si>
     <t xml:space="preserve">31.5941257476807</t>
@@ -3200,13 +3200,13 @@
     <t xml:space="preserve">33.1664619445801</t>
   </si>
   <si>
-    <t xml:space="preserve">32.724235534668</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.6259651184082</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.822509765625</t>
+    <t xml:space="preserve">32.7242393493652</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.6259689331055</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.8225135803223</t>
   </si>
   <si>
     <t xml:space="preserve">31.6432590484619</t>
@@ -3218,10 +3218,10 @@
     <t xml:space="preserve">32.9699172973633</t>
   </si>
   <si>
-    <t xml:space="preserve">31.4074077606201</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.210865020752</t>
+    <t xml:space="preserve">31.4074058532715</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.2108669281006</t>
   </si>
   <si>
     <t xml:space="preserve">31.0929393768311</t>
@@ -3230,10 +3230,10 @@
     <t xml:space="preserve">29.8350734710693</t>
   </si>
   <si>
-    <t xml:space="preserve">30.6605472564697</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.4294242858887</t>
+    <t xml:space="preserve">30.6605491638184</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.4294281005859</t>
   </si>
   <si>
     <t xml:space="preserve">32.2721939086914</t>
@@ -3251,7 +3251,7 @@
     <t xml:space="preserve">31.5842952728271</t>
   </si>
   <si>
-    <t xml:space="preserve">31.8594512939453</t>
+    <t xml:space="preserve">31.8594532012939</t>
   </si>
   <si>
     <t xml:space="preserve">30.0709228515625</t>
@@ -3260,34 +3260,34 @@
     <t xml:space="preserve">30.1495399475098</t>
   </si>
   <si>
-    <t xml:space="preserve">28.5575485229492</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.6754741668701</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.3830261230469</t>
+    <t xml:space="preserve">28.5575504302979</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.6754760742188</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.3830242156982</t>
   </si>
   <si>
     <t xml:space="preserve">29.0489044189453</t>
   </si>
   <si>
-    <t xml:space="preserve">29.1078681945801</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.265100479126</t>
+    <t xml:space="preserve">29.1078662872314</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.2651023864746</t>
   </si>
   <si>
     <t xml:space="preserve">28.478931427002</t>
   </si>
   <si>
-    <t xml:space="preserve">28.5968570709229</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.181755065918</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.4985885620117</t>
+    <t xml:space="preserve">28.5968589782715</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.1817569732666</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.4985866546631</t>
   </si>
   <si>
     <t xml:space="preserve">28.7737464904785</t>
@@ -3296,444 +3296,447 @@
     <t xml:space="preserve">28.4003162384033</t>
   </si>
   <si>
+    <t xml:space="preserve">28.7344360351562</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.2578449249268</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.9670810699463</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.6692123413086</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.7486438751221</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.9472217559814</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.6025333404541</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.5500640869141</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.8082180023193</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.3245239257812</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.1386985778809</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.4762859344482</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.3968524932861</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.8408317565918</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.019552230835</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.4961433410645</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.0918788909912</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.1911697387695</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.628044128418</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.2110290527344</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.0663719177246</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.060718536377</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.0805759429932</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.7160301208496</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.5245552062988</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.497594833374</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.6763153076172</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.5373077392578</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.8819961547852</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.3585872650146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.4380207061768</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.6039867401123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.9486751556396</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.306116104126</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.9089584350586</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.1146411895752</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.6110916137695</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.2664031982422</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.6706619262695</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.2536468505859</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.9756355285645</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.4791870117188</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.6252956390381</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.8763465881348</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.0153503417969</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.4848384857178</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.7699527740479</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.8025646209717</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.6635608673096</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.259298324585</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.9940414428711</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.8947525024414</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.1529064178467</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.2323379516602</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.4578762054443</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.1997241973877</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.6365985870361</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.113187789917</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.2124805450439</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.9543266296387</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.5571670532227</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.5841293334961</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.0876808166504</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.2862586975098</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.1869697570801</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.7500953674316</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.3855476379395</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.3259754180908</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.4252643585205</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.690523147583</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.5642700195312</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.9288158416748</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.0082492828369</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.8493843078613</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.9415721893311</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.0210037231445</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.3656921386719</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.8295269012451</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.8962020874023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.6181926727295</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.7770576477051</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.1018867492676</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.1288471221924</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.1756649017334</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.9175109863281</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.1160926818848</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.3217735290527</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.937370300293</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.2948131561279</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.5061473846436</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.0494155883789</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.3075675964355</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.3472843170166</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.6451530456543</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.9104099273682</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.4465732574463</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.6650104522705</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.0621700286865</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.2607498168945</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.7245826721191</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.5657215118408</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.7373390197754</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.3798980712891</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.2408905029297</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.499044418335</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.8437328338623</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.1217460632324</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.1344985961914</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.5316581726074</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.7302360534668</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.2068271636963</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.8153209686279</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.1060848236084</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.708927154541</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.6294956207275</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.0479621887207</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.1202926635742</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.3188724517822</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.2720527648926</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.4904899597168</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.7684993743896</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.7883605957031</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.8224239349365</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.7827072143555</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.0408611297607</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.8891010284424</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.0352096557617</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.8621406555176</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.3387298583984</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.1926193237305</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.1330471038818</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.855037689209</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.3316287994385</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.1458015441895</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.8677921295166</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.0989837646484</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.662109375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.5628204345703</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.7741527557373</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.8535842895508</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.2975635528564</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.6550064086914</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.3571357727051</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.8933010101318</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.9528751373291</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.7940120697021</t>
+  </si>
+  <si>
     <t xml:space="preserve">28.7344379425049</t>
   </si>
   <si>
-    <t xml:space="preserve">28.2578449249268</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.9670810699463</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.6692123413086</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.7486438751221</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.9472217559814</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.6025333404541</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.5500640869141</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.8082180023193</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.3245239257812</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.1386985778809</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.4762859344482</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.3968524932861</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.8408317565918</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.019552230835</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.4961433410645</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.0918788909912</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.1911697387695</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.628044128418</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.2110290527344</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.0663719177246</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.060718536377</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.0805759429932</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.7160301208496</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.5245552062988</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.497594833374</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.6763153076172</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.5373077392578</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.8819961547852</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.3585872650146</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.4380207061768</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.6039867401123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.9486751556396</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.306116104126</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.9089584350586</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.1146411895752</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.6110916137695</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.2664031982422</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.6706619262695</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.2536468505859</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.9756355285645</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.4791870117188</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.6252956390381</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.8763465881348</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.0153503417969</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.4848384857178</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.7699527740479</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.8025646209717</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.6635608673096</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.259298324585</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.9940414428711</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.8947525024414</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.1529064178467</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.2323379516602</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.4578762054443</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.1997241973877</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.6365985870361</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.113187789917</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.2124805450439</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.9543266296387</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.5571670532227</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.5841293334961</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.0876808166504</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.2862586975098</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.1869697570801</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.7500953674316</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.3855476379395</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.3259754180908</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.4252643585205</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.690523147583</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.5642700195312</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.9288158416748</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.0082492828369</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.8493843078613</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.9415721893311</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.0210037231445</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.3656921386719</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.8295269012451</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.8962020874023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.6181926727295</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.7770576477051</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.1018867492676</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.1288471221924</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.1756649017334</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.9175109863281</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.1160926818848</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.3217735290527</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.937370300293</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.2948131561279</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.5061473846436</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.0494155883789</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.3075675964355</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.3472843170166</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.6451530456543</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.9104099273682</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.4465732574463</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.6650104522705</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.0621700286865</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.2607498168945</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.7245826721191</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.5657215118408</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.7373390197754</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.3798980712891</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.2408905029297</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.499044418335</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.8437328338623</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.1217460632324</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.1344985961914</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.5316581726074</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.7302360534668</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.2068271636963</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.8153209686279</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.1060848236084</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.708927154541</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.6294956207275</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.0479621887207</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.1202926635742</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.3188724517822</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.2720527648926</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.4904899597168</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.7684993743896</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.7883605957031</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.8224239349365</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.7827072143555</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.0408611297607</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.8891010284424</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.0352096557617</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.8621406555176</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.3387298583984</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.1926193237305</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.1330471038818</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.855037689209</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.3316287994385</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.1458015441895</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.8677921295166</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.0989837646484</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.662109375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.5628204345703</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.7741527557373</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.8535842895508</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.2975635528564</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.6550064086914</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.3571357727051</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.8933010101318</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.9528751373291</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.7940120697021</t>
-  </si>
-  <si>
     <t xml:space="preserve">29.0323066711426</t>
   </si>
   <si>
@@ -4437,6 +4440,9 @@
   </si>
   <si>
     <t xml:space="preserve">37.3499984741211</t>
+  </si>
+  <si>
+    <t xml:space="preserve">37.5</t>
   </si>
 </sst>
 </file>
@@ -51570,7 +51576,7 @@
         <v>28.9400005340576</v>
       </c>
       <c r="G1800" t="s">
-        <v>1094</v>
+        <v>1240</v>
       </c>
       <c r="H1800" t="s">
         <v>9</v>
@@ -51596,7 +51602,7 @@
         <v>29.2399997711182</v>
       </c>
       <c r="G1801" t="s">
-        <v>1240</v>
+        <v>1241</v>
       </c>
       <c r="H1801" t="s">
         <v>9</v>
@@ -51622,7 +51628,7 @@
         <v>29.1399993896484</v>
       </c>
       <c r="G1802" t="s">
-        <v>1241</v>
+        <v>1242</v>
       </c>
       <c r="H1802" t="s">
         <v>9</v>
@@ -51674,7 +51680,7 @@
         <v>29.2600002288818</v>
       </c>
       <c r="G1804" t="s">
-        <v>1242</v>
+        <v>1243</v>
       </c>
       <c r="H1804" t="s">
         <v>9</v>
@@ -51700,7 +51706,7 @@
         <v>29.0799999237061</v>
       </c>
       <c r="G1805" t="s">
-        <v>1243</v>
+        <v>1244</v>
       </c>
       <c r="H1805" t="s">
         <v>9</v>
@@ -51726,7 +51732,7 @@
         <v>30.5799999237061</v>
       </c>
       <c r="G1806" t="s">
-        <v>1244</v>
+        <v>1245</v>
       </c>
       <c r="H1806" t="s">
         <v>9</v>
@@ -51752,7 +51758,7 @@
         <v>30.2199993133545</v>
       </c>
       <c r="G1807" t="s">
-        <v>1245</v>
+        <v>1246</v>
       </c>
       <c r="H1807" t="s">
         <v>9</v>
@@ -51778,7 +51784,7 @@
         <v>30.2800006866455</v>
       </c>
       <c r="G1808" t="s">
-        <v>1246</v>
+        <v>1247</v>
       </c>
       <c r="H1808" t="s">
         <v>9</v>
@@ -51804,7 +51810,7 @@
         <v>30</v>
       </c>
       <c r="G1809" t="s">
-        <v>1247</v>
+        <v>1248</v>
       </c>
       <c r="H1809" t="s">
         <v>9</v>
@@ -51830,7 +51836,7 @@
         <v>30</v>
       </c>
       <c r="G1810" t="s">
-        <v>1247</v>
+        <v>1248</v>
       </c>
       <c r="H1810" t="s">
         <v>9</v>
@@ -51856,7 +51862,7 @@
         <v>29.8799991607666</v>
       </c>
       <c r="G1811" t="s">
-        <v>1248</v>
+        <v>1249</v>
       </c>
       <c r="H1811" t="s">
         <v>9</v>
@@ -51908,7 +51914,7 @@
         <v>29.6200008392334</v>
       </c>
       <c r="G1813" t="s">
-        <v>1249</v>
+        <v>1250</v>
       </c>
       <c r="H1813" t="s">
         <v>9</v>
@@ -51934,7 +51940,7 @@
         <v>29.8799991607666</v>
       </c>
       <c r="G1814" t="s">
-        <v>1248</v>
+        <v>1249</v>
       </c>
       <c r="H1814" t="s">
         <v>9</v>
@@ -51960,7 +51966,7 @@
         <v>29.7399997711182</v>
       </c>
       <c r="G1815" t="s">
-        <v>1250</v>
+        <v>1251</v>
       </c>
       <c r="H1815" t="s">
         <v>9</v>
@@ -51986,7 +51992,7 @@
         <v>29.7000007629395</v>
       </c>
       <c r="G1816" t="s">
-        <v>1251</v>
+        <v>1252</v>
       </c>
       <c r="H1816" t="s">
         <v>9</v>
@@ -52012,7 +52018,7 @@
         <v>29.5400009155273</v>
       </c>
       <c r="G1817" t="s">
-        <v>1252</v>
+        <v>1253</v>
       </c>
       <c r="H1817" t="s">
         <v>9</v>
@@ -52038,7 +52044,7 @@
         <v>29.2199993133545</v>
       </c>
       <c r="G1818" t="s">
-        <v>1253</v>
+        <v>1254</v>
       </c>
       <c r="H1818" t="s">
         <v>9</v>
@@ -52090,7 +52096,7 @@
         <v>28.5400009155273</v>
       </c>
       <c r="G1820" t="s">
-        <v>1254</v>
+        <v>1255</v>
       </c>
       <c r="H1820" t="s">
         <v>9</v>
@@ -52142,7 +52148,7 @@
         <v>28.0799999237061</v>
       </c>
       <c r="G1822" t="s">
-        <v>1255</v>
+        <v>1256</v>
       </c>
       <c r="H1822" t="s">
         <v>9</v>
@@ -52168,7 +52174,7 @@
         <v>28.5799999237061</v>
       </c>
       <c r="G1823" t="s">
-        <v>1256</v>
+        <v>1257</v>
       </c>
       <c r="H1823" t="s">
         <v>9</v>
@@ -52194,7 +52200,7 @@
         <v>28.7600002288818</v>
       </c>
       <c r="G1824" t="s">
-        <v>1257</v>
+        <v>1258</v>
       </c>
       <c r="H1824" t="s">
         <v>9</v>
@@ -52220,7 +52226,7 @@
         <v>28.7600002288818</v>
       </c>
       <c r="G1825" t="s">
-        <v>1257</v>
+        <v>1258</v>
       </c>
       <c r="H1825" t="s">
         <v>9</v>
@@ -52246,7 +52252,7 @@
         <v>28.3199996948242</v>
       </c>
       <c r="G1826" t="s">
-        <v>1258</v>
+        <v>1259</v>
       </c>
       <c r="H1826" t="s">
         <v>9</v>
@@ -52272,7 +52278,7 @@
         <v>28.3199996948242</v>
       </c>
       <c r="G1827" t="s">
-        <v>1258</v>
+        <v>1259</v>
       </c>
       <c r="H1827" t="s">
         <v>9</v>
@@ -52298,7 +52304,7 @@
         <v>27.9200000762939</v>
       </c>
       <c r="G1828" t="s">
-        <v>1259</v>
+        <v>1260</v>
       </c>
       <c r="H1828" t="s">
         <v>9</v>
@@ -52350,7 +52356,7 @@
         <v>27.9799995422363</v>
       </c>
       <c r="G1830" t="s">
-        <v>1260</v>
+        <v>1261</v>
       </c>
       <c r="H1830" t="s">
         <v>9</v>
@@ -52376,7 +52382,7 @@
         <v>27.2800006866455</v>
       </c>
       <c r="G1831" t="s">
-        <v>1261</v>
+        <v>1262</v>
       </c>
       <c r="H1831" t="s">
         <v>9</v>
@@ -52402,7 +52408,7 @@
         <v>27.0400009155273</v>
       </c>
       <c r="G1832" t="s">
-        <v>1262</v>
+        <v>1263</v>
       </c>
       <c r="H1832" t="s">
         <v>9</v>
@@ -52454,7 +52460,7 @@
         <v>25.9200000762939</v>
       </c>
       <c r="G1834" t="s">
-        <v>1263</v>
+        <v>1264</v>
       </c>
       <c r="H1834" t="s">
         <v>9</v>
@@ -52480,7 +52486,7 @@
         <v>24.7199993133545</v>
       </c>
       <c r="G1835" t="s">
-        <v>1264</v>
+        <v>1265</v>
       </c>
       <c r="H1835" t="s">
         <v>9</v>
@@ -52506,7 +52512,7 @@
         <v>23.5400009155273</v>
       </c>
       <c r="G1836" t="s">
-        <v>1265</v>
+        <v>1266</v>
       </c>
       <c r="H1836" t="s">
         <v>9</v>
@@ -52532,7 +52538,7 @@
         <v>22.6000003814697</v>
       </c>
       <c r="G1837" t="s">
-        <v>1266</v>
+        <v>1267</v>
       </c>
       <c r="H1837" t="s">
         <v>9</v>
@@ -52584,7 +52590,7 @@
         <v>24.5200004577637</v>
       </c>
       <c r="G1839" t="s">
-        <v>1267</v>
+        <v>1268</v>
       </c>
       <c r="H1839" t="s">
         <v>9</v>
@@ -52636,7 +52642,7 @@
         <v>24.7999992370605</v>
       </c>
       <c r="G1841" t="s">
-        <v>1268</v>
+        <v>1269</v>
       </c>
       <c r="H1841" t="s">
         <v>9</v>
@@ -52662,7 +52668,7 @@
         <v>24.7199993133545</v>
       </c>
       <c r="G1842" t="s">
-        <v>1264</v>
+        <v>1265</v>
       </c>
       <c r="H1842" t="s">
         <v>9</v>
@@ -52688,7 +52694,7 @@
         <v>25.0799999237061</v>
       </c>
       <c r="G1843" t="s">
-        <v>1269</v>
+        <v>1270</v>
       </c>
       <c r="H1843" t="s">
         <v>9</v>
@@ -52714,7 +52720,7 @@
         <v>25.3400001525879</v>
       </c>
       <c r="G1844" t="s">
-        <v>1270</v>
+        <v>1271</v>
       </c>
       <c r="H1844" t="s">
         <v>9</v>
@@ -52792,7 +52798,7 @@
         <v>26.1000003814697</v>
       </c>
       <c r="G1847" t="s">
-        <v>1271</v>
+        <v>1272</v>
       </c>
       <c r="H1847" t="s">
         <v>9</v>
@@ -52818,7 +52824,7 @@
         <v>26.6499996185303</v>
       </c>
       <c r="G1848" t="s">
-        <v>1272</v>
+        <v>1273</v>
       </c>
       <c r="H1848" t="s">
         <v>9</v>
@@ -52844,7 +52850,7 @@
         <v>27.3500003814697</v>
       </c>
       <c r="G1849" t="s">
-        <v>1273</v>
+        <v>1274</v>
       </c>
       <c r="H1849" t="s">
         <v>9</v>
@@ -52896,7 +52902,7 @@
         <v>27.1000003814697</v>
       </c>
       <c r="G1851" t="s">
-        <v>1274</v>
+        <v>1275</v>
       </c>
       <c r="H1851" t="s">
         <v>9</v>
@@ -52922,7 +52928,7 @@
         <v>27.5499992370605</v>
       </c>
       <c r="G1852" t="s">
-        <v>1275</v>
+        <v>1276</v>
       </c>
       <c r="H1852" t="s">
         <v>9</v>
@@ -52948,7 +52954,7 @@
         <v>27.75</v>
       </c>
       <c r="G1853" t="s">
-        <v>1276</v>
+        <v>1277</v>
       </c>
       <c r="H1853" t="s">
         <v>9</v>
@@ -52974,7 +52980,7 @@
         <v>28.3500003814697</v>
       </c>
       <c r="G1854" t="s">
-        <v>1277</v>
+        <v>1278</v>
       </c>
       <c r="H1854" t="s">
         <v>9</v>
@@ -53000,7 +53006,7 @@
         <v>28.0499992370605</v>
       </c>
       <c r="G1855" t="s">
-        <v>1278</v>
+        <v>1279</v>
       </c>
       <c r="H1855" t="s">
         <v>9</v>
@@ -53026,7 +53032,7 @@
         <v>27.9500007629395</v>
       </c>
       <c r="G1856" t="s">
-        <v>1279</v>
+        <v>1280</v>
       </c>
       <c r="H1856" t="s">
         <v>9</v>
@@ -53052,7 +53058,7 @@
         <v>27.5499992370605</v>
       </c>
       <c r="G1857" t="s">
-        <v>1275</v>
+        <v>1276</v>
       </c>
       <c r="H1857" t="s">
         <v>9</v>
@@ -53078,7 +53084,7 @@
         <v>27.7000007629395</v>
       </c>
       <c r="G1858" t="s">
-        <v>1280</v>
+        <v>1281</v>
       </c>
       <c r="H1858" t="s">
         <v>9</v>
@@ -53104,7 +53110,7 @@
         <v>27.4500007629395</v>
       </c>
       <c r="G1859" t="s">
-        <v>1281</v>
+        <v>1282</v>
       </c>
       <c r="H1859" t="s">
         <v>9</v>
@@ -53130,7 +53136,7 @@
         <v>27.75</v>
       </c>
       <c r="G1860" t="s">
-        <v>1276</v>
+        <v>1277</v>
       </c>
       <c r="H1860" t="s">
         <v>9</v>
@@ -53156,7 +53162,7 @@
         <v>27.75</v>
       </c>
       <c r="G1861" t="s">
-        <v>1276</v>
+        <v>1277</v>
       </c>
       <c r="H1861" t="s">
         <v>9</v>
@@ -53182,7 +53188,7 @@
         <v>27.75</v>
       </c>
       <c r="G1862" t="s">
-        <v>1276</v>
+        <v>1277</v>
       </c>
       <c r="H1862" t="s">
         <v>9</v>
@@ -53208,7 +53214,7 @@
         <v>27.2000007629395</v>
       </c>
       <c r="G1863" t="s">
-        <v>1282</v>
+        <v>1283</v>
       </c>
       <c r="H1863" t="s">
         <v>9</v>
@@ -53234,7 +53240,7 @@
         <v>27.5499992370605</v>
       </c>
       <c r="G1864" t="s">
-        <v>1275</v>
+        <v>1276</v>
       </c>
       <c r="H1864" t="s">
         <v>9</v>
@@ -53286,7 +53292,7 @@
         <v>27.6499996185303</v>
       </c>
       <c r="G1866" t="s">
-        <v>1283</v>
+        <v>1284</v>
       </c>
       <c r="H1866" t="s">
         <v>9</v>
@@ -53312,7 +53318,7 @@
         <v>27.3500003814697</v>
       </c>
       <c r="G1867" t="s">
-        <v>1273</v>
+        <v>1274</v>
       </c>
       <c r="H1867" t="s">
         <v>9</v>
@@ -53338,7 +53344,7 @@
         <v>27.1499996185303</v>
       </c>
       <c r="G1868" t="s">
-        <v>1284</v>
+        <v>1285</v>
       </c>
       <c r="H1868" t="s">
         <v>9</v>
@@ -53364,7 +53370,7 @@
         <v>28</v>
       </c>
       <c r="G1869" t="s">
-        <v>1285</v>
+        <v>1286</v>
       </c>
       <c r="H1869" t="s">
         <v>9</v>
@@ -53416,7 +53422,7 @@
         <v>27.3500003814697</v>
       </c>
       <c r="G1871" t="s">
-        <v>1273</v>
+        <v>1274</v>
       </c>
       <c r="H1871" t="s">
         <v>9</v>
@@ -53442,7 +53448,7 @@
         <v>27.25</v>
       </c>
       <c r="G1872" t="s">
-        <v>1286</v>
+        <v>1287</v>
       </c>
       <c r="H1872" t="s">
         <v>9</v>
@@ -53468,7 +53474,7 @@
         <v>27.5499992370605</v>
       </c>
       <c r="G1873" t="s">
-        <v>1275</v>
+        <v>1276</v>
       </c>
       <c r="H1873" t="s">
         <v>9</v>
@@ -53494,7 +53500,7 @@
         <v>27.6000003814697</v>
       </c>
       <c r="G1874" t="s">
-        <v>1287</v>
+        <v>1288</v>
       </c>
       <c r="H1874" t="s">
         <v>9</v>
@@ -53520,7 +53526,7 @@
         <v>27.2000007629395</v>
       </c>
       <c r="G1875" t="s">
-        <v>1282</v>
+        <v>1283</v>
       </c>
       <c r="H1875" t="s">
         <v>9</v>
@@ -53546,7 +53552,7 @@
         <v>27.2000007629395</v>
       </c>
       <c r="G1876" t="s">
-        <v>1282</v>
+        <v>1283</v>
       </c>
       <c r="H1876" t="s">
         <v>9</v>
@@ -53572,7 +53578,7 @@
         <v>27.7000007629395</v>
       </c>
       <c r="G1877" t="s">
-        <v>1280</v>
+        <v>1281</v>
       </c>
       <c r="H1877" t="s">
         <v>9</v>
@@ -53598,7 +53604,7 @@
         <v>27.8999996185303</v>
       </c>
       <c r="G1878" t="s">
-        <v>1288</v>
+        <v>1289</v>
       </c>
       <c r="H1878" t="s">
         <v>9</v>
@@ -53624,7 +53630,7 @@
         <v>28.3500003814697</v>
       </c>
       <c r="G1879" t="s">
-        <v>1277</v>
+        <v>1278</v>
       </c>
       <c r="H1879" t="s">
         <v>9</v>
@@ -53676,7 +53682,7 @@
         <v>28.3500003814697</v>
       </c>
       <c r="G1881" t="s">
-        <v>1277</v>
+        <v>1278</v>
       </c>
       <c r="H1881" t="s">
         <v>9</v>
@@ -53702,7 +53708,7 @@
         <v>27.2000007629395</v>
       </c>
       <c r="G1882" t="s">
-        <v>1282</v>
+        <v>1283</v>
       </c>
       <c r="H1882" t="s">
         <v>9</v>
@@ -53728,7 +53734,7 @@
         <v>27.6000003814697</v>
       </c>
       <c r="G1883" t="s">
-        <v>1287</v>
+        <v>1288</v>
       </c>
       <c r="H1883" t="s">
         <v>9</v>
@@ -53754,7 +53760,7 @@
         <v>28.3500003814697</v>
       </c>
       <c r="G1884" t="s">
-        <v>1277</v>
+        <v>1278</v>
       </c>
       <c r="H1884" t="s">
         <v>9</v>
@@ -53780,7 +53786,7 @@
         <v>28.2000007629395</v>
       </c>
       <c r="G1885" t="s">
-        <v>1289</v>
+        <v>1290</v>
       </c>
       <c r="H1885" t="s">
         <v>9</v>
@@ -53806,7 +53812,7 @@
         <v>28.3500003814697</v>
       </c>
       <c r="G1886" t="s">
-        <v>1277</v>
+        <v>1278</v>
       </c>
       <c r="H1886" t="s">
         <v>9</v>
@@ -53832,7 +53838,7 @@
         <v>28.75</v>
       </c>
       <c r="G1887" t="s">
-        <v>1290</v>
+        <v>1291</v>
       </c>
       <c r="H1887" t="s">
         <v>9</v>
@@ -53858,7 +53864,7 @@
         <v>29.7999992370605</v>
       </c>
       <c r="G1888" t="s">
-        <v>1291</v>
+        <v>1292</v>
       </c>
       <c r="H1888" t="s">
         <v>9</v>
@@ -53884,7 +53890,7 @@
         <v>30.8500003814697</v>
       </c>
       <c r="G1889" t="s">
-        <v>1292</v>
+        <v>1293</v>
       </c>
       <c r="H1889" t="s">
         <v>9</v>
@@ -53910,7 +53916,7 @@
         <v>30.6000003814697</v>
       </c>
       <c r="G1890" t="s">
-        <v>1293</v>
+        <v>1294</v>
       </c>
       <c r="H1890" t="s">
         <v>9</v>
@@ -53936,7 +53942,7 @@
         <v>31.25</v>
       </c>
       <c r="G1891" t="s">
-        <v>1294</v>
+        <v>1295</v>
       </c>
       <c r="H1891" t="s">
         <v>9</v>
@@ -53962,7 +53968,7 @@
         <v>32.4000015258789</v>
       </c>
       <c r="G1892" t="s">
-        <v>1295</v>
+        <v>1296</v>
       </c>
       <c r="H1892" t="s">
         <v>9</v>
@@ -53988,7 +53994,7 @@
         <v>31.9500007629395</v>
       </c>
       <c r="G1893" t="s">
-        <v>1296</v>
+        <v>1297</v>
       </c>
       <c r="H1893" t="s">
         <v>9</v>
@@ -54014,7 +54020,7 @@
         <v>32.5</v>
       </c>
       <c r="G1894" t="s">
-        <v>1297</v>
+        <v>1298</v>
       </c>
       <c r="H1894" t="s">
         <v>9</v>
@@ -54040,7 +54046,7 @@
         <v>33.25</v>
       </c>
       <c r="G1895" t="s">
-        <v>1298</v>
+        <v>1299</v>
       </c>
       <c r="H1895" t="s">
         <v>9</v>
@@ -54066,7 +54072,7 @@
         <v>32.75</v>
       </c>
       <c r="G1896" t="s">
-        <v>1299</v>
+        <v>1300</v>
       </c>
       <c r="H1896" t="s">
         <v>9</v>
@@ -54092,7 +54098,7 @@
         <v>32.5499992370605</v>
       </c>
       <c r="G1897" t="s">
-        <v>1300</v>
+        <v>1301</v>
       </c>
       <c r="H1897" t="s">
         <v>9</v>
@@ -54118,7 +54124,7 @@
         <v>32.2999992370605</v>
       </c>
       <c r="G1898" t="s">
-        <v>1301</v>
+        <v>1302</v>
       </c>
       <c r="H1898" t="s">
         <v>9</v>
@@ -54144,7 +54150,7 @@
         <v>31.9500007629395</v>
       </c>
       <c r="G1899" t="s">
-        <v>1296</v>
+        <v>1297</v>
       </c>
       <c r="H1899" t="s">
         <v>9</v>
@@ -54170,7 +54176,7 @@
         <v>31.5</v>
       </c>
       <c r="G1900" t="s">
-        <v>1302</v>
+        <v>1303</v>
       </c>
       <c r="H1900" t="s">
         <v>9</v>
@@ -54196,7 +54202,7 @@
         <v>31.6499996185303</v>
       </c>
       <c r="G1901" t="s">
-        <v>1303</v>
+        <v>1304</v>
       </c>
       <c r="H1901" t="s">
         <v>9</v>
@@ -54222,7 +54228,7 @@
         <v>31.1000003814697</v>
       </c>
       <c r="G1902" t="s">
-        <v>1304</v>
+        <v>1305</v>
       </c>
       <c r="H1902" t="s">
         <v>9</v>
@@ -54248,7 +54254,7 @@
         <v>30.9500007629395</v>
       </c>
       <c r="G1903" t="s">
-        <v>1305</v>
+        <v>1306</v>
       </c>
       <c r="H1903" t="s">
         <v>9</v>
@@ -54274,7 +54280,7 @@
         <v>30.5</v>
       </c>
       <c r="G1904" t="s">
-        <v>1306</v>
+        <v>1307</v>
       </c>
       <c r="H1904" t="s">
         <v>9</v>
@@ -54300,7 +54306,7 @@
         <v>30.7000007629395</v>
       </c>
       <c r="G1905" t="s">
-        <v>1307</v>
+        <v>1308</v>
       </c>
       <c r="H1905" t="s">
         <v>9</v>
@@ -54326,7 +54332,7 @@
         <v>30.5499992370605</v>
       </c>
       <c r="G1906" t="s">
-        <v>1308</v>
+        <v>1309</v>
       </c>
       <c r="H1906" t="s">
         <v>9</v>
@@ -54352,7 +54358,7 @@
         <v>30.8999996185303</v>
       </c>
       <c r="G1907" t="s">
-        <v>1309</v>
+        <v>1310</v>
       </c>
       <c r="H1907" t="s">
         <v>9</v>
@@ -54378,7 +54384,7 @@
         <v>30.75</v>
       </c>
       <c r="G1908" t="s">
-        <v>1310</v>
+        <v>1311</v>
       </c>
       <c r="H1908" t="s">
         <v>9</v>
@@ -54404,7 +54410,7 @@
         <v>30.8500003814697</v>
       </c>
       <c r="G1909" t="s">
-        <v>1292</v>
+        <v>1293</v>
       </c>
       <c r="H1909" t="s">
         <v>9</v>
@@ -54430,7 +54436,7 @@
         <v>30.1000003814697</v>
       </c>
       <c r="G1910" t="s">
-        <v>1311</v>
+        <v>1312</v>
       </c>
       <c r="H1910" t="s">
         <v>9</v>
@@ -54456,7 +54462,7 @@
         <v>29.7999992370605</v>
       </c>
       <c r="G1911" t="s">
-        <v>1312</v>
+        <v>1313</v>
       </c>
       <c r="H1911" t="s">
         <v>9</v>
@@ -54482,7 +54488,7 @@
         <v>30</v>
       </c>
       <c r="G1912" t="s">
-        <v>1313</v>
+        <v>1314</v>
       </c>
       <c r="H1912" t="s">
         <v>9</v>
@@ -54508,7 +54514,7 @@
         <v>29.8500003814697</v>
       </c>
       <c r="G1913" t="s">
-        <v>1314</v>
+        <v>1315</v>
       </c>
       <c r="H1913" t="s">
         <v>9</v>
@@ -54534,7 +54540,7 @@
         <v>30.6499996185303</v>
       </c>
       <c r="G1914" t="s">
-        <v>1315</v>
+        <v>1316</v>
       </c>
       <c r="H1914" t="s">
         <v>9</v>
@@ -54560,7 +54566,7 @@
         <v>30.8999996185303</v>
       </c>
       <c r="G1915" t="s">
-        <v>1316</v>
+        <v>1317</v>
       </c>
       <c r="H1915" t="s">
         <v>9</v>
@@ -54586,7 +54592,7 @@
         <v>30.3500003814697</v>
       </c>
       <c r="G1916" t="s">
-        <v>1317</v>
+        <v>1318</v>
       </c>
       <c r="H1916" t="s">
         <v>9</v>
@@ -54612,7 +54618,7 @@
         <v>30.1000003814697</v>
       </c>
       <c r="G1917" t="s">
-        <v>1311</v>
+        <v>1312</v>
       </c>
       <c r="H1917" t="s">
         <v>9</v>
@@ -54638,7 +54644,7 @@
         <v>30.1000003814697</v>
       </c>
       <c r="G1918" t="s">
-        <v>1311</v>
+        <v>1312</v>
       </c>
       <c r="H1918" t="s">
         <v>9</v>
@@ -54664,7 +54670,7 @@
         <v>30.5</v>
       </c>
       <c r="G1919" t="s">
-        <v>1318</v>
+        <v>1319</v>
       </c>
       <c r="H1919" t="s">
         <v>9</v>
@@ -54690,7 +54696,7 @@
         <v>31.2999992370605</v>
       </c>
       <c r="G1920" t="s">
-        <v>1319</v>
+        <v>1320</v>
       </c>
       <c r="H1920" t="s">
         <v>9</v>
@@ -54716,7 +54722,7 @@
         <v>31.5</v>
       </c>
       <c r="G1921" t="s">
-        <v>1320</v>
+        <v>1321</v>
       </c>
       <c r="H1921" t="s">
         <v>9</v>
@@ -54742,7 +54748,7 @@
         <v>31.7000007629395</v>
       </c>
       <c r="G1922" t="s">
-        <v>1321</v>
+        <v>1322</v>
       </c>
       <c r="H1922" t="s">
         <v>9</v>
@@ -54768,7 +54774,7 @@
         <v>31.3500003814697</v>
       </c>
       <c r="G1923" t="s">
-        <v>1322</v>
+        <v>1323</v>
       </c>
       <c r="H1923" t="s">
         <v>9</v>
@@ -54794,7 +54800,7 @@
         <v>31.6000003814697</v>
       </c>
       <c r="G1924" t="s">
-        <v>1323</v>
+        <v>1324</v>
       </c>
       <c r="H1924" t="s">
         <v>9</v>
@@ -54820,7 +54826,7 @@
         <v>32.25</v>
       </c>
       <c r="G1925" t="s">
-        <v>1324</v>
+        <v>1325</v>
       </c>
       <c r="H1925" t="s">
         <v>9</v>
@@ -54846,7 +54852,7 @@
         <v>32.9500007629395</v>
       </c>
       <c r="G1926" t="s">
-        <v>1325</v>
+        <v>1326</v>
       </c>
       <c r="H1926" t="s">
         <v>9</v>
@@ -54872,7 +54878,7 @@
         <v>31.7000007629395</v>
       </c>
       <c r="G1927" t="s">
-        <v>1321</v>
+        <v>1322</v>
       </c>
       <c r="H1927" t="s">
         <v>9</v>
@@ -54898,7 +54904,7 @@
         <v>32</v>
       </c>
       <c r="G1928" t="s">
-        <v>1326</v>
+        <v>1327</v>
       </c>
       <c r="H1928" t="s">
         <v>9</v>
@@ -54924,7 +54930,7 @@
         <v>31.8999996185303</v>
       </c>
       <c r="G1929" t="s">
-        <v>1327</v>
+        <v>1328</v>
       </c>
       <c r="H1929" t="s">
         <v>9</v>
@@ -54950,7 +54956,7 @@
         <v>32.5499992370605</v>
       </c>
       <c r="G1930" t="s">
-        <v>1328</v>
+        <v>1329</v>
       </c>
       <c r="H1930" t="s">
         <v>9</v>
@@ -54976,7 +54982,7 @@
         <v>31</v>
       </c>
       <c r="G1931" t="s">
-        <v>1329</v>
+        <v>1330</v>
       </c>
       <c r="H1931" t="s">
         <v>9</v>
@@ -55002,7 +55008,7 @@
         <v>30.9500007629395</v>
       </c>
       <c r="G1932" t="s">
-        <v>1330</v>
+        <v>1331</v>
       </c>
       <c r="H1932" t="s">
         <v>9</v>
@@ -55028,7 +55034,7 @@
         <v>30.5</v>
       </c>
       <c r="G1933" t="s">
-        <v>1318</v>
+        <v>1319</v>
       </c>
       <c r="H1933" t="s">
         <v>9</v>
@@ -55054,7 +55060,7 @@
         <v>30.5</v>
       </c>
       <c r="G1934" t="s">
-        <v>1318</v>
+        <v>1319</v>
       </c>
       <c r="H1934" t="s">
         <v>9</v>
@@ -55080,7 +55086,7 @@
         <v>30.5</v>
       </c>
       <c r="G1935" t="s">
-        <v>1318</v>
+        <v>1319</v>
       </c>
       <c r="H1935" t="s">
         <v>9</v>
@@ -55106,7 +55112,7 @@
         <v>30.0499992370605</v>
       </c>
       <c r="G1936" t="s">
-        <v>1331</v>
+        <v>1332</v>
       </c>
       <c r="H1936" t="s">
         <v>9</v>
@@ -55132,7 +55138,7 @@
         <v>30.0499992370605</v>
       </c>
       <c r="G1937" t="s">
-        <v>1331</v>
+        <v>1332</v>
       </c>
       <c r="H1937" t="s">
         <v>9</v>
@@ -55158,7 +55164,7 @@
         <v>28.25</v>
       </c>
       <c r="G1938" t="s">
-        <v>1332</v>
+        <v>1333</v>
       </c>
       <c r="H1938" t="s">
         <v>9</v>
@@ -55184,7 +55190,7 @@
         <v>27.1499996185303</v>
       </c>
       <c r="G1939" t="s">
-        <v>1333</v>
+        <v>1334</v>
       </c>
       <c r="H1939" t="s">
         <v>9</v>
@@ -55210,7 +55216,7 @@
         <v>26.8500003814697</v>
       </c>
       <c r="G1940" t="s">
-        <v>1334</v>
+        <v>1335</v>
       </c>
       <c r="H1940" t="s">
         <v>9</v>
@@ -55236,7 +55242,7 @@
         <v>25.5499992370605</v>
       </c>
       <c r="G1941" t="s">
-        <v>1335</v>
+        <v>1336</v>
       </c>
       <c r="H1941" t="s">
         <v>9</v>
@@ -55262,7 +55268,7 @@
         <v>24.5</v>
       </c>
       <c r="G1942" t="s">
-        <v>1336</v>
+        <v>1337</v>
       </c>
       <c r="H1942" t="s">
         <v>9</v>
@@ -55288,7 +55294,7 @@
         <v>24.9500007629395</v>
       </c>
       <c r="G1943" t="s">
-        <v>1337</v>
+        <v>1338</v>
       </c>
       <c r="H1943" t="s">
         <v>9</v>
@@ -55314,7 +55320,7 @@
         <v>24.7999992370605</v>
       </c>
       <c r="G1944" t="s">
-        <v>1338</v>
+        <v>1339</v>
       </c>
       <c r="H1944" t="s">
         <v>9</v>
@@ -55340,7 +55346,7 @@
         <v>24.6000003814697</v>
       </c>
       <c r="G1945" t="s">
-        <v>1339</v>
+        <v>1340</v>
       </c>
       <c r="H1945" t="s">
         <v>9</v>
@@ -55366,7 +55372,7 @@
         <v>24.75</v>
       </c>
       <c r="G1946" t="s">
-        <v>1340</v>
+        <v>1341</v>
       </c>
       <c r="H1946" t="s">
         <v>9</v>
@@ -55392,7 +55398,7 @@
         <v>24.5499992370605</v>
       </c>
       <c r="G1947" t="s">
-        <v>1341</v>
+        <v>1342</v>
       </c>
       <c r="H1947" t="s">
         <v>9</v>
@@ -55418,7 +55424,7 @@
         <v>24.5499992370605</v>
       </c>
       <c r="G1948" t="s">
-        <v>1341</v>
+        <v>1342</v>
       </c>
       <c r="H1948" t="s">
         <v>9</v>
@@ -55444,7 +55450,7 @@
         <v>25.2000007629395</v>
       </c>
       <c r="G1949" t="s">
-        <v>1342</v>
+        <v>1343</v>
       </c>
       <c r="H1949" t="s">
         <v>9</v>
@@ -55470,7 +55476,7 @@
         <v>25.0499992370605</v>
       </c>
       <c r="G1950" t="s">
-        <v>1343</v>
+        <v>1344</v>
       </c>
       <c r="H1950" t="s">
         <v>9</v>
@@ -55496,7 +55502,7 @@
         <v>24.7999992370605</v>
       </c>
       <c r="G1951" t="s">
-        <v>1338</v>
+        <v>1339</v>
       </c>
       <c r="H1951" t="s">
         <v>9</v>
@@ -55522,7 +55528,7 @@
         <v>26.1499996185303</v>
       </c>
       <c r="G1952" t="s">
-        <v>1344</v>
+        <v>1345</v>
       </c>
       <c r="H1952" t="s">
         <v>9</v>
@@ -55548,7 +55554,7 @@
         <v>26.0499992370605</v>
       </c>
       <c r="G1953" t="s">
-        <v>1345</v>
+        <v>1346</v>
       </c>
       <c r="H1953" t="s">
         <v>9</v>
@@ -55574,7 +55580,7 @@
         <v>25.8500003814697</v>
       </c>
       <c r="G1954" t="s">
-        <v>1346</v>
+        <v>1347</v>
       </c>
       <c r="H1954" t="s">
         <v>9</v>
@@ -55600,7 +55606,7 @@
         <v>26.1000003814697</v>
       </c>
       <c r="G1955" t="s">
-        <v>1347</v>
+        <v>1348</v>
       </c>
       <c r="H1955" t="s">
         <v>9</v>
@@ -55626,7 +55632,7 @@
         <v>25.3500003814697</v>
       </c>
       <c r="G1956" t="s">
-        <v>1348</v>
+        <v>1349</v>
       </c>
       <c r="H1956" t="s">
         <v>9</v>
@@ -55652,7 +55658,7 @@
         <v>24.9500007629395</v>
       </c>
       <c r="G1957" t="s">
-        <v>1337</v>
+        <v>1338</v>
       </c>
       <c r="H1957" t="s">
         <v>9</v>
@@ -55678,7 +55684,7 @@
         <v>24.75</v>
       </c>
       <c r="G1958" t="s">
-        <v>1340</v>
+        <v>1341</v>
       </c>
       <c r="H1958" t="s">
         <v>9</v>
@@ -55704,7 +55710,7 @@
         <v>24.7999992370605</v>
       </c>
       <c r="G1959" t="s">
-        <v>1338</v>
+        <v>1339</v>
       </c>
       <c r="H1959" t="s">
         <v>9</v>
@@ -55730,7 +55736,7 @@
         <v>24.8500003814697</v>
       </c>
       <c r="G1960" t="s">
-        <v>1349</v>
+        <v>1350</v>
       </c>
       <c r="H1960" t="s">
         <v>9</v>
@@ -55756,7 +55762,7 @@
         <v>25.3500003814697</v>
       </c>
       <c r="G1961" t="s">
-        <v>1348</v>
+        <v>1349</v>
       </c>
       <c r="H1961" t="s">
         <v>9</v>
@@ -55782,7 +55788,7 @@
         <v>25.7999992370605</v>
       </c>
       <c r="G1962" t="s">
-        <v>1350</v>
+        <v>1351</v>
       </c>
       <c r="H1962" t="s">
         <v>9</v>
@@ -55808,7 +55814,7 @@
         <v>25.8500003814697</v>
       </c>
       <c r="G1963" t="s">
-        <v>1346</v>
+        <v>1347</v>
       </c>
       <c r="H1963" t="s">
         <v>9</v>
@@ -55834,7 +55840,7 @@
         <v>26.5</v>
       </c>
       <c r="G1964" t="s">
-        <v>1351</v>
+        <v>1352</v>
       </c>
       <c r="H1964" t="s">
         <v>9</v>
@@ -55860,7 +55866,7 @@
         <v>27</v>
       </c>
       <c r="G1965" t="s">
-        <v>1352</v>
+        <v>1353</v>
       </c>
       <c r="H1965" t="s">
         <v>9</v>
@@ -55886,7 +55892,7 @@
         <v>26.4500007629395</v>
       </c>
       <c r="G1966" t="s">
-        <v>1353</v>
+        <v>1354</v>
       </c>
       <c r="H1966" t="s">
         <v>9</v>
@@ -55912,7 +55918,7 @@
         <v>25.9500007629395</v>
       </c>
       <c r="G1967" t="s">
-        <v>1354</v>
+        <v>1355</v>
       </c>
       <c r="H1967" t="s">
         <v>9</v>
@@ -55938,7 +55944,7 @@
         <v>25.4500007629395</v>
       </c>
       <c r="G1968" t="s">
-        <v>1355</v>
+        <v>1356</v>
       </c>
       <c r="H1968" t="s">
         <v>9</v>
@@ -55964,7 +55970,7 @@
         <v>24.7000007629395</v>
       </c>
       <c r="G1969" t="s">
-        <v>1356</v>
+        <v>1357</v>
       </c>
       <c r="H1969" t="s">
         <v>9</v>
@@ -55990,7 +55996,7 @@
         <v>24.9500007629395</v>
       </c>
       <c r="G1970" t="s">
-        <v>1337</v>
+        <v>1338</v>
       </c>
       <c r="H1970" t="s">
         <v>9</v>
@@ -56016,7 +56022,7 @@
         <v>24.8999996185303</v>
       </c>
       <c r="G1971" t="s">
-        <v>1357</v>
+        <v>1358</v>
       </c>
       <c r="H1971" t="s">
         <v>9</v>
@@ -56042,7 +56048,7 @@
         <v>25.0499992370605</v>
       </c>
       <c r="G1972" t="s">
-        <v>1343</v>
+        <v>1344</v>
       </c>
       <c r="H1972" t="s">
         <v>9</v>
@@ -56068,7 +56074,7 @@
         <v>24.9500007629395</v>
       </c>
       <c r="G1973" t="s">
-        <v>1337</v>
+        <v>1338</v>
       </c>
       <c r="H1973" t="s">
         <v>9</v>
@@ -56094,7 +56100,7 @@
         <v>24.7000007629395</v>
       </c>
       <c r="G1974" t="s">
-        <v>1356</v>
+        <v>1357</v>
       </c>
       <c r="H1974" t="s">
         <v>9</v>
@@ -56120,7 +56126,7 @@
         <v>24.25</v>
       </c>
       <c r="G1975" t="s">
-        <v>1358</v>
+        <v>1359</v>
       </c>
       <c r="H1975" t="s">
         <v>9</v>
@@ -56146,7 +56152,7 @@
         <v>24.5499992370605</v>
       </c>
       <c r="G1976" t="s">
-        <v>1341</v>
+        <v>1342</v>
       </c>
       <c r="H1976" t="s">
         <v>9</v>
@@ -56172,7 +56178,7 @@
         <v>25.0499992370605</v>
       </c>
       <c r="G1977" t="s">
-        <v>1343</v>
+        <v>1344</v>
       </c>
       <c r="H1977" t="s">
         <v>9</v>
@@ -56198,7 +56204,7 @@
         <v>24.6499996185303</v>
       </c>
       <c r="G1978" t="s">
-        <v>1359</v>
+        <v>1360</v>
       </c>
       <c r="H1978" t="s">
         <v>9</v>
@@ -56224,7 +56230,7 @@
         <v>24.2999992370605</v>
       </c>
       <c r="G1979" t="s">
-        <v>1360</v>
+        <v>1361</v>
       </c>
       <c r="H1979" t="s">
         <v>9</v>
@@ -56250,7 +56256,7 @@
         <v>25.5</v>
       </c>
       <c r="G1980" t="s">
-        <v>1361</v>
+        <v>1362</v>
       </c>
       <c r="H1980" t="s">
         <v>9</v>
@@ -56276,7 +56282,7 @@
         <v>25.3500003814697</v>
       </c>
       <c r="G1981" t="s">
-        <v>1348</v>
+        <v>1349</v>
       </c>
       <c r="H1981" t="s">
         <v>9</v>
@@ -56302,7 +56308,7 @@
         <v>25.0499992370605</v>
       </c>
       <c r="G1982" t="s">
-        <v>1343</v>
+        <v>1344</v>
       </c>
       <c r="H1982" t="s">
         <v>9</v>
@@ -56328,7 +56334,7 @@
         <v>24.6499996185303</v>
       </c>
       <c r="G1983" t="s">
-        <v>1359</v>
+        <v>1360</v>
       </c>
       <c r="H1983" t="s">
         <v>9</v>
@@ -56354,7 +56360,7 @@
         <v>25.0499992370605</v>
       </c>
       <c r="G1984" t="s">
-        <v>1343</v>
+        <v>1344</v>
       </c>
       <c r="H1984" t="s">
         <v>9</v>
@@ -56380,7 +56386,7 @@
         <v>25.25</v>
       </c>
       <c r="G1985" t="s">
-        <v>1362</v>
+        <v>1363</v>
       </c>
       <c r="H1985" t="s">
         <v>9</v>
@@ -56406,7 +56412,7 @@
         <v>25.5</v>
       </c>
       <c r="G1986" t="s">
-        <v>1361</v>
+        <v>1362</v>
       </c>
       <c r="H1986" t="s">
         <v>9</v>
@@ -56432,7 +56438,7 @@
         <v>25.3500003814697</v>
       </c>
       <c r="G1987" t="s">
-        <v>1348</v>
+        <v>1349</v>
       </c>
       <c r="H1987" t="s">
         <v>9</v>
@@ -56458,7 +56464,7 @@
         <v>25.3500003814697</v>
       </c>
       <c r="G1988" t="s">
-        <v>1348</v>
+        <v>1349</v>
       </c>
       <c r="H1988" t="s">
         <v>9</v>
@@ -56484,7 +56490,7 @@
         <v>26.0499992370605</v>
       </c>
       <c r="G1989" t="s">
-        <v>1345</v>
+        <v>1346</v>
       </c>
       <c r="H1989" t="s">
         <v>9</v>
@@ -56510,7 +56516,7 @@
         <v>26</v>
       </c>
       <c r="G1990" t="s">
-        <v>1363</v>
+        <v>1364</v>
       </c>
       <c r="H1990" t="s">
         <v>9</v>
@@ -56536,7 +56542,7 @@
         <v>26</v>
       </c>
       <c r="G1991" t="s">
-        <v>1363</v>
+        <v>1364</v>
       </c>
       <c r="H1991" t="s">
         <v>9</v>
@@ -56562,7 +56568,7 @@
         <v>26.7000007629395</v>
       </c>
       <c r="G1992" t="s">
-        <v>1364</v>
+        <v>1365</v>
       </c>
       <c r="H1992" t="s">
         <v>9</v>
@@ -56588,7 +56594,7 @@
         <v>26.4500007629395</v>
       </c>
       <c r="G1993" t="s">
-        <v>1353</v>
+        <v>1354</v>
       </c>
       <c r="H1993" t="s">
         <v>9</v>
@@ -56614,7 +56620,7 @@
         <v>26.6499996185303</v>
       </c>
       <c r="G1994" t="s">
-        <v>1365</v>
+        <v>1366</v>
       </c>
       <c r="H1994" t="s">
         <v>9</v>
@@ -56640,7 +56646,7 @@
         <v>26.6000003814697</v>
       </c>
       <c r="G1995" t="s">
-        <v>1366</v>
+        <v>1367</v>
       </c>
       <c r="H1995" t="s">
         <v>9</v>
@@ -56666,7 +56672,7 @@
         <v>26.5</v>
       </c>
       <c r="G1996" t="s">
-        <v>1351</v>
+        <v>1352</v>
       </c>
       <c r="H1996" t="s">
         <v>9</v>
@@ -56692,7 +56698,7 @@
         <v>27.1000003814697</v>
       </c>
       <c r="G1997" t="s">
-        <v>1367</v>
+        <v>1368</v>
       </c>
       <c r="H1997" t="s">
         <v>9</v>
@@ -56718,7 +56724,7 @@
         <v>27.7999992370605</v>
       </c>
       <c r="G1998" t="s">
-        <v>1368</v>
+        <v>1369</v>
       </c>
       <c r="H1998" t="s">
         <v>9</v>
@@ -56744,7 +56750,7 @@
         <v>27.7999992370605</v>
       </c>
       <c r="G1999" t="s">
-        <v>1368</v>
+        <v>1369</v>
       </c>
       <c r="H1999" t="s">
         <v>9</v>
@@ -56770,7 +56776,7 @@
         <v>27.3999996185303</v>
       </c>
       <c r="G2000" t="s">
-        <v>1369</v>
+        <v>1370</v>
       </c>
       <c r="H2000" t="s">
         <v>9</v>
@@ -56796,7 +56802,7 @@
         <v>27.6499996185303</v>
       </c>
       <c r="G2001" t="s">
-        <v>1370</v>
+        <v>1371</v>
       </c>
       <c r="H2001" t="s">
         <v>9</v>
@@ -56822,7 +56828,7 @@
         <v>28.75</v>
       </c>
       <c r="G2002" t="s">
-        <v>1371</v>
+        <v>1372</v>
       </c>
       <c r="H2002" t="s">
         <v>9</v>
@@ -56848,7 +56854,7 @@
         <v>28.75</v>
       </c>
       <c r="G2003" t="s">
-        <v>1371</v>
+        <v>1372</v>
       </c>
       <c r="H2003" t="s">
         <v>9</v>
@@ -56874,7 +56880,7 @@
         <v>28.9500007629395</v>
       </c>
       <c r="G2004" t="s">
-        <v>1372</v>
+        <v>1373</v>
       </c>
       <c r="H2004" t="s">
         <v>9</v>
@@ -56900,7 +56906,7 @@
         <v>29.8999996185303</v>
       </c>
       <c r="G2005" t="s">
-        <v>1373</v>
+        <v>1374</v>
       </c>
       <c r="H2005" t="s">
         <v>9</v>
@@ -56926,7 +56932,7 @@
         <v>28.7999992370605</v>
       </c>
       <c r="G2006" t="s">
-        <v>1374</v>
+        <v>1375</v>
       </c>
       <c r="H2006" t="s">
         <v>9</v>
@@ -56952,7 +56958,7 @@
         <v>29.9500007629395</v>
       </c>
       <c r="G2007" t="s">
-        <v>1375</v>
+        <v>1376</v>
       </c>
       <c r="H2007" t="s">
         <v>9</v>
@@ -56978,7 +56984,7 @@
         <v>29.6000003814697</v>
       </c>
       <c r="G2008" t="s">
-        <v>1376</v>
+        <v>1377</v>
       </c>
       <c r="H2008" t="s">
         <v>9</v>
@@ -57004,7 +57010,7 @@
         <v>27.75</v>
       </c>
       <c r="G2009" t="s">
-        <v>1377</v>
+        <v>1378</v>
       </c>
       <c r="H2009" t="s">
         <v>9</v>
@@ -57030,7 +57036,7 @@
         <v>28</v>
       </c>
       <c r="G2010" t="s">
-        <v>1378</v>
+        <v>1379</v>
       </c>
       <c r="H2010" t="s">
         <v>9</v>
@@ -57056,7 +57062,7 @@
         <v>28</v>
       </c>
       <c r="G2011" t="s">
-        <v>1378</v>
+        <v>1379</v>
       </c>
       <c r="H2011" t="s">
         <v>9</v>
@@ -57082,7 +57088,7 @@
         <v>27.7999992370605</v>
       </c>
       <c r="G2012" t="s">
-        <v>1368</v>
+        <v>1369</v>
       </c>
       <c r="H2012" t="s">
         <v>9</v>
@@ -57108,7 +57114,7 @@
         <v>28</v>
       </c>
       <c r="G2013" t="s">
-        <v>1378</v>
+        <v>1379</v>
       </c>
       <c r="H2013" t="s">
         <v>9</v>
@@ -57134,7 +57140,7 @@
         <v>27.8999996185303</v>
       </c>
       <c r="G2014" t="s">
-        <v>1379</v>
+        <v>1380</v>
       </c>
       <c r="H2014" t="s">
         <v>9</v>
@@ -57160,7 +57166,7 @@
         <v>28.1000003814697</v>
       </c>
       <c r="G2015" t="s">
-        <v>1380</v>
+        <v>1381</v>
       </c>
       <c r="H2015" t="s">
         <v>9</v>
@@ -57186,7 +57192,7 @@
         <v>27.9500007629395</v>
       </c>
       <c r="G2016" t="s">
-        <v>1381</v>
+        <v>1382</v>
       </c>
       <c r="H2016" t="s">
         <v>9</v>
@@ -57212,7 +57218,7 @@
         <v>28.2000007629395</v>
       </c>
       <c r="G2017" t="s">
-        <v>1382</v>
+        <v>1383</v>
       </c>
       <c r="H2017" t="s">
         <v>9</v>
@@ -57238,7 +57244,7 @@
         <v>28.25</v>
       </c>
       <c r="G2018" t="s">
-        <v>1332</v>
+        <v>1333</v>
       </c>
       <c r="H2018" t="s">
         <v>9</v>
@@ -57264,7 +57270,7 @@
         <v>28.3500003814697</v>
       </c>
       <c r="G2019" t="s">
-        <v>1383</v>
+        <v>1384</v>
       </c>
       <c r="H2019" t="s">
         <v>9</v>
@@ -57290,7 +57296,7 @@
         <v>28.3500003814697</v>
       </c>
       <c r="G2020" t="s">
-        <v>1383</v>
+        <v>1384</v>
       </c>
       <c r="H2020" t="s">
         <v>9</v>
@@ -57316,7 +57322,7 @@
         <v>29.5499992370605</v>
       </c>
       <c r="G2021" t="s">
-        <v>1384</v>
+        <v>1385</v>
       </c>
       <c r="H2021" t="s">
         <v>9</v>
@@ -57342,7 +57348,7 @@
         <v>29.3999996185303</v>
       </c>
       <c r="G2022" t="s">
-        <v>1385</v>
+        <v>1386</v>
       </c>
       <c r="H2022" t="s">
         <v>9</v>
@@ -57368,7 +57374,7 @@
         <v>29.6000003814697</v>
       </c>
       <c r="G2023" t="s">
-        <v>1376</v>
+        <v>1377</v>
       </c>
       <c r="H2023" t="s">
         <v>9</v>
@@ -57394,7 +57400,7 @@
         <v>29.7999992370605</v>
       </c>
       <c r="G2024" t="s">
-        <v>1312</v>
+        <v>1313</v>
       </c>
       <c r="H2024" t="s">
         <v>9</v>
@@ -57420,7 +57426,7 @@
         <v>30</v>
       </c>
       <c r="G2025" t="s">
-        <v>1313</v>
+        <v>1314</v>
       </c>
       <c r="H2025" t="s">
         <v>9</v>
@@ -57446,7 +57452,7 @@
         <v>29.8999996185303</v>
       </c>
       <c r="G2026" t="s">
-        <v>1373</v>
+        <v>1374</v>
       </c>
       <c r="H2026" t="s">
         <v>9</v>
@@ -57472,7 +57478,7 @@
         <v>30.75</v>
       </c>
       <c r="G2027" t="s">
-        <v>1386</v>
+        <v>1387</v>
       </c>
       <c r="H2027" t="s">
         <v>9</v>
@@ -57498,7 +57504,7 @@
         <v>30.9500007629395</v>
       </c>
       <c r="G2028" t="s">
-        <v>1330</v>
+        <v>1331</v>
       </c>
       <c r="H2028" t="s">
         <v>9</v>
@@ -57524,7 +57530,7 @@
         <v>31.75</v>
       </c>
       <c r="G2029" t="s">
-        <v>1387</v>
+        <v>1388</v>
       </c>
       <c r="H2029" t="s">
         <v>9</v>
@@ -57550,7 +57556,7 @@
         <v>32.9000015258789</v>
       </c>
       <c r="G2030" t="s">
-        <v>1388</v>
+        <v>1389</v>
       </c>
       <c r="H2030" t="s">
         <v>9</v>
@@ -57576,7 +57582,7 @@
         <v>31.8999996185303</v>
       </c>
       <c r="G2031" t="s">
-        <v>1327</v>
+        <v>1328</v>
       </c>
       <c r="H2031" t="s">
         <v>9</v>
@@ -57602,7 +57608,7 @@
         <v>31.6499996185303</v>
       </c>
       <c r="G2032" t="s">
-        <v>1389</v>
+        <v>1390</v>
       </c>
       <c r="H2032" t="s">
         <v>9</v>
@@ -57628,7 +57634,7 @@
         <v>32.2999992370605</v>
       </c>
       <c r="G2033" t="s">
-        <v>1390</v>
+        <v>1391</v>
       </c>
       <c r="H2033" t="s">
         <v>9</v>
@@ -57654,7 +57660,7 @@
         <v>32.5999984741211</v>
       </c>
       <c r="G2034" t="s">
-        <v>1391</v>
+        <v>1392</v>
       </c>
       <c r="H2034" t="s">
         <v>9</v>
@@ -57680,7 +57686,7 @@
         <v>31.6499996185303</v>
       </c>
       <c r="G2035" t="s">
-        <v>1389</v>
+        <v>1390</v>
       </c>
       <c r="H2035" t="s">
         <v>9</v>
@@ -57706,7 +57712,7 @@
         <v>31.8999996185303</v>
       </c>
       <c r="G2036" t="s">
-        <v>1327</v>
+        <v>1328</v>
       </c>
       <c r="H2036" t="s">
         <v>9</v>
@@ -57732,7 +57738,7 @@
         <v>31.2999992370605</v>
       </c>
       <c r="G2037" t="s">
-        <v>1319</v>
+        <v>1320</v>
       </c>
       <c r="H2037" t="s">
         <v>9</v>
@@ -57758,7 +57764,7 @@
         <v>30.7000007629395</v>
       </c>
       <c r="G2038" t="s">
-        <v>1392</v>
+        <v>1393</v>
       </c>
       <c r="H2038" t="s">
         <v>9</v>
@@ -57784,7 +57790,7 @@
         <v>31.1499996185303</v>
       </c>
       <c r="G2039" t="s">
-        <v>1393</v>
+        <v>1394</v>
       </c>
       <c r="H2039" t="s">
         <v>9</v>
@@ -57810,7 +57816,7 @@
         <v>30.8999996185303</v>
       </c>
       <c r="G2040" t="s">
-        <v>1316</v>
+        <v>1317</v>
       </c>
       <c r="H2040" t="s">
         <v>9</v>
@@ -57836,7 +57842,7 @@
         <v>31.6000003814697</v>
       </c>
       <c r="G2041" t="s">
-        <v>1323</v>
+        <v>1324</v>
       </c>
       <c r="H2041" t="s">
         <v>9</v>
@@ -57862,7 +57868,7 @@
         <v>31.7999992370605</v>
       </c>
       <c r="G2042" t="s">
-        <v>1394</v>
+        <v>1395</v>
       </c>
       <c r="H2042" t="s">
         <v>9</v>
@@ -57888,7 +57894,7 @@
         <v>31.7000007629395</v>
       </c>
       <c r="G2043" t="s">
-        <v>1321</v>
+        <v>1322</v>
       </c>
       <c r="H2043" t="s">
         <v>9</v>
@@ -57914,7 +57920,7 @@
         <v>31.5499992370605</v>
       </c>
       <c r="G2044" t="s">
-        <v>1395</v>
+        <v>1396</v>
       </c>
       <c r="H2044" t="s">
         <v>9</v>
@@ -57940,7 +57946,7 @@
         <v>32.0999984741211</v>
       </c>
       <c r="G2045" t="s">
-        <v>1396</v>
+        <v>1397</v>
       </c>
       <c r="H2045" t="s">
         <v>9</v>
@@ -57966,7 +57972,7 @@
         <v>31.9500007629395</v>
       </c>
       <c r="G2046" t="s">
-        <v>1397</v>
+        <v>1398</v>
       </c>
       <c r="H2046" t="s">
         <v>9</v>
@@ -57992,7 +57998,7 @@
         <v>31.5499992370605</v>
       </c>
       <c r="G2047" t="s">
-        <v>1395</v>
+        <v>1396</v>
       </c>
       <c r="H2047" t="s">
         <v>9</v>
@@ -58018,7 +58024,7 @@
         <v>31.6000003814697</v>
       </c>
       <c r="G2048" t="s">
-        <v>1323</v>
+        <v>1324</v>
       </c>
       <c r="H2048" t="s">
         <v>9</v>
@@ -58044,7 +58050,7 @@
         <v>31.7000007629395</v>
       </c>
       <c r="G2049" t="s">
-        <v>1321</v>
+        <v>1322</v>
       </c>
       <c r="H2049" t="s">
         <v>9</v>
@@ -58070,7 +58076,7 @@
         <v>31.5</v>
       </c>
       <c r="G2050" t="s">
-        <v>1320</v>
+        <v>1321</v>
       </c>
       <c r="H2050" t="s">
         <v>9</v>
@@ -58096,7 +58102,7 @@
         <v>31.3999996185303</v>
       </c>
       <c r="G2051" t="s">
-        <v>1398</v>
+        <v>1399</v>
       </c>
       <c r="H2051" t="s">
         <v>9</v>
@@ -58122,7 +58128,7 @@
         <v>31.7999992370605</v>
       </c>
       <c r="G2052" t="s">
-        <v>1394</v>
+        <v>1395</v>
       </c>
       <c r="H2052" t="s">
         <v>9</v>
@@ -58148,7 +58154,7 @@
         <v>32.2999992370605</v>
       </c>
       <c r="G2053" t="s">
-        <v>1390</v>
+        <v>1391</v>
       </c>
       <c r="H2053" t="s">
         <v>9</v>
@@ -58174,7 +58180,7 @@
         <v>32</v>
       </c>
       <c r="G2054" t="s">
-        <v>1326</v>
+        <v>1327</v>
       </c>
       <c r="H2054" t="s">
         <v>9</v>
@@ -58200,7 +58206,7 @@
         <v>32</v>
       </c>
       <c r="G2055" t="s">
-        <v>1326</v>
+        <v>1327</v>
       </c>
       <c r="H2055" t="s">
         <v>9</v>
@@ -58226,7 +58232,7 @@
         <v>32.25</v>
       </c>
       <c r="G2056" t="s">
-        <v>1324</v>
+        <v>1325</v>
       </c>
       <c r="H2056" t="s">
         <v>9</v>
@@ -58252,7 +58258,7 @@
         <v>32.9500007629395</v>
       </c>
       <c r="G2057" t="s">
-        <v>1325</v>
+        <v>1326</v>
       </c>
       <c r="H2057" t="s">
         <v>9</v>
@@ -58278,7 +58284,7 @@
         <v>31.8999996185303</v>
       </c>
       <c r="G2058" t="s">
-        <v>1327</v>
+        <v>1328</v>
       </c>
       <c r="H2058" t="s">
         <v>9</v>
@@ -58304,7 +58310,7 @@
         <v>31.8500003814697</v>
       </c>
       <c r="G2059" t="s">
-        <v>1399</v>
+        <v>1400</v>
       </c>
       <c r="H2059" t="s">
         <v>9</v>
@@ -58330,7 +58336,7 @@
         <v>32.4000015258789</v>
       </c>
       <c r="G2060" t="s">
-        <v>1400</v>
+        <v>1401</v>
       </c>
       <c r="H2060" t="s">
         <v>9</v>
@@ -58356,7 +58362,7 @@
         <v>32.5499992370605</v>
       </c>
       <c r="G2061" t="s">
-        <v>1328</v>
+        <v>1329</v>
       </c>
       <c r="H2061" t="s">
         <v>9</v>
@@ -58382,7 +58388,7 @@
         <v>32.4500007629395</v>
       </c>
       <c r="G2062" t="s">
-        <v>1401</v>
+        <v>1402</v>
       </c>
       <c r="H2062" t="s">
         <v>9</v>
@@ -58408,7 +58414,7 @@
         <v>32.2000007629395</v>
       </c>
       <c r="G2063" t="s">
-        <v>1402</v>
+        <v>1403</v>
       </c>
       <c r="H2063" t="s">
         <v>9</v>
@@ -58434,7 +58440,7 @@
         <v>31.1000003814697</v>
       </c>
       <c r="G2064" t="s">
-        <v>1403</v>
+        <v>1404</v>
       </c>
       <c r="H2064" t="s">
         <v>9</v>
@@ -58460,7 +58466,7 @@
         <v>30.8500003814697</v>
       </c>
       <c r="G2065" t="s">
-        <v>1404</v>
+        <v>1405</v>
       </c>
       <c r="H2065" t="s">
         <v>9</v>
@@ -58486,7 +58492,7 @@
         <v>31.4500007629395</v>
       </c>
       <c r="G2066" t="s">
-        <v>1405</v>
+        <v>1406</v>
       </c>
       <c r="H2066" t="s">
         <v>9</v>
@@ -58512,7 +58518,7 @@
         <v>30.5499992370605</v>
       </c>
       <c r="G2067" t="s">
-        <v>1406</v>
+        <v>1407</v>
       </c>
       <c r="H2067" t="s">
         <v>9</v>
@@ -58538,7 +58544,7 @@
         <v>30.7999992370605</v>
       </c>
       <c r="G2068" t="s">
-        <v>1407</v>
+        <v>1408</v>
       </c>
       <c r="H2068" t="s">
         <v>9</v>
@@ -58564,7 +58570,7 @@
         <v>30.7000007629395</v>
       </c>
       <c r="G2069" t="s">
-        <v>1392</v>
+        <v>1393</v>
       </c>
       <c r="H2069" t="s">
         <v>9</v>
@@ -58590,7 +58596,7 @@
         <v>31.75</v>
       </c>
       <c r="G2070" t="s">
-        <v>1387</v>
+        <v>1388</v>
       </c>
       <c r="H2070" t="s">
         <v>9</v>
@@ -58616,7 +58622,7 @@
         <v>31.3500003814697</v>
       </c>
       <c r="G2071" t="s">
-        <v>1322</v>
+        <v>1323</v>
       </c>
       <c r="H2071" t="s">
         <v>9</v>
@@ -58642,7 +58648,7 @@
         <v>30.8999996185303</v>
       </c>
       <c r="G2072" t="s">
-        <v>1316</v>
+        <v>1317</v>
       </c>
       <c r="H2072" t="s">
         <v>9</v>
@@ -58668,7 +58674,7 @@
         <v>31.5499992370605</v>
       </c>
       <c r="G2073" t="s">
-        <v>1395</v>
+        <v>1396</v>
       </c>
       <c r="H2073" t="s">
         <v>9</v>
@@ -58694,7 +58700,7 @@
         <v>31.7999992370605</v>
       </c>
       <c r="G2074" t="s">
-        <v>1394</v>
+        <v>1395</v>
       </c>
       <c r="H2074" t="s">
         <v>9</v>
@@ -58720,7 +58726,7 @@
         <v>31.6499996185303</v>
       </c>
       <c r="G2075" t="s">
-        <v>1389</v>
+        <v>1390</v>
       </c>
       <c r="H2075" t="s">
         <v>9</v>
@@ -58746,7 +58752,7 @@
         <v>32.4500007629395</v>
       </c>
       <c r="G2076" t="s">
-        <v>1401</v>
+        <v>1402</v>
       </c>
       <c r="H2076" t="s">
         <v>9</v>
@@ -58772,7 +58778,7 @@
         <v>33.75</v>
       </c>
       <c r="G2077" t="s">
-        <v>1408</v>
+        <v>1409</v>
       </c>
       <c r="H2077" t="s">
         <v>9</v>
@@ -58798,7 +58804,7 @@
         <v>34.9000015258789</v>
       </c>
       <c r="G2078" t="s">
-        <v>1409</v>
+        <v>1410</v>
       </c>
       <c r="H2078" t="s">
         <v>9</v>
@@ -58824,7 +58830,7 @@
         <v>34.0499992370605</v>
       </c>
       <c r="G2079" t="s">
-        <v>1410</v>
+        <v>1411</v>
       </c>
       <c r="H2079" t="s">
         <v>9</v>
@@ -58850,7 +58856,7 @@
         <v>34</v>
       </c>
       <c r="G2080" t="s">
-        <v>1411</v>
+        <v>1412</v>
       </c>
       <c r="H2080" t="s">
         <v>9</v>
@@ -58876,7 +58882,7 @@
         <v>34.3499984741211</v>
       </c>
       <c r="G2081" t="s">
-        <v>1412</v>
+        <v>1413</v>
       </c>
       <c r="H2081" t="s">
         <v>9</v>
@@ -58902,7 +58908,7 @@
         <v>33.4500007629395</v>
       </c>
       <c r="G2082" t="s">
-        <v>1413</v>
+        <v>1414</v>
       </c>
       <c r="H2082" t="s">
         <v>9</v>
@@ -58928,7 +58934,7 @@
         <v>33.2999992370605</v>
       </c>
       <c r="G2083" t="s">
-        <v>1414</v>
+        <v>1415</v>
       </c>
       <c r="H2083" t="s">
         <v>9</v>
@@ -58954,7 +58960,7 @@
         <v>33.5</v>
       </c>
       <c r="G2084" t="s">
-        <v>1415</v>
+        <v>1416</v>
       </c>
       <c r="H2084" t="s">
         <v>9</v>
@@ -58980,7 +58986,7 @@
         <v>33.5</v>
       </c>
       <c r="G2085" t="s">
-        <v>1415</v>
+        <v>1416</v>
       </c>
       <c r="H2085" t="s">
         <v>9</v>
@@ -59006,7 +59012,7 @@
         <v>32.7999992370605</v>
       </c>
       <c r="G2086" t="s">
-        <v>1416</v>
+        <v>1417</v>
       </c>
       <c r="H2086" t="s">
         <v>9</v>
@@ -59032,7 +59038,7 @@
         <v>33.0999984741211</v>
       </c>
       <c r="G2087" t="s">
-        <v>1417</v>
+        <v>1418</v>
       </c>
       <c r="H2087" t="s">
         <v>9</v>
@@ -59058,7 +59064,7 @@
         <v>32.75</v>
       </c>
       <c r="G2088" t="s">
-        <v>1418</v>
+        <v>1419</v>
       </c>
       <c r="H2088" t="s">
         <v>9</v>
@@ -59084,7 +59090,7 @@
         <v>33</v>
       </c>
       <c r="G2089" t="s">
-        <v>1419</v>
+        <v>1420</v>
       </c>
       <c r="H2089" t="s">
         <v>9</v>
@@ -59110,7 +59116,7 @@
         <v>34</v>
       </c>
       <c r="G2090" t="s">
-        <v>1411</v>
+        <v>1412</v>
       </c>
       <c r="H2090" t="s">
         <v>9</v>
@@ -59136,7 +59142,7 @@
         <v>34.7000007629395</v>
       </c>
       <c r="G2091" t="s">
-        <v>1420</v>
+        <v>1421</v>
       </c>
       <c r="H2091" t="s">
         <v>9</v>
@@ -59162,7 +59168,7 @@
         <v>36.4500007629395</v>
       </c>
       <c r="G2092" t="s">
-        <v>1421</v>
+        <v>1422</v>
       </c>
       <c r="H2092" t="s">
         <v>9</v>
@@ -59188,7 +59194,7 @@
         <v>37.1500015258789</v>
       </c>
       <c r="G2093" t="s">
-        <v>1422</v>
+        <v>1423</v>
       </c>
       <c r="H2093" t="s">
         <v>9</v>
@@ -59214,7 +59220,7 @@
         <v>36.7000007629395</v>
       </c>
       <c r="G2094" t="s">
-        <v>1423</v>
+        <v>1424</v>
       </c>
       <c r="H2094" t="s">
         <v>9</v>
@@ -59240,7 +59246,7 @@
         <v>37.4000015258789</v>
       </c>
       <c r="G2095" t="s">
-        <v>1424</v>
+        <v>1425</v>
       </c>
       <c r="H2095" t="s">
         <v>9</v>
@@ -59266,7 +59272,7 @@
         <v>37</v>
       </c>
       <c r="G2096" t="s">
-        <v>1425</v>
+        <v>1426</v>
       </c>
       <c r="H2096" t="s">
         <v>9</v>
@@ -59292,7 +59298,7 @@
         <v>36.5999984741211</v>
       </c>
       <c r="G2097" t="s">
-        <v>1426</v>
+        <v>1427</v>
       </c>
       <c r="H2097" t="s">
         <v>9</v>
@@ -59318,7 +59324,7 @@
         <v>37.25</v>
       </c>
       <c r="G2098" t="s">
-        <v>1427</v>
+        <v>1428</v>
       </c>
       <c r="H2098" t="s">
         <v>9</v>
@@ -59344,7 +59350,7 @@
         <v>37.4500007629395</v>
       </c>
       <c r="G2099" t="s">
-        <v>1428</v>
+        <v>1429</v>
       </c>
       <c r="H2099" t="s">
         <v>9</v>
@@ -59370,7 +59376,7 @@
         <v>36.5999984741211</v>
       </c>
       <c r="G2100" t="s">
-        <v>1426</v>
+        <v>1427</v>
       </c>
       <c r="H2100" t="s">
         <v>9</v>
@@ -59396,7 +59402,7 @@
         <v>37.0999984741211</v>
       </c>
       <c r="G2101" t="s">
-        <v>1429</v>
+        <v>1430</v>
       </c>
       <c r="H2101" t="s">
         <v>9</v>
@@ -59422,7 +59428,7 @@
         <v>38.7000007629395</v>
       </c>
       <c r="G2102" t="s">
-        <v>1430</v>
+        <v>1431</v>
       </c>
       <c r="H2102" t="s">
         <v>9</v>
@@ -59448,7 +59454,7 @@
         <v>38.2000007629395</v>
       </c>
       <c r="G2103" t="s">
-        <v>1431</v>
+        <v>1432</v>
       </c>
       <c r="H2103" t="s">
         <v>9</v>
@@ -59474,7 +59480,7 @@
         <v>38.0999984741211</v>
       </c>
       <c r="G2104" t="s">
-        <v>1432</v>
+        <v>1433</v>
       </c>
       <c r="H2104" t="s">
         <v>9</v>
@@ -59500,7 +59506,7 @@
         <v>36.0499992370605</v>
       </c>
       <c r="G2105" t="s">
-        <v>1433</v>
+        <v>1434</v>
       </c>
       <c r="H2105" t="s">
         <v>9</v>
@@ -59526,7 +59532,7 @@
         <v>36.3499984741211</v>
       </c>
       <c r="G2106" t="s">
-        <v>1434</v>
+        <v>1435</v>
       </c>
       <c r="H2106" t="s">
         <v>9</v>
@@ -59552,7 +59558,7 @@
         <v>35</v>
       </c>
       <c r="G2107" t="s">
-        <v>1435</v>
+        <v>1436</v>
       </c>
       <c r="H2107" t="s">
         <v>9</v>
@@ -59578,7 +59584,7 @@
         <v>35.3499984741211</v>
       </c>
       <c r="G2108" t="s">
-        <v>1436</v>
+        <v>1437</v>
       </c>
       <c r="H2108" t="s">
         <v>9</v>
@@ -59604,7 +59610,7 @@
         <v>35.6500015258789</v>
       </c>
       <c r="G2109" t="s">
-        <v>1437</v>
+        <v>1438</v>
       </c>
       <c r="H2109" t="s">
         <v>9</v>
@@ -59630,7 +59636,7 @@
         <v>34.4500007629395</v>
       </c>
       <c r="G2110" t="s">
-        <v>1438</v>
+        <v>1439</v>
       </c>
       <c r="H2110" t="s">
         <v>9</v>
@@ -59656,7 +59662,7 @@
         <v>35.25</v>
       </c>
       <c r="G2111" t="s">
-        <v>1439</v>
+        <v>1440</v>
       </c>
       <c r="H2111" t="s">
         <v>9</v>
@@ -59682,7 +59688,7 @@
         <v>33.9000015258789</v>
       </c>
       <c r="G2112" t="s">
-        <v>1440</v>
+        <v>1441</v>
       </c>
       <c r="H2112" t="s">
         <v>9</v>
@@ -59708,7 +59714,7 @@
         <v>34.4000015258789</v>
       </c>
       <c r="G2113" t="s">
-        <v>1441</v>
+        <v>1442</v>
       </c>
       <c r="H2113" t="s">
         <v>9</v>
@@ -59734,7 +59740,7 @@
         <v>34.8499984741211</v>
       </c>
       <c r="G2114" t="s">
-        <v>1442</v>
+        <v>1443</v>
       </c>
       <c r="H2114" t="s">
         <v>9</v>
@@ -59760,7 +59766,7 @@
         <v>35.2999992370605</v>
       </c>
       <c r="G2115" t="s">
-        <v>1443</v>
+        <v>1444</v>
       </c>
       <c r="H2115" t="s">
         <v>9</v>
@@ -59786,7 +59792,7 @@
         <v>34.75</v>
       </c>
       <c r="G2116" t="s">
-        <v>1444</v>
+        <v>1445</v>
       </c>
       <c r="H2116" t="s">
         <v>9</v>
@@ -59812,7 +59818,7 @@
         <v>34.25</v>
       </c>
       <c r="G2117" t="s">
-        <v>1445</v>
+        <v>1446</v>
       </c>
       <c r="H2117" t="s">
         <v>9</v>
@@ -59838,7 +59844,7 @@
         <v>35.0999984741211</v>
       </c>
       <c r="G2118" t="s">
-        <v>1446</v>
+        <v>1447</v>
       </c>
       <c r="H2118" t="s">
         <v>9</v>
@@ -59864,7 +59870,7 @@
         <v>35.2999992370605</v>
       </c>
       <c r="G2119" t="s">
-        <v>1443</v>
+        <v>1444</v>
       </c>
       <c r="H2119" t="s">
         <v>9</v>
@@ -59890,7 +59896,7 @@
         <v>35.1500015258789</v>
       </c>
       <c r="G2120" t="s">
-        <v>1447</v>
+        <v>1448</v>
       </c>
       <c r="H2120" t="s">
         <v>9</v>
@@ -59916,7 +59922,7 @@
         <v>34.9500007629395</v>
       </c>
       <c r="G2121" t="s">
-        <v>1448</v>
+        <v>1449</v>
       </c>
       <c r="H2121" t="s">
         <v>9</v>
@@ -59942,7 +59948,7 @@
         <v>34.8499984741211</v>
       </c>
       <c r="G2122" t="s">
-        <v>1442</v>
+        <v>1443</v>
       </c>
       <c r="H2122" t="s">
         <v>9</v>
@@ -59968,7 +59974,7 @@
         <v>34.9000015258789</v>
       </c>
       <c r="G2123" t="s">
-        <v>1409</v>
+        <v>1410</v>
       </c>
       <c r="H2123" t="s">
         <v>9</v>
@@ -59994,7 +60000,7 @@
         <v>35.5999984741211</v>
       </c>
       <c r="G2124" t="s">
-        <v>1449</v>
+        <v>1450</v>
       </c>
       <c r="H2124" t="s">
         <v>9</v>
@@ -60020,7 +60026,7 @@
         <v>36.5499992370605</v>
       </c>
       <c r="G2125" t="s">
-        <v>1450</v>
+        <v>1451</v>
       </c>
       <c r="H2125" t="s">
         <v>9</v>
@@ -60046,7 +60052,7 @@
         <v>37</v>
       </c>
       <c r="G2126" t="s">
-        <v>1425</v>
+        <v>1426</v>
       </c>
       <c r="H2126" t="s">
         <v>9</v>
@@ -60072,7 +60078,7 @@
         <v>36.2999992370605</v>
       </c>
       <c r="G2127" t="s">
-        <v>1451</v>
+        <v>1452</v>
       </c>
       <c r="H2127" t="s">
         <v>9</v>
@@ -60098,7 +60104,7 @@
         <v>36.0999984741211</v>
       </c>
       <c r="G2128" t="s">
-        <v>1452</v>
+        <v>1453</v>
       </c>
       <c r="H2128" t="s">
         <v>9</v>
@@ -60124,7 +60130,7 @@
         <v>36.0999984741211</v>
       </c>
       <c r="G2129" t="s">
-        <v>1452</v>
+        <v>1453</v>
       </c>
       <c r="H2129" t="s">
         <v>9</v>
@@ -60150,7 +60156,7 @@
         <v>37.1500015258789</v>
       </c>
       <c r="G2130" t="s">
-        <v>1422</v>
+        <v>1423</v>
       </c>
       <c r="H2130" t="s">
         <v>9</v>
@@ -60176,7 +60182,7 @@
         <v>37</v>
       </c>
       <c r="G2131" t="s">
-        <v>1425</v>
+        <v>1426</v>
       </c>
       <c r="H2131" t="s">
         <v>9</v>
@@ -60202,7 +60208,7 @@
         <v>37.9500007629395</v>
       </c>
       <c r="G2132" t="s">
-        <v>1453</v>
+        <v>1454</v>
       </c>
       <c r="H2132" t="s">
         <v>9</v>
@@ -60228,7 +60234,7 @@
         <v>38.8499984741211</v>
       </c>
       <c r="G2133" t="s">
-        <v>1454</v>
+        <v>1455</v>
       </c>
       <c r="H2133" t="s">
         <v>9</v>
@@ -60254,7 +60260,7 @@
         <v>38.7999992370605</v>
       </c>
       <c r="G2134" t="s">
-        <v>1455</v>
+        <v>1456</v>
       </c>
       <c r="H2134" t="s">
         <v>9</v>
@@ -60280,7 +60286,7 @@
         <v>36.9500007629395</v>
       </c>
       <c r="G2135" t="s">
-        <v>1456</v>
+        <v>1457</v>
       </c>
       <c r="H2135" t="s">
         <v>9</v>
@@ -60306,7 +60312,7 @@
         <v>37.25</v>
       </c>
       <c r="G2136" t="s">
-        <v>1427</v>
+        <v>1428</v>
       </c>
       <c r="H2136" t="s">
         <v>9</v>
@@ -60332,7 +60338,7 @@
         <v>37.7000007629395</v>
       </c>
       <c r="G2137" t="s">
-        <v>1457</v>
+        <v>1458</v>
       </c>
       <c r="H2137" t="s">
         <v>9</v>
@@ -60358,7 +60364,7 @@
         <v>37.5499992370605</v>
       </c>
       <c r="G2138" t="s">
-        <v>1458</v>
+        <v>1459</v>
       </c>
       <c r="H2138" t="s">
         <v>9</v>
@@ -60384,7 +60390,7 @@
         <v>38.8499984741211</v>
       </c>
       <c r="G2139" t="s">
-        <v>1454</v>
+        <v>1455</v>
       </c>
       <c r="H2139" t="s">
         <v>9</v>
@@ -60410,7 +60416,7 @@
         <v>36.9000015258789</v>
       </c>
       <c r="G2140" t="s">
-        <v>1459</v>
+        <v>1460</v>
       </c>
       <c r="H2140" t="s">
         <v>9</v>
@@ -60436,7 +60442,7 @@
         <v>37.2000007629395</v>
       </c>
       <c r="G2141" t="s">
-        <v>1460</v>
+        <v>1461</v>
       </c>
       <c r="H2141" t="s">
         <v>9</v>
@@ -60462,7 +60468,7 @@
         <v>37.5499992370605</v>
       </c>
       <c r="G2142" t="s">
-        <v>1458</v>
+        <v>1459</v>
       </c>
       <c r="H2142" t="s">
         <v>9</v>
@@ -60488,7 +60494,7 @@
         <v>36.8499984741211</v>
       </c>
       <c r="G2143" t="s">
-        <v>1461</v>
+        <v>1462</v>
       </c>
       <c r="H2143" t="s">
         <v>9</v>
@@ -60514,7 +60520,7 @@
         <v>36.4500007629395</v>
       </c>
       <c r="G2144" t="s">
-        <v>1421</v>
+        <v>1422</v>
       </c>
       <c r="H2144" t="s">
         <v>9</v>
@@ -60540,7 +60546,7 @@
         <v>36.5999984741211</v>
       </c>
       <c r="G2145" t="s">
-        <v>1426</v>
+        <v>1427</v>
       </c>
       <c r="H2145" t="s">
         <v>9</v>
@@ -60566,7 +60572,7 @@
         <v>36.4000015258789</v>
       </c>
       <c r="G2146" t="s">
-        <v>1462</v>
+        <v>1463</v>
       </c>
       <c r="H2146" t="s">
         <v>9</v>
@@ -60592,7 +60598,7 @@
         <v>36.2000007629395</v>
       </c>
       <c r="G2147" t="s">
-        <v>1463</v>
+        <v>1464</v>
       </c>
       <c r="H2147" t="s">
         <v>9</v>
@@ -60618,7 +60624,7 @@
         <v>35</v>
       </c>
       <c r="G2148" t="s">
-        <v>1435</v>
+        <v>1436</v>
       </c>
       <c r="H2148" t="s">
         <v>9</v>
@@ -60644,7 +60650,7 @@
         <v>34.1500015258789</v>
       </c>
       <c r="G2149" t="s">
-        <v>1464</v>
+        <v>1465</v>
       </c>
       <c r="H2149" t="s">
         <v>9</v>
@@ -60670,7 +60676,7 @@
         <v>35.2999992370605</v>
       </c>
       <c r="G2150" t="s">
-        <v>1443</v>
+        <v>1444</v>
       </c>
       <c r="H2150" t="s">
         <v>9</v>
@@ -60696,7 +60702,7 @@
         <v>34.5499992370605</v>
       </c>
       <c r="G2151" t="s">
-        <v>1465</v>
+        <v>1466</v>
       </c>
       <c r="H2151" t="s">
         <v>9</v>
@@ -60722,7 +60728,7 @@
         <v>34.2999992370605</v>
       </c>
       <c r="G2152" t="s">
-        <v>1466</v>
+        <v>1467</v>
       </c>
       <c r="H2152" t="s">
         <v>9</v>
@@ -60748,7 +60754,7 @@
         <v>35.5</v>
       </c>
       <c r="G2153" t="s">
-        <v>1467</v>
+        <v>1468</v>
       </c>
       <c r="H2153" t="s">
         <v>9</v>
@@ -60774,7 +60780,7 @@
         <v>35.4000015258789</v>
       </c>
       <c r="G2154" t="s">
-        <v>1468</v>
+        <v>1469</v>
       </c>
       <c r="H2154" t="s">
         <v>9</v>
@@ -60800,7 +60806,7 @@
         <v>34.0999984741211</v>
       </c>
       <c r="G2155" t="s">
-        <v>1469</v>
+        <v>1470</v>
       </c>
       <c r="H2155" t="s">
         <v>9</v>
@@ -60826,7 +60832,7 @@
         <v>34.5999984741211</v>
       </c>
       <c r="G2156" t="s">
-        <v>1470</v>
+        <v>1471</v>
       </c>
       <c r="H2156" t="s">
         <v>9</v>
@@ -60852,7 +60858,7 @@
         <v>34.4000015258789</v>
       </c>
       <c r="G2157" t="s">
-        <v>1441</v>
+        <v>1442</v>
       </c>
       <c r="H2157" t="s">
         <v>9</v>
@@ -60878,7 +60884,7 @@
         <v>34.5999984741211</v>
       </c>
       <c r="G2158" t="s">
-        <v>1470</v>
+        <v>1471</v>
       </c>
       <c r="H2158" t="s">
         <v>9</v>
@@ -60904,7 +60910,7 @@
         <v>34.4000015258789</v>
       </c>
       <c r="G2159" t="s">
-        <v>1441</v>
+        <v>1442</v>
       </c>
       <c r="H2159" t="s">
         <v>9</v>
@@ -60930,7 +60936,7 @@
         <v>34.3499984741211</v>
       </c>
       <c r="G2160" t="s">
-        <v>1412</v>
+        <v>1413</v>
       </c>
       <c r="H2160" t="s">
         <v>9</v>
@@ -60956,7 +60962,7 @@
         <v>34.3499984741211</v>
       </c>
       <c r="G2161" t="s">
-        <v>1412</v>
+        <v>1413</v>
       </c>
       <c r="H2161" t="s">
         <v>9</v>
@@ -60982,7 +60988,7 @@
         <v>34.0999984741211</v>
       </c>
       <c r="G2162" t="s">
-        <v>1469</v>
+        <v>1470</v>
       </c>
       <c r="H2162" t="s">
         <v>9</v>
@@ -61008,7 +61014,7 @@
         <v>35</v>
       </c>
       <c r="G2163" t="s">
-        <v>1435</v>
+        <v>1436</v>
       </c>
       <c r="H2163" t="s">
         <v>9</v>
@@ -61034,7 +61040,7 @@
         <v>36.5</v>
       </c>
       <c r="G2164" t="s">
-        <v>1471</v>
+        <v>1472</v>
       </c>
       <c r="H2164" t="s">
         <v>9</v>
@@ -61060,7 +61066,7 @@
         <v>37.1500015258789</v>
       </c>
       <c r="G2165" t="s">
-        <v>1422</v>
+        <v>1423</v>
       </c>
       <c r="H2165" t="s">
         <v>9</v>
@@ -61086,7 +61092,7 @@
         <v>37.25</v>
       </c>
       <c r="G2166" t="s">
-        <v>1427</v>
+        <v>1428</v>
       </c>
       <c r="H2166" t="s">
         <v>9</v>
@@ -61112,7 +61118,7 @@
         <v>37.2000007629395</v>
       </c>
       <c r="G2167" t="s">
-        <v>1460</v>
+        <v>1461</v>
       </c>
       <c r="H2167" t="s">
         <v>9</v>
@@ -61138,7 +61144,7 @@
         <v>36.5999984741211</v>
       </c>
       <c r="G2168" t="s">
-        <v>1472</v>
+        <v>1473</v>
       </c>
       <c r="H2168" t="s">
         <v>9</v>
@@ -61164,7 +61170,7 @@
         <v>36</v>
       </c>
       <c r="G2169" t="s">
-        <v>1473</v>
+        <v>1474</v>
       </c>
       <c r="H2169" t="s">
         <v>9</v>
@@ -61172,7 +61178,7 @@
     </row>
     <row r="2170">
       <c r="A2170" s="1" t="n">
-        <v>45483.6494791667</v>
+        <v>45483.2916666667</v>
       </c>
       <c r="B2170" t="n">
         <v>21317</v>
@@ -61190,9 +61196,35 @@
         <v>37.3499984741211</v>
       </c>
       <c r="G2170" t="s">
-        <v>1474</v>
+        <v>1475</v>
       </c>
       <c r="H2170" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2171">
+      <c r="A2171" s="1" t="n">
+        <v>45484.6494444444</v>
+      </c>
+      <c r="B2171" t="n">
+        <v>4949</v>
+      </c>
+      <c r="C2171" t="n">
+        <v>37.6500015258789</v>
+      </c>
+      <c r="D2171" t="n">
+        <v>36.7999992370605</v>
+      </c>
+      <c r="E2171" t="n">
+        <v>37.6500015258789</v>
+      </c>
+      <c r="F2171" t="n">
+        <v>37.5</v>
+      </c>
+      <c r="G2171" t="s">
+        <v>1476</v>
+      </c>
+      <c r="H2171" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/MOL.MI.xlsx
+++ b/data/MOL.MI.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1489" uniqueCount="1489">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1491" uniqueCount="1491">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -38,28 +38,28 @@
     <t xml:space="preserve">ticker</t>
   </si>
   <si>
-    <t xml:space="preserve">7.0296745300293</t>
+    <t xml:space="preserve">7.02967500686646</t>
   </si>
   <si>
     <t xml:space="preserve">MOL.MI</t>
   </si>
   <si>
-    <t xml:space="preserve">6.93431043624878</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.83440589904785</t>
+    <t xml:space="preserve">6.93431091308594</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.83440637588501</t>
   </si>
   <si>
     <t xml:space="preserve">6.94793462753296</t>
   </si>
   <si>
-    <t xml:space="preserve">6.81169986724854</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.9025239944458</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.99334621429443</t>
+    <t xml:space="preserve">6.81170082092285</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.90252304077148</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.99334573745728</t>
   </si>
   <si>
     <t xml:space="preserve">6.72087717056274</t>
@@ -68,70 +68,70 @@
     <t xml:space="preserve">6.48473787307739</t>
   </si>
   <si>
-    <t xml:space="preserve">6.25768184661865</t>
+    <t xml:space="preserve">6.25768232345581</t>
   </si>
   <si>
     <t xml:space="preserve">6.51652669906616</t>
   </si>
   <si>
-    <t xml:space="preserve">6.40299940109253</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.72996044158936</t>
+    <t xml:space="preserve">6.40299844741821</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.7299599647522</t>
   </si>
   <si>
     <t xml:space="preserve">6.63005495071411</t>
   </si>
   <si>
-    <t xml:space="preserve">6.04878950119019</t>
+    <t xml:space="preserve">6.04878997802734</t>
   </si>
   <si>
     <t xml:space="preserve">6.69363069534302</t>
   </si>
   <si>
-    <t xml:space="preserve">6.82986402511597</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.93885135650635</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.83894777297974</t>
+    <t xml:space="preserve">6.82986450195312</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.93885231018066</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.83894681930542</t>
   </si>
   <si>
     <t xml:space="preserve">6.86619424819946</t>
   </si>
   <si>
-    <t xml:space="preserve">6.85711193084717</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.17594242095947</t>
+    <t xml:space="preserve">6.85711145401001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.17594194412231</t>
   </si>
   <si>
     <t xml:space="preserve">6.05333089828491</t>
   </si>
   <si>
-    <t xml:space="preserve">6.44840955734253</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.22135257720947</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.41662216186523</t>
+    <t xml:space="preserve">6.44840908050537</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.22135353088379</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.41662168502808</t>
   </si>
   <si>
     <t xml:space="preserve">6.56647920608521</t>
   </si>
   <si>
-    <t xml:space="preserve">6.50744390487671</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.680006980896</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.49836254119873</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.59372663497925</t>
+    <t xml:space="preserve">6.50744438171387</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.68000745773315</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.49836206436157</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.59372615814209</t>
   </si>
   <si>
     <t xml:space="preserve">6.55739688873291</t>
@@ -143,7 +143,7 @@
     <t xml:space="preserve">6.57556104660034</t>
   </si>
   <si>
-    <t xml:space="preserve">6.52106809616089</t>
+    <t xml:space="preserve">6.52106761932373</t>
   </si>
   <si>
     <t xml:space="preserve">6.80715847015381</t>
@@ -152,22 +152,22 @@
     <t xml:space="preserve">6.60280799865723</t>
   </si>
   <si>
-    <t xml:space="preserve">6.38937473297119</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.40753936767578</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.43932723999023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.43024444580078</t>
+    <t xml:space="preserve">6.38937425613403</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.40753889083862</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.43932771682739</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.4302453994751</t>
   </si>
   <si>
     <t xml:space="preserve">6.8026180267334</t>
   </si>
   <si>
-    <t xml:space="preserve">6.60734844207764</t>
+    <t xml:space="preserve">6.60734891891479</t>
   </si>
   <si>
     <t xml:space="preserve">6.58010244369507</t>
@@ -176,34 +176,34 @@
     <t xml:space="preserve">6.62097215652466</t>
   </si>
   <si>
-    <t xml:space="preserve">6.62551307678223</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.53469181060791</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.35758686065674</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.22589445114136</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.4529504776001</t>
+    <t xml:space="preserve">6.62551403045654</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.53469228744507</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.3575873374939</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.22589492797852</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.45295095443726</t>
   </si>
   <si>
     <t xml:space="preserve">6.36666917800903</t>
   </si>
   <si>
-    <t xml:space="preserve">6.45749187469482</t>
+    <t xml:space="preserve">6.45749235153198</t>
   </si>
   <si>
     <t xml:space="preserve">6.41208028793335</t>
   </si>
   <si>
-    <t xml:space="preserve">6.38483333587646</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.42116355895996</t>
+    <t xml:space="preserve">6.38483381271362</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.4211630821228</t>
   </si>
   <si>
     <t xml:space="preserve">6.31671667098999</t>
@@ -212,13 +212,13 @@
     <t xml:space="preserve">6.35304546356201</t>
   </si>
   <si>
-    <t xml:space="preserve">6.76174879074097</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.64822006225586</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.66638469696045</t>
+    <t xml:space="preserve">6.76174831390381</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.6482195854187</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.66638422012329</t>
   </si>
   <si>
     <t xml:space="preserve">6.58918523788452</t>
@@ -230,10 +230,10 @@
     <t xml:space="preserve">6.62135457992554</t>
   </si>
   <si>
-    <t xml:space="preserve">6.71409130096436</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.61208152770996</t>
+    <t xml:space="preserve">6.7140908241272</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.61208248138428</t>
   </si>
   <si>
     <t xml:space="preserve">6.67699718475342</t>
@@ -242,64 +242,64 @@
     <t xml:space="preserve">6.72800207138062</t>
   </si>
   <si>
-    <t xml:space="preserve">6.53325653076172</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.79291677474976</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.86710643768311</t>
+    <t xml:space="preserve">6.5332555770874</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.79291725158691</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.86710596084595</t>
   </si>
   <si>
     <t xml:space="preserve">6.76973295211792</t>
   </si>
   <si>
-    <t xml:space="preserve">6.85783243179321</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.88101577758789</t>
+    <t xml:space="preserve">6.85783195495605</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.88101625442505</t>
   </si>
   <si>
     <t xml:space="preserve">6.92738389968872</t>
   </si>
   <si>
-    <t xml:space="preserve">7.02939462661743</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.12676668167114</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.16849851608276</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.28905487060547</t>
+    <t xml:space="preserve">7.02939367294312</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.1267671585083</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.16849803924561</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.28905582427979</t>
   </si>
   <si>
     <t xml:space="preserve">7.44206953048706</t>
   </si>
   <si>
-    <t xml:space="preserve">7.51162195205688</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.65072584152222</t>
+    <t xml:space="preserve">7.5116229057312</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.65072536468506</t>
   </si>
   <si>
     <t xml:space="preserve">7.49307441711426</t>
   </si>
   <si>
-    <t xml:space="preserve">7.57190036773682</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.44670629501343</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.41888570785522</t>
+    <t xml:space="preserve">7.57189989089966</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.44670581817627</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.41888523101807</t>
   </si>
   <si>
     <t xml:space="preserve">7.41424894332886</t>
   </si>
   <si>
-    <t xml:space="preserve">7.38642835617065</t>
+    <t xml:space="preserve">7.3864278793335</t>
   </si>
   <si>
     <t xml:space="preserve">7.27978134155273</t>
@@ -308,46 +308,46 @@
     <t xml:space="preserve">7.32614946365356</t>
   </si>
   <si>
-    <t xml:space="preserve">7.18704557418823</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.26587152481079</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.14067792892456</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.02012014389038</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.30296516418457</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.35397005081177</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.50234842300415</t>
+    <t xml:space="preserve">7.18704462051392</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.26587057113647</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.1406774520874</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.02012062072754</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.30296468734741</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.35397052764893</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.50234794616699</t>
   </si>
   <si>
     <t xml:space="preserve">7.51625823974609</t>
   </si>
   <si>
-    <t xml:space="preserve">7.18240928649902</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.90883731842041</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.27514505386353</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.37251710891724</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.03866767883301</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.85319566726685</t>
+    <t xml:space="preserve">7.18240833282471</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.90883684158325</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.27514553070068</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.37251806259155</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.03866815567017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.85319519042969</t>
   </si>
   <si>
     <t xml:space="preserve">6.66772365570068</t>
@@ -356,13 +356,13 @@
     <t xml:space="preserve">6.74191236495972</t>
   </si>
   <si>
-    <t xml:space="preserve">6.75118541717529</t>
+    <t xml:space="preserve">6.75118589401245</t>
   </si>
   <si>
     <t xml:space="preserve">6.5842604637146</t>
   </si>
   <si>
-    <t xml:space="preserve">6.92274761199951</t>
+    <t xml:space="preserve">6.92274808883667</t>
   </si>
   <si>
     <t xml:space="preserve">6.82537508010864</t>
@@ -374,103 +374,103 @@
     <t xml:space="preserve">6.63062906265259</t>
   </si>
   <si>
-    <t xml:space="preserve">6.93202066421509</t>
+    <t xml:space="preserve">6.93202114105225</t>
   </si>
   <si>
     <t xml:space="preserve">6.73727560043335</t>
   </si>
   <si>
-    <t xml:space="preserve">6.95520448684692</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.88565301895142</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.65845012664795</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.7094554901123</t>
+    <t xml:space="preserve">6.9552059173584</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.88565397262573</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.65844964981079</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.70945501327515</t>
   </si>
   <si>
     <t xml:space="preserve">6.83464860916138</t>
   </si>
   <si>
-    <t xml:space="preserve">6.86246919631958</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.93665838241577</t>
+    <t xml:space="preserve">6.86246871948242</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.93665790557861</t>
   </si>
   <si>
     <t xml:space="preserve">7.05721521377563</t>
   </si>
   <si>
-    <t xml:space="preserve">6.87637996673584</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.96447896957397</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.97375154495239</t>
+    <t xml:space="preserve">6.87637948989868</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.96447944641113</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.97375202178955</t>
   </si>
   <si>
     <t xml:space="preserve">6.99229955673218</t>
   </si>
   <si>
-    <t xml:space="preserve">6.99693632125854</t>
+    <t xml:space="preserve">6.9969367980957</t>
   </si>
   <si>
     <t xml:space="preserve">7.00157356262207</t>
   </si>
   <si>
-    <t xml:space="preserve">6.98302698135376</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.10358238220215</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.08503532409668</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.04794216156006</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.1638617515564</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.36324453353882</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.19631910324097</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.15922451019287</t>
+    <t xml:space="preserve">6.98302602767944</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.10358190536499</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.08503580093384</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.0479416847229</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.16386127471924</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.36324405670166</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.19632005691528</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.15922498703003</t>
   </si>
   <si>
     <t xml:space="preserve">6.81610107421875</t>
   </si>
   <si>
-    <t xml:space="preserve">6.87174320220947</t>
+    <t xml:space="preserve">6.87174272537231</t>
   </si>
   <si>
     <t xml:space="preserve">7.06648826599121</t>
   </si>
   <si>
-    <t xml:space="preserve">7.11285591125488</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.20559310913086</t>
+    <t xml:space="preserve">7.1128568649292</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.2055926322937</t>
   </si>
   <si>
     <t xml:space="preserve">7.17313480377197</t>
   </si>
   <si>
-    <t xml:space="preserve">7.38179159164429</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.2426872253418</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.2334132194519</t>
+    <t xml:space="preserve">7.38179111480713</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.24268674850464</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.23341369628906</t>
   </si>
   <si>
     <t xml:space="preserve">7.25196123123169</t>
@@ -479,28 +479,28 @@
     <t xml:space="preserve">7.3354229927063</t>
   </si>
   <si>
-    <t xml:space="preserve">7.27050828933716</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.24732446670532</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.34469699859619</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.40033912658691</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.57653713226318</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.40961217880249</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.43743324279785</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.37715482711792</t>
+    <t xml:space="preserve">7.27050876617432</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.24732398986816</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.34469652175903</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.4003381729126</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.57653617858887</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.40961170196533</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.43743371963501</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.37715435028076</t>
   </si>
   <si>
     <t xml:space="preserve">7.54871654510498</t>
@@ -509,7 +509,7 @@
     <t xml:space="preserve">7.56262588500977</t>
   </si>
   <si>
-    <t xml:space="preserve">7.061851978302</t>
+    <t xml:space="preserve">7.06185150146484</t>
   </si>
   <si>
     <t xml:space="preserve">7.21950244903564</t>
@@ -518,109 +518,109 @@
     <t xml:space="preserve">7.36788129806519</t>
   </si>
   <si>
-    <t xml:space="preserve">7.09430980682373</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.71564149856567</t>
+    <t xml:space="preserve">7.09430932998657</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.71564054489136</t>
   </si>
   <si>
     <t xml:space="preserve">7.67391014099121</t>
   </si>
   <si>
-    <t xml:space="preserve">7.69709539413452</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.60435676574707</t>
+    <t xml:space="preserve">7.69709444046021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.60435771942139</t>
   </si>
   <si>
     <t xml:space="preserve">7.4652533531189</t>
   </si>
   <si>
-    <t xml:space="preserve">7.80837678909302</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.86401700973511</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.9289345741272</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.88256549835205</t>
+    <t xml:space="preserve">7.80837631225586</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.86401891708374</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.92893362045288</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.88256454467773</t>
   </si>
   <si>
     <t xml:space="preserve">7.87792873382568</t>
   </si>
   <si>
-    <t xml:space="preserve">7.83619737625122</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.97530221939087</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.1793212890625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.55953693389893</t>
+    <t xml:space="preserve">7.83619689941406</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.97530364990234</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.17932224273682</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.55953884124756</t>
   </si>
   <si>
     <t xml:space="preserve">8.63372993469238</t>
   </si>
   <si>
-    <t xml:space="preserve">8.67082405090332</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.8006534576416</t>
+    <t xml:space="preserve">8.670823097229</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.80065250396729</t>
   </si>
   <si>
     <t xml:space="preserve">8.59663391113281</t>
   </si>
   <si>
-    <t xml:space="preserve">8.62909317016602</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.57808685302734</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.43898391723633</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.45752906799316</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.55490207672119</t>
+    <t xml:space="preserve">8.6290922164917</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.57808589935303</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.43898296356201</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.4575309753418</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.55490303039551</t>
   </si>
   <si>
     <t xml:space="preserve">8.54562854766846</t>
   </si>
   <si>
-    <t xml:space="preserve">8.54099082946777</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.58272361755371</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.59199810028076</t>
+    <t xml:space="preserve">8.54099178314209</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.58272266387939</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.59199619293213</t>
   </si>
   <si>
     <t xml:space="preserve">8.68936920166016</t>
   </si>
   <si>
-    <t xml:space="preserve">8.5224437713623</t>
+    <t xml:space="preserve">8.52244281768799</t>
   </si>
   <si>
     <t xml:space="preserve">8.51780796051025</t>
   </si>
   <si>
-    <t xml:space="preserve">8.30915355682373</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.48535060882568</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.42043495178223</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.28596782684326</t>
+    <t xml:space="preserve">8.30915260314941</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.48534965515137</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.42043685913086</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.28596687316895</t>
   </si>
   <si>
     <t xml:space="preserve">8.32306289672852</t>
@@ -629,58 +629,58 @@
     <t xml:space="preserve">8.49926090240479</t>
   </si>
   <si>
-    <t xml:space="preserve">8.51317119598389</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.62445640563965</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.70328044891357</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.6430025100708</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.44361972808838</t>
+    <t xml:space="preserve">8.51317024230957</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.62445545196533</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.70328140258789</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.64300155639648</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.44361877441406</t>
   </si>
   <si>
     <t xml:space="preserve">8.48998737335205</t>
   </si>
   <si>
-    <t xml:space="preserve">8.23960018157959</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.34624481201172</t>
+    <t xml:space="preserve">8.23960113525391</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.34624671936035</t>
   </si>
   <si>
     <t xml:space="preserve">8.49462413787842</t>
   </si>
   <si>
-    <t xml:space="preserve">8.65227508544922</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.92121124267578</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.83002376556396</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.49617385864258</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.45907974243164</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.25506019592285</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.40343856811523</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.44053268432617</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.44980621337891</t>
+    <t xml:space="preserve">8.65227603912354</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.92120933532715</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.83002471923828</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.49617290496826</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.45907878875732</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.25505924224854</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.40343761444092</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.44053173065186</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.44980525970459</t>
   </si>
   <si>
     <t xml:space="preserve">9.46835231781006</t>
@@ -692,19 +692,19 @@
     <t xml:space="preserve">9.27360725402832</t>
   </si>
   <si>
-    <t xml:space="preserve">9.36634349822998</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.59818267822266</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.80220413208008</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.71874046325684</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.061863899231</t>
+    <t xml:space="preserve">9.3663444519043</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.59818363189697</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.80220127105713</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.7187385559082</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0618648529053</t>
   </si>
   <si>
     <t xml:space="preserve">10.1545991897583</t>
@@ -713,16 +713,16 @@
     <t xml:space="preserve">10.4791765213013</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2009677886963</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7202911376953</t>
+    <t xml:space="preserve">10.200966835022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.720290184021</t>
   </si>
   <si>
     <t xml:space="preserve">11.1283283233643</t>
   </si>
   <si>
-    <t xml:space="preserve">11.091233253479</t>
+    <t xml:space="preserve">11.0912342071533</t>
   </si>
   <si>
     <t xml:space="preserve">11.1932430267334</t>
@@ -731,22 +731,22 @@
     <t xml:space="preserve">11.2210645675659</t>
   </si>
   <si>
-    <t xml:space="preserve">11.0170450210571</t>
+    <t xml:space="preserve">11.0170459747314</t>
   </si>
   <si>
     <t xml:space="preserve">10.9892253875732</t>
   </si>
   <si>
-    <t xml:space="preserve">11.0355930328369</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5411834716797</t>
+    <t xml:space="preserve">11.0355920791626</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5411825180054</t>
   </si>
   <si>
     <t xml:space="preserve">10.2893142700195</t>
   </si>
   <si>
-    <t xml:space="preserve">10.0747594833374</t>
+    <t xml:space="preserve">10.0747604370117</t>
   </si>
   <si>
     <t xml:space="preserve">10.4478988647461</t>
@@ -755,13 +755,13 @@
     <t xml:space="preserve">10.4945402145386</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3452844619751</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4665546417236</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5784969329834</t>
+    <t xml:space="preserve">10.3452854156494</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4665555953979</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5784978866577</t>
   </si>
   <si>
     <t xml:space="preserve">10.5598411560059</t>
@@ -770,7 +770,7 @@
     <t xml:space="preserve">10.6064834594727</t>
   </si>
   <si>
-    <t xml:space="preserve">10.811710357666</t>
+    <t xml:space="preserve">10.8117094039917</t>
   </si>
   <si>
     <t xml:space="preserve">11.147533416748</t>
@@ -779,43 +779,43 @@
     <t xml:space="preserve">11.8471698760986</t>
   </si>
   <si>
-    <t xml:space="preserve">11.6606006622314</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2874612808228</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3714189529419</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1661901473999</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.212833404541</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1008920669556</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8956651687622</t>
+    <t xml:space="preserve">11.6606025695801</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2874622344971</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3714179992676</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1661911010742</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2128343582153</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1008911132812</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8956670761108</t>
   </si>
   <si>
     <t xml:space="preserve">10.8210382461548</t>
   </si>
   <si>
-    <t xml:space="preserve">10.8023805618286</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0542497634888</t>
+    <t xml:space="preserve">10.8023824691772</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0542507171631</t>
   </si>
   <si>
     <t xml:space="preserve">10.9329795837402</t>
   </si>
   <si>
-    <t xml:space="preserve">10.6344680786133</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1941766738892</t>
+    <t xml:space="preserve">10.6344690322876</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1941757202148</t>
   </si>
   <si>
     <t xml:space="preserve">11.1288785934448</t>
@@ -824,43 +824,43 @@
     <t xml:space="preserve">11.5579881668091</t>
   </si>
   <si>
-    <t xml:space="preserve">11.1382064819336</t>
+    <t xml:space="preserve">11.1382055282593</t>
   </si>
   <si>
     <t xml:space="preserve">11.007607460022</t>
   </si>
   <si>
-    <t xml:space="preserve">11.5206747055054</t>
+    <t xml:space="preserve">11.5206737518311</t>
   </si>
   <si>
     <t xml:space="preserve">11.4740304946899</t>
   </si>
   <si>
-    <t xml:space="preserve">11.78187084198</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1736679077148</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.3975496292114</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9684400558472</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.5934495925903</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.6027784347534</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.7520341873169</t>
+    <t xml:space="preserve">11.7818727493286</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1736669540405</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.3975505828857</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9684419631958</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.5934476852417</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.6027765274048</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.7520332336426</t>
   </si>
   <si>
     <t xml:space="preserve">12.8266611099243</t>
   </si>
   <si>
-    <t xml:space="preserve">12.6121053695679</t>
+    <t xml:space="preserve">12.6121063232422</t>
   </si>
   <si>
     <t xml:space="preserve">12.8733034133911</t>
@@ -869,7 +869,7 @@
     <t xml:space="preserve">12.8080034255981</t>
   </si>
   <si>
-    <t xml:space="preserve">12.6214332580566</t>
+    <t xml:space="preserve">12.621434211731</t>
   </si>
   <si>
     <t xml:space="preserve">12.6587476730347</t>
@@ -878,52 +878,52 @@
     <t xml:space="preserve">12.6400918960571</t>
   </si>
   <si>
-    <t xml:space="preserve">12.5468072891235</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.5747909545898</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.5654630661011</t>
+    <t xml:space="preserve">12.5468063354492</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.5747919082642</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.5654640197754</t>
   </si>
   <si>
     <t xml:space="preserve">12.7613611221313</t>
   </si>
   <si>
-    <t xml:space="preserve">12.7053909301758</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.6307621002197</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.2576236724854</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.4721784591675</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.5001640319824</t>
+    <t xml:space="preserve">12.7053928375244</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.630763053894</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2576246261597</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.4721794128418</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.5001630783081</t>
   </si>
   <si>
     <t xml:space="preserve">12.3695659637451</t>
   </si>
   <si>
-    <t xml:space="preserve">12.4441938400269</t>
+    <t xml:space="preserve">12.4441928863525</t>
   </si>
   <si>
     <t xml:space="preserve">11.9591112136841</t>
   </si>
   <si>
-    <t xml:space="preserve">12.360237121582</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.2482948303223</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1270236968994</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0244131088257</t>
+    <t xml:space="preserve">12.3602361679077</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2482957839966</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1270246505737</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0244112014771</t>
   </si>
   <si>
     <t xml:space="preserve">12.3882217407227</t>
@@ -932,22 +932,22 @@
     <t xml:space="preserve">12.3415794372559</t>
   </si>
   <si>
-    <t xml:space="preserve">12.0150842666626</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0337400436401</t>
+    <t xml:space="preserve">12.0150833129883</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0337390899658</t>
   </si>
   <si>
     <t xml:space="preserve">12.4068794250488</t>
   </si>
   <si>
-    <t xml:space="preserve">12.51881980896</t>
+    <t xml:space="preserve">12.5188207626343</t>
   </si>
   <si>
     <t xml:space="preserve">12.4255361557007</t>
   </si>
   <si>
-    <t xml:space="preserve">12.4535236358643</t>
+    <t xml:space="preserve">12.4535226821899</t>
   </si>
   <si>
     <t xml:space="preserve">12.2296380996704</t>
@@ -956,37 +956,37 @@
     <t xml:space="preserve">12.3229236602783</t>
   </si>
   <si>
-    <t xml:space="preserve">12.4162092208862</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.528148651123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.2762804031372</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.5094928741455</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.3788938522339</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.3322525024414</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1363534927368</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0990390777588</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5113458633423</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7072439193726</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.8658275604248</t>
+    <t xml:space="preserve">12.4162082672119</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.5281496047974</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2762794494629</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.5094919204712</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.3788948059082</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.3322505950928</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1363544464111</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0990400314331</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.511344909668</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7072429656982</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.8658266067505</t>
   </si>
   <si>
     <t xml:space="preserve">11.7352294921875</t>
@@ -995,7 +995,7 @@
     <t xml:space="preserve">11.7538862228394</t>
   </si>
   <si>
-    <t xml:space="preserve">11.8191843032837</t>
+    <t xml:space="preserve">11.8191862106323</t>
   </si>
   <si>
     <t xml:space="preserve">11.9964265823364</t>
@@ -1007,13 +1007,13 @@
     <t xml:space="preserve">11.9404554367065</t>
   </si>
   <si>
-    <t xml:space="preserve">11.8098564147949</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.3042650222778</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.2669525146484</t>
+    <t xml:space="preserve">11.8098573684692</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.3042669296265</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2669515609741</t>
   </si>
   <si>
     <t xml:space="preserve">11.8378410339355</t>
@@ -1025,13 +1025,13 @@
     <t xml:space="preserve">11.2594757080078</t>
   </si>
   <si>
-    <t xml:space="preserve">11.3620910644531</t>
+    <t xml:space="preserve">11.3620891571045</t>
   </si>
   <si>
     <t xml:space="preserve">11.2314910888672</t>
   </si>
   <si>
-    <t xml:space="preserve">11.6139583587646</t>
+    <t xml:space="preserve">11.613959312439</t>
   </si>
   <si>
     <t xml:space="preserve">11.5393314361572</t>
@@ -1043,25 +1043,25 @@
     <t xml:space="preserve">11.6512727737427</t>
   </si>
   <si>
-    <t xml:space="preserve">11.5673151016235</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7445583343506</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9311275482178</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.2203102111816</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0803833007812</t>
+    <t xml:space="preserve">11.5673170089722</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7445573806763</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9311265945435</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.220311164856</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0803823471069</t>
   </si>
   <si>
     <t xml:space="preserve">11.9870986938477</t>
   </si>
   <si>
-    <t xml:space="preserve">13.0039024353027</t>
+    <t xml:space="preserve">13.0039005279541</t>
   </si>
   <si>
     <t xml:space="preserve">14.011378288269</t>
@@ -1070,67 +1070,67 @@
     <t xml:space="preserve">14.1979484558105</t>
   </si>
   <si>
-    <t xml:space="preserve">14.1792917251587</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.0300340652466</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.0860061645508</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.7203416824341</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.9927196502686</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.7128658294678</t>
+    <t xml:space="preserve">14.1792898178101</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.0300350189209</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.0860052108765</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.7203435897827</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.9927215576172</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.7128667831421</t>
   </si>
   <si>
     <t xml:space="preserve">14.2912311553955</t>
   </si>
   <si>
-    <t xml:space="preserve">14.104663848877</t>
+    <t xml:space="preserve">14.1046628952026</t>
   </si>
   <si>
     <t xml:space="preserve">13.7874946594238</t>
   </si>
   <si>
-    <t xml:space="preserve">14.4778022766113</t>
+    <t xml:space="preserve">14.4778032302856</t>
   </si>
   <si>
     <t xml:space="preserve">14.6084012985229</t>
   </si>
   <si>
-    <t xml:space="preserve">14.6643714904785</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.5710868835449</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.2725763320923</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.9180936813354</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.0785303115845</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.8546457290649</t>
+    <t xml:space="preserve">14.6643724441528</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.5710859298706</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.272575378418</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.9180927276611</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.0785293579102</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.8546466827393</t>
   </si>
   <si>
     <t xml:space="preserve">13.4516696929932</t>
   </si>
   <si>
-    <t xml:space="preserve">13.1158437728882</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.8173332214355</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.0598726272583</t>
+    <t xml:space="preserve">13.1158447265625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.8173322677612</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.0598735809326</t>
   </si>
   <si>
     <t xml:space="preserve">13.600923538208</t>
@@ -1139,7 +1139,7 @@
     <t xml:space="preserve">13.3956985473633</t>
   </si>
   <si>
-    <t xml:space="preserve">12.7427053451538</t>
+    <t xml:space="preserve">12.7427043914795</t>
   </si>
   <si>
     <t xml:space="preserve">12.1829957962036</t>
@@ -1148,16 +1148,16 @@
     <t xml:space="preserve">12.08971118927</t>
   </si>
   <si>
-    <t xml:space="preserve">11.9031410217285</t>
+    <t xml:space="preserve">11.9031419754028</t>
   </si>
   <si>
     <t xml:space="preserve">12.6680755615234</t>
   </si>
   <si>
-    <t xml:space="preserve">12.7986755371094</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.6867351531982</t>
+    <t xml:space="preserve">12.7986764907837</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.6867341995239</t>
   </si>
   <si>
     <t xml:space="preserve">12.2389669418335</t>
@@ -1166,13 +1166,13 @@
     <t xml:space="preserve">12.1083669662476</t>
   </si>
   <si>
-    <t xml:space="preserve">12.1456813812256</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.6792583465576</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.5374774932861</t>
+    <t xml:space="preserve">12.1456823348999</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.6792573928833</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.5374794006348</t>
   </si>
   <si>
     <t xml:space="preserve">11.8844842910767</t>
@@ -1190,7 +1190,7 @@
     <t xml:space="preserve">13.433012008667</t>
   </si>
   <si>
-    <t xml:space="preserve">13.6195812225342</t>
+    <t xml:space="preserve">13.6195821762085</t>
   </si>
   <si>
     <t xml:space="preserve">13.8061513900757</t>
@@ -1199,91 +1199,91 @@
     <t xml:space="preserve">14.3472032546997</t>
   </si>
   <si>
-    <t xml:space="preserve">15.0001964569092</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.8695983886719</t>
+    <t xml:space="preserve">15.0001955032349</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.8695993423462</t>
   </si>
   <si>
     <t xml:space="preserve">14.8322839736938</t>
   </si>
   <si>
-    <t xml:space="preserve">14.888256072998</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1164264678955</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7819337844849</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4967136383057</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3255863189697</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.17347240448</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2115001678467</t>
+    <t xml:space="preserve">14.8882551193237</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1164274215698</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7819309234619</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4967155456543</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.325587272644</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1734704971313</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2114992141724</t>
   </si>
   <si>
     <t xml:space="preserve">15.2685422897339</t>
   </si>
   <si>
-    <t xml:space="preserve">15.4016437530518</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.2227516174316</t>
+    <t xml:space="preserve">15.4016447067261</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.222752571106</t>
   </si>
   <si>
     <t xml:space="preserve">13.899507522583</t>
   </si>
   <si>
-    <t xml:space="preserve">13.3480911254883</t>
+    <t xml:space="preserve">13.348090171814</t>
   </si>
   <si>
     <t xml:space="preserve">13.6903495788574</t>
   </si>
   <si>
-    <t xml:space="preserve">13.7664060592651</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.1579465866089</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.0248460769653</t>
+    <t xml:space="preserve">13.7664070129395</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1579456329346</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.0248470306396</t>
   </si>
   <si>
     <t xml:space="preserve">13.1959772109985</t>
   </si>
   <si>
-    <t xml:space="preserve">12.9678049087524</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1691989898682</t>
+    <t xml:space="preserve">12.9678039550781</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1691999435425</t>
   </si>
   <si>
     <t xml:space="preserve">12.6255435943604</t>
   </si>
   <si>
-    <t xml:space="preserve">13.0818891525269</t>
+    <t xml:space="preserve">13.0818881988525</t>
   </si>
   <si>
     <t xml:space="preserve">12.701602935791</t>
   </si>
   <si>
-    <t xml:space="preserve">12.7776594161987</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.8347024917603</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.9487886428833</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.4163856506348</t>
+    <t xml:space="preserve">12.777660369873</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.8347015380859</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.9487905502319</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.4163866043091</t>
   </si>
   <si>
     <t xml:space="preserve">12.8156881332397</t>
@@ -1292,7 +1292,7 @@
     <t xml:space="preserve">12.7966737747192</t>
   </si>
   <si>
-    <t xml:space="preserve">12.8537168502808</t>
+    <t xml:space="preserve">12.8537178039551</t>
   </si>
   <si>
     <t xml:space="preserve">12.3403282165527</t>
@@ -1313,7 +1313,7 @@
     <t xml:space="preserve">14.1657094955444</t>
   </si>
   <si>
-    <t xml:space="preserve">13.7093648910522</t>
+    <t xml:space="preserve">13.7093639373779</t>
   </si>
   <si>
     <t xml:space="preserve">13.6713352203369</t>
@@ -1322,22 +1322,22 @@
     <t xml:space="preserve">13.500205039978</t>
   </si>
   <si>
-    <t xml:space="preserve">13.538233757019</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5192193984985</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.3290767669678</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2149896621704</t>
+    <t xml:space="preserve">13.5382347106934</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5192203521729</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3290758132935</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2149906158447</t>
   </si>
   <si>
     <t xml:space="preserve">13.4051342010498</t>
   </si>
   <si>
-    <t xml:space="preserve">13.5572481155396</t>
+    <t xml:space="preserve">13.5572500228882</t>
   </si>
   <si>
     <t xml:space="preserve">13.2910470962524</t>
@@ -1352,19 +1352,19 @@
     <t xml:space="preserve">12.5875148773193</t>
   </si>
   <si>
-    <t xml:space="preserve">12.3593416213989</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.7586441040039</t>
+    <t xml:space="preserve">12.3593425750732</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.7586450576782</t>
   </si>
   <si>
     <t xml:space="preserve">13.1199178695679</t>
   </si>
   <si>
-    <t xml:space="preserve">13.0628757476807</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.8917455673218</t>
+    <t xml:space="preserve">13.0628747940063</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.8917465209961</t>
   </si>
   <si>
     <t xml:space="preserve">13.0438613891602</t>
@@ -1373,19 +1373,19 @@
     <t xml:space="preserve">13.8804931640625</t>
   </si>
   <si>
-    <t xml:space="preserve">14.2037363052368</t>
+    <t xml:space="preserve">14.2037372589111</t>
   </si>
   <si>
     <t xml:space="preserve">14.3558521270752</t>
   </si>
   <si>
-    <t xml:space="preserve">14.3938817977905</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.1466951370239</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.7854223251343</t>
+    <t xml:space="preserve">14.3938808441162</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.1466941833496</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.7854204177856</t>
   </si>
   <si>
     <t xml:space="preserve">13.5762624740601</t>
@@ -1397,19 +1397,19 @@
     <t xml:space="preserve">13.6333065032959</t>
   </si>
   <si>
-    <t xml:space="preserve">14.2607803344727</t>
+    <t xml:space="preserve">14.260781288147</t>
   </si>
   <si>
     <t xml:space="preserve">15.021354675293</t>
   </si>
   <si>
-    <t xml:space="preserve">15.5917854309082</t>
+    <t xml:space="preserve">15.5917863845825</t>
   </si>
   <si>
     <t xml:space="preserve">15.3636140823364</t>
   </si>
   <si>
-    <t xml:space="preserve">15.2495288848877</t>
+    <t xml:space="preserve">15.249529838562</t>
   </si>
   <si>
     <t xml:space="preserve">16.6375751495361</t>
@@ -1418,22 +1418,22 @@
     <t xml:space="preserve">16.8087062835693</t>
   </si>
   <si>
-    <t xml:space="preserve">17.0178642272949</t>
+    <t xml:space="preserve">17.0178661346436</t>
   </si>
   <si>
     <t xml:space="preserve">16.7326488494873</t>
   </si>
   <si>
-    <t xml:space="preserve">16.3333492279053</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.010103225708</t>
+    <t xml:space="preserve">16.3333473205566</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.0101013183594</t>
   </si>
   <si>
     <t xml:space="preserve">15.6868591308594</t>
   </si>
   <si>
-    <t xml:space="preserve">15.6108026504517</t>
+    <t xml:space="preserve">15.610800743103</t>
   </si>
   <si>
     <t xml:space="preserve">15.0974140167236</t>
@@ -1454,19 +1454,19 @@
     <t xml:space="preserve">14.7361392974854</t>
   </si>
   <si>
-    <t xml:space="preserve">14.3368368148804</t>
+    <t xml:space="preserve">14.3368396759033</t>
   </si>
   <si>
     <t xml:space="preserve">14.2797956466675</t>
   </si>
   <si>
-    <t xml:space="preserve">13.9755659103394</t>
+    <t xml:space="preserve">13.975564956665</t>
   </si>
   <si>
     <t xml:space="preserve">13.6142911911011</t>
   </si>
   <si>
-    <t xml:space="preserve">13.937536239624</t>
+    <t xml:space="preserve">13.9375371932983</t>
   </si>
   <si>
     <t xml:space="preserve">14.1086654663086</t>
@@ -1478,34 +1478,34 @@
     <t xml:space="preserve">14.5650091171265</t>
   </si>
   <si>
-    <t xml:space="preserve">14.5079689025879</t>
+    <t xml:space="preserve">14.5079679489136</t>
   </si>
   <si>
     <t xml:space="preserve">15.6488285064697</t>
   </si>
   <si>
-    <t xml:space="preserve">15.0593843460083</t>
+    <t xml:space="preserve">15.059383392334</t>
   </si>
   <si>
     <t xml:space="preserve">16.1812343597412</t>
   </si>
   <si>
-    <t xml:space="preserve">16.1622180938721</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.3523616790771</t>
+    <t xml:space="preserve">16.1622142791748</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.3523635864258</t>
   </si>
   <si>
     <t xml:space="preserve">16.1432018280029</t>
   </si>
   <si>
-    <t xml:space="preserve">15.972074508667</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5537576675415</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.1241855621338</t>
+    <t xml:space="preserve">15.972071647644</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5537586212158</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.1241893768311</t>
   </si>
   <si>
     <t xml:space="preserve">16.4474334716797</t>
@@ -1514,7 +1514,7 @@
     <t xml:space="preserve">16.2002487182617</t>
   </si>
   <si>
-    <t xml:space="preserve">16.4284191131592</t>
+    <t xml:space="preserve">16.4284210205078</t>
   </si>
   <si>
     <t xml:space="preserve">15.7439022064209</t>
@@ -1526,61 +1526,61 @@
     <t xml:space="preserve">16.0291175842285</t>
   </si>
   <si>
-    <t xml:space="preserve">15.1544551849365</t>
+    <t xml:space="preserve">15.1544570922852</t>
   </si>
   <si>
     <t xml:space="preserve">15.9530611038208</t>
   </si>
   <si>
-    <t xml:space="preserve">15.5727729797363</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.8312120437622</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0023403167725</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.6410694122314</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9072713851929</t>
+    <t xml:space="preserve">15.5727710723877</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.8312129974365</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0023422241211</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.6410675048828</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9072704315186</t>
   </si>
   <si>
     <t xml:space="preserve">15.0783987045288</t>
   </si>
   <si>
-    <t xml:space="preserve">15.6298160552979</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8389759063721</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1354427337646</t>
+    <t xml:space="preserve">15.6298151016235</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8389730453491</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1354417800903</t>
   </si>
   <si>
     <t xml:space="preserve">15.5157289505005</t>
   </si>
   <si>
-    <t xml:space="preserve">15.8579864501953</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7248907089233</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9910869598389</t>
+    <t xml:space="preserve">15.8579893112183</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7248878479004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9910879135132</t>
   </si>
   <si>
     <t xml:space="preserve">16.0671443939209</t>
   </si>
   <si>
-    <t xml:space="preserve">16.1051731109619</t>
+    <t xml:space="preserve">16.1051750183105</t>
   </si>
   <si>
     <t xml:space="preserve">16.08616065979</t>
   </si>
   <si>
-    <t xml:space="preserve">15.7058763504028</t>
+    <t xml:space="preserve">15.7058753967285</t>
   </si>
   <si>
     <t xml:space="preserve">14.7741689682007</t>
@@ -1595,22 +1595,22 @@
     <t xml:space="preserve">15.2875556945801</t>
   </si>
   <si>
-    <t xml:space="preserve">15.1924848556519</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3826284408569</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.295316696167</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.1129341125488</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.3411083221436</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.3601226806641</t>
+    <t xml:space="preserve">15.1924839019775</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3826293945312</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.2953186035156</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.1129379272461</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.3411102294922</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.3601245880127</t>
   </si>
   <si>
     <t xml:space="preserve">17.3981513977051</t>
@@ -1619,34 +1619,34 @@
     <t xml:space="preserve">17.2080097198486</t>
   </si>
   <si>
-    <t xml:space="preserve">17.169979095459</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.158727645874</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.5122394561768</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.4551944732666</t>
+    <t xml:space="preserve">17.1699810028076</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.1587295532227</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.5122375488281</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.4551963806152</t>
   </si>
   <si>
     <t xml:space="preserve">17.4742069244385</t>
   </si>
   <si>
-    <t xml:space="preserve">17.6073112487793</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.1509685516357</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.4932231903076</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.5502643585205</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.9685840606689</t>
+    <t xml:space="preserve">17.6073093414307</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.1509666442871</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.4932250976562</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.5502662658691</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.9685821533203</t>
   </si>
   <si>
     <t xml:space="preserve">17.9305553436279</t>
@@ -1655,13 +1655,13 @@
     <t xml:space="preserve">17.6643562316895</t>
   </si>
   <si>
-    <t xml:space="preserve">17.4361801147461</t>
+    <t xml:space="preserve">17.4361820220947</t>
   </si>
   <si>
     <t xml:space="preserve">17.2460384368896</t>
   </si>
   <si>
-    <t xml:space="preserve">16.6756076812744</t>
+    <t xml:space="preserve">16.675609588623</t>
   </si>
   <si>
     <t xml:space="preserve">16.6946201324463</t>
@@ -1673,28 +1673,28 @@
     <t xml:space="preserve">16.9608211517334</t>
   </si>
   <si>
-    <t xml:space="preserve">16.2572917938232</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.6830749511719</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.6443691253662</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.489538192749</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.5475978851318</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.3347034454346</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.1024589538574</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.0831031799316</t>
+    <t xml:space="preserve">16.2572898864746</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.6830768585205</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.6443672180176</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.4895362854004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.5475997924805</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.3347053527832</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.1024570465088</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.0831050872803</t>
   </si>
   <si>
     <t xml:space="preserve">16.7798461914062</t>
@@ -1709,16 +1709,16 @@
     <t xml:space="preserve">16.8572597503662</t>
   </si>
   <si>
-    <t xml:space="preserve">16.741138458252</t>
+    <t xml:space="preserve">16.7411365509033</t>
   </si>
   <si>
     <t xml:space="preserve">16.5282440185547</t>
   </si>
   <si>
-    <t xml:space="preserve">16.6250152587891</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.044397354126</t>
+    <t xml:space="preserve">16.6250133514404</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.0443954467773</t>
   </si>
   <si>
     <t xml:space="preserve">16.5669536590576</t>
@@ -1727,61 +1727,61 @@
     <t xml:space="preserve">16.0637512207031</t>
   </si>
   <si>
-    <t xml:space="preserve">16.1218109130859</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9669818878174</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8315019607544</t>
+    <t xml:space="preserve">16.1218128204346</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9669799804688</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.831503868103</t>
   </si>
   <si>
     <t xml:space="preserve">15.7540884017944</t>
   </si>
   <si>
-    <t xml:space="preserve">15.5218420028687</t>
+    <t xml:space="preserve">15.521842956543</t>
   </si>
   <si>
     <t xml:space="preserve">15.4637784957886</t>
   </si>
   <si>
-    <t xml:space="preserve">15.4057168960571</t>
+    <t xml:space="preserve">15.4057178497314</t>
   </si>
   <si>
     <t xml:space="preserve">15.0767011642456</t>
   </si>
   <si>
-    <t xml:space="preserve">15.2895946502686</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3283023834229</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2315320968628</t>
+    <t xml:space="preserve">15.2895936965942</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3283014297485</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2315311431885</t>
   </si>
   <si>
     <t xml:space="preserve">15.1928253173828</t>
   </si>
   <si>
-    <t xml:space="preserve">15.0960559844971</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2121782302856</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3476552963257</t>
+    <t xml:space="preserve">15.0960540771484</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.21217918396</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3476572036743</t>
   </si>
   <si>
     <t xml:space="preserve">15.1541166305542</t>
   </si>
   <si>
-    <t xml:space="preserve">14.9605770111084</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9412240982056</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.8057460784912</t>
+    <t xml:space="preserve">14.9605779647827</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9412221908569</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.8057470321655</t>
   </si>
   <si>
     <t xml:space="preserve">15.5411939620972</t>
@@ -1790,28 +1790,28 @@
     <t xml:space="preserve">15.2702398300171</t>
   </si>
   <si>
-    <t xml:space="preserve">14.9218702316284</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0573472976685</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2508869171143</t>
+    <t xml:space="preserve">14.9218692779541</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0573463439941</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2508859634399</t>
   </si>
   <si>
     <t xml:space="preserve">14.8831624984741</t>
   </si>
   <si>
-    <t xml:space="preserve">14.8444547653198</t>
+    <t xml:space="preserve">14.8444538116455</t>
   </si>
   <si>
     <t xml:space="preserve">14.999285697937</t>
   </si>
   <si>
-    <t xml:space="preserve">15.1154079437256</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9025163650513</t>
+    <t xml:space="preserve">15.1154088973999</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.902515411377</t>
   </si>
   <si>
     <t xml:space="preserve">14.9799308776855</t>
@@ -1820,7 +1820,7 @@
     <t xml:space="preserve">14.6315603256226</t>
   </si>
   <si>
-    <t xml:space="preserve">14.6702690124512</t>
+    <t xml:space="preserve">14.6702680587769</t>
   </si>
   <si>
     <t xml:space="preserve">14.6896238327026</t>
@@ -1829,13 +1829,13 @@
     <t xml:space="preserve">14.5928535461426</t>
   </si>
   <si>
-    <t xml:space="preserve">14.7283296585083</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.7089748382568</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.554144859314</t>
+    <t xml:space="preserve">14.7283306121826</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.7089757919312</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.5541458129883</t>
   </si>
   <si>
     <t xml:space="preserve">14.5347919464111</t>
@@ -1844,88 +1844,88 @@
     <t xml:space="preserve">14.7476835250854</t>
   </si>
   <si>
-    <t xml:space="preserve">15.0186405181885</t>
+    <t xml:space="preserve">15.0186395645142</t>
   </si>
   <si>
     <t xml:space="preserve">14.650915145874</t>
   </si>
   <si>
-    <t xml:space="preserve">15.4444255828857</t>
+    <t xml:space="preserve">15.4444246292114</t>
   </si>
   <si>
     <t xml:space="preserve">15.4831342697144</t>
   </si>
   <si>
-    <t xml:space="preserve">15.7734403610229</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6186103820801</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8121480941772</t>
+    <t xml:space="preserve">15.7734413146973</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6186084747314</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8121500015259</t>
   </si>
   <si>
     <t xml:space="preserve">15.8895664215088</t>
   </si>
   <si>
-    <t xml:space="preserve">16.2572898864746</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8702096939087</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9089193344116</t>
+    <t xml:space="preserve">16.257287979126</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8702116012573</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9089202880859</t>
   </si>
   <si>
     <t xml:space="preserve">16.0056915283203</t>
   </si>
   <si>
-    <t xml:space="preserve">15.7347345352173</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7153797149658</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9476280212402</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6766729354858</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5992565155029</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9282712936401</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.0250415802002</t>
+    <t xml:space="preserve">15.734733581543</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7153806686401</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9476251602173</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6766738891602</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5992574691772</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9282732009888</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.0250434875488</t>
   </si>
   <si>
     <t xml:space="preserve">16.2185821533203</t>
   </si>
   <si>
-    <t xml:space="preserve">17.2636947631836</t>
+    <t xml:space="preserve">17.263692855835</t>
   </si>
   <si>
     <t xml:space="preserve">17.1088619232178</t>
   </si>
   <si>
-    <t xml:space="preserve">17.0508003234863</t>
+    <t xml:space="preserve">17.050802230835</t>
   </si>
   <si>
     <t xml:space="preserve">16.9927387237549</t>
   </si>
   <si>
-    <t xml:space="preserve">17.089506149292</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.2249870300293</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.3798160552979</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.3862190246582</t>
+    <t xml:space="preserve">17.0895080566406</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.2249851226807</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.3798141479492</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.3862209320068</t>
   </si>
   <si>
     <t xml:space="preserve">18.2894496917725</t>
@@ -1934,31 +1934,31 @@
     <t xml:space="preserve">17.7088317871094</t>
   </si>
   <si>
-    <t xml:space="preserve">17.7668952941895</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.2120361328125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.0959129333496</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.231388092041</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.0765590667725</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.0572052001953</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.1733283996582</t>
+    <t xml:space="preserve">17.7668972015381</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.2120342254639</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.0959148406982</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.2313899993896</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.0765571594238</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.057201385498</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.1733264923096</t>
   </si>
   <si>
     <t xml:space="preserve">18.0378494262695</t>
   </si>
   <si>
-    <t xml:space="preserve">18.4249286651611</t>
+    <t xml:space="preserve">18.4249305725098</t>
   </si>
   <si>
     <t xml:space="preserve">18.8700695037842</t>
@@ -1967,43 +1967,43 @@
     <t xml:space="preserve">19.2184391021729</t>
   </si>
   <si>
-    <t xml:space="preserve">19.1410255432129</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.6571769714355</t>
+    <t xml:space="preserve">19.1410236358643</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.6571750640869</t>
   </si>
   <si>
     <t xml:space="preserve">19.0829620361328</t>
   </si>
   <si>
-    <t xml:space="preserve">19.0248985290527</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.5474548339844</t>
+    <t xml:space="preserve">19.0249004364014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.547456741333</t>
   </si>
   <si>
     <t xml:space="preserve">19.934534072876</t>
   </si>
   <si>
-    <t xml:space="preserve">19.6442241668701</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.789379119873</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.4022998809814</t>
+    <t xml:space="preserve">19.6442260742188</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.7893810272217</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.4022979736328</t>
   </si>
   <si>
     <t xml:space="preserve">18.9668369293213</t>
   </si>
   <si>
-    <t xml:space="preserve">19.7409934997559</t>
+    <t xml:space="preserve">19.7409954071045</t>
   </si>
   <si>
     <t xml:space="preserve">19.8377628326416</t>
   </si>
   <si>
-    <t xml:space="preserve">19.8861465454102</t>
+    <t xml:space="preserve">19.8861484527588</t>
   </si>
   <si>
     <t xml:space="preserve">19.4506855010986</t>
@@ -2015,49 +2015,49 @@
     <t xml:space="preserve">20.3216133117676</t>
   </si>
   <si>
-    <t xml:space="preserve">20.3699970245361</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.3537750244141</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.2893104553223</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.2409248352051</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.9506130218506</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.7570743560791</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.1441555023193</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.8538436889648</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.8054580688477</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.0796890258789</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.4183826446533</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.1280708312988</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.9829158782959</t>
+    <t xml:space="preserve">20.3699951171875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.3537731170654</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.289306640625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.2409229278564</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.9506149291992</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.7570762634277</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.1441535949707</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.8538455963135</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.8054599761963</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.0796909332275</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.4183807373047</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.1280727386475</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.9829196929932</t>
   </si>
   <si>
     <t xml:space="preserve">19.1990852355957</t>
   </si>
   <si>
-    <t xml:space="preserve">20.9022274017334</t>
+    <t xml:space="preserve">20.902229309082</t>
   </si>
   <si>
     <t xml:space="preserve">21.047384262085</t>
@@ -2069,22 +2069,22 @@
     <t xml:space="preserve">21.3860778808594</t>
   </si>
   <si>
-    <t xml:space="preserve">21.5312328338623</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.3376941680908</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.773157119751</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.5796184539795</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.9666957855225</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.1764583587646</t>
+    <t xml:space="preserve">21.5312347412109</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.3376903533936</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.7731552124023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.5796165466309</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.9666996002197</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.1764602661133</t>
   </si>
   <si>
     <t xml:space="preserve">20.2248420715332</t>
@@ -2093,37 +2093,37 @@
     <t xml:space="preserve">18.8507137298584</t>
   </si>
   <si>
-    <t xml:space="preserve">18.3088073730469</t>
+    <t xml:space="preserve">18.3088054656982</t>
   </si>
   <si>
     <t xml:space="preserve">17.7281856536865</t>
   </si>
   <si>
-    <t xml:space="preserve">16.4121189117432</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.2959995269775</t>
+    <t xml:space="preserve">16.4121170043945</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.2959976196289</t>
   </si>
   <si>
     <t xml:space="preserve">14.5734996795654</t>
   </si>
   <si>
-    <t xml:space="preserve">14.5154371261597</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.5413370132446</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0961990356445</t>
+    <t xml:space="preserve">14.515438079834</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.5413379669189</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0961971282959</t>
   </si>
   <si>
     <t xml:space="preserve">12.2123203277588</t>
   </si>
   <si>
-    <t xml:space="preserve">12.7735843658447</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.986478805542</t>
+    <t xml:space="preserve">12.773585319519</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.9864778518677</t>
   </si>
   <si>
     <t xml:space="preserve">12.0574893951416</t>
@@ -2132,10 +2132,10 @@
     <t xml:space="preserve">13.3929100036621</t>
   </si>
   <si>
-    <t xml:space="preserve">13.6445112228394</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.1090059280396</t>
+    <t xml:space="preserve">13.6445121765137</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.1090040206909</t>
   </si>
   <si>
     <t xml:space="preserve">14.2831907272339</t>
@@ -2144,10 +2144,10 @@
     <t xml:space="preserve">14.3799600601196</t>
   </si>
   <si>
-    <t xml:space="preserve">14.205774307251</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.825098991394</t>
+    <t xml:space="preserve">14.2057762145996</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.8250999450684</t>
   </si>
   <si>
     <t xml:space="preserve">14.1864204406738</t>
@@ -2156,10 +2156,10 @@
     <t xml:space="preserve">15.5024871826172</t>
   </si>
   <si>
-    <t xml:space="preserve">16.9733867645264</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.2766418457031</t>
+    <t xml:space="preserve">16.9733848571777</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.2766437530518</t>
   </si>
   <si>
     <t xml:space="preserve">16.3153514862061</t>
@@ -2174,22 +2174,22 @@
     <t xml:space="preserve">16.2379379272461</t>
   </si>
   <si>
-    <t xml:space="preserve">16.1411685943604</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.7024307250977</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.3217544555664</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.8185539245605</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.0314464569092</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.1669216156006</t>
+    <t xml:space="preserve">16.1411666870117</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.702428817749</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.321756362915</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.8185520172119</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.0314483642578</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.1669235229492</t>
   </si>
   <si>
     <t xml:space="preserve">18.3668670654297</t>
@@ -4479,6 +4479,12 @@
   </si>
   <si>
     <t xml:space="preserve">34.1500015258789</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.0499992370605</t>
   </si>
 </sst>
 </file>
@@ -61682,7 +61688,7 @@
     </row>
     <row r="2188">
       <c r="A2188" s="1" t="n">
-        <v>45509.6494791667</v>
+        <v>45509.2916666667</v>
       </c>
       <c r="B2188" t="n">
         <v>13335</v>
@@ -61703,6 +61709,58 @@
         <v>1488</v>
       </c>
       <c r="H2188" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2189">
+      <c r="A2189" s="1" t="n">
+        <v>45510.2916666667</v>
+      </c>
+      <c r="B2189" t="n">
+        <v>10259</v>
+      </c>
+      <c r="C2189" t="n">
+        <v>34.5499992370605</v>
+      </c>
+      <c r="D2189" t="n">
+        <v>33.4000015258789</v>
+      </c>
+      <c r="E2189" t="n">
+        <v>34.3499984741211</v>
+      </c>
+      <c r="F2189" t="n">
+        <v>34.5</v>
+      </c>
+      <c r="G2189" t="s">
+        <v>1489</v>
+      </c>
+      <c r="H2189" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2190">
+      <c r="A2190" s="1" t="n">
+        <v>45511.6525694444</v>
+      </c>
+      <c r="B2190" t="n">
+        <v>14843</v>
+      </c>
+      <c r="C2190" t="n">
+        <v>35.9000015258789</v>
+      </c>
+      <c r="D2190" t="n">
+        <v>34.6500015258789</v>
+      </c>
+      <c r="E2190" t="n">
+        <v>34.6500015258789</v>
+      </c>
+      <c r="F2190" t="n">
+        <v>35.0499992370605</v>
+      </c>
+      <c r="G2190" t="s">
+        <v>1490</v>
+      </c>
+      <c r="H2190" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/MOL.MI.xlsx
+++ b/data/MOL.MI.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1491" uniqueCount="1491">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1493" uniqueCount="1493">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -38,22 +38,22 @@
     <t xml:space="preserve">ticker</t>
   </si>
   <si>
-    <t xml:space="preserve">7.02967500686646</t>
+    <t xml:space="preserve">7.0296745300293</t>
   </si>
   <si>
     <t xml:space="preserve">MOL.MI</t>
   </si>
   <si>
-    <t xml:space="preserve">6.93431091308594</t>
+    <t xml:space="preserve">6.93431043624878</t>
   </si>
   <si>
     <t xml:space="preserve">6.83440637588501</t>
   </si>
   <si>
-    <t xml:space="preserve">6.94793462753296</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.81170082092285</t>
+    <t xml:space="preserve">6.9479341506958</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.81169986724854</t>
   </si>
   <si>
     <t xml:space="preserve">6.90252304077148</t>
@@ -62,37 +62,37 @@
     <t xml:space="preserve">6.99334573745728</t>
   </si>
   <si>
-    <t xml:space="preserve">6.72087717056274</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.48473787307739</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.25768232345581</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.51652669906616</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.40299844741821</t>
+    <t xml:space="preserve">6.7208776473999</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.48473882675171</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.25768184661865</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.516526222229</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.40299892425537</t>
   </si>
   <si>
     <t xml:space="preserve">6.7299599647522</t>
   </si>
   <si>
-    <t xml:space="preserve">6.63005495071411</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.04878997802734</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.69363069534302</t>
+    <t xml:space="preserve">6.63005447387695</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.04878950119019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.69363117218018</t>
   </si>
   <si>
     <t xml:space="preserve">6.82986450195312</t>
   </si>
   <si>
-    <t xml:space="preserve">6.93885231018066</t>
+    <t xml:space="preserve">6.93885183334351</t>
   </si>
   <si>
     <t xml:space="preserve">6.83894681930542</t>
@@ -101,25 +101,25 @@
     <t xml:space="preserve">6.86619424819946</t>
   </si>
   <si>
-    <t xml:space="preserve">6.85711145401001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.17594194412231</t>
+    <t xml:space="preserve">6.85711097717285</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.17594242095947</t>
   </si>
   <si>
     <t xml:space="preserve">6.05333089828491</t>
   </si>
   <si>
-    <t xml:space="preserve">6.44840908050537</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.22135353088379</t>
+    <t xml:space="preserve">6.44841003417969</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.22135257720947</t>
   </si>
   <si>
     <t xml:space="preserve">6.41662168502808</t>
   </si>
   <si>
-    <t xml:space="preserve">6.56647920608521</t>
+    <t xml:space="preserve">6.56647872924805</t>
   </si>
   <si>
     <t xml:space="preserve">6.50744438171387</t>
@@ -128,70 +128,70 @@
     <t xml:space="preserve">6.68000745773315</t>
   </si>
   <si>
-    <t xml:space="preserve">6.49836206436157</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.59372615814209</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.55739688873291</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.47111511230469</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.57556104660034</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.52106761932373</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.80715847015381</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.60280799865723</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.38937425613403</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.40753889083862</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.43932771682739</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.4302453994751</t>
+    <t xml:space="preserve">6.49836254119873</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.59372663497925</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.55739641189575</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.47111558914185</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.5755615234375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.52106809616089</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.80715894699097</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.60280752182007</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.38937473297119</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.40753936767578</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.43932723999023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.43024492263794</t>
   </si>
   <si>
     <t xml:space="preserve">6.8026180267334</t>
   </si>
   <si>
-    <t xml:space="preserve">6.60734891891479</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.58010244369507</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.62097215652466</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.62551403045654</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.53469228744507</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.3575873374939</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.22589492797852</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.45295095443726</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.36666917800903</t>
+    <t xml:space="preserve">6.60734939575195</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.58010196685791</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.62097263336182</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.62551355361938</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.53469133377075</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.35758686065674</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.22589445114136</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.4529504776001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.36667013168335</t>
   </si>
   <si>
     <t xml:space="preserve">6.45749235153198</t>
@@ -200,22 +200,22 @@
     <t xml:space="preserve">6.41208028793335</t>
   </si>
   <si>
-    <t xml:space="preserve">6.38483381271362</t>
+    <t xml:space="preserve">6.38483428955078</t>
   </si>
   <si>
     <t xml:space="preserve">6.4211630821228</t>
   </si>
   <si>
-    <t xml:space="preserve">6.31671667098999</t>
+    <t xml:space="preserve">6.31671714782715</t>
   </si>
   <si>
     <t xml:space="preserve">6.35304546356201</t>
   </si>
   <si>
-    <t xml:space="preserve">6.76174831390381</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.6482195854187</t>
+    <t xml:space="preserve">6.76174879074097</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.64822006225586</t>
   </si>
   <si>
     <t xml:space="preserve">6.66638422012329</t>
@@ -224,13 +224,13 @@
     <t xml:space="preserve">6.58918523788452</t>
   </si>
   <si>
-    <t xml:space="preserve">6.80682802200317</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.62135457992554</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.7140908241272</t>
+    <t xml:space="preserve">6.80682754516602</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.6213550567627</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.71409130096436</t>
   </si>
   <si>
     <t xml:space="preserve">6.61208248138428</t>
@@ -239,13 +239,13 @@
     <t xml:space="preserve">6.67699718475342</t>
   </si>
   <si>
-    <t xml:space="preserve">6.72800207138062</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.5332555770874</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.79291725158691</t>
+    <t xml:space="preserve">6.72800159454346</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.53325605392456</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.79291677474976</t>
   </si>
   <si>
     <t xml:space="preserve">6.86710596084595</t>
@@ -254,37 +254,37 @@
     <t xml:space="preserve">6.76973295211792</t>
   </si>
   <si>
-    <t xml:space="preserve">6.85783195495605</t>
+    <t xml:space="preserve">6.85783243179321</t>
   </si>
   <si>
     <t xml:space="preserve">6.88101625442505</t>
   </si>
   <si>
-    <t xml:space="preserve">6.92738389968872</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.02939367294312</t>
+    <t xml:space="preserve">6.92738485336304</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.02939414978027</t>
   </si>
   <si>
     <t xml:space="preserve">7.1267671585083</t>
   </si>
   <si>
-    <t xml:space="preserve">7.16849803924561</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.28905582427979</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.44206953048706</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.5116229057312</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.65072536468506</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.49307441711426</t>
+    <t xml:space="preserve">7.16849756240845</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.28905487060547</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.44206857681274</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.51162195205688</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.65072631835938</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.4930739402771</t>
   </si>
   <si>
     <t xml:space="preserve">7.57189989089966</t>
@@ -293,43 +293,43 @@
     <t xml:space="preserve">7.44670581817627</t>
   </si>
   <si>
-    <t xml:space="preserve">7.41888523101807</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.41424894332886</t>
+    <t xml:space="preserve">7.41888570785522</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.4142484664917</t>
   </si>
   <si>
     <t xml:space="preserve">7.3864278793335</t>
   </si>
   <si>
-    <t xml:space="preserve">7.27978134155273</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.32614946365356</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.18704462051392</t>
+    <t xml:space="preserve">7.27978181838989</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.32614994049072</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.18704557418823</t>
   </si>
   <si>
     <t xml:space="preserve">7.26587057113647</t>
   </si>
   <si>
-    <t xml:space="preserve">7.1406774520874</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.02012062072754</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.30296468734741</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.35397052764893</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.50234794616699</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.51625823974609</t>
+    <t xml:space="preserve">7.14067697525024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.0201210975647</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.30296516418457</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.35396957397461</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.50234842300415</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.51625871658325</t>
   </si>
   <si>
     <t xml:space="preserve">7.18240833282471</t>
@@ -338,7 +338,7 @@
     <t xml:space="preserve">6.90883684158325</t>
   </si>
   <si>
-    <t xml:space="preserve">7.27514553070068</t>
+    <t xml:space="preserve">7.27514457702637</t>
   </si>
   <si>
     <t xml:space="preserve">7.37251806259155</t>
@@ -347,7 +347,7 @@
     <t xml:space="preserve">7.03866815567017</t>
   </si>
   <si>
-    <t xml:space="preserve">6.85319519042969</t>
+    <t xml:space="preserve">6.85319471359253</t>
   </si>
   <si>
     <t xml:space="preserve">6.66772365570068</t>
@@ -359,16 +359,16 @@
     <t xml:space="preserve">6.75118589401245</t>
   </si>
   <si>
-    <t xml:space="preserve">6.5842604637146</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.92274808883667</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.82537508010864</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.72336530685425</t>
+    <t xml:space="preserve">6.58426094055176</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.92274856567383</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.82537460327148</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.72336483001709</t>
   </si>
   <si>
     <t xml:space="preserve">6.63062906265259</t>
@@ -380,67 +380,67 @@
     <t xml:space="preserve">6.73727560043335</t>
   </si>
   <si>
-    <t xml:space="preserve">6.9552059173584</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.88565397262573</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.65844964981079</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.70945501327515</t>
+    <t xml:space="preserve">6.95520544052124</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.88565301895142</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.65845012664795</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.7094554901123</t>
   </si>
   <si>
     <t xml:space="preserve">6.83464860916138</t>
   </si>
   <si>
-    <t xml:space="preserve">6.86246871948242</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.93665790557861</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.05721521377563</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.87637948989868</t>
+    <t xml:space="preserve">6.86246967315674</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.93665838241577</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.05721569061279</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.87637901306152</t>
   </si>
   <si>
     <t xml:space="preserve">6.96447944641113</t>
   </si>
   <si>
-    <t xml:space="preserve">6.97375202178955</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.99229955673218</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.9969367980957</t>
+    <t xml:space="preserve">6.97375249862671</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.99229907989502</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.99693584442139</t>
   </si>
   <si>
     <t xml:space="preserve">7.00157356262207</t>
   </si>
   <si>
-    <t xml:space="preserve">6.98302602767944</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.10358190536499</t>
+    <t xml:space="preserve">6.9830265045166</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.10358285903931</t>
   </si>
   <si>
     <t xml:space="preserve">7.08503580093384</t>
   </si>
   <si>
-    <t xml:space="preserve">7.0479416847229</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.16386127471924</t>
+    <t xml:space="preserve">7.04794120788574</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.16386079788208</t>
   </si>
   <si>
     <t xml:space="preserve">7.36324405670166</t>
   </si>
   <si>
-    <t xml:space="preserve">7.19632005691528</t>
+    <t xml:space="preserve">7.19631910324097</t>
   </si>
   <si>
     <t xml:space="preserve">7.15922498703003</t>
@@ -455,19 +455,19 @@
     <t xml:space="preserve">7.06648826599121</t>
   </si>
   <si>
-    <t xml:space="preserve">7.1128568649292</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.2055926322937</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.17313480377197</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.38179111480713</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.24268674850464</t>
+    <t xml:space="preserve">7.11285734176636</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.20559358596802</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.17313575744629</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.38179159164429</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.2426872253418</t>
   </si>
   <si>
     <t xml:space="preserve">7.23341369628906</t>
@@ -476,106 +476,106 @@
     <t xml:space="preserve">7.25196123123169</t>
   </si>
   <si>
-    <t xml:space="preserve">7.3354229927063</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.27050876617432</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.24732398986816</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.34469652175903</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.4003381729126</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.57653617858887</t>
+    <t xml:space="preserve">7.33542251586914</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.2705078125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.24732446670532</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.34469699859619</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.40033864974976</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.57653665542603</t>
   </si>
   <si>
     <t xml:space="preserve">7.40961170196533</t>
   </si>
   <si>
-    <t xml:space="preserve">7.43743371963501</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.37715435028076</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.54871654510498</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.56262588500977</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.06185150146484</t>
+    <t xml:space="preserve">7.43743276596069</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.37715482711792</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.54871606826782</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.56262636184692</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.061851978302</t>
   </si>
   <si>
     <t xml:space="preserve">7.21950244903564</t>
   </si>
   <si>
-    <t xml:space="preserve">7.36788129806519</t>
+    <t xml:space="preserve">7.36788082122803</t>
   </si>
   <si>
     <t xml:space="preserve">7.09430932998657</t>
   </si>
   <si>
-    <t xml:space="preserve">7.71564054489136</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.67391014099121</t>
+    <t xml:space="preserve">7.71564102172852</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.67390966415405</t>
   </si>
   <si>
     <t xml:space="preserve">7.69709444046021</t>
   </si>
   <si>
-    <t xml:space="preserve">7.60435771942139</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.4652533531189</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.80837631225586</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.86401891708374</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.92893362045288</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.88256454467773</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.87792873382568</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.83619689941406</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.97530364990234</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.17932224273682</t>
+    <t xml:space="preserve">7.60435724258423</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.46525382995605</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.80837774276733</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.86401844024658</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.92893409729004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.88256597518921</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.87792825698853</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.83619785308838</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.97530221939087</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.1793212890625</t>
   </si>
   <si>
     <t xml:space="preserve">8.55953884124756</t>
   </si>
   <si>
-    <t xml:space="preserve">8.63372993469238</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.670823097229</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.80065250396729</t>
+    <t xml:space="preserve">8.63372802734375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.67082405090332</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.8006534576416</t>
   </si>
   <si>
     <t xml:space="preserve">8.59663391113281</t>
   </si>
   <si>
-    <t xml:space="preserve">8.6290922164917</t>
+    <t xml:space="preserve">8.62909126281738</t>
   </si>
   <si>
     <t xml:space="preserve">8.57808589935303</t>
@@ -584,28 +584,28 @@
     <t xml:space="preserve">8.43898296356201</t>
   </si>
   <si>
-    <t xml:space="preserve">8.4575309753418</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.55490303039551</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.54562854766846</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.54099178314209</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.58272266387939</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.59199619293213</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.68936920166016</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.52244281768799</t>
+    <t xml:space="preserve">8.45752906799316</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.55490207672119</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.54562950134277</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.54099082946777</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.58272361755371</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.59199714660645</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.68937110900879</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.5224437713623</t>
   </si>
   <si>
     <t xml:space="preserve">8.51780796051025</t>
@@ -614,25 +614,25 @@
     <t xml:space="preserve">8.30915260314941</t>
   </si>
   <si>
-    <t xml:space="preserve">8.48534965515137</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.42043685913086</t>
+    <t xml:space="preserve">8.48535060882568</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.42043590545654</t>
   </si>
   <si>
     <t xml:space="preserve">8.28596687316895</t>
   </si>
   <si>
-    <t xml:space="preserve">8.32306289672852</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.49926090240479</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.51317024230957</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.62445545196533</t>
+    <t xml:space="preserve">8.3230619430542</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.4992618560791</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.51317119598389</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.62445640563965</t>
   </si>
   <si>
     <t xml:space="preserve">8.70328140258789</t>
@@ -653,31 +653,31 @@
     <t xml:space="preserve">8.34624671936035</t>
   </si>
   <si>
-    <t xml:space="preserve">8.49462413787842</t>
+    <t xml:space="preserve">8.49462509155273</t>
   </si>
   <si>
     <t xml:space="preserve">8.65227603912354</t>
   </si>
   <si>
-    <t xml:space="preserve">8.92120933532715</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.83002471923828</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.49617290496826</t>
+    <t xml:space="preserve">8.92120838165283</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.83002376556396</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.49617385864258</t>
   </si>
   <si>
     <t xml:space="preserve">9.45907878875732</t>
   </si>
   <si>
-    <t xml:space="preserve">9.25505924224854</t>
+    <t xml:space="preserve">9.25505828857422</t>
   </si>
   <si>
     <t xml:space="preserve">9.40343761444092</t>
   </si>
   <si>
-    <t xml:space="preserve">9.44053173065186</t>
+    <t xml:space="preserve">9.44053268432617</t>
   </si>
   <si>
     <t xml:space="preserve">9.44980525970459</t>
@@ -686,46 +686,46 @@
     <t xml:space="preserve">9.46835231781006</t>
   </si>
   <si>
-    <t xml:space="preserve">9.18087005615234</t>
+    <t xml:space="preserve">9.18087100982666</t>
   </si>
   <si>
     <t xml:space="preserve">9.27360725402832</t>
   </si>
   <si>
-    <t xml:space="preserve">9.3663444519043</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.59818363189697</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.80220127105713</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.7187385559082</t>
+    <t xml:space="preserve">9.36634349822998</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.59818267822266</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.80220222473145</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.71873950958252</t>
   </si>
   <si>
     <t xml:space="preserve">10.0618648529053</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1545991897583</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4791765213013</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.200966835022</t>
+    <t xml:space="preserve">10.154598236084</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.479175567627</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2009677886963</t>
   </si>
   <si>
     <t xml:space="preserve">10.720290184021</t>
   </si>
   <si>
-    <t xml:space="preserve">11.1283283233643</t>
+    <t xml:space="preserve">11.1283273696899</t>
   </si>
   <si>
     <t xml:space="preserve">11.0912342071533</t>
   </si>
   <si>
-    <t xml:space="preserve">11.1932430267334</t>
+    <t xml:space="preserve">11.1932439804077</t>
   </si>
   <si>
     <t xml:space="preserve">11.2210645675659</t>
@@ -734,7 +734,7 @@
     <t xml:space="preserve">11.0170459747314</t>
   </si>
   <si>
-    <t xml:space="preserve">10.9892253875732</t>
+    <t xml:space="preserve">10.9892244338989</t>
   </si>
   <si>
     <t xml:space="preserve">11.0355920791626</t>
@@ -749,67 +749,67 @@
     <t xml:space="preserve">10.0747604370117</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4478988647461</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4945402145386</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3452854156494</t>
+    <t xml:space="preserve">10.4478979110718</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4945392608643</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3452844619751</t>
   </si>
   <si>
     <t xml:space="preserve">10.4665555953979</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5784978866577</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5598411560059</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6064834594727</t>
+    <t xml:space="preserve">10.578498840332</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5598382949829</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6064825057983</t>
   </si>
   <si>
     <t xml:space="preserve">10.8117094039917</t>
   </si>
   <si>
-    <t xml:space="preserve">11.147533416748</t>
+    <t xml:space="preserve">11.1475343704224</t>
   </si>
   <si>
     <t xml:space="preserve">11.8471698760986</t>
   </si>
   <si>
-    <t xml:space="preserve">11.6606025695801</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2874622344971</t>
+    <t xml:space="preserve">11.6606006622314</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2874612808228</t>
   </si>
   <si>
     <t xml:space="preserve">11.3714179992676</t>
   </si>
   <si>
-    <t xml:space="preserve">11.1661911010742</t>
+    <t xml:space="preserve">11.1661920547485</t>
   </si>
   <si>
     <t xml:space="preserve">11.2128343582153</t>
   </si>
   <si>
-    <t xml:space="preserve">11.1008911132812</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8956670761108</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8210382461548</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8023824691772</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0542507171631</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9329795837402</t>
+    <t xml:space="preserve">11.1008920669556</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8956651687622</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8210391998291</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8023805618286</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0542497634888</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9329805374146</t>
   </si>
   <si>
     <t xml:space="preserve">10.6344690322876</t>
@@ -818,7 +818,7 @@
     <t xml:space="preserve">11.1941757202148</t>
   </si>
   <si>
-    <t xml:space="preserve">11.1288785934448</t>
+    <t xml:space="preserve">11.1288776397705</t>
   </si>
   <si>
     <t xml:space="preserve">11.5579881668091</t>
@@ -827,61 +827,61 @@
     <t xml:space="preserve">11.1382055282593</t>
   </si>
   <si>
-    <t xml:space="preserve">11.007607460022</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5206737518311</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.4740304946899</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7818727493286</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1736669540405</t>
+    <t xml:space="preserve">11.0076065063477</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5206747055054</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4740314483643</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7818717956543</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1736679077148</t>
   </si>
   <si>
     <t xml:space="preserve">12.3975505828857</t>
   </si>
   <si>
-    <t xml:space="preserve">11.9684419631958</t>
+    <t xml:space="preserve">11.9684410095215</t>
   </si>
   <si>
     <t xml:space="preserve">12.5934476852417</t>
   </si>
   <si>
-    <t xml:space="preserve">12.6027765274048</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.7520332336426</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.8266611099243</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.6121063232422</t>
+    <t xml:space="preserve">12.6027774810791</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.7520322799683</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.82666015625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.6121072769165</t>
   </si>
   <si>
     <t xml:space="preserve">12.8733034133911</t>
   </si>
   <si>
-    <t xml:space="preserve">12.8080034255981</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.621434211731</t>
+    <t xml:space="preserve">12.8080043792725</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.6214351654053</t>
   </si>
   <si>
     <t xml:space="preserve">12.6587476730347</t>
   </si>
   <si>
-    <t xml:space="preserve">12.6400918960571</t>
+    <t xml:space="preserve">12.6400909423828</t>
   </si>
   <si>
     <t xml:space="preserve">12.5468063354492</t>
   </si>
   <si>
-    <t xml:space="preserve">12.5747919082642</t>
+    <t xml:space="preserve">12.5747909545898</t>
   </si>
   <si>
     <t xml:space="preserve">12.5654640197754</t>
@@ -890,46 +890,46 @@
     <t xml:space="preserve">12.7613611221313</t>
   </si>
   <si>
-    <t xml:space="preserve">12.7053928375244</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.630763053894</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.2576246261597</t>
+    <t xml:space="preserve">12.7053909301758</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.6307621002197</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2576236724854</t>
   </si>
   <si>
     <t xml:space="preserve">12.4721794128418</t>
   </si>
   <si>
-    <t xml:space="preserve">12.5001630783081</t>
+    <t xml:space="preserve">12.5001640319824</t>
   </si>
   <si>
     <t xml:space="preserve">12.3695659637451</t>
   </si>
   <si>
-    <t xml:space="preserve">12.4441928863525</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9591112136841</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.3602361679077</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.2482957839966</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1270246505737</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0244112014771</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.3882217407227</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.3415794372559</t>
+    <t xml:space="preserve">12.4441938400269</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9591121673584</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.360237121582</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2482938766479</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.127025604248</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0244131088257</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.3882207870483</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.3415803909302</t>
   </si>
   <si>
     <t xml:space="preserve">12.0150833129883</t>
@@ -941,10 +941,10 @@
     <t xml:space="preserve">12.4068794250488</t>
   </si>
   <si>
-    <t xml:space="preserve">12.5188207626343</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.4255361557007</t>
+    <t xml:space="preserve">12.5188217163086</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.4255352020264</t>
   </si>
   <si>
     <t xml:space="preserve">12.4535226821899</t>
@@ -956,25 +956,25 @@
     <t xml:space="preserve">12.3229236602783</t>
   </si>
   <si>
-    <t xml:space="preserve">12.4162082672119</t>
+    <t xml:space="preserve">12.4162073135376</t>
   </si>
   <si>
     <t xml:space="preserve">12.5281496047974</t>
   </si>
   <si>
-    <t xml:space="preserve">12.2762794494629</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.5094919204712</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.3788948059082</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.3322505950928</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1363544464111</t>
+    <t xml:space="preserve">12.2762813568115</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.5094928741455</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.3788928985596</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.3322515487671</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1363525390625</t>
   </si>
   <si>
     <t xml:space="preserve">12.0990400314331</t>
@@ -983,19 +983,19 @@
     <t xml:space="preserve">11.511344909668</t>
   </si>
   <si>
-    <t xml:space="preserve">11.7072429656982</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.8658266067505</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7352294921875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7538862228394</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.8191862106323</t>
+    <t xml:space="preserve">11.7072439193726</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.8658275604248</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7352275848389</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.753885269165</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.819185256958</t>
   </si>
   <si>
     <t xml:space="preserve">11.9964265823364</t>
@@ -1004,46 +1004,46 @@
     <t xml:space="preserve">11.8938131332397</t>
   </si>
   <si>
-    <t xml:space="preserve">11.9404554367065</t>
+    <t xml:space="preserve">11.9404544830322</t>
   </si>
   <si>
     <t xml:space="preserve">11.8098573684692</t>
   </si>
   <si>
-    <t xml:space="preserve">12.3042669296265</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.2669515609741</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.8378410339355</t>
+    <t xml:space="preserve">12.3042659759521</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2669525146484</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.8378419876099</t>
   </si>
   <si>
     <t xml:space="preserve">11.7911996841431</t>
   </si>
   <si>
-    <t xml:space="preserve">11.2594757080078</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3620891571045</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2314910888672</t>
+    <t xml:space="preserve">11.2594776153564</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3620901107788</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2314901351929</t>
   </si>
   <si>
     <t xml:space="preserve">11.613959312439</t>
   </si>
   <si>
-    <t xml:space="preserve">11.5393314361572</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.6699295043945</t>
+    <t xml:space="preserve">11.5393304824829</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.6699304580688</t>
   </si>
   <si>
     <t xml:space="preserve">11.6512727737427</t>
   </si>
   <si>
-    <t xml:space="preserve">11.5673170089722</t>
+    <t xml:space="preserve">11.5673151016235</t>
   </si>
   <si>
     <t xml:space="preserve">11.7445573806763</t>
@@ -1055,34 +1055,34 @@
     <t xml:space="preserve">12.220311164856</t>
   </si>
   <si>
-    <t xml:space="preserve">12.0803823471069</t>
+    <t xml:space="preserve">12.0803813934326</t>
   </si>
   <si>
     <t xml:space="preserve">11.9870986938477</t>
   </si>
   <si>
-    <t xml:space="preserve">13.0039005279541</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.011378288269</t>
+    <t xml:space="preserve">13.0039014816284</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.0113792419434</t>
   </si>
   <si>
     <t xml:space="preserve">14.1979484558105</t>
   </si>
   <si>
-    <t xml:space="preserve">14.1792898178101</t>
+    <t xml:space="preserve">14.1792907714844</t>
   </si>
   <si>
     <t xml:space="preserve">14.0300350189209</t>
   </si>
   <si>
-    <t xml:space="preserve">14.0860052108765</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.7203435897827</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.9927215576172</t>
+    <t xml:space="preserve">14.0860061645508</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.7203416824341</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.9927225112915</t>
   </si>
   <si>
     <t xml:space="preserve">13.7128667831421</t>
@@ -1094,19 +1094,19 @@
     <t xml:space="preserve">14.1046628952026</t>
   </si>
   <si>
-    <t xml:space="preserve">13.7874946594238</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.4778032302856</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.6084012985229</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.6643724441528</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.5710859298706</t>
+    <t xml:space="preserve">13.7874937057495</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.4778022766113</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.6084003448486</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.6643714904785</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.5710868835449</t>
   </si>
   <si>
     <t xml:space="preserve">14.272575378418</t>
@@ -1124,7 +1124,7 @@
     <t xml:space="preserve">13.4516696929932</t>
   </si>
   <si>
-    <t xml:space="preserve">13.1158447265625</t>
+    <t xml:space="preserve">13.1158456802368</t>
   </si>
   <si>
     <t xml:space="preserve">12.8173322677612</t>
@@ -1139,7 +1139,7 @@
     <t xml:space="preserve">13.3956985473633</t>
   </si>
   <si>
-    <t xml:space="preserve">12.7427043914795</t>
+    <t xml:space="preserve">12.7427053451538</t>
   </si>
   <si>
     <t xml:space="preserve">12.1829957962036</t>
@@ -1148,10 +1148,10 @@
     <t xml:space="preserve">12.08971118927</t>
   </si>
   <si>
-    <t xml:space="preserve">11.9031419754028</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.6680755615234</t>
+    <t xml:space="preserve">11.9031410217285</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.6680774688721</t>
   </si>
   <si>
     <t xml:space="preserve">12.7986764907837</t>
@@ -1163,25 +1163,25 @@
     <t xml:space="preserve">12.2389669418335</t>
   </si>
   <si>
-    <t xml:space="preserve">12.1083669662476</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1456823348999</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.6792573928833</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.5374794006348</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.8844842910767</t>
+    <t xml:space="preserve">12.1083679199219</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1456813812256</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.6792583465576</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.5374774932861</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.8844833374023</t>
   </si>
   <si>
     <t xml:space="preserve">11.9217977523804</t>
   </si>
   <si>
-    <t xml:space="preserve">12.3135948181152</t>
+    <t xml:space="preserve">12.3135938644409</t>
   </si>
   <si>
     <t xml:space="preserve">12.462851524353</t>
@@ -1193,22 +1193,22 @@
     <t xml:space="preserve">13.6195821762085</t>
   </si>
   <si>
-    <t xml:space="preserve">13.8061513900757</t>
+    <t xml:space="preserve">13.8061532974243</t>
   </si>
   <si>
     <t xml:space="preserve">14.3472032546997</t>
   </si>
   <si>
-    <t xml:space="preserve">15.0001955032349</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.8695993423462</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.8322839736938</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.8882551193237</t>
+    <t xml:space="preserve">15.0001974105835</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.8695974349976</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.8322849273682</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.888256072998</t>
   </si>
   <si>
     <t xml:space="preserve">15.1164274215698</t>
@@ -1217,13 +1217,13 @@
     <t xml:space="preserve">15.7819309234619</t>
   </si>
   <si>
-    <t xml:space="preserve">15.4967155456543</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.325587272644</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1734704971313</t>
+    <t xml:space="preserve">15.4967136383057</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3255853652954</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1734714508057</t>
   </si>
   <si>
     <t xml:space="preserve">15.2114992141724</t>
@@ -1232,13 +1232,13 @@
     <t xml:space="preserve">15.2685422897339</t>
   </si>
   <si>
-    <t xml:space="preserve">15.4016447067261</t>
+    <t xml:space="preserve">15.4016437530518</t>
   </si>
   <si>
     <t xml:space="preserve">14.222752571106</t>
   </si>
   <si>
-    <t xml:space="preserve">13.899507522583</t>
+    <t xml:space="preserve">13.8995084762573</t>
   </si>
   <si>
     <t xml:space="preserve">13.348090171814</t>
@@ -1247,49 +1247,49 @@
     <t xml:space="preserve">13.6903495788574</t>
   </si>
   <si>
-    <t xml:space="preserve">13.7664070129395</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.1579456329346</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.0248470306396</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.1959772109985</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.9678039550781</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1691999435425</t>
+    <t xml:space="preserve">13.7664060592651</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1579465866089</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.024845123291</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1959762573242</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.9678030014038</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1691980361938</t>
   </si>
   <si>
     <t xml:space="preserve">12.6255435943604</t>
   </si>
   <si>
-    <t xml:space="preserve">13.0818881988525</t>
+    <t xml:space="preserve">13.0818891525269</t>
   </si>
   <si>
     <t xml:space="preserve">12.701602935791</t>
   </si>
   <si>
-    <t xml:space="preserve">12.777660369873</t>
+    <t xml:space="preserve">12.7776594161987</t>
   </si>
   <si>
     <t xml:space="preserve">12.8347015380859</t>
   </si>
   <si>
-    <t xml:space="preserve">12.9487905502319</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.4163866043091</t>
+    <t xml:space="preserve">12.9487895965576</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.4163856506348</t>
   </si>
   <si>
     <t xml:space="preserve">12.8156881332397</t>
   </si>
   <si>
-    <t xml:space="preserve">12.7966737747192</t>
+    <t xml:space="preserve">12.7966747283936</t>
   </si>
   <si>
     <t xml:space="preserve">12.8537178039551</t>
@@ -1298,13 +1298,13 @@
     <t xml:space="preserve">12.3403282165527</t>
   </si>
   <si>
-    <t xml:space="preserve">13.823450088501</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.8614778518677</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.0516223907471</t>
+    <t xml:space="preserve">13.8234510421753</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.861478805542</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.0516214370728</t>
   </si>
   <si>
     <t xml:space="preserve">13.9565505981445</t>
@@ -1322,7 +1322,7 @@
     <t xml:space="preserve">13.500205039978</t>
   </si>
   <si>
-    <t xml:space="preserve">13.5382347106934</t>
+    <t xml:space="preserve">13.5382328033447</t>
   </si>
   <si>
     <t xml:space="preserve">13.5192203521729</t>
@@ -1334,7 +1334,7 @@
     <t xml:space="preserve">13.2149906158447</t>
   </si>
   <si>
-    <t xml:space="preserve">13.4051342010498</t>
+    <t xml:space="preserve">13.4051361083984</t>
   </si>
   <si>
     <t xml:space="preserve">13.5572500228882</t>
@@ -1343,7 +1343,7 @@
     <t xml:space="preserve">13.2910470962524</t>
   </si>
   <si>
-    <t xml:space="preserve">13.4431638717651</t>
+    <t xml:space="preserve">13.4431629180908</t>
   </si>
   <si>
     <t xml:space="preserve">12.6445589065552</t>
@@ -1352,16 +1352,16 @@
     <t xml:space="preserve">12.5875148773193</t>
   </si>
   <si>
-    <t xml:space="preserve">12.3593425750732</t>
+    <t xml:space="preserve">12.3593435287476</t>
   </si>
   <si>
     <t xml:space="preserve">12.7586450576782</t>
   </si>
   <si>
-    <t xml:space="preserve">13.1199178695679</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.0628747940063</t>
+    <t xml:space="preserve">13.1199188232422</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.0628757476807</t>
   </si>
   <si>
     <t xml:space="preserve">12.8917465209961</t>
@@ -1376,31 +1376,31 @@
     <t xml:space="preserve">14.2037372589111</t>
   </si>
   <si>
-    <t xml:space="preserve">14.3558521270752</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.3938808441162</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.1466941833496</t>
+    <t xml:space="preserve">14.3558530807495</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.3938827514648</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.1466951370239</t>
   </si>
   <si>
     <t xml:space="preserve">13.7854204177856</t>
   </si>
   <si>
-    <t xml:space="preserve">13.5762624740601</t>
+    <t xml:space="preserve">13.5762634277344</t>
   </si>
   <si>
     <t xml:space="preserve">13.8424644470215</t>
   </si>
   <si>
-    <t xml:space="preserve">13.6333065032959</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.260781288147</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.021354675293</t>
+    <t xml:space="preserve">13.6333055496216</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.2607803344727</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0213556289673</t>
   </si>
   <si>
     <t xml:space="preserve">15.5917863845825</t>
@@ -1409,31 +1409,31 @@
     <t xml:space="preserve">15.3636140823364</t>
   </si>
   <si>
-    <t xml:space="preserve">15.249529838562</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.6375751495361</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.8087062835693</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.0178661346436</t>
+    <t xml:space="preserve">15.2495288848877</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.6375770568848</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.808708190918</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.0178623199463</t>
   </si>
   <si>
     <t xml:space="preserve">16.7326488494873</t>
   </si>
   <si>
-    <t xml:space="preserve">16.3333473205566</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.0101013183594</t>
+    <t xml:space="preserve">16.333345413208</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.010103225708</t>
   </si>
   <si>
     <t xml:space="preserve">15.6868591308594</t>
   </si>
   <si>
-    <t xml:space="preserve">15.610800743103</t>
+    <t xml:space="preserve">15.6107997894287</t>
   </si>
   <si>
     <t xml:space="preserve">15.0974140167236</t>
@@ -1445,70 +1445,70 @@
     <t xml:space="preserve">14.4699392318726</t>
   </si>
   <si>
-    <t xml:space="preserve">14.6981115341187</t>
+    <t xml:space="preserve">14.6981105804443</t>
   </si>
   <si>
     <t xml:space="preserve">14.5269813537598</t>
   </si>
   <si>
-    <t xml:space="preserve">14.7361392974854</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.3368396759033</t>
+    <t xml:space="preserve">14.7361402511597</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.3368377685547</t>
   </si>
   <si>
     <t xml:space="preserve">14.2797956466675</t>
   </si>
   <si>
-    <t xml:space="preserve">13.975564956665</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6142911911011</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.9375371932983</t>
+    <t xml:space="preserve">13.9755659103394</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6142921447754</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.937536239624</t>
   </si>
   <si>
     <t xml:space="preserve">14.1086654663086</t>
   </si>
   <si>
-    <t xml:space="preserve">14.9643115997314</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.5650091171265</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.5079679489136</t>
+    <t xml:space="preserve">14.9643125534058</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.5650100708008</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.5079669952393</t>
   </si>
   <si>
     <t xml:space="preserve">15.6488285064697</t>
   </si>
   <si>
-    <t xml:space="preserve">15.059383392334</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.1812343597412</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.1622142791748</t>
+    <t xml:space="preserve">15.0593843460083</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.1812324523926</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.1622161865234</t>
   </si>
   <si>
     <t xml:space="preserve">16.3523635864258</t>
   </si>
   <si>
-    <t xml:space="preserve">16.1432018280029</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.972071647644</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5537586212158</t>
+    <t xml:space="preserve">16.1432037353516</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9720735549927</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5537576675415</t>
   </si>
   <si>
     <t xml:space="preserve">16.1241893768311</t>
   </si>
   <si>
-    <t xml:space="preserve">16.4474334716797</t>
+    <t xml:space="preserve">16.4474315643311</t>
   </si>
   <si>
     <t xml:space="preserve">16.2002487182617</t>
@@ -1517,61 +1517,61 @@
     <t xml:space="preserve">16.4284210205078</t>
   </si>
   <si>
-    <t xml:space="preserve">15.7439022064209</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8960161209106</t>
+    <t xml:space="preserve">15.7439012527466</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.896017074585</t>
   </si>
   <si>
     <t xml:space="preserve">16.0291175842285</t>
   </si>
   <si>
-    <t xml:space="preserve">15.1544570922852</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9530611038208</t>
+    <t xml:space="preserve">15.1544561386108</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9530591964722</t>
   </si>
   <si>
     <t xml:space="preserve">15.5727710723877</t>
   </si>
   <si>
-    <t xml:space="preserve">14.8312129974365</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0023422241211</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.6410675048828</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9072704315186</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0783987045288</t>
+    <t xml:space="preserve">14.8312120437622</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0023403167725</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.6410684585571</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9072694778442</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0783977508545</t>
   </si>
   <si>
     <t xml:space="preserve">15.6298151016235</t>
   </si>
   <si>
-    <t xml:space="preserve">15.8389730453491</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1354417800903</t>
+    <t xml:space="preserve">15.8389720916748</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1354427337646</t>
   </si>
   <si>
     <t xml:space="preserve">15.5157289505005</t>
   </si>
   <si>
-    <t xml:space="preserve">15.8579893112183</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7248878479004</t>
+    <t xml:space="preserve">15.8579883575439</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7248888015747</t>
   </si>
   <si>
     <t xml:space="preserve">15.9910879135132</t>
   </si>
   <si>
-    <t xml:space="preserve">16.0671443939209</t>
+    <t xml:space="preserve">16.0671463012695</t>
   </si>
   <si>
     <t xml:space="preserve">16.1051750183105</t>
@@ -1580,25 +1580,25 @@
     <t xml:space="preserve">16.08616065979</t>
   </si>
   <si>
-    <t xml:space="preserve">15.7058753967285</t>
+    <t xml:space="preserve">15.7058744430542</t>
   </si>
   <si>
     <t xml:space="preserve">14.7741689682007</t>
   </si>
   <si>
-    <t xml:space="preserve">14.7171258926392</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9452991485596</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2875556945801</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1924839019775</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3826293945312</t>
+    <t xml:space="preserve">14.7171249389648</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9452972412109</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2875566482544</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1924848556519</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3826303482056</t>
   </si>
   <si>
     <t xml:space="preserve">16.2953186035156</t>
@@ -1610,7 +1610,7 @@
     <t xml:space="preserve">17.3411102294922</t>
   </si>
   <si>
-    <t xml:space="preserve">17.3601245880127</t>
+    <t xml:space="preserve">17.3601226806641</t>
   </si>
   <si>
     <t xml:space="preserve">17.3981513977051</t>
@@ -1622,19 +1622,19 @@
     <t xml:space="preserve">17.1699810028076</t>
   </si>
   <si>
-    <t xml:space="preserve">18.1587295532227</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.5122375488281</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.4551963806152</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.4742069244385</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.6073093414307</t>
+    <t xml:space="preserve">18.158727645874</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.5122356414795</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.4551944732666</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.4742088317871</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.6073112487793</t>
   </si>
   <si>
     <t xml:space="preserve">17.1509666442871</t>
@@ -1652,16 +1652,16 @@
     <t xml:space="preserve">17.9305553436279</t>
   </si>
   <si>
-    <t xml:space="preserve">17.6643562316895</t>
+    <t xml:space="preserve">17.6643543243408</t>
   </si>
   <si>
     <t xml:space="preserve">17.4361820220947</t>
   </si>
   <si>
-    <t xml:space="preserve">17.2460384368896</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.675609588623</t>
+    <t xml:space="preserve">17.246036529541</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.6756057739258</t>
   </si>
   <si>
     <t xml:space="preserve">16.6946201324463</t>
@@ -1676,7 +1676,7 @@
     <t xml:space="preserve">16.2572898864746</t>
   </si>
   <si>
-    <t xml:space="preserve">16.6830768585205</t>
+    <t xml:space="preserve">16.6830749511719</t>
   </si>
   <si>
     <t xml:space="preserve">16.6443672180176</t>
@@ -1685,7 +1685,7 @@
     <t xml:space="preserve">16.4895362854004</t>
   </si>
   <si>
-    <t xml:space="preserve">16.5475997924805</t>
+    <t xml:space="preserve">16.5475978851318</t>
   </si>
   <si>
     <t xml:space="preserve">16.3347053527832</t>
@@ -1703,46 +1703,46 @@
     <t xml:space="preserve">16.9153232574463</t>
   </si>
   <si>
-    <t xml:space="preserve">16.9346752166748</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.8572597503662</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.7411365509033</t>
+    <t xml:space="preserve">16.9346771240234</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.8572616577148</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.7411346435547</t>
   </si>
   <si>
     <t xml:space="preserve">16.5282440185547</t>
   </si>
   <si>
-    <t xml:space="preserve">16.6250133514404</t>
+    <t xml:space="preserve">16.6250152587891</t>
   </si>
   <si>
     <t xml:space="preserve">16.0443954467773</t>
   </si>
   <si>
-    <t xml:space="preserve">16.5669536590576</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.0637512207031</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.1218128204346</t>
+    <t xml:space="preserve">16.566951751709</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.0637493133545</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.1218109130859</t>
   </si>
   <si>
     <t xml:space="preserve">15.9669799804688</t>
   </si>
   <si>
-    <t xml:space="preserve">15.831503868103</t>
+    <t xml:space="preserve">15.8315048217773</t>
   </si>
   <si>
     <t xml:space="preserve">15.7540884017944</t>
   </si>
   <si>
-    <t xml:space="preserve">15.521842956543</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4637784957886</t>
+    <t xml:space="preserve">15.5218420028687</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4637794494629</t>
   </si>
   <si>
     <t xml:space="preserve">15.4057178497314</t>
@@ -1757,19 +1757,19 @@
     <t xml:space="preserve">15.3283014297485</t>
   </si>
   <si>
-    <t xml:space="preserve">15.2315311431885</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1928253173828</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0960540771484</t>
+    <t xml:space="preserve">15.2315320968628</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1928243637085</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0960550308228</t>
   </si>
   <si>
     <t xml:space="preserve">15.21217918396</t>
   </si>
   <si>
-    <t xml:space="preserve">15.3476572036743</t>
+    <t xml:space="preserve">15.3476552963257</t>
   </si>
   <si>
     <t xml:space="preserve">15.1541166305542</t>
@@ -1778,16 +1778,16 @@
     <t xml:space="preserve">14.9605779647827</t>
   </si>
   <si>
-    <t xml:space="preserve">14.9412221908569</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.8057470321655</t>
+    <t xml:space="preserve">14.9412231445312</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.8057460784912</t>
   </si>
   <si>
     <t xml:space="preserve">15.5411939620972</t>
   </si>
   <si>
-    <t xml:space="preserve">15.2702398300171</t>
+    <t xml:space="preserve">15.2702388763428</t>
   </si>
   <si>
     <t xml:space="preserve">14.9218692779541</t>
@@ -1799,13 +1799,13 @@
     <t xml:space="preserve">15.2508859634399</t>
   </si>
   <si>
-    <t xml:space="preserve">14.8831624984741</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.8444538116455</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.999285697937</t>
+    <t xml:space="preserve">14.8831615447998</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.8444528579712</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9992866516113</t>
   </si>
   <si>
     <t xml:space="preserve">15.1154088973999</t>
@@ -1817,22 +1817,22 @@
     <t xml:space="preserve">14.9799308776855</t>
   </si>
   <si>
-    <t xml:space="preserve">14.6315603256226</t>
+    <t xml:space="preserve">14.6315612792969</t>
   </si>
   <si>
     <t xml:space="preserve">14.6702680587769</t>
   </si>
   <si>
-    <t xml:space="preserve">14.6896238327026</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.5928535461426</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.7283306121826</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.7089757919312</t>
+    <t xml:space="preserve">14.6896228790283</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.5928525924683</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.7283315658569</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.7089767456055</t>
   </si>
   <si>
     <t xml:space="preserve">14.5541458129883</t>
@@ -1844,7 +1844,7 @@
     <t xml:space="preserve">14.7476835250854</t>
   </si>
   <si>
-    <t xml:space="preserve">15.0186395645142</t>
+    <t xml:space="preserve">15.0186405181885</t>
   </si>
   <si>
     <t xml:space="preserve">14.650915145874</t>
@@ -1853,16 +1853,16 @@
     <t xml:space="preserve">15.4444246292114</t>
   </si>
   <si>
-    <t xml:space="preserve">15.4831342697144</t>
+    <t xml:space="preserve">15.48313331604</t>
   </si>
   <si>
     <t xml:space="preserve">15.7734413146973</t>
   </si>
   <si>
-    <t xml:space="preserve">15.6186084747314</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8121500015259</t>
+    <t xml:space="preserve">15.6186094284058</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8121490478516</t>
   </si>
   <si>
     <t xml:space="preserve">15.8895664215088</t>
@@ -1880,25 +1880,25 @@
     <t xml:space="preserve">16.0056915283203</t>
   </si>
   <si>
-    <t xml:space="preserve">15.734733581543</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7153806686401</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9476251602173</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6766738891602</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5992574691772</t>
+    <t xml:space="preserve">15.7347345352173</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7153797149658</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9476270675659</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6766729354858</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5992584228516</t>
   </si>
   <si>
     <t xml:space="preserve">15.9282732009888</t>
   </si>
   <si>
-    <t xml:space="preserve">16.0250434875488</t>
+    <t xml:space="preserve">16.0250453948975</t>
   </si>
   <si>
     <t xml:space="preserve">16.2185821533203</t>
@@ -1913,7 +1913,7 @@
     <t xml:space="preserve">17.050802230835</t>
   </si>
   <si>
-    <t xml:space="preserve">16.9927387237549</t>
+    <t xml:space="preserve">16.9927368164062</t>
   </si>
   <si>
     <t xml:space="preserve">17.0895080566406</t>
@@ -1922,13 +1922,13 @@
     <t xml:space="preserve">17.2249851226807</t>
   </si>
   <si>
-    <t xml:space="preserve">17.3798141479492</t>
+    <t xml:space="preserve">17.3798179626465</t>
   </si>
   <si>
     <t xml:space="preserve">18.3862209320068</t>
   </si>
   <si>
-    <t xml:space="preserve">18.2894496917725</t>
+    <t xml:space="preserve">18.2894515991211</t>
   </si>
   <si>
     <t xml:space="preserve">17.7088317871094</t>
@@ -1937,37 +1937,37 @@
     <t xml:space="preserve">17.7668972015381</t>
   </si>
   <si>
-    <t xml:space="preserve">18.2120342254639</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.0959148406982</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.2313899993896</t>
+    <t xml:space="preserve">18.2120361328125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.0959129333496</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.231388092041</t>
   </si>
   <si>
     <t xml:space="preserve">18.0765571594238</t>
   </si>
   <si>
-    <t xml:space="preserve">18.057201385498</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.1733264923096</t>
+    <t xml:space="preserve">18.0572032928467</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.1733283996582</t>
   </si>
   <si>
     <t xml:space="preserve">18.0378494262695</t>
   </si>
   <si>
-    <t xml:space="preserve">18.4249305725098</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.8700695037842</t>
+    <t xml:space="preserve">18.4249286651611</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.8700675964355</t>
   </si>
   <si>
     <t xml:space="preserve">19.2184391021729</t>
   </si>
   <si>
-    <t xml:space="preserve">19.1410236358643</t>
+    <t xml:space="preserve">19.1410255432129</t>
   </si>
   <si>
     <t xml:space="preserve">18.6571750640869</t>
@@ -1979,10 +1979,10 @@
     <t xml:space="preserve">19.0249004364014</t>
   </si>
   <si>
-    <t xml:space="preserve">19.547456741333</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.934534072876</t>
+    <t xml:space="preserve">19.5474548339844</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.9345359802246</t>
   </si>
   <si>
     <t xml:space="preserve">19.6442260742188</t>
@@ -1991,7 +1991,7 @@
     <t xml:space="preserve">19.7893810272217</t>
   </si>
   <si>
-    <t xml:space="preserve">19.4022979736328</t>
+    <t xml:space="preserve">19.4022998809814</t>
   </si>
   <si>
     <t xml:space="preserve">18.9668369293213</t>
@@ -2000,7 +2000,7 @@
     <t xml:space="preserve">19.7409954071045</t>
   </si>
   <si>
-    <t xml:space="preserve">19.8377628326416</t>
+    <t xml:space="preserve">19.8377647399902</t>
   </si>
   <si>
     <t xml:space="preserve">19.8861484527588</t>
@@ -2012,16 +2012,16 @@
     <t xml:space="preserve">19.6926097869873</t>
   </si>
   <si>
-    <t xml:space="preserve">20.3216133117676</t>
+    <t xml:space="preserve">20.3216114044189</t>
   </si>
   <si>
     <t xml:space="preserve">20.3699951171875</t>
   </si>
   <si>
-    <t xml:space="preserve">22.3537731170654</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.289306640625</t>
+    <t xml:space="preserve">22.3537750244141</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.2893085479736</t>
   </si>
   <si>
     <t xml:space="preserve">21.2409229278564</t>
@@ -2036,52 +2036,52 @@
     <t xml:space="preserve">21.1441535949707</t>
   </si>
   <si>
-    <t xml:space="preserve">20.8538455963135</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.8054599761963</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.0796909332275</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.4183807373047</t>
+    <t xml:space="preserve">20.8538436889648</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.8054618835449</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.0796890258789</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.4183826446533</t>
   </si>
   <si>
     <t xml:space="preserve">20.1280727386475</t>
   </si>
   <si>
-    <t xml:space="preserve">19.9829196929932</t>
+    <t xml:space="preserve">19.9829177856445</t>
   </si>
   <si>
     <t xml:space="preserve">19.1990852355957</t>
   </si>
   <si>
-    <t xml:space="preserve">20.902229309082</t>
+    <t xml:space="preserve">20.9022312164307</t>
   </si>
   <si>
     <t xml:space="preserve">21.047384262085</t>
   </si>
   <si>
-    <t xml:space="preserve">20.7086887359619</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.3860778808594</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.5312347412109</t>
+    <t xml:space="preserve">20.7086906433105</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.386079788208</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.5312328338623</t>
   </si>
   <si>
     <t xml:space="preserve">21.3376903533936</t>
   </si>
   <si>
-    <t xml:space="preserve">21.7731552124023</t>
+    <t xml:space="preserve">21.773157119751</t>
   </si>
   <si>
     <t xml:space="preserve">21.5796165466309</t>
   </si>
   <si>
-    <t xml:space="preserve">21.9666996002197</t>
+    <t xml:space="preserve">21.9666976928711</t>
   </si>
   <si>
     <t xml:space="preserve">20.1764602661133</t>
@@ -2093,25 +2093,25 @@
     <t xml:space="preserve">18.8507137298584</t>
   </si>
   <si>
-    <t xml:space="preserve">18.3088054656982</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.7281856536865</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.4121170043945</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.2959976196289</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.5734996795654</t>
+    <t xml:space="preserve">18.3088035583496</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.7281875610352</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.4121208190918</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.2959957122803</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.5734987258911</t>
   </si>
   <si>
     <t xml:space="preserve">14.515438079834</t>
   </si>
   <si>
-    <t xml:space="preserve">12.5413379669189</t>
+    <t xml:space="preserve">12.5413370132446</t>
   </si>
   <si>
     <t xml:space="preserve">12.0961971282959</t>
@@ -2126,7 +2126,7 @@
     <t xml:space="preserve">12.9864778518677</t>
   </si>
   <si>
-    <t xml:space="preserve">12.0574893951416</t>
+    <t xml:space="preserve">12.0574903488159</t>
   </si>
   <si>
     <t xml:space="preserve">13.3929100036621</t>
@@ -2135,16 +2135,16 @@
     <t xml:space="preserve">13.6445121765137</t>
   </si>
   <si>
-    <t xml:space="preserve">14.1090040206909</t>
+    <t xml:space="preserve">14.1090059280396</t>
   </si>
   <si>
     <t xml:space="preserve">14.2831907272339</t>
   </si>
   <si>
-    <t xml:space="preserve">14.3799600601196</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.2057762145996</t>
+    <t xml:space="preserve">14.3799591064453</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.2057752609253</t>
   </si>
   <si>
     <t xml:space="preserve">14.8250999450684</t>
@@ -2162,40 +2162,40 @@
     <t xml:space="preserve">16.2766437530518</t>
   </si>
   <si>
-    <t xml:space="preserve">16.3153514862061</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5605497360229</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.1605224609375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.2379379272461</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.1411666870117</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.702428817749</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.321756362915</t>
+    <t xml:space="preserve">16.3153533935547</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5605487823486</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.1605205535889</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.2379360198975</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.1411647796631</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.7024307250977</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.3217544555664</t>
   </si>
   <si>
     <t xml:space="preserve">16.8185520172119</t>
   </si>
   <si>
-    <t xml:space="preserve">17.0314483642578</t>
+    <t xml:space="preserve">17.0314445495605</t>
   </si>
   <si>
     <t xml:space="preserve">17.1669235229492</t>
   </si>
   <si>
-    <t xml:space="preserve">18.3668670654297</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.7539443969727</t>
+    <t xml:space="preserve">18.3668651580811</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.753942489624</t>
   </si>
   <si>
     <t xml:space="preserve">18.1891841888428</t>
@@ -2207,7 +2207,7 @@
     <t xml:space="preserve">17.5659999847412</t>
   </si>
   <si>
-    <t xml:space="preserve">17.5465278625488</t>
+    <t xml:space="preserve">17.5465259552002</t>
   </si>
   <si>
     <t xml:space="preserve">17.3128337860107</t>
@@ -2216,31 +2216,31 @@
     <t xml:space="preserve">17.059663772583</t>
   </si>
   <si>
-    <t xml:space="preserve">17.5270519256592</t>
+    <t xml:space="preserve">17.5270500183105</t>
   </si>
   <si>
     <t xml:space="preserve">17.7217960357666</t>
   </si>
   <si>
-    <t xml:space="preserve">17.2738838195801</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.7607479095459</t>
+    <t xml:space="preserve">17.2738819122314</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.7607460021973</t>
   </si>
   <si>
     <t xml:space="preserve">17.6049499511719</t>
   </si>
   <si>
-    <t xml:space="preserve">17.8386421203613</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.4034023284912</t>
+    <t xml:space="preserve">17.83864402771</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.4034042358398</t>
   </si>
   <si>
     <t xml:space="preserve">18.052864074707</t>
   </si>
   <si>
-    <t xml:space="preserve">18.1697082519531</t>
+    <t xml:space="preserve">18.1697101593018</t>
   </si>
   <si>
     <t xml:space="preserve">18.5007762908936</t>
@@ -2249,16 +2249,16 @@
     <t xml:space="preserve">18.5202522277832</t>
   </si>
   <si>
-    <t xml:space="preserve">18.0139141082764</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.3449821472168</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.3644561767578</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.6955242156982</t>
+    <t xml:space="preserve">18.0139122009277</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.3449802398682</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.3644580841064</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.6955223083496</t>
   </si>
   <si>
     <t xml:space="preserve">18.5592002868652</t>
@@ -2273,16 +2273,16 @@
     <t xml:space="preserve">18.9486885070801</t>
   </si>
   <si>
-    <t xml:space="preserve">18.890266418457</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.7928943634033</t>
+    <t xml:space="preserve">18.8902645111084</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.7928924560547</t>
   </si>
   <si>
     <t xml:space="preserve">19.0265884399414</t>
   </si>
   <si>
-    <t xml:space="preserve">19.1629085540771</t>
+    <t xml:space="preserve">19.1629104614258</t>
   </si>
   <si>
     <t xml:space="preserve">19.7179336547852</t>
@@ -2294,7 +2294,7 @@
     <t xml:space="preserve">19.0655364990234</t>
   </si>
   <si>
-    <t xml:space="preserve">19.2213344573975</t>
+    <t xml:space="preserve">19.2213325500488</t>
   </si>
   <si>
     <t xml:space="preserve">18.5786743164062</t>
@@ -2309,10 +2309,10 @@
     <t xml:space="preserve">19.7666206359863</t>
   </si>
   <si>
-    <t xml:space="preserve">20.204797744751</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.4482288360596</t>
+    <t xml:space="preserve">20.2047958374023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.4482269287109</t>
   </si>
   <si>
     <t xml:space="preserve">20.7403430938721</t>
@@ -2324,7 +2324,7 @@
     <t xml:space="preserve">21.1785202026367</t>
   </si>
   <si>
-    <t xml:space="preserve">21.4219512939453</t>
+    <t xml:space="preserve">21.4219532012939</t>
   </si>
   <si>
     <t xml:space="preserve">21.86012840271</t>
@@ -2336,16 +2336,16 @@
     <t xml:space="preserve">21.7140693664551</t>
   </si>
   <si>
-    <t xml:space="preserve">22.0061874389648</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.6653861999512</t>
+    <t xml:space="preserve">22.0061893463135</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.6653842926025</t>
   </si>
   <si>
     <t xml:space="preserve">21.4706363677979</t>
   </si>
   <si>
-    <t xml:space="preserve">21.9088134765625</t>
+    <t xml:space="preserve">21.9088153839111</t>
   </si>
   <si>
     <t xml:space="preserve">22.5904235839844</t>
@@ -2372,13 +2372,13 @@
     <t xml:space="preserve">24.6352443695068</t>
   </si>
   <si>
-    <t xml:space="preserve">24.1970672607422</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.9049491882324</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.0996990203857</t>
+    <t xml:space="preserve">24.1970691680908</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.9049510955811</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.0996952056885</t>
   </si>
   <si>
     <t xml:space="preserve">23.8075790405273</t>
@@ -2393,7 +2393,7 @@
     <t xml:space="preserve">23.6128349304199</t>
   </si>
   <si>
-    <t xml:space="preserve">23.2233448028564</t>
+    <t xml:space="preserve">23.2233428955078</t>
   </si>
   <si>
     <t xml:space="preserve">23.0285987854004</t>
@@ -2405,7 +2405,7 @@
     <t xml:space="preserve">21.9575004577637</t>
   </si>
   <si>
-    <t xml:space="preserve">22.2009334564209</t>
+    <t xml:space="preserve">22.2009315490723</t>
   </si>
   <si>
     <t xml:space="preserve">21.3732662200928</t>
@@ -2414,10 +2414,10 @@
     <t xml:space="preserve">21.7627563476562</t>
   </si>
   <si>
-    <t xml:space="preserve">20.5942878723145</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.5193252563477</t>
+    <t xml:space="preserve">20.5942840576172</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.5193271636963</t>
   </si>
   <si>
     <t xml:space="preserve">21.2272071838379</t>
@@ -2426,31 +2426,31 @@
     <t xml:space="preserve">21.6166973114014</t>
   </si>
   <si>
-    <t xml:space="preserve">22.3469924926758</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.1035633087158</t>
+    <t xml:space="preserve">22.3469905853271</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.1035614013672</t>
   </si>
   <si>
     <t xml:space="preserve">21.081148147583</t>
   </si>
   <si>
-    <t xml:space="preserve">22.2496185302734</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.493049621582</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.0548706054688</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.9799098968506</t>
+    <t xml:space="preserve">22.2496204376221</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.4930515289307</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.0548725128174</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.9799118041992</t>
   </si>
   <si>
     <t xml:space="preserve">22.7851676940918</t>
   </si>
   <si>
-    <t xml:space="preserve">24.5865592956543</t>
+    <t xml:space="preserve">24.5865573883057</t>
   </si>
   <si>
     <t xml:space="preserve">24.489185333252</t>
@@ -2468,7 +2468,7 @@
     <t xml:space="preserve">27.1669292449951</t>
   </si>
   <si>
-    <t xml:space="preserve">26.8261260986328</t>
+    <t xml:space="preserve">26.8261241912842</t>
   </si>
   <si>
     <t xml:space="preserve">26.7774410247803</t>
@@ -2477,31 +2477,31 @@
     <t xml:space="preserve">26.534008026123</t>
   </si>
   <si>
-    <t xml:space="preserve">27.8485374450684</t>
+    <t xml:space="preserve">27.848539352417</t>
   </si>
   <si>
     <t xml:space="preserve">28.8222637176514</t>
   </si>
   <si>
-    <t xml:space="preserve">30.0881042480469</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.1143817901611</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.942045211792</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.5749702453613</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.1105194091797</t>
+    <t xml:space="preserve">30.0881061553955</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.1143798828125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.9420471191406</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.5749683380127</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.1105175018311</t>
   </si>
   <si>
     <t xml:space="preserve">31.9381828308105</t>
   </si>
   <si>
-    <t xml:space="preserve">32.230297088623</t>
+    <t xml:space="preserve">32.2303009033203</t>
   </si>
   <si>
     <t xml:space="preserve">31.7434368133545</t>
@@ -2510,28 +2510,28 @@
     <t xml:space="preserve">32.2789916992188</t>
   </si>
   <si>
-    <t xml:space="preserve">31.4513168334961</t>
+    <t xml:space="preserve">31.4513206481934</t>
   </si>
   <si>
     <t xml:space="preserve">32.3763580322266</t>
   </si>
   <si>
-    <t xml:space="preserve">32.5224227905273</t>
+    <t xml:space="preserve">32.5224189758301</t>
   </si>
   <si>
     <t xml:space="preserve">33.4961433410645</t>
   </si>
   <si>
-    <t xml:space="preserve">33.3987731933594</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.00927734375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.6908874511719</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.9343185424805</t>
+    <t xml:space="preserve">33.3987693786621</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.0092811584473</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.6908836364746</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.9343147277832</t>
   </si>
   <si>
     <t xml:space="preserve">34.3238105773926</t>
@@ -2543,7 +2543,7 @@
     <t xml:space="preserve">34.8106727600098</t>
   </si>
   <si>
-    <t xml:space="preserve">35.5896492004395</t>
+    <t xml:space="preserve">35.5896530151367</t>
   </si>
   <si>
     <t xml:space="preserve">35.6870231628418</t>
@@ -2552,22 +2552,22 @@
     <t xml:space="preserve">37.0502395629883</t>
   </si>
   <si>
-    <t xml:space="preserve">37.3910484313965</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36.4173240661621</t>
+    <t xml:space="preserve">37.3910446166992</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36.4173202514648</t>
   </si>
   <si>
     <t xml:space="preserve">34.5185546875</t>
   </si>
   <si>
-    <t xml:space="preserve">32.7658538818359</t>
+    <t xml:space="preserve">32.7658500671387</t>
   </si>
   <si>
     <t xml:space="preserve">32.863224029541</t>
   </si>
   <si>
-    <t xml:space="preserve">32.9605941772461</t>
+    <t xml:space="preserve">32.9605903625488</t>
   </si>
   <si>
     <t xml:space="preserve">32.9119071960449</t>
@@ -2579,31 +2579,31 @@
     <t xml:space="preserve">30.5262813568115</t>
   </si>
   <si>
-    <t xml:space="preserve">31.013147354126</t>
+    <t xml:space="preserve">31.0131435394287</t>
   </si>
   <si>
     <t xml:space="preserve">30.7697124481201</t>
   </si>
   <si>
-    <t xml:space="preserve">30.6723403930664</t>
+    <t xml:space="preserve">30.672342300415</t>
   </si>
   <si>
     <t xml:space="preserve">31.3052635192871</t>
   </si>
   <si>
-    <t xml:space="preserve">33.642204284668</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.0803756713867</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.4922828674316</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.8817710876465</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.9304542541504</t>
+    <t xml:space="preserve">33.6422004699707</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.080379486084</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.4922790527344</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.8817672729492</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.9304580688477</t>
   </si>
   <si>
     <t xml:space="preserve">37.4884147644043</t>
@@ -2618,7 +2618,7 @@
     <t xml:space="preserve">36.1738891601562</t>
   </si>
   <si>
-    <t xml:space="preserve">36.6607513427734</t>
+    <t xml:space="preserve">36.6607475280762</t>
   </si>
   <si>
     <t xml:space="preserve">35.297534942627</t>
@@ -2630,40 +2630,40 @@
     <t xml:space="preserve">36.904182434082</t>
   </si>
   <si>
-    <t xml:space="preserve">37.2936744689941</t>
+    <t xml:space="preserve">37.2936668395996</t>
   </si>
   <si>
     <t xml:space="preserve">37.8779067993164</t>
   </si>
   <si>
-    <t xml:space="preserve">38.2673988342285</t>
+    <t xml:space="preserve">38.2673950195312</t>
   </si>
   <si>
     <t xml:space="preserve">38.851634979248</t>
   </si>
   <si>
-    <t xml:space="preserve">38.9976921081543</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40.0687942504883</t>
-  </si>
-  <si>
-    <t xml:space="preserve">39.9227256774902</t>
-  </si>
-  <si>
-    <t xml:space="preserve">38.8029479980469</t>
+    <t xml:space="preserve">38.997688293457</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40.068790435791</t>
+  </si>
+  <si>
+    <t xml:space="preserve">39.9227294921875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">38.8029441833496</t>
   </si>
   <si>
     <t xml:space="preserve">38.9490013122559</t>
   </si>
   <si>
-    <t xml:space="preserve">39.8740463256836</t>
+    <t xml:space="preserve">39.8740425109863</t>
   </si>
   <si>
     <t xml:space="preserve">40.7017097473145</t>
   </si>
   <si>
-    <t xml:space="preserve">40.409595489502</t>
+    <t xml:space="preserve">40.4095916748047</t>
   </si>
   <si>
     <t xml:space="preserve">39.6792984008789</t>
@@ -2678,25 +2678,25 @@
     <t xml:space="preserve">42.162296295166</t>
   </si>
   <si>
-    <t xml:space="preserve">40.3122215270996</t>
+    <t xml:space="preserve">40.3122253417969</t>
   </si>
   <si>
     <t xml:space="preserve">41.4320030212402</t>
   </si>
   <si>
-    <t xml:space="preserve">42.1136131286621</t>
+    <t xml:space="preserve">42.1136093139648</t>
   </si>
   <si>
     <t xml:space="preserve">42.600471496582</t>
   </si>
   <si>
-    <t xml:space="preserve">42.3083572387695</t>
+    <t xml:space="preserve">42.3083534240723</t>
   </si>
   <si>
     <t xml:space="preserve">42.8925895690918</t>
   </si>
   <si>
-    <t xml:space="preserve">41.8701782226562</t>
+    <t xml:space="preserve">41.8701820373535</t>
   </si>
   <si>
     <t xml:space="preserve">42.6491584777832</t>
@@ -2705,19 +2705,19 @@
     <t xml:space="preserve">43.7689437866211</t>
   </si>
   <si>
-    <t xml:space="preserve">44.4018669128418</t>
-  </si>
-  <si>
-    <t xml:space="preserve">44.9860992431641</t>
-  </si>
-  <si>
-    <t xml:space="preserve">45.0347862243652</t>
-  </si>
-  <si>
-    <t xml:space="preserve">45.9598197937012</t>
-  </si>
-  <si>
-    <t xml:space="preserve">44.6939849853516</t>
+    <t xml:space="preserve">44.4018630981445</t>
+  </si>
+  <si>
+    <t xml:space="preserve">44.9861030578613</t>
+  </si>
+  <si>
+    <t xml:space="preserve">45.034782409668</t>
+  </si>
+  <si>
+    <t xml:space="preserve">45.9598236083984</t>
+  </si>
+  <si>
+    <t xml:space="preserve">44.6939811706543</t>
   </si>
   <si>
     <t xml:space="preserve">45.2782173156738</t>
@@ -2729,7 +2729,7 @@
     <t xml:space="preserve">45.7650833129883</t>
   </si>
   <si>
-    <t xml:space="preserve">45.2295341491699</t>
+    <t xml:space="preserve">45.2295303344727</t>
   </si>
   <si>
     <t xml:space="preserve">46.544059753418</t>
@@ -2741,13 +2741,13 @@
     <t xml:space="preserve">44.8887252807617</t>
   </si>
   <si>
-    <t xml:space="preserve">44.7913513183594</t>
+    <t xml:space="preserve">44.7913589477539</t>
   </si>
   <si>
     <t xml:space="preserve">44.547924041748</t>
   </si>
   <si>
-    <t xml:space="preserve">44.1097412109375</t>
+    <t xml:space="preserve">44.1097450256348</t>
   </si>
   <si>
     <t xml:space="preserve">43.4281387329102</t>
@@ -2762,13 +2762,13 @@
     <t xml:space="preserve">43.1360206604004</t>
   </si>
   <si>
-    <t xml:space="preserve">43.3307723999023</t>
+    <t xml:space="preserve">43.3307685852051</t>
   </si>
   <si>
     <t xml:space="preserve">44.3044929504395</t>
   </si>
   <si>
-    <t xml:space="preserve">43.671573638916</t>
+    <t xml:space="preserve">43.6715698242188</t>
   </si>
   <si>
     <t xml:space="preserve">42.6978454589844</t>
@@ -2777,13 +2777,13 @@
     <t xml:space="preserve">42.1582565307617</t>
   </si>
   <si>
-    <t xml:space="preserve">40.2911033630371</t>
+    <t xml:space="preserve">40.2911071777344</t>
   </si>
   <si>
     <t xml:space="preserve">40.0454292297363</t>
   </si>
   <si>
-    <t xml:space="preserve">39.7014846801758</t>
+    <t xml:space="preserve">39.7014808654785</t>
   </si>
   <si>
     <t xml:space="preserve">40.3402404785156</t>
@@ -2792,34 +2792,34 @@
     <t xml:space="preserve">41.126407623291</t>
   </si>
   <si>
-    <t xml:space="preserve">40.2419738769531</t>
+    <t xml:space="preserve">40.2419700622559</t>
   </si>
   <si>
     <t xml:space="preserve">41.0281372070312</t>
   </si>
   <si>
-    <t xml:space="preserve">40.9298667907715</t>
+    <t xml:space="preserve">40.9298706054688</t>
   </si>
   <si>
     <t xml:space="preserve">40.4385147094727</t>
   </si>
   <si>
-    <t xml:space="preserve">40.1436958312988</t>
-  </si>
-  <si>
-    <t xml:space="preserve">39.898021697998</t>
-  </si>
-  <si>
-    <t xml:space="preserve">39.8488845825195</t>
-  </si>
-  <si>
-    <t xml:space="preserve">39.9962921142578</t>
+    <t xml:space="preserve">40.1436996459961</t>
+  </si>
+  <si>
+    <t xml:space="preserve">39.8980178833008</t>
+  </si>
+  <si>
+    <t xml:space="preserve">39.8488883972168</t>
+  </si>
+  <si>
+    <t xml:space="preserve">39.9962959289551</t>
   </si>
   <si>
     <t xml:space="preserve">39.504940032959</t>
   </si>
   <si>
-    <t xml:space="preserve">40.5367851257324</t>
+    <t xml:space="preserve">40.5367813110352</t>
   </si>
   <si>
     <t xml:space="preserve">40.1928367614746</t>
@@ -2828,13 +2828,13 @@
     <t xml:space="preserve">38.1291427612305</t>
   </si>
   <si>
-    <t xml:space="preserve">36.949893951416</t>
-  </si>
-  <si>
-    <t xml:space="preserve">37.8343276977539</t>
-  </si>
-  <si>
-    <t xml:space="preserve">38.3256874084473</t>
+    <t xml:space="preserve">36.9498901367188</t>
+  </si>
+  <si>
+    <t xml:space="preserve">37.8343315124512</t>
+  </si>
+  <si>
+    <t xml:space="preserve">38.32568359375</t>
   </si>
   <si>
     <t xml:space="preserve">39.799747467041</t>
@@ -2843,52 +2843,52 @@
     <t xml:space="preserve">41.9617118835449</t>
   </si>
   <si>
-    <t xml:space="preserve">42.3547973632812</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41.7160377502441</t>
+    <t xml:space="preserve">42.354793548584</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41.7160339355469</t>
   </si>
   <si>
     <t xml:space="preserve">41.3229484558105</t>
   </si>
   <si>
-    <t xml:space="preserve">40.6350517272949</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40.6841926574707</t>
-  </si>
-  <si>
-    <t xml:space="preserve">42.453067779541</t>
+    <t xml:space="preserve">40.6350555419922</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40.6841888427734</t>
+  </si>
+  <si>
+    <t xml:space="preserve">42.4530639648438</t>
   </si>
   <si>
     <t xml:space="preserve">42.3056602478027</t>
   </si>
   <si>
-    <t xml:space="preserve">42.207389831543</t>
+    <t xml:space="preserve">42.2073936462402</t>
   </si>
   <si>
     <t xml:space="preserve">41.6669006347656</t>
   </si>
   <si>
-    <t xml:space="preserve">42.9935607910156</t>
-  </si>
-  <si>
-    <t xml:space="preserve">45.6468772888184</t>
-  </si>
-  <si>
-    <t xml:space="preserve">45.6960067749023</t>
+    <t xml:space="preserve">42.9935569763184</t>
+  </si>
+  <si>
+    <t xml:space="preserve">45.6468734741211</t>
+  </si>
+  <si>
+    <t xml:space="preserve">45.6960105895996</t>
   </si>
   <si>
     <t xml:space="preserve">46.482177734375</t>
   </si>
   <si>
-    <t xml:space="preserve">48.1527824401855</t>
-  </si>
-  <si>
-    <t xml:space="preserve">47.6122932434082</t>
-  </si>
-  <si>
-    <t xml:space="preserve">48.1036529541016</t>
+    <t xml:space="preserve">48.1527862548828</t>
+  </si>
+  <si>
+    <t xml:space="preserve">47.6122970581055</t>
+  </si>
+  <si>
+    <t xml:space="preserve">48.1036491394043</t>
   </si>
   <si>
     <t xml:space="preserve">48.8406791687012</t>
@@ -2900,10 +2900,10 @@
     <t xml:space="preserve">49.1354942321777</t>
   </si>
   <si>
-    <t xml:space="preserve">48.4967269897461</t>
-  </si>
-  <si>
-    <t xml:space="preserve">50.0199356079102</t>
+    <t xml:space="preserve">48.4967308044434</t>
+  </si>
+  <si>
+    <t xml:space="preserve">50.0199317932129</t>
   </si>
   <si>
     <t xml:space="preserve">50.2164764404297</t>
@@ -2912,7 +2912,7 @@
     <t xml:space="preserve">50.1182060241699</t>
   </si>
   <si>
-    <t xml:space="preserve">50.3147468566895</t>
+    <t xml:space="preserve">50.3147506713867</t>
   </si>
   <si>
     <t xml:space="preserve">51.0026435852051</t>
@@ -2927,16 +2927,16 @@
     <t xml:space="preserve">50.9043731689453</t>
   </si>
   <si>
-    <t xml:space="preserve">50.8060989379883</t>
-  </si>
-  <si>
-    <t xml:space="preserve">51.5922737121582</t>
+    <t xml:space="preserve">50.8061027526855</t>
+  </si>
+  <si>
+    <t xml:space="preserve">51.5922698974609</t>
   </si>
   <si>
     <t xml:space="preserve">50.5112915039062</t>
   </si>
   <si>
-    <t xml:space="preserve">51.1009178161621</t>
+    <t xml:space="preserve">51.1009140014648</t>
   </si>
   <si>
     <t xml:space="preserve">51.2974548339844</t>
@@ -2954,7 +2954,7 @@
     <t xml:space="preserve">45.5485992431641</t>
   </si>
   <si>
-    <t xml:space="preserve">44.8115730285645</t>
+    <t xml:space="preserve">44.8115692138672</t>
   </si>
   <si>
     <t xml:space="preserve">43.7797241210938</t>
@@ -2963,7 +2963,7 @@
     <t xml:space="preserve">44.5167579650879</t>
   </si>
   <si>
-    <t xml:space="preserve">44.5658912658691</t>
+    <t xml:space="preserve">44.5658950805664</t>
   </si>
   <si>
     <t xml:space="preserve">45.2046546936035</t>
@@ -2972,16 +2972,16 @@
     <t xml:space="preserve">44.3202133178711</t>
   </si>
   <si>
-    <t xml:space="preserve">44.0745391845703</t>
+    <t xml:space="preserve">44.074535369873</t>
   </si>
   <si>
     <t xml:space="preserve">44.7132987976074</t>
   </si>
   <si>
-    <t xml:space="preserve">44.2219429016113</t>
-  </si>
-  <si>
-    <t xml:space="preserve">44.4676208496094</t>
+    <t xml:space="preserve">44.2219467163086</t>
+  </si>
+  <si>
+    <t xml:space="preserve">44.4676246643066</t>
   </si>
   <si>
     <t xml:space="preserve">41.4703598022461</t>
@@ -2990,7 +2990,7 @@
     <t xml:space="preserve">41.224681854248</t>
   </si>
   <si>
-    <t xml:space="preserve">42.0108489990234</t>
+    <t xml:space="preserve">42.0108528137207</t>
   </si>
   <si>
     <t xml:space="preserve">42.5513381958008</t>
@@ -2999,19 +2999,19 @@
     <t xml:space="preserve">43.3375053405762</t>
   </si>
   <si>
-    <t xml:space="preserve">43.534049987793</t>
-  </si>
-  <si>
-    <t xml:space="preserve">43.9762687683105</t>
-  </si>
-  <si>
-    <t xml:space="preserve">44.6150321960449</t>
-  </si>
-  <si>
-    <t xml:space="preserve">45.7451438903809</t>
-  </si>
-  <si>
-    <t xml:space="preserve">46.383903503418</t>
+    <t xml:space="preserve">43.5340461730957</t>
+  </si>
+  <si>
+    <t xml:space="preserve">43.9762649536133</t>
+  </si>
+  <si>
+    <t xml:space="preserve">44.6150283813477</t>
+  </si>
+  <si>
+    <t xml:space="preserve">45.7451477050781</t>
+  </si>
+  <si>
+    <t xml:space="preserve">46.3839111328125</t>
   </si>
   <si>
     <t xml:space="preserve">45.9416885375977</t>
@@ -3020,10 +3020,10 @@
     <t xml:space="preserve">46.0399551391602</t>
   </si>
   <si>
-    <t xml:space="preserve">43.0426940917969</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41.5194931030273</t>
+    <t xml:space="preserve">43.0426902770996</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41.5194892883301</t>
   </si>
   <si>
     <t xml:space="preserve">42.9444236755371</t>
@@ -3032,16 +3032,16 @@
     <t xml:space="preserve">43.3866424560547</t>
   </si>
   <si>
-    <t xml:space="preserve">42.6987495422363</t>
+    <t xml:space="preserve">42.6987457275391</t>
   </si>
   <si>
     <t xml:space="preserve">41.7651710510254</t>
   </si>
   <si>
-    <t xml:space="preserve">41.2738151550293</t>
-  </si>
-  <si>
-    <t xml:space="preserve">39.1118507385254</t>
+    <t xml:space="preserve">41.2738189697266</t>
+  </si>
+  <si>
+    <t xml:space="preserve">39.1118545532227</t>
   </si>
   <si>
     <t xml:space="preserve">38.4730949401855</t>
@@ -3056,13 +3056,13 @@
     <t xml:space="preserve">40.7824630737305</t>
   </si>
   <si>
-    <t xml:space="preserve">42.1091156005859</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41.3720855712891</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41.0772705078125</t>
+    <t xml:space="preserve">42.1091194152832</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41.3720893859863</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41.0772743225098</t>
   </si>
   <si>
     <t xml:space="preserve">41.9125785827637</t>
@@ -3074,13 +3074,13 @@
     <t xml:space="preserve">42.7478790283203</t>
   </si>
   <si>
-    <t xml:space="preserve">43.2392311096191</t>
-  </si>
-  <si>
-    <t xml:space="preserve">42.0599784851074</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41.6177635192871</t>
+    <t xml:space="preserve">43.2392349243164</t>
+  </si>
+  <si>
+    <t xml:space="preserve">42.0599822998047</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41.6177597045898</t>
   </si>
   <si>
     <t xml:space="preserve">40.4876480102539</t>
@@ -3089,7 +3089,7 @@
     <t xml:space="preserve">40.880729675293</t>
   </si>
   <si>
-    <t xml:space="preserve">43.1409645080566</t>
+    <t xml:space="preserve">43.1409683227539</t>
   </si>
   <si>
     <t xml:space="preserve">43.7305908203125</t>
@@ -3104,19 +3104,19 @@
     <t xml:space="preserve">39.3575325012207</t>
   </si>
   <si>
-    <t xml:space="preserve">42.8461532592773</t>
+    <t xml:space="preserve">42.8461494445801</t>
   </si>
   <si>
     <t xml:space="preserve">42.8952865600586</t>
   </si>
   <si>
-    <t xml:space="preserve">38.8170394897461</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36.6550750732422</t>
-  </si>
-  <si>
-    <t xml:space="preserve">38.8661766052246</t>
+    <t xml:space="preserve">38.8170433044434</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36.6550788879395</t>
+  </si>
+  <si>
+    <t xml:space="preserve">38.8661727905273</t>
   </si>
   <si>
     <t xml:space="preserve">37.3429756164551</t>
@@ -3125,10 +3125,10 @@
     <t xml:space="preserve">36.0163192749023</t>
   </si>
   <si>
-    <t xml:space="preserve">34.9353370666504</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.8197746276855</t>
+    <t xml:space="preserve">34.9353332519531</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.8197784423828</t>
   </si>
   <si>
     <t xml:space="preserve">36.7533531188965</t>
@@ -3155,31 +3155,31 @@
     <t xml:space="preserve">35.5740966796875</t>
   </si>
   <si>
-    <t xml:space="preserve">34.1491737365723</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.3311576843262</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.6923961639404</t>
+    <t xml:space="preserve">34.1491661071777</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.3311538696289</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.6923942565918</t>
   </si>
   <si>
     <t xml:space="preserve">31.8398036956787</t>
   </si>
   <si>
-    <t xml:space="preserve">33.2155952453613</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.5768356323242</t>
+    <t xml:space="preserve">33.2155914306641</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.576831817627</t>
   </si>
   <si>
     <t xml:space="preserve">33.6578140258789</t>
   </si>
   <si>
-    <t xml:space="preserve">34.9844703674316</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.7879333496094</t>
+    <t xml:space="preserve">34.9844741821289</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.7879295349121</t>
   </si>
   <si>
     <t xml:space="preserve">35.5249633789062</t>
@@ -3188,10 +3188,10 @@
     <t xml:space="preserve">32.2328834533691</t>
   </si>
   <si>
-    <t xml:space="preserve">31.594123840332</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.8052215576172</t>
+    <t xml:space="preserve">31.5941257476807</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.8052253723145</t>
   </si>
   <si>
     <t xml:space="preserve">33.1664619445801</t>
@@ -3206,7 +3206,7 @@
     <t xml:space="preserve">32.8225135803223</t>
   </si>
   <si>
-    <t xml:space="preserve">31.6432609558105</t>
+    <t xml:space="preserve">31.6432590484619</t>
   </si>
   <si>
     <t xml:space="preserve">32.8716468811035</t>
@@ -3215,13 +3215,13 @@
     <t xml:space="preserve">32.9699172973633</t>
   </si>
   <si>
-    <t xml:space="preserve">31.4074077606201</t>
+    <t xml:space="preserve">31.4074058532715</t>
   </si>
   <si>
     <t xml:space="preserve">31.2108669281006</t>
   </si>
   <si>
-    <t xml:space="preserve">31.0929412841797</t>
+    <t xml:space="preserve">31.0929393768311</t>
   </si>
   <si>
     <t xml:space="preserve">29.8350734710693</t>
@@ -3230,13 +3230,13 @@
     <t xml:space="preserve">30.6605491638184</t>
   </si>
   <si>
-    <t xml:space="preserve">32.4294242858887</t>
+    <t xml:space="preserve">32.4294281005859</t>
   </si>
   <si>
     <t xml:space="preserve">32.2721939086914</t>
   </si>
   <si>
-    <t xml:space="preserve">32.1346168518066</t>
+    <t xml:space="preserve">32.1346130371094</t>
   </si>
   <si>
     <t xml:space="preserve">31.5253353118896</t>
@@ -3245,25 +3245,25 @@
     <t xml:space="preserve">32.3704605102539</t>
   </si>
   <si>
-    <t xml:space="preserve">31.5842971801758</t>
+    <t xml:space="preserve">31.5842952728271</t>
   </si>
   <si>
     <t xml:space="preserve">31.8594532012939</t>
   </si>
   <si>
-    <t xml:space="preserve">30.0709247589111</t>
+    <t xml:space="preserve">30.0709228515625</t>
   </si>
   <si>
     <t xml:space="preserve">30.1495399475098</t>
   </si>
   <si>
-    <t xml:space="preserve">28.5575485229492</t>
+    <t xml:space="preserve">28.5575504302979</t>
   </si>
   <si>
     <t xml:space="preserve">28.6754760742188</t>
   </si>
   <si>
-    <t xml:space="preserve">29.3830261230469</t>
+    <t xml:space="preserve">29.3830242156982</t>
   </si>
   <si>
     <t xml:space="preserve">29.0489044189453</t>
@@ -3272,475 +3272,478 @@
     <t xml:space="preserve">29.1078662872314</t>
   </si>
   <si>
-    <t xml:space="preserve">29.265100479126</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.4789333343506</t>
+    <t xml:space="preserve">29.2651023864746</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.478931427002</t>
   </si>
   <si>
     <t xml:space="preserve">28.5968589782715</t>
   </si>
   <si>
-    <t xml:space="preserve">27.181755065918</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.4985885620117</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.7737445831299</t>
+    <t xml:space="preserve">27.1817569732666</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.4985866546631</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.7737464904785</t>
   </si>
   <si>
     <t xml:space="preserve">28.4003162384033</t>
   </si>
   <si>
+    <t xml:space="preserve">28.7344360351562</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.2578449249268</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.9670810699463</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.6692123413086</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.7486438751221</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.9472217559814</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.6025333404541</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.5500640869141</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.8082180023193</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.3245239257812</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.1386985778809</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.4762859344482</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.3968524932861</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.8408317565918</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.019552230835</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.4961433410645</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.0918788909912</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.1911697387695</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.628044128418</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.2110290527344</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.0663719177246</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.060718536377</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.0805759429932</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.7160301208496</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.5245552062988</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.497594833374</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.6763153076172</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.5373077392578</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.8819961547852</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.3585872650146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.4380207061768</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.6039867401123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.9486751556396</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.306116104126</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.9089584350586</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.1146411895752</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.6110916137695</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.2664031982422</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.6706619262695</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.2536468505859</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.9756355285645</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.4791870117188</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.6252956390381</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.8763465881348</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.0153503417969</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.4848384857178</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.7699527740479</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.8025646209717</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.6635608673096</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.259298324585</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.9940414428711</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.8947525024414</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.1529064178467</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.2323379516602</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.4578762054443</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.1997241973877</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.6365985870361</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.113187789917</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.2124805450439</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.9543266296387</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.5571670532227</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.5841293334961</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.0876808166504</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.2862586975098</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.1869697570801</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.7500953674316</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.3855476379395</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.3259754180908</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.4252643585205</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.690523147583</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.5642700195312</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.9288158416748</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.0082492828369</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.8493843078613</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.9415721893311</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.0210037231445</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.3656921386719</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.8295269012451</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.8962020874023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.6181926727295</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.7770576477051</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.1018867492676</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.1288471221924</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.1756649017334</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.9175109863281</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.1160926818848</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.3217735290527</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.937370300293</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.2948131561279</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.5061473846436</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.0494155883789</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.3075675964355</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.3472843170166</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.6451530456543</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.9104099273682</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.4465732574463</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.6650104522705</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.0621700286865</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.2607498168945</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.7245826721191</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.5657215118408</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.7373390197754</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.3798980712891</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.2408905029297</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.499044418335</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.8437328338623</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.1217460632324</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.1344985961914</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.5316581726074</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.7302360534668</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.2068271636963</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.8153209686279</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.1060848236084</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.708927154541</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.6294956207275</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.0479621887207</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.1202926635742</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.3188724517822</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.2720527648926</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.4904899597168</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.7684993743896</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.7883605957031</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.8224239349365</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.7827072143555</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.0408611297607</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.8891010284424</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.0352096557617</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.8621406555176</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.3387298583984</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.1926193237305</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.1330471038818</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.855037689209</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.3316287994385</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.1458015441895</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.8677921295166</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.0989837646484</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.662109375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.5628204345703</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.7741527557373</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.8535842895508</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.2975635528564</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.6550064086914</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.3571357727051</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.8933010101318</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.9528751373291</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.7940120697021</t>
+  </si>
+  <si>
     <t xml:space="preserve">28.7344379425049</t>
   </si>
   <si>
-    <t xml:space="preserve">28.2578468322754</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.9670810699463</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.6692123413086</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.7486438751221</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.9472217559814</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.6025333404541</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.5500640869141</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.8082160949707</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.3245239257812</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.1387004852295</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.4762840270996</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.3968524932861</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.8408298492432</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.0195503234863</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.4961433410645</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.0918788909912</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.1911697387695</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.628044128418</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.2110271453857</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.0663719177246</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.060718536377</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.0805778503418</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.7160320281982</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.5245552062988</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.497594833374</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.6763153076172</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.5373077392578</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.8819961547852</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.3585872650146</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.4380207061768</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.6039867401123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.9486751556396</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.306116104126</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.9089584350586</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.1146411895752</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.6110897064209</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.2664012908936</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.6706638336182</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.2536468505859</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.9756336212158</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.4791851043701</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.6252975463867</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.8763465881348</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.0153522491455</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.4848384857178</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.7699527740479</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.8025665283203</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.6635589599609</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.2593002319336</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.9940414428711</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.8947525024414</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.152904510498</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.2323379516602</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.4578762054443</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.1997241973877</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.6365985870361</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.113187789917</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.2124786376953</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.9543266296387</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.5571670532227</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.5841293334961</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.0876789093018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.2862586975098</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.1869697570801</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.7500953674316</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.3855495452881</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.3259735107422</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.4252643585205</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.6905212402344</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.5642700195312</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.9288177490234</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.0082492828369</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.8493843078613</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.9415721893311</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.0210037231445</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.3656921386719</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.8295269012451</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.896203994751</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.6181926727295</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.7770576477051</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.1018867492676</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.1288471221924</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.175666809082</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.9175128936768</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.1160926818848</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.3217735290527</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.937370300293</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.2948150634766</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.5061492919922</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.0494155883789</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.3075675964355</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.3472843170166</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.6451530456543</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.9104080200195</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.4465751647949</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.6650104522705</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.0621681213379</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.2607498168945</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.7245826721191</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.5657215118408</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.7373390197754</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.3798980712891</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.2408905029297</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.499044418335</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.8437309265137</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.1217441558838</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.1344985961914</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.5316581726074</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.7302360534668</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.2068252563477</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.8153209686279</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.106086730957</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.708927154541</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.6294956207275</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.0479640960693</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.1202907562256</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.3188724517822</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.2720527648926</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.4904899597168</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.7685012817383</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.7883586883545</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.8224239349365</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.7827053070068</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.0408611297607</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.8891010284424</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.0352096557617</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.8621406555176</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.3387298583984</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.1926212310791</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.1330471038818</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.855037689209</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.3316268920898</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.1458015441895</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.8677921295166</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.0989837646484</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.662109375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.5628204345703</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.7741546630859</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.8535842895508</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.2975616455078</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.6550064086914</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.3571357727051</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.8933029174805</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.9528751373291</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.7940120697021</t>
-  </si>
-  <si>
     <t xml:space="preserve">29.0323066711426</t>
   </si>
   <si>
-    <t xml:space="preserve">28.9330158233643</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.0521640777588</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.873441696167</t>
+    <t xml:space="preserve">28.9330177307129</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.0521659851074</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.8734436035156</t>
   </si>
   <si>
     <t xml:space="preserve">30.3627891540527</t>
@@ -3752,7 +3755,7 @@
     <t xml:space="preserve">30.064920425415</t>
   </si>
   <si>
-    <t xml:space="preserve">29.7869071960449</t>
+    <t xml:space="preserve">29.7869091033936</t>
   </si>
   <si>
     <t xml:space="preserve">29.6677589416504</t>
@@ -3767,16 +3770,16 @@
     <t xml:space="preserve">29.4890403747559</t>
   </si>
   <si>
-    <t xml:space="preserve">29.3301753997803</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.0124492645264</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.3372802734375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.8805465698242</t>
+    <t xml:space="preserve">29.3301773071289</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.0124473571777</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.3372783660889</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.8805446624756</t>
   </si>
   <si>
     <t xml:space="preserve">28.3769950866699</t>
@@ -3788,7 +3791,7 @@
     <t xml:space="preserve">28.1188411712646</t>
   </si>
   <si>
-    <t xml:space="preserve">27.7216815948486</t>
+    <t xml:space="preserve">27.7216835021973</t>
   </si>
   <si>
     <t xml:space="preserve">27.7812557220459</t>
@@ -3797,19 +3800,19 @@
     <t xml:space="preserve">27.0862293243408</t>
   </si>
   <si>
-    <t xml:space="preserve">26.8479347229004</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.7358894348145</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.5444107055664</t>
+    <t xml:space="preserve">26.8479328155518</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.7358875274658</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.544412612915</t>
   </si>
   <si>
     <t xml:space="preserve">23.3727951049805</t>
   </si>
   <si>
-    <t xml:space="preserve">22.4394721984863</t>
+    <t xml:space="preserve">22.4394702911377</t>
   </si>
   <si>
     <t xml:space="preserve">24.3458347320557</t>
@@ -3821,13 +3824,13 @@
     <t xml:space="preserve">24.9018535614014</t>
   </si>
   <si>
-    <t xml:space="preserve">25.1600093841553</t>
+    <t xml:space="preserve">25.1600074768066</t>
   </si>
   <si>
     <t xml:space="preserve">25.9146099090576</t>
   </si>
   <si>
-    <t xml:space="preserve">26.4607028961182</t>
+    <t xml:space="preserve">26.4607048034668</t>
   </si>
   <si>
     <t xml:space="preserve">27.1557312011719</t>
@@ -3839,16 +3842,16 @@
     <t xml:space="preserve">27.3543090820312</t>
   </si>
   <si>
-    <t xml:space="preserve">27.5528907775879</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.1486282348633</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.850757598877</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.7514705657959</t>
+    <t xml:space="preserve">27.5528888702393</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.1486301422119</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.8507595062256</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.7514686584473</t>
   </si>
   <si>
     <t xml:space="preserve">27.503246307373</t>
@@ -3863,13 +3866,13 @@
     <t xml:space="preserve">27.4535999298096</t>
   </si>
   <si>
-    <t xml:space="preserve">26.9571533203125</t>
+    <t xml:space="preserve">26.9571514129639</t>
   </si>
   <si>
     <t xml:space="preserve">27.8011150360107</t>
   </si>
   <si>
-    <t xml:space="preserve">27.0564403533936</t>
+    <t xml:space="preserve">27.0564422607422</t>
   </si>
   <si>
     <t xml:space="preserve">27.4039554595947</t>
@@ -3893,10 +3896,10 @@
     <t xml:space="preserve">30.3826465606689</t>
   </si>
   <si>
-    <t xml:space="preserve">31.0280284881592</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.169864654541</t>
+    <t xml:space="preserve">31.0280303955078</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.1698608398438</t>
   </si>
   <si>
     <t xml:space="preserve">31.7230587005615</t>
@@ -3905,7 +3908,7 @@
     <t xml:space="preserve">32.2691497802734</t>
   </si>
   <si>
-    <t xml:space="preserve">33.0138244628906</t>
+    <t xml:space="preserve">33.0138206481934</t>
   </si>
   <si>
     <t xml:space="preserve">32.5173759460449</t>
@@ -3914,7 +3917,7 @@
     <t xml:space="preserve">32.3187942504883</t>
   </si>
   <si>
-    <t xml:space="preserve">32.0705680847168</t>
+    <t xml:space="preserve">32.0705718994141</t>
   </si>
   <si>
     <t xml:space="preserve">31.2762546539307</t>
@@ -3926,7 +3929,7 @@
     <t xml:space="preserve">30.8790950775146</t>
   </si>
   <si>
-    <t xml:space="preserve">30.7301616668701</t>
+    <t xml:space="preserve">30.7301597595215</t>
   </si>
   <si>
     <t xml:space="preserve">30.2833576202393</t>
@@ -3941,7 +3944,7 @@
     <t xml:space="preserve">30.6805152893066</t>
   </si>
   <si>
-    <t xml:space="preserve">30.5315818786621</t>
+    <t xml:space="preserve">30.5315799713135</t>
   </si>
   <si>
     <t xml:space="preserve">30.0029029846191</t>
@@ -4485,6 +4488,9 @@
   </si>
   <si>
     <t xml:space="preserve">35.0499992370605</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35</t>
   </si>
 </sst>
 </file>
@@ -51618,7 +51624,7 @@
         <v>28.9400005340576</v>
       </c>
       <c r="G1800" t="s">
-        <v>1093</v>
+        <v>1239</v>
       </c>
       <c r="H1800" t="s">
         <v>9</v>
@@ -51644,7 +51650,7 @@
         <v>29.2399997711182</v>
       </c>
       <c r="G1801" t="s">
-        <v>1239</v>
+        <v>1240</v>
       </c>
       <c r="H1801" t="s">
         <v>9</v>
@@ -51670,7 +51676,7 @@
         <v>29.1399993896484</v>
       </c>
       <c r="G1802" t="s">
-        <v>1240</v>
+        <v>1241</v>
       </c>
       <c r="H1802" t="s">
         <v>9</v>
@@ -51722,7 +51728,7 @@
         <v>29.2600002288818</v>
       </c>
       <c r="G1804" t="s">
-        <v>1241</v>
+        <v>1242</v>
       </c>
       <c r="H1804" t="s">
         <v>9</v>
@@ -51748,7 +51754,7 @@
         <v>29.0799999237061</v>
       </c>
       <c r="G1805" t="s">
-        <v>1242</v>
+        <v>1243</v>
       </c>
       <c r="H1805" t="s">
         <v>9</v>
@@ -51774,7 +51780,7 @@
         <v>30.5799999237061</v>
       </c>
       <c r="G1806" t="s">
-        <v>1243</v>
+        <v>1244</v>
       </c>
       <c r="H1806" t="s">
         <v>9</v>
@@ -51800,7 +51806,7 @@
         <v>30.2199993133545</v>
       </c>
       <c r="G1807" t="s">
-        <v>1244</v>
+        <v>1245</v>
       </c>
       <c r="H1807" t="s">
         <v>9</v>
@@ -51826,7 +51832,7 @@
         <v>30.2800006866455</v>
       </c>
       <c r="G1808" t="s">
-        <v>1245</v>
+        <v>1246</v>
       </c>
       <c r="H1808" t="s">
         <v>9</v>
@@ -51852,7 +51858,7 @@
         <v>30</v>
       </c>
       <c r="G1809" t="s">
-        <v>1246</v>
+        <v>1247</v>
       </c>
       <c r="H1809" t="s">
         <v>9</v>
@@ -51878,7 +51884,7 @@
         <v>30</v>
       </c>
       <c r="G1810" t="s">
-        <v>1246</v>
+        <v>1247</v>
       </c>
       <c r="H1810" t="s">
         <v>9</v>
@@ -51904,7 +51910,7 @@
         <v>29.8799991607666</v>
       </c>
       <c r="G1811" t="s">
-        <v>1247</v>
+        <v>1248</v>
       </c>
       <c r="H1811" t="s">
         <v>9</v>
@@ -51956,7 +51962,7 @@
         <v>29.6200008392334</v>
       </c>
       <c r="G1813" t="s">
-        <v>1248</v>
+        <v>1249</v>
       </c>
       <c r="H1813" t="s">
         <v>9</v>
@@ -51982,7 +51988,7 @@
         <v>29.8799991607666</v>
       </c>
       <c r="G1814" t="s">
-        <v>1247</v>
+        <v>1248</v>
       </c>
       <c r="H1814" t="s">
         <v>9</v>
@@ -52008,7 +52014,7 @@
         <v>29.7399997711182</v>
       </c>
       <c r="G1815" t="s">
-        <v>1249</v>
+        <v>1250</v>
       </c>
       <c r="H1815" t="s">
         <v>9</v>
@@ -52034,7 +52040,7 @@
         <v>29.7000007629395</v>
       </c>
       <c r="G1816" t="s">
-        <v>1250</v>
+        <v>1251</v>
       </c>
       <c r="H1816" t="s">
         <v>9</v>
@@ -52060,7 +52066,7 @@
         <v>29.5400009155273</v>
       </c>
       <c r="G1817" t="s">
-        <v>1251</v>
+        <v>1252</v>
       </c>
       <c r="H1817" t="s">
         <v>9</v>
@@ -52086,7 +52092,7 @@
         <v>29.2199993133545</v>
       </c>
       <c r="G1818" t="s">
-        <v>1252</v>
+        <v>1253</v>
       </c>
       <c r="H1818" t="s">
         <v>9</v>
@@ -52138,7 +52144,7 @@
         <v>28.5400009155273</v>
       </c>
       <c r="G1820" t="s">
-        <v>1253</v>
+        <v>1254</v>
       </c>
       <c r="H1820" t="s">
         <v>9</v>
@@ -52190,7 +52196,7 @@
         <v>28.0799999237061</v>
       </c>
       <c r="G1822" t="s">
-        <v>1254</v>
+        <v>1255</v>
       </c>
       <c r="H1822" t="s">
         <v>9</v>
@@ -52216,7 +52222,7 @@
         <v>28.5799999237061</v>
       </c>
       <c r="G1823" t="s">
-        <v>1255</v>
+        <v>1256</v>
       </c>
       <c r="H1823" t="s">
         <v>9</v>
@@ -52242,7 +52248,7 @@
         <v>28.7600002288818</v>
       </c>
       <c r="G1824" t="s">
-        <v>1256</v>
+        <v>1257</v>
       </c>
       <c r="H1824" t="s">
         <v>9</v>
@@ -52268,7 +52274,7 @@
         <v>28.7600002288818</v>
       </c>
       <c r="G1825" t="s">
-        <v>1256</v>
+        <v>1257</v>
       </c>
       <c r="H1825" t="s">
         <v>9</v>
@@ -52294,7 +52300,7 @@
         <v>28.3199996948242</v>
       </c>
       <c r="G1826" t="s">
-        <v>1257</v>
+        <v>1258</v>
       </c>
       <c r="H1826" t="s">
         <v>9</v>
@@ -52320,7 +52326,7 @@
         <v>28.3199996948242</v>
       </c>
       <c r="G1827" t="s">
-        <v>1257</v>
+        <v>1258</v>
       </c>
       <c r="H1827" t="s">
         <v>9</v>
@@ -52346,7 +52352,7 @@
         <v>27.9200000762939</v>
       </c>
       <c r="G1828" t="s">
-        <v>1258</v>
+        <v>1259</v>
       </c>
       <c r="H1828" t="s">
         <v>9</v>
@@ -52398,7 +52404,7 @@
         <v>27.9799995422363</v>
       </c>
       <c r="G1830" t="s">
-        <v>1259</v>
+        <v>1260</v>
       </c>
       <c r="H1830" t="s">
         <v>9</v>
@@ -52424,7 +52430,7 @@
         <v>27.2800006866455</v>
       </c>
       <c r="G1831" t="s">
-        <v>1260</v>
+        <v>1261</v>
       </c>
       <c r="H1831" t="s">
         <v>9</v>
@@ -52450,7 +52456,7 @@
         <v>27.0400009155273</v>
       </c>
       <c r="G1832" t="s">
-        <v>1261</v>
+        <v>1262</v>
       </c>
       <c r="H1832" t="s">
         <v>9</v>
@@ -52502,7 +52508,7 @@
         <v>25.9200000762939</v>
       </c>
       <c r="G1834" t="s">
-        <v>1262</v>
+        <v>1263</v>
       </c>
       <c r="H1834" t="s">
         <v>9</v>
@@ -52528,7 +52534,7 @@
         <v>24.7199993133545</v>
       </c>
       <c r="G1835" t="s">
-        <v>1263</v>
+        <v>1264</v>
       </c>
       <c r="H1835" t="s">
         <v>9</v>
@@ -52554,7 +52560,7 @@
         <v>23.5400009155273</v>
       </c>
       <c r="G1836" t="s">
-        <v>1264</v>
+        <v>1265</v>
       </c>
       <c r="H1836" t="s">
         <v>9</v>
@@ -52580,7 +52586,7 @@
         <v>22.6000003814697</v>
       </c>
       <c r="G1837" t="s">
-        <v>1265</v>
+        <v>1266</v>
       </c>
       <c r="H1837" t="s">
         <v>9</v>
@@ -52632,7 +52638,7 @@
         <v>24.5200004577637</v>
       </c>
       <c r="G1839" t="s">
-        <v>1266</v>
+        <v>1267</v>
       </c>
       <c r="H1839" t="s">
         <v>9</v>
@@ -52684,7 +52690,7 @@
         <v>24.7999992370605</v>
       </c>
       <c r="G1841" t="s">
-        <v>1267</v>
+        <v>1268</v>
       </c>
       <c r="H1841" t="s">
         <v>9</v>
@@ -52710,7 +52716,7 @@
         <v>24.7199993133545</v>
       </c>
       <c r="G1842" t="s">
-        <v>1263</v>
+        <v>1264</v>
       </c>
       <c r="H1842" t="s">
         <v>9</v>
@@ -52736,7 +52742,7 @@
         <v>25.0799999237061</v>
       </c>
       <c r="G1843" t="s">
-        <v>1268</v>
+        <v>1269</v>
       </c>
       <c r="H1843" t="s">
         <v>9</v>
@@ -52762,7 +52768,7 @@
         <v>25.3400001525879</v>
       </c>
       <c r="G1844" t="s">
-        <v>1269</v>
+        <v>1270</v>
       </c>
       <c r="H1844" t="s">
         <v>9</v>
@@ -52840,7 +52846,7 @@
         <v>26.1000003814697</v>
       </c>
       <c r="G1847" t="s">
-        <v>1270</v>
+        <v>1271</v>
       </c>
       <c r="H1847" t="s">
         <v>9</v>
@@ -52866,7 +52872,7 @@
         <v>26.6499996185303</v>
       </c>
       <c r="G1848" t="s">
-        <v>1271</v>
+        <v>1272</v>
       </c>
       <c r="H1848" t="s">
         <v>9</v>
@@ -52892,7 +52898,7 @@
         <v>27.3500003814697</v>
       </c>
       <c r="G1849" t="s">
-        <v>1272</v>
+        <v>1273</v>
       </c>
       <c r="H1849" t="s">
         <v>9</v>
@@ -52944,7 +52950,7 @@
         <v>27.1000003814697</v>
       </c>
       <c r="G1851" t="s">
-        <v>1273</v>
+        <v>1274</v>
       </c>
       <c r="H1851" t="s">
         <v>9</v>
@@ -52970,7 +52976,7 @@
         <v>27.5499992370605</v>
       </c>
       <c r="G1852" t="s">
-        <v>1274</v>
+        <v>1275</v>
       </c>
       <c r="H1852" t="s">
         <v>9</v>
@@ -52996,7 +53002,7 @@
         <v>27.75</v>
       </c>
       <c r="G1853" t="s">
-        <v>1275</v>
+        <v>1276</v>
       </c>
       <c r="H1853" t="s">
         <v>9</v>
@@ -53022,7 +53028,7 @@
         <v>28.3500003814697</v>
       </c>
       <c r="G1854" t="s">
-        <v>1276</v>
+        <v>1277</v>
       </c>
       <c r="H1854" t="s">
         <v>9</v>
@@ -53048,7 +53054,7 @@
         <v>28.0499992370605</v>
       </c>
       <c r="G1855" t="s">
-        <v>1277</v>
+        <v>1278</v>
       </c>
       <c r="H1855" t="s">
         <v>9</v>
@@ -53074,7 +53080,7 @@
         <v>27.9500007629395</v>
       </c>
       <c r="G1856" t="s">
-        <v>1278</v>
+        <v>1279</v>
       </c>
       <c r="H1856" t="s">
         <v>9</v>
@@ -53100,7 +53106,7 @@
         <v>27.5499992370605</v>
       </c>
       <c r="G1857" t="s">
-        <v>1274</v>
+        <v>1275</v>
       </c>
       <c r="H1857" t="s">
         <v>9</v>
@@ -53126,7 +53132,7 @@
         <v>27.7000007629395</v>
       </c>
       <c r="G1858" t="s">
-        <v>1279</v>
+        <v>1280</v>
       </c>
       <c r="H1858" t="s">
         <v>9</v>
@@ -53152,7 +53158,7 @@
         <v>27.4500007629395</v>
       </c>
       <c r="G1859" t="s">
-        <v>1280</v>
+        <v>1281</v>
       </c>
       <c r="H1859" t="s">
         <v>9</v>
@@ -53178,7 +53184,7 @@
         <v>27.75</v>
       </c>
       <c r="G1860" t="s">
-        <v>1275</v>
+        <v>1276</v>
       </c>
       <c r="H1860" t="s">
         <v>9</v>
@@ -53204,7 +53210,7 @@
         <v>27.75</v>
       </c>
       <c r="G1861" t="s">
-        <v>1275</v>
+        <v>1276</v>
       </c>
       <c r="H1861" t="s">
         <v>9</v>
@@ -53230,7 +53236,7 @@
         <v>27.75</v>
       </c>
       <c r="G1862" t="s">
-        <v>1275</v>
+        <v>1276</v>
       </c>
       <c r="H1862" t="s">
         <v>9</v>
@@ -53256,7 +53262,7 @@
         <v>27.2000007629395</v>
       </c>
       <c r="G1863" t="s">
-        <v>1281</v>
+        <v>1282</v>
       </c>
       <c r="H1863" t="s">
         <v>9</v>
@@ -53282,7 +53288,7 @@
         <v>27.5499992370605</v>
       </c>
       <c r="G1864" t="s">
-        <v>1274</v>
+        <v>1275</v>
       </c>
       <c r="H1864" t="s">
         <v>9</v>
@@ -53334,7 +53340,7 @@
         <v>27.6499996185303</v>
       </c>
       <c r="G1866" t="s">
-        <v>1282</v>
+        <v>1283</v>
       </c>
       <c r="H1866" t="s">
         <v>9</v>
@@ -53360,7 +53366,7 @@
         <v>27.3500003814697</v>
       </c>
       <c r="G1867" t="s">
-        <v>1272</v>
+        <v>1273</v>
       </c>
       <c r="H1867" t="s">
         <v>9</v>
@@ -53386,7 +53392,7 @@
         <v>27.1499996185303</v>
       </c>
       <c r="G1868" t="s">
-        <v>1283</v>
+        <v>1284</v>
       </c>
       <c r="H1868" t="s">
         <v>9</v>
@@ -53412,7 +53418,7 @@
         <v>28</v>
       </c>
       <c r="G1869" t="s">
-        <v>1284</v>
+        <v>1285</v>
       </c>
       <c r="H1869" t="s">
         <v>9</v>
@@ -53464,7 +53470,7 @@
         <v>27.3500003814697</v>
       </c>
       <c r="G1871" t="s">
-        <v>1272</v>
+        <v>1273</v>
       </c>
       <c r="H1871" t="s">
         <v>9</v>
@@ -53490,7 +53496,7 @@
         <v>27.25</v>
       </c>
       <c r="G1872" t="s">
-        <v>1285</v>
+        <v>1286</v>
       </c>
       <c r="H1872" t="s">
         <v>9</v>
@@ -53516,7 +53522,7 @@
         <v>27.5499992370605</v>
       </c>
       <c r="G1873" t="s">
-        <v>1274</v>
+        <v>1275</v>
       </c>
       <c r="H1873" t="s">
         <v>9</v>
@@ -53542,7 +53548,7 @@
         <v>27.6000003814697</v>
       </c>
       <c r="G1874" t="s">
-        <v>1286</v>
+        <v>1287</v>
       </c>
       <c r="H1874" t="s">
         <v>9</v>
@@ -53568,7 +53574,7 @@
         <v>27.2000007629395</v>
       </c>
       <c r="G1875" t="s">
-        <v>1281</v>
+        <v>1282</v>
       </c>
       <c r="H1875" t="s">
         <v>9</v>
@@ -53594,7 +53600,7 @@
         <v>27.2000007629395</v>
       </c>
       <c r="G1876" t="s">
-        <v>1281</v>
+        <v>1282</v>
       </c>
       <c r="H1876" t="s">
         <v>9</v>
@@ -53620,7 +53626,7 @@
         <v>27.7000007629395</v>
       </c>
       <c r="G1877" t="s">
-        <v>1279</v>
+        <v>1280</v>
       </c>
       <c r="H1877" t="s">
         <v>9</v>
@@ -53646,7 +53652,7 @@
         <v>27.8999996185303</v>
       </c>
       <c r="G1878" t="s">
-        <v>1287</v>
+        <v>1288</v>
       </c>
       <c r="H1878" t="s">
         <v>9</v>
@@ -53672,7 +53678,7 @@
         <v>28.3500003814697</v>
       </c>
       <c r="G1879" t="s">
-        <v>1276</v>
+        <v>1277</v>
       </c>
       <c r="H1879" t="s">
         <v>9</v>
@@ -53724,7 +53730,7 @@
         <v>28.3500003814697</v>
       </c>
       <c r="G1881" t="s">
-        <v>1276</v>
+        <v>1277</v>
       </c>
       <c r="H1881" t="s">
         <v>9</v>
@@ -53750,7 +53756,7 @@
         <v>27.2000007629395</v>
       </c>
       <c r="G1882" t="s">
-        <v>1281</v>
+        <v>1282</v>
       </c>
       <c r="H1882" t="s">
         <v>9</v>
@@ -53776,7 +53782,7 @@
         <v>27.6000003814697</v>
       </c>
       <c r="G1883" t="s">
-        <v>1286</v>
+        <v>1287</v>
       </c>
       <c r="H1883" t="s">
         <v>9</v>
@@ -53802,7 +53808,7 @@
         <v>28.3500003814697</v>
       </c>
       <c r="G1884" t="s">
-        <v>1276</v>
+        <v>1277</v>
       </c>
       <c r="H1884" t="s">
         <v>9</v>
@@ -53828,7 +53834,7 @@
         <v>28.2000007629395</v>
       </c>
       <c r="G1885" t="s">
-        <v>1288</v>
+        <v>1289</v>
       </c>
       <c r="H1885" t="s">
         <v>9</v>
@@ -53854,7 +53860,7 @@
         <v>28.3500003814697</v>
       </c>
       <c r="G1886" t="s">
-        <v>1276</v>
+        <v>1277</v>
       </c>
       <c r="H1886" t="s">
         <v>9</v>
@@ -53880,7 +53886,7 @@
         <v>28.75</v>
       </c>
       <c r="G1887" t="s">
-        <v>1289</v>
+        <v>1290</v>
       </c>
       <c r="H1887" t="s">
         <v>9</v>
@@ -53906,7 +53912,7 @@
         <v>29.7999992370605</v>
       </c>
       <c r="G1888" t="s">
-        <v>1290</v>
+        <v>1291</v>
       </c>
       <c r="H1888" t="s">
         <v>9</v>
@@ -53932,7 +53938,7 @@
         <v>30.8500003814697</v>
       </c>
       <c r="G1889" t="s">
-        <v>1291</v>
+        <v>1292</v>
       </c>
       <c r="H1889" t="s">
         <v>9</v>
@@ -53958,7 +53964,7 @@
         <v>30.6000003814697</v>
       </c>
       <c r="G1890" t="s">
-        <v>1292</v>
+        <v>1293</v>
       </c>
       <c r="H1890" t="s">
         <v>9</v>
@@ -53984,7 +53990,7 @@
         <v>31.25</v>
       </c>
       <c r="G1891" t="s">
-        <v>1293</v>
+        <v>1294</v>
       </c>
       <c r="H1891" t="s">
         <v>9</v>
@@ -54010,7 +54016,7 @@
         <v>32.4000015258789</v>
       </c>
       <c r="G1892" t="s">
-        <v>1294</v>
+        <v>1295</v>
       </c>
       <c r="H1892" t="s">
         <v>9</v>
@@ -54036,7 +54042,7 @@
         <v>31.9500007629395</v>
       </c>
       <c r="G1893" t="s">
-        <v>1295</v>
+        <v>1296</v>
       </c>
       <c r="H1893" t="s">
         <v>9</v>
@@ -54062,7 +54068,7 @@
         <v>32.5</v>
       </c>
       <c r="G1894" t="s">
-        <v>1296</v>
+        <v>1297</v>
       </c>
       <c r="H1894" t="s">
         <v>9</v>
@@ -54088,7 +54094,7 @@
         <v>33.25</v>
       </c>
       <c r="G1895" t="s">
-        <v>1297</v>
+        <v>1298</v>
       </c>
       <c r="H1895" t="s">
         <v>9</v>
@@ -54114,7 +54120,7 @@
         <v>32.75</v>
       </c>
       <c r="G1896" t="s">
-        <v>1298</v>
+        <v>1299</v>
       </c>
       <c r="H1896" t="s">
         <v>9</v>
@@ -54140,7 +54146,7 @@
         <v>32.5499992370605</v>
       </c>
       <c r="G1897" t="s">
-        <v>1299</v>
+        <v>1300</v>
       </c>
       <c r="H1897" t="s">
         <v>9</v>
@@ -54166,7 +54172,7 @@
         <v>32.2999992370605</v>
       </c>
       <c r="G1898" t="s">
-        <v>1300</v>
+        <v>1301</v>
       </c>
       <c r="H1898" t="s">
         <v>9</v>
@@ -54192,7 +54198,7 @@
         <v>31.9500007629395</v>
       </c>
       <c r="G1899" t="s">
-        <v>1295</v>
+        <v>1296</v>
       </c>
       <c r="H1899" t="s">
         <v>9</v>
@@ -54218,7 +54224,7 @@
         <v>31.5</v>
       </c>
       <c r="G1900" t="s">
-        <v>1301</v>
+        <v>1302</v>
       </c>
       <c r="H1900" t="s">
         <v>9</v>
@@ -54244,7 +54250,7 @@
         <v>31.6499996185303</v>
       </c>
       <c r="G1901" t="s">
-        <v>1302</v>
+        <v>1303</v>
       </c>
       <c r="H1901" t="s">
         <v>9</v>
@@ -54270,7 +54276,7 @@
         <v>31.1000003814697</v>
       </c>
       <c r="G1902" t="s">
-        <v>1303</v>
+        <v>1304</v>
       </c>
       <c r="H1902" t="s">
         <v>9</v>
@@ -54296,7 +54302,7 @@
         <v>30.9500007629395</v>
       </c>
       <c r="G1903" t="s">
-        <v>1304</v>
+        <v>1305</v>
       </c>
       <c r="H1903" t="s">
         <v>9</v>
@@ -54322,7 +54328,7 @@
         <v>30.5</v>
       </c>
       <c r="G1904" t="s">
-        <v>1305</v>
+        <v>1306</v>
       </c>
       <c r="H1904" t="s">
         <v>9</v>
@@ -54348,7 +54354,7 @@
         <v>30.7000007629395</v>
       </c>
       <c r="G1905" t="s">
-        <v>1306</v>
+        <v>1307</v>
       </c>
       <c r="H1905" t="s">
         <v>9</v>
@@ -54374,7 +54380,7 @@
         <v>30.5499992370605</v>
       </c>
       <c r="G1906" t="s">
-        <v>1307</v>
+        <v>1308</v>
       </c>
       <c r="H1906" t="s">
         <v>9</v>
@@ -54400,7 +54406,7 @@
         <v>30.8999996185303</v>
       </c>
       <c r="G1907" t="s">
-        <v>1308</v>
+        <v>1309</v>
       </c>
       <c r="H1907" t="s">
         <v>9</v>
@@ -54426,7 +54432,7 @@
         <v>30.75</v>
       </c>
       <c r="G1908" t="s">
-        <v>1309</v>
+        <v>1310</v>
       </c>
       <c r="H1908" t="s">
         <v>9</v>
@@ -54452,7 +54458,7 @@
         <v>30.8500003814697</v>
       </c>
       <c r="G1909" t="s">
-        <v>1291</v>
+        <v>1292</v>
       </c>
       <c r="H1909" t="s">
         <v>9</v>
@@ -54478,7 +54484,7 @@
         <v>30.1000003814697</v>
       </c>
       <c r="G1910" t="s">
-        <v>1310</v>
+        <v>1311</v>
       </c>
       <c r="H1910" t="s">
         <v>9</v>
@@ -54504,7 +54510,7 @@
         <v>29.7999992370605</v>
       </c>
       <c r="G1911" t="s">
-        <v>1311</v>
+        <v>1312</v>
       </c>
       <c r="H1911" t="s">
         <v>9</v>
@@ -54530,7 +54536,7 @@
         <v>30</v>
       </c>
       <c r="G1912" t="s">
-        <v>1312</v>
+        <v>1313</v>
       </c>
       <c r="H1912" t="s">
         <v>9</v>
@@ -54556,7 +54562,7 @@
         <v>29.8500003814697</v>
       </c>
       <c r="G1913" t="s">
-        <v>1313</v>
+        <v>1314</v>
       </c>
       <c r="H1913" t="s">
         <v>9</v>
@@ -54582,7 +54588,7 @@
         <v>30.6499996185303</v>
       </c>
       <c r="G1914" t="s">
-        <v>1314</v>
+        <v>1315</v>
       </c>
       <c r="H1914" t="s">
         <v>9</v>
@@ -54608,7 +54614,7 @@
         <v>30.8999996185303</v>
       </c>
       <c r="G1915" t="s">
-        <v>1315</v>
+        <v>1316</v>
       </c>
       <c r="H1915" t="s">
         <v>9</v>
@@ -54634,7 +54640,7 @@
         <v>30.3500003814697</v>
       </c>
       <c r="G1916" t="s">
-        <v>1316</v>
+        <v>1317</v>
       </c>
       <c r="H1916" t="s">
         <v>9</v>
@@ -54660,7 +54666,7 @@
         <v>30.1000003814697</v>
       </c>
       <c r="G1917" t="s">
-        <v>1310</v>
+        <v>1311</v>
       </c>
       <c r="H1917" t="s">
         <v>9</v>
@@ -54686,7 +54692,7 @@
         <v>30.1000003814697</v>
       </c>
       <c r="G1918" t="s">
-        <v>1310</v>
+        <v>1311</v>
       </c>
       <c r="H1918" t="s">
         <v>9</v>
@@ -54712,7 +54718,7 @@
         <v>30.5</v>
       </c>
       <c r="G1919" t="s">
-        <v>1317</v>
+        <v>1318</v>
       </c>
       <c r="H1919" t="s">
         <v>9</v>
@@ -54738,7 +54744,7 @@
         <v>31.2999992370605</v>
       </c>
       <c r="G1920" t="s">
-        <v>1318</v>
+        <v>1319</v>
       </c>
       <c r="H1920" t="s">
         <v>9</v>
@@ -54764,7 +54770,7 @@
         <v>31.5</v>
       </c>
       <c r="G1921" t="s">
-        <v>1319</v>
+        <v>1320</v>
       </c>
       <c r="H1921" t="s">
         <v>9</v>
@@ -54790,7 +54796,7 @@
         <v>31.7000007629395</v>
       </c>
       <c r="G1922" t="s">
-        <v>1320</v>
+        <v>1321</v>
       </c>
       <c r="H1922" t="s">
         <v>9</v>
@@ -54816,7 +54822,7 @@
         <v>31.3500003814697</v>
       </c>
       <c r="G1923" t="s">
-        <v>1321</v>
+        <v>1322</v>
       </c>
       <c r="H1923" t="s">
         <v>9</v>
@@ -54842,7 +54848,7 @@
         <v>31.6000003814697</v>
       </c>
       <c r="G1924" t="s">
-        <v>1322</v>
+        <v>1323</v>
       </c>
       <c r="H1924" t="s">
         <v>9</v>
@@ -54868,7 +54874,7 @@
         <v>32.25</v>
       </c>
       <c r="G1925" t="s">
-        <v>1323</v>
+        <v>1324</v>
       </c>
       <c r="H1925" t="s">
         <v>9</v>
@@ -54894,7 +54900,7 @@
         <v>32.9500007629395</v>
       </c>
       <c r="G1926" t="s">
-        <v>1324</v>
+        <v>1325</v>
       </c>
       <c r="H1926" t="s">
         <v>9</v>
@@ -54920,7 +54926,7 @@
         <v>31.7000007629395</v>
       </c>
       <c r="G1927" t="s">
-        <v>1320</v>
+        <v>1321</v>
       </c>
       <c r="H1927" t="s">
         <v>9</v>
@@ -54946,7 +54952,7 @@
         <v>32</v>
       </c>
       <c r="G1928" t="s">
-        <v>1325</v>
+        <v>1326</v>
       </c>
       <c r="H1928" t="s">
         <v>9</v>
@@ -54972,7 +54978,7 @@
         <v>31.8999996185303</v>
       </c>
       <c r="G1929" t="s">
-        <v>1326</v>
+        <v>1327</v>
       </c>
       <c r="H1929" t="s">
         <v>9</v>
@@ -54998,7 +55004,7 @@
         <v>32.5499992370605</v>
       </c>
       <c r="G1930" t="s">
-        <v>1327</v>
+        <v>1328</v>
       </c>
       <c r="H1930" t="s">
         <v>9</v>
@@ -55024,7 +55030,7 @@
         <v>31</v>
       </c>
       <c r="G1931" t="s">
-        <v>1328</v>
+        <v>1329</v>
       </c>
       <c r="H1931" t="s">
         <v>9</v>
@@ -55050,7 +55056,7 @@
         <v>30.9500007629395</v>
       </c>
       <c r="G1932" t="s">
-        <v>1329</v>
+        <v>1330</v>
       </c>
       <c r="H1932" t="s">
         <v>9</v>
@@ -55076,7 +55082,7 @@
         <v>30.5</v>
       </c>
       <c r="G1933" t="s">
-        <v>1317</v>
+        <v>1318</v>
       </c>
       <c r="H1933" t="s">
         <v>9</v>
@@ -55102,7 +55108,7 @@
         <v>30.5</v>
       </c>
       <c r="G1934" t="s">
-        <v>1317</v>
+        <v>1318</v>
       </c>
       <c r="H1934" t="s">
         <v>9</v>
@@ -55128,7 +55134,7 @@
         <v>30.5</v>
       </c>
       <c r="G1935" t="s">
-        <v>1317</v>
+        <v>1318</v>
       </c>
       <c r="H1935" t="s">
         <v>9</v>
@@ -55154,7 +55160,7 @@
         <v>30.0499992370605</v>
       </c>
       <c r="G1936" t="s">
-        <v>1330</v>
+        <v>1331</v>
       </c>
       <c r="H1936" t="s">
         <v>9</v>
@@ -55180,7 +55186,7 @@
         <v>30.0499992370605</v>
       </c>
       <c r="G1937" t="s">
-        <v>1330</v>
+        <v>1331</v>
       </c>
       <c r="H1937" t="s">
         <v>9</v>
@@ -55206,7 +55212,7 @@
         <v>28.25</v>
       </c>
       <c r="G1938" t="s">
-        <v>1331</v>
+        <v>1332</v>
       </c>
       <c r="H1938" t="s">
         <v>9</v>
@@ -55232,7 +55238,7 @@
         <v>27.1499996185303</v>
       </c>
       <c r="G1939" t="s">
-        <v>1332</v>
+        <v>1333</v>
       </c>
       <c r="H1939" t="s">
         <v>9</v>
@@ -55258,7 +55264,7 @@
         <v>26.8500003814697</v>
       </c>
       <c r="G1940" t="s">
-        <v>1333</v>
+        <v>1334</v>
       </c>
       <c r="H1940" t="s">
         <v>9</v>
@@ -55284,7 +55290,7 @@
         <v>25.5499992370605</v>
       </c>
       <c r="G1941" t="s">
-        <v>1334</v>
+        <v>1335</v>
       </c>
       <c r="H1941" t="s">
         <v>9</v>
@@ -55310,7 +55316,7 @@
         <v>24.5</v>
       </c>
       <c r="G1942" t="s">
-        <v>1335</v>
+        <v>1336</v>
       </c>
       <c r="H1942" t="s">
         <v>9</v>
@@ -55336,7 +55342,7 @@
         <v>24.9500007629395</v>
       </c>
       <c r="G1943" t="s">
-        <v>1336</v>
+        <v>1337</v>
       </c>
       <c r="H1943" t="s">
         <v>9</v>
@@ -55362,7 +55368,7 @@
         <v>24.7999992370605</v>
       </c>
       <c r="G1944" t="s">
-        <v>1337</v>
+        <v>1338</v>
       </c>
       <c r="H1944" t="s">
         <v>9</v>
@@ -55388,7 +55394,7 @@
         <v>24.6000003814697</v>
       </c>
       <c r="G1945" t="s">
-        <v>1338</v>
+        <v>1339</v>
       </c>
       <c r="H1945" t="s">
         <v>9</v>
@@ -55414,7 +55420,7 @@
         <v>24.75</v>
       </c>
       <c r="G1946" t="s">
-        <v>1339</v>
+        <v>1340</v>
       </c>
       <c r="H1946" t="s">
         <v>9</v>
@@ -55440,7 +55446,7 @@
         <v>24.5499992370605</v>
       </c>
       <c r="G1947" t="s">
-        <v>1340</v>
+        <v>1341</v>
       </c>
       <c r="H1947" t="s">
         <v>9</v>
@@ -55466,7 +55472,7 @@
         <v>24.5499992370605</v>
       </c>
       <c r="G1948" t="s">
-        <v>1340</v>
+        <v>1341</v>
       </c>
       <c r="H1948" t="s">
         <v>9</v>
@@ -55492,7 +55498,7 @@
         <v>25.2000007629395</v>
       </c>
       <c r="G1949" t="s">
-        <v>1341</v>
+        <v>1342</v>
       </c>
       <c r="H1949" t="s">
         <v>9</v>
@@ -55518,7 +55524,7 @@
         <v>25.0499992370605</v>
       </c>
       <c r="G1950" t="s">
-        <v>1342</v>
+        <v>1343</v>
       </c>
       <c r="H1950" t="s">
         <v>9</v>
@@ -55544,7 +55550,7 @@
         <v>24.7999992370605</v>
       </c>
       <c r="G1951" t="s">
-        <v>1337</v>
+        <v>1338</v>
       </c>
       <c r="H1951" t="s">
         <v>9</v>
@@ -55570,7 +55576,7 @@
         <v>26.1499996185303</v>
       </c>
       <c r="G1952" t="s">
-        <v>1343</v>
+        <v>1344</v>
       </c>
       <c r="H1952" t="s">
         <v>9</v>
@@ -55596,7 +55602,7 @@
         <v>26.0499992370605</v>
       </c>
       <c r="G1953" t="s">
-        <v>1344</v>
+        <v>1345</v>
       </c>
       <c r="H1953" t="s">
         <v>9</v>
@@ -55622,7 +55628,7 @@
         <v>25.8500003814697</v>
       </c>
       <c r="G1954" t="s">
-        <v>1345</v>
+        <v>1346</v>
       </c>
       <c r="H1954" t="s">
         <v>9</v>
@@ -55648,7 +55654,7 @@
         <v>26.1000003814697</v>
       </c>
       <c r="G1955" t="s">
-        <v>1346</v>
+        <v>1347</v>
       </c>
       <c r="H1955" t="s">
         <v>9</v>
@@ -55674,7 +55680,7 @@
         <v>25.3500003814697</v>
       </c>
       <c r="G1956" t="s">
-        <v>1347</v>
+        <v>1348</v>
       </c>
       <c r="H1956" t="s">
         <v>9</v>
@@ -55700,7 +55706,7 @@
         <v>24.9500007629395</v>
       </c>
       <c r="G1957" t="s">
-        <v>1336</v>
+        <v>1337</v>
       </c>
       <c r="H1957" t="s">
         <v>9</v>
@@ -55726,7 +55732,7 @@
         <v>24.75</v>
       </c>
       <c r="G1958" t="s">
-        <v>1339</v>
+        <v>1340</v>
       </c>
       <c r="H1958" t="s">
         <v>9</v>
@@ -55752,7 +55758,7 @@
         <v>24.7999992370605</v>
       </c>
       <c r="G1959" t="s">
-        <v>1337</v>
+        <v>1338</v>
       </c>
       <c r="H1959" t="s">
         <v>9</v>
@@ -55778,7 +55784,7 @@
         <v>24.8500003814697</v>
       </c>
       <c r="G1960" t="s">
-        <v>1348</v>
+        <v>1349</v>
       </c>
       <c r="H1960" t="s">
         <v>9</v>
@@ -55804,7 +55810,7 @@
         <v>25.3500003814697</v>
       </c>
       <c r="G1961" t="s">
-        <v>1347</v>
+        <v>1348</v>
       </c>
       <c r="H1961" t="s">
         <v>9</v>
@@ -55830,7 +55836,7 @@
         <v>25.7999992370605</v>
       </c>
       <c r="G1962" t="s">
-        <v>1349</v>
+        <v>1350</v>
       </c>
       <c r="H1962" t="s">
         <v>9</v>
@@ -55856,7 +55862,7 @@
         <v>25.8500003814697</v>
       </c>
       <c r="G1963" t="s">
-        <v>1345</v>
+        <v>1346</v>
       </c>
       <c r="H1963" t="s">
         <v>9</v>
@@ -55882,7 +55888,7 @@
         <v>26.5</v>
       </c>
       <c r="G1964" t="s">
-        <v>1350</v>
+        <v>1351</v>
       </c>
       <c r="H1964" t="s">
         <v>9</v>
@@ -55908,7 +55914,7 @@
         <v>27</v>
       </c>
       <c r="G1965" t="s">
-        <v>1351</v>
+        <v>1352</v>
       </c>
       <c r="H1965" t="s">
         <v>9</v>
@@ -55934,7 +55940,7 @@
         <v>26.4500007629395</v>
       </c>
       <c r="G1966" t="s">
-        <v>1352</v>
+        <v>1353</v>
       </c>
       <c r="H1966" t="s">
         <v>9</v>
@@ -55960,7 +55966,7 @@
         <v>25.9500007629395</v>
       </c>
       <c r="G1967" t="s">
-        <v>1353</v>
+        <v>1354</v>
       </c>
       <c r="H1967" t="s">
         <v>9</v>
@@ -55986,7 +55992,7 @@
         <v>25.4500007629395</v>
       </c>
       <c r="G1968" t="s">
-        <v>1354</v>
+        <v>1355</v>
       </c>
       <c r="H1968" t="s">
         <v>9</v>
@@ -56012,7 +56018,7 @@
         <v>24.7000007629395</v>
       </c>
       <c r="G1969" t="s">
-        <v>1355</v>
+        <v>1356</v>
       </c>
       <c r="H1969" t="s">
         <v>9</v>
@@ -56038,7 +56044,7 @@
         <v>24.9500007629395</v>
       </c>
       <c r="G1970" t="s">
-        <v>1336</v>
+        <v>1337</v>
       </c>
       <c r="H1970" t="s">
         <v>9</v>
@@ -56064,7 +56070,7 @@
         <v>24.8999996185303</v>
       </c>
       <c r="G1971" t="s">
-        <v>1356</v>
+        <v>1357</v>
       </c>
       <c r="H1971" t="s">
         <v>9</v>
@@ -56090,7 +56096,7 @@
         <v>25.0499992370605</v>
       </c>
       <c r="G1972" t="s">
-        <v>1342</v>
+        <v>1343</v>
       </c>
       <c r="H1972" t="s">
         <v>9</v>
@@ -56116,7 +56122,7 @@
         <v>24.9500007629395</v>
       </c>
       <c r="G1973" t="s">
-        <v>1336</v>
+        <v>1337</v>
       </c>
       <c r="H1973" t="s">
         <v>9</v>
@@ -56142,7 +56148,7 @@
         <v>24.7000007629395</v>
       </c>
       <c r="G1974" t="s">
-        <v>1355</v>
+        <v>1356</v>
       </c>
       <c r="H1974" t="s">
         <v>9</v>
@@ -56168,7 +56174,7 @@
         <v>24.25</v>
       </c>
       <c r="G1975" t="s">
-        <v>1357</v>
+        <v>1358</v>
       </c>
       <c r="H1975" t="s">
         <v>9</v>
@@ -56194,7 +56200,7 @@
         <v>24.5499992370605</v>
       </c>
       <c r="G1976" t="s">
-        <v>1340</v>
+        <v>1341</v>
       </c>
       <c r="H1976" t="s">
         <v>9</v>
@@ -56220,7 +56226,7 @@
         <v>25.0499992370605</v>
       </c>
       <c r="G1977" t="s">
-        <v>1342</v>
+        <v>1343</v>
       </c>
       <c r="H1977" t="s">
         <v>9</v>
@@ -56246,7 +56252,7 @@
         <v>24.6499996185303</v>
       </c>
       <c r="G1978" t="s">
-        <v>1358</v>
+        <v>1359</v>
       </c>
       <c r="H1978" t="s">
         <v>9</v>
@@ -56272,7 +56278,7 @@
         <v>24.2999992370605</v>
       </c>
       <c r="G1979" t="s">
-        <v>1359</v>
+        <v>1360</v>
       </c>
       <c r="H1979" t="s">
         <v>9</v>
@@ -56298,7 +56304,7 @@
         <v>25.5</v>
       </c>
       <c r="G1980" t="s">
-        <v>1360</v>
+        <v>1361</v>
       </c>
       <c r="H1980" t="s">
         <v>9</v>
@@ -56324,7 +56330,7 @@
         <v>25.3500003814697</v>
       </c>
       <c r="G1981" t="s">
-        <v>1347</v>
+        <v>1348</v>
       </c>
       <c r="H1981" t="s">
         <v>9</v>
@@ -56350,7 +56356,7 @@
         <v>25.0499992370605</v>
       </c>
       <c r="G1982" t="s">
-        <v>1342</v>
+        <v>1343</v>
       </c>
       <c r="H1982" t="s">
         <v>9</v>
@@ -56376,7 +56382,7 @@
         <v>24.6499996185303</v>
       </c>
       <c r="G1983" t="s">
-        <v>1358</v>
+        <v>1359</v>
       </c>
       <c r="H1983" t="s">
         <v>9</v>
@@ -56402,7 +56408,7 @@
         <v>25.0499992370605</v>
       </c>
       <c r="G1984" t="s">
-        <v>1342</v>
+        <v>1343</v>
       </c>
       <c r="H1984" t="s">
         <v>9</v>
@@ -56428,7 +56434,7 @@
         <v>25.25</v>
       </c>
       <c r="G1985" t="s">
-        <v>1361</v>
+        <v>1362</v>
       </c>
       <c r="H1985" t="s">
         <v>9</v>
@@ -56454,7 +56460,7 @@
         <v>25.5</v>
       </c>
       <c r="G1986" t="s">
-        <v>1360</v>
+        <v>1361</v>
       </c>
       <c r="H1986" t="s">
         <v>9</v>
@@ -56480,7 +56486,7 @@
         <v>25.3500003814697</v>
       </c>
       <c r="G1987" t="s">
-        <v>1347</v>
+        <v>1348</v>
       </c>
       <c r="H1987" t="s">
         <v>9</v>
@@ -56506,7 +56512,7 @@
         <v>25.3500003814697</v>
       </c>
       <c r="G1988" t="s">
-        <v>1347</v>
+        <v>1348</v>
       </c>
       <c r="H1988" t="s">
         <v>9</v>
@@ -56532,7 +56538,7 @@
         <v>26.0499992370605</v>
       </c>
       <c r="G1989" t="s">
-        <v>1344</v>
+        <v>1345</v>
       </c>
       <c r="H1989" t="s">
         <v>9</v>
@@ -56558,7 +56564,7 @@
         <v>26</v>
       </c>
       <c r="G1990" t="s">
-        <v>1362</v>
+        <v>1363</v>
       </c>
       <c r="H1990" t="s">
         <v>9</v>
@@ -56584,7 +56590,7 @@
         <v>26</v>
       </c>
       <c r="G1991" t="s">
-        <v>1362</v>
+        <v>1363</v>
       </c>
       <c r="H1991" t="s">
         <v>9</v>
@@ -56610,7 +56616,7 @@
         <v>26.7000007629395</v>
       </c>
       <c r="G1992" t="s">
-        <v>1363</v>
+        <v>1364</v>
       </c>
       <c r="H1992" t="s">
         <v>9</v>
@@ -56636,7 +56642,7 @@
         <v>26.4500007629395</v>
       </c>
       <c r="G1993" t="s">
-        <v>1352</v>
+        <v>1353</v>
       </c>
       <c r="H1993" t="s">
         <v>9</v>
@@ -56662,7 +56668,7 @@
         <v>26.6499996185303</v>
       </c>
       <c r="G1994" t="s">
-        <v>1364</v>
+        <v>1365</v>
       </c>
       <c r="H1994" t="s">
         <v>9</v>
@@ -56688,7 +56694,7 @@
         <v>26.6000003814697</v>
       </c>
       <c r="G1995" t="s">
-        <v>1365</v>
+        <v>1366</v>
       </c>
       <c r="H1995" t="s">
         <v>9</v>
@@ -56714,7 +56720,7 @@
         <v>26.5</v>
       </c>
       <c r="G1996" t="s">
-        <v>1350</v>
+        <v>1351</v>
       </c>
       <c r="H1996" t="s">
         <v>9</v>
@@ -56740,7 +56746,7 @@
         <v>27.1000003814697</v>
       </c>
       <c r="G1997" t="s">
-        <v>1366</v>
+        <v>1367</v>
       </c>
       <c r="H1997" t="s">
         <v>9</v>
@@ -56766,7 +56772,7 @@
         <v>27.7999992370605</v>
       </c>
       <c r="G1998" t="s">
-        <v>1367</v>
+        <v>1368</v>
       </c>
       <c r="H1998" t="s">
         <v>9</v>
@@ -56792,7 +56798,7 @@
         <v>27.7999992370605</v>
       </c>
       <c r="G1999" t="s">
-        <v>1367</v>
+        <v>1368</v>
       </c>
       <c r="H1999" t="s">
         <v>9</v>
@@ -56818,7 +56824,7 @@
         <v>27.3999996185303</v>
       </c>
       <c r="G2000" t="s">
-        <v>1368</v>
+        <v>1369</v>
       </c>
       <c r="H2000" t="s">
         <v>9</v>
@@ -56844,7 +56850,7 @@
         <v>27.6499996185303</v>
       </c>
       <c r="G2001" t="s">
-        <v>1369</v>
+        <v>1370</v>
       </c>
       <c r="H2001" t="s">
         <v>9</v>
@@ -56870,7 +56876,7 @@
         <v>28.75</v>
       </c>
       <c r="G2002" t="s">
-        <v>1370</v>
+        <v>1371</v>
       </c>
       <c r="H2002" t="s">
         <v>9</v>
@@ -56896,7 +56902,7 @@
         <v>28.75</v>
       </c>
       <c r="G2003" t="s">
-        <v>1370</v>
+        <v>1371</v>
       </c>
       <c r="H2003" t="s">
         <v>9</v>
@@ -56922,7 +56928,7 @@
         <v>28.9500007629395</v>
       </c>
       <c r="G2004" t="s">
-        <v>1371</v>
+        <v>1372</v>
       </c>
       <c r="H2004" t="s">
         <v>9</v>
@@ -56948,7 +56954,7 @@
         <v>29.8999996185303</v>
       </c>
       <c r="G2005" t="s">
-        <v>1372</v>
+        <v>1373</v>
       </c>
       <c r="H2005" t="s">
         <v>9</v>
@@ -56974,7 +56980,7 @@
         <v>28.7999992370605</v>
       </c>
       <c r="G2006" t="s">
-        <v>1373</v>
+        <v>1374</v>
       </c>
       <c r="H2006" t="s">
         <v>9</v>
@@ -57000,7 +57006,7 @@
         <v>29.9500007629395</v>
       </c>
       <c r="G2007" t="s">
-        <v>1374</v>
+        <v>1375</v>
       </c>
       <c r="H2007" t="s">
         <v>9</v>
@@ -57026,7 +57032,7 @@
         <v>29.6000003814697</v>
       </c>
       <c r="G2008" t="s">
-        <v>1375</v>
+        <v>1376</v>
       </c>
       <c r="H2008" t="s">
         <v>9</v>
@@ -57052,7 +57058,7 @@
         <v>27.75</v>
       </c>
       <c r="G2009" t="s">
-        <v>1376</v>
+        <v>1377</v>
       </c>
       <c r="H2009" t="s">
         <v>9</v>
@@ -57078,7 +57084,7 @@
         <v>28</v>
       </c>
       <c r="G2010" t="s">
-        <v>1377</v>
+        <v>1378</v>
       </c>
       <c r="H2010" t="s">
         <v>9</v>
@@ -57104,7 +57110,7 @@
         <v>28</v>
       </c>
       <c r="G2011" t="s">
-        <v>1377</v>
+        <v>1378</v>
       </c>
       <c r="H2011" t="s">
         <v>9</v>
@@ -57130,7 +57136,7 @@
         <v>27.7999992370605</v>
       </c>
       <c r="G2012" t="s">
-        <v>1367</v>
+        <v>1368</v>
       </c>
       <c r="H2012" t="s">
         <v>9</v>
@@ -57156,7 +57162,7 @@
         <v>28</v>
       </c>
       <c r="G2013" t="s">
-        <v>1377</v>
+        <v>1378</v>
       </c>
       <c r="H2013" t="s">
         <v>9</v>
@@ -57182,7 +57188,7 @@
         <v>27.8999996185303</v>
       </c>
       <c r="G2014" t="s">
-        <v>1378</v>
+        <v>1379</v>
       </c>
       <c r="H2014" t="s">
         <v>9</v>
@@ -57208,7 +57214,7 @@
         <v>28.1000003814697</v>
       </c>
       <c r="G2015" t="s">
-        <v>1379</v>
+        <v>1380</v>
       </c>
       <c r="H2015" t="s">
         <v>9</v>
@@ -57234,7 +57240,7 @@
         <v>27.9500007629395</v>
       </c>
       <c r="G2016" t="s">
-        <v>1380</v>
+        <v>1381</v>
       </c>
       <c r="H2016" t="s">
         <v>9</v>
@@ -57260,7 +57266,7 @@
         <v>28.2000007629395</v>
       </c>
       <c r="G2017" t="s">
-        <v>1381</v>
+        <v>1382</v>
       </c>
       <c r="H2017" t="s">
         <v>9</v>
@@ -57286,7 +57292,7 @@
         <v>28.25</v>
       </c>
       <c r="G2018" t="s">
-        <v>1331</v>
+        <v>1332</v>
       </c>
       <c r="H2018" t="s">
         <v>9</v>
@@ -57312,7 +57318,7 @@
         <v>28.3500003814697</v>
       </c>
       <c r="G2019" t="s">
-        <v>1382</v>
+        <v>1383</v>
       </c>
       <c r="H2019" t="s">
         <v>9</v>
@@ -57338,7 +57344,7 @@
         <v>28.3500003814697</v>
       </c>
       <c r="G2020" t="s">
-        <v>1382</v>
+        <v>1383</v>
       </c>
       <c r="H2020" t="s">
         <v>9</v>
@@ -57364,7 +57370,7 @@
         <v>29.5499992370605</v>
       </c>
       <c r="G2021" t="s">
-        <v>1383</v>
+        <v>1384</v>
       </c>
       <c r="H2021" t="s">
         <v>9</v>
@@ -57390,7 +57396,7 @@
         <v>29.3999996185303</v>
       </c>
       <c r="G2022" t="s">
-        <v>1384</v>
+        <v>1385</v>
       </c>
       <c r="H2022" t="s">
         <v>9</v>
@@ -57416,7 +57422,7 @@
         <v>29.6000003814697</v>
       </c>
       <c r="G2023" t="s">
-        <v>1375</v>
+        <v>1376</v>
       </c>
       <c r="H2023" t="s">
         <v>9</v>
@@ -57442,7 +57448,7 @@
         <v>29.7999992370605</v>
       </c>
       <c r="G2024" t="s">
-        <v>1311</v>
+        <v>1312</v>
       </c>
       <c r="H2024" t="s">
         <v>9</v>
@@ -57468,7 +57474,7 @@
         <v>30</v>
       </c>
       <c r="G2025" t="s">
-        <v>1312</v>
+        <v>1313</v>
       </c>
       <c r="H2025" t="s">
         <v>9</v>
@@ -57494,7 +57500,7 @@
         <v>29.8999996185303</v>
       </c>
       <c r="G2026" t="s">
-        <v>1372</v>
+        <v>1373</v>
       </c>
       <c r="H2026" t="s">
         <v>9</v>
@@ -57520,7 +57526,7 @@
         <v>30.75</v>
       </c>
       <c r="G2027" t="s">
-        <v>1385</v>
+        <v>1386</v>
       </c>
       <c r="H2027" t="s">
         <v>9</v>
@@ -57546,7 +57552,7 @@
         <v>30.9500007629395</v>
       </c>
       <c r="G2028" t="s">
-        <v>1329</v>
+        <v>1330</v>
       </c>
       <c r="H2028" t="s">
         <v>9</v>
@@ -57572,7 +57578,7 @@
         <v>31.75</v>
       </c>
       <c r="G2029" t="s">
-        <v>1386</v>
+        <v>1387</v>
       </c>
       <c r="H2029" t="s">
         <v>9</v>
@@ -57598,7 +57604,7 @@
         <v>32.9000015258789</v>
       </c>
       <c r="G2030" t="s">
-        <v>1387</v>
+        <v>1388</v>
       </c>
       <c r="H2030" t="s">
         <v>9</v>
@@ -57624,7 +57630,7 @@
         <v>31.8999996185303</v>
       </c>
       <c r="G2031" t="s">
-        <v>1326</v>
+        <v>1327</v>
       </c>
       <c r="H2031" t="s">
         <v>9</v>
@@ -57650,7 +57656,7 @@
         <v>31.6499996185303</v>
       </c>
       <c r="G2032" t="s">
-        <v>1388</v>
+        <v>1389</v>
       </c>
       <c r="H2032" t="s">
         <v>9</v>
@@ -57676,7 +57682,7 @@
         <v>32.2999992370605</v>
       </c>
       <c r="G2033" t="s">
-        <v>1389</v>
+        <v>1390</v>
       </c>
       <c r="H2033" t="s">
         <v>9</v>
@@ -57702,7 +57708,7 @@
         <v>32.5999984741211</v>
       </c>
       <c r="G2034" t="s">
-        <v>1390</v>
+        <v>1391</v>
       </c>
       <c r="H2034" t="s">
         <v>9</v>
@@ -57728,7 +57734,7 @@
         <v>31.6499996185303</v>
       </c>
       <c r="G2035" t="s">
-        <v>1388</v>
+        <v>1389</v>
       </c>
       <c r="H2035" t="s">
         <v>9</v>
@@ -57754,7 +57760,7 @@
         <v>31.8999996185303</v>
       </c>
       <c r="G2036" t="s">
-        <v>1326</v>
+        <v>1327</v>
       </c>
       <c r="H2036" t="s">
         <v>9</v>
@@ -57780,7 +57786,7 @@
         <v>31.2999992370605</v>
       </c>
       <c r="G2037" t="s">
-        <v>1318</v>
+        <v>1319</v>
       </c>
       <c r="H2037" t="s">
         <v>9</v>
@@ -57806,7 +57812,7 @@
         <v>30.7000007629395</v>
       </c>
       <c r="G2038" t="s">
-        <v>1391</v>
+        <v>1392</v>
       </c>
       <c r="H2038" t="s">
         <v>9</v>
@@ -57832,7 +57838,7 @@
         <v>31.1499996185303</v>
       </c>
       <c r="G2039" t="s">
-        <v>1392</v>
+        <v>1393</v>
       </c>
       <c r="H2039" t="s">
         <v>9</v>
@@ -57858,7 +57864,7 @@
         <v>30.8999996185303</v>
       </c>
       <c r="G2040" t="s">
-        <v>1315</v>
+        <v>1316</v>
       </c>
       <c r="H2040" t="s">
         <v>9</v>
@@ -57884,7 +57890,7 @@
         <v>31.6000003814697</v>
       </c>
       <c r="G2041" t="s">
-        <v>1322</v>
+        <v>1323</v>
       </c>
       <c r="H2041" t="s">
         <v>9</v>
@@ -57910,7 +57916,7 @@
         <v>31.7999992370605</v>
       </c>
       <c r="G2042" t="s">
-        <v>1393</v>
+        <v>1394</v>
       </c>
       <c r="H2042" t="s">
         <v>9</v>
@@ -57936,7 +57942,7 @@
         <v>31.7000007629395</v>
       </c>
       <c r="G2043" t="s">
-        <v>1320</v>
+        <v>1321</v>
       </c>
       <c r="H2043" t="s">
         <v>9</v>
@@ -57962,7 +57968,7 @@
         <v>31.5499992370605</v>
       </c>
       <c r="G2044" t="s">
-        <v>1394</v>
+        <v>1395</v>
       </c>
       <c r="H2044" t="s">
         <v>9</v>
@@ -57988,7 +57994,7 @@
         <v>32.0999984741211</v>
       </c>
       <c r="G2045" t="s">
-        <v>1395</v>
+        <v>1396</v>
       </c>
       <c r="H2045" t="s">
         <v>9</v>
@@ -58014,7 +58020,7 @@
         <v>31.9500007629395</v>
       </c>
       <c r="G2046" t="s">
-        <v>1396</v>
+        <v>1397</v>
       </c>
       <c r="H2046" t="s">
         <v>9</v>
@@ -58040,7 +58046,7 @@
         <v>31.5499992370605</v>
       </c>
       <c r="G2047" t="s">
-        <v>1394</v>
+        <v>1395</v>
       </c>
       <c r="H2047" t="s">
         <v>9</v>
@@ -58066,7 +58072,7 @@
         <v>31.6000003814697</v>
       </c>
       <c r="G2048" t="s">
-        <v>1322</v>
+        <v>1323</v>
       </c>
       <c r="H2048" t="s">
         <v>9</v>
@@ -58092,7 +58098,7 @@
         <v>31.7000007629395</v>
       </c>
       <c r="G2049" t="s">
-        <v>1320</v>
+        <v>1321</v>
       </c>
       <c r="H2049" t="s">
         <v>9</v>
@@ -58118,7 +58124,7 @@
         <v>31.5</v>
       </c>
       <c r="G2050" t="s">
-        <v>1319</v>
+        <v>1320</v>
       </c>
       <c r="H2050" t="s">
         <v>9</v>
@@ -58144,7 +58150,7 @@
         <v>31.3999996185303</v>
       </c>
       <c r="G2051" t="s">
-        <v>1397</v>
+        <v>1398</v>
       </c>
       <c r="H2051" t="s">
         <v>9</v>
@@ -58170,7 +58176,7 @@
         <v>31.7999992370605</v>
       </c>
       <c r="G2052" t="s">
-        <v>1393</v>
+        <v>1394</v>
       </c>
       <c r="H2052" t="s">
         <v>9</v>
@@ -58196,7 +58202,7 @@
         <v>32.2999992370605</v>
       </c>
       <c r="G2053" t="s">
-        <v>1389</v>
+        <v>1390</v>
       </c>
       <c r="H2053" t="s">
         <v>9</v>
@@ -58222,7 +58228,7 @@
         <v>32</v>
       </c>
       <c r="G2054" t="s">
-        <v>1325</v>
+        <v>1326</v>
       </c>
       <c r="H2054" t="s">
         <v>9</v>
@@ -58248,7 +58254,7 @@
         <v>32</v>
       </c>
       <c r="G2055" t="s">
-        <v>1325</v>
+        <v>1326</v>
       </c>
       <c r="H2055" t="s">
         <v>9</v>
@@ -58274,7 +58280,7 @@
         <v>32.25</v>
       </c>
       <c r="G2056" t="s">
-        <v>1323</v>
+        <v>1324</v>
       </c>
       <c r="H2056" t="s">
         <v>9</v>
@@ -58300,7 +58306,7 @@
         <v>32.9500007629395</v>
       </c>
       <c r="G2057" t="s">
-        <v>1324</v>
+        <v>1325</v>
       </c>
       <c r="H2057" t="s">
         <v>9</v>
@@ -58326,7 +58332,7 @@
         <v>31.8999996185303</v>
       </c>
       <c r="G2058" t="s">
-        <v>1326</v>
+        <v>1327</v>
       </c>
       <c r="H2058" t="s">
         <v>9</v>
@@ -58352,7 +58358,7 @@
         <v>31.8500003814697</v>
       </c>
       <c r="G2059" t="s">
-        <v>1398</v>
+        <v>1399</v>
       </c>
       <c r="H2059" t="s">
         <v>9</v>
@@ -58378,7 +58384,7 @@
         <v>32.4000015258789</v>
       </c>
       <c r="G2060" t="s">
-        <v>1399</v>
+        <v>1400</v>
       </c>
       <c r="H2060" t="s">
         <v>9</v>
@@ -58404,7 +58410,7 @@
         <v>32.5499992370605</v>
       </c>
       <c r="G2061" t="s">
-        <v>1327</v>
+        <v>1328</v>
       </c>
       <c r="H2061" t="s">
         <v>9</v>
@@ -58430,7 +58436,7 @@
         <v>32.4500007629395</v>
       </c>
       <c r="G2062" t="s">
-        <v>1400</v>
+        <v>1401</v>
       </c>
       <c r="H2062" t="s">
         <v>9</v>
@@ -58456,7 +58462,7 @@
         <v>32.2000007629395</v>
       </c>
       <c r="G2063" t="s">
-        <v>1401</v>
+        <v>1402</v>
       </c>
       <c r="H2063" t="s">
         <v>9</v>
@@ -58482,7 +58488,7 @@
         <v>31.1000003814697</v>
       </c>
       <c r="G2064" t="s">
-        <v>1402</v>
+        <v>1403</v>
       </c>
       <c r="H2064" t="s">
         <v>9</v>
@@ -58508,7 +58514,7 @@
         <v>30.8500003814697</v>
       </c>
       <c r="G2065" t="s">
-        <v>1403</v>
+        <v>1404</v>
       </c>
       <c r="H2065" t="s">
         <v>9</v>
@@ -58534,7 +58540,7 @@
         <v>31.4500007629395</v>
       </c>
       <c r="G2066" t="s">
-        <v>1404</v>
+        <v>1405</v>
       </c>
       <c r="H2066" t="s">
         <v>9</v>
@@ -58560,7 +58566,7 @@
         <v>30.5499992370605</v>
       </c>
       <c r="G2067" t="s">
-        <v>1405</v>
+        <v>1406</v>
       </c>
       <c r="H2067" t="s">
         <v>9</v>
@@ -58586,7 +58592,7 @@
         <v>30.7999992370605</v>
       </c>
       <c r="G2068" t="s">
-        <v>1406</v>
+        <v>1407</v>
       </c>
       <c r="H2068" t="s">
         <v>9</v>
@@ -58612,7 +58618,7 @@
         <v>30.7000007629395</v>
       </c>
       <c r="G2069" t="s">
-        <v>1391</v>
+        <v>1392</v>
       </c>
       <c r="H2069" t="s">
         <v>9</v>
@@ -58638,7 +58644,7 @@
         <v>31.75</v>
       </c>
       <c r="G2070" t="s">
-        <v>1386</v>
+        <v>1387</v>
       </c>
       <c r="H2070" t="s">
         <v>9</v>
@@ -58664,7 +58670,7 @@
         <v>31.3500003814697</v>
       </c>
       <c r="G2071" t="s">
-        <v>1321</v>
+        <v>1322</v>
       </c>
       <c r="H2071" t="s">
         <v>9</v>
@@ -58690,7 +58696,7 @@
         <v>30.8999996185303</v>
       </c>
       <c r="G2072" t="s">
-        <v>1315</v>
+        <v>1316</v>
       </c>
       <c r="H2072" t="s">
         <v>9</v>
@@ -58716,7 +58722,7 @@
         <v>31.5499992370605</v>
       </c>
       <c r="G2073" t="s">
-        <v>1394</v>
+        <v>1395</v>
       </c>
       <c r="H2073" t="s">
         <v>9</v>
@@ -58742,7 +58748,7 @@
         <v>31.7999992370605</v>
       </c>
       <c r="G2074" t="s">
-        <v>1393</v>
+        <v>1394</v>
       </c>
       <c r="H2074" t="s">
         <v>9</v>
@@ -58768,7 +58774,7 @@
         <v>31.6499996185303</v>
       </c>
       <c r="G2075" t="s">
-        <v>1388</v>
+        <v>1389</v>
       </c>
       <c r="H2075" t="s">
         <v>9</v>
@@ -58794,7 +58800,7 @@
         <v>32.4500007629395</v>
       </c>
       <c r="G2076" t="s">
-        <v>1400</v>
+        <v>1401</v>
       </c>
       <c r="H2076" t="s">
         <v>9</v>
@@ -58820,7 +58826,7 @@
         <v>33.75</v>
       </c>
       <c r="G2077" t="s">
-        <v>1407</v>
+        <v>1408</v>
       </c>
       <c r="H2077" t="s">
         <v>9</v>
@@ -58846,7 +58852,7 @@
         <v>34.9000015258789</v>
       </c>
       <c r="G2078" t="s">
-        <v>1408</v>
+        <v>1409</v>
       </c>
       <c r="H2078" t="s">
         <v>9</v>
@@ -58872,7 +58878,7 @@
         <v>34.0499992370605</v>
       </c>
       <c r="G2079" t="s">
-        <v>1409</v>
+        <v>1410</v>
       </c>
       <c r="H2079" t="s">
         <v>9</v>
@@ -58898,7 +58904,7 @@
         <v>34</v>
       </c>
       <c r="G2080" t="s">
-        <v>1410</v>
+        <v>1411</v>
       </c>
       <c r="H2080" t="s">
         <v>9</v>
@@ -58924,7 +58930,7 @@
         <v>34.3499984741211</v>
       </c>
       <c r="G2081" t="s">
-        <v>1411</v>
+        <v>1412</v>
       </c>
       <c r="H2081" t="s">
         <v>9</v>
@@ -58950,7 +58956,7 @@
         <v>33.4500007629395</v>
       </c>
       <c r="G2082" t="s">
-        <v>1412</v>
+        <v>1413</v>
       </c>
       <c r="H2082" t="s">
         <v>9</v>
@@ -58976,7 +58982,7 @@
         <v>33.2999992370605</v>
       </c>
       <c r="G2083" t="s">
-        <v>1413</v>
+        <v>1414</v>
       </c>
       <c r="H2083" t="s">
         <v>9</v>
@@ -59002,7 +59008,7 @@
         <v>33.5</v>
       </c>
       <c r="G2084" t="s">
-        <v>1414</v>
+        <v>1415</v>
       </c>
       <c r="H2084" t="s">
         <v>9</v>
@@ -59028,7 +59034,7 @@
         <v>33.5</v>
       </c>
       <c r="G2085" t="s">
-        <v>1414</v>
+        <v>1415</v>
       </c>
       <c r="H2085" t="s">
         <v>9</v>
@@ -59054,7 +59060,7 @@
         <v>32.7999992370605</v>
       </c>
       <c r="G2086" t="s">
-        <v>1415</v>
+        <v>1416</v>
       </c>
       <c r="H2086" t="s">
         <v>9</v>
@@ -59080,7 +59086,7 @@
         <v>33.0999984741211</v>
       </c>
       <c r="G2087" t="s">
-        <v>1416</v>
+        <v>1417</v>
       </c>
       <c r="H2087" t="s">
         <v>9</v>
@@ -59106,7 +59112,7 @@
         <v>32.75</v>
       </c>
       <c r="G2088" t="s">
-        <v>1417</v>
+        <v>1418</v>
       </c>
       <c r="H2088" t="s">
         <v>9</v>
@@ -59132,7 +59138,7 @@
         <v>33</v>
       </c>
       <c r="G2089" t="s">
-        <v>1418</v>
+        <v>1419</v>
       </c>
       <c r="H2089" t="s">
         <v>9</v>
@@ -59158,7 +59164,7 @@
         <v>34</v>
       </c>
       <c r="G2090" t="s">
-        <v>1410</v>
+        <v>1411</v>
       </c>
       <c r="H2090" t="s">
         <v>9</v>
@@ -59184,7 +59190,7 @@
         <v>34.7000007629395</v>
       </c>
       <c r="G2091" t="s">
-        <v>1419</v>
+        <v>1420</v>
       </c>
       <c r="H2091" t="s">
         <v>9</v>
@@ -59210,7 +59216,7 @@
         <v>36.4500007629395</v>
       </c>
       <c r="G2092" t="s">
-        <v>1420</v>
+        <v>1421</v>
       </c>
       <c r="H2092" t="s">
         <v>9</v>
@@ -59236,7 +59242,7 @@
         <v>37.1500015258789</v>
       </c>
       <c r="G2093" t="s">
-        <v>1421</v>
+        <v>1422</v>
       </c>
       <c r="H2093" t="s">
         <v>9</v>
@@ -59262,7 +59268,7 @@
         <v>36.7000007629395</v>
       </c>
       <c r="G2094" t="s">
-        <v>1422</v>
+        <v>1423</v>
       </c>
       <c r="H2094" t="s">
         <v>9</v>
@@ -59288,7 +59294,7 @@
         <v>37.4000015258789</v>
       </c>
       <c r="G2095" t="s">
-        <v>1423</v>
+        <v>1424</v>
       </c>
       <c r="H2095" t="s">
         <v>9</v>
@@ -59314,7 +59320,7 @@
         <v>37</v>
       </c>
       <c r="G2096" t="s">
-        <v>1424</v>
+        <v>1425</v>
       </c>
       <c r="H2096" t="s">
         <v>9</v>
@@ -59340,7 +59346,7 @@
         <v>36.5999984741211</v>
       </c>
       <c r="G2097" t="s">
-        <v>1425</v>
+        <v>1426</v>
       </c>
       <c r="H2097" t="s">
         <v>9</v>
@@ -59366,7 +59372,7 @@
         <v>37.25</v>
       </c>
       <c r="G2098" t="s">
-        <v>1426</v>
+        <v>1427</v>
       </c>
       <c r="H2098" t="s">
         <v>9</v>
@@ -59392,7 +59398,7 @@
         <v>37.4500007629395</v>
       </c>
       <c r="G2099" t="s">
-        <v>1427</v>
+        <v>1428</v>
       </c>
       <c r="H2099" t="s">
         <v>9</v>
@@ -59418,7 +59424,7 @@
         <v>36.5999984741211</v>
       </c>
       <c r="G2100" t="s">
-        <v>1425</v>
+        <v>1426</v>
       </c>
       <c r="H2100" t="s">
         <v>9</v>
@@ -59444,7 +59450,7 @@
         <v>37.0999984741211</v>
       </c>
       <c r="G2101" t="s">
-        <v>1428</v>
+        <v>1429</v>
       </c>
       <c r="H2101" t="s">
         <v>9</v>
@@ -59470,7 +59476,7 @@
         <v>38.7000007629395</v>
       </c>
       <c r="G2102" t="s">
-        <v>1429</v>
+        <v>1430</v>
       </c>
       <c r="H2102" t="s">
         <v>9</v>
@@ -59496,7 +59502,7 @@
         <v>38.2000007629395</v>
       </c>
       <c r="G2103" t="s">
-        <v>1430</v>
+        <v>1431</v>
       </c>
       <c r="H2103" t="s">
         <v>9</v>
@@ -59522,7 +59528,7 @@
         <v>38.0999984741211</v>
       </c>
       <c r="G2104" t="s">
-        <v>1431</v>
+        <v>1432</v>
       </c>
       <c r="H2104" t="s">
         <v>9</v>
@@ -59548,7 +59554,7 @@
         <v>36.0499992370605</v>
       </c>
       <c r="G2105" t="s">
-        <v>1432</v>
+        <v>1433</v>
       </c>
       <c r="H2105" t="s">
         <v>9</v>
@@ -59574,7 +59580,7 @@
         <v>36.3499984741211</v>
       </c>
       <c r="G2106" t="s">
-        <v>1433</v>
+        <v>1434</v>
       </c>
       <c r="H2106" t="s">
         <v>9</v>
@@ -59600,7 +59606,7 @@
         <v>35</v>
       </c>
       <c r="G2107" t="s">
-        <v>1434</v>
+        <v>1435</v>
       </c>
       <c r="H2107" t="s">
         <v>9</v>
@@ -59626,7 +59632,7 @@
         <v>35.3499984741211</v>
       </c>
       <c r="G2108" t="s">
-        <v>1435</v>
+        <v>1436</v>
       </c>
       <c r="H2108" t="s">
         <v>9</v>
@@ -59652,7 +59658,7 @@
         <v>35.6500015258789</v>
       </c>
       <c r="G2109" t="s">
-        <v>1436</v>
+        <v>1437</v>
       </c>
       <c r="H2109" t="s">
         <v>9</v>
@@ -59678,7 +59684,7 @@
         <v>34.4500007629395</v>
       </c>
       <c r="G2110" t="s">
-        <v>1437</v>
+        <v>1438</v>
       </c>
       <c r="H2110" t="s">
         <v>9</v>
@@ -59704,7 +59710,7 @@
         <v>35.25</v>
       </c>
       <c r="G2111" t="s">
-        <v>1438</v>
+        <v>1439</v>
       </c>
       <c r="H2111" t="s">
         <v>9</v>
@@ -59730,7 +59736,7 @@
         <v>33.9000015258789</v>
       </c>
       <c r="G2112" t="s">
-        <v>1439</v>
+        <v>1440</v>
       </c>
       <c r="H2112" t="s">
         <v>9</v>
@@ -59756,7 +59762,7 @@
         <v>34.4000015258789</v>
       </c>
       <c r="G2113" t="s">
-        <v>1440</v>
+        <v>1441</v>
       </c>
       <c r="H2113" t="s">
         <v>9</v>
@@ -59782,7 +59788,7 @@
         <v>34.8499984741211</v>
       </c>
       <c r="G2114" t="s">
-        <v>1441</v>
+        <v>1442</v>
       </c>
       <c r="H2114" t="s">
         <v>9</v>
@@ -59808,7 +59814,7 @@
         <v>35.2999992370605</v>
       </c>
       <c r="G2115" t="s">
-        <v>1442</v>
+        <v>1443</v>
       </c>
       <c r="H2115" t="s">
         <v>9</v>
@@ -59834,7 +59840,7 @@
         <v>34.75</v>
       </c>
       <c r="G2116" t="s">
-        <v>1443</v>
+        <v>1444</v>
       </c>
       <c r="H2116" t="s">
         <v>9</v>
@@ -59860,7 +59866,7 @@
         <v>34.25</v>
       </c>
       <c r="G2117" t="s">
-        <v>1444</v>
+        <v>1445</v>
       </c>
       <c r="H2117" t="s">
         <v>9</v>
@@ -59886,7 +59892,7 @@
         <v>35.0999984741211</v>
       </c>
       <c r="G2118" t="s">
-        <v>1445</v>
+        <v>1446</v>
       </c>
       <c r="H2118" t="s">
         <v>9</v>
@@ -59912,7 +59918,7 @@
         <v>35.2999992370605</v>
       </c>
       <c r="G2119" t="s">
-        <v>1442</v>
+        <v>1443</v>
       </c>
       <c r="H2119" t="s">
         <v>9</v>
@@ -59938,7 +59944,7 @@
         <v>35.1500015258789</v>
       </c>
       <c r="G2120" t="s">
-        <v>1446</v>
+        <v>1447</v>
       </c>
       <c r="H2120" t="s">
         <v>9</v>
@@ -59964,7 +59970,7 @@
         <v>34.9500007629395</v>
       </c>
       <c r="G2121" t="s">
-        <v>1447</v>
+        <v>1448</v>
       </c>
       <c r="H2121" t="s">
         <v>9</v>
@@ -59990,7 +59996,7 @@
         <v>34.8499984741211</v>
       </c>
       <c r="G2122" t="s">
-        <v>1441</v>
+        <v>1442</v>
       </c>
       <c r="H2122" t="s">
         <v>9</v>
@@ -60016,7 +60022,7 @@
         <v>34.9000015258789</v>
       </c>
       <c r="G2123" t="s">
-        <v>1408</v>
+        <v>1409</v>
       </c>
       <c r="H2123" t="s">
         <v>9</v>
@@ -60042,7 +60048,7 @@
         <v>35.5999984741211</v>
       </c>
       <c r="G2124" t="s">
-        <v>1448</v>
+        <v>1449</v>
       </c>
       <c r="H2124" t="s">
         <v>9</v>
@@ -60068,7 +60074,7 @@
         <v>36.5499992370605</v>
       </c>
       <c r="G2125" t="s">
-        <v>1449</v>
+        <v>1450</v>
       </c>
       <c r="H2125" t="s">
         <v>9</v>
@@ -60094,7 +60100,7 @@
         <v>37</v>
       </c>
       <c r="G2126" t="s">
-        <v>1424</v>
+        <v>1425</v>
       </c>
       <c r="H2126" t="s">
         <v>9</v>
@@ -60120,7 +60126,7 @@
         <v>36.2999992370605</v>
       </c>
       <c r="G2127" t="s">
-        <v>1450</v>
+        <v>1451</v>
       </c>
       <c r="H2127" t="s">
         <v>9</v>
@@ -60146,7 +60152,7 @@
         <v>36.0999984741211</v>
       </c>
       <c r="G2128" t="s">
-        <v>1451</v>
+        <v>1452</v>
       </c>
       <c r="H2128" t="s">
         <v>9</v>
@@ -60172,7 +60178,7 @@
         <v>36.0999984741211</v>
       </c>
       <c r="G2129" t="s">
-        <v>1451</v>
+        <v>1452</v>
       </c>
       <c r="H2129" t="s">
         <v>9</v>
@@ -60198,7 +60204,7 @@
         <v>37.1500015258789</v>
       </c>
       <c r="G2130" t="s">
-        <v>1421</v>
+        <v>1422</v>
       </c>
       <c r="H2130" t="s">
         <v>9</v>
@@ -60224,7 +60230,7 @@
         <v>37</v>
       </c>
       <c r="G2131" t="s">
-        <v>1424</v>
+        <v>1425</v>
       </c>
       <c r="H2131" t="s">
         <v>9</v>
@@ -60250,7 +60256,7 @@
         <v>37.9500007629395</v>
       </c>
       <c r="G2132" t="s">
-        <v>1452</v>
+        <v>1453</v>
       </c>
       <c r="H2132" t="s">
         <v>9</v>
@@ -60276,7 +60282,7 @@
         <v>38.8499984741211</v>
       </c>
       <c r="G2133" t="s">
-        <v>1453</v>
+        <v>1454</v>
       </c>
       <c r="H2133" t="s">
         <v>9</v>
@@ -60302,7 +60308,7 @@
         <v>38.7999992370605</v>
       </c>
       <c r="G2134" t="s">
-        <v>1454</v>
+        <v>1455</v>
       </c>
       <c r="H2134" t="s">
         <v>9</v>
@@ -60328,7 +60334,7 @@
         <v>36.9500007629395</v>
       </c>
       <c r="G2135" t="s">
-        <v>1455</v>
+        <v>1456</v>
       </c>
       <c r="H2135" t="s">
         <v>9</v>
@@ -60354,7 +60360,7 @@
         <v>37.25</v>
       </c>
       <c r="G2136" t="s">
-        <v>1426</v>
+        <v>1427</v>
       </c>
       <c r="H2136" t="s">
         <v>9</v>
@@ -60380,7 +60386,7 @@
         <v>37.7000007629395</v>
       </c>
       <c r="G2137" t="s">
-        <v>1456</v>
+        <v>1457</v>
       </c>
       <c r="H2137" t="s">
         <v>9</v>
@@ -60406,7 +60412,7 @@
         <v>37.5499992370605</v>
       </c>
       <c r="G2138" t="s">
-        <v>1457</v>
+        <v>1458</v>
       </c>
       <c r="H2138" t="s">
         <v>9</v>
@@ -60432,7 +60438,7 @@
         <v>38.8499984741211</v>
       </c>
       <c r="G2139" t="s">
-        <v>1453</v>
+        <v>1454</v>
       </c>
       <c r="H2139" t="s">
         <v>9</v>
@@ -60458,7 +60464,7 @@
         <v>36.9000015258789</v>
       </c>
       <c r="G2140" t="s">
-        <v>1458</v>
+        <v>1459</v>
       </c>
       <c r="H2140" t="s">
         <v>9</v>
@@ -60484,7 +60490,7 @@
         <v>37.2000007629395</v>
       </c>
       <c r="G2141" t="s">
-        <v>1459</v>
+        <v>1460</v>
       </c>
       <c r="H2141" t="s">
         <v>9</v>
@@ -60510,7 +60516,7 @@
         <v>37.5499992370605</v>
       </c>
       <c r="G2142" t="s">
-        <v>1457</v>
+        <v>1458</v>
       </c>
       <c r="H2142" t="s">
         <v>9</v>
@@ -60536,7 +60542,7 @@
         <v>36.8499984741211</v>
       </c>
       <c r="G2143" t="s">
-        <v>1460</v>
+        <v>1461</v>
       </c>
       <c r="H2143" t="s">
         <v>9</v>
@@ -60562,7 +60568,7 @@
         <v>36.4500007629395</v>
       </c>
       <c r="G2144" t="s">
-        <v>1420</v>
+        <v>1421</v>
       </c>
       <c r="H2144" t="s">
         <v>9</v>
@@ -60588,7 +60594,7 @@
         <v>36.5999984741211</v>
       </c>
       <c r="G2145" t="s">
-        <v>1425</v>
+        <v>1426</v>
       </c>
       <c r="H2145" t="s">
         <v>9</v>
@@ -60614,7 +60620,7 @@
         <v>36.4000015258789</v>
       </c>
       <c r="G2146" t="s">
-        <v>1461</v>
+        <v>1462</v>
       </c>
       <c r="H2146" t="s">
         <v>9</v>
@@ -60640,7 +60646,7 @@
         <v>36.2000007629395</v>
       </c>
       <c r="G2147" t="s">
-        <v>1462</v>
+        <v>1463</v>
       </c>
       <c r="H2147" t="s">
         <v>9</v>
@@ -60666,7 +60672,7 @@
         <v>35</v>
       </c>
       <c r="G2148" t="s">
-        <v>1434</v>
+        <v>1435</v>
       </c>
       <c r="H2148" t="s">
         <v>9</v>
@@ -60692,7 +60698,7 @@
         <v>34.1500015258789</v>
       </c>
       <c r="G2149" t="s">
-        <v>1463</v>
+        <v>1464</v>
       </c>
       <c r="H2149" t="s">
         <v>9</v>
@@ -60718,7 +60724,7 @@
         <v>35.2999992370605</v>
       </c>
       <c r="G2150" t="s">
-        <v>1442</v>
+        <v>1443</v>
       </c>
       <c r="H2150" t="s">
         <v>9</v>
@@ -60744,7 +60750,7 @@
         <v>34.5499992370605</v>
       </c>
       <c r="G2151" t="s">
-        <v>1464</v>
+        <v>1465</v>
       </c>
       <c r="H2151" t="s">
         <v>9</v>
@@ -60770,7 +60776,7 @@
         <v>34.2999992370605</v>
       </c>
       <c r="G2152" t="s">
-        <v>1465</v>
+        <v>1466</v>
       </c>
       <c r="H2152" t="s">
         <v>9</v>
@@ -60796,7 +60802,7 @@
         <v>35.5</v>
       </c>
       <c r="G2153" t="s">
-        <v>1466</v>
+        <v>1467</v>
       </c>
       <c r="H2153" t="s">
         <v>9</v>
@@ -60822,7 +60828,7 @@
         <v>35.4000015258789</v>
       </c>
       <c r="G2154" t="s">
-        <v>1467</v>
+        <v>1468</v>
       </c>
       <c r="H2154" t="s">
         <v>9</v>
@@ -60848,7 +60854,7 @@
         <v>34.0999984741211</v>
       </c>
       <c r="G2155" t="s">
-        <v>1468</v>
+        <v>1469</v>
       </c>
       <c r="H2155" t="s">
         <v>9</v>
@@ -60874,7 +60880,7 @@
         <v>34.5999984741211</v>
       </c>
       <c r="G2156" t="s">
-        <v>1469</v>
+        <v>1470</v>
       </c>
       <c r="H2156" t="s">
         <v>9</v>
@@ -60900,7 +60906,7 @@
         <v>34.4000015258789</v>
       </c>
       <c r="G2157" t="s">
-        <v>1440</v>
+        <v>1441</v>
       </c>
       <c r="H2157" t="s">
         <v>9</v>
@@ -60926,7 +60932,7 @@
         <v>34.5999984741211</v>
       </c>
       <c r="G2158" t="s">
-        <v>1469</v>
+        <v>1470</v>
       </c>
       <c r="H2158" t="s">
         <v>9</v>
@@ -60952,7 +60958,7 @@
         <v>34.4000015258789</v>
       </c>
       <c r="G2159" t="s">
-        <v>1440</v>
+        <v>1441</v>
       </c>
       <c r="H2159" t="s">
         <v>9</v>
@@ -60978,7 +60984,7 @@
         <v>34.3499984741211</v>
       </c>
       <c r="G2160" t="s">
-        <v>1411</v>
+        <v>1412</v>
       </c>
       <c r="H2160" t="s">
         <v>9</v>
@@ -61004,7 +61010,7 @@
         <v>34.3499984741211</v>
       </c>
       <c r="G2161" t="s">
-        <v>1411</v>
+        <v>1412</v>
       </c>
       <c r="H2161" t="s">
         <v>9</v>
@@ -61030,7 +61036,7 @@
         <v>34.0999984741211</v>
       </c>
       <c r="G2162" t="s">
-        <v>1468</v>
+        <v>1469</v>
       </c>
       <c r="H2162" t="s">
         <v>9</v>
@@ -61056,7 +61062,7 @@
         <v>35</v>
       </c>
       <c r="G2163" t="s">
-        <v>1434</v>
+        <v>1435</v>
       </c>
       <c r="H2163" t="s">
         <v>9</v>
@@ -61082,7 +61088,7 @@
         <v>36.5</v>
       </c>
       <c r="G2164" t="s">
-        <v>1470</v>
+        <v>1471</v>
       </c>
       <c r="H2164" t="s">
         <v>9</v>
@@ -61108,7 +61114,7 @@
         <v>37.1500015258789</v>
       </c>
       <c r="G2165" t="s">
-        <v>1421</v>
+        <v>1422</v>
       </c>
       <c r="H2165" t="s">
         <v>9</v>
@@ -61134,7 +61140,7 @@
         <v>37.25</v>
       </c>
       <c r="G2166" t="s">
-        <v>1426</v>
+        <v>1427</v>
       </c>
       <c r="H2166" t="s">
         <v>9</v>
@@ -61160,7 +61166,7 @@
         <v>37.2000007629395</v>
       </c>
       <c r="G2167" t="s">
-        <v>1459</v>
+        <v>1460</v>
       </c>
       <c r="H2167" t="s">
         <v>9</v>
@@ -61186,7 +61192,7 @@
         <v>36.5999984741211</v>
       </c>
       <c r="G2168" t="s">
-        <v>1471</v>
+        <v>1472</v>
       </c>
       <c r="H2168" t="s">
         <v>9</v>
@@ -61212,7 +61218,7 @@
         <v>36</v>
       </c>
       <c r="G2169" t="s">
-        <v>1472</v>
+        <v>1473</v>
       </c>
       <c r="H2169" t="s">
         <v>9</v>
@@ -61238,7 +61244,7 @@
         <v>37.3499984741211</v>
       </c>
       <c r="G2170" t="s">
-        <v>1473</v>
+        <v>1474</v>
       </c>
       <c r="H2170" t="s">
         <v>9</v>
@@ -61264,7 +61270,7 @@
         <v>37.5</v>
       </c>
       <c r="G2171" t="s">
-        <v>1474</v>
+        <v>1475</v>
       </c>
       <c r="H2171" t="s">
         <v>9</v>
@@ -61290,7 +61296,7 @@
         <v>38.5</v>
       </c>
       <c r="G2172" t="s">
-        <v>1475</v>
+        <v>1476</v>
       </c>
       <c r="H2172" t="s">
         <v>9</v>
@@ -61316,7 +61322,7 @@
         <v>37.7000007629395</v>
       </c>
       <c r="G2173" t="s">
-        <v>1476</v>
+        <v>1477</v>
       </c>
       <c r="H2173" t="s">
         <v>9</v>
@@ -61342,7 +61348,7 @@
         <v>37.2000007629395</v>
       </c>
       <c r="G2174" t="s">
-        <v>1477</v>
+        <v>1478</v>
       </c>
       <c r="H2174" t="s">
         <v>9</v>
@@ -61368,7 +61374,7 @@
         <v>37.4000015258789</v>
       </c>
       <c r="G2175" t="s">
-        <v>1478</v>
+        <v>1479</v>
       </c>
       <c r="H2175" t="s">
         <v>9</v>
@@ -61394,7 +61400,7 @@
         <v>36.5999984741211</v>
       </c>
       <c r="G2176" t="s">
-        <v>1471</v>
+        <v>1472</v>
       </c>
       <c r="H2176" t="s">
         <v>9</v>
@@ -61420,7 +61426,7 @@
         <v>36.9500007629395</v>
       </c>
       <c r="G2177" t="s">
-        <v>1479</v>
+        <v>1480</v>
       </c>
       <c r="H2177" t="s">
         <v>9</v>
@@ -61446,7 +61452,7 @@
         <v>37.7000007629395</v>
       </c>
       <c r="G2178" t="s">
-        <v>1476</v>
+        <v>1477</v>
       </c>
       <c r="H2178" t="s">
         <v>9</v>
@@ -61472,7 +61478,7 @@
         <v>38</v>
       </c>
       <c r="G2179" t="s">
-        <v>1480</v>
+        <v>1481</v>
       </c>
       <c r="H2179" t="s">
         <v>9</v>
@@ -61498,7 +61504,7 @@
         <v>37.6500015258789</v>
       </c>
       <c r="G2180" t="s">
-        <v>1481</v>
+        <v>1482</v>
       </c>
       <c r="H2180" t="s">
         <v>9</v>
@@ -61524,7 +61530,7 @@
         <v>37.1500015258789</v>
       </c>
       <c r="G2181" t="s">
-        <v>1482</v>
+        <v>1483</v>
       </c>
       <c r="H2181" t="s">
         <v>9</v>
@@ -61550,7 +61556,7 @@
         <v>37.4500007629395</v>
       </c>
       <c r="G2182" t="s">
-        <v>1483</v>
+        <v>1484</v>
       </c>
       <c r="H2182" t="s">
         <v>9</v>
@@ -61576,7 +61582,7 @@
         <v>36.3499984741211</v>
       </c>
       <c r="G2183" t="s">
-        <v>1484</v>
+        <v>1485</v>
       </c>
       <c r="H2183" t="s">
         <v>9</v>
@@ -61602,7 +61608,7 @@
         <v>37</v>
       </c>
       <c r="G2184" t="s">
-        <v>1485</v>
+        <v>1486</v>
       </c>
       <c r="H2184" t="s">
         <v>9</v>
@@ -61628,7 +61634,7 @@
         <v>36.5999984741211</v>
       </c>
       <c r="G2185" t="s">
-        <v>1471</v>
+        <v>1472</v>
       </c>
       <c r="H2185" t="s">
         <v>9</v>
@@ -61654,7 +61660,7 @@
         <v>36.4000015258789</v>
       </c>
       <c r="G2186" t="s">
-        <v>1486</v>
+        <v>1487</v>
       </c>
       <c r="H2186" t="s">
         <v>9</v>
@@ -61680,7 +61686,7 @@
         <v>34.9500007629395</v>
       </c>
       <c r="G2187" t="s">
-        <v>1487</v>
+        <v>1488</v>
       </c>
       <c r="H2187" t="s">
         <v>9</v>
@@ -61706,7 +61712,7 @@
         <v>34.1500015258789</v>
       </c>
       <c r="G2188" t="s">
-        <v>1488</v>
+        <v>1489</v>
       </c>
       <c r="H2188" t="s">
         <v>9</v>
@@ -61732,7 +61738,7 @@
         <v>34.5</v>
       </c>
       <c r="G2189" t="s">
-        <v>1489</v>
+        <v>1490</v>
       </c>
       <c r="H2189" t="s">
         <v>9</v>
@@ -61740,7 +61746,7 @@
     </row>
     <row r="2190">
       <c r="A2190" s="1" t="n">
-        <v>45511.6525694444</v>
+        <v>45511.2916666667</v>
       </c>
       <c r="B2190" t="n">
         <v>14843</v>
@@ -61758,9 +61764,35 @@
         <v>35.0499992370605</v>
       </c>
       <c r="G2190" t="s">
-        <v>1490</v>
+        <v>1491</v>
       </c>
       <c r="H2190" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2191">
+      <c r="A2191" s="1" t="n">
+        <v>45512.6494328704</v>
+      </c>
+      <c r="B2191" t="n">
+        <v>10721</v>
+      </c>
+      <c r="C2191" t="n">
+        <v>35.0499992370605</v>
+      </c>
+      <c r="D2191" t="n">
+        <v>34.4000015258789</v>
+      </c>
+      <c r="E2191" t="n">
+        <v>34.7000007629395</v>
+      </c>
+      <c r="F2191" t="n">
+        <v>35</v>
+      </c>
+      <c r="G2191" t="s">
+        <v>1492</v>
+      </c>
+      <c r="H2191" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/MOL.MI.xlsx
+++ b/data/MOL.MI.xlsx
@@ -38,55 +38,55 @@
     <t xml:space="preserve">ticker</t>
   </si>
   <si>
-    <t xml:space="preserve">7.0296745300293</t>
+    <t xml:space="preserve">7.02967405319214</t>
   </si>
   <si>
     <t xml:space="preserve">MOL.MI</t>
   </si>
   <si>
-    <t xml:space="preserve">6.93431091308594</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.83440542221069</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.94793367385864</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.81170034408569</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.90252208709717</t>
+    <t xml:space="preserve">6.9343113899231</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.83440589904785</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.9479341506958</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.81170129776001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.90252256393433</t>
   </si>
   <si>
     <t xml:space="preserve">6.99334526062012</t>
   </si>
   <si>
-    <t xml:space="preserve">6.72087717056274</t>
+    <t xml:space="preserve">6.72087812423706</t>
   </si>
   <si>
     <t xml:space="preserve">6.48473882675171</t>
   </si>
   <si>
-    <t xml:space="preserve">6.25768232345581</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.51652717590332</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.40299940109253</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.72995901107788</t>
+    <t xml:space="preserve">6.25768184661865</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.51652574539185</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.40299892425537</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.72995948791504</t>
   </si>
   <si>
     <t xml:space="preserve">6.63005495071411</t>
   </si>
   <si>
-    <t xml:space="preserve">6.04878902435303</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.69363069534302</t>
+    <t xml:space="preserve">6.04878997802734</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.69363021850586</t>
   </si>
   <si>
     <t xml:space="preserve">6.82986497879028</t>
@@ -95,13 +95,13 @@
     <t xml:space="preserve">6.93885183334351</t>
   </si>
   <si>
-    <t xml:space="preserve">6.83894681930542</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.86619329452515</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.85711145401001</t>
+    <t xml:space="preserve">6.83894777297974</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.8661937713623</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.85711193084717</t>
   </si>
   <si>
     <t xml:space="preserve">6.17594146728516</t>
@@ -110,22 +110,22 @@
     <t xml:space="preserve">6.05333089828491</t>
   </si>
   <si>
-    <t xml:space="preserve">6.44841051101685</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.22135210037231</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.41662216186523</t>
+    <t xml:space="preserve">6.44841003417969</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.22135257720947</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.41662120819092</t>
   </si>
   <si>
     <t xml:space="preserve">6.56647920608521</t>
   </si>
   <si>
-    <t xml:space="preserve">6.50744485855103</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.68000793457031</t>
+    <t xml:space="preserve">6.50744438171387</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.680006980896</t>
   </si>
   <si>
     <t xml:space="preserve">6.49836206436157</t>
@@ -137,7 +137,7 @@
     <t xml:space="preserve">6.55739641189575</t>
   </si>
   <si>
-    <t xml:space="preserve">6.47111558914185</t>
+    <t xml:space="preserve">6.471116065979</t>
   </si>
   <si>
     <t xml:space="preserve">6.5755615234375</t>
@@ -155,13 +155,13 @@
     <t xml:space="preserve">6.38937473297119</t>
   </si>
   <si>
-    <t xml:space="preserve">6.40753936767578</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.43932771682739</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.4302453994751</t>
+    <t xml:space="preserve">6.40753984451294</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.43932723999023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.43024444580078</t>
   </si>
   <si>
     <t xml:space="preserve">6.80261707305908</t>
@@ -170,58 +170,58 @@
     <t xml:space="preserve">6.60734939575195</t>
   </si>
   <si>
-    <t xml:space="preserve">6.58010196685791</t>
+    <t xml:space="preserve">6.58010244369507</t>
   </si>
   <si>
     <t xml:space="preserve">6.62097263336182</t>
   </si>
   <si>
-    <t xml:space="preserve">6.62551403045654</t>
+    <t xml:space="preserve">6.62551355361938</t>
   </si>
   <si>
     <t xml:space="preserve">6.53469133377075</t>
   </si>
   <si>
-    <t xml:space="preserve">6.35758781433105</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.22589349746704</t>
+    <t xml:space="preserve">6.35758686065674</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.2258939743042</t>
   </si>
   <si>
     <t xml:space="preserve">6.45295095443726</t>
   </si>
   <si>
-    <t xml:space="preserve">6.36666965484619</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.45749139785767</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.41207981109619</t>
+    <t xml:space="preserve">6.36666917800903</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.45749235153198</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.41208028793335</t>
   </si>
   <si>
     <t xml:space="preserve">6.38483428955078</t>
   </si>
   <si>
-    <t xml:space="preserve">6.42116260528564</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.31671762466431</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.35304594039917</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.76174783706665</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.64821910858154</t>
+    <t xml:space="preserve">6.4211630821228</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.31671667098999</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.35304546356201</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.76174879074097</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.6482195854187</t>
   </si>
   <si>
     <t xml:space="preserve">6.66638374328613</t>
   </si>
   <si>
-    <t xml:space="preserve">6.58918523788452</t>
+    <t xml:space="preserve">6.58918476104736</t>
   </si>
   <si>
     <t xml:space="preserve">6.80682754516602</t>
@@ -233,16 +233,16 @@
     <t xml:space="preserve">6.71409177780151</t>
   </si>
   <si>
-    <t xml:space="preserve">6.61208200454712</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.6769962310791</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.72800207138062</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.53325653076172</t>
+    <t xml:space="preserve">6.61208248138428</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.67699718475342</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.72800159454346</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.53325605392456</t>
   </si>
   <si>
     <t xml:space="preserve">6.79291677474976</t>
@@ -251,16 +251,16 @@
     <t xml:space="preserve">6.86710596084595</t>
   </si>
   <si>
-    <t xml:space="preserve">6.76973295211792</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.85783195495605</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.88101673126221</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.92738437652588</t>
+    <t xml:space="preserve">6.76973342895508</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.85783290863037</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.88101625442505</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.92738485336304</t>
   </si>
   <si>
     <t xml:space="preserve">7.02939367294312</t>
@@ -269,40 +269,40 @@
     <t xml:space="preserve">7.1267671585083</t>
   </si>
   <si>
-    <t xml:space="preserve">7.16849899291992</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.28905534744263</t>
+    <t xml:space="preserve">7.16849851608276</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.28905487060547</t>
   </si>
   <si>
     <t xml:space="preserve">7.44206953048706</t>
   </si>
   <si>
-    <t xml:space="preserve">7.51162242889404</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.65072536468506</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.49307489395142</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.57190036773682</t>
+    <t xml:space="preserve">7.51162195205688</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.65072631835938</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.49307441711426</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.57189989089966</t>
   </si>
   <si>
     <t xml:space="preserve">7.44670581817627</t>
   </si>
   <si>
-    <t xml:space="preserve">7.41888618469238</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.41424894332886</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.3864278793335</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.27978181838989</t>
+    <t xml:space="preserve">7.41888570785522</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.4142484664917</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.38642883300781</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.27978086471558</t>
   </si>
   <si>
     <t xml:space="preserve">7.32614994049072</t>
@@ -311,121 +311,121 @@
     <t xml:space="preserve">7.18704557418823</t>
   </si>
   <si>
-    <t xml:space="preserve">7.26587152481079</t>
+    <t xml:space="preserve">7.26587104797363</t>
   </si>
   <si>
     <t xml:space="preserve">7.14067697525024</t>
   </si>
   <si>
-    <t xml:space="preserve">7.02012014389038</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.30296611785889</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.35397052764893</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.50234842300415</t>
+    <t xml:space="preserve">7.02012062072754</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.30296564102173</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.35397005081177</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.50234794616699</t>
   </si>
   <si>
     <t xml:space="preserve">7.51625776290894</t>
   </si>
   <si>
-    <t xml:space="preserve">7.18240928649902</t>
+    <t xml:space="preserve">7.18240833282471</t>
   </si>
   <si>
     <t xml:space="preserve">6.90883684158325</t>
   </si>
   <si>
-    <t xml:space="preserve">7.27514457702637</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.37251758575439</t>
+    <t xml:space="preserve">7.27514505386353</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.37251806259155</t>
   </si>
   <si>
     <t xml:space="preserve">7.03866815567017</t>
   </si>
   <si>
-    <t xml:space="preserve">6.85319519042969</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.66772413253784</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.74191188812256</t>
+    <t xml:space="preserve">6.85319471359253</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.66772365570068</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.7419114112854</t>
   </si>
   <si>
     <t xml:space="preserve">6.75118589401245</t>
   </si>
   <si>
-    <t xml:space="preserve">6.58426141738892</t>
+    <t xml:space="preserve">6.58426094055176</t>
   </si>
   <si>
     <t xml:space="preserve">6.92274808883667</t>
   </si>
   <si>
-    <t xml:space="preserve">6.82537460327148</t>
+    <t xml:space="preserve">6.82537508010864</t>
   </si>
   <si>
     <t xml:space="preserve">6.72336483001709</t>
   </si>
   <si>
-    <t xml:space="preserve">6.63062906265259</t>
+    <t xml:space="preserve">6.63062953948975</t>
   </si>
   <si>
     <t xml:space="preserve">6.60280799865723</t>
   </si>
   <si>
-    <t xml:space="preserve">6.93202066421509</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.73727560043335</t>
+    <t xml:space="preserve">6.93202114105225</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.73727512359619</t>
   </si>
   <si>
     <t xml:space="preserve">6.95520496368408</t>
   </si>
   <si>
-    <t xml:space="preserve">6.88565397262573</t>
+    <t xml:space="preserve">6.88565301895142</t>
   </si>
   <si>
     <t xml:space="preserve">6.65844917297363</t>
   </si>
   <si>
-    <t xml:space="preserve">6.70945501327515</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.83464813232422</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.86246871948242</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.93665742874146</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.05721473693848</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.87637996673584</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.96447896957397</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.97375249862671</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.99229955673218</t>
+    <t xml:space="preserve">6.7094554901123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.83464860916138</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.86246967315674</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.93665838241577</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.05721521377563</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.87637901306152</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.96447849273682</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.97375202178955</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.99230003356934</t>
   </si>
   <si>
     <t xml:space="preserve">6.9969367980957</t>
   </si>
   <si>
-    <t xml:space="preserve">7.00157308578491</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.98302555084229</t>
+    <t xml:space="preserve">7.00157356262207</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.9830265045166</t>
   </si>
   <si>
     <t xml:space="preserve">7.10358238220215</t>
@@ -434,133 +434,133 @@
     <t xml:space="preserve">7.08503532409668</t>
   </si>
   <si>
-    <t xml:space="preserve">7.04794073104858</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.16386127471924</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.3632435798645</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.19631958007812</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.15922498703003</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.81610059738159</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.87174224853516</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.06648826599121</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.11285638809204</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.20559310913086</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.17313528060913</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.38179159164429</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.2426872253418</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.23341417312622</t>
+    <t xml:space="preserve">7.04794120788574</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.1638617515564</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.36324405670166</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.19631910324097</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.15922403335571</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.81610107421875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.87174272537231</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.06648921966553</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.1128568649292</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.20559215545654</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.17313480377197</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.38179111480713</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.24268674850464</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.23341369628906</t>
   </si>
   <si>
     <t xml:space="preserve">7.25196123123169</t>
   </si>
   <si>
-    <t xml:space="preserve">7.33542346954346</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.27050876617432</t>
+    <t xml:space="preserve">7.33542251586914</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.2705078125</t>
   </si>
   <si>
     <t xml:space="preserve">7.24732398986816</t>
   </si>
   <si>
-    <t xml:space="preserve">7.34469747543335</t>
+    <t xml:space="preserve">7.34469699859619</t>
   </si>
   <si>
     <t xml:space="preserve">7.4003381729126</t>
   </si>
   <si>
-    <t xml:space="preserve">7.57653713226318</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.40961170196533</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.43743371963501</t>
+    <t xml:space="preserve">7.57653665542603</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.40961122512817</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.43743228912354</t>
   </si>
   <si>
     <t xml:space="preserve">7.37715435028076</t>
   </si>
   <si>
-    <t xml:space="preserve">7.54871606826782</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.56262683868408</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.06185102462769</t>
+    <t xml:space="preserve">7.54871559143066</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.56262636184692</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.06185150146484</t>
   </si>
   <si>
     <t xml:space="preserve">7.21950340270996</t>
   </si>
   <si>
-    <t xml:space="preserve">7.36788082122803</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.09430885314941</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.71564054489136</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.67390871047974</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.69709348678589</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.60435724258423</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.46525430679321</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.80837631225586</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.86401700973511</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.92893505096436</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.88256597518921</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.87792825698853</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.8361988067627</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.97530364990234</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.17932033538818</t>
+    <t xml:space="preserve">7.36788034439087</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.09430932998657</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.71564149856567</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.67391014099121</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.69709444046021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.60435676574707</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.46525382995605</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.80837726593018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.86401796340942</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.92893362045288</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.88256549835205</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.87792921066284</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.83619785308838</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.97530317306519</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.1793212890625</t>
   </si>
   <si>
     <t xml:space="preserve">8.55953884124756</t>
@@ -572,7 +572,7 @@
     <t xml:space="preserve">8.67082405090332</t>
   </si>
   <si>
-    <t xml:space="preserve">8.8006534576416</t>
+    <t xml:space="preserve">8.80065250396729</t>
   </si>
   <si>
     <t xml:space="preserve">8.59663391113281</t>
@@ -584,64 +584,64 @@
     <t xml:space="preserve">8.57808685302734</t>
   </si>
   <si>
-    <t xml:space="preserve">8.43898391723633</t>
+    <t xml:space="preserve">8.43898105621338</t>
   </si>
   <si>
     <t xml:space="preserve">8.45753002166748</t>
   </si>
   <si>
-    <t xml:space="preserve">8.55490493774414</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.54562759399414</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.54099369049072</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.58272266387939</t>
+    <t xml:space="preserve">8.55490207672119</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.54562950134277</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.54099273681641</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.58272361755371</t>
   </si>
   <si>
     <t xml:space="preserve">8.59199714660645</t>
   </si>
   <si>
-    <t xml:space="preserve">8.68936920166016</t>
+    <t xml:space="preserve">8.68937015533447</t>
   </si>
   <si>
     <t xml:space="preserve">8.5224437713623</t>
   </si>
   <si>
-    <t xml:space="preserve">8.51780986785889</t>
+    <t xml:space="preserve">8.51780796051025</t>
   </si>
   <si>
     <t xml:space="preserve">8.30915260314941</t>
   </si>
   <si>
-    <t xml:space="preserve">8.48535060882568</t>
+    <t xml:space="preserve">8.48534870147705</t>
   </si>
   <si>
     <t xml:space="preserve">8.42043495178223</t>
   </si>
   <si>
-    <t xml:space="preserve">8.28596782684326</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.32306289672852</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.49926090240479</t>
+    <t xml:space="preserve">8.28596973419189</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.32306385040283</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.49926280975342</t>
   </si>
   <si>
     <t xml:space="preserve">8.5131721496582</t>
   </si>
   <si>
-    <t xml:space="preserve">8.62445640563965</t>
+    <t xml:space="preserve">8.62445545196533</t>
   </si>
   <si>
     <t xml:space="preserve">8.70328044891357</t>
   </si>
   <si>
-    <t xml:space="preserve">8.64300155639648</t>
+    <t xml:space="preserve">8.6430025100708</t>
   </si>
   <si>
     <t xml:space="preserve">8.44361877441406</t>
@@ -650,13 +650,13 @@
     <t xml:space="preserve">8.48998641967773</t>
   </si>
   <si>
-    <t xml:space="preserve">8.23959922790527</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.34624671936035</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.49462509155273</t>
+    <t xml:space="preserve">8.23960018157959</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.34624576568604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.49462413787842</t>
   </si>
   <si>
     <t xml:space="preserve">8.65227508544922</t>
@@ -665,16 +665,16 @@
     <t xml:space="preserve">8.92120933532715</t>
   </si>
   <si>
-    <t xml:space="preserve">9.83002471923828</t>
+    <t xml:space="preserve">9.83002281188965</t>
   </si>
   <si>
     <t xml:space="preserve">9.49617290496826</t>
   </si>
   <si>
-    <t xml:space="preserve">9.45907878875732</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.25505924224854</t>
+    <t xml:space="preserve">9.45907974243164</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.25506019592285</t>
   </si>
   <si>
     <t xml:space="preserve">9.40343761444092</t>
@@ -686,22 +686,22 @@
     <t xml:space="preserve">9.44980525970459</t>
   </si>
   <si>
-    <t xml:space="preserve">9.46835231781006</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.18086910247803</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.27360534667969</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.36634254455566</t>
+    <t xml:space="preserve">9.46835136413574</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.18087100982666</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.27360725402832</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.3663444519043</t>
   </si>
   <si>
     <t xml:space="preserve">9.59818363189697</t>
   </si>
   <si>
-    <t xml:space="preserve">9.80220317840576</t>
+    <t xml:space="preserve">9.80220222473145</t>
   </si>
   <si>
     <t xml:space="preserve">9.71873950958252</t>
@@ -710,37 +710,37 @@
     <t xml:space="preserve">10.0618648529053</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1546001434326</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.479175567627</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.200966835022</t>
+    <t xml:space="preserve">10.1545991897583</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4791746139526</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2009687423706</t>
   </si>
   <si>
     <t xml:space="preserve">10.7202892303467</t>
   </si>
   <si>
-    <t xml:space="preserve">11.1283292770386</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.091233253479</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1932420730591</t>
+    <t xml:space="preserve">11.1283283233643</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0912342071533</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1932439804077</t>
   </si>
   <si>
     <t xml:space="preserve">11.2210655212402</t>
   </si>
   <si>
-    <t xml:space="preserve">11.0170440673828</t>
+    <t xml:space="preserve">11.0170450210571</t>
   </si>
   <si>
     <t xml:space="preserve">10.9892244338989</t>
   </si>
   <si>
-    <t xml:space="preserve">11.0355920791626</t>
+    <t xml:space="preserve">11.0355911254883</t>
   </si>
   <si>
     <t xml:space="preserve">10.5411825180054</t>
@@ -749,25 +749,25 @@
     <t xml:space="preserve">10.2893142700195</t>
   </si>
   <si>
-    <t xml:space="preserve">10.0747585296631</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4478979110718</t>
+    <t xml:space="preserve">10.0747604370117</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4478988647461</t>
   </si>
   <si>
     <t xml:space="preserve">10.4945411682129</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3452854156494</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4665546417236</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5784959793091</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5598402023315</t>
+    <t xml:space="preserve">10.3452844619751</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4665565490723</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5784978866577</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5598382949829</t>
   </si>
   <si>
     <t xml:space="preserve">10.6064825057983</t>
@@ -785,16 +785,16 @@
     <t xml:space="preserve">11.6606006622314</t>
   </si>
   <si>
-    <t xml:space="preserve">11.2874612808228</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3714179992676</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1661911010742</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2128343582153</t>
+    <t xml:space="preserve">11.2874622344971</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3714170455933</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1661920547485</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.212833404541</t>
   </si>
   <si>
     <t xml:space="preserve">11.1008920669556</t>
@@ -803,28 +803,28 @@
     <t xml:space="preserve">10.8956651687622</t>
   </si>
   <si>
-    <t xml:space="preserve">10.8210372924805</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8023805618286</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0542497634888</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9329776763916</t>
+    <t xml:space="preserve">10.8210382461548</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8023796081543</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0542488098145</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9329805374146</t>
   </si>
   <si>
     <t xml:space="preserve">10.634467124939</t>
   </si>
   <si>
-    <t xml:space="preserve">11.1941757202148</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1288785934448</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5579881668091</t>
+    <t xml:space="preserve">11.1941766738892</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1288776397705</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5579872131348</t>
   </si>
   <si>
     <t xml:space="preserve">11.1382064819336</t>
@@ -833,112 +833,112 @@
     <t xml:space="preserve">11.007607460022</t>
   </si>
   <si>
-    <t xml:space="preserve">11.5206727981567</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.4740314483643</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.78187084198</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1736669540405</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.3975515365601</t>
+    <t xml:space="preserve">11.5206747055054</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4740304946899</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7818717956543</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1736688613892</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.3975496292114</t>
   </si>
   <si>
     <t xml:space="preserve">11.9684410095215</t>
   </si>
   <si>
-    <t xml:space="preserve">12.593448638916</t>
+    <t xml:space="preserve">12.5934495925903</t>
   </si>
   <si>
     <t xml:space="preserve">12.6027774810791</t>
   </si>
   <si>
-    <t xml:space="preserve">12.7520322799683</t>
+    <t xml:space="preserve">12.7520332336426</t>
   </si>
   <si>
     <t xml:space="preserve">12.8266611099243</t>
   </si>
   <si>
-    <t xml:space="preserve">12.6121044158936</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.8733024597168</t>
+    <t xml:space="preserve">12.6121072769165</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.8733034133911</t>
   </si>
   <si>
     <t xml:space="preserve">12.8080043792725</t>
   </si>
   <si>
-    <t xml:space="preserve">12.621434211731</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.6587467193604</t>
+    <t xml:space="preserve">12.6214351654053</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.658748626709</t>
   </si>
   <si>
     <t xml:space="preserve">12.6400918960571</t>
   </si>
   <si>
-    <t xml:space="preserve">12.5468053817749</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.5747919082642</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.5654621124268</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.7613620758057</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.7053909301758</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.630763053894</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.2576236724854</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.4721775054932</t>
+    <t xml:space="preserve">12.5468063354492</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.5747909545898</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.5654630661011</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.7613611221313</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.7053899765015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.6307640075684</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2576246261597</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.4721784591675</t>
   </si>
   <si>
     <t xml:space="preserve">12.5001640319824</t>
   </si>
   <si>
-    <t xml:space="preserve">12.3695650100708</t>
+    <t xml:space="preserve">12.3695659637451</t>
   </si>
   <si>
     <t xml:space="preserve">12.4441938400269</t>
   </si>
   <si>
-    <t xml:space="preserve">11.9591112136841</t>
+    <t xml:space="preserve">11.9591121673584</t>
   </si>
   <si>
     <t xml:space="preserve">12.3602361679077</t>
   </si>
   <si>
-    <t xml:space="preserve">12.2482948303223</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1270236968994</t>
+    <t xml:space="preserve">12.2482957839966</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1270246505737</t>
   </si>
   <si>
     <t xml:space="preserve">12.0244121551514</t>
   </si>
   <si>
-    <t xml:space="preserve">12.3882217407227</t>
+    <t xml:space="preserve">12.3882207870483</t>
   </si>
   <si>
     <t xml:space="preserve">12.3415794372559</t>
   </si>
   <si>
-    <t xml:space="preserve">12.0150833129883</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0337400436401</t>
+    <t xml:space="preserve">12.015082359314</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0337390899658</t>
   </si>
   <si>
     <t xml:space="preserve">12.4068794250488</t>
@@ -947,16 +947,16 @@
     <t xml:space="preserve">12.5188207626343</t>
   </si>
   <si>
-    <t xml:space="preserve">12.4255352020264</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.4535226821899</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.2296390533447</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.322922706604</t>
+    <t xml:space="preserve">12.4255361557007</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.4535217285156</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2296380996704</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.3229217529297</t>
   </si>
   <si>
     <t xml:space="preserve">12.4162082672119</t>
@@ -974,37 +974,37 @@
     <t xml:space="preserve">12.3788938522339</t>
   </si>
   <si>
-    <t xml:space="preserve">12.3322525024414</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1363534927368</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0990390777588</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5113458633423</t>
+    <t xml:space="preserve">12.3322505950928</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1363525390625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0990400314331</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.511344909668</t>
   </si>
   <si>
     <t xml:space="preserve">11.7072429656982</t>
   </si>
   <si>
-    <t xml:space="preserve">11.8658285140991</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7352294921875</t>
+    <t xml:space="preserve">11.8658275604248</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7352285385132</t>
   </si>
   <si>
     <t xml:space="preserve">11.7538862228394</t>
   </si>
   <si>
-    <t xml:space="preserve">11.8191833496094</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9964246749878</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.8938131332397</t>
+    <t xml:space="preserve">11.8191862106323</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9964265823364</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.8938121795654</t>
   </si>
   <si>
     <t xml:space="preserve">11.9404554367065</t>
@@ -1013,46 +1013,46 @@
     <t xml:space="preserve">11.8098573684692</t>
   </si>
   <si>
-    <t xml:space="preserve">12.3042640686035</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.2669506072998</t>
+    <t xml:space="preserve">12.3042659759521</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2669525146484</t>
   </si>
   <si>
     <t xml:space="preserve">11.8378419876099</t>
   </si>
   <si>
-    <t xml:space="preserve">11.7912015914917</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2594757080078</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3620910644531</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2314920425415</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.6139583587646</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5393295288086</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.6699304580688</t>
+    <t xml:space="preserve">11.7912006378174</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2594776153564</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3620901107788</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2314901351929</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.613959312439</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5393304824829</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.6699295043945</t>
   </si>
   <si>
     <t xml:space="preserve">11.6512718200684</t>
   </si>
   <si>
-    <t xml:space="preserve">11.5673170089722</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7445583343506</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9311275482178</t>
+    <t xml:space="preserve">11.5673151016235</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7445573806763</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9311265945435</t>
   </si>
   <si>
     <t xml:space="preserve">12.2203102111816</t>
@@ -1064,28 +1064,28 @@
     <t xml:space="preserve">11.9870986938477</t>
   </si>
   <si>
-    <t xml:space="preserve">13.0039024353027</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.0113792419434</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.1979465484619</t>
+    <t xml:space="preserve">13.0039033889771</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.011378288269</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.1979475021362</t>
   </si>
   <si>
     <t xml:space="preserve">14.1792907714844</t>
   </si>
   <si>
-    <t xml:space="preserve">14.0300359725952</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.0860042572021</t>
+    <t xml:space="preserve">14.0300350189209</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.0860061645508</t>
   </si>
   <si>
     <t xml:space="preserve">14.7203426361084</t>
   </si>
   <si>
-    <t xml:space="preserve">13.9927206039429</t>
+    <t xml:space="preserve">13.9927225112915</t>
   </si>
   <si>
     <t xml:space="preserve">13.7128658294678</t>
@@ -1094,19 +1094,19 @@
     <t xml:space="preserve">14.2912321090698</t>
   </si>
   <si>
-    <t xml:space="preserve">14.1046619415283</t>
+    <t xml:space="preserve">14.1046628952026</t>
   </si>
   <si>
     <t xml:space="preserve">13.7874937057495</t>
   </si>
   <si>
-    <t xml:space="preserve">14.47780418396</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.6084012985229</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.6643733978271</t>
+    <t xml:space="preserve">14.4778032302856</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.6083993911743</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.6643714904785</t>
   </si>
   <si>
     <t xml:space="preserve">14.5710868835449</t>
@@ -1115,7 +1115,7 @@
     <t xml:space="preserve">14.272575378418</t>
   </si>
   <si>
-    <t xml:space="preserve">13.9180936813354</t>
+    <t xml:space="preserve">13.9180927276611</t>
   </si>
   <si>
     <t xml:space="preserve">13.0785303115845</t>
@@ -1124,37 +1124,37 @@
     <t xml:space="preserve">12.8546457290649</t>
   </si>
   <si>
-    <t xml:space="preserve">13.4516687393188</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.1158447265625</t>
+    <t xml:space="preserve">13.4516696929932</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1158456802368</t>
   </si>
   <si>
     <t xml:space="preserve">12.8173332214355</t>
   </si>
   <si>
-    <t xml:space="preserve">13.0598745346069</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6009244918823</t>
+    <t xml:space="preserve">13.0598735809326</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.600923538208</t>
   </si>
   <si>
     <t xml:space="preserve">13.395697593689</t>
   </si>
   <si>
-    <t xml:space="preserve">12.7427043914795</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1829967498779</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0897121429443</t>
+    <t xml:space="preserve">12.7427053451538</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1829977035522</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.08971118927</t>
   </si>
   <si>
     <t xml:space="preserve">11.9031410217285</t>
   </si>
   <si>
-    <t xml:space="preserve">12.6680765151978</t>
+    <t xml:space="preserve">12.6680774688721</t>
   </si>
   <si>
     <t xml:space="preserve">12.7986764907837</t>
@@ -1163,64 +1163,64 @@
     <t xml:space="preserve">12.6867341995239</t>
   </si>
   <si>
-    <t xml:space="preserve">12.2389659881592</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1083688735962</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1456823348999</t>
+    <t xml:space="preserve">12.2389669418335</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1083679199219</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1456813812256</t>
   </si>
   <si>
     <t xml:space="preserve">11.6792583465576</t>
   </si>
   <si>
-    <t xml:space="preserve">12.5374784469604</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.8844842910767</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9217987060547</t>
+    <t xml:space="preserve">12.5374774932861</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.8844833374023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9217967987061</t>
   </si>
   <si>
     <t xml:space="preserve">12.3135948181152</t>
   </si>
   <si>
-    <t xml:space="preserve">12.4628505706787</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.4330110549927</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6195812225342</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.8061504364014</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.3472023010254</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0001974105835</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.8695983886719</t>
+    <t xml:space="preserve">12.4628496170044</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.433012008667</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6195821762085</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.80615234375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.3472032546997</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0001964569092</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.8695974349976</t>
   </si>
   <si>
     <t xml:space="preserve">14.8322839736938</t>
   </si>
   <si>
-    <t xml:space="preserve">14.888256072998</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1164283752441</t>
+    <t xml:space="preserve">14.8882551193237</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1164274215698</t>
   </si>
   <si>
     <t xml:space="preserve">15.7819290161133</t>
   </si>
   <si>
-    <t xml:space="preserve">15.4967136383057</t>
+    <t xml:space="preserve">15.49671459198</t>
   </si>
   <si>
     <t xml:space="preserve">15.3255863189697</t>
@@ -1229,13 +1229,13 @@
     <t xml:space="preserve">15.1734714508057</t>
   </si>
   <si>
-    <t xml:space="preserve">15.2115001678467</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2685413360596</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4016447067261</t>
+    <t xml:space="preserve">15.2114992141724</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2685422897339</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4016437530518</t>
   </si>
   <si>
     <t xml:space="preserve">14.222752571106</t>
@@ -1244,19 +1244,19 @@
     <t xml:space="preserve">13.899507522583</t>
   </si>
   <si>
-    <t xml:space="preserve">13.3480892181396</t>
+    <t xml:space="preserve">13.3480911254883</t>
   </si>
   <si>
     <t xml:space="preserve">13.6903486251831</t>
   </si>
   <si>
-    <t xml:space="preserve">13.7664060592651</t>
+    <t xml:space="preserve">13.7664070129395</t>
   </si>
   <si>
     <t xml:space="preserve">13.1579465866089</t>
   </si>
   <si>
-    <t xml:space="preserve">13.0248460769653</t>
+    <t xml:space="preserve">13.024845123291</t>
   </si>
   <si>
     <t xml:space="preserve">13.1959753036499</t>
@@ -1265,7 +1265,7 @@
     <t xml:space="preserve">12.9678030014038</t>
   </si>
   <si>
-    <t xml:space="preserve">12.1691999435425</t>
+    <t xml:space="preserve">12.1691989898682</t>
   </si>
   <si>
     <t xml:space="preserve">12.6255435943604</t>
@@ -1274,7 +1274,7 @@
     <t xml:space="preserve">13.0818891525269</t>
   </si>
   <si>
-    <t xml:space="preserve">12.701602935791</t>
+    <t xml:space="preserve">12.7016010284424</t>
   </si>
   <si>
     <t xml:space="preserve">12.7776594161987</t>
@@ -1286,37 +1286,37 @@
     <t xml:space="preserve">12.9487886428833</t>
   </si>
   <si>
-    <t xml:space="preserve">12.4163875579834</t>
+    <t xml:space="preserve">12.4163866043091</t>
   </si>
   <si>
     <t xml:space="preserve">12.8156881332397</t>
   </si>
   <si>
-    <t xml:space="preserve">12.7966737747192</t>
+    <t xml:space="preserve">12.7966747283936</t>
   </si>
   <si>
     <t xml:space="preserve">12.8537178039551</t>
   </si>
   <si>
-    <t xml:space="preserve">12.3403291702271</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.8234491348267</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.8614778518677</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.0516214370728</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.9565515518188</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.1657085418701</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.7093629837036</t>
+    <t xml:space="preserve">12.3403282165527</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.8234510421753</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.861478805542</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.0516223907471</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.9565505981445</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.1657094955444</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.7093639373779</t>
   </si>
   <si>
     <t xml:space="preserve">13.6713352203369</t>
@@ -1328,55 +1328,55 @@
     <t xml:space="preserve">13.5382347106934</t>
   </si>
   <si>
-    <t xml:space="preserve">13.5192203521729</t>
+    <t xml:space="preserve">13.5192193984985</t>
   </si>
   <si>
     <t xml:space="preserve">13.3290767669678</t>
   </si>
   <si>
-    <t xml:space="preserve">13.2149887084961</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.4051342010498</t>
+    <t xml:space="preserve">13.2149896621704</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.4051351547241</t>
   </si>
   <si>
     <t xml:space="preserve">13.5572500228882</t>
   </si>
   <si>
-    <t xml:space="preserve">13.2910470962524</t>
+    <t xml:space="preserve">13.2910480499268</t>
   </si>
   <si>
     <t xml:space="preserve">13.4431619644165</t>
   </si>
   <si>
-    <t xml:space="preserve">12.6445589065552</t>
+    <t xml:space="preserve">12.6445598602295</t>
   </si>
   <si>
     <t xml:space="preserve">12.5875158309937</t>
   </si>
   <si>
-    <t xml:space="preserve">12.3593425750732</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.7586460113525</t>
+    <t xml:space="preserve">12.3593435287476</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.7586441040039</t>
   </si>
   <si>
     <t xml:space="preserve">13.1199178695679</t>
   </si>
   <si>
-    <t xml:space="preserve">13.0628747940063</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.8917474746704</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.0438604354858</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.8804922103882</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.2037363052368</t>
+    <t xml:space="preserve">13.062876701355</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.8917465209961</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.0438613891602</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.8804941177368</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.2037372589111</t>
   </si>
   <si>
     <t xml:space="preserve">14.3558530807495</t>
@@ -1385,40 +1385,40 @@
     <t xml:space="preserve">14.3938817977905</t>
   </si>
   <si>
-    <t xml:space="preserve">14.1466941833496</t>
+    <t xml:space="preserve">14.1466951370239</t>
   </si>
   <si>
     <t xml:space="preserve">13.7854204177856</t>
   </si>
   <si>
-    <t xml:space="preserve">13.5762624740601</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.8424654006958</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6333065032959</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.260781288147</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0213565826416</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5917863845825</t>
+    <t xml:space="preserve">13.5762634277344</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.8424644470215</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6333074569702</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.2607803344727</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0213556289673</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5917854309082</t>
   </si>
   <si>
     <t xml:space="preserve">15.3636150360107</t>
   </si>
   <si>
-    <t xml:space="preserve">15.2495288848877</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.6375770568848</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.8087062835693</t>
+    <t xml:space="preserve">15.249529838562</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.6375789642334</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.808708190918</t>
   </si>
   <si>
     <t xml:space="preserve">17.0178623199463</t>
@@ -1427,40 +1427,40 @@
     <t xml:space="preserve">16.7326488494873</t>
   </si>
   <si>
-    <t xml:space="preserve">16.3333492279053</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.0101013183594</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6868581771851</t>
+    <t xml:space="preserve">16.3333473205566</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.010103225708</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6868591308594</t>
   </si>
   <si>
     <t xml:space="preserve">15.610800743103</t>
   </si>
   <si>
-    <t xml:space="preserve">15.0974130630493</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3065719604492</t>
+    <t xml:space="preserve">15.0974140167236</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3065710067749</t>
   </si>
   <si>
     <t xml:space="preserve">14.4699382781982</t>
   </si>
   <si>
-    <t xml:space="preserve">14.698112487793</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.5269813537598</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.736141204834</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.3368377685547</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.2797946929932</t>
+    <t xml:space="preserve">14.6981115341187</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.5269804000854</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.7361392974854</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.336838722229</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.2797956466675</t>
   </si>
   <si>
     <t xml:space="preserve">13.9755640029907</t>
@@ -1469,40 +1469,40 @@
     <t xml:space="preserve">13.6142911911011</t>
   </si>
   <si>
-    <t xml:space="preserve">13.937536239624</t>
+    <t xml:space="preserve">13.9375371932983</t>
   </si>
   <si>
     <t xml:space="preserve">14.1086654663086</t>
   </si>
   <si>
-    <t xml:space="preserve">14.9643115997314</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.5650100708008</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.5079679489136</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.648829460144</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0593852996826</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.1812305450439</t>
+    <t xml:space="preserve">14.9643125534058</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.5650110244751</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.5079669952393</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6488285064697</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0593843460083</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.1812324523926</t>
   </si>
   <si>
     <t xml:space="preserve">16.1622180938721</t>
   </si>
   <si>
-    <t xml:space="preserve">16.3523635864258</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.1432018280029</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9720726013184</t>
+    <t xml:space="preserve">16.3523616790771</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.1432037353516</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9720735549927</t>
   </si>
   <si>
     <t xml:space="preserve">15.5537586212158</t>
@@ -1514,16 +1514,16 @@
     <t xml:space="preserve">16.4474334716797</t>
   </si>
   <si>
-    <t xml:space="preserve">16.2002487182617</t>
+    <t xml:space="preserve">16.2002468109131</t>
   </si>
   <si>
     <t xml:space="preserve">16.4284229278564</t>
   </si>
   <si>
-    <t xml:space="preserve">15.7439002990723</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8960161209106</t>
+    <t xml:space="preserve">15.7439022064209</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.896017074585</t>
   </si>
   <si>
     <t xml:space="preserve">16.0291175842285</t>
@@ -1535,37 +1535,37 @@
     <t xml:space="preserve">15.9530591964722</t>
   </si>
   <si>
-    <t xml:space="preserve">15.572772026062</t>
+    <t xml:space="preserve">15.5727710723877</t>
   </si>
   <si>
     <t xml:space="preserve">14.8312120437622</t>
   </si>
   <si>
-    <t xml:space="preserve">15.0023412704468</t>
+    <t xml:space="preserve">15.0023403167725</t>
   </si>
   <si>
     <t xml:space="preserve">14.6410675048828</t>
   </si>
   <si>
-    <t xml:space="preserve">14.9072694778442</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0783996582031</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6298151016235</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8389730453491</t>
+    <t xml:space="preserve">14.9072704315186</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0783977508545</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6298179626465</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8389739990234</t>
   </si>
   <si>
     <t xml:space="preserve">15.1354417800903</t>
   </si>
   <si>
-    <t xml:space="preserve">15.5157279968262</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8579864501953</t>
+    <t xml:space="preserve">15.5157289505005</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8579902648926</t>
   </si>
   <si>
     <t xml:space="preserve">15.7248888015747</t>
@@ -1574,19 +1574,19 @@
     <t xml:space="preserve">15.9910879135132</t>
   </si>
   <si>
-    <t xml:space="preserve">16.0671463012695</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.1051750183105</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.0861587524414</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7058734893799</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.7741689682007</t>
+    <t xml:space="preserve">16.0671482086182</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.1051769256592</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.08616065979</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7058753967285</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.7741680145264</t>
   </si>
   <si>
     <t xml:space="preserve">14.7171249389648</t>
@@ -1595,22 +1595,22 @@
     <t xml:space="preserve">14.9452981948853</t>
   </si>
   <si>
-    <t xml:space="preserve">15.2875576019287</t>
+    <t xml:space="preserve">15.2875566482544</t>
   </si>
   <si>
     <t xml:space="preserve">15.1924848556519</t>
   </si>
   <si>
-    <t xml:space="preserve">15.3826284408569</t>
+    <t xml:space="preserve">15.3826293945312</t>
   </si>
   <si>
     <t xml:space="preserve">16.2953186035156</t>
   </si>
   <si>
-    <t xml:space="preserve">17.1129360198975</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.3411083221436</t>
+    <t xml:space="preserve">17.1129379272461</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.3411102294922</t>
   </si>
   <si>
     <t xml:space="preserve">17.3601245880127</t>
@@ -1619,13 +1619,13 @@
     <t xml:space="preserve">17.3981494903564</t>
   </si>
   <si>
-    <t xml:space="preserve">17.2080078125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.1699810028076</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.158727645874</t>
+    <t xml:space="preserve">17.2080097198486</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.169979095459</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.1587295532227</t>
   </si>
   <si>
     <t xml:space="preserve">17.5122375488281</t>
@@ -1634,16 +1634,16 @@
     <t xml:space="preserve">17.4551963806152</t>
   </si>
   <si>
-    <t xml:space="preserve">17.4742069244385</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.6073131561279</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.1509685516357</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.4932250976562</t>
+    <t xml:space="preserve">17.4742088317871</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.6073112487793</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.1509666442871</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.4932270050049</t>
   </si>
   <si>
     <t xml:space="preserve">17.5502662658691</t>
@@ -1655,22 +1655,22 @@
     <t xml:space="preserve">17.9305553436279</t>
   </si>
   <si>
-    <t xml:space="preserve">17.6643524169922</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.4361839294434</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.246036529541</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.6756057739258</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.6946220397949</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.3903923034668</t>
+    <t xml:space="preserve">17.6643543243408</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.4361801147461</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.2460384368896</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.6756076812744</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.6946201324463</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.3903884887695</t>
   </si>
   <si>
     <t xml:space="preserve">16.960823059082</t>
@@ -1679,13 +1679,13 @@
     <t xml:space="preserve">16.2572898864746</t>
   </si>
   <si>
-    <t xml:space="preserve">16.6830768585205</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.6443710327148</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.489538192749</t>
+    <t xml:space="preserve">16.6830749511719</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.6443672180176</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.4895362854004</t>
   </si>
   <si>
     <t xml:space="preserve">16.5475997924805</t>
@@ -1694,34 +1694,34 @@
     <t xml:space="preserve">16.3347034454346</t>
   </si>
   <si>
-    <t xml:space="preserve">16.1024551391602</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.0831069946289</t>
+    <t xml:space="preserve">16.1024589538574</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.0831050872803</t>
   </si>
   <si>
     <t xml:space="preserve">16.7798461914062</t>
   </si>
   <si>
-    <t xml:space="preserve">16.9153251647949</t>
+    <t xml:space="preserve">16.9153232574463</t>
   </si>
   <si>
     <t xml:space="preserve">16.9346771240234</t>
   </si>
   <si>
-    <t xml:space="preserve">16.8572597503662</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.7411365509033</t>
+    <t xml:space="preserve">16.8572616577148</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.741138458252</t>
   </si>
   <si>
     <t xml:space="preserve">16.5282421112061</t>
   </si>
   <si>
-    <t xml:space="preserve">16.6250152587891</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.044397354126</t>
+    <t xml:space="preserve">16.6250171661377</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.0443954467773</t>
   </si>
   <si>
     <t xml:space="preserve">16.566951751709</t>
@@ -1730,16 +1730,16 @@
     <t xml:space="preserve">16.0637493133545</t>
   </si>
   <si>
-    <t xml:space="preserve">16.1218128204346</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9669818878174</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.831503868103</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7540874481201</t>
+    <t xml:space="preserve">16.1218109130859</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9669799804688</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8315048217773</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7540884017944</t>
   </si>
   <si>
     <t xml:space="preserve">15.5218420028687</t>
@@ -1751,31 +1751,31 @@
     <t xml:space="preserve">15.4057168960571</t>
   </si>
   <si>
-    <t xml:space="preserve">15.0767021179199</t>
+    <t xml:space="preserve">15.0767002105713</t>
   </si>
   <si>
     <t xml:space="preserve">15.2895946502686</t>
   </si>
   <si>
-    <t xml:space="preserve">15.3283033370972</t>
+    <t xml:space="preserve">15.3283023834229</t>
   </si>
   <si>
     <t xml:space="preserve">15.2315320968628</t>
   </si>
   <si>
-    <t xml:space="preserve">15.1928243637085</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0960550308228</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2121782302856</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3476552963257</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1541175842285</t>
+    <t xml:space="preserve">15.1928253173828</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0960540771484</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.21217918396</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.34765625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1541166305542</t>
   </si>
   <si>
     <t xml:space="preserve">14.9605779647827</t>
@@ -1784,28 +1784,28 @@
     <t xml:space="preserve">14.9412231445312</t>
   </si>
   <si>
-    <t xml:space="preserve">14.8057451248169</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5411949157715</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2702398300171</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9218702316284</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0573482513428</t>
+    <t xml:space="preserve">14.8057460784912</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5411939620972</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2702388763428</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9218692779541</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0573472976685</t>
   </si>
   <si>
     <t xml:space="preserve">15.2508869171143</t>
   </si>
   <si>
-    <t xml:space="preserve">14.8831605911255</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.8444538116455</t>
+    <t xml:space="preserve">14.8831615447998</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.8444528579712</t>
   </si>
   <si>
     <t xml:space="preserve">14.999285697937</t>
@@ -1814,46 +1814,46 @@
     <t xml:space="preserve">15.1154088973999</t>
   </si>
   <si>
-    <t xml:space="preserve">14.902515411377</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9799318313599</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.6315593719482</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.6702690124512</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.6896228790283</t>
+    <t xml:space="preserve">14.9025144577026</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9799308776855</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.6315603256226</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.6702680587769</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.6896238327026</t>
   </si>
   <si>
     <t xml:space="preserve">14.5928525924683</t>
   </si>
   <si>
-    <t xml:space="preserve">14.728328704834</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.7089757919312</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.554144859314</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.5347909927368</t>
+    <t xml:space="preserve">14.7283306121826</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.7089767456055</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.5541458129883</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.5347919464111</t>
   </si>
   <si>
     <t xml:space="preserve">14.7476844787598</t>
   </si>
   <si>
-    <t xml:space="preserve">15.0186405181885</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.650915145874</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4444255828857</t>
+    <t xml:space="preserve">15.0186395645142</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.6509160995483</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4444246292114</t>
   </si>
   <si>
     <t xml:space="preserve">15.48313331604</t>
@@ -1862,25 +1862,22 @@
     <t xml:space="preserve">15.7734413146973</t>
   </si>
   <si>
-    <t xml:space="preserve">15.6186094284058</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8121509552002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8895654678345</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.257287979126</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8702096939087</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9089193344116</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.0056896209717</t>
+    <t xml:space="preserve">15.6186084747314</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8121500015259</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8895645141602</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8702116012573</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9089221954346</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.0056915283203</t>
   </si>
   <si>
     <t xml:space="preserve">15.7347345352173</t>
@@ -1889,7 +1886,7 @@
     <t xml:space="preserve">15.7153797149658</t>
   </si>
   <si>
-    <t xml:space="preserve">15.947624206543</t>
+    <t xml:space="preserve">15.9476270675659</t>
   </si>
   <si>
     <t xml:space="preserve">15.6766729354858</t>
@@ -1898,49 +1895,49 @@
     <t xml:space="preserve">15.5992574691772</t>
   </si>
   <si>
-    <t xml:space="preserve">15.9282722473145</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.0250415802002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.2185802459717</t>
+    <t xml:space="preserve">15.9282712936401</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.0250453948975</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.2185821533203</t>
   </si>
   <si>
     <t xml:space="preserve">17.2636947631836</t>
   </si>
   <si>
-    <t xml:space="preserve">17.1088638305664</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.0507984161377</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.9927406311035</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.0895099639893</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.2249870300293</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.3798179626465</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.3862209320068</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.2894496917725</t>
+    <t xml:space="preserve">17.1088619232178</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.0508003234863</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.9927368164062</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.0895080566406</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.2249851226807</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.3798160552979</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.3862228393555</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.2894515991211</t>
   </si>
   <si>
     <t xml:space="preserve">17.7088317871094</t>
   </si>
   <si>
-    <t xml:space="preserve">17.7668952941895</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.2120342254639</t>
+    <t xml:space="preserve">17.7668972015381</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.2120361328125</t>
   </si>
   <si>
     <t xml:space="preserve">18.0959129333496</t>
@@ -1952,7 +1949,7 @@
     <t xml:space="preserve">18.0765571594238</t>
   </si>
   <si>
-    <t xml:space="preserve">18.0572032928467</t>
+    <t xml:space="preserve">18.057201385498</t>
   </si>
   <si>
     <t xml:space="preserve">18.1733283996582</t>
@@ -1967,31 +1964,31 @@
     <t xml:space="preserve">18.8700675964355</t>
   </si>
   <si>
-    <t xml:space="preserve">19.2184371948242</t>
+    <t xml:space="preserve">19.2184391021729</t>
   </si>
   <si>
     <t xml:space="preserve">19.1410236358643</t>
   </si>
   <si>
-    <t xml:space="preserve">18.6571769714355</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.0829620361328</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.0248985290527</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.547456741333</t>
+    <t xml:space="preserve">18.6571750640869</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.0829639434814</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.0249004364014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.5474586486816</t>
   </si>
   <si>
     <t xml:space="preserve">19.934534072876</t>
   </si>
   <si>
-    <t xml:space="preserve">19.6442241668701</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.789379119873</t>
+    <t xml:space="preserve">19.6442260742188</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.7893810272217</t>
   </si>
   <si>
     <t xml:space="preserve">19.4022998809814</t>
@@ -2000,43 +1997,43 @@
     <t xml:space="preserve">18.9668388366699</t>
   </si>
   <si>
-    <t xml:space="preserve">19.7409954071045</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.8377628326416</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.8861484527588</t>
+    <t xml:space="preserve">19.7409934997559</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.8377647399902</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.8861465454102</t>
   </si>
   <si>
     <t xml:space="preserve">19.4506874084473</t>
   </si>
   <si>
-    <t xml:space="preserve">19.6926097869873</t>
+    <t xml:space="preserve">19.6926116943359</t>
   </si>
   <si>
     <t xml:space="preserve">20.3216114044189</t>
   </si>
   <si>
-    <t xml:space="preserve">20.3699970245361</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.3537731170654</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.289306640625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.2409248352051</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.9506130218506</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.7570743560791</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.1441516876221</t>
+    <t xml:space="preserve">20.3699951171875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.3537750244141</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.2893085479736</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.2409229278564</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.9506149291992</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.7570762634277</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.1441555023193</t>
   </si>
   <si>
     <t xml:space="preserve">20.8538436889648</t>
@@ -2045,19 +2042,19 @@
     <t xml:space="preserve">20.8054599761963</t>
   </si>
   <si>
-    <t xml:space="preserve">20.0796909332275</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.4183826446533</t>
+    <t xml:space="preserve">20.0796890258789</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.4183807373047</t>
   </si>
   <si>
     <t xml:space="preserve">20.1280727386475</t>
   </si>
   <si>
-    <t xml:space="preserve">19.9829177856445</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.1990871429443</t>
+    <t xml:space="preserve">19.9829196929932</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.1990852355957</t>
   </si>
   <si>
     <t xml:space="preserve">20.902229309082</t>
@@ -2078,34 +2075,34 @@
     <t xml:space="preserve">21.3376922607422</t>
   </si>
   <si>
-    <t xml:space="preserve">21.7731552124023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.5796165466309</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.9666976928711</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.1764583587646</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.2248439788818</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.850715637207</t>
+    <t xml:space="preserve">21.773157119751</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.5796146392822</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.9666957855225</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.1764602661133</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.2248401641846</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.8507137298584</t>
   </si>
   <si>
     <t xml:space="preserve">18.3088035583496</t>
   </si>
   <si>
-    <t xml:space="preserve">17.7281894683838</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.4121170043945</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.2959995269775</t>
+    <t xml:space="preserve">17.7281875610352</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.4121189117432</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.2959957122803</t>
   </si>
   <si>
     <t xml:space="preserve">14.5734987258911</t>
@@ -2114,19 +2111,19 @@
     <t xml:space="preserve">14.515438079834</t>
   </si>
   <si>
-    <t xml:space="preserve">12.5413389205933</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0961980819702</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.2123212814331</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.7735843658447</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.9864778518677</t>
+    <t xml:space="preserve">12.5413379669189</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0961971282959</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2123203277588</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.773585319519</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.986478805542</t>
   </si>
   <si>
     <t xml:space="preserve">12.0574903488159</t>
@@ -2135,10 +2132,10 @@
     <t xml:space="preserve">13.3929100036621</t>
   </si>
   <si>
-    <t xml:space="preserve">13.6445121765137</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.1090040206909</t>
+    <t xml:space="preserve">13.644513130188</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.1090059280396</t>
   </si>
   <si>
     <t xml:space="preserve">14.2831907272339</t>
@@ -2153,10 +2150,10 @@
     <t xml:space="preserve">14.8251008987427</t>
   </si>
   <si>
-    <t xml:space="preserve">14.1864204406738</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5024871826172</t>
+    <t xml:space="preserve">14.1864213943481</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5024862289429</t>
   </si>
   <si>
     <t xml:space="preserve">16.9733848571777</t>
@@ -2180,25 +2177,25 @@
     <t xml:space="preserve">16.1411666870117</t>
   </si>
   <si>
-    <t xml:space="preserve">16.702428817749</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.3217544555664</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.8185539245605</t>
+    <t xml:space="preserve">16.7024307250977</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.321756362915</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.8185520172119</t>
   </si>
   <si>
     <t xml:space="preserve">17.0314464569092</t>
   </si>
   <si>
-    <t xml:space="preserve">17.1669216156006</t>
+    <t xml:space="preserve">17.1669235229492</t>
   </si>
   <si>
     <t xml:space="preserve">18.3668670654297</t>
   </si>
   <si>
-    <t xml:space="preserve">18.7539443969727</t>
+    <t xml:space="preserve">18.753942489624</t>
   </si>
   <si>
     <t xml:space="preserve">18.1891841888428</t>
@@ -2207,19 +2204,19 @@
     <t xml:space="preserve">17.8775939941406</t>
   </si>
   <si>
-    <t xml:space="preserve">17.5660018920898</t>
+    <t xml:space="preserve">17.5659999847412</t>
   </si>
   <si>
     <t xml:space="preserve">17.5465259552002</t>
   </si>
   <si>
-    <t xml:space="preserve">17.3128318786621</t>
+    <t xml:space="preserve">17.3128337860107</t>
   </si>
   <si>
     <t xml:space="preserve">17.059663772583</t>
   </si>
   <si>
-    <t xml:space="preserve">17.5270519256592</t>
+    <t xml:space="preserve">17.5270500183105</t>
   </si>
   <si>
     <t xml:space="preserve">17.7217960357666</t>
@@ -2228,10 +2225,10 @@
     <t xml:space="preserve">17.2738819122314</t>
   </si>
   <si>
-    <t xml:space="preserve">17.7607479095459</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.6049518585205</t>
+    <t xml:space="preserve">17.7607460021973</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.6049480438232</t>
   </si>
   <si>
     <t xml:space="preserve">17.83864402771</t>
@@ -2240,7 +2237,7 @@
     <t xml:space="preserve">18.4034042358398</t>
   </si>
   <si>
-    <t xml:space="preserve">18.052864074707</t>
+    <t xml:space="preserve">18.0528621673584</t>
   </si>
   <si>
     <t xml:space="preserve">18.1697082519531</t>
@@ -2249,10 +2246,10 @@
     <t xml:space="preserve">18.5007781982422</t>
   </si>
   <si>
-    <t xml:space="preserve">18.5202522277832</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.013916015625</t>
+    <t xml:space="preserve">18.5202503204346</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.0139141082764</t>
   </si>
   <si>
     <t xml:space="preserve">18.3449821472168</t>
@@ -2273,16 +2270,16 @@
     <t xml:space="preserve">18.1502361297607</t>
   </si>
   <si>
-    <t xml:space="preserve">18.9486885070801</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.890266418457</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.7928924560547</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.0265884399414</t>
+    <t xml:space="preserve">18.9486904144287</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.8902645111084</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.7928943634033</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.02659034729</t>
   </si>
   <si>
     <t xml:space="preserve">19.1629104614258</t>
@@ -2291,16 +2288,16 @@
     <t xml:space="preserve">19.7179336547852</t>
   </si>
   <si>
-    <t xml:space="preserve">19.4745025634766</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.0655364990234</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.2213344573975</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.5786743164062</t>
+    <t xml:space="preserve">19.4745006561279</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.0655384063721</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.2213325500488</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.5786762237549</t>
   </si>
   <si>
     <t xml:space="preserve">18.7734203338623</t>
@@ -2309,16 +2306,16 @@
     <t xml:space="preserve">19.6205615997314</t>
   </si>
   <si>
-    <t xml:space="preserve">19.7666187286377</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.204797744751</t>
+    <t xml:space="preserve">19.7666206359863</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.2047958374023</t>
   </si>
   <si>
     <t xml:space="preserve">20.4482269287109</t>
   </si>
   <si>
-    <t xml:space="preserve">20.7403450012207</t>
+    <t xml:space="preserve">20.7403430938721</t>
   </si>
   <si>
     <t xml:space="preserve">20.6916580200195</t>
@@ -2327,28 +2324,28 @@
     <t xml:space="preserve">21.1785202026367</t>
   </si>
   <si>
-    <t xml:space="preserve">21.4219512939453</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.8601303100586</t>
+    <t xml:space="preserve">21.4219532012939</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.86012840271</t>
   </si>
   <si>
     <t xml:space="preserve">21.3245811462402</t>
   </si>
   <si>
-    <t xml:space="preserve">21.7140693664551</t>
+    <t xml:space="preserve">21.7140674591064</t>
   </si>
   <si>
     <t xml:space="preserve">22.0061874389648</t>
   </si>
   <si>
-    <t xml:space="preserve">21.6653823852539</t>
+    <t xml:space="preserve">21.6653842926025</t>
   </si>
   <si>
     <t xml:space="preserve">21.4706382751465</t>
   </si>
   <si>
-    <t xml:space="preserve">21.9088134765625</t>
+    <t xml:space="preserve">21.9088153839111</t>
   </si>
   <si>
     <t xml:space="preserve">22.5904216766357</t>
@@ -2363,19 +2360,19 @@
     <t xml:space="preserve">23.466775894165</t>
   </si>
   <si>
-    <t xml:space="preserve">23.5641498565674</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.2457542419434</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.8786735534668</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.6352443695068</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.1970710754395</t>
+    <t xml:space="preserve">23.5641479492188</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.245756149292</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.8786754608154</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.6352462768555</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.1970691680908</t>
   </si>
   <si>
     <t xml:space="preserve">23.9049491882324</t>
@@ -2387,37 +2384,37 @@
     <t xml:space="preserve">23.8075790405273</t>
   </si>
   <si>
-    <t xml:space="preserve">22.8825397491455</t>
+    <t xml:space="preserve">22.8825416564941</t>
   </si>
   <si>
     <t xml:space="preserve">23.1746559143066</t>
   </si>
   <si>
-    <t xml:space="preserve">23.6128330230713</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.2233448028564</t>
+    <t xml:space="preserve">23.6128349304199</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.2233428955078</t>
   </si>
   <si>
     <t xml:space="preserve">23.0285987854004</t>
   </si>
   <si>
-    <t xml:space="preserve">22.6877956390381</t>
+    <t xml:space="preserve">22.6877937316895</t>
   </si>
   <si>
     <t xml:space="preserve">21.9575004577637</t>
   </si>
   <si>
-    <t xml:space="preserve">22.2009315490723</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.3732681274414</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.7627563476562</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.5942859649658</t>
+    <t xml:space="preserve">22.2009296417236</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.3732662200928</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.7627582550049</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.5942840576172</t>
   </si>
   <si>
     <t xml:space="preserve">21.5193252563477</t>
@@ -2432,7 +2429,7 @@
     <t xml:space="preserve">22.3469905853271</t>
   </si>
   <si>
-    <t xml:space="preserve">22.1035614013672</t>
+    <t xml:space="preserve">22.1035594940186</t>
   </si>
   <si>
     <t xml:space="preserve">21.081148147583</t>
@@ -2441,22 +2438,22 @@
     <t xml:space="preserve">22.2496185302734</t>
   </si>
   <si>
-    <t xml:space="preserve">22.493049621582</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.054874420166</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.9799118041992</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.7851657867432</t>
+    <t xml:space="preserve">22.4930515289307</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.0548725128174</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.9799137115479</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.7851676940918</t>
   </si>
   <si>
     <t xml:space="preserve">24.5865592956543</t>
   </si>
   <si>
-    <t xml:space="preserve">24.489185333252</t>
+    <t xml:space="preserve">24.4891872406006</t>
   </si>
   <si>
     <t xml:space="preserve">24.3918132781982</t>
@@ -2465,13 +2462,13 @@
     <t xml:space="preserve">25.9010887145996</t>
   </si>
   <si>
-    <t xml:space="preserve">26.339262008667</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.1669292449951</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.8261260986328</t>
+    <t xml:space="preserve">26.3392639160156</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.1669273376465</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.8261241912842</t>
   </si>
   <si>
     <t xml:space="preserve">26.7774410247803</t>
@@ -2480,7 +2477,7 @@
     <t xml:space="preserve">26.534008026123</t>
   </si>
   <si>
-    <t xml:space="preserve">27.8485374450684</t>
+    <t xml:space="preserve">27.848539352417</t>
   </si>
   <si>
     <t xml:space="preserve">28.8222618103027</t>
@@ -2492,7 +2489,7 @@
     <t xml:space="preserve">29.1143817901611</t>
   </si>
   <si>
-    <t xml:space="preserve">29.942045211792</t>
+    <t xml:space="preserve">29.9420471191406</t>
   </si>
   <si>
     <t xml:space="preserve">30.5749702453613</t>
@@ -2501,7 +2498,7 @@
     <t xml:space="preserve">31.1105175018311</t>
   </si>
   <si>
-    <t xml:space="preserve">31.9381809234619</t>
+    <t xml:space="preserve">31.9381828308105</t>
   </si>
   <si>
     <t xml:space="preserve">32.230297088623</t>
@@ -2522,7 +2519,7 @@
     <t xml:space="preserve">32.5224189758301</t>
   </si>
   <si>
-    <t xml:space="preserve">33.496150970459</t>
+    <t xml:space="preserve">33.4961433410645</t>
   </si>
   <si>
     <t xml:space="preserve">33.3987693786621</t>
@@ -2531,28 +2528,28 @@
     <t xml:space="preserve">33.0092849731445</t>
   </si>
   <si>
-    <t xml:space="preserve">33.6908874511719</t>
+    <t xml:space="preserve">33.6908912658691</t>
   </si>
   <si>
     <t xml:space="preserve">33.9343185424805</t>
   </si>
   <si>
-    <t xml:space="preserve">34.3238067626953</t>
+    <t xml:space="preserve">34.3238105773926</t>
   </si>
   <si>
     <t xml:space="preserve">34.9567337036133</t>
   </si>
   <si>
-    <t xml:space="preserve">34.8106689453125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.5896530151367</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.6870269775391</t>
-  </si>
-  <si>
-    <t xml:space="preserve">37.050235748291</t>
+    <t xml:space="preserve">34.8106727600098</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.5896492004395</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.6870231628418</t>
+  </si>
+  <si>
+    <t xml:space="preserve">37.0502395629883</t>
   </si>
   <si>
     <t xml:space="preserve">37.3910446166992</t>
@@ -2570,10 +2567,10 @@
     <t xml:space="preserve">32.863224029541</t>
   </si>
   <si>
-    <t xml:space="preserve">32.9605979919434</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.9119071960449</t>
+    <t xml:space="preserve">32.9605941772461</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.9119110107422</t>
   </si>
   <si>
     <t xml:space="preserve">32.132926940918</t>
@@ -2582,19 +2579,19 @@
     <t xml:space="preserve">30.5262813568115</t>
   </si>
   <si>
-    <t xml:space="preserve">31.0131454467773</t>
+    <t xml:space="preserve">31.0131435394287</t>
   </si>
   <si>
     <t xml:space="preserve">30.7697143554688</t>
   </si>
   <si>
-    <t xml:space="preserve">30.6723403930664</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.3052616119385</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.6422004699707</t>
+    <t xml:space="preserve">30.672342300415</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.3052635192871</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.642204284668</t>
   </si>
   <si>
     <t xml:space="preserve">34.080379486084</t>
@@ -2606,13 +2603,13 @@
     <t xml:space="preserve">35.8817710876465</t>
   </si>
   <si>
-    <t xml:space="preserve">35.9304580688477</t>
-  </si>
-  <si>
-    <t xml:space="preserve">37.4884185791016</t>
-  </si>
-  <si>
-    <t xml:space="preserve">37.2449836730957</t>
+    <t xml:space="preserve">35.9304618835449</t>
+  </si>
+  <si>
+    <t xml:space="preserve">37.4884147644043</t>
+  </si>
+  <si>
+    <t xml:space="preserve">37.244987487793</t>
   </si>
   <si>
     <t xml:space="preserve">37.1963005065918</t>
@@ -2633,7 +2630,7 @@
     <t xml:space="preserve">36.904182434082</t>
   </si>
   <si>
-    <t xml:space="preserve">37.2936744689941</t>
+    <t xml:space="preserve">37.2936706542969</t>
   </si>
   <si>
     <t xml:space="preserve">37.8779067993164</t>
@@ -2648,46 +2645,46 @@
     <t xml:space="preserve">38.9976921081543</t>
   </si>
   <si>
-    <t xml:space="preserve">40.068790435791</t>
+    <t xml:space="preserve">40.0687866210938</t>
   </si>
   <si>
     <t xml:space="preserve">39.9227294921875</t>
   </si>
   <si>
-    <t xml:space="preserve">38.8029441833496</t>
-  </si>
-  <si>
-    <t xml:space="preserve">38.9490051269531</t>
-  </si>
-  <si>
-    <t xml:space="preserve">39.8740463256836</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40.7017097473145</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40.409595489502</t>
-  </si>
-  <si>
-    <t xml:space="preserve">39.6792984008789</t>
+    <t xml:space="preserve">38.8029403686523</t>
+  </si>
+  <si>
+    <t xml:space="preserve">38.9490013122559</t>
+  </si>
+  <si>
+    <t xml:space="preserve">39.8740425109863</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40.7017059326172</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40.4095916748047</t>
+  </si>
+  <si>
+    <t xml:space="preserve">39.6793022155762</t>
   </si>
   <si>
     <t xml:space="preserve">40.5069618225098</t>
   </si>
   <si>
-    <t xml:space="preserve">44.3531761169434</t>
+    <t xml:space="preserve">44.3531723022461</t>
   </si>
   <si>
     <t xml:space="preserve">42.162296295166</t>
   </si>
   <si>
-    <t xml:space="preserve">40.3122215270996</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41.431999206543</t>
-  </si>
-  <si>
-    <t xml:space="preserve">42.1136131286621</t>
+    <t xml:space="preserve">40.3122253417969</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41.4320030212402</t>
+  </si>
+  <si>
+    <t xml:space="preserve">42.1136093139648</t>
   </si>
   <si>
     <t xml:space="preserve">42.6004753112793</t>
@@ -2696,7 +2693,7 @@
     <t xml:space="preserve">42.3083572387695</t>
   </si>
   <si>
-    <t xml:space="preserve">42.8925895690918</t>
+    <t xml:space="preserve">42.8925933837891</t>
   </si>
   <si>
     <t xml:space="preserve">41.8701782226562</t>
@@ -2708,16 +2705,16 @@
     <t xml:space="preserve">43.7689437866211</t>
   </si>
   <si>
-    <t xml:space="preserve">44.4018630981445</t>
-  </si>
-  <si>
-    <t xml:space="preserve">44.9860992431641</t>
+    <t xml:space="preserve">44.4018592834473</t>
+  </si>
+  <si>
+    <t xml:space="preserve">44.9861030578613</t>
   </si>
   <si>
     <t xml:space="preserve">45.034782409668</t>
   </si>
   <si>
-    <t xml:space="preserve">45.9598236083984</t>
+    <t xml:space="preserve">45.9598274230957</t>
   </si>
   <si>
     <t xml:space="preserve">44.6939811706543</t>
@@ -2729,13 +2726,13 @@
     <t xml:space="preserve">46.3006286621094</t>
   </si>
   <si>
-    <t xml:space="preserve">45.765079498291</t>
+    <t xml:space="preserve">45.7650833129883</t>
   </si>
   <si>
     <t xml:space="preserve">45.2295341491699</t>
   </si>
   <si>
-    <t xml:space="preserve">46.5440559387207</t>
+    <t xml:space="preserve">46.544059753418</t>
   </si>
   <si>
     <t xml:space="preserve">45.4242782592773</t>
@@ -2744,37 +2741,37 @@
     <t xml:space="preserve">44.8887252807617</t>
   </si>
   <si>
-    <t xml:space="preserve">44.7913513183594</t>
+    <t xml:space="preserve">44.7913551330566</t>
   </si>
   <si>
     <t xml:space="preserve">44.5479202270508</t>
   </si>
   <si>
-    <t xml:space="preserve">44.109748840332</t>
-  </si>
-  <si>
-    <t xml:space="preserve">43.4281387329102</t>
+    <t xml:space="preserve">44.1097450256348</t>
+  </si>
+  <si>
+    <t xml:space="preserve">43.4281349182129</t>
   </si>
   <si>
     <t xml:space="preserve">43.5741996765137</t>
   </si>
   <si>
-    <t xml:space="preserve">43.5255126953125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">43.1360244750977</t>
-  </si>
-  <si>
-    <t xml:space="preserve">43.3307647705078</t>
-  </si>
-  <si>
-    <t xml:space="preserve">44.3044891357422</t>
+    <t xml:space="preserve">43.5255165100098</t>
+  </si>
+  <si>
+    <t xml:space="preserve">43.1360206604004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">43.3307685852051</t>
+  </si>
+  <si>
+    <t xml:space="preserve">44.3044929504395</t>
   </si>
   <si>
     <t xml:space="preserve">43.6715698242188</t>
   </si>
   <si>
-    <t xml:space="preserve">42.6978416442871</t>
+    <t xml:space="preserve">42.6978454589844</t>
   </si>
   <si>
     <t xml:space="preserve">42.1582565307617</t>
@@ -2813,16 +2810,16 @@
     <t xml:space="preserve">39.898021697998</t>
   </si>
   <si>
-    <t xml:space="preserve">39.8488845825195</t>
+    <t xml:space="preserve">39.8488883972168</t>
   </si>
   <si>
     <t xml:space="preserve">39.9962959289551</t>
   </si>
   <si>
-    <t xml:space="preserve">39.504940032959</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40.5367851257324</t>
+    <t xml:space="preserve">39.5049438476562</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40.5367813110352</t>
   </si>
   <si>
     <t xml:space="preserve">40.1928367614746</t>
@@ -2837,7 +2834,7 @@
     <t xml:space="preserve">37.8343315124512</t>
   </si>
   <si>
-    <t xml:space="preserve">38.3256874084473</t>
+    <t xml:space="preserve">38.32568359375</t>
   </si>
   <si>
     <t xml:space="preserve">39.7997512817383</t>
@@ -2849,28 +2846,28 @@
     <t xml:space="preserve">42.354793548584</t>
   </si>
   <si>
-    <t xml:space="preserve">41.7160339355469</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41.3229522705078</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40.6350517272949</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40.6841888427734</t>
-  </si>
-  <si>
-    <t xml:space="preserve">42.453067779541</t>
-  </si>
-  <si>
-    <t xml:space="preserve">42.3056564331055</t>
+    <t xml:space="preserve">41.7160377502441</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41.3229484558105</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40.6350555419922</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40.6841926574707</t>
+  </si>
+  <si>
+    <t xml:space="preserve">42.4530639648438</t>
+  </si>
+  <si>
+    <t xml:space="preserve">42.3056602478027</t>
   </si>
   <si>
     <t xml:space="preserve">42.207389831543</t>
   </si>
   <si>
-    <t xml:space="preserve">41.6669006347656</t>
+    <t xml:space="preserve">41.6668968200684</t>
   </si>
   <si>
     <t xml:space="preserve">42.9935607910156</t>
@@ -2882,10 +2879,10 @@
     <t xml:space="preserve">45.6960105895996</t>
   </si>
   <si>
-    <t xml:space="preserve">46.4821815490723</t>
-  </si>
-  <si>
-    <t xml:space="preserve">48.1527862548828</t>
+    <t xml:space="preserve">46.482177734375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">48.1527824401855</t>
   </si>
   <si>
     <t xml:space="preserve">47.6122970581055</t>
@@ -2909,7 +2906,7 @@
     <t xml:space="preserve">50.0199356079102</t>
   </si>
   <si>
-    <t xml:space="preserve">50.2164764404297</t>
+    <t xml:space="preserve">50.2164726257324</t>
   </si>
   <si>
     <t xml:space="preserve">50.1182060241699</t>
@@ -2927,7 +2924,7 @@
     <t xml:space="preserve">50.609561920166</t>
   </si>
   <si>
-    <t xml:space="preserve">50.904369354248</t>
+    <t xml:space="preserve">50.9043731689453</t>
   </si>
   <si>
     <t xml:space="preserve">50.8061027526855</t>
@@ -2936,7 +2933,7 @@
     <t xml:space="preserve">51.5922660827637</t>
   </si>
   <si>
-    <t xml:space="preserve">50.5112915039062</t>
+    <t xml:space="preserve">50.511287689209</t>
   </si>
   <si>
     <t xml:space="preserve">51.1009140014648</t>
@@ -2951,13 +2948,13 @@
     <t xml:space="preserve">52.2801704406738</t>
   </si>
   <si>
-    <t xml:space="preserve">51.1991806030273</t>
-  </si>
-  <si>
-    <t xml:space="preserve">45.5486030578613</t>
-  </si>
-  <si>
-    <t xml:space="preserve">44.8115653991699</t>
+    <t xml:space="preserve">51.1991844177246</t>
+  </si>
+  <si>
+    <t xml:space="preserve">45.5485992431641</t>
+  </si>
+  <si>
+    <t xml:space="preserve">44.8115692138672</t>
   </si>
   <si>
     <t xml:space="preserve">43.7797241210938</t>
@@ -2972,10 +2969,10 @@
     <t xml:space="preserve">45.2046546936035</t>
   </si>
   <si>
-    <t xml:space="preserve">44.3202171325684</t>
-  </si>
-  <si>
-    <t xml:space="preserve">44.074535369873</t>
+    <t xml:space="preserve">44.3202133178711</t>
+  </si>
+  <si>
+    <t xml:space="preserve">44.0745391845703</t>
   </si>
   <si>
     <t xml:space="preserve">44.7132987976074</t>
@@ -2993,7 +2990,7 @@
     <t xml:space="preserve">41.224681854248</t>
   </si>
   <si>
-    <t xml:space="preserve">42.0108451843262</t>
+    <t xml:space="preserve">42.0108489990234</t>
   </si>
   <si>
     <t xml:space="preserve">42.5513381958008</t>
@@ -3002,16 +2999,16 @@
     <t xml:space="preserve">43.3375053405762</t>
   </si>
   <si>
-    <t xml:space="preserve">43.534049987793</t>
-  </si>
-  <si>
-    <t xml:space="preserve">43.9762649536133</t>
+    <t xml:space="preserve">43.5340461730957</t>
+  </si>
+  <si>
+    <t xml:space="preserve">43.9762687683105</t>
   </si>
   <si>
     <t xml:space="preserve">44.6150283813477</t>
   </si>
   <si>
-    <t xml:space="preserve">45.7451438903809</t>
+    <t xml:space="preserve">45.7451477050781</t>
   </si>
   <si>
     <t xml:space="preserve">46.3839111328125</t>
@@ -3020,7 +3017,7 @@
     <t xml:space="preserve">45.9416885375977</t>
   </si>
   <si>
-    <t xml:space="preserve">46.0399589538574</t>
+    <t xml:space="preserve">46.0399551391602</t>
   </si>
   <si>
     <t xml:space="preserve">43.0426940917969</t>
@@ -3029,13 +3026,16 @@
     <t xml:space="preserve">41.5194892883301</t>
   </si>
   <si>
-    <t xml:space="preserve">42.9444236755371</t>
-  </si>
-  <si>
-    <t xml:space="preserve">43.386646270752</t>
-  </si>
-  <si>
-    <t xml:space="preserve">42.6987495422363</t>
+    <t xml:space="preserve">42.9444274902344</t>
+  </si>
+  <si>
+    <t xml:space="preserve">43.3866424560547</t>
+  </si>
+  <si>
+    <t xml:space="preserve">42.600471496582</t>
+  </si>
+  <si>
+    <t xml:space="preserve">42.6987457275391</t>
   </si>
   <si>
     <t xml:space="preserve">41.7651710510254</t>
@@ -3050,13 +3050,13 @@
     <t xml:space="preserve">38.4730949401855</t>
   </si>
   <si>
-    <t xml:space="preserve">39.3083953857422</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40.0945663452148</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40.7824592590332</t>
+    <t xml:space="preserve">39.3083915710449</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40.0945625305176</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40.7824630737305</t>
   </si>
   <si>
     <t xml:space="preserve">42.1091156005859</t>
@@ -3065,10 +3065,10 @@
     <t xml:space="preserve">41.3720855712891</t>
   </si>
   <si>
-    <t xml:space="preserve">41.0772705078125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41.9125747680664</t>
+    <t xml:space="preserve">41.0772743225098</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41.9125785827637</t>
   </si>
   <si>
     <t xml:space="preserve">41.8634414672852</t>
@@ -3092,7 +3092,7 @@
     <t xml:space="preserve">40.880729675293</t>
   </si>
   <si>
-    <t xml:space="preserve">43.1409645080566</t>
+    <t xml:space="preserve">43.1409683227539</t>
   </si>
   <si>
     <t xml:space="preserve">43.7305908203125</t>
@@ -3107,7 +3107,7 @@
     <t xml:space="preserve">39.3575325012207</t>
   </si>
   <si>
-    <t xml:space="preserve">42.8461494445801</t>
+    <t xml:space="preserve">42.8461532592773</t>
   </si>
   <si>
     <t xml:space="preserve">42.8952903747559</t>
@@ -3119,16 +3119,16 @@
     <t xml:space="preserve">36.6550788879395</t>
   </si>
   <si>
-    <t xml:space="preserve">38.8661766052246</t>
-  </si>
-  <si>
-    <t xml:space="preserve">37.3429756164551</t>
+    <t xml:space="preserve">38.8661727905273</t>
+  </si>
+  <si>
+    <t xml:space="preserve">37.3429794311523</t>
   </si>
   <si>
     <t xml:space="preserve">36.0163154602051</t>
   </si>
   <si>
-    <t xml:space="preserve">34.9353370666504</t>
+    <t xml:space="preserve">34.9353332519531</t>
   </si>
   <si>
     <t xml:space="preserve">35.8197746276855</t>
@@ -3167,13 +3167,13 @@
     <t xml:space="preserve">31.6923942565918</t>
   </si>
   <si>
-    <t xml:space="preserve">31.8397998809814</t>
+    <t xml:space="preserve">31.8398017883301</t>
   </si>
   <si>
     <t xml:space="preserve">33.2155952453613</t>
   </si>
   <si>
-    <t xml:space="preserve">32.5768356323242</t>
+    <t xml:space="preserve">32.576831817627</t>
   </si>
   <si>
     <t xml:space="preserve">33.6578140258789</t>
@@ -3188,13 +3188,13 @@
     <t xml:space="preserve">35.5249633789062</t>
   </si>
   <si>
-    <t xml:space="preserve">32.2328796386719</t>
+    <t xml:space="preserve">32.2328834533691</t>
   </si>
   <si>
     <t xml:space="preserve">31.5941257476807</t>
   </si>
   <si>
-    <t xml:space="preserve">33.8052253723145</t>
+    <t xml:space="preserve">33.8052215576172</t>
   </si>
   <si>
     <t xml:space="preserve">33.1664619445801</t>
@@ -3206,7 +3206,7 @@
     <t xml:space="preserve">32.6259651184082</t>
   </si>
   <si>
-    <t xml:space="preserve">32.822509765625</t>
+    <t xml:space="preserve">32.8225135803223</t>
   </si>
   <si>
     <t xml:space="preserve">31.6432590484619</t>
@@ -3221,16 +3221,16 @@
     <t xml:space="preserve">31.4074077606201</t>
   </si>
   <si>
-    <t xml:space="preserve">31.210865020752</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.0929393768311</t>
+    <t xml:space="preserve">31.2108669281006</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.0929412841797</t>
   </si>
   <si>
     <t xml:space="preserve">29.8350734710693</t>
   </si>
   <si>
-    <t xml:space="preserve">30.6605472564697</t>
+    <t xml:space="preserve">30.6605491638184</t>
   </si>
   <si>
     <t xml:space="preserve">32.4294242858887</t>
@@ -3248,10 +3248,10 @@
     <t xml:space="preserve">32.3704605102539</t>
   </si>
   <si>
-    <t xml:space="preserve">31.5842952728271</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.8594512939453</t>
+    <t xml:space="preserve">31.5842933654785</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.8594532012939</t>
   </si>
   <si>
     <t xml:space="preserve">30.0709228515625</t>
@@ -3260,10 +3260,10 @@
     <t xml:space="preserve">30.1495399475098</t>
   </si>
   <si>
-    <t xml:space="preserve">28.5575485229492</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.6754741668701</t>
+    <t xml:space="preserve">28.5575504302979</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.6754760742188</t>
   </si>
   <si>
     <t xml:space="preserve">29.3830261230469</t>
@@ -3287,7 +3287,7 @@
     <t xml:space="preserve">27.181755065918</t>
   </si>
   <si>
-    <t xml:space="preserve">28.4985885620117</t>
+    <t xml:space="preserve">28.4985866546631</t>
   </si>
   <si>
     <t xml:space="preserve">28.7737464904785</t>
@@ -29325,7 +29325,7 @@
         <v>16.7999992370605</v>
       </c>
       <c r="G942" t="s">
-        <v>619</v>
+        <v>554</v>
       </c>
       <c r="H942" t="s">
         <v>9</v>
@@ -29351,7 +29351,7 @@
         <v>16.3999996185303</v>
       </c>
       <c r="G943" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="H943" t="s">
         <v>9</v>
@@ -29403,7 +29403,7 @@
         <v>16.4400005340576</v>
       </c>
       <c r="G945" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="H945" t="s">
         <v>9</v>
@@ -29455,7 +29455,7 @@
         <v>16.5400009155273</v>
       </c>
       <c r="G947" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="H947" t="s">
         <v>9</v>
@@ -29481,7 +29481,7 @@
         <v>16.2600002288818</v>
       </c>
       <c r="G948" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="H948" t="s">
         <v>9</v>
@@ -29507,7 +29507,7 @@
         <v>16.2399997711182</v>
       </c>
       <c r="G949" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="H949" t="s">
         <v>9</v>
@@ -29585,7 +29585,7 @@
         <v>16.4799995422363</v>
       </c>
       <c r="G952" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="H952" t="s">
         <v>9</v>
@@ -29663,7 +29663,7 @@
         <v>16.2000007629395</v>
       </c>
       <c r="G955" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="H955" t="s">
         <v>9</v>
@@ -29689,7 +29689,7 @@
         <v>16.1200008392334</v>
       </c>
       <c r="G956" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="H956" t="s">
         <v>9</v>
@@ -29767,7 +29767,7 @@
         <v>16.4599990844727</v>
       </c>
       <c r="G959" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="H959" t="s">
         <v>9</v>
@@ -29819,7 +29819,7 @@
         <v>16.3999996185303</v>
       </c>
       <c r="G961" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="H961" t="s">
         <v>9</v>
@@ -29871,7 +29871,7 @@
         <v>16.5599994659424</v>
       </c>
       <c r="G963" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="H963" t="s">
         <v>9</v>
@@ -29949,7 +29949,7 @@
         <v>16.7600002288818</v>
       </c>
       <c r="G966" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="H966" t="s">
         <v>9</v>
@@ -29975,7 +29975,7 @@
         <v>16.7999992370605</v>
       </c>
       <c r="G967" t="s">
-        <v>619</v>
+        <v>554</v>
       </c>
       <c r="H967" t="s">
         <v>9</v>
@@ -30027,7 +30027,7 @@
         <v>17.8400001525879</v>
       </c>
       <c r="G969" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="H969" t="s">
         <v>9</v>
@@ -30053,7 +30053,7 @@
         <v>17.6800003051758</v>
       </c>
       <c r="G970" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="H970" t="s">
         <v>9</v>
@@ -30079,7 +30079,7 @@
         <v>17.6200008392334</v>
       </c>
       <c r="G971" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="H971" t="s">
         <v>9</v>
@@ -30131,7 +30131,7 @@
         <v>17.5599994659424</v>
       </c>
       <c r="G973" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="H973" t="s">
         <v>9</v>
@@ -30157,7 +30157,7 @@
         <v>17.6800003051758</v>
       </c>
       <c r="G974" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="H974" t="s">
         <v>9</v>
@@ -30183,7 +30183,7 @@
         <v>17.6599998474121</v>
       </c>
       <c r="G975" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="H975" t="s">
         <v>9</v>
@@ -30209,7 +30209,7 @@
         <v>17.7999992370605</v>
       </c>
       <c r="G976" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="H976" t="s">
         <v>9</v>
@@ -30261,7 +30261,7 @@
         <v>17.5599994659424</v>
       </c>
       <c r="G978" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="H978" t="s">
         <v>9</v>
@@ -30287,7 +30287,7 @@
         <v>17.9599990844727</v>
       </c>
       <c r="G979" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="H979" t="s">
         <v>9</v>
@@ -30313,7 +30313,7 @@
         <v>19</v>
       </c>
       <c r="G980" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="H980" t="s">
         <v>9</v>
@@ -30339,7 +30339,7 @@
         <v>18.8999996185303</v>
       </c>
       <c r="G981" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="H981" t="s">
         <v>9</v>
@@ -30365,7 +30365,7 @@
         <v>18.2999992370605</v>
       </c>
       <c r="G982" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="H982" t="s">
         <v>9</v>
@@ -30391,7 +30391,7 @@
         <v>18.3600006103516</v>
       </c>
       <c r="G983" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="H983" t="s">
         <v>9</v>
@@ -30417,7 +30417,7 @@
         <v>18.8199996948242</v>
       </c>
       <c r="G984" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="H984" t="s">
         <v>9</v>
@@ -30443,7 +30443,7 @@
         <v>18.7000007629395</v>
       </c>
       <c r="G985" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="H985" t="s">
         <v>9</v>
@@ -30469,7 +30469,7 @@
         <v>18.8400001525879</v>
       </c>
       <c r="G986" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="H986" t="s">
         <v>9</v>
@@ -30495,7 +30495,7 @@
         <v>18.6800003051758</v>
       </c>
       <c r="G987" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="H987" t="s">
         <v>9</v>
@@ -30521,7 +30521,7 @@
         <v>18.6599998474121</v>
       </c>
       <c r="G988" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="H988" t="s">
         <v>9</v>
@@ -30547,7 +30547,7 @@
         <v>18.7800006866455</v>
       </c>
       <c r="G989" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="H989" t="s">
         <v>9</v>
@@ -30573,7 +30573,7 @@
         <v>18.6800003051758</v>
       </c>
       <c r="G990" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="H990" t="s">
         <v>9</v>
@@ -30599,7 +30599,7 @@
         <v>18.7000007629395</v>
       </c>
       <c r="G991" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="H991" t="s">
         <v>9</v>
@@ -30625,7 +30625,7 @@
         <v>18.6399993896484</v>
       </c>
       <c r="G992" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="H992" t="s">
         <v>9</v>
@@ -30651,7 +30651,7 @@
         <v>19.0400009155273</v>
       </c>
       <c r="G993" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="H993" t="s">
         <v>9</v>
@@ -30677,7 +30677,7 @@
         <v>19.5</v>
       </c>
       <c r="G994" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="H994" t="s">
         <v>9</v>
@@ -30703,7 +30703,7 @@
         <v>19.8600006103516</v>
       </c>
       <c r="G995" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="H995" t="s">
         <v>9</v>
@@ -30729,7 +30729,7 @@
         <v>19.7800006866455</v>
       </c>
       <c r="G996" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="H996" t="s">
         <v>9</v>
@@ -30755,7 +30755,7 @@
         <v>19.2800006866455</v>
       </c>
       <c r="G997" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="H997" t="s">
         <v>9</v>
@@ -30781,7 +30781,7 @@
         <v>19.5</v>
       </c>
       <c r="G998" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="H998" t="s">
         <v>9</v>
@@ -30807,7 +30807,7 @@
         <v>19.7199993133545</v>
       </c>
       <c r="G999" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="H999" t="s">
         <v>9</v>
@@ -30833,7 +30833,7 @@
         <v>19.6599998474121</v>
       </c>
       <c r="G1000" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="H1000" t="s">
         <v>9</v>
@@ -30859,7 +30859,7 @@
         <v>20.2000007629395</v>
       </c>
       <c r="G1001" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="H1001" t="s">
         <v>9</v>
@@ -30885,7 +30885,7 @@
         <v>20.6000003814697</v>
       </c>
       <c r="G1002" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="H1002" t="s">
         <v>9</v>
@@ -30911,7 +30911,7 @@
         <v>20.2999992370605</v>
       </c>
       <c r="G1003" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="H1003" t="s">
         <v>9</v>
@@ -30937,7 +30937,7 @@
         <v>20.4500007629395</v>
       </c>
       <c r="G1004" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="H1004" t="s">
         <v>9</v>
@@ -30963,7 +30963,7 @@
         <v>20.0499992370605</v>
       </c>
       <c r="G1005" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="H1005" t="s">
         <v>9</v>
@@ -30989,7 +30989,7 @@
         <v>20.0499992370605</v>
       </c>
       <c r="G1006" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="H1006" t="s">
         <v>9</v>
@@ -31015,7 +31015,7 @@
         <v>19.6000003814697</v>
       </c>
       <c r="G1007" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="H1007" t="s">
         <v>9</v>
@@ -31041,7 +31041,7 @@
         <v>20.3999996185303</v>
       </c>
       <c r="G1008" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="H1008" t="s">
         <v>9</v>
@@ -31067,7 +31067,7 @@
         <v>20.5</v>
       </c>
       <c r="G1009" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="H1009" t="s">
         <v>9</v>
@@ -31093,7 +31093,7 @@
         <v>20.5499992370605</v>
       </c>
       <c r="G1010" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="H1010" t="s">
         <v>9</v>
@@ -31119,7 +31119,7 @@
         <v>20.5499992370605</v>
       </c>
       <c r="G1011" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="H1011" t="s">
         <v>9</v>
@@ -31145,7 +31145,7 @@
         <v>20.1000003814697</v>
       </c>
       <c r="G1012" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="H1012" t="s">
         <v>9</v>
@@ -31171,7 +31171,7 @@
         <v>20.1000003814697</v>
       </c>
       <c r="G1013" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="H1013" t="s">
         <v>9</v>
@@ -31197,7 +31197,7 @@
         <v>20.2999992370605</v>
       </c>
       <c r="G1014" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="H1014" t="s">
         <v>9</v>
@@ -31223,7 +31223,7 @@
         <v>20.0499992370605</v>
       </c>
       <c r="G1015" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="H1015" t="s">
         <v>9</v>
@@ -31249,7 +31249,7 @@
         <v>20.3999996185303</v>
       </c>
       <c r="G1016" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="H1016" t="s">
         <v>9</v>
@@ -31275,7 +31275,7 @@
         <v>20.4500007629395</v>
       </c>
       <c r="G1017" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="H1017" t="s">
         <v>9</v>
@@ -31301,7 +31301,7 @@
         <v>20.3500003814697</v>
       </c>
       <c r="G1018" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="H1018" t="s">
         <v>9</v>
@@ -31327,7 +31327,7 @@
         <v>21</v>
       </c>
       <c r="G1019" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="H1019" t="s">
         <v>9</v>
@@ -31353,7 +31353,7 @@
         <v>21.0499992370605</v>
       </c>
       <c r="G1020" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="H1020" t="s">
         <v>9</v>
@@ -31379,7 +31379,7 @@
         <v>23.1000003814697</v>
       </c>
       <c r="G1021" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="H1021" t="s">
         <v>9</v>
@@ -31405,7 +31405,7 @@
         <v>22</v>
       </c>
       <c r="G1022" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="H1022" t="s">
         <v>9</v>
@@ -31431,7 +31431,7 @@
         <v>21.9500007629395</v>
       </c>
       <c r="G1023" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="H1023" t="s">
         <v>9</v>
@@ -31457,7 +31457,7 @@
         <v>21.6499996185303</v>
       </c>
       <c r="G1024" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="H1024" t="s">
         <v>9</v>
@@ -31483,7 +31483,7 @@
         <v>21.4500007629395</v>
       </c>
       <c r="G1025" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="H1025" t="s">
         <v>9</v>
@@ -31509,7 +31509,7 @@
         <v>21.8500003814697</v>
       </c>
       <c r="G1026" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="H1026" t="s">
         <v>9</v>
@@ -31535,7 +31535,7 @@
         <v>22</v>
       </c>
       <c r="G1027" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="H1027" t="s">
         <v>9</v>
@@ -31561,7 +31561,7 @@
         <v>21.8500003814697</v>
       </c>
       <c r="G1028" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="H1028" t="s">
         <v>9</v>
@@ -31587,7 +31587,7 @@
         <v>21.5499992370605</v>
       </c>
       <c r="G1029" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="H1029" t="s">
         <v>9</v>
@@ -31613,7 +31613,7 @@
         <v>21.5</v>
       </c>
       <c r="G1030" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="H1030" t="s">
         <v>9</v>
@@ -31639,7 +31639,7 @@
         <v>21.5499992370605</v>
       </c>
       <c r="G1031" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="H1031" t="s">
         <v>9</v>
@@ -31665,7 +31665,7 @@
         <v>21.5</v>
       </c>
       <c r="G1032" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="H1032" t="s">
         <v>9</v>
@@ -31691,7 +31691,7 @@
         <v>20.75</v>
       </c>
       <c r="G1033" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="H1033" t="s">
         <v>9</v>
@@ -31717,7 +31717,7 @@
         <v>21.1000003814697</v>
       </c>
       <c r="G1034" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="H1034" t="s">
         <v>9</v>
@@ -31743,7 +31743,7 @@
         <v>20.7999992370605</v>
       </c>
       <c r="G1035" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="H1035" t="s">
         <v>9</v>
@@ -31769,7 +31769,7 @@
         <v>20.6499996185303</v>
       </c>
       <c r="G1036" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="H1036" t="s">
         <v>9</v>
@@ -31795,7 +31795,7 @@
         <v>20.1000003814697</v>
       </c>
       <c r="G1037" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="H1037" t="s">
         <v>9</v>
@@ -31821,7 +31821,7 @@
         <v>19.8400001525879</v>
       </c>
       <c r="G1038" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="H1038" t="s">
         <v>9</v>
@@ -31847,7 +31847,7 @@
         <v>20.75</v>
       </c>
       <c r="G1039" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="H1039" t="s">
         <v>9</v>
@@ -31873,7 +31873,7 @@
         <v>21.6000003814697</v>
       </c>
       <c r="G1040" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="H1040" t="s">
         <v>9</v>
@@ -31899,7 +31899,7 @@
         <v>21.75</v>
       </c>
       <c r="G1041" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="H1041" t="s">
         <v>9</v>
@@ -31925,7 +31925,7 @@
         <v>21.5499992370605</v>
       </c>
       <c r="G1042" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="H1042" t="s">
         <v>9</v>
@@ -31951,7 +31951,7 @@
         <v>21.3999996185303</v>
       </c>
       <c r="G1043" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="H1043" t="s">
         <v>9</v>
@@ -31977,7 +31977,7 @@
         <v>21.8500003814697</v>
       </c>
       <c r="G1044" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="H1044" t="s">
         <v>9</v>
@@ -32003,7 +32003,7 @@
         <v>22.1000003814697</v>
       </c>
       <c r="G1045" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="H1045" t="s">
         <v>9</v>
@@ -32029,7 +32029,7 @@
         <v>22.25</v>
       </c>
       <c r="G1046" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="H1046" t="s">
         <v>9</v>
@@ -32055,7 +32055,7 @@
         <v>22.0499992370605</v>
       </c>
       <c r="G1047" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="H1047" t="s">
         <v>9</v>
@@ -32081,7 +32081,7 @@
         <v>22.5</v>
       </c>
       <c r="G1048" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="H1048" t="s">
         <v>9</v>
@@ -32107,7 +32107,7 @@
         <v>22.2999992370605</v>
       </c>
       <c r="G1049" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="H1049" t="s">
         <v>9</v>
@@ -32133,7 +32133,7 @@
         <v>22.7000007629395</v>
       </c>
       <c r="G1050" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="H1050" t="s">
         <v>9</v>
@@ -32159,7 +32159,7 @@
         <v>22.25</v>
       </c>
       <c r="G1051" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="H1051" t="s">
         <v>9</v>
@@ -32185,7 +32185,7 @@
         <v>22</v>
       </c>
       <c r="G1052" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="H1052" t="s">
         <v>9</v>
@@ -32211,7 +32211,7 @@
         <v>20.8500003814697</v>
       </c>
       <c r="G1053" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="H1053" t="s">
         <v>9</v>
@@ -32237,7 +32237,7 @@
         <v>20.5499992370605</v>
       </c>
       <c r="G1054" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="H1054" t="s">
         <v>9</v>
@@ -32263,7 +32263,7 @@
         <v>20.8999996185303</v>
       </c>
       <c r="G1055" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="H1055" t="s">
         <v>9</v>
@@ -32289,7 +32289,7 @@
         <v>20.3999996185303</v>
       </c>
       <c r="G1056" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="H1056" t="s">
         <v>9</v>
@@ -32315,7 +32315,7 @@
         <v>20.5</v>
       </c>
       <c r="G1057" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="H1057" t="s">
         <v>9</v>
@@ -32341,7 +32341,7 @@
         <v>19.4799995422363</v>
       </c>
       <c r="G1058" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="H1058" t="s">
         <v>9</v>
@@ -32367,7 +32367,7 @@
         <v>19.5</v>
       </c>
       <c r="G1059" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="H1059" t="s">
         <v>9</v>
@@ -32393,7 +32393,7 @@
         <v>19.6000003814697</v>
       </c>
       <c r="G1060" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="H1060" t="s">
         <v>9</v>
@@ -32419,7 +32419,7 @@
         <v>18.9200000762939</v>
       </c>
       <c r="G1061" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="H1061" t="s">
         <v>9</v>
@@ -32445,7 +32445,7 @@
         <v>18.3199996948242</v>
       </c>
       <c r="G1062" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="H1062" t="s">
         <v>9</v>
@@ -32497,7 +32497,7 @@
         <v>16.9599990844727</v>
       </c>
       <c r="G1064" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="H1064" t="s">
         <v>9</v>
@@ -32523,7 +32523,7 @@
         <v>16.8400001525879</v>
       </c>
       <c r="G1065" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="H1065" t="s">
         <v>9</v>
@@ -32549,7 +32549,7 @@
         <v>15.0600004196167</v>
       </c>
       <c r="G1066" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="H1066" t="s">
         <v>9</v>
@@ -32575,7 +32575,7 @@
         <v>15</v>
       </c>
       <c r="G1067" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="H1067" t="s">
         <v>9</v>
@@ -32601,7 +32601,7 @@
         <v>12.960000038147</v>
       </c>
       <c r="G1068" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="H1068" t="s">
         <v>9</v>
@@ -32627,7 +32627,7 @@
         <v>12.5</v>
       </c>
       <c r="G1069" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="H1069" t="s">
         <v>9</v>
@@ -32653,7 +32653,7 @@
         <v>12.6199998855591</v>
       </c>
       <c r="G1070" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="H1070" t="s">
         <v>9</v>
@@ -32679,7 +32679,7 @@
         <v>13.1999998092651</v>
       </c>
       <c r="G1071" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="H1071" t="s">
         <v>9</v>
@@ -32705,7 +32705,7 @@
         <v>13.4200000762939</v>
       </c>
       <c r="G1072" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="H1072" t="s">
         <v>9</v>
@@ -32731,7 +32731,7 @@
         <v>12.460000038147</v>
       </c>
       <c r="G1073" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="H1073" t="s">
         <v>9</v>
@@ -32757,7 +32757,7 @@
         <v>13.8400001525879</v>
       </c>
       <c r="G1074" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="H1074" t="s">
         <v>9</v>
@@ -32783,7 +32783,7 @@
         <v>14.1000003814697</v>
       </c>
       <c r="G1075" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="H1075" t="s">
         <v>9</v>
@@ -32809,7 +32809,7 @@
         <v>14.5799999237061</v>
       </c>
       <c r="G1076" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="H1076" t="s">
         <v>9</v>
@@ -32835,7 +32835,7 @@
         <v>14.7600002288818</v>
       </c>
       <c r="G1077" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="H1077" t="s">
         <v>9</v>
@@ -32861,7 +32861,7 @@
         <v>14.8599996566772</v>
       </c>
       <c r="G1078" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="H1078" t="s">
         <v>9</v>
@@ -32965,7 +32965,7 @@
         <v>14.5799999237061</v>
       </c>
       <c r="G1082" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="H1082" t="s">
         <v>9</v>
@@ -32991,7 +32991,7 @@
         <v>14.6800003051758</v>
       </c>
       <c r="G1083" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="H1083" t="s">
         <v>9</v>
@@ -33017,7 +33017,7 @@
         <v>15</v>
       </c>
       <c r="G1084" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="H1084" t="s">
         <v>9</v>
@@ -33043,7 +33043,7 @@
         <v>15.0600004196167</v>
       </c>
       <c r="G1085" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="H1085" t="s">
         <v>9</v>
@@ -33069,7 +33069,7 @@
         <v>15.3199996948242</v>
       </c>
       <c r="G1086" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="H1086" t="s">
         <v>9</v>
@@ -33121,7 +33121,7 @@
         <v>14.8599996566772</v>
       </c>
       <c r="G1088" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="H1088" t="s">
         <v>9</v>
@@ -33147,7 +33147,7 @@
         <v>14.6599998474121</v>
       </c>
       <c r="G1089" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="H1089" t="s">
         <v>9</v>
@@ -33173,7 +33173,7 @@
         <v>15</v>
       </c>
       <c r="G1090" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="H1090" t="s">
         <v>9</v>
@@ -33199,7 +33199,7 @@
         <v>16.0200004577637</v>
       </c>
       <c r="G1091" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="H1091" t="s">
         <v>9</v>
@@ -33277,7 +33277,7 @@
         <v>17.5400009155273</v>
       </c>
       <c r="G1094" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="H1094" t="s">
         <v>9</v>
@@ -33303,7 +33303,7 @@
         <v>16.8199996948242</v>
       </c>
       <c r="G1095" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="H1095" t="s">
         <v>9</v>
@@ -33329,7 +33329,7 @@
         <v>16.8600006103516</v>
       </c>
       <c r="G1096" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="H1096" t="s">
         <v>9</v>
@@ -33407,7 +33407,7 @@
         <v>16.5400009155273</v>
       </c>
       <c r="G1099" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="H1099" t="s">
         <v>9</v>
@@ -33433,7 +33433,7 @@
         <v>16.0799999237061</v>
       </c>
       <c r="G1100" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="H1100" t="s">
         <v>9</v>
@@ -33537,7 +33537,7 @@
         <v>16.3999996185303</v>
       </c>
       <c r="G1104" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="H1104" t="s">
         <v>9</v>
@@ -33589,7 +33589,7 @@
         <v>16.0200004577637</v>
       </c>
       <c r="G1106" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="H1106" t="s">
         <v>9</v>
@@ -33667,7 +33667,7 @@
         <v>16.0799999237061</v>
       </c>
       <c r="G1109" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="H1109" t="s">
         <v>9</v>
@@ -33745,7 +33745,7 @@
         <v>16.7000007629395</v>
       </c>
       <c r="G1112" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="H1112" t="s">
         <v>9</v>
@@ -33771,7 +33771,7 @@
         <v>16.7800006866455</v>
       </c>
       <c r="G1113" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="H1113" t="s">
         <v>9</v>
@@ -33797,7 +33797,7 @@
         <v>16.6800003051758</v>
       </c>
       <c r="G1114" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="H1114" t="s">
         <v>9</v>
@@ -33901,7 +33901,7 @@
         <v>17.2600002288818</v>
       </c>
       <c r="G1118" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="H1118" t="s">
         <v>9</v>
@@ -33927,7 +33927,7 @@
         <v>17.8999996185303</v>
       </c>
       <c r="G1119" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="H1119" t="s">
         <v>9</v>
@@ -33953,7 +33953,7 @@
         <v>17.3799991607666</v>
       </c>
       <c r="G1120" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="H1120" t="s">
         <v>9</v>
@@ -33979,7 +33979,7 @@
         <v>17.6000003814697</v>
       </c>
       <c r="G1121" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="H1121" t="s">
         <v>9</v>
@@ -34005,7 +34005,7 @@
         <v>17.7399997711182</v>
       </c>
       <c r="G1122" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="H1122" t="s">
         <v>9</v>
@@ -34031,7 +34031,7 @@
         <v>18.9799995422363</v>
       </c>
       <c r="G1123" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="H1123" t="s">
         <v>9</v>
@@ -34057,7 +34057,7 @@
         <v>19.3799991607666</v>
       </c>
       <c r="G1124" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="H1124" t="s">
         <v>9</v>
@@ -34083,7 +34083,7 @@
         <v>18.6800003051758</v>
       </c>
       <c r="G1125" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="H1125" t="s">
         <v>9</v>
@@ -34109,7 +34109,7 @@
         <v>18.3600006103516</v>
       </c>
       <c r="G1126" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="H1126" t="s">
         <v>9</v>
@@ -34135,7 +34135,7 @@
         <v>18.0400009155273</v>
       </c>
       <c r="G1127" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="H1127" t="s">
         <v>9</v>
@@ -34161,7 +34161,7 @@
         <v>18.0200004577637</v>
       </c>
       <c r="G1128" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="H1128" t="s">
         <v>9</v>
@@ -34187,7 +34187,7 @@
         <v>17.7800006866455</v>
       </c>
       <c r="G1129" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="H1129" t="s">
         <v>9</v>
@@ -34213,7 +34213,7 @@
         <v>17.5200004577637</v>
       </c>
       <c r="G1130" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="H1130" t="s">
         <v>9</v>
@@ -34239,7 +34239,7 @@
         <v>18</v>
       </c>
       <c r="G1131" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="H1131" t="s">
         <v>9</v>
@@ -34265,7 +34265,7 @@
         <v>18.2000007629395</v>
       </c>
       <c r="G1132" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="H1132" t="s">
         <v>9</v>
@@ -34291,7 +34291,7 @@
         <v>17.7399997711182</v>
       </c>
       <c r="G1133" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="H1133" t="s">
         <v>9</v>
@@ -34317,7 +34317,7 @@
         <v>18.2399997711182</v>
       </c>
       <c r="G1134" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="H1134" t="s">
         <v>9</v>
@@ -34343,7 +34343,7 @@
         <v>18.0799999237061</v>
       </c>
       <c r="G1135" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="H1135" t="s">
         <v>9</v>
@@ -34369,7 +34369,7 @@
         <v>18.3199996948242</v>
       </c>
       <c r="G1136" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="H1136" t="s">
         <v>9</v>
@@ -34395,7 +34395,7 @@
         <v>18.8999996185303</v>
       </c>
       <c r="G1137" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="H1137" t="s">
         <v>9</v>
@@ -34421,7 +34421,7 @@
         <v>18.5400009155273</v>
       </c>
       <c r="G1138" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="H1138" t="s">
         <v>9</v>
@@ -34447,7 +34447,7 @@
         <v>18.6599998474121</v>
       </c>
       <c r="G1139" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="H1139" t="s">
         <v>9</v>
@@ -34473,7 +34473,7 @@
         <v>19</v>
       </c>
       <c r="G1140" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="H1140" t="s">
         <v>9</v>
@@ -34499,7 +34499,7 @@
         <v>19.0200004577637</v>
       </c>
       <c r="G1141" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="H1141" t="s">
         <v>9</v>
@@ -34525,7 +34525,7 @@
         <v>18.5</v>
       </c>
       <c r="G1142" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="H1142" t="s">
         <v>9</v>
@@ -34551,7 +34551,7 @@
         <v>18.8400001525879</v>
       </c>
       <c r="G1143" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="H1143" t="s">
         <v>9</v>
@@ -34577,7 +34577,7 @@
         <v>18.8600006103516</v>
       </c>
       <c r="G1144" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="H1144" t="s">
         <v>9</v>
@@ -34603,7 +34603,7 @@
         <v>19.2000007629395</v>
       </c>
       <c r="G1145" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="H1145" t="s">
         <v>9</v>
@@ -34629,7 +34629,7 @@
         <v>19.0599994659424</v>
       </c>
       <c r="G1146" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="H1146" t="s">
         <v>9</v>
@@ -34655,7 +34655,7 @@
         <v>18.8600006103516</v>
       </c>
       <c r="G1147" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="H1147" t="s">
         <v>9</v>
@@ -34681,7 +34681,7 @@
         <v>18.6599998474121</v>
       </c>
       <c r="G1148" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="H1148" t="s">
         <v>9</v>
@@ -34707,7 +34707,7 @@
         <v>18.7199993133545</v>
       </c>
       <c r="G1149" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="H1149" t="s">
         <v>9</v>
@@ -34733,7 +34733,7 @@
         <v>18.6399993896484</v>
       </c>
       <c r="G1150" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="H1150" t="s">
         <v>9</v>
@@ -34759,7 +34759,7 @@
         <v>19.0599994659424</v>
       </c>
       <c r="G1151" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="H1151" t="s">
         <v>9</v>
@@ -34785,7 +34785,7 @@
         <v>19.4599990844727</v>
       </c>
       <c r="G1152" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="H1152" t="s">
         <v>9</v>
@@ -34811,7 +34811,7 @@
         <v>19.3999996185303</v>
       </c>
       <c r="G1153" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="H1153" t="s">
         <v>9</v>
@@ -34837,7 +34837,7 @@
         <v>19.2999992370605</v>
       </c>
       <c r="G1154" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="H1154" t="s">
         <v>9</v>
@@ -34863,7 +34863,7 @@
         <v>19.5400009155273</v>
       </c>
       <c r="G1155" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="H1155" t="s">
         <v>9</v>
@@ -34889,7 +34889,7 @@
         <v>19.6800003051758</v>
       </c>
       <c r="G1156" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="H1156" t="s">
         <v>9</v>
@@ -34915,7 +34915,7 @@
         <v>20.25</v>
       </c>
       <c r="G1157" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="H1157" t="s">
         <v>9</v>
@@ -34941,7 +34941,7 @@
         <v>20</v>
       </c>
       <c r="G1158" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="H1158" t="s">
         <v>9</v>
@@ -34967,7 +34967,7 @@
         <v>19.5799999237061</v>
       </c>
       <c r="G1159" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="H1159" t="s">
         <v>9</v>
@@ -34993,7 +34993,7 @@
         <v>19.7399997711182</v>
       </c>
       <c r="G1160" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="H1160" t="s">
         <v>9</v>
@@ -35019,7 +35019,7 @@
         <v>19.0799999237061</v>
       </c>
       <c r="G1161" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="H1161" t="s">
         <v>9</v>
@@ -35045,7 +35045,7 @@
         <v>19.2800006866455</v>
       </c>
       <c r="G1162" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="H1162" t="s">
         <v>9</v>
@@ -35071,7 +35071,7 @@
         <v>19.5400009155273</v>
       </c>
       <c r="G1163" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="H1163" t="s">
         <v>9</v>
@@ -35097,7 +35097,7 @@
         <v>20.1499996185303</v>
       </c>
       <c r="G1164" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="H1164" t="s">
         <v>9</v>
@@ -35123,7 +35123,7 @@
         <v>20.2999992370605</v>
       </c>
       <c r="G1165" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="H1165" t="s">
         <v>9</v>
@@ -35149,7 +35149,7 @@
         <v>20.75</v>
       </c>
       <c r="G1166" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="H1166" t="s">
         <v>9</v>
@@ -35175,7 +35175,7 @@
         <v>21</v>
       </c>
       <c r="G1167" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="H1167" t="s">
         <v>9</v>
@@ -35201,7 +35201,7 @@
         <v>21.2999992370605</v>
       </c>
       <c r="G1168" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="H1168" t="s">
         <v>9</v>
@@ -35227,7 +35227,7 @@
         <v>21.25</v>
       </c>
       <c r="G1169" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="H1169" t="s">
         <v>9</v>
@@ -35253,7 +35253,7 @@
         <v>21.75</v>
       </c>
       <c r="G1170" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="H1170" t="s">
         <v>9</v>
@@ -35279,7 +35279,7 @@
         <v>22</v>
       </c>
       <c r="G1171" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="H1171" t="s">
         <v>9</v>
@@ -35305,7 +35305,7 @@
         <v>22</v>
       </c>
       <c r="G1172" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="H1172" t="s">
         <v>9</v>
@@ -35331,7 +35331,7 @@
         <v>22</v>
       </c>
       <c r="G1173" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="H1173" t="s">
         <v>9</v>
@@ -35357,7 +35357,7 @@
         <v>22</v>
       </c>
       <c r="G1174" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="H1174" t="s">
         <v>9</v>
@@ -35383,7 +35383,7 @@
         <v>22.4500007629395</v>
       </c>
       <c r="G1175" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="H1175" t="s">
         <v>9</v>
@@ -35409,7 +35409,7 @@
         <v>21.8999996185303</v>
       </c>
       <c r="G1176" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="H1176" t="s">
         <v>9</v>
@@ -35435,7 +35435,7 @@
         <v>22.4500007629395</v>
       </c>
       <c r="G1177" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="H1177" t="s">
         <v>9</v>
@@ -35461,7 +35461,7 @@
         <v>21.8999996185303</v>
       </c>
       <c r="G1178" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="H1178" t="s">
         <v>9</v>
@@ -35487,7 +35487,7 @@
         <v>22.2999992370605</v>
       </c>
       <c r="G1179" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="H1179" t="s">
         <v>9</v>
@@ -35513,7 +35513,7 @@
         <v>22.6000003814697</v>
       </c>
       <c r="G1180" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="H1180" t="s">
         <v>9</v>
@@ -35539,7 +35539,7 @@
         <v>22.6000003814697</v>
       </c>
       <c r="G1181" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="H1181" t="s">
         <v>9</v>
@@ -35565,7 +35565,7 @@
         <v>22.25</v>
       </c>
       <c r="G1182" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="H1182" t="s">
         <v>9</v>
@@ -35591,7 +35591,7 @@
         <v>22.0499992370605</v>
       </c>
       <c r="G1183" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="H1183" t="s">
         <v>9</v>
@@ -35617,7 +35617,7 @@
         <v>22.5</v>
       </c>
       <c r="G1184" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="H1184" t="s">
         <v>9</v>
@@ -35643,7 +35643,7 @@
         <v>23.2000007629395</v>
       </c>
       <c r="G1185" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="H1185" t="s">
         <v>9</v>
@@ -35669,7 +35669,7 @@
         <v>22.5</v>
       </c>
       <c r="G1186" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="H1186" t="s">
         <v>9</v>
@@ -35695,7 +35695,7 @@
         <v>23.7000007629395</v>
       </c>
       <c r="G1187" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="H1187" t="s">
         <v>9</v>
@@ -35721,7 +35721,7 @@
         <v>23.5499992370605</v>
       </c>
       <c r="G1188" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="H1188" t="s">
         <v>9</v>
@@ -35747,7 +35747,7 @@
         <v>24.1000003814697</v>
       </c>
       <c r="G1189" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="H1189" t="s">
         <v>9</v>
@@ -35773,7 +35773,7 @@
         <v>23.7000007629395</v>
       </c>
       <c r="G1190" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="H1190" t="s">
         <v>9</v>
@@ -35799,7 +35799,7 @@
         <v>23.5499992370605</v>
       </c>
       <c r="G1191" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="H1191" t="s">
         <v>9</v>
@@ -35825,7 +35825,7 @@
         <v>24.2000007629395</v>
       </c>
       <c r="G1192" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="H1192" t="s">
         <v>9</v>
@@ -35851,7 +35851,7 @@
         <v>24.8999996185303</v>
       </c>
       <c r="G1193" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="H1193" t="s">
         <v>9</v>
@@ -35877,7 +35877,7 @@
         <v>25.5499992370605</v>
       </c>
       <c r="G1194" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="H1194" t="s">
         <v>9</v>
@@ -35903,7 +35903,7 @@
         <v>25.2999992370605</v>
       </c>
       <c r="G1195" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="H1195" t="s">
         <v>9</v>
@@ -35929,7 +35929,7 @@
         <v>24.8500003814697</v>
       </c>
       <c r="G1196" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="H1196" t="s">
         <v>9</v>
@@ -35955,7 +35955,7 @@
         <v>24.5499992370605</v>
       </c>
       <c r="G1197" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="H1197" t="s">
         <v>9</v>
@@ -35981,7 +35981,7 @@
         <v>24.75</v>
       </c>
       <c r="G1198" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="H1198" t="s">
         <v>9</v>
@@ -36007,7 +36007,7 @@
         <v>24.4500007629395</v>
       </c>
       <c r="G1199" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="H1199" t="s">
         <v>9</v>
@@ -36033,7 +36033,7 @@
         <v>23.5</v>
       </c>
       <c r="G1200" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="H1200" t="s">
         <v>9</v>
@@ -36059,7 +36059,7 @@
         <v>23.7999992370605</v>
       </c>
       <c r="G1201" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="H1201" t="s">
         <v>9</v>
@@ -36085,7 +36085,7 @@
         <v>24.25</v>
       </c>
       <c r="G1202" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="H1202" t="s">
         <v>9</v>
@@ -36111,7 +36111,7 @@
         <v>23.8500003814697</v>
       </c>
       <c r="G1203" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="H1203" t="s">
         <v>9</v>
@@ -36137,7 +36137,7 @@
         <v>23.6499996185303</v>
       </c>
       <c r="G1204" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="H1204" t="s">
         <v>9</v>
@@ -36163,7 +36163,7 @@
         <v>23.7000007629395</v>
       </c>
       <c r="G1205" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="H1205" t="s">
         <v>9</v>
@@ -36189,7 +36189,7 @@
         <v>23.7000007629395</v>
       </c>
       <c r="G1206" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="H1206" t="s">
         <v>9</v>
@@ -36215,7 +36215,7 @@
         <v>23.7000007629395</v>
       </c>
       <c r="G1207" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="H1207" t="s">
         <v>9</v>
@@ -36241,7 +36241,7 @@
         <v>23.7000007629395</v>
       </c>
       <c r="G1208" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="H1208" t="s">
         <v>9</v>
@@ -36267,7 +36267,7 @@
         <v>23.2999992370605</v>
       </c>
       <c r="G1209" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="H1209" t="s">
         <v>9</v>
@@ -36293,7 +36293,7 @@
         <v>22.5499992370605</v>
       </c>
       <c r="G1210" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="H1210" t="s">
         <v>9</v>
@@ -36319,7 +36319,7 @@
         <v>22.7999992370605</v>
       </c>
       <c r="G1211" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="H1211" t="s">
         <v>9</v>
@@ -36345,7 +36345,7 @@
         <v>22.4500007629395</v>
       </c>
       <c r="G1212" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="H1212" t="s">
         <v>9</v>
@@ -36371,7 +36371,7 @@
         <v>22.5</v>
       </c>
       <c r="G1213" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="H1213" t="s">
         <v>9</v>
@@ -36397,7 +36397,7 @@
         <v>22.25</v>
       </c>
       <c r="G1214" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="H1214" t="s">
         <v>9</v>
@@ -36423,7 +36423,7 @@
         <v>22.2999992370605</v>
       </c>
       <c r="G1215" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="H1215" t="s">
         <v>9</v>
@@ -36449,7 +36449,7 @@
         <v>21.9500007629395</v>
       </c>
       <c r="G1216" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="H1216" t="s">
         <v>9</v>
@@ -36475,7 +36475,7 @@
         <v>22.3500003814697</v>
       </c>
       <c r="G1217" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="H1217" t="s">
         <v>9</v>
@@ -36501,7 +36501,7 @@
         <v>21.1499996185303</v>
       </c>
       <c r="G1218" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="H1218" t="s">
         <v>9</v>
@@ -36527,7 +36527,7 @@
         <v>22.1000003814697</v>
       </c>
       <c r="G1219" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="H1219" t="s">
         <v>9</v>
@@ -36553,7 +36553,7 @@
         <v>21.7999992370605</v>
       </c>
       <c r="G1220" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="H1220" t="s">
         <v>9</v>
@@ -36579,7 +36579,7 @@
         <v>22.2000007629395</v>
       </c>
       <c r="G1221" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="H1221" t="s">
         <v>9</v>
@@ -36605,7 +36605,7 @@
         <v>22.2999992370605</v>
       </c>
       <c r="G1222" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="H1222" t="s">
         <v>9</v>
@@ -36631,7 +36631,7 @@
         <v>22.9500007629395</v>
       </c>
       <c r="G1223" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="H1223" t="s">
         <v>9</v>
@@ -36657,7 +36657,7 @@
         <v>22.5499992370605</v>
       </c>
       <c r="G1224" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="H1224" t="s">
         <v>9</v>
@@ -36683,7 +36683,7 @@
         <v>22.5</v>
       </c>
       <c r="G1225" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="H1225" t="s">
         <v>9</v>
@@ -36709,7 +36709,7 @@
         <v>22.7000007629395</v>
       </c>
       <c r="G1226" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="H1226" t="s">
         <v>9</v>
@@ -36735,7 +36735,7 @@
         <v>21.75</v>
       </c>
       <c r="G1227" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="H1227" t="s">
         <v>9</v>
@@ -36761,7 +36761,7 @@
         <v>21.8999996185303</v>
       </c>
       <c r="G1228" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="H1228" t="s">
         <v>9</v>
@@ -36787,7 +36787,7 @@
         <v>21.6499996185303</v>
       </c>
       <c r="G1229" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="H1229" t="s">
         <v>9</v>
@@ -36813,7 +36813,7 @@
         <v>22.2999992370605</v>
       </c>
       <c r="G1230" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="H1230" t="s">
         <v>9</v>
@@ -36839,7 +36839,7 @@
         <v>22.8500003814697</v>
       </c>
       <c r="G1231" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="H1231" t="s">
         <v>9</v>
@@ -36865,7 +36865,7 @@
         <v>23.1000003814697</v>
       </c>
       <c r="G1232" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="H1232" t="s">
         <v>9</v>
@@ -36891,7 +36891,7 @@
         <v>22.6499996185303</v>
       </c>
       <c r="G1233" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="H1233" t="s">
         <v>9</v>
@@ -36917,7 +36917,7 @@
         <v>22.5</v>
       </c>
       <c r="G1234" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="H1234" t="s">
         <v>9</v>
@@ -36943,7 +36943,7 @@
         <v>23.6000003814697</v>
       </c>
       <c r="G1235" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="H1235" t="s">
         <v>9</v>
@@ -36969,7 +36969,7 @@
         <v>22.7999992370605</v>
       </c>
       <c r="G1236" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="H1236" t="s">
         <v>9</v>
@@ -36995,7 +36995,7 @@
         <v>23.3999996185303</v>
       </c>
       <c r="G1237" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="H1237" t="s">
         <v>9</v>
@@ -37021,7 +37021,7 @@
         <v>23.7999992370605</v>
       </c>
       <c r="G1238" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="H1238" t="s">
         <v>9</v>
@@ -37047,7 +37047,7 @@
         <v>24.5499992370605</v>
       </c>
       <c r="G1239" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="H1239" t="s">
         <v>9</v>
@@ -37073,7 +37073,7 @@
         <v>25.25</v>
       </c>
       <c r="G1240" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="H1240" t="s">
         <v>9</v>
@@ -37099,7 +37099,7 @@
         <v>25.1499996185303</v>
       </c>
       <c r="G1241" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="H1241" t="s">
         <v>9</v>
@@ -37125,7 +37125,7 @@
         <v>25.0499992370605</v>
       </c>
       <c r="G1242" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="H1242" t="s">
         <v>9</v>
@@ -37151,7 +37151,7 @@
         <v>26.6000003814697</v>
       </c>
       <c r="G1243" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="H1243" t="s">
         <v>9</v>
@@ -37177,7 +37177,7 @@
         <v>27.0499992370605</v>
       </c>
       <c r="G1244" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="H1244" t="s">
         <v>9</v>
@@ -37203,7 +37203,7 @@
         <v>27.8999996185303</v>
       </c>
       <c r="G1245" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="H1245" t="s">
         <v>9</v>
@@ -37229,7 +37229,7 @@
         <v>27.5499992370605</v>
       </c>
       <c r="G1246" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="H1246" t="s">
         <v>9</v>
@@ -37255,7 +37255,7 @@
         <v>27.5</v>
       </c>
       <c r="G1247" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="H1247" t="s">
         <v>9</v>
@@ -37281,7 +37281,7 @@
         <v>27.25</v>
       </c>
       <c r="G1248" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="H1248" t="s">
         <v>9</v>
@@ -37307,7 +37307,7 @@
         <v>28.6000003814697</v>
       </c>
       <c r="G1249" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="H1249" t="s">
         <v>9</v>
@@ -37333,7 +37333,7 @@
         <v>29.6000003814697</v>
       </c>
       <c r="G1250" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="H1250" t="s">
         <v>9</v>
@@ -37359,7 +37359,7 @@
         <v>30.8999996185303</v>
       </c>
       <c r="G1251" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="H1251" t="s">
         <v>9</v>
@@ -37385,7 +37385,7 @@
         <v>30.8999996185303</v>
       </c>
       <c r="G1252" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="H1252" t="s">
         <v>9</v>
@@ -37411,7 +37411,7 @@
         <v>29.8999996185303</v>
       </c>
       <c r="G1253" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="H1253" t="s">
         <v>9</v>
@@ -37437,7 +37437,7 @@
         <v>30.75</v>
       </c>
       <c r="G1254" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="H1254" t="s">
         <v>9</v>
@@ -37463,7 +37463,7 @@
         <v>31.3999996185303</v>
       </c>
       <c r="G1255" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="H1255" t="s">
         <v>9</v>
@@ -37489,7 +37489,7 @@
         <v>31.9500007629395</v>
       </c>
       <c r="G1256" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="H1256" t="s">
         <v>9</v>
@@ -37515,7 +37515,7 @@
         <v>32.7999992370605</v>
       </c>
       <c r="G1257" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="H1257" t="s">
         <v>9</v>
@@ -37541,7 +37541,7 @@
         <v>33.0999984741211</v>
       </c>
       <c r="G1258" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="H1258" t="s">
         <v>9</v>
@@ -37567,7 +37567,7 @@
         <v>32.5999984741211</v>
       </c>
       <c r="G1259" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="H1259" t="s">
         <v>9</v>
@@ -37593,7 +37593,7 @@
         <v>33.1500015258789</v>
       </c>
       <c r="G1260" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="H1260" t="s">
         <v>9</v>
@@ -37619,7 +37619,7 @@
         <v>32.5999984741211</v>
       </c>
       <c r="G1261" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="H1261" t="s">
         <v>9</v>
@@ -37645,7 +37645,7 @@
         <v>32.2999992370605</v>
       </c>
       <c r="G1262" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="H1262" t="s">
         <v>9</v>
@@ -37671,7 +37671,7 @@
         <v>33.25</v>
       </c>
       <c r="G1263" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="H1263" t="s">
         <v>9</v>
@@ -37697,7 +37697,7 @@
         <v>33.4000015258789</v>
       </c>
       <c r="G1264" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="H1264" t="s">
         <v>9</v>
@@ -37723,7 +37723,7 @@
         <v>33.0999984741211</v>
       </c>
       <c r="G1265" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="H1265" t="s">
         <v>9</v>
@@ -37749,7 +37749,7 @@
         <v>34.4000015258789</v>
       </c>
       <c r="G1266" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="H1266" t="s">
         <v>9</v>
@@ -37775,7 +37775,7 @@
         <v>34.2999992370605</v>
       </c>
       <c r="G1267" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="H1267" t="s">
         <v>9</v>
@@ -37801,7 +37801,7 @@
         <v>33.9000015258789</v>
       </c>
       <c r="G1268" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="H1268" t="s">
         <v>9</v>
@@ -37827,7 +37827,7 @@
         <v>34.5999984741211</v>
       </c>
       <c r="G1269" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="H1269" t="s">
         <v>9</v>
@@ -37853,7 +37853,7 @@
         <v>34.8499984741211</v>
       </c>
       <c r="G1270" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="H1270" t="s">
         <v>9</v>
@@ -37879,7 +37879,7 @@
         <v>35.25</v>
       </c>
       <c r="G1271" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="H1271" t="s">
         <v>9</v>
@@ -37905,7 +37905,7 @@
         <v>35.9000015258789</v>
       </c>
       <c r="G1272" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="H1272" t="s">
         <v>9</v>
@@ -37931,7 +37931,7 @@
         <v>35.75</v>
       </c>
       <c r="G1273" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="H1273" t="s">
         <v>9</v>
@@ -37957,7 +37957,7 @@
         <v>36.5499992370605</v>
       </c>
       <c r="G1274" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="H1274" t="s">
         <v>9</v>
@@ -37983,7 +37983,7 @@
         <v>36.6500015258789</v>
       </c>
       <c r="G1275" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="H1275" t="s">
         <v>9</v>
@@ -38009,7 +38009,7 @@
         <v>38.0499992370605</v>
       </c>
       <c r="G1276" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="H1276" t="s">
         <v>9</v>
@@ -38035,7 +38035,7 @@
         <v>38.4000015258789</v>
       </c>
       <c r="G1277" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="H1277" t="s">
         <v>9</v>
@@ -38061,7 +38061,7 @@
         <v>37.4000015258789</v>
       </c>
       <c r="G1278" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="H1278" t="s">
         <v>9</v>
@@ -38087,7 +38087,7 @@
         <v>35.4500007629395</v>
       </c>
       <c r="G1279" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="H1279" t="s">
         <v>9</v>
@@ -38113,7 +38113,7 @@
         <v>33.25</v>
       </c>
       <c r="G1280" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="H1280" t="s">
         <v>9</v>
@@ -38139,7 +38139,7 @@
         <v>33.6500015258789</v>
       </c>
       <c r="G1281" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="H1281" t="s">
         <v>9</v>
@@ -38165,7 +38165,7 @@
         <v>33.75</v>
       </c>
       <c r="G1282" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="H1282" t="s">
         <v>9</v>
@@ -38191,7 +38191,7 @@
         <v>33.8499984741211</v>
       </c>
       <c r="G1283" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="H1283" t="s">
         <v>9</v>
@@ -38217,7 +38217,7 @@
         <v>33.7999992370605</v>
       </c>
       <c r="G1284" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="H1284" t="s">
         <v>9</v>
@@ -38243,7 +38243,7 @@
         <v>33</v>
       </c>
       <c r="G1285" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="H1285" t="s">
         <v>9</v>
@@ -38269,7 +38269,7 @@
         <v>31.3500003814697</v>
       </c>
       <c r="G1286" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="H1286" t="s">
         <v>9</v>
@@ -38295,7 +38295,7 @@
         <v>31.8500003814697</v>
       </c>
       <c r="G1287" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="H1287" t="s">
         <v>9</v>
@@ -38321,7 +38321,7 @@
         <v>31.6000003814697</v>
       </c>
       <c r="G1288" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="H1288" t="s">
         <v>9</v>
@@ -38347,7 +38347,7 @@
         <v>31.5</v>
       </c>
       <c r="G1289" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="H1289" t="s">
         <v>9</v>
@@ -38373,7 +38373,7 @@
         <v>32.1500015258789</v>
       </c>
       <c r="G1290" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="H1290" t="s">
         <v>9</v>
@@ -38399,7 +38399,7 @@
         <v>33.7999992370605</v>
       </c>
       <c r="G1291" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="H1291" t="s">
         <v>9</v>
@@ -38425,7 +38425,7 @@
         <v>33.75</v>
       </c>
       <c r="G1292" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="H1292" t="s">
         <v>9</v>
@@ -38451,7 +38451,7 @@
         <v>34.5499992370605</v>
       </c>
       <c r="G1293" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="H1293" t="s">
         <v>9</v>
@@ -38477,7 +38477,7 @@
         <v>35</v>
       </c>
       <c r="G1294" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="H1294" t="s">
         <v>9</v>
@@ -38503,7 +38503,7 @@
         <v>35.25</v>
       </c>
       <c r="G1295" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="H1295" t="s">
         <v>9</v>
@@ -38529,7 +38529,7 @@
         <v>36.4500007629395</v>
       </c>
       <c r="G1296" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="H1296" t="s">
         <v>9</v>
@@ -38555,7 +38555,7 @@
         <v>36.8499984741211</v>
       </c>
       <c r="G1297" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="H1297" t="s">
         <v>9</v>
@@ -38581,7 +38581,7 @@
         <v>36.9000015258789</v>
       </c>
       <c r="G1298" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="H1298" t="s">
         <v>9</v>
@@ -38607,7 +38607,7 @@
         <v>38.5</v>
       </c>
       <c r="G1299" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="H1299" t="s">
         <v>9</v>
@@ -38633,7 +38633,7 @@
         <v>38.25</v>
       </c>
       <c r="G1300" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="H1300" t="s">
         <v>9</v>
@@ -38659,7 +38659,7 @@
         <v>38.2000007629395</v>
       </c>
       <c r="G1301" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="H1301" t="s">
         <v>9</v>
@@ -38685,7 +38685,7 @@
         <v>37.1500015258789</v>
       </c>
       <c r="G1302" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="H1302" t="s">
         <v>9</v>
@@ -38711,7 +38711,7 @@
         <v>37.6500015258789</v>
       </c>
       <c r="G1303" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="H1303" t="s">
         <v>9</v>
@@ -38737,7 +38737,7 @@
         <v>36.25</v>
       </c>
       <c r="G1304" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="H1304" t="s">
         <v>9</v>
@@ -38763,7 +38763,7 @@
         <v>36.1500015258789</v>
       </c>
       <c r="G1305" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="H1305" t="s">
         <v>9</v>
@@ -38789,7 +38789,7 @@
         <v>37.9000015258789</v>
       </c>
       <c r="G1306" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="H1306" t="s">
         <v>9</v>
@@ -38815,7 +38815,7 @@
         <v>38.2999992370605</v>
       </c>
       <c r="G1307" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="H1307" t="s">
         <v>9</v>
@@ -38841,7 +38841,7 @@
         <v>38.5</v>
       </c>
       <c r="G1308" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="H1308" t="s">
         <v>9</v>
@@ -38867,7 +38867,7 @@
         <v>38.9000015258789</v>
       </c>
       <c r="G1309" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="H1309" t="s">
         <v>9</v>
@@ -38893,7 +38893,7 @@
         <v>39.2999992370605</v>
       </c>
       <c r="G1310" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="H1310" t="s">
         <v>9</v>
@@ -38919,7 +38919,7 @@
         <v>39.9000015258789</v>
       </c>
       <c r="G1311" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="H1311" t="s">
         <v>9</v>
@@ -38945,7 +38945,7 @@
         <v>40.0499992370605</v>
       </c>
       <c r="G1312" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="H1312" t="s">
         <v>9</v>
@@ -38971,7 +38971,7 @@
         <v>41.1500015258789</v>
       </c>
       <c r="G1313" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="H1313" t="s">
         <v>9</v>
@@ -38997,7 +38997,7 @@
         <v>41</v>
       </c>
       <c r="G1314" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="H1314" t="s">
         <v>9</v>
@@ -39023,7 +39023,7 @@
         <v>39.8499984741211</v>
       </c>
       <c r="G1315" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="H1315" t="s">
         <v>9</v>
@@ -39049,7 +39049,7 @@
         <v>40</v>
       </c>
       <c r="G1316" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="H1316" t="s">
         <v>9</v>
@@ -39075,7 +39075,7 @@
         <v>41.1500015258789</v>
       </c>
       <c r="G1317" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="H1317" t="s">
         <v>9</v>
@@ -39101,7 +39101,7 @@
         <v>40.9500007629395</v>
       </c>
       <c r="G1318" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="H1318" t="s">
         <v>9</v>
@@ -39127,7 +39127,7 @@
         <v>41.7999992370605</v>
       </c>
       <c r="G1319" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="H1319" t="s">
         <v>9</v>
@@ -39153,7 +39153,7 @@
         <v>41.5</v>
       </c>
       <c r="G1320" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="H1320" t="s">
         <v>9</v>
@@ -39179,7 +39179,7 @@
         <v>40.75</v>
       </c>
       <c r="G1321" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="H1321" t="s">
         <v>9</v>
@@ -39205,7 +39205,7 @@
         <v>41.5999984741211</v>
       </c>
       <c r="G1322" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="H1322" t="s">
         <v>9</v>
@@ -39231,7 +39231,7 @@
         <v>45.5499992370605</v>
       </c>
       <c r="G1323" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="H1323" t="s">
         <v>9</v>
@@ -39257,7 +39257,7 @@
         <v>43.2999992370605</v>
       </c>
       <c r="G1324" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="H1324" t="s">
         <v>9</v>
@@ -39283,7 +39283,7 @@
         <v>41.4000015258789</v>
       </c>
       <c r="G1325" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="H1325" t="s">
         <v>9</v>
@@ -39309,7 +39309,7 @@
         <v>42.5499992370605</v>
       </c>
       <c r="G1326" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="H1326" t="s">
         <v>9</v>
@@ -39335,7 +39335,7 @@
         <v>43.25</v>
       </c>
       <c r="G1327" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="H1327" t="s">
         <v>9</v>
@@ -39361,7 +39361,7 @@
         <v>43.75</v>
       </c>
       <c r="G1328" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="H1328" t="s">
         <v>9</v>
@@ -39387,7 +39387,7 @@
         <v>43.4500007629395</v>
       </c>
       <c r="G1329" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="H1329" t="s">
         <v>9</v>
@@ -39413,7 +39413,7 @@
         <v>44.0499992370605</v>
       </c>
       <c r="G1330" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="H1330" t="s">
         <v>9</v>
@@ -39439,7 +39439,7 @@
         <v>43</v>
       </c>
       <c r="G1331" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="H1331" t="s">
         <v>9</v>
@@ -39465,7 +39465,7 @@
         <v>43.7999992370605</v>
       </c>
       <c r="G1332" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="H1332" t="s">
         <v>9</v>
@@ -39491,7 +39491,7 @@
         <v>44.9500007629395</v>
       </c>
       <c r="G1333" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="H1333" t="s">
         <v>9</v>
@@ -39517,7 +39517,7 @@
         <v>45.5999984741211</v>
       </c>
       <c r="G1334" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="H1334" t="s">
         <v>9</v>
@@ -39543,7 +39543,7 @@
         <v>46.2000007629395</v>
       </c>
       <c r="G1335" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="H1335" t="s">
         <v>9</v>
@@ -39569,7 +39569,7 @@
         <v>46.25</v>
       </c>
       <c r="G1336" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="H1336" t="s">
         <v>9</v>
@@ -39595,7 +39595,7 @@
         <v>47.2000007629395</v>
       </c>
       <c r="G1337" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="H1337" t="s">
         <v>9</v>
@@ -39621,7 +39621,7 @@
         <v>45.9000015258789</v>
       </c>
       <c r="G1338" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="H1338" t="s">
         <v>9</v>
@@ -39647,7 +39647,7 @@
         <v>46.5</v>
       </c>
       <c r="G1339" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="H1339" t="s">
         <v>9</v>
@@ -39673,7 +39673,7 @@
         <v>47.5499992370605</v>
       </c>
       <c r="G1340" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="H1340" t="s">
         <v>9</v>
@@ -39699,7 +39699,7 @@
         <v>47</v>
       </c>
       <c r="G1341" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="H1341" t="s">
         <v>9</v>
@@ -39725,7 +39725,7 @@
         <v>46.4500007629395</v>
       </c>
       <c r="G1342" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="H1342" t="s">
         <v>9</v>
@@ -39751,7 +39751,7 @@
         <v>47.7999992370605</v>
       </c>
       <c r="G1343" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="H1343" t="s">
         <v>9</v>
@@ -39777,7 +39777,7 @@
         <v>46.6500015258789</v>
       </c>
       <c r="G1344" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="H1344" t="s">
         <v>9</v>
@@ -39803,7 +39803,7 @@
         <v>46.25</v>
       </c>
       <c r="G1345" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="H1345" t="s">
         <v>9</v>
@@ -39829,7 +39829,7 @@
         <v>46.0999984741211</v>
       </c>
       <c r="G1346" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="H1346" t="s">
         <v>9</v>
@@ -39855,7 +39855,7 @@
         <v>45.9000015258789</v>
       </c>
       <c r="G1347" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="H1347" t="s">
         <v>9</v>
@@ -39881,7 +39881,7 @@
         <v>46</v>
       </c>
       <c r="G1348" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="H1348" t="s">
         <v>9</v>
@@ -39907,7 +39907,7 @@
         <v>46</v>
       </c>
       <c r="G1349" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="H1349" t="s">
         <v>9</v>
@@ -39933,7 +39933,7 @@
         <v>45.75</v>
       </c>
       <c r="G1350" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="H1350" t="s">
         <v>9</v>
@@ -39959,7 +39959,7 @@
         <v>45.2999992370605</v>
       </c>
       <c r="G1351" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="H1351" t="s">
         <v>9</v>
@@ -39985,7 +39985,7 @@
         <v>44.5999984741211</v>
       </c>
       <c r="G1352" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="H1352" t="s">
         <v>9</v>
@@ -40011,7 +40011,7 @@
         <v>44.75</v>
       </c>
       <c r="G1353" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="H1353" t="s">
         <v>9</v>
@@ -40037,7 +40037,7 @@
         <v>44.7000007629395</v>
       </c>
       <c r="G1354" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="H1354" t="s">
         <v>9</v>
@@ -40063,7 +40063,7 @@
         <v>44.2999992370605</v>
       </c>
       <c r="G1355" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="H1355" t="s">
         <v>9</v>
@@ -40089,7 +40089,7 @@
         <v>44.2999992370605</v>
       </c>
       <c r="G1356" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="H1356" t="s">
         <v>9</v>
@@ -40115,7 +40115,7 @@
         <v>44.5</v>
       </c>
       <c r="G1357" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="H1357" t="s">
         <v>9</v>
@@ -40141,7 +40141,7 @@
         <v>45.5</v>
       </c>
       <c r="G1358" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="H1358" t="s">
         <v>9</v>
@@ -40167,7 +40167,7 @@
         <v>44.8499984741211</v>
       </c>
       <c r="G1359" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="H1359" t="s">
         <v>9</v>
@@ -40193,7 +40193,7 @@
         <v>43.8499984741211</v>
       </c>
       <c r="G1360" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="H1360" t="s">
         <v>9</v>
@@ -40219,7 +40219,7 @@
         <v>43.4500007629395</v>
       </c>
       <c r="G1361" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="H1361" t="s">
         <v>9</v>
@@ -40245,7 +40245,7 @@
         <v>43.7999992370605</v>
       </c>
       <c r="G1362" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="H1362" t="s">
         <v>9</v>
@@ -40271,7 +40271,7 @@
         <v>43.75</v>
       </c>
       <c r="G1363" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="H1363" t="s">
         <v>9</v>
@@ -40297,7 +40297,7 @@
         <v>42.9000015258789</v>
       </c>
       <c r="G1364" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="H1364" t="s">
         <v>9</v>
@@ -40323,7 +40323,7 @@
         <v>41</v>
       </c>
       <c r="G1365" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="H1365" t="s">
         <v>9</v>
@@ -40349,7 +40349,7 @@
         <v>40.75</v>
       </c>
       <c r="G1366" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="H1366" t="s">
         <v>9</v>
@@ -40375,7 +40375,7 @@
         <v>40.4000015258789</v>
       </c>
       <c r="G1367" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="H1367" t="s">
         <v>9</v>
@@ -40401,7 +40401,7 @@
         <v>40.75</v>
       </c>
       <c r="G1368" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="H1368" t="s">
         <v>9</v>
@@ -40427,7 +40427,7 @@
         <v>41.0499992370605</v>
       </c>
       <c r="G1369" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="H1369" t="s">
         <v>9</v>
@@ -40453,7 +40453,7 @@
         <v>41.8499984741211</v>
       </c>
       <c r="G1370" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="H1370" t="s">
         <v>9</v>
@@ -40479,7 +40479,7 @@
         <v>40.9500007629395</v>
       </c>
       <c r="G1371" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="H1371" t="s">
         <v>9</v>
@@ -40505,7 +40505,7 @@
         <v>41</v>
       </c>
       <c r="G1372" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="H1372" t="s">
         <v>9</v>
@@ -40531,7 +40531,7 @@
         <v>41.75</v>
       </c>
       <c r="G1373" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="H1373" t="s">
         <v>9</v>
@@ -40557,7 +40557,7 @@
         <v>41.6500015258789</v>
       </c>
       <c r="G1374" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="H1374" t="s">
         <v>9</v>
@@ -40583,7 +40583,7 @@
         <v>41.1500015258789</v>
       </c>
       <c r="G1375" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="H1375" t="s">
         <v>9</v>
@@ -40609,7 +40609,7 @@
         <v>40.75</v>
       </c>
       <c r="G1376" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="H1376" t="s">
         <v>9</v>
@@ -40635,7 +40635,7 @@
         <v>40.8499984741211</v>
       </c>
       <c r="G1377" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="H1377" t="s">
         <v>9</v>
@@ -40661,7 +40661,7 @@
         <v>40.5999984741211</v>
       </c>
       <c r="G1378" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="H1378" t="s">
         <v>9</v>
@@ -40687,7 +40687,7 @@
         <v>40.5499992370605</v>
       </c>
       <c r="G1379" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="H1379" t="s">
         <v>9</v>
@@ -40713,7 +40713,7 @@
         <v>40.7000007629395</v>
       </c>
       <c r="G1380" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
       <c r="H1380" t="s">
         <v>9</v>
@@ -40739,7 +40739,7 @@
         <v>40.2000007629395</v>
       </c>
       <c r="G1381" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="H1381" t="s">
         <v>9</v>
@@ -40765,7 +40765,7 @@
         <v>40.4000015258789</v>
       </c>
       <c r="G1382" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="H1382" t="s">
         <v>9</v>
@@ -40791,7 +40791,7 @@
         <v>40.4000015258789</v>
       </c>
       <c r="G1383" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="H1383" t="s">
         <v>9</v>
@@ -40817,7 +40817,7 @@
         <v>41.25</v>
       </c>
       <c r="G1384" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
       <c r="H1384" t="s">
         <v>9</v>
@@ -40843,7 +40843,7 @@
         <v>41</v>
       </c>
       <c r="G1385" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="H1385" t="s">
         <v>9</v>
@@ -40869,7 +40869,7 @@
         <v>40.9000015258789</v>
       </c>
       <c r="G1386" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="H1386" t="s">
         <v>9</v>
@@ -40895,7 +40895,7 @@
         <v>41.0499992370605</v>
       </c>
       <c r="G1387" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="H1387" t="s">
         <v>9</v>
@@ -40921,7 +40921,7 @@
         <v>38.7999992370605</v>
       </c>
       <c r="G1388" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="H1388" t="s">
         <v>9</v>
@@ -40947,7 +40947,7 @@
         <v>37.5999984741211</v>
       </c>
       <c r="G1389" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="H1389" t="s">
         <v>9</v>
@@ -40973,7 +40973,7 @@
         <v>38.5</v>
       </c>
       <c r="G1390" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="H1390" t="s">
         <v>9</v>
@@ -40999,7 +40999,7 @@
         <v>38.5</v>
       </c>
       <c r="G1391" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="H1391" t="s">
         <v>9</v>
@@ -41025,7 +41025,7 @@
         <v>38.5</v>
       </c>
       <c r="G1392" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="H1392" t="s">
         <v>9</v>
@@ -41051,7 +41051,7 @@
         <v>39</v>
       </c>
       <c r="G1393" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="H1393" t="s">
         <v>9</v>
@@ -41077,7 +41077,7 @@
         <v>40.5</v>
       </c>
       <c r="G1394" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="H1394" t="s">
         <v>9</v>
@@ -41103,7 +41103,7 @@
         <v>40.7000007629395</v>
       </c>
       <c r="G1395" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
       <c r="H1395" t="s">
         <v>9</v>
@@ -41129,7 +41129,7 @@
         <v>40.2000007629395</v>
       </c>
       <c r="G1396" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="H1396" t="s">
         <v>9</v>
@@ -41155,7 +41155,7 @@
         <v>41.6500015258789</v>
       </c>
       <c r="G1397" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="H1397" t="s">
         <v>9</v>
@@ -41181,7 +41181,7 @@
         <v>42.7000007629395</v>
       </c>
       <c r="G1398" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="H1398" t="s">
         <v>9</v>
@@ -41207,7 +41207,7 @@
         <v>43.0999984741211</v>
       </c>
       <c r="G1399" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="H1399" t="s">
         <v>9</v>
@@ -41233,7 +41233,7 @@
         <v>42.4500007629395</v>
       </c>
       <c r="G1400" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="H1400" t="s">
         <v>9</v>
@@ -41259,7 +41259,7 @@
         <v>42.0499992370605</v>
       </c>
       <c r="G1401" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="H1401" t="s">
         <v>9</v>
@@ -41285,7 +41285,7 @@
         <v>41.3499984741211</v>
       </c>
       <c r="G1402" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
       <c r="H1402" t="s">
         <v>9</v>
@@ -41311,7 +41311,7 @@
         <v>41.4000015258789</v>
       </c>
       <c r="G1403" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="H1403" t="s">
         <v>9</v>
@@ -41337,7 +41337,7 @@
         <v>42.9000015258789</v>
       </c>
       <c r="G1404" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="H1404" t="s">
         <v>9</v>
@@ -41363,7 +41363,7 @@
         <v>43.2000007629395</v>
       </c>
       <c r="G1405" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="H1405" t="s">
         <v>9</v>
@@ -41389,7 +41389,7 @@
         <v>43.0499992370605</v>
       </c>
       <c r="G1406" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
       <c r="H1406" t="s">
         <v>9</v>
@@ -41415,7 +41415,7 @@
         <v>43.2000007629395</v>
       </c>
       <c r="G1407" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="H1407" t="s">
         <v>9</v>
@@ -41441,7 +41441,7 @@
         <v>42.9500007629395</v>
       </c>
       <c r="G1408" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="H1408" t="s">
         <v>9</v>
@@ -41467,7 +41467,7 @@
         <v>42.4000015258789</v>
       </c>
       <c r="G1409" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="H1409" t="s">
         <v>9</v>
@@ -41493,7 +41493,7 @@
         <v>43.75</v>
       </c>
       <c r="G1410" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="H1410" t="s">
         <v>9</v>
@@ -41519,7 +41519,7 @@
         <v>46.4500007629395</v>
       </c>
       <c r="G1411" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="H1411" t="s">
         <v>9</v>
@@ -41545,7 +41545,7 @@
         <v>46.5</v>
       </c>
       <c r="G1412" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="H1412" t="s">
         <v>9</v>
@@ -41571,7 +41571,7 @@
         <v>47.2999992370605</v>
       </c>
       <c r="G1413" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="H1413" t="s">
         <v>9</v>
@@ -41597,7 +41597,7 @@
         <v>49</v>
       </c>
       <c r="G1414" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="H1414" t="s">
         <v>9</v>
@@ -41623,7 +41623,7 @@
         <v>48.4500007629395</v>
       </c>
       <c r="G1415" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="H1415" t="s">
         <v>9</v>
@@ -41649,7 +41649,7 @@
         <v>48.9500007629395</v>
       </c>
       <c r="G1416" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="H1416" t="s">
         <v>9</v>
@@ -41675,7 +41675,7 @@
         <v>49.7000007629395</v>
       </c>
       <c r="G1417" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
       <c r="H1417" t="s">
         <v>9</v>
@@ -41701,7 +41701,7 @@
         <v>49.75</v>
       </c>
       <c r="G1418" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="H1418" t="s">
         <v>9</v>
@@ -41727,7 +41727,7 @@
         <v>50</v>
       </c>
       <c r="G1419" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="H1419" t="s">
         <v>9</v>
@@ -41753,7 +41753,7 @@
         <v>49.3499984741211</v>
       </c>
       <c r="G1420" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
       <c r="H1420" t="s">
         <v>9</v>
@@ -41779,7 +41779,7 @@
         <v>50.9000015258789</v>
       </c>
       <c r="G1421" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="H1421" t="s">
         <v>9</v>
@@ -41805,7 +41805,7 @@
         <v>51.0999984741211</v>
       </c>
       <c r="G1422" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="H1422" t="s">
         <v>9</v>
@@ -41831,7 +41831,7 @@
         <v>51</v>
       </c>
       <c r="G1423" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="H1423" t="s">
         <v>9</v>
@@ -41857,7 +41857,7 @@
         <v>51.2000007629395</v>
       </c>
       <c r="G1424" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
       <c r="H1424" t="s">
         <v>9</v>
@@ -41883,7 +41883,7 @@
         <v>51.9000015258789</v>
       </c>
       <c r="G1425" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
       <c r="H1425" t="s">
         <v>9</v>
@@ -41909,7 +41909,7 @@
         <v>52.5999984741211</v>
       </c>
       <c r="G1426" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="H1426" t="s">
         <v>9</v>
@@ -41935,7 +41935,7 @@
         <v>51.9000015258789</v>
       </c>
       <c r="G1427" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
       <c r="H1427" t="s">
         <v>9</v>
@@ -41961,7 +41961,7 @@
         <v>51.9000015258789</v>
       </c>
       <c r="G1428" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
       <c r="H1428" t="s">
         <v>9</v>
@@ -41987,7 +41987,7 @@
         <v>51.5</v>
       </c>
       <c r="G1429" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
       <c r="H1429" t="s">
         <v>9</v>
@@ -42013,7 +42013,7 @@
         <v>50.9000015258789</v>
       </c>
       <c r="G1430" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="H1430" t="s">
         <v>9</v>
@@ -42039,7 +42039,7 @@
         <v>51.7999992370605</v>
       </c>
       <c r="G1431" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="H1431" t="s">
         <v>9</v>
@@ -42065,7 +42065,7 @@
         <v>51.7000007629395</v>
       </c>
       <c r="G1432" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
       <c r="H1432" t="s">
         <v>9</v>
@@ -42091,7 +42091,7 @@
         <v>50.9000015258789</v>
       </c>
       <c r="G1433" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="H1433" t="s">
         <v>9</v>
@@ -42117,7 +42117,7 @@
         <v>52.5</v>
       </c>
       <c r="G1434" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="H1434" t="s">
         <v>9</v>
@@ -42143,7 +42143,7 @@
         <v>51.0999984741211</v>
       </c>
       <c r="G1435" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="H1435" t="s">
         <v>9</v>
@@ -42169,7 +42169,7 @@
         <v>51.4000015258789</v>
       </c>
       <c r="G1436" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="H1436" t="s">
         <v>9</v>
@@ -42195,7 +42195,7 @@
         <v>51.9000015258789</v>
       </c>
       <c r="G1437" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
       <c r="H1437" t="s">
         <v>9</v>
@@ -42221,7 +42221,7 @@
         <v>52</v>
       </c>
       <c r="G1438" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
       <c r="H1438" t="s">
         <v>9</v>
@@ -42247,7 +42247,7 @@
         <v>52.2000007629395</v>
       </c>
       <c r="G1439" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="H1439" t="s">
         <v>9</v>
@@ -42273,7 +42273,7 @@
         <v>51.0999984741211</v>
       </c>
       <c r="G1440" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="H1440" t="s">
         <v>9</v>
@@ -42299,7 +42299,7 @@
         <v>53.0999984741211</v>
       </c>
       <c r="G1441" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="H1441" t="s">
         <v>9</v>
@@ -42325,7 +42325,7 @@
         <v>53.2000007629395</v>
       </c>
       <c r="G1442" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="H1442" t="s">
         <v>9</v>
@@ -42351,7 +42351,7 @@
         <v>52.0999984741211</v>
       </c>
       <c r="G1443" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="H1443" t="s">
         <v>9</v>
@@ -42377,7 +42377,7 @@
         <v>52.0999984741211</v>
       </c>
       <c r="G1444" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="H1444" t="s">
         <v>9</v>
@@ -42403,7 +42403,7 @@
         <v>50</v>
       </c>
       <c r="G1445" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="H1445" t="s">
         <v>9</v>
@@ -42429,7 +42429,7 @@
         <v>46.3499984741211</v>
       </c>
       <c r="G1446" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="H1446" t="s">
         <v>9</v>
@@ -42455,7 +42455,7 @@
         <v>46.3499984741211</v>
       </c>
       <c r="G1447" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="H1447" t="s">
         <v>9</v>
@@ -42481,7 +42481,7 @@
         <v>45.5999984741211</v>
       </c>
       <c r="G1448" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="H1448" t="s">
         <v>9</v>
@@ -42507,7 +42507,7 @@
         <v>44.5499992370605</v>
       </c>
       <c r="G1449" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="H1449" t="s">
         <v>9</v>
@@ -42533,7 +42533,7 @@
         <v>45.2999992370605</v>
       </c>
       <c r="G1450" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="H1450" t="s">
         <v>9</v>
@@ -42559,7 +42559,7 @@
         <v>45.3499984741211</v>
       </c>
       <c r="G1451" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
       <c r="H1451" t="s">
         <v>9</v>
@@ -42585,7 +42585,7 @@
         <v>46.3499984741211</v>
       </c>
       <c r="G1452" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="H1452" t="s">
         <v>9</v>
@@ -42611,7 +42611,7 @@
         <v>46</v>
       </c>
       <c r="G1453" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
       <c r="H1453" t="s">
         <v>9</v>
@@ -42637,7 +42637,7 @@
         <v>45.0999984741211</v>
       </c>
       <c r="G1454" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
       <c r="H1454" t="s">
         <v>9</v>
@@ -42663,7 +42663,7 @@
         <v>44.8499984741211</v>
       </c>
       <c r="G1455" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
       <c r="H1455" t="s">
         <v>9</v>
@@ -42689,7 +42689,7 @@
         <v>45.5999984741211</v>
       </c>
       <c r="G1456" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="H1456" t="s">
         <v>9</v>
@@ -42715,7 +42715,7 @@
         <v>45.5</v>
       </c>
       <c r="G1457" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
       <c r="H1457" t="s">
         <v>9</v>
@@ -42741,7 +42741,7 @@
         <v>45</v>
       </c>
       <c r="G1458" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="H1458" t="s">
         <v>9</v>
@@ -42767,7 +42767,7 @@
         <v>45.25</v>
       </c>
       <c r="G1459" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
       <c r="H1459" t="s">
         <v>9</v>
@@ -42793,7 +42793,7 @@
         <v>42.2000007629395</v>
       </c>
       <c r="G1460" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
       <c r="H1460" t="s">
         <v>9</v>
@@ -42819,7 +42819,7 @@
         <v>41.9500007629395</v>
       </c>
       <c r="G1461" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
       <c r="H1461" t="s">
         <v>9</v>
@@ -42845,7 +42845,7 @@
         <v>42.75</v>
       </c>
       <c r="G1462" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
       <c r="H1462" t="s">
         <v>9</v>
@@ -42871,7 +42871,7 @@
         <v>43.75</v>
       </c>
       <c r="G1463" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="H1463" t="s">
         <v>9</v>
@@ -42897,7 +42897,7 @@
         <v>43.0499992370605</v>
       </c>
       <c r="G1464" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
       <c r="H1464" t="s">
         <v>9</v>
@@ -42923,7 +42923,7 @@
         <v>44.5499992370605</v>
       </c>
       <c r="G1465" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="H1465" t="s">
         <v>9</v>
@@ -42949,7 +42949,7 @@
         <v>43.2999992370605</v>
       </c>
       <c r="G1466" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="H1466" t="s">
         <v>9</v>
@@ -42975,7 +42975,7 @@
         <v>43.2999992370605</v>
       </c>
       <c r="G1467" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="H1467" t="s">
         <v>9</v>
@@ -43001,7 +43001,7 @@
         <v>44.0999984741211</v>
       </c>
       <c r="G1468" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
       <c r="H1468" t="s">
         <v>9</v>
@@ -43027,7 +43027,7 @@
         <v>43.0999984741211</v>
       </c>
       <c r="G1469" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="H1469" t="s">
         <v>9</v>
@@ -43053,7 +43053,7 @@
         <v>44.2999992370605</v>
       </c>
       <c r="G1470" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
       <c r="H1470" t="s">
         <v>9</v>
@@ -43079,7 +43079,7 @@
         <v>44.75</v>
       </c>
       <c r="G1471" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
       <c r="H1471" t="s">
         <v>9</v>
@@ -43105,7 +43105,7 @@
         <v>45.4000015258789</v>
       </c>
       <c r="G1472" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="H1472" t="s">
         <v>9</v>
@@ -43131,7 +43131,7 @@
         <v>46.5499992370605</v>
       </c>
       <c r="G1473" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
       <c r="H1473" t="s">
         <v>9</v>
@@ -43157,7 +43157,7 @@
         <v>46.3499984741211</v>
       </c>
       <c r="G1474" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="H1474" t="s">
         <v>9</v>
@@ -43183,7 +43183,7 @@
         <v>47.2000007629395</v>
       </c>
       <c r="G1475" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="H1475" t="s">
         <v>9</v>
@@ -43209,7 +43209,7 @@
         <v>46.75</v>
       </c>
       <c r="G1476" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="H1476" t="s">
         <v>9</v>
@@ -43235,7 +43235,7 @@
         <v>46.75</v>
       </c>
       <c r="G1477" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="H1477" t="s">
         <v>9</v>
@@ -43261,7 +43261,7 @@
         <v>46.8499984741211</v>
       </c>
       <c r="G1478" t="s">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="H1478" t="s">
         <v>9</v>
@@ -43287,7 +43287,7 @@
         <v>46.8499984741211</v>
       </c>
       <c r="G1479" t="s">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="H1479" t="s">
         <v>9</v>
@@ -43313,7 +43313,7 @@
         <v>46.5</v>
       </c>
       <c r="G1480" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="H1480" t="s">
         <v>9</v>
@@ -43339,7 +43339,7 @@
         <v>43.7999992370605</v>
       </c>
       <c r="G1481" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="H1481" t="s">
         <v>9</v>
@@ -43365,7 +43365,7 @@
         <v>42.25</v>
       </c>
       <c r="G1482" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="H1482" t="s">
         <v>9</v>
@@ -43391,7 +43391,7 @@
         <v>42.25</v>
       </c>
       <c r="G1483" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="H1483" t="s">
         <v>9</v>
@@ -43417,7 +43417,7 @@
         <v>43.7000007629395</v>
       </c>
       <c r="G1484" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="H1484" t="s">
         <v>9</v>
@@ -43443,7 +43443,7 @@
         <v>42.0499992370605</v>
       </c>
       <c r="G1485" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="H1485" t="s">
         <v>9</v>
@@ -43469,7 +43469,7 @@
         <v>42.9000015258789</v>
       </c>
       <c r="G1486" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="H1486" t="s">
         <v>9</v>
@@ -43495,7 +43495,7 @@
         <v>44.1500015258789</v>
       </c>
       <c r="G1487" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="H1487" t="s">
         <v>9</v>
@@ -43521,7 +43521,7 @@
         <v>43.3499984741211</v>
       </c>
       <c r="G1488" t="s">
-        <v>892</v>
+        <v>1006</v>
       </c>
       <c r="H1488" t="s">
         <v>9</v>
@@ -43573,7 +43573,7 @@
         <v>42.9000015258789</v>
       </c>
       <c r="G1490" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="H1490" t="s">
         <v>9</v>
@@ -43651,7 +43651,7 @@
         <v>42.9500007629395</v>
       </c>
       <c r="G1493" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="H1493" t="s">
         <v>9</v>
@@ -43703,7 +43703,7 @@
         <v>40.8499984741211</v>
       </c>
       <c r="G1495" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="H1495" t="s">
         <v>9</v>
@@ -43807,7 +43807,7 @@
         <v>41</v>
       </c>
       <c r="G1499" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="H1499" t="s">
         <v>9</v>
@@ -43833,7 +43833,7 @@
         <v>40.5999984741211</v>
       </c>
       <c r="G1500" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="H1500" t="s">
         <v>9</v>
@@ -43859,7 +43859,7 @@
         <v>40.5</v>
       </c>
       <c r="G1501" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="H1501" t="s">
         <v>9</v>
@@ -43885,7 +43885,7 @@
         <v>41.75</v>
       </c>
       <c r="G1502" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="H1502" t="s">
         <v>9</v>
@@ -43911,7 +43911,7 @@
         <v>41</v>
       </c>
       <c r="G1503" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="H1503" t="s">
         <v>9</v>
@@ -43989,7 +43989,7 @@
         <v>41.4000015258789</v>
       </c>
       <c r="G1506" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="H1506" t="s">
         <v>9</v>
@@ -44015,7 +44015,7 @@
         <v>40.7000007629395</v>
       </c>
       <c r="G1507" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
       <c r="H1507" t="s">
         <v>9</v>
@@ -44041,7 +44041,7 @@
         <v>40.5499992370605</v>
       </c>
       <c r="G1508" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="H1508" t="s">
         <v>9</v>
@@ -44223,7 +44223,7 @@
         <v>41.75</v>
       </c>
       <c r="G1515" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="H1515" t="s">
         <v>9</v>
@@ -44327,7 +44327,7 @@
         <v>40.9500007629395</v>
       </c>
       <c r="G1519" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="H1519" t="s">
         <v>9</v>
@@ -44353,7 +44353,7 @@
         <v>41.3499984741211</v>
       </c>
       <c r="G1520" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
       <c r="H1520" t="s">
         <v>9</v>
@@ -44405,7 +44405,7 @@
         <v>43.0999984741211</v>
       </c>
       <c r="G1522" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="H1522" t="s">
         <v>9</v>
@@ -44457,7 +44457,7 @@
         <v>43.7999992370605</v>
       </c>
       <c r="G1524" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="H1524" t="s">
         <v>9</v>
@@ -44509,7 +44509,7 @@
         <v>44.2999992370605</v>
       </c>
       <c r="G1526" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
       <c r="H1526" t="s">
         <v>9</v>
@@ -44665,7 +44665,7 @@
         <v>41</v>
       </c>
       <c r="G1532" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="H1532" t="s">
         <v>9</v>
@@ -44691,7 +44691,7 @@
         <v>41</v>
       </c>
       <c r="G1533" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="H1533" t="s">
         <v>9</v>
@@ -44821,7 +44821,7 @@
         <v>44.1500015258789</v>
       </c>
       <c r="G1538" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="H1538" t="s">
         <v>9</v>
@@ -44899,7 +44899,7 @@
         <v>44.1500015258789</v>
       </c>
       <c r="G1541" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="H1541" t="s">
         <v>9</v>
@@ -44925,7 +44925,7 @@
         <v>42.4000015258789</v>
       </c>
       <c r="G1542" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="H1542" t="s">
         <v>9</v>
@@ -44977,7 +44977,7 @@
         <v>40.8499984741211</v>
       </c>
       <c r="G1544" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="H1544" t="s">
         <v>9</v>
@@ -45133,7 +45133,7 @@
         <v>43.0999984741211</v>
       </c>
       <c r="G1550" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="H1550" t="s">
         <v>9</v>
@@ -45159,7 +45159,7 @@
         <v>41.75</v>
       </c>
       <c r="G1551" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="H1551" t="s">
         <v>9</v>
@@ -45367,7 +45367,7 @@
         <v>37.5999984741211</v>
       </c>
       <c r="G1559" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="H1559" t="s">
         <v>9</v>
@@ -61885,7 +61885,7 @@
     </row>
     <row r="2195">
       <c r="A2195" s="1" t="n">
-        <v>45518.6495486111</v>
+        <v>45518.2916666667</v>
       </c>
       <c r="B2195" t="n">
         <v>8100</v>

--- a/data/MOL.MI.xlsx
+++ b/data/MOL.MI.xlsx
@@ -38,7 +38,7 @@
     <t xml:space="preserve">ticker</t>
   </si>
   <si>
-    <t xml:space="preserve">7.02967357635498</t>
+    <t xml:space="preserve">7.0296745300293</t>
   </si>
   <si>
     <t xml:space="preserve">MOL.MI</t>
@@ -47,7 +47,7 @@
     <t xml:space="preserve">6.93431091308594</t>
   </si>
   <si>
-    <t xml:space="preserve">6.83440589904785</t>
+    <t xml:space="preserve">6.83440685272217</t>
   </si>
   <si>
     <t xml:space="preserve">6.94793462753296</t>
@@ -56,7 +56,7 @@
     <t xml:space="preserve">6.81170034408569</t>
   </si>
   <si>
-    <t xml:space="preserve">6.90252304077148</t>
+    <t xml:space="preserve">6.90252256393433</t>
   </si>
   <si>
     <t xml:space="preserve">6.99334478378296</t>
@@ -65,10 +65,10 @@
     <t xml:space="preserve">6.7208776473999</t>
   </si>
   <si>
-    <t xml:space="preserve">6.48473834991455</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.25768136978149</t>
+    <t xml:space="preserve">6.48473882675171</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.25768184661865</t>
   </si>
   <si>
     <t xml:space="preserve">6.51652669906616</t>
@@ -77,34 +77,34 @@
     <t xml:space="preserve">6.40299844741821</t>
   </si>
   <si>
-    <t xml:space="preserve">6.72995948791504</t>
+    <t xml:space="preserve">6.7299599647522</t>
   </si>
   <si>
     <t xml:space="preserve">6.63005495071411</t>
   </si>
   <si>
-    <t xml:space="preserve">6.04878950119019</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.69363021850586</t>
+    <t xml:space="preserve">6.04878997802734</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.69363069534302</t>
   </si>
   <si>
     <t xml:space="preserve">6.82986450195312</t>
   </si>
   <si>
-    <t xml:space="preserve">6.93885278701782</t>
+    <t xml:space="preserve">6.93885183334351</t>
   </si>
   <si>
     <t xml:space="preserve">6.83894729614258</t>
   </si>
   <si>
-    <t xml:space="preserve">6.86619281768799</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.85711145401001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.17594194412231</t>
+    <t xml:space="preserve">6.8661937713623</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.85711193084717</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.17594242095947</t>
   </si>
   <si>
     <t xml:space="preserve">6.05333137512207</t>
@@ -116,7 +116,7 @@
     <t xml:space="preserve">6.22135257720947</t>
   </si>
   <si>
-    <t xml:space="preserve">6.41662168502808</t>
+    <t xml:space="preserve">6.41662216186523</t>
   </si>
   <si>
     <t xml:space="preserve">6.56647920608521</t>
@@ -131,37 +131,37 @@
     <t xml:space="preserve">6.49836206436157</t>
   </si>
   <si>
-    <t xml:space="preserve">6.59372520446777</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.55739641189575</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.47111558914185</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.5755615234375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.52106761932373</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.80715894699097</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.60280847549438</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.38937568664551</t>
+    <t xml:space="preserve">6.59372711181641</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.55739688873291</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.471116065979</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.57556104660034</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.52106809616089</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.80715942382812</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.60280799865723</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.38937520980835</t>
   </si>
   <si>
     <t xml:space="preserve">6.40753936767578</t>
   </si>
   <si>
-    <t xml:space="preserve">6.43932723999023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.43024444580078</t>
+    <t xml:space="preserve">6.43932771682739</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.4302453994751</t>
   </si>
   <si>
     <t xml:space="preserve">6.8026180267334</t>
@@ -173,67 +173,67 @@
     <t xml:space="preserve">6.58010196685791</t>
   </si>
   <si>
-    <t xml:space="preserve">6.62097311019897</t>
+    <t xml:space="preserve">6.62097263336182</t>
   </si>
   <si>
     <t xml:space="preserve">6.62551403045654</t>
   </si>
   <si>
-    <t xml:space="preserve">6.53469085693359</t>
+    <t xml:space="preserve">6.53469133377075</t>
   </si>
   <si>
     <t xml:space="preserve">6.3575873374939</t>
   </si>
   <si>
-    <t xml:space="preserve">6.22589445114136</t>
+    <t xml:space="preserve">6.2258939743042</t>
   </si>
   <si>
     <t xml:space="preserve">6.45295095443726</t>
   </si>
   <si>
-    <t xml:space="preserve">6.36666965484619</t>
+    <t xml:space="preserve">6.36667013168335</t>
   </si>
   <si>
     <t xml:space="preserve">6.45749187469482</t>
   </si>
   <si>
-    <t xml:space="preserve">6.41208076477051</t>
+    <t xml:space="preserve">6.41208028793335</t>
   </si>
   <si>
     <t xml:space="preserve">6.38483381271362</t>
   </si>
   <si>
-    <t xml:space="preserve">6.42116260528564</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.31671667098999</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.35304546356201</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.76174783706665</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.64821910858154</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.66638374328613</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.58918523788452</t>
+    <t xml:space="preserve">6.4211630821228</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.31671619415283</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.35304594039917</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.76174736022949</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.64822053909302</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.66638422012329</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.58918476104736</t>
   </si>
   <si>
     <t xml:space="preserve">6.80682754516602</t>
   </si>
   <si>
-    <t xml:space="preserve">6.6213550567627</t>
+    <t xml:space="preserve">6.62135553359985</t>
   </si>
   <si>
     <t xml:space="preserve">6.71409130096436</t>
   </si>
   <si>
-    <t xml:space="preserve">6.6120810508728</t>
+    <t xml:space="preserve">6.61208248138428</t>
   </si>
   <si>
     <t xml:space="preserve">6.67699670791626</t>
@@ -242,106 +242,106 @@
     <t xml:space="preserve">6.72800207138062</t>
   </si>
   <si>
-    <t xml:space="preserve">6.53325653076172</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.79291725158691</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.86710596084595</t>
+    <t xml:space="preserve">6.53325605392456</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.79291772842407</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.86710643768311</t>
   </si>
   <si>
     <t xml:space="preserve">6.76973295211792</t>
   </si>
   <si>
-    <t xml:space="preserve">6.85783290863037</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.88101720809937</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.92738437652588</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.02939414978027</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.12676668167114</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.16849851608276</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.28905582427979</t>
+    <t xml:space="preserve">6.85783195495605</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.88101673126221</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.92738485336304</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.02939367294312</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.1267671585083</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.16849756240845</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.28905534744263</t>
   </si>
   <si>
     <t xml:space="preserve">7.44206953048706</t>
   </si>
   <si>
-    <t xml:space="preserve">7.51162242889404</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.65072679519653</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.49307489395142</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.57189989089966</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.44670581817627</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.41888570785522</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.41424894332886</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.38642883300781</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.27978181838989</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.32614994049072</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.18704509735107</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.26587152481079</t>
+    <t xml:space="preserve">7.51162195205688</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.65072584152222</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.49307441711426</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.57189893722534</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.44670534133911</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.41888618469238</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.4142484664917</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.38642835617065</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.27978134155273</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.32615041732788</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.18704605102539</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.26587057113647</t>
   </si>
   <si>
     <t xml:space="preserve">7.14067649841309</t>
   </si>
   <si>
-    <t xml:space="preserve">7.02012014389038</t>
+    <t xml:space="preserve">7.02012062072754</t>
   </si>
   <si>
     <t xml:space="preserve">7.30296564102173</t>
   </si>
   <si>
-    <t xml:space="preserve">7.35397052764893</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.50234842300415</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.51625776290894</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.18240928649902</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.90883684158325</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.27514410018921</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.37251758575439</t>
+    <t xml:space="preserve">7.35396957397461</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.50234746932983</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.51625823974609</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.18240833282471</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.90883636474609</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.27514362335205</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.37251806259155</t>
   </si>
   <si>
     <t xml:space="preserve">7.03866815567017</t>
@@ -356,43 +356,43 @@
     <t xml:space="preserve">6.74191188812256</t>
   </si>
   <si>
-    <t xml:space="preserve">6.75118589401245</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.58426094055176</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.92274713516235</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.82537460327148</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.72336530685425</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.63062953948975</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.93202066421509</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.73727560043335</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.95520496368408</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.88565254211426</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.65844964981079</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.70945358276367</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.83464765548706</t>
+    <t xml:space="preserve">6.75118541717529</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.5842604637146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.92274856567383</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.82537508010864</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.72336483001709</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.63062906265259</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.93202114105225</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.73727607727051</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.95520448684692</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.88565349578857</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.65845012664795</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.70945453643799</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.83464860916138</t>
   </si>
   <si>
     <t xml:space="preserve">6.86246919631958</t>
@@ -401,7 +401,7 @@
     <t xml:space="preserve">6.93665790557861</t>
   </si>
   <si>
-    <t xml:space="preserve">7.05721473693848</t>
+    <t xml:space="preserve">7.05721569061279</t>
   </si>
   <si>
     <t xml:space="preserve">6.87637948989868</t>
@@ -410,73 +410,73 @@
     <t xml:space="preserve">6.96447896957397</t>
   </si>
   <si>
-    <t xml:space="preserve">6.97375202178955</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.99230003356934</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.9969367980957</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.00157260894775</t>
+    <t xml:space="preserve">6.97375297546387</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.99229955673218</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.99693632125854</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.00157403945923</t>
   </si>
   <si>
     <t xml:space="preserve">6.98302602767944</t>
   </si>
   <si>
-    <t xml:space="preserve">7.10358285903931</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.085036277771</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.0479416847229</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.16386127471924</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.36324405670166</t>
+    <t xml:space="preserve">7.10358333587646</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.08503532409668</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.04794120788574</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.1638617515564</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.3632435798645</t>
   </si>
   <si>
     <t xml:space="preserve">7.19631910324097</t>
   </si>
   <si>
-    <t xml:space="preserve">7.15922451019287</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.81610107421875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.87174224853516</t>
+    <t xml:space="preserve">7.15922498703003</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.81610059738159</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.87174320220947</t>
   </si>
   <si>
     <t xml:space="preserve">7.06648826599121</t>
   </si>
   <si>
-    <t xml:space="preserve">7.1128568649292</t>
+    <t xml:space="preserve">7.11285781860352</t>
   </si>
   <si>
     <t xml:space="preserve">7.2055926322937</t>
   </si>
   <si>
-    <t xml:space="preserve">7.17313528060913</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.38179159164429</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.24268674850464</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.2334132194519</t>
+    <t xml:space="preserve">7.17313480377197</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.38179111480713</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.2426872253418</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.23341369628906</t>
   </si>
   <si>
     <t xml:space="preserve">7.25196075439453</t>
   </si>
   <si>
-    <t xml:space="preserve">7.33542251586914</t>
+    <t xml:space="preserve">7.3354229927063</t>
   </si>
   <si>
     <t xml:space="preserve">7.27050828933716</t>
@@ -485,43 +485,43 @@
     <t xml:space="preserve">7.24732446670532</t>
   </si>
   <si>
-    <t xml:space="preserve">7.34469699859619</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.4003381729126</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.5765380859375</t>
+    <t xml:space="preserve">7.34469747543335</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.40033864974976</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.57653713226318</t>
   </si>
   <si>
     <t xml:space="preserve">7.40961170196533</t>
   </si>
   <si>
-    <t xml:space="preserve">7.43743371963501</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.37715435028076</t>
+    <t xml:space="preserve">7.43743324279785</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.37715482711792</t>
   </si>
   <si>
     <t xml:space="preserve">7.54871606826782</t>
   </si>
   <si>
-    <t xml:space="preserve">7.56262588500977</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.061851978302</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.2195029258728</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.36788129806519</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.09430980682373</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.71564102172852</t>
+    <t xml:space="preserve">7.56262636184692</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.06185150146484</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.21950340270996</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.36788082122803</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.09430932998657</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.7156400680542</t>
   </si>
   <si>
     <t xml:space="preserve">7.67390918731689</t>
@@ -530,37 +530,37 @@
     <t xml:space="preserve">7.69709396362305</t>
   </si>
   <si>
-    <t xml:space="preserve">7.60435819625854</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.4652533531189</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.80837726593018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.86401891708374</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.92893409729004</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.88256549835205</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.87792873382568</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.83619737625122</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.9753041267395</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.1793212890625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.55953979492188</t>
+    <t xml:space="preserve">7.60435676574707</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.46525382995605</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.80837631225586</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.86401796340942</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.92893314361572</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.88256597518921</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.87792921066284</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.83619785308838</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.97530221939087</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.17931938171387</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.55953788757324</t>
   </si>
   <si>
     <t xml:space="preserve">8.63372898101807</t>
@@ -569,43 +569,43 @@
     <t xml:space="preserve">8.670823097229</t>
   </si>
   <si>
-    <t xml:space="preserve">8.80065250396729</t>
+    <t xml:space="preserve">8.80065441131592</t>
   </si>
   <si>
     <t xml:space="preserve">8.59663391113281</t>
   </si>
   <si>
-    <t xml:space="preserve">8.6290922164917</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.57808685302734</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.43898296356201</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.45752906799316</t>
+    <t xml:space="preserve">8.62909126281738</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.57808780670166</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.4389820098877</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.45752811431885</t>
   </si>
   <si>
     <t xml:space="preserve">8.55490303039551</t>
   </si>
   <si>
-    <t xml:space="preserve">8.54562854766846</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.54099178314209</t>
+    <t xml:space="preserve">8.54562950134277</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.54098987579346</t>
   </si>
   <si>
     <t xml:space="preserve">8.58272266387939</t>
   </si>
   <si>
-    <t xml:space="preserve">8.59199619293213</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.68936824798584</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.5224437713623</t>
+    <t xml:space="preserve">8.59199810028076</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.68937015533447</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.52244567871094</t>
   </si>
   <si>
     <t xml:space="preserve">8.51780700683594</t>
@@ -614,118 +614,118 @@
     <t xml:space="preserve">8.30915260314941</t>
   </si>
   <si>
-    <t xml:space="preserve">8.48534870147705</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.42043495178223</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.28596878051758</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.32306385040283</t>
+    <t xml:space="preserve">8.48534965515137</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.42043590545654</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.28596782684326</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.3230619430542</t>
   </si>
   <si>
     <t xml:space="preserve">8.49926090240479</t>
   </si>
   <si>
-    <t xml:space="preserve">8.5131721496582</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.6244535446167</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.70327949523926</t>
+    <t xml:space="preserve">8.51317310333252</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.62445449829102</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.70328140258789</t>
   </si>
   <si>
     <t xml:space="preserve">8.64300155639648</t>
   </si>
   <si>
-    <t xml:space="preserve">8.44361782073975</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.48998546600342</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.23960113525391</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.34624671936035</t>
+    <t xml:space="preserve">8.44361877441406</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.48998737335205</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.23960018157959</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.34624481201172</t>
   </si>
   <si>
     <t xml:space="preserve">8.49462413787842</t>
   </si>
   <si>
-    <t xml:space="preserve">8.6522741317749</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.92120933532715</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.83002376556396</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.49617290496826</t>
+    <t xml:space="preserve">8.65227508544922</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.92120838165283</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.83002185821533</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.49617385864258</t>
   </si>
   <si>
     <t xml:space="preserve">9.45907783508301</t>
   </si>
   <si>
-    <t xml:space="preserve">9.25505924224854</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.40343761444092</t>
+    <t xml:space="preserve">9.25506019592285</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.4034366607666</t>
   </si>
   <si>
     <t xml:space="preserve">9.44053173065186</t>
   </si>
   <si>
-    <t xml:space="preserve">9.44980621337891</t>
+    <t xml:space="preserve">9.44980430603027</t>
   </si>
   <si>
     <t xml:space="preserve">9.46835231781006</t>
   </si>
   <si>
-    <t xml:space="preserve">9.18087100982666</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.273606300354</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.36634254455566</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.59818267822266</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.80220317840576</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.71874046325684</t>
+    <t xml:space="preserve">9.18087005615234</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.27360725402832</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.3663444519043</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.59818458557129</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.80220222473145</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.71873950958252</t>
   </si>
   <si>
     <t xml:space="preserve">10.061863899231</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1546010971069</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4791765213013</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2009677886963</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7202892303467</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1283273696899</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.091233253479</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1932430267334</t>
+    <t xml:space="preserve">10.1546001434326</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.479175567627</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2009658813477</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.720290184021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1283292770386</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0912342071533</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1932439804077</t>
   </si>
   <si>
     <t xml:space="preserve">11.2210645675659</t>
@@ -734,13 +734,13 @@
     <t xml:space="preserve">11.0170450210571</t>
   </si>
   <si>
-    <t xml:space="preserve">10.9892244338989</t>
+    <t xml:space="preserve">10.9892234802246</t>
   </si>
   <si>
     <t xml:space="preserve">11.0355920791626</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5411834716797</t>
+    <t xml:space="preserve">10.5411825180054</t>
   </si>
   <si>
     <t xml:space="preserve">10.2893142700195</t>
@@ -749,10 +749,10 @@
     <t xml:space="preserve">10.0747594833374</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4478998184204</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4945392608643</t>
+    <t xml:space="preserve">10.4478988647461</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4945411682129</t>
   </si>
   <si>
     <t xml:space="preserve">10.3452844619751</t>
@@ -761,19 +761,19 @@
     <t xml:space="preserve">10.4665555953979</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5784969329834</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5598402023315</t>
+    <t xml:space="preserve">10.578498840332</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5598392486572</t>
   </si>
   <si>
     <t xml:space="preserve">10.6064825057983</t>
   </si>
   <si>
-    <t xml:space="preserve">10.8117084503174</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1475343704224</t>
+    <t xml:space="preserve">10.8117094039917</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1475353240967</t>
   </si>
   <si>
     <t xml:space="preserve">11.8471698760986</t>
@@ -785,13 +785,13 @@
     <t xml:space="preserve">11.2874622344971</t>
   </si>
   <si>
-    <t xml:space="preserve">11.3714170455933</t>
+    <t xml:space="preserve">11.3714160919189</t>
   </si>
   <si>
     <t xml:space="preserve">11.1661920547485</t>
   </si>
   <si>
-    <t xml:space="preserve">11.2128343582153</t>
+    <t xml:space="preserve">11.212833404541</t>
   </si>
   <si>
     <t xml:space="preserve">11.1008920669556</t>
@@ -803,25 +803,25 @@
     <t xml:space="preserve">10.8210382461548</t>
   </si>
   <si>
-    <t xml:space="preserve">10.8023805618286</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0542497634888</t>
+    <t xml:space="preserve">10.8023796081543</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0542488098145</t>
   </si>
   <si>
     <t xml:space="preserve">10.9329805374146</t>
   </si>
   <si>
-    <t xml:space="preserve">10.634467124939</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1941747665405</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1288776397705</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5579891204834</t>
+    <t xml:space="preserve">10.6344680786133</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1941776275635</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1288785934448</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5579872131348</t>
   </si>
   <si>
     <t xml:space="preserve">11.1382055282593</t>
@@ -830,13 +830,13 @@
     <t xml:space="preserve">11.007607460022</t>
   </si>
   <si>
-    <t xml:space="preserve">11.5206737518311</t>
+    <t xml:space="preserve">11.5206747055054</t>
   </si>
   <si>
     <t xml:space="preserve">11.4740314483643</t>
   </si>
   <si>
-    <t xml:space="preserve">11.78187084198</t>
+    <t xml:space="preserve">11.7818717956543</t>
   </si>
   <si>
     <t xml:space="preserve">12.1736669540405</t>
@@ -845,43 +845,43 @@
     <t xml:space="preserve">12.3975505828857</t>
   </si>
   <si>
-    <t xml:space="preserve">11.9684419631958</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.5934495925903</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.6027774810791</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.7520341873169</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.8266611099243</t>
+    <t xml:space="preserve">11.9684400558472</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.593448638916</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.6027765274048</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.7520322799683</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.8266620635986</t>
   </si>
   <si>
     <t xml:space="preserve">12.6121072769165</t>
   </si>
   <si>
-    <t xml:space="preserve">12.8733024597168</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.8080034255981</t>
+    <t xml:space="preserve">12.8733034133911</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.8080053329468</t>
   </si>
   <si>
     <t xml:space="preserve">12.621434211731</t>
   </si>
   <si>
-    <t xml:space="preserve">12.658748626709</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.6400899887085</t>
+    <t xml:space="preserve">12.6587476730347</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.6400918960571</t>
   </si>
   <si>
     <t xml:space="preserve">12.5468072891235</t>
   </si>
   <si>
-    <t xml:space="preserve">12.5747919082642</t>
+    <t xml:space="preserve">12.5747909545898</t>
   </si>
   <si>
     <t xml:space="preserve">12.5654630661011</t>
@@ -893,73 +893,73 @@
     <t xml:space="preserve">12.7053909301758</t>
   </si>
   <si>
-    <t xml:space="preserve">12.630763053894</t>
+    <t xml:space="preserve">12.6307640075684</t>
   </si>
   <si>
     <t xml:space="preserve">12.2576236724854</t>
   </si>
   <si>
-    <t xml:space="preserve">12.4721784591675</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.5001640319824</t>
+    <t xml:space="preserve">12.4721775054932</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.5001630783081</t>
   </si>
   <si>
     <t xml:space="preserve">12.3695659637451</t>
   </si>
   <si>
-    <t xml:space="preserve">12.4441928863525</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9591112136841</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.3602380752563</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.2482938766479</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.127025604248</t>
+    <t xml:space="preserve">12.4441947937012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9591121673584</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.360237121582</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2482957839966</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1270246505737</t>
   </si>
   <si>
     <t xml:space="preserve">12.0244112014771</t>
   </si>
   <si>
-    <t xml:space="preserve">12.388222694397</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.3415803909302</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.015082359314</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0337400436401</t>
+    <t xml:space="preserve">12.3882207870483</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.3415784835815</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0150833129883</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0337390899658</t>
   </si>
   <si>
     <t xml:space="preserve">12.4068784713745</t>
   </si>
   <si>
-    <t xml:space="preserve">12.5188226699829</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.4255352020264</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.4535217285156</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.2296390533447</t>
+    <t xml:space="preserve">12.5188207626343</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.4255361557007</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.4535226821899</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2296371459961</t>
   </si>
   <si>
     <t xml:space="preserve">12.3229236602783</t>
   </si>
   <si>
-    <t xml:space="preserve">12.4162082672119</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.5281496047974</t>
+    <t xml:space="preserve">12.4162073135376</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.5281505584717</t>
   </si>
   <si>
     <t xml:space="preserve">12.2762813568115</t>
@@ -968,52 +968,52 @@
     <t xml:space="preserve">12.5094928741455</t>
   </si>
   <si>
-    <t xml:space="preserve">12.3788938522339</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.3322515487671</t>
+    <t xml:space="preserve">12.3788948059082</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.3322525024414</t>
   </si>
   <si>
     <t xml:space="preserve">12.1363534927368</t>
   </si>
   <si>
-    <t xml:space="preserve">12.0990390777588</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5113439559937</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7072429656982</t>
+    <t xml:space="preserve">12.0990400314331</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5113458633423</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7072439193726</t>
   </si>
   <si>
     <t xml:space="preserve">11.8658275604248</t>
   </si>
   <si>
-    <t xml:space="preserve">11.7352285385132</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7538862228394</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.8191843032837</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9964256286621</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.8938150405884</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9404554367065</t>
+    <t xml:space="preserve">11.7352275848389</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.753885269165</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.8191862106323</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9964265823364</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.8938131332397</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9404563903809</t>
   </si>
   <si>
     <t xml:space="preserve">11.8098573684692</t>
   </si>
   <si>
-    <t xml:space="preserve">12.3042669296265</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.2669515609741</t>
+    <t xml:space="preserve">12.3042659759521</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2669525146484</t>
   </si>
   <si>
     <t xml:space="preserve">11.8378410339355</t>
@@ -1022,112 +1022,112 @@
     <t xml:space="preserve">11.7912006378174</t>
   </si>
   <si>
-    <t xml:space="preserve">11.2594757080078</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3620901107788</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2314910888672</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.613959312439</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5393314361572</t>
+    <t xml:space="preserve">11.2594776153564</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3620891571045</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2314901351929</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.6139583587646</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5393304824829</t>
   </si>
   <si>
     <t xml:space="preserve">11.6699295043945</t>
   </si>
   <si>
-    <t xml:space="preserve">11.651273727417</t>
+    <t xml:space="preserve">11.6512718200684</t>
   </si>
   <si>
     <t xml:space="preserve">11.5673160552979</t>
   </si>
   <si>
-    <t xml:space="preserve">11.7445573806763</t>
+    <t xml:space="preserve">11.744556427002</t>
   </si>
   <si>
     <t xml:space="preserve">11.9311275482178</t>
   </si>
   <si>
-    <t xml:space="preserve">12.220311164856</t>
+    <t xml:space="preserve">12.2203092575073</t>
   </si>
   <si>
     <t xml:space="preserve">12.0803833007812</t>
   </si>
   <si>
-    <t xml:space="preserve">11.9870986938477</t>
+    <t xml:space="preserve">11.9870977401733</t>
   </si>
   <si>
     <t xml:space="preserve">13.0039014816284</t>
   </si>
   <si>
-    <t xml:space="preserve">14.0113773345947</t>
+    <t xml:space="preserve">14.011378288269</t>
   </si>
   <si>
     <t xml:space="preserve">14.1979484558105</t>
   </si>
   <si>
-    <t xml:space="preserve">14.1792917251587</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.0300350189209</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.0860052108765</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.7203426361084</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.9927215576172</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.7128667831421</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.2912330627441</t>
+    <t xml:space="preserve">14.1792907714844</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.0300359725952</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.0860071182251</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.7203416824341</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.9927206039429</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.7128658294678</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.2912321090698</t>
   </si>
   <si>
     <t xml:space="preserve">14.1046619415283</t>
   </si>
   <si>
-    <t xml:space="preserve">13.7874946594238</t>
+    <t xml:space="preserve">13.7874937057495</t>
   </si>
   <si>
     <t xml:space="preserve">14.4778022766113</t>
   </si>
   <si>
-    <t xml:space="preserve">14.6084022521973</t>
+    <t xml:space="preserve">14.6084003448486</t>
   </si>
   <si>
     <t xml:space="preserve">14.6643724441528</t>
   </si>
   <si>
-    <t xml:space="preserve">14.5710859298706</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.2725763320923</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.9180927276611</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.0785303115845</t>
+    <t xml:space="preserve">14.5710868835449</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.272575378418</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.9180936813354</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.0785312652588</t>
   </si>
   <si>
     <t xml:space="preserve">12.8546457290649</t>
   </si>
   <si>
-    <t xml:space="preserve">13.4516687393188</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.1158428192139</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.8173313140869</t>
+    <t xml:space="preserve">13.4516706466675</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1158447265625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.8173322677612</t>
   </si>
   <si>
     <t xml:space="preserve">13.0598735809326</t>
@@ -1136,25 +1136,25 @@
     <t xml:space="preserve">13.6009244918823</t>
   </si>
   <si>
-    <t xml:space="preserve">13.395697593689</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.7427043914795</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1829957962036</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.08971118927</t>
+    <t xml:space="preserve">13.3956985473633</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.7427053451538</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1829967498779</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0897102355957</t>
   </si>
   <si>
     <t xml:space="preserve">11.9031419754028</t>
   </si>
   <si>
-    <t xml:space="preserve">12.6680774688721</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.7986755371094</t>
+    <t xml:space="preserve">12.6680765151978</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.7986764907837</t>
   </si>
   <si>
     <t xml:space="preserve">12.6867341995239</t>
@@ -1163,10 +1163,10 @@
     <t xml:space="preserve">12.2389659881592</t>
   </si>
   <si>
-    <t xml:space="preserve">12.1083679199219</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1456832885742</t>
+    <t xml:space="preserve">12.1083669662476</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1456823348999</t>
   </si>
   <si>
     <t xml:space="preserve">11.6792583465576</t>
@@ -1178,16 +1178,16 @@
     <t xml:space="preserve">11.8844842910767</t>
   </si>
   <si>
-    <t xml:space="preserve">11.9217977523804</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.3135938644409</t>
+    <t xml:space="preserve">11.9217967987061</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.3135957717896</t>
   </si>
   <si>
     <t xml:space="preserve">12.4628505706787</t>
   </si>
   <si>
-    <t xml:space="preserve">13.433012008667</t>
+    <t xml:space="preserve">13.4330110549927</t>
   </si>
   <si>
     <t xml:space="preserve">13.6195821762085</t>
@@ -1202,25 +1202,25 @@
     <t xml:space="preserve">15.0001964569092</t>
   </si>
   <si>
-    <t xml:space="preserve">14.8695983886719</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.8322839736938</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.8882541656494</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1164274215698</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7819309234619</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4967126846313</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3255863189697</t>
+    <t xml:space="preserve">14.8695974349976</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.8322849273682</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.888256072998</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1164264678955</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7819299697876</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.49671459198</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.325587272644</t>
   </si>
   <si>
     <t xml:space="preserve">15.1734704971313</t>
@@ -1229,7 +1229,7 @@
     <t xml:space="preserve">15.2114992141724</t>
   </si>
   <si>
-    <t xml:space="preserve">15.2685413360596</t>
+    <t xml:space="preserve">15.2685432434082</t>
   </si>
   <si>
     <t xml:space="preserve">15.4016447067261</t>
@@ -1238,22 +1238,22 @@
     <t xml:space="preserve">14.222752571106</t>
   </si>
   <si>
-    <t xml:space="preserve">13.8995065689087</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.3480911254883</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6903495788574</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.7664079666138</t>
+    <t xml:space="preserve">13.899507522583</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.348090171814</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6903486251831</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.7664060592651</t>
   </si>
   <si>
     <t xml:space="preserve">13.1579475402832</t>
   </si>
   <si>
-    <t xml:space="preserve">13.0248460769653</t>
+    <t xml:space="preserve">13.024845123291</t>
   </si>
   <si>
     <t xml:space="preserve">13.1959772109985</t>
@@ -1262,7 +1262,7 @@
     <t xml:space="preserve">12.9678039550781</t>
   </si>
   <si>
-    <t xml:space="preserve">12.1691989898682</t>
+    <t xml:space="preserve">12.1691999435425</t>
   </si>
   <si>
     <t xml:space="preserve">12.6255445480347</t>
@@ -1274,22 +1274,22 @@
     <t xml:space="preserve">12.7016019821167</t>
   </si>
   <si>
-    <t xml:space="preserve">12.7776584625244</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.8347024917603</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.9487886428833</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.4163866043091</t>
+    <t xml:space="preserve">12.7776594161987</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.8347034454346</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.9487895965576</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.4163856506348</t>
   </si>
   <si>
     <t xml:space="preserve">12.8156881332397</t>
   </si>
   <si>
-    <t xml:space="preserve">12.7966747283936</t>
+    <t xml:space="preserve">12.7966737747192</t>
   </si>
   <si>
     <t xml:space="preserve">12.8537178039551</t>
@@ -1304,25 +1304,25 @@
     <t xml:space="preserve">13.861478805542</t>
   </si>
   <si>
-    <t xml:space="preserve">14.0516223907471</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.9565496444702</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.1657085418701</t>
+    <t xml:space="preserve">14.0516233444214</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.9565505981445</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.1657094955444</t>
   </si>
   <si>
     <t xml:space="preserve">13.7093639373779</t>
   </si>
   <si>
-    <t xml:space="preserve">13.6713361740112</t>
+    <t xml:space="preserve">13.6713352203369</t>
   </si>
   <si>
     <t xml:space="preserve">13.500205039978</t>
   </si>
   <si>
-    <t xml:space="preserve">13.538233757019</t>
+    <t xml:space="preserve">13.5382347106934</t>
   </si>
   <si>
     <t xml:space="preserve">13.5192193984985</t>
@@ -1331,61 +1331,61 @@
     <t xml:space="preserve">13.3290767669678</t>
   </si>
   <si>
-    <t xml:space="preserve">13.2149896621704</t>
+    <t xml:space="preserve">13.2149906158447</t>
   </si>
   <si>
     <t xml:space="preserve">13.4051342010498</t>
   </si>
   <si>
-    <t xml:space="preserve">13.5572471618652</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2910480499268</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.4431619644165</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.6445579528809</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.5875148773193</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.3593444824219</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.7586460113525</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.1199169158936</t>
+    <t xml:space="preserve">13.5572490692139</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2910470962524</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.4431629180908</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.6445589065552</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.5875158309937</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.3593435287476</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.7586450576782</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1199178695679</t>
   </si>
   <si>
     <t xml:space="preserve">13.0628747940063</t>
   </si>
   <si>
-    <t xml:space="preserve">12.8917455673218</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.0438613891602</t>
+    <t xml:space="preserve">12.8917465209961</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.0438604354858</t>
   </si>
   <si>
     <t xml:space="preserve">13.8804941177368</t>
   </si>
   <si>
-    <t xml:space="preserve">14.2037363052368</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.3558530807495</t>
+    <t xml:space="preserve">14.2037372589111</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.3558511734009</t>
   </si>
   <si>
     <t xml:space="preserve">14.3938808441162</t>
   </si>
   <si>
-    <t xml:space="preserve">14.1466941833496</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.78542137146</t>
+    <t xml:space="preserve">14.1466951370239</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.7854204177856</t>
   </si>
   <si>
     <t xml:space="preserve">13.5762624740601</t>
@@ -1394,7 +1394,7 @@
     <t xml:space="preserve">13.8424644470215</t>
   </si>
   <si>
-    <t xml:space="preserve">13.6333074569702</t>
+    <t xml:space="preserve">13.6333065032959</t>
   </si>
   <si>
     <t xml:space="preserve">14.2607803344727</t>
@@ -1403,13 +1403,13 @@
     <t xml:space="preserve">15.0213556289673</t>
   </si>
   <si>
-    <t xml:space="preserve">15.5917863845825</t>
+    <t xml:space="preserve">15.5917873382568</t>
   </si>
   <si>
     <t xml:space="preserve">15.3636150360107</t>
   </si>
   <si>
-    <t xml:space="preserve">15.2495288848877</t>
+    <t xml:space="preserve">15.249529838562</t>
   </si>
   <si>
     <t xml:space="preserve">16.6375789642334</t>
@@ -1421,31 +1421,31 @@
     <t xml:space="preserve">17.0178642272949</t>
   </si>
   <si>
-    <t xml:space="preserve">16.7326507568359</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.3333492279053</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.010103225708</t>
+    <t xml:space="preserve">16.7326488494873</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.3333473205566</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.0101051330566</t>
   </si>
   <si>
     <t xml:space="preserve">15.6868591308594</t>
   </si>
   <si>
-    <t xml:space="preserve">15.610800743103</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0974140167236</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3065719604492</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.4699401855469</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.6981115341187</t>
+    <t xml:space="preserve">15.6108016967773</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0974130630493</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3065710067749</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.4699392318726</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.6981105804443</t>
   </si>
   <si>
     <t xml:space="preserve">14.5269823074341</t>
@@ -1454,22 +1454,22 @@
     <t xml:space="preserve">14.7361392974854</t>
   </si>
   <si>
-    <t xml:space="preserve">14.3368377685547</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.2797946929932</t>
+    <t xml:space="preserve">14.336838722229</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.2797956466675</t>
   </si>
   <si>
     <t xml:space="preserve">13.975564956665</t>
   </si>
   <si>
-    <t xml:space="preserve">13.6142911911011</t>
+    <t xml:space="preserve">13.6142921447754</t>
   </si>
   <si>
     <t xml:space="preserve">13.937536239624</t>
   </si>
   <si>
-    <t xml:space="preserve">14.1086673736572</t>
+    <t xml:space="preserve">14.1086664199829</t>
   </si>
   <si>
     <t xml:space="preserve">14.9643115997314</t>
@@ -1478,22 +1478,22 @@
     <t xml:space="preserve">14.5650110244751</t>
   </si>
   <si>
-    <t xml:space="preserve">14.5079689025879</t>
+    <t xml:space="preserve">14.5079679489136</t>
   </si>
   <si>
     <t xml:space="preserve">15.648829460144</t>
   </si>
   <si>
-    <t xml:space="preserve">15.0593852996826</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.1812343597412</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.1622200012207</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.3523654937744</t>
+    <t xml:space="preserve">15.059383392334</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.1812324523926</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.1622161865234</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.3523635864258</t>
   </si>
   <si>
     <t xml:space="preserve">16.1432037353516</t>
@@ -1505,19 +1505,19 @@
     <t xml:space="preserve">15.5537586212158</t>
   </si>
   <si>
-    <t xml:space="preserve">16.1241893768311</t>
+    <t xml:space="preserve">16.1241912841797</t>
   </si>
   <si>
     <t xml:space="preserve">16.4474353790283</t>
   </si>
   <si>
-    <t xml:space="preserve">16.2002487182617</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.4284210205078</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7439002990723</t>
+    <t xml:space="preserve">16.2002468109131</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.4284191131592</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7439012527466</t>
   </si>
   <si>
     <t xml:space="preserve">15.8960161209106</t>
@@ -1526,22 +1526,22 @@
     <t xml:space="preserve">16.0291156768799</t>
   </si>
   <si>
-    <t xml:space="preserve">15.1544561386108</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9530630111694</t>
+    <t xml:space="preserve">15.1544570922852</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9530591964722</t>
   </si>
   <si>
     <t xml:space="preserve">15.5727710723877</t>
   </si>
   <si>
-    <t xml:space="preserve">14.8312110900879</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0023412704468</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.6410675048828</t>
+    <t xml:space="preserve">14.8312120437622</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0023422241211</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.6410684585571</t>
   </si>
   <si>
     <t xml:space="preserve">14.9072704315186</t>
@@ -1553,13 +1553,13 @@
     <t xml:space="preserve">15.6298160552979</t>
   </si>
   <si>
-    <t xml:space="preserve">15.8389749526978</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1354427337646</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5157279968262</t>
+    <t xml:space="preserve">15.8389730453491</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1354417800903</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5157289505005</t>
   </si>
   <si>
     <t xml:space="preserve">15.8579893112183</t>
@@ -1577,10 +1577,10 @@
     <t xml:space="preserve">16.1051750183105</t>
   </si>
   <si>
-    <t xml:space="preserve">16.08616065979</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7058725357056</t>
+    <t xml:space="preserve">16.0861625671387</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7058734893799</t>
   </si>
   <si>
     <t xml:space="preserve">14.7741689682007</t>
@@ -1589,10 +1589,10 @@
     <t xml:space="preserve">14.7171249389648</t>
   </si>
   <si>
-    <t xml:space="preserve">14.9452991485596</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2875566482544</t>
+    <t xml:space="preserve">14.9452981948853</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2875556945801</t>
   </si>
   <si>
     <t xml:space="preserve">15.1924839019775</t>
@@ -1601,19 +1601,19 @@
     <t xml:space="preserve">15.3826293945312</t>
   </si>
   <si>
-    <t xml:space="preserve">16.295316696167</t>
+    <t xml:space="preserve">16.2953186035156</t>
   </si>
   <si>
     <t xml:space="preserve">17.1129379272461</t>
   </si>
   <si>
-    <t xml:space="preserve">17.3411083221436</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.3601245880127</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.3981513977051</t>
+    <t xml:space="preserve">17.3411102294922</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.3601226806641</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.3981494903564</t>
   </si>
   <si>
     <t xml:space="preserve">17.2080078125</t>
@@ -1628,46 +1628,46 @@
     <t xml:space="preserve">17.5122394561768</t>
   </si>
   <si>
-    <t xml:space="preserve">17.4551963806152</t>
+    <t xml:space="preserve">17.4551982879639</t>
   </si>
   <si>
     <t xml:space="preserve">17.4742088317871</t>
   </si>
   <si>
-    <t xml:space="preserve">17.6073112487793</t>
+    <t xml:space="preserve">17.6073093414307</t>
   </si>
   <si>
     <t xml:space="preserve">17.1509666442871</t>
   </si>
   <si>
-    <t xml:space="preserve">17.4932231903076</t>
+    <t xml:space="preserve">17.4932250976562</t>
   </si>
   <si>
     <t xml:space="preserve">17.5502681732178</t>
   </si>
   <si>
-    <t xml:space="preserve">17.9685821533203</t>
+    <t xml:space="preserve">17.9685840606689</t>
   </si>
   <si>
     <t xml:space="preserve">17.9305553436279</t>
   </si>
   <si>
-    <t xml:space="preserve">17.6643524169922</t>
+    <t xml:space="preserve">17.6643543243408</t>
   </si>
   <si>
     <t xml:space="preserve">17.4361801147461</t>
   </si>
   <si>
-    <t xml:space="preserve">17.2460346221924</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.675609588623</t>
+    <t xml:space="preserve">17.246036529541</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.6756076812744</t>
   </si>
   <si>
     <t xml:space="preserve">16.6946182250977</t>
   </si>
   <si>
-    <t xml:space="preserve">16.3903903961182</t>
+    <t xml:space="preserve">16.3903884887695</t>
   </si>
   <si>
     <t xml:space="preserve">16.960823059082</t>
@@ -1679,7 +1679,7 @@
     <t xml:space="preserve">16.6830749511719</t>
   </si>
   <si>
-    <t xml:space="preserve">16.6443710327148</t>
+    <t xml:space="preserve">16.6443691253662</t>
   </si>
   <si>
     <t xml:space="preserve">16.489538192749</t>
@@ -1703,7 +1703,7 @@
     <t xml:space="preserve">16.9153213500977</t>
   </si>
   <si>
-    <t xml:space="preserve">16.9346790313721</t>
+    <t xml:space="preserve">16.9346771240234</t>
   </si>
   <si>
     <t xml:space="preserve">16.8572616577148</t>
@@ -1712,19 +1712,19 @@
     <t xml:space="preserve">16.741138458252</t>
   </si>
   <si>
-    <t xml:space="preserve">16.5282459259033</t>
+    <t xml:space="preserve">16.5282440185547</t>
   </si>
   <si>
     <t xml:space="preserve">16.6250152587891</t>
   </si>
   <si>
-    <t xml:space="preserve">16.0443992614746</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.5669555664062</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.0637512207031</t>
+    <t xml:space="preserve">16.044397354126</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.5669536590576</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.0637493133545</t>
   </si>
   <si>
     <t xml:space="preserve">16.1218128204346</t>
@@ -1736,7 +1736,7 @@
     <t xml:space="preserve">15.8315048217773</t>
   </si>
   <si>
-    <t xml:space="preserve">15.7540884017944</t>
+    <t xml:space="preserve">15.7540874481201</t>
   </si>
   <si>
     <t xml:space="preserve">15.5218420028687</t>
@@ -1745,7 +1745,7 @@
     <t xml:space="preserve">15.4637784957886</t>
   </si>
   <si>
-    <t xml:space="preserve">15.4057188034058</t>
+    <t xml:space="preserve">15.4057178497314</t>
   </si>
   <si>
     <t xml:space="preserve">15.0767002105713</t>
@@ -1754,13 +1754,13 @@
     <t xml:space="preserve">15.2895946502686</t>
   </si>
   <si>
-    <t xml:space="preserve">15.3283023834229</t>
+    <t xml:space="preserve">15.3283014297485</t>
   </si>
   <si>
     <t xml:space="preserve">15.2315320968628</t>
   </si>
   <si>
-    <t xml:space="preserve">15.1928234100342</t>
+    <t xml:space="preserve">15.1928243637085</t>
   </si>
   <si>
     <t xml:space="preserve">15.0960540771484</t>
@@ -1769,10 +1769,10 @@
     <t xml:space="preserve">15.21217918396</t>
   </si>
   <si>
-    <t xml:space="preserve">15.3476543426514</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1541175842285</t>
+    <t xml:space="preserve">15.34765625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1541166305542</t>
   </si>
   <si>
     <t xml:space="preserve">14.9605779647827</t>
@@ -1781,7 +1781,7 @@
     <t xml:space="preserve">14.9412231445312</t>
   </si>
   <si>
-    <t xml:space="preserve">14.8057479858398</t>
+    <t xml:space="preserve">14.8057470321655</t>
   </si>
   <si>
     <t xml:space="preserve">15.5411939620972</t>
@@ -1790,16 +1790,16 @@
     <t xml:space="preserve">15.2702398300171</t>
   </si>
   <si>
-    <t xml:space="preserve">14.9218702316284</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.17347240448</t>
+    <t xml:space="preserve">14.9218692779541</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1734714508057</t>
   </si>
   <si>
     <t xml:space="preserve">15.0573472976685</t>
   </si>
   <si>
-    <t xml:space="preserve">15.2508869171143</t>
+    <t xml:space="preserve">15.2508859634399</t>
   </si>
   <si>
     <t xml:space="preserve">14.8831624984741</t>
@@ -1808,16 +1808,16 @@
     <t xml:space="preserve">14.8444538116455</t>
   </si>
   <si>
-    <t xml:space="preserve">14.9992847442627</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1154079437256</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9025144577026</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9799299240112</t>
+    <t xml:space="preserve">14.999285697937</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1154088973999</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.902515411377</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9799308776855</t>
   </si>
   <si>
     <t xml:space="preserve">14.6315603256226</t>
@@ -1829,13 +1829,13 @@
     <t xml:space="preserve">14.6896228790283</t>
   </si>
   <si>
-    <t xml:space="preserve">14.5928525924683</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.7283315658569</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.7089776992798</t>
+    <t xml:space="preserve">14.5928535461426</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.7283306121826</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.7089767456055</t>
   </si>
   <si>
     <t xml:space="preserve">14.554144859314</t>
@@ -1844,10 +1844,10 @@
     <t xml:space="preserve">14.5347909927368</t>
   </si>
   <si>
-    <t xml:space="preserve">14.7476835250854</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0186395645142</t>
+    <t xml:space="preserve">14.7476844787598</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0186386108398</t>
   </si>
   <si>
     <t xml:space="preserve">14.6509141921997</t>
@@ -1856,22 +1856,22 @@
     <t xml:space="preserve">15.4444246292114</t>
   </si>
   <si>
-    <t xml:space="preserve">15.48313331604</t>
+    <t xml:space="preserve">15.4831342697144</t>
   </si>
   <si>
     <t xml:space="preserve">15.7734403610229</t>
   </si>
   <si>
-    <t xml:space="preserve">15.6186113357544</t>
+    <t xml:space="preserve">15.6186094284058</t>
   </si>
   <si>
     <t xml:space="preserve">15.8121519088745</t>
   </si>
   <si>
-    <t xml:space="preserve">15.8895654678345</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.870210647583</t>
+    <t xml:space="preserve">15.8895664215088</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8702116012573</t>
   </si>
   <si>
     <t xml:space="preserve">15.9089202880859</t>
@@ -1883,7 +1883,7 @@
     <t xml:space="preserve">15.734733581543</t>
   </si>
   <si>
-    <t xml:space="preserve">15.7153806686401</t>
+    <t xml:space="preserve">15.7153816223145</t>
   </si>
   <si>
     <t xml:space="preserve">15.9476270675659</t>
@@ -1892,19 +1892,19 @@
     <t xml:space="preserve">15.6766738891602</t>
   </si>
   <si>
-    <t xml:space="preserve">15.5992574691772</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9282732009888</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.0250415802002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.2185821533203</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.2636947631836</t>
+    <t xml:space="preserve">15.5992584228516</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9282712936401</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.0250434875488</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.2185802459717</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.263692855835</t>
   </si>
   <si>
     <t xml:space="preserve">17.1088619232178</t>
@@ -1919,16 +1919,16 @@
     <t xml:space="preserve">17.0895080566406</t>
   </si>
   <si>
-    <t xml:space="preserve">17.2249851226807</t>
+    <t xml:space="preserve">17.2249870300293</t>
   </si>
   <si>
     <t xml:space="preserve">17.3798160552979</t>
   </si>
   <si>
-    <t xml:space="preserve">18.3862190246582</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.2894496917725</t>
+    <t xml:space="preserve">18.3862228393555</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.2894515991211</t>
   </si>
   <si>
     <t xml:space="preserve">17.7088317871094</t>
@@ -1946,7 +1946,7 @@
     <t xml:space="preserve">18.2313899993896</t>
   </si>
   <si>
-    <t xml:space="preserve">18.0765571594238</t>
+    <t xml:space="preserve">18.0765590667725</t>
   </si>
   <si>
     <t xml:space="preserve">18.0572032928467</t>
@@ -1970,7 +1970,7 @@
     <t xml:space="preserve">19.1410236358643</t>
   </si>
   <si>
-    <t xml:space="preserve">18.6571769714355</t>
+    <t xml:space="preserve">18.6571750640869</t>
   </si>
   <si>
     <t xml:space="preserve">19.0829620361328</t>
@@ -1979,31 +1979,31 @@
     <t xml:space="preserve">19.0249004364014</t>
   </si>
   <si>
-    <t xml:space="preserve">19.547456741333</t>
+    <t xml:space="preserve">19.5474548339844</t>
   </si>
   <si>
     <t xml:space="preserve">19.934534072876</t>
   </si>
   <si>
-    <t xml:space="preserve">19.6442260742188</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.789379119873</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.4023017883301</t>
+    <t xml:space="preserve">19.6442241668701</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.7893810272217</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.4022979736328</t>
   </si>
   <si>
     <t xml:space="preserve">18.9668407440186</t>
   </si>
   <si>
-    <t xml:space="preserve">19.7409915924072</t>
+    <t xml:space="preserve">19.7409934997559</t>
   </si>
   <si>
     <t xml:space="preserve">19.8377628326416</t>
   </si>
   <si>
-    <t xml:space="preserve">19.8861465454102</t>
+    <t xml:space="preserve">19.8861484527588</t>
   </si>
   <si>
     <t xml:space="preserve">19.4506874084473</t>
@@ -2018,7 +2018,7 @@
     <t xml:space="preserve">20.3699951171875</t>
   </si>
   <si>
-    <t xml:space="preserve">22.3537712097168</t>
+    <t xml:space="preserve">22.3537731170654</t>
   </si>
   <si>
     <t xml:space="preserve">21.2893085479736</t>
@@ -2042,25 +2042,25 @@
     <t xml:space="preserve">20.8054599761963</t>
   </si>
   <si>
-    <t xml:space="preserve">20.0796890258789</t>
+    <t xml:space="preserve">20.0796909332275</t>
   </si>
   <si>
     <t xml:space="preserve">20.4183826446533</t>
   </si>
   <si>
-    <t xml:space="preserve">20.1280746459961</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.9829158782959</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.1990871429443</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.9022312164307</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.0473823547363</t>
+    <t xml:space="preserve">20.1280727386475</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.9829177856445</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.1990852355957</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.902229309082</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.047384262085</t>
   </si>
   <si>
     <t xml:space="preserve">20.7086906433105</t>
@@ -2072,31 +2072,31 @@
     <t xml:space="preserve">21.5312328338623</t>
   </si>
   <si>
-    <t xml:space="preserve">21.3376941680908</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.7731533050537</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.5796184539795</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.9666957855225</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.1764583587646</t>
+    <t xml:space="preserve">21.3376922607422</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.7731552124023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.5796165466309</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.9666976928711</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.1764602661133</t>
   </si>
   <si>
     <t xml:space="preserve">20.2248439788818</t>
   </si>
   <si>
-    <t xml:space="preserve">18.8507118225098</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.3088054656982</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.7281875610352</t>
+    <t xml:space="preserve">18.8507137298584</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.3088035583496</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.7281856536865</t>
   </si>
   <si>
     <t xml:space="preserve">16.4121208190918</t>
@@ -2105,13 +2105,13 @@
     <t xml:space="preserve">16.2959976196289</t>
   </si>
   <si>
-    <t xml:space="preserve">14.5734996795654</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.5154371261597</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.5413389205933</t>
+    <t xml:space="preserve">14.5734987258911</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.515438079834</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.5413379669189</t>
   </si>
   <si>
     <t xml:space="preserve">12.0961980819702</t>
@@ -2120,37 +2120,37 @@
     <t xml:space="preserve">12.2123212814331</t>
   </si>
   <si>
-    <t xml:space="preserve">12.773585319519</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.986478805542</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0574884414673</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.3929100036621</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6445112228394</t>
+    <t xml:space="preserve">12.7735843658447</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.9864778518677</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0574893951416</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3929109573364</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6445121765137</t>
   </si>
   <si>
     <t xml:space="preserve">14.1090049743652</t>
   </si>
   <si>
-    <t xml:space="preserve">14.2831916809082</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.3799591064453</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.205774307251</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.8250999450684</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.1864204406738</t>
+    <t xml:space="preserve">14.2831907272339</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.3799600601196</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.2057752609253</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.8251008987427</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.1864194869995</t>
   </si>
   <si>
     <t xml:space="preserve">15.5024871826172</t>
@@ -2159,7 +2159,7 @@
     <t xml:space="preserve">16.9733867645264</t>
   </si>
   <si>
-    <t xml:space="preserve">16.2766437530518</t>
+    <t xml:space="preserve">16.2766456604004</t>
   </si>
   <si>
     <t xml:space="preserve">16.3153514862061</t>
@@ -2168,10 +2168,10 @@
     <t xml:space="preserve">15.5605487823486</t>
   </si>
   <si>
-    <t xml:space="preserve">16.1605224609375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.2379379272461</t>
+    <t xml:space="preserve">16.1605205535889</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.2379360198975</t>
   </si>
   <si>
     <t xml:space="preserve">16.1411666870117</t>
@@ -2180,7 +2180,7 @@
     <t xml:space="preserve">16.7024307250977</t>
   </si>
   <si>
-    <t xml:space="preserve">17.3217544555664</t>
+    <t xml:space="preserve">17.321756362915</t>
   </si>
   <si>
     <t xml:space="preserve">16.8185520172119</t>
@@ -2192,7 +2192,7 @@
     <t xml:space="preserve">17.1669235229492</t>
   </si>
   <si>
-    <t xml:space="preserve">18.3668651580811</t>
+    <t xml:space="preserve">18.3668670654297</t>
   </si>
   <si>
     <t xml:space="preserve">18.7539443969727</t>
@@ -2207,7 +2207,7 @@
     <t xml:space="preserve">17.5660018920898</t>
   </si>
   <si>
-    <t xml:space="preserve">17.5465278625488</t>
+    <t xml:space="preserve">17.5465259552002</t>
   </si>
   <si>
     <t xml:space="preserve">17.3128337860107</t>
@@ -2219,13 +2219,13 @@
     <t xml:space="preserve">17.5270519256592</t>
   </si>
   <si>
-    <t xml:space="preserve">17.7217979431152</t>
+    <t xml:space="preserve">17.7217960357666</t>
   </si>
   <si>
     <t xml:space="preserve">17.2738838195801</t>
   </si>
   <si>
-    <t xml:space="preserve">17.7607440948486</t>
+    <t xml:space="preserve">17.7607460021973</t>
   </si>
   <si>
     <t xml:space="preserve">17.6049499511719</t>
@@ -2234,7 +2234,7 @@
     <t xml:space="preserve">17.8386421203613</t>
   </si>
   <si>
-    <t xml:space="preserve">18.4034023284912</t>
+    <t xml:space="preserve">18.4034042358398</t>
   </si>
   <si>
     <t xml:space="preserve">18.052864074707</t>
@@ -2243,13 +2243,13 @@
     <t xml:space="preserve">18.1697101593018</t>
   </si>
   <si>
-    <t xml:space="preserve">18.5007762908936</t>
+    <t xml:space="preserve">18.5007781982422</t>
   </si>
   <si>
     <t xml:space="preserve">18.5202503204346</t>
   </si>
   <si>
-    <t xml:space="preserve">18.013916015625</t>
+    <t xml:space="preserve">18.0139141082764</t>
   </si>
   <si>
     <t xml:space="preserve">18.3449821472168</t>
@@ -2264,7 +2264,7 @@
     <t xml:space="preserve">18.5592002868652</t>
   </si>
   <si>
-    <t xml:space="preserve">18.2281322479248</t>
+    <t xml:space="preserve">18.2281341552734</t>
   </si>
   <si>
     <t xml:space="preserve">18.1502361297607</t>
@@ -2312,10 +2312,10 @@
     <t xml:space="preserve">20.204797744751</t>
   </si>
   <si>
-    <t xml:space="preserve">20.4482269287109</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.7403450012207</t>
+    <t xml:space="preserve">20.4482288360596</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.7403430938721</t>
   </si>
   <si>
     <t xml:space="preserve">20.6916580200195</t>
@@ -2324,7 +2324,7 @@
     <t xml:space="preserve">21.1785202026367</t>
   </si>
   <si>
-    <t xml:space="preserve">21.4219512939453</t>
+    <t xml:space="preserve">21.4219532012939</t>
   </si>
   <si>
     <t xml:space="preserve">21.8601303100586</t>
@@ -2342,7 +2342,7 @@
     <t xml:space="preserve">21.6653842926025</t>
   </si>
   <si>
-    <t xml:space="preserve">21.4706401824951</t>
+    <t xml:space="preserve">21.4706382751465</t>
   </si>
   <si>
     <t xml:space="preserve">21.9088134765625</t>
@@ -2357,7 +2357,7 @@
     <t xml:space="preserve">22.9312267303467</t>
   </si>
   <si>
-    <t xml:space="preserve">23.4667739868164</t>
+    <t xml:space="preserve">23.466775894165</t>
   </si>
   <si>
     <t xml:space="preserve">23.5641479492188</t>
@@ -2378,19 +2378,19 @@
     <t xml:space="preserve">23.9049510955811</t>
   </si>
   <si>
-    <t xml:space="preserve">24.0996952056885</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.8075790405273</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.8825378417969</t>
+    <t xml:space="preserve">24.0996971130371</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.807580947876</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.8825397491455</t>
   </si>
   <si>
     <t xml:space="preserve">23.1746559143066</t>
   </si>
   <si>
-    <t xml:space="preserve">23.6128311157227</t>
+    <t xml:space="preserve">23.6128330230713</t>
   </si>
   <si>
     <t xml:space="preserve">23.2233448028564</t>
@@ -2399,13 +2399,13 @@
     <t xml:space="preserve">23.0285987854004</t>
   </si>
   <si>
-    <t xml:space="preserve">22.6877956390381</t>
+    <t xml:space="preserve">22.6877937316895</t>
   </si>
   <si>
     <t xml:space="preserve">21.9575023651123</t>
   </si>
   <si>
-    <t xml:space="preserve">22.2009315490723</t>
+    <t xml:space="preserve">22.2009296417236</t>
   </si>
   <si>
     <t xml:space="preserve">21.3732681274414</t>
@@ -2414,10 +2414,10 @@
     <t xml:space="preserve">21.7627563476562</t>
   </si>
   <si>
-    <t xml:space="preserve">20.5942840576172</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.5193252563477</t>
+    <t xml:space="preserve">20.5942859649658</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.5193271636963</t>
   </si>
   <si>
     <t xml:space="preserve">21.2272052764893</t>
@@ -2450,10 +2450,10 @@
     <t xml:space="preserve">22.7851676940918</t>
   </si>
   <si>
-    <t xml:space="preserve">24.5865592956543</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.489185333252</t>
+    <t xml:space="preserve">24.5865573883057</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.4891834259033</t>
   </si>
   <si>
     <t xml:space="preserve">24.3918132781982</t>
@@ -2465,25 +2465,25 @@
     <t xml:space="preserve">26.3392639160156</t>
   </si>
   <si>
-    <t xml:space="preserve">27.1669311523438</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.8261241912842</t>
+    <t xml:space="preserve">27.1669292449951</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.8261260986328</t>
   </si>
   <si>
     <t xml:space="preserve">26.7774410247803</t>
   </si>
   <si>
-    <t xml:space="preserve">26.5340099334717</t>
+    <t xml:space="preserve">26.534008026123</t>
   </si>
   <si>
     <t xml:space="preserve">27.848539352417</t>
   </si>
   <si>
-    <t xml:space="preserve">28.822265625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.0881061553955</t>
+    <t xml:space="preserve">28.8222637176514</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.0881042480469</t>
   </si>
   <si>
     <t xml:space="preserve">29.1143779754639</t>
@@ -2495,19 +2495,19 @@
     <t xml:space="preserve">30.5749683380127</t>
   </si>
   <si>
-    <t xml:space="preserve">31.1105194091797</t>
+    <t xml:space="preserve">31.1105175018311</t>
   </si>
   <si>
     <t xml:space="preserve">31.9381828308105</t>
   </si>
   <si>
-    <t xml:space="preserve">32.230297088623</t>
+    <t xml:space="preserve">32.2303009033203</t>
   </si>
   <si>
     <t xml:space="preserve">31.7434349060059</t>
   </si>
   <si>
-    <t xml:space="preserve">32.2789840698242</t>
+    <t xml:space="preserve">32.2789878845215</t>
   </si>
   <si>
     <t xml:space="preserve">31.4513187408447</t>
@@ -2516,7 +2516,7 @@
     <t xml:space="preserve">32.3763580322266</t>
   </si>
   <si>
-    <t xml:space="preserve">32.5224227905273</t>
+    <t xml:space="preserve">32.5224189758301</t>
   </si>
   <si>
     <t xml:space="preserve">33.4961471557617</t>
@@ -2525,10 +2525,10 @@
     <t xml:space="preserve">33.3987693786621</t>
   </si>
   <si>
-    <t xml:space="preserve">33.0092811584473</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.6908874511719</t>
+    <t xml:space="preserve">33.00927734375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.6908912658691</t>
   </si>
   <si>
     <t xml:space="preserve">33.9343147277832</t>
@@ -2540,7 +2540,7 @@
     <t xml:space="preserve">34.9567337036133</t>
   </si>
   <si>
-    <t xml:space="preserve">34.810676574707</t>
+    <t xml:space="preserve">34.8106727600098</t>
   </si>
   <si>
     <t xml:space="preserve">35.5896530151367</t>
@@ -2567,7 +2567,7 @@
     <t xml:space="preserve">32.863224029541</t>
   </si>
   <si>
-    <t xml:space="preserve">32.9605941772461</t>
+    <t xml:space="preserve">32.9605903625488</t>
   </si>
   <si>
     <t xml:space="preserve">32.9119071960449</t>
@@ -2576,7 +2576,7 @@
     <t xml:space="preserve">32.1329307556152</t>
   </si>
   <si>
-    <t xml:space="preserve">30.5262813568115</t>
+    <t xml:space="preserve">30.5262794494629</t>
   </si>
   <si>
     <t xml:space="preserve">31.0131454467773</t>
@@ -2597,7 +2597,7 @@
     <t xml:space="preserve">34.080379486084</t>
   </si>
   <si>
-    <t xml:space="preserve">35.4922790527344</t>
+    <t xml:space="preserve">35.4922828674316</t>
   </si>
   <si>
     <t xml:space="preserve">35.8817672729492</t>
@@ -2606,7 +2606,7 @@
     <t xml:space="preserve">35.9304618835449</t>
   </si>
   <si>
-    <t xml:space="preserve">37.4884147644043</t>
+    <t xml:space="preserve">37.488410949707</t>
   </si>
   <si>
     <t xml:space="preserve">37.244987487793</t>
@@ -2615,7 +2615,7 @@
     <t xml:space="preserve">37.1963005065918</t>
   </si>
   <si>
-    <t xml:space="preserve">36.173885345459</t>
+    <t xml:space="preserve">36.1738891601562</t>
   </si>
   <si>
     <t xml:space="preserve">36.6607513427734</t>
@@ -2627,25 +2627,25 @@
     <t xml:space="preserve">35.2001647949219</t>
   </si>
   <si>
-    <t xml:space="preserve">36.9041862487793</t>
+    <t xml:space="preserve">36.904182434082</t>
   </si>
   <si>
     <t xml:space="preserve">37.2936706542969</t>
   </si>
   <si>
-    <t xml:space="preserve">37.8779067993164</t>
-  </si>
-  <si>
-    <t xml:space="preserve">38.2673950195312</t>
+    <t xml:space="preserve">37.8779106140137</t>
+  </si>
+  <si>
+    <t xml:space="preserve">38.2673988342285</t>
   </si>
   <si>
     <t xml:space="preserve">38.851634979248</t>
   </si>
   <si>
-    <t xml:space="preserve">38.997688293457</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40.068790435791</t>
+    <t xml:space="preserve">38.9976844787598</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40.0687942504883</t>
   </si>
   <si>
     <t xml:space="preserve">39.9227256774902</t>
@@ -2657,10 +2657,10 @@
     <t xml:space="preserve">38.9490051269531</t>
   </si>
   <si>
-    <t xml:space="preserve">39.8740463256836</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40.7017097473145</t>
+    <t xml:space="preserve">39.8740425109863</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40.7017135620117</t>
   </si>
   <si>
     <t xml:space="preserve">40.409595489502</t>
@@ -2669,7 +2669,7 @@
     <t xml:space="preserve">39.6792984008789</t>
   </si>
   <si>
-    <t xml:space="preserve">40.506965637207</t>
+    <t xml:space="preserve">40.5069618225098</t>
   </si>
   <si>
     <t xml:space="preserve">44.3531799316406</t>
@@ -2681,7 +2681,7 @@
     <t xml:space="preserve">40.3122177124023</t>
   </si>
   <si>
-    <t xml:space="preserve">41.4320030212402</t>
+    <t xml:space="preserve">41.431999206543</t>
   </si>
   <si>
     <t xml:space="preserve">42.1136131286621</t>
@@ -2690,10 +2690,10 @@
     <t xml:space="preserve">42.600471496582</t>
   </si>
   <si>
-    <t xml:space="preserve">42.3083610534668</t>
-  </si>
-  <si>
-    <t xml:space="preserve">42.8925895690918</t>
+    <t xml:space="preserve">42.3083572387695</t>
+  </si>
+  <si>
+    <t xml:space="preserve">42.8925857543945</t>
   </si>
   <si>
     <t xml:space="preserve">41.8701782226562</t>
@@ -2702,10 +2702,10 @@
     <t xml:space="preserve">42.6491584777832</t>
   </si>
   <si>
-    <t xml:space="preserve">43.7689437866211</t>
-  </si>
-  <si>
-    <t xml:space="preserve">44.4018630981445</t>
+    <t xml:space="preserve">43.7689399719238</t>
+  </si>
+  <si>
+    <t xml:space="preserve">44.4018592834473</t>
   </si>
   <si>
     <t xml:space="preserve">44.9860992431641</t>
@@ -2726,7 +2726,7 @@
     <t xml:space="preserve">46.3006286621094</t>
   </si>
   <si>
-    <t xml:space="preserve">45.7650756835938</t>
+    <t xml:space="preserve">45.765079498291</t>
   </si>
   <si>
     <t xml:space="preserve">45.2295341491699</t>
@@ -2735,7 +2735,7 @@
     <t xml:space="preserve">46.544059753418</t>
   </si>
   <si>
-    <t xml:space="preserve">45.4242744445801</t>
+    <t xml:space="preserve">45.4242782592773</t>
   </si>
   <si>
     <t xml:space="preserve">44.8887252807617</t>
@@ -2753,22 +2753,22 @@
     <t xml:space="preserve">43.4281387329102</t>
   </si>
   <si>
-    <t xml:space="preserve">43.5741996765137</t>
+    <t xml:space="preserve">43.5741958618164</t>
   </si>
   <si>
     <t xml:space="preserve">43.5255126953125</t>
   </si>
   <si>
-    <t xml:space="preserve">43.1360244750977</t>
+    <t xml:space="preserve">43.1360206604004</t>
   </si>
   <si>
     <t xml:space="preserve">43.3307685852051</t>
   </si>
   <si>
-    <t xml:space="preserve">44.3044891357422</t>
-  </si>
-  <si>
-    <t xml:space="preserve">43.6715660095215</t>
+    <t xml:space="preserve">44.3044929504395</t>
+  </si>
+  <si>
+    <t xml:space="preserve">43.6715698242188</t>
   </si>
   <si>
     <t xml:space="preserve">42.6978454589844</t>
@@ -4534,7 +4534,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="yyyy-mm-dd hh:mm:ss"/>
+    <numFmt numFmtId="166" formatCode="yyyy/mm/dd hh:mm:ss"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -4572,7 +4572,7 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -62172,13 +62172,13 @@
     </row>
     <row r="2205">
       <c r="A2205" s="1" t="n">
-        <v>45533.6525462963</v>
+        <v>45533.2916666667</v>
       </c>
       <c r="B2205" t="n">
         <v>5238</v>
       </c>
       <c r="C2205" t="n">
-        <v>36.5999984741211</v>
+        <v>36.7000007629395</v>
       </c>
       <c r="D2205" t="n">
         <v>36</v>
@@ -62193,6 +62193,32 @@
         <v>1504</v>
       </c>
       <c r="H2205" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2206">
+      <c r="A2206" s="1" t="n">
+        <v>45534.6494328704</v>
+      </c>
+      <c r="B2206" t="n">
+        <v>15017</v>
+      </c>
+      <c r="C2206" t="n">
+        <v>37.4000015258789</v>
+      </c>
+      <c r="D2206" t="n">
+        <v>36.5999984741211</v>
+      </c>
+      <c r="E2206" t="n">
+        <v>36.5999984741211</v>
+      </c>
+      <c r="F2206" t="n">
+        <v>37.4000015258789</v>
+      </c>
+      <c r="G2206" t="s">
+        <v>1479</v>
+      </c>
+      <c r="H2206" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/MOL.MI.xlsx
+++ b/data/MOL.MI.xlsx
@@ -47,7 +47,7 @@
     <t xml:space="preserve">6.93431091308594</t>
   </si>
   <si>
-    <t xml:space="preserve">6.83440685272217</t>
+    <t xml:space="preserve">6.83440589904785</t>
   </si>
   <si>
     <t xml:space="preserve">6.94793462753296</t>
@@ -56,13 +56,13 @@
     <t xml:space="preserve">6.81170034408569</t>
   </si>
   <si>
-    <t xml:space="preserve">6.90252256393433</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.99334478378296</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.7208776473999</t>
+    <t xml:space="preserve">6.90252304077148</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.99334573745728</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.72087717056274</t>
   </si>
   <si>
     <t xml:space="preserve">6.48473882675171</t>
@@ -71,49 +71,49 @@
     <t xml:space="preserve">6.25768184661865</t>
   </si>
   <si>
-    <t xml:space="preserve">6.51652669906616</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.40299844741821</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.7299599647522</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.63005495071411</t>
+    <t xml:space="preserve">6.51652717590332</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.40299892425537</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.72995948791504</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.63005542755127</t>
   </si>
   <si>
     <t xml:space="preserve">6.04878997802734</t>
   </si>
   <si>
-    <t xml:space="preserve">6.69363069534302</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.82986450195312</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.93885183334351</t>
+    <t xml:space="preserve">6.69363021850586</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.82986497879028</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.93885135650635</t>
   </si>
   <si>
     <t xml:space="preserve">6.83894729614258</t>
   </si>
   <si>
-    <t xml:space="preserve">6.8661937713623</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.85711193084717</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.17594242095947</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.05333137512207</t>
+    <t xml:space="preserve">6.86619329452515</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.85711145401001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.17594194412231</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.05333042144775</t>
   </si>
   <si>
     <t xml:space="preserve">6.44840955734253</t>
   </si>
   <si>
-    <t xml:space="preserve">6.22135257720947</t>
+    <t xml:space="preserve">6.22135305404663</t>
   </si>
   <si>
     <t xml:space="preserve">6.41662216186523</t>
@@ -122,79 +122,79 @@
     <t xml:space="preserve">6.56647920608521</t>
   </si>
   <si>
-    <t xml:space="preserve">6.50744390487671</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.68000745773315</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.49836206436157</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.59372711181641</t>
+    <t xml:space="preserve">6.50744342803955</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.68000793457031</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.49836254119873</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.59372663497925</t>
   </si>
   <si>
     <t xml:space="preserve">6.55739688873291</t>
   </si>
   <si>
-    <t xml:space="preserve">6.471116065979</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.57556104660034</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.52106809616089</t>
+    <t xml:space="preserve">6.47111558914185</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.57556009292603</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.52106761932373</t>
   </si>
   <si>
     <t xml:space="preserve">6.80715942382812</t>
   </si>
   <si>
-    <t xml:space="preserve">6.60280799865723</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.38937520980835</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.40753936767578</t>
+    <t xml:space="preserve">6.60280847549438</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.38937473297119</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.40753841400146</t>
   </si>
   <si>
     <t xml:space="preserve">6.43932771682739</t>
   </si>
   <si>
-    <t xml:space="preserve">6.4302453994751</t>
+    <t xml:space="preserve">6.43024444580078</t>
   </si>
   <si>
     <t xml:space="preserve">6.8026180267334</t>
   </si>
   <si>
-    <t xml:space="preserve">6.60734987258911</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.58010196685791</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.62097263336182</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.62551403045654</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.53469133377075</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.3575873374939</t>
+    <t xml:space="preserve">6.60734939575195</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.58010244369507</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.62097311019897</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.62551355361938</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.53469181060791</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.35758686065674</t>
   </si>
   <si>
     <t xml:space="preserve">6.2258939743042</t>
   </si>
   <si>
-    <t xml:space="preserve">6.45295095443726</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.36667013168335</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.45749187469482</t>
+    <t xml:space="preserve">6.4529504776001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.36666965484619</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.45749092102051</t>
   </si>
   <si>
     <t xml:space="preserve">6.41208028793335</t>
@@ -206,19 +206,19 @@
     <t xml:space="preserve">6.4211630821228</t>
   </si>
   <si>
-    <t xml:space="preserve">6.31671619415283</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.35304594039917</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.76174736022949</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.64822053909302</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.66638422012329</t>
+    <t xml:space="preserve">6.31671667098999</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.35304546356201</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.76174831390381</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.6482195854187</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.66638374328613</t>
   </si>
   <si>
     <t xml:space="preserve">6.58918476104736</t>
@@ -227,49 +227,49 @@
     <t xml:space="preserve">6.80682754516602</t>
   </si>
   <si>
-    <t xml:space="preserve">6.62135553359985</t>
+    <t xml:space="preserve">6.6213550567627</t>
   </si>
   <si>
     <t xml:space="preserve">6.71409130096436</t>
   </si>
   <si>
-    <t xml:space="preserve">6.61208248138428</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.67699670791626</t>
+    <t xml:space="preserve">6.61208152770996</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.67699718475342</t>
   </si>
   <si>
     <t xml:space="preserve">6.72800207138062</t>
   </si>
   <si>
-    <t xml:space="preserve">6.53325605392456</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.79291772842407</t>
+    <t xml:space="preserve">6.53325653076172</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.79291677474976</t>
   </si>
   <si>
     <t xml:space="preserve">6.86710643768311</t>
   </si>
   <si>
-    <t xml:space="preserve">6.76973295211792</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.85783195495605</t>
+    <t xml:space="preserve">6.76973247528076</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.85783243179321</t>
   </si>
   <si>
     <t xml:space="preserve">6.88101673126221</t>
   </si>
   <si>
-    <t xml:space="preserve">6.92738485336304</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.02939367294312</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.1267671585083</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.16849756240845</t>
+    <t xml:space="preserve">6.92738389968872</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.02939414978027</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.12676668167114</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.16849851608276</t>
   </si>
   <si>
     <t xml:space="preserve">7.28905534744263</t>
@@ -284,19 +284,19 @@
     <t xml:space="preserve">7.65072584152222</t>
   </si>
   <si>
-    <t xml:space="preserve">7.49307441711426</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.57189893722534</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.44670534133911</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.41888618469238</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.4142484664917</t>
+    <t xml:space="preserve">7.49307489395142</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.57189989089966</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.44670629501343</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.41888523101807</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.41424942016602</t>
   </si>
   <si>
     <t xml:space="preserve">7.38642835617065</t>
@@ -308,25 +308,25 @@
     <t xml:space="preserve">7.32615041732788</t>
   </si>
   <si>
-    <t xml:space="preserve">7.18704605102539</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.26587057113647</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.14067649841309</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.02012062072754</t>
+    <t xml:space="preserve">7.18704557418823</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.26587104797363</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.14067697525024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.0201210975647</t>
   </si>
   <si>
     <t xml:space="preserve">7.30296564102173</t>
   </si>
   <si>
-    <t xml:space="preserve">7.35396957397461</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.50234746932983</t>
+    <t xml:space="preserve">7.35397052764893</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.50234889984131</t>
   </si>
   <si>
     <t xml:space="preserve">7.51625823974609</t>
@@ -335,97 +335,97 @@
     <t xml:space="preserve">7.18240833282471</t>
   </si>
   <si>
-    <t xml:space="preserve">6.90883636474609</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.27514362335205</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.37251806259155</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.03866815567017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.85319519042969</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.66772317886353</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.74191188812256</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.75118541717529</t>
+    <t xml:space="preserve">6.90883731842041</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.27514457702637</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.37251758575439</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.03866863250732</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.85319566726685</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.66772365570068</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.7419114112854</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.75118637084961</t>
   </si>
   <si>
     <t xml:space="preserve">6.5842604637146</t>
   </si>
   <si>
-    <t xml:space="preserve">6.92274856567383</t>
+    <t xml:space="preserve">6.92274761199951</t>
   </si>
   <si>
     <t xml:space="preserve">6.82537508010864</t>
   </si>
   <si>
-    <t xml:space="preserve">6.72336483001709</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.63062906265259</t>
+    <t xml:space="preserve">6.72336530685425</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.63062953948975</t>
   </si>
   <si>
     <t xml:space="preserve">6.93202114105225</t>
   </si>
   <si>
-    <t xml:space="preserve">6.73727607727051</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.95520448684692</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.88565349578857</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.65845012664795</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.70945453643799</t>
+    <t xml:space="preserve">6.73727560043335</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.95520496368408</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.88565301895142</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.65845060348511</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.70945501327515</t>
   </si>
   <si>
     <t xml:space="preserve">6.83464860916138</t>
   </si>
   <si>
-    <t xml:space="preserve">6.86246919631958</t>
+    <t xml:space="preserve">6.86246967315674</t>
   </si>
   <si>
     <t xml:space="preserve">6.93665790557861</t>
   </si>
   <si>
-    <t xml:space="preserve">7.05721569061279</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.87637948989868</t>
+    <t xml:space="preserve">7.05721473693848</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.87637996673584</t>
   </si>
   <si>
     <t xml:space="preserve">6.96447896957397</t>
   </si>
   <si>
-    <t xml:space="preserve">6.97375297546387</t>
+    <t xml:space="preserve">6.97375202178955</t>
   </si>
   <si>
     <t xml:space="preserve">6.99229955673218</t>
   </si>
   <si>
-    <t xml:space="preserve">6.99693632125854</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.00157403945923</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.98302602767944</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.10358333587646</t>
+    <t xml:space="preserve">6.9969367980957</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.00157356262207</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.9830265045166</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.10358238220215</t>
   </si>
   <si>
     <t xml:space="preserve">7.08503532409668</t>
@@ -434,7 +434,7 @@
     <t xml:space="preserve">7.04794120788574</t>
   </si>
   <si>
-    <t xml:space="preserve">7.1638617515564</t>
+    <t xml:space="preserve">7.16386127471924</t>
   </si>
   <si>
     <t xml:space="preserve">7.3632435798645</t>
@@ -443,25 +443,25 @@
     <t xml:space="preserve">7.19631910324097</t>
   </si>
   <si>
-    <t xml:space="preserve">7.15922498703003</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.81610059738159</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.87174320220947</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.06648826599121</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.11285781860352</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.2055926322937</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.17313480377197</t>
+    <t xml:space="preserve">7.15922403335571</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.81610155105591</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.87174224853516</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.06648921966553</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.11285638809204</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.20559215545654</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.17313528060913</t>
   </si>
   <si>
     <t xml:space="preserve">7.38179111480713</t>
@@ -473,7 +473,7 @@
     <t xml:space="preserve">7.23341369628906</t>
   </si>
   <si>
-    <t xml:space="preserve">7.25196075439453</t>
+    <t xml:space="preserve">7.25196123123169</t>
   </si>
   <si>
     <t xml:space="preserve">7.3354229927063</t>
@@ -485,13 +485,13 @@
     <t xml:space="preserve">7.24732446670532</t>
   </si>
   <si>
-    <t xml:space="preserve">7.34469747543335</t>
+    <t xml:space="preserve">7.34469699859619</t>
   </si>
   <si>
     <t xml:space="preserve">7.40033864974976</t>
   </si>
   <si>
-    <t xml:space="preserve">7.57653713226318</t>
+    <t xml:space="preserve">7.57653617858887</t>
   </si>
   <si>
     <t xml:space="preserve">7.40961170196533</t>
@@ -500,10 +500,10 @@
     <t xml:space="preserve">7.43743324279785</t>
   </si>
   <si>
-    <t xml:space="preserve">7.37715482711792</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.54871606826782</t>
+    <t xml:space="preserve">7.3771538734436</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.54871511459351</t>
   </si>
   <si>
     <t xml:space="preserve">7.56262636184692</t>
@@ -512,25 +512,25 @@
     <t xml:space="preserve">7.06185150146484</t>
   </si>
   <si>
-    <t xml:space="preserve">7.21950340270996</t>
+    <t xml:space="preserve">7.2195029258728</t>
   </si>
   <si>
     <t xml:space="preserve">7.36788082122803</t>
   </si>
   <si>
-    <t xml:space="preserve">7.09430932998657</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.7156400680542</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.67390918731689</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.69709396362305</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.60435676574707</t>
+    <t xml:space="preserve">7.09430980682373</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.71564102172852</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.67390966415405</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.69709348678589</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.60435628890991</t>
   </si>
   <si>
     <t xml:space="preserve">7.46525382995605</t>
@@ -539,16 +539,16 @@
     <t xml:space="preserve">7.80837631225586</t>
   </si>
   <si>
-    <t xml:space="preserve">7.86401796340942</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.92893314361572</t>
+    <t xml:space="preserve">7.86401844024658</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.92893505096436</t>
   </si>
   <si>
     <t xml:space="preserve">7.88256597518921</t>
   </si>
   <si>
-    <t xml:space="preserve">7.87792921066284</t>
+    <t xml:space="preserve">7.87792825698853</t>
   </si>
   <si>
     <t xml:space="preserve">7.83619785308838</t>
@@ -557,100 +557,100 @@
     <t xml:space="preserve">7.97530221939087</t>
   </si>
   <si>
-    <t xml:space="preserve">8.17931938171387</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.55953788757324</t>
+    <t xml:space="preserve">8.1793212890625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.55953884124756</t>
   </si>
   <si>
     <t xml:space="preserve">8.63372898101807</t>
   </si>
   <si>
-    <t xml:space="preserve">8.670823097229</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.80065441131592</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.59663391113281</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.62909126281738</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.57808780670166</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.4389820098877</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.45752811431885</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.55490303039551</t>
+    <t xml:space="preserve">8.67082405090332</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.80065250396729</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.59663486480713</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.6290922164917</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.57808685302734</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.43898296356201</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.45752906799316</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.55490207672119</t>
   </si>
   <si>
     <t xml:space="preserve">8.54562950134277</t>
   </si>
   <si>
-    <t xml:space="preserve">8.54098987579346</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.58272266387939</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.59199810028076</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.68937015533447</t>
+    <t xml:space="preserve">8.54099178314209</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.58272361755371</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.59199619293213</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.68936920166016</t>
   </si>
   <si>
     <t xml:space="preserve">8.52244567871094</t>
   </si>
   <si>
-    <t xml:space="preserve">8.51780700683594</t>
+    <t xml:space="preserve">8.51780796051025</t>
   </si>
   <si>
     <t xml:space="preserve">8.30915260314941</t>
   </si>
   <si>
-    <t xml:space="preserve">8.48534965515137</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.42043590545654</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.28596782684326</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.3230619430542</t>
+    <t xml:space="preserve">8.48534870147705</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.42043399810791</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.28596878051758</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.32306385040283</t>
   </si>
   <si>
     <t xml:space="preserve">8.49926090240479</t>
   </si>
   <si>
-    <t xml:space="preserve">8.51317310333252</t>
+    <t xml:space="preserve">8.51317119598389</t>
   </si>
   <si>
     <t xml:space="preserve">8.62445449829102</t>
   </si>
   <si>
-    <t xml:space="preserve">8.70328140258789</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.64300155639648</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.44361877441406</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.48998737335205</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.23960018157959</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.34624481201172</t>
+    <t xml:space="preserve">8.70328044891357</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.64300346374512</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.44361972808838</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.48998641967773</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.23959922790527</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.34624671936035</t>
   </si>
   <si>
     <t xml:space="preserve">8.49462413787842</t>
@@ -659,10 +659,10 @@
     <t xml:space="preserve">8.65227508544922</t>
   </si>
   <si>
-    <t xml:space="preserve">8.92120838165283</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.83002185821533</t>
+    <t xml:space="preserve">8.92121028900146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.83002281188965</t>
   </si>
   <si>
     <t xml:space="preserve">9.49617385864258</t>
@@ -671,34 +671,34 @@
     <t xml:space="preserve">9.45907783508301</t>
   </si>
   <si>
-    <t xml:space="preserve">9.25506019592285</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.4034366607666</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.44053173065186</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.44980430603027</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.46835231781006</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.18087005615234</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.27360725402832</t>
+    <t xml:space="preserve">9.25505828857422</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.40343761444092</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.44053268432617</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.44980525970459</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.46835327148438</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.18087100982666</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.27360820770264</t>
   </si>
   <si>
     <t xml:space="preserve">9.3663444519043</t>
   </si>
   <si>
-    <t xml:space="preserve">9.59818458557129</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.80220222473145</t>
+    <t xml:space="preserve">9.59818363189697</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.80220127105713</t>
   </si>
   <si>
     <t xml:space="preserve">9.71873950958252</t>
@@ -710,22 +710,22 @@
     <t xml:space="preserve">10.1546001434326</t>
   </si>
   <si>
-    <t xml:space="preserve">10.479175567627</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2009658813477</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.720290184021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1283292770386</t>
+    <t xml:space="preserve">10.4791765213013</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2009677886963</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7202892303467</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1283283233643</t>
   </si>
   <si>
     <t xml:space="preserve">11.0912342071533</t>
   </si>
   <si>
-    <t xml:space="preserve">11.1932439804077</t>
+    <t xml:space="preserve">11.1932430267334</t>
   </si>
   <si>
     <t xml:space="preserve">11.2210645675659</t>
@@ -734,19 +734,19 @@
     <t xml:space="preserve">11.0170450210571</t>
   </si>
   <si>
-    <t xml:space="preserve">10.9892234802246</t>
+    <t xml:space="preserve">10.9892253875732</t>
   </si>
   <si>
     <t xml:space="preserve">11.0355920791626</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5411825180054</t>
+    <t xml:space="preserve">10.541184425354</t>
   </si>
   <si>
     <t xml:space="preserve">10.2893142700195</t>
   </si>
   <si>
-    <t xml:space="preserve">10.0747594833374</t>
+    <t xml:space="preserve">10.0747575759888</t>
   </si>
   <si>
     <t xml:space="preserve">10.4478988647461</t>
@@ -755,13 +755,13 @@
     <t xml:space="preserve">10.4945411682129</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3452844619751</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4665555953979</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.578498840332</t>
+    <t xml:space="preserve">10.3452854156494</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4665546417236</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5784969329834</t>
   </si>
   <si>
     <t xml:space="preserve">10.5598392486572</t>
@@ -770,28 +770,28 @@
     <t xml:space="preserve">10.6064825057983</t>
   </si>
   <si>
-    <t xml:space="preserve">10.8117094039917</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1475353240967</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.8471698760986</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.6606006622314</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2874622344971</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3714160919189</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1661920547485</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.212833404541</t>
+    <t xml:space="preserve">10.811710357666</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.147533416748</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.8471708297729</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.6606016159058</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2874612808228</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3714179992676</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1661911010742</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2128343582153</t>
   </si>
   <si>
     <t xml:space="preserve">11.1008920669556</t>
@@ -803,88 +803,88 @@
     <t xml:space="preserve">10.8210382461548</t>
   </si>
   <si>
-    <t xml:space="preserve">10.8023796081543</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0542488098145</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9329805374146</t>
+    <t xml:space="preserve">10.8023805618286</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0542497634888</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9329776763916</t>
   </si>
   <si>
     <t xml:space="preserve">10.6344680786133</t>
   </si>
   <si>
-    <t xml:space="preserve">11.1941776275635</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1288785934448</t>
+    <t xml:space="preserve">11.1941757202148</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1288776397705</t>
   </si>
   <si>
     <t xml:space="preserve">11.5579872131348</t>
   </si>
   <si>
-    <t xml:space="preserve">11.1382055282593</t>
+    <t xml:space="preserve">11.1382064819336</t>
   </si>
   <si>
     <t xml:space="preserve">11.007607460022</t>
   </si>
   <si>
-    <t xml:space="preserve">11.5206747055054</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.4740314483643</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7818717956543</t>
+    <t xml:space="preserve">11.5206737518311</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4740324020386</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.78187084198</t>
   </si>
   <si>
     <t xml:space="preserve">12.1736669540405</t>
   </si>
   <si>
-    <t xml:space="preserve">12.3975505828857</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9684400558472</t>
+    <t xml:space="preserve">12.3975515365601</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9684410095215</t>
   </si>
   <si>
     <t xml:space="preserve">12.593448638916</t>
   </si>
   <si>
-    <t xml:space="preserve">12.6027765274048</t>
+    <t xml:space="preserve">12.6027774810791</t>
   </si>
   <si>
     <t xml:space="preserve">12.7520322799683</t>
   </si>
   <si>
-    <t xml:space="preserve">12.8266620635986</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.6121072769165</t>
+    <t xml:space="preserve">12.8266611099243</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.6121063232422</t>
   </si>
   <si>
     <t xml:space="preserve">12.8733034133911</t>
   </si>
   <si>
-    <t xml:space="preserve">12.8080053329468</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.621434211731</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.6587476730347</t>
+    <t xml:space="preserve">12.8080024719238</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.6214332580566</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.658748626709</t>
   </si>
   <si>
     <t xml:space="preserve">12.6400918960571</t>
   </si>
   <si>
-    <t xml:space="preserve">12.5468072891235</t>
+    <t xml:space="preserve">12.5468063354492</t>
   </si>
   <si>
     <t xml:space="preserve">12.5747909545898</t>
   </si>
   <si>
-    <t xml:space="preserve">12.5654630661011</t>
+    <t xml:space="preserve">12.5654640197754</t>
   </si>
   <si>
     <t xml:space="preserve">12.7613611221313</t>
@@ -893,52 +893,52 @@
     <t xml:space="preserve">12.7053909301758</t>
   </si>
   <si>
-    <t xml:space="preserve">12.6307640075684</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.2576236724854</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.4721775054932</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.5001630783081</t>
+    <t xml:space="preserve">12.630763053894</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2576246261597</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.4721784591675</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.5001640319824</t>
   </si>
   <si>
     <t xml:space="preserve">12.3695659637451</t>
   </si>
   <si>
-    <t xml:space="preserve">12.4441947937012</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9591121673584</t>
+    <t xml:space="preserve">12.4441928863525</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9591112136841</t>
   </si>
   <si>
     <t xml:space="preserve">12.360237121582</t>
   </si>
   <si>
-    <t xml:space="preserve">12.2482957839966</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1270246505737</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0244112014771</t>
+    <t xml:space="preserve">12.2482948303223</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.127025604248</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0244131088257</t>
   </si>
   <si>
     <t xml:space="preserve">12.3882207870483</t>
   </si>
   <si>
-    <t xml:space="preserve">12.3415784835815</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0150833129883</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0337390899658</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.4068784713745</t>
+    <t xml:space="preserve">12.3415794372559</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.015082359314</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0337409973145</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.4068794250488</t>
   </si>
   <si>
     <t xml:space="preserve">12.5188207626343</t>
@@ -950,10 +950,10 @@
     <t xml:space="preserve">12.4535226821899</t>
   </si>
   <si>
-    <t xml:space="preserve">12.2296371459961</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.3229236602783</t>
+    <t xml:space="preserve">12.2296380996704</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.322922706604</t>
   </si>
   <si>
     <t xml:space="preserve">12.4162073135376</t>
@@ -962,52 +962,52 @@
     <t xml:space="preserve">12.5281505584717</t>
   </si>
   <si>
-    <t xml:space="preserve">12.2762813568115</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.5094928741455</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.3788948059082</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.3322525024414</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1363534927368</t>
+    <t xml:space="preserve">12.2762804031372</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.5094938278198</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.3788928985596</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.3322515487671</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1363544464111</t>
   </si>
   <si>
     <t xml:space="preserve">12.0990400314331</t>
   </si>
   <si>
-    <t xml:space="preserve">11.5113458633423</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7072439193726</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.8658275604248</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7352275848389</t>
+    <t xml:space="preserve">11.511344909668</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7072448730469</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.8658285140991</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7352285385132</t>
   </si>
   <si>
     <t xml:space="preserve">11.753885269165</t>
   </si>
   <si>
-    <t xml:space="preserve">11.8191862106323</t>
+    <t xml:space="preserve">11.819185256958</t>
   </si>
   <si>
     <t xml:space="preserve">11.9964265823364</t>
   </si>
   <si>
-    <t xml:space="preserve">11.8938131332397</t>
+    <t xml:space="preserve">11.8938121795654</t>
   </si>
   <si>
     <t xml:space="preserve">11.9404563903809</t>
   </si>
   <si>
-    <t xml:space="preserve">11.8098573684692</t>
+    <t xml:space="preserve">11.8098564147949</t>
   </si>
   <si>
     <t xml:space="preserve">12.3042659759521</t>
@@ -1016,13 +1016,13 @@
     <t xml:space="preserve">12.2669525146484</t>
   </si>
   <si>
-    <t xml:space="preserve">11.8378410339355</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7912006378174</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2594776153564</t>
+    <t xml:space="preserve">11.8378419876099</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7911996841431</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2594757080078</t>
   </si>
   <si>
     <t xml:space="preserve">11.3620891571045</t>
@@ -1031,22 +1031,22 @@
     <t xml:space="preserve">11.2314901351929</t>
   </si>
   <si>
-    <t xml:space="preserve">11.6139583587646</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5393304824829</t>
+    <t xml:space="preserve">11.613959312439</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5393295288086</t>
   </si>
   <si>
     <t xml:space="preserve">11.6699295043945</t>
   </si>
   <si>
-    <t xml:space="preserve">11.6512718200684</t>
+    <t xml:space="preserve">11.6512727737427</t>
   </si>
   <si>
     <t xml:space="preserve">11.5673160552979</t>
   </si>
   <si>
-    <t xml:space="preserve">11.744556427002</t>
+    <t xml:space="preserve">11.7445573806763</t>
   </si>
   <si>
     <t xml:space="preserve">11.9311275482178</t>
@@ -1064,85 +1064,85 @@
     <t xml:space="preserve">13.0039014816284</t>
   </si>
   <si>
-    <t xml:space="preserve">14.011378288269</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.1979484558105</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.1792907714844</t>
+    <t xml:space="preserve">14.0113792419434</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.1979465484619</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.1792898178101</t>
   </si>
   <si>
     <t xml:space="preserve">14.0300359725952</t>
   </si>
   <si>
-    <t xml:space="preserve">14.0860071182251</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.7203416824341</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.9927206039429</t>
+    <t xml:space="preserve">14.0860061645508</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.7203426361084</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.9927196502686</t>
   </si>
   <si>
     <t xml:space="preserve">13.7128658294678</t>
   </si>
   <si>
-    <t xml:space="preserve">14.2912321090698</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.1046619415283</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.7874937057495</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.4778022766113</t>
+    <t xml:space="preserve">14.2912311553955</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.1046628952026</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.7874956130981</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.4778032302856</t>
   </si>
   <si>
     <t xml:space="preserve">14.6084003448486</t>
   </si>
   <si>
-    <t xml:space="preserve">14.6643724441528</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.5710868835449</t>
+    <t xml:space="preserve">14.6643714904785</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.5710849761963</t>
   </si>
   <si>
     <t xml:space="preserve">14.272575378418</t>
   </si>
   <si>
-    <t xml:space="preserve">13.9180936813354</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.0785312652588</t>
+    <t xml:space="preserve">13.9180927276611</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.0785293579102</t>
   </si>
   <si>
     <t xml:space="preserve">12.8546457290649</t>
   </si>
   <si>
-    <t xml:space="preserve">13.4516706466675</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.1158447265625</t>
+    <t xml:space="preserve">13.4516696929932</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1158456802368</t>
   </si>
   <si>
     <t xml:space="preserve">12.8173322677612</t>
   </si>
   <si>
-    <t xml:space="preserve">13.0598735809326</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6009244918823</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.3956985473633</t>
+    <t xml:space="preserve">13.0598726272583</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6009254455566</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.395697593689</t>
   </si>
   <si>
     <t xml:space="preserve">12.7427053451538</t>
   </si>
   <si>
-    <t xml:space="preserve">12.1829967498779</t>
+    <t xml:space="preserve">12.1829957962036</t>
   </si>
   <si>
     <t xml:space="preserve">12.0897102355957</t>
@@ -1151,7 +1151,7 @@
     <t xml:space="preserve">11.9031419754028</t>
   </si>
   <si>
-    <t xml:space="preserve">12.6680765151978</t>
+    <t xml:space="preserve">12.6680774688721</t>
   </si>
   <si>
     <t xml:space="preserve">12.7986764907837</t>
@@ -1160,13 +1160,13 @@
     <t xml:space="preserve">12.6867341995239</t>
   </si>
   <si>
-    <t xml:space="preserve">12.2389659881592</t>
+    <t xml:space="preserve">12.2389678955078</t>
   </si>
   <si>
     <t xml:space="preserve">12.1083669662476</t>
   </si>
   <si>
-    <t xml:space="preserve">12.1456823348999</t>
+    <t xml:space="preserve">12.1456813812256</t>
   </si>
   <si>
     <t xml:space="preserve">11.6792583465576</t>
@@ -1178,70 +1178,70 @@
     <t xml:space="preserve">11.8844842910767</t>
   </si>
   <si>
-    <t xml:space="preserve">11.9217967987061</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.3135957717896</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.4628505706787</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.4330110549927</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6195821762085</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.80615234375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.3472032546997</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0001964569092</t>
+    <t xml:space="preserve">11.9217987060547</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.3135948181152</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.4628496170044</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.433012008667</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6195812225342</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.8061504364014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.347204208374</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0001974105835</t>
   </si>
   <si>
     <t xml:space="preserve">14.8695974349976</t>
   </si>
   <si>
-    <t xml:space="preserve">14.8322849273682</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.888256072998</t>
+    <t xml:space="preserve">14.8322839736938</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.8882541656494</t>
   </si>
   <si>
     <t xml:space="preserve">15.1164264678955</t>
   </si>
   <si>
-    <t xml:space="preserve">15.7819299697876</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.49671459198</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.325587272644</t>
+    <t xml:space="preserve">15.7819309234619</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4967155456543</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3255863189697</t>
   </si>
   <si>
     <t xml:space="preserve">15.1734704971313</t>
   </si>
   <si>
-    <t xml:space="preserve">15.2114992141724</t>
+    <t xml:space="preserve">15.2115001678467</t>
   </si>
   <si>
     <t xml:space="preserve">15.2685432434082</t>
   </si>
   <si>
-    <t xml:space="preserve">15.4016447067261</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.222752571106</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.899507522583</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.348090171814</t>
+    <t xml:space="preserve">15.4016437530518</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.2227516174316</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.8995065689087</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3480911254883</t>
   </si>
   <si>
     <t xml:space="preserve">13.6903486251831</t>
@@ -1250,13 +1250,13 @@
     <t xml:space="preserve">13.7664060592651</t>
   </si>
   <si>
-    <t xml:space="preserve">13.1579475402832</t>
+    <t xml:space="preserve">13.1579465866089</t>
   </si>
   <si>
     <t xml:space="preserve">13.024845123291</t>
   </si>
   <si>
-    <t xml:space="preserve">13.1959772109985</t>
+    <t xml:space="preserve">13.1959753036499</t>
   </si>
   <si>
     <t xml:space="preserve">12.9678039550781</t>
@@ -1265,25 +1265,25 @@
     <t xml:space="preserve">12.1691999435425</t>
   </si>
   <si>
-    <t xml:space="preserve">12.6255445480347</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.0818891525269</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.7016019821167</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.7776594161987</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.8347034454346</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.9487895965576</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.4163856506348</t>
+    <t xml:space="preserve">12.625542640686</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.0818910598755</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.7016010284424</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.777660369873</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.8347024917603</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.9487886428833</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.4163866043091</t>
   </si>
   <si>
     <t xml:space="preserve">12.8156881332397</t>
@@ -1295,10 +1295,10 @@
     <t xml:space="preserve">12.8537178039551</t>
   </si>
   <si>
-    <t xml:space="preserve">12.3403291702271</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.8234510421753</t>
+    <t xml:space="preserve">12.3403272628784</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.8234491348267</t>
   </si>
   <si>
     <t xml:space="preserve">13.861478805542</t>
@@ -1310,10 +1310,10 @@
     <t xml:space="preserve">13.9565505981445</t>
   </si>
   <si>
-    <t xml:space="preserve">14.1657094955444</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.7093639373779</t>
+    <t xml:space="preserve">14.1657085418701</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.7093648910522</t>
   </si>
   <si>
     <t xml:space="preserve">13.6713352203369</t>
@@ -1322,31 +1322,31 @@
     <t xml:space="preserve">13.500205039978</t>
   </si>
   <si>
-    <t xml:space="preserve">13.5382347106934</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5192193984985</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.3290767669678</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2149906158447</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.4051342010498</t>
+    <t xml:space="preserve">13.538233757019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5192203521729</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3290758132935</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2149896621704</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.4051351547241</t>
   </si>
   <si>
     <t xml:space="preserve">13.5572490692139</t>
   </si>
   <si>
-    <t xml:space="preserve">13.2910470962524</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.4431629180908</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.6445589065552</t>
+    <t xml:space="preserve">13.2910461425781</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.4431638717651</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.6445598602295</t>
   </si>
   <si>
     <t xml:space="preserve">12.5875158309937</t>
@@ -1364,61 +1364,61 @@
     <t xml:space="preserve">13.0628747940063</t>
   </si>
   <si>
-    <t xml:space="preserve">12.8917465209961</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.0438604354858</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.8804941177368</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.2037372589111</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.3558511734009</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.3938808441162</t>
+    <t xml:space="preserve">12.8917455673218</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.0438613891602</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.8804931640625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.2037363052368</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.3558521270752</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.3938817977905</t>
   </si>
   <si>
     <t xml:space="preserve">14.1466951370239</t>
   </si>
   <si>
-    <t xml:space="preserve">13.7854204177856</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5762624740601</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.8424644470215</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6333065032959</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.2607803344727</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0213556289673</t>
+    <t xml:space="preserve">13.78542137146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5762634277344</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.8424663543701</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6333055496216</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.2607793807983</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.021354675293</t>
   </si>
   <si>
     <t xml:space="preserve">15.5917873382568</t>
   </si>
   <si>
-    <t xml:space="preserve">15.3636150360107</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.249529838562</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.6375789642334</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.8087062835693</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.0178642272949</t>
+    <t xml:space="preserve">15.3636140823364</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2495288848877</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.6375770568848</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.808708190918</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.0178661346436</t>
   </si>
   <si>
     <t xml:space="preserve">16.7326488494873</t>
@@ -1427,31 +1427,31 @@
     <t xml:space="preserve">16.3333473205566</t>
   </si>
   <si>
-    <t xml:space="preserve">16.0101051330566</t>
+    <t xml:space="preserve">16.010103225708</t>
   </si>
   <si>
     <t xml:space="preserve">15.6868591308594</t>
   </si>
   <si>
-    <t xml:space="preserve">15.6108016967773</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0974130630493</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3065710067749</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.4699392318726</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.6981105804443</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.5269823074341</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.7361392974854</t>
+    <t xml:space="preserve">15.610800743103</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0974140167236</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3065729141235</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.4699382781982</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.698112487793</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.5269813537598</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.7361402511597</t>
   </si>
   <si>
     <t xml:space="preserve">14.336838722229</t>
@@ -1472,49 +1472,49 @@
     <t xml:space="preserve">14.1086664199829</t>
   </si>
   <si>
-    <t xml:space="preserve">14.9643115997314</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.5650110244751</t>
+    <t xml:space="preserve">14.9643125534058</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.5650100708008</t>
   </si>
   <si>
     <t xml:space="preserve">14.5079679489136</t>
   </si>
   <si>
-    <t xml:space="preserve">15.648829460144</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.059383392334</t>
+    <t xml:space="preserve">15.6488275527954</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0593843460083</t>
   </si>
   <si>
     <t xml:space="preserve">16.1812324523926</t>
   </si>
   <si>
-    <t xml:space="preserve">16.1622161865234</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.3523635864258</t>
+    <t xml:space="preserve">16.1622180938721</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.3523616790771</t>
   </si>
   <si>
     <t xml:space="preserve">16.1432037353516</t>
   </si>
   <si>
-    <t xml:space="preserve">15.9720735549927</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5537586212158</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.1241912841797</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.4474353790283</t>
+    <t xml:space="preserve">15.972074508667</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5537576675415</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.1241855621338</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.4474334716797</t>
   </si>
   <si>
     <t xml:space="preserve">16.2002468109131</t>
   </si>
   <si>
-    <t xml:space="preserve">16.4284191131592</t>
+    <t xml:space="preserve">16.4284210205078</t>
   </si>
   <si>
     <t xml:space="preserve">15.7439012527466</t>
@@ -1523,37 +1523,37 @@
     <t xml:space="preserve">15.8960161209106</t>
   </si>
   <si>
-    <t xml:space="preserve">16.0291156768799</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1544570922852</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9530591964722</t>
+    <t xml:space="preserve">16.0291194915771</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1544542312622</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9530630111694</t>
   </si>
   <si>
     <t xml:space="preserve">15.5727710723877</t>
   </si>
   <si>
-    <t xml:space="preserve">14.8312120437622</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0023422241211</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.6410684585571</t>
+    <t xml:space="preserve">14.8312129974365</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0023412704468</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.6410694122314</t>
   </si>
   <si>
     <t xml:space="preserve">14.9072704315186</t>
   </si>
   <si>
-    <t xml:space="preserve">15.0783977508545</t>
+    <t xml:space="preserve">15.0783987045288</t>
   </si>
   <si>
     <t xml:space="preserve">15.6298160552979</t>
   </si>
   <si>
-    <t xml:space="preserve">15.8389730453491</t>
+    <t xml:space="preserve">15.8389749526978</t>
   </si>
   <si>
     <t xml:space="preserve">15.1354417800903</t>
@@ -1562,13 +1562,13 @@
     <t xml:space="preserve">15.5157289505005</t>
   </si>
   <si>
-    <t xml:space="preserve">15.8579893112183</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7248888015747</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9910879135132</t>
+    <t xml:space="preserve">15.8579902648926</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7248907089233</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9910869598389</t>
   </si>
   <si>
     <t xml:space="preserve">16.0671443939209</t>
@@ -1577,10 +1577,10 @@
     <t xml:space="preserve">16.1051750183105</t>
   </si>
   <si>
-    <t xml:space="preserve">16.0861625671387</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7058734893799</t>
+    <t xml:space="preserve">16.08616065979</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7058753967285</t>
   </si>
   <si>
     <t xml:space="preserve">14.7741689682007</t>
@@ -1592,16 +1592,16 @@
     <t xml:space="preserve">14.9452981948853</t>
   </si>
   <si>
-    <t xml:space="preserve">15.2875556945801</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1924839019775</t>
+    <t xml:space="preserve">15.2875566482544</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1924848556519</t>
   </si>
   <si>
     <t xml:space="preserve">15.3826293945312</t>
   </si>
   <si>
-    <t xml:space="preserve">16.2953186035156</t>
+    <t xml:space="preserve">16.2953205108643</t>
   </si>
   <si>
     <t xml:space="preserve">17.1129379272461</t>
@@ -1613,76 +1613,76 @@
     <t xml:space="preserve">17.3601226806641</t>
   </si>
   <si>
-    <t xml:space="preserve">17.3981494903564</t>
+    <t xml:space="preserve">17.3981513977051</t>
   </si>
   <si>
     <t xml:space="preserve">17.2080078125</t>
   </si>
   <si>
-    <t xml:space="preserve">17.1699771881104</t>
+    <t xml:space="preserve">17.169979095459</t>
   </si>
   <si>
     <t xml:space="preserve">18.158727645874</t>
   </si>
   <si>
-    <t xml:space="preserve">17.5122394561768</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.4551982879639</t>
+    <t xml:space="preserve">17.5122413635254</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.4551944732666</t>
   </si>
   <si>
     <t xml:space="preserve">17.4742088317871</t>
   </si>
   <si>
-    <t xml:space="preserve">17.6073093414307</t>
+    <t xml:space="preserve">17.6073131561279</t>
   </si>
   <si>
     <t xml:space="preserve">17.1509666442871</t>
   </si>
   <si>
-    <t xml:space="preserve">17.4932250976562</t>
+    <t xml:space="preserve">17.493221282959</t>
   </si>
   <si>
     <t xml:space="preserve">17.5502681732178</t>
   </si>
   <si>
-    <t xml:space="preserve">17.9685840606689</t>
+    <t xml:space="preserve">17.9685802459717</t>
   </si>
   <si>
     <t xml:space="preserve">17.9305553436279</t>
   </si>
   <si>
-    <t xml:space="preserve">17.6643543243408</t>
+    <t xml:space="preserve">17.6643562316895</t>
   </si>
   <si>
     <t xml:space="preserve">17.4361801147461</t>
   </si>
   <si>
-    <t xml:space="preserve">17.246036529541</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.6756076812744</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.6946182250977</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.3903884887695</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.960823059082</t>
+    <t xml:space="preserve">17.2460384368896</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.6756057739258</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.6946201324463</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.3903903961182</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.9608211517334</t>
   </si>
   <si>
     <t xml:space="preserve">16.2572898864746</t>
   </si>
   <si>
-    <t xml:space="preserve">16.6830749511719</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.6443691253662</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.489538192749</t>
+    <t xml:space="preserve">16.6830768585205</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.6443672180176</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.4895362854004</t>
   </si>
   <si>
     <t xml:space="preserve">16.5475978851318</t>
@@ -1691,25 +1691,25 @@
     <t xml:space="preserve">16.3347053527832</t>
   </si>
   <si>
-    <t xml:space="preserve">16.1024570465088</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.0831050872803</t>
+    <t xml:space="preserve">16.1024608612061</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.0831031799316</t>
   </si>
   <si>
     <t xml:space="preserve">16.7798461914062</t>
   </si>
   <si>
-    <t xml:space="preserve">16.9153213500977</t>
+    <t xml:space="preserve">16.9153232574463</t>
   </si>
   <si>
     <t xml:space="preserve">16.9346771240234</t>
   </si>
   <si>
-    <t xml:space="preserve">16.8572616577148</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.741138458252</t>
+    <t xml:space="preserve">16.8572597503662</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.7411365509033</t>
   </si>
   <si>
     <t xml:space="preserve">16.5282440185547</t>
@@ -1724,7 +1724,7 @@
     <t xml:space="preserve">16.5669536590576</t>
   </si>
   <si>
-    <t xml:space="preserve">16.0637493133545</t>
+    <t xml:space="preserve">16.0637512207031</t>
   </si>
   <si>
     <t xml:space="preserve">16.1218128204346</t>
@@ -1733,43 +1733,43 @@
     <t xml:space="preserve">15.9669818878174</t>
   </si>
   <si>
-    <t xml:space="preserve">15.8315048217773</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7540874481201</t>
+    <t xml:space="preserve">15.831503868103</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7540884017944</t>
   </si>
   <si>
     <t xml:space="preserve">15.5218420028687</t>
   </si>
   <si>
-    <t xml:space="preserve">15.4637784957886</t>
+    <t xml:space="preserve">15.4637794494629</t>
   </si>
   <si>
     <t xml:space="preserve">15.4057178497314</t>
   </si>
   <si>
-    <t xml:space="preserve">15.0767002105713</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2895946502686</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3283014297485</t>
+    <t xml:space="preserve">15.0767011642456</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2895936965942</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3283023834229</t>
   </si>
   <si>
     <t xml:space="preserve">15.2315320968628</t>
   </si>
   <si>
-    <t xml:space="preserve">15.1928243637085</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0960540771484</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.21217918396</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.34765625</t>
+    <t xml:space="preserve">15.1928253173828</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0960559844971</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2121782302856</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3476552963257</t>
   </si>
   <si>
     <t xml:space="preserve">15.1541166305542</t>
@@ -1781,16 +1781,16 @@
     <t xml:space="preserve">14.9412231445312</t>
   </si>
   <si>
-    <t xml:space="preserve">14.8057470321655</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5411939620972</t>
+    <t xml:space="preserve">14.8057460784912</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5411958694458</t>
   </si>
   <si>
     <t xml:space="preserve">15.2702398300171</t>
   </si>
   <si>
-    <t xml:space="preserve">14.9218692779541</t>
+    <t xml:space="preserve">14.9218702316284</t>
   </si>
   <si>
     <t xml:space="preserve">15.1734714508057</t>
@@ -1799,22 +1799,22 @@
     <t xml:space="preserve">15.0573472976685</t>
   </si>
   <si>
-    <t xml:space="preserve">15.2508859634399</t>
+    <t xml:space="preserve">15.2508869171143</t>
   </si>
   <si>
     <t xml:space="preserve">14.8831624984741</t>
   </si>
   <si>
-    <t xml:space="preserve">14.8444538116455</t>
+    <t xml:space="preserve">14.8444547653198</t>
   </si>
   <si>
     <t xml:space="preserve">14.999285697937</t>
   </si>
   <si>
-    <t xml:space="preserve">15.1154088973999</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.902515411377</t>
+    <t xml:space="preserve">15.1154069900513</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9025163650513</t>
   </si>
   <si>
     <t xml:space="preserve">14.9799308776855</t>
@@ -1826,31 +1826,31 @@
     <t xml:space="preserve">14.6702680587769</t>
   </si>
   <si>
-    <t xml:space="preserve">14.6896228790283</t>
+    <t xml:space="preserve">14.6896238327026</t>
   </si>
   <si>
     <t xml:space="preserve">14.5928535461426</t>
   </si>
   <si>
-    <t xml:space="preserve">14.7283306121826</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.7089767456055</t>
+    <t xml:space="preserve">14.7283296585083</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.7089757919312</t>
   </si>
   <si>
     <t xml:space="preserve">14.554144859314</t>
   </si>
   <si>
-    <t xml:space="preserve">14.5347909927368</t>
+    <t xml:space="preserve">14.5347919464111</t>
   </si>
   <si>
     <t xml:space="preserve">14.7476844787598</t>
   </si>
   <si>
-    <t xml:space="preserve">15.0186386108398</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.6509141921997</t>
+    <t xml:space="preserve">15.0186405181885</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.650915145874</t>
   </si>
   <si>
     <t xml:space="preserve">15.4444246292114</t>
@@ -1859,49 +1859,49 @@
     <t xml:space="preserve">15.4831342697144</t>
   </si>
   <si>
-    <t xml:space="preserve">15.7734403610229</t>
+    <t xml:space="preserve">15.7734422683716</t>
   </si>
   <si>
     <t xml:space="preserve">15.6186094284058</t>
   </si>
   <si>
-    <t xml:space="preserve">15.8121519088745</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8895664215088</t>
+    <t xml:space="preserve">15.8121480941772</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8895645141602</t>
   </si>
   <si>
     <t xml:space="preserve">15.8702116012573</t>
   </si>
   <si>
-    <t xml:space="preserve">15.9089202880859</t>
+    <t xml:space="preserve">15.9089193344116</t>
   </si>
   <si>
     <t xml:space="preserve">16.0056915283203</t>
   </si>
   <si>
-    <t xml:space="preserve">15.734733581543</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7153816223145</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9476270675659</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6766738891602</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5992584228516</t>
+    <t xml:space="preserve">15.7347326278687</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7153797149658</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9476261138916</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6766729354858</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5992565155029</t>
   </si>
   <si>
     <t xml:space="preserve">15.9282712936401</t>
   </si>
   <si>
-    <t xml:space="preserve">16.0250434875488</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.2185802459717</t>
+    <t xml:space="preserve">16.0250415802002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.2185821533203</t>
   </si>
   <si>
     <t xml:space="preserve">17.263692855835</t>
@@ -1910,10 +1910,10 @@
     <t xml:space="preserve">17.1088619232178</t>
   </si>
   <si>
-    <t xml:space="preserve">17.050802230835</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.9927368164062</t>
+    <t xml:space="preserve">17.0507984161377</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.9927387237549</t>
   </si>
   <si>
     <t xml:space="preserve">17.0895080566406</t>
@@ -1925,88 +1925,88 @@
     <t xml:space="preserve">17.3798160552979</t>
   </si>
   <si>
-    <t xml:space="preserve">18.3862228393555</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.2894515991211</t>
+    <t xml:space="preserve">18.3862190246582</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.2894477844238</t>
   </si>
   <si>
     <t xml:space="preserve">17.7088317871094</t>
   </si>
   <si>
-    <t xml:space="preserve">17.7668972015381</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.2120342254639</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.0959129333496</t>
+    <t xml:space="preserve">17.7668952941895</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.2120361328125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.0959148406982</t>
   </si>
   <si>
     <t xml:space="preserve">18.2313899993896</t>
   </si>
   <si>
-    <t xml:space="preserve">18.0765590667725</t>
+    <t xml:space="preserve">18.0765571594238</t>
   </si>
   <si>
     <t xml:space="preserve">18.0572032928467</t>
   </si>
   <si>
-    <t xml:space="preserve">18.1733264923096</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.0378513336182</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.4249305725098</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.8700675964355</t>
+    <t xml:space="preserve">18.1733283996582</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.0378494262695</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.4249286651611</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.8700695037842</t>
   </si>
   <si>
     <t xml:space="preserve">19.2184391021729</t>
   </si>
   <si>
-    <t xml:space="preserve">19.1410236358643</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.6571750640869</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.0829620361328</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.0249004364014</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.5474548339844</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.934534072876</t>
+    <t xml:space="preserve">19.1410255432129</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.6571769714355</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.0829639434814</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.0248985290527</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.547456741333</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.9345321655273</t>
   </si>
   <si>
     <t xml:space="preserve">19.6442241668701</t>
   </si>
   <si>
-    <t xml:space="preserve">19.7893810272217</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.4022979736328</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.9668407440186</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.7409934997559</t>
+    <t xml:space="preserve">19.789379119873</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.4022998809814</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.9668350219727</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.7409954071045</t>
   </si>
   <si>
     <t xml:space="preserve">19.8377628326416</t>
   </si>
   <si>
-    <t xml:space="preserve">19.8861484527588</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.4506874084473</t>
+    <t xml:space="preserve">19.8861465454102</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.4506855010986</t>
   </si>
   <si>
     <t xml:space="preserve">19.6926097869873</t>
@@ -2018,7 +2018,7 @@
     <t xml:space="preserve">20.3699951171875</t>
   </si>
   <si>
-    <t xml:space="preserve">22.3537731170654</t>
+    <t xml:space="preserve">22.3537750244141</t>
   </si>
   <si>
     <t xml:space="preserve">21.2893085479736</t>
@@ -2027,55 +2027,55 @@
     <t xml:space="preserve">21.2409248352051</t>
   </si>
   <si>
-    <t xml:space="preserve">20.9506149291992</t>
+    <t xml:space="preserve">20.9506130218506</t>
   </si>
   <si>
     <t xml:space="preserve">20.7570762634277</t>
   </si>
   <si>
-    <t xml:space="preserve">21.1441516876221</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.8538455963135</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.8054599761963</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.0796909332275</t>
+    <t xml:space="preserve">21.1441555023193</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.8538436889648</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.8054580688477</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.0796890258789</t>
   </si>
   <si>
     <t xml:space="preserve">20.4183826446533</t>
   </si>
   <si>
-    <t xml:space="preserve">20.1280727386475</t>
+    <t xml:space="preserve">20.1280708312988</t>
   </si>
   <si>
     <t xml:space="preserve">19.9829177856445</t>
   </si>
   <si>
-    <t xml:space="preserve">19.1990852355957</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.902229309082</t>
+    <t xml:space="preserve">19.1990871429443</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.9022274017334</t>
   </si>
   <si>
     <t xml:space="preserve">21.047384262085</t>
   </si>
   <si>
-    <t xml:space="preserve">20.7086906433105</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.386079788208</t>
+    <t xml:space="preserve">20.7086887359619</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.3860778808594</t>
   </si>
   <si>
     <t xml:space="preserve">21.5312328338623</t>
   </si>
   <si>
-    <t xml:space="preserve">21.3376922607422</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.7731552124023</t>
+    <t xml:space="preserve">21.3376941680908</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.773157119751</t>
   </si>
   <si>
     <t xml:space="preserve">21.5796165466309</t>
@@ -2084,34 +2084,34 @@
     <t xml:space="preserve">21.9666976928711</t>
   </si>
   <si>
-    <t xml:space="preserve">20.1764602661133</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.2248439788818</t>
+    <t xml:space="preserve">20.176456451416</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.2248420715332</t>
   </si>
   <si>
     <t xml:space="preserve">18.8507137298584</t>
   </si>
   <si>
-    <t xml:space="preserve">18.3088035583496</t>
+    <t xml:space="preserve">18.3088073730469</t>
   </si>
   <si>
     <t xml:space="preserve">17.7281856536865</t>
   </si>
   <si>
-    <t xml:space="preserve">16.4121208190918</t>
+    <t xml:space="preserve">16.4121189117432</t>
   </si>
   <si>
     <t xml:space="preserve">16.2959976196289</t>
   </si>
   <si>
-    <t xml:space="preserve">14.5734987258911</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.515438079834</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.5413379669189</t>
+    <t xml:space="preserve">14.5735006332397</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.5154361724854</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.5413370132446</t>
   </si>
   <si>
     <t xml:space="preserve">12.0961980819702</t>
@@ -2123,13 +2123,13 @@
     <t xml:space="preserve">12.7735843658447</t>
   </si>
   <si>
-    <t xml:space="preserve">12.9864778518677</t>
+    <t xml:space="preserve">12.986478805542</t>
   </si>
   <si>
     <t xml:space="preserve">12.0574893951416</t>
   </si>
   <si>
-    <t xml:space="preserve">13.3929109573364</t>
+    <t xml:space="preserve">13.3929100036621</t>
   </si>
   <si>
     <t xml:space="preserve">13.6445121765137</t>
@@ -2147,49 +2147,49 @@
     <t xml:space="preserve">14.2057752609253</t>
   </si>
   <si>
-    <t xml:space="preserve">14.8251008987427</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.1864194869995</t>
+    <t xml:space="preserve">14.825098991394</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.1864204406738</t>
   </si>
   <si>
     <t xml:space="preserve">15.5024871826172</t>
   </si>
   <si>
-    <t xml:space="preserve">16.9733867645264</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.2766456604004</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.3153514862061</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5605487823486</t>
+    <t xml:space="preserve">16.9733848571777</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.2766418457031</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.3153533935547</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5605497360229</t>
   </si>
   <si>
     <t xml:space="preserve">16.1605205535889</t>
   </si>
   <si>
-    <t xml:space="preserve">16.2379360198975</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.1411666870117</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.7024307250977</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.321756362915</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.8185520172119</t>
+    <t xml:space="preserve">16.2379379272461</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.1411685943604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.702428817749</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.3217544555664</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.8185539245605</t>
   </si>
   <si>
     <t xml:space="preserve">17.0314464569092</t>
   </si>
   <si>
-    <t xml:space="preserve">17.1669235229492</t>
+    <t xml:space="preserve">17.1669216156006</t>
   </si>
   <si>
     <t xml:space="preserve">18.3668670654297</t>
@@ -2198,16 +2198,16 @@
     <t xml:space="preserve">18.7539443969727</t>
   </si>
   <si>
-    <t xml:space="preserve">18.1891860961914</t>
+    <t xml:space="preserve">18.1891841888428</t>
   </si>
   <si>
     <t xml:space="preserve">17.8775939941406</t>
   </si>
   <si>
-    <t xml:space="preserve">17.5660018920898</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.5465259552002</t>
+    <t xml:space="preserve">17.5659999847412</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.5465278625488</t>
   </si>
   <si>
     <t xml:space="preserve">17.3128337860107</t>
@@ -2225,7 +2225,7 @@
     <t xml:space="preserve">17.2738838195801</t>
   </si>
   <si>
-    <t xml:space="preserve">17.7607460021973</t>
+    <t xml:space="preserve">17.7607479095459</t>
   </si>
   <si>
     <t xml:space="preserve">17.6049499511719</t>
@@ -2234,19 +2234,19 @@
     <t xml:space="preserve">17.8386421203613</t>
   </si>
   <si>
-    <t xml:space="preserve">18.4034042358398</t>
+    <t xml:space="preserve">18.4034023284912</t>
   </si>
   <si>
     <t xml:space="preserve">18.052864074707</t>
   </si>
   <si>
-    <t xml:space="preserve">18.1697101593018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.5007781982422</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.5202503204346</t>
+    <t xml:space="preserve">18.1697082519531</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.5007762908936</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.5202522277832</t>
   </si>
   <si>
     <t xml:space="preserve">18.0139141082764</t>
@@ -2258,7 +2258,7 @@
     <t xml:space="preserve">18.3644561767578</t>
   </si>
   <si>
-    <t xml:space="preserve">18.6955223083496</t>
+    <t xml:space="preserve">18.6955242156982</t>
   </si>
   <si>
     <t xml:space="preserve">18.5592002868652</t>
@@ -2267,13 +2267,13 @@
     <t xml:space="preserve">18.2281341552734</t>
   </si>
   <si>
-    <t xml:space="preserve">18.1502361297607</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.9486904144287</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.8902645111084</t>
+    <t xml:space="preserve">18.1502342224121</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.9486885070801</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.890266418457</t>
   </si>
   <si>
     <t xml:space="preserve">18.7928943634033</t>
@@ -2282,19 +2282,19 @@
     <t xml:space="preserve">19.0265884399414</t>
   </si>
   <si>
-    <t xml:space="preserve">19.1629104614258</t>
+    <t xml:space="preserve">19.1629085540771</t>
   </si>
   <si>
     <t xml:space="preserve">19.7179336547852</t>
   </si>
   <si>
-    <t xml:space="preserve">19.4745025634766</t>
+    <t xml:space="preserve">19.4745006561279</t>
   </si>
   <si>
     <t xml:space="preserve">19.0655364990234</t>
   </si>
   <si>
-    <t xml:space="preserve">19.2213306427002</t>
+    <t xml:space="preserve">19.2213344573975</t>
   </si>
   <si>
     <t xml:space="preserve">18.5786743164062</t>
@@ -2306,7 +2306,7 @@
     <t xml:space="preserve">19.6205596923828</t>
   </si>
   <si>
-    <t xml:space="preserve">19.7666187286377</t>
+    <t xml:space="preserve">19.7666206359863</t>
   </si>
   <si>
     <t xml:space="preserve">20.204797744751</t>
@@ -2324,10 +2324,10 @@
     <t xml:space="preserve">21.1785202026367</t>
   </si>
   <si>
-    <t xml:space="preserve">21.4219532012939</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.8601303100586</t>
+    <t xml:space="preserve">21.4219512939453</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.86012840271</t>
   </si>
   <si>
     <t xml:space="preserve">21.3245792388916</t>
@@ -2339,22 +2339,22 @@
     <t xml:space="preserve">22.0061874389648</t>
   </si>
   <si>
-    <t xml:space="preserve">21.6653842926025</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.4706382751465</t>
+    <t xml:space="preserve">21.6653861999512</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.4706363677979</t>
   </si>
   <si>
     <t xml:space="preserve">21.9088134765625</t>
   </si>
   <si>
-    <t xml:space="preserve">22.590425491333</t>
+    <t xml:space="preserve">22.5904235839844</t>
   </si>
   <si>
     <t xml:space="preserve">23.0772857666016</t>
   </si>
   <si>
-    <t xml:space="preserve">22.9312267303467</t>
+    <t xml:space="preserve">22.931224822998</t>
   </si>
   <si>
     <t xml:space="preserve">23.466775894165</t>
@@ -2366,31 +2366,31 @@
     <t xml:space="preserve">24.245756149292</t>
   </si>
   <si>
-    <t xml:space="preserve">24.8786773681641</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.6352424621582</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.1970691680908</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.9049510955811</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.0996971130371</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.807580947876</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.8825397491455</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.1746559143066</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.6128330230713</t>
+    <t xml:space="preserve">24.8786754608154</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.6352443695068</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.1970672607422</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.9049491882324</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.0996990203857</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.8075790405273</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.8825416564941</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.1746578216553</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.6128349304199</t>
   </si>
   <si>
     <t xml:space="preserve">23.2233448028564</t>
@@ -2402,64 +2402,64 @@
     <t xml:space="preserve">22.6877937316895</t>
   </si>
   <si>
-    <t xml:space="preserve">21.9575023651123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.2009296417236</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.3732681274414</t>
+    <t xml:space="preserve">21.9575004577637</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.2009334564209</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.3732662200928</t>
   </si>
   <si>
     <t xml:space="preserve">21.7627563476562</t>
   </si>
   <si>
-    <t xml:space="preserve">20.5942859649658</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.5193271636963</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.2272052764893</t>
+    <t xml:space="preserve">20.5942878723145</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.5193252563477</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.2272071838379</t>
   </si>
   <si>
     <t xml:space="preserve">21.6166973114014</t>
   </si>
   <si>
-    <t xml:space="preserve">22.3469905853271</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.1035614013672</t>
+    <t xml:space="preserve">22.3469924926758</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.1035633087158</t>
   </si>
   <si>
     <t xml:space="preserve">21.081148147583</t>
   </si>
   <si>
-    <t xml:space="preserve">22.2496166229248</t>
+    <t xml:space="preserve">22.2496185302734</t>
   </si>
   <si>
     <t xml:space="preserve">22.493049621582</t>
   </si>
   <si>
-    <t xml:space="preserve">22.0548725128174</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.9799118041992</t>
+    <t xml:space="preserve">22.0548706054688</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.9799098968506</t>
   </si>
   <si>
     <t xml:space="preserve">22.7851676940918</t>
   </si>
   <si>
-    <t xml:space="preserve">24.5865573883057</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.4891834259033</t>
+    <t xml:space="preserve">24.5865592956543</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.489185333252</t>
   </si>
   <si>
     <t xml:space="preserve">24.3918132781982</t>
   </si>
   <si>
-    <t xml:space="preserve">25.901086807251</t>
+    <t xml:space="preserve">25.9010887145996</t>
   </si>
   <si>
     <t xml:space="preserve">26.3392639160156</t>
@@ -2477,7 +2477,7 @@
     <t xml:space="preserve">26.534008026123</t>
   </si>
   <si>
-    <t xml:space="preserve">27.848539352417</t>
+    <t xml:space="preserve">27.8485374450684</t>
   </si>
   <si>
     <t xml:space="preserve">28.8222637176514</t>
@@ -2486,52 +2486,52 @@
     <t xml:space="preserve">30.0881042480469</t>
   </si>
   <si>
-    <t xml:space="preserve">29.1143779754639</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.9420471191406</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.5749683380127</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.1105175018311</t>
+    <t xml:space="preserve">29.1143817901611</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.942045211792</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.5749702453613</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.1105194091797</t>
   </si>
   <si>
     <t xml:space="preserve">31.9381828308105</t>
   </si>
   <si>
-    <t xml:space="preserve">32.2303009033203</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.7434349060059</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.2789878845215</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.4513187408447</t>
+    <t xml:space="preserve">32.230297088623</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.7434368133545</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.2789916992188</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.4513168334961</t>
   </si>
   <si>
     <t xml:space="preserve">32.3763580322266</t>
   </si>
   <si>
-    <t xml:space="preserve">32.5224189758301</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.4961471557617</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.3987693786621</t>
+    <t xml:space="preserve">32.5224227905273</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.4961433410645</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.3987731933594</t>
   </si>
   <si>
     <t xml:space="preserve">33.00927734375</t>
   </si>
   <si>
-    <t xml:space="preserve">33.6908912658691</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.9343147277832</t>
+    <t xml:space="preserve">33.6908874511719</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.9343185424805</t>
   </si>
   <si>
     <t xml:space="preserve">34.3238105773926</t>
@@ -2543,22 +2543,22 @@
     <t xml:space="preserve">34.8106727600098</t>
   </si>
   <si>
-    <t xml:space="preserve">35.5896530151367</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.6870269775391</t>
+    <t xml:space="preserve">35.5896492004395</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.6870231628418</t>
   </si>
   <si>
     <t xml:space="preserve">37.0502395629883</t>
   </si>
   <si>
-    <t xml:space="preserve">37.3910446166992</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36.4173202514648</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.5185508728027</t>
+    <t xml:space="preserve">37.3910484313965</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36.4173240661621</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.5185546875</t>
   </si>
   <si>
     <t xml:space="preserve">32.7658538818359</t>
@@ -2567,22 +2567,22 @@
     <t xml:space="preserve">32.863224029541</t>
   </si>
   <si>
-    <t xml:space="preserve">32.9605903625488</t>
+    <t xml:space="preserve">32.9605941772461</t>
   </si>
   <si>
     <t xml:space="preserve">32.9119071960449</t>
   </si>
   <si>
-    <t xml:space="preserve">32.1329307556152</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.5262794494629</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.0131454467773</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.7697143554688</t>
+    <t xml:space="preserve">32.132926940918</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.5262813568115</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.013147354126</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.7697124481201</t>
   </si>
   <si>
     <t xml:space="preserve">30.6723403930664</t>
@@ -2591,28 +2591,28 @@
     <t xml:space="preserve">31.3052635192871</t>
   </si>
   <si>
-    <t xml:space="preserve">33.6422004699707</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.080379486084</t>
+    <t xml:space="preserve">33.642204284668</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.0803756713867</t>
   </si>
   <si>
     <t xml:space="preserve">35.4922828674316</t>
   </si>
   <si>
-    <t xml:space="preserve">35.8817672729492</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.9304618835449</t>
-  </si>
-  <si>
-    <t xml:space="preserve">37.488410949707</t>
-  </si>
-  <si>
-    <t xml:space="preserve">37.244987487793</t>
-  </si>
-  <si>
-    <t xml:space="preserve">37.1963005065918</t>
+    <t xml:space="preserve">35.8817710876465</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.9304542541504</t>
+  </si>
+  <si>
+    <t xml:space="preserve">37.4884147644043</t>
+  </si>
+  <si>
+    <t xml:space="preserve">37.2449836730957</t>
+  </si>
+  <si>
+    <t xml:space="preserve">37.1962966918945</t>
   </si>
   <si>
     <t xml:space="preserve">36.1738891601562</t>
@@ -2621,7 +2621,7 @@
     <t xml:space="preserve">36.6607513427734</t>
   </si>
   <si>
-    <t xml:space="preserve">35.2975387573242</t>
+    <t xml:space="preserve">35.297534942627</t>
   </si>
   <si>
     <t xml:space="preserve">35.2001647949219</t>
@@ -2630,10 +2630,10 @@
     <t xml:space="preserve">36.904182434082</t>
   </si>
   <si>
-    <t xml:space="preserve">37.2936706542969</t>
-  </si>
-  <si>
-    <t xml:space="preserve">37.8779106140137</t>
+    <t xml:space="preserve">37.2936744689941</t>
+  </si>
+  <si>
+    <t xml:space="preserve">37.8779067993164</t>
   </si>
   <si>
     <t xml:space="preserve">38.2673988342285</t>
@@ -2642,7 +2642,7 @@
     <t xml:space="preserve">38.851634979248</t>
   </si>
   <si>
-    <t xml:space="preserve">38.9976844787598</t>
+    <t xml:space="preserve">38.9976921081543</t>
   </si>
   <si>
     <t xml:space="preserve">40.0687942504883</t>
@@ -2651,16 +2651,16 @@
     <t xml:space="preserve">39.9227256774902</t>
   </si>
   <si>
-    <t xml:space="preserve">38.8029441833496</t>
-  </si>
-  <si>
-    <t xml:space="preserve">38.9490051269531</t>
-  </si>
-  <si>
-    <t xml:space="preserve">39.8740425109863</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40.7017135620117</t>
+    <t xml:space="preserve">38.8029479980469</t>
+  </si>
+  <si>
+    <t xml:space="preserve">38.9490013122559</t>
+  </si>
+  <si>
+    <t xml:space="preserve">39.8740463256836</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40.7017097473145</t>
   </si>
   <si>
     <t xml:space="preserve">40.409595489502</t>
@@ -2672,16 +2672,16 @@
     <t xml:space="preserve">40.5069618225098</t>
   </si>
   <si>
-    <t xml:space="preserve">44.3531799316406</t>
+    <t xml:space="preserve">44.3531761169434</t>
   </si>
   <si>
     <t xml:space="preserve">42.162296295166</t>
   </si>
   <si>
-    <t xml:space="preserve">40.3122177124023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41.431999206543</t>
+    <t xml:space="preserve">40.3122215270996</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41.4320030212402</t>
   </si>
   <si>
     <t xml:space="preserve">42.1136131286621</t>
@@ -2693,7 +2693,7 @@
     <t xml:space="preserve">42.3083572387695</t>
   </si>
   <si>
-    <t xml:space="preserve">42.8925857543945</t>
+    <t xml:space="preserve">42.8925895690918</t>
   </si>
   <si>
     <t xml:space="preserve">41.8701782226562</t>
@@ -2702,10 +2702,10 @@
     <t xml:space="preserve">42.6491584777832</t>
   </si>
   <si>
-    <t xml:space="preserve">43.7689399719238</t>
-  </si>
-  <si>
-    <t xml:space="preserve">44.4018592834473</t>
+    <t xml:space="preserve">43.7689437866211</t>
+  </si>
+  <si>
+    <t xml:space="preserve">44.4018669128418</t>
   </si>
   <si>
     <t xml:space="preserve">44.9860992431641</t>
@@ -2714,10 +2714,10 @@
     <t xml:space="preserve">45.0347862243652</t>
   </si>
   <si>
-    <t xml:space="preserve">45.9598236083984</t>
-  </si>
-  <si>
-    <t xml:space="preserve">44.6939811706543</t>
+    <t xml:space="preserve">45.9598197937012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">44.6939849853516</t>
   </si>
   <si>
     <t xml:space="preserve">45.2782173156738</t>
@@ -2726,7 +2726,7 @@
     <t xml:space="preserve">46.3006286621094</t>
   </si>
   <si>
-    <t xml:space="preserve">45.765079498291</t>
+    <t xml:space="preserve">45.7650833129883</t>
   </si>
   <si>
     <t xml:space="preserve">45.2295341491699</t>
@@ -2744,10 +2744,10 @@
     <t xml:space="preserve">44.7913513183594</t>
   </si>
   <si>
-    <t xml:space="preserve">44.5479278564453</t>
-  </si>
-  <si>
-    <t xml:space="preserve">44.1097450256348</t>
+    <t xml:space="preserve">44.547924041748</t>
+  </si>
+  <si>
+    <t xml:space="preserve">44.1097412109375</t>
   </si>
   <si>
     <t xml:space="preserve">43.4281387329102</t>
@@ -2762,13 +2762,13 @@
     <t xml:space="preserve">43.1360206604004</t>
   </si>
   <si>
-    <t xml:space="preserve">43.3307685852051</t>
+    <t xml:space="preserve">43.3307723999023</t>
   </si>
   <si>
     <t xml:space="preserve">44.3044929504395</t>
   </si>
   <si>
-    <t xml:space="preserve">43.6715698242188</t>
+    <t xml:space="preserve">43.671573638916</t>
   </si>
   <si>
     <t xml:space="preserve">42.6978454589844</t>
@@ -2783,7 +2783,7 @@
     <t xml:space="preserve">40.0454292297363</t>
   </si>
   <si>
-    <t xml:space="preserve">39.7014808654785</t>
+    <t xml:space="preserve">39.7014846801758</t>
   </si>
   <si>
     <t xml:space="preserve">40.3402404785156</t>
@@ -2804,13 +2804,13 @@
     <t xml:space="preserve">40.4385147094727</t>
   </si>
   <si>
-    <t xml:space="preserve">40.1436996459961</t>
+    <t xml:space="preserve">40.1436958312988</t>
   </si>
   <si>
     <t xml:space="preserve">39.898021697998</t>
   </si>
   <si>
-    <t xml:space="preserve">39.8488883972168</t>
+    <t xml:space="preserve">39.8488845825195</t>
   </si>
   <si>
     <t xml:space="preserve">39.9962921142578</t>
@@ -2825,7 +2825,7 @@
     <t xml:space="preserve">40.1928367614746</t>
   </si>
   <si>
-    <t xml:space="preserve">38.1291389465332</t>
+    <t xml:space="preserve">38.1291427612305</t>
   </si>
   <si>
     <t xml:space="preserve">36.949893951416</t>
@@ -2834,10 +2834,10 @@
     <t xml:space="preserve">37.8343276977539</t>
   </si>
   <si>
-    <t xml:space="preserve">38.32568359375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">39.7997512817383</t>
+    <t xml:space="preserve">38.3256874084473</t>
+  </si>
+  <si>
+    <t xml:space="preserve">39.799747467041</t>
   </si>
   <si>
     <t xml:space="preserve">41.9617118835449</t>
@@ -2855,7 +2855,7 @@
     <t xml:space="preserve">40.6350517272949</t>
   </si>
   <si>
-    <t xml:space="preserve">40.6841888427734</t>
+    <t xml:space="preserve">40.6841926574707</t>
   </si>
   <si>
     <t xml:space="preserve">42.453067779541</t>
@@ -2864,34 +2864,34 @@
     <t xml:space="preserve">42.3056602478027</t>
   </si>
   <si>
-    <t xml:space="preserve">42.2073936462402</t>
+    <t xml:space="preserve">42.207389831543</t>
   </si>
   <si>
     <t xml:space="preserve">41.6669006347656</t>
   </si>
   <si>
-    <t xml:space="preserve">42.9935569763184</t>
+    <t xml:space="preserve">42.9935607910156</t>
   </si>
   <si>
     <t xml:space="preserve">45.6468772888184</t>
   </si>
   <si>
-    <t xml:space="preserve">45.6960105895996</t>
+    <t xml:space="preserve">45.6960067749023</t>
   </si>
   <si>
     <t xml:space="preserve">46.482177734375</t>
   </si>
   <si>
-    <t xml:space="preserve">48.1527862548828</t>
-  </si>
-  <si>
-    <t xml:space="preserve">47.6122970581055</t>
-  </si>
-  <si>
-    <t xml:space="preserve">48.1036491394043</t>
-  </si>
-  <si>
-    <t xml:space="preserve">48.8406829833984</t>
+    <t xml:space="preserve">48.1527824401855</t>
+  </si>
+  <si>
+    <t xml:space="preserve">47.6122932434082</t>
+  </si>
+  <si>
+    <t xml:space="preserve">48.1036529541016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">48.8406791687012</t>
   </si>
   <si>
     <t xml:space="preserve">48.8898162841797</t>
@@ -2900,16 +2900,16 @@
     <t xml:space="preserve">49.1354942321777</t>
   </si>
   <si>
-    <t xml:space="preserve">48.4967308044434</t>
-  </si>
-  <si>
-    <t xml:space="preserve">50.0199317932129</t>
+    <t xml:space="preserve">48.4967269897461</t>
+  </si>
+  <si>
+    <t xml:space="preserve">50.0199356079102</t>
   </si>
   <si>
     <t xml:space="preserve">50.2164764404297</t>
   </si>
   <si>
-    <t xml:space="preserve">50.1182098388672</t>
+    <t xml:space="preserve">50.1182060241699</t>
   </si>
   <si>
     <t xml:space="preserve">50.3147468566895</t>
@@ -2918,7 +2918,7 @@
     <t xml:space="preserve">51.0026435852051</t>
   </si>
   <si>
-    <t xml:space="preserve">51.6905364990234</t>
+    <t xml:space="preserve">51.6905403137207</t>
   </si>
   <si>
     <t xml:space="preserve">50.609561920166</t>
@@ -2927,10 +2927,10 @@
     <t xml:space="preserve">50.9043731689453</t>
   </si>
   <si>
-    <t xml:space="preserve">50.8061027526855</t>
-  </si>
-  <si>
-    <t xml:space="preserve">51.5922698974609</t>
+    <t xml:space="preserve">50.8060989379883</t>
+  </si>
+  <si>
+    <t xml:space="preserve">51.5922737121582</t>
   </si>
   <si>
     <t xml:space="preserve">50.5112915039062</t>
@@ -2945,7 +2945,7 @@
     <t xml:space="preserve">52.1818923950195</t>
   </si>
   <si>
-    <t xml:space="preserve">52.2801628112793</t>
+    <t xml:space="preserve">52.2801666259766</t>
   </si>
   <si>
     <t xml:space="preserve">51.1991844177246</t>
@@ -2954,7 +2954,7 @@
     <t xml:space="preserve">45.5485992431641</t>
   </si>
   <si>
-    <t xml:space="preserve">44.8115692138672</t>
+    <t xml:space="preserve">44.8115730285645</t>
   </si>
   <si>
     <t xml:space="preserve">43.7797241210938</t>
@@ -2966,13 +2966,13 @@
     <t xml:space="preserve">44.5658912658691</t>
   </si>
   <si>
-    <t xml:space="preserve">45.2046508789062</t>
-  </si>
-  <si>
-    <t xml:space="preserve">44.3202171325684</t>
-  </si>
-  <si>
-    <t xml:space="preserve">44.074535369873</t>
+    <t xml:space="preserve">45.2046546936035</t>
+  </si>
+  <si>
+    <t xml:space="preserve">44.3202133178711</t>
+  </si>
+  <si>
+    <t xml:space="preserve">44.0745391845703</t>
   </si>
   <si>
     <t xml:space="preserve">44.7132987976074</t>
@@ -2981,7 +2981,7 @@
     <t xml:space="preserve">44.2219429016113</t>
   </si>
   <si>
-    <t xml:space="preserve">44.4676246643066</t>
+    <t xml:space="preserve">44.4676208496094</t>
   </si>
   <si>
     <t xml:space="preserve">41.4703598022461</t>
@@ -2996,7 +2996,7 @@
     <t xml:space="preserve">42.5513381958008</t>
   </si>
   <si>
-    <t xml:space="preserve">43.3375091552734</t>
+    <t xml:space="preserve">43.3375053405762</t>
   </si>
   <si>
     <t xml:space="preserve">43.534049987793</t>
@@ -3011,7 +3011,7 @@
     <t xml:space="preserve">45.7451438903809</t>
   </si>
   <si>
-    <t xml:space="preserve">46.3839073181152</t>
+    <t xml:space="preserve">46.383903503418</t>
   </si>
   <si>
     <t xml:space="preserve">45.9416885375977</t>
@@ -3026,7 +3026,7 @@
     <t xml:space="preserve">41.5194931030273</t>
   </si>
   <si>
-    <t xml:space="preserve">42.9444198608398</t>
+    <t xml:space="preserve">42.9444236755371</t>
   </si>
   <si>
     <t xml:space="preserve">43.3866424560547</t>
@@ -3044,28 +3044,28 @@
     <t xml:space="preserve">39.1118507385254</t>
   </si>
   <si>
-    <t xml:space="preserve">38.4730911254883</t>
+    <t xml:space="preserve">38.4730949401855</t>
   </si>
   <si>
     <t xml:space="preserve">39.3083953857422</t>
   </si>
   <si>
-    <t xml:space="preserve">40.0945587158203</t>
+    <t xml:space="preserve">40.0945625305176</t>
   </si>
   <si>
     <t xml:space="preserve">40.7824630737305</t>
   </si>
   <si>
-    <t xml:space="preserve">42.1091194152832</t>
+    <t xml:space="preserve">42.1091156005859</t>
   </si>
   <si>
     <t xml:space="preserve">41.3720855712891</t>
   </si>
   <si>
-    <t xml:space="preserve">41.0772743225098</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41.9125747680664</t>
+    <t xml:space="preserve">41.0772705078125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41.9125785827637</t>
   </si>
   <si>
     <t xml:space="preserve">41.8634414672852</t>
@@ -3074,22 +3074,22 @@
     <t xml:space="preserve">42.7478790283203</t>
   </si>
   <si>
-    <t xml:space="preserve">43.2392349243164</t>
-  </si>
-  <si>
-    <t xml:space="preserve">42.0599822998047</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41.6177597045898</t>
+    <t xml:space="preserve">43.2392311096191</t>
+  </si>
+  <si>
+    <t xml:space="preserve">42.0599784851074</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41.6177635192871</t>
   </si>
   <si>
     <t xml:space="preserve">40.4876480102539</t>
   </si>
   <si>
-    <t xml:space="preserve">40.8807334899902</t>
-  </si>
-  <si>
-    <t xml:space="preserve">43.1409683227539</t>
+    <t xml:space="preserve">40.880729675293</t>
+  </si>
+  <si>
+    <t xml:space="preserve">43.1409645080566</t>
   </si>
   <si>
     <t xml:space="preserve">43.7305908203125</t>
@@ -3098,22 +3098,22 @@
     <t xml:space="preserve">44.2710800170898</t>
   </si>
   <si>
-    <t xml:space="preserve">41.1755485534668</t>
-  </si>
-  <si>
-    <t xml:space="preserve">39.3575286865234</t>
-  </si>
-  <si>
-    <t xml:space="preserve">42.8461494445801</t>
+    <t xml:space="preserve">41.1755447387695</t>
+  </si>
+  <si>
+    <t xml:space="preserve">39.3575325012207</t>
+  </si>
+  <si>
+    <t xml:space="preserve">42.8461532592773</t>
   </si>
   <si>
     <t xml:space="preserve">42.8952865600586</t>
   </si>
   <si>
-    <t xml:space="preserve">38.8170433044434</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36.6550788879395</t>
+    <t xml:space="preserve">38.8170394897461</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36.6550750732422</t>
   </si>
   <si>
     <t xml:space="preserve">38.8661766052246</t>
@@ -3125,7 +3125,7 @@
     <t xml:space="preserve">36.0163192749023</t>
   </si>
   <si>
-    <t xml:space="preserve">34.9353332519531</t>
+    <t xml:space="preserve">34.9353370666504</t>
   </si>
   <si>
     <t xml:space="preserve">35.8197746276855</t>
@@ -3149,28 +3149,28 @@
     <t xml:space="preserve">34.7387924194336</t>
   </si>
   <si>
-    <t xml:space="preserve">36.6059455871582</t>
+    <t xml:space="preserve">36.6059417724609</t>
   </si>
   <si>
     <t xml:space="preserve">35.5740966796875</t>
   </si>
   <si>
-    <t xml:space="preserve">34.149169921875</t>
+    <t xml:space="preserve">34.1491737365723</t>
   </si>
   <si>
     <t xml:space="preserve">32.3311576843262</t>
   </si>
   <si>
-    <t xml:space="preserve">31.6923942565918</t>
+    <t xml:space="preserve">31.6923961639404</t>
   </si>
   <si>
     <t xml:space="preserve">31.8398036956787</t>
   </si>
   <si>
-    <t xml:space="preserve">33.2155914306641</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.576831817627</t>
+    <t xml:space="preserve">33.2155952453613</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.5768356323242</t>
   </si>
   <si>
     <t xml:space="preserve">33.6578140258789</t>
@@ -3191,7 +3191,7 @@
     <t xml:space="preserve">31.594123840332</t>
   </si>
   <si>
-    <t xml:space="preserve">33.8052253723145</t>
+    <t xml:space="preserve">33.8052215576172</t>
   </si>
   <si>
     <t xml:space="preserve">33.1664619445801</t>
@@ -3206,7 +3206,7 @@
     <t xml:space="preserve">32.8225135803223</t>
   </si>
   <si>
-    <t xml:space="preserve">31.6432590484619</t>
+    <t xml:space="preserve">31.6432609558105</t>
   </si>
   <si>
     <t xml:space="preserve">32.8716468811035</t>
@@ -3215,22 +3215,22 @@
     <t xml:space="preserve">32.9699172973633</t>
   </si>
   <si>
-    <t xml:space="preserve">31.4074058532715</t>
+    <t xml:space="preserve">31.4074077606201</t>
   </si>
   <si>
     <t xml:space="preserve">31.2108669281006</t>
   </si>
   <si>
-    <t xml:space="preserve">31.0929393768311</t>
+    <t xml:space="preserve">31.0929412841797</t>
   </si>
   <si>
     <t xml:space="preserve">29.8350734710693</t>
   </si>
   <si>
-    <t xml:space="preserve">30.6605472564697</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.4294281005859</t>
+    <t xml:space="preserve">30.6605491638184</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.4294242858887</t>
   </si>
   <si>
     <t xml:space="preserve">32.2721939086914</t>
@@ -3245,7 +3245,7 @@
     <t xml:space="preserve">32.3704605102539</t>
   </si>
   <si>
-    <t xml:space="preserve">31.5842952728271</t>
+    <t xml:space="preserve">31.5842971801758</t>
   </si>
   <si>
     <t xml:space="preserve">31.8594532012939</t>
@@ -3257,13 +3257,13 @@
     <t xml:space="preserve">30.1495399475098</t>
   </si>
   <si>
-    <t xml:space="preserve">28.5575504302979</t>
+    <t xml:space="preserve">28.5575485229492</t>
   </si>
   <si>
     <t xml:space="preserve">28.6754760742188</t>
   </si>
   <si>
-    <t xml:space="preserve">29.3830242156982</t>
+    <t xml:space="preserve">29.3830261230469</t>
   </si>
   <si>
     <t xml:space="preserve">29.0489044189453</t>
@@ -3275,25 +3275,25 @@
     <t xml:space="preserve">29.265100479126</t>
   </si>
   <si>
-    <t xml:space="preserve">28.478931427002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.5968608856201</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.1817569732666</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.4985866546631</t>
+    <t xml:space="preserve">28.4789333343506</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.5968589782715</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.181755065918</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.4985885620117</t>
   </si>
   <si>
     <t xml:space="preserve">28.7737445831299</t>
   </si>
   <si>
-    <t xml:space="preserve">28.4003143310547</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.7344360351562</t>
+    <t xml:space="preserve">28.4003162384033</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.7344379425049</t>
   </si>
   <si>
     <t xml:space="preserve">28.2578468322754</t>
@@ -3731,9 +3731,6 @@
     <t xml:space="preserve">28.7940120697021</t>
   </si>
   <si>
-    <t xml:space="preserve">28.7344379425049</t>
-  </si>
-  <si>
     <t xml:space="preserve">29.0323066711426</t>
   </si>
   <si>
@@ -4527,6 +4524,9 @@
   </si>
   <si>
     <t xml:space="preserve">36.7000007629395</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36.5</t>
   </si>
 </sst>
 </file>
@@ -51660,7 +51660,7 @@
         <v>28.9400005340576</v>
       </c>
       <c r="G1800" t="s">
-        <v>1239</v>
+        <v>1093</v>
       </c>
       <c r="H1800" t="s">
         <v>9</v>
@@ -51686,7 +51686,7 @@
         <v>29.2399997711182</v>
       </c>
       <c r="G1801" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
       <c r="H1801" t="s">
         <v>9</v>
@@ -51712,7 +51712,7 @@
         <v>29.1399993896484</v>
       </c>
       <c r="G1802" t="s">
-        <v>1241</v>
+        <v>1240</v>
       </c>
       <c r="H1802" t="s">
         <v>9</v>
@@ -51764,7 +51764,7 @@
         <v>29.2600002288818</v>
       </c>
       <c r="G1804" t="s">
-        <v>1242</v>
+        <v>1241</v>
       </c>
       <c r="H1804" t="s">
         <v>9</v>
@@ -51790,7 +51790,7 @@
         <v>29.0799999237061</v>
       </c>
       <c r="G1805" t="s">
-        <v>1243</v>
+        <v>1242</v>
       </c>
       <c r="H1805" t="s">
         <v>9</v>
@@ -51816,7 +51816,7 @@
         <v>30.5799999237061</v>
       </c>
       <c r="G1806" t="s">
-        <v>1244</v>
+        <v>1243</v>
       </c>
       <c r="H1806" t="s">
         <v>9</v>
@@ -51842,7 +51842,7 @@
         <v>30.2199993133545</v>
       </c>
       <c r="G1807" t="s">
-        <v>1245</v>
+        <v>1244</v>
       </c>
       <c r="H1807" t="s">
         <v>9</v>
@@ -51868,7 +51868,7 @@
         <v>30.2800006866455</v>
       </c>
       <c r="G1808" t="s">
-        <v>1246</v>
+        <v>1245</v>
       </c>
       <c r="H1808" t="s">
         <v>9</v>
@@ -51894,7 +51894,7 @@
         <v>30</v>
       </c>
       <c r="G1809" t="s">
-        <v>1247</v>
+        <v>1246</v>
       </c>
       <c r="H1809" t="s">
         <v>9</v>
@@ -51920,7 +51920,7 @@
         <v>30</v>
       </c>
       <c r="G1810" t="s">
-        <v>1247</v>
+        <v>1246</v>
       </c>
       <c r="H1810" t="s">
         <v>9</v>
@@ -51946,7 +51946,7 @@
         <v>29.8799991607666</v>
       </c>
       <c r="G1811" t="s">
-        <v>1248</v>
+        <v>1247</v>
       </c>
       <c r="H1811" t="s">
         <v>9</v>
@@ -51998,7 +51998,7 @@
         <v>29.6200008392334</v>
       </c>
       <c r="G1813" t="s">
-        <v>1249</v>
+        <v>1248</v>
       </c>
       <c r="H1813" t="s">
         <v>9</v>
@@ -52024,7 +52024,7 @@
         <v>29.8799991607666</v>
       </c>
       <c r="G1814" t="s">
-        <v>1248</v>
+        <v>1247</v>
       </c>
       <c r="H1814" t="s">
         <v>9</v>
@@ -52050,7 +52050,7 @@
         <v>29.7399997711182</v>
       </c>
       <c r="G1815" t="s">
-        <v>1250</v>
+        <v>1249</v>
       </c>
       <c r="H1815" t="s">
         <v>9</v>
@@ -52076,7 +52076,7 @@
         <v>29.7000007629395</v>
       </c>
       <c r="G1816" t="s">
-        <v>1251</v>
+        <v>1250</v>
       </c>
       <c r="H1816" t="s">
         <v>9</v>
@@ -52102,7 +52102,7 @@
         <v>29.5400009155273</v>
       </c>
       <c r="G1817" t="s">
-        <v>1252</v>
+        <v>1251</v>
       </c>
       <c r="H1817" t="s">
         <v>9</v>
@@ -52128,7 +52128,7 @@
         <v>29.2199993133545</v>
       </c>
       <c r="G1818" t="s">
-        <v>1253</v>
+        <v>1252</v>
       </c>
       <c r="H1818" t="s">
         <v>9</v>
@@ -52180,7 +52180,7 @@
         <v>28.5400009155273</v>
       </c>
       <c r="G1820" t="s">
-        <v>1254</v>
+        <v>1253</v>
       </c>
       <c r="H1820" t="s">
         <v>9</v>
@@ -52232,7 +52232,7 @@
         <v>28.0799999237061</v>
       </c>
       <c r="G1822" t="s">
-        <v>1255</v>
+        <v>1254</v>
       </c>
       <c r="H1822" t="s">
         <v>9</v>
@@ -52258,7 +52258,7 @@
         <v>28.5799999237061</v>
       </c>
       <c r="G1823" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
       <c r="H1823" t="s">
         <v>9</v>
@@ -52284,7 +52284,7 @@
         <v>28.7600002288818</v>
       </c>
       <c r="G1824" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="H1824" t="s">
         <v>9</v>
@@ -52310,7 +52310,7 @@
         <v>28.7600002288818</v>
       </c>
       <c r="G1825" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="H1825" t="s">
         <v>9</v>
@@ -52336,7 +52336,7 @@
         <v>28.3199996948242</v>
       </c>
       <c r="G1826" t="s">
-        <v>1258</v>
+        <v>1257</v>
       </c>
       <c r="H1826" t="s">
         <v>9</v>
@@ -52362,7 +52362,7 @@
         <v>28.3199996948242</v>
       </c>
       <c r="G1827" t="s">
-        <v>1258</v>
+        <v>1257</v>
       </c>
       <c r="H1827" t="s">
         <v>9</v>
@@ -52388,7 +52388,7 @@
         <v>27.9200000762939</v>
       </c>
       <c r="G1828" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
       <c r="H1828" t="s">
         <v>9</v>
@@ -52440,7 +52440,7 @@
         <v>27.9799995422363</v>
       </c>
       <c r="G1830" t="s">
-        <v>1260</v>
+        <v>1259</v>
       </c>
       <c r="H1830" t="s">
         <v>9</v>
@@ -52466,7 +52466,7 @@
         <v>27.2800006866455</v>
       </c>
       <c r="G1831" t="s">
-        <v>1261</v>
+        <v>1260</v>
       </c>
       <c r="H1831" t="s">
         <v>9</v>
@@ -52492,7 +52492,7 @@
         <v>27.0400009155273</v>
       </c>
       <c r="G1832" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
       <c r="H1832" t="s">
         <v>9</v>
@@ -52544,7 +52544,7 @@
         <v>25.9200000762939</v>
       </c>
       <c r="G1834" t="s">
-        <v>1263</v>
+        <v>1262</v>
       </c>
       <c r="H1834" t="s">
         <v>9</v>
@@ -52570,7 +52570,7 @@
         <v>24.7199993133545</v>
       </c>
       <c r="G1835" t="s">
-        <v>1264</v>
+        <v>1263</v>
       </c>
       <c r="H1835" t="s">
         <v>9</v>
@@ -52596,7 +52596,7 @@
         <v>23.5400009155273</v>
       </c>
       <c r="G1836" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
       <c r="H1836" t="s">
         <v>9</v>
@@ -52622,7 +52622,7 @@
         <v>22.6000003814697</v>
       </c>
       <c r="G1837" t="s">
-        <v>1266</v>
+        <v>1265</v>
       </c>
       <c r="H1837" t="s">
         <v>9</v>
@@ -52674,7 +52674,7 @@
         <v>24.5200004577637</v>
       </c>
       <c r="G1839" t="s">
-        <v>1267</v>
+        <v>1266</v>
       </c>
       <c r="H1839" t="s">
         <v>9</v>
@@ -52726,7 +52726,7 @@
         <v>24.7999992370605</v>
       </c>
       <c r="G1841" t="s">
-        <v>1268</v>
+        <v>1267</v>
       </c>
       <c r="H1841" t="s">
         <v>9</v>
@@ -52752,7 +52752,7 @@
         <v>24.7199993133545</v>
       </c>
       <c r="G1842" t="s">
-        <v>1264</v>
+        <v>1263</v>
       </c>
       <c r="H1842" t="s">
         <v>9</v>
@@ -52778,7 +52778,7 @@
         <v>25.0799999237061</v>
       </c>
       <c r="G1843" t="s">
-        <v>1269</v>
+        <v>1268</v>
       </c>
       <c r="H1843" t="s">
         <v>9</v>
@@ -52804,7 +52804,7 @@
         <v>25.3400001525879</v>
       </c>
       <c r="G1844" t="s">
-        <v>1270</v>
+        <v>1269</v>
       </c>
       <c r="H1844" t="s">
         <v>9</v>
@@ -52882,7 +52882,7 @@
         <v>26.1000003814697</v>
       </c>
       <c r="G1847" t="s">
-        <v>1271</v>
+        <v>1270</v>
       </c>
       <c r="H1847" t="s">
         <v>9</v>
@@ -52908,7 +52908,7 @@
         <v>26.6499996185303</v>
       </c>
       <c r="G1848" t="s">
-        <v>1272</v>
+        <v>1271</v>
       </c>
       <c r="H1848" t="s">
         <v>9</v>
@@ -52934,7 +52934,7 @@
         <v>27.3500003814697</v>
       </c>
       <c r="G1849" t="s">
-        <v>1273</v>
+        <v>1272</v>
       </c>
       <c r="H1849" t="s">
         <v>9</v>
@@ -52986,7 +52986,7 @@
         <v>27.1000003814697</v>
       </c>
       <c r="G1851" t="s">
-        <v>1274</v>
+        <v>1273</v>
       </c>
       <c r="H1851" t="s">
         <v>9</v>
@@ -53012,7 +53012,7 @@
         <v>27.5499992370605</v>
       </c>
       <c r="G1852" t="s">
-        <v>1275</v>
+        <v>1274</v>
       </c>
       <c r="H1852" t="s">
         <v>9</v>
@@ -53038,7 +53038,7 @@
         <v>27.75</v>
       </c>
       <c r="G1853" t="s">
-        <v>1276</v>
+        <v>1275</v>
       </c>
       <c r="H1853" t="s">
         <v>9</v>
@@ -53064,7 +53064,7 @@
         <v>28.3500003814697</v>
       </c>
       <c r="G1854" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="H1854" t="s">
         <v>9</v>
@@ -53090,7 +53090,7 @@
         <v>28.0499992370605</v>
       </c>
       <c r="G1855" t="s">
-        <v>1278</v>
+        <v>1277</v>
       </c>
       <c r="H1855" t="s">
         <v>9</v>
@@ -53116,7 +53116,7 @@
         <v>27.9500007629395</v>
       </c>
       <c r="G1856" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
       <c r="H1856" t="s">
         <v>9</v>
@@ -53142,7 +53142,7 @@
         <v>27.5499992370605</v>
       </c>
       <c r="G1857" t="s">
-        <v>1275</v>
+        <v>1274</v>
       </c>
       <c r="H1857" t="s">
         <v>9</v>
@@ -53168,7 +53168,7 @@
         <v>27.7000007629395</v>
       </c>
       <c r="G1858" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
       <c r="H1858" t="s">
         <v>9</v>
@@ -53194,7 +53194,7 @@
         <v>27.4500007629395</v>
       </c>
       <c r="G1859" t="s">
-        <v>1281</v>
+        <v>1280</v>
       </c>
       <c r="H1859" t="s">
         <v>9</v>
@@ -53220,7 +53220,7 @@
         <v>27.75</v>
       </c>
       <c r="G1860" t="s">
-        <v>1276</v>
+        <v>1275</v>
       </c>
       <c r="H1860" t="s">
         <v>9</v>
@@ -53246,7 +53246,7 @@
         <v>27.75</v>
       </c>
       <c r="G1861" t="s">
-        <v>1276</v>
+        <v>1275</v>
       </c>
       <c r="H1861" t="s">
         <v>9</v>
@@ -53272,7 +53272,7 @@
         <v>27.75</v>
       </c>
       <c r="G1862" t="s">
-        <v>1276</v>
+        <v>1275</v>
       </c>
       <c r="H1862" t="s">
         <v>9</v>
@@ -53298,7 +53298,7 @@
         <v>27.2000007629395</v>
       </c>
       <c r="G1863" t="s">
-        <v>1282</v>
+        <v>1281</v>
       </c>
       <c r="H1863" t="s">
         <v>9</v>
@@ -53324,7 +53324,7 @@
         <v>27.5499992370605</v>
       </c>
       <c r="G1864" t="s">
-        <v>1275</v>
+        <v>1274</v>
       </c>
       <c r="H1864" t="s">
         <v>9</v>
@@ -53376,7 +53376,7 @@
         <v>27.6499996185303</v>
       </c>
       <c r="G1866" t="s">
-        <v>1283</v>
+        <v>1282</v>
       </c>
       <c r="H1866" t="s">
         <v>9</v>
@@ -53402,7 +53402,7 @@
         <v>27.3500003814697</v>
       </c>
       <c r="G1867" t="s">
-        <v>1273</v>
+        <v>1272</v>
       </c>
       <c r="H1867" t="s">
         <v>9</v>
@@ -53428,7 +53428,7 @@
         <v>27.1499996185303</v>
       </c>
       <c r="G1868" t="s">
-        <v>1284</v>
+        <v>1283</v>
       </c>
       <c r="H1868" t="s">
         <v>9</v>
@@ -53454,7 +53454,7 @@
         <v>28</v>
       </c>
       <c r="G1869" t="s">
-        <v>1285</v>
+        <v>1284</v>
       </c>
       <c r="H1869" t="s">
         <v>9</v>
@@ -53506,7 +53506,7 @@
         <v>27.3500003814697</v>
       </c>
       <c r="G1871" t="s">
-        <v>1273</v>
+        <v>1272</v>
       </c>
       <c r="H1871" t="s">
         <v>9</v>
@@ -53532,7 +53532,7 @@
         <v>27.25</v>
       </c>
       <c r="G1872" t="s">
-        <v>1286</v>
+        <v>1285</v>
       </c>
       <c r="H1872" t="s">
         <v>9</v>
@@ -53558,7 +53558,7 @@
         <v>27.5499992370605</v>
       </c>
       <c r="G1873" t="s">
-        <v>1275</v>
+        <v>1274</v>
       </c>
       <c r="H1873" t="s">
         <v>9</v>
@@ -53584,7 +53584,7 @@
         <v>27.6000003814697</v>
       </c>
       <c r="G1874" t="s">
-        <v>1287</v>
+        <v>1286</v>
       </c>
       <c r="H1874" t="s">
         <v>9</v>
@@ -53610,7 +53610,7 @@
         <v>27.2000007629395</v>
       </c>
       <c r="G1875" t="s">
-        <v>1282</v>
+        <v>1281</v>
       </c>
       <c r="H1875" t="s">
         <v>9</v>
@@ -53636,7 +53636,7 @@
         <v>27.2000007629395</v>
       </c>
       <c r="G1876" t="s">
-        <v>1282</v>
+        <v>1281</v>
       </c>
       <c r="H1876" t="s">
         <v>9</v>
@@ -53662,7 +53662,7 @@
         <v>27.7000007629395</v>
       </c>
       <c r="G1877" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
       <c r="H1877" t="s">
         <v>9</v>
@@ -53688,7 +53688,7 @@
         <v>27.8999996185303</v>
       </c>
       <c r="G1878" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
       <c r="H1878" t="s">
         <v>9</v>
@@ -53714,7 +53714,7 @@
         <v>28.3500003814697</v>
       </c>
       <c r="G1879" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="H1879" t="s">
         <v>9</v>
@@ -53766,7 +53766,7 @@
         <v>28.3500003814697</v>
       </c>
       <c r="G1881" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="H1881" t="s">
         <v>9</v>
@@ -53792,7 +53792,7 @@
         <v>27.2000007629395</v>
       </c>
       <c r="G1882" t="s">
-        <v>1282</v>
+        <v>1281</v>
       </c>
       <c r="H1882" t="s">
         <v>9</v>
@@ -53818,7 +53818,7 @@
         <v>27.6000003814697</v>
       </c>
       <c r="G1883" t="s">
-        <v>1287</v>
+        <v>1286</v>
       </c>
       <c r="H1883" t="s">
         <v>9</v>
@@ -53844,7 +53844,7 @@
         <v>28.3500003814697</v>
       </c>
       <c r="G1884" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="H1884" t="s">
         <v>9</v>
@@ -53870,7 +53870,7 @@
         <v>28.2000007629395</v>
       </c>
       <c r="G1885" t="s">
-        <v>1289</v>
+        <v>1288</v>
       </c>
       <c r="H1885" t="s">
         <v>9</v>
@@ -53896,7 +53896,7 @@
         <v>28.3500003814697</v>
       </c>
       <c r="G1886" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="H1886" t="s">
         <v>9</v>
@@ -53922,7 +53922,7 @@
         <v>28.75</v>
       </c>
       <c r="G1887" t="s">
-        <v>1290</v>
+        <v>1289</v>
       </c>
       <c r="H1887" t="s">
         <v>9</v>
@@ -53948,7 +53948,7 @@
         <v>29.7999992370605</v>
       </c>
       <c r="G1888" t="s">
-        <v>1291</v>
+        <v>1290</v>
       </c>
       <c r="H1888" t="s">
         <v>9</v>
@@ -53974,7 +53974,7 @@
         <v>30.8500003814697</v>
       </c>
       <c r="G1889" t="s">
-        <v>1292</v>
+        <v>1291</v>
       </c>
       <c r="H1889" t="s">
         <v>9</v>
@@ -54000,7 +54000,7 @@
         <v>30.6000003814697</v>
       </c>
       <c r="G1890" t="s">
-        <v>1293</v>
+        <v>1292</v>
       </c>
       <c r="H1890" t="s">
         <v>9</v>
@@ -54026,7 +54026,7 @@
         <v>31.25</v>
       </c>
       <c r="G1891" t="s">
-        <v>1294</v>
+        <v>1293</v>
       </c>
       <c r="H1891" t="s">
         <v>9</v>
@@ -54052,7 +54052,7 @@
         <v>32.4000015258789</v>
       </c>
       <c r="G1892" t="s">
-        <v>1295</v>
+        <v>1294</v>
       </c>
       <c r="H1892" t="s">
         <v>9</v>
@@ -54078,7 +54078,7 @@
         <v>31.9500007629395</v>
       </c>
       <c r="G1893" t="s">
-        <v>1296</v>
+        <v>1295</v>
       </c>
       <c r="H1893" t="s">
         <v>9</v>
@@ -54104,7 +54104,7 @@
         <v>32.5</v>
       </c>
       <c r="G1894" t="s">
-        <v>1297</v>
+        <v>1296</v>
       </c>
       <c r="H1894" t="s">
         <v>9</v>
@@ -54130,7 +54130,7 @@
         <v>33.25</v>
       </c>
       <c r="G1895" t="s">
-        <v>1298</v>
+        <v>1297</v>
       </c>
       <c r="H1895" t="s">
         <v>9</v>
@@ -54156,7 +54156,7 @@
         <v>32.75</v>
       </c>
       <c r="G1896" t="s">
-        <v>1299</v>
+        <v>1298</v>
       </c>
       <c r="H1896" t="s">
         <v>9</v>
@@ -54182,7 +54182,7 @@
         <v>32.5499992370605</v>
       </c>
       <c r="G1897" t="s">
-        <v>1300</v>
+        <v>1299</v>
       </c>
       <c r="H1897" t="s">
         <v>9</v>
@@ -54208,7 +54208,7 @@
         <v>32.2999992370605</v>
       </c>
       <c r="G1898" t="s">
-        <v>1301</v>
+        <v>1300</v>
       </c>
       <c r="H1898" t="s">
         <v>9</v>
@@ -54234,7 +54234,7 @@
         <v>31.9500007629395</v>
       </c>
       <c r="G1899" t="s">
-        <v>1296</v>
+        <v>1295</v>
       </c>
       <c r="H1899" t="s">
         <v>9</v>
@@ -54260,7 +54260,7 @@
         <v>31.5</v>
       </c>
       <c r="G1900" t="s">
-        <v>1302</v>
+        <v>1301</v>
       </c>
       <c r="H1900" t="s">
         <v>9</v>
@@ -54286,7 +54286,7 @@
         <v>31.6499996185303</v>
       </c>
       <c r="G1901" t="s">
-        <v>1303</v>
+        <v>1302</v>
       </c>
       <c r="H1901" t="s">
         <v>9</v>
@@ -54312,7 +54312,7 @@
         <v>31.1000003814697</v>
       </c>
       <c r="G1902" t="s">
-        <v>1304</v>
+        <v>1303</v>
       </c>
       <c r="H1902" t="s">
         <v>9</v>
@@ -54338,7 +54338,7 @@
         <v>30.9500007629395</v>
       </c>
       <c r="G1903" t="s">
-        <v>1305</v>
+        <v>1304</v>
       </c>
       <c r="H1903" t="s">
         <v>9</v>
@@ -54364,7 +54364,7 @@
         <v>30.5</v>
       </c>
       <c r="G1904" t="s">
-        <v>1306</v>
+        <v>1305</v>
       </c>
       <c r="H1904" t="s">
         <v>9</v>
@@ -54390,7 +54390,7 @@
         <v>30.7000007629395</v>
       </c>
       <c r="G1905" t="s">
-        <v>1307</v>
+        <v>1306</v>
       </c>
       <c r="H1905" t="s">
         <v>9</v>
@@ -54416,7 +54416,7 @@
         <v>30.5499992370605</v>
       </c>
       <c r="G1906" t="s">
-        <v>1308</v>
+        <v>1307</v>
       </c>
       <c r="H1906" t="s">
         <v>9</v>
@@ -54442,7 +54442,7 @@
         <v>30.8999996185303</v>
       </c>
       <c r="G1907" t="s">
-        <v>1309</v>
+        <v>1308</v>
       </c>
       <c r="H1907" t="s">
         <v>9</v>
@@ -54468,7 +54468,7 @@
         <v>30.75</v>
       </c>
       <c r="G1908" t="s">
-        <v>1310</v>
+        <v>1309</v>
       </c>
       <c r="H1908" t="s">
         <v>9</v>
@@ -54494,7 +54494,7 @@
         <v>30.8500003814697</v>
       </c>
       <c r="G1909" t="s">
-        <v>1292</v>
+        <v>1291</v>
       </c>
       <c r="H1909" t="s">
         <v>9</v>
@@ -54520,7 +54520,7 @@
         <v>30.1000003814697</v>
       </c>
       <c r="G1910" t="s">
-        <v>1311</v>
+        <v>1310</v>
       </c>
       <c r="H1910" t="s">
         <v>9</v>
@@ -54546,7 +54546,7 @@
         <v>29.7999992370605</v>
       </c>
       <c r="G1911" t="s">
-        <v>1312</v>
+        <v>1311</v>
       </c>
       <c r="H1911" t="s">
         <v>9</v>
@@ -54572,7 +54572,7 @@
         <v>30</v>
       </c>
       <c r="G1912" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
       <c r="H1912" t="s">
         <v>9</v>
@@ -54598,7 +54598,7 @@
         <v>29.8500003814697</v>
       </c>
       <c r="G1913" t="s">
-        <v>1314</v>
+        <v>1313</v>
       </c>
       <c r="H1913" t="s">
         <v>9</v>
@@ -54624,7 +54624,7 @@
         <v>30.6499996185303</v>
       </c>
       <c r="G1914" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
       <c r="H1914" t="s">
         <v>9</v>
@@ -54650,7 +54650,7 @@
         <v>30.8999996185303</v>
       </c>
       <c r="G1915" t="s">
-        <v>1316</v>
+        <v>1315</v>
       </c>
       <c r="H1915" t="s">
         <v>9</v>
@@ -54676,7 +54676,7 @@
         <v>30.3500003814697</v>
       </c>
       <c r="G1916" t="s">
-        <v>1317</v>
+        <v>1316</v>
       </c>
       <c r="H1916" t="s">
         <v>9</v>
@@ -54702,7 +54702,7 @@
         <v>30.1000003814697</v>
       </c>
       <c r="G1917" t="s">
-        <v>1311</v>
+        <v>1310</v>
       </c>
       <c r="H1917" t="s">
         <v>9</v>
@@ -54728,7 +54728,7 @@
         <v>30.1000003814697</v>
       </c>
       <c r="G1918" t="s">
-        <v>1311</v>
+        <v>1310</v>
       </c>
       <c r="H1918" t="s">
         <v>9</v>
@@ -54754,7 +54754,7 @@
         <v>30.5</v>
       </c>
       <c r="G1919" t="s">
-        <v>1318</v>
+        <v>1317</v>
       </c>
       <c r="H1919" t="s">
         <v>9</v>
@@ -54780,7 +54780,7 @@
         <v>31.2999992370605</v>
       </c>
       <c r="G1920" t="s">
-        <v>1319</v>
+        <v>1318</v>
       </c>
       <c r="H1920" t="s">
         <v>9</v>
@@ -54806,7 +54806,7 @@
         <v>31.5</v>
       </c>
       <c r="G1921" t="s">
-        <v>1320</v>
+        <v>1319</v>
       </c>
       <c r="H1921" t="s">
         <v>9</v>
@@ -54832,7 +54832,7 @@
         <v>31.7000007629395</v>
       </c>
       <c r="G1922" t="s">
-        <v>1321</v>
+        <v>1320</v>
       </c>
       <c r="H1922" t="s">
         <v>9</v>
@@ -54858,7 +54858,7 @@
         <v>31.3500003814697</v>
       </c>
       <c r="G1923" t="s">
-        <v>1322</v>
+        <v>1321</v>
       </c>
       <c r="H1923" t="s">
         <v>9</v>
@@ -54884,7 +54884,7 @@
         <v>31.6000003814697</v>
       </c>
       <c r="G1924" t="s">
-        <v>1323</v>
+        <v>1322</v>
       </c>
       <c r="H1924" t="s">
         <v>9</v>
@@ -54910,7 +54910,7 @@
         <v>32.25</v>
       </c>
       <c r="G1925" t="s">
-        <v>1324</v>
+        <v>1323</v>
       </c>
       <c r="H1925" t="s">
         <v>9</v>
@@ -54936,7 +54936,7 @@
         <v>32.9500007629395</v>
       </c>
       <c r="G1926" t="s">
-        <v>1325</v>
+        <v>1324</v>
       </c>
       <c r="H1926" t="s">
         <v>9</v>
@@ -54962,7 +54962,7 @@
         <v>31.7000007629395</v>
       </c>
       <c r="G1927" t="s">
-        <v>1321</v>
+        <v>1320</v>
       </c>
       <c r="H1927" t="s">
         <v>9</v>
@@ -54988,7 +54988,7 @@
         <v>32</v>
       </c>
       <c r="G1928" t="s">
-        <v>1326</v>
+        <v>1325</v>
       </c>
       <c r="H1928" t="s">
         <v>9</v>
@@ -55014,7 +55014,7 @@
         <v>31.8999996185303</v>
       </c>
       <c r="G1929" t="s">
-        <v>1327</v>
+        <v>1326</v>
       </c>
       <c r="H1929" t="s">
         <v>9</v>
@@ -55040,7 +55040,7 @@
         <v>32.5499992370605</v>
       </c>
       <c r="G1930" t="s">
-        <v>1328</v>
+        <v>1327</v>
       </c>
       <c r="H1930" t="s">
         <v>9</v>
@@ -55066,7 +55066,7 @@
         <v>31</v>
       </c>
       <c r="G1931" t="s">
-        <v>1329</v>
+        <v>1328</v>
       </c>
       <c r="H1931" t="s">
         <v>9</v>
@@ -55092,7 +55092,7 @@
         <v>30.9500007629395</v>
       </c>
       <c r="G1932" t="s">
-        <v>1330</v>
+        <v>1329</v>
       </c>
       <c r="H1932" t="s">
         <v>9</v>
@@ -55118,7 +55118,7 @@
         <v>30.5</v>
       </c>
       <c r="G1933" t="s">
-        <v>1318</v>
+        <v>1317</v>
       </c>
       <c r="H1933" t="s">
         <v>9</v>
@@ -55144,7 +55144,7 @@
         <v>30.5</v>
       </c>
       <c r="G1934" t="s">
-        <v>1318</v>
+        <v>1317</v>
       </c>
       <c r="H1934" t="s">
         <v>9</v>
@@ -55170,7 +55170,7 @@
         <v>30.5</v>
       </c>
       <c r="G1935" t="s">
-        <v>1318</v>
+        <v>1317</v>
       </c>
       <c r="H1935" t="s">
         <v>9</v>
@@ -55196,7 +55196,7 @@
         <v>30.0499992370605</v>
       </c>
       <c r="G1936" t="s">
-        <v>1331</v>
+        <v>1330</v>
       </c>
       <c r="H1936" t="s">
         <v>9</v>
@@ -55222,7 +55222,7 @@
         <v>30.0499992370605</v>
       </c>
       <c r="G1937" t="s">
-        <v>1331</v>
+        <v>1330</v>
       </c>
       <c r="H1937" t="s">
         <v>9</v>
@@ -55248,7 +55248,7 @@
         <v>28.25</v>
       </c>
       <c r="G1938" t="s">
-        <v>1332</v>
+        <v>1331</v>
       </c>
       <c r="H1938" t="s">
         <v>9</v>
@@ -55274,7 +55274,7 @@
         <v>27.1499996185303</v>
       </c>
       <c r="G1939" t="s">
-        <v>1333</v>
+        <v>1332</v>
       </c>
       <c r="H1939" t="s">
         <v>9</v>
@@ -55300,7 +55300,7 @@
         <v>26.8500003814697</v>
       </c>
       <c r="G1940" t="s">
-        <v>1334</v>
+        <v>1333</v>
       </c>
       <c r="H1940" t="s">
         <v>9</v>
@@ -55326,7 +55326,7 @@
         <v>25.5499992370605</v>
       </c>
       <c r="G1941" t="s">
-        <v>1335</v>
+        <v>1334</v>
       </c>
       <c r="H1941" t="s">
         <v>9</v>
@@ -55352,7 +55352,7 @@
         <v>24.5</v>
       </c>
       <c r="G1942" t="s">
-        <v>1336</v>
+        <v>1335</v>
       </c>
       <c r="H1942" t="s">
         <v>9</v>
@@ -55378,7 +55378,7 @@
         <v>24.9500007629395</v>
       </c>
       <c r="G1943" t="s">
-        <v>1337</v>
+        <v>1336</v>
       </c>
       <c r="H1943" t="s">
         <v>9</v>
@@ -55404,7 +55404,7 @@
         <v>24.7999992370605</v>
       </c>
       <c r="G1944" t="s">
-        <v>1338</v>
+        <v>1337</v>
       </c>
       <c r="H1944" t="s">
         <v>9</v>
@@ -55430,7 +55430,7 @@
         <v>24.6000003814697</v>
       </c>
       <c r="G1945" t="s">
-        <v>1339</v>
+        <v>1338</v>
       </c>
       <c r="H1945" t="s">
         <v>9</v>
@@ -55456,7 +55456,7 @@
         <v>24.75</v>
       </c>
       <c r="G1946" t="s">
-        <v>1340</v>
+        <v>1339</v>
       </c>
       <c r="H1946" t="s">
         <v>9</v>
@@ -55482,7 +55482,7 @@
         <v>24.5499992370605</v>
       </c>
       <c r="G1947" t="s">
-        <v>1341</v>
+        <v>1340</v>
       </c>
       <c r="H1947" t="s">
         <v>9</v>
@@ -55508,7 +55508,7 @@
         <v>24.5499992370605</v>
       </c>
       <c r="G1948" t="s">
-        <v>1341</v>
+        <v>1340</v>
       </c>
       <c r="H1948" t="s">
         <v>9</v>
@@ -55534,7 +55534,7 @@
         <v>25.2000007629395</v>
       </c>
       <c r="G1949" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
       <c r="H1949" t="s">
         <v>9</v>
@@ -55560,7 +55560,7 @@
         <v>25.0499992370605</v>
       </c>
       <c r="G1950" t="s">
-        <v>1343</v>
+        <v>1342</v>
       </c>
       <c r="H1950" t="s">
         <v>9</v>
@@ -55586,7 +55586,7 @@
         <v>24.7999992370605</v>
       </c>
       <c r="G1951" t="s">
-        <v>1338</v>
+        <v>1337</v>
       </c>
       <c r="H1951" t="s">
         <v>9</v>
@@ -55612,7 +55612,7 @@
         <v>26.1499996185303</v>
       </c>
       <c r="G1952" t="s">
-        <v>1344</v>
+        <v>1343</v>
       </c>
       <c r="H1952" t="s">
         <v>9</v>
@@ -55638,7 +55638,7 @@
         <v>26.0499992370605</v>
       </c>
       <c r="G1953" t="s">
-        <v>1345</v>
+        <v>1344</v>
       </c>
       <c r="H1953" t="s">
         <v>9</v>
@@ -55664,7 +55664,7 @@
         <v>25.8500003814697</v>
       </c>
       <c r="G1954" t="s">
-        <v>1346</v>
+        <v>1345</v>
       </c>
       <c r="H1954" t="s">
         <v>9</v>
@@ -55690,7 +55690,7 @@
         <v>26.1000003814697</v>
       </c>
       <c r="G1955" t="s">
-        <v>1347</v>
+        <v>1346</v>
       </c>
       <c r="H1955" t="s">
         <v>9</v>
@@ -55716,7 +55716,7 @@
         <v>25.3500003814697</v>
       </c>
       <c r="G1956" t="s">
-        <v>1348</v>
+        <v>1347</v>
       </c>
       <c r="H1956" t="s">
         <v>9</v>
@@ -55742,7 +55742,7 @@
         <v>24.9500007629395</v>
       </c>
       <c r="G1957" t="s">
-        <v>1337</v>
+        <v>1336</v>
       </c>
       <c r="H1957" t="s">
         <v>9</v>
@@ -55768,7 +55768,7 @@
         <v>24.75</v>
       </c>
       <c r="G1958" t="s">
-        <v>1340</v>
+        <v>1339</v>
       </c>
       <c r="H1958" t="s">
         <v>9</v>
@@ -55794,7 +55794,7 @@
         <v>24.7999992370605</v>
       </c>
       <c r="G1959" t="s">
-        <v>1338</v>
+        <v>1337</v>
       </c>
       <c r="H1959" t="s">
         <v>9</v>
@@ -55820,7 +55820,7 @@
         <v>24.8500003814697</v>
       </c>
       <c r="G1960" t="s">
-        <v>1349</v>
+        <v>1348</v>
       </c>
       <c r="H1960" t="s">
         <v>9</v>
@@ -55846,7 +55846,7 @@
         <v>25.3500003814697</v>
       </c>
       <c r="G1961" t="s">
-        <v>1348</v>
+        <v>1347</v>
       </c>
       <c r="H1961" t="s">
         <v>9</v>
@@ -55872,7 +55872,7 @@
         <v>25.7999992370605</v>
       </c>
       <c r="G1962" t="s">
-        <v>1350</v>
+        <v>1349</v>
       </c>
       <c r="H1962" t="s">
         <v>9</v>
@@ -55898,7 +55898,7 @@
         <v>25.8500003814697</v>
       </c>
       <c r="G1963" t="s">
-        <v>1346</v>
+        <v>1345</v>
       </c>
       <c r="H1963" t="s">
         <v>9</v>
@@ -55924,7 +55924,7 @@
         <v>26.5</v>
       </c>
       <c r="G1964" t="s">
-        <v>1351</v>
+        <v>1350</v>
       </c>
       <c r="H1964" t="s">
         <v>9</v>
@@ -55950,7 +55950,7 @@
         <v>27</v>
       </c>
       <c r="G1965" t="s">
-        <v>1352</v>
+        <v>1351</v>
       </c>
       <c r="H1965" t="s">
         <v>9</v>
@@ -55976,7 +55976,7 @@
         <v>26.4500007629395</v>
       </c>
       <c r="G1966" t="s">
-        <v>1353</v>
+        <v>1352</v>
       </c>
       <c r="H1966" t="s">
         <v>9</v>
@@ -56002,7 +56002,7 @@
         <v>25.9500007629395</v>
       </c>
       <c r="G1967" t="s">
-        <v>1354</v>
+        <v>1353</v>
       </c>
       <c r="H1967" t="s">
         <v>9</v>
@@ -56028,7 +56028,7 @@
         <v>25.4500007629395</v>
       </c>
       <c r="G1968" t="s">
-        <v>1355</v>
+        <v>1354</v>
       </c>
       <c r="H1968" t="s">
         <v>9</v>
@@ -56054,7 +56054,7 @@
         <v>24.7000007629395</v>
       </c>
       <c r="G1969" t="s">
-        <v>1356</v>
+        <v>1355</v>
       </c>
       <c r="H1969" t="s">
         <v>9</v>
@@ -56080,7 +56080,7 @@
         <v>24.9500007629395</v>
       </c>
       <c r="G1970" t="s">
-        <v>1337</v>
+        <v>1336</v>
       </c>
       <c r="H1970" t="s">
         <v>9</v>
@@ -56106,7 +56106,7 @@
         <v>24.8999996185303</v>
       </c>
       <c r="G1971" t="s">
-        <v>1357</v>
+        <v>1356</v>
       </c>
       <c r="H1971" t="s">
         <v>9</v>
@@ -56132,7 +56132,7 @@
         <v>25.0499992370605</v>
       </c>
       <c r="G1972" t="s">
-        <v>1343</v>
+        <v>1342</v>
       </c>
       <c r="H1972" t="s">
         <v>9</v>
@@ -56158,7 +56158,7 @@
         <v>24.9500007629395</v>
       </c>
       <c r="G1973" t="s">
-        <v>1337</v>
+        <v>1336</v>
       </c>
       <c r="H1973" t="s">
         <v>9</v>
@@ -56184,7 +56184,7 @@
         <v>24.7000007629395</v>
       </c>
       <c r="G1974" t="s">
-        <v>1356</v>
+        <v>1355</v>
       </c>
       <c r="H1974" t="s">
         <v>9</v>
@@ -56210,7 +56210,7 @@
         <v>24.25</v>
       </c>
       <c r="G1975" t="s">
-        <v>1358</v>
+        <v>1357</v>
       </c>
       <c r="H1975" t="s">
         <v>9</v>
@@ -56236,7 +56236,7 @@
         <v>24.5499992370605</v>
       </c>
       <c r="G1976" t="s">
-        <v>1341</v>
+        <v>1340</v>
       </c>
       <c r="H1976" t="s">
         <v>9</v>
@@ -56262,7 +56262,7 @@
         <v>25.0499992370605</v>
       </c>
       <c r="G1977" t="s">
-        <v>1343</v>
+        <v>1342</v>
       </c>
       <c r="H1977" t="s">
         <v>9</v>
@@ -56288,7 +56288,7 @@
         <v>24.6499996185303</v>
       </c>
       <c r="G1978" t="s">
-        <v>1359</v>
+        <v>1358</v>
       </c>
       <c r="H1978" t="s">
         <v>9</v>
@@ -56314,7 +56314,7 @@
         <v>24.2999992370605</v>
       </c>
       <c r="G1979" t="s">
-        <v>1360</v>
+        <v>1359</v>
       </c>
       <c r="H1979" t="s">
         <v>9</v>
@@ -56340,7 +56340,7 @@
         <v>25.5</v>
       </c>
       <c r="G1980" t="s">
-        <v>1361</v>
+        <v>1360</v>
       </c>
       <c r="H1980" t="s">
         <v>9</v>
@@ -56366,7 +56366,7 @@
         <v>25.3500003814697</v>
       </c>
       <c r="G1981" t="s">
-        <v>1348</v>
+        <v>1347</v>
       </c>
       <c r="H1981" t="s">
         <v>9</v>
@@ -56392,7 +56392,7 @@
         <v>25.0499992370605</v>
       </c>
       <c r="G1982" t="s">
-        <v>1343</v>
+        <v>1342</v>
       </c>
       <c r="H1982" t="s">
         <v>9</v>
@@ -56418,7 +56418,7 @@
         <v>24.6499996185303</v>
       </c>
       <c r="G1983" t="s">
-        <v>1359</v>
+        <v>1358</v>
       </c>
       <c r="H1983" t="s">
         <v>9</v>
@@ -56444,7 +56444,7 @@
         <v>25.0499992370605</v>
       </c>
       <c r="G1984" t="s">
-        <v>1343</v>
+        <v>1342</v>
       </c>
       <c r="H1984" t="s">
         <v>9</v>
@@ -56470,7 +56470,7 @@
         <v>25.25</v>
       </c>
       <c r="G1985" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
       <c r="H1985" t="s">
         <v>9</v>
@@ -56496,7 +56496,7 @@
         <v>25.5</v>
       </c>
       <c r="G1986" t="s">
-        <v>1361</v>
+        <v>1360</v>
       </c>
       <c r="H1986" t="s">
         <v>9</v>
@@ -56522,7 +56522,7 @@
         <v>25.3500003814697</v>
       </c>
       <c r="G1987" t="s">
-        <v>1348</v>
+        <v>1347</v>
       </c>
       <c r="H1987" t="s">
         <v>9</v>
@@ -56548,7 +56548,7 @@
         <v>25.3500003814697</v>
       </c>
       <c r="G1988" t="s">
-        <v>1348</v>
+        <v>1347</v>
       </c>
       <c r="H1988" t="s">
         <v>9</v>
@@ -56574,7 +56574,7 @@
         <v>26.0499992370605</v>
       </c>
       <c r="G1989" t="s">
-        <v>1345</v>
+        <v>1344</v>
       </c>
       <c r="H1989" t="s">
         <v>9</v>
@@ -56600,7 +56600,7 @@
         <v>26</v>
       </c>
       <c r="G1990" t="s">
-        <v>1363</v>
+        <v>1362</v>
       </c>
       <c r="H1990" t="s">
         <v>9</v>
@@ -56626,7 +56626,7 @@
         <v>26</v>
       </c>
       <c r="G1991" t="s">
-        <v>1363</v>
+        <v>1362</v>
       </c>
       <c r="H1991" t="s">
         <v>9</v>
@@ -56652,7 +56652,7 @@
         <v>26.7000007629395</v>
       </c>
       <c r="G1992" t="s">
-        <v>1364</v>
+        <v>1363</v>
       </c>
       <c r="H1992" t="s">
         <v>9</v>
@@ -56678,7 +56678,7 @@
         <v>26.4500007629395</v>
       </c>
       <c r="G1993" t="s">
-        <v>1353</v>
+        <v>1352</v>
       </c>
       <c r="H1993" t="s">
         <v>9</v>
@@ -56704,7 +56704,7 @@
         <v>26.6499996185303</v>
       </c>
       <c r="G1994" t="s">
-        <v>1365</v>
+        <v>1364</v>
       </c>
       <c r="H1994" t="s">
         <v>9</v>
@@ -56730,7 +56730,7 @@
         <v>26.6000003814697</v>
       </c>
       <c r="G1995" t="s">
-        <v>1366</v>
+        <v>1365</v>
       </c>
       <c r="H1995" t="s">
         <v>9</v>
@@ -56756,7 +56756,7 @@
         <v>26.5</v>
       </c>
       <c r="G1996" t="s">
-        <v>1351</v>
+        <v>1350</v>
       </c>
       <c r="H1996" t="s">
         <v>9</v>
@@ -56782,7 +56782,7 @@
         <v>27.1000003814697</v>
       </c>
       <c r="G1997" t="s">
-        <v>1367</v>
+        <v>1366</v>
       </c>
       <c r="H1997" t="s">
         <v>9</v>
@@ -56808,7 +56808,7 @@
         <v>27.7999992370605</v>
       </c>
       <c r="G1998" t="s">
-        <v>1368</v>
+        <v>1367</v>
       </c>
       <c r="H1998" t="s">
         <v>9</v>
@@ -56834,7 +56834,7 @@
         <v>27.7999992370605</v>
       </c>
       <c r="G1999" t="s">
-        <v>1368</v>
+        <v>1367</v>
       </c>
       <c r="H1999" t="s">
         <v>9</v>
@@ -56860,7 +56860,7 @@
         <v>27.3999996185303</v>
       </c>
       <c r="G2000" t="s">
-        <v>1369</v>
+        <v>1368</v>
       </c>
       <c r="H2000" t="s">
         <v>9</v>
@@ -56886,7 +56886,7 @@
         <v>27.6499996185303</v>
       </c>
       <c r="G2001" t="s">
-        <v>1370</v>
+        <v>1369</v>
       </c>
       <c r="H2001" t="s">
         <v>9</v>
@@ -56912,7 +56912,7 @@
         <v>28.75</v>
       </c>
       <c r="G2002" t="s">
-        <v>1371</v>
+        <v>1370</v>
       </c>
       <c r="H2002" t="s">
         <v>9</v>
@@ -56938,7 +56938,7 @@
         <v>28.75</v>
       </c>
       <c r="G2003" t="s">
-        <v>1371</v>
+        <v>1370</v>
       </c>
       <c r="H2003" t="s">
         <v>9</v>
@@ -56964,7 +56964,7 @@
         <v>28.9500007629395</v>
       </c>
       <c r="G2004" t="s">
-        <v>1372</v>
+        <v>1371</v>
       </c>
       <c r="H2004" t="s">
         <v>9</v>
@@ -56990,7 +56990,7 @@
         <v>29.8999996185303</v>
       </c>
       <c r="G2005" t="s">
-        <v>1373</v>
+        <v>1372</v>
       </c>
       <c r="H2005" t="s">
         <v>9</v>
@@ -57016,7 +57016,7 @@
         <v>28.7999992370605</v>
       </c>
       <c r="G2006" t="s">
-        <v>1374</v>
+        <v>1373</v>
       </c>
       <c r="H2006" t="s">
         <v>9</v>
@@ -57042,7 +57042,7 @@
         <v>29.9500007629395</v>
       </c>
       <c r="G2007" t="s">
-        <v>1375</v>
+        <v>1374</v>
       </c>
       <c r="H2007" t="s">
         <v>9</v>
@@ -57068,7 +57068,7 @@
         <v>29.6000003814697</v>
       </c>
       <c r="G2008" t="s">
-        <v>1376</v>
+        <v>1375</v>
       </c>
       <c r="H2008" t="s">
         <v>9</v>
@@ -57094,7 +57094,7 @@
         <v>27.75</v>
       </c>
       <c r="G2009" t="s">
-        <v>1377</v>
+        <v>1376</v>
       </c>
       <c r="H2009" t="s">
         <v>9</v>
@@ -57120,7 +57120,7 @@
         <v>28</v>
       </c>
       <c r="G2010" t="s">
-        <v>1378</v>
+        <v>1377</v>
       </c>
       <c r="H2010" t="s">
         <v>9</v>
@@ -57146,7 +57146,7 @@
         <v>28</v>
       </c>
       <c r="G2011" t="s">
-        <v>1378</v>
+        <v>1377</v>
       </c>
       <c r="H2011" t="s">
         <v>9</v>
@@ -57172,7 +57172,7 @@
         <v>27.7999992370605</v>
       </c>
       <c r="G2012" t="s">
-        <v>1368</v>
+        <v>1367</v>
       </c>
       <c r="H2012" t="s">
         <v>9</v>
@@ -57198,7 +57198,7 @@
         <v>28</v>
       </c>
       <c r="G2013" t="s">
-        <v>1378</v>
+        <v>1377</v>
       </c>
       <c r="H2013" t="s">
         <v>9</v>
@@ -57224,7 +57224,7 @@
         <v>27.8999996185303</v>
       </c>
       <c r="G2014" t="s">
-        <v>1379</v>
+        <v>1378</v>
       </c>
       <c r="H2014" t="s">
         <v>9</v>
@@ -57250,7 +57250,7 @@
         <v>28.1000003814697</v>
       </c>
       <c r="G2015" t="s">
-        <v>1380</v>
+        <v>1379</v>
       </c>
       <c r="H2015" t="s">
         <v>9</v>
@@ -57276,7 +57276,7 @@
         <v>27.9500007629395</v>
       </c>
       <c r="G2016" t="s">
-        <v>1381</v>
+        <v>1380</v>
       </c>
       <c r="H2016" t="s">
         <v>9</v>
@@ -57302,7 +57302,7 @@
         <v>28.2000007629395</v>
       </c>
       <c r="G2017" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
       <c r="H2017" t="s">
         <v>9</v>
@@ -57328,7 +57328,7 @@
         <v>28.25</v>
       </c>
       <c r="G2018" t="s">
-        <v>1332</v>
+        <v>1331</v>
       </c>
       <c r="H2018" t="s">
         <v>9</v>
@@ -57354,7 +57354,7 @@
         <v>28.3500003814697</v>
       </c>
       <c r="G2019" t="s">
-        <v>1383</v>
+        <v>1382</v>
       </c>
       <c r="H2019" t="s">
         <v>9</v>
@@ -57380,7 +57380,7 @@
         <v>28.3500003814697</v>
       </c>
       <c r="G2020" t="s">
-        <v>1383</v>
+        <v>1382</v>
       </c>
       <c r="H2020" t="s">
         <v>9</v>
@@ -57406,7 +57406,7 @@
         <v>29.5499992370605</v>
       </c>
       <c r="G2021" t="s">
-        <v>1384</v>
+        <v>1383</v>
       </c>
       <c r="H2021" t="s">
         <v>9</v>
@@ -57432,7 +57432,7 @@
         <v>29.3999996185303</v>
       </c>
       <c r="G2022" t="s">
-        <v>1385</v>
+        <v>1384</v>
       </c>
       <c r="H2022" t="s">
         <v>9</v>
@@ -57458,7 +57458,7 @@
         <v>29.6000003814697</v>
       </c>
       <c r="G2023" t="s">
-        <v>1376</v>
+        <v>1375</v>
       </c>
       <c r="H2023" t="s">
         <v>9</v>
@@ -57484,7 +57484,7 @@
         <v>29.7999992370605</v>
       </c>
       <c r="G2024" t="s">
-        <v>1312</v>
+        <v>1311</v>
       </c>
       <c r="H2024" t="s">
         <v>9</v>
@@ -57510,7 +57510,7 @@
         <v>30</v>
       </c>
       <c r="G2025" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
       <c r="H2025" t="s">
         <v>9</v>
@@ -57536,7 +57536,7 @@
         <v>29.8999996185303</v>
       </c>
       <c r="G2026" t="s">
-        <v>1373</v>
+        <v>1372</v>
       </c>
       <c r="H2026" t="s">
         <v>9</v>
@@ -57562,7 +57562,7 @@
         <v>30.75</v>
       </c>
       <c r="G2027" t="s">
-        <v>1386</v>
+        <v>1385</v>
       </c>
       <c r="H2027" t="s">
         <v>9</v>
@@ -57588,7 +57588,7 @@
         <v>30.9500007629395</v>
       </c>
       <c r="G2028" t="s">
-        <v>1330</v>
+        <v>1329</v>
       </c>
       <c r="H2028" t="s">
         <v>9</v>
@@ -57614,7 +57614,7 @@
         <v>31.75</v>
       </c>
       <c r="G2029" t="s">
-        <v>1387</v>
+        <v>1386</v>
       </c>
       <c r="H2029" t="s">
         <v>9</v>
@@ -57640,7 +57640,7 @@
         <v>32.9000015258789</v>
       </c>
       <c r="G2030" t="s">
-        <v>1388</v>
+        <v>1387</v>
       </c>
       <c r="H2030" t="s">
         <v>9</v>
@@ -57666,7 +57666,7 @@
         <v>31.8999996185303</v>
       </c>
       <c r="G2031" t="s">
-        <v>1327</v>
+        <v>1326</v>
       </c>
       <c r="H2031" t="s">
         <v>9</v>
@@ -57692,7 +57692,7 @@
         <v>31.6499996185303</v>
       </c>
       <c r="G2032" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="H2032" t="s">
         <v>9</v>
@@ -57718,7 +57718,7 @@
         <v>32.2999992370605</v>
       </c>
       <c r="G2033" t="s">
-        <v>1390</v>
+        <v>1389</v>
       </c>
       <c r="H2033" t="s">
         <v>9</v>
@@ -57744,7 +57744,7 @@
         <v>32.5999984741211</v>
       </c>
       <c r="G2034" t="s">
-        <v>1391</v>
+        <v>1390</v>
       </c>
       <c r="H2034" t="s">
         <v>9</v>
@@ -57770,7 +57770,7 @@
         <v>31.6499996185303</v>
       </c>
       <c r="G2035" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="H2035" t="s">
         <v>9</v>
@@ -57796,7 +57796,7 @@
         <v>31.8999996185303</v>
       </c>
       <c r="G2036" t="s">
-        <v>1327</v>
+        <v>1326</v>
       </c>
       <c r="H2036" t="s">
         <v>9</v>
@@ -57822,7 +57822,7 @@
         <v>31.2999992370605</v>
       </c>
       <c r="G2037" t="s">
-        <v>1319</v>
+        <v>1318</v>
       </c>
       <c r="H2037" t="s">
         <v>9</v>
@@ -57848,7 +57848,7 @@
         <v>30.7000007629395</v>
       </c>
       <c r="G2038" t="s">
-        <v>1392</v>
+        <v>1391</v>
       </c>
       <c r="H2038" t="s">
         <v>9</v>
@@ -57874,7 +57874,7 @@
         <v>31.1499996185303</v>
       </c>
       <c r="G2039" t="s">
-        <v>1393</v>
+        <v>1392</v>
       </c>
       <c r="H2039" t="s">
         <v>9</v>
@@ -57900,7 +57900,7 @@
         <v>30.8999996185303</v>
       </c>
       <c r="G2040" t="s">
-        <v>1316</v>
+        <v>1315</v>
       </c>
       <c r="H2040" t="s">
         <v>9</v>
@@ -57926,7 +57926,7 @@
         <v>31.6000003814697</v>
       </c>
       <c r="G2041" t="s">
-        <v>1323</v>
+        <v>1322</v>
       </c>
       <c r="H2041" t="s">
         <v>9</v>
@@ -57952,7 +57952,7 @@
         <v>31.7999992370605</v>
       </c>
       <c r="G2042" t="s">
-        <v>1394</v>
+        <v>1393</v>
       </c>
       <c r="H2042" t="s">
         <v>9</v>
@@ -57978,7 +57978,7 @@
         <v>31.7000007629395</v>
       </c>
       <c r="G2043" t="s">
-        <v>1321</v>
+        <v>1320</v>
       </c>
       <c r="H2043" t="s">
         <v>9</v>
@@ -58004,7 +58004,7 @@
         <v>31.5499992370605</v>
       </c>
       <c r="G2044" t="s">
-        <v>1395</v>
+        <v>1394</v>
       </c>
       <c r="H2044" t="s">
         <v>9</v>
@@ -58030,7 +58030,7 @@
         <v>32.0999984741211</v>
       </c>
       <c r="G2045" t="s">
-        <v>1396</v>
+        <v>1395</v>
       </c>
       <c r="H2045" t="s">
         <v>9</v>
@@ -58056,7 +58056,7 @@
         <v>31.9500007629395</v>
       </c>
       <c r="G2046" t="s">
-        <v>1397</v>
+        <v>1396</v>
       </c>
       <c r="H2046" t="s">
         <v>9</v>
@@ -58082,7 +58082,7 @@
         <v>31.5499992370605</v>
       </c>
       <c r="G2047" t="s">
-        <v>1395</v>
+        <v>1394</v>
       </c>
       <c r="H2047" t="s">
         <v>9</v>
@@ -58108,7 +58108,7 @@
         <v>31.6000003814697</v>
       </c>
       <c r="G2048" t="s">
-        <v>1323</v>
+        <v>1322</v>
       </c>
       <c r="H2048" t="s">
         <v>9</v>
@@ -58134,7 +58134,7 @@
         <v>31.7000007629395</v>
       </c>
       <c r="G2049" t="s">
-        <v>1321</v>
+        <v>1320</v>
       </c>
       <c r="H2049" t="s">
         <v>9</v>
@@ -58160,7 +58160,7 @@
         <v>31.5</v>
       </c>
       <c r="G2050" t="s">
-        <v>1320</v>
+        <v>1319</v>
       </c>
       <c r="H2050" t="s">
         <v>9</v>
@@ -58186,7 +58186,7 @@
         <v>31.3999996185303</v>
       </c>
       <c r="G2051" t="s">
-        <v>1398</v>
+        <v>1397</v>
       </c>
       <c r="H2051" t="s">
         <v>9</v>
@@ -58212,7 +58212,7 @@
         <v>31.7999992370605</v>
       </c>
       <c r="G2052" t="s">
-        <v>1394</v>
+        <v>1393</v>
       </c>
       <c r="H2052" t="s">
         <v>9</v>
@@ -58238,7 +58238,7 @@
         <v>32.2999992370605</v>
       </c>
       <c r="G2053" t="s">
-        <v>1390</v>
+        <v>1389</v>
       </c>
       <c r="H2053" t="s">
         <v>9</v>
@@ -58264,7 +58264,7 @@
         <v>32</v>
       </c>
       <c r="G2054" t="s">
-        <v>1326</v>
+        <v>1325</v>
       </c>
       <c r="H2054" t="s">
         <v>9</v>
@@ -58290,7 +58290,7 @@
         <v>32</v>
       </c>
       <c r="G2055" t="s">
-        <v>1326</v>
+        <v>1325</v>
       </c>
       <c r="H2055" t="s">
         <v>9</v>
@@ -58316,7 +58316,7 @@
         <v>32.25</v>
       </c>
       <c r="G2056" t="s">
-        <v>1324</v>
+        <v>1323</v>
       </c>
       <c r="H2056" t="s">
         <v>9</v>
@@ -58342,7 +58342,7 @@
         <v>32.9500007629395</v>
       </c>
       <c r="G2057" t="s">
-        <v>1325</v>
+        <v>1324</v>
       </c>
       <c r="H2057" t="s">
         <v>9</v>
@@ -58368,7 +58368,7 @@
         <v>31.8999996185303</v>
       </c>
       <c r="G2058" t="s">
-        <v>1327</v>
+        <v>1326</v>
       </c>
       <c r="H2058" t="s">
         <v>9</v>
@@ -58394,7 +58394,7 @@
         <v>31.8500003814697</v>
       </c>
       <c r="G2059" t="s">
-        <v>1399</v>
+        <v>1398</v>
       </c>
       <c r="H2059" t="s">
         <v>9</v>
@@ -58420,7 +58420,7 @@
         <v>32.4000015258789</v>
       </c>
       <c r="G2060" t="s">
-        <v>1400</v>
+        <v>1399</v>
       </c>
       <c r="H2060" t="s">
         <v>9</v>
@@ -58446,7 +58446,7 @@
         <v>32.5499992370605</v>
       </c>
       <c r="G2061" t="s">
-        <v>1328</v>
+        <v>1327</v>
       </c>
       <c r="H2061" t="s">
         <v>9</v>
@@ -58472,7 +58472,7 @@
         <v>32.4500007629395</v>
       </c>
       <c r="G2062" t="s">
-        <v>1401</v>
+        <v>1400</v>
       </c>
       <c r="H2062" t="s">
         <v>9</v>
@@ -58498,7 +58498,7 @@
         <v>32.2000007629395</v>
       </c>
       <c r="G2063" t="s">
-        <v>1402</v>
+        <v>1401</v>
       </c>
       <c r="H2063" t="s">
         <v>9</v>
@@ -58524,7 +58524,7 @@
         <v>31.1000003814697</v>
       </c>
       <c r="G2064" t="s">
-        <v>1403</v>
+        <v>1402</v>
       </c>
       <c r="H2064" t="s">
         <v>9</v>
@@ -58550,7 +58550,7 @@
         <v>30.8500003814697</v>
       </c>
       <c r="G2065" t="s">
-        <v>1404</v>
+        <v>1403</v>
       </c>
       <c r="H2065" t="s">
         <v>9</v>
@@ -58576,7 +58576,7 @@
         <v>31.4500007629395</v>
       </c>
       <c r="G2066" t="s">
-        <v>1405</v>
+        <v>1404</v>
       </c>
       <c r="H2066" t="s">
         <v>9</v>
@@ -58602,7 +58602,7 @@
         <v>30.5499992370605</v>
       </c>
       <c r="G2067" t="s">
-        <v>1406</v>
+        <v>1405</v>
       </c>
       <c r="H2067" t="s">
         <v>9</v>
@@ -58628,7 +58628,7 @@
         <v>30.7999992370605</v>
       </c>
       <c r="G2068" t="s">
-        <v>1407</v>
+        <v>1406</v>
       </c>
       <c r="H2068" t="s">
         <v>9</v>
@@ -58654,7 +58654,7 @@
         <v>30.7000007629395</v>
       </c>
       <c r="G2069" t="s">
-        <v>1392</v>
+        <v>1391</v>
       </c>
       <c r="H2069" t="s">
         <v>9</v>
@@ -58680,7 +58680,7 @@
         <v>31.75</v>
       </c>
       <c r="G2070" t="s">
-        <v>1387</v>
+        <v>1386</v>
       </c>
       <c r="H2070" t="s">
         <v>9</v>
@@ -58706,7 +58706,7 @@
         <v>31.3500003814697</v>
       </c>
       <c r="G2071" t="s">
-        <v>1322</v>
+        <v>1321</v>
       </c>
       <c r="H2071" t="s">
         <v>9</v>
@@ -58732,7 +58732,7 @@
         <v>30.8999996185303</v>
       </c>
       <c r="G2072" t="s">
-        <v>1316</v>
+        <v>1315</v>
       </c>
       <c r="H2072" t="s">
         <v>9</v>
@@ -58758,7 +58758,7 @@
         <v>31.5499992370605</v>
       </c>
       <c r="G2073" t="s">
-        <v>1395</v>
+        <v>1394</v>
       </c>
       <c r="H2073" t="s">
         <v>9</v>
@@ -58784,7 +58784,7 @@
         <v>31.7999992370605</v>
       </c>
       <c r="G2074" t="s">
-        <v>1394</v>
+        <v>1393</v>
       </c>
       <c r="H2074" t="s">
         <v>9</v>
@@ -58810,7 +58810,7 @@
         <v>31.6499996185303</v>
       </c>
       <c r="G2075" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="H2075" t="s">
         <v>9</v>
@@ -58836,7 +58836,7 @@
         <v>32.4500007629395</v>
       </c>
       <c r="G2076" t="s">
-        <v>1401</v>
+        <v>1400</v>
       </c>
       <c r="H2076" t="s">
         <v>9</v>
@@ -58862,7 +58862,7 @@
         <v>33.75</v>
       </c>
       <c r="G2077" t="s">
-        <v>1408</v>
+        <v>1407</v>
       </c>
       <c r="H2077" t="s">
         <v>9</v>
@@ -58888,7 +58888,7 @@
         <v>34.9000015258789</v>
       </c>
       <c r="G2078" t="s">
-        <v>1409</v>
+        <v>1408</v>
       </c>
       <c r="H2078" t="s">
         <v>9</v>
@@ -58914,7 +58914,7 @@
         <v>34.0499992370605</v>
       </c>
       <c r="G2079" t="s">
-        <v>1410</v>
+        <v>1409</v>
       </c>
       <c r="H2079" t="s">
         <v>9</v>
@@ -58940,7 +58940,7 @@
         <v>34</v>
       </c>
       <c r="G2080" t="s">
-        <v>1411</v>
+        <v>1410</v>
       </c>
       <c r="H2080" t="s">
         <v>9</v>
@@ -58966,7 +58966,7 @@
         <v>34.3499984741211</v>
       </c>
       <c r="G2081" t="s">
-        <v>1412</v>
+        <v>1411</v>
       </c>
       <c r="H2081" t="s">
         <v>9</v>
@@ -58992,7 +58992,7 @@
         <v>33.4500007629395</v>
       </c>
       <c r="G2082" t="s">
-        <v>1413</v>
+        <v>1412</v>
       </c>
       <c r="H2082" t="s">
         <v>9</v>
@@ -59018,7 +59018,7 @@
         <v>33.2999992370605</v>
       </c>
       <c r="G2083" t="s">
-        <v>1414</v>
+        <v>1413</v>
       </c>
       <c r="H2083" t="s">
         <v>9</v>
@@ -59044,7 +59044,7 @@
         <v>33.5</v>
       </c>
       <c r="G2084" t="s">
-        <v>1415</v>
+        <v>1414</v>
       </c>
       <c r="H2084" t="s">
         <v>9</v>
@@ -59070,7 +59070,7 @@
         <v>33.5</v>
       </c>
       <c r="G2085" t="s">
-        <v>1415</v>
+        <v>1414</v>
       </c>
       <c r="H2085" t="s">
         <v>9</v>
@@ -59096,7 +59096,7 @@
         <v>32.7999992370605</v>
       </c>
       <c r="G2086" t="s">
-        <v>1416</v>
+        <v>1415</v>
       </c>
       <c r="H2086" t="s">
         <v>9</v>
@@ -59122,7 +59122,7 @@
         <v>33.0999984741211</v>
       </c>
       <c r="G2087" t="s">
-        <v>1417</v>
+        <v>1416</v>
       </c>
       <c r="H2087" t="s">
         <v>9</v>
@@ -59148,7 +59148,7 @@
         <v>32.75</v>
       </c>
       <c r="G2088" t="s">
-        <v>1418</v>
+        <v>1417</v>
       </c>
       <c r="H2088" t="s">
         <v>9</v>
@@ -59174,7 +59174,7 @@
         <v>33</v>
       </c>
       <c r="G2089" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="H2089" t="s">
         <v>9</v>
@@ -59200,7 +59200,7 @@
         <v>34</v>
       </c>
       <c r="G2090" t="s">
-        <v>1411</v>
+        <v>1410</v>
       </c>
       <c r="H2090" t="s">
         <v>9</v>
@@ -59226,7 +59226,7 @@
         <v>34.7000007629395</v>
       </c>
       <c r="G2091" t="s">
-        <v>1420</v>
+        <v>1419</v>
       </c>
       <c r="H2091" t="s">
         <v>9</v>
@@ -59252,7 +59252,7 @@
         <v>36.4500007629395</v>
       </c>
       <c r="G2092" t="s">
-        <v>1421</v>
+        <v>1420</v>
       </c>
       <c r="H2092" t="s">
         <v>9</v>
@@ -59278,7 +59278,7 @@
         <v>37.1500015258789</v>
       </c>
       <c r="G2093" t="s">
-        <v>1422</v>
+        <v>1421</v>
       </c>
       <c r="H2093" t="s">
         <v>9</v>
@@ -59304,7 +59304,7 @@
         <v>36.7000007629395</v>
       </c>
       <c r="G2094" t="s">
-        <v>1423</v>
+        <v>1422</v>
       </c>
       <c r="H2094" t="s">
         <v>9</v>
@@ -59330,7 +59330,7 @@
         <v>37.4000015258789</v>
       </c>
       <c r="G2095" t="s">
-        <v>1424</v>
+        <v>1423</v>
       </c>
       <c r="H2095" t="s">
         <v>9</v>
@@ -59356,7 +59356,7 @@
         <v>37</v>
       </c>
       <c r="G2096" t="s">
-        <v>1425</v>
+        <v>1424</v>
       </c>
       <c r="H2096" t="s">
         <v>9</v>
@@ -59382,7 +59382,7 @@
         <v>36.5999984741211</v>
       </c>
       <c r="G2097" t="s">
-        <v>1426</v>
+        <v>1425</v>
       </c>
       <c r="H2097" t="s">
         <v>9</v>
@@ -59408,7 +59408,7 @@
         <v>37.25</v>
       </c>
       <c r="G2098" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
       <c r="H2098" t="s">
         <v>9</v>
@@ -59434,7 +59434,7 @@
         <v>37.4500007629395</v>
       </c>
       <c r="G2099" t="s">
-        <v>1428</v>
+        <v>1427</v>
       </c>
       <c r="H2099" t="s">
         <v>9</v>
@@ -59460,7 +59460,7 @@
         <v>36.5999984741211</v>
       </c>
       <c r="G2100" t="s">
-        <v>1426</v>
+        <v>1425</v>
       </c>
       <c r="H2100" t="s">
         <v>9</v>
@@ -59486,7 +59486,7 @@
         <v>37.0999984741211</v>
       </c>
       <c r="G2101" t="s">
-        <v>1429</v>
+        <v>1428</v>
       </c>
       <c r="H2101" t="s">
         <v>9</v>
@@ -59512,7 +59512,7 @@
         <v>38.7000007629395</v>
       </c>
       <c r="G2102" t="s">
-        <v>1430</v>
+        <v>1429</v>
       </c>
       <c r="H2102" t="s">
         <v>9</v>
@@ -59538,7 +59538,7 @@
         <v>38.2000007629395</v>
       </c>
       <c r="G2103" t="s">
-        <v>1431</v>
+        <v>1430</v>
       </c>
       <c r="H2103" t="s">
         <v>9</v>
@@ -59564,7 +59564,7 @@
         <v>38.0999984741211</v>
       </c>
       <c r="G2104" t="s">
-        <v>1432</v>
+        <v>1431</v>
       </c>
       <c r="H2104" t="s">
         <v>9</v>
@@ -59590,7 +59590,7 @@
         <v>36.0499992370605</v>
       </c>
       <c r="G2105" t="s">
-        <v>1433</v>
+        <v>1432</v>
       </c>
       <c r="H2105" t="s">
         <v>9</v>
@@ -59616,7 +59616,7 @@
         <v>36.3499984741211</v>
       </c>
       <c r="G2106" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="H2106" t="s">
         <v>9</v>
@@ -59642,7 +59642,7 @@
         <v>35</v>
       </c>
       <c r="G2107" t="s">
-        <v>1435</v>
+        <v>1434</v>
       </c>
       <c r="H2107" t="s">
         <v>9</v>
@@ -59668,7 +59668,7 @@
         <v>35.3499984741211</v>
       </c>
       <c r="G2108" t="s">
-        <v>1436</v>
+        <v>1435</v>
       </c>
       <c r="H2108" t="s">
         <v>9</v>
@@ -59694,7 +59694,7 @@
         <v>35.6500015258789</v>
       </c>
       <c r="G2109" t="s">
-        <v>1437</v>
+        <v>1436</v>
       </c>
       <c r="H2109" t="s">
         <v>9</v>
@@ -59720,7 +59720,7 @@
         <v>34.4500007629395</v>
       </c>
       <c r="G2110" t="s">
-        <v>1438</v>
+        <v>1437</v>
       </c>
       <c r="H2110" t="s">
         <v>9</v>
@@ -59746,7 +59746,7 @@
         <v>35.25</v>
       </c>
       <c r="G2111" t="s">
-        <v>1439</v>
+        <v>1438</v>
       </c>
       <c r="H2111" t="s">
         <v>9</v>
@@ -59772,7 +59772,7 @@
         <v>33.9000015258789</v>
       </c>
       <c r="G2112" t="s">
-        <v>1440</v>
+        <v>1439</v>
       </c>
       <c r="H2112" t="s">
         <v>9</v>
@@ -59798,7 +59798,7 @@
         <v>34.4000015258789</v>
       </c>
       <c r="G2113" t="s">
-        <v>1441</v>
+        <v>1440</v>
       </c>
       <c r="H2113" t="s">
         <v>9</v>
@@ -59824,7 +59824,7 @@
         <v>34.8499984741211</v>
       </c>
       <c r="G2114" t="s">
-        <v>1442</v>
+        <v>1441</v>
       </c>
       <c r="H2114" t="s">
         <v>9</v>
@@ -59850,7 +59850,7 @@
         <v>35.2999992370605</v>
       </c>
       <c r="G2115" t="s">
-        <v>1443</v>
+        <v>1442</v>
       </c>
       <c r="H2115" t="s">
         <v>9</v>
@@ -59876,7 +59876,7 @@
         <v>34.75</v>
       </c>
       <c r="G2116" t="s">
-        <v>1444</v>
+        <v>1443</v>
       </c>
       <c r="H2116" t="s">
         <v>9</v>
@@ -59902,7 +59902,7 @@
         <v>34.25</v>
       </c>
       <c r="G2117" t="s">
-        <v>1445</v>
+        <v>1444</v>
       </c>
       <c r="H2117" t="s">
         <v>9</v>
@@ -59928,7 +59928,7 @@
         <v>35.0999984741211</v>
       </c>
       <c r="G2118" t="s">
-        <v>1446</v>
+        <v>1445</v>
       </c>
       <c r="H2118" t="s">
         <v>9</v>
@@ -59954,7 +59954,7 @@
         <v>35.2999992370605</v>
       </c>
       <c r="G2119" t="s">
-        <v>1443</v>
+        <v>1442</v>
       </c>
       <c r="H2119" t="s">
         <v>9</v>
@@ -59980,7 +59980,7 @@
         <v>35.1500015258789</v>
       </c>
       <c r="G2120" t="s">
-        <v>1447</v>
+        <v>1446</v>
       </c>
       <c r="H2120" t="s">
         <v>9</v>
@@ -60006,7 +60006,7 @@
         <v>34.9500007629395</v>
       </c>
       <c r="G2121" t="s">
-        <v>1448</v>
+        <v>1447</v>
       </c>
       <c r="H2121" t="s">
         <v>9</v>
@@ -60032,7 +60032,7 @@
         <v>34.8499984741211</v>
       </c>
       <c r="G2122" t="s">
-        <v>1442</v>
+        <v>1441</v>
       </c>
       <c r="H2122" t="s">
         <v>9</v>
@@ -60058,7 +60058,7 @@
         <v>34.9000015258789</v>
       </c>
       <c r="G2123" t="s">
-        <v>1409</v>
+        <v>1408</v>
       </c>
       <c r="H2123" t="s">
         <v>9</v>
@@ -60084,7 +60084,7 @@
         <v>35.5999984741211</v>
       </c>
       <c r="G2124" t="s">
-        <v>1449</v>
+        <v>1448</v>
       </c>
       <c r="H2124" t="s">
         <v>9</v>
@@ -60110,7 +60110,7 @@
         <v>36.5499992370605</v>
       </c>
       <c r="G2125" t="s">
-        <v>1450</v>
+        <v>1449</v>
       </c>
       <c r="H2125" t="s">
         <v>9</v>
@@ -60136,7 +60136,7 @@
         <v>37</v>
       </c>
       <c r="G2126" t="s">
-        <v>1425</v>
+        <v>1424</v>
       </c>
       <c r="H2126" t="s">
         <v>9</v>
@@ -60162,7 +60162,7 @@
         <v>36.2999992370605</v>
       </c>
       <c r="G2127" t="s">
-        <v>1451</v>
+        <v>1450</v>
       </c>
       <c r="H2127" t="s">
         <v>9</v>
@@ -60188,7 +60188,7 @@
         <v>36.0999984741211</v>
       </c>
       <c r="G2128" t="s">
-        <v>1452</v>
+        <v>1451</v>
       </c>
       <c r="H2128" t="s">
         <v>9</v>
@@ -60214,7 +60214,7 @@
         <v>36.0999984741211</v>
       </c>
       <c r="G2129" t="s">
-        <v>1452</v>
+        <v>1451</v>
       </c>
       <c r="H2129" t="s">
         <v>9</v>
@@ -60240,7 +60240,7 @@
         <v>37.1500015258789</v>
       </c>
       <c r="G2130" t="s">
-        <v>1422</v>
+        <v>1421</v>
       </c>
       <c r="H2130" t="s">
         <v>9</v>
@@ -60266,7 +60266,7 @@
         <v>37</v>
       </c>
       <c r="G2131" t="s">
-        <v>1425</v>
+        <v>1424</v>
       </c>
       <c r="H2131" t="s">
         <v>9</v>
@@ -60292,7 +60292,7 @@
         <v>37.9500007629395</v>
       </c>
       <c r="G2132" t="s">
-        <v>1453</v>
+        <v>1452</v>
       </c>
       <c r="H2132" t="s">
         <v>9</v>
@@ -60318,7 +60318,7 @@
         <v>38.8499984741211</v>
       </c>
       <c r="G2133" t="s">
-        <v>1454</v>
+        <v>1453</v>
       </c>
       <c r="H2133" t="s">
         <v>9</v>
@@ -60344,7 +60344,7 @@
         <v>38.7999992370605</v>
       </c>
       <c r="G2134" t="s">
-        <v>1455</v>
+        <v>1454</v>
       </c>
       <c r="H2134" t="s">
         <v>9</v>
@@ -60370,7 +60370,7 @@
         <v>36.9500007629395</v>
       </c>
       <c r="G2135" t="s">
-        <v>1456</v>
+        <v>1455</v>
       </c>
       <c r="H2135" t="s">
         <v>9</v>
@@ -60396,7 +60396,7 @@
         <v>37.25</v>
       </c>
       <c r="G2136" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
       <c r="H2136" t="s">
         <v>9</v>
@@ -60422,7 +60422,7 @@
         <v>37.7000007629395</v>
       </c>
       <c r="G2137" t="s">
-        <v>1457</v>
+        <v>1456</v>
       </c>
       <c r="H2137" t="s">
         <v>9</v>
@@ -60448,7 +60448,7 @@
         <v>37.5499992370605</v>
       </c>
       <c r="G2138" t="s">
-        <v>1458</v>
+        <v>1457</v>
       </c>
       <c r="H2138" t="s">
         <v>9</v>
@@ -60474,7 +60474,7 @@
         <v>38.8499984741211</v>
       </c>
       <c r="G2139" t="s">
-        <v>1454</v>
+        <v>1453</v>
       </c>
       <c r="H2139" t="s">
         <v>9</v>
@@ -60500,7 +60500,7 @@
         <v>36.9000015258789</v>
       </c>
       <c r="G2140" t="s">
-        <v>1459</v>
+        <v>1458</v>
       </c>
       <c r="H2140" t="s">
         <v>9</v>
@@ -60526,7 +60526,7 @@
         <v>37.2000007629395</v>
       </c>
       <c r="G2141" t="s">
-        <v>1460</v>
+        <v>1459</v>
       </c>
       <c r="H2141" t="s">
         <v>9</v>
@@ -60552,7 +60552,7 @@
         <v>37.5499992370605</v>
       </c>
       <c r="G2142" t="s">
-        <v>1458</v>
+        <v>1457</v>
       </c>
       <c r="H2142" t="s">
         <v>9</v>
@@ -60578,7 +60578,7 @@
         <v>36.8499984741211</v>
       </c>
       <c r="G2143" t="s">
-        <v>1461</v>
+        <v>1460</v>
       </c>
       <c r="H2143" t="s">
         <v>9</v>
@@ -60604,7 +60604,7 @@
         <v>36.4500007629395</v>
       </c>
       <c r="G2144" t="s">
-        <v>1421</v>
+        <v>1420</v>
       </c>
       <c r="H2144" t="s">
         <v>9</v>
@@ -60630,7 +60630,7 @@
         <v>36.5999984741211</v>
       </c>
       <c r="G2145" t="s">
-        <v>1426</v>
+        <v>1425</v>
       </c>
       <c r="H2145" t="s">
         <v>9</v>
@@ -60656,7 +60656,7 @@
         <v>36.4000015258789</v>
       </c>
       <c r="G2146" t="s">
-        <v>1462</v>
+        <v>1461</v>
       </c>
       <c r="H2146" t="s">
         <v>9</v>
@@ -60682,7 +60682,7 @@
         <v>36.2000007629395</v>
       </c>
       <c r="G2147" t="s">
-        <v>1463</v>
+        <v>1462</v>
       </c>
       <c r="H2147" t="s">
         <v>9</v>
@@ -60708,7 +60708,7 @@
         <v>35</v>
       </c>
       <c r="G2148" t="s">
-        <v>1435</v>
+        <v>1434</v>
       </c>
       <c r="H2148" t="s">
         <v>9</v>
@@ -60734,7 +60734,7 @@
         <v>34.1500015258789</v>
       </c>
       <c r="G2149" t="s">
-        <v>1464</v>
+        <v>1463</v>
       </c>
       <c r="H2149" t="s">
         <v>9</v>
@@ -60760,7 +60760,7 @@
         <v>35.2999992370605</v>
       </c>
       <c r="G2150" t="s">
-        <v>1443</v>
+        <v>1442</v>
       </c>
       <c r="H2150" t="s">
         <v>9</v>
@@ -60786,7 +60786,7 @@
         <v>34.5499992370605</v>
       </c>
       <c r="G2151" t="s">
-        <v>1465</v>
+        <v>1464</v>
       </c>
       <c r="H2151" t="s">
         <v>9</v>
@@ -60812,7 +60812,7 @@
         <v>34.2999992370605</v>
       </c>
       <c r="G2152" t="s">
-        <v>1466</v>
+        <v>1465</v>
       </c>
       <c r="H2152" t="s">
         <v>9</v>
@@ -60838,7 +60838,7 @@
         <v>35.5</v>
       </c>
       <c r="G2153" t="s">
-        <v>1467</v>
+        <v>1466</v>
       </c>
       <c r="H2153" t="s">
         <v>9</v>
@@ -60864,7 +60864,7 @@
         <v>35.4000015258789</v>
       </c>
       <c r="G2154" t="s">
-        <v>1468</v>
+        <v>1467</v>
       </c>
       <c r="H2154" t="s">
         <v>9</v>
@@ -60890,7 +60890,7 @@
         <v>34.0999984741211</v>
       </c>
       <c r="G2155" t="s">
-        <v>1469</v>
+        <v>1468</v>
       </c>
       <c r="H2155" t="s">
         <v>9</v>
@@ -60916,7 +60916,7 @@
         <v>34.5999984741211</v>
       </c>
       <c r="G2156" t="s">
-        <v>1470</v>
+        <v>1469</v>
       </c>
       <c r="H2156" t="s">
         <v>9</v>
@@ -60942,7 +60942,7 @@
         <v>34.4000015258789</v>
       </c>
       <c r="G2157" t="s">
-        <v>1441</v>
+        <v>1440</v>
       </c>
       <c r="H2157" t="s">
         <v>9</v>
@@ -60968,7 +60968,7 @@
         <v>34.5999984741211</v>
       </c>
       <c r="G2158" t="s">
-        <v>1470</v>
+        <v>1469</v>
       </c>
       <c r="H2158" t="s">
         <v>9</v>
@@ -60994,7 +60994,7 @@
         <v>34.4000015258789</v>
       </c>
       <c r="G2159" t="s">
-        <v>1441</v>
+        <v>1440</v>
       </c>
       <c r="H2159" t="s">
         <v>9</v>
@@ -61020,7 +61020,7 @@
         <v>34.3499984741211</v>
       </c>
       <c r="G2160" t="s">
-        <v>1412</v>
+        <v>1411</v>
       </c>
       <c r="H2160" t="s">
         <v>9</v>
@@ -61046,7 +61046,7 @@
         <v>34.3499984741211</v>
       </c>
       <c r="G2161" t="s">
-        <v>1412</v>
+        <v>1411</v>
       </c>
       <c r="H2161" t="s">
         <v>9</v>
@@ -61072,7 +61072,7 @@
         <v>34.0999984741211</v>
       </c>
       <c r="G2162" t="s">
-        <v>1469</v>
+        <v>1468</v>
       </c>
       <c r="H2162" t="s">
         <v>9</v>
@@ -61098,7 +61098,7 @@
         <v>35</v>
       </c>
       <c r="G2163" t="s">
-        <v>1435</v>
+        <v>1434</v>
       </c>
       <c r="H2163" t="s">
         <v>9</v>
@@ -61124,7 +61124,7 @@
         <v>36.5</v>
       </c>
       <c r="G2164" t="s">
-        <v>1471</v>
+        <v>1470</v>
       </c>
       <c r="H2164" t="s">
         <v>9</v>
@@ -61150,7 +61150,7 @@
         <v>37.1500015258789</v>
       </c>
       <c r="G2165" t="s">
-        <v>1422</v>
+        <v>1421</v>
       </c>
       <c r="H2165" t="s">
         <v>9</v>
@@ -61176,7 +61176,7 @@
         <v>37.25</v>
       </c>
       <c r="G2166" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
       <c r="H2166" t="s">
         <v>9</v>
@@ -61202,7 +61202,7 @@
         <v>37.2000007629395</v>
       </c>
       <c r="G2167" t="s">
-        <v>1460</v>
+        <v>1459</v>
       </c>
       <c r="H2167" t="s">
         <v>9</v>
@@ -61228,7 +61228,7 @@
         <v>36.5999984741211</v>
       </c>
       <c r="G2168" t="s">
-        <v>1472</v>
+        <v>1471</v>
       </c>
       <c r="H2168" t="s">
         <v>9</v>
@@ -61254,7 +61254,7 @@
         <v>36</v>
       </c>
       <c r="G2169" t="s">
-        <v>1473</v>
+        <v>1472</v>
       </c>
       <c r="H2169" t="s">
         <v>9</v>
@@ -61280,7 +61280,7 @@
         <v>37.3499984741211</v>
       </c>
       <c r="G2170" t="s">
-        <v>1474</v>
+        <v>1473</v>
       </c>
       <c r="H2170" t="s">
         <v>9</v>
@@ -61306,7 +61306,7 @@
         <v>37.5</v>
       </c>
       <c r="G2171" t="s">
-        <v>1475</v>
+        <v>1474</v>
       </c>
       <c r="H2171" t="s">
         <v>9</v>
@@ -61332,7 +61332,7 @@
         <v>38.5</v>
       </c>
       <c r="G2172" t="s">
-        <v>1476</v>
+        <v>1475</v>
       </c>
       <c r="H2172" t="s">
         <v>9</v>
@@ -61358,7 +61358,7 @@
         <v>37.7000007629395</v>
       </c>
       <c r="G2173" t="s">
-        <v>1477</v>
+        <v>1476</v>
       </c>
       <c r="H2173" t="s">
         <v>9</v>
@@ -61384,7 +61384,7 @@
         <v>37.2000007629395</v>
       </c>
       <c r="G2174" t="s">
-        <v>1478</v>
+        <v>1477</v>
       </c>
       <c r="H2174" t="s">
         <v>9</v>
@@ -61410,7 +61410,7 @@
         <v>37.4000015258789</v>
       </c>
       <c r="G2175" t="s">
-        <v>1479</v>
+        <v>1478</v>
       </c>
       <c r="H2175" t="s">
         <v>9</v>
@@ -61436,7 +61436,7 @@
         <v>36.5999984741211</v>
       </c>
       <c r="G2176" t="s">
-        <v>1472</v>
+        <v>1471</v>
       </c>
       <c r="H2176" t="s">
         <v>9</v>
@@ -61462,7 +61462,7 @@
         <v>36.9500007629395</v>
       </c>
       <c r="G2177" t="s">
-        <v>1480</v>
+        <v>1479</v>
       </c>
       <c r="H2177" t="s">
         <v>9</v>
@@ -61488,7 +61488,7 @@
         <v>37.7000007629395</v>
       </c>
       <c r="G2178" t="s">
-        <v>1477</v>
+        <v>1476</v>
       </c>
       <c r="H2178" t="s">
         <v>9</v>
@@ -61514,7 +61514,7 @@
         <v>38</v>
       </c>
       <c r="G2179" t="s">
-        <v>1481</v>
+        <v>1480</v>
       </c>
       <c r="H2179" t="s">
         <v>9</v>
@@ -61540,7 +61540,7 @@
         <v>37.6500015258789</v>
       </c>
       <c r="G2180" t="s">
-        <v>1482</v>
+        <v>1481</v>
       </c>
       <c r="H2180" t="s">
         <v>9</v>
@@ -61566,7 +61566,7 @@
         <v>37.1500015258789</v>
       </c>
       <c r="G2181" t="s">
-        <v>1483</v>
+        <v>1482</v>
       </c>
       <c r="H2181" t="s">
         <v>9</v>
@@ -61592,7 +61592,7 @@
         <v>37.4500007629395</v>
       </c>
       <c r="G2182" t="s">
-        <v>1484</v>
+        <v>1483</v>
       </c>
       <c r="H2182" t="s">
         <v>9</v>
@@ -61618,7 +61618,7 @@
         <v>36.3499984741211</v>
       </c>
       <c r="G2183" t="s">
-        <v>1485</v>
+        <v>1484</v>
       </c>
       <c r="H2183" t="s">
         <v>9</v>
@@ -61644,7 +61644,7 @@
         <v>37</v>
       </c>
       <c r="G2184" t="s">
-        <v>1486</v>
+        <v>1485</v>
       </c>
       <c r="H2184" t="s">
         <v>9</v>
@@ -61670,7 +61670,7 @@
         <v>36.5999984741211</v>
       </c>
       <c r="G2185" t="s">
-        <v>1472</v>
+        <v>1471</v>
       </c>
       <c r="H2185" t="s">
         <v>9</v>
@@ -61696,7 +61696,7 @@
         <v>36.4000015258789</v>
       </c>
       <c r="G2186" t="s">
-        <v>1487</v>
+        <v>1486</v>
       </c>
       <c r="H2186" t="s">
         <v>9</v>
@@ -61722,7 +61722,7 @@
         <v>34.9500007629395</v>
       </c>
       <c r="G2187" t="s">
-        <v>1488</v>
+        <v>1487</v>
       </c>
       <c r="H2187" t="s">
         <v>9</v>
@@ -61748,7 +61748,7 @@
         <v>34.1500015258789</v>
       </c>
       <c r="G2188" t="s">
-        <v>1489</v>
+        <v>1488</v>
       </c>
       <c r="H2188" t="s">
         <v>9</v>
@@ -61774,7 +61774,7 @@
         <v>34.5</v>
       </c>
       <c r="G2189" t="s">
-        <v>1490</v>
+        <v>1489</v>
       </c>
       <c r="H2189" t="s">
         <v>9</v>
@@ -61800,7 +61800,7 @@
         <v>35.0499992370605</v>
       </c>
       <c r="G2190" t="s">
-        <v>1491</v>
+        <v>1490</v>
       </c>
       <c r="H2190" t="s">
         <v>9</v>
@@ -61826,7 +61826,7 @@
         <v>35</v>
       </c>
       <c r="G2191" t="s">
-        <v>1492</v>
+        <v>1491</v>
       </c>
       <c r="H2191" t="s">
         <v>9</v>
@@ -61852,7 +61852,7 @@
         <v>35.5</v>
       </c>
       <c r="G2192" t="s">
-        <v>1493</v>
+        <v>1492</v>
       </c>
       <c r="H2192" t="s">
         <v>9</v>
@@ -61878,7 +61878,7 @@
         <v>35.25</v>
       </c>
       <c r="G2193" t="s">
-        <v>1494</v>
+        <v>1493</v>
       </c>
       <c r="H2193" t="s">
         <v>9</v>
@@ -61904,7 +61904,7 @@
         <v>35.2000007629395</v>
       </c>
       <c r="G2194" t="s">
-        <v>1495</v>
+        <v>1494</v>
       </c>
       <c r="H2194" t="s">
         <v>9</v>
@@ -61930,7 +61930,7 @@
         <v>35.2000007629395</v>
       </c>
       <c r="G2195" t="s">
-        <v>1495</v>
+        <v>1494</v>
       </c>
       <c r="H2195" t="s">
         <v>9</v>
@@ -61956,7 +61956,7 @@
         <v>34.7000007629395</v>
       </c>
       <c r="G2196" t="s">
-        <v>1496</v>
+        <v>1495</v>
       </c>
       <c r="H2196" t="s">
         <v>9</v>
@@ -61982,7 +61982,7 @@
         <v>36.1500015258789</v>
       </c>
       <c r="G2197" t="s">
-        <v>1497</v>
+        <v>1496</v>
       </c>
       <c r="H2197" t="s">
         <v>9</v>
@@ -62008,7 +62008,7 @@
         <v>34.8499984741211</v>
       </c>
       <c r="G2198" t="s">
-        <v>1498</v>
+        <v>1497</v>
       </c>
       <c r="H2198" t="s">
         <v>9</v>
@@ -62034,7 +62034,7 @@
         <v>35.1500015258789</v>
       </c>
       <c r="G2199" t="s">
-        <v>1499</v>
+        <v>1498</v>
       </c>
       <c r="H2199" t="s">
         <v>9</v>
@@ -62060,7 +62060,7 @@
         <v>35.7999992370605</v>
       </c>
       <c r="G2200" t="s">
-        <v>1500</v>
+        <v>1499</v>
       </c>
       <c r="H2200" t="s">
         <v>9</v>
@@ -62086,7 +62086,7 @@
         <v>36.9000015258789</v>
       </c>
       <c r="G2201" t="s">
-        <v>1501</v>
+        <v>1500</v>
       </c>
       <c r="H2201" t="s">
         <v>9</v>
@@ -62112,7 +62112,7 @@
         <v>36.7999992370605</v>
       </c>
       <c r="G2202" t="s">
-        <v>1502</v>
+        <v>1501</v>
       </c>
       <c r="H2202" t="s">
         <v>9</v>
@@ -62138,7 +62138,7 @@
         <v>36.1500015258789</v>
       </c>
       <c r="G2203" t="s">
-        <v>1497</v>
+        <v>1496</v>
       </c>
       <c r="H2203" t="s">
         <v>9</v>
@@ -62164,7 +62164,7 @@
         <v>36.25</v>
       </c>
       <c r="G2204" t="s">
-        <v>1503</v>
+        <v>1502</v>
       </c>
       <c r="H2204" t="s">
         <v>9</v>
@@ -62190,7 +62190,7 @@
         <v>36.7000007629395</v>
       </c>
       <c r="G2205" t="s">
-        <v>1504</v>
+        <v>1503</v>
       </c>
       <c r="H2205" t="s">
         <v>9</v>
@@ -62198,7 +62198,7 @@
     </row>
     <row r="2206">
       <c r="A2206" s="1" t="n">
-        <v>45534.6494328704</v>
+        <v>45534.2916666667</v>
       </c>
       <c r="B2206" t="n">
         <v>15017</v>
@@ -62216,9 +62216,35 @@
         <v>37.4000015258789</v>
       </c>
       <c r="G2206" t="s">
-        <v>1479</v>
+        <v>1478</v>
       </c>
       <c r="H2206" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2207">
+      <c r="A2207" s="1" t="n">
+        <v>45537.6493055556</v>
+      </c>
+      <c r="B2207" t="n">
+        <v>4516</v>
+      </c>
+      <c r="C2207" t="n">
+        <v>37.4500007629395</v>
+      </c>
+      <c r="D2207" t="n">
+        <v>36.3499984741211</v>
+      </c>
+      <c r="E2207" t="n">
+        <v>37.2999992370605</v>
+      </c>
+      <c r="F2207" t="n">
+        <v>36.5</v>
+      </c>
+      <c r="G2207" t="s">
+        <v>1504</v>
+      </c>
+      <c r="H2207" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/MOL.MI.xlsx
+++ b/data/MOL.MI.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1525" uniqueCount="1525">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1526" uniqueCount="1526">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -38,718 +38,718 @@
     <t xml:space="preserve">ticker</t>
   </si>
   <si>
-    <t xml:space="preserve">7.02967500686646</t>
+    <t xml:space="preserve">6.93459796905518</t>
   </si>
   <si>
     <t xml:space="preserve">MOL.MI</t>
   </si>
   <si>
-    <t xml:space="preserve">6.9343113899231</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.83440589904785</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.9479341506958</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.81170034408569</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.90252304077148</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.99334573745728</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.72087717056274</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.48473930358887</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.25768136978149</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.51652669906616</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.40299844741821</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.7299599647522</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.63005542755127</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.04878997802734</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.69363069534302</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.82986497879028</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.93885231018066</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.83894777297974</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.86619424819946</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.85711145401001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.17594194412231</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.05333089828491</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.44840955734253</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.22135305404663</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.41662120819092</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.56647968292236</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.50744438171387</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.68000793457031</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.49836254119873</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.59372615814209</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.55739688873291</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.47111511230469</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.5755615234375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.52106714248657</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.80715894699097</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.60280752182007</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.38937473297119</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.40753936767578</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.43932723999023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.43024492263794</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.80261754989624</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.60734891891479</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.58010244369507</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.62097263336182</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.62551355361938</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.53469085693359</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.35758686065674</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.22589445114136</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.45295095443726</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.36666917800903</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.45749187469482</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.41208076477051</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.38483428955078</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.4211630821228</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.31671667098999</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.35304546356201</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.76174831390381</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.64822006225586</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.66638374328613</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.58918523788452</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.80682754516602</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.62135601043701</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.71409130096436</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.61208200454712</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.67699718475342</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.72800207138062</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.53325605392456</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.79291772842407</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.86710643768311</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.76973342895508</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.85783243179321</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.88101625442505</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.92738389968872</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.02939414978027</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.1267671585083</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.16849803924561</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.28905534744263</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.4420690536499</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.51162195205688</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.65072584152222</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.49307441711426</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.57190084457397</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.44670534133911</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.41888570785522</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.41424894332886</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.3864278793335</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.27978134155273</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.32614994049072</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.18704509735107</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.26587057113647</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.1406774520874</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.0201210975647</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.30296564102173</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.35397052764893</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.50234794616699</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.51625776290894</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.18240880966187</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.90883684158325</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.27514410018921</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.37251710891724</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.03866815567017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.85319566726685</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.66772317886353</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.74191236495972</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.75118684768677</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.58426094055176</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.92274761199951</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.82537508010864</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.72336483001709</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.63062953948975</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.60280704498291</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.93202066421509</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.73727560043335</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.95520544052124</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.88565349578857</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.65844964981079</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.70945501327515</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.83464860916138</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.86246919631958</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.93665790557861</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.05721473693848</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.87637996673584</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.96447944641113</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.97375249862671</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.99229907989502</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.99693584442139</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.00157308578491</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.9830265045166</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.10358285903931</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.085036277771</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.04794120788574</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.16386127471924</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.3632435798645</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.19631958007812</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.15922403335571</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.81610107421875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.87174272537231</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.06648874282837</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.11285638809204</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.2055926322937</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.17313480377197</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.38179016113281</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.24268674850464</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.2334132194519</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.25196123123169</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.3354229927063</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.2705078125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.24732398986816</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.34469747543335</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.40033864974976</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.57653713226318</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.40961217880249</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.43743324279785</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.37715435028076</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.54871654510498</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.56262636184692</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.06185150146484</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.21950340270996</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.36788082122803</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.09430932998657</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.71564102172852</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.67390871047974</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.69709396362305</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.60435724258423</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.4652533531189</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.80837726593018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.86401796340942</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.9289345741272</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.88256740570068</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.87792873382568</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.8361964225769</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.97530174255371</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.1793212890625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.55953979492188</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.63372802734375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.67082500457764</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.8006534576416</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.59663391113281</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.62909126281738</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.57808685302734</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.43898487091064</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.45752906799316</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.55490207672119</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.54562854766846</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.54099178314209</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.58272266387939</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.59199810028076</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.68936920166016</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.52244472503662</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.51780796051025</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.3091516494751</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.48535060882568</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.42043590545654</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.28596878051758</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.32306289672852</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.4992618560791</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.51317119598389</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.62445449829102</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.70328044891357</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.64300060272217</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.44361877441406</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.48998737335205</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.23960018157959</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.34624671936035</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.4946231842041</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.65227603912354</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.92121028900146</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.83002471923828</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.49617290496826</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.45907974243164</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.25506019592285</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.40343761444092</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.44053363800049</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.44980621337891</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.46835231781006</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.18087005615234</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.27360725402832</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.36634254455566</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.59818363189697</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.80220317840576</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.7187385559082</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0618648529053</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1545991897583</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4791765213013</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2009677886963</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.720290184021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1283292770386</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.091233253479</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1932430267334</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2210645675659</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0170459747314</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9892244338989</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0355920791626</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5411825180054</t>
+    <t xml:space="preserve">6.84052515029907</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.74197196960449</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.85396385192871</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.7195725440979</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.809166431427</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.89876079559326</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.6299786567688</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.39703273773193</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.17304706573486</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.42839097976685</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.31639862060547</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.63893795013428</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.54038381576538</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.96698045730591</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.60310029983521</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.73749113082886</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.84500455856323</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.74645090103149</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.77332925796509</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.76436996459961</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.09241342544556</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.97145986557007</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.3611946105957</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.13720893859863</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.32983732223511</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.47766780853271</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.41943120956421</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.58966112136841</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.41047143936157</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.50454664230347</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.46870803833008</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.38359355926514</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.48662710189819</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.43287086486816</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.71509313583374</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.51350545883179</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.30295848846436</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.32087850570679</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.35223579406738</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.3432765007019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.71061277389526</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.51798582077026</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.49110746383667</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.53142404556274</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.53590393066406</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.44631004333496</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.2716007232666</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.14168930053711</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.36567544937134</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.2805609703064</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.3701548576355</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.32535696029663</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.29847955703735</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.33431768417358</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.23128366470337</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.26712131500244</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.67029571533203</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.5583028793335</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.57622146606445</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.50006675720215</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.71476554870605</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.53180170059204</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.62328338623047</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.52265405654907</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.5866904258728</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.6370062828064</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.4448938369751</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.70104360580444</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.77422857284546</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.67817306518555</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.76507997512817</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.78795051574707</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.83369207382202</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.93432140350342</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.0303783416748</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.0715446472168</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.19047117233276</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.3414158821106</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.41002750396729</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.54725027084351</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.39173030853271</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.46949052810669</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.34599018096924</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.31854581832886</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.31397151947021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.28652715682983</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.18132305145264</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.22706413269043</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.08984088897705</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.16760063171387</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.04409980773926</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.92517375946045</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.20419311523438</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.25450801849365</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.40087938308716</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.41460132598877</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.08526706695557</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.81539583206177</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.17674875259399</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.27280521392822</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.94347047805786</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.76050662994385</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.57754278182983</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.65072822570801</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.65987634658813</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.49520874023438</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.82911777496338</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.73306226730347</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.6324315071106</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.54095077514648</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.5135064125061</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.83826589584351</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.64615392684937</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.8611364364624</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.79252529144287</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.56839466094971</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.61870956420898</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.74221038818359</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.76965522766113</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.84284019470215</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.96176624298096</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.78337717056274</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.87028551101685</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.87943267822266</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.89772939682007</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.90230369567871</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.90687799453735</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.88858127593994</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.00750684738159</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.9892110824585</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.95261812210083</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.06697082519531</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.26365613937378</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.09898948669434</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.06239652633667</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.72391366958618</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.77880334854126</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.97091436386108</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.01665592193604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.1081371307373</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.0761194229126</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.28195285797119</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.14473009109497</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.13558197021484</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.15387868881226</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.23621225357056</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.17217493057251</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.14930391311646</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.24536085128784</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.30024862289429</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.47406482696533</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.30939722061157</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.33684158325195</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.27737808227539</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.44662094116211</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.4603419303894</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.9663405418396</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.12185907363892</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.26823091506958</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.99835920333862</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.61128711700439</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.5701208114624</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.59299182891846</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.50150918960571</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.36428642272949</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.70276975631714</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.75765752792358</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.82169628143311</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.77595472335815</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.77137994766235</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.73021364212036</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.86743688583374</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.06869697570801</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.44377136230469</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.51695823669434</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.55355072021484</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.68162441253662</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.48036479949951</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.51238441467285</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.46206855773926</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.3248462677002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.34314155578613</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.43919849395752</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.43004894256592</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.42547607421875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.46664142608643</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.47579193115234</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.57184600830078</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.40717792510986</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.40260601043701</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.19677066802979</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.37058639526367</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.30654907226562</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.17390060424805</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.21049308776855</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.38430786132812</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.39803123474121</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.50781059265137</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.58556842803955</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.5261058807373</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.32941913604736</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.37515926361084</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.12815952301025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.23336315155029</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.37973308563232</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.53525447845459</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.80055141448975</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.6970739364624</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.36773872375488</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.33114433288574</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.12988471984863</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.2762565612793</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.31284999847412</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.32199668884277</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.34029388427734</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.05669975280762</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.1481819152832</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.23966503143311</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.46836853027344</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.66962814331055</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.58729457855225</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.92577934265137</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0172576904297</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3374452590942</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0629997253418</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5752992630005</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.977819442749</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9412250518799</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0418558120728</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0693016052246</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8680400848389</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8405961990356</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8863363265991</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5411834716797</t>
   </si>
   <si>
     <t xml:space="preserve">10.2893142700195</t>
   </si>
   <si>
-    <t xml:space="preserve">10.0747594833374</t>
+    <t xml:space="preserve">10.0747604370117</t>
   </si>
   <si>
     <t xml:space="preserve">10.4478979110718</t>
@@ -758,7 +758,7 @@
     <t xml:space="preserve">10.4945402145386</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3452844619751</t>
+    <t xml:space="preserve">10.3452854156494</t>
   </si>
   <si>
     <t xml:space="preserve">10.4665555953979</t>
@@ -767,34 +767,34 @@
     <t xml:space="preserve">10.5784969329834</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5598392486572</t>
+    <t xml:space="preserve">10.5598402023315</t>
   </si>
   <si>
     <t xml:space="preserve">10.606481552124</t>
   </si>
   <si>
-    <t xml:space="preserve">10.8117084503174</t>
+    <t xml:space="preserve">10.811710357666</t>
   </si>
   <si>
     <t xml:space="preserve">11.1475343704224</t>
   </si>
   <si>
-    <t xml:space="preserve">11.8471698760986</t>
+    <t xml:space="preserve">11.8471708297729</t>
   </si>
   <si>
     <t xml:space="preserve">11.6606006622314</t>
   </si>
   <si>
-    <t xml:space="preserve">11.2874612808228</t>
+    <t xml:space="preserve">11.2874622344971</t>
   </si>
   <si>
     <t xml:space="preserve">11.3714179992676</t>
   </si>
   <si>
-    <t xml:space="preserve">11.1661901473999</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2128343582153</t>
+    <t xml:space="preserve">11.1661930084229</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.212833404541</t>
   </si>
   <si>
     <t xml:space="preserve">11.1008911132812</t>
@@ -812,7 +812,7 @@
     <t xml:space="preserve">11.0542497634888</t>
   </si>
   <si>
-    <t xml:space="preserve">10.9329786300659</t>
+    <t xml:space="preserve">10.9329795837402</t>
   </si>
   <si>
     <t xml:space="preserve">10.6344680786133</t>
@@ -821,7 +821,7 @@
     <t xml:space="preserve">11.1941766738892</t>
   </si>
   <si>
-    <t xml:space="preserve">11.1288766860962</t>
+    <t xml:space="preserve">11.1288776397705</t>
   </si>
   <si>
     <t xml:space="preserve">11.5579881668091</t>
@@ -830,19 +830,19 @@
     <t xml:space="preserve">11.1382055282593</t>
   </si>
   <si>
-    <t xml:space="preserve">11.0076084136963</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5206756591797</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.4740324020386</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7818727493286</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1736688613892</t>
+    <t xml:space="preserve">11.0076065063477</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5206747055054</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4740304946899</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.78187084198</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1736660003662</t>
   </si>
   <si>
     <t xml:space="preserve">12.3975496292114</t>
@@ -851,25 +851,25 @@
     <t xml:space="preserve">11.9684410095215</t>
   </si>
   <si>
-    <t xml:space="preserve">12.5934476852417</t>
+    <t xml:space="preserve">12.5934495925903</t>
   </si>
   <si>
     <t xml:space="preserve">12.6027774810791</t>
   </si>
   <si>
-    <t xml:space="preserve">12.7520332336426</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.8266620635986</t>
+    <t xml:space="preserve">12.7520322799683</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.82666015625</t>
   </si>
   <si>
     <t xml:space="preserve">12.6121053695679</t>
   </si>
   <si>
-    <t xml:space="preserve">12.8733043670654</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.8080043792725</t>
+    <t xml:space="preserve">12.8733024597168</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.8080053329468</t>
   </si>
   <si>
     <t xml:space="preserve">12.6214332580566</t>
@@ -884,16 +884,16 @@
     <t xml:space="preserve">12.5468072891235</t>
   </si>
   <si>
-    <t xml:space="preserve">12.5747928619385</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.5654640197754</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.7613620758057</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.7053909301758</t>
+    <t xml:space="preserve">12.5747909545898</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.5654630661011</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.76136302948</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.7053899765015</t>
   </si>
   <si>
     <t xml:space="preserve">12.630763053894</t>
@@ -902,10 +902,10 @@
     <t xml:space="preserve">12.2576236724854</t>
   </si>
   <si>
-    <t xml:space="preserve">12.4721784591675</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.5001630783081</t>
+    <t xml:space="preserve">12.4721794128418</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.5001640319824</t>
   </si>
   <si>
     <t xml:space="preserve">12.3695659637451</t>
@@ -914,43 +914,43 @@
     <t xml:space="preserve">12.4441938400269</t>
   </si>
   <si>
-    <t xml:space="preserve">11.9591112136841</t>
+    <t xml:space="preserve">11.9591121673584</t>
   </si>
   <si>
     <t xml:space="preserve">12.360237121582</t>
   </si>
   <si>
-    <t xml:space="preserve">12.2482967376709</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1270246505737</t>
+    <t xml:space="preserve">12.2482948303223</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1270236968994</t>
   </si>
   <si>
     <t xml:space="preserve">12.0244121551514</t>
   </si>
   <si>
-    <t xml:space="preserve">12.3882217407227</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.3415794372559</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.015082359314</t>
+    <t xml:space="preserve">12.3882207870483</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.3415803909302</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0150842666626</t>
   </si>
   <si>
     <t xml:space="preserve">12.0337400436401</t>
   </si>
   <si>
-    <t xml:space="preserve">12.4068784713745</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.51881980896</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.4255361557007</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.4535217285156</t>
+    <t xml:space="preserve">12.4068794250488</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.5188217163086</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.4255352020264</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.4535226821899</t>
   </si>
   <si>
     <t xml:space="preserve">12.2296380996704</t>
@@ -959,34 +959,34 @@
     <t xml:space="preserve">12.322922706604</t>
   </si>
   <si>
-    <t xml:space="preserve">12.4162092208862</t>
+    <t xml:space="preserve">12.4162082672119</t>
   </si>
   <si>
     <t xml:space="preserve">12.5281496047974</t>
   </si>
   <si>
-    <t xml:space="preserve">12.2762794494629</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.5094919204712</t>
+    <t xml:space="preserve">12.2762804031372</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.5094928741455</t>
   </si>
   <si>
     <t xml:space="preserve">12.3788938522339</t>
   </si>
   <si>
-    <t xml:space="preserve">12.3322525024414</t>
+    <t xml:space="preserve">12.3322515487671</t>
   </si>
   <si>
     <t xml:space="preserve">12.1363534927368</t>
   </si>
   <si>
-    <t xml:space="preserve">12.0990409851074</t>
+    <t xml:space="preserve">12.0990390777588</t>
   </si>
   <si>
     <t xml:space="preserve">11.511344909668</t>
   </si>
   <si>
-    <t xml:space="preserve">11.7072439193726</t>
+    <t xml:space="preserve">11.7072420120239</t>
   </si>
   <si>
     <t xml:space="preserve">11.8658275604248</t>
@@ -998,58 +998,58 @@
     <t xml:space="preserve">11.7538862228394</t>
   </si>
   <si>
-    <t xml:space="preserve">11.8191843032837</t>
+    <t xml:space="preserve">11.819185256958</t>
   </si>
   <si>
     <t xml:space="preserve">11.9964256286621</t>
   </si>
   <si>
-    <t xml:space="preserve">11.8938121795654</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9404544830322</t>
+    <t xml:space="preserve">11.8938131332397</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9404554367065</t>
   </si>
   <si>
     <t xml:space="preserve">11.8098564147949</t>
   </si>
   <si>
-    <t xml:space="preserve">12.3042669296265</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.2669506072998</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.8378419876099</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7912006378174</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2594766616821</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3620891571045</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2314910888672</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.6139583587646</t>
+    <t xml:space="preserve">12.3042650222778</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2669525146484</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.8378410339355</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7912015914917</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2594757080078</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3620901107788</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2314891815186</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.613959312439</t>
   </si>
   <si>
     <t xml:space="preserve">11.5393314361572</t>
   </si>
   <si>
-    <t xml:space="preserve">11.6699304580688</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.6512727737427</t>
+    <t xml:space="preserve">11.6699295043945</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.6512718200684</t>
   </si>
   <si>
     <t xml:space="preserve">11.5673160552979</t>
   </si>
   <si>
-    <t xml:space="preserve">11.744556427002</t>
+    <t xml:space="preserve">11.7445583343506</t>
   </si>
   <si>
     <t xml:space="preserve">11.9311265945435</t>
@@ -1058,10 +1058,10 @@
     <t xml:space="preserve">12.220311164856</t>
   </si>
   <si>
-    <t xml:space="preserve">12.0803833007812</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.987096786499</t>
+    <t xml:space="preserve">12.0803823471069</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9870977401733</t>
   </si>
   <si>
     <t xml:space="preserve">13.0039014816284</t>
@@ -1070,19 +1070,19 @@
     <t xml:space="preserve">14.011378288269</t>
   </si>
   <si>
-    <t xml:space="preserve">14.1979484558105</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.1792898178101</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.0300359725952</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.0860061645508</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.7203416824341</t>
+    <t xml:space="preserve">14.1979475021362</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.1792907714844</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.0300340652466</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.0860052108765</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.7203426361084</t>
   </si>
   <si>
     <t xml:space="preserve">13.9927206039429</t>
@@ -1091,7 +1091,7 @@
     <t xml:space="preserve">13.7128667831421</t>
   </si>
   <si>
-    <t xml:space="preserve">14.2912330627441</t>
+    <t xml:space="preserve">14.2912311553955</t>
   </si>
   <si>
     <t xml:space="preserve">14.1046628952026</t>
@@ -1100,22 +1100,22 @@
     <t xml:space="preserve">13.7874946594238</t>
   </si>
   <si>
-    <t xml:space="preserve">14.4778032302856</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.6084022521973</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.6643724441528</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.5710859298706</t>
+    <t xml:space="preserve">14.4778022766113</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.6084012985229</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.6643714904785</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.5710868835449</t>
   </si>
   <si>
     <t xml:space="preserve">14.272575378418</t>
   </si>
   <si>
-    <t xml:space="preserve">13.9180917739868</t>
+    <t xml:space="preserve">13.9180927276611</t>
   </si>
   <si>
     <t xml:space="preserve">13.0785303115845</t>
@@ -1148,88 +1148,88 @@
     <t xml:space="preserve">12.1829967498779</t>
   </si>
   <si>
-    <t xml:space="preserve">12.0897121429443</t>
+    <t xml:space="preserve">12.0897102355957</t>
   </si>
   <si>
     <t xml:space="preserve">11.9031419754028</t>
   </si>
   <si>
-    <t xml:space="preserve">12.6680755615234</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.7986764907837</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.6867341995239</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.2389669418335</t>
+    <t xml:space="preserve">12.6680774688721</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.7986745834351</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.6867351531982</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2389678955078</t>
   </si>
   <si>
     <t xml:space="preserve">12.1083679199219</t>
   </si>
   <si>
-    <t xml:space="preserve">12.1456823348999</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.6792583465576</t>
+    <t xml:space="preserve">12.1456832885742</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.6792573928833</t>
   </si>
   <si>
     <t xml:space="preserve">12.5374774932861</t>
   </si>
   <si>
-    <t xml:space="preserve">11.8844833374023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9217977523804</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.3135957717896</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.4628505706787</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.4330129623413</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6195831298828</t>
+    <t xml:space="preserve">11.8844842910767</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9217987060547</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.3135948181152</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.4628496170044</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.433012008667</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6195812225342</t>
   </si>
   <si>
     <t xml:space="preserve">13.8061513900757</t>
   </si>
   <si>
-    <t xml:space="preserve">14.347204208374</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0001983642578</t>
+    <t xml:space="preserve">14.3472032546997</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0001964569092</t>
   </si>
   <si>
     <t xml:space="preserve">14.8695983886719</t>
   </si>
   <si>
-    <t xml:space="preserve">14.8322839736938</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.8882570266724</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1164274215698</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7819309234619</t>
+    <t xml:space="preserve">14.8322849273682</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.8882541656494</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1164283752441</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7819337844849</t>
   </si>
   <si>
     <t xml:space="preserve">15.49671459198</t>
   </si>
   <si>
-    <t xml:space="preserve">15.3255853652954</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.17347240448</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2115001678467</t>
+    <t xml:space="preserve">15.3255863189697</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1734714508057</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.211498260498</t>
   </si>
   <si>
     <t xml:space="preserve">15.2685413360596</t>
@@ -1241,31 +1241,31 @@
     <t xml:space="preserve">14.2227516174316</t>
   </si>
   <si>
-    <t xml:space="preserve">13.8995065689087</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.3480920791626</t>
+    <t xml:space="preserve">13.899507522583</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3480911254883</t>
   </si>
   <si>
     <t xml:space="preserve">13.6903505325317</t>
   </si>
   <si>
-    <t xml:space="preserve">13.7664070129395</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.1579475402832</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.0248460769653</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.1959762573242</t>
+    <t xml:space="preserve">13.7664060592651</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1579465866089</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.0248470306396</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1959772109985</t>
   </si>
   <si>
     <t xml:space="preserve">12.9678039550781</t>
   </si>
   <si>
-    <t xml:space="preserve">12.1691989898682</t>
+    <t xml:space="preserve">12.1691999435425</t>
   </si>
   <si>
     <t xml:space="preserve">12.6255435943604</t>
@@ -1277,10 +1277,10 @@
     <t xml:space="preserve">12.7016019821167</t>
   </si>
   <si>
-    <t xml:space="preserve">12.7776584625244</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.8347015380859</t>
+    <t xml:space="preserve">12.7776594161987</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.8347024917603</t>
   </si>
   <si>
     <t xml:space="preserve">12.9487886428833</t>
@@ -1289,19 +1289,19 @@
     <t xml:space="preserve">12.4163875579834</t>
   </si>
   <si>
-    <t xml:space="preserve">12.8156890869141</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.7966747283936</t>
+    <t xml:space="preserve">12.8156881332397</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.7966737747192</t>
   </si>
   <si>
     <t xml:space="preserve">12.8537168502808</t>
   </si>
   <si>
-    <t xml:space="preserve">12.3403291702271</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.8234510421753</t>
+    <t xml:space="preserve">12.3403282165527</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.8234491348267</t>
   </si>
   <si>
     <t xml:space="preserve">13.861478805542</t>
@@ -1310,22 +1310,22 @@
     <t xml:space="preserve">14.0516223907471</t>
   </si>
   <si>
-    <t xml:space="preserve">13.9565505981445</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.1657094955444</t>
+    <t xml:space="preserve">13.9565515518188</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.1657085418701</t>
   </si>
   <si>
     <t xml:space="preserve">13.7093639373779</t>
   </si>
   <si>
-    <t xml:space="preserve">13.6713352203369</t>
+    <t xml:space="preserve">13.6713361740112</t>
   </si>
   <si>
     <t xml:space="preserve">13.500205039978</t>
   </si>
   <si>
-    <t xml:space="preserve">13.5382328033447</t>
+    <t xml:space="preserve">13.538233757019</t>
   </si>
   <si>
     <t xml:space="preserve">13.5192203521729</t>
@@ -1334,7 +1334,7 @@
     <t xml:space="preserve">13.3290767669678</t>
   </si>
   <si>
-    <t xml:space="preserve">13.2149906158447</t>
+    <t xml:space="preserve">13.2149896621704</t>
   </si>
   <si>
     <t xml:space="preserve">13.4051342010498</t>
@@ -1343,10 +1343,10 @@
     <t xml:space="preserve">13.5572481155396</t>
   </si>
   <si>
-    <t xml:space="preserve">13.2910480499268</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.4431629180908</t>
+    <t xml:space="preserve">13.2910470962524</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.4431638717651</t>
   </si>
   <si>
     <t xml:space="preserve">12.6445579528809</t>
@@ -1355,64 +1355,64 @@
     <t xml:space="preserve">12.5875148773193</t>
   </si>
   <si>
-    <t xml:space="preserve">12.3593425750732</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.7586441040039</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.1199188232422</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.0628747940063</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.8917455673218</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.0438613891602</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.8804941177368</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.2037363052368</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.3558530807495</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.3938827514648</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.1466951370239</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.7854204177856</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5762634277344</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.8424654006958</t>
+    <t xml:space="preserve">12.3593435287476</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.7586450576782</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1199178695679</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.0628757476807</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.8917446136475</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.0438604354858</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.8804931640625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.2037372589111</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.3558521270752</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.3938817977905</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.1466941833496</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.78542137146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5762615203857</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.8424644470215</t>
   </si>
   <si>
     <t xml:space="preserve">13.6333055496216</t>
   </si>
   <si>
-    <t xml:space="preserve">14.2607803344727</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0213556289673</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5917844772339</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3636159896851</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2495279312134</t>
+    <t xml:space="preserve">14.260781288147</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.021354675293</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5917854309082</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3636150360107</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2495288848877</t>
   </si>
   <si>
     <t xml:space="preserve">16.6375770568848</t>
@@ -1427,13 +1427,13 @@
     <t xml:space="preserve">16.7326507568359</t>
   </si>
   <si>
-    <t xml:space="preserve">16.3333492279053</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.010103225708</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6868572235107</t>
+    <t xml:space="preserve">16.3333473205566</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.0101013183594</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6868581771851</t>
   </si>
   <si>
     <t xml:space="preserve">15.610800743103</t>
@@ -1442,10 +1442,10 @@
     <t xml:space="preserve">15.0974140167236</t>
   </si>
   <si>
-    <t xml:space="preserve">15.3065719604492</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.4699392318726</t>
+    <t xml:space="preserve">15.3065710067749</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.4699401855469</t>
   </si>
   <si>
     <t xml:space="preserve">14.6981115341187</t>
@@ -1460,40 +1460,40 @@
     <t xml:space="preserve">14.3368368148804</t>
   </si>
   <si>
-    <t xml:space="preserve">14.2797956466675</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.975564956665</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6142921447754</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.937536239624</t>
+    <t xml:space="preserve">14.2797946929932</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.9755659103394</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6142902374268</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.9375371932983</t>
   </si>
   <si>
     <t xml:space="preserve">14.1086654663086</t>
   </si>
   <si>
-    <t xml:space="preserve">14.9643125534058</t>
+    <t xml:space="preserve">14.9643115997314</t>
   </si>
   <si>
     <t xml:space="preserve">14.5650110244751</t>
   </si>
   <si>
-    <t xml:space="preserve">14.5079679489136</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.648829460144</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0593852996826</t>
+    <t xml:space="preserve">14.5079689025879</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6488275527954</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0593843460083</t>
   </si>
   <si>
     <t xml:space="preserve">16.1812362670898</t>
   </si>
   <si>
-    <t xml:space="preserve">16.1622219085693</t>
+    <t xml:space="preserve">16.1622161865234</t>
   </si>
   <si>
     <t xml:space="preserve">16.3523635864258</t>
@@ -1502,16 +1502,16 @@
     <t xml:space="preserve">16.1432037353516</t>
   </si>
   <si>
-    <t xml:space="preserve">15.9720735549927</t>
+    <t xml:space="preserve">15.972071647644</t>
   </si>
   <si>
     <t xml:space="preserve">15.5537586212158</t>
   </si>
   <si>
-    <t xml:space="preserve">16.1241874694824</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.4474353790283</t>
+    <t xml:space="preserve">16.1241893768311</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.4474334716797</t>
   </si>
   <si>
     <t xml:space="preserve">16.2002506256104</t>
@@ -1520,7 +1520,7 @@
     <t xml:space="preserve">16.4284210205078</t>
   </si>
   <si>
-    <t xml:space="preserve">15.7439002990723</t>
+    <t xml:space="preserve">15.7439012527466</t>
   </si>
   <si>
     <t xml:space="preserve">15.8960161209106</t>
@@ -1529,7 +1529,7 @@
     <t xml:space="preserve">16.0291175842285</t>
   </si>
   <si>
-    <t xml:space="preserve">15.1544561386108</t>
+    <t xml:space="preserve">15.1544570922852</t>
   </si>
   <si>
     <t xml:space="preserve">15.9530611038208</t>
@@ -1544,7 +1544,7 @@
     <t xml:space="preserve">15.0023403167725</t>
   </si>
   <si>
-    <t xml:space="preserve">14.6410684585571</t>
+    <t xml:space="preserve">14.6410675048828</t>
   </si>
   <si>
     <t xml:space="preserve">14.9072694778442</t>
@@ -1559,13 +1559,13 @@
     <t xml:space="preserve">15.8389730453491</t>
   </si>
   <si>
-    <t xml:space="preserve">15.135440826416</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5157289505005</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8579874038696</t>
+    <t xml:space="preserve">15.1354427337646</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5157279968262</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8579893112183</t>
   </si>
   <si>
     <t xml:space="preserve">15.7248888015747</t>
@@ -1583,31 +1583,31 @@
     <t xml:space="preserve">16.0861587524414</t>
   </si>
   <si>
-    <t xml:space="preserve">15.7058744430542</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.774169921875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.7171249389648</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9452991485596</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.287558555603</t>
+    <t xml:space="preserve">15.7058753967285</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.7741689682007</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.7171258926392</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9452972412109</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2875576019287</t>
   </si>
   <si>
     <t xml:space="preserve">15.1924848556519</t>
   </si>
   <si>
-    <t xml:space="preserve">15.3826284408569</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.2953186035156</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.1129379272461</t>
+    <t xml:space="preserve">15.3826293945312</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.2953205108643</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.1129360198975</t>
   </si>
   <si>
     <t xml:space="preserve">17.3411083221436</t>
@@ -1616,28 +1616,28 @@
     <t xml:space="preserve">17.3601226806641</t>
   </si>
   <si>
-    <t xml:space="preserve">17.3981513977051</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.2080078125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.1699771881104</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.1587257385254</t>
+    <t xml:space="preserve">17.3981494903564</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.2080097198486</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.1699810028076</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.158727645874</t>
   </si>
   <si>
     <t xml:space="preserve">17.5122394561768</t>
   </si>
   <si>
-    <t xml:space="preserve">17.4551963806152</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.4742088317871</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.6073112487793</t>
+    <t xml:space="preserve">17.4551944732666</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.4742069244385</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.6073131561279</t>
   </si>
   <si>
     <t xml:space="preserve">17.1509666442871</t>
@@ -1646,19 +1646,19 @@
     <t xml:space="preserve">17.4932231903076</t>
   </si>
   <si>
-    <t xml:space="preserve">17.5502681732178</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.9685840606689</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.9305553436279</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.6643524169922</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.4361782073975</t>
+    <t xml:space="preserve">17.5502662658691</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.9685821533203</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.9305572509766</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.6643543243408</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.4361801147461</t>
   </si>
   <si>
     <t xml:space="preserve">17.246036529541</t>
@@ -1667,7 +1667,7 @@
     <t xml:space="preserve">16.675609588623</t>
   </si>
   <si>
-    <t xml:space="preserve">16.6946201324463</t>
+    <t xml:space="preserve">16.6946220397949</t>
   </si>
   <si>
     <t xml:space="preserve">16.3903903961182</t>
@@ -1676,205 +1676,205 @@
     <t xml:space="preserve">16.960823059082</t>
   </si>
   <si>
+    <t xml:space="preserve">16.2572917938232</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.6830749511719</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.6443691253662</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.489538192749</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.5475997924805</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.3347053527832</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.1024589538574</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.0831050872803</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.7798461914062</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.9153232574463</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.9346771240234</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.8572597503662</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.7411365509033</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.5282440185547</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.6250152587891</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.044397354126</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.5669555664062</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.0637512207031</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.1218128204346</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9669799804688</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8315048217773</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7540884017944</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5218420028687</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4637794494629</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4057188034058</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0767011642456</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2895936965942</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3283023834229</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2315311431885</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1928234100342</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0960550308228</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.21217918396</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3476552963257</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1541166305542</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9605779647827</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9412221908569</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.8057479858398</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5411949157715</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2702388763428</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9218702316284</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0573472976685</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2508869171143</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.8831624984741</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.8444538116455</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9992847442627</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1154079437256</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9025144577026</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9799308776855</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.6315612792969</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.6702680587769</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.6896228790283</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.5928525924683</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.7283315658569</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.7089767456055</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.554144859314</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.5347909927368</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.7476835250854</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0186405181885</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.650915145874</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4444246292114</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.48313331604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7734422683716</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6186103820801</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8121500015259</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8895654678345</t>
+  </si>
+  <si>
     <t xml:space="preserve">16.2572898864746</t>
   </si>
   <si>
-    <t xml:space="preserve">16.6830749511719</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.6443691253662</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.4895401000977</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.5475978851318</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.3347053527832</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.1024570465088</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.0831050872803</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.7798480987549</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.9153232574463</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.9346771240234</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.8572597503662</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.741138458252</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.5282440185547</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.6250152587891</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.044397354126</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.5669536590576</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.0637512207031</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.1218109130859</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9669799804688</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8315048217773</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7540893554688</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5218410491943</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4637794494629</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4057168960571</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0767011642456</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2895946502686</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3283023834229</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2315330505371</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1928234100342</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0960559844971</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.21217918396</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3476552963257</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1541175842285</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9605779647827</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9412231445312</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.8057470321655</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5411939620972</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2702388763428</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9218692779541</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1734714508057</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0573472976685</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2508859634399</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.8831634521484</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.8444528579712</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9992847442627</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1154079437256</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.902515411377</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9799308776855</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.6315612792969</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.6702690124512</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.6896228790283</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.5928516387939</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.7283306121826</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.7089757919312</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.5541458129883</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.5347919464111</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.7476844787598</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0186405181885</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.6509160995483</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4444265365601</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4831342697144</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7734422683716</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6186113357544</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8121500015259</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8895654678345</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8702087402344</t>
+    <t xml:space="preserve">15.870210647583</t>
   </si>
   <si>
     <t xml:space="preserve">15.9089202880859</t>
@@ -1886,28 +1886,28 @@
     <t xml:space="preserve">15.734733581543</t>
   </si>
   <si>
-    <t xml:space="preserve">15.7153806686401</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9476270675659</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6766729354858</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5992565155029</t>
+    <t xml:space="preserve">15.7153787612915</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9476251602173</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6766738891602</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5992574691772</t>
   </si>
   <si>
     <t xml:space="preserve">15.9282732009888</t>
   </si>
   <si>
-    <t xml:space="preserve">16.0250415802002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.2185840606689</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.2636947631836</t>
+    <t xml:space="preserve">16.0250434875488</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.2185821533203</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.263692855835</t>
   </si>
   <si>
     <t xml:space="preserve">17.1088619232178</t>
@@ -1919,7 +1919,7 @@
     <t xml:space="preserve">16.9927387237549</t>
   </si>
   <si>
-    <t xml:space="preserve">17.0895080566406</t>
+    <t xml:space="preserve">17.0895099639893</t>
   </si>
   <si>
     <t xml:space="preserve">17.2249851226807</t>
@@ -1928,10 +1928,10 @@
     <t xml:space="preserve">17.3798160552979</t>
   </si>
   <si>
-    <t xml:space="preserve">18.3862209320068</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.2894515991211</t>
+    <t xml:space="preserve">18.3862190246582</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.2894496917725</t>
   </si>
   <si>
     <t xml:space="preserve">17.7088317871094</t>
@@ -1940,16 +1940,16 @@
     <t xml:space="preserve">17.7668972015381</t>
   </si>
   <si>
-    <t xml:space="preserve">18.2120342254639</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.0959148406982</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.231388092041</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.0765590667725</t>
+    <t xml:space="preserve">18.2120361328125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.0959129333496</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.2313899993896</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.0765571594238</t>
   </si>
   <si>
     <t xml:space="preserve">18.0572032928467</t>
@@ -1967,10 +1967,10 @@
     <t xml:space="preserve">18.8700695037842</t>
   </si>
   <si>
-    <t xml:space="preserve">19.2184391021729</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.1410236358643</t>
+    <t xml:space="preserve">19.2184410095215</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.1410255432129</t>
   </si>
   <si>
     <t xml:space="preserve">18.6571769714355</t>
@@ -1982,10 +1982,10 @@
     <t xml:space="preserve">19.0249004364014</t>
   </si>
   <si>
-    <t xml:space="preserve">19.547456741333</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.9345359802246</t>
+    <t xml:space="preserve">19.5474586486816</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.934534072876</t>
   </si>
   <si>
     <t xml:space="preserve">19.6442260742188</t>
@@ -2000,7 +2000,7 @@
     <t xml:space="preserve">18.9668388366699</t>
   </si>
   <si>
-    <t xml:space="preserve">19.7409954071045</t>
+    <t xml:space="preserve">19.7409934997559</t>
   </si>
   <si>
     <t xml:space="preserve">19.8377628326416</t>
@@ -2009,7 +2009,7 @@
     <t xml:space="preserve">19.8861484527588</t>
   </si>
   <si>
-    <t xml:space="preserve">19.4506855010986</t>
+    <t xml:space="preserve">19.4506874084473</t>
   </si>
   <si>
     <t xml:space="preserve">19.6926097869873</t>
@@ -2018,13 +2018,13 @@
     <t xml:space="preserve">20.3216133117676</t>
   </si>
   <si>
-    <t xml:space="preserve">20.3699970245361</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.3537731170654</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.2893085479736</t>
+    <t xml:space="preserve">20.3699951171875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.3537712097168</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.289306640625</t>
   </si>
   <si>
     <t xml:space="preserve">21.2409229278564</t>
@@ -2048,25 +2048,25 @@
     <t xml:space="preserve">20.0796890258789</t>
   </si>
   <si>
-    <t xml:space="preserve">20.4183807373047</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.1280708312988</t>
+    <t xml:space="preserve">20.4183826446533</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.1280727386475</t>
   </si>
   <si>
     <t xml:space="preserve">19.9829177856445</t>
   </si>
   <si>
-    <t xml:space="preserve">19.1990852355957</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.902229309082</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.047384262085</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.7086925506592</t>
+    <t xml:space="preserve">19.1990871429443</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.9022312164307</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.0473823547363</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.7086887359619</t>
   </si>
   <si>
     <t xml:space="preserve">21.3860778808594</t>
@@ -2078,7 +2078,7 @@
     <t xml:space="preserve">21.3376922607422</t>
   </si>
   <si>
-    <t xml:space="preserve">21.7731552124023</t>
+    <t xml:space="preserve">21.7731533050537</t>
   </si>
   <si>
     <t xml:space="preserve">21.5796184539795</t>
@@ -2087,16 +2087,16 @@
     <t xml:space="preserve">21.9666957855225</t>
   </si>
   <si>
-    <t xml:space="preserve">20.1764583587646</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.2248439788818</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.8507137298584</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.3088054656982</t>
+    <t xml:space="preserve">20.176456451416</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.2248420715332</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.8507118225098</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.3088073730469</t>
   </si>
   <si>
     <t xml:space="preserve">17.7281875610352</t>
@@ -2105,7 +2105,7 @@
     <t xml:space="preserve">16.4121189117432</t>
   </si>
   <si>
-    <t xml:space="preserve">16.2959976196289</t>
+    <t xml:space="preserve">16.2959957122803</t>
   </si>
   <si>
     <t xml:space="preserve">14.5734996795654</t>
@@ -2123,10 +2123,10 @@
     <t xml:space="preserve">12.2123212814331</t>
   </si>
   <si>
-    <t xml:space="preserve">12.7735862731934</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.9864768981934</t>
+    <t xml:space="preserve">12.773585319519</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.986478805542</t>
   </si>
   <si>
     <t xml:space="preserve">12.0574893951416</t>
@@ -2147,22 +2147,22 @@
     <t xml:space="preserve">14.3799591064453</t>
   </si>
   <si>
-    <t xml:space="preserve">14.2057752609253</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.8250999450684</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.1864204406738</t>
+    <t xml:space="preserve">14.205774307251</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.825098991394</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.1864213943481</t>
   </si>
   <si>
     <t xml:space="preserve">15.5024871826172</t>
   </si>
   <si>
-    <t xml:space="preserve">16.9733867645264</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.2766437530518</t>
+    <t xml:space="preserve">16.9733848571777</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.2766418457031</t>
   </si>
   <si>
     <t xml:space="preserve">16.3153533935547</t>
@@ -2174,16 +2174,16 @@
     <t xml:space="preserve">16.1605224609375</t>
   </si>
   <si>
-    <t xml:space="preserve">16.2379360198975</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.1411647796631</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.7024307250977</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.3217544555664</t>
+    <t xml:space="preserve">16.2379379272461</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.1411666870117</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.702428817749</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.321756362915</t>
   </si>
   <si>
     <t xml:space="preserve">16.8185520172119</t>
@@ -2195,22 +2195,22 @@
     <t xml:space="preserve">17.1669235229492</t>
   </si>
   <si>
-    <t xml:space="preserve">18.3668670654297</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.753942489624</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.1891841888428</t>
+    <t xml:space="preserve">18.3668651580811</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.7539443969727</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.1891860961914</t>
   </si>
   <si>
     <t xml:space="preserve">17.8775939941406</t>
   </si>
   <si>
-    <t xml:space="preserve">17.5659999847412</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.5465297698975</t>
+    <t xml:space="preserve">17.5660018920898</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.5465278625488</t>
   </si>
   <si>
     <t xml:space="preserve">17.3128337860107</t>
@@ -2219,16 +2219,16 @@
     <t xml:space="preserve">17.059663772583</t>
   </si>
   <si>
-    <t xml:space="preserve">17.5270519256592</t>
+    <t xml:space="preserve">17.5270538330078</t>
   </si>
   <si>
     <t xml:space="preserve">17.7217979431152</t>
   </si>
   <si>
-    <t xml:space="preserve">17.2738857269287</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.7607440948486</t>
+    <t xml:space="preserve">17.2738838195801</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.7607460021973</t>
   </si>
   <si>
     <t xml:space="preserve">17.6049499511719</t>
@@ -2243,7 +2243,7 @@
     <t xml:space="preserve">18.052864074707</t>
   </si>
   <si>
-    <t xml:space="preserve">18.1697120666504</t>
+    <t xml:space="preserve">18.1697101593018</t>
   </si>
   <si>
     <t xml:space="preserve">18.5007762908936</t>
@@ -2255,7 +2255,7 @@
     <t xml:space="preserve">18.013916015625</t>
   </si>
   <si>
-    <t xml:space="preserve">18.3449802398682</t>
+    <t xml:space="preserve">18.3449821472168</t>
   </si>
   <si>
     <t xml:space="preserve">18.3644561767578</t>
@@ -2267,22 +2267,22 @@
     <t xml:space="preserve">18.5592002868652</t>
   </si>
   <si>
-    <t xml:space="preserve">18.2281341552734</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.1502361297607</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.9486904144287</t>
+    <t xml:space="preserve">18.2281322479248</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.1502342224121</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.9486885070801</t>
   </si>
   <si>
     <t xml:space="preserve">18.890266418457</t>
   </si>
   <si>
-    <t xml:space="preserve">18.7928924560547</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.0265865325928</t>
+    <t xml:space="preserve">18.7928943634033</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.0265884399414</t>
   </si>
   <si>
     <t xml:space="preserve">19.1629104614258</t>
@@ -2294,7 +2294,7 @@
     <t xml:space="preserve">19.4745025634766</t>
   </si>
   <si>
-    <t xml:space="preserve">19.0655384063721</t>
+    <t xml:space="preserve">19.0655364990234</t>
   </si>
   <si>
     <t xml:space="preserve">19.2213325500488</t>
@@ -2309,13 +2309,13 @@
     <t xml:space="preserve">19.6205596923828</t>
   </si>
   <si>
-    <t xml:space="preserve">19.7666168212891</t>
+    <t xml:space="preserve">19.7666187286377</t>
   </si>
   <si>
     <t xml:space="preserve">20.204797744751</t>
   </si>
   <si>
-    <t xml:space="preserve">20.4482288360596</t>
+    <t xml:space="preserve">20.4482269287109</t>
   </si>
   <si>
     <t xml:space="preserve">20.7403450012207</t>
@@ -2327,13 +2327,13 @@
     <t xml:space="preserve">21.1785202026367</t>
   </si>
   <si>
-    <t xml:space="preserve">21.4219512939453</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.8601303100586</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.324577331543</t>
+    <t xml:space="preserve">21.4219493865967</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.86012840271</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.3245792388916</t>
   </si>
   <si>
     <t xml:space="preserve">21.7140693664551</t>
@@ -2348,22 +2348,22 @@
     <t xml:space="preserve">21.4706382751465</t>
   </si>
   <si>
-    <t xml:space="preserve">21.9088153839111</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.590425491333</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.0772857666016</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.931224822998</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.4667739868164</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.5641460418701</t>
+    <t xml:space="preserve">21.9088134765625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.5904235839844</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.0772838592529</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.9312267303467</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.466775894165</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.5641479492188</t>
   </si>
   <si>
     <t xml:space="preserve">24.245756149292</t>
@@ -2387,13 +2387,13 @@
     <t xml:space="preserve">23.8075790405273</t>
   </si>
   <si>
-    <t xml:space="preserve">22.8825378417969</t>
+    <t xml:space="preserve">22.8825397491455</t>
   </si>
   <si>
     <t xml:space="preserve">23.1746559143066</t>
   </si>
   <si>
-    <t xml:space="preserve">23.6128330230713</t>
+    <t xml:space="preserve">23.6128311157227</t>
   </si>
   <si>
     <t xml:space="preserve">23.2233448028564</t>
@@ -2408,37 +2408,37 @@
     <t xml:space="preserve">21.9575004577637</t>
   </si>
   <si>
-    <t xml:space="preserve">22.2009315490723</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.3732681274414</t>
+    <t xml:space="preserve">22.2009334564209</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.3732662200928</t>
   </si>
   <si>
     <t xml:space="preserve">21.7627582550049</t>
   </si>
   <si>
-    <t xml:space="preserve">20.5942859649658</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.5193252563477</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.2272052764893</t>
+    <t xml:space="preserve">20.5942840576172</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.519323348999</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.2272071838379</t>
   </si>
   <si>
     <t xml:space="preserve">21.6166973114014</t>
   </si>
   <si>
-    <t xml:space="preserve">22.3469905853271</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.1035594940186</t>
+    <t xml:space="preserve">22.3469924926758</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.1035614013672</t>
   </si>
   <si>
     <t xml:space="preserve">21.081148147583</t>
   </si>
   <si>
-    <t xml:space="preserve">22.2496166229248</t>
+    <t xml:space="preserve">22.2496185302734</t>
   </si>
   <si>
     <t xml:space="preserve">22.493049621582</t>
@@ -2447,16 +2447,16 @@
     <t xml:space="preserve">22.0548725128174</t>
   </si>
   <si>
-    <t xml:space="preserve">22.9799137115479</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.7851657867432</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.5865573883057</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.489185333252</t>
+    <t xml:space="preserve">22.9799098968506</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.7851676940918</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.5865592956543</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.4891872406006</t>
   </si>
   <si>
     <t xml:space="preserve">24.3918132781982</t>
@@ -2483,13 +2483,13 @@
     <t xml:space="preserve">27.8485374450684</t>
   </si>
   <si>
-    <t xml:space="preserve">28.8222637176514</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.0881061553955</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.1143779754639</t>
+    <t xml:space="preserve">28.822265625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.0881042480469</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.1143798828125</t>
   </si>
   <si>
     <t xml:space="preserve">29.9420471191406</t>
@@ -2498,31 +2498,31 @@
     <t xml:space="preserve">30.5749683380127</t>
   </si>
   <si>
-    <t xml:space="preserve">31.1105175018311</t>
+    <t xml:space="preserve">31.1105194091797</t>
   </si>
   <si>
     <t xml:space="preserve">31.9381828308105</t>
   </si>
   <si>
-    <t xml:space="preserve">32.2303009033203</t>
+    <t xml:space="preserve">32.230297088623</t>
   </si>
   <si>
     <t xml:space="preserve">31.7434387207031</t>
   </si>
   <si>
-    <t xml:space="preserve">32.2789840698242</t>
+    <t xml:space="preserve">32.2789878845215</t>
   </si>
   <si>
     <t xml:space="preserve">31.4513187408447</t>
   </si>
   <si>
-    <t xml:space="preserve">32.3763618469238</t>
+    <t xml:space="preserve">32.3763580322266</t>
   </si>
   <si>
     <t xml:space="preserve">32.5224227905273</t>
   </si>
   <si>
-    <t xml:space="preserve">33.4961471557617</t>
+    <t xml:space="preserve">33.4961433410645</t>
   </si>
   <si>
     <t xml:space="preserve">33.3987693786621</t>
@@ -2531,22 +2531,22 @@
     <t xml:space="preserve">33.0092811584473</t>
   </si>
   <si>
-    <t xml:space="preserve">33.6908874511719</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.9343147277832</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.3238067626953</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.956729888916</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.8106727600098</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.5896530151367</t>
+    <t xml:space="preserve">33.6908836364746</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.9343185424805</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.3238105773926</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.9567337036133</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.810676574707</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.5896492004395</t>
   </si>
   <si>
     <t xml:space="preserve">35.6870269775391</t>
@@ -2573,43 +2573,43 @@
     <t xml:space="preserve">32.9605941772461</t>
   </si>
   <si>
-    <t xml:space="preserve">32.9119071960449</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.1329307556152</t>
+    <t xml:space="preserve">32.9119110107422</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.132926940918</t>
   </si>
   <si>
     <t xml:space="preserve">30.5262813568115</t>
   </si>
   <si>
-    <t xml:space="preserve">31.0131454467773</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.7697143554688</t>
+    <t xml:space="preserve">31.013147354126</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.7697124481201</t>
   </si>
   <si>
     <t xml:space="preserve">30.6723403930664</t>
   </si>
   <si>
-    <t xml:space="preserve">31.3052654266357</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.6422004699707</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.080379486084</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.4922828674316</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.8817672729492</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.9304618835449</t>
-  </si>
-  <si>
-    <t xml:space="preserve">37.4884185791016</t>
+    <t xml:space="preserve">31.3052635192871</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.642204284668</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.0803756713867</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.4922790527344</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.8817710876465</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.9304580688477</t>
+  </si>
+  <si>
+    <t xml:space="preserve">37.4884147644043</t>
   </si>
   <si>
     <t xml:space="preserve">37.2449836730957</t>
@@ -2624,19 +2624,19 @@
     <t xml:space="preserve">36.6607513427734</t>
   </si>
   <si>
-    <t xml:space="preserve">35.2975387573242</t>
+    <t xml:space="preserve">35.297534942627</t>
   </si>
   <si>
     <t xml:space="preserve">35.2001647949219</t>
   </si>
   <si>
-    <t xml:space="preserve">36.904182434082</t>
-  </si>
-  <si>
-    <t xml:space="preserve">37.2936744689941</t>
-  </si>
-  <si>
-    <t xml:space="preserve">37.8779029846191</t>
+    <t xml:space="preserve">36.9041862487793</t>
+  </si>
+  <si>
+    <t xml:space="preserve">37.2936706542969</t>
+  </si>
+  <si>
+    <t xml:space="preserve">37.8779067993164</t>
   </si>
   <si>
     <t xml:space="preserve">38.2673950195312</t>
@@ -2651,19 +2651,19 @@
     <t xml:space="preserve">40.068790435791</t>
   </si>
   <si>
-    <t xml:space="preserve">39.9227294921875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">38.8029403686523</t>
+    <t xml:space="preserve">39.9227256774902</t>
+  </si>
+  <si>
+    <t xml:space="preserve">38.8029441833496</t>
   </si>
   <si>
     <t xml:space="preserve">38.9490051269531</t>
   </si>
   <si>
-    <t xml:space="preserve">39.8740425109863</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40.7017097473145</t>
+    <t xml:space="preserve">39.8740463256836</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40.7017059326172</t>
   </si>
   <si>
     <t xml:space="preserve">40.409595489502</t>
@@ -2681,370 +2681,373 @@
     <t xml:space="preserve">42.162296295166</t>
   </si>
   <si>
-    <t xml:space="preserve">40.3122177124023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41.431999206543</t>
+    <t xml:space="preserve">40.3122215270996</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41.4320068359375</t>
   </si>
   <si>
     <t xml:space="preserve">42.1136131286621</t>
   </si>
   <si>
+    <t xml:space="preserve">42.6004753112793</t>
+  </si>
+  <si>
+    <t xml:space="preserve">42.3083610534668</t>
+  </si>
+  <si>
+    <t xml:space="preserve">42.8925895690918</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41.8701782226562</t>
+  </si>
+  <si>
+    <t xml:space="preserve">42.6491584777832</t>
+  </si>
+  <si>
+    <t xml:space="preserve">43.7689437866211</t>
+  </si>
+  <si>
+    <t xml:space="preserve">44.4018669128418</t>
+  </si>
+  <si>
+    <t xml:space="preserve">44.9860992431641</t>
+  </si>
+  <si>
+    <t xml:space="preserve">45.0347862243652</t>
+  </si>
+  <si>
+    <t xml:space="preserve">45.9598197937012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">44.6939849853516</t>
+  </si>
+  <si>
+    <t xml:space="preserve">45.2782135009766</t>
+  </si>
+  <si>
+    <t xml:space="preserve">46.3006286621094</t>
+  </si>
+  <si>
+    <t xml:space="preserve">45.765079498291</t>
+  </si>
+  <si>
+    <t xml:space="preserve">45.2295341491699</t>
+  </si>
+  <si>
+    <t xml:space="preserve">46.544059753418</t>
+  </si>
+  <si>
+    <t xml:space="preserve">45.4242782592773</t>
+  </si>
+  <si>
+    <t xml:space="preserve">44.8887252807617</t>
+  </si>
+  <si>
+    <t xml:space="preserve">44.7913551330566</t>
+  </si>
+  <si>
+    <t xml:space="preserve">44.5479278564453</t>
+  </si>
+  <si>
+    <t xml:space="preserve">44.1097450256348</t>
+  </si>
+  <si>
+    <t xml:space="preserve">43.4281387329102</t>
+  </si>
+  <si>
+    <t xml:space="preserve">43.5741996765137</t>
+  </si>
+  <si>
+    <t xml:space="preserve">43.5255165100098</t>
+  </si>
+  <si>
+    <t xml:space="preserve">43.1360244750977</t>
+  </si>
+  <si>
+    <t xml:space="preserve">43.3307685852051</t>
+  </si>
+  <si>
+    <t xml:space="preserve">44.3044891357422</t>
+  </si>
+  <si>
+    <t xml:space="preserve">43.6715698242188</t>
+  </si>
+  <si>
+    <t xml:space="preserve">42.6978416442871</t>
+  </si>
+  <si>
+    <t xml:space="preserve">42.1582565307617</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40.2911033630371</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40.0454292297363</t>
+  </si>
+  <si>
+    <t xml:space="preserve">39.7014846801758</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40.3402404785156</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41.126407623291</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40.2419738769531</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41.0281372070312</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40.9298667907715</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40.4385147094727</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40.1436958312988</t>
+  </si>
+  <si>
+    <t xml:space="preserve">39.898021697998</t>
+  </si>
+  <si>
+    <t xml:space="preserve">39.8488845825195</t>
+  </si>
+  <si>
+    <t xml:space="preserve">39.9962921142578</t>
+  </si>
+  <si>
+    <t xml:space="preserve">39.504940032959</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40.5367851257324</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40.1928367614746</t>
+  </si>
+  <si>
+    <t xml:space="preserve">38.1291427612305</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36.949893951416</t>
+  </si>
+  <si>
+    <t xml:space="preserve">37.8343276977539</t>
+  </si>
+  <si>
+    <t xml:space="preserve">38.3256874084473</t>
+  </si>
+  <si>
+    <t xml:space="preserve">39.799747467041</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41.9617118835449</t>
+  </si>
+  <si>
+    <t xml:space="preserve">42.3547973632812</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41.7160377502441</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41.3229484558105</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40.6350517272949</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40.6841926574707</t>
+  </si>
+  <si>
+    <t xml:space="preserve">42.453067779541</t>
+  </si>
+  <si>
+    <t xml:space="preserve">42.3056602478027</t>
+  </si>
+  <si>
+    <t xml:space="preserve">42.207389831543</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41.6669006347656</t>
+  </si>
+  <si>
+    <t xml:space="preserve">42.9935607910156</t>
+  </si>
+  <si>
+    <t xml:space="preserve">45.6468772888184</t>
+  </si>
+  <si>
+    <t xml:space="preserve">45.6960067749023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">46.482177734375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">48.1527824401855</t>
+  </si>
+  <si>
+    <t xml:space="preserve">47.6122932434082</t>
+  </si>
+  <si>
+    <t xml:space="preserve">48.1036529541016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">48.8406791687012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">48.8898162841797</t>
+  </si>
+  <si>
+    <t xml:space="preserve">49.1354942321777</t>
+  </si>
+  <si>
+    <t xml:space="preserve">48.4967269897461</t>
+  </si>
+  <si>
+    <t xml:space="preserve">50.0199356079102</t>
+  </si>
+  <si>
+    <t xml:space="preserve">50.2164764404297</t>
+  </si>
+  <si>
+    <t xml:space="preserve">50.1182060241699</t>
+  </si>
+  <si>
+    <t xml:space="preserve">50.3147468566895</t>
+  </si>
+  <si>
+    <t xml:space="preserve">51.0026435852051</t>
+  </si>
+  <si>
+    <t xml:space="preserve">51.6905403137207</t>
+  </si>
+  <si>
+    <t xml:space="preserve">50.609561920166</t>
+  </si>
+  <si>
+    <t xml:space="preserve">50.9043731689453</t>
+  </si>
+  <si>
+    <t xml:space="preserve">50.8060989379883</t>
+  </si>
+  <si>
+    <t xml:space="preserve">51.5922737121582</t>
+  </si>
+  <si>
+    <t xml:space="preserve">50.5112915039062</t>
+  </si>
+  <si>
+    <t xml:space="preserve">51.1009178161621</t>
+  </si>
+  <si>
+    <t xml:space="preserve">51.2974548339844</t>
+  </si>
+  <si>
+    <t xml:space="preserve">52.1818923950195</t>
+  </si>
+  <si>
+    <t xml:space="preserve">52.2801666259766</t>
+  </si>
+  <si>
+    <t xml:space="preserve">51.1991844177246</t>
+  </si>
+  <si>
+    <t xml:space="preserve">45.5485992431641</t>
+  </si>
+  <si>
+    <t xml:space="preserve">44.8115730285645</t>
+  </si>
+  <si>
+    <t xml:space="preserve">43.7797241210938</t>
+  </si>
+  <si>
+    <t xml:space="preserve">44.5167579650879</t>
+  </si>
+  <si>
+    <t xml:space="preserve">44.5658912658691</t>
+  </si>
+  <si>
+    <t xml:space="preserve">45.2046546936035</t>
+  </si>
+  <si>
+    <t xml:space="preserve">44.3202133178711</t>
+  </si>
+  <si>
+    <t xml:space="preserve">44.0745391845703</t>
+  </si>
+  <si>
+    <t xml:space="preserve">44.7132987976074</t>
+  </si>
+  <si>
+    <t xml:space="preserve">44.2219429016113</t>
+  </si>
+  <si>
+    <t xml:space="preserve">44.4676208496094</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41.4703598022461</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41.224681854248</t>
+  </si>
+  <si>
+    <t xml:space="preserve">42.0108489990234</t>
+  </si>
+  <si>
+    <t xml:space="preserve">42.5513381958008</t>
+  </si>
+  <si>
+    <t xml:space="preserve">43.3375053405762</t>
+  </si>
+  <si>
+    <t xml:space="preserve">43.534049987793</t>
+  </si>
+  <si>
+    <t xml:space="preserve">43.9762687683105</t>
+  </si>
+  <si>
+    <t xml:space="preserve">44.6150321960449</t>
+  </si>
+  <si>
+    <t xml:space="preserve">45.7451438903809</t>
+  </si>
+  <si>
+    <t xml:space="preserve">46.383903503418</t>
+  </si>
+  <si>
+    <t xml:space="preserve">45.9416885375977</t>
+  </si>
+  <si>
+    <t xml:space="preserve">46.0399551391602</t>
+  </si>
+  <si>
+    <t xml:space="preserve">43.0426940917969</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41.5194931030273</t>
+  </si>
+  <si>
+    <t xml:space="preserve">42.9444236755371</t>
+  </si>
+  <si>
+    <t xml:space="preserve">43.3866424560547</t>
+  </si>
+  <si>
     <t xml:space="preserve">42.600471496582</t>
   </si>
   <si>
-    <t xml:space="preserve">42.3083572387695</t>
-  </si>
-  <si>
-    <t xml:space="preserve">42.8925933837891</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41.8701782226562</t>
-  </si>
-  <si>
-    <t xml:space="preserve">42.6491546630859</t>
-  </si>
-  <si>
-    <t xml:space="preserve">43.7689399719238</t>
-  </si>
-  <si>
-    <t xml:space="preserve">44.4018630981445</t>
-  </si>
-  <si>
-    <t xml:space="preserve">44.9860992431641</t>
-  </si>
-  <si>
-    <t xml:space="preserve">45.0347862243652</t>
-  </si>
-  <si>
-    <t xml:space="preserve">45.9598274230957</t>
-  </si>
-  <si>
-    <t xml:space="preserve">44.6939811706543</t>
-  </si>
-  <si>
-    <t xml:space="preserve">45.2782173156738</t>
-  </si>
-  <si>
-    <t xml:space="preserve">46.3006286621094</t>
-  </si>
-  <si>
-    <t xml:space="preserve">45.7650756835938</t>
-  </si>
-  <si>
-    <t xml:space="preserve">45.2295303344727</t>
-  </si>
-  <si>
-    <t xml:space="preserve">46.5440559387207</t>
-  </si>
-  <si>
-    <t xml:space="preserve">45.4242782592773</t>
-  </si>
-  <si>
-    <t xml:space="preserve">44.8887252807617</t>
-  </si>
-  <si>
-    <t xml:space="preserve">44.7913551330566</t>
-  </si>
-  <si>
-    <t xml:space="preserve">44.5479278564453</t>
-  </si>
-  <si>
-    <t xml:space="preserve">44.1097450256348</t>
-  </si>
-  <si>
-    <t xml:space="preserve">43.4281387329102</t>
-  </si>
-  <si>
-    <t xml:space="preserve">43.5741958618164</t>
-  </si>
-  <si>
-    <t xml:space="preserve">43.5255165100098</t>
-  </si>
-  <si>
-    <t xml:space="preserve">43.1360206604004</t>
-  </si>
-  <si>
-    <t xml:space="preserve">43.3307685852051</t>
-  </si>
-  <si>
-    <t xml:space="preserve">44.3044891357422</t>
-  </si>
-  <si>
-    <t xml:space="preserve">43.6715660095215</t>
-  </si>
-  <si>
-    <t xml:space="preserve">42.6978454589844</t>
-  </si>
-  <si>
-    <t xml:space="preserve">42.1582565307617</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40.2911071777344</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40.0454292297363</t>
-  </si>
-  <si>
-    <t xml:space="preserve">39.7014808654785</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40.3402404785156</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41.126407623291</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40.2419700622559</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41.0281372070312</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40.9298706054688</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40.4385147094727</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40.1436996459961</t>
-  </si>
-  <si>
-    <t xml:space="preserve">39.8980178833008</t>
-  </si>
-  <si>
-    <t xml:space="preserve">39.8488883972168</t>
-  </si>
-  <si>
-    <t xml:space="preserve">39.9962959289551</t>
-  </si>
-  <si>
-    <t xml:space="preserve">39.504940032959</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40.5367813110352</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40.1928367614746</t>
-  </si>
-  <si>
-    <t xml:space="preserve">38.1291427612305</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36.9498901367188</t>
-  </si>
-  <si>
-    <t xml:space="preserve">37.8343315124512</t>
-  </si>
-  <si>
-    <t xml:space="preserve">38.32568359375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">39.799747467041</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41.9617118835449</t>
-  </si>
-  <si>
-    <t xml:space="preserve">42.354793548584</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41.7160339355469</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41.3229484558105</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40.6350555419922</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40.6841888427734</t>
-  </si>
-  <si>
-    <t xml:space="preserve">42.4530639648438</t>
-  </si>
-  <si>
-    <t xml:space="preserve">42.3056602478027</t>
-  </si>
-  <si>
-    <t xml:space="preserve">42.2073936462402</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41.6669006347656</t>
-  </si>
-  <si>
-    <t xml:space="preserve">42.9935569763184</t>
-  </si>
-  <si>
-    <t xml:space="preserve">45.6468734741211</t>
-  </si>
-  <si>
-    <t xml:space="preserve">45.6960105895996</t>
-  </si>
-  <si>
-    <t xml:space="preserve">46.482177734375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">48.1527862548828</t>
-  </si>
-  <si>
-    <t xml:space="preserve">47.6122970581055</t>
-  </si>
-  <si>
-    <t xml:space="preserve">48.1036491394043</t>
-  </si>
-  <si>
-    <t xml:space="preserve">48.8406791687012</t>
-  </si>
-  <si>
-    <t xml:space="preserve">48.8898162841797</t>
-  </si>
-  <si>
-    <t xml:space="preserve">49.1354942321777</t>
-  </si>
-  <si>
-    <t xml:space="preserve">48.4967308044434</t>
-  </si>
-  <si>
-    <t xml:space="preserve">50.0199317932129</t>
-  </si>
-  <si>
-    <t xml:space="preserve">50.2164764404297</t>
-  </si>
-  <si>
-    <t xml:space="preserve">50.1182060241699</t>
-  </si>
-  <si>
-    <t xml:space="preserve">50.3147506713867</t>
-  </si>
-  <si>
-    <t xml:space="preserve">51.0026435852051</t>
-  </si>
-  <si>
-    <t xml:space="preserve">51.6905403137207</t>
-  </si>
-  <si>
-    <t xml:space="preserve">50.609561920166</t>
-  </si>
-  <si>
-    <t xml:space="preserve">50.9043731689453</t>
-  </si>
-  <si>
-    <t xml:space="preserve">50.8061027526855</t>
-  </si>
-  <si>
-    <t xml:space="preserve">51.5922698974609</t>
-  </si>
-  <si>
-    <t xml:space="preserve">50.5112915039062</t>
-  </si>
-  <si>
-    <t xml:space="preserve">51.1009140014648</t>
-  </si>
-  <si>
-    <t xml:space="preserve">51.2974548339844</t>
-  </si>
-  <si>
-    <t xml:space="preserve">52.1818923950195</t>
-  </si>
-  <si>
-    <t xml:space="preserve">52.2801666259766</t>
-  </si>
-  <si>
-    <t xml:space="preserve">51.1991844177246</t>
-  </si>
-  <si>
-    <t xml:space="preserve">45.5485992431641</t>
-  </si>
-  <si>
-    <t xml:space="preserve">44.8115692138672</t>
-  </si>
-  <si>
-    <t xml:space="preserve">43.7797241210938</t>
-  </si>
-  <si>
-    <t xml:space="preserve">44.5167579650879</t>
-  </si>
-  <si>
-    <t xml:space="preserve">44.5658950805664</t>
-  </si>
-  <si>
-    <t xml:space="preserve">45.2046546936035</t>
-  </si>
-  <si>
-    <t xml:space="preserve">44.3202133178711</t>
-  </si>
-  <si>
-    <t xml:space="preserve">44.074535369873</t>
-  </si>
-  <si>
-    <t xml:space="preserve">44.7132987976074</t>
-  </si>
-  <si>
-    <t xml:space="preserve">44.2219467163086</t>
-  </si>
-  <si>
-    <t xml:space="preserve">44.4676246643066</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41.4703598022461</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41.224681854248</t>
-  </si>
-  <si>
-    <t xml:space="preserve">42.0108528137207</t>
-  </si>
-  <si>
-    <t xml:space="preserve">42.5513381958008</t>
-  </si>
-  <si>
-    <t xml:space="preserve">43.3375053405762</t>
-  </si>
-  <si>
-    <t xml:space="preserve">43.5340461730957</t>
-  </si>
-  <si>
-    <t xml:space="preserve">43.9762649536133</t>
-  </si>
-  <si>
-    <t xml:space="preserve">44.6150283813477</t>
-  </si>
-  <si>
-    <t xml:space="preserve">45.7451477050781</t>
-  </si>
-  <si>
-    <t xml:space="preserve">46.3839111328125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">45.9416885375977</t>
-  </si>
-  <si>
-    <t xml:space="preserve">46.0399551391602</t>
-  </si>
-  <si>
-    <t xml:space="preserve">43.0426902770996</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41.5194892883301</t>
-  </si>
-  <si>
-    <t xml:space="preserve">42.9444236755371</t>
-  </si>
-  <si>
-    <t xml:space="preserve">43.3866424560547</t>
-  </si>
-  <si>
-    <t xml:space="preserve">42.6987457275391</t>
+    <t xml:space="preserve">42.6987495422363</t>
   </si>
   <si>
     <t xml:space="preserve">41.7651710510254</t>
   </si>
   <si>
-    <t xml:space="preserve">41.2738189697266</t>
-  </si>
-  <si>
-    <t xml:space="preserve">39.1118545532227</t>
+    <t xml:space="preserve">41.2738151550293</t>
+  </si>
+  <si>
+    <t xml:space="preserve">39.1118507385254</t>
   </si>
   <si>
     <t xml:space="preserve">38.4730949401855</t>
@@ -3059,13 +3062,13 @@
     <t xml:space="preserve">40.7824630737305</t>
   </si>
   <si>
-    <t xml:space="preserve">42.1091194152832</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41.3720893859863</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41.0772743225098</t>
+    <t xml:space="preserve">42.1091156005859</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41.3720855712891</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41.0772705078125</t>
   </si>
   <si>
     <t xml:space="preserve">41.9125785827637</t>
@@ -3077,13 +3080,13 @@
     <t xml:space="preserve">42.7478790283203</t>
   </si>
   <si>
-    <t xml:space="preserve">43.2392349243164</t>
-  </si>
-  <si>
-    <t xml:space="preserve">42.0599822998047</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41.6177597045898</t>
+    <t xml:space="preserve">43.2392311096191</t>
+  </si>
+  <si>
+    <t xml:space="preserve">42.0599784851074</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41.6177635192871</t>
   </si>
   <si>
     <t xml:space="preserve">40.4876480102539</t>
@@ -3092,7 +3095,7 @@
     <t xml:space="preserve">40.880729675293</t>
   </si>
   <si>
-    <t xml:space="preserve">43.1409683227539</t>
+    <t xml:space="preserve">43.1409645080566</t>
   </si>
   <si>
     <t xml:space="preserve">43.7305908203125</t>
@@ -3107,19 +3110,19 @@
     <t xml:space="preserve">39.3575325012207</t>
   </si>
   <si>
-    <t xml:space="preserve">42.8461494445801</t>
+    <t xml:space="preserve">42.8461532592773</t>
   </si>
   <si>
     <t xml:space="preserve">42.8952865600586</t>
   </si>
   <si>
-    <t xml:space="preserve">38.8170433044434</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36.6550788879395</t>
-  </si>
-  <si>
-    <t xml:space="preserve">38.8661727905273</t>
+    <t xml:space="preserve">38.8170394897461</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36.6550750732422</t>
+  </si>
+  <si>
+    <t xml:space="preserve">38.8661766052246</t>
   </si>
   <si>
     <t xml:space="preserve">37.3429756164551</t>
@@ -3128,10 +3131,10 @@
     <t xml:space="preserve">36.0163192749023</t>
   </si>
   <si>
-    <t xml:space="preserve">34.9353332519531</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.8197784423828</t>
+    <t xml:space="preserve">34.9353370666504</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.8197746276855</t>
   </si>
   <si>
     <t xml:space="preserve">36.7533531188965</t>
@@ -3158,31 +3161,31 @@
     <t xml:space="preserve">35.5740966796875</t>
   </si>
   <si>
-    <t xml:space="preserve">34.1491661071777</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.3311538696289</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.6923942565918</t>
+    <t xml:space="preserve">34.1491737365723</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.3311576843262</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.6923961639404</t>
   </si>
   <si>
     <t xml:space="preserve">31.8398036956787</t>
   </si>
   <si>
-    <t xml:space="preserve">33.2155914306641</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.576831817627</t>
+    <t xml:space="preserve">33.2155952453613</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.5768356323242</t>
   </si>
   <si>
     <t xml:space="preserve">33.6578140258789</t>
   </si>
   <si>
-    <t xml:space="preserve">34.9844741821289</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.7879295349121</t>
+    <t xml:space="preserve">34.9844703674316</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.7879333496094</t>
   </si>
   <si>
     <t xml:space="preserve">35.5249633789062</t>
@@ -3191,10 +3194,10 @@
     <t xml:space="preserve">32.2328834533691</t>
   </si>
   <si>
-    <t xml:space="preserve">31.5941257476807</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.8052253723145</t>
+    <t xml:space="preserve">31.594123840332</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.8052215576172</t>
   </si>
   <si>
     <t xml:space="preserve">33.1664619445801</t>
@@ -3209,7 +3212,7 @@
     <t xml:space="preserve">32.8225135803223</t>
   </si>
   <si>
-    <t xml:space="preserve">31.6432590484619</t>
+    <t xml:space="preserve">31.6432609558105</t>
   </si>
   <si>
     <t xml:space="preserve">32.8716468811035</t>
@@ -3218,13 +3221,13 @@
     <t xml:space="preserve">32.9699172973633</t>
   </si>
   <si>
-    <t xml:space="preserve">31.4074058532715</t>
+    <t xml:space="preserve">31.4074077606201</t>
   </si>
   <si>
     <t xml:space="preserve">31.2108669281006</t>
   </si>
   <si>
-    <t xml:space="preserve">31.0929393768311</t>
+    <t xml:space="preserve">31.0929412841797</t>
   </si>
   <si>
     <t xml:space="preserve">29.8350734710693</t>
@@ -3233,13 +3236,13 @@
     <t xml:space="preserve">30.6605491638184</t>
   </si>
   <si>
-    <t xml:space="preserve">32.4294281005859</t>
+    <t xml:space="preserve">32.4294242858887</t>
   </si>
   <si>
     <t xml:space="preserve">32.2721939086914</t>
   </si>
   <si>
-    <t xml:space="preserve">32.1346130371094</t>
+    <t xml:space="preserve">32.1346168518066</t>
   </si>
   <si>
     <t xml:space="preserve">31.5253353118896</t>
@@ -3248,25 +3251,25 @@
     <t xml:space="preserve">32.3704605102539</t>
   </si>
   <si>
-    <t xml:space="preserve">31.5842952728271</t>
+    <t xml:space="preserve">31.5842971801758</t>
   </si>
   <si>
     <t xml:space="preserve">31.8594532012939</t>
   </si>
   <si>
-    <t xml:space="preserve">30.0709228515625</t>
+    <t xml:space="preserve">30.0709247589111</t>
   </si>
   <si>
     <t xml:space="preserve">30.1495399475098</t>
   </si>
   <si>
-    <t xml:space="preserve">28.5575504302979</t>
+    <t xml:space="preserve">28.5575485229492</t>
   </si>
   <si>
     <t xml:space="preserve">28.6754760742188</t>
   </si>
   <si>
-    <t xml:space="preserve">29.3830242156982</t>
+    <t xml:space="preserve">29.3830261230469</t>
   </si>
   <si>
     <t xml:space="preserve">29.0489044189453</t>
@@ -3275,31 +3278,31 @@
     <t xml:space="preserve">29.1078662872314</t>
   </si>
   <si>
-    <t xml:space="preserve">29.2651023864746</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.478931427002</t>
+    <t xml:space="preserve">29.265100479126</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.4789333343506</t>
   </si>
   <si>
     <t xml:space="preserve">28.5968589782715</t>
   </si>
   <si>
-    <t xml:space="preserve">27.1817569732666</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.4985866546631</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.7737464904785</t>
+    <t xml:space="preserve">27.181755065918</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.4985885620117</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.7737445831299</t>
   </si>
   <si>
     <t xml:space="preserve">28.4003162384033</t>
   </si>
   <si>
-    <t xml:space="preserve">28.7344360351562</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.2578449249268</t>
+    <t xml:space="preserve">28.7344379425049</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.2578468322754</t>
   </si>
   <si>
     <t xml:space="preserve">26.9670810699463</t>
@@ -3320,25 +3323,25 @@
     <t xml:space="preserve">26.5500640869141</t>
   </si>
   <si>
-    <t xml:space="preserve">26.8082180023193</t>
+    <t xml:space="preserve">26.8082160949707</t>
   </si>
   <si>
     <t xml:space="preserve">27.3245239257812</t>
   </si>
   <si>
-    <t xml:space="preserve">28.1386985778809</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.4762859344482</t>
+    <t xml:space="preserve">28.1387004852295</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.4762840270996</t>
   </si>
   <si>
     <t xml:space="preserve">28.3968524932861</t>
   </si>
   <si>
-    <t xml:space="preserve">27.8408317565918</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.019552230835</t>
+    <t xml:space="preserve">27.8408298492432</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.0195503234863</t>
   </si>
   <si>
     <t xml:space="preserve">28.4961433410645</t>
@@ -3353,7 +3356,7 @@
     <t xml:space="preserve">29.628044128418</t>
   </si>
   <si>
-    <t xml:space="preserve">29.2110290527344</t>
+    <t xml:space="preserve">29.2110271453857</t>
   </si>
   <si>
     <t xml:space="preserve">27.0663719177246</t>
@@ -3362,10 +3365,10 @@
     <t xml:space="preserve">25.060718536377</t>
   </si>
   <si>
-    <t xml:space="preserve">25.0805759429932</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.7160301208496</t>
+    <t xml:space="preserve">25.0805778503418</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.7160320281982</t>
   </si>
   <si>
     <t xml:space="preserve">24.5245552062988</t>
@@ -3404,31 +3407,31 @@
     <t xml:space="preserve">23.1146411895752</t>
   </si>
   <si>
-    <t xml:space="preserve">23.6110916137695</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.2664031982422</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.6706619262695</t>
+    <t xml:space="preserve">23.6110897064209</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.2664012908936</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.6706638336182</t>
   </si>
   <si>
     <t xml:space="preserve">23.2536468505859</t>
   </si>
   <si>
-    <t xml:space="preserve">22.9756355285645</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.4791870117188</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.6252956390381</t>
+    <t xml:space="preserve">22.9756336212158</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.4791851043701</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.6252975463867</t>
   </si>
   <si>
     <t xml:space="preserve">22.8763465881348</t>
   </si>
   <si>
-    <t xml:space="preserve">23.0153503417969</t>
+    <t xml:space="preserve">23.0153522491455</t>
   </si>
   <si>
     <t xml:space="preserve">24.4848384857178</t>
@@ -3437,13 +3440,13 @@
     <t xml:space="preserve">23.7699527740479</t>
   </si>
   <si>
-    <t xml:space="preserve">24.8025646209717</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.6635608673096</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.259298324585</t>
+    <t xml:space="preserve">24.8025665283203</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.6635589599609</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.2593002319336</t>
   </si>
   <si>
     <t xml:space="preserve">25.9940414428711</t>
@@ -3452,7 +3455,7 @@
     <t xml:space="preserve">25.8947525024414</t>
   </si>
   <si>
-    <t xml:space="preserve">26.1529064178467</t>
+    <t xml:space="preserve">26.152904510498</t>
   </si>
   <si>
     <t xml:space="preserve">26.2323379516602</t>
@@ -3470,7 +3473,7 @@
     <t xml:space="preserve">26.113187789917</t>
   </si>
   <si>
-    <t xml:space="preserve">26.2124805450439</t>
+    <t xml:space="preserve">26.2124786376953</t>
   </si>
   <si>
     <t xml:space="preserve">25.9543266296387</t>
@@ -3482,7 +3485,7 @@
     <t xml:space="preserve">24.5841293334961</t>
   </si>
   <si>
-    <t xml:space="preserve">24.0876808166504</t>
+    <t xml:space="preserve">24.0876789093018</t>
   </si>
   <si>
     <t xml:space="preserve">24.2862586975098</t>
@@ -3494,22 +3497,22 @@
     <t xml:space="preserve">23.7500953674316</t>
   </si>
   <si>
-    <t xml:space="preserve">24.3855476379395</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.3259754180908</t>
+    <t xml:space="preserve">24.3855495452881</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.3259735107422</t>
   </si>
   <si>
     <t xml:space="preserve">24.4252643585205</t>
   </si>
   <si>
-    <t xml:space="preserve">23.690523147583</t>
+    <t xml:space="preserve">23.6905212402344</t>
   </si>
   <si>
     <t xml:space="preserve">24.5642700195312</t>
   </si>
   <si>
-    <t xml:space="preserve">23.9288158416748</t>
+    <t xml:space="preserve">23.9288177490234</t>
   </si>
   <si>
     <t xml:space="preserve">24.0082492828369</t>
@@ -3530,7 +3533,7 @@
     <t xml:space="preserve">23.8295269012451</t>
   </si>
   <si>
-    <t xml:space="preserve">22.8962020874023</t>
+    <t xml:space="preserve">22.896203994751</t>
   </si>
   <si>
     <t xml:space="preserve">22.6181926727295</t>
@@ -3545,10 +3548,10 @@
     <t xml:space="preserve">21.1288471221924</t>
   </si>
   <si>
-    <t xml:space="preserve">20.1756649017334</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.9175109863281</t>
+    <t xml:space="preserve">20.175666809082</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.9175128936768</t>
   </si>
   <si>
     <t xml:space="preserve">20.1160926818848</t>
@@ -3560,10 +3563,10 @@
     <t xml:space="preserve">19.937370300293</t>
   </si>
   <si>
-    <t xml:space="preserve">20.2948131561279</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.5061473846436</t>
+    <t xml:space="preserve">20.2948150634766</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.5061492919922</t>
   </si>
   <si>
     <t xml:space="preserve">21.0494155883789</t>
@@ -3578,16 +3581,16 @@
     <t xml:space="preserve">21.6451530456543</t>
   </si>
   <si>
-    <t xml:space="preserve">20.9104099273682</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.4465732574463</t>
+    <t xml:space="preserve">20.9104080200195</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.4465751647949</t>
   </si>
   <si>
     <t xml:space="preserve">21.6650104522705</t>
   </si>
   <si>
-    <t xml:space="preserve">22.0621700286865</t>
+    <t xml:space="preserve">22.0621681213379</t>
   </si>
   <si>
     <t xml:space="preserve">22.2607498168945</t>
@@ -3611,10 +3614,10 @@
     <t xml:space="preserve">22.499044418335</t>
   </si>
   <si>
-    <t xml:space="preserve">21.8437328338623</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.1217460632324</t>
+    <t xml:space="preserve">21.8437309265137</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.1217441558838</t>
   </si>
   <si>
     <t xml:space="preserve">23.1344985961914</t>
@@ -3626,13 +3629,13 @@
     <t xml:space="preserve">23.7302360534668</t>
   </si>
   <si>
-    <t xml:space="preserve">24.2068271636963</t>
+    <t xml:space="preserve">24.2068252563477</t>
   </si>
   <si>
     <t xml:space="preserve">25.8153209686279</t>
   </si>
   <si>
-    <t xml:space="preserve">27.1060848236084</t>
+    <t xml:space="preserve">27.106086730957</t>
   </si>
   <si>
     <t xml:space="preserve">26.708927154541</t>
@@ -3641,10 +3644,10 @@
     <t xml:space="preserve">26.6294956207275</t>
   </si>
   <si>
-    <t xml:space="preserve">24.0479621887207</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.1202926635742</t>
+    <t xml:space="preserve">24.0479640960693</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.1202907562256</t>
   </si>
   <si>
     <t xml:space="preserve">25.3188724517822</t>
@@ -3656,16 +3659,16 @@
     <t xml:space="preserve">26.4904899597168</t>
   </si>
   <si>
-    <t xml:space="preserve">26.7684993743896</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.7883605957031</t>
+    <t xml:space="preserve">26.7685012817383</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.7883586883545</t>
   </si>
   <si>
     <t xml:space="preserve">24.8224239349365</t>
   </si>
   <si>
-    <t xml:space="preserve">24.7827072143555</t>
+    <t xml:space="preserve">24.7827053070068</t>
   </si>
   <si>
     <t xml:space="preserve">25.0408611297607</t>
@@ -3683,7 +3686,7 @@
     <t xml:space="preserve">25.3387298583984</t>
   </si>
   <si>
-    <t xml:space="preserve">26.1926193237305</t>
+    <t xml:space="preserve">26.1926212310791</t>
   </si>
   <si>
     <t xml:space="preserve">26.1330471038818</t>
@@ -3692,7 +3695,7 @@
     <t xml:space="preserve">25.855037689209</t>
   </si>
   <si>
-    <t xml:space="preserve">26.3316287994385</t>
+    <t xml:space="preserve">26.3316268920898</t>
   </si>
   <si>
     <t xml:space="preserve">27.1458015441895</t>
@@ -3710,13 +3713,13 @@
     <t xml:space="preserve">27.5628204345703</t>
   </si>
   <si>
-    <t xml:space="preserve">28.7741527557373</t>
+    <t xml:space="preserve">28.7741546630859</t>
   </si>
   <si>
     <t xml:space="preserve">28.8535842895508</t>
   </si>
   <si>
-    <t xml:space="preserve">28.2975635528564</t>
+    <t xml:space="preserve">28.2975616455078</t>
   </si>
   <si>
     <t xml:space="preserve">28.6550064086914</t>
@@ -3725,7 +3728,7 @@
     <t xml:space="preserve">28.3571357727051</t>
   </si>
   <si>
-    <t xml:space="preserve">28.8933010101318</t>
+    <t xml:space="preserve">28.8933029174805</t>
   </si>
   <si>
     <t xml:space="preserve">28.9528751373291</t>
@@ -3734,19 +3737,16 @@
     <t xml:space="preserve">28.7940120697021</t>
   </si>
   <si>
-    <t xml:space="preserve">28.7344379425049</t>
-  </si>
-  <si>
     <t xml:space="preserve">29.0323066711426</t>
   </si>
   <si>
-    <t xml:space="preserve">28.9330177307129</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.0521659851074</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.8734436035156</t>
+    <t xml:space="preserve">28.9330158233643</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.0521640777588</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.873441696167</t>
   </si>
   <si>
     <t xml:space="preserve">30.3627891540527</t>
@@ -3758,7 +3758,7 @@
     <t xml:space="preserve">30.064920425415</t>
   </si>
   <si>
-    <t xml:space="preserve">29.7869091033936</t>
+    <t xml:space="preserve">29.7869071960449</t>
   </si>
   <si>
     <t xml:space="preserve">29.6677589416504</t>
@@ -3773,16 +3773,16 @@
     <t xml:space="preserve">29.4890403747559</t>
   </si>
   <si>
-    <t xml:space="preserve">29.3301773071289</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.0124473571777</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.3372783660889</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.8805446624756</t>
+    <t xml:space="preserve">29.3301753997803</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.0124492645264</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.3372802734375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.8805465698242</t>
   </si>
   <si>
     <t xml:space="preserve">28.3769950866699</t>
@@ -3794,7 +3794,7 @@
     <t xml:space="preserve">28.1188411712646</t>
   </si>
   <si>
-    <t xml:space="preserve">27.7216835021973</t>
+    <t xml:space="preserve">27.7216815948486</t>
   </si>
   <si>
     <t xml:space="preserve">27.7812557220459</t>
@@ -3803,19 +3803,19 @@
     <t xml:space="preserve">27.0862293243408</t>
   </si>
   <si>
-    <t xml:space="preserve">26.8479328155518</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.7358875274658</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.544412612915</t>
+    <t xml:space="preserve">26.8479347229004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.7358894348145</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.5444107055664</t>
   </si>
   <si>
     <t xml:space="preserve">23.3727951049805</t>
   </si>
   <si>
-    <t xml:space="preserve">22.4394702911377</t>
+    <t xml:space="preserve">22.4394721984863</t>
   </si>
   <si>
     <t xml:space="preserve">24.3458347320557</t>
@@ -3827,13 +3827,13 @@
     <t xml:space="preserve">24.9018535614014</t>
   </si>
   <si>
-    <t xml:space="preserve">25.1600074768066</t>
+    <t xml:space="preserve">25.1600093841553</t>
   </si>
   <si>
     <t xml:space="preserve">25.9146099090576</t>
   </si>
   <si>
-    <t xml:space="preserve">26.4607048034668</t>
+    <t xml:space="preserve">26.4607028961182</t>
   </si>
   <si>
     <t xml:space="preserve">27.1557312011719</t>
@@ -3845,16 +3845,16 @@
     <t xml:space="preserve">27.3543090820312</t>
   </si>
   <si>
-    <t xml:space="preserve">27.5528888702393</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.1486301422119</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.8507595062256</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.7514686584473</t>
+    <t xml:space="preserve">27.5528907775879</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.1486282348633</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.850757598877</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.7514705657959</t>
   </si>
   <si>
     <t xml:space="preserve">27.503246307373</t>
@@ -3869,13 +3869,13 @@
     <t xml:space="preserve">27.4535999298096</t>
   </si>
   <si>
-    <t xml:space="preserve">26.9571514129639</t>
+    <t xml:space="preserve">26.9571533203125</t>
   </si>
   <si>
     <t xml:space="preserve">27.8011150360107</t>
   </si>
   <si>
-    <t xml:space="preserve">27.0564422607422</t>
+    <t xml:space="preserve">27.0564403533936</t>
   </si>
   <si>
     <t xml:space="preserve">27.4039554595947</t>
@@ -3899,10 +3899,10 @@
     <t xml:space="preserve">30.3826465606689</t>
   </si>
   <si>
-    <t xml:space="preserve">31.0280303955078</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.1698608398438</t>
+    <t xml:space="preserve">31.0280284881592</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.169864654541</t>
   </si>
   <si>
     <t xml:space="preserve">31.7230587005615</t>
@@ -3911,7 +3911,7 @@
     <t xml:space="preserve">32.2691497802734</t>
   </si>
   <si>
-    <t xml:space="preserve">33.0138206481934</t>
+    <t xml:space="preserve">33.0138244628906</t>
   </si>
   <si>
     <t xml:space="preserve">32.5173759460449</t>
@@ -3920,7 +3920,7 @@
     <t xml:space="preserve">32.3187942504883</t>
   </si>
   <si>
-    <t xml:space="preserve">32.0705718994141</t>
+    <t xml:space="preserve">32.0705680847168</t>
   </si>
   <si>
     <t xml:space="preserve">31.2762546539307</t>
@@ -3932,7 +3932,7 @@
     <t xml:space="preserve">30.8790950775146</t>
   </si>
   <si>
-    <t xml:space="preserve">30.7301597595215</t>
+    <t xml:space="preserve">30.7301616668701</t>
   </si>
   <si>
     <t xml:space="preserve">30.2833576202393</t>
@@ -3947,7 +3947,7 @@
     <t xml:space="preserve">30.6805152893066</t>
   </si>
   <si>
-    <t xml:space="preserve">30.5315799713135</t>
+    <t xml:space="preserve">30.5315818786621</t>
   </si>
   <si>
     <t xml:space="preserve">30.0029029846191</t>
@@ -4587,6 +4587,9 @@
   </si>
   <si>
     <t xml:space="preserve">32.7000007629395</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.7999992370605</t>
   </si>
 </sst>
 </file>
@@ -28268,7 +28271,7 @@
         <v>15.6800003051758</v>
       </c>
       <c r="G898" t="s">
-        <v>594</v>
+        <v>404</v>
       </c>
       <c r="H898" t="s">
         <v>9</v>
@@ -28294,7 +28297,7 @@
         <v>15.5600004196167</v>
       </c>
       <c r="G899" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="H899" t="s">
         <v>9</v>
@@ -28320,7 +28323,7 @@
         <v>15.7600002288818</v>
       </c>
       <c r="G900" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="H900" t="s">
         <v>9</v>
@@ -28372,7 +28375,7 @@
         <v>15.3800001144409</v>
       </c>
       <c r="G902" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="H902" t="s">
         <v>9</v>
@@ -28424,7 +28427,7 @@
         <v>15.3400001525879</v>
       </c>
       <c r="G904" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="H904" t="s">
         <v>9</v>
@@ -28450,7 +28453,7 @@
         <v>15.5</v>
       </c>
       <c r="G905" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="H905" t="s">
         <v>9</v>
@@ -28476,7 +28479,7 @@
         <v>15.6199998855591</v>
       </c>
       <c r="G906" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="H906" t="s">
         <v>9</v>
@@ -28502,7 +28505,7 @@
         <v>15.5</v>
       </c>
       <c r="G907" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="H907" t="s">
         <v>9</v>
@@ -28580,7 +28583,7 @@
         <v>15.3999996185303</v>
       </c>
       <c r="G910" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="H910" t="s">
         <v>9</v>
@@ -28658,7 +28661,7 @@
         <v>15.6199998855591</v>
       </c>
       <c r="G913" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="H913" t="s">
         <v>9</v>
@@ -28710,7 +28713,7 @@
         <v>15.4799995422363</v>
       </c>
       <c r="G915" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="H915" t="s">
         <v>9</v>
@@ -28736,7 +28739,7 @@
         <v>15.1199998855591</v>
       </c>
       <c r="G916" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="H916" t="s">
         <v>9</v>
@@ -28762,7 +28765,7 @@
         <v>15.1599998474121</v>
       </c>
       <c r="G917" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="H917" t="s">
         <v>9</v>
@@ -28788,7 +28791,7 @@
         <v>15.1800003051758</v>
       </c>
       <c r="G918" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="H918" t="s">
         <v>9</v>
@@ -28814,7 +28817,7 @@
         <v>15.3400001525879</v>
       </c>
       <c r="G919" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="H919" t="s">
         <v>9</v>
@@ -28840,7 +28843,7 @@
         <v>15.0799999237061</v>
       </c>
       <c r="G920" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="H920" t="s">
         <v>9</v>
@@ -28866,7 +28869,7 @@
         <v>15.2200002670288</v>
       </c>
       <c r="G921" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="H921" t="s">
         <v>9</v>
@@ -28892,7 +28895,7 @@
         <v>15.1599998474121</v>
       </c>
       <c r="G922" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="H922" t="s">
         <v>9</v>
@@ -28918,7 +28921,7 @@
         <v>15.1999998092651</v>
       </c>
       <c r="G923" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="H923" t="s">
         <v>9</v>
@@ -28944,7 +28947,7 @@
         <v>15.039999961853</v>
       </c>
       <c r="G924" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="H924" t="s">
         <v>9</v>
@@ -28970,7 +28973,7 @@
         <v>15.1199998855591</v>
       </c>
       <c r="G925" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="H925" t="s">
         <v>9</v>
@@ -28996,7 +28999,7 @@
         <v>15.2200002670288</v>
       </c>
       <c r="G926" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="H926" t="s">
         <v>9</v>
@@ -29022,7 +29025,7 @@
         <v>15.0200004577637</v>
       </c>
       <c r="G927" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="H927" t="s">
         <v>9</v>
@@ -29048,7 +29051,7 @@
         <v>15.2399997711182</v>
       </c>
       <c r="G928" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="H928" t="s">
         <v>9</v>
@@ -29100,7 +29103,7 @@
         <v>15.5200004577637</v>
       </c>
       <c r="G930" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="H930" t="s">
         <v>9</v>
@@ -29152,7 +29155,7 @@
         <v>15.1400003433228</v>
       </c>
       <c r="G932" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="H932" t="s">
         <v>9</v>
@@ -29204,7 +29207,7 @@
         <v>15.1800003051758</v>
       </c>
       <c r="G934" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="H934" t="s">
         <v>9</v>
@@ -29230,7 +29233,7 @@
         <v>15.4799995422363</v>
       </c>
       <c r="G935" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="H935" t="s">
         <v>9</v>
@@ -29256,7 +29259,7 @@
         <v>15.960000038147</v>
       </c>
       <c r="G936" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="H936" t="s">
         <v>9</v>
@@ -29282,7 +29285,7 @@
         <v>16</v>
       </c>
       <c r="G937" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="H937" t="s">
         <v>9</v>
@@ -29308,7 +29311,7 @@
         <v>16.2999992370605</v>
       </c>
       <c r="G938" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="H938" t="s">
         <v>9</v>
@@ -29334,7 +29337,7 @@
         <v>16.1399993896484</v>
       </c>
       <c r="G939" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="H939" t="s">
         <v>9</v>
@@ -29360,7 +29363,7 @@
         <v>16.3400001525879</v>
       </c>
       <c r="G940" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="H940" t="s">
         <v>9</v>
@@ -29386,7 +29389,7 @@
         <v>16.4200000762939</v>
       </c>
       <c r="G941" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="H941" t="s">
         <v>9</v>
@@ -29412,7 +29415,7 @@
         <v>16.7999992370605</v>
       </c>
       <c r="G942" t="s">
-        <v>554</v>
+        <v>619</v>
       </c>
       <c r="H942" t="s">
         <v>9</v>
@@ -29802,7 +29805,7 @@
         <v>16</v>
       </c>
       <c r="G957" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="H957" t="s">
         <v>9</v>
@@ -29932,7 +29935,7 @@
         <v>16.3400001525879</v>
       </c>
       <c r="G962" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="H962" t="s">
         <v>9</v>
@@ -30062,7 +30065,7 @@
         <v>16.7999992370605</v>
       </c>
       <c r="G967" t="s">
-        <v>554</v>
+        <v>619</v>
       </c>
       <c r="H967" t="s">
         <v>9</v>
@@ -32974,7 +32977,7 @@
         <v>15.2399997711182</v>
       </c>
       <c r="G1079" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="H1079" t="s">
         <v>9</v>
@@ -33026,7 +33029,7 @@
         <v>15.1599998474121</v>
       </c>
       <c r="G1081" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="H1081" t="s">
         <v>9</v>
@@ -33312,7 +33315,7 @@
         <v>15.7600002288818</v>
       </c>
       <c r="G1092" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="H1092" t="s">
         <v>9</v>
@@ -33468,7 +33471,7 @@
         <v>16.3400001525879</v>
       </c>
       <c r="G1098" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="H1098" t="s">
         <v>9</v>
@@ -33546,7 +33549,7 @@
         <v>15.5200004577637</v>
       </c>
       <c r="G1101" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="H1101" t="s">
         <v>9</v>
@@ -33702,7 +33705,7 @@
         <v>16</v>
       </c>
       <c r="G1107" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="H1107" t="s">
         <v>9</v>
@@ -33728,7 +33731,7 @@
         <v>15.3999996185303</v>
       </c>
       <c r="G1108" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="H1108" t="s">
         <v>9</v>
@@ -33780,7 +33783,7 @@
         <v>16.2999992370605</v>
       </c>
       <c r="G1110" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="H1110" t="s">
         <v>9</v>
@@ -33806,7 +33809,7 @@
         <v>16</v>
       </c>
       <c r="G1111" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="H1111" t="s">
         <v>9</v>
@@ -33910,7 +33913,7 @@
         <v>16.1399993896484</v>
       </c>
       <c r="G1115" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="H1115" t="s">
         <v>9</v>
@@ -43608,7 +43611,7 @@
         <v>43.3499984741211</v>
       </c>
       <c r="G1488" t="s">
-        <v>892</v>
+        <v>1007</v>
       </c>
       <c r="H1488" t="s">
         <v>9</v>
@@ -43634,7 +43637,7 @@
         <v>43.4500007629395</v>
       </c>
       <c r="G1489" t="s">
-        <v>1007</v>
+        <v>1008</v>
       </c>
       <c r="H1489" t="s">
         <v>9</v>
@@ -43686,7 +43689,7 @@
         <v>42.5</v>
       </c>
       <c r="G1491" t="s">
-        <v>1008</v>
+        <v>1009</v>
       </c>
       <c r="H1491" t="s">
         <v>9</v>
@@ -43712,7 +43715,7 @@
         <v>42.5</v>
       </c>
       <c r="G1492" t="s">
-        <v>1008</v>
+        <v>1009</v>
       </c>
       <c r="H1492" t="s">
         <v>9</v>
@@ -43764,7 +43767,7 @@
         <v>42</v>
       </c>
       <c r="G1494" t="s">
-        <v>1009</v>
+        <v>1010</v>
       </c>
       <c r="H1494" t="s">
         <v>9</v>
@@ -43816,7 +43819,7 @@
         <v>39.7999992370605</v>
       </c>
       <c r="G1496" t="s">
-        <v>1010</v>
+        <v>1011</v>
       </c>
       <c r="H1496" t="s">
         <v>9</v>
@@ -43842,7 +43845,7 @@
         <v>39.1500015258789</v>
       </c>
       <c r="G1497" t="s">
-        <v>1011</v>
+        <v>1012</v>
       </c>
       <c r="H1497" t="s">
         <v>9</v>
@@ -43868,7 +43871,7 @@
         <v>40</v>
       </c>
       <c r="G1498" t="s">
-        <v>1012</v>
+        <v>1013</v>
       </c>
       <c r="H1498" t="s">
         <v>9</v>
@@ -44024,7 +44027,7 @@
         <v>40.7999992370605</v>
       </c>
       <c r="G1504" t="s">
-        <v>1013</v>
+        <v>1014</v>
       </c>
       <c r="H1504" t="s">
         <v>9</v>
@@ -44050,7 +44053,7 @@
         <v>41.5</v>
       </c>
       <c r="G1505" t="s">
-        <v>1014</v>
+        <v>1015</v>
       </c>
       <c r="H1505" t="s">
         <v>9</v>
@@ -44154,7 +44157,7 @@
         <v>41.5</v>
       </c>
       <c r="G1509" t="s">
-        <v>1014</v>
+        <v>1015</v>
       </c>
       <c r="H1509" t="s">
         <v>9</v>
@@ -44180,7 +44183,7 @@
         <v>42.8499984741211</v>
       </c>
       <c r="G1510" t="s">
-        <v>1015</v>
+        <v>1016</v>
       </c>
       <c r="H1510" t="s">
         <v>9</v>
@@ -44206,7 +44209,7 @@
         <v>42</v>
       </c>
       <c r="G1511" t="s">
-        <v>1009</v>
+        <v>1010</v>
       </c>
       <c r="H1511" t="s">
         <v>9</v>
@@ -44232,7 +44235,7 @@
         <v>42</v>
       </c>
       <c r="G1512" t="s">
-        <v>1009</v>
+        <v>1010</v>
       </c>
       <c r="H1512" t="s">
         <v>9</v>
@@ -44258,7 +44261,7 @@
         <v>42.0999984741211</v>
       </c>
       <c r="G1513" t="s">
-        <v>1016</v>
+        <v>1017</v>
       </c>
       <c r="H1513" t="s">
         <v>9</v>
@@ -44284,7 +44287,7 @@
         <v>41.7999992370605</v>
       </c>
       <c r="G1514" t="s">
-        <v>1017</v>
+        <v>1018</v>
       </c>
       <c r="H1514" t="s">
         <v>9</v>
@@ -44336,7 +44339,7 @@
         <v>42</v>
       </c>
       <c r="G1516" t="s">
-        <v>1009</v>
+        <v>1010</v>
       </c>
       <c r="H1516" t="s">
         <v>9</v>
@@ -44362,7 +44365,7 @@
         <v>42</v>
       </c>
       <c r="G1517" t="s">
-        <v>1009</v>
+        <v>1010</v>
       </c>
       <c r="H1517" t="s">
         <v>9</v>
@@ -44388,7 +44391,7 @@
         <v>42.6500015258789</v>
       </c>
       <c r="G1518" t="s">
-        <v>1018</v>
+        <v>1019</v>
       </c>
       <c r="H1518" t="s">
         <v>9</v>
@@ -44466,7 +44469,7 @@
         <v>42.5999984741211</v>
       </c>
       <c r="G1521" t="s">
-        <v>1019</v>
+        <v>1020</v>
       </c>
       <c r="H1521" t="s">
         <v>9</v>
@@ -44518,7 +44521,7 @@
         <v>43.5</v>
       </c>
       <c r="G1523" t="s">
-        <v>1020</v>
+        <v>1021</v>
       </c>
       <c r="H1523" t="s">
         <v>9</v>
@@ -44570,7 +44573,7 @@
         <v>44</v>
       </c>
       <c r="G1525" t="s">
-        <v>1021</v>
+        <v>1022</v>
       </c>
       <c r="H1525" t="s">
         <v>9</v>
@@ -44622,7 +44625,7 @@
         <v>42.7999992370605</v>
       </c>
       <c r="G1527" t="s">
-        <v>1022</v>
+        <v>1023</v>
       </c>
       <c r="H1527" t="s">
         <v>9</v>
@@ -44648,7 +44651,7 @@
         <v>42.6500015258789</v>
       </c>
       <c r="G1528" t="s">
-        <v>1018</v>
+        <v>1019</v>
       </c>
       <c r="H1528" t="s">
         <v>9</v>
@@ -44674,7 +44677,7 @@
         <v>42.3499984741211</v>
       </c>
       <c r="G1529" t="s">
-        <v>1023</v>
+        <v>1024</v>
       </c>
       <c r="H1529" t="s">
         <v>9</v>
@@ -44700,7 +44703,7 @@
         <v>41.5</v>
       </c>
       <c r="G1530" t="s">
-        <v>1014</v>
+        <v>1015</v>
       </c>
       <c r="H1530" t="s">
         <v>9</v>
@@ -44726,7 +44729,7 @@
         <v>41.2000007629395</v>
       </c>
       <c r="G1531" t="s">
-        <v>1024</v>
+        <v>1025</v>
       </c>
       <c r="H1531" t="s">
         <v>9</v>
@@ -44804,7 +44807,7 @@
         <v>41.5999984741211</v>
       </c>
       <c r="G1534" t="s">
-        <v>1025</v>
+        <v>1026</v>
       </c>
       <c r="H1534" t="s">
         <v>9</v>
@@ -44830,7 +44833,7 @@
         <v>42</v>
       </c>
       <c r="G1535" t="s">
-        <v>1009</v>
+        <v>1010</v>
       </c>
       <c r="H1535" t="s">
         <v>9</v>
@@ -44856,7 +44859,7 @@
         <v>42</v>
       </c>
       <c r="G1536" t="s">
-        <v>1009</v>
+        <v>1010</v>
       </c>
       <c r="H1536" t="s">
         <v>9</v>
@@ -44882,7 +44885,7 @@
         <v>43.9000015258789</v>
       </c>
       <c r="G1537" t="s">
-        <v>1026</v>
+        <v>1027</v>
       </c>
       <c r="H1537" t="s">
         <v>9</v>
@@ -44934,7 +44937,7 @@
         <v>44.5</v>
       </c>
       <c r="G1539" t="s">
-        <v>1027</v>
+        <v>1028</v>
       </c>
       <c r="H1539" t="s">
         <v>9</v>
@@ -44960,7 +44963,7 @@
         <v>45.0499992370605</v>
       </c>
       <c r="G1540" t="s">
-        <v>1028</v>
+        <v>1029</v>
       </c>
       <c r="H1540" t="s">
         <v>9</v>
@@ -45038,7 +45041,7 @@
         <v>40</v>
       </c>
       <c r="G1543" t="s">
-        <v>1012</v>
+        <v>1013</v>
       </c>
       <c r="H1543" t="s">
         <v>9</v>
@@ -45090,7 +45093,7 @@
         <v>41.9000015258789</v>
       </c>
       <c r="G1545" t="s">
-        <v>1029</v>
+        <v>1030</v>
       </c>
       <c r="H1545" t="s">
         <v>9</v>
@@ -45116,7 +45119,7 @@
         <v>40.0499992370605</v>
       </c>
       <c r="G1546" t="s">
-        <v>1030</v>
+        <v>1031</v>
       </c>
       <c r="H1546" t="s">
         <v>9</v>
@@ -45142,7 +45145,7 @@
         <v>42.0999984741211</v>
       </c>
       <c r="G1547" t="s">
-        <v>1016</v>
+        <v>1017</v>
       </c>
       <c r="H1547" t="s">
         <v>9</v>
@@ -45168,7 +45171,7 @@
         <v>43.5999984741211</v>
       </c>
       <c r="G1548" t="s">
-        <v>1031</v>
+        <v>1032</v>
       </c>
       <c r="H1548" t="s">
         <v>9</v>
@@ -45194,7 +45197,7 @@
         <v>43.6500015258789</v>
       </c>
       <c r="G1549" t="s">
-        <v>1032</v>
+        <v>1033</v>
       </c>
       <c r="H1549" t="s">
         <v>9</v>
@@ -45272,7 +45275,7 @@
         <v>39.5</v>
       </c>
       <c r="G1552" t="s">
-        <v>1033</v>
+        <v>1034</v>
       </c>
       <c r="H1552" t="s">
         <v>9</v>
@@ -45298,7 +45301,7 @@
         <v>37.2999992370605</v>
       </c>
       <c r="G1553" t="s">
-        <v>1034</v>
+        <v>1035</v>
       </c>
       <c r="H1553" t="s">
         <v>9</v>
@@ -45324,7 +45327,7 @@
         <v>39.5499992370605</v>
       </c>
       <c r="G1554" t="s">
-        <v>1035</v>
+        <v>1036</v>
       </c>
       <c r="H1554" t="s">
         <v>9</v>
@@ -45350,7 +45353,7 @@
         <v>38</v>
       </c>
       <c r="G1555" t="s">
-        <v>1036</v>
+        <v>1037</v>
       </c>
       <c r="H1555" t="s">
         <v>9</v>
@@ -45376,7 +45379,7 @@
         <v>36.6500015258789</v>
       </c>
       <c r="G1556" t="s">
-        <v>1037</v>
+        <v>1038</v>
       </c>
       <c r="H1556" t="s">
         <v>9</v>
@@ -45402,7 +45405,7 @@
         <v>35.5499992370605</v>
       </c>
       <c r="G1557" t="s">
-        <v>1038</v>
+        <v>1039</v>
       </c>
       <c r="H1557" t="s">
         <v>9</v>
@@ -45428,7 +45431,7 @@
         <v>36.4500007629395</v>
       </c>
       <c r="G1558" t="s">
-        <v>1039</v>
+        <v>1040</v>
       </c>
       <c r="H1558" t="s">
         <v>9</v>
@@ -45480,7 +45483,7 @@
         <v>37.4000015258789</v>
       </c>
       <c r="G1560" t="s">
-        <v>1040</v>
+        <v>1041</v>
       </c>
       <c r="H1560" t="s">
         <v>9</v>
@@ -45506,7 +45509,7 @@
         <v>37.5</v>
       </c>
       <c r="G1561" t="s">
-        <v>1041</v>
+        <v>1042</v>
       </c>
       <c r="H1561" t="s">
         <v>9</v>
@@ -45532,7 +45535,7 @@
         <v>36.9500007629395</v>
       </c>
       <c r="G1562" t="s">
-        <v>1042</v>
+        <v>1043</v>
       </c>
       <c r="H1562" t="s">
         <v>9</v>
@@ -45558,7 +45561,7 @@
         <v>37</v>
       </c>
       <c r="G1563" t="s">
-        <v>1043</v>
+        <v>1044</v>
       </c>
       <c r="H1563" t="s">
         <v>9</v>
@@ -45584,7 +45587,7 @@
         <v>36.2999992370605</v>
       </c>
       <c r="G1564" t="s">
-        <v>1044</v>
+        <v>1045</v>
       </c>
       <c r="H1564" t="s">
         <v>9</v>
@@ -45610,7 +45613,7 @@
         <v>35.3499984741211</v>
       </c>
       <c r="G1565" t="s">
-        <v>1045</v>
+        <v>1046</v>
       </c>
       <c r="H1565" t="s">
         <v>9</v>
@@ -45636,7 +45639,7 @@
         <v>36.2999992370605</v>
       </c>
       <c r="G1566" t="s">
-        <v>1044</v>
+        <v>1045</v>
       </c>
       <c r="H1566" t="s">
         <v>9</v>
@@ -45662,7 +45665,7 @@
         <v>37.25</v>
       </c>
       <c r="G1567" t="s">
-        <v>1046</v>
+        <v>1047</v>
       </c>
       <c r="H1567" t="s">
         <v>9</v>
@@ -45688,7 +45691,7 @@
         <v>36.2000007629395</v>
       </c>
       <c r="G1568" t="s">
-        <v>1047</v>
+        <v>1048</v>
       </c>
       <c r="H1568" t="s">
         <v>9</v>
@@ -45714,7 +45717,7 @@
         <v>37</v>
       </c>
       <c r="G1569" t="s">
-        <v>1043</v>
+        <v>1044</v>
       </c>
       <c r="H1569" t="s">
         <v>9</v>
@@ -45740,7 +45743,7 @@
         <v>34.75</v>
       </c>
       <c r="G1570" t="s">
-        <v>1048</v>
+        <v>1049</v>
       </c>
       <c r="H1570" t="s">
         <v>9</v>
@@ -45766,7 +45769,7 @@
         <v>32.9000015258789</v>
       </c>
       <c r="G1571" t="s">
-        <v>1049</v>
+        <v>1050</v>
       </c>
       <c r="H1571" t="s">
         <v>9</v>
@@ -45792,7 +45795,7 @@
         <v>32.25</v>
       </c>
       <c r="G1572" t="s">
-        <v>1050</v>
+        <v>1051</v>
       </c>
       <c r="H1572" t="s">
         <v>9</v>
@@ -45818,7 +45821,7 @@
         <v>32.4000015258789</v>
       </c>
       <c r="G1573" t="s">
-        <v>1051</v>
+        <v>1052</v>
       </c>
       <c r="H1573" t="s">
         <v>9</v>
@@ -45844,7 +45847,7 @@
         <v>33.7999992370605</v>
       </c>
       <c r="G1574" t="s">
-        <v>1052</v>
+        <v>1053</v>
       </c>
       <c r="H1574" t="s">
         <v>9</v>
@@ -45870,7 +45873,7 @@
         <v>33.1500015258789</v>
       </c>
       <c r="G1575" t="s">
-        <v>1053</v>
+        <v>1054</v>
       </c>
       <c r="H1575" t="s">
         <v>9</v>
@@ -45896,7 +45899,7 @@
         <v>34.25</v>
       </c>
       <c r="G1576" t="s">
-        <v>1054</v>
+        <v>1055</v>
       </c>
       <c r="H1576" t="s">
         <v>9</v>
@@ -45922,7 +45925,7 @@
         <v>35.5999984741211</v>
       </c>
       <c r="G1577" t="s">
-        <v>1055</v>
+        <v>1056</v>
       </c>
       <c r="H1577" t="s">
         <v>9</v>
@@ -45948,7 +45951,7 @@
         <v>35.4000015258789</v>
       </c>
       <c r="G1578" t="s">
-        <v>1056</v>
+        <v>1057</v>
       </c>
       <c r="H1578" t="s">
         <v>9</v>
@@ -45974,7 +45977,7 @@
         <v>36.1500015258789</v>
       </c>
       <c r="G1579" t="s">
-        <v>1057</v>
+        <v>1058</v>
       </c>
       <c r="H1579" t="s">
         <v>9</v>
@@ -46000,7 +46003,7 @@
         <v>32.7999992370605</v>
       </c>
       <c r="G1580" t="s">
-        <v>1058</v>
+        <v>1059</v>
       </c>
       <c r="H1580" t="s">
         <v>9</v>
@@ -46026,7 +46029,7 @@
         <v>32.1500015258789</v>
       </c>
       <c r="G1581" t="s">
-        <v>1059</v>
+        <v>1060</v>
       </c>
       <c r="H1581" t="s">
         <v>9</v>
@@ -46052,7 +46055,7 @@
         <v>34.4000015258789</v>
       </c>
       <c r="G1582" t="s">
-        <v>1060</v>
+        <v>1061</v>
       </c>
       <c r="H1582" t="s">
         <v>9</v>
@@ -46078,7 +46081,7 @@
         <v>33.75</v>
       </c>
       <c r="G1583" t="s">
-        <v>1061</v>
+        <v>1062</v>
       </c>
       <c r="H1583" t="s">
         <v>9</v>
@@ -46104,7 +46107,7 @@
         <v>33.2999992370605</v>
       </c>
       <c r="G1584" t="s">
-        <v>1062</v>
+        <v>1063</v>
       </c>
       <c r="H1584" t="s">
         <v>9</v>
@@ -46130,7 +46133,7 @@
         <v>33.2000007629395</v>
       </c>
       <c r="G1585" t="s">
-        <v>1063</v>
+        <v>1064</v>
       </c>
       <c r="H1585" t="s">
         <v>9</v>
@@ -46156,7 +46159,7 @@
         <v>33.4000015258789</v>
       </c>
       <c r="G1586" t="s">
-        <v>1064</v>
+        <v>1065</v>
       </c>
       <c r="H1586" t="s">
         <v>9</v>
@@ -46182,7 +46185,7 @@
         <v>32.2000007629395</v>
       </c>
       <c r="G1587" t="s">
-        <v>1065</v>
+        <v>1066</v>
       </c>
       <c r="H1587" t="s">
         <v>9</v>
@@ -46208,7 +46211,7 @@
         <v>33.4500007629395</v>
       </c>
       <c r="G1588" t="s">
-        <v>1066</v>
+        <v>1067</v>
       </c>
       <c r="H1588" t="s">
         <v>9</v>
@@ -46234,7 +46237,7 @@
         <v>33.5499992370605</v>
       </c>
       <c r="G1589" t="s">
-        <v>1067</v>
+        <v>1068</v>
       </c>
       <c r="H1589" t="s">
         <v>9</v>
@@ -46260,7 +46263,7 @@
         <v>32.4000015258789</v>
       </c>
       <c r="G1590" t="s">
-        <v>1051</v>
+        <v>1052</v>
       </c>
       <c r="H1590" t="s">
         <v>9</v>
@@ -46286,7 +46289,7 @@
         <v>31.9599990844727</v>
       </c>
       <c r="G1591" t="s">
-        <v>1068</v>
+        <v>1069</v>
       </c>
       <c r="H1591" t="s">
         <v>9</v>
@@ -46312,7 +46315,7 @@
         <v>31.7600002288818</v>
       </c>
       <c r="G1592" t="s">
-        <v>1069</v>
+        <v>1070</v>
       </c>
       <c r="H1592" t="s">
         <v>9</v>
@@ -46338,7 +46341,7 @@
         <v>31.6399993896484</v>
       </c>
       <c r="G1593" t="s">
-        <v>1070</v>
+        <v>1071</v>
       </c>
       <c r="H1593" t="s">
         <v>9</v>
@@ -46364,7 +46367,7 @@
         <v>30.3600006103516</v>
       </c>
       <c r="G1594" t="s">
-        <v>1071</v>
+        <v>1072</v>
       </c>
       <c r="H1594" t="s">
         <v>9</v>
@@ -46390,7 +46393,7 @@
         <v>31.2000007629395</v>
       </c>
       <c r="G1595" t="s">
-        <v>1072</v>
+        <v>1073</v>
       </c>
       <c r="H1595" t="s">
         <v>9</v>
@@ -46416,7 +46419,7 @@
         <v>33</v>
       </c>
       <c r="G1596" t="s">
-        <v>1073</v>
+        <v>1074</v>
       </c>
       <c r="H1596" t="s">
         <v>9</v>
@@ -46442,7 +46445,7 @@
         <v>32.8400001525879</v>
       </c>
       <c r="G1597" t="s">
-        <v>1074</v>
+        <v>1075</v>
       </c>
       <c r="H1597" t="s">
         <v>9</v>
@@ -46468,7 +46471,7 @@
         <v>32.7000007629395</v>
       </c>
       <c r="G1598" t="s">
-        <v>1075</v>
+        <v>1076</v>
       </c>
       <c r="H1598" t="s">
         <v>9</v>
@@ -46494,7 +46497,7 @@
         <v>32.0800018310547</v>
       </c>
       <c r="G1599" t="s">
-        <v>1076</v>
+        <v>1077</v>
       </c>
       <c r="H1599" t="s">
         <v>9</v>
@@ -46520,7 +46523,7 @@
         <v>32.939998626709</v>
       </c>
       <c r="G1600" t="s">
-        <v>1077</v>
+        <v>1078</v>
       </c>
       <c r="H1600" t="s">
         <v>9</v>
@@ -46546,7 +46549,7 @@
         <v>32.1399993896484</v>
       </c>
       <c r="G1601" t="s">
-        <v>1078</v>
+        <v>1079</v>
       </c>
       <c r="H1601" t="s">
         <v>9</v>
@@ -46572,7 +46575,7 @@
         <v>32.4199981689453</v>
       </c>
       <c r="G1602" t="s">
-        <v>1079</v>
+        <v>1080</v>
       </c>
       <c r="H1602" t="s">
         <v>9</v>
@@ -46598,7 +46601,7 @@
         <v>31.7600002288818</v>
       </c>
       <c r="G1603" t="s">
-        <v>1069</v>
+        <v>1070</v>
       </c>
       <c r="H1603" t="s">
         <v>9</v>
@@ -46624,7 +46627,7 @@
         <v>30.6000003814697</v>
       </c>
       <c r="G1604" t="s">
-        <v>1080</v>
+        <v>1081</v>
       </c>
       <c r="H1604" t="s">
         <v>9</v>
@@ -46650,7 +46653,7 @@
         <v>30.6800003051758</v>
       </c>
       <c r="G1605" t="s">
-        <v>1081</v>
+        <v>1082</v>
       </c>
       <c r="H1605" t="s">
         <v>9</v>
@@ -46676,7 +46679,7 @@
         <v>29.0599994659424</v>
       </c>
       <c r="G1606" t="s">
-        <v>1082</v>
+        <v>1083</v>
       </c>
       <c r="H1606" t="s">
         <v>9</v>
@@ -46702,7 +46705,7 @@
         <v>29.1800003051758</v>
       </c>
       <c r="G1607" t="s">
-        <v>1083</v>
+        <v>1084</v>
       </c>
       <c r="H1607" t="s">
         <v>9</v>
@@ -46728,7 +46731,7 @@
         <v>29.8999996185303</v>
       </c>
       <c r="G1608" t="s">
-        <v>1084</v>
+        <v>1085</v>
       </c>
       <c r="H1608" t="s">
         <v>9</v>
@@ -46754,7 +46757,7 @@
         <v>29.1800003051758</v>
       </c>
       <c r="G1609" t="s">
-        <v>1083</v>
+        <v>1084</v>
       </c>
       <c r="H1609" t="s">
         <v>9</v>
@@ -46780,7 +46783,7 @@
         <v>29.5599994659424</v>
       </c>
       <c r="G1610" t="s">
-        <v>1085</v>
+        <v>1086</v>
       </c>
       <c r="H1610" t="s">
         <v>9</v>
@@ -46806,7 +46809,7 @@
         <v>29.6200008392334</v>
       </c>
       <c r="G1611" t="s">
-        <v>1086</v>
+        <v>1087</v>
       </c>
       <c r="H1611" t="s">
         <v>9</v>
@@ -46832,7 +46835,7 @@
         <v>29.7800006866455</v>
       </c>
       <c r="G1612" t="s">
-        <v>1087</v>
+        <v>1088</v>
       </c>
       <c r="H1612" t="s">
         <v>9</v>
@@ -46858,7 +46861,7 @@
         <v>28.9799995422363</v>
       </c>
       <c r="G1613" t="s">
-        <v>1088</v>
+        <v>1089</v>
       </c>
       <c r="H1613" t="s">
         <v>9</v>
@@ -46884,7 +46887,7 @@
         <v>29.1000003814697</v>
       </c>
       <c r="G1614" t="s">
-        <v>1089</v>
+        <v>1090</v>
       </c>
       <c r="H1614" t="s">
         <v>9</v>
@@ -46910,7 +46913,7 @@
         <v>27.6599998474121</v>
       </c>
       <c r="G1615" t="s">
-        <v>1090</v>
+        <v>1091</v>
       </c>
       <c r="H1615" t="s">
         <v>9</v>
@@ -46936,7 +46939,7 @@
         <v>29</v>
       </c>
       <c r="G1616" t="s">
-        <v>1091</v>
+        <v>1092</v>
       </c>
       <c r="H1616" t="s">
         <v>9</v>
@@ -46962,7 +46965,7 @@
         <v>29.2800006866455</v>
       </c>
       <c r="G1617" t="s">
-        <v>1092</v>
+        <v>1093</v>
       </c>
       <c r="H1617" t="s">
         <v>9</v>
@@ -46988,7 +46991,7 @@
         <v>28.8999996185303</v>
       </c>
       <c r="G1618" t="s">
-        <v>1093</v>
+        <v>1094</v>
       </c>
       <c r="H1618" t="s">
         <v>9</v>
@@ -47014,7 +47017,7 @@
         <v>29.2399997711182</v>
       </c>
       <c r="G1619" t="s">
-        <v>1094</v>
+        <v>1095</v>
       </c>
       <c r="H1619" t="s">
         <v>9</v>
@@ -47040,7 +47043,7 @@
         <v>28.4599990844727</v>
       </c>
       <c r="G1620" t="s">
-        <v>1095</v>
+        <v>1096</v>
       </c>
       <c r="H1620" t="s">
         <v>9</v>
@@ -47066,7 +47069,7 @@
         <v>27.1599998474121</v>
       </c>
       <c r="G1621" t="s">
-        <v>1096</v>
+        <v>1097</v>
       </c>
       <c r="H1621" t="s">
         <v>9</v>
@@ -47092,7 +47095,7 @@
         <v>26.8600006103516</v>
       </c>
       <c r="G1622" t="s">
-        <v>1097</v>
+        <v>1098</v>
       </c>
       <c r="H1622" t="s">
         <v>9</v>
@@ -47118,7 +47121,7 @@
         <v>26.9400005340576</v>
       </c>
       <c r="G1623" t="s">
-        <v>1098</v>
+        <v>1099</v>
       </c>
       <c r="H1623" t="s">
         <v>9</v>
@@ -47144,7 +47147,7 @@
         <v>27.1399993896484</v>
       </c>
       <c r="G1624" t="s">
-        <v>1099</v>
+        <v>1100</v>
       </c>
       <c r="H1624" t="s">
         <v>9</v>
@@ -47170,7 +47173,7 @@
         <v>27.7999992370605</v>
       </c>
       <c r="G1625" t="s">
-        <v>1100</v>
+        <v>1101</v>
       </c>
       <c r="H1625" t="s">
         <v>9</v>
@@ -47196,7 +47199,7 @@
         <v>26.7399997711182</v>
       </c>
       <c r="G1626" t="s">
-        <v>1101</v>
+        <v>1102</v>
       </c>
       <c r="H1626" t="s">
         <v>9</v>
@@ -47222,7 +47225,7 @@
         <v>27</v>
       </c>
       <c r="G1627" t="s">
-        <v>1102</v>
+        <v>1103</v>
       </c>
       <c r="H1627" t="s">
         <v>9</v>
@@ -47248,7 +47251,7 @@
         <v>27.5200004577637</v>
       </c>
       <c r="G1628" t="s">
-        <v>1103</v>
+        <v>1104</v>
       </c>
       <c r="H1628" t="s">
         <v>9</v>
@@ -47274,7 +47277,7 @@
         <v>28.3400001525879</v>
       </c>
       <c r="G1629" t="s">
-        <v>1104</v>
+        <v>1105</v>
       </c>
       <c r="H1629" t="s">
         <v>9</v>
@@ -47300,7 +47303,7 @@
         <v>28.6800003051758</v>
       </c>
       <c r="G1630" t="s">
-        <v>1105</v>
+        <v>1106</v>
       </c>
       <c r="H1630" t="s">
         <v>9</v>
@@ -47326,7 +47329,7 @@
         <v>28.6000003814697</v>
       </c>
       <c r="G1631" t="s">
-        <v>1106</v>
+        <v>1107</v>
       </c>
       <c r="H1631" t="s">
         <v>9</v>
@@ -47352,7 +47355,7 @@
         <v>28.0400009155273</v>
       </c>
       <c r="G1632" t="s">
-        <v>1107</v>
+        <v>1108</v>
       </c>
       <c r="H1632" t="s">
         <v>9</v>
@@ -47378,7 +47381,7 @@
         <v>28.2199993133545</v>
       </c>
       <c r="G1633" t="s">
-        <v>1108</v>
+        <v>1109</v>
       </c>
       <c r="H1633" t="s">
         <v>9</v>
@@ -47404,7 +47407,7 @@
         <v>28.7000007629395</v>
       </c>
       <c r="G1634" t="s">
-        <v>1109</v>
+        <v>1110</v>
       </c>
       <c r="H1634" t="s">
         <v>9</v>
@@ -47430,7 +47433,7 @@
         <v>29.2999992370605</v>
       </c>
       <c r="G1635" t="s">
-        <v>1110</v>
+        <v>1111</v>
       </c>
       <c r="H1635" t="s">
         <v>9</v>
@@ -47456,7 +47459,7 @@
         <v>29.3999996185303</v>
       </c>
       <c r="G1636" t="s">
-        <v>1111</v>
+        <v>1112</v>
       </c>
       <c r="H1636" t="s">
         <v>9</v>
@@ -47482,7 +47485,7 @@
         <v>29.8400001525879</v>
       </c>
       <c r="G1637" t="s">
-        <v>1112</v>
+        <v>1113</v>
       </c>
       <c r="H1637" t="s">
         <v>9</v>
@@ -47508,7 +47511,7 @@
         <v>29.4200000762939</v>
       </c>
       <c r="G1638" t="s">
-        <v>1113</v>
+        <v>1114</v>
       </c>
       <c r="H1638" t="s">
         <v>9</v>
@@ -47534,7 +47537,7 @@
         <v>27.2600002288818</v>
       </c>
       <c r="G1639" t="s">
-        <v>1114</v>
+        <v>1115</v>
       </c>
       <c r="H1639" t="s">
         <v>9</v>
@@ -47560,7 +47563,7 @@
         <v>25.2399997711182</v>
       </c>
       <c r="G1640" t="s">
-        <v>1115</v>
+        <v>1116</v>
       </c>
       <c r="H1640" t="s">
         <v>9</v>
@@ -47586,7 +47589,7 @@
         <v>25.2600002288818</v>
       </c>
       <c r="G1641" t="s">
-        <v>1116</v>
+        <v>1117</v>
       </c>
       <c r="H1641" t="s">
         <v>9</v>
@@ -47612,7 +47615,7 @@
         <v>25.8999996185303</v>
       </c>
       <c r="G1642" t="s">
-        <v>1117</v>
+        <v>1118</v>
       </c>
       <c r="H1642" t="s">
         <v>9</v>
@@ -47638,7 +47641,7 @@
         <v>24.7000007629395</v>
       </c>
       <c r="G1643" t="s">
-        <v>1118</v>
+        <v>1119</v>
       </c>
       <c r="H1643" t="s">
         <v>9</v>
@@ -47664,7 +47667,7 @@
         <v>25.6800003051758</v>
       </c>
       <c r="G1644" t="s">
-        <v>1119</v>
+        <v>1120</v>
       </c>
       <c r="H1644" t="s">
         <v>9</v>
@@ -47690,7 +47693,7 @@
         <v>25.8600006103516</v>
       </c>
       <c r="G1645" t="s">
-        <v>1120</v>
+        <v>1121</v>
       </c>
       <c r="H1645" t="s">
         <v>9</v>
@@ -47716,7 +47719,7 @@
         <v>25.7199993133545</v>
       </c>
       <c r="G1646" t="s">
-        <v>1121</v>
+        <v>1122</v>
       </c>
       <c r="H1646" t="s">
         <v>9</v>
@@ -47742,7 +47745,7 @@
         <v>25.0599994659424</v>
       </c>
       <c r="G1647" t="s">
-        <v>1122</v>
+        <v>1123</v>
       </c>
       <c r="H1647" t="s">
         <v>9</v>
@@ -47768,7 +47771,7 @@
         <v>25.0599994659424</v>
       </c>
       <c r="G1648" t="s">
-        <v>1122</v>
+        <v>1123</v>
       </c>
       <c r="H1648" t="s">
         <v>9</v>
@@ -47794,7 +47797,7 @@
         <v>25.5400009155273</v>
       </c>
       <c r="G1649" t="s">
-        <v>1123</v>
+        <v>1124</v>
       </c>
       <c r="H1649" t="s">
         <v>9</v>
@@ -47820,7 +47823,7 @@
         <v>25.6200008392334</v>
       </c>
       <c r="G1650" t="s">
-        <v>1124</v>
+        <v>1125</v>
       </c>
       <c r="H1650" t="s">
         <v>9</v>
@@ -47846,7 +47849,7 @@
         <v>25.2399997711182</v>
       </c>
       <c r="G1651" t="s">
-        <v>1115</v>
+        <v>1116</v>
       </c>
       <c r="H1651" t="s">
         <v>9</v>
@@ -47872,7 +47875,7 @@
         <v>24.7800006866455</v>
       </c>
       <c r="G1652" t="s">
-        <v>1125</v>
+        <v>1126</v>
       </c>
       <c r="H1652" t="s">
         <v>9</v>
@@ -47898,7 +47901,7 @@
         <v>24.1200008392334</v>
       </c>
       <c r="G1653" t="s">
-        <v>1126</v>
+        <v>1127</v>
       </c>
       <c r="H1653" t="s">
         <v>9</v>
@@ -47924,7 +47927,7 @@
         <v>24.4799995422363</v>
       </c>
       <c r="G1654" t="s">
-        <v>1127</v>
+        <v>1128</v>
       </c>
       <c r="H1654" t="s">
         <v>9</v>
@@ -47950,7 +47953,7 @@
         <v>24.0799999237061</v>
       </c>
       <c r="G1655" t="s">
-        <v>1128</v>
+        <v>1129</v>
       </c>
       <c r="H1655" t="s">
         <v>9</v>
@@ -47976,7 +47979,7 @@
         <v>23.2800006866455</v>
       </c>
       <c r="G1656" t="s">
-        <v>1129</v>
+        <v>1130</v>
       </c>
       <c r="H1656" t="s">
         <v>9</v>
@@ -48002,7 +48005,7 @@
         <v>23.7800006866455</v>
       </c>
       <c r="G1657" t="s">
-        <v>1130</v>
+        <v>1131</v>
       </c>
       <c r="H1657" t="s">
         <v>9</v>
@@ -48028,7 +48031,7 @@
         <v>24.4400005340576</v>
       </c>
       <c r="G1658" t="s">
-        <v>1131</v>
+        <v>1132</v>
       </c>
       <c r="H1658" t="s">
         <v>9</v>
@@ -48054,7 +48057,7 @@
         <v>23.8400001525879</v>
       </c>
       <c r="G1659" t="s">
-        <v>1132</v>
+        <v>1133</v>
       </c>
       <c r="H1659" t="s">
         <v>9</v>
@@ -48080,7 +48083,7 @@
         <v>23.4200000762939</v>
       </c>
       <c r="G1660" t="s">
-        <v>1133</v>
+        <v>1134</v>
       </c>
       <c r="H1660" t="s">
         <v>9</v>
@@ -48106,7 +48109,7 @@
         <v>23.1399993896484</v>
       </c>
       <c r="G1661" t="s">
-        <v>1134</v>
+        <v>1135</v>
       </c>
       <c r="H1661" t="s">
         <v>9</v>
@@ -48132,7 +48135,7 @@
         <v>22.6399993896484</v>
       </c>
       <c r="G1662" t="s">
-        <v>1135</v>
+        <v>1136</v>
       </c>
       <c r="H1662" t="s">
         <v>9</v>
@@ -48158,7 +48161,7 @@
         <v>21.7800006866455</v>
       </c>
       <c r="G1663" t="s">
-        <v>1136</v>
+        <v>1137</v>
       </c>
       <c r="H1663" t="s">
         <v>9</v>
@@ -48184,7 +48187,7 @@
         <v>23.0400009155273</v>
       </c>
       <c r="G1664" t="s">
-        <v>1137</v>
+        <v>1138</v>
       </c>
       <c r="H1664" t="s">
         <v>9</v>
@@ -48210,7 +48213,7 @@
         <v>23.1800003051758</v>
       </c>
       <c r="G1665" t="s">
-        <v>1138</v>
+        <v>1139</v>
       </c>
       <c r="H1665" t="s">
         <v>9</v>
@@ -48236,7 +48239,7 @@
         <v>24.6599998474121</v>
       </c>
       <c r="G1666" t="s">
-        <v>1139</v>
+        <v>1140</v>
       </c>
       <c r="H1666" t="s">
         <v>9</v>
@@ -48262,7 +48265,7 @@
         <v>23.9400005340576</v>
       </c>
       <c r="G1667" t="s">
-        <v>1140</v>
+        <v>1141</v>
       </c>
       <c r="H1667" t="s">
         <v>9</v>
@@ -48288,7 +48291,7 @@
         <v>24.7000007629395</v>
       </c>
       <c r="G1668" t="s">
-        <v>1118</v>
+        <v>1119</v>
       </c>
       <c r="H1668" t="s">
         <v>9</v>
@@ -48314,7 +48317,7 @@
         <v>24.6599998474121</v>
       </c>
       <c r="G1669" t="s">
-        <v>1139</v>
+        <v>1140</v>
       </c>
       <c r="H1669" t="s">
         <v>9</v>
@@ -48340,7 +48343,7 @@
         <v>24.9799995422363</v>
       </c>
       <c r="G1670" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
       <c r="H1670" t="s">
         <v>9</v>
@@ -48366,7 +48369,7 @@
         <v>24.8400001525879</v>
       </c>
       <c r="G1671" t="s">
-        <v>1142</v>
+        <v>1143</v>
       </c>
       <c r="H1671" t="s">
         <v>9</v>
@@ -48392,7 +48395,7 @@
         <v>24.4799995422363</v>
       </c>
       <c r="G1672" t="s">
-        <v>1127</v>
+        <v>1128</v>
       </c>
       <c r="H1672" t="s">
         <v>9</v>
@@ -48418,7 +48421,7 @@
         <v>25.4400005340576</v>
       </c>
       <c r="G1673" t="s">
-        <v>1143</v>
+        <v>1144</v>
       </c>
       <c r="H1673" t="s">
         <v>9</v>
@@ -48444,7 +48447,7 @@
         <v>26.1800003051758</v>
       </c>
       <c r="G1674" t="s">
-        <v>1144</v>
+        <v>1145</v>
       </c>
       <c r="H1674" t="s">
         <v>9</v>
@@ -48470,7 +48473,7 @@
         <v>26.0799999237061</v>
       </c>
       <c r="G1675" t="s">
-        <v>1145</v>
+        <v>1146</v>
       </c>
       <c r="H1675" t="s">
         <v>9</v>
@@ -48496,7 +48499,7 @@
         <v>25.4400005340576</v>
       </c>
       <c r="G1676" t="s">
-        <v>1143</v>
+        <v>1144</v>
       </c>
       <c r="H1676" t="s">
         <v>9</v>
@@ -48522,7 +48525,7 @@
         <v>26.3400001525879</v>
       </c>
       <c r="G1677" t="s">
-        <v>1146</v>
+        <v>1147</v>
       </c>
       <c r="H1677" t="s">
         <v>9</v>
@@ -48548,7 +48551,7 @@
         <v>26.4200000762939</v>
       </c>
       <c r="G1678" t="s">
-        <v>1147</v>
+        <v>1148</v>
       </c>
       <c r="H1678" t="s">
         <v>9</v>
@@ -48574,7 +48577,7 @@
         <v>25.6399993896484</v>
       </c>
       <c r="G1679" t="s">
-        <v>1148</v>
+        <v>1149</v>
       </c>
       <c r="H1679" t="s">
         <v>9</v>
@@ -48600,7 +48603,7 @@
         <v>25.3799991607666</v>
       </c>
       <c r="G1680" t="s">
-        <v>1149</v>
+        <v>1150</v>
       </c>
       <c r="H1680" t="s">
         <v>9</v>
@@ -48626,7 +48629,7 @@
         <v>24.8400001525879</v>
       </c>
       <c r="G1681" t="s">
-        <v>1142</v>
+        <v>1143</v>
       </c>
       <c r="H1681" t="s">
         <v>9</v>
@@ -48652,7 +48655,7 @@
         <v>25.8199996948242</v>
       </c>
       <c r="G1682" t="s">
-        <v>1150</v>
+        <v>1151</v>
       </c>
       <c r="H1682" t="s">
         <v>9</v>
@@ -48678,7 +48681,7 @@
         <v>26.2999992370605</v>
       </c>
       <c r="G1683" t="s">
-        <v>1151</v>
+        <v>1152</v>
       </c>
       <c r="H1683" t="s">
         <v>9</v>
@@ -48704,7 +48707,7 @@
         <v>26.3999996185303</v>
       </c>
       <c r="G1684" t="s">
-        <v>1152</v>
+        <v>1153</v>
       </c>
       <c r="H1684" t="s">
         <v>9</v>
@@ -48730,7 +48733,7 @@
         <v>26.1399993896484</v>
       </c>
       <c r="G1685" t="s">
-        <v>1153</v>
+        <v>1154</v>
       </c>
       <c r="H1685" t="s">
         <v>9</v>
@@ -48756,7 +48759,7 @@
         <v>25.7399997711182</v>
       </c>
       <c r="G1686" t="s">
-        <v>1154</v>
+        <v>1155</v>
       </c>
       <c r="H1686" t="s">
         <v>9</v>
@@ -48782,7 +48785,7 @@
         <v>25.6399993896484</v>
       </c>
       <c r="G1687" t="s">
-        <v>1148</v>
+        <v>1149</v>
       </c>
       <c r="H1687" t="s">
         <v>9</v>
@@ -48808,7 +48811,7 @@
         <v>24.7600002288818</v>
       </c>
       <c r="G1688" t="s">
-        <v>1155</v>
+        <v>1156</v>
       </c>
       <c r="H1688" t="s">
         <v>9</v>
@@ -48834,7 +48837,7 @@
         <v>24.2600002288818</v>
       </c>
       <c r="G1689" t="s">
-        <v>1156</v>
+        <v>1157</v>
       </c>
       <c r="H1689" t="s">
         <v>9</v>
@@ -48860,7 +48863,7 @@
         <v>24.2600002288818</v>
       </c>
       <c r="G1690" t="s">
-        <v>1156</v>
+        <v>1157</v>
       </c>
       <c r="H1690" t="s">
         <v>9</v>
@@ -48886,7 +48889,7 @@
         <v>24.4599990844727</v>
       </c>
       <c r="G1691" t="s">
-        <v>1157</v>
+        <v>1158</v>
       </c>
       <c r="H1691" t="s">
         <v>9</v>
@@ -48912,7 +48915,7 @@
         <v>24.3600006103516</v>
       </c>
       <c r="G1692" t="s">
-        <v>1158</v>
+        <v>1159</v>
       </c>
       <c r="H1692" t="s">
         <v>9</v>
@@ -48938,7 +48941,7 @@
         <v>23.9200000762939</v>
       </c>
       <c r="G1693" t="s">
-        <v>1159</v>
+        <v>1160</v>
       </c>
       <c r="H1693" t="s">
         <v>9</v>
@@ -48964,7 +48967,7 @@
         <v>24.5599994659424</v>
       </c>
       <c r="G1694" t="s">
-        <v>1160</v>
+        <v>1161</v>
       </c>
       <c r="H1694" t="s">
         <v>9</v>
@@ -48990,7 +48993,7 @@
         <v>24.5</v>
       </c>
       <c r="G1695" t="s">
-        <v>1161</v>
+        <v>1162</v>
       </c>
       <c r="H1695" t="s">
         <v>9</v>
@@ -49016,7 +49019,7 @@
         <v>24.6000003814697</v>
       </c>
       <c r="G1696" t="s">
-        <v>1162</v>
+        <v>1163</v>
       </c>
       <c r="H1696" t="s">
         <v>9</v>
@@ -49042,7 +49045,7 @@
         <v>23.8600006103516</v>
       </c>
       <c r="G1697" t="s">
-        <v>1163</v>
+        <v>1164</v>
       </c>
       <c r="H1697" t="s">
         <v>9</v>
@@ -49068,7 +49071,7 @@
         <v>24.7399997711182</v>
       </c>
       <c r="G1698" t="s">
-        <v>1164</v>
+        <v>1165</v>
       </c>
       <c r="H1698" t="s">
         <v>9</v>
@@ -49094,7 +49097,7 @@
         <v>24.1000003814697</v>
       </c>
       <c r="G1699" t="s">
-        <v>1165</v>
+        <v>1166</v>
       </c>
       <c r="H1699" t="s">
         <v>9</v>
@@ -49120,7 +49123,7 @@
         <v>24.3600006103516</v>
       </c>
       <c r="G1700" t="s">
-        <v>1158</v>
+        <v>1159</v>
       </c>
       <c r="H1700" t="s">
         <v>9</v>
@@ -49146,7 +49149,7 @@
         <v>24.1800003051758</v>
       </c>
       <c r="G1701" t="s">
-        <v>1166</v>
+        <v>1167</v>
       </c>
       <c r="H1701" t="s">
         <v>9</v>
@@ -49172,7 +49175,7 @@
         <v>24.0200004577637</v>
       </c>
       <c r="G1702" t="s">
-        <v>1167</v>
+        <v>1168</v>
       </c>
       <c r="H1702" t="s">
         <v>9</v>
@@ -49198,7 +49201,7 @@
         <v>24.7399997711182</v>
       </c>
       <c r="G1703" t="s">
-        <v>1164</v>
+        <v>1165</v>
       </c>
       <c r="H1703" t="s">
         <v>9</v>
@@ -49224,7 +49227,7 @@
         <v>25.1200008392334</v>
       </c>
       <c r="G1704" t="s">
-        <v>1168</v>
+        <v>1169</v>
       </c>
       <c r="H1704" t="s">
         <v>9</v>
@@ -49250,7 +49253,7 @@
         <v>25.2000007629395</v>
       </c>
       <c r="G1705" t="s">
-        <v>1169</v>
+        <v>1170</v>
       </c>
       <c r="H1705" t="s">
         <v>9</v>
@@ -49276,7 +49279,7 @@
         <v>24.5400009155273</v>
       </c>
       <c r="G1706" t="s">
-        <v>1170</v>
+        <v>1171</v>
       </c>
       <c r="H1706" t="s">
         <v>9</v>
@@ -49302,7 +49305,7 @@
         <v>24</v>
       </c>
       <c r="G1707" t="s">
-        <v>1171</v>
+        <v>1172</v>
       </c>
       <c r="H1707" t="s">
         <v>9</v>
@@ -49328,7 +49331,7 @@
         <v>23.8600006103516</v>
       </c>
       <c r="G1708" t="s">
-        <v>1163</v>
+        <v>1164</v>
       </c>
       <c r="H1708" t="s">
         <v>9</v>
@@ -49354,7 +49357,7 @@
         <v>23.0599994659424</v>
       </c>
       <c r="G1709" t="s">
-        <v>1172</v>
+        <v>1173</v>
       </c>
       <c r="H1709" t="s">
         <v>9</v>
@@ -49380,7 +49383,7 @@
         <v>22.7800006866455</v>
       </c>
       <c r="G1710" t="s">
-        <v>1173</v>
+        <v>1174</v>
       </c>
       <c r="H1710" t="s">
         <v>9</v>
@@ -49406,7 +49409,7 @@
         <v>22.9400005340576</v>
       </c>
       <c r="G1711" t="s">
-        <v>1174</v>
+        <v>1175</v>
       </c>
       <c r="H1711" t="s">
         <v>9</v>
@@ -49432,7 +49435,7 @@
         <v>22.2600002288818</v>
       </c>
       <c r="G1712" t="s">
-        <v>1175</v>
+        <v>1176</v>
       </c>
       <c r="H1712" t="s">
         <v>9</v>
@@ -49458,7 +49461,7 @@
         <v>21.2800006866455</v>
       </c>
       <c r="G1713" t="s">
-        <v>1176</v>
+        <v>1177</v>
       </c>
       <c r="H1713" t="s">
         <v>9</v>
@@ -49484,7 +49487,7 @@
         <v>20.3199996948242</v>
       </c>
       <c r="G1714" t="s">
-        <v>1177</v>
+        <v>1178</v>
       </c>
       <c r="H1714" t="s">
         <v>9</v>
@@ -49510,7 +49513,7 @@
         <v>20.0599994659424</v>
       </c>
       <c r="G1715" t="s">
-        <v>1178</v>
+        <v>1179</v>
       </c>
       <c r="H1715" t="s">
         <v>9</v>
@@ -49536,7 +49539,7 @@
         <v>20.2600002288818</v>
       </c>
       <c r="G1716" t="s">
-        <v>1179</v>
+        <v>1180</v>
       </c>
       <c r="H1716" t="s">
         <v>9</v>
@@ -49562,7 +49565,7 @@
         <v>19.4599990844727</v>
       </c>
       <c r="G1717" t="s">
-        <v>1180</v>
+        <v>1181</v>
       </c>
       <c r="H1717" t="s">
         <v>9</v>
@@ -49588,7 +49591,7 @@
         <v>20.0799999237061</v>
       </c>
       <c r="G1718" t="s">
-        <v>1181</v>
+        <v>1182</v>
       </c>
       <c r="H1718" t="s">
         <v>9</v>
@@ -49614,7 +49617,7 @@
         <v>20.4400005340576</v>
       </c>
       <c r="G1719" t="s">
-        <v>1182</v>
+        <v>1183</v>
       </c>
       <c r="H1719" t="s">
         <v>9</v>
@@ -49640,7 +49643,7 @@
         <v>21.6599998474121</v>
       </c>
       <c r="G1720" t="s">
-        <v>1183</v>
+        <v>1184</v>
       </c>
       <c r="H1720" t="s">
         <v>9</v>
@@ -49666,7 +49669,7 @@
         <v>21.2000007629395</v>
       </c>
       <c r="G1721" t="s">
-        <v>1184</v>
+        <v>1185</v>
       </c>
       <c r="H1721" t="s">
         <v>9</v>
@@ -49692,7 +49695,7 @@
         <v>21.4599990844727</v>
       </c>
       <c r="G1722" t="s">
-        <v>1185</v>
+        <v>1186</v>
       </c>
       <c r="H1722" t="s">
         <v>9</v>
@@ -49718,7 +49721,7 @@
         <v>21.5</v>
       </c>
       <c r="G1723" t="s">
-        <v>1186</v>
+        <v>1187</v>
       </c>
       <c r="H1723" t="s">
         <v>9</v>
@@ -49744,7 +49747,7 @@
         <v>21.7999992370605</v>
       </c>
       <c r="G1724" t="s">
-        <v>1187</v>
+        <v>1188</v>
       </c>
       <c r="H1724" t="s">
         <v>9</v>
@@ -49770,7 +49773,7 @@
         <v>21.7800006866455</v>
       </c>
       <c r="G1725" t="s">
-        <v>1136</v>
+        <v>1137</v>
       </c>
       <c r="H1725" t="s">
         <v>9</v>
@@ -49796,7 +49799,7 @@
         <v>21.0599994659424</v>
       </c>
       <c r="G1726" t="s">
-        <v>1188</v>
+        <v>1189</v>
       </c>
       <c r="H1726" t="s">
         <v>9</v>
@@ -49822,7 +49825,7 @@
         <v>21.6000003814697</v>
       </c>
       <c r="G1727" t="s">
-        <v>1189</v>
+        <v>1190</v>
       </c>
       <c r="H1727" t="s">
         <v>9</v>
@@ -49848,7 +49851,7 @@
         <v>21.8199996948242</v>
       </c>
       <c r="G1728" t="s">
-        <v>1190</v>
+        <v>1191</v>
       </c>
       <c r="H1728" t="s">
         <v>9</v>
@@ -49874,7 +49877,7 @@
         <v>22.2199993133545</v>
       </c>
       <c r="G1729" t="s">
-        <v>1191</v>
+        <v>1192</v>
       </c>
       <c r="H1729" t="s">
         <v>9</v>
@@ -49900,7 +49903,7 @@
         <v>22.4200000762939</v>
       </c>
       <c r="G1730" t="s">
-        <v>1192</v>
+        <v>1193</v>
       </c>
       <c r="H1730" t="s">
         <v>9</v>
@@ -49926,7 +49929,7 @@
         <v>21.8799991607666</v>
       </c>
       <c r="G1731" t="s">
-        <v>1193</v>
+        <v>1194</v>
       </c>
       <c r="H1731" t="s">
         <v>9</v>
@@ -49952,7 +49955,7 @@
         <v>22.2600002288818</v>
       </c>
       <c r="G1732" t="s">
-        <v>1175</v>
+        <v>1176</v>
       </c>
       <c r="H1732" t="s">
         <v>9</v>
@@ -49978,7 +49981,7 @@
         <v>21.7800006866455</v>
       </c>
       <c r="G1733" t="s">
-        <v>1136</v>
+        <v>1137</v>
       </c>
       <c r="H1733" t="s">
         <v>9</v>
@@ -50004,7 +50007,7 @@
         <v>21.7199993133545</v>
       </c>
       <c r="G1734" t="s">
-        <v>1194</v>
+        <v>1195</v>
       </c>
       <c r="H1734" t="s">
         <v>9</v>
@@ -50030,7 +50033,7 @@
         <v>22.6399993896484</v>
       </c>
       <c r="G1735" t="s">
-        <v>1135</v>
+        <v>1136</v>
       </c>
       <c r="H1735" t="s">
         <v>9</v>
@@ -50056,7 +50059,7 @@
         <v>22.8999996185303</v>
       </c>
       <c r="G1736" t="s">
-        <v>1195</v>
+        <v>1196</v>
       </c>
       <c r="H1736" t="s">
         <v>9</v>
@@ -50082,7 +50085,7 @@
         <v>22.5400009155273</v>
       </c>
       <c r="G1737" t="s">
-        <v>1196</v>
+        <v>1197</v>
       </c>
       <c r="H1737" t="s">
         <v>9</v>
@@ -50108,7 +50111,7 @@
         <v>22.9400005340576</v>
       </c>
       <c r="G1738" t="s">
-        <v>1174</v>
+        <v>1175</v>
       </c>
       <c r="H1738" t="s">
         <v>9</v>
@@ -50134,7 +50137,7 @@
         <v>22.3999996185303</v>
       </c>
       <c r="G1739" t="s">
-        <v>1197</v>
+        <v>1198</v>
       </c>
       <c r="H1739" t="s">
         <v>9</v>
@@ -50160,7 +50163,7 @@
         <v>22.6599998474121</v>
       </c>
       <c r="G1740" t="s">
-        <v>1198</v>
+        <v>1199</v>
       </c>
       <c r="H1740" t="s">
         <v>9</v>
@@ -50186,7 +50189,7 @@
         <v>22</v>
       </c>
       <c r="G1741" t="s">
-        <v>1199</v>
+        <v>1200</v>
       </c>
       <c r="H1741" t="s">
         <v>9</v>
@@ -50212,7 +50215,7 @@
         <v>22.2800006866455</v>
       </c>
       <c r="G1742" t="s">
-        <v>1200</v>
+        <v>1201</v>
       </c>
       <c r="H1742" t="s">
         <v>9</v>
@@ -50238,7 +50241,7 @@
         <v>23.2999992370605</v>
       </c>
       <c r="G1743" t="s">
-        <v>1201</v>
+        <v>1202</v>
       </c>
       <c r="H1743" t="s">
         <v>9</v>
@@ -50264,7 +50267,7 @@
         <v>23.7000007629395</v>
       </c>
       <c r="G1744" t="s">
-        <v>1202</v>
+        <v>1203</v>
       </c>
       <c r="H1744" t="s">
         <v>9</v>
@@ -50290,7 +50293,7 @@
         <v>23.8999996185303</v>
       </c>
       <c r="G1745" t="s">
-        <v>1203</v>
+        <v>1204</v>
       </c>
       <c r="H1745" t="s">
         <v>9</v>
@@ -50316,7 +50319,7 @@
         <v>24.3799991607666</v>
       </c>
       <c r="G1746" t="s">
-        <v>1204</v>
+        <v>1205</v>
       </c>
       <c r="H1746" t="s">
         <v>9</v>
@@ -50342,7 +50345,7 @@
         <v>26</v>
       </c>
       <c r="G1747" t="s">
-        <v>1205</v>
+        <v>1206</v>
       </c>
       <c r="H1747" t="s">
         <v>9</v>
@@ -50368,7 +50371,7 @@
         <v>27.2999992370605</v>
       </c>
       <c r="G1748" t="s">
-        <v>1206</v>
+        <v>1207</v>
       </c>
       <c r="H1748" t="s">
         <v>9</v>
@@ -50394,7 +50397,7 @@
         <v>26.8999996185303</v>
       </c>
       <c r="G1749" t="s">
-        <v>1207</v>
+        <v>1208</v>
       </c>
       <c r="H1749" t="s">
         <v>9</v>
@@ -50420,7 +50423,7 @@
         <v>26.8199996948242</v>
       </c>
       <c r="G1750" t="s">
-        <v>1208</v>
+        <v>1209</v>
       </c>
       <c r="H1750" t="s">
         <v>9</v>
@@ -50446,7 +50449,7 @@
         <v>25.2399997711182</v>
       </c>
       <c r="G1751" t="s">
-        <v>1115</v>
+        <v>1116</v>
       </c>
       <c r="H1751" t="s">
         <v>9</v>
@@ -50472,7 +50475,7 @@
         <v>24.2600002288818</v>
       </c>
       <c r="G1752" t="s">
-        <v>1156</v>
+        <v>1157</v>
       </c>
       <c r="H1752" t="s">
         <v>9</v>
@@ -50498,7 +50501,7 @@
         <v>24.7399997711182</v>
       </c>
       <c r="G1753" t="s">
-        <v>1164</v>
+        <v>1165</v>
       </c>
       <c r="H1753" t="s">
         <v>9</v>
@@ -50524,7 +50527,7 @@
         <v>24.2199993133545</v>
       </c>
       <c r="G1754" t="s">
-        <v>1209</v>
+        <v>1210</v>
       </c>
       <c r="H1754" t="s">
         <v>9</v>
@@ -50550,7 +50553,7 @@
         <v>24.1200008392334</v>
       </c>
       <c r="G1755" t="s">
-        <v>1126</v>
+        <v>1127</v>
       </c>
       <c r="H1755" t="s">
         <v>9</v>
@@ -50576,7 +50579,7 @@
         <v>25.2999992370605</v>
       </c>
       <c r="G1756" t="s">
-        <v>1210</v>
+        <v>1211</v>
       </c>
       <c r="H1756" t="s">
         <v>9</v>
@@ -50602,7 +50605,7 @@
         <v>25.5</v>
       </c>
       <c r="G1757" t="s">
-        <v>1211</v>
+        <v>1212</v>
       </c>
       <c r="H1757" t="s">
         <v>9</v>
@@ -50628,7 +50631,7 @@
         <v>25.6800003051758</v>
       </c>
       <c r="G1758" t="s">
-        <v>1119</v>
+        <v>1120</v>
       </c>
       <c r="H1758" t="s">
         <v>9</v>
@@ -50654,7 +50657,7 @@
         <v>26.1399993896484</v>
       </c>
       <c r="G1759" t="s">
-        <v>1153</v>
+        <v>1154</v>
       </c>
       <c r="H1759" t="s">
         <v>9</v>
@@ -50680,7 +50683,7 @@
         <v>26.4599990844727</v>
       </c>
       <c r="G1760" t="s">
-        <v>1212</v>
+        <v>1213</v>
       </c>
       <c r="H1760" t="s">
         <v>9</v>
@@ -50706,7 +50709,7 @@
         <v>26.8600006103516</v>
       </c>
       <c r="G1761" t="s">
-        <v>1097</v>
+        <v>1098</v>
       </c>
       <c r="H1761" t="s">
         <v>9</v>
@@ -50732,7 +50735,7 @@
         <v>26.6800003051758</v>
       </c>
       <c r="G1762" t="s">
-        <v>1213</v>
+        <v>1214</v>
       </c>
       <c r="H1762" t="s">
         <v>9</v>
@@ -50758,7 +50761,7 @@
         <v>26.9599990844727</v>
       </c>
       <c r="G1763" t="s">
-        <v>1214</v>
+        <v>1215</v>
       </c>
       <c r="H1763" t="s">
         <v>9</v>
@@ -50784,7 +50787,7 @@
         <v>26.9799995422363</v>
       </c>
       <c r="G1764" t="s">
-        <v>1215</v>
+        <v>1216</v>
       </c>
       <c r="H1764" t="s">
         <v>9</v>
@@ -50810,7 +50813,7 @@
         <v>26</v>
       </c>
       <c r="G1765" t="s">
-        <v>1205</v>
+        <v>1206</v>
       </c>
       <c r="H1765" t="s">
         <v>9</v>
@@ -50836,7 +50839,7 @@
         <v>25</v>
       </c>
       <c r="G1766" t="s">
-        <v>1216</v>
+        <v>1217</v>
       </c>
       <c r="H1766" t="s">
         <v>9</v>
@@ -50862,7 +50865,7 @@
         <v>25.0599994659424</v>
       </c>
       <c r="G1767" t="s">
-        <v>1122</v>
+        <v>1123</v>
       </c>
       <c r="H1767" t="s">
         <v>9</v>
@@ -50888,7 +50891,7 @@
         <v>24.9599990844727</v>
       </c>
       <c r="G1768" t="s">
-        <v>1217</v>
+        <v>1218</v>
       </c>
       <c r="H1768" t="s">
         <v>9</v>
@@ -50914,7 +50917,7 @@
         <v>24.7600002288818</v>
       </c>
       <c r="G1769" t="s">
-        <v>1155</v>
+        <v>1156</v>
       </c>
       <c r="H1769" t="s">
         <v>9</v>
@@ -50940,7 +50943,7 @@
         <v>25.2199993133545</v>
       </c>
       <c r="G1770" t="s">
-        <v>1218</v>
+        <v>1219</v>
       </c>
       <c r="H1770" t="s">
         <v>9</v>
@@ -50966,7 +50969,7 @@
         <v>25.2399997711182</v>
       </c>
       <c r="G1771" t="s">
-        <v>1115</v>
+        <v>1116</v>
       </c>
       <c r="H1771" t="s">
         <v>9</v>
@@ -50992,7 +50995,7 @@
         <v>24.0599994659424</v>
       </c>
       <c r="G1772" t="s">
-        <v>1219</v>
+        <v>1220</v>
       </c>
       <c r="H1772" t="s">
         <v>9</v>
@@ -51018,7 +51021,7 @@
         <v>23.8999996185303</v>
       </c>
       <c r="G1773" t="s">
-        <v>1203</v>
+        <v>1204</v>
       </c>
       <c r="H1773" t="s">
         <v>9</v>
@@ -51044,7 +51047,7 @@
         <v>23.7000007629395</v>
       </c>
       <c r="G1774" t="s">
-        <v>1202</v>
+        <v>1203</v>
       </c>
       <c r="H1774" t="s">
         <v>9</v>
@@ -51070,7 +51073,7 @@
         <v>23.2000007629395</v>
       </c>
       <c r="G1775" t="s">
-        <v>1220</v>
+        <v>1221</v>
       </c>
       <c r="H1775" t="s">
         <v>9</v>
@@ -51096,7 +51099,7 @@
         <v>23.9400005340576</v>
       </c>
       <c r="G1776" t="s">
-        <v>1140</v>
+        <v>1141</v>
       </c>
       <c r="H1776" t="s">
         <v>9</v>
@@ -51122,7 +51125,7 @@
         <v>24.7399997711182</v>
       </c>
       <c r="G1777" t="s">
-        <v>1164</v>
+        <v>1165</v>
       </c>
       <c r="H1777" t="s">
         <v>9</v>
@@ -51148,7 +51151,7 @@
         <v>25.0400009155273</v>
       </c>
       <c r="G1778" t="s">
-        <v>1221</v>
+        <v>1222</v>
       </c>
       <c r="H1778" t="s">
         <v>9</v>
@@ -51174,7 +51177,7 @@
         <v>25.5200004577637</v>
       </c>
       <c r="G1779" t="s">
-        <v>1222</v>
+        <v>1223</v>
       </c>
       <c r="H1779" t="s">
         <v>9</v>
@@ -51200,7 +51203,7 @@
         <v>25.8999996185303</v>
       </c>
       <c r="G1780" t="s">
-        <v>1117</v>
+        <v>1118</v>
       </c>
       <c r="H1780" t="s">
         <v>9</v>
@@ -51226,7 +51229,7 @@
         <v>26.3799991607666</v>
       </c>
       <c r="G1781" t="s">
-        <v>1223</v>
+        <v>1224</v>
       </c>
       <c r="H1781" t="s">
         <v>9</v>
@@ -51252,7 +51255,7 @@
         <v>26.3199996948242</v>
       </c>
       <c r="G1782" t="s">
-        <v>1224</v>
+        <v>1225</v>
       </c>
       <c r="H1782" t="s">
         <v>9</v>
@@ -51278,7 +51281,7 @@
         <v>26.0400009155273</v>
       </c>
       <c r="G1783" t="s">
-        <v>1225</v>
+        <v>1226</v>
       </c>
       <c r="H1783" t="s">
         <v>9</v>
@@ -51304,7 +51307,7 @@
         <v>26.5200004577637</v>
       </c>
       <c r="G1784" t="s">
-        <v>1226</v>
+        <v>1227</v>
       </c>
       <c r="H1784" t="s">
         <v>9</v>
@@ -51330,7 +51333,7 @@
         <v>27.3400001525879</v>
       </c>
       <c r="G1785" t="s">
-        <v>1227</v>
+        <v>1228</v>
       </c>
       <c r="H1785" t="s">
         <v>9</v>
@@ -51356,7 +51359,7 @@
         <v>26.9599990844727</v>
       </c>
       <c r="G1786" t="s">
-        <v>1214</v>
+        <v>1215</v>
       </c>
       <c r="H1786" t="s">
         <v>9</v>
@@ -51382,7 +51385,7 @@
         <v>27.0599994659424</v>
       </c>
       <c r="G1787" t="s">
-        <v>1228</v>
+        <v>1229</v>
       </c>
       <c r="H1787" t="s">
         <v>9</v>
@@ -51408,7 +51411,7 @@
         <v>28.2999992370605</v>
       </c>
       <c r="G1788" t="s">
-        <v>1229</v>
+        <v>1230</v>
       </c>
       <c r="H1788" t="s">
         <v>9</v>
@@ -51434,7 +51437,7 @@
         <v>27.8600006103516</v>
       </c>
       <c r="G1789" t="s">
-        <v>1230</v>
+        <v>1231</v>
       </c>
       <c r="H1789" t="s">
         <v>9</v>
@@ -51460,7 +51463,7 @@
         <v>27.7600002288818</v>
       </c>
       <c r="G1790" t="s">
-        <v>1231</v>
+        <v>1232</v>
       </c>
       <c r="H1790" t="s">
         <v>9</v>
@@ -51486,7 +51489,7 @@
         <v>28.9799995422363</v>
       </c>
       <c r="G1791" t="s">
-        <v>1232</v>
+        <v>1233</v>
       </c>
       <c r="H1791" t="s">
         <v>9</v>
@@ -51512,7 +51515,7 @@
         <v>28.7000007629395</v>
       </c>
       <c r="G1792" t="s">
-        <v>1109</v>
+        <v>1110</v>
       </c>
       <c r="H1792" t="s">
         <v>9</v>
@@ -51538,7 +51541,7 @@
         <v>29.0599994659424</v>
       </c>
       <c r="G1793" t="s">
-        <v>1233</v>
+        <v>1234</v>
       </c>
       <c r="H1793" t="s">
         <v>9</v>
@@ -51564,7 +51567,7 @@
         <v>28.5</v>
       </c>
       <c r="G1794" t="s">
-        <v>1234</v>
+        <v>1235</v>
       </c>
       <c r="H1794" t="s">
         <v>9</v>
@@ -51590,7 +51593,7 @@
         <v>28.8600006103516</v>
       </c>
       <c r="G1795" t="s">
-        <v>1235</v>
+        <v>1236</v>
       </c>
       <c r="H1795" t="s">
         <v>9</v>
@@ -51616,7 +51619,7 @@
         <v>28.5599994659424</v>
       </c>
       <c r="G1796" t="s">
-        <v>1236</v>
+        <v>1237</v>
       </c>
       <c r="H1796" t="s">
         <v>9</v>
@@ -51642,7 +51645,7 @@
         <v>29.1000003814697</v>
       </c>
       <c r="G1797" t="s">
-        <v>1237</v>
+        <v>1238</v>
       </c>
       <c r="H1797" t="s">
         <v>9</v>
@@ -51668,7 +51671,7 @@
         <v>29.1599998474121</v>
       </c>
       <c r="G1798" t="s">
-        <v>1238</v>
+        <v>1239</v>
       </c>
       <c r="H1798" t="s">
         <v>9</v>
@@ -51694,7 +51697,7 @@
         <v>29</v>
       </c>
       <c r="G1799" t="s">
-        <v>1239</v>
+        <v>1240</v>
       </c>
       <c r="H1799" t="s">
         <v>9</v>
@@ -51720,7 +51723,7 @@
         <v>28.9400005340576</v>
       </c>
       <c r="G1800" t="s">
-        <v>1240</v>
+        <v>1095</v>
       </c>
       <c r="H1800" t="s">
         <v>9</v>
@@ -51798,7 +51801,7 @@
         <v>28.2999992370605</v>
       </c>
       <c r="G1803" t="s">
-        <v>1229</v>
+        <v>1230</v>
       </c>
       <c r="H1803" t="s">
         <v>9</v>
@@ -52032,7 +52035,7 @@
         <v>29.4200000762939</v>
       </c>
       <c r="G1812" t="s">
-        <v>1113</v>
+        <v>1114</v>
       </c>
       <c r="H1812" t="s">
         <v>9</v>
@@ -52214,7 +52217,7 @@
         <v>29.2999992370605</v>
       </c>
       <c r="G1819" t="s">
-        <v>1110</v>
+        <v>1111</v>
       </c>
       <c r="H1819" t="s">
         <v>9</v>
@@ -52266,7 +52269,7 @@
         <v>28.7000007629395</v>
       </c>
       <c r="G1821" t="s">
-        <v>1109</v>
+        <v>1110</v>
       </c>
       <c r="H1821" t="s">
         <v>9</v>
@@ -52474,7 +52477,7 @@
         <v>27.5200004577637</v>
       </c>
       <c r="G1829" t="s">
-        <v>1103</v>
+        <v>1104</v>
       </c>
       <c r="H1829" t="s">
         <v>9</v>
@@ -52578,7 +52581,7 @@
         <v>25.6399993896484</v>
       </c>
       <c r="G1833" t="s">
-        <v>1148</v>
+        <v>1149</v>
       </c>
       <c r="H1833" t="s">
         <v>9</v>
@@ -52708,7 +52711,7 @@
         <v>24</v>
       </c>
       <c r="G1838" t="s">
-        <v>1171</v>
+        <v>1172</v>
       </c>
       <c r="H1838" t="s">
         <v>9</v>
@@ -52760,7 +52763,7 @@
         <v>24.5</v>
       </c>
       <c r="G1840" t="s">
-        <v>1161</v>
+        <v>1162</v>
       </c>
       <c r="H1840" t="s">
         <v>9</v>
@@ -52890,7 +52893,7 @@
         <v>25.6200008392334</v>
       </c>
       <c r="G1845" t="s">
-        <v>1124</v>
+        <v>1125</v>
       </c>
       <c r="H1845" t="s">
         <v>9</v>
@@ -52916,7 +52919,7 @@
         <v>26.1800003051758</v>
       </c>
       <c r="G1846" t="s">
-        <v>1144</v>
+        <v>1145</v>
       </c>
       <c r="H1846" t="s">
         <v>9</v>
@@ -53020,7 +53023,7 @@
         <v>27</v>
       </c>
       <c r="G1850" t="s">
-        <v>1102</v>
+        <v>1103</v>
       </c>
       <c r="H1850" t="s">
         <v>9</v>
@@ -53410,7 +53413,7 @@
         <v>28.2999992370605</v>
       </c>
       <c r="G1865" t="s">
-        <v>1229</v>
+        <v>1230</v>
       </c>
       <c r="H1865" t="s">
         <v>9</v>
@@ -53540,7 +53543,7 @@
         <v>27.7999992370605</v>
       </c>
       <c r="G1870" t="s">
-        <v>1100</v>
+        <v>1101</v>
       </c>
       <c r="H1870" t="s">
         <v>9</v>
@@ -53800,7 +53803,7 @@
         <v>29</v>
       </c>
       <c r="G1880" t="s">
-        <v>1239</v>
+        <v>1240</v>
       </c>
       <c r="H1880" t="s">
         <v>9</v>
@@ -62882,7 +62885,7 @@
     </row>
     <row r="2230">
       <c r="A2230" s="1" t="n">
-        <v>45568.6495833333</v>
+        <v>45568.2916666667</v>
       </c>
       <c r="B2230" t="n">
         <v>11953</v>
@@ -62903,6 +62906,32 @@
         <v>1524</v>
       </c>
       <c r="H2230" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2231">
+      <c r="A2231" s="1" t="n">
+        <v>45569.6493634259</v>
+      </c>
+      <c r="B2231" t="n">
+        <v>7263</v>
+      </c>
+      <c r="C2231" t="n">
+        <v>33.4000015258789</v>
+      </c>
+      <c r="D2231" t="n">
+        <v>32.7000007629395</v>
+      </c>
+      <c r="E2231" t="n">
+        <v>32.7000007629395</v>
+      </c>
+      <c r="F2231" t="n">
+        <v>32.7999992370605</v>
+      </c>
+      <c r="G2231" t="s">
+        <v>1525</v>
+      </c>
+      <c r="H2231" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/MOL.MI.xlsx
+++ b/data/MOL.MI.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1527" uniqueCount="1527">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1528" uniqueCount="1528">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -38,37 +38,37 @@
     <t xml:space="preserve">ticker</t>
   </si>
   <si>
-    <t xml:space="preserve">6.93459796905518</t>
+    <t xml:space="preserve">6.93459844589233</t>
   </si>
   <si>
     <t xml:space="preserve">MOL.MI</t>
   </si>
   <si>
-    <t xml:space="preserve">6.84052562713623</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.74197101593018</t>
+    <t xml:space="preserve">6.84052467346191</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.74197053909302</t>
   </si>
   <si>
     <t xml:space="preserve">6.85396385192871</t>
   </si>
   <si>
-    <t xml:space="preserve">6.71957302093506</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.809166431427</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.89876079559326</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.6299786567688</t>
+    <t xml:space="preserve">6.71957206726074</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.80916690826416</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.89876174926758</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.62997770309448</t>
   </si>
   <si>
     <t xml:space="preserve">6.39703321456909</t>
   </si>
   <si>
-    <t xml:space="preserve">6.17304658889771</t>
+    <t xml:space="preserve">6.17304754257202</t>
   </si>
   <si>
     <t xml:space="preserve">6.428391456604</t>
@@ -80,61 +80,61 @@
     <t xml:space="preserve">6.63893747329712</t>
   </si>
   <si>
-    <t xml:space="preserve">6.54038429260254</t>
+    <t xml:space="preserve">6.54038381576538</t>
   </si>
   <si>
     <t xml:space="preserve">5.96698045730591</t>
   </si>
   <si>
-    <t xml:space="preserve">6.60309934616089</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.73749113082886</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.84500408172607</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.74645042419434</t>
+    <t xml:space="preserve">6.60310029983521</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.7374906539917</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.84500503540039</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.74645090103149</t>
   </si>
   <si>
     <t xml:space="preserve">6.77332925796509</t>
   </si>
   <si>
-    <t xml:space="preserve">6.76436948776245</t>
+    <t xml:space="preserve">6.76436901092529</t>
   </si>
   <si>
     <t xml:space="preserve">6.09241247177124</t>
   </si>
   <si>
-    <t xml:space="preserve">5.97145938873291</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.3611946105957</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.13721036911011</t>
+    <t xml:space="preserve">5.97146034240723</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.36119556427002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.13720989227295</t>
   </si>
   <si>
     <t xml:space="preserve">6.32983684539795</t>
   </si>
   <si>
-    <t xml:space="preserve">6.47766828536987</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.41943120956421</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.58966016769409</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.41047239303589</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.50454664230347</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.46870851516724</t>
+    <t xml:space="preserve">6.47766780853271</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.41943168640137</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.58966112136841</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.41047191619873</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.50454616546631</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.46870899200439</t>
   </si>
   <si>
     <t xml:space="preserve">6.38359355926514</t>
@@ -143,94 +143,94 @@
     <t xml:space="preserve">6.48662710189819</t>
   </si>
   <si>
-    <t xml:space="preserve">6.43287038803101</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.71509218215942</t>
+    <t xml:space="preserve">6.43286991119385</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.71509313583374</t>
   </si>
   <si>
     <t xml:space="preserve">6.51350545883179</t>
   </si>
   <si>
-    <t xml:space="preserve">6.30295944213867</t>
+    <t xml:space="preserve">6.30295896530151</t>
   </si>
   <si>
     <t xml:space="preserve">6.32087802886963</t>
   </si>
   <si>
-    <t xml:space="preserve">6.35223627090454</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.34327602386475</t>
+    <t xml:space="preserve">6.35223579406738</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.3432765007019</t>
   </si>
   <si>
     <t xml:space="preserve">6.71061277389526</t>
   </si>
   <si>
-    <t xml:space="preserve">6.51798629760742</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.49110698699951</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.5314245223999</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.53590393066406</t>
+    <t xml:space="preserve">6.51798534393311</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.49110746383667</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.53142499923706</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.53590440750122</t>
   </si>
   <si>
     <t xml:space="preserve">6.4463095664978</t>
   </si>
   <si>
-    <t xml:space="preserve">6.27160120010376</t>
+    <t xml:space="preserve">6.27160024642944</t>
   </si>
   <si>
     <t xml:space="preserve">6.14168930053711</t>
   </si>
   <si>
-    <t xml:space="preserve">6.36567544937134</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.2805609703064</t>
+    <t xml:space="preserve">6.36567497253418</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.28056049346924</t>
   </si>
   <si>
     <t xml:space="preserve">6.37015438079834</t>
   </si>
   <si>
-    <t xml:space="preserve">6.32535743713379</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.29847955703735</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.33431768417358</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.23128318786621</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.2671217918396</t>
+    <t xml:space="preserve">6.32535696029663</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.2984790802002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.33431720733643</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.23128414154053</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.26712131500244</t>
   </si>
   <si>
     <t xml:space="preserve">6.67029619216919</t>
   </si>
   <si>
-    <t xml:space="preserve">6.55830335617065</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.57622098922729</t>
+    <t xml:space="preserve">6.5583028793335</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.57622146606445</t>
   </si>
   <si>
     <t xml:space="preserve">6.50006628036499</t>
   </si>
   <si>
-    <t xml:space="preserve">6.71476602554321</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.5318021774292</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.62328386306763</t>
+    <t xml:space="preserve">6.7147650718689</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.53180265426636</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.62328338623047</t>
   </si>
   <si>
     <t xml:space="preserve">6.52265357971191</t>
@@ -239,97 +239,97 @@
     <t xml:space="preserve">6.58669090270996</t>
   </si>
   <si>
-    <t xml:space="preserve">6.63700580596924</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.44489431381226</t>
+    <t xml:space="preserve">6.63700675964355</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.4448938369751</t>
   </si>
   <si>
     <t xml:space="preserve">6.70104312896729</t>
   </si>
   <si>
-    <t xml:space="preserve">6.77422857284546</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.67817306518555</t>
+    <t xml:space="preserve">6.77422904968262</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.67817211151123</t>
   </si>
   <si>
     <t xml:space="preserve">6.76508092880249</t>
   </si>
   <si>
-    <t xml:space="preserve">6.78795099258423</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.83369112014771</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.93432235717773</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.03037738800049</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.07154512405396</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.19047164916992</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.34141540527344</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.41002798080444</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.54725027084351</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.39173173904419</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.46949100494385</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.34598970413208</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.3185453414917</t>
+    <t xml:space="preserve">6.78795146942139</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.83369159698486</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.93432283401489</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.03037786483765</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.0715446472168</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.19047117233276</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.34141492843628</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.41002750396729</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.54724979400635</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.39173221588135</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.46949052810669</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.34598922729492</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.31854581832886</t>
   </si>
   <si>
     <t xml:space="preserve">7.31397151947021</t>
   </si>
   <si>
-    <t xml:space="preserve">7.28652715682983</t>
+    <t xml:space="preserve">7.28652620315552</t>
   </si>
   <si>
     <t xml:space="preserve">7.18132305145264</t>
   </si>
   <si>
-    <t xml:space="preserve">7.22706460952759</t>
+    <t xml:space="preserve">7.22706413269043</t>
   </si>
   <si>
     <t xml:space="preserve">7.08984088897705</t>
   </si>
   <si>
-    <t xml:space="preserve">7.16760063171387</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.04409980773926</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.92517375946045</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.20419406890869</t>
+    <t xml:space="preserve">7.16760110855103</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.04410028457642</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.92517423629761</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.20419311523438</t>
   </si>
   <si>
     <t xml:space="preserve">7.25450849533081</t>
   </si>
   <si>
-    <t xml:space="preserve">7.40087938308716</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.41460084915161</t>
+    <t xml:space="preserve">7.40087985992432</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.41460132598877</t>
   </si>
   <si>
     <t xml:space="preserve">7.08526706695557</t>
@@ -341,13 +341,13 @@
     <t xml:space="preserve">7.17674875259399</t>
   </si>
   <si>
-    <t xml:space="preserve">7.27280426025391</t>
+    <t xml:space="preserve">7.27280473709106</t>
   </si>
   <si>
     <t xml:space="preserve">6.9434700012207</t>
   </si>
   <si>
-    <t xml:space="preserve">6.76050710678101</t>
+    <t xml:space="preserve">6.76050615310669</t>
   </si>
   <si>
     <t xml:space="preserve">6.57754278182983</t>
@@ -356,16 +356,16 @@
     <t xml:space="preserve">6.65072822570801</t>
   </si>
   <si>
-    <t xml:space="preserve">6.65987634658813</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.49520921707153</t>
+    <t xml:space="preserve">6.65987682342529</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.49520874023438</t>
   </si>
   <si>
     <t xml:space="preserve">6.82911777496338</t>
   </si>
   <si>
-    <t xml:space="preserve">6.73306226730347</t>
+    <t xml:space="preserve">6.73306274414062</t>
   </si>
   <si>
     <t xml:space="preserve">6.63243198394775</t>
@@ -377,7 +377,7 @@
     <t xml:space="preserve">6.83826589584351</t>
   </si>
   <si>
-    <t xml:space="preserve">6.64615440368652</t>
+    <t xml:space="preserve">6.64615345001221</t>
   </si>
   <si>
     <t xml:space="preserve">6.86113691329956</t>
@@ -386,13 +386,13 @@
     <t xml:space="preserve">6.79252529144287</t>
   </si>
   <si>
-    <t xml:space="preserve">6.56839466094971</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.61870908737183</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.74221086502075</t>
+    <t xml:space="preserve">6.56839418411255</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.61870956420898</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.74221038818359</t>
   </si>
   <si>
     <t xml:space="preserve">6.76965427398682</t>
@@ -404,34 +404,34 @@
     <t xml:space="preserve">6.96176671981812</t>
   </si>
   <si>
-    <t xml:space="preserve">6.7833776473999</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.87028455734253</t>
+    <t xml:space="preserve">6.78337717056274</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.87028503417969</t>
   </si>
   <si>
     <t xml:space="preserve">6.87943267822266</t>
   </si>
   <si>
-    <t xml:space="preserve">6.89772939682007</t>
+    <t xml:space="preserve">6.89772891998291</t>
   </si>
   <si>
     <t xml:space="preserve">6.90230321884155</t>
   </si>
   <si>
-    <t xml:space="preserve">6.90687704086304</t>
+    <t xml:space="preserve">6.9068775177002</t>
   </si>
   <si>
     <t xml:space="preserve">6.88858127593994</t>
   </si>
   <si>
-    <t xml:space="preserve">7.00750732421875</t>
+    <t xml:space="preserve">7.00750780105591</t>
   </si>
   <si>
     <t xml:space="preserve">6.9892110824585</t>
   </si>
   <si>
-    <t xml:space="preserve">6.95261812210083</t>
+    <t xml:space="preserve">6.95261859893799</t>
   </si>
   <si>
     <t xml:space="preserve">7.06697034835815</t>
@@ -443,10 +443,10 @@
     <t xml:space="preserve">7.09898996353149</t>
   </si>
   <si>
-    <t xml:space="preserve">7.06239604949951</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.72391319274902</t>
+    <t xml:space="preserve">7.06239652633667</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.72391366958618</t>
   </si>
   <si>
     <t xml:space="preserve">6.7788028717041</t>
@@ -455,13 +455,13 @@
     <t xml:space="preserve">6.97091436386108</t>
   </si>
   <si>
-    <t xml:space="preserve">7.01665544509888</t>
+    <t xml:space="preserve">7.01665496826172</t>
   </si>
   <si>
     <t xml:space="preserve">7.1081371307373</t>
   </si>
   <si>
-    <t xml:space="preserve">7.07611846923828</t>
+    <t xml:space="preserve">7.0761194229126</t>
   </si>
   <si>
     <t xml:space="preserve">7.28195285797119</t>
@@ -473,7 +473,7 @@
     <t xml:space="preserve">7.13558292388916</t>
   </si>
   <si>
-    <t xml:space="preserve">7.15387868881226</t>
+    <t xml:space="preserve">7.1538782119751</t>
   </si>
   <si>
     <t xml:space="preserve">7.2362117767334</t>
@@ -485,7 +485,7 @@
     <t xml:space="preserve">7.14930438995361</t>
   </si>
   <si>
-    <t xml:space="preserve">7.24536037445068</t>
+    <t xml:space="preserve">7.24536085128784</t>
   </si>
   <si>
     <t xml:space="preserve">7.3002495765686</t>
@@ -497,10 +497,10 @@
     <t xml:space="preserve">7.30939722061157</t>
   </si>
   <si>
-    <t xml:space="preserve">7.33684206008911</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.27737808227539</t>
+    <t xml:space="preserve">7.33684301376343</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.27737903594971</t>
   </si>
   <si>
     <t xml:space="preserve">7.44662094116211</t>
@@ -509,58 +509,58 @@
     <t xml:space="preserve">7.46034288406372</t>
   </si>
   <si>
-    <t xml:space="preserve">6.96634006500244</t>
+    <t xml:space="preserve">6.9663405418396</t>
   </si>
   <si>
     <t xml:space="preserve">7.12185955047607</t>
   </si>
   <si>
-    <t xml:space="preserve">7.26823139190674</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.99835920333862</t>
+    <t xml:space="preserve">7.26823043823242</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.99835968017578</t>
   </si>
   <si>
     <t xml:space="preserve">7.61128664016724</t>
   </si>
   <si>
-    <t xml:space="preserve">7.57011985778809</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.59299087524414</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.50150918960571</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.36428642272949</t>
+    <t xml:space="preserve">7.57012033462524</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.5929913520813</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.5015082359314</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.36428594589233</t>
   </si>
   <si>
     <t xml:space="preserve">7.70276975631714</t>
   </si>
   <si>
-    <t xml:space="preserve">7.75765657424927</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.82169628143311</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.77595520019531</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.77138042449951</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.7302131652832</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.86743593215942</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.06869602203369</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.44377136230469</t>
+    <t xml:space="preserve">7.75765752792358</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.82169675827026</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.77595472335815</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.77138137817383</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.73021268844604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.86743688583374</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.06869506835938</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.443772315979</t>
   </si>
   <si>
     <t xml:space="preserve">8.51695728302002</t>
@@ -572,13 +572,13 @@
     <t xml:space="preserve">8.68162441253662</t>
   </si>
   <si>
-    <t xml:space="preserve">8.48036479949951</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.51238441467285</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.46206951141357</t>
+    <t xml:space="preserve">8.48036575317383</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.51238346099854</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.46206855773926</t>
   </si>
   <si>
     <t xml:space="preserve">8.3248462677002</t>
@@ -593,25 +593,25 @@
     <t xml:space="preserve">8.43004989624023</t>
   </si>
   <si>
-    <t xml:space="preserve">8.42547607421875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.46664237976074</t>
+    <t xml:space="preserve">8.42547512054443</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.46664428710938</t>
   </si>
   <si>
     <t xml:space="preserve">8.47579193115234</t>
   </si>
   <si>
-    <t xml:space="preserve">8.5718469619751</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.40717887878418</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.40260410308838</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.19676971435547</t>
+    <t xml:space="preserve">8.57184600830078</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.4071798324585</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.40260601043701</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.1967716217041</t>
   </si>
   <si>
     <t xml:space="preserve">8.37058639526367</t>
@@ -620,37 +620,37 @@
     <t xml:space="preserve">8.30654907226562</t>
   </si>
   <si>
-    <t xml:space="preserve">8.17390251159668</t>
+    <t xml:space="preserve">8.17390060424805</t>
   </si>
   <si>
     <t xml:space="preserve">8.21049404144287</t>
   </si>
   <si>
-    <t xml:space="preserve">8.38430976867676</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.39803218841553</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.50780773162842</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.58556747436523</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.52610683441162</t>
+    <t xml:space="preserve">8.38430881500244</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.39803314208984</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.50780963897705</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.58556938171387</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.5261058807373</t>
   </si>
   <si>
     <t xml:space="preserve">8.32942008972168</t>
   </si>
   <si>
-    <t xml:space="preserve">8.37516117095947</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.12815952301025</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.23336315155029</t>
+    <t xml:space="preserve">8.37516021728516</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.12816143035889</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.23336410522461</t>
   </si>
   <si>
     <t xml:space="preserve">8.37973403930664</t>
@@ -659,25 +659,25 @@
     <t xml:space="preserve">8.53525352478027</t>
   </si>
   <si>
-    <t xml:space="preserve">8.80055141448975</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.6970739364624</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.36773681640625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.33114528656006</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.12988567352295</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.27625751495361</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.31284999847412</t>
+    <t xml:space="preserve">8.80055236816406</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.69707489013672</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.36773777008057</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.33114624023438</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.12988471984863</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.2762565612793</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.3128490447998</t>
   </si>
   <si>
     <t xml:space="preserve">9.32199764251709</t>
@@ -686,37 +686,37 @@
     <t xml:space="preserve">9.34029388427734</t>
   </si>
   <si>
-    <t xml:space="preserve">9.05669975280762</t>
+    <t xml:space="preserve">9.05670070648193</t>
   </si>
   <si>
     <t xml:space="preserve">9.14818096160889</t>
   </si>
   <si>
-    <t xml:space="preserve">9.23966407775879</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.46836948394775</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.66962909698486</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.58729362487793</t>
+    <t xml:space="preserve">9.23966312408447</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.46836853027344</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.66962814331055</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.58729457855225</t>
   </si>
   <si>
     <t xml:space="preserve">9.92577838897705</t>
   </si>
   <si>
-    <t xml:space="preserve">10.0172595977783</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3374452590942</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0630006790161</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5752992630005</t>
+    <t xml:space="preserve">10.017258644104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3374462127686</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0629997253418</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5752983093262</t>
   </si>
   <si>
     <t xml:space="preserve">10.9778184890747</t>
@@ -725,31 +725,31 @@
     <t xml:space="preserve">10.9412260055542</t>
   </si>
   <si>
-    <t xml:space="preserve">11.0418548583984</t>
+    <t xml:space="preserve">11.0418558120728</t>
   </si>
   <si>
     <t xml:space="preserve">11.0693006515503</t>
   </si>
   <si>
-    <t xml:space="preserve">10.8680410385132</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8405952453613</t>
+    <t xml:space="preserve">10.8680400848389</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8405981063843</t>
   </si>
   <si>
     <t xml:space="preserve">10.8863363265991</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5411834716797</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2893133163452</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0747604370117</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4478979110718</t>
+    <t xml:space="preserve">10.5411825180054</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2893142700195</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0747594833374</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4478988647461</t>
   </si>
   <si>
     <t xml:space="preserve">10.4945411682129</t>
@@ -758,7 +758,7 @@
     <t xml:space="preserve">10.3452844619751</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4665555953979</t>
+    <t xml:space="preserve">10.4665546417236</t>
   </si>
   <si>
     <t xml:space="preserve">10.5784969329834</t>
@@ -770,31 +770,31 @@
     <t xml:space="preserve">10.606481552124</t>
   </si>
   <si>
-    <t xml:space="preserve">10.8117084503174</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1475343704224</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.8471689224243</t>
+    <t xml:space="preserve">10.8117094039917</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.147533416748</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.8471708297729</t>
   </si>
   <si>
     <t xml:space="preserve">11.6606016159058</t>
   </si>
   <si>
-    <t xml:space="preserve">11.2874612808228</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3714179992676</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1661901473999</t>
+    <t xml:space="preserve">11.2874622344971</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3714170455933</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1661920547485</t>
   </si>
   <si>
     <t xml:space="preserve">11.2128343582153</t>
   </si>
   <si>
-    <t xml:space="preserve">11.1008911132812</t>
+    <t xml:space="preserve">11.1008920669556</t>
   </si>
   <si>
     <t xml:space="preserve">10.8956661224365</t>
@@ -803,49 +803,49 @@
     <t xml:space="preserve">10.8210382461548</t>
   </si>
   <si>
-    <t xml:space="preserve">10.8023815155029</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0542488098145</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9329795837402</t>
+    <t xml:space="preserve">10.8023796081543</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0542507171631</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9329805374146</t>
   </si>
   <si>
     <t xml:space="preserve">10.6344680786133</t>
   </si>
   <si>
-    <t xml:space="preserve">11.1941757202148</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1288766860962</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5579891204834</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1382055282593</t>
+    <t xml:space="preserve">11.1941766738892</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1288776397705</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5579881668091</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1382064819336</t>
   </si>
   <si>
     <t xml:space="preserve">11.0076084136963</t>
   </si>
   <si>
-    <t xml:space="preserve">11.5206756591797</t>
+    <t xml:space="preserve">11.5206737518311</t>
   </si>
   <si>
     <t xml:space="preserve">11.4740324020386</t>
   </si>
   <si>
-    <t xml:space="preserve">11.7818717956543</t>
+    <t xml:space="preserve">11.7818727493286</t>
   </si>
   <si>
     <t xml:space="preserve">12.1736688613892</t>
   </si>
   <si>
-    <t xml:space="preserve">12.3975496292114</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9684410095215</t>
+    <t xml:space="preserve">12.3975505828857</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9684400558472</t>
   </si>
   <si>
     <t xml:space="preserve">12.593448638916</t>
@@ -854,28 +854,28 @@
     <t xml:space="preserve">12.6027774810791</t>
   </si>
   <si>
-    <t xml:space="preserve">12.7520332336426</t>
+    <t xml:space="preserve">12.7520341873169</t>
   </si>
   <si>
     <t xml:space="preserve">12.8266620635986</t>
   </si>
   <si>
-    <t xml:space="preserve">12.6121053695679</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.8733034133911</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.8080034255981</t>
+    <t xml:space="preserve">12.6121063232422</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.8733043670654</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.8080043792725</t>
   </si>
   <si>
     <t xml:space="preserve">12.6214332580566</t>
   </si>
   <si>
-    <t xml:space="preserve">12.658748626709</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.6400909423828</t>
+    <t xml:space="preserve">12.6587476730347</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.6400918960571</t>
   </si>
   <si>
     <t xml:space="preserve">12.5468072891235</t>
@@ -884,25 +884,25 @@
     <t xml:space="preserve">12.5747919082642</t>
   </si>
   <si>
-    <t xml:space="preserve">12.5654630661011</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.7613620758057</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.7053899765015</t>
+    <t xml:space="preserve">12.5654649734497</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.7613611221313</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.7053918838501</t>
   </si>
   <si>
     <t xml:space="preserve">12.630763053894</t>
   </si>
   <si>
-    <t xml:space="preserve">12.2576236724854</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.4721784591675</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.5001630783081</t>
+    <t xml:space="preserve">12.2576246261597</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.4721775054932</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.5001640319824</t>
   </si>
   <si>
     <t xml:space="preserve">12.3695659637451</t>
@@ -911,58 +911,58 @@
     <t xml:space="preserve">12.4441938400269</t>
   </si>
   <si>
-    <t xml:space="preserve">11.9591112136841</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.360237121582</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.2482967376709</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1270246505737</t>
+    <t xml:space="preserve">11.9591131210327</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.3602361679077</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2482957839966</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.127025604248</t>
   </si>
   <si>
     <t xml:space="preserve">12.0244121551514</t>
   </si>
   <si>
-    <t xml:space="preserve">12.388222694397</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.3415803909302</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0150814056396</t>
+    <t xml:space="preserve">12.3882217407227</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.3415794372559</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0150833129883</t>
   </si>
   <si>
     <t xml:space="preserve">12.0337400436401</t>
   </si>
   <si>
-    <t xml:space="preserve">12.4068784713745</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.5188207626343</t>
+    <t xml:space="preserve">12.4068794250488</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.5188217163086</t>
   </si>
   <si>
     <t xml:space="preserve">12.4255361557007</t>
   </si>
   <si>
-    <t xml:space="preserve">12.4535226821899</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.2296380996704</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.322922706604</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.4162092208862</t>
+    <t xml:space="preserve">12.4535217285156</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2296361923218</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.3229246139526</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.4162082672119</t>
   </si>
   <si>
     <t xml:space="preserve">12.5281496047974</t>
   </si>
   <si>
-    <t xml:space="preserve">12.2762804031372</t>
+    <t xml:space="preserve">12.2762794494629</t>
   </si>
   <si>
     <t xml:space="preserve">12.5094919204712</t>
@@ -992,25 +992,25 @@
     <t xml:space="preserve">11.7352285385132</t>
   </si>
   <si>
-    <t xml:space="preserve">11.7538862228394</t>
+    <t xml:space="preserve">11.753885269165</t>
   </si>
   <si>
     <t xml:space="preserve">11.8191843032837</t>
   </si>
   <si>
-    <t xml:space="preserve">11.9964256286621</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.8938121795654</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9404544830322</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.8098564147949</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.3042669296265</t>
+    <t xml:space="preserve">11.9964246749878</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.8938131332397</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9404554367065</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.8098583221436</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.3042650222778</t>
   </si>
   <si>
     <t xml:space="preserve">12.2669515609741</t>
@@ -1022,7 +1022,7 @@
     <t xml:space="preserve">11.7912006378174</t>
   </si>
   <si>
-    <t xml:space="preserve">11.2594766616821</t>
+    <t xml:space="preserve">11.2594757080078</t>
   </si>
   <si>
     <t xml:space="preserve">11.3620891571045</t>
@@ -1034,10 +1034,10 @@
     <t xml:space="preserve">11.6139583587646</t>
   </si>
   <si>
-    <t xml:space="preserve">11.5393314361572</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.6699304580688</t>
+    <t xml:space="preserve">11.5393304824829</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.6699295043945</t>
   </si>
   <si>
     <t xml:space="preserve">11.6512727737427</t>
@@ -1055,10 +1055,10 @@
     <t xml:space="preserve">12.220311164856</t>
   </si>
   <si>
-    <t xml:space="preserve">12.0803833007812</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.987096786499</t>
+    <t xml:space="preserve">12.0803813934326</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9870977401733</t>
   </si>
   <si>
     <t xml:space="preserve">13.0039014816284</t>
@@ -1067,13 +1067,13 @@
     <t xml:space="preserve">14.011378288269</t>
   </si>
   <si>
-    <t xml:space="preserve">14.1979484558105</t>
+    <t xml:space="preserve">14.1979475021362</t>
   </si>
   <si>
     <t xml:space="preserve">14.1792907714844</t>
   </si>
   <si>
-    <t xml:space="preserve">14.0300359725952</t>
+    <t xml:space="preserve">14.0300350189209</t>
   </si>
   <si>
     <t xml:space="preserve">14.0860061645508</t>
@@ -1085,58 +1085,58 @@
     <t xml:space="preserve">13.9927215576172</t>
   </si>
   <si>
-    <t xml:space="preserve">13.7128667831421</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.2912321090698</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.104663848877</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.7874946594238</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.4778032302856</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.6084012985229</t>
+    <t xml:space="preserve">13.7128677368164</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.2912330627441</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.1046628952026</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.7874937057495</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.4778022766113</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.6084003448486</t>
   </si>
   <si>
     <t xml:space="preserve">14.6643724441528</t>
   </si>
   <si>
-    <t xml:space="preserve">14.5710859298706</t>
+    <t xml:space="preserve">14.5710868835449</t>
   </si>
   <si>
     <t xml:space="preserve">14.272575378418</t>
   </si>
   <si>
-    <t xml:space="preserve">13.9180917739868</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.0785312652588</t>
+    <t xml:space="preserve">13.9180936813354</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.0785303115845</t>
   </si>
   <si>
     <t xml:space="preserve">12.8546457290649</t>
   </si>
   <si>
-    <t xml:space="preserve">13.4516706466675</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.1158447265625</t>
+    <t xml:space="preserve">13.4516687393188</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1158456802368</t>
   </si>
   <si>
     <t xml:space="preserve">12.8173322677612</t>
   </si>
   <si>
-    <t xml:space="preserve">13.0598726272583</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6009244918823</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.395697593689</t>
+    <t xml:space="preserve">13.0598735809326</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.600926399231</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3956966400146</t>
   </si>
   <si>
     <t xml:space="preserve">12.7427043914795</t>
@@ -1151,37 +1151,37 @@
     <t xml:space="preserve">11.9031419754028</t>
   </si>
   <si>
-    <t xml:space="preserve">12.6680755615234</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.7986764907837</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.6867341995239</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.2389669418335</t>
+    <t xml:space="preserve">12.6680774688721</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.7986745834351</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.6867332458496</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2389659881592</t>
   </si>
   <si>
     <t xml:space="preserve">12.1083679199219</t>
   </si>
   <si>
-    <t xml:space="preserve">12.1456823348999</t>
+    <t xml:space="preserve">12.1456813812256</t>
   </si>
   <si>
     <t xml:space="preserve">11.6792583465576</t>
   </si>
   <si>
-    <t xml:space="preserve">12.5374774932861</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.8844833374023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9217977523804</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.3135957717896</t>
+    <t xml:space="preserve">12.5374765396118</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.8844842910767</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9217987060547</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.3135929107666</t>
   </si>
   <si>
     <t xml:space="preserve">12.4628505706787</t>
@@ -1190,31 +1190,31 @@
     <t xml:space="preserve">13.433012008667</t>
   </si>
   <si>
-    <t xml:space="preserve">13.6195831298828</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.8061504364014</t>
+    <t xml:space="preserve">13.6195802688599</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.8061513900757</t>
   </si>
   <si>
     <t xml:space="preserve">14.347204208374</t>
   </si>
   <si>
-    <t xml:space="preserve">15.0001983642578</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.8695993423462</t>
+    <t xml:space="preserve">15.0001974105835</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.8695983886719</t>
   </si>
   <si>
     <t xml:space="preserve">14.8322839736938</t>
   </si>
   <si>
-    <t xml:space="preserve">14.8882570266724</t>
+    <t xml:space="preserve">14.888256072998</t>
   </si>
   <si>
     <t xml:space="preserve">15.1164274215698</t>
   </si>
   <si>
-    <t xml:space="preserve">15.7819309234619</t>
+    <t xml:space="preserve">15.7819290161133</t>
   </si>
   <si>
     <t xml:space="preserve">15.49671459198</t>
@@ -1223,7 +1223,7 @@
     <t xml:space="preserve">15.3255863189697</t>
   </si>
   <si>
-    <t xml:space="preserve">15.17347240448</t>
+    <t xml:space="preserve">15.1734714508057</t>
   </si>
   <si>
     <t xml:space="preserve">15.2115001678467</t>
@@ -1232,43 +1232,43 @@
     <t xml:space="preserve">15.2685413360596</t>
   </si>
   <si>
-    <t xml:space="preserve">15.4016447067261</t>
+    <t xml:space="preserve">15.4016437530518</t>
   </si>
   <si>
     <t xml:space="preserve">14.2227506637573</t>
   </si>
   <si>
-    <t xml:space="preserve">13.8995065689087</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.3480920791626</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6903495788574</t>
+    <t xml:space="preserve">13.8995084762573</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3480911254883</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6903486251831</t>
   </si>
   <si>
     <t xml:space="preserve">13.7664070129395</t>
   </si>
   <si>
-    <t xml:space="preserve">13.1579465866089</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.0248460769653</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.1959753036499</t>
+    <t xml:space="preserve">13.1579456329346</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.024845123291</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1959762573242</t>
   </si>
   <si>
     <t xml:space="preserve">12.9678039550781</t>
   </si>
   <si>
-    <t xml:space="preserve">12.1691989898682</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.6255445480347</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.0818901062012</t>
+    <t xml:space="preserve">12.1691999435425</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.6255435943604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.0818891525269</t>
   </si>
   <si>
     <t xml:space="preserve">12.7016019821167</t>
@@ -1277,10 +1277,10 @@
     <t xml:space="preserve">12.7776584625244</t>
   </si>
   <si>
-    <t xml:space="preserve">12.8347024917603</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.948787689209</t>
+    <t xml:space="preserve">12.8347034454346</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.9487895965576</t>
   </si>
   <si>
     <t xml:space="preserve">12.4163875579834</t>
@@ -1289,19 +1289,19 @@
     <t xml:space="preserve">12.8156881332397</t>
   </si>
   <si>
-    <t xml:space="preserve">12.7966747283936</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.8537168502808</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.3403291702271</t>
+    <t xml:space="preserve">12.7966737747192</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.8537178039551</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.3403282165527</t>
   </si>
   <si>
     <t xml:space="preserve">13.823450088501</t>
   </si>
   <si>
-    <t xml:space="preserve">13.861478805542</t>
+    <t xml:space="preserve">13.8614797592163</t>
   </si>
   <si>
     <t xml:space="preserve">14.0516223907471</t>
@@ -1313,22 +1313,22 @@
     <t xml:space="preserve">14.1657085418701</t>
   </si>
   <si>
-    <t xml:space="preserve">13.7093648910522</t>
+    <t xml:space="preserve">13.7093639373779</t>
   </si>
   <si>
     <t xml:space="preserve">13.6713352203369</t>
   </si>
   <si>
-    <t xml:space="preserve">13.5002059936523</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.538233757019</t>
+    <t xml:space="preserve">13.5002069473267</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5382328033447</t>
   </si>
   <si>
     <t xml:space="preserve">13.5192203521729</t>
   </si>
   <si>
-    <t xml:space="preserve">13.3290777206421</t>
+    <t xml:space="preserve">13.3290767669678</t>
   </si>
   <si>
     <t xml:space="preserve">13.2149896621704</t>
@@ -1340,10 +1340,10 @@
     <t xml:space="preserve">13.5572481155396</t>
   </si>
   <si>
-    <t xml:space="preserve">13.2910470962524</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.4431629180908</t>
+    <t xml:space="preserve">13.2910461425781</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.4431648254395</t>
   </si>
   <si>
     <t xml:space="preserve">12.6445579528809</t>
@@ -1352,13 +1352,13 @@
     <t xml:space="preserve">12.5875158309937</t>
   </si>
   <si>
-    <t xml:space="preserve">12.3593425750732</t>
+    <t xml:space="preserve">12.3593435287476</t>
   </si>
   <si>
     <t xml:space="preserve">12.7586450576782</t>
   </si>
   <si>
-    <t xml:space="preserve">13.1199178695679</t>
+    <t xml:space="preserve">13.1199188232422</t>
   </si>
   <si>
     <t xml:space="preserve">13.0628747940063</t>
@@ -1367,7 +1367,7 @@
     <t xml:space="preserve">12.8917455673218</t>
   </si>
   <si>
-    <t xml:space="preserve">13.0438613891602</t>
+    <t xml:space="preserve">13.0438594818115</t>
   </si>
   <si>
     <t xml:space="preserve">13.8804941177368</t>
@@ -1379,13 +1379,13 @@
     <t xml:space="preserve">14.3558530807495</t>
   </si>
   <si>
-    <t xml:space="preserve">14.3938827514648</t>
+    <t xml:space="preserve">14.3938817977905</t>
   </si>
   <si>
     <t xml:space="preserve">14.1466941833496</t>
   </si>
   <si>
-    <t xml:space="preserve">13.78542137146</t>
+    <t xml:space="preserve">13.7854204177856</t>
   </si>
   <si>
     <t xml:space="preserve">13.5762634277344</t>
@@ -1400,19 +1400,19 @@
     <t xml:space="preserve">14.260781288147</t>
   </si>
   <si>
-    <t xml:space="preserve">15.021354675293</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5917844772339</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3636159896851</t>
+    <t xml:space="preserve">15.0213556289673</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5917863845825</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3636169433594</t>
   </si>
   <si>
     <t xml:space="preserve">15.2495288848877</t>
   </si>
   <si>
-    <t xml:space="preserve">16.6375770568848</t>
+    <t xml:space="preserve">16.6375751495361</t>
   </si>
   <si>
     <t xml:space="preserve">16.8087062835693</t>
@@ -1430,7 +1430,7 @@
     <t xml:space="preserve">16.010103225708</t>
   </si>
   <si>
-    <t xml:space="preserve">15.6868591308594</t>
+    <t xml:space="preserve">15.6868572235107</t>
   </si>
   <si>
     <t xml:space="preserve">15.6108026504517</t>
@@ -1439,16 +1439,16 @@
     <t xml:space="preserve">15.0974130630493</t>
   </si>
   <si>
-    <t xml:space="preserve">15.3065719604492</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.4699392318726</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.6981115341187</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.5269823074341</t>
+    <t xml:space="preserve">15.3065710067749</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.4699382781982</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.6981105804443</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.5269813537598</t>
   </si>
   <si>
     <t xml:space="preserve">14.7361392974854</t>
@@ -1460,22 +1460,22 @@
     <t xml:space="preserve">14.2797956466675</t>
   </si>
   <si>
-    <t xml:space="preserve">13.975564956665</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6142911911011</t>
+    <t xml:space="preserve">13.9755659103394</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6142921447754</t>
   </si>
   <si>
     <t xml:space="preserve">13.937536239624</t>
   </si>
   <si>
-    <t xml:space="preserve">14.1086654663086</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9643115997314</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.5650100708008</t>
+    <t xml:space="preserve">14.1086664199829</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9643125534058</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.5650110244751</t>
   </si>
   <si>
     <t xml:space="preserve">14.5079689025879</t>
@@ -1487,52 +1487,52 @@
     <t xml:space="preserve">15.0593852996826</t>
   </si>
   <si>
-    <t xml:space="preserve">16.1812362670898</t>
+    <t xml:space="preserve">16.1812343597412</t>
   </si>
   <si>
     <t xml:space="preserve">16.1622219085693</t>
   </si>
   <si>
-    <t xml:space="preserve">16.3523616790771</t>
+    <t xml:space="preserve">16.3523635864258</t>
   </si>
   <si>
     <t xml:space="preserve">16.1432037353516</t>
   </si>
   <si>
-    <t xml:space="preserve">15.9720754623413</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5537586212158</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.1241874694824</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.4474353790283</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.2002487182617</t>
+    <t xml:space="preserve">15.9720726013184</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5537576675415</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.1241893768311</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.4474334716797</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.2002506256104</t>
   </si>
   <si>
     <t xml:space="preserve">16.4284210205078</t>
   </si>
   <si>
-    <t xml:space="preserve">15.7439022064209</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8960180282593</t>
+    <t xml:space="preserve">15.7438983917236</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8960151672363</t>
   </si>
   <si>
     <t xml:space="preserve">16.0291175842285</t>
   </si>
   <si>
-    <t xml:space="preserve">15.1544570922852</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9530630111694</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5727701187134</t>
+    <t xml:space="preserve">15.1544561386108</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9530601501465</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5727710723877</t>
   </si>
   <si>
     <t xml:space="preserve">14.8312129974365</t>
@@ -1541,58 +1541,58 @@
     <t xml:space="preserve">15.0023403167725</t>
   </si>
   <si>
-    <t xml:space="preserve">14.6410684585571</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9072694778442</t>
+    <t xml:space="preserve">14.6410675048828</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9072704315186</t>
   </si>
   <si>
     <t xml:space="preserve">15.0783987045288</t>
   </si>
   <si>
-    <t xml:space="preserve">15.6298179626465</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8389749526978</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.135440826416</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5157289505005</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8579874038696</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7248888015747</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9910879135132</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.0671443939209</t>
+    <t xml:space="preserve">15.6298170089722</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8389701843262</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1354417800903</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5157299041748</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8579883575439</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7248878479004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9910869598389</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.0671482086182</t>
   </si>
   <si>
     <t xml:space="preserve">16.1051750183105</t>
   </si>
   <si>
-    <t xml:space="preserve">16.0861587524414</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7058744430542</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.7741689682007</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.7171249389648</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9452991485596</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.287558555603</t>
+    <t xml:space="preserve">16.08616065979</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7058725357056</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.7741680145264</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.7171239852905</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9452981948853</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2875576019287</t>
   </si>
   <si>
     <t xml:space="preserve">15.1924848556519</t>
@@ -1607,16 +1607,16 @@
     <t xml:space="preserve">17.1129360198975</t>
   </si>
   <si>
-    <t xml:space="preserve">17.3411083221436</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.3601226806641</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.3981494903564</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.2080078125</t>
+    <t xml:space="preserve">17.3411102294922</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.3601245880127</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.3981533050537</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.2080097198486</t>
   </si>
   <si>
     <t xml:space="preserve">17.169979095459</t>
@@ -1625,49 +1625,49 @@
     <t xml:space="preserve">18.158727645874</t>
   </si>
   <si>
-    <t xml:space="preserve">17.5122394561768</t>
+    <t xml:space="preserve">17.5122375488281</t>
   </si>
   <si>
     <t xml:space="preserve">17.4551982879639</t>
   </si>
   <si>
-    <t xml:space="preserve">17.4742088317871</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.6073112487793</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.1509647369385</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.4932231903076</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.5502681732178</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.9685840606689</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.9305553436279</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.6643543243408</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.4361782073975</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.246036529541</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.675609588623</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.6946201324463</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.3903923034668</t>
+    <t xml:space="preserve">17.4742107391357</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.6073093414307</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.1509666442871</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.4932250976562</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.5502662658691</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.9685821533203</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.9305572509766</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.6643524169922</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.4361820220947</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.2460384368896</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.6756076812744</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.6946220397949</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.3903903961182</t>
   </si>
   <si>
     <t xml:space="preserve">16.960823059082</t>
@@ -1676,64 +1676,64 @@
     <t xml:space="preserve">16.2572917938232</t>
   </si>
   <si>
-    <t xml:space="preserve">16.6830768585205</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.6443672180176</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.489538192749</t>
+    <t xml:space="preserve">16.6830749511719</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.6443691253662</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.4895401000977</t>
   </si>
   <si>
     <t xml:space="preserve">16.5475997924805</t>
   </si>
   <si>
-    <t xml:space="preserve">16.3347053527832</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.1024589538574</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.0831050872803</t>
+    <t xml:space="preserve">16.3347034454346</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.1024570465088</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.0831031799316</t>
   </si>
   <si>
     <t xml:space="preserve">16.7798461914062</t>
   </si>
   <si>
-    <t xml:space="preserve">16.9153213500977</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.9346771240234</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.8572597503662</t>
+    <t xml:space="preserve">16.9153232574463</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.9346752166748</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.8572616577148</t>
   </si>
   <si>
     <t xml:space="preserve">16.741138458252</t>
   </si>
   <si>
-    <t xml:space="preserve">16.5282459259033</t>
+    <t xml:space="preserve">16.5282440185547</t>
   </si>
   <si>
     <t xml:space="preserve">16.6250152587891</t>
   </si>
   <si>
-    <t xml:space="preserve">16.0443992614746</t>
+    <t xml:space="preserve">16.044397354126</t>
   </si>
   <si>
     <t xml:space="preserve">16.5669536590576</t>
   </si>
   <si>
-    <t xml:space="preserve">16.0637512207031</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.1218128204346</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9669818878174</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8315048217773</t>
+    <t xml:space="preserve">16.0637493133545</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.1218090057373</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9669799804688</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8315029144287</t>
   </si>
   <si>
     <t xml:space="preserve">15.7540893554688</t>
@@ -1745,10 +1745,10 @@
     <t xml:space="preserve">15.4637794494629</t>
   </si>
   <si>
-    <t xml:space="preserve">15.4057168960571</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0767002105713</t>
+    <t xml:space="preserve">15.4057178497314</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0767011642456</t>
   </si>
   <si>
     <t xml:space="preserve">15.2895936965942</t>
@@ -1760,13 +1760,13 @@
     <t xml:space="preserve">15.2315320968628</t>
   </si>
   <si>
-    <t xml:space="preserve">15.1928234100342</t>
+    <t xml:space="preserve">15.1928243637085</t>
   </si>
   <si>
     <t xml:space="preserve">15.0960559844971</t>
   </si>
   <si>
-    <t xml:space="preserve">15.21217918396</t>
+    <t xml:space="preserve">15.2121782302856</t>
   </si>
   <si>
     <t xml:space="preserve">15.3476552963257</t>
@@ -1775,13 +1775,13 @@
     <t xml:space="preserve">15.1541166305542</t>
   </si>
   <si>
-    <t xml:space="preserve">14.9605779647827</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9412231445312</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.8057470321655</t>
+    <t xml:space="preserve">14.9605770111084</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9412240982056</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.8057460784912</t>
   </si>
   <si>
     <t xml:space="preserve">15.5411939620972</t>
@@ -1793,16 +1793,13 @@
     <t xml:space="preserve">14.9218702316284</t>
   </si>
   <si>
-    <t xml:space="preserve">15.1734714508057</t>
-  </si>
-  <si>
     <t xml:space="preserve">15.0573472976685</t>
   </si>
   <si>
     <t xml:space="preserve">15.2508859634399</t>
   </si>
   <si>
-    <t xml:space="preserve">14.8831634521484</t>
+    <t xml:space="preserve">14.8831615447998</t>
   </si>
   <si>
     <t xml:space="preserve">14.8444538116455</t>
@@ -1817,40 +1814,40 @@
     <t xml:space="preserve">14.902515411377</t>
   </si>
   <si>
-    <t xml:space="preserve">14.9799308776855</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.6315622329712</t>
+    <t xml:space="preserve">14.9799299240112</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.6315603256226</t>
   </si>
   <si>
     <t xml:space="preserve">14.6702690124512</t>
   </si>
   <si>
-    <t xml:space="preserve">14.6896228790283</t>
+    <t xml:space="preserve">14.6896238327026</t>
   </si>
   <si>
     <t xml:space="preserve">14.5928525924683</t>
   </si>
   <si>
-    <t xml:space="preserve">14.7283306121826</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.7089767456055</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.5541458129883</t>
+    <t xml:space="preserve">14.7283296585083</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.7089748382568</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.554144859314</t>
   </si>
   <si>
     <t xml:space="preserve">14.5347919464111</t>
   </si>
   <si>
-    <t xml:space="preserve">14.7476844787598</t>
+    <t xml:space="preserve">14.7476835250854</t>
   </si>
   <si>
     <t xml:space="preserve">15.0186405181885</t>
   </si>
   <si>
-    <t xml:space="preserve">14.6509160995483</t>
+    <t xml:space="preserve">14.650915145874</t>
   </si>
   <si>
     <t xml:space="preserve">15.4444265365601</t>
@@ -1859,7 +1856,7 @@
     <t xml:space="preserve">15.4831342697144</t>
   </si>
   <si>
-    <t xml:space="preserve">15.7734422683716</t>
+    <t xml:space="preserve">15.7734413146973</t>
   </si>
   <si>
     <t xml:space="preserve">15.6186113357544</t>
@@ -1868,40 +1865,43 @@
     <t xml:space="preserve">15.8121500015259</t>
   </si>
   <si>
-    <t xml:space="preserve">15.8895673751831</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8702087402344</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9089221954346</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.0056915283203</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7347345352173</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7153797149658</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9476270675659</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6766738891602</t>
+    <t xml:space="preserve">15.8895664215088</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.257287979126</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.870210647583</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9089212417603</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.0056896209717</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7347354888916</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7153806686401</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9476280212402</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6766729354858</t>
   </si>
   <si>
     <t xml:space="preserve">15.5992574691772</t>
   </si>
   <si>
-    <t xml:space="preserve">15.9282732009888</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.0250434875488</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.2185840606689</t>
+    <t xml:space="preserve">15.9282722473145</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.0250396728516</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.2185821533203</t>
   </si>
   <si>
     <t xml:space="preserve">17.2636947631836</t>
@@ -1913,13 +1913,13 @@
     <t xml:space="preserve">17.050802230835</t>
   </si>
   <si>
-    <t xml:space="preserve">16.9927387237549</t>
+    <t xml:space="preserve">16.9927406311035</t>
   </si>
   <si>
     <t xml:space="preserve">17.0895080566406</t>
   </si>
   <si>
-    <t xml:space="preserve">17.2249851226807</t>
+    <t xml:space="preserve">17.2249870300293</t>
   </si>
   <si>
     <t xml:space="preserve">17.3798160552979</t>
@@ -1928,19 +1928,19 @@
     <t xml:space="preserve">18.3862209320068</t>
   </si>
   <si>
-    <t xml:space="preserve">18.2894515991211</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.7088298797607</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.7668991088867</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.2120342254639</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.0959148406982</t>
+    <t xml:space="preserve">18.2894496917725</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.708833694458</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.7668972015381</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.2120361328125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.0959129333496</t>
   </si>
   <si>
     <t xml:space="preserve">18.231388092041</t>
@@ -1949,13 +1949,13 @@
     <t xml:space="preserve">18.0765590667725</t>
   </si>
   <si>
-    <t xml:space="preserve">18.0572032928467</t>
+    <t xml:space="preserve">18.0572052001953</t>
   </si>
   <si>
     <t xml:space="preserve">18.1733283996582</t>
   </si>
   <si>
-    <t xml:space="preserve">18.0378513336182</t>
+    <t xml:space="preserve">18.0378494262695</t>
   </si>
   <si>
     <t xml:space="preserve">18.4249286651611</t>
@@ -1964,7 +1964,7 @@
     <t xml:space="preserve">18.8700695037842</t>
   </si>
   <si>
-    <t xml:space="preserve">19.2184371948242</t>
+    <t xml:space="preserve">19.2184391021729</t>
   </si>
   <si>
     <t xml:space="preserve">19.1410236358643</t>
@@ -1979,31 +1979,31 @@
     <t xml:space="preserve">19.0249004364014</t>
   </si>
   <si>
-    <t xml:space="preserve">19.547456741333</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.9345359802246</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.6442260742188</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.7893810272217</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.4022998809814</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.9668388366699</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.7409954071045</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.8377647399902</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.8861484527588</t>
+    <t xml:space="preserve">19.5474548339844</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.934534072876</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.6442241668701</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.789379119873</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.4022979736328</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.9668369293213</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.7409934997559</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.8377628326416</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.8861465454102</t>
   </si>
   <si>
     <t xml:space="preserve">19.4506855010986</t>
@@ -2015,25 +2015,25 @@
     <t xml:space="preserve">20.3216133117676</t>
   </si>
   <si>
-    <t xml:space="preserve">20.3699970245361</t>
+    <t xml:space="preserve">20.3699989318848</t>
   </si>
   <si>
     <t xml:space="preserve">22.3537731170654</t>
   </si>
   <si>
-    <t xml:space="preserve">21.289306640625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.2409229278564</t>
+    <t xml:space="preserve">21.2893104553223</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.2409248352051</t>
   </si>
   <si>
     <t xml:space="preserve">20.9506149291992</t>
   </si>
   <si>
-    <t xml:space="preserve">20.7570762634277</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.1441535949707</t>
+    <t xml:space="preserve">20.7570743560791</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.1441555023193</t>
   </si>
   <si>
     <t xml:space="preserve">20.8538455963135</t>
@@ -2042,10 +2042,10 @@
     <t xml:space="preserve">20.8054599761963</t>
   </si>
   <si>
-    <t xml:space="preserve">20.0796909332275</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.4183807373047</t>
+    <t xml:space="preserve">20.0796890258789</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.4183826446533</t>
   </si>
   <si>
     <t xml:space="preserve">20.1280727386475</t>
@@ -2054,13 +2054,13 @@
     <t xml:space="preserve">19.9829177856445</t>
   </si>
   <si>
-    <t xml:space="preserve">19.1990852355957</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.9022312164307</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.0473823547363</t>
+    <t xml:space="preserve">19.1990833282471</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.902229309082</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.047384262085</t>
   </si>
   <si>
     <t xml:space="preserve">20.7086906433105</t>
@@ -2072,19 +2072,19 @@
     <t xml:space="preserve">21.5312328338623</t>
   </si>
   <si>
-    <t xml:space="preserve">21.3376903533936</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.773157119751</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.5796184539795</t>
+    <t xml:space="preserve">21.3376922607422</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.7731552124023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.5796165466309</t>
   </si>
   <si>
     <t xml:space="preserve">21.9666957855225</t>
   </si>
   <si>
-    <t xml:space="preserve">20.1764583587646</t>
+    <t xml:space="preserve">20.1764602661133</t>
   </si>
   <si>
     <t xml:space="preserve">20.2248439788818</t>
@@ -2099,13 +2099,13 @@
     <t xml:space="preserve">17.7281856536865</t>
   </si>
   <si>
-    <t xml:space="preserve">16.4121189117432</t>
+    <t xml:space="preserve">16.4121208190918</t>
   </si>
   <si>
     <t xml:space="preserve">16.2959976196289</t>
   </si>
   <si>
-    <t xml:space="preserve">14.5734996795654</t>
+    <t xml:space="preserve">14.5734987258911</t>
   </si>
   <si>
     <t xml:space="preserve">14.515438079834</t>
@@ -2120,7 +2120,7 @@
     <t xml:space="preserve">12.2123203277588</t>
   </si>
   <si>
-    <t xml:space="preserve">12.7735862731934</t>
+    <t xml:space="preserve">12.7735843658447</t>
   </si>
   <si>
     <t xml:space="preserve">12.9864778518677</t>
@@ -2135,46 +2135,46 @@
     <t xml:space="preserve">13.6445112228394</t>
   </si>
   <si>
-    <t xml:space="preserve">14.1090049743652</t>
+    <t xml:space="preserve">14.1090059280396</t>
   </si>
   <si>
     <t xml:space="preserve">14.2831907272339</t>
   </si>
   <si>
-    <t xml:space="preserve">14.3799591064453</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.2057752609253</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.825098991394</t>
+    <t xml:space="preserve">14.3799600601196</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.205774307251</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.8250999450684</t>
   </si>
   <si>
     <t xml:space="preserve">14.1864204406738</t>
   </si>
   <si>
-    <t xml:space="preserve">15.5024871826172</t>
+    <t xml:space="preserve">15.5024881362915</t>
   </si>
   <si>
     <t xml:space="preserve">16.9733867645264</t>
   </si>
   <si>
-    <t xml:space="preserve">16.2766437530518</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.3153533935547</t>
+    <t xml:space="preserve">16.2766418457031</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.3153514862061</t>
   </si>
   <si>
     <t xml:space="preserve">15.5605497360229</t>
   </si>
   <si>
-    <t xml:space="preserve">16.1605224609375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.2379379272461</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.1411647796631</t>
+    <t xml:space="preserve">16.1605205535889</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.2379360198975</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.1411666870117</t>
   </si>
   <si>
     <t xml:space="preserve">16.7024307250977</t>
@@ -2183,10 +2183,10 @@
     <t xml:space="preserve">17.3217544555664</t>
   </si>
   <si>
-    <t xml:space="preserve">16.8185520172119</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.0314464569092</t>
+    <t xml:space="preserve">16.8185539245605</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.0314483642578</t>
   </si>
   <si>
     <t xml:space="preserve">17.1669235229492</t>
@@ -2195,7 +2195,7 @@
     <t xml:space="preserve">18.3668670654297</t>
   </si>
   <si>
-    <t xml:space="preserve">18.753942489624</t>
+    <t xml:space="preserve">18.7539443969727</t>
   </si>
   <si>
     <t xml:space="preserve">18.1891860961914</t>
@@ -2207,7 +2207,7 @@
     <t xml:space="preserve">17.5660018920898</t>
   </si>
   <si>
-    <t xml:space="preserve">17.5465278625488</t>
+    <t xml:space="preserve">17.5465259552002</t>
   </si>
   <si>
     <t xml:space="preserve">17.3128337860107</t>
@@ -2216,16 +2216,16 @@
     <t xml:space="preserve">17.059663772583</t>
   </si>
   <si>
-    <t xml:space="preserve">17.5270519256592</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.7217979431152</t>
+    <t xml:space="preserve">17.5270538330078</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.7217960357666</t>
   </si>
   <si>
     <t xml:space="preserve">17.2738838195801</t>
   </si>
   <si>
-    <t xml:space="preserve">17.7607440948486</t>
+    <t xml:space="preserve">17.7607479095459</t>
   </si>
   <si>
     <t xml:space="preserve">17.6049499511719</t>
@@ -2234,7 +2234,7 @@
     <t xml:space="preserve">17.8386421203613</t>
   </si>
   <si>
-    <t xml:space="preserve">18.4034023284912</t>
+    <t xml:space="preserve">18.4034042358398</t>
   </si>
   <si>
     <t xml:space="preserve">18.052864074707</t>
@@ -2243,13 +2243,13 @@
     <t xml:space="preserve">18.1697101593018</t>
   </si>
   <si>
-    <t xml:space="preserve">18.5007762908936</t>
+    <t xml:space="preserve">18.5007781982422</t>
   </si>
   <si>
     <t xml:space="preserve">18.5202503204346</t>
   </si>
   <si>
-    <t xml:space="preserve">18.013916015625</t>
+    <t xml:space="preserve">18.0139141082764</t>
   </si>
   <si>
     <t xml:space="preserve">18.3449821472168</t>
@@ -2264,16 +2264,16 @@
     <t xml:space="preserve">18.5592002868652</t>
   </si>
   <si>
-    <t xml:space="preserve">18.2281322479248</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.1502361297607</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.9486904144287</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.8902645111084</t>
+    <t xml:space="preserve">18.2281341552734</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.1502342224121</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.9486885070801</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.890266418457</t>
   </si>
   <si>
     <t xml:space="preserve">18.7928943634033</t>
@@ -2285,7 +2285,7 @@
     <t xml:space="preserve">19.1629104614258</t>
   </si>
   <si>
-    <t xml:space="preserve">19.7179336547852</t>
+    <t xml:space="preserve">19.7179317474365</t>
   </si>
   <si>
     <t xml:space="preserve">19.4745025634766</t>
@@ -2294,7 +2294,7 @@
     <t xml:space="preserve">19.0655364990234</t>
   </si>
   <si>
-    <t xml:space="preserve">19.2213306427002</t>
+    <t xml:space="preserve">19.2213325500488</t>
   </si>
   <si>
     <t xml:space="preserve">18.5786743164062</t>
@@ -2312,10 +2312,10 @@
     <t xml:space="preserve">20.204797744751</t>
   </si>
   <si>
-    <t xml:space="preserve">20.4482269287109</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.7403450012207</t>
+    <t xml:space="preserve">20.4482288360596</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.7403430938721</t>
   </si>
   <si>
     <t xml:space="preserve">20.6916580200195</t>
@@ -2327,7 +2327,7 @@
     <t xml:space="preserve">21.4219512939453</t>
   </si>
   <si>
-    <t xml:space="preserve">21.8601303100586</t>
+    <t xml:space="preserve">21.86012840271</t>
   </si>
   <si>
     <t xml:space="preserve">21.3245792388916</t>
@@ -2342,22 +2342,22 @@
     <t xml:space="preserve">21.6653842926025</t>
   </si>
   <si>
-    <t xml:space="preserve">21.4706401824951</t>
+    <t xml:space="preserve">21.4706363677979</t>
   </si>
   <si>
     <t xml:space="preserve">21.9088134765625</t>
   </si>
   <si>
-    <t xml:space="preserve">22.590425491333</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.0772857666016</t>
+    <t xml:space="preserve">22.5904235839844</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.0772838592529</t>
   </si>
   <si>
     <t xml:space="preserve">22.9312267303467</t>
   </si>
   <si>
-    <t xml:space="preserve">23.4667739868164</t>
+    <t xml:space="preserve">23.4667778015137</t>
   </si>
   <si>
     <t xml:space="preserve">23.5641479492188</t>
@@ -2372,25 +2372,25 @@
     <t xml:space="preserve">24.6352424621582</t>
   </si>
   <si>
-    <t xml:space="preserve">24.1970691680908</t>
+    <t xml:space="preserve">24.1970672607422</t>
   </si>
   <si>
     <t xml:space="preserve">23.9049510955811</t>
   </si>
   <si>
-    <t xml:space="preserve">24.0996952056885</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.8075790405273</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.8825378417969</t>
+    <t xml:space="preserve">24.0996971130371</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.807580947876</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.8825416564941</t>
   </si>
   <si>
     <t xml:space="preserve">23.1746559143066</t>
   </si>
   <si>
-    <t xml:space="preserve">23.6128311157227</t>
+    <t xml:space="preserve">23.6128330230713</t>
   </si>
   <si>
     <t xml:space="preserve">23.2233448028564</t>
@@ -2399,34 +2399,34 @@
     <t xml:space="preserve">23.0285987854004</t>
   </si>
   <si>
-    <t xml:space="preserve">22.6877956390381</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.9575023651123</t>
+    <t xml:space="preserve">22.6877937316895</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.9575004577637</t>
   </si>
   <si>
     <t xml:space="preserve">22.2009315490723</t>
   </si>
   <si>
-    <t xml:space="preserve">21.3732681274414</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.7627563476562</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.5942840576172</t>
+    <t xml:space="preserve">21.3732662200928</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.7627582550049</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.5942859649658</t>
   </si>
   <si>
     <t xml:space="preserve">21.5193252563477</t>
   </si>
   <si>
-    <t xml:space="preserve">21.2272052764893</t>
+    <t xml:space="preserve">21.2272071838379</t>
   </si>
   <si>
     <t xml:space="preserve">21.6166973114014</t>
   </si>
   <si>
-    <t xml:space="preserve">22.3469905853271</t>
+    <t xml:space="preserve">22.3469924926758</t>
   </si>
   <si>
     <t xml:space="preserve">22.1035614013672</t>
@@ -2435,7 +2435,7 @@
     <t xml:space="preserve">21.081148147583</t>
   </si>
   <si>
-    <t xml:space="preserve">22.2496166229248</t>
+    <t xml:space="preserve">22.2496185302734</t>
   </si>
   <si>
     <t xml:space="preserve">22.493049621582</t>
@@ -2444,13 +2444,13 @@
     <t xml:space="preserve">22.0548725128174</t>
   </si>
   <si>
-    <t xml:space="preserve">22.9799118041992</t>
+    <t xml:space="preserve">22.9799098968506</t>
   </si>
   <si>
     <t xml:space="preserve">22.7851676940918</t>
   </si>
   <si>
-    <t xml:space="preserve">24.5865592956543</t>
+    <t xml:space="preserve">24.5865573883057</t>
   </si>
   <si>
     <t xml:space="preserve">24.489185333252</t>
@@ -2459,34 +2459,34 @@
     <t xml:space="preserve">24.3918132781982</t>
   </si>
   <si>
-    <t xml:space="preserve">25.901086807251</t>
+    <t xml:space="preserve">25.9010887145996</t>
   </si>
   <si>
     <t xml:space="preserve">26.3392639160156</t>
   </si>
   <si>
-    <t xml:space="preserve">27.1669311523438</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.8261241912842</t>
+    <t xml:space="preserve">27.1669292449951</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.8261260986328</t>
   </si>
   <si>
     <t xml:space="preserve">26.7774410247803</t>
   </si>
   <si>
-    <t xml:space="preserve">26.5340099334717</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.848539352417</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.822265625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.0881061553955</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.1143779754639</t>
+    <t xml:space="preserve">26.534008026123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.8485374450684</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.8222637176514</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.0881023406982</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.1143798828125</t>
   </si>
   <si>
     <t xml:space="preserve">29.9420471191406</t>
@@ -2495,19 +2495,19 @@
     <t xml:space="preserve">30.5749683380127</t>
   </si>
   <si>
-    <t xml:space="preserve">31.1105194091797</t>
+    <t xml:space="preserve">31.1105175018311</t>
   </si>
   <si>
     <t xml:space="preserve">31.9381828308105</t>
   </si>
   <si>
-    <t xml:space="preserve">32.230297088623</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.7434349060059</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.2789840698242</t>
+    <t xml:space="preserve">32.2303009033203</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.7434387207031</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.2789916992188</t>
   </si>
   <si>
     <t xml:space="preserve">31.4513187408447</t>
@@ -2516,22 +2516,22 @@
     <t xml:space="preserve">32.3763580322266</t>
   </si>
   <si>
-    <t xml:space="preserve">32.5224227905273</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.4961471557617</t>
+    <t xml:space="preserve">32.5224189758301</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.4961433410645</t>
   </si>
   <si>
     <t xml:space="preserve">33.3987693786621</t>
   </si>
   <si>
-    <t xml:space="preserve">33.0092811584473</t>
+    <t xml:space="preserve">33.00927734375</t>
   </si>
   <si>
     <t xml:space="preserve">33.6908874511719</t>
   </si>
   <si>
-    <t xml:space="preserve">33.9343147277832</t>
+    <t xml:space="preserve">33.9343185424805</t>
   </si>
   <si>
     <t xml:space="preserve">34.3238105773926</t>
@@ -2540,10 +2540,10 @@
     <t xml:space="preserve">34.9567337036133</t>
   </si>
   <si>
-    <t xml:space="preserve">34.810676574707</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.5896530151367</t>
+    <t xml:space="preserve">34.8106727600098</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.5896492004395</t>
   </si>
   <si>
     <t xml:space="preserve">35.6870269775391</t>
@@ -2558,7 +2558,7 @@
     <t xml:space="preserve">36.4173202514648</t>
   </si>
   <si>
-    <t xml:space="preserve">34.5185508728027</t>
+    <t xml:space="preserve">34.5185546875</t>
   </si>
   <si>
     <t xml:space="preserve">32.7658538818359</t>
@@ -2567,22 +2567,22 @@
     <t xml:space="preserve">32.863224029541</t>
   </si>
   <si>
-    <t xml:space="preserve">32.9605941772461</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.9119071960449</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.1329307556152</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.5262813568115</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.0131454467773</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.7697143554688</t>
+    <t xml:space="preserve">32.9605903625488</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.9119110107422</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.132926940918</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.5262794494629</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.013147354126</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.7697124481201</t>
   </si>
   <si>
     <t xml:space="preserve">30.6723403930664</t>
@@ -2591,52 +2591,52 @@
     <t xml:space="preserve">31.3052635192871</t>
   </si>
   <si>
-    <t xml:space="preserve">33.6422004699707</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.080379486084</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.4922790527344</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.8817672729492</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.9304618835449</t>
-  </si>
-  <si>
-    <t xml:space="preserve">37.4884147644043</t>
-  </si>
-  <si>
-    <t xml:space="preserve">37.244987487793</t>
+    <t xml:space="preserve">33.642204284668</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.0803756713867</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.4922828674316</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.8817710876465</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.9304580688477</t>
+  </si>
+  <si>
+    <t xml:space="preserve">37.488410949707</t>
+  </si>
+  <si>
+    <t xml:space="preserve">37.2449836730957</t>
   </si>
   <si>
     <t xml:space="preserve">37.1963005065918</t>
   </si>
   <si>
-    <t xml:space="preserve">36.173885345459</t>
+    <t xml:space="preserve">36.1738891601562</t>
   </si>
   <si>
     <t xml:space="preserve">36.6607513427734</t>
   </si>
   <si>
-    <t xml:space="preserve">35.2975387573242</t>
+    <t xml:space="preserve">35.297534942627</t>
   </si>
   <si>
     <t xml:space="preserve">35.2001647949219</t>
   </si>
   <si>
-    <t xml:space="preserve">36.9041862487793</t>
+    <t xml:space="preserve">36.904182434082</t>
   </si>
   <si>
     <t xml:space="preserve">37.2936706542969</t>
   </si>
   <si>
-    <t xml:space="preserve">37.8779067993164</t>
-  </si>
-  <si>
-    <t xml:space="preserve">38.2673950195312</t>
+    <t xml:space="preserve">37.8779106140137</t>
+  </si>
+  <si>
+    <t xml:space="preserve">38.2673988342285</t>
   </si>
   <si>
     <t xml:space="preserve">38.851634979248</t>
@@ -2645,7 +2645,7 @@
     <t xml:space="preserve">38.997688293457</t>
   </si>
   <si>
-    <t xml:space="preserve">40.068790435791</t>
+    <t xml:space="preserve">40.0687942504883</t>
   </si>
   <si>
     <t xml:space="preserve">39.9227256774902</t>
@@ -2657,7 +2657,7 @@
     <t xml:space="preserve">38.9490051269531</t>
   </si>
   <si>
-    <t xml:space="preserve">39.8740463256836</t>
+    <t xml:space="preserve">39.8740425109863</t>
   </si>
   <si>
     <t xml:space="preserve">40.7017097473145</t>
@@ -2669,7 +2669,7 @@
     <t xml:space="preserve">39.6792984008789</t>
   </si>
   <si>
-    <t xml:space="preserve">40.506965637207</t>
+    <t xml:space="preserve">40.5069618225098</t>
   </si>
   <si>
     <t xml:space="preserve">44.3531799316406</t>
@@ -2678,7 +2678,7 @@
     <t xml:space="preserve">42.162296295166</t>
   </si>
   <si>
-    <t xml:space="preserve">40.3122177124023</t>
+    <t xml:space="preserve">40.3122215270996</t>
   </si>
   <si>
     <t xml:space="preserve">41.4320030212402</t>
@@ -2687,351 +2687,354 @@
     <t xml:space="preserve">42.1136131286621</t>
   </si>
   <si>
+    <t xml:space="preserve">42.6004753112793</t>
+  </si>
+  <si>
+    <t xml:space="preserve">42.3083572387695</t>
+  </si>
+  <si>
+    <t xml:space="preserve">42.8925857543945</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41.8701782226562</t>
+  </si>
+  <si>
+    <t xml:space="preserve">42.6491584777832</t>
+  </si>
+  <si>
+    <t xml:space="preserve">43.7689399719238</t>
+  </si>
+  <si>
+    <t xml:space="preserve">44.4018630981445</t>
+  </si>
+  <si>
+    <t xml:space="preserve">44.9860992431641</t>
+  </si>
+  <si>
+    <t xml:space="preserve">45.0347862243652</t>
+  </si>
+  <si>
+    <t xml:space="preserve">45.9598197937012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">44.6939849853516</t>
+  </si>
+  <si>
+    <t xml:space="preserve">45.2782135009766</t>
+  </si>
+  <si>
+    <t xml:space="preserve">46.3006286621094</t>
+  </si>
+  <si>
+    <t xml:space="preserve">45.7650833129883</t>
+  </si>
+  <si>
+    <t xml:space="preserve">45.2295341491699</t>
+  </si>
+  <si>
+    <t xml:space="preserve">46.544059753418</t>
+  </si>
+  <si>
+    <t xml:space="preserve">45.4242820739746</t>
+  </si>
+  <si>
+    <t xml:space="preserve">44.8887252807617</t>
+  </si>
+  <si>
+    <t xml:space="preserve">44.7913551330566</t>
+  </si>
+  <si>
+    <t xml:space="preserve">44.5479278564453</t>
+  </si>
+  <si>
+    <t xml:space="preserve">44.1097450256348</t>
+  </si>
+  <si>
+    <t xml:space="preserve">43.4281387329102</t>
+  </si>
+  <si>
+    <t xml:space="preserve">43.5741958618164</t>
+  </si>
+  <si>
+    <t xml:space="preserve">43.5255165100098</t>
+  </si>
+  <si>
+    <t xml:space="preserve">43.1360206604004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">43.3307685852051</t>
+  </si>
+  <si>
+    <t xml:space="preserve">44.3044929504395</t>
+  </si>
+  <si>
+    <t xml:space="preserve">43.671573638916</t>
+  </si>
+  <si>
+    <t xml:space="preserve">42.6978416442871</t>
+  </si>
+  <si>
+    <t xml:space="preserve">42.1582565307617</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40.2911033630371</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40.0454292297363</t>
+  </si>
+  <si>
+    <t xml:space="preserve">39.7014846801758</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40.3402404785156</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41.126407623291</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40.2419738769531</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41.0281372070312</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40.9298667907715</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40.4385147094727</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40.1436958312988</t>
+  </si>
+  <si>
+    <t xml:space="preserve">39.898021697998</t>
+  </si>
+  <si>
+    <t xml:space="preserve">39.8488845825195</t>
+  </si>
+  <si>
+    <t xml:space="preserve">39.9962921142578</t>
+  </si>
+  <si>
+    <t xml:space="preserve">39.504940032959</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40.5367851257324</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40.1928367614746</t>
+  </si>
+  <si>
+    <t xml:space="preserve">38.1291427612305</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36.949893951416</t>
+  </si>
+  <si>
+    <t xml:space="preserve">37.8343276977539</t>
+  </si>
+  <si>
+    <t xml:space="preserve">38.3256874084473</t>
+  </si>
+  <si>
+    <t xml:space="preserve">39.799747467041</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41.9617118835449</t>
+  </si>
+  <si>
+    <t xml:space="preserve">42.3547973632812</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41.7160377502441</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41.3229484558105</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40.6350517272949</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40.6841926574707</t>
+  </si>
+  <si>
+    <t xml:space="preserve">42.453067779541</t>
+  </si>
+  <si>
+    <t xml:space="preserve">42.3056602478027</t>
+  </si>
+  <si>
+    <t xml:space="preserve">42.207389831543</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41.6669006347656</t>
+  </si>
+  <si>
+    <t xml:space="preserve">42.9935607910156</t>
+  </si>
+  <si>
+    <t xml:space="preserve">45.6468772888184</t>
+  </si>
+  <si>
+    <t xml:space="preserve">45.6960067749023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">46.482177734375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">48.1527824401855</t>
+  </si>
+  <si>
+    <t xml:space="preserve">47.6122932434082</t>
+  </si>
+  <si>
+    <t xml:space="preserve">48.1036529541016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">48.8406791687012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">48.8898162841797</t>
+  </si>
+  <si>
+    <t xml:space="preserve">49.1354942321777</t>
+  </si>
+  <si>
+    <t xml:space="preserve">48.4967269897461</t>
+  </si>
+  <si>
+    <t xml:space="preserve">50.0199356079102</t>
+  </si>
+  <si>
+    <t xml:space="preserve">50.2164764404297</t>
+  </si>
+  <si>
+    <t xml:space="preserve">50.1182060241699</t>
+  </si>
+  <si>
+    <t xml:space="preserve">50.3147468566895</t>
+  </si>
+  <si>
+    <t xml:space="preserve">51.0026435852051</t>
+  </si>
+  <si>
+    <t xml:space="preserve">51.6905403137207</t>
+  </si>
+  <si>
+    <t xml:space="preserve">50.609561920166</t>
+  </si>
+  <si>
+    <t xml:space="preserve">50.9043731689453</t>
+  </si>
+  <si>
+    <t xml:space="preserve">50.8060989379883</t>
+  </si>
+  <si>
+    <t xml:space="preserve">51.5922737121582</t>
+  </si>
+  <si>
+    <t xml:space="preserve">50.5112915039062</t>
+  </si>
+  <si>
+    <t xml:space="preserve">51.1009178161621</t>
+  </si>
+  <si>
+    <t xml:space="preserve">51.2974548339844</t>
+  </si>
+  <si>
+    <t xml:space="preserve">52.1818923950195</t>
+  </si>
+  <si>
+    <t xml:space="preserve">52.2801666259766</t>
+  </si>
+  <si>
+    <t xml:space="preserve">51.1991844177246</t>
+  </si>
+  <si>
+    <t xml:space="preserve">45.5485992431641</t>
+  </si>
+  <si>
+    <t xml:space="preserve">44.8115730285645</t>
+  </si>
+  <si>
+    <t xml:space="preserve">43.7797241210938</t>
+  </si>
+  <si>
+    <t xml:space="preserve">44.5167579650879</t>
+  </si>
+  <si>
+    <t xml:space="preserve">44.5658912658691</t>
+  </si>
+  <si>
+    <t xml:space="preserve">45.2046546936035</t>
+  </si>
+  <si>
+    <t xml:space="preserve">44.3202133178711</t>
+  </si>
+  <si>
+    <t xml:space="preserve">44.0745391845703</t>
+  </si>
+  <si>
+    <t xml:space="preserve">44.7132987976074</t>
+  </si>
+  <si>
+    <t xml:space="preserve">44.2219429016113</t>
+  </si>
+  <si>
+    <t xml:space="preserve">44.4676208496094</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41.4703598022461</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41.224681854248</t>
+  </si>
+  <si>
+    <t xml:space="preserve">42.0108489990234</t>
+  </si>
+  <si>
+    <t xml:space="preserve">42.5513381958008</t>
+  </si>
+  <si>
+    <t xml:space="preserve">43.3375053405762</t>
+  </si>
+  <si>
+    <t xml:space="preserve">43.534049987793</t>
+  </si>
+  <si>
+    <t xml:space="preserve">43.9762687683105</t>
+  </si>
+  <si>
+    <t xml:space="preserve">44.6150321960449</t>
+  </si>
+  <si>
+    <t xml:space="preserve">45.7451438903809</t>
+  </si>
+  <si>
+    <t xml:space="preserve">46.383903503418</t>
+  </si>
+  <si>
+    <t xml:space="preserve">45.9416885375977</t>
+  </si>
+  <si>
+    <t xml:space="preserve">46.0399551391602</t>
+  </si>
+  <si>
+    <t xml:space="preserve">43.0426940917969</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41.5194931030273</t>
+  </si>
+  <si>
+    <t xml:space="preserve">42.9444236755371</t>
+  </si>
+  <si>
+    <t xml:space="preserve">43.3866424560547</t>
+  </si>
+  <si>
     <t xml:space="preserve">42.600471496582</t>
   </si>
   <si>
-    <t xml:space="preserve">42.3083610534668</t>
-  </si>
-  <si>
-    <t xml:space="preserve">42.8925895690918</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41.8701782226562</t>
-  </si>
-  <si>
-    <t xml:space="preserve">42.6491584777832</t>
-  </si>
-  <si>
-    <t xml:space="preserve">43.7689437866211</t>
-  </si>
-  <si>
-    <t xml:space="preserve">44.4018630981445</t>
-  </si>
-  <si>
-    <t xml:space="preserve">44.9860992431641</t>
-  </si>
-  <si>
-    <t xml:space="preserve">45.0347862243652</t>
-  </si>
-  <si>
-    <t xml:space="preserve">45.9598236083984</t>
-  </si>
-  <si>
-    <t xml:space="preserve">44.6939811706543</t>
-  </si>
-  <si>
-    <t xml:space="preserve">45.2782173156738</t>
-  </si>
-  <si>
-    <t xml:space="preserve">46.3006286621094</t>
-  </si>
-  <si>
-    <t xml:space="preserve">45.7650756835938</t>
-  </si>
-  <si>
-    <t xml:space="preserve">45.2295341491699</t>
-  </si>
-  <si>
-    <t xml:space="preserve">46.544059753418</t>
-  </si>
-  <si>
-    <t xml:space="preserve">45.4242744445801</t>
-  </si>
-  <si>
-    <t xml:space="preserve">44.8887252807617</t>
-  </si>
-  <si>
-    <t xml:space="preserve">44.7913513183594</t>
-  </si>
-  <si>
-    <t xml:space="preserve">44.5479278564453</t>
-  </si>
-  <si>
-    <t xml:space="preserve">44.1097450256348</t>
-  </si>
-  <si>
-    <t xml:space="preserve">43.4281387329102</t>
-  </si>
-  <si>
-    <t xml:space="preserve">43.5741996765137</t>
-  </si>
-  <si>
-    <t xml:space="preserve">43.5255126953125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">43.1360244750977</t>
-  </si>
-  <si>
-    <t xml:space="preserve">43.3307685852051</t>
-  </si>
-  <si>
-    <t xml:space="preserve">44.3044891357422</t>
-  </si>
-  <si>
-    <t xml:space="preserve">43.6715660095215</t>
-  </si>
-  <si>
-    <t xml:space="preserve">42.6978454589844</t>
-  </si>
-  <si>
-    <t xml:space="preserve">42.1582565307617</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40.2911033630371</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40.0454292297363</t>
-  </si>
-  <si>
-    <t xml:space="preserve">39.7014808654785</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40.3402404785156</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41.126407623291</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40.2419738769531</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41.0281372070312</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40.9298667907715</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40.4385147094727</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40.1436996459961</t>
-  </si>
-  <si>
-    <t xml:space="preserve">39.898021697998</t>
-  </si>
-  <si>
-    <t xml:space="preserve">39.8488883972168</t>
-  </si>
-  <si>
-    <t xml:space="preserve">39.9962921142578</t>
-  </si>
-  <si>
-    <t xml:space="preserve">39.504940032959</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40.5367851257324</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40.1928367614746</t>
-  </si>
-  <si>
-    <t xml:space="preserve">38.1291389465332</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36.949893951416</t>
-  </si>
-  <si>
-    <t xml:space="preserve">37.8343276977539</t>
-  </si>
-  <si>
-    <t xml:space="preserve">38.32568359375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">39.7997512817383</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41.9617118835449</t>
-  </si>
-  <si>
-    <t xml:space="preserve">42.3547973632812</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41.7160377502441</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41.3229484558105</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40.6350517272949</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40.6841888427734</t>
-  </si>
-  <si>
-    <t xml:space="preserve">42.453067779541</t>
-  </si>
-  <si>
-    <t xml:space="preserve">42.3056602478027</t>
-  </si>
-  <si>
-    <t xml:space="preserve">42.2073936462402</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41.6669006347656</t>
-  </si>
-  <si>
-    <t xml:space="preserve">42.9935569763184</t>
-  </si>
-  <si>
-    <t xml:space="preserve">45.6468772888184</t>
-  </si>
-  <si>
-    <t xml:space="preserve">45.6960105895996</t>
-  </si>
-  <si>
-    <t xml:space="preserve">46.482177734375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">48.1527862548828</t>
-  </si>
-  <si>
-    <t xml:space="preserve">47.6122970581055</t>
-  </si>
-  <si>
-    <t xml:space="preserve">48.1036491394043</t>
-  </si>
-  <si>
-    <t xml:space="preserve">48.8406829833984</t>
-  </si>
-  <si>
-    <t xml:space="preserve">48.8898162841797</t>
-  </si>
-  <si>
-    <t xml:space="preserve">49.1354942321777</t>
-  </si>
-  <si>
-    <t xml:space="preserve">48.4967308044434</t>
-  </si>
-  <si>
-    <t xml:space="preserve">50.0199317932129</t>
-  </si>
-  <si>
-    <t xml:space="preserve">50.2164764404297</t>
-  </si>
-  <si>
-    <t xml:space="preserve">50.1182098388672</t>
-  </si>
-  <si>
-    <t xml:space="preserve">50.3147468566895</t>
-  </si>
-  <si>
-    <t xml:space="preserve">51.0026435852051</t>
-  </si>
-  <si>
-    <t xml:space="preserve">51.6905364990234</t>
-  </si>
-  <si>
-    <t xml:space="preserve">50.609561920166</t>
-  </si>
-  <si>
-    <t xml:space="preserve">50.9043731689453</t>
-  </si>
-  <si>
-    <t xml:space="preserve">50.8061027526855</t>
-  </si>
-  <si>
-    <t xml:space="preserve">51.5922698974609</t>
-  </si>
-  <si>
-    <t xml:space="preserve">50.5112915039062</t>
-  </si>
-  <si>
-    <t xml:space="preserve">51.1009178161621</t>
-  </si>
-  <si>
-    <t xml:space="preserve">51.2974548339844</t>
-  </si>
-  <si>
-    <t xml:space="preserve">52.1818923950195</t>
-  </si>
-  <si>
-    <t xml:space="preserve">52.2801628112793</t>
-  </si>
-  <si>
-    <t xml:space="preserve">51.1991844177246</t>
-  </si>
-  <si>
-    <t xml:space="preserve">45.5485992431641</t>
-  </si>
-  <si>
-    <t xml:space="preserve">44.8115692138672</t>
-  </si>
-  <si>
-    <t xml:space="preserve">43.7797241210938</t>
-  </si>
-  <si>
-    <t xml:space="preserve">44.5167579650879</t>
-  </si>
-  <si>
-    <t xml:space="preserve">44.5658912658691</t>
-  </si>
-  <si>
-    <t xml:space="preserve">45.2046508789062</t>
-  </si>
-  <si>
-    <t xml:space="preserve">44.3202171325684</t>
-  </si>
-  <si>
-    <t xml:space="preserve">44.074535369873</t>
-  </si>
-  <si>
-    <t xml:space="preserve">44.7132987976074</t>
-  </si>
-  <si>
-    <t xml:space="preserve">44.2219429016113</t>
-  </si>
-  <si>
-    <t xml:space="preserve">44.4676246643066</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41.4703598022461</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41.224681854248</t>
-  </si>
-  <si>
-    <t xml:space="preserve">42.0108489990234</t>
-  </si>
-  <si>
-    <t xml:space="preserve">42.5513381958008</t>
-  </si>
-  <si>
-    <t xml:space="preserve">43.3375091552734</t>
-  </si>
-  <si>
-    <t xml:space="preserve">43.534049987793</t>
-  </si>
-  <si>
-    <t xml:space="preserve">43.9762687683105</t>
-  </si>
-  <si>
-    <t xml:space="preserve">44.6150321960449</t>
-  </si>
-  <si>
-    <t xml:space="preserve">45.7451438903809</t>
-  </si>
-  <si>
-    <t xml:space="preserve">46.3839073181152</t>
-  </si>
-  <si>
-    <t xml:space="preserve">45.9416885375977</t>
-  </si>
-  <si>
-    <t xml:space="preserve">46.0399551391602</t>
-  </si>
-  <si>
-    <t xml:space="preserve">43.0426940917969</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41.5194931030273</t>
-  </si>
-  <si>
-    <t xml:space="preserve">42.9444198608398</t>
-  </si>
-  <si>
-    <t xml:space="preserve">43.3866424560547</t>
-  </si>
-  <si>
     <t xml:space="preserve">42.6987495422363</t>
   </si>
   <si>
@@ -3044,28 +3047,28 @@
     <t xml:space="preserve">39.1118507385254</t>
   </si>
   <si>
-    <t xml:space="preserve">38.4730911254883</t>
+    <t xml:space="preserve">38.4730949401855</t>
   </si>
   <si>
     <t xml:space="preserve">39.3083953857422</t>
   </si>
   <si>
-    <t xml:space="preserve">40.0945587158203</t>
+    <t xml:space="preserve">40.0945625305176</t>
   </si>
   <si>
     <t xml:space="preserve">40.7824630737305</t>
   </si>
   <si>
-    <t xml:space="preserve">42.1091194152832</t>
+    <t xml:space="preserve">42.1091156005859</t>
   </si>
   <si>
     <t xml:space="preserve">41.3720855712891</t>
   </si>
   <si>
-    <t xml:space="preserve">41.0772743225098</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41.9125747680664</t>
+    <t xml:space="preserve">41.0772705078125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41.9125785827637</t>
   </si>
   <si>
     <t xml:space="preserve">41.8634414672852</t>
@@ -3074,22 +3077,22 @@
     <t xml:space="preserve">42.7478790283203</t>
   </si>
   <si>
-    <t xml:space="preserve">43.2392349243164</t>
-  </si>
-  <si>
-    <t xml:space="preserve">42.0599822998047</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41.6177597045898</t>
+    <t xml:space="preserve">43.2392311096191</t>
+  </si>
+  <si>
+    <t xml:space="preserve">42.0599784851074</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41.6177635192871</t>
   </si>
   <si>
     <t xml:space="preserve">40.4876480102539</t>
   </si>
   <si>
-    <t xml:space="preserve">40.8807334899902</t>
-  </si>
-  <si>
-    <t xml:space="preserve">43.1409683227539</t>
+    <t xml:space="preserve">40.880729675293</t>
+  </si>
+  <si>
+    <t xml:space="preserve">43.1409645080566</t>
   </si>
   <si>
     <t xml:space="preserve">43.7305908203125</t>
@@ -3098,22 +3101,22 @@
     <t xml:space="preserve">44.2710800170898</t>
   </si>
   <si>
-    <t xml:space="preserve">41.1755485534668</t>
-  </si>
-  <si>
-    <t xml:space="preserve">39.3575286865234</t>
-  </si>
-  <si>
-    <t xml:space="preserve">42.8461494445801</t>
+    <t xml:space="preserve">41.1755447387695</t>
+  </si>
+  <si>
+    <t xml:space="preserve">39.3575325012207</t>
+  </si>
+  <si>
+    <t xml:space="preserve">42.8461532592773</t>
   </si>
   <si>
     <t xml:space="preserve">42.8952865600586</t>
   </si>
   <si>
-    <t xml:space="preserve">38.8170433044434</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36.6550788879395</t>
+    <t xml:space="preserve">38.8170394897461</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36.6550750732422</t>
   </si>
   <si>
     <t xml:space="preserve">38.8661766052246</t>
@@ -3125,7 +3128,7 @@
     <t xml:space="preserve">36.0163192749023</t>
   </si>
   <si>
-    <t xml:space="preserve">34.9353332519531</t>
+    <t xml:space="preserve">34.9353370666504</t>
   </si>
   <si>
     <t xml:space="preserve">35.8197746276855</t>
@@ -3149,28 +3152,28 @@
     <t xml:space="preserve">34.7387924194336</t>
   </si>
   <si>
-    <t xml:space="preserve">36.6059455871582</t>
+    <t xml:space="preserve">36.6059417724609</t>
   </si>
   <si>
     <t xml:space="preserve">35.5740966796875</t>
   </si>
   <si>
-    <t xml:space="preserve">34.149169921875</t>
+    <t xml:space="preserve">34.1491737365723</t>
   </si>
   <si>
     <t xml:space="preserve">32.3311576843262</t>
   </si>
   <si>
-    <t xml:space="preserve">31.6923942565918</t>
+    <t xml:space="preserve">31.6923961639404</t>
   </si>
   <si>
     <t xml:space="preserve">31.8398036956787</t>
   </si>
   <si>
-    <t xml:space="preserve">33.2155914306641</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.576831817627</t>
+    <t xml:space="preserve">33.2155952453613</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.5768356323242</t>
   </si>
   <si>
     <t xml:space="preserve">33.6578140258789</t>
@@ -3191,7 +3194,7 @@
     <t xml:space="preserve">31.594123840332</t>
   </si>
   <si>
-    <t xml:space="preserve">33.8052253723145</t>
+    <t xml:space="preserve">33.8052215576172</t>
   </si>
   <si>
     <t xml:space="preserve">33.1664619445801</t>
@@ -3206,7 +3209,7 @@
     <t xml:space="preserve">32.8225135803223</t>
   </si>
   <si>
-    <t xml:space="preserve">31.6432590484619</t>
+    <t xml:space="preserve">31.6432609558105</t>
   </si>
   <si>
     <t xml:space="preserve">32.8716468811035</t>
@@ -3215,22 +3218,22 @@
     <t xml:space="preserve">32.9699172973633</t>
   </si>
   <si>
-    <t xml:space="preserve">31.4074058532715</t>
+    <t xml:space="preserve">31.4074077606201</t>
   </si>
   <si>
     <t xml:space="preserve">31.2108669281006</t>
   </si>
   <si>
-    <t xml:space="preserve">31.0929393768311</t>
+    <t xml:space="preserve">31.0929412841797</t>
   </si>
   <si>
     <t xml:space="preserve">29.8350734710693</t>
   </si>
   <si>
-    <t xml:space="preserve">30.6605472564697</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.4294281005859</t>
+    <t xml:space="preserve">30.6605491638184</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.4294242858887</t>
   </si>
   <si>
     <t xml:space="preserve">32.2721939086914</t>
@@ -3245,7 +3248,7 @@
     <t xml:space="preserve">32.3704605102539</t>
   </si>
   <si>
-    <t xml:space="preserve">31.5842952728271</t>
+    <t xml:space="preserve">31.5842971801758</t>
   </si>
   <si>
     <t xml:space="preserve">31.8594532012939</t>
@@ -3257,13 +3260,13 @@
     <t xml:space="preserve">30.1495399475098</t>
   </si>
   <si>
-    <t xml:space="preserve">28.5575504302979</t>
+    <t xml:space="preserve">28.5575485229492</t>
   </si>
   <si>
     <t xml:space="preserve">28.6754760742188</t>
   </si>
   <si>
-    <t xml:space="preserve">29.3830242156982</t>
+    <t xml:space="preserve">29.3830261230469</t>
   </si>
   <si>
     <t xml:space="preserve">29.0489044189453</t>
@@ -3275,25 +3278,25 @@
     <t xml:space="preserve">29.265100479126</t>
   </si>
   <si>
-    <t xml:space="preserve">28.478931427002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.5968608856201</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.1817569732666</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.4985866546631</t>
+    <t xml:space="preserve">28.4789333343506</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.5968589782715</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.181755065918</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.4985885620117</t>
   </si>
   <si>
     <t xml:space="preserve">28.7737445831299</t>
   </si>
   <si>
-    <t xml:space="preserve">28.4003143310547</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.7344360351562</t>
+    <t xml:space="preserve">28.4003162384033</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.7344379425049</t>
   </si>
   <si>
     <t xml:space="preserve">28.2578468322754</t>
@@ -3731,9 +3734,6 @@
     <t xml:space="preserve">28.7940120697021</t>
   </si>
   <si>
-    <t xml:space="preserve">28.7344379425049</t>
-  </si>
-  <si>
     <t xml:space="preserve">29.0323066711426</t>
   </si>
   <si>
@@ -4593,6 +4593,9 @@
   </si>
   <si>
     <t xml:space="preserve">32.8499984741211</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.4500007629395</t>
   </si>
 </sst>
 </file>
@@ -28274,7 +28277,7 @@
         <v>15.6800003051758</v>
       </c>
       <c r="G898" t="s">
-        <v>593</v>
+        <v>403</v>
       </c>
       <c r="H898" t="s">
         <v>9</v>
@@ -28300,7 +28303,7 @@
         <v>15.5600004196167</v>
       </c>
       <c r="G899" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="H899" t="s">
         <v>9</v>
@@ -28326,7 +28329,7 @@
         <v>15.7600002288818</v>
       </c>
       <c r="G900" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="H900" t="s">
         <v>9</v>
@@ -28378,7 +28381,7 @@
         <v>15.3800001144409</v>
       </c>
       <c r="G902" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="H902" t="s">
         <v>9</v>
@@ -28430,7 +28433,7 @@
         <v>15.3400001525879</v>
       </c>
       <c r="G904" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="H904" t="s">
         <v>9</v>
@@ -28456,7 +28459,7 @@
         <v>15.5</v>
       </c>
       <c r="G905" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="H905" t="s">
         <v>9</v>
@@ -28482,7 +28485,7 @@
         <v>15.6199998855591</v>
       </c>
       <c r="G906" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="H906" t="s">
         <v>9</v>
@@ -28508,7 +28511,7 @@
         <v>15.5</v>
       </c>
       <c r="G907" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="H907" t="s">
         <v>9</v>
@@ -28586,7 +28589,7 @@
         <v>15.3999996185303</v>
       </c>
       <c r="G910" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="H910" t="s">
         <v>9</v>
@@ -28664,7 +28667,7 @@
         <v>15.6199998855591</v>
       </c>
       <c r="G913" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="H913" t="s">
         <v>9</v>
@@ -28716,7 +28719,7 @@
         <v>15.4799995422363</v>
       </c>
       <c r="G915" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="H915" t="s">
         <v>9</v>
@@ -28742,7 +28745,7 @@
         <v>15.1199998855591</v>
       </c>
       <c r="G916" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="H916" t="s">
         <v>9</v>
@@ -28768,7 +28771,7 @@
         <v>15.1599998474121</v>
       </c>
       <c r="G917" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="H917" t="s">
         <v>9</v>
@@ -28794,7 +28797,7 @@
         <v>15.1800003051758</v>
       </c>
       <c r="G918" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="H918" t="s">
         <v>9</v>
@@ -28820,7 +28823,7 @@
         <v>15.3400001525879</v>
       </c>
       <c r="G919" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="H919" t="s">
         <v>9</v>
@@ -28846,7 +28849,7 @@
         <v>15.0799999237061</v>
       </c>
       <c r="G920" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="H920" t="s">
         <v>9</v>
@@ -28872,7 +28875,7 @@
         <v>15.2200002670288</v>
       </c>
       <c r="G921" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="H921" t="s">
         <v>9</v>
@@ -28898,7 +28901,7 @@
         <v>15.1599998474121</v>
       </c>
       <c r="G922" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="H922" t="s">
         <v>9</v>
@@ -28924,7 +28927,7 @@
         <v>15.1999998092651</v>
       </c>
       <c r="G923" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="H923" t="s">
         <v>9</v>
@@ -28950,7 +28953,7 @@
         <v>15.039999961853</v>
       </c>
       <c r="G924" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="H924" t="s">
         <v>9</v>
@@ -28976,7 +28979,7 @@
         <v>15.1199998855591</v>
       </c>
       <c r="G925" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="H925" t="s">
         <v>9</v>
@@ -29002,7 +29005,7 @@
         <v>15.2200002670288</v>
       </c>
       <c r="G926" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="H926" t="s">
         <v>9</v>
@@ -29028,7 +29031,7 @@
         <v>15.0200004577637</v>
       </c>
       <c r="G927" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="H927" t="s">
         <v>9</v>
@@ -29054,7 +29057,7 @@
         <v>15.2399997711182</v>
       </c>
       <c r="G928" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="H928" t="s">
         <v>9</v>
@@ -29106,7 +29109,7 @@
         <v>15.5200004577637</v>
       </c>
       <c r="G930" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="H930" t="s">
         <v>9</v>
@@ -29158,7 +29161,7 @@
         <v>15.1400003433228</v>
       </c>
       <c r="G932" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="H932" t="s">
         <v>9</v>
@@ -29210,7 +29213,7 @@
         <v>15.1800003051758</v>
       </c>
       <c r="G934" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="H934" t="s">
         <v>9</v>
@@ -29236,7 +29239,7 @@
         <v>15.4799995422363</v>
       </c>
       <c r="G935" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="H935" t="s">
         <v>9</v>
@@ -29262,7 +29265,7 @@
         <v>15.960000038147</v>
       </c>
       <c r="G936" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="H936" t="s">
         <v>9</v>
@@ -29288,7 +29291,7 @@
         <v>16</v>
       </c>
       <c r="G937" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="H937" t="s">
         <v>9</v>
@@ -29314,7 +29317,7 @@
         <v>16.2999992370605</v>
       </c>
       <c r="G938" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="H938" t="s">
         <v>9</v>
@@ -29340,7 +29343,7 @@
         <v>16.1399993896484</v>
       </c>
       <c r="G939" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="H939" t="s">
         <v>9</v>
@@ -29366,7 +29369,7 @@
         <v>16.3400001525879</v>
       </c>
       <c r="G940" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="H940" t="s">
         <v>9</v>
@@ -29392,7 +29395,7 @@
         <v>16.4200000762939</v>
       </c>
       <c r="G941" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="H941" t="s">
         <v>9</v>
@@ -29418,7 +29421,7 @@
         <v>16.7999992370605</v>
       </c>
       <c r="G942" t="s">
-        <v>553</v>
+        <v>618</v>
       </c>
       <c r="H942" t="s">
         <v>9</v>
@@ -29808,7 +29811,7 @@
         <v>16</v>
       </c>
       <c r="G957" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="H957" t="s">
         <v>9</v>
@@ -29938,7 +29941,7 @@
         <v>16.3400001525879</v>
       </c>
       <c r="G962" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="H962" t="s">
         <v>9</v>
@@ -30068,7 +30071,7 @@
         <v>16.7999992370605</v>
       </c>
       <c r="G967" t="s">
-        <v>553</v>
+        <v>618</v>
       </c>
       <c r="H967" t="s">
         <v>9</v>
@@ -32980,7 +32983,7 @@
         <v>15.2399997711182</v>
       </c>
       <c r="G1079" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="H1079" t="s">
         <v>9</v>
@@ -33032,7 +33035,7 @@
         <v>15.1599998474121</v>
       </c>
       <c r="G1081" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="H1081" t="s">
         <v>9</v>
@@ -33318,7 +33321,7 @@
         <v>15.7600002288818</v>
       </c>
       <c r="G1092" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="H1092" t="s">
         <v>9</v>
@@ -33474,7 +33477,7 @@
         <v>16.3400001525879</v>
       </c>
       <c r="G1098" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="H1098" t="s">
         <v>9</v>
@@ -33552,7 +33555,7 @@
         <v>15.5200004577637</v>
       </c>
       <c r="G1101" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="H1101" t="s">
         <v>9</v>
@@ -33708,7 +33711,7 @@
         <v>16</v>
       </c>
       <c r="G1107" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="H1107" t="s">
         <v>9</v>
@@ -33734,7 +33737,7 @@
         <v>15.3999996185303</v>
       </c>
       <c r="G1108" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="H1108" t="s">
         <v>9</v>
@@ -33786,7 +33789,7 @@
         <v>16.2999992370605</v>
       </c>
       <c r="G1110" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="H1110" t="s">
         <v>9</v>
@@ -33812,7 +33815,7 @@
         <v>16</v>
       </c>
       <c r="G1111" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="H1111" t="s">
         <v>9</v>
@@ -33916,7 +33919,7 @@
         <v>16.1399993896484</v>
       </c>
       <c r="G1115" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="H1115" t="s">
         <v>9</v>
@@ -43614,7 +43617,7 @@
         <v>43.3499984741211</v>
       </c>
       <c r="G1488" t="s">
-        <v>891</v>
+        <v>1006</v>
       </c>
       <c r="H1488" t="s">
         <v>9</v>
@@ -43640,7 +43643,7 @@
         <v>43.4500007629395</v>
       </c>
       <c r="G1489" t="s">
-        <v>1006</v>
+        <v>1007</v>
       </c>
       <c r="H1489" t="s">
         <v>9</v>
@@ -43692,7 +43695,7 @@
         <v>42.5</v>
       </c>
       <c r="G1491" t="s">
-        <v>1007</v>
+        <v>1008</v>
       </c>
       <c r="H1491" t="s">
         <v>9</v>
@@ -43718,7 +43721,7 @@
         <v>42.5</v>
       </c>
       <c r="G1492" t="s">
-        <v>1007</v>
+        <v>1008</v>
       </c>
       <c r="H1492" t="s">
         <v>9</v>
@@ -43770,7 +43773,7 @@
         <v>42</v>
       </c>
       <c r="G1494" t="s">
-        <v>1008</v>
+        <v>1009</v>
       </c>
       <c r="H1494" t="s">
         <v>9</v>
@@ -43822,7 +43825,7 @@
         <v>39.7999992370605</v>
       </c>
       <c r="G1496" t="s">
-        <v>1009</v>
+        <v>1010</v>
       </c>
       <c r="H1496" t="s">
         <v>9</v>
@@ -43848,7 +43851,7 @@
         <v>39.1500015258789</v>
       </c>
       <c r="G1497" t="s">
-        <v>1010</v>
+        <v>1011</v>
       </c>
       <c r="H1497" t="s">
         <v>9</v>
@@ -43874,7 +43877,7 @@
         <v>40</v>
       </c>
       <c r="G1498" t="s">
-        <v>1011</v>
+        <v>1012</v>
       </c>
       <c r="H1498" t="s">
         <v>9</v>
@@ -44030,7 +44033,7 @@
         <v>40.7999992370605</v>
       </c>
       <c r="G1504" t="s">
-        <v>1012</v>
+        <v>1013</v>
       </c>
       <c r="H1504" t="s">
         <v>9</v>
@@ -44056,7 +44059,7 @@
         <v>41.5</v>
       </c>
       <c r="G1505" t="s">
-        <v>1013</v>
+        <v>1014</v>
       </c>
       <c r="H1505" t="s">
         <v>9</v>
@@ -44160,7 +44163,7 @@
         <v>41.5</v>
       </c>
       <c r="G1509" t="s">
-        <v>1013</v>
+        <v>1014</v>
       </c>
       <c r="H1509" t="s">
         <v>9</v>
@@ -44186,7 +44189,7 @@
         <v>42.8499984741211</v>
       </c>
       <c r="G1510" t="s">
-        <v>1014</v>
+        <v>1015</v>
       </c>
       <c r="H1510" t="s">
         <v>9</v>
@@ -44212,7 +44215,7 @@
         <v>42</v>
       </c>
       <c r="G1511" t="s">
-        <v>1008</v>
+        <v>1009</v>
       </c>
       <c r="H1511" t="s">
         <v>9</v>
@@ -44238,7 +44241,7 @@
         <v>42</v>
       </c>
       <c r="G1512" t="s">
-        <v>1008</v>
+        <v>1009</v>
       </c>
       <c r="H1512" t="s">
         <v>9</v>
@@ -44264,7 +44267,7 @@
         <v>42.0999984741211</v>
       </c>
       <c r="G1513" t="s">
-        <v>1015</v>
+        <v>1016</v>
       </c>
       <c r="H1513" t="s">
         <v>9</v>
@@ -44290,7 +44293,7 @@
         <v>41.7999992370605</v>
       </c>
       <c r="G1514" t="s">
-        <v>1016</v>
+        <v>1017</v>
       </c>
       <c r="H1514" t="s">
         <v>9</v>
@@ -44342,7 +44345,7 @@
         <v>42</v>
       </c>
       <c r="G1516" t="s">
-        <v>1008</v>
+        <v>1009</v>
       </c>
       <c r="H1516" t="s">
         <v>9</v>
@@ -44368,7 +44371,7 @@
         <v>42</v>
       </c>
       <c r="G1517" t="s">
-        <v>1008</v>
+        <v>1009</v>
       </c>
       <c r="H1517" t="s">
         <v>9</v>
@@ -44394,7 +44397,7 @@
         <v>42.6500015258789</v>
       </c>
       <c r="G1518" t="s">
-        <v>1017</v>
+        <v>1018</v>
       </c>
       <c r="H1518" t="s">
         <v>9</v>
@@ -44472,7 +44475,7 @@
         <v>42.5999984741211</v>
       </c>
       <c r="G1521" t="s">
-        <v>1018</v>
+        <v>1019</v>
       </c>
       <c r="H1521" t="s">
         <v>9</v>
@@ -44524,7 +44527,7 @@
         <v>43.5</v>
       </c>
       <c r="G1523" t="s">
-        <v>1019</v>
+        <v>1020</v>
       </c>
       <c r="H1523" t="s">
         <v>9</v>
@@ -44576,7 +44579,7 @@
         <v>44</v>
       </c>
       <c r="G1525" t="s">
-        <v>1020</v>
+        <v>1021</v>
       </c>
       <c r="H1525" t="s">
         <v>9</v>
@@ -44628,7 +44631,7 @@
         <v>42.7999992370605</v>
       </c>
       <c r="G1527" t="s">
-        <v>1021</v>
+        <v>1022</v>
       </c>
       <c r="H1527" t="s">
         <v>9</v>
@@ -44654,7 +44657,7 @@
         <v>42.6500015258789</v>
       </c>
       <c r="G1528" t="s">
-        <v>1017</v>
+        <v>1018</v>
       </c>
       <c r="H1528" t="s">
         <v>9</v>
@@ -44680,7 +44683,7 @@
         <v>42.3499984741211</v>
       </c>
       <c r="G1529" t="s">
-        <v>1022</v>
+        <v>1023</v>
       </c>
       <c r="H1529" t="s">
         <v>9</v>
@@ -44706,7 +44709,7 @@
         <v>41.5</v>
       </c>
       <c r="G1530" t="s">
-        <v>1013</v>
+        <v>1014</v>
       </c>
       <c r="H1530" t="s">
         <v>9</v>
@@ -44732,7 +44735,7 @@
         <v>41.2000007629395</v>
       </c>
       <c r="G1531" t="s">
-        <v>1023</v>
+        <v>1024</v>
       </c>
       <c r="H1531" t="s">
         <v>9</v>
@@ -44810,7 +44813,7 @@
         <v>41.5999984741211</v>
       </c>
       <c r="G1534" t="s">
-        <v>1024</v>
+        <v>1025</v>
       </c>
       <c r="H1534" t="s">
         <v>9</v>
@@ -44836,7 +44839,7 @@
         <v>42</v>
       </c>
       <c r="G1535" t="s">
-        <v>1008</v>
+        <v>1009</v>
       </c>
       <c r="H1535" t="s">
         <v>9</v>
@@ -44862,7 +44865,7 @@
         <v>42</v>
       </c>
       <c r="G1536" t="s">
-        <v>1008</v>
+        <v>1009</v>
       </c>
       <c r="H1536" t="s">
         <v>9</v>
@@ -44888,7 +44891,7 @@
         <v>43.9000015258789</v>
       </c>
       <c r="G1537" t="s">
-        <v>1025</v>
+        <v>1026</v>
       </c>
       <c r="H1537" t="s">
         <v>9</v>
@@ -44940,7 +44943,7 @@
         <v>44.5</v>
       </c>
       <c r="G1539" t="s">
-        <v>1026</v>
+        <v>1027</v>
       </c>
       <c r="H1539" t="s">
         <v>9</v>
@@ -44966,7 +44969,7 @@
         <v>45.0499992370605</v>
       </c>
       <c r="G1540" t="s">
-        <v>1027</v>
+        <v>1028</v>
       </c>
       <c r="H1540" t="s">
         <v>9</v>
@@ -45044,7 +45047,7 @@
         <v>40</v>
       </c>
       <c r="G1543" t="s">
-        <v>1011</v>
+        <v>1012</v>
       </c>
       <c r="H1543" t="s">
         <v>9</v>
@@ -45096,7 +45099,7 @@
         <v>41.9000015258789</v>
       </c>
       <c r="G1545" t="s">
-        <v>1028</v>
+        <v>1029</v>
       </c>
       <c r="H1545" t="s">
         <v>9</v>
@@ -45122,7 +45125,7 @@
         <v>40.0499992370605</v>
       </c>
       <c r="G1546" t="s">
-        <v>1029</v>
+        <v>1030</v>
       </c>
       <c r="H1546" t="s">
         <v>9</v>
@@ -45148,7 +45151,7 @@
         <v>42.0999984741211</v>
       </c>
       <c r="G1547" t="s">
-        <v>1015</v>
+        <v>1016</v>
       </c>
       <c r="H1547" t="s">
         <v>9</v>
@@ -45174,7 +45177,7 @@
         <v>43.5999984741211</v>
       </c>
       <c r="G1548" t="s">
-        <v>1030</v>
+        <v>1031</v>
       </c>
       <c r="H1548" t="s">
         <v>9</v>
@@ -45200,7 +45203,7 @@
         <v>43.6500015258789</v>
       </c>
       <c r="G1549" t="s">
-        <v>1031</v>
+        <v>1032</v>
       </c>
       <c r="H1549" t="s">
         <v>9</v>
@@ -45278,7 +45281,7 @@
         <v>39.5</v>
       </c>
       <c r="G1552" t="s">
-        <v>1032</v>
+        <v>1033</v>
       </c>
       <c r="H1552" t="s">
         <v>9</v>
@@ -45304,7 +45307,7 @@
         <v>37.2999992370605</v>
       </c>
       <c r="G1553" t="s">
-        <v>1033</v>
+        <v>1034</v>
       </c>
       <c r="H1553" t="s">
         <v>9</v>
@@ -45330,7 +45333,7 @@
         <v>39.5499992370605</v>
       </c>
       <c r="G1554" t="s">
-        <v>1034</v>
+        <v>1035</v>
       </c>
       <c r="H1554" t="s">
         <v>9</v>
@@ -45356,7 +45359,7 @@
         <v>38</v>
       </c>
       <c r="G1555" t="s">
-        <v>1035</v>
+        <v>1036</v>
       </c>
       <c r="H1555" t="s">
         <v>9</v>
@@ -45382,7 +45385,7 @@
         <v>36.6500015258789</v>
       </c>
       <c r="G1556" t="s">
-        <v>1036</v>
+        <v>1037</v>
       </c>
       <c r="H1556" t="s">
         <v>9</v>
@@ -45408,7 +45411,7 @@
         <v>35.5499992370605</v>
       </c>
       <c r="G1557" t="s">
-        <v>1037</v>
+        <v>1038</v>
       </c>
       <c r="H1557" t="s">
         <v>9</v>
@@ -45434,7 +45437,7 @@
         <v>36.4500007629395</v>
       </c>
       <c r="G1558" t="s">
-        <v>1038</v>
+        <v>1039</v>
       </c>
       <c r="H1558" t="s">
         <v>9</v>
@@ -45486,7 +45489,7 @@
         <v>37.4000015258789</v>
       </c>
       <c r="G1560" t="s">
-        <v>1039</v>
+        <v>1040</v>
       </c>
       <c r="H1560" t="s">
         <v>9</v>
@@ -45512,7 +45515,7 @@
         <v>37.5</v>
       </c>
       <c r="G1561" t="s">
-        <v>1040</v>
+        <v>1041</v>
       </c>
       <c r="H1561" t="s">
         <v>9</v>
@@ -45538,7 +45541,7 @@
         <v>36.9500007629395</v>
       </c>
       <c r="G1562" t="s">
-        <v>1041</v>
+        <v>1042</v>
       </c>
       <c r="H1562" t="s">
         <v>9</v>
@@ -45564,7 +45567,7 @@
         <v>37</v>
       </c>
       <c r="G1563" t="s">
-        <v>1042</v>
+        <v>1043</v>
       </c>
       <c r="H1563" t="s">
         <v>9</v>
@@ -45590,7 +45593,7 @@
         <v>36.2999992370605</v>
       </c>
       <c r="G1564" t="s">
-        <v>1043</v>
+        <v>1044</v>
       </c>
       <c r="H1564" t="s">
         <v>9</v>
@@ -45616,7 +45619,7 @@
         <v>35.3499984741211</v>
       </c>
       <c r="G1565" t="s">
-        <v>1044</v>
+        <v>1045</v>
       </c>
       <c r="H1565" t="s">
         <v>9</v>
@@ -45642,7 +45645,7 @@
         <v>36.2999992370605</v>
       </c>
       <c r="G1566" t="s">
-        <v>1043</v>
+        <v>1044</v>
       </c>
       <c r="H1566" t="s">
         <v>9</v>
@@ -45668,7 +45671,7 @@
         <v>37.25</v>
       </c>
       <c r="G1567" t="s">
-        <v>1045</v>
+        <v>1046</v>
       </c>
       <c r="H1567" t="s">
         <v>9</v>
@@ -45694,7 +45697,7 @@
         <v>36.2000007629395</v>
       </c>
       <c r="G1568" t="s">
-        <v>1046</v>
+        <v>1047</v>
       </c>
       <c r="H1568" t="s">
         <v>9</v>
@@ -45720,7 +45723,7 @@
         <v>37</v>
       </c>
       <c r="G1569" t="s">
-        <v>1042</v>
+        <v>1043</v>
       </c>
       <c r="H1569" t="s">
         <v>9</v>
@@ -45746,7 +45749,7 @@
         <v>34.75</v>
       </c>
       <c r="G1570" t="s">
-        <v>1047</v>
+        <v>1048</v>
       </c>
       <c r="H1570" t="s">
         <v>9</v>
@@ -45772,7 +45775,7 @@
         <v>32.9000015258789</v>
       </c>
       <c r="G1571" t="s">
-        <v>1048</v>
+        <v>1049</v>
       </c>
       <c r="H1571" t="s">
         <v>9</v>
@@ -45798,7 +45801,7 @@
         <v>32.25</v>
       </c>
       <c r="G1572" t="s">
-        <v>1049</v>
+        <v>1050</v>
       </c>
       <c r="H1572" t="s">
         <v>9</v>
@@ -45824,7 +45827,7 @@
         <v>32.4000015258789</v>
       </c>
       <c r="G1573" t="s">
-        <v>1050</v>
+        <v>1051</v>
       </c>
       <c r="H1573" t="s">
         <v>9</v>
@@ -45850,7 +45853,7 @@
         <v>33.7999992370605</v>
       </c>
       <c r="G1574" t="s">
-        <v>1051</v>
+        <v>1052</v>
       </c>
       <c r="H1574" t="s">
         <v>9</v>
@@ -45876,7 +45879,7 @@
         <v>33.1500015258789</v>
       </c>
       <c r="G1575" t="s">
-        <v>1052</v>
+        <v>1053</v>
       </c>
       <c r="H1575" t="s">
         <v>9</v>
@@ -45902,7 +45905,7 @@
         <v>34.25</v>
       </c>
       <c r="G1576" t="s">
-        <v>1053</v>
+        <v>1054</v>
       </c>
       <c r="H1576" t="s">
         <v>9</v>
@@ -45928,7 +45931,7 @@
         <v>35.5999984741211</v>
       </c>
       <c r="G1577" t="s">
-        <v>1054</v>
+        <v>1055</v>
       </c>
       <c r="H1577" t="s">
         <v>9</v>
@@ -45954,7 +45957,7 @@
         <v>35.4000015258789</v>
       </c>
       <c r="G1578" t="s">
-        <v>1055</v>
+        <v>1056</v>
       </c>
       <c r="H1578" t="s">
         <v>9</v>
@@ -45980,7 +45983,7 @@
         <v>36.1500015258789</v>
       </c>
       <c r="G1579" t="s">
-        <v>1056</v>
+        <v>1057</v>
       </c>
       <c r="H1579" t="s">
         <v>9</v>
@@ -46006,7 +46009,7 @@
         <v>32.7999992370605</v>
       </c>
       <c r="G1580" t="s">
-        <v>1057</v>
+        <v>1058</v>
       </c>
       <c r="H1580" t="s">
         <v>9</v>
@@ -46032,7 +46035,7 @@
         <v>32.1500015258789</v>
       </c>
       <c r="G1581" t="s">
-        <v>1058</v>
+        <v>1059</v>
       </c>
       <c r="H1581" t="s">
         <v>9</v>
@@ -46058,7 +46061,7 @@
         <v>34.4000015258789</v>
       </c>
       <c r="G1582" t="s">
-        <v>1059</v>
+        <v>1060</v>
       </c>
       <c r="H1582" t="s">
         <v>9</v>
@@ -46084,7 +46087,7 @@
         <v>33.75</v>
       </c>
       <c r="G1583" t="s">
-        <v>1060</v>
+        <v>1061</v>
       </c>
       <c r="H1583" t="s">
         <v>9</v>
@@ -46110,7 +46113,7 @@
         <v>33.2999992370605</v>
       </c>
       <c r="G1584" t="s">
-        <v>1061</v>
+        <v>1062</v>
       </c>
       <c r="H1584" t="s">
         <v>9</v>
@@ -46136,7 +46139,7 @@
         <v>33.2000007629395</v>
       </c>
       <c r="G1585" t="s">
-        <v>1062</v>
+        <v>1063</v>
       </c>
       <c r="H1585" t="s">
         <v>9</v>
@@ -46162,7 +46165,7 @@
         <v>33.4000015258789</v>
       </c>
       <c r="G1586" t="s">
-        <v>1063</v>
+        <v>1064</v>
       </c>
       <c r="H1586" t="s">
         <v>9</v>
@@ -46188,7 +46191,7 @@
         <v>32.2000007629395</v>
       </c>
       <c r="G1587" t="s">
-        <v>1064</v>
+        <v>1065</v>
       </c>
       <c r="H1587" t="s">
         <v>9</v>
@@ -46214,7 +46217,7 @@
         <v>33.4500007629395</v>
       </c>
       <c r="G1588" t="s">
-        <v>1065</v>
+        <v>1066</v>
       </c>
       <c r="H1588" t="s">
         <v>9</v>
@@ -46240,7 +46243,7 @@
         <v>33.5499992370605</v>
       </c>
       <c r="G1589" t="s">
-        <v>1066</v>
+        <v>1067</v>
       </c>
       <c r="H1589" t="s">
         <v>9</v>
@@ -46266,7 +46269,7 @@
         <v>32.4000015258789</v>
       </c>
       <c r="G1590" t="s">
-        <v>1050</v>
+        <v>1051</v>
       </c>
       <c r="H1590" t="s">
         <v>9</v>
@@ -46292,7 +46295,7 @@
         <v>31.9599990844727</v>
       </c>
       <c r="G1591" t="s">
-        <v>1067</v>
+        <v>1068</v>
       </c>
       <c r="H1591" t="s">
         <v>9</v>
@@ -46318,7 +46321,7 @@
         <v>31.7600002288818</v>
       </c>
       <c r="G1592" t="s">
-        <v>1068</v>
+        <v>1069</v>
       </c>
       <c r="H1592" t="s">
         <v>9</v>
@@ -46344,7 +46347,7 @@
         <v>31.6399993896484</v>
       </c>
       <c r="G1593" t="s">
-        <v>1069</v>
+        <v>1070</v>
       </c>
       <c r="H1593" t="s">
         <v>9</v>
@@ -46370,7 +46373,7 @@
         <v>30.3600006103516</v>
       </c>
       <c r="G1594" t="s">
-        <v>1070</v>
+        <v>1071</v>
       </c>
       <c r="H1594" t="s">
         <v>9</v>
@@ -46396,7 +46399,7 @@
         <v>31.2000007629395</v>
       </c>
       <c r="G1595" t="s">
-        <v>1071</v>
+        <v>1072</v>
       </c>
       <c r="H1595" t="s">
         <v>9</v>
@@ -46422,7 +46425,7 @@
         <v>33</v>
       </c>
       <c r="G1596" t="s">
-        <v>1072</v>
+        <v>1073</v>
       </c>
       <c r="H1596" t="s">
         <v>9</v>
@@ -46448,7 +46451,7 @@
         <v>32.8400001525879</v>
       </c>
       <c r="G1597" t="s">
-        <v>1073</v>
+        <v>1074</v>
       </c>
       <c r="H1597" t="s">
         <v>9</v>
@@ -46474,7 +46477,7 @@
         <v>32.7000007629395</v>
       </c>
       <c r="G1598" t="s">
-        <v>1074</v>
+        <v>1075</v>
       </c>
       <c r="H1598" t="s">
         <v>9</v>
@@ -46500,7 +46503,7 @@
         <v>32.0800018310547</v>
       </c>
       <c r="G1599" t="s">
-        <v>1075</v>
+        <v>1076</v>
       </c>
       <c r="H1599" t="s">
         <v>9</v>
@@ -46526,7 +46529,7 @@
         <v>32.939998626709</v>
       </c>
       <c r="G1600" t="s">
-        <v>1076</v>
+        <v>1077</v>
       </c>
       <c r="H1600" t="s">
         <v>9</v>
@@ -46552,7 +46555,7 @@
         <v>32.1399993896484</v>
       </c>
       <c r="G1601" t="s">
-        <v>1077</v>
+        <v>1078</v>
       </c>
       <c r="H1601" t="s">
         <v>9</v>
@@ -46578,7 +46581,7 @@
         <v>32.4199981689453</v>
       </c>
       <c r="G1602" t="s">
-        <v>1078</v>
+        <v>1079</v>
       </c>
       <c r="H1602" t="s">
         <v>9</v>
@@ -46604,7 +46607,7 @@
         <v>31.7600002288818</v>
       </c>
       <c r="G1603" t="s">
-        <v>1068</v>
+        <v>1069</v>
       </c>
       <c r="H1603" t="s">
         <v>9</v>
@@ -46630,7 +46633,7 @@
         <v>30.6000003814697</v>
       </c>
       <c r="G1604" t="s">
-        <v>1079</v>
+        <v>1080</v>
       </c>
       <c r="H1604" t="s">
         <v>9</v>
@@ -46656,7 +46659,7 @@
         <v>30.6800003051758</v>
       </c>
       <c r="G1605" t="s">
-        <v>1080</v>
+        <v>1081</v>
       </c>
       <c r="H1605" t="s">
         <v>9</v>
@@ -46682,7 +46685,7 @@
         <v>29.0599994659424</v>
       </c>
       <c r="G1606" t="s">
-        <v>1081</v>
+        <v>1082</v>
       </c>
       <c r="H1606" t="s">
         <v>9</v>
@@ -46708,7 +46711,7 @@
         <v>29.1800003051758</v>
       </c>
       <c r="G1607" t="s">
-        <v>1082</v>
+        <v>1083</v>
       </c>
       <c r="H1607" t="s">
         <v>9</v>
@@ -46734,7 +46737,7 @@
         <v>29.8999996185303</v>
       </c>
       <c r="G1608" t="s">
-        <v>1083</v>
+        <v>1084</v>
       </c>
       <c r="H1608" t="s">
         <v>9</v>
@@ -46760,7 +46763,7 @@
         <v>29.1800003051758</v>
       </c>
       <c r="G1609" t="s">
-        <v>1082</v>
+        <v>1083</v>
       </c>
       <c r="H1609" t="s">
         <v>9</v>
@@ -46786,7 +46789,7 @@
         <v>29.5599994659424</v>
       </c>
       <c r="G1610" t="s">
-        <v>1084</v>
+        <v>1085</v>
       </c>
       <c r="H1610" t="s">
         <v>9</v>
@@ -46812,7 +46815,7 @@
         <v>29.6200008392334</v>
       </c>
       <c r="G1611" t="s">
-        <v>1085</v>
+        <v>1086</v>
       </c>
       <c r="H1611" t="s">
         <v>9</v>
@@ -46838,7 +46841,7 @@
         <v>29.7800006866455</v>
       </c>
       <c r="G1612" t="s">
-        <v>1086</v>
+        <v>1087</v>
       </c>
       <c r="H1612" t="s">
         <v>9</v>
@@ -46864,7 +46867,7 @@
         <v>28.9799995422363</v>
       </c>
       <c r="G1613" t="s">
-        <v>1087</v>
+        <v>1088</v>
       </c>
       <c r="H1613" t="s">
         <v>9</v>
@@ -46890,7 +46893,7 @@
         <v>29.1000003814697</v>
       </c>
       <c r="G1614" t="s">
-        <v>1088</v>
+        <v>1089</v>
       </c>
       <c r="H1614" t="s">
         <v>9</v>
@@ -46916,7 +46919,7 @@
         <v>27.6599998474121</v>
       </c>
       <c r="G1615" t="s">
-        <v>1089</v>
+        <v>1090</v>
       </c>
       <c r="H1615" t="s">
         <v>9</v>
@@ -46942,7 +46945,7 @@
         <v>29</v>
       </c>
       <c r="G1616" t="s">
-        <v>1090</v>
+        <v>1091</v>
       </c>
       <c r="H1616" t="s">
         <v>9</v>
@@ -46968,7 +46971,7 @@
         <v>29.2800006866455</v>
       </c>
       <c r="G1617" t="s">
-        <v>1091</v>
+        <v>1092</v>
       </c>
       <c r="H1617" t="s">
         <v>9</v>
@@ -46994,7 +46997,7 @@
         <v>28.8999996185303</v>
       </c>
       <c r="G1618" t="s">
-        <v>1092</v>
+        <v>1093</v>
       </c>
       <c r="H1618" t="s">
         <v>9</v>
@@ -47020,7 +47023,7 @@
         <v>29.2399997711182</v>
       </c>
       <c r="G1619" t="s">
-        <v>1093</v>
+        <v>1094</v>
       </c>
       <c r="H1619" t="s">
         <v>9</v>
@@ -47046,7 +47049,7 @@
         <v>28.4599990844727</v>
       </c>
       <c r="G1620" t="s">
-        <v>1094</v>
+        <v>1095</v>
       </c>
       <c r="H1620" t="s">
         <v>9</v>
@@ -47072,7 +47075,7 @@
         <v>27.1599998474121</v>
       </c>
       <c r="G1621" t="s">
-        <v>1095</v>
+        <v>1096</v>
       </c>
       <c r="H1621" t="s">
         <v>9</v>
@@ -47098,7 +47101,7 @@
         <v>26.8600006103516</v>
       </c>
       <c r="G1622" t="s">
-        <v>1096</v>
+        <v>1097</v>
       </c>
       <c r="H1622" t="s">
         <v>9</v>
@@ -47124,7 +47127,7 @@
         <v>26.9400005340576</v>
       </c>
       <c r="G1623" t="s">
-        <v>1097</v>
+        <v>1098</v>
       </c>
       <c r="H1623" t="s">
         <v>9</v>
@@ -47150,7 +47153,7 @@
         <v>27.1399993896484</v>
       </c>
       <c r="G1624" t="s">
-        <v>1098</v>
+        <v>1099</v>
       </c>
       <c r="H1624" t="s">
         <v>9</v>
@@ -47176,7 +47179,7 @@
         <v>27.7999992370605</v>
       </c>
       <c r="G1625" t="s">
-        <v>1099</v>
+        <v>1100</v>
       </c>
       <c r="H1625" t="s">
         <v>9</v>
@@ -47202,7 +47205,7 @@
         <v>26.7399997711182</v>
       </c>
       <c r="G1626" t="s">
-        <v>1100</v>
+        <v>1101</v>
       </c>
       <c r="H1626" t="s">
         <v>9</v>
@@ -47228,7 +47231,7 @@
         <v>27</v>
       </c>
       <c r="G1627" t="s">
-        <v>1101</v>
+        <v>1102</v>
       </c>
       <c r="H1627" t="s">
         <v>9</v>
@@ -47254,7 +47257,7 @@
         <v>27.5200004577637</v>
       </c>
       <c r="G1628" t="s">
-        <v>1102</v>
+        <v>1103</v>
       </c>
       <c r="H1628" t="s">
         <v>9</v>
@@ -47280,7 +47283,7 @@
         <v>28.3400001525879</v>
       </c>
       <c r="G1629" t="s">
-        <v>1103</v>
+        <v>1104</v>
       </c>
       <c r="H1629" t="s">
         <v>9</v>
@@ -47306,7 +47309,7 @@
         <v>28.6800003051758</v>
       </c>
       <c r="G1630" t="s">
-        <v>1104</v>
+        <v>1105</v>
       </c>
       <c r="H1630" t="s">
         <v>9</v>
@@ -47332,7 +47335,7 @@
         <v>28.6000003814697</v>
       </c>
       <c r="G1631" t="s">
-        <v>1105</v>
+        <v>1106</v>
       </c>
       <c r="H1631" t="s">
         <v>9</v>
@@ -47358,7 +47361,7 @@
         <v>28.0400009155273</v>
       </c>
       <c r="G1632" t="s">
-        <v>1106</v>
+        <v>1107</v>
       </c>
       <c r="H1632" t="s">
         <v>9</v>
@@ -47384,7 +47387,7 @@
         <v>28.2199993133545</v>
       </c>
       <c r="G1633" t="s">
-        <v>1107</v>
+        <v>1108</v>
       </c>
       <c r="H1633" t="s">
         <v>9</v>
@@ -47410,7 +47413,7 @@
         <v>28.7000007629395</v>
       </c>
       <c r="G1634" t="s">
-        <v>1108</v>
+        <v>1109</v>
       </c>
       <c r="H1634" t="s">
         <v>9</v>
@@ -47436,7 +47439,7 @@
         <v>29.2999992370605</v>
       </c>
       <c r="G1635" t="s">
-        <v>1109</v>
+        <v>1110</v>
       </c>
       <c r="H1635" t="s">
         <v>9</v>
@@ -47462,7 +47465,7 @@
         <v>29.3999996185303</v>
       </c>
       <c r="G1636" t="s">
-        <v>1110</v>
+        <v>1111</v>
       </c>
       <c r="H1636" t="s">
         <v>9</v>
@@ -47488,7 +47491,7 @@
         <v>29.8400001525879</v>
       </c>
       <c r="G1637" t="s">
-        <v>1111</v>
+        <v>1112</v>
       </c>
       <c r="H1637" t="s">
         <v>9</v>
@@ -47514,7 +47517,7 @@
         <v>29.4200000762939</v>
       </c>
       <c r="G1638" t="s">
-        <v>1112</v>
+        <v>1113</v>
       </c>
       <c r="H1638" t="s">
         <v>9</v>
@@ -47540,7 +47543,7 @@
         <v>27.2600002288818</v>
       </c>
       <c r="G1639" t="s">
-        <v>1113</v>
+        <v>1114</v>
       </c>
       <c r="H1639" t="s">
         <v>9</v>
@@ -47566,7 +47569,7 @@
         <v>25.2399997711182</v>
       </c>
       <c r="G1640" t="s">
-        <v>1114</v>
+        <v>1115</v>
       </c>
       <c r="H1640" t="s">
         <v>9</v>
@@ -47592,7 +47595,7 @@
         <v>25.2600002288818</v>
       </c>
       <c r="G1641" t="s">
-        <v>1115</v>
+        <v>1116</v>
       </c>
       <c r="H1641" t="s">
         <v>9</v>
@@ -47618,7 +47621,7 @@
         <v>25.8999996185303</v>
       </c>
       <c r="G1642" t="s">
-        <v>1116</v>
+        <v>1117</v>
       </c>
       <c r="H1642" t="s">
         <v>9</v>
@@ -47644,7 +47647,7 @@
         <v>24.7000007629395</v>
       </c>
       <c r="G1643" t="s">
-        <v>1117</v>
+        <v>1118</v>
       </c>
       <c r="H1643" t="s">
         <v>9</v>
@@ -47670,7 +47673,7 @@
         <v>25.6800003051758</v>
       </c>
       <c r="G1644" t="s">
-        <v>1118</v>
+        <v>1119</v>
       </c>
       <c r="H1644" t="s">
         <v>9</v>
@@ -47696,7 +47699,7 @@
         <v>25.8600006103516</v>
       </c>
       <c r="G1645" t="s">
-        <v>1119</v>
+        <v>1120</v>
       </c>
       <c r="H1645" t="s">
         <v>9</v>
@@ -47722,7 +47725,7 @@
         <v>25.7199993133545</v>
       </c>
       <c r="G1646" t="s">
-        <v>1120</v>
+        <v>1121</v>
       </c>
       <c r="H1646" t="s">
         <v>9</v>
@@ -47748,7 +47751,7 @@
         <v>25.0599994659424</v>
       </c>
       <c r="G1647" t="s">
-        <v>1121</v>
+        <v>1122</v>
       </c>
       <c r="H1647" t="s">
         <v>9</v>
@@ -47774,7 +47777,7 @@
         <v>25.0599994659424</v>
       </c>
       <c r="G1648" t="s">
-        <v>1121</v>
+        <v>1122</v>
       </c>
       <c r="H1648" t="s">
         <v>9</v>
@@ -47800,7 +47803,7 @@
         <v>25.5400009155273</v>
       </c>
       <c r="G1649" t="s">
-        <v>1122</v>
+        <v>1123</v>
       </c>
       <c r="H1649" t="s">
         <v>9</v>
@@ -47826,7 +47829,7 @@
         <v>25.6200008392334</v>
       </c>
       <c r="G1650" t="s">
-        <v>1123</v>
+        <v>1124</v>
       </c>
       <c r="H1650" t="s">
         <v>9</v>
@@ -47852,7 +47855,7 @@
         <v>25.2399997711182</v>
       </c>
       <c r="G1651" t="s">
-        <v>1114</v>
+        <v>1115</v>
       </c>
       <c r="H1651" t="s">
         <v>9</v>
@@ -47878,7 +47881,7 @@
         <v>24.7800006866455</v>
       </c>
       <c r="G1652" t="s">
-        <v>1124</v>
+        <v>1125</v>
       </c>
       <c r="H1652" t="s">
         <v>9</v>
@@ -47904,7 +47907,7 @@
         <v>24.1200008392334</v>
       </c>
       <c r="G1653" t="s">
-        <v>1125</v>
+        <v>1126</v>
       </c>
       <c r="H1653" t="s">
         <v>9</v>
@@ -47930,7 +47933,7 @@
         <v>24.4799995422363</v>
       </c>
       <c r="G1654" t="s">
-        <v>1126</v>
+        <v>1127</v>
       </c>
       <c r="H1654" t="s">
         <v>9</v>
@@ -47956,7 +47959,7 @@
         <v>24.0799999237061</v>
       </c>
       <c r="G1655" t="s">
-        <v>1127</v>
+        <v>1128</v>
       </c>
       <c r="H1655" t="s">
         <v>9</v>
@@ -47982,7 +47985,7 @@
         <v>23.2800006866455</v>
       </c>
       <c r="G1656" t="s">
-        <v>1128</v>
+        <v>1129</v>
       </c>
       <c r="H1656" t="s">
         <v>9</v>
@@ -48008,7 +48011,7 @@
         <v>23.7800006866455</v>
       </c>
       <c r="G1657" t="s">
-        <v>1129</v>
+        <v>1130</v>
       </c>
       <c r="H1657" t="s">
         <v>9</v>
@@ -48034,7 +48037,7 @@
         <v>24.4400005340576</v>
       </c>
       <c r="G1658" t="s">
-        <v>1130</v>
+        <v>1131</v>
       </c>
       <c r="H1658" t="s">
         <v>9</v>
@@ -48060,7 +48063,7 @@
         <v>23.8400001525879</v>
       </c>
       <c r="G1659" t="s">
-        <v>1131</v>
+        <v>1132</v>
       </c>
       <c r="H1659" t="s">
         <v>9</v>
@@ -48086,7 +48089,7 @@
         <v>23.4200000762939</v>
       </c>
       <c r="G1660" t="s">
-        <v>1132</v>
+        <v>1133</v>
       </c>
       <c r="H1660" t="s">
         <v>9</v>
@@ -48112,7 +48115,7 @@
         <v>23.1399993896484</v>
       </c>
       <c r="G1661" t="s">
-        <v>1133</v>
+        <v>1134</v>
       </c>
       <c r="H1661" t="s">
         <v>9</v>
@@ -48138,7 +48141,7 @@
         <v>22.6399993896484</v>
       </c>
       <c r="G1662" t="s">
-        <v>1134</v>
+        <v>1135</v>
       </c>
       <c r="H1662" t="s">
         <v>9</v>
@@ -48164,7 +48167,7 @@
         <v>21.7800006866455</v>
       </c>
       <c r="G1663" t="s">
-        <v>1135</v>
+        <v>1136</v>
       </c>
       <c r="H1663" t="s">
         <v>9</v>
@@ -48190,7 +48193,7 @@
         <v>23.0400009155273</v>
       </c>
       <c r="G1664" t="s">
-        <v>1136</v>
+        <v>1137</v>
       </c>
       <c r="H1664" t="s">
         <v>9</v>
@@ -48216,7 +48219,7 @@
         <v>23.1800003051758</v>
       </c>
       <c r="G1665" t="s">
-        <v>1137</v>
+        <v>1138</v>
       </c>
       <c r="H1665" t="s">
         <v>9</v>
@@ -48242,7 +48245,7 @@
         <v>24.6599998474121</v>
       </c>
       <c r="G1666" t="s">
-        <v>1138</v>
+        <v>1139</v>
       </c>
       <c r="H1666" t="s">
         <v>9</v>
@@ -48268,7 +48271,7 @@
         <v>23.9400005340576</v>
       </c>
       <c r="G1667" t="s">
-        <v>1139</v>
+        <v>1140</v>
       </c>
       <c r="H1667" t="s">
         <v>9</v>
@@ -48294,7 +48297,7 @@
         <v>24.7000007629395</v>
       </c>
       <c r="G1668" t="s">
-        <v>1117</v>
+        <v>1118</v>
       </c>
       <c r="H1668" t="s">
         <v>9</v>
@@ -48320,7 +48323,7 @@
         <v>24.6599998474121</v>
       </c>
       <c r="G1669" t="s">
-        <v>1138</v>
+        <v>1139</v>
       </c>
       <c r="H1669" t="s">
         <v>9</v>
@@ -48346,7 +48349,7 @@
         <v>24.9799995422363</v>
       </c>
       <c r="G1670" t="s">
-        <v>1140</v>
+        <v>1141</v>
       </c>
       <c r="H1670" t="s">
         <v>9</v>
@@ -48372,7 +48375,7 @@
         <v>24.8400001525879</v>
       </c>
       <c r="G1671" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
       <c r="H1671" t="s">
         <v>9</v>
@@ -48398,7 +48401,7 @@
         <v>24.4799995422363</v>
       </c>
       <c r="G1672" t="s">
-        <v>1126</v>
+        <v>1127</v>
       </c>
       <c r="H1672" t="s">
         <v>9</v>
@@ -48424,7 +48427,7 @@
         <v>25.4400005340576</v>
       </c>
       <c r="G1673" t="s">
-        <v>1142</v>
+        <v>1143</v>
       </c>
       <c r="H1673" t="s">
         <v>9</v>
@@ -48450,7 +48453,7 @@
         <v>26.1800003051758</v>
       </c>
       <c r="G1674" t="s">
-        <v>1143</v>
+        <v>1144</v>
       </c>
       <c r="H1674" t="s">
         <v>9</v>
@@ -48476,7 +48479,7 @@
         <v>26.0799999237061</v>
       </c>
       <c r="G1675" t="s">
-        <v>1144</v>
+        <v>1145</v>
       </c>
       <c r="H1675" t="s">
         <v>9</v>
@@ -48502,7 +48505,7 @@
         <v>25.4400005340576</v>
       </c>
       <c r="G1676" t="s">
-        <v>1142</v>
+        <v>1143</v>
       </c>
       <c r="H1676" t="s">
         <v>9</v>
@@ -48528,7 +48531,7 @@
         <v>26.3400001525879</v>
       </c>
       <c r="G1677" t="s">
-        <v>1145</v>
+        <v>1146</v>
       </c>
       <c r="H1677" t="s">
         <v>9</v>
@@ -48554,7 +48557,7 @@
         <v>26.4200000762939</v>
       </c>
       <c r="G1678" t="s">
-        <v>1146</v>
+        <v>1147</v>
       </c>
       <c r="H1678" t="s">
         <v>9</v>
@@ -48580,7 +48583,7 @@
         <v>25.6399993896484</v>
       </c>
       <c r="G1679" t="s">
-        <v>1147</v>
+        <v>1148</v>
       </c>
       <c r="H1679" t="s">
         <v>9</v>
@@ -48606,7 +48609,7 @@
         <v>25.3799991607666</v>
       </c>
       <c r="G1680" t="s">
-        <v>1148</v>
+        <v>1149</v>
       </c>
       <c r="H1680" t="s">
         <v>9</v>
@@ -48632,7 +48635,7 @@
         <v>24.8400001525879</v>
       </c>
       <c r="G1681" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
       <c r="H1681" t="s">
         <v>9</v>
@@ -48658,7 +48661,7 @@
         <v>25.8199996948242</v>
       </c>
       <c r="G1682" t="s">
-        <v>1149</v>
+        <v>1150</v>
       </c>
       <c r="H1682" t="s">
         <v>9</v>
@@ -48684,7 +48687,7 @@
         <v>26.2999992370605</v>
       </c>
       <c r="G1683" t="s">
-        <v>1150</v>
+        <v>1151</v>
       </c>
       <c r="H1683" t="s">
         <v>9</v>
@@ -48710,7 +48713,7 @@
         <v>26.3999996185303</v>
       </c>
       <c r="G1684" t="s">
-        <v>1151</v>
+        <v>1152</v>
       </c>
       <c r="H1684" t="s">
         <v>9</v>
@@ -48736,7 +48739,7 @@
         <v>26.1399993896484</v>
       </c>
       <c r="G1685" t="s">
-        <v>1152</v>
+        <v>1153</v>
       </c>
       <c r="H1685" t="s">
         <v>9</v>
@@ -48762,7 +48765,7 @@
         <v>25.7399997711182</v>
       </c>
       <c r="G1686" t="s">
-        <v>1153</v>
+        <v>1154</v>
       </c>
       <c r="H1686" t="s">
         <v>9</v>
@@ -48788,7 +48791,7 @@
         <v>25.6399993896484</v>
       </c>
       <c r="G1687" t="s">
-        <v>1147</v>
+        <v>1148</v>
       </c>
       <c r="H1687" t="s">
         <v>9</v>
@@ -48814,7 +48817,7 @@
         <v>24.7600002288818</v>
       </c>
       <c r="G1688" t="s">
-        <v>1154</v>
+        <v>1155</v>
       </c>
       <c r="H1688" t="s">
         <v>9</v>
@@ -48840,7 +48843,7 @@
         <v>24.2600002288818</v>
       </c>
       <c r="G1689" t="s">
-        <v>1155</v>
+        <v>1156</v>
       </c>
       <c r="H1689" t="s">
         <v>9</v>
@@ -48866,7 +48869,7 @@
         <v>24.2600002288818</v>
       </c>
       <c r="G1690" t="s">
-        <v>1155</v>
+        <v>1156</v>
       </c>
       <c r="H1690" t="s">
         <v>9</v>
@@ -48892,7 +48895,7 @@
         <v>24.4599990844727</v>
       </c>
       <c r="G1691" t="s">
-        <v>1156</v>
+        <v>1157</v>
       </c>
       <c r="H1691" t="s">
         <v>9</v>
@@ -48918,7 +48921,7 @@
         <v>24.3600006103516</v>
       </c>
       <c r="G1692" t="s">
-        <v>1157</v>
+        <v>1158</v>
       </c>
       <c r="H1692" t="s">
         <v>9</v>
@@ -48944,7 +48947,7 @@
         <v>23.9200000762939</v>
       </c>
       <c r="G1693" t="s">
-        <v>1158</v>
+        <v>1159</v>
       </c>
       <c r="H1693" t="s">
         <v>9</v>
@@ -48970,7 +48973,7 @@
         <v>24.5599994659424</v>
       </c>
       <c r="G1694" t="s">
-        <v>1159</v>
+        <v>1160</v>
       </c>
       <c r="H1694" t="s">
         <v>9</v>
@@ -48996,7 +48999,7 @@
         <v>24.5</v>
       </c>
       <c r="G1695" t="s">
-        <v>1160</v>
+        <v>1161</v>
       </c>
       <c r="H1695" t="s">
         <v>9</v>
@@ -49022,7 +49025,7 @@
         <v>24.6000003814697</v>
       </c>
       <c r="G1696" t="s">
-        <v>1161</v>
+        <v>1162</v>
       </c>
       <c r="H1696" t="s">
         <v>9</v>
@@ -49048,7 +49051,7 @@
         <v>23.8600006103516</v>
       </c>
       <c r="G1697" t="s">
-        <v>1162</v>
+        <v>1163</v>
       </c>
       <c r="H1697" t="s">
         <v>9</v>
@@ -49074,7 +49077,7 @@
         <v>24.7399997711182</v>
       </c>
       <c r="G1698" t="s">
-        <v>1163</v>
+        <v>1164</v>
       </c>
       <c r="H1698" t="s">
         <v>9</v>
@@ -49100,7 +49103,7 @@
         <v>24.1000003814697</v>
       </c>
       <c r="G1699" t="s">
-        <v>1164</v>
+        <v>1165</v>
       </c>
       <c r="H1699" t="s">
         <v>9</v>
@@ -49126,7 +49129,7 @@
         <v>24.3600006103516</v>
       </c>
       <c r="G1700" t="s">
-        <v>1157</v>
+        <v>1158</v>
       </c>
       <c r="H1700" t="s">
         <v>9</v>
@@ -49152,7 +49155,7 @@
         <v>24.1800003051758</v>
       </c>
       <c r="G1701" t="s">
-        <v>1165</v>
+        <v>1166</v>
       </c>
       <c r="H1701" t="s">
         <v>9</v>
@@ -49178,7 +49181,7 @@
         <v>24.0200004577637</v>
       </c>
       <c r="G1702" t="s">
-        <v>1166</v>
+        <v>1167</v>
       </c>
       <c r="H1702" t="s">
         <v>9</v>
@@ -49204,7 +49207,7 @@
         <v>24.7399997711182</v>
       </c>
       <c r="G1703" t="s">
-        <v>1163</v>
+        <v>1164</v>
       </c>
       <c r="H1703" t="s">
         <v>9</v>
@@ -49230,7 +49233,7 @@
         <v>25.1200008392334</v>
       </c>
       <c r="G1704" t="s">
-        <v>1167</v>
+        <v>1168</v>
       </c>
       <c r="H1704" t="s">
         <v>9</v>
@@ -49256,7 +49259,7 @@
         <v>25.2000007629395</v>
       </c>
       <c r="G1705" t="s">
-        <v>1168</v>
+        <v>1169</v>
       </c>
       <c r="H1705" t="s">
         <v>9</v>
@@ -49282,7 +49285,7 @@
         <v>24.5400009155273</v>
       </c>
       <c r="G1706" t="s">
-        <v>1169</v>
+        <v>1170</v>
       </c>
       <c r="H1706" t="s">
         <v>9</v>
@@ -49308,7 +49311,7 @@
         <v>24</v>
       </c>
       <c r="G1707" t="s">
-        <v>1170</v>
+        <v>1171</v>
       </c>
       <c r="H1707" t="s">
         <v>9</v>
@@ -49334,7 +49337,7 @@
         <v>23.8600006103516</v>
       </c>
       <c r="G1708" t="s">
-        <v>1162</v>
+        <v>1163</v>
       </c>
       <c r="H1708" t="s">
         <v>9</v>
@@ -49360,7 +49363,7 @@
         <v>23.0599994659424</v>
       </c>
       <c r="G1709" t="s">
-        <v>1171</v>
+        <v>1172</v>
       </c>
       <c r="H1709" t="s">
         <v>9</v>
@@ -49386,7 +49389,7 @@
         <v>22.7800006866455</v>
       </c>
       <c r="G1710" t="s">
-        <v>1172</v>
+        <v>1173</v>
       </c>
       <c r="H1710" t="s">
         <v>9</v>
@@ -49412,7 +49415,7 @@
         <v>22.9400005340576</v>
       </c>
       <c r="G1711" t="s">
-        <v>1173</v>
+        <v>1174</v>
       </c>
       <c r="H1711" t="s">
         <v>9</v>
@@ -49438,7 +49441,7 @@
         <v>22.2600002288818</v>
       </c>
       <c r="G1712" t="s">
-        <v>1174</v>
+        <v>1175</v>
       </c>
       <c r="H1712" t="s">
         <v>9</v>
@@ -49464,7 +49467,7 @@
         <v>21.2800006866455</v>
       </c>
       <c r="G1713" t="s">
-        <v>1175</v>
+        <v>1176</v>
       </c>
       <c r="H1713" t="s">
         <v>9</v>
@@ -49490,7 +49493,7 @@
         <v>20.3199996948242</v>
       </c>
       <c r="G1714" t="s">
-        <v>1176</v>
+        <v>1177</v>
       </c>
       <c r="H1714" t="s">
         <v>9</v>
@@ -49516,7 +49519,7 @@
         <v>20.0599994659424</v>
       </c>
       <c r="G1715" t="s">
-        <v>1177</v>
+        <v>1178</v>
       </c>
       <c r="H1715" t="s">
         <v>9</v>
@@ -49542,7 +49545,7 @@
         <v>20.2600002288818</v>
       </c>
       <c r="G1716" t="s">
-        <v>1178</v>
+        <v>1179</v>
       </c>
       <c r="H1716" t="s">
         <v>9</v>
@@ -49568,7 +49571,7 @@
         <v>19.4599990844727</v>
       </c>
       <c r="G1717" t="s">
-        <v>1179</v>
+        <v>1180</v>
       </c>
       <c r="H1717" t="s">
         <v>9</v>
@@ -49594,7 +49597,7 @@
         <v>20.0799999237061</v>
       </c>
       <c r="G1718" t="s">
-        <v>1180</v>
+        <v>1181</v>
       </c>
       <c r="H1718" t="s">
         <v>9</v>
@@ -49620,7 +49623,7 @@
         <v>20.4400005340576</v>
       </c>
       <c r="G1719" t="s">
-        <v>1181</v>
+        <v>1182</v>
       </c>
       <c r="H1719" t="s">
         <v>9</v>
@@ -49646,7 +49649,7 @@
         <v>21.6599998474121</v>
       </c>
       <c r="G1720" t="s">
-        <v>1182</v>
+        <v>1183</v>
       </c>
       <c r="H1720" t="s">
         <v>9</v>
@@ -49672,7 +49675,7 @@
         <v>21.2000007629395</v>
       </c>
       <c r="G1721" t="s">
-        <v>1183</v>
+        <v>1184</v>
       </c>
       <c r="H1721" t="s">
         <v>9</v>
@@ -49698,7 +49701,7 @@
         <v>21.4599990844727</v>
       </c>
       <c r="G1722" t="s">
-        <v>1184</v>
+        <v>1185</v>
       </c>
       <c r="H1722" t="s">
         <v>9</v>
@@ -49724,7 +49727,7 @@
         <v>21.5</v>
       </c>
       <c r="G1723" t="s">
-        <v>1185</v>
+        <v>1186</v>
       </c>
       <c r="H1723" t="s">
         <v>9</v>
@@ -49750,7 +49753,7 @@
         <v>21.7999992370605</v>
       </c>
       <c r="G1724" t="s">
-        <v>1186</v>
+        <v>1187</v>
       </c>
       <c r="H1724" t="s">
         <v>9</v>
@@ -49776,7 +49779,7 @@
         <v>21.7800006866455</v>
       </c>
       <c r="G1725" t="s">
-        <v>1135</v>
+        <v>1136</v>
       </c>
       <c r="H1725" t="s">
         <v>9</v>
@@ -49802,7 +49805,7 @@
         <v>21.0599994659424</v>
       </c>
       <c r="G1726" t="s">
-        <v>1187</v>
+        <v>1188</v>
       </c>
       <c r="H1726" t="s">
         <v>9</v>
@@ -49828,7 +49831,7 @@
         <v>21.6000003814697</v>
       </c>
       <c r="G1727" t="s">
-        <v>1188</v>
+        <v>1189</v>
       </c>
       <c r="H1727" t="s">
         <v>9</v>
@@ -49854,7 +49857,7 @@
         <v>21.8199996948242</v>
       </c>
       <c r="G1728" t="s">
-        <v>1189</v>
+        <v>1190</v>
       </c>
       <c r="H1728" t="s">
         <v>9</v>
@@ -49880,7 +49883,7 @@
         <v>22.2199993133545</v>
       </c>
       <c r="G1729" t="s">
-        <v>1190</v>
+        <v>1191</v>
       </c>
       <c r="H1729" t="s">
         <v>9</v>
@@ -49906,7 +49909,7 @@
         <v>22.4200000762939</v>
       </c>
       <c r="G1730" t="s">
-        <v>1191</v>
+        <v>1192</v>
       </c>
       <c r="H1730" t="s">
         <v>9</v>
@@ -49932,7 +49935,7 @@
         <v>21.8799991607666</v>
       </c>
       <c r="G1731" t="s">
-        <v>1192</v>
+        <v>1193</v>
       </c>
       <c r="H1731" t="s">
         <v>9</v>
@@ -49958,7 +49961,7 @@
         <v>22.2600002288818</v>
       </c>
       <c r="G1732" t="s">
-        <v>1174</v>
+        <v>1175</v>
       </c>
       <c r="H1732" t="s">
         <v>9</v>
@@ -49984,7 +49987,7 @@
         <v>21.7800006866455</v>
       </c>
       <c r="G1733" t="s">
-        <v>1135</v>
+        <v>1136</v>
       </c>
       <c r="H1733" t="s">
         <v>9</v>
@@ -50010,7 +50013,7 @@
         <v>21.7199993133545</v>
       </c>
       <c r="G1734" t="s">
-        <v>1193</v>
+        <v>1194</v>
       </c>
       <c r="H1734" t="s">
         <v>9</v>
@@ -50036,7 +50039,7 @@
         <v>22.6399993896484</v>
       </c>
       <c r="G1735" t="s">
-        <v>1134</v>
+        <v>1135</v>
       </c>
       <c r="H1735" t="s">
         <v>9</v>
@@ -50062,7 +50065,7 @@
         <v>22.8999996185303</v>
       </c>
       <c r="G1736" t="s">
-        <v>1194</v>
+        <v>1195</v>
       </c>
       <c r="H1736" t="s">
         <v>9</v>
@@ -50088,7 +50091,7 @@
         <v>22.5400009155273</v>
       </c>
       <c r="G1737" t="s">
-        <v>1195</v>
+        <v>1196</v>
       </c>
       <c r="H1737" t="s">
         <v>9</v>
@@ -50114,7 +50117,7 @@
         <v>22.9400005340576</v>
       </c>
       <c r="G1738" t="s">
-        <v>1173</v>
+        <v>1174</v>
       </c>
       <c r="H1738" t="s">
         <v>9</v>
@@ -50140,7 +50143,7 @@
         <v>22.3999996185303</v>
       </c>
       <c r="G1739" t="s">
-        <v>1196</v>
+        <v>1197</v>
       </c>
       <c r="H1739" t="s">
         <v>9</v>
@@ -50166,7 +50169,7 @@
         <v>22.6599998474121</v>
       </c>
       <c r="G1740" t="s">
-        <v>1197</v>
+        <v>1198</v>
       </c>
       <c r="H1740" t="s">
         <v>9</v>
@@ -50192,7 +50195,7 @@
         <v>22</v>
       </c>
       <c r="G1741" t="s">
-        <v>1198</v>
+        <v>1199</v>
       </c>
       <c r="H1741" t="s">
         <v>9</v>
@@ -50218,7 +50221,7 @@
         <v>22.2800006866455</v>
       </c>
       <c r="G1742" t="s">
-        <v>1199</v>
+        <v>1200</v>
       </c>
       <c r="H1742" t="s">
         <v>9</v>
@@ -50244,7 +50247,7 @@
         <v>23.2999992370605</v>
       </c>
       <c r="G1743" t="s">
-        <v>1200</v>
+        <v>1201</v>
       </c>
       <c r="H1743" t="s">
         <v>9</v>
@@ -50270,7 +50273,7 @@
         <v>23.7000007629395</v>
       </c>
       <c r="G1744" t="s">
-        <v>1201</v>
+        <v>1202</v>
       </c>
       <c r="H1744" t="s">
         <v>9</v>
@@ -50296,7 +50299,7 @@
         <v>23.8999996185303</v>
       </c>
       <c r="G1745" t="s">
-        <v>1202</v>
+        <v>1203</v>
       </c>
       <c r="H1745" t="s">
         <v>9</v>
@@ -50322,7 +50325,7 @@
         <v>24.3799991607666</v>
       </c>
       <c r="G1746" t="s">
-        <v>1203</v>
+        <v>1204</v>
       </c>
       <c r="H1746" t="s">
         <v>9</v>
@@ -50348,7 +50351,7 @@
         <v>26</v>
       </c>
       <c r="G1747" t="s">
-        <v>1204</v>
+        <v>1205</v>
       </c>
       <c r="H1747" t="s">
         <v>9</v>
@@ -50374,7 +50377,7 @@
         <v>27.2999992370605</v>
       </c>
       <c r="G1748" t="s">
-        <v>1205</v>
+        <v>1206</v>
       </c>
       <c r="H1748" t="s">
         <v>9</v>
@@ -50400,7 +50403,7 @@
         <v>26.8999996185303</v>
       </c>
       <c r="G1749" t="s">
-        <v>1206</v>
+        <v>1207</v>
       </c>
       <c r="H1749" t="s">
         <v>9</v>
@@ -50426,7 +50429,7 @@
         <v>26.8199996948242</v>
       </c>
       <c r="G1750" t="s">
-        <v>1207</v>
+        <v>1208</v>
       </c>
       <c r="H1750" t="s">
         <v>9</v>
@@ -50452,7 +50455,7 @@
         <v>25.2399997711182</v>
       </c>
       <c r="G1751" t="s">
-        <v>1114</v>
+        <v>1115</v>
       </c>
       <c r="H1751" t="s">
         <v>9</v>
@@ -50478,7 +50481,7 @@
         <v>24.2600002288818</v>
       </c>
       <c r="G1752" t="s">
-        <v>1155</v>
+        <v>1156</v>
       </c>
       <c r="H1752" t="s">
         <v>9</v>
@@ -50504,7 +50507,7 @@
         <v>24.7399997711182</v>
       </c>
       <c r="G1753" t="s">
-        <v>1163</v>
+        <v>1164</v>
       </c>
       <c r="H1753" t="s">
         <v>9</v>
@@ -50530,7 +50533,7 @@
         <v>24.2199993133545</v>
       </c>
       <c r="G1754" t="s">
-        <v>1208</v>
+        <v>1209</v>
       </c>
       <c r="H1754" t="s">
         <v>9</v>
@@ -50556,7 +50559,7 @@
         <v>24.1200008392334</v>
       </c>
       <c r="G1755" t="s">
-        <v>1125</v>
+        <v>1126</v>
       </c>
       <c r="H1755" t="s">
         <v>9</v>
@@ -50582,7 +50585,7 @@
         <v>25.2999992370605</v>
       </c>
       <c r="G1756" t="s">
-        <v>1209</v>
+        <v>1210</v>
       </c>
       <c r="H1756" t="s">
         <v>9</v>
@@ -50608,7 +50611,7 @@
         <v>25.5</v>
       </c>
       <c r="G1757" t="s">
-        <v>1210</v>
+        <v>1211</v>
       </c>
       <c r="H1757" t="s">
         <v>9</v>
@@ -50634,7 +50637,7 @@
         <v>25.6800003051758</v>
       </c>
       <c r="G1758" t="s">
-        <v>1118</v>
+        <v>1119</v>
       </c>
       <c r="H1758" t="s">
         <v>9</v>
@@ -50660,7 +50663,7 @@
         <v>26.1399993896484</v>
       </c>
       <c r="G1759" t="s">
-        <v>1152</v>
+        <v>1153</v>
       </c>
       <c r="H1759" t="s">
         <v>9</v>
@@ -50686,7 +50689,7 @@
         <v>26.4599990844727</v>
       </c>
       <c r="G1760" t="s">
-        <v>1211</v>
+        <v>1212</v>
       </c>
       <c r="H1760" t="s">
         <v>9</v>
@@ -50712,7 +50715,7 @@
         <v>26.8600006103516</v>
       </c>
       <c r="G1761" t="s">
-        <v>1096</v>
+        <v>1097</v>
       </c>
       <c r="H1761" t="s">
         <v>9</v>
@@ -50738,7 +50741,7 @@
         <v>26.6800003051758</v>
       </c>
       <c r="G1762" t="s">
-        <v>1212</v>
+        <v>1213</v>
       </c>
       <c r="H1762" t="s">
         <v>9</v>
@@ -50764,7 +50767,7 @@
         <v>26.9599990844727</v>
       </c>
       <c r="G1763" t="s">
-        <v>1213</v>
+        <v>1214</v>
       </c>
       <c r="H1763" t="s">
         <v>9</v>
@@ -50790,7 +50793,7 @@
         <v>26.9799995422363</v>
       </c>
       <c r="G1764" t="s">
-        <v>1214</v>
+        <v>1215</v>
       </c>
       <c r="H1764" t="s">
         <v>9</v>
@@ -50816,7 +50819,7 @@
         <v>26</v>
       </c>
       <c r="G1765" t="s">
-        <v>1204</v>
+        <v>1205</v>
       </c>
       <c r="H1765" t="s">
         <v>9</v>
@@ -50842,7 +50845,7 @@
         <v>25</v>
       </c>
       <c r="G1766" t="s">
-        <v>1215</v>
+        <v>1216</v>
       </c>
       <c r="H1766" t="s">
         <v>9</v>
@@ -50868,7 +50871,7 @@
         <v>25.0599994659424</v>
       </c>
       <c r="G1767" t="s">
-        <v>1121</v>
+        <v>1122</v>
       </c>
       <c r="H1767" t="s">
         <v>9</v>
@@ -50894,7 +50897,7 @@
         <v>24.9599990844727</v>
       </c>
       <c r="G1768" t="s">
-        <v>1216</v>
+        <v>1217</v>
       </c>
       <c r="H1768" t="s">
         <v>9</v>
@@ -50920,7 +50923,7 @@
         <v>24.7600002288818</v>
       </c>
       <c r="G1769" t="s">
-        <v>1154</v>
+        <v>1155</v>
       </c>
       <c r="H1769" t="s">
         <v>9</v>
@@ -50946,7 +50949,7 @@
         <v>25.2199993133545</v>
       </c>
       <c r="G1770" t="s">
-        <v>1217</v>
+        <v>1218</v>
       </c>
       <c r="H1770" t="s">
         <v>9</v>
@@ -50972,7 +50975,7 @@
         <v>25.2399997711182</v>
       </c>
       <c r="G1771" t="s">
-        <v>1114</v>
+        <v>1115</v>
       </c>
       <c r="H1771" t="s">
         <v>9</v>
@@ -50998,7 +51001,7 @@
         <v>24.0599994659424</v>
       </c>
       <c r="G1772" t="s">
-        <v>1218</v>
+        <v>1219</v>
       </c>
       <c r="H1772" t="s">
         <v>9</v>
@@ -51024,7 +51027,7 @@
         <v>23.8999996185303</v>
       </c>
       <c r="G1773" t="s">
-        <v>1202</v>
+        <v>1203</v>
       </c>
       <c r="H1773" t="s">
         <v>9</v>
@@ -51050,7 +51053,7 @@
         <v>23.7000007629395</v>
       </c>
       <c r="G1774" t="s">
-        <v>1201</v>
+        <v>1202</v>
       </c>
       <c r="H1774" t="s">
         <v>9</v>
@@ -51076,7 +51079,7 @@
         <v>23.2000007629395</v>
       </c>
       <c r="G1775" t="s">
-        <v>1219</v>
+        <v>1220</v>
       </c>
       <c r="H1775" t="s">
         <v>9</v>
@@ -51102,7 +51105,7 @@
         <v>23.9400005340576</v>
       </c>
       <c r="G1776" t="s">
-        <v>1139</v>
+        <v>1140</v>
       </c>
       <c r="H1776" t="s">
         <v>9</v>
@@ -51128,7 +51131,7 @@
         <v>24.7399997711182</v>
       </c>
       <c r="G1777" t="s">
-        <v>1163</v>
+        <v>1164</v>
       </c>
       <c r="H1777" t="s">
         <v>9</v>
@@ -51154,7 +51157,7 @@
         <v>25.0400009155273</v>
       </c>
       <c r="G1778" t="s">
-        <v>1220</v>
+        <v>1221</v>
       </c>
       <c r="H1778" t="s">
         <v>9</v>
@@ -51180,7 +51183,7 @@
         <v>25.5200004577637</v>
       </c>
       <c r="G1779" t="s">
-        <v>1221</v>
+        <v>1222</v>
       </c>
       <c r="H1779" t="s">
         <v>9</v>
@@ -51206,7 +51209,7 @@
         <v>25.8999996185303</v>
       </c>
       <c r="G1780" t="s">
-        <v>1116</v>
+        <v>1117</v>
       </c>
       <c r="H1780" t="s">
         <v>9</v>
@@ -51232,7 +51235,7 @@
         <v>26.3799991607666</v>
       </c>
       <c r="G1781" t="s">
-        <v>1222</v>
+        <v>1223</v>
       </c>
       <c r="H1781" t="s">
         <v>9</v>
@@ -51258,7 +51261,7 @@
         <v>26.3199996948242</v>
       </c>
       <c r="G1782" t="s">
-        <v>1223</v>
+        <v>1224</v>
       </c>
       <c r="H1782" t="s">
         <v>9</v>
@@ -51284,7 +51287,7 @@
         <v>26.0400009155273</v>
       </c>
       <c r="G1783" t="s">
-        <v>1224</v>
+        <v>1225</v>
       </c>
       <c r="H1783" t="s">
         <v>9</v>
@@ -51310,7 +51313,7 @@
         <v>26.5200004577637</v>
       </c>
       <c r="G1784" t="s">
-        <v>1225</v>
+        <v>1226</v>
       </c>
       <c r="H1784" t="s">
         <v>9</v>
@@ -51336,7 +51339,7 @@
         <v>27.3400001525879</v>
       </c>
       <c r="G1785" t="s">
-        <v>1226</v>
+        <v>1227</v>
       </c>
       <c r="H1785" t="s">
         <v>9</v>
@@ -51362,7 +51365,7 @@
         <v>26.9599990844727</v>
       </c>
       <c r="G1786" t="s">
-        <v>1213</v>
+        <v>1214</v>
       </c>
       <c r="H1786" t="s">
         <v>9</v>
@@ -51388,7 +51391,7 @@
         <v>27.0599994659424</v>
       </c>
       <c r="G1787" t="s">
-        <v>1227</v>
+        <v>1228</v>
       </c>
       <c r="H1787" t="s">
         <v>9</v>
@@ -51414,7 +51417,7 @@
         <v>28.2999992370605</v>
       </c>
       <c r="G1788" t="s">
-        <v>1228</v>
+        <v>1229</v>
       </c>
       <c r="H1788" t="s">
         <v>9</v>
@@ -51440,7 +51443,7 @@
         <v>27.8600006103516</v>
       </c>
       <c r="G1789" t="s">
-        <v>1229</v>
+        <v>1230</v>
       </c>
       <c r="H1789" t="s">
         <v>9</v>
@@ -51466,7 +51469,7 @@
         <v>27.7600002288818</v>
       </c>
       <c r="G1790" t="s">
-        <v>1230</v>
+        <v>1231</v>
       </c>
       <c r="H1790" t="s">
         <v>9</v>
@@ -51492,7 +51495,7 @@
         <v>28.9799995422363</v>
       </c>
       <c r="G1791" t="s">
-        <v>1231</v>
+        <v>1232</v>
       </c>
       <c r="H1791" t="s">
         <v>9</v>
@@ -51518,7 +51521,7 @@
         <v>28.7000007629395</v>
       </c>
       <c r="G1792" t="s">
-        <v>1108</v>
+        <v>1109</v>
       </c>
       <c r="H1792" t="s">
         <v>9</v>
@@ -51544,7 +51547,7 @@
         <v>29.0599994659424</v>
       </c>
       <c r="G1793" t="s">
-        <v>1232</v>
+        <v>1233</v>
       </c>
       <c r="H1793" t="s">
         <v>9</v>
@@ -51570,7 +51573,7 @@
         <v>28.5</v>
       </c>
       <c r="G1794" t="s">
-        <v>1233</v>
+        <v>1234</v>
       </c>
       <c r="H1794" t="s">
         <v>9</v>
@@ -51596,7 +51599,7 @@
         <v>28.8600006103516</v>
       </c>
       <c r="G1795" t="s">
-        <v>1234</v>
+        <v>1235</v>
       </c>
       <c r="H1795" t="s">
         <v>9</v>
@@ -51622,7 +51625,7 @@
         <v>28.5599994659424</v>
       </c>
       <c r="G1796" t="s">
-        <v>1235</v>
+        <v>1236</v>
       </c>
       <c r="H1796" t="s">
         <v>9</v>
@@ -51648,7 +51651,7 @@
         <v>29.1000003814697</v>
       </c>
       <c r="G1797" t="s">
-        <v>1236</v>
+        <v>1237</v>
       </c>
       <c r="H1797" t="s">
         <v>9</v>
@@ -51674,7 +51677,7 @@
         <v>29.1599998474121</v>
       </c>
       <c r="G1798" t="s">
-        <v>1237</v>
+        <v>1238</v>
       </c>
       <c r="H1798" t="s">
         <v>9</v>
@@ -51700,7 +51703,7 @@
         <v>29</v>
       </c>
       <c r="G1799" t="s">
-        <v>1238</v>
+        <v>1239</v>
       </c>
       <c r="H1799" t="s">
         <v>9</v>
@@ -51726,7 +51729,7 @@
         <v>28.9400005340576</v>
       </c>
       <c r="G1800" t="s">
-        <v>1239</v>
+        <v>1094</v>
       </c>
       <c r="H1800" t="s">
         <v>9</v>
@@ -51804,7 +51807,7 @@
         <v>28.2999992370605</v>
       </c>
       <c r="G1803" t="s">
-        <v>1228</v>
+        <v>1229</v>
       </c>
       <c r="H1803" t="s">
         <v>9</v>
@@ -52038,7 +52041,7 @@
         <v>29.4200000762939</v>
       </c>
       <c r="G1812" t="s">
-        <v>1112</v>
+        <v>1113</v>
       </c>
       <c r="H1812" t="s">
         <v>9</v>
@@ -52220,7 +52223,7 @@
         <v>29.2999992370605</v>
       </c>
       <c r="G1819" t="s">
-        <v>1109</v>
+        <v>1110</v>
       </c>
       <c r="H1819" t="s">
         <v>9</v>
@@ -52272,7 +52275,7 @@
         <v>28.7000007629395</v>
       </c>
       <c r="G1821" t="s">
-        <v>1108</v>
+        <v>1109</v>
       </c>
       <c r="H1821" t="s">
         <v>9</v>
@@ -52480,7 +52483,7 @@
         <v>27.5200004577637</v>
       </c>
       <c r="G1829" t="s">
-        <v>1102</v>
+        <v>1103</v>
       </c>
       <c r="H1829" t="s">
         <v>9</v>
@@ -52584,7 +52587,7 @@
         <v>25.6399993896484</v>
       </c>
       <c r="G1833" t="s">
-        <v>1147</v>
+        <v>1148</v>
       </c>
       <c r="H1833" t="s">
         <v>9</v>
@@ -52714,7 +52717,7 @@
         <v>24</v>
       </c>
       <c r="G1838" t="s">
-        <v>1170</v>
+        <v>1171</v>
       </c>
       <c r="H1838" t="s">
         <v>9</v>
@@ -52766,7 +52769,7 @@
         <v>24.5</v>
       </c>
       <c r="G1840" t="s">
-        <v>1160</v>
+        <v>1161</v>
       </c>
       <c r="H1840" t="s">
         <v>9</v>
@@ -52896,7 +52899,7 @@
         <v>25.6200008392334</v>
       </c>
       <c r="G1845" t="s">
-        <v>1123</v>
+        <v>1124</v>
       </c>
       <c r="H1845" t="s">
         <v>9</v>
@@ -52922,7 +52925,7 @@
         <v>26.1800003051758</v>
       </c>
       <c r="G1846" t="s">
-        <v>1143</v>
+        <v>1144</v>
       </c>
       <c r="H1846" t="s">
         <v>9</v>
@@ -53026,7 +53029,7 @@
         <v>27</v>
       </c>
       <c r="G1850" t="s">
-        <v>1101</v>
+        <v>1102</v>
       </c>
       <c r="H1850" t="s">
         <v>9</v>
@@ -53416,7 +53419,7 @@
         <v>28.2999992370605</v>
       </c>
       <c r="G1865" t="s">
-        <v>1228</v>
+        <v>1229</v>
       </c>
       <c r="H1865" t="s">
         <v>9</v>
@@ -53546,7 +53549,7 @@
         <v>27.7999992370605</v>
       </c>
       <c r="G1870" t="s">
-        <v>1099</v>
+        <v>1100</v>
       </c>
       <c r="H1870" t="s">
         <v>9</v>
@@ -53806,7 +53809,7 @@
         <v>29</v>
       </c>
       <c r="G1880" t="s">
-        <v>1238</v>
+        <v>1239</v>
       </c>
       <c r="H1880" t="s">
         <v>9</v>
@@ -62992,7 +62995,7 @@
     </row>
     <row r="2234">
       <c r="A2234" s="1" t="n">
-        <v>45574.6496296296</v>
+        <v>45574.2916666667</v>
       </c>
       <c r="B2234" t="n">
         <v>22910</v>
@@ -63013,6 +63016,32 @@
         <v>1521</v>
       </c>
       <c r="H2234" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2235">
+      <c r="A2235" s="1" t="n">
+        <v>45575.6493634259</v>
+      </c>
+      <c r="B2235" t="n">
+        <v>20016</v>
+      </c>
+      <c r="C2235" t="n">
+        <v>34.1500015258789</v>
+      </c>
+      <c r="D2235" t="n">
+        <v>32.7999992370605</v>
+      </c>
+      <c r="E2235" t="n">
+        <v>32.9000015258789</v>
+      </c>
+      <c r="F2235" t="n">
+        <v>33.4500007629395</v>
+      </c>
+      <c r="G2235" t="s">
+        <v>1527</v>
+      </c>
+      <c r="H2235" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/MOL.MI.xlsx
+++ b/data/MOL.MI.xlsx
@@ -38,733 +38,733 @@
     <t xml:space="preserve">ticker</t>
   </si>
   <si>
-    <t xml:space="preserve">7.0296745300293</t>
+    <t xml:space="preserve">6.93459844589233</t>
   </si>
   <si>
     <t xml:space="preserve">MOL.MI</t>
   </si>
   <si>
-    <t xml:space="preserve">6.9343113899231</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.83440542221069</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.94793462753296</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.81169939041138</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.90252304077148</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.99334526062012</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.7208776473999</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.48473882675171</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.25768184661865</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.51652669906616</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.40299892425537</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.7299599647522</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.63005542755127</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.04878997802734</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.69363021850586</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.82986545562744</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.93885183334351</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.83894729614258</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.8661937713623</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.85711145401001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.17594194412231</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.05333089828491</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.44840955734253</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.22135353088379</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.41662168502808</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.56647825241089</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.50744438171387</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.68000745773315</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.49836254119873</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.59372568130493</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.55739641189575</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.47111463546753</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.5755615234375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.52106809616089</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.80715894699097</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.60280799865723</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.38937473297119</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.40753841400146</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.43932771682739</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.43024492263794</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.8026180267334</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.60734987258911</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.58010244369507</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.62097311019897</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.62551355361938</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.53469133377075</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.35758686065674</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.22589445114136</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.45295095443726</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.36666870117188</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.45749235153198</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.41207933425903</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.38483428955078</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.4211630821228</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.31671619415283</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.35304546356201</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.76174783706665</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.6482195854187</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.66638422012329</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.58918523788452</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.80682754516602</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.62135553359985</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.71409177780151</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.61208152770996</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.67699670791626</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.72800207138062</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.5332555770874</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.79291677474976</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.86710596084595</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.76973342895508</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.85783243179321</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.88101720809937</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.92738437652588</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.02939414978027</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.1267671585083</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.16849803924561</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.28905487060547</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.4420690536499</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.51162242889404</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.65072631835938</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.49307489395142</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.5718994140625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.44670581817627</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.41888523101807</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.41424894332886</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.38642835617065</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.27978134155273</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.32614994049072</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.18704557418823</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.26587104797363</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.1406774520874</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.0201210975647</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.30296516418457</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.35396957397461</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.50234794616699</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.51625823974609</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.18240880966187</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.90883684158325</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.27514410018921</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.37251853942871</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.03866767883301</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.85319566726685</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.66772365570068</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.74191188812256</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.75118589401245</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.5842604637146</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.92274761199951</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.82537508010864</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.72336530685425</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.63062906265259</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.60280847549438</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.93202114105225</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.73727512359619</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.95520448684692</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.88565349578857</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.65845012664795</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.70945501327515</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.83464765548706</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.86246967315674</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.93665838241577</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.05721426010132</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.87637901306152</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.96447944641113</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.97375297546387</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.99229955673218</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.99693632125854</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.00157308578491</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.9830265045166</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.10358285903931</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.08503580093384</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.04794120788574</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.16386127471924</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.3632435798645</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.19631862640381</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.15922403335571</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.81610107421875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.87174272537231</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.06648826599121</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.11285591125488</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.2055926322937</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.17313528060913</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.38179111480713</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.2426872253418</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.23341369628906</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.25196075439453</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.3354229927063</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.27050876617432</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.24732398986816</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.34469747543335</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.4003381729126</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.57653760910034</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.40961122512817</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.43743371963501</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.37715435028076</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.54871606826782</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.56262636184692</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.06185150146484</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.2195029258728</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.36788034439087</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.09430932998657</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.71564102172852</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.67390966415405</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.69709348678589</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.60435724258423</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.46525382995605</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.80837774276733</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.86401796340942</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.92893409729004</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.88256597518921</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.87792778015137</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.83619785308838</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.97530269622803</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.1793212890625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.55953979492188</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.63372802734375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.670823097229</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.80065441131592</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.5966329574585</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.6290922164917</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.57808589935303</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.43898296356201</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.45752906799316</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.55490303039551</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.54562950134277</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.54099369049072</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.58272361755371</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.59199714660645</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.68936824798584</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.52244472503662</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.51780986785889</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.30915260314941</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.48535060882568</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.42043590545654</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.28596782684326</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.3230619430542</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.49926090240479</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.51317119598389</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.62445640563965</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.70327949523926</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.64300346374512</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.44361972808838</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.48998737335205</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.23960018157959</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.34624576568604</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.49462413787842</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.65227603912354</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.92120933532715</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.83002281188965</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.49617290496826</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.45907878875732</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.25505828857422</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.40343856811523</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.44053268432617</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.44980621337891</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.46835422515869</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.18087005615234</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.27360725402832</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.36634349822998</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.59818363189697</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.80220127105713</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.71873950958252</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.061863899231</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1546001434326</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4791765213013</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.200966835022</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7202892303467</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1283283233643</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0912342071533</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1932439804077</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2210636138916</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0170450210571</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9892253875732</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0355911254883</t>
+    <t xml:space="preserve">6.84052515029907</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.74197053909302</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.85396385192871</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.71957302093506</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.809166431427</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.89876127243042</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.62997817993164</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.39703321456909</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.17304706573486</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.42839097976685</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.31639814376831</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.6389365196228</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.54038429260254</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.96698093414307</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.60310029983521</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.73749113082886</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.84500408172607</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.74645090103149</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.77332973480225</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.76436996459961</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.09241247177124</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.97146081924438</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.36119508743286</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.13720893859863</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.32983732223511</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.47766780853271</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.41943168640137</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.58966064453125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.41047191619873</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.50454616546631</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.46870803833008</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.38359355926514</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.48662710189819</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.43287038803101</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.71509313583374</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.51350593566895</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.30295848846436</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.32087707519531</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.3522367477417</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.34327697753906</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.71061277389526</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.51798486709595</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.49110698699951</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.53142499923706</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.53590440750122</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.44631004333496</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.27160120010376</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.14168930053711</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.36567497253418</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.28056049346924</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.37015438079834</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.32535696029663</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.29848003387451</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.33431768417358</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.23128366470337</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.26712131500244</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.67029666900635</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.5583028793335</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.57622146606445</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.50006675720215</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.71476602554321</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.5318021774292</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.62328386306763</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.52265405654907</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.58669090270996</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.63700532913208</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.4448938369751</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.70104312896729</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.77422857284546</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.67817306518555</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.76508045196533</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.78795146942139</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.83369112014771</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.93432235717773</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.03037786483765</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.0715446472168</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.19047117233276</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.34141540527344</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.4100284576416</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.54725074768066</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.39173173904419</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.46949052810669</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.34598970413208</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.31854629516602</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.31397151947021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.28652715682983</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.18132305145264</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.22706413269043</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.08984136581421</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.16760110855103</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.04410028457642</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.92517375946045</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.20419359207153</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.25450801849365</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.40087985992432</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.41460037231445</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.08526706695557</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.81539535522461</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.17674922943115</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.27280473709106</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.94346952438354</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.76050615310669</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.57754230499268</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.65072822570801</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.65987682342529</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.49520874023438</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.82911825180054</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.73306226730347</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.63243246078491</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.54095077514648</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.5135064125061</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.83826541900635</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.64615392684937</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.86113691329956</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.79252576828003</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.56839466094971</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.61870956420898</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.74221086502075</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.76965475082397</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.84284019470215</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.96176671981812</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.7833776473999</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.87028551101685</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.87943267822266</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.89772891998291</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.90230369567871</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.90687799453735</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.88858079910278</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.00750684738159</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.98921155929565</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.95261812210083</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.06697034835815</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.2636570930481</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.09898948669434</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.06239652633667</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.72391366958618</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.77880239486694</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.97091436386108</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.01665544509888</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.10813760757446</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.07611846923828</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.28195285797119</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.14473009109497</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.13558149337769</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.15387773513794</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.23621273040771</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.17217540740967</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.14930438995361</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.24535989761353</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.3002495765686</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.47406435012817</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.30939722061157</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.33684158325195</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.27737808227539</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.44662046432495</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.46034240722656</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.9663405418396</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.12186002731323</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.26823043823242</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.99835968017578</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.61128664016724</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.57012033462524</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.59299039840698</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.50150871276855</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.36428642272949</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.70276927947998</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.75765800476074</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.82169580459595</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.77595567703247</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.77138042449951</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.7302131652832</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.8674373626709</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.06869506835938</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.443772315979</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.51695919036865</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.55355072021484</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.68162536621094</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.48036479949951</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.51238441467285</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.46206951141357</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.3248462677002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.34314250946045</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.4391975402832</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.43004894256592</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.42547416687012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.46664333343506</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.47579097747803</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.57184600830078</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.40717887878418</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.40260696411133</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.19677066802979</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.37058639526367</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.30654811859131</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.17390060424805</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.21049499511719</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.38430976867676</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.39803314208984</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.50780868530273</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.58556938171387</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.5261058807373</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.32942008972168</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.37516021728516</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.12815952301025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.23336315155029</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.37973499298096</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.53525352478027</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.80055141448975</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.6970739364624</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.36773872375488</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.33114528656006</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.12988567352295</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.27625751495361</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.31285095214844</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.32199764251709</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.34029293060303</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.05670070648193</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.1481819152832</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.23966407775879</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.46836757659912</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.66962909698486</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.58729362487793</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.92577838897705</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.017258644104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3374452590942</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0629997253418</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5752992630005</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9778184890747</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9412260055542</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0418558120728</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0693006515503</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8680410385132</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8405961990356</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8863372802734</t>
   </si>
   <si>
     <t xml:space="preserve">10.5411825180054</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2893133163452</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0747594833374</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4478988647461</t>
+    <t xml:space="preserve">10.2893142700195</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0747585296631</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4478979110718</t>
   </si>
   <si>
     <t xml:space="preserve">10.4945411682129</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3452854156494</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4665555953979</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5784978866577</t>
+    <t xml:space="preserve">10.3452844619751</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4665546417236</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5784959793091</t>
   </si>
   <si>
     <t xml:space="preserve">10.5598402023315</t>
@@ -773,16 +773,16 @@
     <t xml:space="preserve">10.6064825057983</t>
   </si>
   <si>
-    <t xml:space="preserve">10.8117094039917</t>
+    <t xml:space="preserve">10.811710357666</t>
   </si>
   <si>
     <t xml:space="preserve">11.1475343704224</t>
   </si>
   <si>
-    <t xml:space="preserve">11.8471689224243</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.6606006622314</t>
+    <t xml:space="preserve">11.8471698760986</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.6606016159058</t>
   </si>
   <si>
     <t xml:space="preserve">11.2874612808228</t>
@@ -794,16 +794,16 @@
     <t xml:space="preserve">11.1661911010742</t>
   </si>
   <si>
-    <t xml:space="preserve">11.2128343582153</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1008911132812</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8956651687622</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8210391998291</t>
+    <t xml:space="preserve">11.212833404541</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1008920669556</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8956670761108</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8210372924805</t>
   </si>
   <si>
     <t xml:space="preserve">10.8023815155029</t>
@@ -812,85 +812,85 @@
     <t xml:space="preserve">11.0542507171631</t>
   </si>
   <si>
-    <t xml:space="preserve">10.9329805374146</t>
+    <t xml:space="preserve">10.9329795837402</t>
   </si>
   <si>
     <t xml:space="preserve">10.6344680786133</t>
   </si>
   <si>
-    <t xml:space="preserve">11.1941766738892</t>
+    <t xml:space="preserve">11.1941776275635</t>
   </si>
   <si>
     <t xml:space="preserve">11.1288776397705</t>
   </si>
   <si>
-    <t xml:space="preserve">11.5579891204834</t>
+    <t xml:space="preserve">11.5579881668091</t>
   </si>
   <si>
     <t xml:space="preserve">11.1382055282593</t>
   </si>
   <si>
-    <t xml:space="preserve">11.007607460022</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5206737518311</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.4740324020386</t>
+    <t xml:space="preserve">11.0076065063477</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5206747055054</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4740304946899</t>
   </si>
   <si>
     <t xml:space="preserve">11.7818717956543</t>
   </si>
   <si>
-    <t xml:space="preserve">12.1736679077148</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.3975515365601</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9684410095215</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.593448638916</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.6027774810791</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.7520332336426</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.82666015625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.6121072769165</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.8733043670654</t>
+    <t xml:space="preserve">12.1736688613892</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.3975505828857</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9684400558472</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.5934495925903</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.6027784347534</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.7520341873169</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.8266620635986</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.6121053695679</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.8733034133911</t>
   </si>
   <si>
     <t xml:space="preserve">12.8080034255981</t>
   </si>
   <si>
-    <t xml:space="preserve">12.6214332580566</t>
+    <t xml:space="preserve">12.621434211731</t>
   </si>
   <si>
     <t xml:space="preserve">12.6587476730347</t>
   </si>
   <si>
-    <t xml:space="preserve">12.6400918960571</t>
+    <t xml:space="preserve">12.6400909423828</t>
   </si>
   <si>
     <t xml:space="preserve">12.5468072891235</t>
   </si>
   <si>
-    <t xml:space="preserve">12.5747919082642</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.5654640197754</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.7613611221313</t>
+    <t xml:space="preserve">12.5747909545898</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.5654621124268</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.7613620758057</t>
   </si>
   <si>
     <t xml:space="preserve">12.7053918838501</t>
@@ -899,7 +899,7 @@
     <t xml:space="preserve">12.6307621002197</t>
   </si>
   <si>
-    <t xml:space="preserve">12.2576236724854</t>
+    <t xml:space="preserve">12.257622718811</t>
   </si>
   <si>
     <t xml:space="preserve">12.4721784591675</t>
@@ -911,10 +911,10 @@
     <t xml:space="preserve">12.3695659637451</t>
   </si>
   <si>
-    <t xml:space="preserve">12.4441947937012</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9591121673584</t>
+    <t xml:space="preserve">12.4441928863525</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9591112136841</t>
   </si>
   <si>
     <t xml:space="preserve">12.360237121582</t>
@@ -923,19 +923,19 @@
     <t xml:space="preserve">12.2482948303223</t>
   </si>
   <si>
-    <t xml:space="preserve">12.127025604248</t>
+    <t xml:space="preserve">12.1270246505737</t>
   </si>
   <si>
     <t xml:space="preserve">12.0244112014771</t>
   </si>
   <si>
-    <t xml:space="preserve">12.388222694397</t>
+    <t xml:space="preserve">12.3882217407227</t>
   </si>
   <si>
     <t xml:space="preserve">12.3415803909302</t>
   </si>
   <si>
-    <t xml:space="preserve">12.0150833129883</t>
+    <t xml:space="preserve">12.015082359314</t>
   </si>
   <si>
     <t xml:space="preserve">12.0337400436401</t>
@@ -944,10 +944,10 @@
     <t xml:space="preserve">12.4068794250488</t>
   </si>
   <si>
-    <t xml:space="preserve">12.51881980896</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.4255352020264</t>
+    <t xml:space="preserve">12.5188207626343</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.4255361557007</t>
   </si>
   <si>
     <t xml:space="preserve">12.4535226821899</t>
@@ -965,16 +965,16 @@
     <t xml:space="preserve">12.5281496047974</t>
   </si>
   <si>
-    <t xml:space="preserve">12.2762823104858</t>
+    <t xml:space="preserve">12.2762794494629</t>
   </si>
   <si>
     <t xml:space="preserve">12.5094928741455</t>
   </si>
   <si>
-    <t xml:space="preserve">12.3788948059082</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.3322525024414</t>
+    <t xml:space="preserve">12.3788938522339</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.3322505950928</t>
   </si>
   <si>
     <t xml:space="preserve">12.1363534927368</t>
@@ -989,22 +989,22 @@
     <t xml:space="preserve">11.7072439193726</t>
   </si>
   <si>
-    <t xml:space="preserve">11.8658285140991</t>
+    <t xml:space="preserve">11.8658275604248</t>
   </si>
   <si>
     <t xml:space="preserve">11.7352294921875</t>
   </si>
   <si>
-    <t xml:space="preserve">11.753885269165</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.8191843032837</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9964256286621</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.8938140869141</t>
+    <t xml:space="preserve">11.7538862228394</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.819185256958</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9964265823364</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.8938121795654</t>
   </si>
   <si>
     <t xml:space="preserve">11.9404554367065</t>
@@ -1019,52 +1019,52 @@
     <t xml:space="preserve">12.2669515609741</t>
   </si>
   <si>
-    <t xml:space="preserve">11.8378419876099</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7912006378174</t>
+    <t xml:space="preserve">11.8378410339355</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7911996841431</t>
   </si>
   <si>
     <t xml:space="preserve">11.2594766616821</t>
   </si>
   <si>
-    <t xml:space="preserve">11.3620901107788</t>
+    <t xml:space="preserve">11.3620891571045</t>
   </si>
   <si>
     <t xml:space="preserve">11.2314901351929</t>
   </si>
   <si>
-    <t xml:space="preserve">11.6139574050903</t>
+    <t xml:space="preserve">11.613959312439</t>
   </si>
   <si>
     <t xml:space="preserve">11.5393304824829</t>
   </si>
   <si>
-    <t xml:space="preserve">11.6699295043945</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.6512727737427</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5673170089722</t>
+    <t xml:space="preserve">11.6699285507202</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.651273727417</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5673179626465</t>
   </si>
   <si>
     <t xml:space="preserve">11.7445573806763</t>
   </si>
   <si>
-    <t xml:space="preserve">11.9311256408691</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.2203102111816</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0803813934326</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9870977401733</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.0039005279541</t>
+    <t xml:space="preserve">11.9311275482178</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.220311164856</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0803823471069</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9870986938477</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.0039024353027</t>
   </si>
   <si>
     <t xml:space="preserve">14.011378288269</t>
@@ -1073,7 +1073,7 @@
     <t xml:space="preserve">14.1979475021362</t>
   </si>
   <si>
-    <t xml:space="preserve">14.1792917251587</t>
+    <t xml:space="preserve">14.1792898178101</t>
   </si>
   <si>
     <t xml:space="preserve">14.0300359725952</t>
@@ -1082,73 +1082,73 @@
     <t xml:space="preserve">14.0860052108765</t>
   </si>
   <si>
-    <t xml:space="preserve">14.7203426361084</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.9927196502686</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.7128667831421</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.2912330627441</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.1046628952026</t>
+    <t xml:space="preserve">14.7203416824341</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.9927206039429</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.7128658294678</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.2912321090698</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.104663848877</t>
   </si>
   <si>
     <t xml:space="preserve">13.7874946594238</t>
   </si>
   <si>
-    <t xml:space="preserve">14.477801322937</t>
+    <t xml:space="preserve">14.4778022766113</t>
   </si>
   <si>
     <t xml:space="preserve">14.6084012985229</t>
   </si>
   <si>
-    <t xml:space="preserve">14.6643724441528</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.5710868835449</t>
+    <t xml:space="preserve">14.6643714904785</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.5710878372192</t>
   </si>
   <si>
     <t xml:space="preserve">14.2725763320923</t>
   </si>
   <si>
-    <t xml:space="preserve">13.9180936813354</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.0785293579102</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.8546447753906</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.4516687393188</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.1158447265625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.8173332214355</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.0598726272583</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6009244918823</t>
+    <t xml:space="preserve">13.9180927276611</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.0785312652588</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.8546457290649</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.4516706466675</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1158437728882</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.8173322677612</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.0598735809326</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.600926399231</t>
   </si>
   <si>
     <t xml:space="preserve">13.395697593689</t>
   </si>
   <si>
-    <t xml:space="preserve">12.7427034378052</t>
+    <t xml:space="preserve">12.7427043914795</t>
   </si>
   <si>
     <t xml:space="preserve">12.1829957962036</t>
   </si>
   <si>
-    <t xml:space="preserve">12.0897102355957</t>
+    <t xml:space="preserve">12.08971118927</t>
   </si>
   <si>
     <t xml:space="preserve">11.9031419754028</t>
@@ -1160,13 +1160,13 @@
     <t xml:space="preserve">12.7986755371094</t>
   </si>
   <si>
-    <t xml:space="preserve">12.6867332458496</t>
+    <t xml:space="preserve">12.6867341995239</t>
   </si>
   <si>
     <t xml:space="preserve">12.2389669418335</t>
   </si>
   <si>
-    <t xml:space="preserve">12.1083679199219</t>
+    <t xml:space="preserve">12.1083669662476</t>
   </si>
   <si>
     <t xml:space="preserve">12.1456813812256</t>
@@ -1175,22 +1175,22 @@
     <t xml:space="preserve">11.6792583465576</t>
   </si>
   <si>
-    <t xml:space="preserve">12.5374774932861</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.8844842910767</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9217977523804</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.3135929107666</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.4628496170044</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.433012008667</t>
+    <t xml:space="preserve">12.5374784469604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.8844833374023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9217987060547</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.3135948181152</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.462851524353</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.4330129623413</t>
   </si>
   <si>
     <t xml:space="preserve">13.6195821762085</t>
@@ -1202,7 +1202,7 @@
     <t xml:space="preserve">14.347204208374</t>
   </si>
   <si>
-    <t xml:space="preserve">15.0001974105835</t>
+    <t xml:space="preserve">15.0001983642578</t>
   </si>
   <si>
     <t xml:space="preserve">14.8695983886719</t>
@@ -1211,22 +1211,22 @@
     <t xml:space="preserve">14.8322849273682</t>
   </si>
   <si>
-    <t xml:space="preserve">14.8882551193237</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1164274215698</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7819290161133</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.49671459198</t>
+    <t xml:space="preserve">14.8882541656494</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1164264678955</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7819309234619</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4967136383057</t>
   </si>
   <si>
     <t xml:space="preserve">15.3255863189697</t>
   </si>
   <si>
-    <t xml:space="preserve">15.173469543457</t>
+    <t xml:space="preserve">15.17347240448</t>
   </si>
   <si>
     <t xml:space="preserve">15.2115001678467</t>
@@ -1235,13 +1235,13 @@
     <t xml:space="preserve">15.2685422897339</t>
   </si>
   <si>
-    <t xml:space="preserve">15.4016447067261</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.2227516174316</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.899507522583</t>
+    <t xml:space="preserve">15.4016437530518</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.2227506637573</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.8995084762573</t>
   </si>
   <si>
     <t xml:space="preserve">13.3480911254883</t>
@@ -1250,19 +1250,19 @@
     <t xml:space="preserve">13.6903486251831</t>
   </si>
   <si>
-    <t xml:space="preserve">13.7664070129395</t>
+    <t xml:space="preserve">13.7664060592651</t>
   </si>
   <si>
     <t xml:space="preserve">13.1579465866089</t>
   </si>
   <si>
-    <t xml:space="preserve">13.0248460769653</t>
+    <t xml:space="preserve">13.0248441696167</t>
   </si>
   <si>
     <t xml:space="preserve">13.1959762573242</t>
   </si>
   <si>
-    <t xml:space="preserve">12.9678049087524</t>
+    <t xml:space="preserve">12.9678039550781</t>
   </si>
   <si>
     <t xml:space="preserve">12.1691989898682</t>
@@ -1271,7 +1271,7 @@
     <t xml:space="preserve">12.6255445480347</t>
   </si>
   <si>
-    <t xml:space="preserve">13.0818891525269</t>
+    <t xml:space="preserve">13.0818910598755</t>
   </si>
   <si>
     <t xml:space="preserve">12.7016010284424</t>
@@ -1280,163 +1280,163 @@
     <t xml:space="preserve">12.7776584625244</t>
   </si>
   <si>
-    <t xml:space="preserve">12.8347034454346</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.9487895965576</t>
+    <t xml:space="preserve">12.8347024917603</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.9487886428833</t>
   </si>
   <si>
     <t xml:space="preserve">12.4163866043091</t>
   </si>
   <si>
-    <t xml:space="preserve">12.8156881332397</t>
+    <t xml:space="preserve">12.8156890869141</t>
   </si>
   <si>
     <t xml:space="preserve">12.7966747283936</t>
   </si>
   <si>
-    <t xml:space="preserve">12.8537187576294</t>
+    <t xml:space="preserve">12.8537168502808</t>
   </si>
   <si>
     <t xml:space="preserve">12.3403282165527</t>
   </si>
   <si>
-    <t xml:space="preserve">13.823450088501</t>
+    <t xml:space="preserve">13.8234491348267</t>
   </si>
   <si>
     <t xml:space="preserve">13.861478805542</t>
   </si>
   <si>
-    <t xml:space="preserve">14.0516223907471</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.9565515518188</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.1657075881958</t>
+    <t xml:space="preserve">14.0516214370728</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.9565496444702</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.1657094955444</t>
   </si>
   <si>
     <t xml:space="preserve">13.7093639373779</t>
   </si>
   <si>
-    <t xml:space="preserve">13.6713342666626</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5002059936523</t>
+    <t xml:space="preserve">13.6713352203369</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.500205039978</t>
   </si>
   <si>
     <t xml:space="preserve">13.538233757019</t>
   </si>
   <si>
-    <t xml:space="preserve">13.5192213058472</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.3290758132935</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2149896621704</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.4051351547241</t>
+    <t xml:space="preserve">13.5192203521729</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3290777206421</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2149906158447</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.4051342010498</t>
   </si>
   <si>
     <t xml:space="preserve">13.5572481155396</t>
   </si>
   <si>
-    <t xml:space="preserve">13.2910480499268</t>
+    <t xml:space="preserve">13.2910451889038</t>
   </si>
   <si>
     <t xml:space="preserve">13.4431638717651</t>
   </si>
   <si>
-    <t xml:space="preserve">12.6445579528809</t>
+    <t xml:space="preserve">12.6445589065552</t>
   </si>
   <si>
     <t xml:space="preserve">12.5875148773193</t>
   </si>
   <si>
-    <t xml:space="preserve">12.3593444824219</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.7586441040039</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.1199188232422</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.0628747940063</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.8917465209961</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.0438604354858</t>
+    <t xml:space="preserve">12.3593425750732</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.7586431503296</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1199169158936</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.0628757476807</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.8917455673218</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.0438613891602</t>
   </si>
   <si>
     <t xml:space="preserve">13.8804941177368</t>
   </si>
   <si>
-    <t xml:space="preserve">14.2037372589111</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.3558530807495</t>
+    <t xml:space="preserve">14.2037363052368</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.3558521270752</t>
   </si>
   <si>
     <t xml:space="preserve">14.3938817977905</t>
   </si>
   <si>
-    <t xml:space="preserve">14.1466932296753</t>
+    <t xml:space="preserve">14.1466951370239</t>
   </si>
   <si>
     <t xml:space="preserve">13.78542137146</t>
   </si>
   <si>
-    <t xml:space="preserve">13.5762624740601</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.8424644470215</t>
+    <t xml:space="preserve">13.5762643814087</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.8424654006958</t>
   </si>
   <si>
     <t xml:space="preserve">13.6333065032959</t>
   </si>
   <si>
-    <t xml:space="preserve">14.2607793807983</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0213565826416</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5917873382568</t>
+    <t xml:space="preserve">14.2607822418213</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0213556289673</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5917844772339</t>
   </si>
   <si>
     <t xml:space="preserve">15.3636150360107</t>
   </si>
   <si>
-    <t xml:space="preserve">15.2495288848877</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.6375770568848</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.8087062835693</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.0178642272949</t>
+    <t xml:space="preserve">15.2495279312134</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.6375751495361</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.808708190918</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.0178680419922</t>
   </si>
   <si>
     <t xml:space="preserve">16.7326507568359</t>
   </si>
   <si>
-    <t xml:space="preserve">16.3333492279053</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.0101051330566</t>
+    <t xml:space="preserve">16.3333473205566</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.010103225708</t>
   </si>
   <si>
     <t xml:space="preserve">15.6868591308594</t>
   </si>
   <si>
-    <t xml:space="preserve">15.610800743103</t>
+    <t xml:space="preserve">15.610803604126</t>
   </si>
   <si>
     <t xml:space="preserve">15.0974130630493</t>
@@ -1448,16 +1448,16 @@
     <t xml:space="preserve">14.4699382781982</t>
   </si>
   <si>
-    <t xml:space="preserve">14.6981105804443</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.5269813537598</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.7361402511597</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.336838722229</t>
+    <t xml:space="preserve">14.6981115341187</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.5269823074341</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.7361392974854</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.3368377685547</t>
   </si>
   <si>
     <t xml:space="preserve">14.2797956466675</t>
@@ -1466,10 +1466,10 @@
     <t xml:space="preserve">13.975564956665</t>
   </si>
   <si>
-    <t xml:space="preserve">13.6142911911011</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.937536239624</t>
+    <t xml:space="preserve">13.6142921447754</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.9375352859497</t>
   </si>
   <si>
     <t xml:space="preserve">14.1086664199829</t>
@@ -1478,13 +1478,13 @@
     <t xml:space="preserve">14.9643125534058</t>
   </si>
   <si>
-    <t xml:space="preserve">14.5650110244751</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.5079679489136</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6488304138184</t>
+    <t xml:space="preserve">14.5650091171265</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.5079689025879</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.648829460144</t>
   </si>
   <si>
     <t xml:space="preserve">15.0593852996826</t>
@@ -1493,10 +1493,10 @@
     <t xml:space="preserve">16.1812343597412</t>
   </si>
   <si>
-    <t xml:space="preserve">16.1622200012207</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.3523635864258</t>
+    <t xml:space="preserve">16.1622180938721</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.3523597717285</t>
   </si>
   <si>
     <t xml:space="preserve">16.1432018280029</t>
@@ -1505,10 +1505,10 @@
     <t xml:space="preserve">15.972074508667</t>
   </si>
   <si>
-    <t xml:space="preserve">15.5537595748901</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.1241893768311</t>
+    <t xml:space="preserve">15.5537576675415</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.1241855621338</t>
   </si>
   <si>
     <t xml:space="preserve">16.4474334716797</t>
@@ -1517,10 +1517,10 @@
     <t xml:space="preserve">16.2002487182617</t>
   </si>
   <si>
-    <t xml:space="preserve">16.4284210205078</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7439002990723</t>
+    <t xml:space="preserve">16.4284191131592</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7439012527466</t>
   </si>
   <si>
     <t xml:space="preserve">15.8960151672363</t>
@@ -1532,7 +1532,7 @@
     <t xml:space="preserve">15.1544551849365</t>
   </si>
   <si>
-    <t xml:space="preserve">15.9530601501465</t>
+    <t xml:space="preserve">15.9530611038208</t>
   </si>
   <si>
     <t xml:space="preserve">15.5727710723877</t>
@@ -1544,28 +1544,28 @@
     <t xml:space="preserve">15.0023412704468</t>
   </si>
   <si>
-    <t xml:space="preserve">14.6410675048828</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9072713851929</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0783977508545</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6298170089722</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8389739990234</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1354417800903</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5157308578491</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8579902648926</t>
+    <t xml:space="preserve">14.6410684585571</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9072704315186</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0783987045288</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6298179626465</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8389730453491</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.135440826416</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5157289505005</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8579893112183</t>
   </si>
   <si>
     <t xml:space="preserve">15.724889755249</t>
@@ -1577,13 +1577,13 @@
     <t xml:space="preserve">16.0671463012695</t>
   </si>
   <si>
-    <t xml:space="preserve">16.1051731109619</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.0861625671387</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7058725357056</t>
+    <t xml:space="preserve">16.1051750183105</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.08616065979</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7058734893799</t>
   </si>
   <si>
     <t xml:space="preserve">14.7741689682007</t>
@@ -1595,22 +1595,22 @@
     <t xml:space="preserve">14.9452991485596</t>
   </si>
   <si>
-    <t xml:space="preserve">15.2875576019287</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1924839019775</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3826284408569</t>
+    <t xml:space="preserve">15.2875566482544</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1924848556519</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3826293945312</t>
   </si>
   <si>
     <t xml:space="preserve">16.2953186035156</t>
   </si>
   <si>
-    <t xml:space="preserve">17.1129341125488</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.3411102294922</t>
+    <t xml:space="preserve">17.1129379272461</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.3411083221436</t>
   </si>
   <si>
     <t xml:space="preserve">17.3601245880127</t>
@@ -1619,25 +1619,25 @@
     <t xml:space="preserve">17.3981513977051</t>
   </si>
   <si>
-    <t xml:space="preserve">17.2080078125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.1699810028076</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.1587295532227</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.5122394561768</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.4551963806152</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.4742107391357</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.6073093414307</t>
+    <t xml:space="preserve">17.2080097198486</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.169979095459</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.1587257385254</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.5122413635254</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.4551982879639</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.4742088317871</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.6073112487793</t>
   </si>
   <si>
     <t xml:space="preserve">17.1509647369385</t>
@@ -1646,10 +1646,10 @@
     <t xml:space="preserve">17.4932250976562</t>
   </si>
   <si>
-    <t xml:space="preserve">17.5502662658691</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.9685821533203</t>
+    <t xml:space="preserve">17.5502681732178</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.9685840606689</t>
   </si>
   <si>
     <t xml:space="preserve">17.9305553436279</t>
@@ -1661,7 +1661,7 @@
     <t xml:space="preserve">17.4361801147461</t>
   </si>
   <si>
-    <t xml:space="preserve">17.246036529541</t>
+    <t xml:space="preserve">17.2460384368896</t>
   </si>
   <si>
     <t xml:space="preserve">16.6756076812744</t>
@@ -1670,232 +1670,232 @@
     <t xml:space="preserve">16.6946201324463</t>
   </si>
   <si>
-    <t xml:space="preserve">16.3903903961182</t>
+    <t xml:space="preserve">16.3903884887695</t>
   </si>
   <si>
     <t xml:space="preserve">16.9608211517334</t>
   </si>
   <si>
+    <t xml:space="preserve">16.2572917938232</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.6830749511719</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.6443672180176</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.4895401000977</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.5475997924805</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.3347034454346</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.1024570465088</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.0831031799316</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.7798461914062</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.9153213500977</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.9346752166748</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.8572597503662</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.7411365509033</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.5282459259033</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.6250152587891</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.044397354126</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.5669536590576</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.0637512207031</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.1218109130859</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9669818878174</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.831503868103</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7540893554688</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5218420028687</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4637794494629</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4057168960571</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0767002105713</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2895946502686</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3283023834229</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2315320968628</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1928243637085</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0960550308228</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.21217918396</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3476552963257</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1541175842285</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9605779647827</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9412240982056</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.8057460784912</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5411939620972</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2702398300171</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9218702316284</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0573472976685</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2508859634399</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.8831624984741</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.8444538116455</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.999285697937</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1154079437256</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.902515411377</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9799308776855</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.6315612792969</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.6702690124512</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.6896228790283</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.5928525924683</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.7283296585083</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.7089757919312</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.5541439056396</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.5347919464111</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.7476835250854</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0186405181885</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.6509160995483</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4444265365601</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4831342697144</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7734422683716</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6186113357544</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8121490478516</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8895664215088</t>
+  </si>
+  <si>
     <t xml:space="preserve">16.2572898864746</t>
   </si>
   <si>
-    <t xml:space="preserve">16.6830749511719</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.6443691253662</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.489538192749</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.5475978851318</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.3347053527832</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.1024589538574</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.0831031799316</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.7798461914062</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.9153232574463</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.9346771240234</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.8572597503662</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.7411365509033</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.5282440185547</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.6250152587891</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.0443992614746</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.5669536590576</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.0637493133545</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.1218128204346</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9669818878174</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8315048217773</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7540874481201</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5218420028687</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4637784957886</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4057178497314</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0767002105713</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2895946502686</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3283023834229</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2315320968628</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1928234100342</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0960550308228</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.21217918396</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3476543426514</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1541166305542</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9605770111084</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9412240982056</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.8057460784912</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5411949157715</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2702398300171</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9218702316284</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.17347240448</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0573482513428</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2508869171143</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.8831624984741</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.8444528579712</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.999285697937</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1154079437256</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.902515411377</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9799308776855</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.6315603256226</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.6702680587769</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.6896228790283</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.5928535461426</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.7283296585083</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.7089767456055</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.554144859314</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.5347919464111</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.7476835250854</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0186395645142</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.650915145874</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4444246292114</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4831342697144</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7734413146973</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6186103820801</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8121509552002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8895645141602</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8702116012573</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9089202880859</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.0056915283203</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7347345352173</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7153816223145</t>
+    <t xml:space="preserve">15.8702096939087</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9089212417603</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.0056896209717</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.734733581543</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7153797149658</t>
   </si>
   <si>
     <t xml:space="preserve">15.9476280212402</t>
   </si>
   <si>
-    <t xml:space="preserve">15.6766738891602</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5992574691772</t>
+    <t xml:space="preserve">15.6766729354858</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5992565155029</t>
   </si>
   <si>
     <t xml:space="preserve">15.9282741546631</t>
@@ -1904,25 +1904,25 @@
     <t xml:space="preserve">16.0250415802002</t>
   </si>
   <si>
-    <t xml:space="preserve">16.2185802459717</t>
+    <t xml:space="preserve">16.2185821533203</t>
   </si>
   <si>
     <t xml:space="preserve">17.263692855835</t>
   </si>
   <si>
-    <t xml:space="preserve">17.1088619232178</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.0508003234863</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.9927387237549</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.089506149292</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.2249851226807</t>
+    <t xml:space="preserve">17.1088638305664</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.050802230835</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.9927368164062</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.0895080566406</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.2249870300293</t>
   </si>
   <si>
     <t xml:space="preserve">17.3798160552979</t>
@@ -1931,46 +1931,46 @@
     <t xml:space="preserve">18.3862209320068</t>
   </si>
   <si>
-    <t xml:space="preserve">18.2894496917725</t>
+    <t xml:space="preserve">18.2894515991211</t>
   </si>
   <si>
     <t xml:space="preserve">17.7088317871094</t>
   </si>
   <si>
-    <t xml:space="preserve">17.7668952941895</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.2120342254639</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.0959129333496</t>
+    <t xml:space="preserve">17.7668972015381</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.2120361328125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.0959148406982</t>
   </si>
   <si>
     <t xml:space="preserve">18.2313899993896</t>
   </si>
   <si>
-    <t xml:space="preserve">18.0765571594238</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.0572052001953</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.1733283996582</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.0378494262695</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.4249286651611</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.8700675964355</t>
+    <t xml:space="preserve">18.0765590667725</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.0572032928467</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.1733264923096</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.0378475189209</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.4249305725098</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.8700714111328</t>
   </si>
   <si>
     <t xml:space="preserve">19.2184391021729</t>
   </si>
   <si>
-    <t xml:space="preserve">19.1410236358643</t>
+    <t xml:space="preserve">19.1410255432129</t>
   </si>
   <si>
     <t xml:space="preserve">18.6571750640869</t>
@@ -1979,7 +1979,7 @@
     <t xml:space="preserve">19.0829620361328</t>
   </si>
   <si>
-    <t xml:space="preserve">19.02490234375</t>
+    <t xml:space="preserve">19.0249004364014</t>
   </si>
   <si>
     <t xml:space="preserve">19.547456741333</t>
@@ -1988,7 +1988,7 @@
     <t xml:space="preserve">19.934534072876</t>
   </si>
   <si>
-    <t xml:space="preserve">19.6442260742188</t>
+    <t xml:space="preserve">19.6442241668701</t>
   </si>
   <si>
     <t xml:space="preserve">19.7893810272217</t>
@@ -1997,7 +1997,7 @@
     <t xml:space="preserve">19.4022998809814</t>
   </si>
   <si>
-    <t xml:space="preserve">18.9668388366699</t>
+    <t xml:space="preserve">18.9668369293213</t>
   </si>
   <si>
     <t xml:space="preserve">19.7409934997559</t>
@@ -2006,10 +2006,10 @@
     <t xml:space="preserve">19.8377628326416</t>
   </si>
   <si>
-    <t xml:space="preserve">19.8861465454102</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.4506855010986</t>
+    <t xml:space="preserve">19.8861484527588</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.4506874084473</t>
   </si>
   <si>
     <t xml:space="preserve">19.6926116943359</t>
@@ -2018,19 +2018,19 @@
     <t xml:space="preserve">20.3216133117676</t>
   </si>
   <si>
-    <t xml:space="preserve">20.3699970245361</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.3537712097168</t>
+    <t xml:space="preserve">20.3699989318848</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.3537750244141</t>
   </si>
   <si>
     <t xml:space="preserve">21.2893104553223</t>
   </si>
   <si>
-    <t xml:space="preserve">21.2409248352051</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.950611114502</t>
+    <t xml:space="preserve">21.2409229278564</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.9506149291992</t>
   </si>
   <si>
     <t xml:space="preserve">20.7570743560791</t>
@@ -2039,16 +2039,16 @@
     <t xml:space="preserve">21.1441555023193</t>
   </si>
   <si>
-    <t xml:space="preserve">20.8538436889648</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.8054580688477</t>
+    <t xml:space="preserve">20.8538455963135</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.8054599761963</t>
   </si>
   <si>
     <t xml:space="preserve">20.0796890258789</t>
   </si>
   <si>
-    <t xml:space="preserve">20.418384552002</t>
+    <t xml:space="preserve">20.4183807373047</t>
   </si>
   <si>
     <t xml:space="preserve">20.1280727386475</t>
@@ -2075,7 +2075,7 @@
     <t xml:space="preserve">21.5312309265137</t>
   </si>
   <si>
-    <t xml:space="preserve">21.3376941680908</t>
+    <t xml:space="preserve">21.3376922607422</t>
   </si>
   <si>
     <t xml:space="preserve">21.773157119751</t>
@@ -2087,67 +2087,67 @@
     <t xml:space="preserve">21.9666957855225</t>
   </si>
   <si>
-    <t xml:space="preserve">20.1764583587646</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.2248439788818</t>
+    <t xml:space="preserve">20.176456451416</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.2248420715332</t>
   </si>
   <si>
     <t xml:space="preserve">18.850715637207</t>
   </si>
   <si>
-    <t xml:space="preserve">18.3088035583496</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.7281875610352</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.4121208190918</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.2959995269775</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.5734996795654</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.5154361724854</t>
+    <t xml:space="preserve">18.3088073730469</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.7281856536865</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.4121189117432</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.2959976196289</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.5734987258911</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.5154371261597</t>
   </si>
   <si>
     <t xml:space="preserve">12.5413370132446</t>
   </si>
   <si>
-    <t xml:space="preserve">12.0961971282959</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.2123203277588</t>
+    <t xml:space="preserve">12.0961990356445</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2123193740845</t>
   </si>
   <si>
     <t xml:space="preserve">12.7735843658447</t>
   </si>
   <si>
-    <t xml:space="preserve">12.9864768981934</t>
+    <t xml:space="preserve">12.9864778518677</t>
   </si>
   <si>
     <t xml:space="preserve">12.0574893951416</t>
   </si>
   <si>
-    <t xml:space="preserve">13.3929100036621</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6445121765137</t>
+    <t xml:space="preserve">13.3929090499878</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.644510269165</t>
   </si>
   <si>
     <t xml:space="preserve">14.1090049743652</t>
   </si>
   <si>
-    <t xml:space="preserve">14.2831907272339</t>
+    <t xml:space="preserve">14.2831897735596</t>
   </si>
   <si>
     <t xml:space="preserve">14.3799600601196</t>
   </si>
   <si>
-    <t xml:space="preserve">14.2057752609253</t>
+    <t xml:space="preserve">14.205774307251</t>
   </si>
   <si>
     <t xml:space="preserve">14.8250999450684</t>
@@ -2156,7 +2156,7 @@
     <t xml:space="preserve">14.1864204406738</t>
   </si>
   <si>
-    <t xml:space="preserve">15.5024881362915</t>
+    <t xml:space="preserve">15.5024871826172</t>
   </si>
   <si>
     <t xml:space="preserve">16.9733867645264</t>
@@ -2171,7 +2171,7 @@
     <t xml:space="preserve">15.5605497360229</t>
   </si>
   <si>
-    <t xml:space="preserve">16.1605205535889</t>
+    <t xml:space="preserve">16.1605224609375</t>
   </si>
   <si>
     <t xml:space="preserve">16.2379360198975</t>
@@ -2180,7 +2180,7 @@
     <t xml:space="preserve">16.1411685943604</t>
   </si>
   <si>
-    <t xml:space="preserve">16.7024307250977</t>
+    <t xml:space="preserve">16.702428817749</t>
   </si>
   <si>
     <t xml:space="preserve">17.3217544555664</t>
@@ -2192,7 +2192,7 @@
     <t xml:space="preserve">17.0314483642578</t>
   </si>
   <si>
-    <t xml:space="preserve">17.1669254302979</t>
+    <t xml:space="preserve">17.1669235229492</t>
   </si>
   <si>
     <t xml:space="preserve">18.3668670654297</t>
@@ -2225,7 +2225,7 @@
     <t xml:space="preserve">17.7217960357666</t>
   </si>
   <si>
-    <t xml:space="preserve">17.2738857269287</t>
+    <t xml:space="preserve">17.2738838195801</t>
   </si>
   <si>
     <t xml:space="preserve">17.7607460021973</t>
@@ -2240,7 +2240,7 @@
     <t xml:space="preserve">18.4034042358398</t>
   </si>
   <si>
-    <t xml:space="preserve">18.052864074707</t>
+    <t xml:space="preserve">18.0528659820557</t>
   </si>
   <si>
     <t xml:space="preserve">18.1697101593018</t>
@@ -2249,37 +2249,37 @@
     <t xml:space="preserve">18.5007781982422</t>
   </si>
   <si>
-    <t xml:space="preserve">18.5202522277832</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.0139141082764</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.3449821472168</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.3644561767578</t>
+    <t xml:space="preserve">18.5202541351318</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.0139122009277</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.3449802398682</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.3644580841064</t>
   </si>
   <si>
     <t xml:space="preserve">18.6955223083496</t>
   </si>
   <si>
-    <t xml:space="preserve">18.5591983795166</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.2281322479248</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.1502361297607</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.9486923217773</t>
+    <t xml:space="preserve">18.5592002868652</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.2281341552734</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.1502342224121</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.9486904144287</t>
   </si>
   <si>
     <t xml:space="preserve">18.8902645111084</t>
   </si>
   <si>
-    <t xml:space="preserve">18.7928943634033</t>
+    <t xml:space="preserve">18.7928924560547</t>
   </si>
   <si>
     <t xml:space="preserve">19.0265884399414</t>
@@ -2291,7 +2291,7 @@
     <t xml:space="preserve">19.7179336547852</t>
   </si>
   <si>
-    <t xml:space="preserve">19.4745025634766</t>
+    <t xml:space="preserve">19.4745006561279</t>
   </si>
   <si>
     <t xml:space="preserve">19.0655364990234</t>
@@ -2303,13 +2303,13 @@
     <t xml:space="preserve">18.5786743164062</t>
   </si>
   <si>
-    <t xml:space="preserve">18.7734203338623</t>
+    <t xml:space="preserve">18.7734184265137</t>
   </si>
   <si>
     <t xml:space="preserve">19.6205596923828</t>
   </si>
   <si>
-    <t xml:space="preserve">19.7666187286377</t>
+    <t xml:space="preserve">19.7666206359863</t>
   </si>
   <si>
     <t xml:space="preserve">20.2047958374023</t>
@@ -2333,19 +2333,19 @@
     <t xml:space="preserve">21.8601303100586</t>
   </si>
   <si>
-    <t xml:space="preserve">21.324577331543</t>
+    <t xml:space="preserve">21.3245792388916</t>
   </si>
   <si>
     <t xml:space="preserve">21.7140693664551</t>
   </si>
   <si>
-    <t xml:space="preserve">22.0061874389648</t>
+    <t xml:space="preserve">22.0061893463135</t>
   </si>
   <si>
     <t xml:space="preserve">21.6653842926025</t>
   </si>
   <si>
-    <t xml:space="preserve">21.4706382751465</t>
+    <t xml:space="preserve">21.4706363677979</t>
   </si>
   <si>
     <t xml:space="preserve">21.9088153839111</t>
@@ -2360,16 +2360,16 @@
     <t xml:space="preserve">22.931224822998</t>
   </si>
   <si>
-    <t xml:space="preserve">23.466775894165</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.5641460418701</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.2457542419434</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.8786773681641</t>
+    <t xml:space="preserve">23.4667778015137</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.5641479492188</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.245756149292</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.8786754608154</t>
   </si>
   <si>
     <t xml:space="preserve">24.6352443695068</t>
@@ -2390,10 +2390,10 @@
     <t xml:space="preserve">22.8825416564941</t>
   </si>
   <si>
-    <t xml:space="preserve">23.1746559143066</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.6128330230713</t>
+    <t xml:space="preserve">23.1746578216553</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.6128349304199</t>
   </si>
   <si>
     <t xml:space="preserve">23.2233448028564</t>
@@ -2417,13 +2417,13 @@
     <t xml:space="preserve">21.7627544403076</t>
   </si>
   <si>
-    <t xml:space="preserve">20.5942878723145</t>
+    <t xml:space="preserve">20.5942859649658</t>
   </si>
   <si>
     <t xml:space="preserve">21.5193271636963</t>
   </si>
   <si>
-    <t xml:space="preserve">21.2272071838379</t>
+    <t xml:space="preserve">21.2272090911865</t>
   </si>
   <si>
     <t xml:space="preserve">21.6166973114014</t>
@@ -2432,16 +2432,16 @@
     <t xml:space="preserve">22.3469905853271</t>
   </si>
   <si>
-    <t xml:space="preserve">22.1035614013672</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.0811462402344</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.2496166229248</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.4930477142334</t>
+    <t xml:space="preserve">22.1035633087158</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.081148147583</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.2496185302734</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.493049621582</t>
   </si>
   <si>
     <t xml:space="preserve">22.0548725128174</t>
@@ -2462,7 +2462,7 @@
     <t xml:space="preserve">24.3918132781982</t>
   </si>
   <si>
-    <t xml:space="preserve">25.901086807251</t>
+    <t xml:space="preserve">25.9010887145996</t>
   </si>
   <si>
     <t xml:space="preserve">26.3392639160156</t>
@@ -2474,13 +2474,13 @@
     <t xml:space="preserve">26.8261260986328</t>
   </si>
   <si>
-    <t xml:space="preserve">26.7774410247803</t>
+    <t xml:space="preserve">26.7774429321289</t>
   </si>
   <si>
     <t xml:space="preserve">26.534008026123</t>
   </si>
   <si>
-    <t xml:space="preserve">27.8485374450684</t>
+    <t xml:space="preserve">27.848539352417</t>
   </si>
   <si>
     <t xml:space="preserve">28.8222637176514</t>
@@ -2495,7 +2495,7 @@
     <t xml:space="preserve">29.942045211792</t>
   </si>
   <si>
-    <t xml:space="preserve">30.5749664306641</t>
+    <t xml:space="preserve">30.5749683380127</t>
   </si>
   <si>
     <t xml:space="preserve">31.1105175018311</t>
@@ -2510,19 +2510,19 @@
     <t xml:space="preserve">31.7434368133545</t>
   </si>
   <si>
-    <t xml:space="preserve">32.2789878845215</t>
+    <t xml:space="preserve">32.2789916992188</t>
   </si>
   <si>
     <t xml:space="preserve">31.4513187408447</t>
   </si>
   <si>
-    <t xml:space="preserve">32.3763618469238</t>
+    <t xml:space="preserve">32.3763580322266</t>
   </si>
   <si>
     <t xml:space="preserve">32.5224189758301</t>
   </si>
   <si>
-    <t xml:space="preserve">33.4961471557617</t>
+    <t xml:space="preserve">33.4961433410645</t>
   </si>
   <si>
     <t xml:space="preserve">33.3987693786621</t>
@@ -2531,16 +2531,16 @@
     <t xml:space="preserve">33.0092811584473</t>
   </si>
   <si>
-    <t xml:space="preserve">33.6908874511719</t>
+    <t xml:space="preserve">33.6908836364746</t>
   </si>
   <si>
     <t xml:space="preserve">33.9343147277832</t>
   </si>
   <si>
-    <t xml:space="preserve">34.3238067626953</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.956729888916</t>
+    <t xml:space="preserve">34.3238105773926</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.9567337036133</t>
   </si>
   <si>
     <t xml:space="preserve">34.8106727600098</t>
@@ -2564,7 +2564,7 @@
     <t xml:space="preserve">34.5185508728027</t>
   </si>
   <si>
-    <t xml:space="preserve">32.7658538818359</t>
+    <t xml:space="preserve">32.7658500671387</t>
   </si>
   <si>
     <t xml:space="preserve">32.863224029541</t>
@@ -2576,7 +2576,7 @@
     <t xml:space="preserve">32.9119071960449</t>
   </si>
   <si>
-    <t xml:space="preserve">32.1329307556152</t>
+    <t xml:space="preserve">32.132926940918</t>
   </si>
   <si>
     <t xml:space="preserve">30.5262813568115</t>
@@ -2585,7 +2585,7 @@
     <t xml:space="preserve">31.0131454467773</t>
   </si>
   <si>
-    <t xml:space="preserve">30.7697143554688</t>
+    <t xml:space="preserve">30.7697124481201</t>
   </si>
   <si>
     <t xml:space="preserve">30.6723403930664</t>
@@ -2600,7 +2600,7 @@
     <t xml:space="preserve">34.080379486084</t>
   </si>
   <si>
-    <t xml:space="preserve">35.4922828674316</t>
+    <t xml:space="preserve">35.4922790527344</t>
   </si>
   <si>
     <t xml:space="preserve">35.8817672729492</t>
@@ -2612,13 +2612,13 @@
     <t xml:space="preserve">37.4884147644043</t>
   </si>
   <si>
-    <t xml:space="preserve">37.2449836730957</t>
-  </si>
-  <si>
-    <t xml:space="preserve">37.1963005065918</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36.1738891601562</t>
+    <t xml:space="preserve">37.2449798583984</t>
+  </si>
+  <si>
+    <t xml:space="preserve">37.1962966918945</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36.1738929748535</t>
   </si>
   <si>
     <t xml:space="preserve">36.6607513427734</t>
@@ -2651,13 +2651,13 @@
     <t xml:space="preserve">40.068790435791</t>
   </si>
   <si>
-    <t xml:space="preserve">39.9227256774902</t>
-  </si>
-  <si>
-    <t xml:space="preserve">38.8029441833496</t>
-  </si>
-  <si>
-    <t xml:space="preserve">38.9490051269531</t>
+    <t xml:space="preserve">39.9227294921875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">38.8029479980469</t>
+  </si>
+  <si>
+    <t xml:space="preserve">38.9490013122559</t>
   </si>
   <si>
     <t xml:space="preserve">39.8740425109863</t>
@@ -2678,10 +2678,10 @@
     <t xml:space="preserve">44.3531799316406</t>
   </si>
   <si>
-    <t xml:space="preserve">42.1622924804688</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40.3122215270996</t>
+    <t xml:space="preserve">42.162296295166</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40.3122253417969</t>
   </si>
   <si>
     <t xml:space="preserve">41.431999206543</t>
@@ -2693,28 +2693,28 @@
     <t xml:space="preserve">42.600471496582</t>
   </si>
   <si>
-    <t xml:space="preserve">42.3083572387695</t>
+    <t xml:space="preserve">42.3083534240723</t>
   </si>
   <si>
     <t xml:space="preserve">42.8925857543945</t>
   </si>
   <si>
-    <t xml:space="preserve">41.8701782226562</t>
-  </si>
-  <si>
-    <t xml:space="preserve">42.6491546630859</t>
-  </si>
-  <si>
-    <t xml:space="preserve">43.7689399719238</t>
+    <t xml:space="preserve">41.8701820373535</t>
+  </si>
+  <si>
+    <t xml:space="preserve">42.6491584777832</t>
+  </si>
+  <si>
+    <t xml:space="preserve">43.7689437866211</t>
   </si>
   <si>
     <t xml:space="preserve">44.4018630981445</t>
   </si>
   <si>
-    <t xml:space="preserve">44.9860954284668</t>
-  </si>
-  <si>
-    <t xml:space="preserve">45.0347862243652</t>
+    <t xml:space="preserve">44.9860992431641</t>
+  </si>
+  <si>
+    <t xml:space="preserve">45.034782409668</t>
   </si>
   <si>
     <t xml:space="preserve">45.9598236083984</t>
@@ -2723,7 +2723,7 @@
     <t xml:space="preserve">44.6939811706543</t>
   </si>
   <si>
-    <t xml:space="preserve">45.2782211303711</t>
+    <t xml:space="preserve">45.2782173156738</t>
   </si>
   <si>
     <t xml:space="preserve">46.3006286621094</t>
@@ -2741,10 +2741,10 @@
     <t xml:space="preserve">45.4242782592773</t>
   </si>
   <si>
-    <t xml:space="preserve">44.8887214660645</t>
-  </si>
-  <si>
-    <t xml:space="preserve">44.7913513183594</t>
+    <t xml:space="preserve">44.8887252807617</t>
+  </si>
+  <si>
+    <t xml:space="preserve">44.7913551330566</t>
   </si>
   <si>
     <t xml:space="preserve">44.5479278564453</t>
@@ -28325,7 +28325,7 @@
         <v>15.6800003051758</v>
       </c>
       <c r="G898" t="s">
-        <v>594</v>
+        <v>404</v>
       </c>
       <c r="H898" t="s">
         <v>9</v>
@@ -28351,7 +28351,7 @@
         <v>15.5600004196167</v>
       </c>
       <c r="G899" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="H899" t="s">
         <v>9</v>
@@ -28377,7 +28377,7 @@
         <v>15.7600002288818</v>
       </c>
       <c r="G900" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="H900" t="s">
         <v>9</v>
@@ -28429,7 +28429,7 @@
         <v>15.3800001144409</v>
       </c>
       <c r="G902" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="H902" t="s">
         <v>9</v>
@@ -28481,7 +28481,7 @@
         <v>15.3400001525879</v>
       </c>
       <c r="G904" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="H904" t="s">
         <v>9</v>
@@ -28507,7 +28507,7 @@
         <v>15.5</v>
       </c>
       <c r="G905" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="H905" t="s">
         <v>9</v>
@@ -28533,7 +28533,7 @@
         <v>15.6199998855591</v>
       </c>
       <c r="G906" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="H906" t="s">
         <v>9</v>
@@ -28559,7 +28559,7 @@
         <v>15.5</v>
       </c>
       <c r="G907" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="H907" t="s">
         <v>9</v>
@@ -28637,7 +28637,7 @@
         <v>15.3999996185303</v>
       </c>
       <c r="G910" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="H910" t="s">
         <v>9</v>
@@ -28715,7 +28715,7 @@
         <v>15.6199998855591</v>
       </c>
       <c r="G913" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="H913" t="s">
         <v>9</v>
@@ -28767,7 +28767,7 @@
         <v>15.4799995422363</v>
       </c>
       <c r="G915" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="H915" t="s">
         <v>9</v>
@@ -28793,7 +28793,7 @@
         <v>15.1199998855591</v>
       </c>
       <c r="G916" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="H916" t="s">
         <v>9</v>
@@ -28819,7 +28819,7 @@
         <v>15.1599998474121</v>
       </c>
       <c r="G917" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="H917" t="s">
         <v>9</v>
@@ -28845,7 +28845,7 @@
         <v>15.1800003051758</v>
       </c>
       <c r="G918" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="H918" t="s">
         <v>9</v>
@@ -28871,7 +28871,7 @@
         <v>15.3400001525879</v>
       </c>
       <c r="G919" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="H919" t="s">
         <v>9</v>
@@ -28897,7 +28897,7 @@
         <v>15.0799999237061</v>
       </c>
       <c r="G920" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="H920" t="s">
         <v>9</v>
@@ -28923,7 +28923,7 @@
         <v>15.2200002670288</v>
       </c>
       <c r="G921" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="H921" t="s">
         <v>9</v>
@@ -28949,7 +28949,7 @@
         <v>15.1599998474121</v>
       </c>
       <c r="G922" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="H922" t="s">
         <v>9</v>
@@ -28975,7 +28975,7 @@
         <v>15.1999998092651</v>
       </c>
       <c r="G923" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="H923" t="s">
         <v>9</v>
@@ -29001,7 +29001,7 @@
         <v>15.039999961853</v>
       </c>
       <c r="G924" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="H924" t="s">
         <v>9</v>
@@ -29027,7 +29027,7 @@
         <v>15.1199998855591</v>
       </c>
       <c r="G925" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="H925" t="s">
         <v>9</v>
@@ -29053,7 +29053,7 @@
         <v>15.2200002670288</v>
       </c>
       <c r="G926" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="H926" t="s">
         <v>9</v>
@@ -29079,7 +29079,7 @@
         <v>15.0200004577637</v>
       </c>
       <c r="G927" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="H927" t="s">
         <v>9</v>
@@ -29105,7 +29105,7 @@
         <v>15.2399997711182</v>
       </c>
       <c r="G928" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="H928" t="s">
         <v>9</v>
@@ -29157,7 +29157,7 @@
         <v>15.5200004577637</v>
       </c>
       <c r="G930" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="H930" t="s">
         <v>9</v>
@@ -29209,7 +29209,7 @@
         <v>15.1400003433228</v>
       </c>
       <c r="G932" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="H932" t="s">
         <v>9</v>
@@ -29261,7 +29261,7 @@
         <v>15.1800003051758</v>
       </c>
       <c r="G934" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="H934" t="s">
         <v>9</v>
@@ -29287,7 +29287,7 @@
         <v>15.4799995422363</v>
       </c>
       <c r="G935" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="H935" t="s">
         <v>9</v>
@@ -29313,7 +29313,7 @@
         <v>15.960000038147</v>
       </c>
       <c r="G936" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="H936" t="s">
         <v>9</v>
@@ -29339,7 +29339,7 @@
         <v>16</v>
       </c>
       <c r="G937" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="H937" t="s">
         <v>9</v>
@@ -29365,7 +29365,7 @@
         <v>16.2999992370605</v>
       </c>
       <c r="G938" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="H938" t="s">
         <v>9</v>
@@ -29391,7 +29391,7 @@
         <v>16.1399993896484</v>
       </c>
       <c r="G939" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="H939" t="s">
         <v>9</v>
@@ -29417,7 +29417,7 @@
         <v>16.3400001525879</v>
       </c>
       <c r="G940" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="H940" t="s">
         <v>9</v>
@@ -29443,7 +29443,7 @@
         <v>16.4200000762939</v>
       </c>
       <c r="G941" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="H941" t="s">
         <v>9</v>
@@ -29469,7 +29469,7 @@
         <v>16.7999992370605</v>
       </c>
       <c r="G942" t="s">
-        <v>554</v>
+        <v>619</v>
       </c>
       <c r="H942" t="s">
         <v>9</v>
@@ -29859,7 +29859,7 @@
         <v>16</v>
       </c>
       <c r="G957" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="H957" t="s">
         <v>9</v>
@@ -29989,7 +29989,7 @@
         <v>16.3400001525879</v>
       </c>
       <c r="G962" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="H962" t="s">
         <v>9</v>
@@ -30119,7 +30119,7 @@
         <v>16.7999992370605</v>
       </c>
       <c r="G967" t="s">
-        <v>554</v>
+        <v>619</v>
       </c>
       <c r="H967" t="s">
         <v>9</v>
@@ -33031,7 +33031,7 @@
         <v>15.2399997711182</v>
       </c>
       <c r="G1079" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="H1079" t="s">
         <v>9</v>
@@ -33083,7 +33083,7 @@
         <v>15.1599998474121</v>
       </c>
       <c r="G1081" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="H1081" t="s">
         <v>9</v>
@@ -33369,7 +33369,7 @@
         <v>15.7600002288818</v>
       </c>
       <c r="G1092" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="H1092" t="s">
         <v>9</v>
@@ -33525,7 +33525,7 @@
         <v>16.3400001525879</v>
       </c>
       <c r="G1098" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="H1098" t="s">
         <v>9</v>
@@ -33603,7 +33603,7 @@
         <v>15.5200004577637</v>
       </c>
       <c r="G1101" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="H1101" t="s">
         <v>9</v>
@@ -33759,7 +33759,7 @@
         <v>16</v>
       </c>
       <c r="G1107" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="H1107" t="s">
         <v>9</v>
@@ -33785,7 +33785,7 @@
         <v>15.3999996185303</v>
       </c>
       <c r="G1108" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="H1108" t="s">
         <v>9</v>
@@ -33837,7 +33837,7 @@
         <v>16.2999992370605</v>
       </c>
       <c r="G1110" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="H1110" t="s">
         <v>9</v>
@@ -33863,7 +33863,7 @@
         <v>16</v>
       </c>
       <c r="G1111" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="H1111" t="s">
         <v>9</v>
@@ -33967,7 +33967,7 @@
         <v>16.1399993896484</v>
       </c>
       <c r="G1115" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="H1115" t="s">
         <v>9</v>
@@ -63537,7 +63537,7 @@
     </row>
     <row r="2253">
       <c r="A2253" s="1" t="n">
-        <v>45601.691087963</v>
+        <v>45601.3333333333</v>
       </c>
       <c r="B2253" t="n">
         <v>8486</v>
@@ -63558,6 +63558,32 @@
         <v>1543</v>
       </c>
       <c r="H2253" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2254">
+      <c r="A2254" s="1" t="n">
+        <v>45602.6912615741</v>
+      </c>
+      <c r="B2254" t="n">
+        <v>8456</v>
+      </c>
+      <c r="C2254" t="n">
+        <v>34.4500007629395</v>
+      </c>
+      <c r="D2254" t="n">
+        <v>33.1500015258789</v>
+      </c>
+      <c r="E2254" t="n">
+        <v>33.9000015258789</v>
+      </c>
+      <c r="F2254" t="n">
+        <v>33.4500007629395</v>
+      </c>
+      <c r="G2254" t="s">
+        <v>1528</v>
+      </c>
+      <c r="H2254" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/MOL.MI.xlsx
+++ b/data/MOL.MI.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1545" uniqueCount="1545">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1546" uniqueCount="1546">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -38,715 +38,715 @@
     <t xml:space="preserve">ticker</t>
   </si>
   <si>
-    <t xml:space="preserve">7.07825517654419</t>
+    <t xml:space="preserve">6.98252248764038</t>
   </si>
   <si>
     <t xml:space="preserve">MOL.MI</t>
   </si>
   <si>
-    <t xml:space="preserve">6.98223352432251</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.88163709640503</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.99595069885254</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.85877466201782</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.95022487640381</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.04167509078979</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.76732492446899</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.52955341339111</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.30092716217041</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.56156158447266</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.4472484588623</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.77646970748901</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.67587423324585</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.09059143066406</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.73988962173462</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.87706518173218</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.9868049621582</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.8862099647522</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.91364526748657</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.90450000762939</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.21862268447876</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.09516429901123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.4929723739624</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.26434803009033</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.46096515655518</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.6118597984314</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.55241584777832</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.72617197036743</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.54327154159546</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.6392936706543</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.6027135848999</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.51583576202393</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.62100315093994</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.56613349914551</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.85420274734497</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.64843940734863</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.43353128433228</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.45182085037231</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.48382902145386</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.47468233108521</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.84963035583496</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.6530122756958</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.62557649612427</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.66672945022583</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.671302318573</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.5798511505127</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.40152263641357</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.26892042160034</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.49754619598389</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.41066837310791</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.50211954116821</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.45639276504517</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.42895841598511</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.4655385017395</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.36037063598633</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.39695072174072</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.8084774017334</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.69416475296021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.71245431900024</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.63472127914429</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.85386896133423</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.66711473464966</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.76049089431763</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.65777683258057</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.72314071655273</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.77449798583984</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.5784068107605</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.83986139297485</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.91456413269043</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.81651735305786</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.90522527694702</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.92857027053833</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.97525835037231</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.07797288894653</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.17601871490479</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.21803951263428</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.33942842483521</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.49350023269653</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.56353378295898</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.70359802246094</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.54485845565796</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.62422800064087</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.49816846847534</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.4701566696167</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.46548748016357</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.43747472763062</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.33009099960327</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.37677907943726</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.23671388626099</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.31608438491821</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.19002485275269</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.06863594055176</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.35343456268311</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.40479183197021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.55419588088989</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.56820154190063</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.23204517364502</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.95658302307129</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.32542133331299</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.42346715927124</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.08731079101562</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.90055704116821</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.7138032913208</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.78850412368774</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.79784202575684</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.62976408004761</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.97058963775635</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.87254476547241</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.76982975006104</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.67645168304443</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.97992658615112</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.78383541107178</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.00327205657959</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.93323945999146</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.70446491241455</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.75582218170166</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.88188123703003</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.90989398956299</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.98459625244141</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.10598611831665</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.92390155792236</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.01260900497437</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.02194690704346</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.04062175750732</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.04529142379761</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.04996013641357</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.03128480911255</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.15267515182495</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.13399887084961</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.09664869308472</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.21336984634399</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.41413021087646</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.24605226516724</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.20870065689087</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.86320638656616</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.91923236846924</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.11532354354858</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.16201210021973</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.25538873672485</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.22270822525024</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.43280553817749</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.29274034500122</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.28340196609497</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.30207777023315</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.38611698150635</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.32075357437134</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.29740905761719</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.39545488357544</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.45148086547852</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.62889719009399</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.46081876754761</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.48883247375488</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.42813682556152</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.60088443756104</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.61489009857178</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.11065483093262</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.26939582824707</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.41879892349243</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.14333724975586</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.76896238327026</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.72694253921509</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.75028610229492</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.65690946578979</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.516845703125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.86234045028687</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.91836643218994</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.98373031616211</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.93704175949097</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.93237209320068</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.89035320281982</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.03041839599609</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.2358455657959</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.61869239807129</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.69339561462402</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.73074626922607</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.86147403717041</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.65604496002197</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.68872547149658</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.63736915588379</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.4973030090332</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.5159797668457</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.61402416229248</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.60468578338623</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.60001754760742</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.6420373916626</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.65137386322021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.74942016601562</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.58134174346924</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.57667446136475</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.36657619476318</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.54399108886719</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.47862720489502</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.34323024749756</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.38058280944824</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.55799770355225</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.5720043182373</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.68405723571777</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.76342868804932</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.70273208618164</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.5019702911377</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.548659324646</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.29654312133789</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.40392589569092</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.55333042144775</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.71206951141357</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.98286247253418</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.89795780181885</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.56179904937744</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.52444934844971</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.31901836395264</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.46842288970947</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.50577354431152</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.51511001586914</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.53378582000732</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.24431896209717</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.33769512176514</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.43107318878174</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.66451454162598</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.86994361877441</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.78590393066406</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1314001083374</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2247772216797</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5515947341919</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2714653015137</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.794376373291</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2052345275879</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1678829193115</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2705974578857</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2986106872559</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0931816101074</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0651702880859</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1118564605713</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6140308380127</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3604221343994</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.144383430481</t>
+    <t xml:space="preserve">6.88779878616333</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.78856420516968</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.90133047103882</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.76600980758667</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.85622358322144</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.9464373588562</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.67579698562622</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.44124174118042</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.21570825576782</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.47281646728516</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.3600492477417</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.68481779098511</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.58558368682861</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.00821733474731</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.64873313903809</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.78405284881592</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.89230871200562</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.79307460784912</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.8201379776001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.81111764907837</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.13451671600342</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.01272773742676</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.40515613555908</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.17962265014648</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.3735818862915</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.5224347114563</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.46379518508911</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.63520097732544</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.45477390289307</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.54949855804443</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.51341247558594</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.42771005630493</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.53145503997803</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.4773268699646</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.76149988174438</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.55851936340332</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.34651803970337</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.3645601272583</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.39613580703735</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.38711309432983</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.75698852539062</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.56303024291992</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.53596639633179</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.57656192779541</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.58107280731201</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.49085903167725</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.31494283676147</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.18413305282593</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.40966796875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.32396411895752</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.41417741775513</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.36907052993774</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.34200668334961</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.37809276580811</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.27434682846069</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.31043195724487</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.716392993927</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.6036262512207</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.62166881561279</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.54498720169067</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.76117038726807</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.57694149017334</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.6690559387207</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.56773090362549</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.63221073150635</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.68287324905396</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.48943328857422</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.74735307693481</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.82104396820068</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.72432518005371</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.81183338165283</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.83486127853394</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.88091897964478</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.98224353790283</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.07896375656128</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.12041425704956</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.24016332626343</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.39215040206909</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.46123743057251</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.59940767288208</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.44281435012817</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.52111101150513</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.39675664901733</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.3691234588623</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.3645167350769</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.33688354492188</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.23095178604126</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.2770094871521</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.13883829116821</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.21713447570801</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.09278059005737</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.97303247451782</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.25398063659668</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.30464267730713</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.45202589035034</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.46584224700928</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.13423156738281</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.86249542236328</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.22634649276733</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.32306575775146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.99145555496216</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.80722665786743</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.62299966812134</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.69669008255005</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.70590209960938</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.54009628295898</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.87631273269653</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.7795934677124</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.67826747894287</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.58615398406982</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.88552474975586</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.69208478927612</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.90855264663696</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.83946752548218</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.61378765106201</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.66445064544678</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.78880453109741</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.81643867492676</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.89012956619263</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.00987815856934</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.83025598526001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.91776466369629</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.9269757270813</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.94539785385132</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.95000410079956</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.95460939407349</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.93618726730347</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.05593538284302</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.03751277923584</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.00066661834717</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.11580944061279</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.31385469436646</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.14804935455322</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.11120414733887</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.77038145065308</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.82565021514893</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.01908922195435</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.06514644622803</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.15725994110107</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.12502145767212</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.33227729797363</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.1941065788269</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.18489456176758</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.20331764221191</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.28622007369995</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.22174119949341</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.19871187210083</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.29543161392212</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.35070037841797</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.52571678161621</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.35991144180298</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.38754606246948</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.32767152786255</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.49808311462402</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.51189994812012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.0144829750061</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.17107725143433</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.3184609413147</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.04672384262085</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.6638879776001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.6224365234375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.64546585083008</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.5533504486084</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.41517972946167</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.7560019493103</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.81126976013184</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.87575054168701</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.82969284057617</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.82508754730225</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.78363513946533</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.92180681228638</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.12445735931396</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.50212478637695</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.57581806182861</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.61266422271729</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.74162197113037</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.53897094726562</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.57121276855469</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.52054882049561</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.38237857818604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.40079879760742</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.49752044677734</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.48830699920654</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.48370170593262</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.52515506744385</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.53436660766602</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.63108539581299</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.4652795791626</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.46067333221436</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.25341701507568</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.42843341827393</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.36395454406738</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.23038959503174</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.26723480224609</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.44225025177002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.45606803894043</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.56660556793213</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.64490222930908</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.58502864837646</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.38698291778564</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.43303871154785</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.18433284759521</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.29026317596436</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.43764495849609</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.59424018859863</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.86137008666992</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.76408958435059</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.43247604370117</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.39563179016113</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.19297981262207</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.34036445617676</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.3772087097168</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.38642024993896</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.4048433303833</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.11929035186768</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.21140289306641</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.30351829528809</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.53380298614502</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.73645401000977</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.65354824066162</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.99437427520752</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0864868164062</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4088850021362</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1325435638428</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6483840942383</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0536842346191</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0168390274048</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1181650161743</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1457977294922</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9431476593018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9155139923096</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9615707397461</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.614031791687</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3604211807251</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1443853378296</t>
   </si>
   <si>
     <t xml:space="preserve">10.5201015472412</t>
@@ -770,7 +770,7 @@
     <t xml:space="preserve">10.6797819137573</t>
   </si>
   <si>
-    <t xml:space="preserve">10.8864269256592</t>
+    <t xml:space="preserve">10.8864278793335</t>
   </si>
   <si>
     <t xml:space="preserve">11.224573135376</t>
@@ -779,10 +779,10 @@
     <t xml:space="preserve">11.9290437698364</t>
   </si>
   <si>
-    <t xml:space="preserve">11.7411851882935</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3654670715332</t>
+    <t xml:space="preserve">11.7411861419678</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3654689788818</t>
   </si>
   <si>
     <t xml:space="preserve">11.4500045776367</t>
@@ -791,16 +791,16 @@
     <t xml:space="preserve">11.2433595657349</t>
   </si>
   <si>
-    <t xml:space="preserve">11.2903232574463</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1776075363159</t>
+    <t xml:space="preserve">11.290322303772</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1776084899902</t>
   </si>
   <si>
     <t xml:space="preserve">10.9709634780884</t>
   </si>
   <si>
-    <t xml:space="preserve">10.8958215713501</t>
+    <t xml:space="preserve">10.8958206176758</t>
   </si>
   <si>
     <t xml:space="preserve">10.8770341873169</t>
@@ -809,67 +809,67 @@
     <t xml:space="preserve">11.1306447982788</t>
   </si>
   <si>
-    <t xml:space="preserve">11.0085344314575</t>
+    <t xml:space="preserve">11.0085353851318</t>
   </si>
   <si>
     <t xml:space="preserve">10.7079601287842</t>
   </si>
   <si>
-    <t xml:space="preserve">11.2715377807617</t>
+    <t xml:space="preserve">11.271538734436</t>
   </si>
   <si>
     <t xml:space="preserve">11.2057876586914</t>
   </si>
   <si>
-    <t xml:space="preserve">11.637864112854</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2151794433594</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0836801528931</t>
+    <t xml:space="preserve">11.6378631591797</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2151803970337</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0836791992188</t>
   </si>
   <si>
     <t xml:space="preserve">11.6002912521362</t>
   </si>
   <si>
-    <t xml:space="preserve">11.5533266067505</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.8632926940918</t>
+    <t xml:space="preserve">11.5533246994019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.8632936477661</t>
   </si>
   <si>
     <t xml:space="preserve">12.2577972412109</t>
   </si>
   <si>
-    <t xml:space="preserve">12.483226776123</t>
+    <t xml:space="preserve">12.4832277297974</t>
   </si>
   <si>
     <t xml:space="preserve">12.0511531829834</t>
   </si>
   <si>
-    <t xml:space="preserve">12.6804809570312</t>
+    <t xml:space="preserve">12.6804800033569</t>
   </si>
   <si>
     <t xml:space="preserve">12.6898736953735</t>
   </si>
   <si>
-    <t xml:space="preserve">12.840160369873</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.91530418396</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.6992664337158</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.9622678756714</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.8965167999268</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.7086591720581</t>
+    <t xml:space="preserve">12.8401613235474</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.9153022766113</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.6992673873901</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.9622669219971</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.8965187072754</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.7086582183838</t>
   </si>
   <si>
     <t xml:space="preserve">12.7462301254272</t>
@@ -878,7 +878,7 @@
     <t xml:space="preserve">12.727445602417</t>
   </si>
   <si>
-    <t xml:space="preserve">12.6335153579712</t>
+    <t xml:space="preserve">12.6335163116455</t>
   </si>
   <si>
     <t xml:space="preserve">12.661693572998</t>
@@ -887,37 +887,37 @@
     <t xml:space="preserve">12.6523008346558</t>
   </si>
   <si>
-    <t xml:space="preserve">12.8495531082153</t>
+    <t xml:space="preserve">12.849555015564</t>
   </si>
   <si>
     <t xml:space="preserve">12.7931957244873</t>
   </si>
   <si>
-    <t xml:space="preserve">12.7180528640747</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.3423347473145</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.5583715438843</t>
+    <t xml:space="preserve">12.7180519104004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.3423337936401</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.5583724975586</t>
   </si>
   <si>
     <t xml:space="preserve">12.5865507125854</t>
   </si>
   <si>
-    <t xml:space="preserve">12.4550495147705</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.5301923751831</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0417594909668</t>
+    <t xml:space="preserve">12.4550504684448</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.5301933288574</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0417585372925</t>
   </si>
   <si>
     <t xml:space="preserve">12.4456567764282</t>
   </si>
   <si>
-    <t xml:space="preserve">12.3329420089722</t>
+    <t xml:space="preserve">12.3329410552979</t>
   </si>
   <si>
     <t xml:space="preserve">12.2108325958252</t>
@@ -926,31 +926,31 @@
     <t xml:space="preserve">12.1075115203857</t>
   </si>
   <si>
-    <t xml:space="preserve">12.4738349914551</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.426869392395</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0981178283691</t>
+    <t xml:space="preserve">12.4738340377808</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.4268703460693</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0981168746948</t>
   </si>
   <si>
     <t xml:space="preserve">12.1169023513794</t>
   </si>
   <si>
-    <t xml:space="preserve">12.4926233291626</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.60533618927</t>
+    <t xml:space="preserve">12.492621421814</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.6053380966187</t>
   </si>
   <si>
     <t xml:space="preserve">12.5114059448242</t>
   </si>
   <si>
-    <t xml:space="preserve">12.5395860671997</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.3141555786133</t>
+    <t xml:space="preserve">12.539587020874</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.314154624939</t>
   </si>
   <si>
     <t xml:space="preserve">12.4080848693848</t>
@@ -959,13 +959,13 @@
     <t xml:space="preserve">12.5020141601562</t>
   </si>
   <si>
-    <t xml:space="preserve">12.6147308349609</t>
+    <t xml:space="preserve">12.6147298812866</t>
   </si>
   <si>
     <t xml:space="preserve">12.3611192703247</t>
   </si>
   <si>
-    <t xml:space="preserve">12.5959444046021</t>
+    <t xml:space="preserve">12.5959434509277</t>
   </si>
   <si>
     <t xml:space="preserve">12.4644432067871</t>
@@ -977,43 +977,43 @@
     <t xml:space="preserve">12.2202253341675</t>
   </si>
   <si>
-    <t xml:space="preserve">12.1826543807983</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5908985137939</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7881507873535</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9478302001953</t>
+    <t xml:space="preserve">12.182653427124</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5908994674683</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7881488800049</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.947829246521</t>
   </si>
   <si>
     <t xml:space="preserve">11.8163290023804</t>
   </si>
   <si>
-    <t xml:space="preserve">11.8351154327393</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9008655548096</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0793313980103</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9760084152222</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0229749679565</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.891471862793</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.3892984390259</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.3517255783081</t>
+    <t xml:space="preserve">11.8351144790649</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9008665084839</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0793304443359</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9760093688965</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0229730606079</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.8914728164673</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.3892974853516</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.3517274856567</t>
   </si>
   <si>
     <t xml:space="preserve">11.9196510314941</t>
@@ -1022,64 +1022,64 @@
     <t xml:space="preserve">11.8726873397827</t>
   </si>
   <si>
-    <t xml:space="preserve">11.337287902832</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.4406118392944</t>
+    <t xml:space="preserve">11.3372888565063</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4406108856201</t>
   </si>
   <si>
     <t xml:space="preserve">11.3091096878052</t>
   </si>
   <si>
-    <t xml:space="preserve">11.6942224502563</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.6190767288208</t>
+    <t xml:space="preserve">11.6942195892334</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.6190776824951</t>
   </si>
   <si>
     <t xml:space="preserve">11.7505788803101</t>
   </si>
   <si>
-    <t xml:space="preserve">11.7317924499512</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.647255897522</t>
+    <t xml:space="preserve">11.7317914962769</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.6472549438477</t>
   </si>
   <si>
     <t xml:space="preserve">11.825722694397</t>
   </si>
   <si>
-    <t xml:space="preserve">12.0135803222656</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.3047618865967</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1638679504395</t>
+    <t xml:space="preserve">12.0135812759399</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.3047637939453</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1638689041138</t>
   </si>
   <si>
     <t xml:space="preserve">12.069938659668</t>
   </si>
   <si>
-    <t xml:space="preserve">13.0937690734863</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.1082077026367</t>
+    <t xml:space="preserve">13.0937700271606</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.1082096099854</t>
   </si>
   <si>
     <t xml:space="preserve">14.296067237854</t>
   </si>
   <si>
-    <t xml:space="preserve">14.2772817611694</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.1269941329956</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.1833524703979</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.8220710754395</t>
+    <t xml:space="preserve">14.2772808074951</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.1269931793213</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.1833515167236</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.8220720291138</t>
   </si>
   <si>
     <t xml:space="preserve">14.0894231796265</t>
@@ -1088,16 +1088,16 @@
     <t xml:space="preserve">13.8076343536377</t>
   </si>
   <si>
-    <t xml:space="preserve">14.3899974822998</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.2021369934082</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.8827781677246</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.5778570175171</t>
+    <t xml:space="preserve">14.3899955749512</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.2021379470825</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.8827772140503</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.5778560638428</t>
   </si>
   <si>
     <t xml:space="preserve">14.7093572616577</t>
@@ -1118,19 +1118,19 @@
     <t xml:space="preserve">13.1689138412476</t>
   </si>
   <si>
-    <t xml:space="preserve">12.9434833526611</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5446300506592</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.206485748291</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.9059104919434</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.1501274108887</t>
+    <t xml:space="preserve">12.9434823989868</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5446310043335</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2064847946167</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.905909538269</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1501264572144</t>
   </si>
   <si>
     <t xml:space="preserve">13.694917678833</t>
@@ -1142,46 +1142,46 @@
     <t xml:space="preserve">12.8307676315308</t>
   </si>
   <si>
-    <t xml:space="preserve">12.2671909332275</t>
+    <t xml:space="preserve">12.2671890258789</t>
   </si>
   <si>
     <t xml:space="preserve">12.1732606887817</t>
   </si>
   <si>
-    <t xml:space="preserve">11.9854011535645</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.7556238174438</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.8871269226074</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.7744102478027</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.3235473632812</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1920471191406</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.2296199798584</t>
+    <t xml:space="preserve">11.9854021072388</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.7556228637695</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.8871250152588</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.7744112014771</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.3235492706299</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1920461654663</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2296190261841</t>
   </si>
   <si>
     <t xml:space="preserve">11.7599716186523</t>
   </si>
   <si>
-    <t xml:space="preserve">12.6241226196289</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9666166305542</t>
+    <t xml:space="preserve">12.6241216659546</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9666156768799</t>
   </si>
   <si>
     <t xml:space="preserve">12.0041885375977</t>
   </si>
   <si>
-    <t xml:space="preserve">12.3986911773682</t>
+    <t xml:space="preserve">12.3986921310425</t>
   </si>
   <si>
     <t xml:space="preserve">12.548978805542</t>
@@ -1190,13 +1190,13 @@
     <t xml:space="preserve">13.5258455276489</t>
   </si>
   <si>
-    <t xml:space="preserve">13.7137041091919</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.9015626907349</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.4463558197021</t>
+    <t xml:space="preserve">13.7137060165405</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.9015636444092</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.4463548660278</t>
   </si>
   <si>
     <t xml:space="preserve">15.1038608551025</t>
@@ -1205,16 +1205,16 @@
     <t xml:space="preserve">14.9723606109619</t>
   </si>
   <si>
-    <t xml:space="preserve">14.9347867965698</t>
+    <t xml:space="preserve">14.9347877502441</t>
   </si>
   <si>
     <t xml:space="preserve">14.9911451339722</t>
   </si>
   <si>
-    <t xml:space="preserve">15.2208938598633</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8909950256348</t>
+    <t xml:space="preserve">15.2208948135376</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8909978866577</t>
   </si>
   <si>
     <t xml:space="preserve">15.6038093566895</t>
@@ -1223,10 +1223,10 @@
     <t xml:space="preserve">15.4314985275269</t>
   </si>
   <si>
-    <t xml:space="preserve">15.2783317565918</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3166246414185</t>
+    <t xml:space="preserve">15.2783327102661</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3166236877441</t>
   </si>
   <si>
     <t xml:space="preserve">15.374059677124</t>
@@ -1235,16 +1235,16 @@
     <t xml:space="preserve">15.5080823898315</t>
   </si>
   <si>
-    <t xml:space="preserve">14.3210439682007</t>
+    <t xml:space="preserve">14.3210430145264</t>
   </si>
   <si>
     <t xml:space="preserve">13.9955644607544</t>
   </si>
   <si>
-    <t xml:space="preserve">13.4403381347656</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.7849607467651</t>
+    <t xml:space="preserve">13.440336227417</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.7849617004395</t>
   </si>
   <si>
     <t xml:space="preserve">13.8615436553955</t>
@@ -1253,7 +1253,7 @@
     <t xml:space="preserve">13.2488784790039</t>
   </si>
   <si>
-    <t xml:space="preserve">13.1148586273193</t>
+    <t xml:space="preserve">13.1148595809937</t>
   </si>
   <si>
     <t xml:space="preserve">13.2871713638306</t>
@@ -1262,43 +1262,43 @@
     <t xml:space="preserve">13.0574216842651</t>
   </si>
   <si>
-    <t xml:space="preserve">12.2532997131348</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.712797164917</t>
+    <t xml:space="preserve">12.2532987594604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.7127962112427</t>
   </si>
   <si>
     <t xml:space="preserve">13.1722965240479</t>
   </si>
   <si>
-    <t xml:space="preserve">12.7893800735474</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.8659639358521</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.9234018325806</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.038275718689</t>
+    <t xml:space="preserve">12.7893810272217</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.8659629821777</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.9234008789062</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.0382766723633</t>
   </si>
   <si>
     <t xml:space="preserve">12.5021944046021</t>
   </si>
   <si>
-    <t xml:space="preserve">12.9042549133301</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.8851108551025</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.9425468444824</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.4256114959717</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.9189805984497</t>
+    <t xml:space="preserve">12.9042539596558</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.8851089477539</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.9425477981567</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.425609588623</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.9189796447754</t>
   </si>
   <si>
     <t xml:space="preserve">13.9572725296021</t>
@@ -1310,178 +1310,178 @@
     <t xml:space="preserve">14.0530033111572</t>
   </si>
   <si>
-    <t xml:space="preserve">14.2636060714722</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.804105758667</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.7658157348633</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5935039520264</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6317958831787</t>
+    <t xml:space="preserve">14.2636051177979</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.8041076660156</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.765814781189</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5935029983521</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6317949295044</t>
   </si>
   <si>
     <t xml:space="preserve">13.6126499176025</t>
   </si>
   <si>
-    <t xml:space="preserve">13.4211921691895</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.3063154220581</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.4977750778198</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6509408950806</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.3829002380371</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5360660552979</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.7319450378418</t>
+    <t xml:space="preserve">13.4211912155151</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3063163757324</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.4977760314941</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6509418487549</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3828983306885</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5360670089722</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.7319431304932</t>
   </si>
   <si>
     <t xml:space="preserve">12.6745052337646</t>
   </si>
   <si>
-    <t xml:space="preserve">12.4447565078735</t>
+    <t xml:space="preserve">12.4447574615479</t>
   </si>
   <si>
     <t xml:space="preserve">12.8468179702759</t>
   </si>
   <si>
-    <t xml:space="preserve">13.2105875015259</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.1531496047974</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.9808397293091</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.1340065002441</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.9764184951782</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.3018970489502</t>
+    <t xml:space="preserve">13.2105865478516</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1531505584717</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.9808387756348</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1340045928955</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.9764194488525</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.3018980026245</t>
   </si>
   <si>
     <t xml:space="preserve">14.4550638198853</t>
   </si>
   <si>
-    <t xml:space="preserve">14.4933557510376</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.244460105896</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.880690574646</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6700868606567</t>
+    <t xml:space="preserve">14.4933547973633</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.2444591522217</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.8806896209717</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6700859069824</t>
   </si>
   <si>
     <t xml:space="preserve">13.9381265640259</t>
   </si>
   <si>
-    <t xml:space="preserve">13.7275247573853</t>
+    <t xml:space="preserve">13.7275238037109</t>
   </si>
   <si>
     <t xml:space="preserve">14.3593349456787</t>
   </si>
   <si>
-    <t xml:space="preserve">15.1251649856567</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6995372772217</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4697914123535</t>
+    <t xml:space="preserve">15.1251659393311</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.699538230896</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4697904586792</t>
   </si>
   <si>
     <t xml:space="preserve">15.3549165725708</t>
   </si>
   <si>
-    <t xml:space="preserve">16.7525577545166</t>
+    <t xml:space="preserve">16.752555847168</t>
   </si>
   <si>
     <t xml:space="preserve">16.9248695373535</t>
   </si>
   <si>
-    <t xml:space="preserve">17.1354694366455</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.8482856750488</t>
+    <t xml:space="preserve">17.1354713439941</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.8482875823975</t>
   </si>
   <si>
     <t xml:space="preserve">16.4462261199951</t>
   </si>
   <si>
-    <t xml:space="preserve">16.1207485198975</t>
+    <t xml:space="preserve">16.1207447052002</t>
   </si>
   <si>
     <t xml:space="preserve">15.7952671051025</t>
   </si>
   <si>
-    <t xml:space="preserve">15.7186851501465</t>
+    <t xml:space="preserve">15.7186841964722</t>
   </si>
   <si>
     <t xml:space="preserve">15.2017488479614</t>
   </si>
   <si>
-    <t xml:space="preserve">15.412353515625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.5699377059937</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.7996892929077</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.6273746490479</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.8379783630371</t>
+    <t xml:space="preserve">15.4123516082764</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.569938659668</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.7996873855591</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.6273756027222</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.8379793167114</t>
   </si>
   <si>
     <t xml:space="preserve">14.4359169006348</t>
   </si>
   <si>
-    <t xml:space="preserve">14.3784799575806</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.0721483230591</t>
+    <t xml:space="preserve">14.3784809112549</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.0721473693848</t>
   </si>
   <si>
     <t xml:space="preserve">13.7083768844604</t>
   </si>
   <si>
-    <t xml:space="preserve">14.0338563919067</t>
+    <t xml:space="preserve">14.0338573455811</t>
   </si>
   <si>
     <t xml:space="preserve">14.2061681747437</t>
   </si>
   <si>
-    <t xml:space="preserve">15.0677270889282</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.6656675338745</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.608229637146</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7569732666016</t>
+    <t xml:space="preserve">15.0677280426025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.6656665802002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.6082305908203</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7569742202759</t>
   </si>
   <si>
     <t xml:space="preserve">15.1634578704834</t>
@@ -1490,31 +1490,31 @@
     <t xml:space="preserve">16.2930603027344</t>
   </si>
   <si>
-    <t xml:space="preserve">16.2739143371582</t>
+    <t xml:space="preserve">16.2739105224609</t>
   </si>
   <si>
     <t xml:space="preserve">16.4653720855713</t>
   </si>
   <si>
-    <t xml:space="preserve">16.2547664642334</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.0824546813965</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6612482070923</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.2356224060059</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.5610961914062</t>
+    <t xml:space="preserve">16.2547645568848</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.0824508666992</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6612491607666</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.2356185913086</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.5611000061035</t>
   </si>
   <si>
     <t xml:space="preserve">16.3122062683105</t>
   </si>
   <si>
-    <t xml:space="preserve">16.541955947876</t>
+    <t xml:space="preserve">16.5419540405273</t>
   </si>
   <si>
     <t xml:space="preserve">15.8527040481567</t>
@@ -1526,7 +1526,7 @@
     <t xml:space="preserve">16.139892578125</t>
   </si>
   <si>
-    <t xml:space="preserve">15.2591876983643</t>
+    <t xml:space="preserve">15.2591857910156</t>
   </si>
   <si>
     <t xml:space="preserve">16.0633087158203</t>
@@ -1538,7 +1538,7 @@
     <t xml:space="preserve">14.9337072372437</t>
   </si>
   <si>
-    <t xml:space="preserve">15.1060190200806</t>
+    <t xml:space="preserve">15.1060199737549</t>
   </si>
   <si>
     <t xml:space="preserve">14.7422494888306</t>
@@ -1547,10 +1547,10 @@
     <t xml:space="preserve">15.0102920532227</t>
   </si>
   <si>
-    <t xml:space="preserve">15.1826019287109</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7378330230713</t>
+    <t xml:space="preserve">15.1826028823853</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7378311157227</t>
   </si>
   <si>
     <t xml:space="preserve">15.9484348297119</t>
@@ -1559,31 +1559,31 @@
     <t xml:space="preserve">15.2400407791138</t>
   </si>
   <si>
-    <t xml:space="preserve">15.6229553222656</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9675798416138</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8335618972778</t>
+    <t xml:space="preserve">15.6229562759399</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9675807952881</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8335599899292</t>
   </si>
   <si>
     <t xml:space="preserve">16.101598739624</t>
   </si>
   <si>
-    <t xml:space="preserve">16.1781845092773</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.2164764404297</t>
+    <t xml:space="preserve">16.1781806945801</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.2164745330811</t>
   </si>
   <si>
     <t xml:space="preserve">16.1973304748535</t>
   </si>
   <si>
-    <t xml:space="preserve">15.814414024353</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.8762693405151</t>
+    <t xml:space="preserve">15.8144149780273</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.8762702941895</t>
   </si>
   <si>
     <t xml:space="preserve">14.8188333511353</t>
@@ -1598,7 +1598,7 @@
     <t xml:space="preserve">15.297477722168</t>
   </si>
   <si>
-    <t xml:space="preserve">15.4889364242554</t>
+    <t xml:space="preserve">15.4889354705811</t>
   </si>
   <si>
     <t xml:space="preserve">16.4079341888428</t>
@@ -1610,7 +1610,7 @@
     <t xml:space="preserve">17.4609527587891</t>
   </si>
   <si>
-    <t xml:space="preserve">17.4800968170166</t>
+    <t xml:space="preserve">17.4800987243652</t>
   </si>
   <si>
     <t xml:space="preserve">17.5183868408203</t>
@@ -1619,16 +1619,16 @@
     <t xml:space="preserve">17.3269309997559</t>
   </si>
   <si>
-    <t xml:space="preserve">17.2886371612549</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.2842197418213</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.6332626342773</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.5758247375488</t>
+    <t xml:space="preserve">17.2886390686035</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.2842216491699</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.633264541626</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.5758266448975</t>
   </si>
   <si>
     <t xml:space="preserve">17.594970703125</t>
@@ -1637,13 +1637,13 @@
     <t xml:space="preserve">17.7289924621582</t>
   </si>
   <si>
-    <t xml:space="preserve">17.2694931030273</t>
+    <t xml:space="preserve">17.269495010376</t>
   </si>
   <si>
     <t xml:space="preserve">17.6141185760498</t>
   </si>
   <si>
-    <t xml:space="preserve">17.6715545654297</t>
+    <t xml:space="preserve">17.6715526580811</t>
   </si>
   <si>
     <t xml:space="preserve">18.0927600860596</t>
@@ -1652,22 +1652,22 @@
     <t xml:space="preserve">18.0544700622559</t>
   </si>
   <si>
-    <t xml:space="preserve">17.7864284515381</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.5566806793213</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.3652248382568</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.7908477783203</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.8099937438965</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.5036602020264</t>
+    <t xml:space="preserve">17.7864303588867</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.5566825866699</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.3652210235596</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.7908496856689</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.8099956512451</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.503662109375</t>
   </si>
   <si>
     <t xml:space="preserve">17.0780334472656</t>
@@ -1676,7 +1676,7 @@
     <t xml:space="preserve">16.3696422576904</t>
   </si>
   <si>
-    <t xml:space="preserve">16.7983684539795</t>
+    <t xml:space="preserve">16.7983703613281</t>
   </si>
   <si>
     <t xml:space="preserve">16.7593955993652</t>
@@ -1688,31 +1688,31 @@
     <t xml:space="preserve">16.6619567871094</t>
   </si>
   <si>
-    <t xml:space="preserve">16.4475898742676</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.2137393951416</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.1942558288574</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.8958072662354</t>
+    <t xml:space="preserve">16.4475917816162</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.213737487793</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.1942539215088</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.895809173584</t>
   </si>
   <si>
     <t xml:space="preserve">17.0322227478027</t>
   </si>
   <si>
-    <t xml:space="preserve">17.0517101287842</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.9737567901611</t>
+    <t xml:space="preserve">17.0517082214355</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.9737606048584</t>
   </si>
   <si>
     <t xml:space="preserve">16.8568305969238</t>
   </si>
   <si>
-    <t xml:space="preserve">16.6424694061279</t>
+    <t xml:space="preserve">16.6424674987793</t>
   </si>
   <si>
     <t xml:space="preserve">16.7399082183838</t>
@@ -1721,10 +1721,10 @@
     <t xml:space="preserve">16.1552753448486</t>
   </si>
   <si>
-    <t xml:space="preserve">16.6814422607422</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.1747627258301</t>
+    <t xml:space="preserve">16.6814479827881</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.1747665405273</t>
   </si>
   <si>
     <t xml:space="preserve">16.2332286834717</t>
@@ -1733,10 +1733,10 @@
     <t xml:space="preserve">16.0773258209229</t>
   </si>
   <si>
-    <t xml:space="preserve">15.9409132003784</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8629636764526</t>
+    <t xml:space="preserve">15.9409122467041</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.862961769104</t>
   </si>
   <si>
     <t xml:space="preserve">15.629111289978</t>
@@ -1748,106 +1748,103 @@
     <t xml:space="preserve">15.5121841430664</t>
   </si>
   <si>
-    <t xml:space="preserve">15.1808929443359</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3952579498291</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4342346191406</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3367948532104</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2978191375732</t>
+    <t xml:space="preserve">15.1808938980103</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3952589035034</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4342336654663</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3367938995361</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2978200912476</t>
   </si>
   <si>
     <t xml:space="preserve">15.2003812789917</t>
   </si>
   <si>
-    <t xml:space="preserve">15.317307472229</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4537200927734</t>
+    <t xml:space="preserve">15.3173084259033</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4537210464478</t>
   </si>
   <si>
     <t xml:space="preserve">15.2588443756104</t>
   </si>
   <si>
-    <t xml:space="preserve">15.0639686584473</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0444784164429</t>
+    <t xml:space="preserve">15.0639677047729</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0444793701172</t>
   </si>
   <si>
     <t xml:space="preserve">14.9080667495728</t>
   </si>
   <si>
-    <t xml:space="preserve">15.6485967636108</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3757705688477</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0249938964844</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2783327102661</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1614065170288</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3562822341919</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9860172271729</t>
+    <t xml:space="preserve">15.6485986709595</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3757696151733</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0249929428101</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1614046096802</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3562831878662</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9860162734985</t>
   </si>
   <si>
     <t xml:space="preserve">14.9470415115356</t>
   </si>
   <si>
-    <t xml:space="preserve">15.1029415130615</t>
+    <t xml:space="preserve">15.1029424667358</t>
   </si>
   <si>
     <t xml:space="preserve">15.2198686599731</t>
   </si>
   <si>
-    <t xml:space="preserve">15.00550365448</t>
+    <t xml:space="preserve">15.0055046081543</t>
   </si>
   <si>
     <t xml:space="preserve">15.0834550857544</t>
   </si>
   <si>
-    <t xml:space="preserve">14.7326765060425</t>
+    <t xml:space="preserve">14.7326774597168</t>
   </si>
   <si>
     <t xml:space="preserve">14.7716522216797</t>
   </si>
   <si>
-    <t xml:space="preserve">14.7911396026611</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.6937007904053</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.8301153182983</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.8106279373169</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.6547269821167</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.6352386474609</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.8496036529541</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1224317550659</t>
+    <t xml:space="preserve">14.7911405563354</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.6937017440796</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.8301162719727</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.8106269836426</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.6547260284424</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.6352396011353</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.8496026992798</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1224308013916</t>
   </si>
   <si>
     <t xml:space="preserve">14.7521657943726</t>
@@ -1856,25 +1853,28 @@
     <t xml:space="preserve">15.5511589050293</t>
   </si>
   <si>
-    <t xml:space="preserve">15.5901346206665</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8824491500854</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7265462875366</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9214248657227</t>
+    <t xml:space="preserve">15.5901355743408</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8824501037598</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7265472412109</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9214239120483</t>
   </si>
   <si>
     <t xml:space="preserve">15.9993753433228</t>
   </si>
   <si>
-    <t xml:space="preserve">15.979887008667</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.0188655853271</t>
+    <t xml:space="preserve">16.3696403503418</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9798879623413</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.0188636779785</t>
   </si>
   <si>
     <t xml:space="preserve">16.116304397583</t>
@@ -1883,19 +1883,19 @@
     <t xml:space="preserve">15.8434743881226</t>
   </si>
   <si>
-    <t xml:space="preserve">15.8239879608154</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.0578365325928</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7850112915039</t>
+    <t xml:space="preserve">15.8239870071411</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.0578384399414</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7850141525269</t>
   </si>
   <si>
     <t xml:space="preserve">15.7070608139038</t>
   </si>
   <si>
-    <t xml:space="preserve">16.0383491516113</t>
+    <t xml:space="preserve">16.03835105896</t>
   </si>
   <si>
     <t xml:space="preserve">16.1357879638672</t>
@@ -1904,43 +1904,43 @@
     <t xml:space="preserve">16.3306674957275</t>
   </si>
   <si>
-    <t xml:space="preserve">17.382999420166</t>
+    <t xml:space="preserve">17.3830013275146</t>
   </si>
   <si>
     <t xml:space="preserve">17.2271003723145</t>
   </si>
   <si>
-    <t xml:space="preserve">17.1686344146729</t>
+    <t xml:space="preserve">17.1686363220215</t>
   </si>
   <si>
     <t xml:space="preserve">17.1101722717285</t>
   </si>
   <si>
-    <t xml:space="preserve">17.207612991333</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.3440246582031</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.4999256134033</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.5132827758789</t>
+    <t xml:space="preserve">17.2076110839844</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.3440227508545</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.4999237060547</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.5132846832275</t>
   </si>
   <si>
     <t xml:space="preserve">18.4158458709717</t>
   </si>
   <si>
-    <t xml:space="preserve">17.8312168121338</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.8896789550781</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.3378944396973</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.2209701538086</t>
+    <t xml:space="preserve">17.8312149047852</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.8896808624268</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.3378963470459</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.2209720611572</t>
   </si>
   <si>
     <t xml:space="preserve">18.3573837280273</t>
@@ -1949,22 +1949,22 @@
     <t xml:space="preserve">18.2014808654785</t>
   </si>
   <si>
-    <t xml:space="preserve">18.1819953918457</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.298921585083</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.1625061035156</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.5522613525391</t>
+    <t xml:space="preserve">18.1819934844971</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.2989196777344</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.1625080108643</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.5522632598877</t>
   </si>
   <si>
     <t xml:space="preserve">19.0004768371582</t>
   </si>
   <si>
-    <t xml:space="preserve">19.3512535095215</t>
+    <t xml:space="preserve">19.3512573242188</t>
   </si>
   <si>
     <t xml:space="preserve">19.2733039855957</t>
@@ -1982,19 +1982,19 @@
     <t xml:space="preserve">19.6825466156006</t>
   </si>
   <si>
-    <t xml:space="preserve">20.0722999572754</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.7799835205078</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.926139831543</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.5363864898682</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.0979156494141</t>
+    <t xml:space="preserve">20.0722980499268</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.7799816131592</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.9261417388916</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.5363845825195</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.0979137420654</t>
   </si>
   <si>
     <t xml:space="preserve">19.877420425415</t>
@@ -2003,49 +2003,49 @@
     <t xml:space="preserve">19.9748592376709</t>
   </si>
   <si>
-    <t xml:space="preserve">20.0235786437988</t>
+    <t xml:space="preserve">20.0235767364502</t>
   </si>
   <si>
     <t xml:space="preserve">19.5851078033447</t>
   </si>
   <si>
-    <t xml:space="preserve">19.8287048339844</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.4620532989502</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.5107707977295</t>
+    <t xml:space="preserve">19.8287029266357</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.4620513916016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.5107688903809</t>
   </si>
   <si>
     <t xml:space="preserve">22.5082550048828</t>
   </si>
   <si>
-    <t xml:space="preserve">21.4364356994629</t>
+    <t xml:space="preserve">21.4364337921143</t>
   </si>
   <si>
     <t xml:space="preserve">21.387716293335</t>
   </si>
   <si>
-    <t xml:space="preserve">21.095401763916</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.9005241394043</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.2902793884277</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.9979610443115</t>
+    <t xml:space="preserve">21.0953998565674</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.9005260467529</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.2902755737305</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.9979629516602</t>
   </si>
   <si>
     <t xml:space="preserve">20.9492435455322</t>
   </si>
   <si>
-    <t xml:space="preserve">20.2184543609619</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.5594902038574</t>
+    <t xml:space="preserve">20.2184562683105</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.5594921112061</t>
   </si>
   <si>
     <t xml:space="preserve">20.2671737670898</t>
@@ -2060,13 +2060,13 @@
     <t xml:space="preserve">21.0466823577881</t>
   </si>
   <si>
-    <t xml:space="preserve">21.1928386688232</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.8518028259277</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.5338745117188</t>
+    <t xml:space="preserve">21.1928405761719</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.8518047332764</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.5338726043701</t>
   </si>
   <si>
     <t xml:space="preserve">21.6800308227539</t>
@@ -2081,22 +2081,22 @@
     <t xml:space="preserve">21.7287502288818</t>
   </si>
   <si>
-    <t xml:space="preserve">22.1185035705566</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.3158950805664</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.3646106719971</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.9809894561768</t>
+    <t xml:space="preserve">22.1185073852539</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.3158931732178</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.3646125793457</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.9809875488281</t>
   </si>
   <si>
     <t xml:space="preserve">18.4353332519531</t>
   </si>
   <si>
-    <t xml:space="preserve">17.8507061004639</t>
+    <t xml:space="preserve">17.8507022857666</t>
   </si>
   <si>
     <t xml:space="preserve">16.5255432128906</t>
@@ -2105,10 +2105,10 @@
     <t xml:space="preserve">16.4086170196533</t>
   </si>
   <si>
-    <t xml:space="preserve">14.6742143630981</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.6157512664795</t>
+    <t xml:space="preserve">14.6742153167725</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.6157503128052</t>
   </si>
   <si>
     <t xml:space="preserve">12.6280088424683</t>
@@ -2117,25 +2117,25 @@
     <t xml:space="preserve">12.1797933578491</t>
   </si>
   <si>
-    <t xml:space="preserve">12.2967176437378</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.8618612289429</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.0762243270874</t>
+    <t xml:space="preserve">12.2967195510864</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.8618602752686</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.0762252807617</t>
   </si>
   <si>
     <t xml:space="preserve">12.1408176422119</t>
   </si>
   <si>
-    <t xml:space="preserve">13.485466003418</t>
+    <t xml:space="preserve">13.4854669570923</t>
   </si>
   <si>
     <t xml:space="preserve">13.7388067245483</t>
   </si>
   <si>
-    <t xml:space="preserve">14.2065095901489</t>
+    <t xml:space="preserve">14.2065105438232</t>
   </si>
   <si>
     <t xml:space="preserve">14.3818988800049</t>
@@ -2147,7 +2147,7 @@
     <t xml:space="preserve">14.3039493560791</t>
   </si>
   <si>
-    <t xml:space="preserve">14.9275541305542</t>
+    <t xml:space="preserve">14.9275531768799</t>
   </si>
   <si>
     <t xml:space="preserve">14.2844610214233</t>
@@ -2156,22 +2156,22 @@
     <t xml:space="preserve">15.6096220016479</t>
   </si>
   <si>
-    <t xml:space="preserve">17.0906867980957</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.3891296386719</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.4281044006348</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6680850982666</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.2722015380859</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.3501529693604</t>
+    <t xml:space="preserve">17.0906848907471</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.3891277313232</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.4281063079834</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6680860519409</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.2722034454346</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.350154876709</t>
   </si>
   <si>
     <t xml:space="preserve">16.2527160644531</t>
@@ -2183,10 +2183,10 @@
     <t xml:space="preserve">17.441463470459</t>
   </si>
   <si>
-    <t xml:space="preserve">16.9347839355469</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.1491508483887</t>
+    <t xml:space="preserve">16.9347820281982</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.14914894104</t>
   </si>
   <si>
     <t xml:space="preserve">17.2855606079102</t>
@@ -2195,19 +2195,19 @@
     <t xml:space="preserve">18.4937973022461</t>
   </si>
   <si>
-    <t xml:space="preserve">18.8835506439209</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.3148860931396</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.0011405944824</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.6873989105225</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.6677875518799</t>
+    <t xml:space="preserve">18.8835487365723</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.3148880004883</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.0011425018311</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.6873970031738</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.6677894592285</t>
   </si>
   <si>
     <t xml:space="preserve">17.4324798583984</t>
@@ -2216,7 +2216,7 @@
     <t xml:space="preserve">17.1775608062744</t>
   </si>
   <si>
-    <t xml:space="preserve">17.6481781005859</t>
+    <t xml:space="preserve">17.6481800079346</t>
   </si>
   <si>
     <t xml:space="preserve">17.8442687988281</t>
@@ -2225,13 +2225,13 @@
     <t xml:space="preserve">17.3932590484619</t>
   </si>
   <si>
-    <t xml:space="preserve">17.8834896087646</t>
+    <t xml:space="preserve">17.883487701416</t>
   </si>
   <si>
     <t xml:space="preserve">17.7266139984131</t>
   </si>
   <si>
-    <t xml:space="preserve">17.9619255065918</t>
+    <t xml:space="preserve">17.9619216918945</t>
   </si>
   <si>
     <t xml:space="preserve">18.5305862426758</t>
@@ -2240,19 +2240,19 @@
     <t xml:space="preserve">18.1776256561279</t>
   </si>
   <si>
-    <t xml:space="preserve">18.2952785491943</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.6286315917969</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.6482429504395</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.13840675354</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.4717597961426</t>
+    <t xml:space="preserve">18.2952766418457</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.6286334991455</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.6482410430908</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.1384048461914</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.4717617034912</t>
   </si>
   <si>
     <t xml:space="preserve">18.4913692474365</t>
@@ -2273,16 +2273,16 @@
     <t xml:space="preserve">19.0796413421631</t>
   </si>
   <si>
-    <t xml:space="preserve">19.0208129882812</t>
+    <t xml:space="preserve">19.0208148956299</t>
   </si>
   <si>
     <t xml:space="preserve">18.9227695465088</t>
   </si>
   <si>
-    <t xml:space="preserve">19.1580791473389</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.2953433990479</t>
+    <t xml:space="preserve">19.1580772399902</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.2953414916992</t>
   </si>
   <si>
     <t xml:space="preserve">19.8542003631592</t>
@@ -2297,13 +2297,13 @@
     <t xml:space="preserve">19.3541698455811</t>
   </si>
   <si>
-    <t xml:space="preserve">18.7070693969727</t>
+    <t xml:space="preserve">18.707067489624</t>
   </si>
   <si>
     <t xml:space="preserve">18.9031620025635</t>
   </si>
   <si>
-    <t xml:space="preserve">19.7561550140381</t>
+    <t xml:space="preserve">19.7561531066895</t>
   </si>
   <si>
     <t xml:space="preserve">19.9032230377197</t>
@@ -2312,10 +2312,10 @@
     <t xml:space="preserve">20.3444271087646</t>
   </si>
   <si>
-    <t xml:space="preserve">20.589542388916</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.8836784362793</t>
+    <t xml:space="preserve">20.5895404815674</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.883674621582</t>
   </si>
   <si>
     <t xml:space="preserve">20.8346557617188</t>
@@ -2324,10 +2324,10 @@
     <t xml:space="preserve">21.3248825073242</t>
   </si>
   <si>
-    <t xml:space="preserve">21.569995880127</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.0111999511719</t>
+    <t xml:space="preserve">21.5699939727783</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.0112018585205</t>
   </si>
   <si>
     <t xml:space="preserve">21.4719505310059</t>
@@ -2336,7 +2336,7 @@
     <t xml:space="preserve">21.8641319274902</t>
   </si>
   <si>
-    <t xml:space="preserve">22.1582660675049</t>
+    <t xml:space="preserve">22.1582698822021</t>
   </si>
   <si>
     <t xml:space="preserve">21.8151092529297</t>
@@ -2345,37 +2345,37 @@
     <t xml:space="preserve">21.6190185546875</t>
   </si>
   <si>
-    <t xml:space="preserve">22.0602226257324</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.7465419769287</t>
+    <t xml:space="preserve">22.0602245330811</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.7465400695801</t>
   </si>
   <si>
     <t xml:space="preserve">23.2367687225342</t>
   </si>
   <si>
-    <t xml:space="preserve">23.0897006988525</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.6289482116699</t>
+    <t xml:space="preserve">23.0896987915039</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.6289501190186</t>
   </si>
   <si>
     <t xml:space="preserve">23.7269954681396</t>
   </si>
   <si>
-    <t xml:space="preserve">24.4133148193359</t>
+    <t xml:space="preserve">24.4133129119873</t>
   </si>
   <si>
     <t xml:space="preserve">25.050609588623</t>
   </si>
   <si>
-    <t xml:space="preserve">24.8054962158203</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.3642921447754</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.0701522827148</t>
+    <t xml:space="preserve">24.8054943084717</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.3642902374268</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.0701541900635</t>
   </si>
   <si>
     <t xml:space="preserve">24.2662448883057</t>
@@ -2384,10 +2384,10 @@
     <t xml:space="preserve">23.9721088409424</t>
   </si>
   <si>
-    <t xml:space="preserve">23.040678024292</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.3348140716553</t>
+    <t xml:space="preserve">23.0406761169434</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.334810256958</t>
   </si>
   <si>
     <t xml:space="preserve">23.7760181427002</t>
@@ -2396,16 +2396,16 @@
     <t xml:space="preserve">23.3838367462158</t>
   </si>
   <si>
-    <t xml:space="preserve">23.1877460479736</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.8445873260498</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.109245300293</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.3543586730957</t>
+    <t xml:space="preserve">23.187744140625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.8445854187012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.1092433929443</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.3543605804443</t>
   </si>
   <si>
     <t xml:space="preserve">21.5209732055664</t>
@@ -2417,34 +2417,34 @@
     <t xml:space="preserve">20.736608505249</t>
   </si>
   <si>
-    <t xml:space="preserve">21.6680431365967</t>
+    <t xml:space="preserve">21.668041229248</t>
   </si>
   <si>
     <t xml:space="preserve">21.3739051818848</t>
   </si>
   <si>
-    <t xml:space="preserve">21.7660865783691</t>
+    <t xml:space="preserve">21.7660884857178</t>
   </si>
   <si>
     <t xml:space="preserve">22.501428604126</t>
   </si>
   <si>
-    <t xml:space="preserve">22.2563133239746</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.2268371582031</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.4033813476562</t>
+    <t xml:space="preserve">22.2563171386719</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.2268352508545</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.4033832550049</t>
   </si>
   <si>
     <t xml:space="preserve">22.648494720459</t>
   </si>
   <si>
-    <t xml:space="preserve">22.2072887420654</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.1387233734131</t>
+    <t xml:space="preserve">22.2072906494141</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.1387214660645</t>
   </si>
   <